--- a/DOC 2023/FORMATO STATUS.xlsx
+++ b/DOC 2023/FORMATO STATUS.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\compañia\OFICINA\DOC 2023\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23EEA583-194F-4E51-893B-12E8E6DCD86B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FEBRERO" sheetId="2" r:id="rId1"/>
     <sheet name="MARZO" sheetId="3" r:id="rId2"/>
     <sheet name="Hoja2" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="109">
   <si>
     <t>DT</t>
   </si>
@@ -334,12 +340,27 @@
   </si>
   <si>
     <t xml:space="preserve">Cristian Abril </t>
+  </si>
+  <si>
+    <t>JUEVES-11-05 2023</t>
+  </si>
+  <si>
+    <t>AAY0116</t>
+  </si>
+  <si>
+    <t>AFU0919</t>
+  </si>
+  <si>
+    <t>mMilton Abril</t>
+  </si>
+  <si>
+    <t>EL ROSADO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
@@ -665,7 +686,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -676,7 +697,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="20" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -700,10 +721,10 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -713,7 +734,7 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -728,10 +749,10 @@
     <xf numFmtId="0" fontId="8" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -758,7 +779,7 @@
     <xf numFmtId="20" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -829,7 +850,7 @@
     <xf numFmtId="20" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="18" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -844,32 +865,23 @@
     <xf numFmtId="20" fontId="7" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -880,12 +892,6 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -893,6 +899,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1172,103 +1190,103 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:Z124"/>
   <sheetViews>
     <sheetView topLeftCell="J103" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" customWidth="1"/>
-    <col min="12" max="12" width="31.140625" customWidth="1"/>
-    <col min="16" max="16" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" customWidth="1"/>
+    <col min="12" max="12" width="31.109375" customWidth="1"/>
+    <col min="16" max="16" width="10.5546875" customWidth="1"/>
     <col min="17" max="17" width="24" customWidth="1"/>
-    <col min="19" max="19" width="21.85546875" customWidth="1"/>
-    <col min="20" max="20" width="18.85546875" customWidth="1"/>
-    <col min="21" max="21" width="13.28515625" customWidth="1"/>
-    <col min="26" max="27" width="17.28515625" customWidth="1"/>
+    <col min="19" max="19" width="21.88671875" customWidth="1"/>
+    <col min="20" max="20" width="18.88671875" customWidth="1"/>
+    <col min="21" max="21" width="13.33203125" customWidth="1"/>
+    <col min="26" max="27" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C2" s="71" t="s">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C2" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="P2" s="73" t="s">
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="P2" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73"/>
-      <c r="V2" s="73"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="73"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="70"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="70"/>
+      <c r="T3" s="70"/>
+      <c r="U3" s="70"/>
+      <c r="V3" s="70"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A4" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="75" t="s">
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="76">
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="78">
         <v>44965</v>
       </c>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="M4" s="74" t="s">
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="M4" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="74"/>
-      <c r="O4" s="74"/>
-      <c r="P4" s="75" t="s">
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="75"/>
-      <c r="R4" s="75"/>
-      <c r="S4" s="75"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="72"/>
+      <c r="S4" s="72"/>
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
-      <c r="V4" s="78">
+      <c r="V4" s="73">
         <v>44601</v>
       </c>
-      <c r="W4" s="79"/>
-      <c r="X4" s="80"/>
-    </row>
-    <row r="5" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="W4" s="74"/>
+      <c r="X4" s="75"/>
+    </row>
+    <row r="5" spans="1:26" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>37</v>
       </c>
@@ -1336,7 +1354,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
         <v>14</v>
@@ -1406,7 +1424,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
         <v>14</v>
@@ -1476,7 +1494,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="3"/>
       <c r="C8" s="2"/>
@@ -1506,7 +1524,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="3"/>
       <c r="C9" s="2"/>
@@ -1533,7 +1551,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="3"/>
       <c r="C10" s="2"/>
@@ -1560,7 +1578,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="3"/>
       <c r="C11" s="2"/>
@@ -1584,7 +1602,7 @@
       <c r="W11" s="4"/>
       <c r="X11" s="15"/>
     </row>
-    <row r="12" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="3"/>
       <c r="C12" s="2"/>
@@ -1608,7 +1626,7 @@
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
     </row>
-    <row r="13" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="3"/>
       <c r="C13" s="2"/>
@@ -1632,7 +1650,7 @@
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
     </row>
-    <row r="14" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="3"/>
       <c r="C14" s="2"/>
@@ -1656,7 +1674,7 @@
       <c r="W14" s="4"/>
       <c r="X14" s="4"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="3"/>
       <c r="C15" s="2"/>
@@ -1680,75 +1698,75 @@
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C22" s="71" t="s">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C22" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="71"/>
-      <c r="P22" s="73" t="s">
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="P22" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="Q22" s="73"/>
-      <c r="R22" s="73"/>
-      <c r="S22" s="73"/>
-      <c r="T22" s="73"/>
-      <c r="U22" s="73"/>
-      <c r="V22" s="73"/>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="P23" s="73"/>
-      <c r="Q23" s="73"/>
-      <c r="R23" s="73"/>
-      <c r="S23" s="73"/>
-      <c r="T23" s="73"/>
-      <c r="U23" s="73"/>
-      <c r="V23" s="73"/>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="74" t="s">
+      <c r="Q22" s="70"/>
+      <c r="R22" s="70"/>
+      <c r="S22" s="70"/>
+      <c r="T22" s="70"/>
+      <c r="U22" s="70"/>
+      <c r="V22" s="70"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="P23" s="70"/>
+      <c r="Q23" s="70"/>
+      <c r="R23" s="70"/>
+      <c r="S23" s="70"/>
+      <c r="T23" s="70"/>
+      <c r="U23" s="70"/>
+      <c r="V23" s="70"/>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A24" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="74"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="75" t="s">
+      <c r="B24" s="71"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="75"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="76">
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="78">
         <v>44965</v>
       </c>
-      <c r="I24" s="77"/>
-      <c r="J24" s="77"/>
-      <c r="M24" s="74" t="s">
+      <c r="I24" s="79"/>
+      <c r="J24" s="79"/>
+      <c r="M24" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="N24" s="74"/>
-      <c r="O24" s="74"/>
-      <c r="P24" s="75" t="s">
+      <c r="N24" s="71"/>
+      <c r="O24" s="71"/>
+      <c r="P24" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="Q24" s="75"/>
-      <c r="R24" s="75"/>
-      <c r="S24" s="75"/>
+      <c r="Q24" s="72"/>
+      <c r="R24" s="72"/>
+      <c r="S24" s="72"/>
       <c r="T24" s="18"/>
       <c r="U24" s="18"/>
-      <c r="V24" s="78">
+      <c r="V24" s="73">
         <v>44971</v>
       </c>
-      <c r="W24" s="79"/>
-      <c r="X24" s="80"/>
-    </row>
-    <row r="25" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="W24" s="74"/>
+      <c r="X24" s="75"/>
+    </row>
+    <row r="25" spans="1:26" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>0</v>
       </c>
@@ -1816,7 +1834,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="3" t="s">
         <v>35</v>
@@ -1886,7 +1904,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="3" t="s">
         <v>35</v>
@@ -1956,7 +1974,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="27"/>
       <c r="B28" s="28"/>
       <c r="C28" s="29"/>
@@ -1986,7 +2004,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="3" t="s">
         <v>35</v>
@@ -2053,7 +2071,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" ht="24" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="3"/>
       <c r="C30" s="2"/>
@@ -2080,7 +2098,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="3"/>
       <c r="C31" s="2"/>
@@ -2104,7 +2122,7 @@
       <c r="W31" s="4"/>
       <c r="X31" s="15"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="3"/>
       <c r="C32" s="2"/>
@@ -2128,7 +2146,7 @@
       <c r="W32" s="4"/>
       <c r="X32" s="4"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="3"/>
       <c r="C33" s="2"/>
@@ -2152,7 +2170,7 @@
       <c r="W33" s="4"/>
       <c r="X33" s="4"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="3"/>
       <c r="C34" s="2"/>
@@ -2176,7 +2194,7 @@
       <c r="W34" s="4"/>
       <c r="X34" s="4"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="3"/>
       <c r="C35" s="2"/>
@@ -2200,75 +2218,75 @@
       <c r="W35" s="4"/>
       <c r="X35" s="4"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C38" s="71" t="s">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C38" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="71"/>
-      <c r="E38" s="71"/>
-      <c r="F38" s="71"/>
-      <c r="G38" s="71"/>
-      <c r="P38" s="73" t="s">
+      <c r="D38" s="76"/>
+      <c r="E38" s="76"/>
+      <c r="F38" s="76"/>
+      <c r="G38" s="76"/>
+      <c r="P38" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="Q38" s="73"/>
-      <c r="R38" s="73"/>
-      <c r="S38" s="73"/>
-      <c r="T38" s="73"/>
-      <c r="U38" s="73"/>
-      <c r="V38" s="73"/>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C39" s="72"/>
-      <c r="D39" s="72"/>
-      <c r="E39" s="72"/>
-      <c r="F39" s="72"/>
-      <c r="G39" s="72"/>
-      <c r="P39" s="73"/>
-      <c r="Q39" s="73"/>
-      <c r="R39" s="73"/>
-      <c r="S39" s="73"/>
-      <c r="T39" s="73"/>
-      <c r="U39" s="73"/>
-      <c r="V39" s="73"/>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A40" s="74" t="s">
+      <c r="Q38" s="70"/>
+      <c r="R38" s="70"/>
+      <c r="S38" s="70"/>
+      <c r="T38" s="70"/>
+      <c r="U38" s="70"/>
+      <c r="V38" s="70"/>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C39" s="77"/>
+      <c r="D39" s="77"/>
+      <c r="E39" s="77"/>
+      <c r="F39" s="77"/>
+      <c r="G39" s="77"/>
+      <c r="P39" s="70"/>
+      <c r="Q39" s="70"/>
+      <c r="R39" s="70"/>
+      <c r="S39" s="70"/>
+      <c r="T39" s="70"/>
+      <c r="U39" s="70"/>
+      <c r="V39" s="70"/>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A40" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="74"/>
-      <c r="C40" s="74"/>
-      <c r="D40" s="75" t="s">
+      <c r="B40" s="71"/>
+      <c r="C40" s="71"/>
+      <c r="D40" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="E40" s="75"/>
-      <c r="F40" s="75"/>
-      <c r="G40" s="75"/>
-      <c r="H40" s="76">
+      <c r="E40" s="72"/>
+      <c r="F40" s="72"/>
+      <c r="G40" s="72"/>
+      <c r="H40" s="78">
         <v>44972</v>
       </c>
-      <c r="I40" s="77"/>
-      <c r="J40" s="77"/>
-      <c r="M40" s="74" t="s">
+      <c r="I40" s="79"/>
+      <c r="J40" s="79"/>
+      <c r="M40" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="N40" s="74"/>
-      <c r="O40" s="74"/>
-      <c r="P40" s="75" t="s">
+      <c r="N40" s="71"/>
+      <c r="O40" s="71"/>
+      <c r="P40" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="Q40" s="75"/>
-      <c r="R40" s="75"/>
-      <c r="S40" s="75"/>
+      <c r="Q40" s="72"/>
+      <c r="R40" s="72"/>
+      <c r="S40" s="72"/>
       <c r="T40" s="18"/>
       <c r="U40" s="18"/>
-      <c r="V40" s="78">
+      <c r="V40" s="73">
         <v>44973</v>
       </c>
-      <c r="W40" s="79"/>
-      <c r="X40" s="80"/>
-    </row>
-    <row r="41" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="W40" s="74"/>
+      <c r="X40" s="75"/>
+    </row>
+    <row r="41" spans="1:26" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>0</v>
       </c>
@@ -2336,7 +2354,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="3" t="s">
         <v>35</v>
@@ -2406,7 +2424,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="3" t="s">
         <v>35</v>
@@ -2476,7 +2494,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="27"/>
       <c r="B44" s="28"/>
       <c r="C44" s="29"/>
@@ -2506,7 +2524,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="28"/>
       <c r="C45" s="29"/>
@@ -2533,7 +2551,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:26" ht="24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" ht="24" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="3"/>
       <c r="C46" s="2"/>
@@ -2560,7 +2578,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="3"/>
       <c r="C47" s="2"/>
@@ -2584,7 +2602,7 @@
       <c r="W47" s="4"/>
       <c r="X47" s="15"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="3"/>
       <c r="C48" s="2"/>
@@ -2608,7 +2626,7 @@
       <c r="W48" s="4"/>
       <c r="X48" s="4"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="3"/>
       <c r="C49" s="2"/>
@@ -2632,7 +2650,7 @@
       <c r="W49" s="4"/>
       <c r="X49" s="4"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="3"/>
       <c r="C50" s="2"/>
@@ -2656,7 +2674,7 @@
       <c r="W50" s="4"/>
       <c r="X50" s="4"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="3"/>
       <c r="C51" s="2"/>
@@ -2680,75 +2698,75 @@
       <c r="W51" s="4"/>
       <c r="X51" s="4"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C54" s="71" t="s">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C54" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="D54" s="71"/>
-      <c r="E54" s="71"/>
-      <c r="F54" s="71"/>
-      <c r="G54" s="71"/>
-      <c r="P54" s="73" t="s">
+      <c r="D54" s="76"/>
+      <c r="E54" s="76"/>
+      <c r="F54" s="76"/>
+      <c r="G54" s="76"/>
+      <c r="P54" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="Q54" s="73"/>
-      <c r="R54" s="73"/>
-      <c r="S54" s="73"/>
-      <c r="T54" s="73"/>
-      <c r="U54" s="73"/>
-      <c r="V54" s="73"/>
-    </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C55" s="72"/>
-      <c r="D55" s="72"/>
-      <c r="E55" s="72"/>
-      <c r="F55" s="72"/>
-      <c r="G55" s="72"/>
-      <c r="P55" s="73"/>
-      <c r="Q55" s="73"/>
-      <c r="R55" s="73"/>
-      <c r="S55" s="73"/>
-      <c r="T55" s="73"/>
-      <c r="U55" s="73"/>
-      <c r="V55" s="73"/>
-    </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A56" s="74" t="s">
+      <c r="Q54" s="70"/>
+      <c r="R54" s="70"/>
+      <c r="S54" s="70"/>
+      <c r="T54" s="70"/>
+      <c r="U54" s="70"/>
+      <c r="V54" s="70"/>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C55" s="77"/>
+      <c r="D55" s="77"/>
+      <c r="E55" s="77"/>
+      <c r="F55" s="77"/>
+      <c r="G55" s="77"/>
+      <c r="P55" s="70"/>
+      <c r="Q55" s="70"/>
+      <c r="R55" s="70"/>
+      <c r="S55" s="70"/>
+      <c r="T55" s="70"/>
+      <c r="U55" s="70"/>
+      <c r="V55" s="70"/>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A56" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="74"/>
-      <c r="C56" s="74"/>
-      <c r="D56" s="75" t="s">
+      <c r="B56" s="71"/>
+      <c r="C56" s="71"/>
+      <c r="D56" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="E56" s="75"/>
-      <c r="F56" s="75"/>
-      <c r="G56" s="75"/>
-      <c r="H56" s="76">
+      <c r="E56" s="72"/>
+      <c r="F56" s="72"/>
+      <c r="G56" s="72"/>
+      <c r="H56" s="78">
         <v>44974</v>
       </c>
-      <c r="I56" s="77"/>
-      <c r="J56" s="77"/>
-      <c r="M56" s="74" t="s">
+      <c r="I56" s="79"/>
+      <c r="J56" s="79"/>
+      <c r="M56" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="N56" s="74"/>
-      <c r="O56" s="74"/>
-      <c r="P56" s="75" t="s">
+      <c r="N56" s="71"/>
+      <c r="O56" s="71"/>
+      <c r="P56" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="Q56" s="75"/>
-      <c r="R56" s="75"/>
-      <c r="S56" s="75"/>
+      <c r="Q56" s="72"/>
+      <c r="R56" s="72"/>
+      <c r="S56" s="72"/>
       <c r="T56" s="18"/>
       <c r="U56" s="18"/>
-      <c r="V56" s="78">
+      <c r="V56" s="73">
         <v>44975</v>
       </c>
-      <c r="W56" s="79"/>
-      <c r="X56" s="80"/>
-    </row>
-    <row r="57" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="W56" s="74"/>
+      <c r="X56" s="75"/>
+    </row>
+    <row r="57" spans="1:26" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>0</v>
       </c>
@@ -2816,7 +2834,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="3" t="s">
         <v>35</v>
@@ -2886,7 +2904,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="3" t="s">
         <v>35</v>
@@ -2956,7 +2974,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A60" s="27"/>
       <c r="B60" s="3" t="s">
         <v>35</v>
@@ -3026,7 +3044,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="28"/>
       <c r="C61" s="29"/>
@@ -3053,7 +3071,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:26" ht="24" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" ht="24" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="3"/>
       <c r="C62" s="2"/>
@@ -3080,7 +3098,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="3"/>
       <c r="C63" s="2"/>
@@ -3104,7 +3122,7 @@
       <c r="W63" s="4"/>
       <c r="X63" s="15"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="3"/>
       <c r="C64" s="2"/>
@@ -3128,7 +3146,7 @@
       <c r="W64" s="4"/>
       <c r="X64" s="4"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="3"/>
       <c r="C65" s="2"/>
@@ -3152,7 +3170,7 @@
       <c r="W65" s="4"/>
       <c r="X65" s="4"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="3"/>
       <c r="C66" s="2"/>
@@ -3176,7 +3194,7 @@
       <c r="W66" s="4"/>
       <c r="X66" s="4"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="3"/>
       <c r="C67" s="2"/>
@@ -3200,75 +3218,75 @@
       <c r="W67" s="4"/>
       <c r="X67" s="4"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C70" s="71" t="s">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C70" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="D70" s="71"/>
-      <c r="E70" s="71"/>
-      <c r="F70" s="71"/>
-      <c r="G70" s="71"/>
-      <c r="P70" s="73" t="s">
+      <c r="D70" s="76"/>
+      <c r="E70" s="76"/>
+      <c r="F70" s="76"/>
+      <c r="G70" s="76"/>
+      <c r="P70" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="Q70" s="73"/>
-      <c r="R70" s="73"/>
-      <c r="S70" s="73"/>
-      <c r="T70" s="73"/>
-      <c r="U70" s="73"/>
-      <c r="V70" s="73"/>
-    </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C71" s="72"/>
-      <c r="D71" s="72"/>
-      <c r="E71" s="72"/>
-      <c r="F71" s="72"/>
-      <c r="G71" s="72"/>
-      <c r="P71" s="73"/>
-      <c r="Q71" s="73"/>
-      <c r="R71" s="73"/>
-      <c r="S71" s="73"/>
-      <c r="T71" s="73"/>
-      <c r="U71" s="73"/>
-      <c r="V71" s="73"/>
-    </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A72" s="74" t="s">
+      <c r="Q70" s="70"/>
+      <c r="R70" s="70"/>
+      <c r="S70" s="70"/>
+      <c r="T70" s="70"/>
+      <c r="U70" s="70"/>
+      <c r="V70" s="70"/>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C71" s="77"/>
+      <c r="D71" s="77"/>
+      <c r="E71" s="77"/>
+      <c r="F71" s="77"/>
+      <c r="G71" s="77"/>
+      <c r="P71" s="70"/>
+      <c r="Q71" s="70"/>
+      <c r="R71" s="70"/>
+      <c r="S71" s="70"/>
+      <c r="T71" s="70"/>
+      <c r="U71" s="70"/>
+      <c r="V71" s="70"/>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A72" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="B72" s="74"/>
-      <c r="C72" s="74"/>
-      <c r="D72" s="75" t="s">
+      <c r="B72" s="71"/>
+      <c r="C72" s="71"/>
+      <c r="D72" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="E72" s="75"/>
-      <c r="F72" s="75"/>
-      <c r="G72" s="75"/>
-      <c r="H72" s="76">
+      <c r="E72" s="72"/>
+      <c r="F72" s="72"/>
+      <c r="G72" s="72"/>
+      <c r="H72" s="78">
         <v>44979</v>
       </c>
-      <c r="I72" s="77"/>
-      <c r="J72" s="77"/>
-      <c r="M72" s="74" t="s">
+      <c r="I72" s="79"/>
+      <c r="J72" s="79"/>
+      <c r="M72" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="N72" s="74"/>
-      <c r="O72" s="74"/>
-      <c r="P72" s="75" t="s">
+      <c r="N72" s="71"/>
+      <c r="O72" s="71"/>
+      <c r="P72" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="Q72" s="75"/>
-      <c r="R72" s="75"/>
-      <c r="S72" s="75"/>
+      <c r="Q72" s="72"/>
+      <c r="R72" s="72"/>
+      <c r="S72" s="72"/>
       <c r="T72" s="18"/>
       <c r="U72" s="18"/>
-      <c r="V72" s="78">
+      <c r="V72" s="73">
         <v>44980</v>
       </c>
-      <c r="W72" s="79"/>
-      <c r="X72" s="80"/>
-    </row>
-    <row r="73" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="W72" s="74"/>
+      <c r="X72" s="75"/>
+    </row>
+    <row r="73" spans="1:26" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>0</v>
       </c>
@@ -3336,7 +3354,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="3" t="s">
         <v>35</v>
@@ -3402,7 +3420,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="3"/>
       <c r="C75" s="2"/>
@@ -3432,7 +3450,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A76" s="27"/>
       <c r="B76" s="3"/>
       <c r="C76" s="2"/>
@@ -3462,7 +3480,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="28"/>
       <c r="C77" s="29"/>
@@ -3489,7 +3507,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:26" ht="24" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" ht="24" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="3"/>
       <c r="C78" s="2"/>
@@ -3516,7 +3534,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="3"/>
       <c r="C79" s="2"/>
@@ -3540,7 +3558,7 @@
       <c r="W79" s="4"/>
       <c r="X79" s="15"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="3"/>
       <c r="C80" s="2"/>
@@ -3564,7 +3582,7 @@
       <c r="W80" s="4"/>
       <c r="X80" s="4"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="3"/>
       <c r="C81" s="2"/>
@@ -3588,7 +3606,7 @@
       <c r="W81" s="4"/>
       <c r="X81" s="4"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="3"/>
       <c r="C82" s="2"/>
@@ -3612,7 +3630,7 @@
       <c r="W82" s="4"/>
       <c r="X82" s="4"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="3"/>
       <c r="C83" s="2"/>
@@ -3636,75 +3654,75 @@
       <c r="W83" s="4"/>
       <c r="X83" s="4"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C87" s="71" t="s">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C87" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="D87" s="71"/>
-      <c r="E87" s="71"/>
-      <c r="F87" s="71"/>
-      <c r="G87" s="71"/>
-      <c r="P87" s="73" t="s">
+      <c r="D87" s="76"/>
+      <c r="E87" s="76"/>
+      <c r="F87" s="76"/>
+      <c r="G87" s="76"/>
+      <c r="P87" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="Q87" s="73"/>
-      <c r="R87" s="73"/>
-      <c r="S87" s="73"/>
-      <c r="T87" s="73"/>
-      <c r="U87" s="73"/>
-      <c r="V87" s="73"/>
-    </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C88" s="72"/>
-      <c r="D88" s="72"/>
-      <c r="E88" s="72"/>
-      <c r="F88" s="72"/>
-      <c r="G88" s="72"/>
-      <c r="P88" s="73"/>
-      <c r="Q88" s="73"/>
-      <c r="R88" s="73"/>
-      <c r="S88" s="73"/>
-      <c r="T88" s="73"/>
-      <c r="U88" s="73"/>
-      <c r="V88" s="73"/>
-    </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A89" s="74" t="s">
+      <c r="Q87" s="70"/>
+      <c r="R87" s="70"/>
+      <c r="S87" s="70"/>
+      <c r="T87" s="70"/>
+      <c r="U87" s="70"/>
+      <c r="V87" s="70"/>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C88" s="77"/>
+      <c r="D88" s="77"/>
+      <c r="E88" s="77"/>
+      <c r="F88" s="77"/>
+      <c r="G88" s="77"/>
+      <c r="P88" s="70"/>
+      <c r="Q88" s="70"/>
+      <c r="R88" s="70"/>
+      <c r="S88" s="70"/>
+      <c r="T88" s="70"/>
+      <c r="U88" s="70"/>
+      <c r="V88" s="70"/>
+    </row>
+    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A89" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="B89" s="74"/>
-      <c r="C89" s="74"/>
-      <c r="D89" s="75" t="s">
+      <c r="B89" s="71"/>
+      <c r="C89" s="71"/>
+      <c r="D89" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="E89" s="75"/>
-      <c r="F89" s="75"/>
-      <c r="G89" s="75"/>
-      <c r="H89" s="76">
+      <c r="E89" s="72"/>
+      <c r="F89" s="72"/>
+      <c r="G89" s="72"/>
+      <c r="H89" s="78">
         <v>44981</v>
       </c>
-      <c r="I89" s="77"/>
-      <c r="J89" s="77"/>
-      <c r="M89" s="74" t="s">
+      <c r="I89" s="79"/>
+      <c r="J89" s="79"/>
+      <c r="M89" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="N89" s="74"/>
-      <c r="O89" s="74"/>
-      <c r="P89" s="75" t="s">
+      <c r="N89" s="71"/>
+      <c r="O89" s="71"/>
+      <c r="P89" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="Q89" s="75"/>
-      <c r="R89" s="75"/>
-      <c r="S89" s="75"/>
+      <c r="Q89" s="72"/>
+      <c r="R89" s="72"/>
+      <c r="S89" s="72"/>
       <c r="T89" s="18"/>
       <c r="U89" s="18"/>
-      <c r="V89" s="78">
+      <c r="V89" s="73">
         <v>44980</v>
       </c>
-      <c r="W89" s="79"/>
-      <c r="X89" s="80"/>
-    </row>
-    <row r="90" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="W89" s="74"/>
+      <c r="X89" s="75"/>
+    </row>
+    <row r="90" spans="1:26" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
         <v>0</v>
       </c>
@@ -3772,7 +3790,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="3" t="s">
         <v>35</v>
@@ -3842,7 +3860,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="3" t="s">
         <v>35</v>
@@ -3912,7 +3930,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A93" s="27"/>
       <c r="B93" s="3" t="s">
         <v>35</v>
@@ -3982,7 +4000,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="28"/>
       <c r="C94" s="29"/>
@@ -4009,7 +4027,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:26" ht="24" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" ht="24" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="3"/>
       <c r="C95" s="2"/>
@@ -4036,7 +4054,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="3"/>
       <c r="C96" s="2"/>
@@ -4060,7 +4078,7 @@
       <c r="W96" s="4"/>
       <c r="X96" s="15"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="3"/>
       <c r="C97" s="2"/>
@@ -4084,7 +4102,7 @@
       <c r="W97" s="4"/>
       <c r="X97" s="4"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="B98" s="3"/>
       <c r="C98" s="2"/>
@@ -4108,7 +4126,7 @@
       <c r="W98" s="4"/>
       <c r="X98" s="4"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="3"/>
       <c r="C99" s="2"/>
@@ -4132,7 +4150,7 @@
       <c r="W99" s="4"/>
       <c r="X99" s="4"/>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
       <c r="B100" s="3"/>
       <c r="C100" s="2"/>
@@ -4156,75 +4174,75 @@
       <c r="W100" s="4"/>
       <c r="X100" s="4"/>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C104" s="71" t="s">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C104" s="76" t="s">
         <v>70</v>
       </c>
-      <c r="D104" s="71"/>
-      <c r="E104" s="71"/>
-      <c r="F104" s="71"/>
-      <c r="G104" s="71"/>
-      <c r="P104" s="73" t="s">
+      <c r="D104" s="76"/>
+      <c r="E104" s="76"/>
+      <c r="F104" s="76"/>
+      <c r="G104" s="76"/>
+      <c r="P104" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="Q104" s="73"/>
-      <c r="R104" s="73"/>
-      <c r="S104" s="73"/>
-      <c r="T104" s="73"/>
-      <c r="U104" s="73"/>
-      <c r="V104" s="73"/>
-    </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C105" s="72"/>
-      <c r="D105" s="72"/>
-      <c r="E105" s="72"/>
-      <c r="F105" s="72"/>
-      <c r="G105" s="72"/>
-      <c r="P105" s="73"/>
-      <c r="Q105" s="73"/>
-      <c r="R105" s="73"/>
-      <c r="S105" s="73"/>
-      <c r="T105" s="73"/>
-      <c r="U105" s="73"/>
-      <c r="V105" s="73"/>
-    </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A106" s="74" t="s">
+      <c r="Q104" s="70"/>
+      <c r="R104" s="70"/>
+      <c r="S104" s="70"/>
+      <c r="T104" s="70"/>
+      <c r="U104" s="70"/>
+      <c r="V104" s="70"/>
+    </row>
+    <row r="105" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C105" s="77"/>
+      <c r="D105" s="77"/>
+      <c r="E105" s="77"/>
+      <c r="F105" s="77"/>
+      <c r="G105" s="77"/>
+      <c r="P105" s="70"/>
+      <c r="Q105" s="70"/>
+      <c r="R105" s="70"/>
+      <c r="S105" s="70"/>
+      <c r="T105" s="70"/>
+      <c r="U105" s="70"/>
+      <c r="V105" s="70"/>
+    </row>
+    <row r="106" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A106" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="B106" s="74"/>
-      <c r="C106" s="74"/>
-      <c r="D106" s="75" t="s">
+      <c r="B106" s="71"/>
+      <c r="C106" s="71"/>
+      <c r="D106" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="E106" s="75"/>
-      <c r="F106" s="75"/>
-      <c r="G106" s="75"/>
-      <c r="H106" s="76">
+      <c r="E106" s="72"/>
+      <c r="F106" s="72"/>
+      <c r="G106" s="72"/>
+      <c r="H106" s="78">
         <v>44979</v>
       </c>
-      <c r="I106" s="77"/>
-      <c r="J106" s="77"/>
-      <c r="M106" s="74" t="s">
+      <c r="I106" s="79"/>
+      <c r="J106" s="79"/>
+      <c r="M106" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="N106" s="74"/>
-      <c r="O106" s="74"/>
-      <c r="P106" s="75" t="s">
+      <c r="N106" s="71"/>
+      <c r="O106" s="71"/>
+      <c r="P106" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="Q106" s="75"/>
-      <c r="R106" s="75"/>
-      <c r="S106" s="75"/>
+      <c r="Q106" s="72"/>
+      <c r="R106" s="72"/>
+      <c r="S106" s="72"/>
       <c r="T106" s="18"/>
       <c r="U106" s="18"/>
-      <c r="V106" s="78" t="s">
+      <c r="V106" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="W106" s="79"/>
-      <c r="X106" s="80"/>
-    </row>
-    <row r="107" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="W106" s="74"/>
+      <c r="X106" s="75"/>
+    </row>
+    <row r="107" spans="1:26" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
         <v>0</v>
       </c>
@@ -4292,7 +4310,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="108" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
       <c r="B108" s="48" t="s">
         <v>35</v>
@@ -4362,7 +4380,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="48" t="s">
         <v>35</v>
@@ -4432,7 +4450,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="27"/>
       <c r="B110" s="48" t="s">
         <v>35</v>
@@ -4502,7 +4520,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" s="48" t="s">
         <v>35</v>
@@ -4569,7 +4587,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:26" ht="24" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:26" ht="24" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
       <c r="B112" s="48"/>
       <c r="C112" s="49"/>
@@ -4596,7 +4614,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" s="3"/>
       <c r="C113" s="2"/>
@@ -4620,7 +4638,7 @@
       <c r="W113" s="4"/>
       <c r="X113" s="15"/>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
       <c r="B114" s="3"/>
       <c r="C114" s="2"/>
@@ -4644,7 +4662,7 @@
       <c r="W114" s="4"/>
       <c r="X114" s="4"/>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
       <c r="B115" s="3"/>
       <c r="C115" s="2"/>
@@ -4668,7 +4686,7 @@
       <c r="W115" s="4"/>
       <c r="X115" s="4"/>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
       <c r="B116" s="3"/>
       <c r="C116" s="2"/>
@@ -4692,7 +4710,7 @@
       <c r="W116" s="4"/>
       <c r="X116" s="4"/>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
       <c r="B117" s="3"/>
       <c r="C117" s="2"/>
@@ -4716,10 +4734,58 @@
       <c r="W117" s="4"/>
       <c r="X117" s="4"/>
     </row>
-    <row r="123" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="C104:G105"/>
+    <mergeCell ref="P104:V105"/>
+    <mergeCell ref="A106:C106"/>
+    <mergeCell ref="D106:G106"/>
+    <mergeCell ref="H106:J106"/>
+    <mergeCell ref="M106:O106"/>
+    <mergeCell ref="P106:S106"/>
+    <mergeCell ref="V106:X106"/>
+    <mergeCell ref="C87:G88"/>
+    <mergeCell ref="P87:V88"/>
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="D89:G89"/>
+    <mergeCell ref="H89:J89"/>
+    <mergeCell ref="M89:O89"/>
+    <mergeCell ref="P89:S89"/>
+    <mergeCell ref="V89:X89"/>
+    <mergeCell ref="C70:G71"/>
+    <mergeCell ref="P70:V71"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="D72:G72"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="M72:O72"/>
+    <mergeCell ref="P72:S72"/>
+    <mergeCell ref="V72:X72"/>
+    <mergeCell ref="C54:G55"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="P54:V55"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="P56:S56"/>
+    <mergeCell ref="V56:X56"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="C2:G3"/>
+    <mergeCell ref="P2:V3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="C22:G23"/>
+    <mergeCell ref="P22:V23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="V24:X24"/>
     <mergeCell ref="P38:V39"/>
     <mergeCell ref="M40:O40"/>
     <mergeCell ref="P40:S40"/>
@@ -4728,54 +4794,6 @@
     <mergeCell ref="A40:C40"/>
     <mergeCell ref="D40:G40"/>
     <mergeCell ref="H40:J40"/>
-    <mergeCell ref="C22:G23"/>
-    <mergeCell ref="P22:V23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="C2:G3"/>
-    <mergeCell ref="P2:V3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="C54:G55"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="P54:V55"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="P56:S56"/>
-    <mergeCell ref="V56:X56"/>
-    <mergeCell ref="C70:G71"/>
-    <mergeCell ref="P70:V71"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="D72:G72"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="M72:O72"/>
-    <mergeCell ref="P72:S72"/>
-    <mergeCell ref="V72:X72"/>
-    <mergeCell ref="C87:G88"/>
-    <mergeCell ref="P87:V88"/>
-    <mergeCell ref="A89:C89"/>
-    <mergeCell ref="D89:G89"/>
-    <mergeCell ref="H89:J89"/>
-    <mergeCell ref="M89:O89"/>
-    <mergeCell ref="P89:S89"/>
-    <mergeCell ref="V89:X89"/>
-    <mergeCell ref="C104:G105"/>
-    <mergeCell ref="P104:V105"/>
-    <mergeCell ref="A106:C106"/>
-    <mergeCell ref="D106:G106"/>
-    <mergeCell ref="H106:J106"/>
-    <mergeCell ref="M106:O106"/>
-    <mergeCell ref="P106:S106"/>
-    <mergeCell ref="V106:X106"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4783,97 +4801,97 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Z181"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A2:Z194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L164" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="S157" sqref="S157"/>
+    <sheetView tabSelected="1" topLeftCell="M172" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M186" sqref="M186:X192"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" customWidth="1"/>
-    <col min="12" max="12" width="31.140625" customWidth="1"/>
-    <col min="16" max="16" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" customWidth="1"/>
+    <col min="12" max="12" width="31.109375" customWidth="1"/>
+    <col min="16" max="16" width="10.5546875" customWidth="1"/>
     <col min="17" max="17" width="24" customWidth="1"/>
-    <col min="19" max="19" width="21.85546875" customWidth="1"/>
-    <col min="20" max="20" width="18.85546875" customWidth="1"/>
-    <col min="21" max="21" width="13.28515625" customWidth="1"/>
+    <col min="19" max="19" width="21.88671875" customWidth="1"/>
+    <col min="20" max="20" width="18.88671875" customWidth="1"/>
+    <col min="21" max="21" width="13.33203125" customWidth="1"/>
     <col min="23" max="23" width="15" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="17.28515625" customWidth="1"/>
+    <col min="26" max="27" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C2" s="71" t="s">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C2" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="P2" s="73" t="s">
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="P2" s="70" t="s">
         <v>76</v>
       </c>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73"/>
-      <c r="V2" s="73"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="73"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="70"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="70"/>
+      <c r="T3" s="70"/>
+      <c r="U3" s="70"/>
+      <c r="V3" s="70"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A4" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="75" t="s">
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="76" t="s">
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="M4" s="74" t="s">
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="M4" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="74"/>
-      <c r="O4" s="74"/>
-      <c r="P4" s="75" t="s">
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="75"/>
-      <c r="R4" s="75"/>
-      <c r="S4" s="75"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="72"/>
+      <c r="S4" s="72"/>
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
-      <c r="V4" s="78">
+      <c r="V4" s="73">
         <v>44601</v>
       </c>
-      <c r="W4" s="79"/>
-      <c r="X4" s="80"/>
-    </row>
-    <row r="5" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="W4" s="74"/>
+      <c r="X4" s="75"/>
+    </row>
+    <row r="5" spans="1:26" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>37</v>
       </c>
@@ -4941,7 +4959,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="54">
         <v>44991</v>
       </c>
@@ -5015,7 +5033,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="54">
         <v>44992</v>
       </c>
@@ -5089,7 +5107,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="54">
         <v>44992</v>
       </c>
@@ -5163,7 +5181,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="3"/>
       <c r="C9" s="2"/>
@@ -5190,7 +5208,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="3"/>
       <c r="C10" s="2"/>
@@ -5217,7 +5235,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="3"/>
       <c r="C11" s="2"/>
@@ -5241,7 +5259,7 @@
       <c r="W11" s="4"/>
       <c r="X11" s="15"/>
     </row>
-    <row r="12" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="3"/>
       <c r="C12" s="2"/>
@@ -5265,7 +5283,7 @@
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
     </row>
-    <row r="13" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="3"/>
       <c r="C13" s="2"/>
@@ -5289,7 +5307,7 @@
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
     </row>
-    <row r="14" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="3"/>
       <c r="C14" s="2"/>
@@ -5313,7 +5331,7 @@
       <c r="W14" s="4"/>
       <c r="X14" s="4"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="3"/>
       <c r="C15" s="2"/>
@@ -5337,75 +5355,75 @@
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C22" s="71" t="s">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C22" s="76" t="s">
         <v>75</v>
       </c>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="71"/>
-      <c r="P22" s="73" t="s">
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="P22" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="Q22" s="73"/>
-      <c r="R22" s="73"/>
-      <c r="S22" s="73"/>
-      <c r="T22" s="73"/>
-      <c r="U22" s="73"/>
-      <c r="V22" s="73"/>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="P23" s="73"/>
-      <c r="Q23" s="73"/>
-      <c r="R23" s="73"/>
-      <c r="S23" s="73"/>
-      <c r="T23" s="73"/>
-      <c r="U23" s="73"/>
-      <c r="V23" s="73"/>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="74" t="s">
+      <c r="Q22" s="70"/>
+      <c r="R22" s="70"/>
+      <c r="S22" s="70"/>
+      <c r="T22" s="70"/>
+      <c r="U22" s="70"/>
+      <c r="V22" s="70"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="P23" s="70"/>
+      <c r="Q23" s="70"/>
+      <c r="R23" s="70"/>
+      <c r="S23" s="70"/>
+      <c r="T23" s="70"/>
+      <c r="U23" s="70"/>
+      <c r="V23" s="70"/>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A24" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="74"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="75" t="s">
+      <c r="B24" s="71"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="75"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="76">
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="78">
         <v>44993</v>
       </c>
-      <c r="I24" s="77"/>
-      <c r="J24" s="77"/>
-      <c r="M24" s="74" t="s">
+      <c r="I24" s="79"/>
+      <c r="J24" s="79"/>
+      <c r="M24" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="N24" s="74"/>
-      <c r="O24" s="74"/>
-      <c r="P24" s="75" t="s">
+      <c r="N24" s="71"/>
+      <c r="O24" s="71"/>
+      <c r="P24" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="Q24" s="75"/>
-      <c r="R24" s="75"/>
-      <c r="S24" s="75"/>
+      <c r="Q24" s="72"/>
+      <c r="R24" s="72"/>
+      <c r="S24" s="72"/>
       <c r="T24" s="18"/>
       <c r="U24" s="18"/>
-      <c r="V24" s="78">
+      <c r="V24" s="73">
         <v>44993</v>
       </c>
-      <c r="W24" s="79"/>
-      <c r="X24" s="80"/>
-    </row>
-    <row r="25" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="W24" s="74"/>
+      <c r="X24" s="75"/>
+    </row>
+    <row r="25" spans="1:26" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>0</v>
       </c>
@@ -5469,7 +5487,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="3" t="s">
         <v>35</v>
@@ -5539,7 +5557,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="3" t="s">
         <v>35</v>
@@ -5612,7 +5630,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="3" t="s">
         <v>35</v>
@@ -5682,7 +5700,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="3"/>
       <c r="C29" s="2"/>
@@ -5709,7 +5727,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" ht="24" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="3"/>
       <c r="C30" s="2"/>
@@ -5736,7 +5754,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="3"/>
       <c r="C31" s="2"/>
@@ -5760,7 +5778,7 @@
       <c r="W31" s="4"/>
       <c r="X31" s="4"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="3"/>
       <c r="C32" s="2"/>
@@ -5784,7 +5802,7 @@
       <c r="W32" s="4"/>
       <c r="X32" s="4"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="3"/>
       <c r="C33" s="2"/>
@@ -5808,7 +5826,7 @@
       <c r="W33" s="4"/>
       <c r="X33" s="4"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="3"/>
       <c r="C34" s="2"/>
@@ -5832,75 +5850,75 @@
       <c r="W34" s="4"/>
       <c r="X34" s="4"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C37" s="71" t="s">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C37" s="76" t="s">
         <v>84</v>
       </c>
-      <c r="D37" s="71"/>
-      <c r="E37" s="71"/>
-      <c r="F37" s="71"/>
-      <c r="G37" s="71"/>
-      <c r="P37" s="73" t="s">
+      <c r="D37" s="76"/>
+      <c r="E37" s="76"/>
+      <c r="F37" s="76"/>
+      <c r="G37" s="76"/>
+      <c r="P37" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="Q37" s="73"/>
-      <c r="R37" s="73"/>
-      <c r="S37" s="73"/>
-      <c r="T37" s="73"/>
-      <c r="U37" s="73"/>
-      <c r="V37" s="73"/>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C38" s="72"/>
-      <c r="D38" s="72"/>
-      <c r="E38" s="72"/>
-      <c r="F38" s="72"/>
-      <c r="G38" s="72"/>
-      <c r="P38" s="73"/>
-      <c r="Q38" s="73"/>
-      <c r="R38" s="73"/>
-      <c r="S38" s="73"/>
-      <c r="T38" s="73"/>
-      <c r="U38" s="73"/>
-      <c r="V38" s="73"/>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A39" s="74" t="s">
+      <c r="Q37" s="70"/>
+      <c r="R37" s="70"/>
+      <c r="S37" s="70"/>
+      <c r="T37" s="70"/>
+      <c r="U37" s="70"/>
+      <c r="V37" s="70"/>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C38" s="77"/>
+      <c r="D38" s="77"/>
+      <c r="E38" s="77"/>
+      <c r="F38" s="77"/>
+      <c r="G38" s="77"/>
+      <c r="P38" s="70"/>
+      <c r="Q38" s="70"/>
+      <c r="R38" s="70"/>
+      <c r="S38" s="70"/>
+      <c r="T38" s="70"/>
+      <c r="U38" s="70"/>
+      <c r="V38" s="70"/>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A39" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="74"/>
-      <c r="C39" s="74"/>
-      <c r="D39" s="75" t="s">
+      <c r="B39" s="71"/>
+      <c r="C39" s="71"/>
+      <c r="D39" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="75"/>
-      <c r="F39" s="75"/>
-      <c r="G39" s="75"/>
-      <c r="H39" s="76">
+      <c r="E39" s="72"/>
+      <c r="F39" s="72"/>
+      <c r="G39" s="72"/>
+      <c r="H39" s="78">
         <v>44972</v>
       </c>
-      <c r="I39" s="77"/>
-      <c r="J39" s="77"/>
-      <c r="M39" s="74" t="s">
+      <c r="I39" s="79"/>
+      <c r="J39" s="79"/>
+      <c r="M39" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="N39" s="74"/>
-      <c r="O39" s="74"/>
-      <c r="P39" s="75" t="s">
+      <c r="N39" s="71"/>
+      <c r="O39" s="71"/>
+      <c r="P39" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="Q39" s="75"/>
-      <c r="R39" s="75"/>
-      <c r="S39" s="75"/>
+      <c r="Q39" s="72"/>
+      <c r="R39" s="72"/>
+      <c r="S39" s="72"/>
       <c r="T39" s="18"/>
       <c r="U39" s="18"/>
-      <c r="V39" s="78">
+      <c r="V39" s="73">
         <v>44994</v>
       </c>
-      <c r="W39" s="79"/>
-      <c r="X39" s="80"/>
-    </row>
-    <row r="40" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="W39" s="74"/>
+      <c r="X39" s="75"/>
+    </row>
+    <row r="40" spans="1:26" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>0</v>
       </c>
@@ -5968,7 +5986,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="3" t="s">
         <v>35</v>
@@ -6032,7 +6050,7 @@
         <v>0.4465277777777778</v>
       </c>
     </row>
-    <row r="42" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="3" t="s">
         <v>35</v>
@@ -6098,7 +6116,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="27"/>
       <c r="B43" s="28"/>
       <c r="C43" s="29"/>
@@ -6128,7 +6146,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="28"/>
       <c r="C44" s="29"/>
@@ -6158,7 +6176,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="3"/>
       <c r="C45" s="2"/>
@@ -6185,7 +6203,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:26" ht="24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" ht="24" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="3"/>
       <c r="C46" s="2"/>
@@ -6212,7 +6230,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="3"/>
       <c r="C47" s="2"/>
@@ -6236,7 +6254,7 @@
       <c r="W47" s="4"/>
       <c r="X47" s="4"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="3"/>
       <c r="C48" s="2"/>
@@ -6260,7 +6278,7 @@
       <c r="W48" s="4"/>
       <c r="X48" s="4"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="3"/>
       <c r="C49" s="2"/>
@@ -6284,7 +6302,7 @@
       <c r="W49" s="4"/>
       <c r="X49" s="4"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="3"/>
       <c r="C50" s="2"/>
@@ -6308,75 +6326,75 @@
       <c r="W50" s="4"/>
       <c r="X50" s="4"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C53" s="71">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C53" s="76">
         <v>45005</v>
       </c>
-      <c r="D53" s="71"/>
-      <c r="E53" s="71"/>
-      <c r="F53" s="71"/>
-      <c r="G53" s="71"/>
-      <c r="P53" s="71">
+      <c r="D53" s="76"/>
+      <c r="E53" s="76"/>
+      <c r="F53" s="76"/>
+      <c r="G53" s="76"/>
+      <c r="P53" s="76">
         <v>45006</v>
       </c>
-      <c r="Q53" s="71"/>
-      <c r="R53" s="71"/>
-      <c r="S53" s="71"/>
-      <c r="T53" s="71"/>
-      <c r="U53" s="71"/>
-      <c r="V53" s="71"/>
-    </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C54" s="72"/>
-      <c r="D54" s="72"/>
-      <c r="E54" s="72"/>
-      <c r="F54" s="72"/>
-      <c r="G54" s="72"/>
-      <c r="P54" s="71"/>
-      <c r="Q54" s="71"/>
-      <c r="R54" s="71"/>
-      <c r="S54" s="71"/>
-      <c r="T54" s="71"/>
-      <c r="U54" s="71"/>
-      <c r="V54" s="71"/>
-    </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A55" s="74" t="s">
+      <c r="Q53" s="76"/>
+      <c r="R53" s="76"/>
+      <c r="S53" s="76"/>
+      <c r="T53" s="76"/>
+      <c r="U53" s="76"/>
+      <c r="V53" s="76"/>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C54" s="77"/>
+      <c r="D54" s="77"/>
+      <c r="E54" s="77"/>
+      <c r="F54" s="77"/>
+      <c r="G54" s="77"/>
+      <c r="P54" s="76"/>
+      <c r="Q54" s="76"/>
+      <c r="R54" s="76"/>
+      <c r="S54" s="76"/>
+      <c r="T54" s="76"/>
+      <c r="U54" s="76"/>
+      <c r="V54" s="76"/>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A55" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="74"/>
-      <c r="C55" s="74"/>
-      <c r="D55" s="75" t="s">
+      <c r="B55" s="71"/>
+      <c r="C55" s="71"/>
+      <c r="D55" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="E55" s="75"/>
-      <c r="F55" s="75"/>
-      <c r="G55" s="75"/>
-      <c r="H55" s="76">
+      <c r="E55" s="72"/>
+      <c r="F55" s="72"/>
+      <c r="G55" s="72"/>
+      <c r="H55" s="78">
         <v>45005</v>
       </c>
-      <c r="I55" s="77"/>
-      <c r="J55" s="77"/>
-      <c r="M55" s="74" t="s">
+      <c r="I55" s="79"/>
+      <c r="J55" s="79"/>
+      <c r="M55" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="N55" s="74"/>
-      <c r="O55" s="74"/>
-      <c r="P55" s="75" t="s">
+      <c r="N55" s="71"/>
+      <c r="O55" s="71"/>
+      <c r="P55" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="Q55" s="75"/>
-      <c r="R55" s="75"/>
-      <c r="S55" s="75"/>
+      <c r="Q55" s="72"/>
+      <c r="R55" s="72"/>
+      <c r="S55" s="72"/>
       <c r="T55" s="18"/>
       <c r="U55" s="18"/>
-      <c r="V55" s="78">
+      <c r="V55" s="73">
         <v>45006</v>
       </c>
-      <c r="W55" s="79"/>
-      <c r="X55" s="80"/>
-    </row>
-    <row r="56" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="W55" s="74"/>
+      <c r="X55" s="75"/>
+    </row>
+    <row r="56" spans="1:26" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>0</v>
       </c>
@@ -6444,7 +6462,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="3" t="s">
         <v>85</v>
@@ -6500,7 +6518,7 @@
         <v>0.46319444444444446</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="3" t="s">
         <v>85</v>
@@ -6562,7 +6580,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A59" s="27"/>
       <c r="B59" s="3"/>
       <c r="C59" s="2"/>
@@ -6592,7 +6610,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="28"/>
       <c r="C60" s="29"/>
@@ -6622,7 +6640,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="3"/>
       <c r="C61" s="2"/>
@@ -6649,7 +6667,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:26" ht="24" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" ht="24" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="3"/>
       <c r="C62" s="2"/>
@@ -6676,7 +6694,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="3"/>
       <c r="C63" s="2"/>
@@ -6700,7 +6718,7 @@
       <c r="W63" s="4"/>
       <c r="X63" s="4"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="3"/>
       <c r="C64" s="2"/>
@@ -6724,7 +6742,7 @@
       <c r="W64" s="4"/>
       <c r="X64" s="4"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="3"/>
       <c r="C65" s="2"/>
@@ -6748,7 +6766,7 @@
       <c r="W65" s="4"/>
       <c r="X65" s="4"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="3"/>
       <c r="C66" s="2"/>
@@ -6772,75 +6790,75 @@
       <c r="W66" s="4"/>
       <c r="X66" s="4"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C69" s="71" t="s">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C69" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="D69" s="71"/>
-      <c r="E69" s="71"/>
-      <c r="F69" s="71"/>
-      <c r="G69" s="71"/>
-      <c r="P69" s="73" t="s">
+      <c r="D69" s="76"/>
+      <c r="E69" s="76"/>
+      <c r="F69" s="76"/>
+      <c r="G69" s="76"/>
+      <c r="P69" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="Q69" s="73"/>
-      <c r="R69" s="73"/>
-      <c r="S69" s="73"/>
-      <c r="T69" s="73"/>
-      <c r="U69" s="73"/>
-      <c r="V69" s="73"/>
-    </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C70" s="72"/>
-      <c r="D70" s="72"/>
-      <c r="E70" s="72"/>
-      <c r="F70" s="72"/>
-      <c r="G70" s="72"/>
-      <c r="P70" s="73"/>
-      <c r="Q70" s="73"/>
-      <c r="R70" s="73"/>
-      <c r="S70" s="73"/>
-      <c r="T70" s="73"/>
-      <c r="U70" s="73"/>
-      <c r="V70" s="73"/>
-    </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A71" s="74" t="s">
+      <c r="Q69" s="70"/>
+      <c r="R69" s="70"/>
+      <c r="S69" s="70"/>
+      <c r="T69" s="70"/>
+      <c r="U69" s="70"/>
+      <c r="V69" s="70"/>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C70" s="77"/>
+      <c r="D70" s="77"/>
+      <c r="E70" s="77"/>
+      <c r="F70" s="77"/>
+      <c r="G70" s="77"/>
+      <c r="P70" s="70"/>
+      <c r="Q70" s="70"/>
+      <c r="R70" s="70"/>
+      <c r="S70" s="70"/>
+      <c r="T70" s="70"/>
+      <c r="U70" s="70"/>
+      <c r="V70" s="70"/>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A71" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="B71" s="74"/>
-      <c r="C71" s="74"/>
-      <c r="D71" s="75" t="s">
+      <c r="B71" s="71"/>
+      <c r="C71" s="71"/>
+      <c r="D71" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="E71" s="75"/>
-      <c r="F71" s="75"/>
-      <c r="G71" s="75"/>
-      <c r="H71" s="76">
+      <c r="E71" s="72"/>
+      <c r="F71" s="72"/>
+      <c r="G71" s="72"/>
+      <c r="H71" s="78">
         <v>44979</v>
       </c>
-      <c r="I71" s="77"/>
-      <c r="J71" s="77"/>
-      <c r="M71" s="74" t="s">
+      <c r="I71" s="79"/>
+      <c r="J71" s="79"/>
+      <c r="M71" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="N71" s="74"/>
-      <c r="O71" s="74"/>
-      <c r="P71" s="75" t="s">
+      <c r="N71" s="71"/>
+      <c r="O71" s="71"/>
+      <c r="P71" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="Q71" s="75"/>
-      <c r="R71" s="75"/>
-      <c r="S71" s="75"/>
+      <c r="Q71" s="72"/>
+      <c r="R71" s="72"/>
+      <c r="S71" s="72"/>
       <c r="T71" s="18"/>
       <c r="U71" s="18"/>
-      <c r="V71" s="78">
+      <c r="V71" s="73">
         <v>44980</v>
       </c>
-      <c r="W71" s="79"/>
-      <c r="X71" s="80"/>
-    </row>
-    <row r="72" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="W71" s="74"/>
+      <c r="X71" s="75"/>
+    </row>
+    <row r="72" spans="1:26" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>0</v>
       </c>
@@ -6908,7 +6926,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="3" t="s">
         <v>35</v>
@@ -6966,7 +6984,7 @@
         <v>0.42083333333333334</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="3" t="s">
         <v>35</v>
@@ -7030,7 +7048,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A75" s="27"/>
       <c r="B75" s="3"/>
       <c r="C75" s="2"/>
@@ -7060,7 +7078,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="28"/>
       <c r="C76" s="29"/>
@@ -7090,7 +7108,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="3"/>
       <c r="C77" s="2"/>
@@ -7117,7 +7135,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:26" ht="24" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" ht="24" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="3"/>
       <c r="C78" s="2"/>
@@ -7144,7 +7162,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="3"/>
       <c r="C79" s="2"/>
@@ -7168,7 +7186,7 @@
       <c r="W79" s="4"/>
       <c r="X79" s="4"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="3"/>
       <c r="C80" s="2"/>
@@ -7192,7 +7210,7 @@
       <c r="W80" s="4"/>
       <c r="X80" s="4"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="3"/>
       <c r="C81" s="2"/>
@@ -7216,7 +7234,7 @@
       <c r="W81" s="4"/>
       <c r="X81" s="4"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="3"/>
       <c r="C82" s="2"/>
@@ -7240,75 +7258,75 @@
       <c r="W82" s="4"/>
       <c r="X82" s="4"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C86" s="71" t="s">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C86" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="D86" s="71"/>
-      <c r="E86" s="71"/>
-      <c r="F86" s="71"/>
-      <c r="G86" s="71"/>
-      <c r="P86" s="73" t="s">
+      <c r="D86" s="76"/>
+      <c r="E86" s="76"/>
+      <c r="F86" s="76"/>
+      <c r="G86" s="76"/>
+      <c r="P86" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="Q86" s="73"/>
-      <c r="R86" s="73"/>
-      <c r="S86" s="73"/>
-      <c r="T86" s="73"/>
-      <c r="U86" s="73"/>
-      <c r="V86" s="73"/>
-    </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C87" s="72"/>
-      <c r="D87" s="72"/>
-      <c r="E87" s="72"/>
-      <c r="F87" s="72"/>
-      <c r="G87" s="72"/>
-      <c r="P87" s="73"/>
-      <c r="Q87" s="73"/>
-      <c r="R87" s="73"/>
-      <c r="S87" s="73"/>
-      <c r="T87" s="73"/>
-      <c r="U87" s="73"/>
-      <c r="V87" s="73"/>
-    </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A88" s="74" t="s">
+      <c r="Q86" s="70"/>
+      <c r="R86" s="70"/>
+      <c r="S86" s="70"/>
+      <c r="T86" s="70"/>
+      <c r="U86" s="70"/>
+      <c r="V86" s="70"/>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C87" s="77"/>
+      <c r="D87" s="77"/>
+      <c r="E87" s="77"/>
+      <c r="F87" s="77"/>
+      <c r="G87" s="77"/>
+      <c r="P87" s="70"/>
+      <c r="Q87" s="70"/>
+      <c r="R87" s="70"/>
+      <c r="S87" s="70"/>
+      <c r="T87" s="70"/>
+      <c r="U87" s="70"/>
+      <c r="V87" s="70"/>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A88" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="B88" s="74"/>
-      <c r="C88" s="74"/>
-      <c r="D88" s="75" t="s">
+      <c r="B88" s="71"/>
+      <c r="C88" s="71"/>
+      <c r="D88" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="E88" s="75"/>
-      <c r="F88" s="75"/>
-      <c r="G88" s="75"/>
-      <c r="H88" s="76">
+      <c r="E88" s="72"/>
+      <c r="F88" s="72"/>
+      <c r="G88" s="72"/>
+      <c r="H88" s="78">
         <v>44981</v>
       </c>
-      <c r="I88" s="77"/>
-      <c r="J88" s="77"/>
-      <c r="M88" s="74" t="s">
+      <c r="I88" s="79"/>
+      <c r="J88" s="79"/>
+      <c r="M88" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="N88" s="74"/>
-      <c r="O88" s="74"/>
-      <c r="P88" s="75" t="s">
+      <c r="N88" s="71"/>
+      <c r="O88" s="71"/>
+      <c r="P88" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="Q88" s="75"/>
-      <c r="R88" s="75"/>
-      <c r="S88" s="75"/>
+      <c r="Q88" s="72"/>
+      <c r="R88" s="72"/>
+      <c r="S88" s="72"/>
       <c r="T88" s="18"/>
       <c r="U88" s="18"/>
-      <c r="V88" s="78">
+      <c r="V88" s="73">
         <v>44980</v>
       </c>
-      <c r="W88" s="79"/>
-      <c r="X88" s="80"/>
-    </row>
-    <row r="89" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="W88" s="74"/>
+      <c r="X88" s="75"/>
+    </row>
+    <row r="89" spans="1:26" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
         <v>0</v>
       </c>
@@ -7376,7 +7394,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="3"/>
       <c r="C90" s="2"/>
@@ -7400,7 +7418,7 @@
       <c r="W90" s="34"/>
       <c r="X90" s="35"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="3"/>
       <c r="C91" s="2"/>
@@ -7430,7 +7448,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A92" s="27"/>
       <c r="B92" s="3"/>
       <c r="C92" s="2"/>
@@ -7460,7 +7478,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="28"/>
       <c r="C93" s="29"/>
@@ -7490,7 +7508,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="3"/>
       <c r="C94" s="2"/>
@@ -7517,7 +7535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:26" ht="24" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" ht="24" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="3"/>
       <c r="C95" s="2"/>
@@ -7544,7 +7562,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="3"/>
       <c r="C96" s="2"/>
@@ -7568,7 +7586,7 @@
       <c r="W96" s="4"/>
       <c r="X96" s="4"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="3"/>
       <c r="C97" s="2"/>
@@ -7592,7 +7610,7 @@
       <c r="W97" s="4"/>
       <c r="X97" s="4"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="B98" s="3"/>
       <c r="C98" s="2"/>
@@ -7616,7 +7634,7 @@
       <c r="W98" s="4"/>
       <c r="X98" s="4"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="3"/>
       <c r="C99" s="2"/>
@@ -7640,76 +7658,76 @@
       <c r="W99" s="4"/>
       <c r="X99" s="4"/>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C103" s="71" t="s">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C103" s="76" t="s">
         <v>70</v>
       </c>
-      <c r="D103" s="71"/>
-      <c r="E103" s="71"/>
-      <c r="F103" s="71"/>
-      <c r="G103" s="71"/>
-      <c r="P103" s="73" t="s">
+      <c r="D103" s="76"/>
+      <c r="E103" s="76"/>
+      <c r="F103" s="76"/>
+      <c r="G103" s="76"/>
+      <c r="P103" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="Q103" s="73"/>
-      <c r="R103" s="73"/>
-      <c r="S103" s="73"/>
-      <c r="T103" s="73"/>
-      <c r="U103" s="73"/>
-      <c r="V103" s="73"/>
-    </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C104" s="72"/>
-      <c r="D104" s="72"/>
-      <c r="E104" s="72"/>
-      <c r="F104" s="72"/>
-      <c r="G104" s="72"/>
-      <c r="P104" s="73"/>
-      <c r="Q104" s="73"/>
-      <c r="R104" s="73"/>
-      <c r="S104" s="73"/>
-      <c r="T104" s="73"/>
-      <c r="U104" s="73"/>
-      <c r="V104" s="73"/>
-    </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A105" s="74" t="s">
+      <c r="Q103" s="70"/>
+      <c r="R103" s="70"/>
+      <c r="S103" s="70"/>
+      <c r="T103" s="70"/>
+      <c r="U103" s="70"/>
+      <c r="V103" s="70"/>
+    </row>
+    <row r="104" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C104" s="77"/>
+      <c r="D104" s="77"/>
+      <c r="E104" s="77"/>
+      <c r="F104" s="77"/>
+      <c r="G104" s="77"/>
+      <c r="P104" s="70"/>
+      <c r="Q104" s="70"/>
+      <c r="R104" s="70"/>
+      <c r="S104" s="70"/>
+      <c r="T104" s="70"/>
+      <c r="U104" s="70"/>
+      <c r="V104" s="70"/>
+    </row>
+    <row r="105" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A105" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="B105" s="74"/>
-      <c r="C105" s="74"/>
-      <c r="D105" s="75" t="s">
+      <c r="B105" s="71"/>
+      <c r="C105" s="71"/>
+      <c r="D105" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="E105" s="75"/>
-      <c r="F105" s="75"/>
-      <c r="G105" s="75"/>
-      <c r="H105" s="76">
+      <c r="E105" s="72"/>
+      <c r="F105" s="72"/>
+      <c r="G105" s="72"/>
+      <c r="H105" s="78">
         <v>44979</v>
       </c>
-      <c r="I105" s="77"/>
-      <c r="J105" s="77"/>
-      <c r="M105" s="74" t="s">
+      <c r="I105" s="79"/>
+      <c r="J105" s="79"/>
+      <c r="M105" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="N105" s="74"/>
-      <c r="O105" s="74"/>
-      <c r="P105" s="75" t="s">
+      <c r="N105" s="71"/>
+      <c r="O105" s="71"/>
+      <c r="P105" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="Q105" s="75"/>
-      <c r="R105" s="75"/>
-      <c r="S105" s="75"/>
+      <c r="Q105" s="72"/>
+      <c r="R105" s="72"/>
+      <c r="S105" s="72"/>
       <c r="T105" s="18"/>
       <c r="U105" s="18"/>
-      <c r="V105" s="78" t="e">
+      <c r="V105" s="73" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W105" s="79"/>
-      <c r="X105" s="80"/>
-    </row>
-    <row r="106" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="W105" s="74"/>
+      <c r="X105" s="75"/>
+    </row>
+    <row r="106" spans="1:26" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
         <v>0</v>
       </c>
@@ -7777,7 +7795,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
       <c r="B107" s="48" t="s">
         <v>35</v>
@@ -7841,7 +7859,7 @@
         <v>0.48958333333333331</v>
       </c>
     </row>
-    <row r="108" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
       <c r="B108" s="48" t="s">
         <v>35</v>
@@ -7911,7 +7929,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="27"/>
       <c r="B109" s="48" t="s">
         <v>35</v>
@@ -7959,7 +7977,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" s="48" t="s">
         <v>35</v>
@@ -8007,7 +8025,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" s="48"/>
       <c r="C111" s="49"/>
@@ -8034,7 +8052,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:26" ht="24" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:26" ht="24" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
       <c r="B112" s="3"/>
       <c r="C112" s="2"/>
@@ -8061,7 +8079,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" s="3"/>
       <c r="C113" s="2"/>
@@ -8085,7 +8103,7 @@
       <c r="W113" s="4"/>
       <c r="X113" s="4"/>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
       <c r="B114" s="3"/>
       <c r="C114" s="2"/>
@@ -8109,7 +8127,7 @@
       <c r="W114" s="4"/>
       <c r="X114" s="4"/>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
       <c r="B115" s="3"/>
       <c r="C115" s="2"/>
@@ -8133,7 +8151,7 @@
       <c r="W115" s="4"/>
       <c r="X115" s="4"/>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
       <c r="B116" s="3"/>
       <c r="C116" s="2"/>
@@ -8157,76 +8175,76 @@
       <c r="W116" s="4"/>
       <c r="X116" s="4"/>
     </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C121" s="71" t="s">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C121" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="D121" s="71"/>
-      <c r="E121" s="71"/>
-      <c r="F121" s="71"/>
-      <c r="G121" s="71"/>
-      <c r="P121" s="73" t="s">
+      <c r="D121" s="76"/>
+      <c r="E121" s="76"/>
+      <c r="F121" s="76"/>
+      <c r="G121" s="76"/>
+      <c r="P121" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="Q121" s="73"/>
-      <c r="R121" s="73"/>
-      <c r="S121" s="73"/>
-      <c r="T121" s="73"/>
-      <c r="U121" s="73"/>
-      <c r="V121" s="73"/>
-    </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C122" s="72"/>
-      <c r="D122" s="72"/>
-      <c r="E122" s="72"/>
-      <c r="F122" s="72"/>
-      <c r="G122" s="72"/>
-      <c r="P122" s="73"/>
-      <c r="Q122" s="73"/>
-      <c r="R122" s="73"/>
-      <c r="S122" s="73"/>
-      <c r="T122" s="73"/>
-      <c r="U122" s="73"/>
-      <c r="V122" s="73"/>
-    </row>
-    <row r="123" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="74" t="s">
+      <c r="Q121" s="70"/>
+      <c r="R121" s="70"/>
+      <c r="S121" s="70"/>
+      <c r="T121" s="70"/>
+      <c r="U121" s="70"/>
+      <c r="V121" s="70"/>
+    </row>
+    <row r="122" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C122" s="77"/>
+      <c r="D122" s="77"/>
+      <c r="E122" s="77"/>
+      <c r="F122" s="77"/>
+      <c r="G122" s="77"/>
+      <c r="P122" s="70"/>
+      <c r="Q122" s="70"/>
+      <c r="R122" s="70"/>
+      <c r="S122" s="70"/>
+      <c r="T122" s="70"/>
+      <c r="U122" s="70"/>
+      <c r="V122" s="70"/>
+    </row>
+    <row r="123" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="B123" s="74"/>
-      <c r="C123" s="74"/>
-      <c r="D123" s="75" t="s">
+      <c r="B123" s="71"/>
+      <c r="C123" s="71"/>
+      <c r="D123" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="E123" s="75"/>
-      <c r="F123" s="75"/>
-      <c r="G123" s="75"/>
-      <c r="H123" s="76">
+      <c r="E123" s="72"/>
+      <c r="F123" s="72"/>
+      <c r="G123" s="72"/>
+      <c r="H123" s="78">
         <v>44979</v>
       </c>
-      <c r="I123" s="77"/>
-      <c r="J123" s="77"/>
-      <c r="M123" s="74" t="s">
+      <c r="I123" s="79"/>
+      <c r="J123" s="79"/>
+      <c r="M123" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="N123" s="74"/>
-      <c r="O123" s="74"/>
-      <c r="P123" s="75" t="s">
+      <c r="N123" s="71"/>
+      <c r="O123" s="71"/>
+      <c r="P123" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="Q123" s="75"/>
-      <c r="R123" s="75"/>
-      <c r="S123" s="75"/>
+      <c r="Q123" s="72"/>
+      <c r="R123" s="72"/>
+      <c r="S123" s="72"/>
       <c r="T123" s="18"/>
       <c r="U123" s="18"/>
-      <c r="V123" s="78" t="e">
+      <c r="V123" s="73" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W123" s="79"/>
-      <c r="X123" s="80"/>
-    </row>
-    <row r="124" spans="1:26" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W123" s="74"/>
+      <c r="X123" s="75"/>
+    </row>
+    <row r="124" spans="1:26" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="6" t="s">
         <v>0</v>
       </c>
@@ -8294,7 +8312,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
       <c r="B125" s="48" t="s">
         <v>35</v>
@@ -8354,7 +8372,7 @@
       <c r="W125" s="34"/>
       <c r="X125" s="35"/>
     </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A126" s="1"/>
       <c r="B126" s="48" t="s">
         <v>35</v>
@@ -8420,7 +8438,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A127" s="27"/>
       <c r="B127" s="48" t="s">
         <v>35</v>
@@ -8486,7 +8504,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A128" s="1"/>
       <c r="B128" s="48" t="s">
         <v>35</v>
@@ -8552,7 +8570,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A129" s="1"/>
       <c r="B129" s="48" t="s">
         <v>35</v>
@@ -8615,7 +8633,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:26" ht="24" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:26" ht="24" x14ac:dyDescent="0.3">
       <c r="A130" s="1"/>
       <c r="B130" s="3"/>
       <c r="C130" s="2"/>
@@ -8642,7 +8660,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A131" s="1"/>
       <c r="B131" s="3"/>
       <c r="C131" s="2"/>
@@ -8666,7 +8684,7 @@
       <c r="W131" s="4"/>
       <c r="X131" s="4"/>
     </row>
-    <row r="132" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A132" s="1"/>
       <c r="B132" s="3"/>
       <c r="C132" s="2"/>
@@ -8690,7 +8708,7 @@
       <c r="W132" s="4"/>
       <c r="X132" s="4"/>
     </row>
-    <row r="133" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A133" s="1"/>
       <c r="B133" s="3"/>
       <c r="C133" s="2"/>
@@ -8714,7 +8732,7 @@
       <c r="W133" s="4"/>
       <c r="X133" s="4"/>
     </row>
-    <row r="134" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A134" s="1"/>
       <c r="B134" s="3"/>
       <c r="C134" s="2"/>
@@ -8738,48 +8756,48 @@
       <c r="W134" s="4"/>
       <c r="X134" s="4"/>
     </row>
-    <row r="138" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="P138" s="73" t="s">
+    <row r="138" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="P138" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="Q138" s="73"/>
-      <c r="R138" s="73"/>
-      <c r="S138" s="73"/>
-      <c r="T138" s="73"/>
-      <c r="U138" s="73"/>
-      <c r="V138" s="73"/>
-    </row>
-    <row r="139" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="P139" s="73"/>
-      <c r="Q139" s="73"/>
-      <c r="R139" s="73"/>
-      <c r="S139" s="73"/>
-      <c r="T139" s="73"/>
-      <c r="U139" s="73"/>
-      <c r="V139" s="73"/>
-    </row>
-    <row r="140" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="M140" s="74" t="s">
+      <c r="Q138" s="70"/>
+      <c r="R138" s="70"/>
+      <c r="S138" s="70"/>
+      <c r="T138" s="70"/>
+      <c r="U138" s="70"/>
+      <c r="V138" s="70"/>
+    </row>
+    <row r="139" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="P139" s="70"/>
+      <c r="Q139" s="70"/>
+      <c r="R139" s="70"/>
+      <c r="S139" s="70"/>
+      <c r="T139" s="70"/>
+      <c r="U139" s="70"/>
+      <c r="V139" s="70"/>
+    </row>
+    <row r="140" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="M140" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="N140" s="74"/>
-      <c r="O140" s="74"/>
-      <c r="P140" s="75" t="s">
+      <c r="N140" s="71"/>
+      <c r="O140" s="71"/>
+      <c r="P140" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="Q140" s="75"/>
-      <c r="R140" s="75"/>
-      <c r="S140" s="75"/>
+      <c r="Q140" s="72"/>
+      <c r="R140" s="72"/>
+      <c r="S140" s="72"/>
       <c r="T140" s="18"/>
       <c r="U140" s="18"/>
-      <c r="V140" s="78" t="e">
+      <c r="V140" s="73" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W140" s="79"/>
-      <c r="X140" s="80"/>
-    </row>
-    <row r="141" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="W140" s="74"/>
+      <c r="X140" s="75"/>
+    </row>
+    <row r="141" spans="1:26" ht="30.6" x14ac:dyDescent="0.3">
       <c r="M141" s="6" t="s">
         <v>0</v>
       </c>
@@ -8817,7 +8835,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="142" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:26" x14ac:dyDescent="0.3">
       <c r="M142" s="47"/>
       <c r="N142" s="48" t="s">
         <v>35</v>
@@ -8853,7 +8871,7 @@
         <v>0.48194444444444445</v>
       </c>
     </row>
-    <row r="143" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:26" x14ac:dyDescent="0.3">
       <c r="M143" s="47"/>
       <c r="N143" s="48" t="s">
         <v>35</v>
@@ -8892,7 +8910,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="144" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:26" x14ac:dyDescent="0.3">
       <c r="M144" s="47"/>
       <c r="N144" s="48" t="s">
         <v>35</v>
@@ -8931,7 +8949,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="13:26" x14ac:dyDescent="0.25">
+    <row r="145" spans="13:26" x14ac:dyDescent="0.3">
       <c r="M145" s="47"/>
       <c r="N145" s="48"/>
       <c r="O145" s="49"/>
@@ -8948,7 +8966,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="146" spans="13:26" x14ac:dyDescent="0.25">
+    <row r="146" spans="13:26" x14ac:dyDescent="0.3">
       <c r="M146" s="1"/>
       <c r="N146" s="48"/>
       <c r="O146" s="49"/>
@@ -8965,7 +8983,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="13:26" ht="24" x14ac:dyDescent="0.25">
+    <row r="147" spans="13:26" ht="24" x14ac:dyDescent="0.3">
       <c r="M147" s="1"/>
       <c r="N147" s="3"/>
       <c r="O147" s="2"/>
@@ -8982,7 +9000,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="148" spans="13:26" x14ac:dyDescent="0.25">
+    <row r="148" spans="13:26" x14ac:dyDescent="0.3">
       <c r="M148" s="1"/>
       <c r="N148" s="3"/>
       <c r="O148" s="2"/>
@@ -8996,7 +9014,7 @@
       <c r="W148" s="4"/>
       <c r="X148" s="4"/>
     </row>
-    <row r="149" spans="13:26" x14ac:dyDescent="0.25">
+    <row r="149" spans="13:26" x14ac:dyDescent="0.3">
       <c r="M149" s="1"/>
       <c r="N149" s="3"/>
       <c r="O149" s="2"/>
@@ -9010,7 +9028,7 @@
       <c r="W149" s="4"/>
       <c r="X149" s="4"/>
     </row>
-    <row r="150" spans="13:26" x14ac:dyDescent="0.25">
+    <row r="150" spans="13:26" x14ac:dyDescent="0.3">
       <c r="M150" s="1"/>
       <c r="N150" s="3"/>
       <c r="O150" s="2"/>
@@ -9024,7 +9042,7 @@
       <c r="W150" s="4"/>
       <c r="X150" s="4"/>
     </row>
-    <row r="151" spans="13:26" x14ac:dyDescent="0.25">
+    <row r="151" spans="13:26" x14ac:dyDescent="0.3">
       <c r="M151" s="1"/>
       <c r="N151" s="3"/>
       <c r="O151" s="2"/>
@@ -9038,51 +9056,51 @@
       <c r="W151" s="4"/>
       <c r="X151" s="4"/>
     </row>
-    <row r="152" spans="13:26" x14ac:dyDescent="0.25">
+    <row r="152" spans="13:26" x14ac:dyDescent="0.3">
       <c r="S152" s="64"/>
     </row>
-    <row r="153" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P153" s="73" t="s">
+    <row r="153" spans="13:26" x14ac:dyDescent="0.3">
+      <c r="P153" s="70" t="s">
         <v>102</v>
       </c>
-      <c r="Q153" s="73"/>
-      <c r="R153" s="73"/>
-      <c r="S153" s="73"/>
-      <c r="T153" s="73"/>
-      <c r="U153" s="73"/>
-      <c r="V153" s="73"/>
-    </row>
-    <row r="154" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P154" s="73"/>
-      <c r="Q154" s="73"/>
-      <c r="R154" s="73"/>
-      <c r="S154" s="73"/>
-      <c r="T154" s="73"/>
-      <c r="U154" s="73"/>
-      <c r="V154" s="73"/>
-    </row>
-    <row r="155" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M155" s="74" t="s">
+      <c r="Q153" s="70"/>
+      <c r="R153" s="70"/>
+      <c r="S153" s="70"/>
+      <c r="T153" s="70"/>
+      <c r="U153" s="70"/>
+      <c r="V153" s="70"/>
+    </row>
+    <row r="154" spans="13:26" x14ac:dyDescent="0.3">
+      <c r="P154" s="70"/>
+      <c r="Q154" s="70"/>
+      <c r="R154" s="70"/>
+      <c r="S154" s="70"/>
+      <c r="T154" s="70"/>
+      <c r="U154" s="70"/>
+      <c r="V154" s="70"/>
+    </row>
+    <row r="155" spans="13:26" x14ac:dyDescent="0.3">
+      <c r="M155" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="N155" s="74"/>
-      <c r="O155" s="74"/>
-      <c r="P155" s="75" t="s">
+      <c r="N155" s="71"/>
+      <c r="O155" s="71"/>
+      <c r="P155" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="Q155" s="75"/>
-      <c r="R155" s="75"/>
-      <c r="S155" s="75"/>
+      <c r="Q155" s="72"/>
+      <c r="R155" s="72"/>
+      <c r="S155" s="72"/>
       <c r="T155" s="18"/>
       <c r="U155" s="18"/>
-      <c r="V155" s="78" t="e">
+      <c r="V155" s="73" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W155" s="79"/>
-      <c r="X155" s="80"/>
-    </row>
-    <row r="156" spans="13:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="W155" s="74"/>
+      <c r="X155" s="75"/>
+    </row>
+    <row r="156" spans="13:26" ht="30.6" x14ac:dyDescent="0.3">
       <c r="M156" s="6" t="s">
         <v>0</v>
       </c>
@@ -9120,7 +9138,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="157" spans="13:26" x14ac:dyDescent="0.25">
+    <row r="157" spans="13:26" x14ac:dyDescent="0.3">
       <c r="M157" s="47"/>
       <c r="N157" s="48" t="s">
         <v>35</v>
@@ -9156,7 +9174,7 @@
         <v>0.11527777777777777</v>
       </c>
     </row>
-    <row r="158" spans="13:26" x14ac:dyDescent="0.25">
+    <row r="158" spans="13:26" x14ac:dyDescent="0.3">
       <c r="M158" s="47"/>
       <c r="N158" s="48" t="s">
         <v>35</v>
@@ -9195,7 +9213,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="159" spans="13:26" x14ac:dyDescent="0.25">
+    <row r="159" spans="13:26" x14ac:dyDescent="0.3">
       <c r="M159" s="47"/>
       <c r="N159" s="48" t="s">
         <v>35</v>
@@ -9234,7 +9252,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="13:26" x14ac:dyDescent="0.25">
+    <row r="160" spans="13:26" x14ac:dyDescent="0.3">
       <c r="M160" s="47"/>
       <c r="N160" s="48"/>
       <c r="O160" s="49"/>
@@ -9251,7 +9269,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="161" spans="13:26" x14ac:dyDescent="0.25">
+    <row r="161" spans="13:26" x14ac:dyDescent="0.3">
       <c r="M161" s="1"/>
       <c r="N161" s="48"/>
       <c r="O161" s="49"/>
@@ -9268,7 +9286,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="13:26" ht="24" x14ac:dyDescent="0.25">
+    <row r="162" spans="13:26" ht="24" x14ac:dyDescent="0.3">
       <c r="M162" s="1"/>
       <c r="N162" s="3"/>
       <c r="O162" s="2"/>
@@ -9287,7 +9305,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="163" spans="13:26" x14ac:dyDescent="0.25">
+    <row r="163" spans="13:26" x14ac:dyDescent="0.3">
       <c r="M163" s="1"/>
       <c r="N163" s="3"/>
       <c r="O163" s="2"/>
@@ -9301,7 +9319,7 @@
       <c r="W163" s="4"/>
       <c r="X163" s="4"/>
     </row>
-    <row r="164" spans="13:26" x14ac:dyDescent="0.25">
+    <row r="164" spans="13:26" x14ac:dyDescent="0.3">
       <c r="M164" s="1"/>
       <c r="N164" s="3"/>
       <c r="O164" s="2"/>
@@ -9315,7 +9333,7 @@
       <c r="W164" s="4"/>
       <c r="X164" s="4"/>
     </row>
-    <row r="165" spans="13:26" x14ac:dyDescent="0.25">
+    <row r="165" spans="13:26" x14ac:dyDescent="0.3">
       <c r="M165" s="1"/>
       <c r="N165" s="3"/>
       <c r="O165" s="2"/>
@@ -9329,7 +9347,7 @@
       <c r="W165" s="4"/>
       <c r="X165" s="4"/>
     </row>
-    <row r="166" spans="13:26" x14ac:dyDescent="0.25">
+    <row r="166" spans="13:26" x14ac:dyDescent="0.3">
       <c r="M166" s="1"/>
       <c r="N166" s="3"/>
       <c r="O166" s="2"/>
@@ -9343,48 +9361,48 @@
       <c r="W166" s="4"/>
       <c r="X166" s="4"/>
     </row>
-    <row r="168" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P168" s="73" t="s">
+    <row r="168" spans="13:26" x14ac:dyDescent="0.3">
+      <c r="P168" s="70" t="s">
         <v>100</v>
       </c>
-      <c r="Q168" s="73"/>
-      <c r="R168" s="73"/>
-      <c r="S168" s="73"/>
-      <c r="T168" s="73"/>
-      <c r="U168" s="73"/>
-      <c r="V168" s="73"/>
-    </row>
-    <row r="169" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P169" s="73"/>
-      <c r="Q169" s="73"/>
-      <c r="R169" s="73"/>
-      <c r="S169" s="73"/>
-      <c r="T169" s="73"/>
-      <c r="U169" s="73"/>
-      <c r="V169" s="73"/>
-    </row>
-    <row r="170" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M170" s="74" t="s">
+      <c r="Q168" s="70"/>
+      <c r="R168" s="70"/>
+      <c r="S168" s="70"/>
+      <c r="T168" s="70"/>
+      <c r="U168" s="70"/>
+      <c r="V168" s="70"/>
+    </row>
+    <row r="169" spans="13:26" x14ac:dyDescent="0.3">
+      <c r="P169" s="70"/>
+      <c r="Q169" s="70"/>
+      <c r="R169" s="70"/>
+      <c r="S169" s="70"/>
+      <c r="T169" s="70"/>
+      <c r="U169" s="70"/>
+      <c r="V169" s="70"/>
+    </row>
+    <row r="170" spans="13:26" x14ac:dyDescent="0.3">
+      <c r="M170" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="N170" s="74"/>
-      <c r="O170" s="74"/>
-      <c r="P170" s="75" t="s">
+      <c r="N170" s="71"/>
+      <c r="O170" s="71"/>
+      <c r="P170" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="Q170" s="75"/>
-      <c r="R170" s="75"/>
-      <c r="S170" s="75"/>
+      <c r="Q170" s="72"/>
+      <c r="R170" s="72"/>
+      <c r="S170" s="72"/>
       <c r="T170" s="18"/>
       <c r="U170" s="18"/>
-      <c r="V170" s="78" t="e">
+      <c r="V170" s="73" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W170" s="79"/>
-      <c r="X170" s="80"/>
-    </row>
-    <row r="171" spans="13:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="W170" s="74"/>
+      <c r="X170" s="75"/>
+    </row>
+    <row r="171" spans="13:26" ht="30.6" x14ac:dyDescent="0.3">
       <c r="M171" s="6" t="s">
         <v>0</v>
       </c>
@@ -9422,7 +9440,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="172" spans="13:26" x14ac:dyDescent="0.25">
+    <row r="172" spans="13:26" x14ac:dyDescent="0.3">
       <c r="M172" s="47"/>
       <c r="N172" s="48" t="s">
         <v>35</v>
@@ -9458,7 +9476,7 @@
         <v>0.4236111111111111</v>
       </c>
     </row>
-    <row r="173" spans="13:26" x14ac:dyDescent="0.25">
+    <row r="173" spans="13:26" x14ac:dyDescent="0.3">
       <c r="M173" s="47"/>
       <c r="N173" s="65"/>
       <c r="O173" s="66"/>
@@ -9470,9 +9488,9 @@
       <c r="U173" s="69"/>
       <c r="V173" s="34"/>
       <c r="W173" s="34"/>
-      <c r="X173" s="70"/>
-    </row>
-    <row r="174" spans="13:26" x14ac:dyDescent="0.25">
+      <c r="X173" s="35"/>
+    </row>
+    <row r="174" spans="13:26" x14ac:dyDescent="0.3">
       <c r="M174" s="47"/>
       <c r="N174" s="48"/>
       <c r="O174" s="49"/>
@@ -9486,7 +9504,7 @@
       <c r="W174" s="34"/>
       <c r="X174" s="35"/>
     </row>
-    <row r="175" spans="13:26" x14ac:dyDescent="0.25">
+    <row r="175" spans="13:26" x14ac:dyDescent="0.3">
       <c r="M175" s="47"/>
       <c r="N175" s="48"/>
       <c r="O175" s="49"/>
@@ -9500,7 +9518,7 @@
       <c r="W175" s="34"/>
       <c r="X175" s="35"/>
     </row>
-    <row r="176" spans="13:26" x14ac:dyDescent="0.25">
+    <row r="176" spans="13:26" x14ac:dyDescent="0.3">
       <c r="M176" s="1"/>
       <c r="N176" s="48"/>
       <c r="O176" s="49"/>
@@ -9514,7 +9532,7 @@
       <c r="W176" s="4"/>
       <c r="X176" s="15"/>
     </row>
-    <row r="177" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="177" spans="13:26" x14ac:dyDescent="0.3">
       <c r="M177" s="1"/>
       <c r="N177" s="3"/>
       <c r="O177" s="2"/>
@@ -9530,7 +9548,7 @@
       <c r="W177" s="4"/>
       <c r="X177" s="15"/>
     </row>
-    <row r="178" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="178" spans="13:26" x14ac:dyDescent="0.3">
       <c r="M178" s="1"/>
       <c r="N178" s="3"/>
       <c r="O178" s="2"/>
@@ -9544,7 +9562,7 @@
       <c r="W178" s="4"/>
       <c r="X178" s="4"/>
     </row>
-    <row r="179" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="179" spans="13:26" x14ac:dyDescent="0.3">
       <c r="M179" s="1"/>
       <c r="N179" s="3"/>
       <c r="O179" s="2"/>
@@ -9558,7 +9576,7 @@
       <c r="W179" s="4"/>
       <c r="X179" s="4"/>
     </row>
-    <row r="180" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="180" spans="13:26" x14ac:dyDescent="0.3">
       <c r="M180" s="1"/>
       <c r="N180" s="3"/>
       <c r="O180" s="2"/>
@@ -9572,7 +9590,7 @@
       <c r="W180" s="4"/>
       <c r="X180" s="4"/>
     </row>
-    <row r="181" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="181" spans="13:26" x14ac:dyDescent="0.3">
       <c r="M181" s="1"/>
       <c r="N181" s="3"/>
       <c r="O181" s="2"/>
@@ -9586,61 +9604,219 @@
       <c r="W181" s="4"/>
       <c r="X181" s="4"/>
     </row>
+    <row r="186" spans="13:26" x14ac:dyDescent="0.3">
+      <c r="P186" s="70" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q186" s="70"/>
+      <c r="R186" s="70"/>
+      <c r="S186" s="70"/>
+      <c r="T186" s="70"/>
+      <c r="U186" s="70"/>
+      <c r="V186" s="70"/>
+    </row>
+    <row r="187" spans="13:26" x14ac:dyDescent="0.3">
+      <c r="P187" s="70"/>
+      <c r="Q187" s="70"/>
+      <c r="R187" s="70"/>
+      <c r="S187" s="70"/>
+      <c r="T187" s="70"/>
+      <c r="U187" s="70"/>
+      <c r="V187" s="70"/>
+    </row>
+    <row r="188" spans="13:26" x14ac:dyDescent="0.3">
+      <c r="M188" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="N188" s="71"/>
+      <c r="O188" s="71"/>
+      <c r="P188" s="72" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q188" s="72"/>
+      <c r="R188" s="72"/>
+      <c r="S188" s="72"/>
+      <c r="T188" s="18"/>
+      <c r="U188" s="18"/>
+      <c r="V188" s="73" t="e">
+        <f>FECHANUMERO</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W188" s="74"/>
+      <c r="X188" s="75"/>
+    </row>
+    <row r="189" spans="13:26" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="M189" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N189" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O189" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P189" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q189" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="R189" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="S189" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="T189" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="U189" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="V189" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="W189" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="X189" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z189" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="190" spans="13:26" x14ac:dyDescent="0.3">
+      <c r="M190" s="47"/>
+      <c r="N190" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="O190" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="P190" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q190" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="R190" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="S190" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="T190" s="43">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="U190" s="33">
+        <v>0.54027777777777775</v>
+      </c>
+      <c r="V190" s="34">
+        <v>0.55972222222222223</v>
+      </c>
+      <c r="W190" s="34"/>
+      <c r="X190" s="35"/>
+      <c r="Z190" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="191" spans="13:26" x14ac:dyDescent="0.3">
+      <c r="M191" s="47"/>
+      <c r="N191" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="O191" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="P191" s="66" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q191" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="R191" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="S191" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="T191" s="43">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="U191" s="69">
+        <v>0.54097222222222219</v>
+      </c>
+      <c r="V191" s="34">
+        <v>0.56180555555555556</v>
+      </c>
+      <c r="W191" s="34"/>
+      <c r="X191" s="35"/>
+      <c r="Z191" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="192" spans="13:26" x14ac:dyDescent="0.3">
+      <c r="M192" s="47"/>
+      <c r="N192" s="48"/>
+      <c r="O192" s="49"/>
+      <c r="P192" s="49"/>
+      <c r="Q192" s="49"/>
+      <c r="R192" s="50"/>
+      <c r="S192" s="16"/>
+      <c r="T192" s="44"/>
+      <c r="U192" s="34"/>
+      <c r="V192" s="34"/>
+      <c r="W192" s="34"/>
+      <c r="X192" s="35"/>
+      <c r="Z192" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193" spans="13:26" ht="24" x14ac:dyDescent="0.3">
+      <c r="M193" s="47"/>
+      <c r="N193" s="48"/>
+      <c r="O193" s="49"/>
+      <c r="P193" s="49"/>
+      <c r="Q193" s="49"/>
+      <c r="R193" s="50"/>
+      <c r="S193" s="16"/>
+      <c r="T193" s="44"/>
+      <c r="U193" s="34"/>
+      <c r="V193" s="34"/>
+      <c r="W193" s="34"/>
+      <c r="X193" s="35"/>
+      <c r="Z193" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="194" spans="13:26" x14ac:dyDescent="0.3">
+      <c r="M194" s="1"/>
+      <c r="N194" s="48"/>
+      <c r="O194" s="49"/>
+      <c r="P194" s="49"/>
+      <c r="Q194" s="49"/>
+      <c r="R194" s="50"/>
+      <c r="S194" s="16"/>
+      <c r="T194" s="39"/>
+      <c r="U194" s="17"/>
+      <c r="V194" s="4"/>
+      <c r="W194" s="4"/>
+      <c r="X194" s="15"/>
+    </row>
   </sheetData>
-  <mergeCells count="76">
-    <mergeCell ref="P121:V122"/>
-    <mergeCell ref="V123:X123"/>
-    <mergeCell ref="M123:O123"/>
-    <mergeCell ref="P123:S123"/>
-    <mergeCell ref="P138:V139"/>
-    <mergeCell ref="C37:G38"/>
-    <mergeCell ref="P37:V38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="C22:G23"/>
-    <mergeCell ref="P22:V23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="C2:G3"/>
-    <mergeCell ref="P2:V3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="P39:S39"/>
-    <mergeCell ref="V39:X39"/>
-    <mergeCell ref="C53:G54"/>
-    <mergeCell ref="P53:V54"/>
-    <mergeCell ref="V55:X55"/>
-    <mergeCell ref="C69:G70"/>
-    <mergeCell ref="P69:V70"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="D71:G71"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="M71:O71"/>
-    <mergeCell ref="P71:S71"/>
-    <mergeCell ref="V71:X71"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="M55:O55"/>
-    <mergeCell ref="P55:S55"/>
-    <mergeCell ref="C86:G87"/>
-    <mergeCell ref="P86:V87"/>
-    <mergeCell ref="A88:C88"/>
-    <mergeCell ref="D88:G88"/>
-    <mergeCell ref="H88:J88"/>
-    <mergeCell ref="M88:O88"/>
-    <mergeCell ref="P88:S88"/>
-    <mergeCell ref="V88:X88"/>
+  <mergeCells count="80">
+    <mergeCell ref="P186:V187"/>
+    <mergeCell ref="M188:O188"/>
+    <mergeCell ref="P188:S188"/>
+    <mergeCell ref="V188:X188"/>
+    <mergeCell ref="P168:V169"/>
+    <mergeCell ref="M170:O170"/>
+    <mergeCell ref="P170:S170"/>
+    <mergeCell ref="V170:X170"/>
+    <mergeCell ref="M155:O155"/>
+    <mergeCell ref="P155:S155"/>
+    <mergeCell ref="V155:X155"/>
     <mergeCell ref="P153:V154"/>
     <mergeCell ref="C103:G104"/>
     <mergeCell ref="P103:V104"/>
@@ -9657,13 +9833,59 @@
     <mergeCell ref="M140:O140"/>
     <mergeCell ref="P140:S140"/>
     <mergeCell ref="V140:X140"/>
-    <mergeCell ref="P168:V169"/>
-    <mergeCell ref="M170:O170"/>
-    <mergeCell ref="P170:S170"/>
-    <mergeCell ref="V170:X170"/>
-    <mergeCell ref="M155:O155"/>
-    <mergeCell ref="P155:S155"/>
-    <mergeCell ref="V155:X155"/>
+    <mergeCell ref="C86:G87"/>
+    <mergeCell ref="P86:V87"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="D88:G88"/>
+    <mergeCell ref="H88:J88"/>
+    <mergeCell ref="M88:O88"/>
+    <mergeCell ref="P88:S88"/>
+    <mergeCell ref="V88:X88"/>
+    <mergeCell ref="V71:X71"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="P55:S55"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="D71:G71"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="M71:O71"/>
+    <mergeCell ref="P71:S71"/>
+    <mergeCell ref="C53:G54"/>
+    <mergeCell ref="P53:V54"/>
+    <mergeCell ref="V55:X55"/>
+    <mergeCell ref="C69:G70"/>
+    <mergeCell ref="P69:V70"/>
+    <mergeCell ref="C2:G3"/>
+    <mergeCell ref="P2:V3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="C22:G23"/>
+    <mergeCell ref="P22:V23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="C37:G38"/>
+    <mergeCell ref="P37:V38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="P39:S39"/>
+    <mergeCell ref="V39:X39"/>
+    <mergeCell ref="P121:V122"/>
+    <mergeCell ref="V123:X123"/>
+    <mergeCell ref="M123:O123"/>
+    <mergeCell ref="P123:S123"/>
+    <mergeCell ref="P138:V139"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -9671,14 +9893,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="B3" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DOC 2023/FORMATO STATUS.xlsx
+++ b/DOC 2023/FORMATO STATUS.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\compañia\OFICINA\DOC 2023\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23EEA583-194F-4E51-893B-12E8E6DCD86B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="FEBRERO" sheetId="2" r:id="rId1"/>
     <sheet name="MARZO" sheetId="3" r:id="rId2"/>
     <sheet name="Hoja2" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="108">
   <si>
     <t>DT</t>
   </si>
@@ -349,9 +343,6 @@
   </si>
   <si>
     <t>AFU0919</t>
-  </si>
-  <si>
-    <t>mMilton Abril</t>
   </si>
   <si>
     <t>EL ROSADO</t>
@@ -360,7 +351,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
@@ -883,6 +874,12 @@
     <xf numFmtId="20" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -892,6 +889,12 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -899,18 +902,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1190,103 +1181,103 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Z124"/>
   <sheetViews>
     <sheetView topLeftCell="J103" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.33203125" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" customWidth="1"/>
-    <col min="12" max="12" width="31.109375" customWidth="1"/>
-    <col min="16" max="16" width="10.5546875" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" customWidth="1"/>
+    <col min="12" max="12" width="31.140625" customWidth="1"/>
+    <col min="16" max="16" width="10.5703125" customWidth="1"/>
     <col min="17" max="17" width="24" customWidth="1"/>
-    <col min="19" max="19" width="21.88671875" customWidth="1"/>
-    <col min="20" max="20" width="18.88671875" customWidth="1"/>
-    <col min="21" max="21" width="13.33203125" customWidth="1"/>
-    <col min="26" max="27" width="17.33203125" customWidth="1"/>
+    <col min="19" max="19" width="21.85546875" customWidth="1"/>
+    <col min="20" max="20" width="18.85546875" customWidth="1"/>
+    <col min="21" max="21" width="13.28515625" customWidth="1"/>
+    <col min="26" max="27" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C2" s="76" t="s">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C2" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="P2" s="70" t="s">
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="P2" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="70"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="P3" s="70"/>
-      <c r="Q3" s="70"/>
-      <c r="R3" s="70"/>
-      <c r="S3" s="70"/>
-      <c r="T3" s="70"/>
-      <c r="U3" s="70"/>
-      <c r="V3" s="70"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A4" s="71" t="s">
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="72"/>
+      <c r="U2" s="72"/>
+      <c r="V2" s="72"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="72"/>
+      <c r="S3" s="72"/>
+      <c r="T3" s="72"/>
+      <c r="U3" s="72"/>
+      <c r="V3" s="72"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="72" t="s">
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="78">
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="75">
         <v>44965</v>
       </c>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
-      <c r="M4" s="71" t="s">
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="M4" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="72" t="s">
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="72"/>
-      <c r="S4" s="72"/>
+      <c r="Q4" s="74"/>
+      <c r="R4" s="74"/>
+      <c r="S4" s="74"/>
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
-      <c r="V4" s="73">
+      <c r="V4" s="77">
         <v>44601</v>
       </c>
-      <c r="W4" s="74"/>
-      <c r="X4" s="75"/>
-    </row>
-    <row r="5" spans="1:26" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="W4" s="78"/>
+      <c r="X4" s="79"/>
+    </row>
+    <row r="5" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>37</v>
       </c>
@@ -1674,7 +1665,7 @@
       <c r="W14" s="4"/>
       <c r="X14" s="4"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="3"/>
       <c r="C15" s="2"/>
@@ -1698,75 +1689,75 @@
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C22" s="76" t="s">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C22" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="76"/>
-      <c r="P22" s="70" t="s">
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="70"/>
+      <c r="P22" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="Q22" s="70"/>
-      <c r="R22" s="70"/>
-      <c r="S22" s="70"/>
-      <c r="T22" s="70"/>
-      <c r="U22" s="70"/>
-      <c r="V22" s="70"/>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C23" s="77"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="77"/>
-      <c r="P23" s="70"/>
-      <c r="Q23" s="70"/>
-      <c r="R23" s="70"/>
-      <c r="S23" s="70"/>
-      <c r="T23" s="70"/>
-      <c r="U23" s="70"/>
-      <c r="V23" s="70"/>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A24" s="71" t="s">
+      <c r="Q22" s="72"/>
+      <c r="R22" s="72"/>
+      <c r="S22" s="72"/>
+      <c r="T22" s="72"/>
+      <c r="U22" s="72"/>
+      <c r="V22" s="72"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C23" s="71"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="P23" s="72"/>
+      <c r="Q23" s="72"/>
+      <c r="R23" s="72"/>
+      <c r="S23" s="72"/>
+      <c r="T23" s="72"/>
+      <c r="U23" s="72"/>
+      <c r="V23" s="72"/>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="71"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="72" t="s">
+      <c r="B24" s="73"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="78">
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="75">
         <v>44965</v>
       </c>
-      <c r="I24" s="79"/>
-      <c r="J24" s="79"/>
-      <c r="M24" s="71" t="s">
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="M24" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="N24" s="71"/>
-      <c r="O24" s="71"/>
-      <c r="P24" s="72" t="s">
+      <c r="N24" s="73"/>
+      <c r="O24" s="73"/>
+      <c r="P24" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="Q24" s="72"/>
-      <c r="R24" s="72"/>
-      <c r="S24" s="72"/>
+      <c r="Q24" s="74"/>
+      <c r="R24" s="74"/>
+      <c r="S24" s="74"/>
       <c r="T24" s="18"/>
       <c r="U24" s="18"/>
-      <c r="V24" s="73">
+      <c r="V24" s="77">
         <v>44971</v>
       </c>
-      <c r="W24" s="74"/>
-      <c r="X24" s="75"/>
-    </row>
-    <row r="25" spans="1:26" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="W24" s="78"/>
+      <c r="X24" s="79"/>
+    </row>
+    <row r="25" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>0</v>
       </c>
@@ -2122,7 +2113,7 @@
       <c r="W31" s="4"/>
       <c r="X31" s="15"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="3"/>
       <c r="C32" s="2"/>
@@ -2146,7 +2137,7 @@
       <c r="W32" s="4"/>
       <c r="X32" s="4"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="3"/>
       <c r="C33" s="2"/>
@@ -2170,7 +2161,7 @@
       <c r="W33" s="4"/>
       <c r="X33" s="4"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="3"/>
       <c r="C34" s="2"/>
@@ -2194,7 +2185,7 @@
       <c r="W34" s="4"/>
       <c r="X34" s="4"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="3"/>
       <c r="C35" s="2"/>
@@ -2218,75 +2209,75 @@
       <c r="W35" s="4"/>
       <c r="X35" s="4"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C38" s="76" t="s">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C38" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="76"/>
-      <c r="E38" s="76"/>
-      <c r="F38" s="76"/>
-      <c r="G38" s="76"/>
-      <c r="P38" s="70" t="s">
+      <c r="D38" s="70"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="70"/>
+      <c r="P38" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="Q38" s="70"/>
-      <c r="R38" s="70"/>
-      <c r="S38" s="70"/>
-      <c r="T38" s="70"/>
-      <c r="U38" s="70"/>
-      <c r="V38" s="70"/>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C39" s="77"/>
-      <c r="D39" s="77"/>
-      <c r="E39" s="77"/>
-      <c r="F39" s="77"/>
-      <c r="G39" s="77"/>
-      <c r="P39" s="70"/>
-      <c r="Q39" s="70"/>
-      <c r="R39" s="70"/>
-      <c r="S39" s="70"/>
-      <c r="T39" s="70"/>
-      <c r="U39" s="70"/>
-      <c r="V39" s="70"/>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A40" s="71" t="s">
+      <c r="Q38" s="72"/>
+      <c r="R38" s="72"/>
+      <c r="S38" s="72"/>
+      <c r="T38" s="72"/>
+      <c r="U38" s="72"/>
+      <c r="V38" s="72"/>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C39" s="71"/>
+      <c r="D39" s="71"/>
+      <c r="E39" s="71"/>
+      <c r="F39" s="71"/>
+      <c r="G39" s="71"/>
+      <c r="P39" s="72"/>
+      <c r="Q39" s="72"/>
+      <c r="R39" s="72"/>
+      <c r="S39" s="72"/>
+      <c r="T39" s="72"/>
+      <c r="U39" s="72"/>
+      <c r="V39" s="72"/>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A40" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="71"/>
-      <c r="C40" s="71"/>
-      <c r="D40" s="72" t="s">
+      <c r="B40" s="73"/>
+      <c r="C40" s="73"/>
+      <c r="D40" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="E40" s="72"/>
-      <c r="F40" s="72"/>
-      <c r="G40" s="72"/>
-      <c r="H40" s="78">
+      <c r="E40" s="74"/>
+      <c r="F40" s="74"/>
+      <c r="G40" s="74"/>
+      <c r="H40" s="75">
         <v>44972</v>
       </c>
-      <c r="I40" s="79"/>
-      <c r="J40" s="79"/>
-      <c r="M40" s="71" t="s">
+      <c r="I40" s="76"/>
+      <c r="J40" s="76"/>
+      <c r="M40" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="N40" s="71"/>
-      <c r="O40" s="71"/>
-      <c r="P40" s="72" t="s">
+      <c r="N40" s="73"/>
+      <c r="O40" s="73"/>
+      <c r="P40" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="Q40" s="72"/>
-      <c r="R40" s="72"/>
-      <c r="S40" s="72"/>
+      <c r="Q40" s="74"/>
+      <c r="R40" s="74"/>
+      <c r="S40" s="74"/>
       <c r="T40" s="18"/>
       <c r="U40" s="18"/>
-      <c r="V40" s="73">
+      <c r="V40" s="77">
         <v>44973</v>
       </c>
-      <c r="W40" s="74"/>
-      <c r="X40" s="75"/>
-    </row>
-    <row r="41" spans="1:26" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="W40" s="78"/>
+      <c r="X40" s="79"/>
+    </row>
+    <row r="41" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>0</v>
       </c>
@@ -2578,7 +2569,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="3"/>
       <c r="C47" s="2"/>
@@ -2602,7 +2593,7 @@
       <c r="W47" s="4"/>
       <c r="X47" s="15"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="3"/>
       <c r="C48" s="2"/>
@@ -2626,7 +2617,7 @@
       <c r="W48" s="4"/>
       <c r="X48" s="4"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="3"/>
       <c r="C49" s="2"/>
@@ -2650,7 +2641,7 @@
       <c r="W49" s="4"/>
       <c r="X49" s="4"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="3"/>
       <c r="C50" s="2"/>
@@ -2674,7 +2665,7 @@
       <c r="W50" s="4"/>
       <c r="X50" s="4"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="3"/>
       <c r="C51" s="2"/>
@@ -2698,75 +2689,75 @@
       <c r="W51" s="4"/>
       <c r="X51" s="4"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C54" s="76" t="s">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C54" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="D54" s="76"/>
-      <c r="E54" s="76"/>
-      <c r="F54" s="76"/>
-      <c r="G54" s="76"/>
-      <c r="P54" s="70" t="s">
+      <c r="D54" s="70"/>
+      <c r="E54" s="70"/>
+      <c r="F54" s="70"/>
+      <c r="G54" s="70"/>
+      <c r="P54" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="Q54" s="70"/>
-      <c r="R54" s="70"/>
-      <c r="S54" s="70"/>
-      <c r="T54" s="70"/>
-      <c r="U54" s="70"/>
-      <c r="V54" s="70"/>
-    </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C55" s="77"/>
-      <c r="D55" s="77"/>
-      <c r="E55" s="77"/>
-      <c r="F55" s="77"/>
-      <c r="G55" s="77"/>
-      <c r="P55" s="70"/>
-      <c r="Q55" s="70"/>
-      <c r="R55" s="70"/>
-      <c r="S55" s="70"/>
-      <c r="T55" s="70"/>
-      <c r="U55" s="70"/>
-      <c r="V55" s="70"/>
-    </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A56" s="71" t="s">
+      <c r="Q54" s="72"/>
+      <c r="R54" s="72"/>
+      <c r="S54" s="72"/>
+      <c r="T54" s="72"/>
+      <c r="U54" s="72"/>
+      <c r="V54" s="72"/>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C55" s="71"/>
+      <c r="D55" s="71"/>
+      <c r="E55" s="71"/>
+      <c r="F55" s="71"/>
+      <c r="G55" s="71"/>
+      <c r="P55" s="72"/>
+      <c r="Q55" s="72"/>
+      <c r="R55" s="72"/>
+      <c r="S55" s="72"/>
+      <c r="T55" s="72"/>
+      <c r="U55" s="72"/>
+      <c r="V55" s="72"/>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A56" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="71"/>
-      <c r="C56" s="71"/>
-      <c r="D56" s="72" t="s">
+      <c r="B56" s="73"/>
+      <c r="C56" s="73"/>
+      <c r="D56" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="E56" s="72"/>
-      <c r="F56" s="72"/>
-      <c r="G56" s="72"/>
-      <c r="H56" s="78">
+      <c r="E56" s="74"/>
+      <c r="F56" s="74"/>
+      <c r="G56" s="74"/>
+      <c r="H56" s="75">
         <v>44974</v>
       </c>
-      <c r="I56" s="79"/>
-      <c r="J56" s="79"/>
-      <c r="M56" s="71" t="s">
+      <c r="I56" s="76"/>
+      <c r="J56" s="76"/>
+      <c r="M56" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="N56" s="71"/>
-      <c r="O56" s="71"/>
-      <c r="P56" s="72" t="s">
+      <c r="N56" s="73"/>
+      <c r="O56" s="73"/>
+      <c r="P56" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="Q56" s="72"/>
-      <c r="R56" s="72"/>
-      <c r="S56" s="72"/>
+      <c r="Q56" s="74"/>
+      <c r="R56" s="74"/>
+      <c r="S56" s="74"/>
       <c r="T56" s="18"/>
       <c r="U56" s="18"/>
-      <c r="V56" s="73">
+      <c r="V56" s="77">
         <v>44975</v>
       </c>
-      <c r="W56" s="74"/>
-      <c r="X56" s="75"/>
-    </row>
-    <row r="57" spans="1:26" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="W56" s="78"/>
+      <c r="X56" s="79"/>
+    </row>
+    <row r="57" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>0</v>
       </c>
@@ -2834,7 +2825,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="3" t="s">
         <v>35</v>
@@ -2904,7 +2895,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="3" t="s">
         <v>35</v>
@@ -2974,7 +2965,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A60" s="27"/>
       <c r="B60" s="3" t="s">
         <v>35</v>
@@ -3044,7 +3035,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="28"/>
       <c r="C61" s="29"/>
@@ -3098,7 +3089,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="3"/>
       <c r="C63" s="2"/>
@@ -3122,7 +3113,7 @@
       <c r="W63" s="4"/>
       <c r="X63" s="15"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="3"/>
       <c r="C64" s="2"/>
@@ -3146,7 +3137,7 @@
       <c r="W64" s="4"/>
       <c r="X64" s="4"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="3"/>
       <c r="C65" s="2"/>
@@ -3170,7 +3161,7 @@
       <c r="W65" s="4"/>
       <c r="X65" s="4"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="3"/>
       <c r="C66" s="2"/>
@@ -3194,7 +3185,7 @@
       <c r="W66" s="4"/>
       <c r="X66" s="4"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="3"/>
       <c r="C67" s="2"/>
@@ -3218,75 +3209,75 @@
       <c r="W67" s="4"/>
       <c r="X67" s="4"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C70" s="76" t="s">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C70" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="D70" s="76"/>
-      <c r="E70" s="76"/>
-      <c r="F70" s="76"/>
-      <c r="G70" s="76"/>
-      <c r="P70" s="70" t="s">
+      <c r="D70" s="70"/>
+      <c r="E70" s="70"/>
+      <c r="F70" s="70"/>
+      <c r="G70" s="70"/>
+      <c r="P70" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="Q70" s="70"/>
-      <c r="R70" s="70"/>
-      <c r="S70" s="70"/>
-      <c r="T70" s="70"/>
-      <c r="U70" s="70"/>
-      <c r="V70" s="70"/>
-    </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C71" s="77"/>
-      <c r="D71" s="77"/>
-      <c r="E71" s="77"/>
-      <c r="F71" s="77"/>
-      <c r="G71" s="77"/>
-      <c r="P71" s="70"/>
-      <c r="Q71" s="70"/>
-      <c r="R71" s="70"/>
-      <c r="S71" s="70"/>
-      <c r="T71" s="70"/>
-      <c r="U71" s="70"/>
-      <c r="V71" s="70"/>
-    </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A72" s="71" t="s">
+      <c r="Q70" s="72"/>
+      <c r="R70" s="72"/>
+      <c r="S70" s="72"/>
+      <c r="T70" s="72"/>
+      <c r="U70" s="72"/>
+      <c r="V70" s="72"/>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C71" s="71"/>
+      <c r="D71" s="71"/>
+      <c r="E71" s="71"/>
+      <c r="F71" s="71"/>
+      <c r="G71" s="71"/>
+      <c r="P71" s="72"/>
+      <c r="Q71" s="72"/>
+      <c r="R71" s="72"/>
+      <c r="S71" s="72"/>
+      <c r="T71" s="72"/>
+      <c r="U71" s="72"/>
+      <c r="V71" s="72"/>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A72" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B72" s="71"/>
-      <c r="C72" s="71"/>
-      <c r="D72" s="72" t="s">
+      <c r="B72" s="73"/>
+      <c r="C72" s="73"/>
+      <c r="D72" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="E72" s="72"/>
-      <c r="F72" s="72"/>
-      <c r="G72" s="72"/>
-      <c r="H72" s="78">
+      <c r="E72" s="74"/>
+      <c r="F72" s="74"/>
+      <c r="G72" s="74"/>
+      <c r="H72" s="75">
         <v>44979</v>
       </c>
-      <c r="I72" s="79"/>
-      <c r="J72" s="79"/>
-      <c r="M72" s="71" t="s">
+      <c r="I72" s="76"/>
+      <c r="J72" s="76"/>
+      <c r="M72" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="N72" s="71"/>
-      <c r="O72" s="71"/>
-      <c r="P72" s="72" t="s">
+      <c r="N72" s="73"/>
+      <c r="O72" s="73"/>
+      <c r="P72" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="Q72" s="72"/>
-      <c r="R72" s="72"/>
-      <c r="S72" s="72"/>
+      <c r="Q72" s="74"/>
+      <c r="R72" s="74"/>
+      <c r="S72" s="74"/>
       <c r="T72" s="18"/>
       <c r="U72" s="18"/>
-      <c r="V72" s="73">
+      <c r="V72" s="77">
         <v>44980</v>
       </c>
-      <c r="W72" s="74"/>
-      <c r="X72" s="75"/>
-    </row>
-    <row r="73" spans="1:26" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="W72" s="78"/>
+      <c r="X72" s="79"/>
+    </row>
+    <row r="73" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>0</v>
       </c>
@@ -3354,7 +3345,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="3" t="s">
         <v>35</v>
@@ -3420,7 +3411,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="3"/>
       <c r="C75" s="2"/>
@@ -3450,7 +3441,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A76" s="27"/>
       <c r="B76" s="3"/>
       <c r="C76" s="2"/>
@@ -3480,7 +3471,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="28"/>
       <c r="C77" s="29"/>
@@ -3534,7 +3525,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="3"/>
       <c r="C79" s="2"/>
@@ -3558,7 +3549,7 @@
       <c r="W79" s="4"/>
       <c r="X79" s="15"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="3"/>
       <c r="C80" s="2"/>
@@ -3582,7 +3573,7 @@
       <c r="W80" s="4"/>
       <c r="X80" s="4"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="3"/>
       <c r="C81" s="2"/>
@@ -3606,7 +3597,7 @@
       <c r="W81" s="4"/>
       <c r="X81" s="4"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="3"/>
       <c r="C82" s="2"/>
@@ -3630,7 +3621,7 @@
       <c r="W82" s="4"/>
       <c r="X82" s="4"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="3"/>
       <c r="C83" s="2"/>
@@ -3654,75 +3645,75 @@
       <c r="W83" s="4"/>
       <c r="X83" s="4"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C87" s="76" t="s">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C87" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="D87" s="76"/>
-      <c r="E87" s="76"/>
-      <c r="F87" s="76"/>
-      <c r="G87" s="76"/>
-      <c r="P87" s="70" t="s">
+      <c r="D87" s="70"/>
+      <c r="E87" s="70"/>
+      <c r="F87" s="70"/>
+      <c r="G87" s="70"/>
+      <c r="P87" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="Q87" s="70"/>
-      <c r="R87" s="70"/>
-      <c r="S87" s="70"/>
-      <c r="T87" s="70"/>
-      <c r="U87" s="70"/>
-      <c r="V87" s="70"/>
-    </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C88" s="77"/>
-      <c r="D88" s="77"/>
-      <c r="E88" s="77"/>
-      <c r="F88" s="77"/>
-      <c r="G88" s="77"/>
-      <c r="P88" s="70"/>
-      <c r="Q88" s="70"/>
-      <c r="R88" s="70"/>
-      <c r="S88" s="70"/>
-      <c r="T88" s="70"/>
-      <c r="U88" s="70"/>
-      <c r="V88" s="70"/>
-    </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A89" s="71" t="s">
+      <c r="Q87" s="72"/>
+      <c r="R87" s="72"/>
+      <c r="S87" s="72"/>
+      <c r="T87" s="72"/>
+      <c r="U87" s="72"/>
+      <c r="V87" s="72"/>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C88" s="71"/>
+      <c r="D88" s="71"/>
+      <c r="E88" s="71"/>
+      <c r="F88" s="71"/>
+      <c r="G88" s="71"/>
+      <c r="P88" s="72"/>
+      <c r="Q88" s="72"/>
+      <c r="R88" s="72"/>
+      <c r="S88" s="72"/>
+      <c r="T88" s="72"/>
+      <c r="U88" s="72"/>
+      <c r="V88" s="72"/>
+    </row>
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A89" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B89" s="71"/>
-      <c r="C89" s="71"/>
-      <c r="D89" s="72" t="s">
+      <c r="B89" s="73"/>
+      <c r="C89" s="73"/>
+      <c r="D89" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="E89" s="72"/>
-      <c r="F89" s="72"/>
-      <c r="G89" s="72"/>
-      <c r="H89" s="78">
+      <c r="E89" s="74"/>
+      <c r="F89" s="74"/>
+      <c r="G89" s="74"/>
+      <c r="H89" s="75">
         <v>44981</v>
       </c>
-      <c r="I89" s="79"/>
-      <c r="J89" s="79"/>
-      <c r="M89" s="71" t="s">
+      <c r="I89" s="76"/>
+      <c r="J89" s="76"/>
+      <c r="M89" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="N89" s="71"/>
-      <c r="O89" s="71"/>
-      <c r="P89" s="72" t="s">
+      <c r="N89" s="73"/>
+      <c r="O89" s="73"/>
+      <c r="P89" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="Q89" s="72"/>
-      <c r="R89" s="72"/>
-      <c r="S89" s="72"/>
+      <c r="Q89" s="74"/>
+      <c r="R89" s="74"/>
+      <c r="S89" s="74"/>
       <c r="T89" s="18"/>
       <c r="U89" s="18"/>
-      <c r="V89" s="73">
+      <c r="V89" s="77">
         <v>44980</v>
       </c>
-      <c r="W89" s="74"/>
-      <c r="X89" s="75"/>
-    </row>
-    <row r="90" spans="1:26" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="W89" s="78"/>
+      <c r="X89" s="79"/>
+    </row>
+    <row r="90" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>0</v>
       </c>
@@ -3790,7 +3781,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="3" t="s">
         <v>35</v>
@@ -3860,7 +3851,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="3" t="s">
         <v>35</v>
@@ -3930,7 +3921,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A93" s="27"/>
       <c r="B93" s="3" t="s">
         <v>35</v>
@@ -4000,7 +3991,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="28"/>
       <c r="C94" s="29"/>
@@ -4054,7 +4045,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="3"/>
       <c r="C96" s="2"/>
@@ -4078,7 +4069,7 @@
       <c r="W96" s="4"/>
       <c r="X96" s="15"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="3"/>
       <c r="C97" s="2"/>
@@ -4102,7 +4093,7 @@
       <c r="W97" s="4"/>
       <c r="X97" s="4"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="B98" s="3"/>
       <c r="C98" s="2"/>
@@ -4126,7 +4117,7 @@
       <c r="W98" s="4"/>
       <c r="X98" s="4"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="3"/>
       <c r="C99" s="2"/>
@@ -4150,7 +4141,7 @@
       <c r="W99" s="4"/>
       <c r="X99" s="4"/>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
       <c r="B100" s="3"/>
       <c r="C100" s="2"/>
@@ -4174,75 +4165,75 @@
       <c r="W100" s="4"/>
       <c r="X100" s="4"/>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C104" s="76" t="s">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C104" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="D104" s="76"/>
-      <c r="E104" s="76"/>
-      <c r="F104" s="76"/>
-      <c r="G104" s="76"/>
-      <c r="P104" s="70" t="s">
+      <c r="D104" s="70"/>
+      <c r="E104" s="70"/>
+      <c r="F104" s="70"/>
+      <c r="G104" s="70"/>
+      <c r="P104" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="Q104" s="70"/>
-      <c r="R104" s="70"/>
-      <c r="S104" s="70"/>
-      <c r="T104" s="70"/>
-      <c r="U104" s="70"/>
-      <c r="V104" s="70"/>
-    </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C105" s="77"/>
-      <c r="D105" s="77"/>
-      <c r="E105" s="77"/>
-      <c r="F105" s="77"/>
-      <c r="G105" s="77"/>
-      <c r="P105" s="70"/>
-      <c r="Q105" s="70"/>
-      <c r="R105" s="70"/>
-      <c r="S105" s="70"/>
-      <c r="T105" s="70"/>
-      <c r="U105" s="70"/>
-      <c r="V105" s="70"/>
-    </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A106" s="71" t="s">
+      <c r="Q104" s="72"/>
+      <c r="R104" s="72"/>
+      <c r="S104" s="72"/>
+      <c r="T104" s="72"/>
+      <c r="U104" s="72"/>
+      <c r="V104" s="72"/>
+    </row>
+    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C105" s="71"/>
+      <c r="D105" s="71"/>
+      <c r="E105" s="71"/>
+      <c r="F105" s="71"/>
+      <c r="G105" s="71"/>
+      <c r="P105" s="72"/>
+      <c r="Q105" s="72"/>
+      <c r="R105" s="72"/>
+      <c r="S105" s="72"/>
+      <c r="T105" s="72"/>
+      <c r="U105" s="72"/>
+      <c r="V105" s="72"/>
+    </row>
+    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A106" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B106" s="71"/>
-      <c r="C106" s="71"/>
-      <c r="D106" s="72" t="s">
+      <c r="B106" s="73"/>
+      <c r="C106" s="73"/>
+      <c r="D106" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="E106" s="72"/>
-      <c r="F106" s="72"/>
-      <c r="G106" s="72"/>
-      <c r="H106" s="78">
+      <c r="E106" s="74"/>
+      <c r="F106" s="74"/>
+      <c r="G106" s="74"/>
+      <c r="H106" s="75">
         <v>44979</v>
       </c>
-      <c r="I106" s="79"/>
-      <c r="J106" s="79"/>
-      <c r="M106" s="71" t="s">
+      <c r="I106" s="76"/>
+      <c r="J106" s="76"/>
+      <c r="M106" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="N106" s="71"/>
-      <c r="O106" s="71"/>
-      <c r="P106" s="72" t="s">
+      <c r="N106" s="73"/>
+      <c r="O106" s="73"/>
+      <c r="P106" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="Q106" s="72"/>
-      <c r="R106" s="72"/>
-      <c r="S106" s="72"/>
+      <c r="Q106" s="74"/>
+      <c r="R106" s="74"/>
+      <c r="S106" s="74"/>
       <c r="T106" s="18"/>
       <c r="U106" s="18"/>
-      <c r="V106" s="73" t="s">
+      <c r="V106" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="W106" s="74"/>
-      <c r="X106" s="75"/>
-    </row>
-    <row r="107" spans="1:26" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="W106" s="78"/>
+      <c r="X106" s="79"/>
+    </row>
+    <row r="107" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>0</v>
       </c>
@@ -4614,7 +4605,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" s="3"/>
       <c r="C113" s="2"/>
@@ -4638,7 +4629,7 @@
       <c r="W113" s="4"/>
       <c r="X113" s="15"/>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
       <c r="B114" s="3"/>
       <c r="C114" s="2"/>
@@ -4662,7 +4653,7 @@
       <c r="W114" s="4"/>
       <c r="X114" s="4"/>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
       <c r="B115" s="3"/>
       <c r="C115" s="2"/>
@@ -4686,7 +4677,7 @@
       <c r="W115" s="4"/>
       <c r="X115" s="4"/>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
       <c r="B116" s="3"/>
       <c r="C116" s="2"/>
@@ -4710,7 +4701,7 @@
       <c r="W116" s="4"/>
       <c r="X116" s="4"/>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
       <c r="B117" s="3"/>
       <c r="C117" s="2"/>
@@ -4738,6 +4729,54 @@
     <row r="124" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="P38:V39"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="P40:S40"/>
+    <mergeCell ref="V40:X40"/>
+    <mergeCell ref="C38:G39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="C22:G23"/>
+    <mergeCell ref="P22:V23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="C2:G3"/>
+    <mergeCell ref="P2:V3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="C54:G55"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="P54:V55"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="P56:S56"/>
+    <mergeCell ref="V56:X56"/>
+    <mergeCell ref="C70:G71"/>
+    <mergeCell ref="P70:V71"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="D72:G72"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="M72:O72"/>
+    <mergeCell ref="P72:S72"/>
+    <mergeCell ref="V72:X72"/>
+    <mergeCell ref="C87:G88"/>
+    <mergeCell ref="P87:V88"/>
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="D89:G89"/>
+    <mergeCell ref="H89:J89"/>
+    <mergeCell ref="M89:O89"/>
+    <mergeCell ref="P89:S89"/>
+    <mergeCell ref="V89:X89"/>
     <mergeCell ref="C104:G105"/>
     <mergeCell ref="P104:V105"/>
     <mergeCell ref="A106:C106"/>
@@ -4746,54 +4785,6 @@
     <mergeCell ref="M106:O106"/>
     <mergeCell ref="P106:S106"/>
     <mergeCell ref="V106:X106"/>
-    <mergeCell ref="C87:G88"/>
-    <mergeCell ref="P87:V88"/>
-    <mergeCell ref="A89:C89"/>
-    <mergeCell ref="D89:G89"/>
-    <mergeCell ref="H89:J89"/>
-    <mergeCell ref="M89:O89"/>
-    <mergeCell ref="P89:S89"/>
-    <mergeCell ref="V89:X89"/>
-    <mergeCell ref="C70:G71"/>
-    <mergeCell ref="P70:V71"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="D72:G72"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="M72:O72"/>
-    <mergeCell ref="P72:S72"/>
-    <mergeCell ref="V72:X72"/>
-    <mergeCell ref="C54:G55"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="P54:V55"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="P56:S56"/>
-    <mergeCell ref="V56:X56"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="C2:G3"/>
-    <mergeCell ref="P2:V3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="C22:G23"/>
-    <mergeCell ref="P22:V23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="P38:V39"/>
-    <mergeCell ref="M40:O40"/>
-    <mergeCell ref="P40:S40"/>
-    <mergeCell ref="V40:X40"/>
-    <mergeCell ref="C38:G39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="H40:J40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4801,97 +4792,97 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Z194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M172" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M186" sqref="M186:X192"/>
+    <sheetView tabSelected="1" topLeftCell="N172" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N186" sqref="M186:X191"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.33203125" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" customWidth="1"/>
-    <col min="12" max="12" width="31.109375" customWidth="1"/>
-    <col min="16" max="16" width="10.5546875" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" customWidth="1"/>
+    <col min="12" max="12" width="31.140625" customWidth="1"/>
+    <col min="16" max="16" width="10.5703125" customWidth="1"/>
     <col min="17" max="17" width="24" customWidth="1"/>
-    <col min="19" max="19" width="21.88671875" customWidth="1"/>
-    <col min="20" max="20" width="18.88671875" customWidth="1"/>
-    <col min="21" max="21" width="13.33203125" customWidth="1"/>
+    <col min="19" max="19" width="21.85546875" customWidth="1"/>
+    <col min="20" max="20" width="18.85546875" customWidth="1"/>
+    <col min="21" max="21" width="13.28515625" customWidth="1"/>
     <col min="23" max="23" width="15" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="17.33203125" customWidth="1"/>
+    <col min="26" max="27" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C2" s="76" t="s">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C2" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="P2" s="70" t="s">
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="P2" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="70"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="P3" s="70"/>
-      <c r="Q3" s="70"/>
-      <c r="R3" s="70"/>
-      <c r="S3" s="70"/>
-      <c r="T3" s="70"/>
-      <c r="U3" s="70"/>
-      <c r="V3" s="70"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A4" s="71" t="s">
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="72"/>
+      <c r="U2" s="72"/>
+      <c r="V2" s="72"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="72"/>
+      <c r="S3" s="72"/>
+      <c r="T3" s="72"/>
+      <c r="U3" s="72"/>
+      <c r="V3" s="72"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="72" t="s">
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="78" t="s">
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
-      <c r="M4" s="71" t="s">
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="M4" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="72" t="s">
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="72"/>
-      <c r="S4" s="72"/>
+      <c r="Q4" s="74"/>
+      <c r="R4" s="74"/>
+      <c r="S4" s="74"/>
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
-      <c r="V4" s="73">
+      <c r="V4" s="77">
         <v>44601</v>
       </c>
-      <c r="W4" s="74"/>
-      <c r="X4" s="75"/>
-    </row>
-    <row r="5" spans="1:26" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="W4" s="78"/>
+      <c r="X4" s="79"/>
+    </row>
+    <row r="5" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>37</v>
       </c>
@@ -5331,7 +5322,7 @@
       <c r="W14" s="4"/>
       <c r="X14" s="4"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="3"/>
       <c r="C15" s="2"/>
@@ -5355,75 +5346,75 @@
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C22" s="76" t="s">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C22" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="76"/>
-      <c r="P22" s="70" t="s">
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="70"/>
+      <c r="P22" s="72" t="s">
         <v>77</v>
       </c>
-      <c r="Q22" s="70"/>
-      <c r="R22" s="70"/>
-      <c r="S22" s="70"/>
-      <c r="T22" s="70"/>
-      <c r="U22" s="70"/>
-      <c r="V22" s="70"/>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C23" s="77"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="77"/>
-      <c r="P23" s="70"/>
-      <c r="Q23" s="70"/>
-      <c r="R23" s="70"/>
-      <c r="S23" s="70"/>
-      <c r="T23" s="70"/>
-      <c r="U23" s="70"/>
-      <c r="V23" s="70"/>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A24" s="71" t="s">
+      <c r="Q22" s="72"/>
+      <c r="R22" s="72"/>
+      <c r="S22" s="72"/>
+      <c r="T22" s="72"/>
+      <c r="U22" s="72"/>
+      <c r="V22" s="72"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C23" s="71"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="P23" s="72"/>
+      <c r="Q23" s="72"/>
+      <c r="R23" s="72"/>
+      <c r="S23" s="72"/>
+      <c r="T23" s="72"/>
+      <c r="U23" s="72"/>
+      <c r="V23" s="72"/>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="71"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="72" t="s">
+      <c r="B24" s="73"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="78">
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="75">
         <v>44993</v>
       </c>
-      <c r="I24" s="79"/>
-      <c r="J24" s="79"/>
-      <c r="M24" s="71" t="s">
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="M24" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="N24" s="71"/>
-      <c r="O24" s="71"/>
-      <c r="P24" s="72" t="s">
+      <c r="N24" s="73"/>
+      <c r="O24" s="73"/>
+      <c r="P24" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="Q24" s="72"/>
-      <c r="R24" s="72"/>
-      <c r="S24" s="72"/>
+      <c r="Q24" s="74"/>
+      <c r="R24" s="74"/>
+      <c r="S24" s="74"/>
       <c r="T24" s="18"/>
       <c r="U24" s="18"/>
-      <c r="V24" s="73">
+      <c r="V24" s="77">
         <v>44993</v>
       </c>
-      <c r="W24" s="74"/>
-      <c r="X24" s="75"/>
-    </row>
-    <row r="25" spans="1:26" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="W24" s="78"/>
+      <c r="X24" s="79"/>
+    </row>
+    <row r="25" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>0</v>
       </c>
@@ -5778,7 +5769,7 @@
       <c r="W31" s="4"/>
       <c r="X31" s="4"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="3"/>
       <c r="C32" s="2"/>
@@ -5802,7 +5793,7 @@
       <c r="W32" s="4"/>
       <c r="X32" s="4"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="3"/>
       <c r="C33" s="2"/>
@@ -5826,7 +5817,7 @@
       <c r="W33" s="4"/>
       <c r="X33" s="4"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="3"/>
       <c r="C34" s="2"/>
@@ -5850,75 +5841,75 @@
       <c r="W34" s="4"/>
       <c r="X34" s="4"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C37" s="76" t="s">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C37" s="70" t="s">
         <v>84</v>
       </c>
-      <c r="D37" s="76"/>
-      <c r="E37" s="76"/>
-      <c r="F37" s="76"/>
-      <c r="G37" s="76"/>
-      <c r="P37" s="70" t="s">
+      <c r="D37" s="70"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="70"/>
+      <c r="P37" s="72" t="s">
         <v>81</v>
       </c>
-      <c r="Q37" s="70"/>
-      <c r="R37" s="70"/>
-      <c r="S37" s="70"/>
-      <c r="T37" s="70"/>
-      <c r="U37" s="70"/>
-      <c r="V37" s="70"/>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C38" s="77"/>
-      <c r="D38" s="77"/>
-      <c r="E38" s="77"/>
-      <c r="F38" s="77"/>
-      <c r="G38" s="77"/>
-      <c r="P38" s="70"/>
-      <c r="Q38" s="70"/>
-      <c r="R38" s="70"/>
-      <c r="S38" s="70"/>
-      <c r="T38" s="70"/>
-      <c r="U38" s="70"/>
-      <c r="V38" s="70"/>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A39" s="71" t="s">
+      <c r="Q37" s="72"/>
+      <c r="R37" s="72"/>
+      <c r="S37" s="72"/>
+      <c r="T37" s="72"/>
+      <c r="U37" s="72"/>
+      <c r="V37" s="72"/>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C38" s="71"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="71"/>
+      <c r="P38" s="72"/>
+      <c r="Q38" s="72"/>
+      <c r="R38" s="72"/>
+      <c r="S38" s="72"/>
+      <c r="T38" s="72"/>
+      <c r="U38" s="72"/>
+      <c r="V38" s="72"/>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A39" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="71"/>
-      <c r="C39" s="71"/>
-      <c r="D39" s="72" t="s">
+      <c r="B39" s="73"/>
+      <c r="C39" s="73"/>
+      <c r="D39" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="72"/>
-      <c r="F39" s="72"/>
-      <c r="G39" s="72"/>
-      <c r="H39" s="78">
+      <c r="E39" s="74"/>
+      <c r="F39" s="74"/>
+      <c r="G39" s="74"/>
+      <c r="H39" s="75">
         <v>44972</v>
       </c>
-      <c r="I39" s="79"/>
-      <c r="J39" s="79"/>
-      <c r="M39" s="71" t="s">
+      <c r="I39" s="76"/>
+      <c r="J39" s="76"/>
+      <c r="M39" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="N39" s="71"/>
-      <c r="O39" s="71"/>
-      <c r="P39" s="72" t="s">
+      <c r="N39" s="73"/>
+      <c r="O39" s="73"/>
+      <c r="P39" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="Q39" s="72"/>
-      <c r="R39" s="72"/>
-      <c r="S39" s="72"/>
+      <c r="Q39" s="74"/>
+      <c r="R39" s="74"/>
+      <c r="S39" s="74"/>
       <c r="T39" s="18"/>
       <c r="U39" s="18"/>
-      <c r="V39" s="73">
+      <c r="V39" s="77">
         <v>44994</v>
       </c>
-      <c r="W39" s="74"/>
-      <c r="X39" s="75"/>
-    </row>
-    <row r="40" spans="1:26" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="W39" s="78"/>
+      <c r="X39" s="79"/>
+    </row>
+    <row r="40" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>0</v>
       </c>
@@ -5986,7 +5977,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="3" t="s">
         <v>35</v>
@@ -6230,7 +6221,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="3"/>
       <c r="C47" s="2"/>
@@ -6254,7 +6245,7 @@
       <c r="W47" s="4"/>
       <c r="X47" s="4"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="3"/>
       <c r="C48" s="2"/>
@@ -6278,7 +6269,7 @@
       <c r="W48" s="4"/>
       <c r="X48" s="4"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="3"/>
       <c r="C49" s="2"/>
@@ -6302,7 +6293,7 @@
       <c r="W49" s="4"/>
       <c r="X49" s="4"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="3"/>
       <c r="C50" s="2"/>
@@ -6326,75 +6317,75 @@
       <c r="W50" s="4"/>
       <c r="X50" s="4"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C53" s="76">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C53" s="70">
         <v>45005</v>
       </c>
-      <c r="D53" s="76"/>
-      <c r="E53" s="76"/>
-      <c r="F53" s="76"/>
-      <c r="G53" s="76"/>
-      <c r="P53" s="76">
+      <c r="D53" s="70"/>
+      <c r="E53" s="70"/>
+      <c r="F53" s="70"/>
+      <c r="G53" s="70"/>
+      <c r="P53" s="70">
         <v>45006</v>
       </c>
-      <c r="Q53" s="76"/>
-      <c r="R53" s="76"/>
-      <c r="S53" s="76"/>
-      <c r="T53" s="76"/>
-      <c r="U53" s="76"/>
-      <c r="V53" s="76"/>
-    </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C54" s="77"/>
-      <c r="D54" s="77"/>
-      <c r="E54" s="77"/>
-      <c r="F54" s="77"/>
-      <c r="G54" s="77"/>
-      <c r="P54" s="76"/>
-      <c r="Q54" s="76"/>
-      <c r="R54" s="76"/>
-      <c r="S54" s="76"/>
-      <c r="T54" s="76"/>
-      <c r="U54" s="76"/>
-      <c r="V54" s="76"/>
-    </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A55" s="71" t="s">
+      <c r="Q53" s="70"/>
+      <c r="R53" s="70"/>
+      <c r="S53" s="70"/>
+      <c r="T53" s="70"/>
+      <c r="U53" s="70"/>
+      <c r="V53" s="70"/>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C54" s="71"/>
+      <c r="D54" s="71"/>
+      <c r="E54" s="71"/>
+      <c r="F54" s="71"/>
+      <c r="G54" s="71"/>
+      <c r="P54" s="70"/>
+      <c r="Q54" s="70"/>
+      <c r="R54" s="70"/>
+      <c r="S54" s="70"/>
+      <c r="T54" s="70"/>
+      <c r="U54" s="70"/>
+      <c r="V54" s="70"/>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A55" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="71"/>
-      <c r="C55" s="71"/>
-      <c r="D55" s="72" t="s">
+      <c r="B55" s="73"/>
+      <c r="C55" s="73"/>
+      <c r="D55" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="E55" s="72"/>
-      <c r="F55" s="72"/>
-      <c r="G55" s="72"/>
-      <c r="H55" s="78">
+      <c r="E55" s="74"/>
+      <c r="F55" s="74"/>
+      <c r="G55" s="74"/>
+      <c r="H55" s="75">
         <v>45005</v>
       </c>
-      <c r="I55" s="79"/>
-      <c r="J55" s="79"/>
-      <c r="M55" s="71" t="s">
+      <c r="I55" s="76"/>
+      <c r="J55" s="76"/>
+      <c r="M55" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="N55" s="71"/>
-      <c r="O55" s="71"/>
-      <c r="P55" s="72" t="s">
+      <c r="N55" s="73"/>
+      <c r="O55" s="73"/>
+      <c r="P55" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="Q55" s="72"/>
-      <c r="R55" s="72"/>
-      <c r="S55" s="72"/>
+      <c r="Q55" s="74"/>
+      <c r="R55" s="74"/>
+      <c r="S55" s="74"/>
       <c r="T55" s="18"/>
       <c r="U55" s="18"/>
-      <c r="V55" s="73">
+      <c r="V55" s="77">
         <v>45006</v>
       </c>
-      <c r="W55" s="74"/>
-      <c r="X55" s="75"/>
-    </row>
-    <row r="56" spans="1:26" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="W55" s="78"/>
+      <c r="X55" s="79"/>
+    </row>
+    <row r="56" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>0</v>
       </c>
@@ -6462,7 +6453,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="3" t="s">
         <v>85</v>
@@ -6518,7 +6509,7 @@
         <v>0.46319444444444446</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="3" t="s">
         <v>85</v>
@@ -6580,7 +6571,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A59" s="27"/>
       <c r="B59" s="3"/>
       <c r="C59" s="2"/>
@@ -6610,7 +6601,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="28"/>
       <c r="C60" s="29"/>
@@ -6640,7 +6631,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="3"/>
       <c r="C61" s="2"/>
@@ -6694,7 +6685,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="3"/>
       <c r="C63" s="2"/>
@@ -6718,7 +6709,7 @@
       <c r="W63" s="4"/>
       <c r="X63" s="4"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="3"/>
       <c r="C64" s="2"/>
@@ -6742,7 +6733,7 @@
       <c r="W64" s="4"/>
       <c r="X64" s="4"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="3"/>
       <c r="C65" s="2"/>
@@ -6766,7 +6757,7 @@
       <c r="W65" s="4"/>
       <c r="X65" s="4"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="3"/>
       <c r="C66" s="2"/>
@@ -6790,75 +6781,75 @@
       <c r="W66" s="4"/>
       <c r="X66" s="4"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C69" s="76" t="s">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C69" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="D69" s="76"/>
-      <c r="E69" s="76"/>
-      <c r="F69" s="76"/>
-      <c r="G69" s="76"/>
-      <c r="P69" s="70" t="s">
+      <c r="D69" s="70"/>
+      <c r="E69" s="70"/>
+      <c r="F69" s="70"/>
+      <c r="G69" s="70"/>
+      <c r="P69" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="Q69" s="70"/>
-      <c r="R69" s="70"/>
-      <c r="S69" s="70"/>
-      <c r="T69" s="70"/>
-      <c r="U69" s="70"/>
-      <c r="V69" s="70"/>
-    </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C70" s="77"/>
-      <c r="D70" s="77"/>
-      <c r="E70" s="77"/>
-      <c r="F70" s="77"/>
-      <c r="G70" s="77"/>
-      <c r="P70" s="70"/>
-      <c r="Q70" s="70"/>
-      <c r="R70" s="70"/>
-      <c r="S70" s="70"/>
-      <c r="T70" s="70"/>
-      <c r="U70" s="70"/>
-      <c r="V70" s="70"/>
-    </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A71" s="71" t="s">
+      <c r="Q69" s="72"/>
+      <c r="R69" s="72"/>
+      <c r="S69" s="72"/>
+      <c r="T69" s="72"/>
+      <c r="U69" s="72"/>
+      <c r="V69" s="72"/>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C70" s="71"/>
+      <c r="D70" s="71"/>
+      <c r="E70" s="71"/>
+      <c r="F70" s="71"/>
+      <c r="G70" s="71"/>
+      <c r="P70" s="72"/>
+      <c r="Q70" s="72"/>
+      <c r="R70" s="72"/>
+      <c r="S70" s="72"/>
+      <c r="T70" s="72"/>
+      <c r="U70" s="72"/>
+      <c r="V70" s="72"/>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A71" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B71" s="71"/>
-      <c r="C71" s="71"/>
-      <c r="D71" s="72" t="s">
+      <c r="B71" s="73"/>
+      <c r="C71" s="73"/>
+      <c r="D71" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="E71" s="72"/>
-      <c r="F71" s="72"/>
-      <c r="G71" s="72"/>
-      <c r="H71" s="78">
+      <c r="E71" s="74"/>
+      <c r="F71" s="74"/>
+      <c r="G71" s="74"/>
+      <c r="H71" s="75">
         <v>44979</v>
       </c>
-      <c r="I71" s="79"/>
-      <c r="J71" s="79"/>
-      <c r="M71" s="71" t="s">
+      <c r="I71" s="76"/>
+      <c r="J71" s="76"/>
+      <c r="M71" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="N71" s="71"/>
-      <c r="O71" s="71"/>
-      <c r="P71" s="72" t="s">
+      <c r="N71" s="73"/>
+      <c r="O71" s="73"/>
+      <c r="P71" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="Q71" s="72"/>
-      <c r="R71" s="72"/>
-      <c r="S71" s="72"/>
+      <c r="Q71" s="74"/>
+      <c r="R71" s="74"/>
+      <c r="S71" s="74"/>
       <c r="T71" s="18"/>
       <c r="U71" s="18"/>
-      <c r="V71" s="73">
+      <c r="V71" s="77">
         <v>44980</v>
       </c>
-      <c r="W71" s="74"/>
-      <c r="X71" s="75"/>
-    </row>
-    <row r="72" spans="1:26" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="W71" s="78"/>
+      <c r="X71" s="79"/>
+    </row>
+    <row r="72" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>0</v>
       </c>
@@ -6926,7 +6917,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="3" t="s">
         <v>35</v>
@@ -6984,7 +6975,7 @@
         <v>0.42083333333333334</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="3" t="s">
         <v>35</v>
@@ -7048,7 +7039,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A75" s="27"/>
       <c r="B75" s="3"/>
       <c r="C75" s="2"/>
@@ -7078,7 +7069,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="28"/>
       <c r="C76" s="29"/>
@@ -7108,7 +7099,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="3"/>
       <c r="C77" s="2"/>
@@ -7162,7 +7153,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="3"/>
       <c r="C79" s="2"/>
@@ -7186,7 +7177,7 @@
       <c r="W79" s="4"/>
       <c r="X79" s="4"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="3"/>
       <c r="C80" s="2"/>
@@ -7210,7 +7201,7 @@
       <c r="W80" s="4"/>
       <c r="X80" s="4"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="3"/>
       <c r="C81" s="2"/>
@@ -7234,7 +7225,7 @@
       <c r="W81" s="4"/>
       <c r="X81" s="4"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="3"/>
       <c r="C82" s="2"/>
@@ -7258,75 +7249,75 @@
       <c r="W82" s="4"/>
       <c r="X82" s="4"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C86" s="76" t="s">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C86" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="D86" s="76"/>
-      <c r="E86" s="76"/>
-      <c r="F86" s="76"/>
-      <c r="G86" s="76"/>
-      <c r="P86" s="70" t="s">
+      <c r="D86" s="70"/>
+      <c r="E86" s="70"/>
+      <c r="F86" s="70"/>
+      <c r="G86" s="70"/>
+      <c r="P86" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="Q86" s="70"/>
-      <c r="R86" s="70"/>
-      <c r="S86" s="70"/>
-      <c r="T86" s="70"/>
-      <c r="U86" s="70"/>
-      <c r="V86" s="70"/>
-    </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C87" s="77"/>
-      <c r="D87" s="77"/>
-      <c r="E87" s="77"/>
-      <c r="F87" s="77"/>
-      <c r="G87" s="77"/>
-      <c r="P87" s="70"/>
-      <c r="Q87" s="70"/>
-      <c r="R87" s="70"/>
-      <c r="S87" s="70"/>
-      <c r="T87" s="70"/>
-      <c r="U87" s="70"/>
-      <c r="V87" s="70"/>
-    </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A88" s="71" t="s">
+      <c r="Q86" s="72"/>
+      <c r="R86" s="72"/>
+      <c r="S86" s="72"/>
+      <c r="T86" s="72"/>
+      <c r="U86" s="72"/>
+      <c r="V86" s="72"/>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C87" s="71"/>
+      <c r="D87" s="71"/>
+      <c r="E87" s="71"/>
+      <c r="F87" s="71"/>
+      <c r="G87" s="71"/>
+      <c r="P87" s="72"/>
+      <c r="Q87" s="72"/>
+      <c r="R87" s="72"/>
+      <c r="S87" s="72"/>
+      <c r="T87" s="72"/>
+      <c r="U87" s="72"/>
+      <c r="V87" s="72"/>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A88" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B88" s="71"/>
-      <c r="C88" s="71"/>
-      <c r="D88" s="72" t="s">
+      <c r="B88" s="73"/>
+      <c r="C88" s="73"/>
+      <c r="D88" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="E88" s="72"/>
-      <c r="F88" s="72"/>
-      <c r="G88" s="72"/>
-      <c r="H88" s="78">
+      <c r="E88" s="74"/>
+      <c r="F88" s="74"/>
+      <c r="G88" s="74"/>
+      <c r="H88" s="75">
         <v>44981</v>
       </c>
-      <c r="I88" s="79"/>
-      <c r="J88" s="79"/>
-      <c r="M88" s="71" t="s">
+      <c r="I88" s="76"/>
+      <c r="J88" s="76"/>
+      <c r="M88" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="N88" s="71"/>
-      <c r="O88" s="71"/>
-      <c r="P88" s="72" t="s">
+      <c r="N88" s="73"/>
+      <c r="O88" s="73"/>
+      <c r="P88" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="Q88" s="72"/>
-      <c r="R88" s="72"/>
-      <c r="S88" s="72"/>
+      <c r="Q88" s="74"/>
+      <c r="R88" s="74"/>
+      <c r="S88" s="74"/>
       <c r="T88" s="18"/>
       <c r="U88" s="18"/>
-      <c r="V88" s="73">
+      <c r="V88" s="77">
         <v>44980</v>
       </c>
-      <c r="W88" s="74"/>
-      <c r="X88" s="75"/>
-    </row>
-    <row r="89" spans="1:26" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="W88" s="78"/>
+      <c r="X88" s="79"/>
+    </row>
+    <row r="89" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>0</v>
       </c>
@@ -7394,7 +7385,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="3"/>
       <c r="C90" s="2"/>
@@ -7418,7 +7409,7 @@
       <c r="W90" s="34"/>
       <c r="X90" s="35"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="3"/>
       <c r="C91" s="2"/>
@@ -7448,7 +7439,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A92" s="27"/>
       <c r="B92" s="3"/>
       <c r="C92" s="2"/>
@@ -7478,7 +7469,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="28"/>
       <c r="C93" s="29"/>
@@ -7508,7 +7499,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="3"/>
       <c r="C94" s="2"/>
@@ -7562,7 +7553,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="3"/>
       <c r="C96" s="2"/>
@@ -7586,7 +7577,7 @@
       <c r="W96" s="4"/>
       <c r="X96" s="4"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="3"/>
       <c r="C97" s="2"/>
@@ -7610,7 +7601,7 @@
       <c r="W97" s="4"/>
       <c r="X97" s="4"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="B98" s="3"/>
       <c r="C98" s="2"/>
@@ -7634,7 +7625,7 @@
       <c r="W98" s="4"/>
       <c r="X98" s="4"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="3"/>
       <c r="C99" s="2"/>
@@ -7658,76 +7649,76 @@
       <c r="W99" s="4"/>
       <c r="X99" s="4"/>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C103" s="76" t="s">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C103" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="D103" s="76"/>
-      <c r="E103" s="76"/>
-      <c r="F103" s="76"/>
-      <c r="G103" s="76"/>
-      <c r="P103" s="70" t="s">
+      <c r="D103" s="70"/>
+      <c r="E103" s="70"/>
+      <c r="F103" s="70"/>
+      <c r="G103" s="70"/>
+      <c r="P103" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="Q103" s="70"/>
-      <c r="R103" s="70"/>
-      <c r="S103" s="70"/>
-      <c r="T103" s="70"/>
-      <c r="U103" s="70"/>
-      <c r="V103" s="70"/>
-    </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C104" s="77"/>
-      <c r="D104" s="77"/>
-      <c r="E104" s="77"/>
-      <c r="F104" s="77"/>
-      <c r="G104" s="77"/>
-      <c r="P104" s="70"/>
-      <c r="Q104" s="70"/>
-      <c r="R104" s="70"/>
-      <c r="S104" s="70"/>
-      <c r="T104" s="70"/>
-      <c r="U104" s="70"/>
-      <c r="V104" s="70"/>
-    </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A105" s="71" t="s">
+      <c r="Q103" s="72"/>
+      <c r="R103" s="72"/>
+      <c r="S103" s="72"/>
+      <c r="T103" s="72"/>
+      <c r="U103" s="72"/>
+      <c r="V103" s="72"/>
+    </row>
+    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C104" s="71"/>
+      <c r="D104" s="71"/>
+      <c r="E104" s="71"/>
+      <c r="F104" s="71"/>
+      <c r="G104" s="71"/>
+      <c r="P104" s="72"/>
+      <c r="Q104" s="72"/>
+      <c r="R104" s="72"/>
+      <c r="S104" s="72"/>
+      <c r="T104" s="72"/>
+      <c r="U104" s="72"/>
+      <c r="V104" s="72"/>
+    </row>
+    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A105" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B105" s="71"/>
-      <c r="C105" s="71"/>
-      <c r="D105" s="72" t="s">
+      <c r="B105" s="73"/>
+      <c r="C105" s="73"/>
+      <c r="D105" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="E105" s="72"/>
-      <c r="F105" s="72"/>
-      <c r="G105" s="72"/>
-      <c r="H105" s="78">
+      <c r="E105" s="74"/>
+      <c r="F105" s="74"/>
+      <c r="G105" s="74"/>
+      <c r="H105" s="75">
         <v>44979</v>
       </c>
-      <c r="I105" s="79"/>
-      <c r="J105" s="79"/>
-      <c r="M105" s="71" t="s">
+      <c r="I105" s="76"/>
+      <c r="J105" s="76"/>
+      <c r="M105" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="N105" s="71"/>
-      <c r="O105" s="71"/>
-      <c r="P105" s="72" t="s">
+      <c r="N105" s="73"/>
+      <c r="O105" s="73"/>
+      <c r="P105" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="Q105" s="72"/>
-      <c r="R105" s="72"/>
-      <c r="S105" s="72"/>
+      <c r="Q105" s="74"/>
+      <c r="R105" s="74"/>
+      <c r="S105" s="74"/>
       <c r="T105" s="18"/>
       <c r="U105" s="18"/>
-      <c r="V105" s="73" t="e">
+      <c r="V105" s="77" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W105" s="74"/>
-      <c r="X105" s="75"/>
-    </row>
-    <row r="106" spans="1:26" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="W105" s="78"/>
+      <c r="X105" s="79"/>
+    </row>
+    <row r="106" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
         <v>0</v>
       </c>
@@ -7795,7 +7786,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
       <c r="B107" s="48" t="s">
         <v>35</v>
@@ -8079,7 +8070,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" s="3"/>
       <c r="C113" s="2"/>
@@ -8103,7 +8094,7 @@
       <c r="W113" s="4"/>
       <c r="X113" s="4"/>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
       <c r="B114" s="3"/>
       <c r="C114" s="2"/>
@@ -8127,7 +8118,7 @@
       <c r="W114" s="4"/>
       <c r="X114" s="4"/>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
       <c r="B115" s="3"/>
       <c r="C115" s="2"/>
@@ -8151,7 +8142,7 @@
       <c r="W115" s="4"/>
       <c r="X115" s="4"/>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
       <c r="B116" s="3"/>
       <c r="C116" s="2"/>
@@ -8175,76 +8166,76 @@
       <c r="W116" s="4"/>
       <c r="X116" s="4"/>
     </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C121" s="76" t="s">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C121" s="70" t="s">
         <v>95</v>
       </c>
-      <c r="D121" s="76"/>
-      <c r="E121" s="76"/>
-      <c r="F121" s="76"/>
-      <c r="G121" s="76"/>
-      <c r="P121" s="70" t="s">
+      <c r="D121" s="70"/>
+      <c r="E121" s="70"/>
+      <c r="F121" s="70"/>
+      <c r="G121" s="70"/>
+      <c r="P121" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="Q121" s="70"/>
-      <c r="R121" s="70"/>
-      <c r="S121" s="70"/>
-      <c r="T121" s="70"/>
-      <c r="U121" s="70"/>
-      <c r="V121" s="70"/>
-    </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C122" s="77"/>
-      <c r="D122" s="77"/>
-      <c r="E122" s="77"/>
-      <c r="F122" s="77"/>
-      <c r="G122" s="77"/>
-      <c r="P122" s="70"/>
-      <c r="Q122" s="70"/>
-      <c r="R122" s="70"/>
-      <c r="S122" s="70"/>
-      <c r="T122" s="70"/>
-      <c r="U122" s="70"/>
-      <c r="V122" s="70"/>
-    </row>
-    <row r="123" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="71" t="s">
+      <c r="Q121" s="72"/>
+      <c r="R121" s="72"/>
+      <c r="S121" s="72"/>
+      <c r="T121" s="72"/>
+      <c r="U121" s="72"/>
+      <c r="V121" s="72"/>
+    </row>
+    <row r="122" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C122" s="71"/>
+      <c r="D122" s="71"/>
+      <c r="E122" s="71"/>
+      <c r="F122" s="71"/>
+      <c r="G122" s="71"/>
+      <c r="P122" s="72"/>
+      <c r="Q122" s="72"/>
+      <c r="R122" s="72"/>
+      <c r="S122" s="72"/>
+      <c r="T122" s="72"/>
+      <c r="U122" s="72"/>
+      <c r="V122" s="72"/>
+    </row>
+    <row r="123" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B123" s="71"/>
-      <c r="C123" s="71"/>
-      <c r="D123" s="72" t="s">
+      <c r="B123" s="73"/>
+      <c r="C123" s="73"/>
+      <c r="D123" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="E123" s="72"/>
-      <c r="F123" s="72"/>
-      <c r="G123" s="72"/>
-      <c r="H123" s="78">
+      <c r="E123" s="74"/>
+      <c r="F123" s="74"/>
+      <c r="G123" s="74"/>
+      <c r="H123" s="75">
         <v>44979</v>
       </c>
-      <c r="I123" s="79"/>
-      <c r="J123" s="79"/>
-      <c r="M123" s="71" t="s">
+      <c r="I123" s="76"/>
+      <c r="J123" s="76"/>
+      <c r="M123" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="N123" s="71"/>
-      <c r="O123" s="71"/>
-      <c r="P123" s="72" t="s">
+      <c r="N123" s="73"/>
+      <c r="O123" s="73"/>
+      <c r="P123" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="Q123" s="72"/>
-      <c r="R123" s="72"/>
-      <c r="S123" s="72"/>
+      <c r="Q123" s="74"/>
+      <c r="R123" s="74"/>
+      <c r="S123" s="74"/>
       <c r="T123" s="18"/>
       <c r="U123" s="18"/>
-      <c r="V123" s="73" t="e">
+      <c r="V123" s="77" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W123" s="74"/>
-      <c r="X123" s="75"/>
-    </row>
-    <row r="124" spans="1:26" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W123" s="78"/>
+      <c r="X123" s="79"/>
+    </row>
+    <row r="124" spans="1:26" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
         <v>0</v>
       </c>
@@ -8312,7 +8303,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
       <c r="B125" s="48" t="s">
         <v>35</v>
@@ -8372,7 +8363,7 @@
       <c r="W125" s="34"/>
       <c r="X125" s="35"/>
     </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A126" s="1"/>
       <c r="B126" s="48" t="s">
         <v>35</v>
@@ -8438,7 +8429,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A127" s="27"/>
       <c r="B127" s="48" t="s">
         <v>35</v>
@@ -8504,7 +8495,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A128" s="1"/>
       <c r="B128" s="48" t="s">
         <v>35</v>
@@ -8570,7 +8561,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A129" s="1"/>
       <c r="B129" s="48" t="s">
         <v>35</v>
@@ -8660,7 +8651,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A131" s="1"/>
       <c r="B131" s="3"/>
       <c r="C131" s="2"/>
@@ -8684,7 +8675,7 @@
       <c r="W131" s="4"/>
       <c r="X131" s="4"/>
     </row>
-    <row r="132" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A132" s="1"/>
       <c r="B132" s="3"/>
       <c r="C132" s="2"/>
@@ -8708,7 +8699,7 @@
       <c r="W132" s="4"/>
       <c r="X132" s="4"/>
     </row>
-    <row r="133" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A133" s="1"/>
       <c r="B133" s="3"/>
       <c r="C133" s="2"/>
@@ -8732,7 +8723,7 @@
       <c r="W133" s="4"/>
       <c r="X133" s="4"/>
     </row>
-    <row r="134" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A134" s="1"/>
       <c r="B134" s="3"/>
       <c r="C134" s="2"/>
@@ -8756,48 +8747,48 @@
       <c r="W134" s="4"/>
       <c r="X134" s="4"/>
     </row>
-    <row r="138" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="P138" s="70" t="s">
+    <row r="138" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="P138" s="72" t="s">
         <v>97</v>
       </c>
-      <c r="Q138" s="70"/>
-      <c r="R138" s="70"/>
-      <c r="S138" s="70"/>
-      <c r="T138" s="70"/>
-      <c r="U138" s="70"/>
-      <c r="V138" s="70"/>
-    </row>
-    <row r="139" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="P139" s="70"/>
-      <c r="Q139" s="70"/>
-      <c r="R139" s="70"/>
-      <c r="S139" s="70"/>
-      <c r="T139" s="70"/>
-      <c r="U139" s="70"/>
-      <c r="V139" s="70"/>
-    </row>
-    <row r="140" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="M140" s="71" t="s">
+      <c r="Q138" s="72"/>
+      <c r="R138" s="72"/>
+      <c r="S138" s="72"/>
+      <c r="T138" s="72"/>
+      <c r="U138" s="72"/>
+      <c r="V138" s="72"/>
+    </row>
+    <row r="139" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="P139" s="72"/>
+      <c r="Q139" s="72"/>
+      <c r="R139" s="72"/>
+      <c r="S139" s="72"/>
+      <c r="T139" s="72"/>
+      <c r="U139" s="72"/>
+      <c r="V139" s="72"/>
+    </row>
+    <row r="140" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="M140" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="N140" s="71"/>
-      <c r="O140" s="71"/>
-      <c r="P140" s="72" t="s">
+      <c r="N140" s="73"/>
+      <c r="O140" s="73"/>
+      <c r="P140" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="Q140" s="72"/>
-      <c r="R140" s="72"/>
-      <c r="S140" s="72"/>
+      <c r="Q140" s="74"/>
+      <c r="R140" s="74"/>
+      <c r="S140" s="74"/>
       <c r="T140" s="18"/>
       <c r="U140" s="18"/>
-      <c r="V140" s="73" t="e">
+      <c r="V140" s="77" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W140" s="74"/>
-      <c r="X140" s="75"/>
-    </row>
-    <row r="141" spans="1:26" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="W140" s="78"/>
+      <c r="X140" s="79"/>
+    </row>
+    <row r="141" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M141" s="6" t="s">
         <v>0</v>
       </c>
@@ -8835,7 +8826,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="142" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="M142" s="47"/>
       <c r="N142" s="48" t="s">
         <v>35</v>
@@ -8871,7 +8862,7 @@
         <v>0.48194444444444445</v>
       </c>
     </row>
-    <row r="143" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="M143" s="47"/>
       <c r="N143" s="48" t="s">
         <v>35</v>
@@ -8910,7 +8901,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="144" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="M144" s="47"/>
       <c r="N144" s="48" t="s">
         <v>35</v>
@@ -8949,7 +8940,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="13:26" x14ac:dyDescent="0.3">
+    <row r="145" spans="13:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="M145" s="47"/>
       <c r="N145" s="48"/>
       <c r="O145" s="49"/>
@@ -8966,7 +8957,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="146" spans="13:26" x14ac:dyDescent="0.3">
+    <row r="146" spans="13:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="M146" s="1"/>
       <c r="N146" s="48"/>
       <c r="O146" s="49"/>
@@ -9000,7 +8991,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="148" spans="13:26" x14ac:dyDescent="0.3">
+    <row r="148" spans="13:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="M148" s="1"/>
       <c r="N148" s="3"/>
       <c r="O148" s="2"/>
@@ -9014,7 +9005,7 @@
       <c r="W148" s="4"/>
       <c r="X148" s="4"/>
     </row>
-    <row r="149" spans="13:26" x14ac:dyDescent="0.3">
+    <row r="149" spans="13:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="M149" s="1"/>
       <c r="N149" s="3"/>
       <c r="O149" s="2"/>
@@ -9028,7 +9019,7 @@
       <c r="W149" s="4"/>
       <c r="X149" s="4"/>
     </row>
-    <row r="150" spans="13:26" x14ac:dyDescent="0.3">
+    <row r="150" spans="13:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="M150" s="1"/>
       <c r="N150" s="3"/>
       <c r="O150" s="2"/>
@@ -9042,7 +9033,7 @@
       <c r="W150" s="4"/>
       <c r="X150" s="4"/>
     </row>
-    <row r="151" spans="13:26" x14ac:dyDescent="0.3">
+    <row r="151" spans="13:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="M151" s="1"/>
       <c r="N151" s="3"/>
       <c r="O151" s="2"/>
@@ -9056,51 +9047,51 @@
       <c r="W151" s="4"/>
       <c r="X151" s="4"/>
     </row>
-    <row r="152" spans="13:26" x14ac:dyDescent="0.3">
+    <row r="152" spans="13:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="S152" s="64"/>
     </row>
-    <row r="153" spans="13:26" x14ac:dyDescent="0.3">
-      <c r="P153" s="70" t="s">
+    <row r="153" spans="13:26" x14ac:dyDescent="0.25">
+      <c r="P153" s="72" t="s">
         <v>102</v>
       </c>
-      <c r="Q153" s="70"/>
-      <c r="R153" s="70"/>
-      <c r="S153" s="70"/>
-      <c r="T153" s="70"/>
-      <c r="U153" s="70"/>
-      <c r="V153" s="70"/>
-    </row>
-    <row r="154" spans="13:26" x14ac:dyDescent="0.3">
-      <c r="P154" s="70"/>
-      <c r="Q154" s="70"/>
-      <c r="R154" s="70"/>
-      <c r="S154" s="70"/>
-      <c r="T154" s="70"/>
-      <c r="U154" s="70"/>
-      <c r="V154" s="70"/>
-    </row>
-    <row r="155" spans="13:26" x14ac:dyDescent="0.3">
-      <c r="M155" s="71" t="s">
+      <c r="Q153" s="72"/>
+      <c r="R153" s="72"/>
+      <c r="S153" s="72"/>
+      <c r="T153" s="72"/>
+      <c r="U153" s="72"/>
+      <c r="V153" s="72"/>
+    </row>
+    <row r="154" spans="13:26" x14ac:dyDescent="0.25">
+      <c r="P154" s="72"/>
+      <c r="Q154" s="72"/>
+      <c r="R154" s="72"/>
+      <c r="S154" s="72"/>
+      <c r="T154" s="72"/>
+      <c r="U154" s="72"/>
+      <c r="V154" s="72"/>
+    </row>
+    <row r="155" spans="13:26" x14ac:dyDescent="0.25">
+      <c r="M155" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="N155" s="71"/>
-      <c r="O155" s="71"/>
-      <c r="P155" s="72" t="s">
+      <c r="N155" s="73"/>
+      <c r="O155" s="73"/>
+      <c r="P155" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="Q155" s="72"/>
-      <c r="R155" s="72"/>
-      <c r="S155" s="72"/>
+      <c r="Q155" s="74"/>
+      <c r="R155" s="74"/>
+      <c r="S155" s="74"/>
       <c r="T155" s="18"/>
       <c r="U155" s="18"/>
-      <c r="V155" s="73" t="e">
+      <c r="V155" s="77" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W155" s="74"/>
-      <c r="X155" s="75"/>
-    </row>
-    <row r="156" spans="13:26" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="W155" s="78"/>
+      <c r="X155" s="79"/>
+    </row>
+    <row r="156" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M156" s="6" t="s">
         <v>0</v>
       </c>
@@ -9138,7 +9129,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="157" spans="13:26" x14ac:dyDescent="0.3">
+    <row r="157" spans="13:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="M157" s="47"/>
       <c r="N157" s="48" t="s">
         <v>35</v>
@@ -9174,7 +9165,7 @@
         <v>0.11527777777777777</v>
       </c>
     </row>
-    <row r="158" spans="13:26" x14ac:dyDescent="0.3">
+    <row r="158" spans="13:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="M158" s="47"/>
       <c r="N158" s="48" t="s">
         <v>35</v>
@@ -9213,7 +9204,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="159" spans="13:26" x14ac:dyDescent="0.3">
+    <row r="159" spans="13:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="M159" s="47"/>
       <c r="N159" s="48" t="s">
         <v>35</v>
@@ -9252,7 +9243,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="13:26" x14ac:dyDescent="0.3">
+    <row r="160" spans="13:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="M160" s="47"/>
       <c r="N160" s="48"/>
       <c r="O160" s="49"/>
@@ -9269,7 +9260,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="161" spans="13:26" x14ac:dyDescent="0.3">
+    <row r="161" spans="13:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="M161" s="1"/>
       <c r="N161" s="48"/>
       <c r="O161" s="49"/>
@@ -9305,7 +9296,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="163" spans="13:26" x14ac:dyDescent="0.3">
+    <row r="163" spans="13:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="M163" s="1"/>
       <c r="N163" s="3"/>
       <c r="O163" s="2"/>
@@ -9319,7 +9310,7 @@
       <c r="W163" s="4"/>
       <c r="X163" s="4"/>
     </row>
-    <row r="164" spans="13:26" x14ac:dyDescent="0.3">
+    <row r="164" spans="13:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="M164" s="1"/>
       <c r="N164" s="3"/>
       <c r="O164" s="2"/>
@@ -9333,7 +9324,7 @@
       <c r="W164" s="4"/>
       <c r="X164" s="4"/>
     </row>
-    <row r="165" spans="13:26" x14ac:dyDescent="0.3">
+    <row r="165" spans="13:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="M165" s="1"/>
       <c r="N165" s="3"/>
       <c r="O165" s="2"/>
@@ -9347,7 +9338,7 @@
       <c r="W165" s="4"/>
       <c r="X165" s="4"/>
     </row>
-    <row r="166" spans="13:26" x14ac:dyDescent="0.3">
+    <row r="166" spans="13:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="M166" s="1"/>
       <c r="N166" s="3"/>
       <c r="O166" s="2"/>
@@ -9361,48 +9352,48 @@
       <c r="W166" s="4"/>
       <c r="X166" s="4"/>
     </row>
-    <row r="168" spans="13:26" x14ac:dyDescent="0.3">
-      <c r="P168" s="70" t="s">
+    <row r="168" spans="13:26" x14ac:dyDescent="0.25">
+      <c r="P168" s="72" t="s">
         <v>100</v>
       </c>
-      <c r="Q168" s="70"/>
-      <c r="R168" s="70"/>
-      <c r="S168" s="70"/>
-      <c r="T168" s="70"/>
-      <c r="U168" s="70"/>
-      <c r="V168" s="70"/>
-    </row>
-    <row r="169" spans="13:26" x14ac:dyDescent="0.3">
-      <c r="P169" s="70"/>
-      <c r="Q169" s="70"/>
-      <c r="R169" s="70"/>
-      <c r="S169" s="70"/>
-      <c r="T169" s="70"/>
-      <c r="U169" s="70"/>
-      <c r="V169" s="70"/>
-    </row>
-    <row r="170" spans="13:26" x14ac:dyDescent="0.3">
-      <c r="M170" s="71" t="s">
+      <c r="Q168" s="72"/>
+      <c r="R168" s="72"/>
+      <c r="S168" s="72"/>
+      <c r="T168" s="72"/>
+      <c r="U168" s="72"/>
+      <c r="V168" s="72"/>
+    </row>
+    <row r="169" spans="13:26" x14ac:dyDescent="0.25">
+      <c r="P169" s="72"/>
+      <c r="Q169" s="72"/>
+      <c r="R169" s="72"/>
+      <c r="S169" s="72"/>
+      <c r="T169" s="72"/>
+      <c r="U169" s="72"/>
+      <c r="V169" s="72"/>
+    </row>
+    <row r="170" spans="13:26" x14ac:dyDescent="0.25">
+      <c r="M170" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="N170" s="71"/>
-      <c r="O170" s="71"/>
-      <c r="P170" s="72" t="s">
+      <c r="N170" s="73"/>
+      <c r="O170" s="73"/>
+      <c r="P170" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="Q170" s="72"/>
-      <c r="R170" s="72"/>
-      <c r="S170" s="72"/>
+      <c r="Q170" s="74"/>
+      <c r="R170" s="74"/>
+      <c r="S170" s="74"/>
       <c r="T170" s="18"/>
       <c r="U170" s="18"/>
-      <c r="V170" s="73" t="e">
+      <c r="V170" s="77" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W170" s="74"/>
-      <c r="X170" s="75"/>
-    </row>
-    <row r="171" spans="13:26" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="W170" s="78"/>
+      <c r="X170" s="79"/>
+    </row>
+    <row r="171" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M171" s="6" t="s">
         <v>0</v>
       </c>
@@ -9440,7 +9431,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="172" spans="13:26" x14ac:dyDescent="0.3">
+    <row r="172" spans="13:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="M172" s="47"/>
       <c r="N172" s="48" t="s">
         <v>35</v>
@@ -9476,7 +9467,7 @@
         <v>0.4236111111111111</v>
       </c>
     </row>
-    <row r="173" spans="13:26" x14ac:dyDescent="0.3">
+    <row r="173" spans="13:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="M173" s="47"/>
       <c r="N173" s="65"/>
       <c r="O173" s="66"/>
@@ -9490,7 +9481,7 @@
       <c r="W173" s="34"/>
       <c r="X173" s="35"/>
     </row>
-    <row r="174" spans="13:26" x14ac:dyDescent="0.3">
+    <row r="174" spans="13:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="M174" s="47"/>
       <c r="N174" s="48"/>
       <c r="O174" s="49"/>
@@ -9504,7 +9495,7 @@
       <c r="W174" s="34"/>
       <c r="X174" s="35"/>
     </row>
-    <row r="175" spans="13:26" x14ac:dyDescent="0.3">
+    <row r="175" spans="13:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="M175" s="47"/>
       <c r="N175" s="48"/>
       <c r="O175" s="49"/>
@@ -9518,7 +9509,7 @@
       <c r="W175" s="34"/>
       <c r="X175" s="35"/>
     </row>
-    <row r="176" spans="13:26" x14ac:dyDescent="0.3">
+    <row r="176" spans="13:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="M176" s="1"/>
       <c r="N176" s="48"/>
       <c r="O176" s="49"/>
@@ -9532,7 +9523,7 @@
       <c r="W176" s="4"/>
       <c r="X176" s="15"/>
     </row>
-    <row r="177" spans="13:26" x14ac:dyDescent="0.3">
+    <row r="177" spans="13:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="M177" s="1"/>
       <c r="N177" s="3"/>
       <c r="O177" s="2"/>
@@ -9548,7 +9539,7 @@
       <c r="W177" s="4"/>
       <c r="X177" s="15"/>
     </row>
-    <row r="178" spans="13:26" x14ac:dyDescent="0.3">
+    <row r="178" spans="13:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="M178" s="1"/>
       <c r="N178" s="3"/>
       <c r="O178" s="2"/>
@@ -9562,7 +9553,7 @@
       <c r="W178" s="4"/>
       <c r="X178" s="4"/>
     </row>
-    <row r="179" spans="13:26" x14ac:dyDescent="0.3">
+    <row r="179" spans="13:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="M179" s="1"/>
       <c r="N179" s="3"/>
       <c r="O179" s="2"/>
@@ -9576,7 +9567,7 @@
       <c r="W179" s="4"/>
       <c r="X179" s="4"/>
     </row>
-    <row r="180" spans="13:26" x14ac:dyDescent="0.3">
+    <row r="180" spans="13:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="M180" s="1"/>
       <c r="N180" s="3"/>
       <c r="O180" s="2"/>
@@ -9590,7 +9581,7 @@
       <c r="W180" s="4"/>
       <c r="X180" s="4"/>
     </row>
-    <row r="181" spans="13:26" x14ac:dyDescent="0.3">
+    <row r="181" spans="13:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="M181" s="1"/>
       <c r="N181" s="3"/>
       <c r="O181" s="2"/>
@@ -9604,48 +9595,48 @@
       <c r="W181" s="4"/>
       <c r="X181" s="4"/>
     </row>
-    <row r="186" spans="13:26" x14ac:dyDescent="0.3">
-      <c r="P186" s="70" t="s">
+    <row r="186" spans="13:26" x14ac:dyDescent="0.25">
+      <c r="P186" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="Q186" s="70"/>
-      <c r="R186" s="70"/>
-      <c r="S186" s="70"/>
-      <c r="T186" s="70"/>
-      <c r="U186" s="70"/>
-      <c r="V186" s="70"/>
-    </row>
-    <row r="187" spans="13:26" x14ac:dyDescent="0.3">
-      <c r="P187" s="70"/>
-      <c r="Q187" s="70"/>
-      <c r="R187" s="70"/>
-      <c r="S187" s="70"/>
-      <c r="T187" s="70"/>
-      <c r="U187" s="70"/>
-      <c r="V187" s="70"/>
-    </row>
-    <row r="188" spans="13:26" x14ac:dyDescent="0.3">
-      <c r="M188" s="71" t="s">
+      <c r="Q186" s="72"/>
+      <c r="R186" s="72"/>
+      <c r="S186" s="72"/>
+      <c r="T186" s="72"/>
+      <c r="U186" s="72"/>
+      <c r="V186" s="72"/>
+    </row>
+    <row r="187" spans="13:26" x14ac:dyDescent="0.25">
+      <c r="P187" s="72"/>
+      <c r="Q187" s="72"/>
+      <c r="R187" s="72"/>
+      <c r="S187" s="72"/>
+      <c r="T187" s="72"/>
+      <c r="U187" s="72"/>
+      <c r="V187" s="72"/>
+    </row>
+    <row r="188" spans="13:26" x14ac:dyDescent="0.25">
+      <c r="M188" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="N188" s="71"/>
-      <c r="O188" s="71"/>
-      <c r="P188" s="72" t="s">
+      <c r="N188" s="73"/>
+      <c r="O188" s="73"/>
+      <c r="P188" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="Q188" s="72"/>
-      <c r="R188" s="72"/>
-      <c r="S188" s="72"/>
+      <c r="Q188" s="74"/>
+      <c r="R188" s="74"/>
+      <c r="S188" s="74"/>
       <c r="T188" s="18"/>
       <c r="U188" s="18"/>
-      <c r="V188" s="73" t="e">
+      <c r="V188" s="77" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W188" s="74"/>
-      <c r="X188" s="75"/>
-    </row>
-    <row r="189" spans="13:26" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="W188" s="78"/>
+      <c r="X188" s="79"/>
+    </row>
+    <row r="189" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M189" s="6" t="s">
         <v>0</v>
       </c>
@@ -9686,25 +9677,25 @@
         <v>9</v>
       </c>
     </row>
-    <row r="190" spans="13:26" x14ac:dyDescent="0.3">
+    <row r="190" spans="13:26" x14ac:dyDescent="0.25">
       <c r="M190" s="47"/>
       <c r="N190" s="48" t="s">
         <v>35</v>
       </c>
       <c r="O190" s="49" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P190" s="49" t="s">
         <v>105</v>
       </c>
       <c r="Q190" s="49" t="s">
-        <v>107</v>
+        <v>24</v>
       </c>
       <c r="R190" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="S190" s="20" t="s">
-        <v>9</v>
+      <c r="S190" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="T190" s="43">
         <v>0.54166666666666663</v>
@@ -9715,19 +9706,23 @@
       <c r="V190" s="34">
         <v>0.55972222222222223</v>
       </c>
-      <c r="W190" s="34"/>
-      <c r="X190" s="35"/>
+      <c r="W190" s="34">
+        <v>0.69236111111111109</v>
+      </c>
+      <c r="X190" s="35">
+        <v>0.71944444444444444</v>
+      </c>
       <c r="Z190" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="191" spans="13:26" x14ac:dyDescent="0.3">
+    <row r="191" spans="13:26" x14ac:dyDescent="0.25">
       <c r="M191" s="47"/>
       <c r="N191" s="48" t="s">
         <v>35</v>
       </c>
       <c r="O191" s="49" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P191" s="66" t="s">
         <v>106</v>
@@ -9738,8 +9733,8 @@
       <c r="R191" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="S191" s="20" t="s">
-        <v>9</v>
+      <c r="S191" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="T191" s="43">
         <v>0.54166666666666663</v>
@@ -9750,13 +9745,17 @@
       <c r="V191" s="34">
         <v>0.56180555555555556</v>
       </c>
-      <c r="W191" s="34"/>
-      <c r="X191" s="35"/>
+      <c r="W191" s="34">
+        <v>0.70972222222222225</v>
+      </c>
+      <c r="X191" s="35">
+        <v>0.72777777777777775</v>
+      </c>
       <c r="Z191" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="192" spans="13:26" x14ac:dyDescent="0.3">
+    <row r="192" spans="13:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="M192" s="47"/>
       <c r="N192" s="48"/>
       <c r="O192" s="49"/>
@@ -9790,7 +9789,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="194" spans="13:26" x14ac:dyDescent="0.3">
+    <row r="194" spans="13:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="M194" s="1"/>
       <c r="N194" s="48"/>
       <c r="O194" s="49"/>
@@ -9806,14 +9805,62 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="P186:V187"/>
-    <mergeCell ref="M188:O188"/>
-    <mergeCell ref="P188:S188"/>
-    <mergeCell ref="V188:X188"/>
-    <mergeCell ref="P168:V169"/>
-    <mergeCell ref="M170:O170"/>
-    <mergeCell ref="P170:S170"/>
-    <mergeCell ref="V170:X170"/>
+    <mergeCell ref="C37:G38"/>
+    <mergeCell ref="P37:V38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="P39:S39"/>
+    <mergeCell ref="V39:X39"/>
+    <mergeCell ref="C22:G23"/>
+    <mergeCell ref="P22:V23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="C2:G3"/>
+    <mergeCell ref="P2:V3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="C53:G54"/>
+    <mergeCell ref="P53:V54"/>
+    <mergeCell ref="V55:X55"/>
+    <mergeCell ref="C69:G70"/>
+    <mergeCell ref="P69:V70"/>
+    <mergeCell ref="V71:X71"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="P55:S55"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="D71:G71"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="M71:O71"/>
+    <mergeCell ref="P71:S71"/>
+    <mergeCell ref="M140:O140"/>
+    <mergeCell ref="P140:S140"/>
+    <mergeCell ref="V140:X140"/>
+    <mergeCell ref="C86:G87"/>
+    <mergeCell ref="P86:V87"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="D88:G88"/>
+    <mergeCell ref="H88:J88"/>
+    <mergeCell ref="M88:O88"/>
+    <mergeCell ref="P88:S88"/>
+    <mergeCell ref="V88:X88"/>
+    <mergeCell ref="P121:V122"/>
+    <mergeCell ref="V123:X123"/>
+    <mergeCell ref="M123:O123"/>
+    <mergeCell ref="P123:S123"/>
+    <mergeCell ref="P138:V139"/>
     <mergeCell ref="M155:O155"/>
     <mergeCell ref="P155:S155"/>
     <mergeCell ref="V155:X155"/>
@@ -9830,62 +9877,14 @@
     <mergeCell ref="A123:C123"/>
     <mergeCell ref="D123:G123"/>
     <mergeCell ref="H123:J123"/>
-    <mergeCell ref="M140:O140"/>
-    <mergeCell ref="P140:S140"/>
-    <mergeCell ref="V140:X140"/>
-    <mergeCell ref="C86:G87"/>
-    <mergeCell ref="P86:V87"/>
-    <mergeCell ref="A88:C88"/>
-    <mergeCell ref="D88:G88"/>
-    <mergeCell ref="H88:J88"/>
-    <mergeCell ref="M88:O88"/>
-    <mergeCell ref="P88:S88"/>
-    <mergeCell ref="V88:X88"/>
-    <mergeCell ref="V71:X71"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="M55:O55"/>
-    <mergeCell ref="P55:S55"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="D71:G71"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="M71:O71"/>
-    <mergeCell ref="P71:S71"/>
-    <mergeCell ref="C53:G54"/>
-    <mergeCell ref="P53:V54"/>
-    <mergeCell ref="V55:X55"/>
-    <mergeCell ref="C69:G70"/>
-    <mergeCell ref="P69:V70"/>
-    <mergeCell ref="C2:G3"/>
-    <mergeCell ref="P2:V3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="C22:G23"/>
-    <mergeCell ref="P22:V23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="C37:G38"/>
-    <mergeCell ref="P37:V38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="P39:S39"/>
-    <mergeCell ref="V39:X39"/>
-    <mergeCell ref="P121:V122"/>
-    <mergeCell ref="V123:X123"/>
-    <mergeCell ref="M123:O123"/>
-    <mergeCell ref="P123:S123"/>
-    <mergeCell ref="P138:V139"/>
+    <mergeCell ref="P186:V187"/>
+    <mergeCell ref="M188:O188"/>
+    <mergeCell ref="P188:S188"/>
+    <mergeCell ref="V188:X188"/>
+    <mergeCell ref="P168:V169"/>
+    <mergeCell ref="M170:O170"/>
+    <mergeCell ref="P170:S170"/>
+    <mergeCell ref="V170:X170"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -9893,14 +9892,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="B3" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DOC 2023/FORMATO STATUS.xlsx
+++ b/DOC 2023/FORMATO STATUS.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="110">
   <si>
     <t>DT</t>
   </si>
@@ -346,6 +346,12 @@
   </si>
   <si>
     <t>EL ROSADO</t>
+  </si>
+  <si>
+    <t>SABADO 13-05-2023</t>
+  </si>
+  <si>
+    <t>CRISTIAN ABRIL</t>
   </si>
 </sst>
 </file>
@@ -677,7 +683,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -874,11 +880,20 @@
     <xf numFmtId="20" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -889,12 +904,6 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -902,6 +911,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1181,7 +1202,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1210,72 +1231,72 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="P2" s="72" t="s">
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="P2" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="72"/>
-      <c r="V2" s="72"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="75"/>
+      <c r="V2" s="75"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
-      <c r="S3" s="72"/>
-      <c r="T3" s="72"/>
-      <c r="U3" s="72"/>
-      <c r="V3" s="72"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="75"/>
+      <c r="R3" s="75"/>
+      <c r="S3" s="75"/>
+      <c r="T3" s="75"/>
+      <c r="U3" s="75"/>
+      <c r="V3" s="75"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="74" t="s">
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="75">
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="83">
         <v>44965</v>
       </c>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="M4" s="73" t="s">
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+      <c r="M4" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="74" t="s">
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="74"/>
-      <c r="R4" s="74"/>
-      <c r="S4" s="74"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
-      <c r="V4" s="77">
+      <c r="V4" s="78">
         <v>44601</v>
       </c>
-      <c r="W4" s="78"/>
-      <c r="X4" s="79"/>
+      <c r="W4" s="79"/>
+      <c r="X4" s="80"/>
     </row>
     <row r="5" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -1690,72 +1711,72 @@
       <c r="X15" s="4"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C22" s="70" t="s">
+      <c r="C22" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="70"/>
-      <c r="P22" s="72" t="s">
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="81"/>
+      <c r="P22" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="Q22" s="72"/>
-      <c r="R22" s="72"/>
-      <c r="S22" s="72"/>
-      <c r="T22" s="72"/>
-      <c r="U22" s="72"/>
-      <c r="V22" s="72"/>
+      <c r="Q22" s="75"/>
+      <c r="R22" s="75"/>
+      <c r="S22" s="75"/>
+      <c r="T22" s="75"/>
+      <c r="U22" s="75"/>
+      <c r="V22" s="75"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C23" s="71"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="71"/>
-      <c r="P23" s="72"/>
-      <c r="Q23" s="72"/>
-      <c r="R23" s="72"/>
-      <c r="S23" s="72"/>
-      <c r="T23" s="72"/>
-      <c r="U23" s="72"/>
-      <c r="V23" s="72"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="82"/>
+      <c r="P23" s="75"/>
+      <c r="Q23" s="75"/>
+      <c r="R23" s="75"/>
+      <c r="S23" s="75"/>
+      <c r="T23" s="75"/>
+      <c r="U23" s="75"/>
+      <c r="V23" s="75"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="73" t="s">
+      <c r="A24" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="73"/>
-      <c r="C24" s="73"/>
-      <c r="D24" s="74" t="s">
+      <c r="B24" s="76"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="75">
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="83">
         <v>44965</v>
       </c>
-      <c r="I24" s="76"/>
-      <c r="J24" s="76"/>
-      <c r="M24" s="73" t="s">
+      <c r="I24" s="84"/>
+      <c r="J24" s="84"/>
+      <c r="M24" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="N24" s="73"/>
-      <c r="O24" s="73"/>
-      <c r="P24" s="74" t="s">
+      <c r="N24" s="76"/>
+      <c r="O24" s="76"/>
+      <c r="P24" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="Q24" s="74"/>
-      <c r="R24" s="74"/>
-      <c r="S24" s="74"/>
+      <c r="Q24" s="77"/>
+      <c r="R24" s="77"/>
+      <c r="S24" s="77"/>
       <c r="T24" s="18"/>
       <c r="U24" s="18"/>
-      <c r="V24" s="77">
+      <c r="V24" s="78">
         <v>44971</v>
       </c>
-      <c r="W24" s="78"/>
-      <c r="X24" s="79"/>
+      <c r="W24" s="79"/>
+      <c r="X24" s="80"/>
     </row>
     <row r="25" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -2210,72 +2231,72 @@
       <c r="X35" s="4"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C38" s="70" t="s">
+      <c r="C38" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="70"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="70"/>
-      <c r="G38" s="70"/>
-      <c r="P38" s="72" t="s">
+      <c r="D38" s="81"/>
+      <c r="E38" s="81"/>
+      <c r="F38" s="81"/>
+      <c r="G38" s="81"/>
+      <c r="P38" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="Q38" s="72"/>
-      <c r="R38" s="72"/>
-      <c r="S38" s="72"/>
-      <c r="T38" s="72"/>
-      <c r="U38" s="72"/>
-      <c r="V38" s="72"/>
+      <c r="Q38" s="75"/>
+      <c r="R38" s="75"/>
+      <c r="S38" s="75"/>
+      <c r="T38" s="75"/>
+      <c r="U38" s="75"/>
+      <c r="V38" s="75"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C39" s="71"/>
-      <c r="D39" s="71"/>
-      <c r="E39" s="71"/>
-      <c r="F39" s="71"/>
-      <c r="G39" s="71"/>
-      <c r="P39" s="72"/>
-      <c r="Q39" s="72"/>
-      <c r="R39" s="72"/>
-      <c r="S39" s="72"/>
-      <c r="T39" s="72"/>
-      <c r="U39" s="72"/>
-      <c r="V39" s="72"/>
+      <c r="C39" s="82"/>
+      <c r="D39" s="82"/>
+      <c r="E39" s="82"/>
+      <c r="F39" s="82"/>
+      <c r="G39" s="82"/>
+      <c r="P39" s="75"/>
+      <c r="Q39" s="75"/>
+      <c r="R39" s="75"/>
+      <c r="S39" s="75"/>
+      <c r="T39" s="75"/>
+      <c r="U39" s="75"/>
+      <c r="V39" s="75"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A40" s="73" t="s">
+      <c r="A40" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="73"/>
-      <c r="C40" s="73"/>
-      <c r="D40" s="74" t="s">
+      <c r="B40" s="76"/>
+      <c r="C40" s="76"/>
+      <c r="D40" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="E40" s="74"/>
-      <c r="F40" s="74"/>
-      <c r="G40" s="74"/>
-      <c r="H40" s="75">
+      <c r="E40" s="77"/>
+      <c r="F40" s="77"/>
+      <c r="G40" s="77"/>
+      <c r="H40" s="83">
         <v>44972</v>
       </c>
-      <c r="I40" s="76"/>
-      <c r="J40" s="76"/>
-      <c r="M40" s="73" t="s">
+      <c r="I40" s="84"/>
+      <c r="J40" s="84"/>
+      <c r="M40" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="N40" s="73"/>
-      <c r="O40" s="73"/>
-      <c r="P40" s="74" t="s">
+      <c r="N40" s="76"/>
+      <c r="O40" s="76"/>
+      <c r="P40" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="Q40" s="74"/>
-      <c r="R40" s="74"/>
-      <c r="S40" s="74"/>
+      <c r="Q40" s="77"/>
+      <c r="R40" s="77"/>
+      <c r="S40" s="77"/>
       <c r="T40" s="18"/>
       <c r="U40" s="18"/>
-      <c r="V40" s="77">
+      <c r="V40" s="78">
         <v>44973</v>
       </c>
-      <c r="W40" s="78"/>
-      <c r="X40" s="79"/>
+      <c r="W40" s="79"/>
+      <c r="X40" s="80"/>
     </row>
     <row r="41" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
@@ -2690,72 +2711,72 @@
       <c r="X51" s="4"/>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C54" s="70" t="s">
+      <c r="C54" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="D54" s="70"/>
-      <c r="E54" s="70"/>
-      <c r="F54" s="70"/>
-      <c r="G54" s="70"/>
-      <c r="P54" s="72" t="s">
+      <c r="D54" s="81"/>
+      <c r="E54" s="81"/>
+      <c r="F54" s="81"/>
+      <c r="G54" s="81"/>
+      <c r="P54" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="Q54" s="72"/>
-      <c r="R54" s="72"/>
-      <c r="S54" s="72"/>
-      <c r="T54" s="72"/>
-      <c r="U54" s="72"/>
-      <c r="V54" s="72"/>
+      <c r="Q54" s="75"/>
+      <c r="R54" s="75"/>
+      <c r="S54" s="75"/>
+      <c r="T54" s="75"/>
+      <c r="U54" s="75"/>
+      <c r="V54" s="75"/>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C55" s="71"/>
-      <c r="D55" s="71"/>
-      <c r="E55" s="71"/>
-      <c r="F55" s="71"/>
-      <c r="G55" s="71"/>
-      <c r="P55" s="72"/>
-      <c r="Q55" s="72"/>
-      <c r="R55" s="72"/>
-      <c r="S55" s="72"/>
-      <c r="T55" s="72"/>
-      <c r="U55" s="72"/>
-      <c r="V55" s="72"/>
+      <c r="C55" s="82"/>
+      <c r="D55" s="82"/>
+      <c r="E55" s="82"/>
+      <c r="F55" s="82"/>
+      <c r="G55" s="82"/>
+      <c r="P55" s="75"/>
+      <c r="Q55" s="75"/>
+      <c r="R55" s="75"/>
+      <c r="S55" s="75"/>
+      <c r="T55" s="75"/>
+      <c r="U55" s="75"/>
+      <c r="V55" s="75"/>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A56" s="73" t="s">
+      <c r="A56" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="73"/>
-      <c r="C56" s="73"/>
-      <c r="D56" s="74" t="s">
+      <c r="B56" s="76"/>
+      <c r="C56" s="76"/>
+      <c r="D56" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="E56" s="74"/>
-      <c r="F56" s="74"/>
-      <c r="G56" s="74"/>
-      <c r="H56" s="75">
+      <c r="E56" s="77"/>
+      <c r="F56" s="77"/>
+      <c r="G56" s="77"/>
+      <c r="H56" s="83">
         <v>44974</v>
       </c>
-      <c r="I56" s="76"/>
-      <c r="J56" s="76"/>
-      <c r="M56" s="73" t="s">
+      <c r="I56" s="84"/>
+      <c r="J56" s="84"/>
+      <c r="M56" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="N56" s="73"/>
-      <c r="O56" s="73"/>
-      <c r="P56" s="74" t="s">
+      <c r="N56" s="76"/>
+      <c r="O56" s="76"/>
+      <c r="P56" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="Q56" s="74"/>
-      <c r="R56" s="74"/>
-      <c r="S56" s="74"/>
+      <c r="Q56" s="77"/>
+      <c r="R56" s="77"/>
+      <c r="S56" s="77"/>
       <c r="T56" s="18"/>
       <c r="U56" s="18"/>
-      <c r="V56" s="77">
+      <c r="V56" s="78">
         <v>44975</v>
       </c>
-      <c r="W56" s="78"/>
-      <c r="X56" s="79"/>
+      <c r="W56" s="79"/>
+      <c r="X56" s="80"/>
     </row>
     <row r="57" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
@@ -3210,72 +3231,72 @@
       <c r="X67" s="4"/>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C70" s="70" t="s">
+      <c r="C70" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="D70" s="70"/>
-      <c r="E70" s="70"/>
-      <c r="F70" s="70"/>
-      <c r="G70" s="70"/>
-      <c r="P70" s="72" t="s">
+      <c r="D70" s="81"/>
+      <c r="E70" s="81"/>
+      <c r="F70" s="81"/>
+      <c r="G70" s="81"/>
+      <c r="P70" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="Q70" s="72"/>
-      <c r="R70" s="72"/>
-      <c r="S70" s="72"/>
-      <c r="T70" s="72"/>
-      <c r="U70" s="72"/>
-      <c r="V70" s="72"/>
+      <c r="Q70" s="75"/>
+      <c r="R70" s="75"/>
+      <c r="S70" s="75"/>
+      <c r="T70" s="75"/>
+      <c r="U70" s="75"/>
+      <c r="V70" s="75"/>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C71" s="71"/>
-      <c r="D71" s="71"/>
-      <c r="E71" s="71"/>
-      <c r="F71" s="71"/>
-      <c r="G71" s="71"/>
-      <c r="P71" s="72"/>
-      <c r="Q71" s="72"/>
-      <c r="R71" s="72"/>
-      <c r="S71" s="72"/>
-      <c r="T71" s="72"/>
-      <c r="U71" s="72"/>
-      <c r="V71" s="72"/>
+      <c r="C71" s="82"/>
+      <c r="D71" s="82"/>
+      <c r="E71" s="82"/>
+      <c r="F71" s="82"/>
+      <c r="G71" s="82"/>
+      <c r="P71" s="75"/>
+      <c r="Q71" s="75"/>
+      <c r="R71" s="75"/>
+      <c r="S71" s="75"/>
+      <c r="T71" s="75"/>
+      <c r="U71" s="75"/>
+      <c r="V71" s="75"/>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A72" s="73" t="s">
+      <c r="A72" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="B72" s="73"/>
-      <c r="C72" s="73"/>
-      <c r="D72" s="74" t="s">
+      <c r="B72" s="76"/>
+      <c r="C72" s="76"/>
+      <c r="D72" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="E72" s="74"/>
-      <c r="F72" s="74"/>
-      <c r="G72" s="74"/>
-      <c r="H72" s="75">
+      <c r="E72" s="77"/>
+      <c r="F72" s="77"/>
+      <c r="G72" s="77"/>
+      <c r="H72" s="83">
         <v>44979</v>
       </c>
-      <c r="I72" s="76"/>
-      <c r="J72" s="76"/>
-      <c r="M72" s="73" t="s">
+      <c r="I72" s="84"/>
+      <c r="J72" s="84"/>
+      <c r="M72" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="N72" s="73"/>
-      <c r="O72" s="73"/>
-      <c r="P72" s="74" t="s">
+      <c r="N72" s="76"/>
+      <c r="O72" s="76"/>
+      <c r="P72" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="Q72" s="74"/>
-      <c r="R72" s="74"/>
-      <c r="S72" s="74"/>
+      <c r="Q72" s="77"/>
+      <c r="R72" s="77"/>
+      <c r="S72" s="77"/>
       <c r="T72" s="18"/>
       <c r="U72" s="18"/>
-      <c r="V72" s="77">
+      <c r="V72" s="78">
         <v>44980</v>
       </c>
-      <c r="W72" s="78"/>
-      <c r="X72" s="79"/>
+      <c r="W72" s="79"/>
+      <c r="X72" s="80"/>
     </row>
     <row r="73" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
@@ -3646,72 +3667,72 @@
       <c r="X83" s="4"/>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C87" s="70" t="s">
+      <c r="C87" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="D87" s="70"/>
-      <c r="E87" s="70"/>
-      <c r="F87" s="70"/>
-      <c r="G87" s="70"/>
-      <c r="P87" s="72" t="s">
+      <c r="D87" s="81"/>
+      <c r="E87" s="81"/>
+      <c r="F87" s="81"/>
+      <c r="G87" s="81"/>
+      <c r="P87" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="Q87" s="72"/>
-      <c r="R87" s="72"/>
-      <c r="S87" s="72"/>
-      <c r="T87" s="72"/>
-      <c r="U87" s="72"/>
-      <c r="V87" s="72"/>
+      <c r="Q87" s="75"/>
+      <c r="R87" s="75"/>
+      <c r="S87" s="75"/>
+      <c r="T87" s="75"/>
+      <c r="U87" s="75"/>
+      <c r="V87" s="75"/>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C88" s="71"/>
-      <c r="D88" s="71"/>
-      <c r="E88" s="71"/>
-      <c r="F88" s="71"/>
-      <c r="G88" s="71"/>
-      <c r="P88" s="72"/>
-      <c r="Q88" s="72"/>
-      <c r="R88" s="72"/>
-      <c r="S88" s="72"/>
-      <c r="T88" s="72"/>
-      <c r="U88" s="72"/>
-      <c r="V88" s="72"/>
+      <c r="C88" s="82"/>
+      <c r="D88" s="82"/>
+      <c r="E88" s="82"/>
+      <c r="F88" s="82"/>
+      <c r="G88" s="82"/>
+      <c r="P88" s="75"/>
+      <c r="Q88" s="75"/>
+      <c r="R88" s="75"/>
+      <c r="S88" s="75"/>
+      <c r="T88" s="75"/>
+      <c r="U88" s="75"/>
+      <c r="V88" s="75"/>
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A89" s="73" t="s">
+      <c r="A89" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="B89" s="73"/>
-      <c r="C89" s="73"/>
-      <c r="D89" s="74" t="s">
+      <c r="B89" s="76"/>
+      <c r="C89" s="76"/>
+      <c r="D89" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="E89" s="74"/>
-      <c r="F89" s="74"/>
-      <c r="G89" s="74"/>
-      <c r="H89" s="75">
+      <c r="E89" s="77"/>
+      <c r="F89" s="77"/>
+      <c r="G89" s="77"/>
+      <c r="H89" s="83">
         <v>44981</v>
       </c>
-      <c r="I89" s="76"/>
-      <c r="J89" s="76"/>
-      <c r="M89" s="73" t="s">
+      <c r="I89" s="84"/>
+      <c r="J89" s="84"/>
+      <c r="M89" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="N89" s="73"/>
-      <c r="O89" s="73"/>
-      <c r="P89" s="74" t="s">
+      <c r="N89" s="76"/>
+      <c r="O89" s="76"/>
+      <c r="P89" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="Q89" s="74"/>
-      <c r="R89" s="74"/>
-      <c r="S89" s="74"/>
+      <c r="Q89" s="77"/>
+      <c r="R89" s="77"/>
+      <c r="S89" s="77"/>
       <c r="T89" s="18"/>
       <c r="U89" s="18"/>
-      <c r="V89" s="77">
+      <c r="V89" s="78">
         <v>44980</v>
       </c>
-      <c r="W89" s="78"/>
-      <c r="X89" s="79"/>
+      <c r="W89" s="79"/>
+      <c r="X89" s="80"/>
     </row>
     <row r="90" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
@@ -4166,72 +4187,72 @@
       <c r="X100" s="4"/>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C104" s="70" t="s">
+      <c r="C104" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="D104" s="70"/>
-      <c r="E104" s="70"/>
-      <c r="F104" s="70"/>
-      <c r="G104" s="70"/>
-      <c r="P104" s="72" t="s">
+      <c r="D104" s="81"/>
+      <c r="E104" s="81"/>
+      <c r="F104" s="81"/>
+      <c r="G104" s="81"/>
+      <c r="P104" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="Q104" s="72"/>
-      <c r="R104" s="72"/>
-      <c r="S104" s="72"/>
-      <c r="T104" s="72"/>
-      <c r="U104" s="72"/>
-      <c r="V104" s="72"/>
+      <c r="Q104" s="75"/>
+      <c r="R104" s="75"/>
+      <c r="S104" s="75"/>
+      <c r="T104" s="75"/>
+      <c r="U104" s="75"/>
+      <c r="V104" s="75"/>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C105" s="71"/>
-      <c r="D105" s="71"/>
-      <c r="E105" s="71"/>
-      <c r="F105" s="71"/>
-      <c r="G105" s="71"/>
-      <c r="P105" s="72"/>
-      <c r="Q105" s="72"/>
-      <c r="R105" s="72"/>
-      <c r="S105" s="72"/>
-      <c r="T105" s="72"/>
-      <c r="U105" s="72"/>
-      <c r="V105" s="72"/>
+      <c r="C105" s="82"/>
+      <c r="D105" s="82"/>
+      <c r="E105" s="82"/>
+      <c r="F105" s="82"/>
+      <c r="G105" s="82"/>
+      <c r="P105" s="75"/>
+      <c r="Q105" s="75"/>
+      <c r="R105" s="75"/>
+      <c r="S105" s="75"/>
+      <c r="T105" s="75"/>
+      <c r="U105" s="75"/>
+      <c r="V105" s="75"/>
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A106" s="73" t="s">
+      <c r="A106" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="B106" s="73"/>
-      <c r="C106" s="73"/>
-      <c r="D106" s="74" t="s">
+      <c r="B106" s="76"/>
+      <c r="C106" s="76"/>
+      <c r="D106" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="E106" s="74"/>
-      <c r="F106" s="74"/>
-      <c r="G106" s="74"/>
-      <c r="H106" s="75">
+      <c r="E106" s="77"/>
+      <c r="F106" s="77"/>
+      <c r="G106" s="77"/>
+      <c r="H106" s="83">
         <v>44979</v>
       </c>
-      <c r="I106" s="76"/>
-      <c r="J106" s="76"/>
-      <c r="M106" s="73" t="s">
+      <c r="I106" s="84"/>
+      <c r="J106" s="84"/>
+      <c r="M106" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="N106" s="73"/>
-      <c r="O106" s="73"/>
-      <c r="P106" s="74" t="s">
+      <c r="N106" s="76"/>
+      <c r="O106" s="76"/>
+      <c r="P106" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="Q106" s="74"/>
-      <c r="R106" s="74"/>
-      <c r="S106" s="74"/>
+      <c r="Q106" s="77"/>
+      <c r="R106" s="77"/>
+      <c r="S106" s="77"/>
       <c r="T106" s="18"/>
       <c r="U106" s="18"/>
-      <c r="V106" s="77" t="s">
+      <c r="V106" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="W106" s="78"/>
-      <c r="X106" s="79"/>
+      <c r="W106" s="79"/>
+      <c r="X106" s="80"/>
     </row>
     <row r="107" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
@@ -4729,6 +4750,54 @@
     <row r="124" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="C104:G105"/>
+    <mergeCell ref="P104:V105"/>
+    <mergeCell ref="A106:C106"/>
+    <mergeCell ref="D106:G106"/>
+    <mergeCell ref="H106:J106"/>
+    <mergeCell ref="M106:O106"/>
+    <mergeCell ref="P106:S106"/>
+    <mergeCell ref="V106:X106"/>
+    <mergeCell ref="C87:G88"/>
+    <mergeCell ref="P87:V88"/>
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="D89:G89"/>
+    <mergeCell ref="H89:J89"/>
+    <mergeCell ref="M89:O89"/>
+    <mergeCell ref="P89:S89"/>
+    <mergeCell ref="V89:X89"/>
+    <mergeCell ref="C70:G71"/>
+    <mergeCell ref="P70:V71"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="D72:G72"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="M72:O72"/>
+    <mergeCell ref="P72:S72"/>
+    <mergeCell ref="V72:X72"/>
+    <mergeCell ref="C54:G55"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="P54:V55"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="P56:S56"/>
+    <mergeCell ref="V56:X56"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="C2:G3"/>
+    <mergeCell ref="P2:V3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="C22:G23"/>
+    <mergeCell ref="P22:V23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="V24:X24"/>
     <mergeCell ref="P38:V39"/>
     <mergeCell ref="M40:O40"/>
     <mergeCell ref="P40:S40"/>
@@ -4737,54 +4806,6 @@
     <mergeCell ref="A40:C40"/>
     <mergeCell ref="D40:G40"/>
     <mergeCell ref="H40:J40"/>
-    <mergeCell ref="C22:G23"/>
-    <mergeCell ref="P22:V23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="C2:G3"/>
-    <mergeCell ref="P2:V3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="C54:G55"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="P54:V55"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="P56:S56"/>
-    <mergeCell ref="V56:X56"/>
-    <mergeCell ref="C70:G71"/>
-    <mergeCell ref="P70:V71"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="D72:G72"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="M72:O72"/>
-    <mergeCell ref="P72:S72"/>
-    <mergeCell ref="V72:X72"/>
-    <mergeCell ref="C87:G88"/>
-    <mergeCell ref="P87:V88"/>
-    <mergeCell ref="A89:C89"/>
-    <mergeCell ref="D89:G89"/>
-    <mergeCell ref="H89:J89"/>
-    <mergeCell ref="M89:O89"/>
-    <mergeCell ref="P89:S89"/>
-    <mergeCell ref="V89:X89"/>
-    <mergeCell ref="C104:G105"/>
-    <mergeCell ref="P104:V105"/>
-    <mergeCell ref="A106:C106"/>
-    <mergeCell ref="D106:G106"/>
-    <mergeCell ref="H106:J106"/>
-    <mergeCell ref="M106:O106"/>
-    <mergeCell ref="P106:S106"/>
-    <mergeCell ref="V106:X106"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4793,10 +4814,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Z194"/>
+  <dimension ref="A2:Z205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N172" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N186" sqref="M186:X191"/>
+    <sheetView tabSelected="1" topLeftCell="M186" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M198" sqref="M198:X202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4815,72 +4836,72 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="P2" s="72" t="s">
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="P2" s="75" t="s">
         <v>76</v>
       </c>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="72"/>
-      <c r="V2" s="72"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="75"/>
+      <c r="V2" s="75"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
-      <c r="S3" s="72"/>
-      <c r="T3" s="72"/>
-      <c r="U3" s="72"/>
-      <c r="V3" s="72"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="75"/>
+      <c r="R3" s="75"/>
+      <c r="S3" s="75"/>
+      <c r="T3" s="75"/>
+      <c r="U3" s="75"/>
+      <c r="V3" s="75"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="74" t="s">
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="75" t="s">
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="83" t="s">
         <v>74</v>
       </c>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="M4" s="73" t="s">
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+      <c r="M4" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="74" t="s">
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="74"/>
-      <c r="R4" s="74"/>
-      <c r="S4" s="74"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
-      <c r="V4" s="77">
+      <c r="V4" s="78">
         <v>44601</v>
       </c>
-      <c r="W4" s="78"/>
-      <c r="X4" s="79"/>
+      <c r="W4" s="79"/>
+      <c r="X4" s="80"/>
     </row>
     <row r="5" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -5347,72 +5368,72 @@
       <c r="X15" s="4"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C22" s="70" t="s">
+      <c r="C22" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="70"/>
-      <c r="P22" s="72" t="s">
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="81"/>
+      <c r="P22" s="75" t="s">
         <v>77</v>
       </c>
-      <c r="Q22" s="72"/>
-      <c r="R22" s="72"/>
-      <c r="S22" s="72"/>
-      <c r="T22" s="72"/>
-      <c r="U22" s="72"/>
-      <c r="V22" s="72"/>
+      <c r="Q22" s="75"/>
+      <c r="R22" s="75"/>
+      <c r="S22" s="75"/>
+      <c r="T22" s="75"/>
+      <c r="U22" s="75"/>
+      <c r="V22" s="75"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C23" s="71"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="71"/>
-      <c r="P23" s="72"/>
-      <c r="Q23" s="72"/>
-      <c r="R23" s="72"/>
-      <c r="S23" s="72"/>
-      <c r="T23" s="72"/>
-      <c r="U23" s="72"/>
-      <c r="V23" s="72"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="82"/>
+      <c r="P23" s="75"/>
+      <c r="Q23" s="75"/>
+      <c r="R23" s="75"/>
+      <c r="S23" s="75"/>
+      <c r="T23" s="75"/>
+      <c r="U23" s="75"/>
+      <c r="V23" s="75"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="73" t="s">
+      <c r="A24" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="73"/>
-      <c r="C24" s="73"/>
-      <c r="D24" s="74" t="s">
+      <c r="B24" s="76"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="75">
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="83">
         <v>44993</v>
       </c>
-      <c r="I24" s="76"/>
-      <c r="J24" s="76"/>
-      <c r="M24" s="73" t="s">
+      <c r="I24" s="84"/>
+      <c r="J24" s="84"/>
+      <c r="M24" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="N24" s="73"/>
-      <c r="O24" s="73"/>
-      <c r="P24" s="74" t="s">
+      <c r="N24" s="76"/>
+      <c r="O24" s="76"/>
+      <c r="P24" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="Q24" s="74"/>
-      <c r="R24" s="74"/>
-      <c r="S24" s="74"/>
+      <c r="Q24" s="77"/>
+      <c r="R24" s="77"/>
+      <c r="S24" s="77"/>
       <c r="T24" s="18"/>
       <c r="U24" s="18"/>
-      <c r="V24" s="77">
+      <c r="V24" s="78">
         <v>44993</v>
       </c>
-      <c r="W24" s="78"/>
-      <c r="X24" s="79"/>
+      <c r="W24" s="79"/>
+      <c r="X24" s="80"/>
     </row>
     <row r="25" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -5842,72 +5863,72 @@
       <c r="X34" s="4"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C37" s="70" t="s">
+      <c r="C37" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="D37" s="70"/>
-      <c r="E37" s="70"/>
-      <c r="F37" s="70"/>
-      <c r="G37" s="70"/>
-      <c r="P37" s="72" t="s">
+      <c r="D37" s="81"/>
+      <c r="E37" s="81"/>
+      <c r="F37" s="81"/>
+      <c r="G37" s="81"/>
+      <c r="P37" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="Q37" s="72"/>
-      <c r="R37" s="72"/>
-      <c r="S37" s="72"/>
-      <c r="T37" s="72"/>
-      <c r="U37" s="72"/>
-      <c r="V37" s="72"/>
+      <c r="Q37" s="75"/>
+      <c r="R37" s="75"/>
+      <c r="S37" s="75"/>
+      <c r="T37" s="75"/>
+      <c r="U37" s="75"/>
+      <c r="V37" s="75"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C38" s="71"/>
-      <c r="D38" s="71"/>
-      <c r="E38" s="71"/>
-      <c r="F38" s="71"/>
-      <c r="G38" s="71"/>
-      <c r="P38" s="72"/>
-      <c r="Q38" s="72"/>
-      <c r="R38" s="72"/>
-      <c r="S38" s="72"/>
-      <c r="T38" s="72"/>
-      <c r="U38" s="72"/>
-      <c r="V38" s="72"/>
+      <c r="C38" s="82"/>
+      <c r="D38" s="82"/>
+      <c r="E38" s="82"/>
+      <c r="F38" s="82"/>
+      <c r="G38" s="82"/>
+      <c r="P38" s="75"/>
+      <c r="Q38" s="75"/>
+      <c r="R38" s="75"/>
+      <c r="S38" s="75"/>
+      <c r="T38" s="75"/>
+      <c r="U38" s="75"/>
+      <c r="V38" s="75"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A39" s="73" t="s">
+      <c r="A39" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="73"/>
-      <c r="C39" s="73"/>
-      <c r="D39" s="74" t="s">
+      <c r="B39" s="76"/>
+      <c r="C39" s="76"/>
+      <c r="D39" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="74"/>
-      <c r="F39" s="74"/>
-      <c r="G39" s="74"/>
-      <c r="H39" s="75">
+      <c r="E39" s="77"/>
+      <c r="F39" s="77"/>
+      <c r="G39" s="77"/>
+      <c r="H39" s="83">
         <v>44972</v>
       </c>
-      <c r="I39" s="76"/>
-      <c r="J39" s="76"/>
-      <c r="M39" s="73" t="s">
+      <c r="I39" s="84"/>
+      <c r="J39" s="84"/>
+      <c r="M39" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="N39" s="73"/>
-      <c r="O39" s="73"/>
-      <c r="P39" s="74" t="s">
+      <c r="N39" s="76"/>
+      <c r="O39" s="76"/>
+      <c r="P39" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="Q39" s="74"/>
-      <c r="R39" s="74"/>
-      <c r="S39" s="74"/>
+      <c r="Q39" s="77"/>
+      <c r="R39" s="77"/>
+      <c r="S39" s="77"/>
       <c r="T39" s="18"/>
       <c r="U39" s="18"/>
-      <c r="V39" s="77">
+      <c r="V39" s="78">
         <v>44994</v>
       </c>
-      <c r="W39" s="78"/>
-      <c r="X39" s="79"/>
+      <c r="W39" s="79"/>
+      <c r="X39" s="80"/>
     </row>
     <row r="40" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
@@ -6318,72 +6339,72 @@
       <c r="X50" s="4"/>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C53" s="70">
+      <c r="C53" s="81">
         <v>45005</v>
       </c>
-      <c r="D53" s="70"/>
-      <c r="E53" s="70"/>
-      <c r="F53" s="70"/>
-      <c r="G53" s="70"/>
-      <c r="P53" s="70">
+      <c r="D53" s="81"/>
+      <c r="E53" s="81"/>
+      <c r="F53" s="81"/>
+      <c r="G53" s="81"/>
+      <c r="P53" s="81">
         <v>45006</v>
       </c>
-      <c r="Q53" s="70"/>
-      <c r="R53" s="70"/>
-      <c r="S53" s="70"/>
-      <c r="T53" s="70"/>
-      <c r="U53" s="70"/>
-      <c r="V53" s="70"/>
+      <c r="Q53" s="81"/>
+      <c r="R53" s="81"/>
+      <c r="S53" s="81"/>
+      <c r="T53" s="81"/>
+      <c r="U53" s="81"/>
+      <c r="V53" s="81"/>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C54" s="71"/>
-      <c r="D54" s="71"/>
-      <c r="E54" s="71"/>
-      <c r="F54" s="71"/>
-      <c r="G54" s="71"/>
-      <c r="P54" s="70"/>
-      <c r="Q54" s="70"/>
-      <c r="R54" s="70"/>
-      <c r="S54" s="70"/>
-      <c r="T54" s="70"/>
-      <c r="U54" s="70"/>
-      <c r="V54" s="70"/>
+      <c r="C54" s="82"/>
+      <c r="D54" s="82"/>
+      <c r="E54" s="82"/>
+      <c r="F54" s="82"/>
+      <c r="G54" s="82"/>
+      <c r="P54" s="81"/>
+      <c r="Q54" s="81"/>
+      <c r="R54" s="81"/>
+      <c r="S54" s="81"/>
+      <c r="T54" s="81"/>
+      <c r="U54" s="81"/>
+      <c r="V54" s="81"/>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A55" s="73" t="s">
+      <c r="A55" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="73"/>
-      <c r="C55" s="73"/>
-      <c r="D55" s="74" t="s">
+      <c r="B55" s="76"/>
+      <c r="C55" s="76"/>
+      <c r="D55" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="E55" s="74"/>
-      <c r="F55" s="74"/>
-      <c r="G55" s="74"/>
-      <c r="H55" s="75">
+      <c r="E55" s="77"/>
+      <c r="F55" s="77"/>
+      <c r="G55" s="77"/>
+      <c r="H55" s="83">
         <v>45005</v>
       </c>
-      <c r="I55" s="76"/>
-      <c r="J55" s="76"/>
-      <c r="M55" s="73" t="s">
+      <c r="I55" s="84"/>
+      <c r="J55" s="84"/>
+      <c r="M55" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="N55" s="73"/>
-      <c r="O55" s="73"/>
-      <c r="P55" s="74" t="s">
+      <c r="N55" s="76"/>
+      <c r="O55" s="76"/>
+      <c r="P55" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="Q55" s="74"/>
-      <c r="R55" s="74"/>
-      <c r="S55" s="74"/>
+      <c r="Q55" s="77"/>
+      <c r="R55" s="77"/>
+      <c r="S55" s="77"/>
       <c r="T55" s="18"/>
       <c r="U55" s="18"/>
-      <c r="V55" s="77">
+      <c r="V55" s="78">
         <v>45006</v>
       </c>
-      <c r="W55" s="78"/>
-      <c r="X55" s="79"/>
+      <c r="W55" s="79"/>
+      <c r="X55" s="80"/>
     </row>
     <row r="56" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
@@ -6782,72 +6803,72 @@
       <c r="X66" s="4"/>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C69" s="70" t="s">
+      <c r="C69" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="D69" s="70"/>
-      <c r="E69" s="70"/>
-      <c r="F69" s="70"/>
-      <c r="G69" s="70"/>
-      <c r="P69" s="72" t="s">
+      <c r="D69" s="81"/>
+      <c r="E69" s="81"/>
+      <c r="F69" s="81"/>
+      <c r="G69" s="81"/>
+      <c r="P69" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="Q69" s="72"/>
-      <c r="R69" s="72"/>
-      <c r="S69" s="72"/>
-      <c r="T69" s="72"/>
-      <c r="U69" s="72"/>
-      <c r="V69" s="72"/>
+      <c r="Q69" s="75"/>
+      <c r="R69" s="75"/>
+      <c r="S69" s="75"/>
+      <c r="T69" s="75"/>
+      <c r="U69" s="75"/>
+      <c r="V69" s="75"/>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C70" s="71"/>
-      <c r="D70" s="71"/>
-      <c r="E70" s="71"/>
-      <c r="F70" s="71"/>
-      <c r="G70" s="71"/>
-      <c r="P70" s="72"/>
-      <c r="Q70" s="72"/>
-      <c r="R70" s="72"/>
-      <c r="S70" s="72"/>
-      <c r="T70" s="72"/>
-      <c r="U70" s="72"/>
-      <c r="V70" s="72"/>
+      <c r="C70" s="82"/>
+      <c r="D70" s="82"/>
+      <c r="E70" s="82"/>
+      <c r="F70" s="82"/>
+      <c r="G70" s="82"/>
+      <c r="P70" s="75"/>
+      <c r="Q70" s="75"/>
+      <c r="R70" s="75"/>
+      <c r="S70" s="75"/>
+      <c r="T70" s="75"/>
+      <c r="U70" s="75"/>
+      <c r="V70" s="75"/>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A71" s="73" t="s">
+      <c r="A71" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="B71" s="73"/>
-      <c r="C71" s="73"/>
-      <c r="D71" s="74" t="s">
+      <c r="B71" s="76"/>
+      <c r="C71" s="76"/>
+      <c r="D71" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="E71" s="74"/>
-      <c r="F71" s="74"/>
-      <c r="G71" s="74"/>
-      <c r="H71" s="75">
+      <c r="E71" s="77"/>
+      <c r="F71" s="77"/>
+      <c r="G71" s="77"/>
+      <c r="H71" s="83">
         <v>44979</v>
       </c>
-      <c r="I71" s="76"/>
-      <c r="J71" s="76"/>
-      <c r="M71" s="73" t="s">
+      <c r="I71" s="84"/>
+      <c r="J71" s="84"/>
+      <c r="M71" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="N71" s="73"/>
-      <c r="O71" s="73"/>
-      <c r="P71" s="74" t="s">
+      <c r="N71" s="76"/>
+      <c r="O71" s="76"/>
+      <c r="P71" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="Q71" s="74"/>
-      <c r="R71" s="74"/>
-      <c r="S71" s="74"/>
+      <c r="Q71" s="77"/>
+      <c r="R71" s="77"/>
+      <c r="S71" s="77"/>
       <c r="T71" s="18"/>
       <c r="U71" s="18"/>
-      <c r="V71" s="77">
+      <c r="V71" s="78">
         <v>44980</v>
       </c>
-      <c r="W71" s="78"/>
-      <c r="X71" s="79"/>
+      <c r="W71" s="79"/>
+      <c r="X71" s="80"/>
     </row>
     <row r="72" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
@@ -7250,72 +7271,72 @@
       <c r="X82" s="4"/>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C86" s="70" t="s">
+      <c r="C86" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="D86" s="70"/>
-      <c r="E86" s="70"/>
-      <c r="F86" s="70"/>
-      <c r="G86" s="70"/>
-      <c r="P86" s="72" t="s">
+      <c r="D86" s="81"/>
+      <c r="E86" s="81"/>
+      <c r="F86" s="81"/>
+      <c r="G86" s="81"/>
+      <c r="P86" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="Q86" s="72"/>
-      <c r="R86" s="72"/>
-      <c r="S86" s="72"/>
-      <c r="T86" s="72"/>
-      <c r="U86" s="72"/>
-      <c r="V86" s="72"/>
+      <c r="Q86" s="75"/>
+      <c r="R86" s="75"/>
+      <c r="S86" s="75"/>
+      <c r="T86" s="75"/>
+      <c r="U86" s="75"/>
+      <c r="V86" s="75"/>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C87" s="71"/>
-      <c r="D87" s="71"/>
-      <c r="E87" s="71"/>
-      <c r="F87" s="71"/>
-      <c r="G87" s="71"/>
-      <c r="P87" s="72"/>
-      <c r="Q87" s="72"/>
-      <c r="R87" s="72"/>
-      <c r="S87" s="72"/>
-      <c r="T87" s="72"/>
-      <c r="U87" s="72"/>
-      <c r="V87" s="72"/>
+      <c r="C87" s="82"/>
+      <c r="D87" s="82"/>
+      <c r="E87" s="82"/>
+      <c r="F87" s="82"/>
+      <c r="G87" s="82"/>
+      <c r="P87" s="75"/>
+      <c r="Q87" s="75"/>
+      <c r="R87" s="75"/>
+      <c r="S87" s="75"/>
+      <c r="T87" s="75"/>
+      <c r="U87" s="75"/>
+      <c r="V87" s="75"/>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A88" s="73" t="s">
+      <c r="A88" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="B88" s="73"/>
-      <c r="C88" s="73"/>
-      <c r="D88" s="74" t="s">
+      <c r="B88" s="76"/>
+      <c r="C88" s="76"/>
+      <c r="D88" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="E88" s="74"/>
-      <c r="F88" s="74"/>
-      <c r="G88" s="74"/>
-      <c r="H88" s="75">
+      <c r="E88" s="77"/>
+      <c r="F88" s="77"/>
+      <c r="G88" s="77"/>
+      <c r="H88" s="83">
         <v>44981</v>
       </c>
-      <c r="I88" s="76"/>
-      <c r="J88" s="76"/>
-      <c r="M88" s="73" t="s">
+      <c r="I88" s="84"/>
+      <c r="J88" s="84"/>
+      <c r="M88" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="N88" s="73"/>
-      <c r="O88" s="73"/>
-      <c r="P88" s="74" t="s">
+      <c r="N88" s="76"/>
+      <c r="O88" s="76"/>
+      <c r="P88" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="Q88" s="74"/>
-      <c r="R88" s="74"/>
-      <c r="S88" s="74"/>
+      <c r="Q88" s="77"/>
+      <c r="R88" s="77"/>
+      <c r="S88" s="77"/>
       <c r="T88" s="18"/>
       <c r="U88" s="18"/>
-      <c r="V88" s="77">
+      <c r="V88" s="78">
         <v>44980</v>
       </c>
-      <c r="W88" s="78"/>
-      <c r="X88" s="79"/>
+      <c r="W88" s="79"/>
+      <c r="X88" s="80"/>
     </row>
     <row r="89" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
@@ -7650,73 +7671,73 @@
       <c r="X99" s="4"/>
     </row>
     <row r="103" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C103" s="70" t="s">
+      <c r="C103" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="D103" s="70"/>
-      <c r="E103" s="70"/>
-      <c r="F103" s="70"/>
-      <c r="G103" s="70"/>
-      <c r="P103" s="72" t="s">
+      <c r="D103" s="81"/>
+      <c r="E103" s="81"/>
+      <c r="F103" s="81"/>
+      <c r="G103" s="81"/>
+      <c r="P103" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="Q103" s="72"/>
-      <c r="R103" s="72"/>
-      <c r="S103" s="72"/>
-      <c r="T103" s="72"/>
-      <c r="U103" s="72"/>
-      <c r="V103" s="72"/>
+      <c r="Q103" s="75"/>
+      <c r="R103" s="75"/>
+      <c r="S103" s="75"/>
+      <c r="T103" s="75"/>
+      <c r="U103" s="75"/>
+      <c r="V103" s="75"/>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C104" s="71"/>
-      <c r="D104" s="71"/>
-      <c r="E104" s="71"/>
-      <c r="F104" s="71"/>
-      <c r="G104" s="71"/>
-      <c r="P104" s="72"/>
-      <c r="Q104" s="72"/>
-      <c r="R104" s="72"/>
-      <c r="S104" s="72"/>
-      <c r="T104" s="72"/>
-      <c r="U104" s="72"/>
-      <c r="V104" s="72"/>
+      <c r="C104" s="82"/>
+      <c r="D104" s="82"/>
+      <c r="E104" s="82"/>
+      <c r="F104" s="82"/>
+      <c r="G104" s="82"/>
+      <c r="P104" s="75"/>
+      <c r="Q104" s="75"/>
+      <c r="R104" s="75"/>
+      <c r="S104" s="75"/>
+      <c r="T104" s="75"/>
+      <c r="U104" s="75"/>
+      <c r="V104" s="75"/>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A105" s="73" t="s">
+      <c r="A105" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="B105" s="73"/>
-      <c r="C105" s="73"/>
-      <c r="D105" s="74" t="s">
+      <c r="B105" s="76"/>
+      <c r="C105" s="76"/>
+      <c r="D105" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="E105" s="74"/>
-      <c r="F105" s="74"/>
-      <c r="G105" s="74"/>
-      <c r="H105" s="75">
+      <c r="E105" s="77"/>
+      <c r="F105" s="77"/>
+      <c r="G105" s="77"/>
+      <c r="H105" s="83">
         <v>44979</v>
       </c>
-      <c r="I105" s="76"/>
-      <c r="J105" s="76"/>
-      <c r="M105" s="73" t="s">
+      <c r="I105" s="84"/>
+      <c r="J105" s="84"/>
+      <c r="M105" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="N105" s="73"/>
-      <c r="O105" s="73"/>
-      <c r="P105" s="74" t="s">
+      <c r="N105" s="76"/>
+      <c r="O105" s="76"/>
+      <c r="P105" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="Q105" s="74"/>
-      <c r="R105" s="74"/>
-      <c r="S105" s="74"/>
+      <c r="Q105" s="77"/>
+      <c r="R105" s="77"/>
+      <c r="S105" s="77"/>
       <c r="T105" s="18"/>
       <c r="U105" s="18"/>
-      <c r="V105" s="77" t="e">
+      <c r="V105" s="78" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W105" s="78"/>
-      <c r="X105" s="79"/>
+      <c r="W105" s="79"/>
+      <c r="X105" s="80"/>
     </row>
     <row r="106" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
@@ -8167,73 +8188,73 @@
       <c r="X116" s="4"/>
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C121" s="70" t="s">
+      <c r="C121" s="81" t="s">
         <v>95</v>
       </c>
-      <c r="D121" s="70"/>
-      <c r="E121" s="70"/>
-      <c r="F121" s="70"/>
-      <c r="G121" s="70"/>
-      <c r="P121" s="72" t="s">
+      <c r="D121" s="81"/>
+      <c r="E121" s="81"/>
+      <c r="F121" s="81"/>
+      <c r="G121" s="81"/>
+      <c r="P121" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="Q121" s="72"/>
-      <c r="R121" s="72"/>
-      <c r="S121" s="72"/>
-      <c r="T121" s="72"/>
-      <c r="U121" s="72"/>
-      <c r="V121" s="72"/>
+      <c r="Q121" s="75"/>
+      <c r="R121" s="75"/>
+      <c r="S121" s="75"/>
+      <c r="T121" s="75"/>
+      <c r="U121" s="75"/>
+      <c r="V121" s="75"/>
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C122" s="71"/>
-      <c r="D122" s="71"/>
-      <c r="E122" s="71"/>
-      <c r="F122" s="71"/>
-      <c r="G122" s="71"/>
-      <c r="P122" s="72"/>
-      <c r="Q122" s="72"/>
-      <c r="R122" s="72"/>
-      <c r="S122" s="72"/>
-      <c r="T122" s="72"/>
-      <c r="U122" s="72"/>
-      <c r="V122" s="72"/>
+      <c r="C122" s="82"/>
+      <c r="D122" s="82"/>
+      <c r="E122" s="82"/>
+      <c r="F122" s="82"/>
+      <c r="G122" s="82"/>
+      <c r="P122" s="75"/>
+      <c r="Q122" s="75"/>
+      <c r="R122" s="75"/>
+      <c r="S122" s="75"/>
+      <c r="T122" s="75"/>
+      <c r="U122" s="75"/>
+      <c r="V122" s="75"/>
     </row>
     <row r="123" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="73" t="s">
+      <c r="A123" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="B123" s="73"/>
-      <c r="C123" s="73"/>
-      <c r="D123" s="74" t="s">
+      <c r="B123" s="76"/>
+      <c r="C123" s="76"/>
+      <c r="D123" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="E123" s="74"/>
-      <c r="F123" s="74"/>
-      <c r="G123" s="74"/>
-      <c r="H123" s="75">
+      <c r="E123" s="77"/>
+      <c r="F123" s="77"/>
+      <c r="G123" s="77"/>
+      <c r="H123" s="83">
         <v>44979</v>
       </c>
-      <c r="I123" s="76"/>
-      <c r="J123" s="76"/>
-      <c r="M123" s="73" t="s">
+      <c r="I123" s="84"/>
+      <c r="J123" s="84"/>
+      <c r="M123" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="N123" s="73"/>
-      <c r="O123" s="73"/>
-      <c r="P123" s="74" t="s">
+      <c r="N123" s="76"/>
+      <c r="O123" s="76"/>
+      <c r="P123" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="Q123" s="74"/>
-      <c r="R123" s="74"/>
-      <c r="S123" s="74"/>
+      <c r="Q123" s="77"/>
+      <c r="R123" s="77"/>
+      <c r="S123" s="77"/>
       <c r="T123" s="18"/>
       <c r="U123" s="18"/>
-      <c r="V123" s="77" t="e">
+      <c r="V123" s="78" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W123" s="78"/>
-      <c r="X123" s="79"/>
+      <c r="W123" s="79"/>
+      <c r="X123" s="80"/>
     </row>
     <row r="124" spans="1:26" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
@@ -8748,45 +8769,45 @@
       <c r="X134" s="4"/>
     </row>
     <row r="138" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="P138" s="72" t="s">
+      <c r="P138" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="Q138" s="72"/>
-      <c r="R138" s="72"/>
-      <c r="S138" s="72"/>
-      <c r="T138" s="72"/>
-      <c r="U138" s="72"/>
-      <c r="V138" s="72"/>
+      <c r="Q138" s="75"/>
+      <c r="R138" s="75"/>
+      <c r="S138" s="75"/>
+      <c r="T138" s="75"/>
+      <c r="U138" s="75"/>
+      <c r="V138" s="75"/>
     </row>
     <row r="139" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="P139" s="72"/>
-      <c r="Q139" s="72"/>
-      <c r="R139" s="72"/>
-      <c r="S139" s="72"/>
-      <c r="T139" s="72"/>
-      <c r="U139" s="72"/>
-      <c r="V139" s="72"/>
+      <c r="P139" s="75"/>
+      <c r="Q139" s="75"/>
+      <c r="R139" s="75"/>
+      <c r="S139" s="75"/>
+      <c r="T139" s="75"/>
+      <c r="U139" s="75"/>
+      <c r="V139" s="75"/>
     </row>
     <row r="140" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="M140" s="73" t="s">
+      <c r="M140" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="N140" s="73"/>
-      <c r="O140" s="73"/>
-      <c r="P140" s="74" t="s">
+      <c r="N140" s="76"/>
+      <c r="O140" s="76"/>
+      <c r="P140" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="Q140" s="74"/>
-      <c r="R140" s="74"/>
-      <c r="S140" s="74"/>
+      <c r="Q140" s="77"/>
+      <c r="R140" s="77"/>
+      <c r="S140" s="77"/>
       <c r="T140" s="18"/>
       <c r="U140" s="18"/>
-      <c r="V140" s="77" t="e">
+      <c r="V140" s="78" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W140" s="78"/>
-      <c r="X140" s="79"/>
+      <c r="W140" s="79"/>
+      <c r="X140" s="80"/>
     </row>
     <row r="141" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M141" s="6" t="s">
@@ -9051,45 +9072,45 @@
       <c r="S152" s="64"/>
     </row>
     <row r="153" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P153" s="72" t="s">
+      <c r="P153" s="75" t="s">
         <v>102</v>
       </c>
-      <c r="Q153" s="72"/>
-      <c r="R153" s="72"/>
-      <c r="S153" s="72"/>
-      <c r="T153" s="72"/>
-      <c r="U153" s="72"/>
-      <c r="V153" s="72"/>
+      <c r="Q153" s="75"/>
+      <c r="R153" s="75"/>
+      <c r="S153" s="75"/>
+      <c r="T153" s="75"/>
+      <c r="U153" s="75"/>
+      <c r="V153" s="75"/>
     </row>
     <row r="154" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P154" s="72"/>
-      <c r="Q154" s="72"/>
-      <c r="R154" s="72"/>
-      <c r="S154" s="72"/>
-      <c r="T154" s="72"/>
-      <c r="U154" s="72"/>
-      <c r="V154" s="72"/>
+      <c r="P154" s="75"/>
+      <c r="Q154" s="75"/>
+      <c r="R154" s="75"/>
+      <c r="S154" s="75"/>
+      <c r="T154" s="75"/>
+      <c r="U154" s="75"/>
+      <c r="V154" s="75"/>
     </row>
     <row r="155" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M155" s="73" t="s">
+      <c r="M155" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="N155" s="73"/>
-      <c r="O155" s="73"/>
-      <c r="P155" s="74" t="s">
+      <c r="N155" s="76"/>
+      <c r="O155" s="76"/>
+      <c r="P155" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="Q155" s="74"/>
-      <c r="R155" s="74"/>
-      <c r="S155" s="74"/>
+      <c r="Q155" s="77"/>
+      <c r="R155" s="77"/>
+      <c r="S155" s="77"/>
       <c r="T155" s="18"/>
       <c r="U155" s="18"/>
-      <c r="V155" s="77" t="e">
+      <c r="V155" s="78" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W155" s="78"/>
-      <c r="X155" s="79"/>
+      <c r="W155" s="79"/>
+      <c r="X155" s="80"/>
     </row>
     <row r="156" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M156" s="6" t="s">
@@ -9353,45 +9374,45 @@
       <c r="X166" s="4"/>
     </row>
     <row r="168" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P168" s="72" t="s">
+      <c r="P168" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="Q168" s="72"/>
-      <c r="R168" s="72"/>
-      <c r="S168" s="72"/>
-      <c r="T168" s="72"/>
-      <c r="U168" s="72"/>
-      <c r="V168" s="72"/>
+      <c r="Q168" s="75"/>
+      <c r="R168" s="75"/>
+      <c r="S168" s="75"/>
+      <c r="T168" s="75"/>
+      <c r="U168" s="75"/>
+      <c r="V168" s="75"/>
     </row>
     <row r="169" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P169" s="72"/>
-      <c r="Q169" s="72"/>
-      <c r="R169" s="72"/>
-      <c r="S169" s="72"/>
-      <c r="T169" s="72"/>
-      <c r="U169" s="72"/>
-      <c r="V169" s="72"/>
+      <c r="P169" s="75"/>
+      <c r="Q169" s="75"/>
+      <c r="R169" s="75"/>
+      <c r="S169" s="75"/>
+      <c r="T169" s="75"/>
+      <c r="U169" s="75"/>
+      <c r="V169" s="75"/>
     </row>
     <row r="170" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M170" s="73" t="s">
+      <c r="M170" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="N170" s="73"/>
-      <c r="O170" s="73"/>
-      <c r="P170" s="74" t="s">
+      <c r="N170" s="76"/>
+      <c r="O170" s="76"/>
+      <c r="P170" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="Q170" s="74"/>
-      <c r="R170" s="74"/>
-      <c r="S170" s="74"/>
+      <c r="Q170" s="77"/>
+      <c r="R170" s="77"/>
+      <c r="S170" s="77"/>
       <c r="T170" s="18"/>
       <c r="U170" s="18"/>
-      <c r="V170" s="77" t="e">
+      <c r="V170" s="78" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W170" s="78"/>
-      <c r="X170" s="79"/>
+      <c r="W170" s="79"/>
+      <c r="X170" s="80"/>
     </row>
     <row r="171" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M171" s="6" t="s">
@@ -9596,45 +9617,45 @@
       <c r="X181" s="4"/>
     </row>
     <row r="186" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P186" s="72" t="s">
+      <c r="P186" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="Q186" s="72"/>
-      <c r="R186" s="72"/>
-      <c r="S186" s="72"/>
-      <c r="T186" s="72"/>
-      <c r="U186" s="72"/>
-      <c r="V186" s="72"/>
+      <c r="Q186" s="75"/>
+      <c r="R186" s="75"/>
+      <c r="S186" s="75"/>
+      <c r="T186" s="75"/>
+      <c r="U186" s="75"/>
+      <c r="V186" s="75"/>
     </row>
     <row r="187" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P187" s="72"/>
-      <c r="Q187" s="72"/>
-      <c r="R187" s="72"/>
-      <c r="S187" s="72"/>
-      <c r="T187" s="72"/>
-      <c r="U187" s="72"/>
-      <c r="V187" s="72"/>
+      <c r="P187" s="75"/>
+      <c r="Q187" s="75"/>
+      <c r="R187" s="75"/>
+      <c r="S187" s="75"/>
+      <c r="T187" s="75"/>
+      <c r="U187" s="75"/>
+      <c r="V187" s="75"/>
     </row>
     <row r="188" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M188" s="73" t="s">
+      <c r="M188" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="N188" s="73"/>
-      <c r="O188" s="73"/>
-      <c r="P188" s="74" t="s">
+      <c r="N188" s="76"/>
+      <c r="O188" s="76"/>
+      <c r="P188" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="Q188" s="74"/>
-      <c r="R188" s="74"/>
-      <c r="S188" s="74"/>
+      <c r="Q188" s="77"/>
+      <c r="R188" s="77"/>
+      <c r="S188" s="77"/>
       <c r="T188" s="18"/>
       <c r="U188" s="18"/>
-      <c r="V188" s="77" t="e">
+      <c r="V188" s="78" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W188" s="78"/>
-      <c r="X188" s="79"/>
+      <c r="W188" s="79"/>
+      <c r="X188" s="80"/>
     </row>
     <row r="189" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M189" s="6" t="s">
@@ -9789,7 +9810,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="194" spans="13:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="194" spans="13:26" x14ac:dyDescent="0.25">
       <c r="M194" s="1"/>
       <c r="N194" s="48"/>
       <c r="O194" s="49"/>
@@ -9803,48 +9824,205 @@
       <c r="W194" s="4"/>
       <c r="X194" s="15"/>
     </row>
+    <row r="198" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P198" s="75" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q198" s="75"/>
+      <c r="R198" s="75"/>
+      <c r="S198" s="75"/>
+      <c r="T198" s="75"/>
+      <c r="U198" s="75"/>
+      <c r="V198" s="75"/>
+    </row>
+    <row r="199" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P199" s="75"/>
+      <c r="Q199" s="75"/>
+      <c r="R199" s="75"/>
+      <c r="S199" s="75"/>
+      <c r="T199" s="75"/>
+      <c r="U199" s="75"/>
+      <c r="V199" s="75"/>
+    </row>
+    <row r="200" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M200" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="N200" s="70"/>
+      <c r="O200" s="70"/>
+      <c r="P200" s="71" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q200" s="71"/>
+      <c r="R200" s="71"/>
+      <c r="S200" s="71"/>
+      <c r="T200" s="18"/>
+      <c r="U200" s="18"/>
+      <c r="V200" s="72" t="e">
+        <f>FECHANUMERO</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W200" s="73"/>
+      <c r="X200" s="74"/>
+    </row>
+    <row r="201" spans="13:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="M201" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N201" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O201" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P201" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q201" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="R201" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="S201" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="T201" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="U201" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="V201" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="W201" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="X201" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z201" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="202" spans="13:26" x14ac:dyDescent="0.25">
+      <c r="M202" s="47"/>
+      <c r="N202" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="O202" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="P202" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q202" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="R202" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="S202" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="T202" s="43">
+        <v>0.31944444444444448</v>
+      </c>
+      <c r="U202" s="33">
+        <v>0.33611111111111108</v>
+      </c>
+      <c r="V202" s="34">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="W202" s="34">
+        <v>0.43611111111111112</v>
+      </c>
+      <c r="X202" s="35">
+        <v>0.54097222222222219</v>
+      </c>
+      <c r="Z202" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="203" spans="13:26" x14ac:dyDescent="0.25">
+      <c r="M203" s="47"/>
+      <c r="N203" s="48"/>
+      <c r="O203" s="49"/>
+      <c r="P203" s="66"/>
+      <c r="Q203" s="49"/>
+      <c r="R203" s="50"/>
+      <c r="S203" s="10"/>
+      <c r="T203" s="43"/>
+      <c r="U203" s="69"/>
+      <c r="V203" s="34"/>
+      <c r="W203" s="34"/>
+      <c r="X203" s="35"/>
+      <c r="Z203" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="204" spans="13:26" x14ac:dyDescent="0.25">
+      <c r="M204" s="47"/>
+      <c r="N204" s="48"/>
+      <c r="O204" s="49"/>
+      <c r="P204" s="49"/>
+      <c r="Q204" s="49"/>
+      <c r="R204" s="50"/>
+      <c r="S204" s="16"/>
+      <c r="T204" s="44"/>
+      <c r="U204" s="34"/>
+      <c r="V204" s="34"/>
+      <c r="W204" s="34"/>
+      <c r="X204" s="35"/>
+      <c r="Z204" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="205" spans="13:26" ht="24" x14ac:dyDescent="0.25">
+      <c r="M205" s="47"/>
+      <c r="N205" s="48"/>
+      <c r="O205" s="49"/>
+      <c r="P205" s="49"/>
+      <c r="Q205" s="49"/>
+      <c r="R205" s="50"/>
+      <c r="S205" s="16"/>
+      <c r="T205" s="44"/>
+      <c r="U205" s="34"/>
+      <c r="V205" s="34"/>
+      <c r="W205" s="34"/>
+      <c r="X205" s="35"/>
+      <c r="Z205" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="80">
-    <mergeCell ref="C37:G38"/>
-    <mergeCell ref="P37:V38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="P39:S39"/>
-    <mergeCell ref="V39:X39"/>
-    <mergeCell ref="C22:G23"/>
-    <mergeCell ref="P22:V23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="C2:G3"/>
-    <mergeCell ref="P2:V3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="C53:G54"/>
-    <mergeCell ref="P53:V54"/>
-    <mergeCell ref="V55:X55"/>
-    <mergeCell ref="C69:G70"/>
-    <mergeCell ref="P69:V70"/>
-    <mergeCell ref="V71:X71"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="M55:O55"/>
-    <mergeCell ref="P55:S55"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="D71:G71"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="M71:O71"/>
-    <mergeCell ref="P71:S71"/>
+  <mergeCells count="81">
+    <mergeCell ref="P198:V199"/>
+    <mergeCell ref="P186:V187"/>
+    <mergeCell ref="M188:O188"/>
+    <mergeCell ref="P188:S188"/>
+    <mergeCell ref="V188:X188"/>
+    <mergeCell ref="P168:V169"/>
+    <mergeCell ref="M170:O170"/>
+    <mergeCell ref="P170:S170"/>
+    <mergeCell ref="V170:X170"/>
+    <mergeCell ref="M155:O155"/>
+    <mergeCell ref="P155:S155"/>
+    <mergeCell ref="V155:X155"/>
+    <mergeCell ref="P153:V154"/>
+    <mergeCell ref="C103:G104"/>
+    <mergeCell ref="P103:V104"/>
+    <mergeCell ref="A105:C105"/>
+    <mergeCell ref="D105:G105"/>
+    <mergeCell ref="H105:J105"/>
+    <mergeCell ref="M105:O105"/>
+    <mergeCell ref="P105:S105"/>
+    <mergeCell ref="V105:X105"/>
+    <mergeCell ref="C121:G122"/>
+    <mergeCell ref="A123:C123"/>
+    <mergeCell ref="D123:G123"/>
+    <mergeCell ref="H123:J123"/>
     <mergeCell ref="M140:O140"/>
     <mergeCell ref="P140:S140"/>
     <mergeCell ref="V140:X140"/>
@@ -9861,30 +10039,46 @@
     <mergeCell ref="M123:O123"/>
     <mergeCell ref="P123:S123"/>
     <mergeCell ref="P138:V139"/>
-    <mergeCell ref="M155:O155"/>
-    <mergeCell ref="P155:S155"/>
-    <mergeCell ref="V155:X155"/>
-    <mergeCell ref="P153:V154"/>
-    <mergeCell ref="C103:G104"/>
-    <mergeCell ref="P103:V104"/>
-    <mergeCell ref="A105:C105"/>
-    <mergeCell ref="D105:G105"/>
-    <mergeCell ref="H105:J105"/>
-    <mergeCell ref="M105:O105"/>
-    <mergeCell ref="P105:S105"/>
-    <mergeCell ref="V105:X105"/>
-    <mergeCell ref="C121:G122"/>
-    <mergeCell ref="A123:C123"/>
-    <mergeCell ref="D123:G123"/>
-    <mergeCell ref="H123:J123"/>
-    <mergeCell ref="P186:V187"/>
-    <mergeCell ref="M188:O188"/>
-    <mergeCell ref="P188:S188"/>
-    <mergeCell ref="V188:X188"/>
-    <mergeCell ref="P168:V169"/>
-    <mergeCell ref="M170:O170"/>
-    <mergeCell ref="P170:S170"/>
-    <mergeCell ref="V170:X170"/>
+    <mergeCell ref="V71:X71"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="P55:S55"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="D71:G71"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="M71:O71"/>
+    <mergeCell ref="P71:S71"/>
+    <mergeCell ref="C53:G54"/>
+    <mergeCell ref="P53:V54"/>
+    <mergeCell ref="V55:X55"/>
+    <mergeCell ref="C69:G70"/>
+    <mergeCell ref="P69:V70"/>
+    <mergeCell ref="C2:G3"/>
+    <mergeCell ref="P2:V3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="C22:G23"/>
+    <mergeCell ref="P22:V23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="C37:G38"/>
+    <mergeCell ref="P37:V38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="P39:S39"/>
+    <mergeCell ref="V39:X39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/DOC 2023/FORMATO STATUS.xlsx
+++ b/DOC 2023/FORMATO STATUS.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="110">
   <si>
     <t>DT</t>
   </si>
@@ -348,10 +348,10 @@
     <t>EL ROSADO</t>
   </si>
   <si>
-    <t>SABADO 13-05-2023</t>
-  </si>
-  <si>
     <t>CRISTIAN ABRIL</t>
+  </si>
+  <si>
+    <t>MARTES 16-05-2023</t>
   </si>
 </sst>
 </file>
@@ -895,6 +895,12 @@
     <xf numFmtId="164" fontId="6" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -904,6 +910,12 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -911,18 +923,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1202,7 +1202,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1231,72 +1231,72 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C2" s="81" t="s">
+      <c r="C2" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="P2" s="75" t="s">
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="P2" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="75"/>
-      <c r="R2" s="75"/>
-      <c r="S2" s="75"/>
-      <c r="T2" s="75"/>
-      <c r="U2" s="75"/>
-      <c r="V2" s="75"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="77"/>
+      <c r="U2" s="77"/>
+      <c r="V2" s="77"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="75"/>
-      <c r="R3" s="75"/>
-      <c r="S3" s="75"/>
-      <c r="T3" s="75"/>
-      <c r="U3" s="75"/>
-      <c r="V3" s="75"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="77"/>
+      <c r="T3" s="77"/>
+      <c r="U3" s="77"/>
+      <c r="V3" s="77"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="77" t="s">
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="83">
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="80">
         <v>44965</v>
       </c>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="M4" s="76" t="s">
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="M4" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="77" t="s">
+      <c r="N4" s="78"/>
+      <c r="O4" s="78"/>
+      <c r="P4" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="77"/>
-      <c r="S4" s="77"/>
+      <c r="Q4" s="79"/>
+      <c r="R4" s="79"/>
+      <c r="S4" s="79"/>
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
-      <c r="V4" s="78">
+      <c r="V4" s="82">
         <v>44601</v>
       </c>
-      <c r="W4" s="79"/>
-      <c r="X4" s="80"/>
+      <c r="W4" s="83"/>
+      <c r="X4" s="84"/>
     </row>
     <row r="5" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -1711,72 +1711,72 @@
       <c r="X15" s="4"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C22" s="81" t="s">
+      <c r="C22" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="81"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="81"/>
-      <c r="P22" s="75" t="s">
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
+      <c r="P22" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="Q22" s="75"/>
-      <c r="R22" s="75"/>
-      <c r="S22" s="75"/>
-      <c r="T22" s="75"/>
-      <c r="U22" s="75"/>
-      <c r="V22" s="75"/>
+      <c r="Q22" s="77"/>
+      <c r="R22" s="77"/>
+      <c r="S22" s="77"/>
+      <c r="T22" s="77"/>
+      <c r="U22" s="77"/>
+      <c r="V22" s="77"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C23" s="82"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="82"/>
-      <c r="P23" s="75"/>
-      <c r="Q23" s="75"/>
-      <c r="R23" s="75"/>
-      <c r="S23" s="75"/>
-      <c r="T23" s="75"/>
-      <c r="U23" s="75"/>
-      <c r="V23" s="75"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
+      <c r="P23" s="77"/>
+      <c r="Q23" s="77"/>
+      <c r="R23" s="77"/>
+      <c r="S23" s="77"/>
+      <c r="T23" s="77"/>
+      <c r="U23" s="77"/>
+      <c r="V23" s="77"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="76" t="s">
+      <c r="A24" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="76"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="77" t="s">
+      <c r="B24" s="78"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="83">
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="80">
         <v>44965</v>
       </c>
-      <c r="I24" s="84"/>
-      <c r="J24" s="84"/>
-      <c r="M24" s="76" t="s">
+      <c r="I24" s="81"/>
+      <c r="J24" s="81"/>
+      <c r="M24" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="N24" s="76"/>
-      <c r="O24" s="76"/>
-      <c r="P24" s="77" t="s">
+      <c r="N24" s="78"/>
+      <c r="O24" s="78"/>
+      <c r="P24" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="Q24" s="77"/>
-      <c r="R24" s="77"/>
-      <c r="S24" s="77"/>
+      <c r="Q24" s="79"/>
+      <c r="R24" s="79"/>
+      <c r="S24" s="79"/>
       <c r="T24" s="18"/>
       <c r="U24" s="18"/>
-      <c r="V24" s="78">
+      <c r="V24" s="82">
         <v>44971</v>
       </c>
-      <c r="W24" s="79"/>
-      <c r="X24" s="80"/>
+      <c r="W24" s="83"/>
+      <c r="X24" s="84"/>
     </row>
     <row r="25" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -2231,72 +2231,72 @@
       <c r="X35" s="4"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C38" s="81" t="s">
+      <c r="C38" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="81"/>
-      <c r="E38" s="81"/>
-      <c r="F38" s="81"/>
-      <c r="G38" s="81"/>
-      <c r="P38" s="75" t="s">
+      <c r="D38" s="75"/>
+      <c r="E38" s="75"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="75"/>
+      <c r="P38" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="Q38" s="75"/>
-      <c r="R38" s="75"/>
-      <c r="S38" s="75"/>
-      <c r="T38" s="75"/>
-      <c r="U38" s="75"/>
-      <c r="V38" s="75"/>
+      <c r="Q38" s="77"/>
+      <c r="R38" s="77"/>
+      <c r="S38" s="77"/>
+      <c r="T38" s="77"/>
+      <c r="U38" s="77"/>
+      <c r="V38" s="77"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C39" s="82"/>
-      <c r="D39" s="82"/>
-      <c r="E39" s="82"/>
-      <c r="F39" s="82"/>
-      <c r="G39" s="82"/>
-      <c r="P39" s="75"/>
-      <c r="Q39" s="75"/>
-      <c r="R39" s="75"/>
-      <c r="S39" s="75"/>
-      <c r="T39" s="75"/>
-      <c r="U39" s="75"/>
-      <c r="V39" s="75"/>
+      <c r="C39" s="76"/>
+      <c r="D39" s="76"/>
+      <c r="E39" s="76"/>
+      <c r="F39" s="76"/>
+      <c r="G39" s="76"/>
+      <c r="P39" s="77"/>
+      <c r="Q39" s="77"/>
+      <c r="R39" s="77"/>
+      <c r="S39" s="77"/>
+      <c r="T39" s="77"/>
+      <c r="U39" s="77"/>
+      <c r="V39" s="77"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A40" s="76" t="s">
+      <c r="A40" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="76"/>
-      <c r="C40" s="76"/>
-      <c r="D40" s="77" t="s">
+      <c r="B40" s="78"/>
+      <c r="C40" s="78"/>
+      <c r="D40" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="E40" s="77"/>
-      <c r="F40" s="77"/>
-      <c r="G40" s="77"/>
-      <c r="H40" s="83">
+      <c r="E40" s="79"/>
+      <c r="F40" s="79"/>
+      <c r="G40" s="79"/>
+      <c r="H40" s="80">
         <v>44972</v>
       </c>
-      <c r="I40" s="84"/>
-      <c r="J40" s="84"/>
-      <c r="M40" s="76" t="s">
+      <c r="I40" s="81"/>
+      <c r="J40" s="81"/>
+      <c r="M40" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="N40" s="76"/>
-      <c r="O40" s="76"/>
-      <c r="P40" s="77" t="s">
+      <c r="N40" s="78"/>
+      <c r="O40" s="78"/>
+      <c r="P40" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="Q40" s="77"/>
-      <c r="R40" s="77"/>
-      <c r="S40" s="77"/>
+      <c r="Q40" s="79"/>
+      <c r="R40" s="79"/>
+      <c r="S40" s="79"/>
       <c r="T40" s="18"/>
       <c r="U40" s="18"/>
-      <c r="V40" s="78">
+      <c r="V40" s="82">
         <v>44973</v>
       </c>
-      <c r="W40" s="79"/>
-      <c r="X40" s="80"/>
+      <c r="W40" s="83"/>
+      <c r="X40" s="84"/>
     </row>
     <row r="41" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
@@ -2711,72 +2711,72 @@
       <c r="X51" s="4"/>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C54" s="81" t="s">
+      <c r="C54" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="D54" s="81"/>
-      <c r="E54" s="81"/>
-      <c r="F54" s="81"/>
-      <c r="G54" s="81"/>
-      <c r="P54" s="75" t="s">
+      <c r="D54" s="75"/>
+      <c r="E54" s="75"/>
+      <c r="F54" s="75"/>
+      <c r="G54" s="75"/>
+      <c r="P54" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="Q54" s="75"/>
-      <c r="R54" s="75"/>
-      <c r="S54" s="75"/>
-      <c r="T54" s="75"/>
-      <c r="U54" s="75"/>
-      <c r="V54" s="75"/>
+      <c r="Q54" s="77"/>
+      <c r="R54" s="77"/>
+      <c r="S54" s="77"/>
+      <c r="T54" s="77"/>
+      <c r="U54" s="77"/>
+      <c r="V54" s="77"/>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C55" s="82"/>
-      <c r="D55" s="82"/>
-      <c r="E55" s="82"/>
-      <c r="F55" s="82"/>
-      <c r="G55" s="82"/>
-      <c r="P55" s="75"/>
-      <c r="Q55" s="75"/>
-      <c r="R55" s="75"/>
-      <c r="S55" s="75"/>
-      <c r="T55" s="75"/>
-      <c r="U55" s="75"/>
-      <c r="V55" s="75"/>
+      <c r="C55" s="76"/>
+      <c r="D55" s="76"/>
+      <c r="E55" s="76"/>
+      <c r="F55" s="76"/>
+      <c r="G55" s="76"/>
+      <c r="P55" s="77"/>
+      <c r="Q55" s="77"/>
+      <c r="R55" s="77"/>
+      <c r="S55" s="77"/>
+      <c r="T55" s="77"/>
+      <c r="U55" s="77"/>
+      <c r="V55" s="77"/>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A56" s="76" t="s">
+      <c r="A56" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="76"/>
-      <c r="C56" s="76"/>
-      <c r="D56" s="77" t="s">
+      <c r="B56" s="78"/>
+      <c r="C56" s="78"/>
+      <c r="D56" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="E56" s="77"/>
-      <c r="F56" s="77"/>
-      <c r="G56" s="77"/>
-      <c r="H56" s="83">
+      <c r="E56" s="79"/>
+      <c r="F56" s="79"/>
+      <c r="G56" s="79"/>
+      <c r="H56" s="80">
         <v>44974</v>
       </c>
-      <c r="I56" s="84"/>
-      <c r="J56" s="84"/>
-      <c r="M56" s="76" t="s">
+      <c r="I56" s="81"/>
+      <c r="J56" s="81"/>
+      <c r="M56" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="N56" s="76"/>
-      <c r="O56" s="76"/>
-      <c r="P56" s="77" t="s">
+      <c r="N56" s="78"/>
+      <c r="O56" s="78"/>
+      <c r="P56" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="Q56" s="77"/>
-      <c r="R56" s="77"/>
-      <c r="S56" s="77"/>
+      <c r="Q56" s="79"/>
+      <c r="R56" s="79"/>
+      <c r="S56" s="79"/>
       <c r="T56" s="18"/>
       <c r="U56" s="18"/>
-      <c r="V56" s="78">
+      <c r="V56" s="82">
         <v>44975</v>
       </c>
-      <c r="W56" s="79"/>
-      <c r="X56" s="80"/>
+      <c r="W56" s="83"/>
+      <c r="X56" s="84"/>
     </row>
     <row r="57" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
@@ -3231,72 +3231,72 @@
       <c r="X67" s="4"/>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C70" s="81" t="s">
+      <c r="C70" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="D70" s="81"/>
-      <c r="E70" s="81"/>
-      <c r="F70" s="81"/>
-      <c r="G70" s="81"/>
-      <c r="P70" s="75" t="s">
+      <c r="D70" s="75"/>
+      <c r="E70" s="75"/>
+      <c r="F70" s="75"/>
+      <c r="G70" s="75"/>
+      <c r="P70" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="Q70" s="75"/>
-      <c r="R70" s="75"/>
-      <c r="S70" s="75"/>
-      <c r="T70" s="75"/>
-      <c r="U70" s="75"/>
-      <c r="V70" s="75"/>
+      <c r="Q70" s="77"/>
+      <c r="R70" s="77"/>
+      <c r="S70" s="77"/>
+      <c r="T70" s="77"/>
+      <c r="U70" s="77"/>
+      <c r="V70" s="77"/>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C71" s="82"/>
-      <c r="D71" s="82"/>
-      <c r="E71" s="82"/>
-      <c r="F71" s="82"/>
-      <c r="G71" s="82"/>
-      <c r="P71" s="75"/>
-      <c r="Q71" s="75"/>
-      <c r="R71" s="75"/>
-      <c r="S71" s="75"/>
-      <c r="T71" s="75"/>
-      <c r="U71" s="75"/>
-      <c r="V71" s="75"/>
+      <c r="C71" s="76"/>
+      <c r="D71" s="76"/>
+      <c r="E71" s="76"/>
+      <c r="F71" s="76"/>
+      <c r="G71" s="76"/>
+      <c r="P71" s="77"/>
+      <c r="Q71" s="77"/>
+      <c r="R71" s="77"/>
+      <c r="S71" s="77"/>
+      <c r="T71" s="77"/>
+      <c r="U71" s="77"/>
+      <c r="V71" s="77"/>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A72" s="76" t="s">
+      <c r="A72" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="B72" s="76"/>
-      <c r="C72" s="76"/>
-      <c r="D72" s="77" t="s">
+      <c r="B72" s="78"/>
+      <c r="C72" s="78"/>
+      <c r="D72" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="E72" s="77"/>
-      <c r="F72" s="77"/>
-      <c r="G72" s="77"/>
-      <c r="H72" s="83">
+      <c r="E72" s="79"/>
+      <c r="F72" s="79"/>
+      <c r="G72" s="79"/>
+      <c r="H72" s="80">
         <v>44979</v>
       </c>
-      <c r="I72" s="84"/>
-      <c r="J72" s="84"/>
-      <c r="M72" s="76" t="s">
+      <c r="I72" s="81"/>
+      <c r="J72" s="81"/>
+      <c r="M72" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="N72" s="76"/>
-      <c r="O72" s="76"/>
-      <c r="P72" s="77" t="s">
+      <c r="N72" s="78"/>
+      <c r="O72" s="78"/>
+      <c r="P72" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="Q72" s="77"/>
-      <c r="R72" s="77"/>
-      <c r="S72" s="77"/>
+      <c r="Q72" s="79"/>
+      <c r="R72" s="79"/>
+      <c r="S72" s="79"/>
       <c r="T72" s="18"/>
       <c r="U72" s="18"/>
-      <c r="V72" s="78">
+      <c r="V72" s="82">
         <v>44980</v>
       </c>
-      <c r="W72" s="79"/>
-      <c r="X72" s="80"/>
+      <c r="W72" s="83"/>
+      <c r="X72" s="84"/>
     </row>
     <row r="73" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
@@ -3667,72 +3667,72 @@
       <c r="X83" s="4"/>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C87" s="81" t="s">
+      <c r="C87" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="D87" s="81"/>
-      <c r="E87" s="81"/>
-      <c r="F87" s="81"/>
-      <c r="G87" s="81"/>
-      <c r="P87" s="75" t="s">
+      <c r="D87" s="75"/>
+      <c r="E87" s="75"/>
+      <c r="F87" s="75"/>
+      <c r="G87" s="75"/>
+      <c r="P87" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="Q87" s="75"/>
-      <c r="R87" s="75"/>
-      <c r="S87" s="75"/>
-      <c r="T87" s="75"/>
-      <c r="U87" s="75"/>
-      <c r="V87" s="75"/>
+      <c r="Q87" s="77"/>
+      <c r="R87" s="77"/>
+      <c r="S87" s="77"/>
+      <c r="T87" s="77"/>
+      <c r="U87" s="77"/>
+      <c r="V87" s="77"/>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C88" s="82"/>
-      <c r="D88" s="82"/>
-      <c r="E88" s="82"/>
-      <c r="F88" s="82"/>
-      <c r="G88" s="82"/>
-      <c r="P88" s="75"/>
-      <c r="Q88" s="75"/>
-      <c r="R88" s="75"/>
-      <c r="S88" s="75"/>
-      <c r="T88" s="75"/>
-      <c r="U88" s="75"/>
-      <c r="V88" s="75"/>
+      <c r="C88" s="76"/>
+      <c r="D88" s="76"/>
+      <c r="E88" s="76"/>
+      <c r="F88" s="76"/>
+      <c r="G88" s="76"/>
+      <c r="P88" s="77"/>
+      <c r="Q88" s="77"/>
+      <c r="R88" s="77"/>
+      <c r="S88" s="77"/>
+      <c r="T88" s="77"/>
+      <c r="U88" s="77"/>
+      <c r="V88" s="77"/>
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A89" s="76" t="s">
+      <c r="A89" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="B89" s="76"/>
-      <c r="C89" s="76"/>
-      <c r="D89" s="77" t="s">
+      <c r="B89" s="78"/>
+      <c r="C89" s="78"/>
+      <c r="D89" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="E89" s="77"/>
-      <c r="F89" s="77"/>
-      <c r="G89" s="77"/>
-      <c r="H89" s="83">
+      <c r="E89" s="79"/>
+      <c r="F89" s="79"/>
+      <c r="G89" s="79"/>
+      <c r="H89" s="80">
         <v>44981</v>
       </c>
-      <c r="I89" s="84"/>
-      <c r="J89" s="84"/>
-      <c r="M89" s="76" t="s">
+      <c r="I89" s="81"/>
+      <c r="J89" s="81"/>
+      <c r="M89" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="N89" s="76"/>
-      <c r="O89" s="76"/>
-      <c r="P89" s="77" t="s">
+      <c r="N89" s="78"/>
+      <c r="O89" s="78"/>
+      <c r="P89" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="Q89" s="77"/>
-      <c r="R89" s="77"/>
-      <c r="S89" s="77"/>
+      <c r="Q89" s="79"/>
+      <c r="R89" s="79"/>
+      <c r="S89" s="79"/>
       <c r="T89" s="18"/>
       <c r="U89" s="18"/>
-      <c r="V89" s="78">
+      <c r="V89" s="82">
         <v>44980</v>
       </c>
-      <c r="W89" s="79"/>
-      <c r="X89" s="80"/>
+      <c r="W89" s="83"/>
+      <c r="X89" s="84"/>
     </row>
     <row r="90" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
@@ -4187,72 +4187,72 @@
       <c r="X100" s="4"/>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C104" s="81" t="s">
+      <c r="C104" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="D104" s="81"/>
-      <c r="E104" s="81"/>
-      <c r="F104" s="81"/>
-      <c r="G104" s="81"/>
-      <c r="P104" s="75" t="s">
+      <c r="D104" s="75"/>
+      <c r="E104" s="75"/>
+      <c r="F104" s="75"/>
+      <c r="G104" s="75"/>
+      <c r="P104" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="Q104" s="75"/>
-      <c r="R104" s="75"/>
-      <c r="S104" s="75"/>
-      <c r="T104" s="75"/>
-      <c r="U104" s="75"/>
-      <c r="V104" s="75"/>
+      <c r="Q104" s="77"/>
+      <c r="R104" s="77"/>
+      <c r="S104" s="77"/>
+      <c r="T104" s="77"/>
+      <c r="U104" s="77"/>
+      <c r="V104" s="77"/>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C105" s="82"/>
-      <c r="D105" s="82"/>
-      <c r="E105" s="82"/>
-      <c r="F105" s="82"/>
-      <c r="G105" s="82"/>
-      <c r="P105" s="75"/>
-      <c r="Q105" s="75"/>
-      <c r="R105" s="75"/>
-      <c r="S105" s="75"/>
-      <c r="T105" s="75"/>
-      <c r="U105" s="75"/>
-      <c r="V105" s="75"/>
+      <c r="C105" s="76"/>
+      <c r="D105" s="76"/>
+      <c r="E105" s="76"/>
+      <c r="F105" s="76"/>
+      <c r="G105" s="76"/>
+      <c r="P105" s="77"/>
+      <c r="Q105" s="77"/>
+      <c r="R105" s="77"/>
+      <c r="S105" s="77"/>
+      <c r="T105" s="77"/>
+      <c r="U105" s="77"/>
+      <c r="V105" s="77"/>
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A106" s="76" t="s">
+      <c r="A106" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="B106" s="76"/>
-      <c r="C106" s="76"/>
-      <c r="D106" s="77" t="s">
+      <c r="B106" s="78"/>
+      <c r="C106" s="78"/>
+      <c r="D106" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="E106" s="77"/>
-      <c r="F106" s="77"/>
-      <c r="G106" s="77"/>
-      <c r="H106" s="83">
+      <c r="E106" s="79"/>
+      <c r="F106" s="79"/>
+      <c r="G106" s="79"/>
+      <c r="H106" s="80">
         <v>44979</v>
       </c>
-      <c r="I106" s="84"/>
-      <c r="J106" s="84"/>
-      <c r="M106" s="76" t="s">
+      <c r="I106" s="81"/>
+      <c r="J106" s="81"/>
+      <c r="M106" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="N106" s="76"/>
-      <c r="O106" s="76"/>
-      <c r="P106" s="77" t="s">
+      <c r="N106" s="78"/>
+      <c r="O106" s="78"/>
+      <c r="P106" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="Q106" s="77"/>
-      <c r="R106" s="77"/>
-      <c r="S106" s="77"/>
+      <c r="Q106" s="79"/>
+      <c r="R106" s="79"/>
+      <c r="S106" s="79"/>
       <c r="T106" s="18"/>
       <c r="U106" s="18"/>
-      <c r="V106" s="78" t="s">
+      <c r="V106" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="W106" s="79"/>
-      <c r="X106" s="80"/>
+      <c r="W106" s="83"/>
+      <c r="X106" s="84"/>
     </row>
     <row r="107" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
@@ -4599,7 +4599,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:26" ht="24" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:26" ht="24" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="48"/>
       <c r="C112" s="49"/>
@@ -4626,7 +4626,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="113" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="3"/>
       <c r="C113" s="2"/>
@@ -4650,7 +4650,7 @@
       <c r="W113" s="4"/>
       <c r="X113" s="15"/>
     </row>
-    <row r="114" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="3"/>
       <c r="C114" s="2"/>
@@ -4674,7 +4674,7 @@
       <c r="W114" s="4"/>
       <c r="X114" s="4"/>
     </row>
-    <row r="115" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="3"/>
       <c r="C115" s="2"/>
@@ -4698,7 +4698,7 @@
       <c r="W115" s="4"/>
       <c r="X115" s="4"/>
     </row>
-    <row r="116" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="3"/>
       <c r="C116" s="2"/>
@@ -4722,7 +4722,7 @@
       <c r="W116" s="4"/>
       <c r="X116" s="4"/>
     </row>
-    <row r="117" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="3"/>
       <c r="C117" s="2"/>
@@ -4746,10 +4746,58 @@
       <c r="W117" s="4"/>
       <c r="X117" s="4"/>
     </row>
-    <row r="123" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="124" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="P38:V39"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="P40:S40"/>
+    <mergeCell ref="V40:X40"/>
+    <mergeCell ref="C38:G39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="C22:G23"/>
+    <mergeCell ref="P22:V23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="C2:G3"/>
+    <mergeCell ref="P2:V3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="C54:G55"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="P54:V55"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="P56:S56"/>
+    <mergeCell ref="V56:X56"/>
+    <mergeCell ref="C70:G71"/>
+    <mergeCell ref="P70:V71"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="D72:G72"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="M72:O72"/>
+    <mergeCell ref="P72:S72"/>
+    <mergeCell ref="V72:X72"/>
+    <mergeCell ref="C87:G88"/>
+    <mergeCell ref="P87:V88"/>
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="D89:G89"/>
+    <mergeCell ref="H89:J89"/>
+    <mergeCell ref="M89:O89"/>
+    <mergeCell ref="P89:S89"/>
+    <mergeCell ref="V89:X89"/>
     <mergeCell ref="C104:G105"/>
     <mergeCell ref="P104:V105"/>
     <mergeCell ref="A106:C106"/>
@@ -4758,54 +4806,6 @@
     <mergeCell ref="M106:O106"/>
     <mergeCell ref="P106:S106"/>
     <mergeCell ref="V106:X106"/>
-    <mergeCell ref="C87:G88"/>
-    <mergeCell ref="P87:V88"/>
-    <mergeCell ref="A89:C89"/>
-    <mergeCell ref="D89:G89"/>
-    <mergeCell ref="H89:J89"/>
-    <mergeCell ref="M89:O89"/>
-    <mergeCell ref="P89:S89"/>
-    <mergeCell ref="V89:X89"/>
-    <mergeCell ref="C70:G71"/>
-    <mergeCell ref="P70:V71"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="D72:G72"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="M72:O72"/>
-    <mergeCell ref="P72:S72"/>
-    <mergeCell ref="V72:X72"/>
-    <mergeCell ref="C54:G55"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="P54:V55"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="P56:S56"/>
-    <mergeCell ref="V56:X56"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="C2:G3"/>
-    <mergeCell ref="P2:V3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="C22:G23"/>
-    <mergeCell ref="P22:V23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="P38:V39"/>
-    <mergeCell ref="M40:O40"/>
-    <mergeCell ref="P40:S40"/>
-    <mergeCell ref="V40:X40"/>
-    <mergeCell ref="C38:G39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="H40:J40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4816,8 +4816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Z205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M186" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M198" sqref="M198:X202"/>
+    <sheetView tabSelected="1" topLeftCell="M195" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T207" sqref="T207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4836,72 +4836,72 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C2" s="81" t="s">
+      <c r="C2" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="P2" s="75" t="s">
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="P2" s="77" t="s">
         <v>76</v>
       </c>
-      <c r="Q2" s="75"/>
-      <c r="R2" s="75"/>
-      <c r="S2" s="75"/>
-      <c r="T2" s="75"/>
-      <c r="U2" s="75"/>
-      <c r="V2" s="75"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="77"/>
+      <c r="U2" s="77"/>
+      <c r="V2" s="77"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="75"/>
-      <c r="R3" s="75"/>
-      <c r="S3" s="75"/>
-      <c r="T3" s="75"/>
-      <c r="U3" s="75"/>
-      <c r="V3" s="75"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="77"/>
+      <c r="T3" s="77"/>
+      <c r="U3" s="77"/>
+      <c r="V3" s="77"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="77" t="s">
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="83" t="s">
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="M4" s="76" t="s">
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="M4" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="77" t="s">
+      <c r="N4" s="78"/>
+      <c r="O4" s="78"/>
+      <c r="P4" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="77"/>
-      <c r="S4" s="77"/>
+      <c r="Q4" s="79"/>
+      <c r="R4" s="79"/>
+      <c r="S4" s="79"/>
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
-      <c r="V4" s="78">
+      <c r="V4" s="82">
         <v>44601</v>
       </c>
-      <c r="W4" s="79"/>
-      <c r="X4" s="80"/>
+      <c r="W4" s="83"/>
+      <c r="X4" s="84"/>
     </row>
     <row r="5" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -5368,72 +5368,72 @@
       <c r="X15" s="4"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C22" s="81" t="s">
+      <c r="C22" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="D22" s="81"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="81"/>
-      <c r="P22" s="75" t="s">
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
+      <c r="P22" s="77" t="s">
         <v>77</v>
       </c>
-      <c r="Q22" s="75"/>
-      <c r="R22" s="75"/>
-      <c r="S22" s="75"/>
-      <c r="T22" s="75"/>
-      <c r="U22" s="75"/>
-      <c r="V22" s="75"/>
+      <c r="Q22" s="77"/>
+      <c r="R22" s="77"/>
+      <c r="S22" s="77"/>
+      <c r="T22" s="77"/>
+      <c r="U22" s="77"/>
+      <c r="V22" s="77"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C23" s="82"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="82"/>
-      <c r="P23" s="75"/>
-      <c r="Q23" s="75"/>
-      <c r="R23" s="75"/>
-      <c r="S23" s="75"/>
-      <c r="T23" s="75"/>
-      <c r="U23" s="75"/>
-      <c r="V23" s="75"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
+      <c r="P23" s="77"/>
+      <c r="Q23" s="77"/>
+      <c r="R23" s="77"/>
+      <c r="S23" s="77"/>
+      <c r="T23" s="77"/>
+      <c r="U23" s="77"/>
+      <c r="V23" s="77"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="76" t="s">
+      <c r="A24" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="76"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="77" t="s">
+      <c r="B24" s="78"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="83">
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="80">
         <v>44993</v>
       </c>
-      <c r="I24" s="84"/>
-      <c r="J24" s="84"/>
-      <c r="M24" s="76" t="s">
+      <c r="I24" s="81"/>
+      <c r="J24" s="81"/>
+      <c r="M24" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="N24" s="76"/>
-      <c r="O24" s="76"/>
-      <c r="P24" s="77" t="s">
+      <c r="N24" s="78"/>
+      <c r="O24" s="78"/>
+      <c r="P24" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="Q24" s="77"/>
-      <c r="R24" s="77"/>
-      <c r="S24" s="77"/>
+      <c r="Q24" s="79"/>
+      <c r="R24" s="79"/>
+      <c r="S24" s="79"/>
       <c r="T24" s="18"/>
       <c r="U24" s="18"/>
-      <c r="V24" s="78">
+      <c r="V24" s="82">
         <v>44993</v>
       </c>
-      <c r="W24" s="79"/>
-      <c r="X24" s="80"/>
+      <c r="W24" s="83"/>
+      <c r="X24" s="84"/>
     </row>
     <row r="25" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -5863,72 +5863,72 @@
       <c r="X34" s="4"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C37" s="81" t="s">
+      <c r="C37" s="75" t="s">
         <v>84</v>
       </c>
-      <c r="D37" s="81"/>
-      <c r="E37" s="81"/>
-      <c r="F37" s="81"/>
-      <c r="G37" s="81"/>
-      <c r="P37" s="75" t="s">
+      <c r="D37" s="75"/>
+      <c r="E37" s="75"/>
+      <c r="F37" s="75"/>
+      <c r="G37" s="75"/>
+      <c r="P37" s="77" t="s">
         <v>81</v>
       </c>
-      <c r="Q37" s="75"/>
-      <c r="R37" s="75"/>
-      <c r="S37" s="75"/>
-      <c r="T37" s="75"/>
-      <c r="U37" s="75"/>
-      <c r="V37" s="75"/>
+      <c r="Q37" s="77"/>
+      <c r="R37" s="77"/>
+      <c r="S37" s="77"/>
+      <c r="T37" s="77"/>
+      <c r="U37" s="77"/>
+      <c r="V37" s="77"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C38" s="82"/>
-      <c r="D38" s="82"/>
-      <c r="E38" s="82"/>
-      <c r="F38" s="82"/>
-      <c r="G38" s="82"/>
-      <c r="P38" s="75"/>
-      <c r="Q38" s="75"/>
-      <c r="R38" s="75"/>
-      <c r="S38" s="75"/>
-      <c r="T38" s="75"/>
-      <c r="U38" s="75"/>
-      <c r="V38" s="75"/>
+      <c r="C38" s="76"/>
+      <c r="D38" s="76"/>
+      <c r="E38" s="76"/>
+      <c r="F38" s="76"/>
+      <c r="G38" s="76"/>
+      <c r="P38" s="77"/>
+      <c r="Q38" s="77"/>
+      <c r="R38" s="77"/>
+      <c r="S38" s="77"/>
+      <c r="T38" s="77"/>
+      <c r="U38" s="77"/>
+      <c r="V38" s="77"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A39" s="76" t="s">
+      <c r="A39" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="76"/>
-      <c r="C39" s="76"/>
-      <c r="D39" s="77" t="s">
+      <c r="B39" s="78"/>
+      <c r="C39" s="78"/>
+      <c r="D39" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="77"/>
-      <c r="F39" s="77"/>
-      <c r="G39" s="77"/>
-      <c r="H39" s="83">
+      <c r="E39" s="79"/>
+      <c r="F39" s="79"/>
+      <c r="G39" s="79"/>
+      <c r="H39" s="80">
         <v>44972</v>
       </c>
-      <c r="I39" s="84"/>
-      <c r="J39" s="84"/>
-      <c r="M39" s="76" t="s">
+      <c r="I39" s="81"/>
+      <c r="J39" s="81"/>
+      <c r="M39" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="N39" s="76"/>
-      <c r="O39" s="76"/>
-      <c r="P39" s="77" t="s">
+      <c r="N39" s="78"/>
+      <c r="O39" s="78"/>
+      <c r="P39" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="Q39" s="77"/>
-      <c r="R39" s="77"/>
-      <c r="S39" s="77"/>
+      <c r="Q39" s="79"/>
+      <c r="R39" s="79"/>
+      <c r="S39" s="79"/>
       <c r="T39" s="18"/>
       <c r="U39" s="18"/>
-      <c r="V39" s="78">
+      <c r="V39" s="82">
         <v>44994</v>
       </c>
-      <c r="W39" s="79"/>
-      <c r="X39" s="80"/>
+      <c r="W39" s="83"/>
+      <c r="X39" s="84"/>
     </row>
     <row r="40" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
@@ -6339,72 +6339,72 @@
       <c r="X50" s="4"/>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C53" s="81">
+      <c r="C53" s="75">
         <v>45005</v>
       </c>
-      <c r="D53" s="81"/>
-      <c r="E53" s="81"/>
-      <c r="F53" s="81"/>
-      <c r="G53" s="81"/>
-      <c r="P53" s="81">
+      <c r="D53" s="75"/>
+      <c r="E53" s="75"/>
+      <c r="F53" s="75"/>
+      <c r="G53" s="75"/>
+      <c r="P53" s="75">
         <v>45006</v>
       </c>
-      <c r="Q53" s="81"/>
-      <c r="R53" s="81"/>
-      <c r="S53" s="81"/>
-      <c r="T53" s="81"/>
-      <c r="U53" s="81"/>
-      <c r="V53" s="81"/>
+      <c r="Q53" s="75"/>
+      <c r="R53" s="75"/>
+      <c r="S53" s="75"/>
+      <c r="T53" s="75"/>
+      <c r="U53" s="75"/>
+      <c r="V53" s="75"/>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C54" s="82"/>
-      <c r="D54" s="82"/>
-      <c r="E54" s="82"/>
-      <c r="F54" s="82"/>
-      <c r="G54" s="82"/>
-      <c r="P54" s="81"/>
-      <c r="Q54" s="81"/>
-      <c r="R54" s="81"/>
-      <c r="S54" s="81"/>
-      <c r="T54" s="81"/>
-      <c r="U54" s="81"/>
-      <c r="V54" s="81"/>
+      <c r="C54" s="76"/>
+      <c r="D54" s="76"/>
+      <c r="E54" s="76"/>
+      <c r="F54" s="76"/>
+      <c r="G54" s="76"/>
+      <c r="P54" s="75"/>
+      <c r="Q54" s="75"/>
+      <c r="R54" s="75"/>
+      <c r="S54" s="75"/>
+      <c r="T54" s="75"/>
+      <c r="U54" s="75"/>
+      <c r="V54" s="75"/>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A55" s="76" t="s">
+      <c r="A55" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="76"/>
-      <c r="C55" s="76"/>
-      <c r="D55" s="77" t="s">
+      <c r="B55" s="78"/>
+      <c r="C55" s="78"/>
+      <c r="D55" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="E55" s="77"/>
-      <c r="F55" s="77"/>
-      <c r="G55" s="77"/>
-      <c r="H55" s="83">
+      <c r="E55" s="79"/>
+      <c r="F55" s="79"/>
+      <c r="G55" s="79"/>
+      <c r="H55" s="80">
         <v>45005</v>
       </c>
-      <c r="I55" s="84"/>
-      <c r="J55" s="84"/>
-      <c r="M55" s="76" t="s">
+      <c r="I55" s="81"/>
+      <c r="J55" s="81"/>
+      <c r="M55" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="N55" s="76"/>
-      <c r="O55" s="76"/>
-      <c r="P55" s="77" t="s">
+      <c r="N55" s="78"/>
+      <c r="O55" s="78"/>
+      <c r="P55" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="Q55" s="77"/>
-      <c r="R55" s="77"/>
-      <c r="S55" s="77"/>
+      <c r="Q55" s="79"/>
+      <c r="R55" s="79"/>
+      <c r="S55" s="79"/>
       <c r="T55" s="18"/>
       <c r="U55" s="18"/>
-      <c r="V55" s="78">
+      <c r="V55" s="82">
         <v>45006</v>
       </c>
-      <c r="W55" s="79"/>
-      <c r="X55" s="80"/>
+      <c r="W55" s="83"/>
+      <c r="X55" s="84"/>
     </row>
     <row r="56" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
@@ -6803,72 +6803,72 @@
       <c r="X66" s="4"/>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C69" s="81" t="s">
+      <c r="C69" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="D69" s="81"/>
-      <c r="E69" s="81"/>
-      <c r="F69" s="81"/>
-      <c r="G69" s="81"/>
-      <c r="P69" s="75" t="s">
+      <c r="D69" s="75"/>
+      <c r="E69" s="75"/>
+      <c r="F69" s="75"/>
+      <c r="G69" s="75"/>
+      <c r="P69" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="Q69" s="75"/>
-      <c r="R69" s="75"/>
-      <c r="S69" s="75"/>
-      <c r="T69" s="75"/>
-      <c r="U69" s="75"/>
-      <c r="V69" s="75"/>
+      <c r="Q69" s="77"/>
+      <c r="R69" s="77"/>
+      <c r="S69" s="77"/>
+      <c r="T69" s="77"/>
+      <c r="U69" s="77"/>
+      <c r="V69" s="77"/>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C70" s="82"/>
-      <c r="D70" s="82"/>
-      <c r="E70" s="82"/>
-      <c r="F70" s="82"/>
-      <c r="G70" s="82"/>
-      <c r="P70" s="75"/>
-      <c r="Q70" s="75"/>
-      <c r="R70" s="75"/>
-      <c r="S70" s="75"/>
-      <c r="T70" s="75"/>
-      <c r="U70" s="75"/>
-      <c r="V70" s="75"/>
+      <c r="C70" s="76"/>
+      <c r="D70" s="76"/>
+      <c r="E70" s="76"/>
+      <c r="F70" s="76"/>
+      <c r="G70" s="76"/>
+      <c r="P70" s="77"/>
+      <c r="Q70" s="77"/>
+      <c r="R70" s="77"/>
+      <c r="S70" s="77"/>
+      <c r="T70" s="77"/>
+      <c r="U70" s="77"/>
+      <c r="V70" s="77"/>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A71" s="76" t="s">
+      <c r="A71" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="B71" s="76"/>
-      <c r="C71" s="76"/>
-      <c r="D71" s="77" t="s">
+      <c r="B71" s="78"/>
+      <c r="C71" s="78"/>
+      <c r="D71" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="E71" s="77"/>
-      <c r="F71" s="77"/>
-      <c r="G71" s="77"/>
-      <c r="H71" s="83">
+      <c r="E71" s="79"/>
+      <c r="F71" s="79"/>
+      <c r="G71" s="79"/>
+      <c r="H71" s="80">
         <v>44979</v>
       </c>
-      <c r="I71" s="84"/>
-      <c r="J71" s="84"/>
-      <c r="M71" s="76" t="s">
+      <c r="I71" s="81"/>
+      <c r="J71" s="81"/>
+      <c r="M71" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="N71" s="76"/>
-      <c r="O71" s="76"/>
-      <c r="P71" s="77" t="s">
+      <c r="N71" s="78"/>
+      <c r="O71" s="78"/>
+      <c r="P71" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="Q71" s="77"/>
-      <c r="R71" s="77"/>
-      <c r="S71" s="77"/>
+      <c r="Q71" s="79"/>
+      <c r="R71" s="79"/>
+      <c r="S71" s="79"/>
       <c r="T71" s="18"/>
       <c r="U71" s="18"/>
-      <c r="V71" s="78">
+      <c r="V71" s="82">
         <v>44980</v>
       </c>
-      <c r="W71" s="79"/>
-      <c r="X71" s="80"/>
+      <c r="W71" s="83"/>
+      <c r="X71" s="84"/>
     </row>
     <row r="72" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
@@ -7271,72 +7271,72 @@
       <c r="X82" s="4"/>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C86" s="81" t="s">
+      <c r="C86" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="D86" s="81"/>
-      <c r="E86" s="81"/>
-      <c r="F86" s="81"/>
-      <c r="G86" s="81"/>
-      <c r="P86" s="75" t="s">
+      <c r="D86" s="75"/>
+      <c r="E86" s="75"/>
+      <c r="F86" s="75"/>
+      <c r="G86" s="75"/>
+      <c r="P86" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="Q86" s="75"/>
-      <c r="R86" s="75"/>
-      <c r="S86" s="75"/>
-      <c r="T86" s="75"/>
-      <c r="U86" s="75"/>
-      <c r="V86" s="75"/>
+      <c r="Q86" s="77"/>
+      <c r="R86" s="77"/>
+      <c r="S86" s="77"/>
+      <c r="T86" s="77"/>
+      <c r="U86" s="77"/>
+      <c r="V86" s="77"/>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C87" s="82"/>
-      <c r="D87" s="82"/>
-      <c r="E87" s="82"/>
-      <c r="F87" s="82"/>
-      <c r="G87" s="82"/>
-      <c r="P87" s="75"/>
-      <c r="Q87" s="75"/>
-      <c r="R87" s="75"/>
-      <c r="S87" s="75"/>
-      <c r="T87" s="75"/>
-      <c r="U87" s="75"/>
-      <c r="V87" s="75"/>
+      <c r="C87" s="76"/>
+      <c r="D87" s="76"/>
+      <c r="E87" s="76"/>
+      <c r="F87" s="76"/>
+      <c r="G87" s="76"/>
+      <c r="P87" s="77"/>
+      <c r="Q87" s="77"/>
+      <c r="R87" s="77"/>
+      <c r="S87" s="77"/>
+      <c r="T87" s="77"/>
+      <c r="U87" s="77"/>
+      <c r="V87" s="77"/>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A88" s="76" t="s">
+      <c r="A88" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="B88" s="76"/>
-      <c r="C88" s="76"/>
-      <c r="D88" s="77" t="s">
+      <c r="B88" s="78"/>
+      <c r="C88" s="78"/>
+      <c r="D88" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="E88" s="77"/>
-      <c r="F88" s="77"/>
-      <c r="G88" s="77"/>
-      <c r="H88" s="83">
+      <c r="E88" s="79"/>
+      <c r="F88" s="79"/>
+      <c r="G88" s="79"/>
+      <c r="H88" s="80">
         <v>44981</v>
       </c>
-      <c r="I88" s="84"/>
-      <c r="J88" s="84"/>
-      <c r="M88" s="76" t="s">
+      <c r="I88" s="81"/>
+      <c r="J88" s="81"/>
+      <c r="M88" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="N88" s="76"/>
-      <c r="O88" s="76"/>
-      <c r="P88" s="77" t="s">
+      <c r="N88" s="78"/>
+      <c r="O88" s="78"/>
+      <c r="P88" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="Q88" s="77"/>
-      <c r="R88" s="77"/>
-      <c r="S88" s="77"/>
+      <c r="Q88" s="79"/>
+      <c r="R88" s="79"/>
+      <c r="S88" s="79"/>
       <c r="T88" s="18"/>
       <c r="U88" s="18"/>
-      <c r="V88" s="78">
+      <c r="V88" s="82">
         <v>44980</v>
       </c>
-      <c r="W88" s="79"/>
-      <c r="X88" s="80"/>
+      <c r="W88" s="83"/>
+      <c r="X88" s="84"/>
     </row>
     <row r="89" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
@@ -7671,73 +7671,73 @@
       <c r="X99" s="4"/>
     </row>
     <row r="103" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C103" s="81" t="s">
+      <c r="C103" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="D103" s="81"/>
-      <c r="E103" s="81"/>
-      <c r="F103" s="81"/>
-      <c r="G103" s="81"/>
-      <c r="P103" s="75" t="s">
+      <c r="D103" s="75"/>
+      <c r="E103" s="75"/>
+      <c r="F103" s="75"/>
+      <c r="G103" s="75"/>
+      <c r="P103" s="77" t="s">
         <v>90</v>
       </c>
-      <c r="Q103" s="75"/>
-      <c r="R103" s="75"/>
-      <c r="S103" s="75"/>
-      <c r="T103" s="75"/>
-      <c r="U103" s="75"/>
-      <c r="V103" s="75"/>
+      <c r="Q103" s="77"/>
+      <c r="R103" s="77"/>
+      <c r="S103" s="77"/>
+      <c r="T103" s="77"/>
+      <c r="U103" s="77"/>
+      <c r="V103" s="77"/>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C104" s="82"/>
-      <c r="D104" s="82"/>
-      <c r="E104" s="82"/>
-      <c r="F104" s="82"/>
-      <c r="G104" s="82"/>
-      <c r="P104" s="75"/>
-      <c r="Q104" s="75"/>
-      <c r="R104" s="75"/>
-      <c r="S104" s="75"/>
-      <c r="T104" s="75"/>
-      <c r="U104" s="75"/>
-      <c r="V104" s="75"/>
+      <c r="C104" s="76"/>
+      <c r="D104" s="76"/>
+      <c r="E104" s="76"/>
+      <c r="F104" s="76"/>
+      <c r="G104" s="76"/>
+      <c r="P104" s="77"/>
+      <c r="Q104" s="77"/>
+      <c r="R104" s="77"/>
+      <c r="S104" s="77"/>
+      <c r="T104" s="77"/>
+      <c r="U104" s="77"/>
+      <c r="V104" s="77"/>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A105" s="76" t="s">
+      <c r="A105" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="B105" s="76"/>
-      <c r="C105" s="76"/>
-      <c r="D105" s="77" t="s">
+      <c r="B105" s="78"/>
+      <c r="C105" s="78"/>
+      <c r="D105" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="E105" s="77"/>
-      <c r="F105" s="77"/>
-      <c r="G105" s="77"/>
-      <c r="H105" s="83">
+      <c r="E105" s="79"/>
+      <c r="F105" s="79"/>
+      <c r="G105" s="79"/>
+      <c r="H105" s="80">
         <v>44979</v>
       </c>
-      <c r="I105" s="84"/>
-      <c r="J105" s="84"/>
-      <c r="M105" s="76" t="s">
+      <c r="I105" s="81"/>
+      <c r="J105" s="81"/>
+      <c r="M105" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="N105" s="76"/>
-      <c r="O105" s="76"/>
-      <c r="P105" s="77" t="s">
+      <c r="N105" s="78"/>
+      <c r="O105" s="78"/>
+      <c r="P105" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="Q105" s="77"/>
-      <c r="R105" s="77"/>
-      <c r="S105" s="77"/>
+      <c r="Q105" s="79"/>
+      <c r="R105" s="79"/>
+      <c r="S105" s="79"/>
       <c r="T105" s="18"/>
       <c r="U105" s="18"/>
-      <c r="V105" s="78" t="e">
+      <c r="V105" s="82" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W105" s="79"/>
-      <c r="X105" s="80"/>
+      <c r="W105" s="83"/>
+      <c r="X105" s="84"/>
     </row>
     <row r="106" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
@@ -8188,73 +8188,73 @@
       <c r="X116" s="4"/>
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C121" s="81" t="s">
+      <c r="C121" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="D121" s="81"/>
-      <c r="E121" s="81"/>
-      <c r="F121" s="81"/>
-      <c r="G121" s="81"/>
-      <c r="P121" s="75" t="s">
+      <c r="D121" s="75"/>
+      <c r="E121" s="75"/>
+      <c r="F121" s="75"/>
+      <c r="G121" s="75"/>
+      <c r="P121" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="Q121" s="75"/>
-      <c r="R121" s="75"/>
-      <c r="S121" s="75"/>
-      <c r="T121" s="75"/>
-      <c r="U121" s="75"/>
-      <c r="V121" s="75"/>
+      <c r="Q121" s="77"/>
+      <c r="R121" s="77"/>
+      <c r="S121" s="77"/>
+      <c r="T121" s="77"/>
+      <c r="U121" s="77"/>
+      <c r="V121" s="77"/>
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C122" s="82"/>
-      <c r="D122" s="82"/>
-      <c r="E122" s="82"/>
-      <c r="F122" s="82"/>
-      <c r="G122" s="82"/>
-      <c r="P122" s="75"/>
-      <c r="Q122" s="75"/>
-      <c r="R122" s="75"/>
-      <c r="S122" s="75"/>
-      <c r="T122" s="75"/>
-      <c r="U122" s="75"/>
-      <c r="V122" s="75"/>
+      <c r="C122" s="76"/>
+      <c r="D122" s="76"/>
+      <c r="E122" s="76"/>
+      <c r="F122" s="76"/>
+      <c r="G122" s="76"/>
+      <c r="P122" s="77"/>
+      <c r="Q122" s="77"/>
+      <c r="R122" s="77"/>
+      <c r="S122" s="77"/>
+      <c r="T122" s="77"/>
+      <c r="U122" s="77"/>
+      <c r="V122" s="77"/>
     </row>
     <row r="123" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="76" t="s">
+      <c r="A123" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="B123" s="76"/>
-      <c r="C123" s="76"/>
-      <c r="D123" s="77" t="s">
+      <c r="B123" s="78"/>
+      <c r="C123" s="78"/>
+      <c r="D123" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="E123" s="77"/>
-      <c r="F123" s="77"/>
-      <c r="G123" s="77"/>
-      <c r="H123" s="83">
+      <c r="E123" s="79"/>
+      <c r="F123" s="79"/>
+      <c r="G123" s="79"/>
+      <c r="H123" s="80">
         <v>44979</v>
       </c>
-      <c r="I123" s="84"/>
-      <c r="J123" s="84"/>
-      <c r="M123" s="76" t="s">
+      <c r="I123" s="81"/>
+      <c r="J123" s="81"/>
+      <c r="M123" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="N123" s="76"/>
-      <c r="O123" s="76"/>
-      <c r="P123" s="77" t="s">
+      <c r="N123" s="78"/>
+      <c r="O123" s="78"/>
+      <c r="P123" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="Q123" s="77"/>
-      <c r="R123" s="77"/>
-      <c r="S123" s="77"/>
+      <c r="Q123" s="79"/>
+      <c r="R123" s="79"/>
+      <c r="S123" s="79"/>
       <c r="T123" s="18"/>
       <c r="U123" s="18"/>
-      <c r="V123" s="78" t="e">
+      <c r="V123" s="82" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W123" s="79"/>
-      <c r="X123" s="80"/>
+      <c r="W123" s="83"/>
+      <c r="X123" s="84"/>
     </row>
     <row r="124" spans="1:26" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
@@ -8769,45 +8769,45 @@
       <c r="X134" s="4"/>
     </row>
     <row r="138" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="P138" s="75" t="s">
+      <c r="P138" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="Q138" s="75"/>
-      <c r="R138" s="75"/>
-      <c r="S138" s="75"/>
-      <c r="T138" s="75"/>
-      <c r="U138" s="75"/>
-      <c r="V138" s="75"/>
+      <c r="Q138" s="77"/>
+      <c r="R138" s="77"/>
+      <c r="S138" s="77"/>
+      <c r="T138" s="77"/>
+      <c r="U138" s="77"/>
+      <c r="V138" s="77"/>
     </row>
     <row r="139" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="P139" s="75"/>
-      <c r="Q139" s="75"/>
-      <c r="R139" s="75"/>
-      <c r="S139" s="75"/>
-      <c r="T139" s="75"/>
-      <c r="U139" s="75"/>
-      <c r="V139" s="75"/>
+      <c r="P139" s="77"/>
+      <c r="Q139" s="77"/>
+      <c r="R139" s="77"/>
+      <c r="S139" s="77"/>
+      <c r="T139" s="77"/>
+      <c r="U139" s="77"/>
+      <c r="V139" s="77"/>
     </row>
     <row r="140" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="M140" s="76" t="s">
+      <c r="M140" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="N140" s="76"/>
-      <c r="O140" s="76"/>
-      <c r="P140" s="77" t="s">
+      <c r="N140" s="78"/>
+      <c r="O140" s="78"/>
+      <c r="P140" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="Q140" s="77"/>
-      <c r="R140" s="77"/>
-      <c r="S140" s="77"/>
+      <c r="Q140" s="79"/>
+      <c r="R140" s="79"/>
+      <c r="S140" s="79"/>
       <c r="T140" s="18"/>
       <c r="U140" s="18"/>
-      <c r="V140" s="78" t="e">
+      <c r="V140" s="82" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W140" s="79"/>
-      <c r="X140" s="80"/>
+      <c r="W140" s="83"/>
+      <c r="X140" s="84"/>
     </row>
     <row r="141" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M141" s="6" t="s">
@@ -9072,45 +9072,45 @@
       <c r="S152" s="64"/>
     </row>
     <row r="153" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P153" s="75" t="s">
+      <c r="P153" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="Q153" s="75"/>
-      <c r="R153" s="75"/>
-      <c r="S153" s="75"/>
-      <c r="T153" s="75"/>
-      <c r="U153" s="75"/>
-      <c r="V153" s="75"/>
+      <c r="Q153" s="77"/>
+      <c r="R153" s="77"/>
+      <c r="S153" s="77"/>
+      <c r="T153" s="77"/>
+      <c r="U153" s="77"/>
+      <c r="V153" s="77"/>
     </row>
     <row r="154" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P154" s="75"/>
-      <c r="Q154" s="75"/>
-      <c r="R154" s="75"/>
-      <c r="S154" s="75"/>
-      <c r="T154" s="75"/>
-      <c r="U154" s="75"/>
-      <c r="V154" s="75"/>
+      <c r="P154" s="77"/>
+      <c r="Q154" s="77"/>
+      <c r="R154" s="77"/>
+      <c r="S154" s="77"/>
+      <c r="T154" s="77"/>
+      <c r="U154" s="77"/>
+      <c r="V154" s="77"/>
     </row>
     <row r="155" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M155" s="76" t="s">
+      <c r="M155" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="N155" s="76"/>
-      <c r="O155" s="76"/>
-      <c r="P155" s="77" t="s">
+      <c r="N155" s="78"/>
+      <c r="O155" s="78"/>
+      <c r="P155" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="Q155" s="77"/>
-      <c r="R155" s="77"/>
-      <c r="S155" s="77"/>
+      <c r="Q155" s="79"/>
+      <c r="R155" s="79"/>
+      <c r="S155" s="79"/>
       <c r="T155" s="18"/>
       <c r="U155" s="18"/>
-      <c r="V155" s="78" t="e">
+      <c r="V155" s="82" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W155" s="79"/>
-      <c r="X155" s="80"/>
+      <c r="W155" s="83"/>
+      <c r="X155" s="84"/>
     </row>
     <row r="156" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M156" s="6" t="s">
@@ -9374,45 +9374,45 @@
       <c r="X166" s="4"/>
     </row>
     <row r="168" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P168" s="75" t="s">
+      <c r="P168" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="Q168" s="75"/>
-      <c r="R168" s="75"/>
-      <c r="S168" s="75"/>
-      <c r="T168" s="75"/>
-      <c r="U168" s="75"/>
-      <c r="V168" s="75"/>
+      <c r="Q168" s="77"/>
+      <c r="R168" s="77"/>
+      <c r="S168" s="77"/>
+      <c r="T168" s="77"/>
+      <c r="U168" s="77"/>
+      <c r="V168" s="77"/>
     </row>
     <row r="169" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P169" s="75"/>
-      <c r="Q169" s="75"/>
-      <c r="R169" s="75"/>
-      <c r="S169" s="75"/>
-      <c r="T169" s="75"/>
-      <c r="U169" s="75"/>
-      <c r="V169" s="75"/>
+      <c r="P169" s="77"/>
+      <c r="Q169" s="77"/>
+      <c r="R169" s="77"/>
+      <c r="S169" s="77"/>
+      <c r="T169" s="77"/>
+      <c r="U169" s="77"/>
+      <c r="V169" s="77"/>
     </row>
     <row r="170" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M170" s="76" t="s">
+      <c r="M170" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="N170" s="76"/>
-      <c r="O170" s="76"/>
-      <c r="P170" s="77" t="s">
+      <c r="N170" s="78"/>
+      <c r="O170" s="78"/>
+      <c r="P170" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="Q170" s="77"/>
-      <c r="R170" s="77"/>
-      <c r="S170" s="77"/>
+      <c r="Q170" s="79"/>
+      <c r="R170" s="79"/>
+      <c r="S170" s="79"/>
       <c r="T170" s="18"/>
       <c r="U170" s="18"/>
-      <c r="V170" s="78" t="e">
+      <c r="V170" s="82" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W170" s="79"/>
-      <c r="X170" s="80"/>
+      <c r="W170" s="83"/>
+      <c r="X170" s="84"/>
     </row>
     <row r="171" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M171" s="6" t="s">
@@ -9617,45 +9617,45 @@
       <c r="X181" s="4"/>
     </row>
     <row r="186" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P186" s="75" t="s">
+      <c r="P186" s="77" t="s">
         <v>104</v>
       </c>
-      <c r="Q186" s="75"/>
-      <c r="R186" s="75"/>
-      <c r="S186" s="75"/>
-      <c r="T186" s="75"/>
-      <c r="U186" s="75"/>
-      <c r="V186" s="75"/>
+      <c r="Q186" s="77"/>
+      <c r="R186" s="77"/>
+      <c r="S186" s="77"/>
+      <c r="T186" s="77"/>
+      <c r="U186" s="77"/>
+      <c r="V186" s="77"/>
     </row>
     <row r="187" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P187" s="75"/>
-      <c r="Q187" s="75"/>
-      <c r="R187" s="75"/>
-      <c r="S187" s="75"/>
-      <c r="T187" s="75"/>
-      <c r="U187" s="75"/>
-      <c r="V187" s="75"/>
+      <c r="P187" s="77"/>
+      <c r="Q187" s="77"/>
+      <c r="R187" s="77"/>
+      <c r="S187" s="77"/>
+      <c r="T187" s="77"/>
+      <c r="U187" s="77"/>
+      <c r="V187" s="77"/>
     </row>
     <row r="188" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M188" s="76" t="s">
+      <c r="M188" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="N188" s="76"/>
-      <c r="O188" s="76"/>
-      <c r="P188" s="77" t="s">
+      <c r="N188" s="78"/>
+      <c r="O188" s="78"/>
+      <c r="P188" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="Q188" s="77"/>
-      <c r="R188" s="77"/>
-      <c r="S188" s="77"/>
+      <c r="Q188" s="79"/>
+      <c r="R188" s="79"/>
+      <c r="S188" s="79"/>
       <c r="T188" s="18"/>
       <c r="U188" s="18"/>
-      <c r="V188" s="78" t="e">
+      <c r="V188" s="82" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W188" s="79"/>
-      <c r="X188" s="80"/>
+      <c r="W188" s="83"/>
+      <c r="X188" s="84"/>
     </row>
     <row r="189" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M189" s="6" t="s">
@@ -9825,24 +9825,24 @@
       <c r="X194" s="15"/>
     </row>
     <row r="198" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P198" s="75" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q198" s="75"/>
-      <c r="R198" s="75"/>
-      <c r="S198" s="75"/>
-      <c r="T198" s="75"/>
-      <c r="U198" s="75"/>
-      <c r="V198" s="75"/>
+      <c r="P198" s="77" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q198" s="77"/>
+      <c r="R198" s="77"/>
+      <c r="S198" s="77"/>
+      <c r="T198" s="77"/>
+      <c r="U198" s="77"/>
+      <c r="V198" s="77"/>
     </row>
     <row r="199" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P199" s="75"/>
-      <c r="Q199" s="75"/>
-      <c r="R199" s="75"/>
-      <c r="S199" s="75"/>
-      <c r="T199" s="75"/>
-      <c r="U199" s="75"/>
-      <c r="V199" s="75"/>
+      <c r="P199" s="77"/>
+      <c r="Q199" s="77"/>
+      <c r="R199" s="77"/>
+      <c r="S199" s="77"/>
+      <c r="T199" s="77"/>
+      <c r="U199" s="77"/>
+      <c r="V199" s="77"/>
     </row>
     <row r="200" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M200" s="70" t="s">
@@ -9918,43 +9918,55 @@
         <v>88</v>
       </c>
       <c r="Q202" s="49" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R202" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="S202" s="10" t="s">
-        <v>11</v>
+      <c r="S202" s="20" t="s">
+        <v>9</v>
       </c>
       <c r="T202" s="43">
-        <v>0.31944444444444448</v>
+        <v>0.375</v>
       </c>
       <c r="U202" s="33">
-        <v>0.33611111111111108</v>
+        <v>0.38263888888888892</v>
       </c>
       <c r="V202" s="34">
-        <v>0.3611111111111111</v>
-      </c>
-      <c r="W202" s="34">
-        <v>0.43611111111111112</v>
-      </c>
-      <c r="X202" s="35">
-        <v>0.54097222222222219</v>
-      </c>
+        <v>0.39513888888888887</v>
+      </c>
+      <c r="W202" s="34"/>
+      <c r="X202" s="35"/>
       <c r="Z202" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="203" spans="13:26" x14ac:dyDescent="0.25">
       <c r="M203" s="47"/>
-      <c r="N203" s="48"/>
-      <c r="O203" s="49"/>
-      <c r="P203" s="66"/>
-      <c r="Q203" s="49"/>
-      <c r="R203" s="50"/>
-      <c r="S203" s="10"/>
-      <c r="T203" s="43"/>
-      <c r="U203" s="69"/>
+      <c r="N203" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="O203" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="P203" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q203" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="R203" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="S203" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="T203" s="43">
+        <v>0.375</v>
+      </c>
+      <c r="U203" s="69">
+        <v>0.39652777777777781</v>
+      </c>
       <c r="V203" s="34"/>
       <c r="W203" s="34"/>
       <c r="X203" s="35"/>
@@ -9998,18 +10010,59 @@
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="P198:V199"/>
-    <mergeCell ref="P186:V187"/>
-    <mergeCell ref="M188:O188"/>
-    <mergeCell ref="P188:S188"/>
-    <mergeCell ref="V188:X188"/>
-    <mergeCell ref="P168:V169"/>
-    <mergeCell ref="M170:O170"/>
-    <mergeCell ref="P170:S170"/>
-    <mergeCell ref="V170:X170"/>
-    <mergeCell ref="M155:O155"/>
-    <mergeCell ref="P155:S155"/>
-    <mergeCell ref="V155:X155"/>
+    <mergeCell ref="C37:G38"/>
+    <mergeCell ref="P37:V38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="P39:S39"/>
+    <mergeCell ref="V39:X39"/>
+    <mergeCell ref="C22:G23"/>
+    <mergeCell ref="P22:V23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="C2:G3"/>
+    <mergeCell ref="P2:V3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="C53:G54"/>
+    <mergeCell ref="P53:V54"/>
+    <mergeCell ref="V55:X55"/>
+    <mergeCell ref="C69:G70"/>
+    <mergeCell ref="P69:V70"/>
+    <mergeCell ref="V71:X71"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="P55:S55"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="D71:G71"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="M71:O71"/>
+    <mergeCell ref="P71:S71"/>
+    <mergeCell ref="P121:V122"/>
+    <mergeCell ref="V123:X123"/>
+    <mergeCell ref="M123:O123"/>
+    <mergeCell ref="P123:S123"/>
+    <mergeCell ref="P138:V139"/>
+    <mergeCell ref="C86:G87"/>
+    <mergeCell ref="P86:V87"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="D88:G88"/>
+    <mergeCell ref="H88:J88"/>
+    <mergeCell ref="M88:O88"/>
+    <mergeCell ref="P88:S88"/>
+    <mergeCell ref="V88:X88"/>
     <mergeCell ref="P153:V154"/>
     <mergeCell ref="C103:G104"/>
     <mergeCell ref="P103:V104"/>
@@ -10026,59 +10079,18 @@
     <mergeCell ref="M140:O140"/>
     <mergeCell ref="P140:S140"/>
     <mergeCell ref="V140:X140"/>
-    <mergeCell ref="C86:G87"/>
-    <mergeCell ref="P86:V87"/>
-    <mergeCell ref="A88:C88"/>
-    <mergeCell ref="D88:G88"/>
-    <mergeCell ref="H88:J88"/>
-    <mergeCell ref="M88:O88"/>
-    <mergeCell ref="P88:S88"/>
-    <mergeCell ref="V88:X88"/>
-    <mergeCell ref="P121:V122"/>
-    <mergeCell ref="V123:X123"/>
-    <mergeCell ref="M123:O123"/>
-    <mergeCell ref="P123:S123"/>
-    <mergeCell ref="P138:V139"/>
-    <mergeCell ref="V71:X71"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="M55:O55"/>
-    <mergeCell ref="P55:S55"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="D71:G71"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="M71:O71"/>
-    <mergeCell ref="P71:S71"/>
-    <mergeCell ref="C53:G54"/>
-    <mergeCell ref="P53:V54"/>
-    <mergeCell ref="V55:X55"/>
-    <mergeCell ref="C69:G70"/>
-    <mergeCell ref="P69:V70"/>
-    <mergeCell ref="C2:G3"/>
-    <mergeCell ref="P2:V3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="C22:G23"/>
-    <mergeCell ref="P22:V23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="C37:G38"/>
-    <mergeCell ref="P37:V38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="P39:S39"/>
-    <mergeCell ref="V39:X39"/>
+    <mergeCell ref="P168:V169"/>
+    <mergeCell ref="M170:O170"/>
+    <mergeCell ref="P170:S170"/>
+    <mergeCell ref="V170:X170"/>
+    <mergeCell ref="M155:O155"/>
+    <mergeCell ref="P155:S155"/>
+    <mergeCell ref="V155:X155"/>
+    <mergeCell ref="P198:V199"/>
+    <mergeCell ref="P186:V187"/>
+    <mergeCell ref="M188:O188"/>
+    <mergeCell ref="P188:S188"/>
+    <mergeCell ref="V188:X188"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/DOC 2023/FORMATO STATUS.xlsx
+++ b/DOC 2023/FORMATO STATUS.xlsx
@@ -1,20 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\DOC 2023\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE601ED-E47A-495E-942D-24777C2D7078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FEBRERO" sheetId="2" r:id="rId1"/>
     <sheet name="MARZO" sheetId="3" r:id="rId2"/>
     <sheet name="Hoja2" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -357,7 +370,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
@@ -895,12 +908,6 @@
     <xf numFmtId="164" fontId="6" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -910,12 +917,6 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -923,6 +924,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1202,14 +1215,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:Z124"/>
   <sheetViews>
     <sheetView topLeftCell="J103" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
@@ -1231,72 +1244,72 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="P2" s="77" t="s">
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="P2" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="77"/>
-      <c r="R2" s="77"/>
-      <c r="S2" s="77"/>
-      <c r="T2" s="77"/>
-      <c r="U2" s="77"/>
-      <c r="V2" s="77"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="75"/>
+      <c r="V2" s="75"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="P3" s="77"/>
-      <c r="Q3" s="77"/>
-      <c r="R3" s="77"/>
-      <c r="S3" s="77"/>
-      <c r="T3" s="77"/>
-      <c r="U3" s="77"/>
-      <c r="V3" s="77"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="75"/>
+      <c r="R3" s="75"/>
+      <c r="S3" s="75"/>
+      <c r="T3" s="75"/>
+      <c r="U3" s="75"/>
+      <c r="V3" s="75"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="79" t="s">
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="80">
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="83">
         <v>44965</v>
       </c>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="M4" s="78" t="s">
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+      <c r="M4" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="78"/>
-      <c r="O4" s="78"/>
-      <c r="P4" s="79" t="s">
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="79"/>
-      <c r="R4" s="79"/>
-      <c r="S4" s="79"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
-      <c r="V4" s="82">
+      <c r="V4" s="78">
         <v>44601</v>
       </c>
-      <c r="W4" s="83"/>
-      <c r="X4" s="84"/>
+      <c r="W4" s="79"/>
+      <c r="X4" s="80"/>
     </row>
     <row r="5" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -1711,72 +1724,72 @@
       <c r="X15" s="4"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C22" s="75" t="s">
+      <c r="C22" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="75"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
-      <c r="P22" s="77" t="s">
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="81"/>
+      <c r="P22" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="Q22" s="77"/>
-      <c r="R22" s="77"/>
-      <c r="S22" s="77"/>
-      <c r="T22" s="77"/>
-      <c r="U22" s="77"/>
-      <c r="V22" s="77"/>
+      <c r="Q22" s="75"/>
+      <c r="R22" s="75"/>
+      <c r="S22" s="75"/>
+      <c r="T22" s="75"/>
+      <c r="U22" s="75"/>
+      <c r="V22" s="75"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="76"/>
-      <c r="P23" s="77"/>
-      <c r="Q23" s="77"/>
-      <c r="R23" s="77"/>
-      <c r="S23" s="77"/>
-      <c r="T23" s="77"/>
-      <c r="U23" s="77"/>
-      <c r="V23" s="77"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="82"/>
+      <c r="P23" s="75"/>
+      <c r="Q23" s="75"/>
+      <c r="R23" s="75"/>
+      <c r="S23" s="75"/>
+      <c r="T23" s="75"/>
+      <c r="U23" s="75"/>
+      <c r="V23" s="75"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="78" t="s">
+      <c r="A24" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="78"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="79" t="s">
+      <c r="B24" s="76"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="80">
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="83">
         <v>44965</v>
       </c>
-      <c r="I24" s="81"/>
-      <c r="J24" s="81"/>
-      <c r="M24" s="78" t="s">
+      <c r="I24" s="84"/>
+      <c r="J24" s="84"/>
+      <c r="M24" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="N24" s="78"/>
-      <c r="O24" s="78"/>
-      <c r="P24" s="79" t="s">
+      <c r="N24" s="76"/>
+      <c r="O24" s="76"/>
+      <c r="P24" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="Q24" s="79"/>
-      <c r="R24" s="79"/>
-      <c r="S24" s="79"/>
+      <c r="Q24" s="77"/>
+      <c r="R24" s="77"/>
+      <c r="S24" s="77"/>
       <c r="T24" s="18"/>
       <c r="U24" s="18"/>
-      <c r="V24" s="82">
+      <c r="V24" s="78">
         <v>44971</v>
       </c>
-      <c r="W24" s="83"/>
-      <c r="X24" s="84"/>
+      <c r="W24" s="79"/>
+      <c r="X24" s="80"/>
     </row>
     <row r="25" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -2231,72 +2244,72 @@
       <c r="X35" s="4"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C38" s="75" t="s">
+      <c r="C38" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="75"/>
-      <c r="E38" s="75"/>
-      <c r="F38" s="75"/>
-      <c r="G38" s="75"/>
-      <c r="P38" s="77" t="s">
+      <c r="D38" s="81"/>
+      <c r="E38" s="81"/>
+      <c r="F38" s="81"/>
+      <c r="G38" s="81"/>
+      <c r="P38" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="Q38" s="77"/>
-      <c r="R38" s="77"/>
-      <c r="S38" s="77"/>
-      <c r="T38" s="77"/>
-      <c r="U38" s="77"/>
-      <c r="V38" s="77"/>
+      <c r="Q38" s="75"/>
+      <c r="R38" s="75"/>
+      <c r="S38" s="75"/>
+      <c r="T38" s="75"/>
+      <c r="U38" s="75"/>
+      <c r="V38" s="75"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C39" s="76"/>
-      <c r="D39" s="76"/>
-      <c r="E39" s="76"/>
-      <c r="F39" s="76"/>
-      <c r="G39" s="76"/>
-      <c r="P39" s="77"/>
-      <c r="Q39" s="77"/>
-      <c r="R39" s="77"/>
-      <c r="S39" s="77"/>
-      <c r="T39" s="77"/>
-      <c r="U39" s="77"/>
-      <c r="V39" s="77"/>
+      <c r="C39" s="82"/>
+      <c r="D39" s="82"/>
+      <c r="E39" s="82"/>
+      <c r="F39" s="82"/>
+      <c r="G39" s="82"/>
+      <c r="P39" s="75"/>
+      <c r="Q39" s="75"/>
+      <c r="R39" s="75"/>
+      <c r="S39" s="75"/>
+      <c r="T39" s="75"/>
+      <c r="U39" s="75"/>
+      <c r="V39" s="75"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A40" s="78" t="s">
+      <c r="A40" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="78"/>
-      <c r="C40" s="78"/>
-      <c r="D40" s="79" t="s">
+      <c r="B40" s="76"/>
+      <c r="C40" s="76"/>
+      <c r="D40" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="E40" s="79"/>
-      <c r="F40" s="79"/>
-      <c r="G40" s="79"/>
-      <c r="H40" s="80">
+      <c r="E40" s="77"/>
+      <c r="F40" s="77"/>
+      <c r="G40" s="77"/>
+      <c r="H40" s="83">
         <v>44972</v>
       </c>
-      <c r="I40" s="81"/>
-      <c r="J40" s="81"/>
-      <c r="M40" s="78" t="s">
+      <c r="I40" s="84"/>
+      <c r="J40" s="84"/>
+      <c r="M40" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="N40" s="78"/>
-      <c r="O40" s="78"/>
-      <c r="P40" s="79" t="s">
+      <c r="N40" s="76"/>
+      <c r="O40" s="76"/>
+      <c r="P40" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="Q40" s="79"/>
-      <c r="R40" s="79"/>
-      <c r="S40" s="79"/>
+      <c r="Q40" s="77"/>
+      <c r="R40" s="77"/>
+      <c r="S40" s="77"/>
       <c r="T40" s="18"/>
       <c r="U40" s="18"/>
-      <c r="V40" s="82">
+      <c r="V40" s="78">
         <v>44973</v>
       </c>
-      <c r="W40" s="83"/>
-      <c r="X40" s="84"/>
+      <c r="W40" s="79"/>
+      <c r="X40" s="80"/>
     </row>
     <row r="41" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
@@ -2711,72 +2724,72 @@
       <c r="X51" s="4"/>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C54" s="75" t="s">
+      <c r="C54" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="D54" s="75"/>
-      <c r="E54" s="75"/>
-      <c r="F54" s="75"/>
-      <c r="G54" s="75"/>
-      <c r="P54" s="77" t="s">
+      <c r="D54" s="81"/>
+      <c r="E54" s="81"/>
+      <c r="F54" s="81"/>
+      <c r="G54" s="81"/>
+      <c r="P54" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="Q54" s="77"/>
-      <c r="R54" s="77"/>
-      <c r="S54" s="77"/>
-      <c r="T54" s="77"/>
-      <c r="U54" s="77"/>
-      <c r="V54" s="77"/>
+      <c r="Q54" s="75"/>
+      <c r="R54" s="75"/>
+      <c r="S54" s="75"/>
+      <c r="T54" s="75"/>
+      <c r="U54" s="75"/>
+      <c r="V54" s="75"/>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C55" s="76"/>
-      <c r="D55" s="76"/>
-      <c r="E55" s="76"/>
-      <c r="F55" s="76"/>
-      <c r="G55" s="76"/>
-      <c r="P55" s="77"/>
-      <c r="Q55" s="77"/>
-      <c r="R55" s="77"/>
-      <c r="S55" s="77"/>
-      <c r="T55" s="77"/>
-      <c r="U55" s="77"/>
-      <c r="V55" s="77"/>
+      <c r="C55" s="82"/>
+      <c r="D55" s="82"/>
+      <c r="E55" s="82"/>
+      <c r="F55" s="82"/>
+      <c r="G55" s="82"/>
+      <c r="P55" s="75"/>
+      <c r="Q55" s="75"/>
+      <c r="R55" s="75"/>
+      <c r="S55" s="75"/>
+      <c r="T55" s="75"/>
+      <c r="U55" s="75"/>
+      <c r="V55" s="75"/>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A56" s="78" t="s">
+      <c r="A56" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="78"/>
-      <c r="C56" s="78"/>
-      <c r="D56" s="79" t="s">
+      <c r="B56" s="76"/>
+      <c r="C56" s="76"/>
+      <c r="D56" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="E56" s="79"/>
-      <c r="F56" s="79"/>
-      <c r="G56" s="79"/>
-      <c r="H56" s="80">
+      <c r="E56" s="77"/>
+      <c r="F56" s="77"/>
+      <c r="G56" s="77"/>
+      <c r="H56" s="83">
         <v>44974</v>
       </c>
-      <c r="I56" s="81"/>
-      <c r="J56" s="81"/>
-      <c r="M56" s="78" t="s">
+      <c r="I56" s="84"/>
+      <c r="J56" s="84"/>
+      <c r="M56" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="N56" s="78"/>
-      <c r="O56" s="78"/>
-      <c r="P56" s="79" t="s">
+      <c r="N56" s="76"/>
+      <c r="O56" s="76"/>
+      <c r="P56" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="Q56" s="79"/>
-      <c r="R56" s="79"/>
-      <c r="S56" s="79"/>
+      <c r="Q56" s="77"/>
+      <c r="R56" s="77"/>
+      <c r="S56" s="77"/>
       <c r="T56" s="18"/>
       <c r="U56" s="18"/>
-      <c r="V56" s="82">
+      <c r="V56" s="78">
         <v>44975</v>
       </c>
-      <c r="W56" s="83"/>
-      <c r="X56" s="84"/>
+      <c r="W56" s="79"/>
+      <c r="X56" s="80"/>
     </row>
     <row r="57" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
@@ -3231,72 +3244,72 @@
       <c r="X67" s="4"/>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C70" s="75" t="s">
+      <c r="C70" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="D70" s="75"/>
-      <c r="E70" s="75"/>
-      <c r="F70" s="75"/>
-      <c r="G70" s="75"/>
-      <c r="P70" s="77" t="s">
+      <c r="D70" s="81"/>
+      <c r="E70" s="81"/>
+      <c r="F70" s="81"/>
+      <c r="G70" s="81"/>
+      <c r="P70" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="Q70" s="77"/>
-      <c r="R70" s="77"/>
-      <c r="S70" s="77"/>
-      <c r="T70" s="77"/>
-      <c r="U70" s="77"/>
-      <c r="V70" s="77"/>
+      <c r="Q70" s="75"/>
+      <c r="R70" s="75"/>
+      <c r="S70" s="75"/>
+      <c r="T70" s="75"/>
+      <c r="U70" s="75"/>
+      <c r="V70" s="75"/>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C71" s="76"/>
-      <c r="D71" s="76"/>
-      <c r="E71" s="76"/>
-      <c r="F71" s="76"/>
-      <c r="G71" s="76"/>
-      <c r="P71" s="77"/>
-      <c r="Q71" s="77"/>
-      <c r="R71" s="77"/>
-      <c r="S71" s="77"/>
-      <c r="T71" s="77"/>
-      <c r="U71" s="77"/>
-      <c r="V71" s="77"/>
+      <c r="C71" s="82"/>
+      <c r="D71" s="82"/>
+      <c r="E71" s="82"/>
+      <c r="F71" s="82"/>
+      <c r="G71" s="82"/>
+      <c r="P71" s="75"/>
+      <c r="Q71" s="75"/>
+      <c r="R71" s="75"/>
+      <c r="S71" s="75"/>
+      <c r="T71" s="75"/>
+      <c r="U71" s="75"/>
+      <c r="V71" s="75"/>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A72" s="78" t="s">
+      <c r="A72" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="B72" s="78"/>
-      <c r="C72" s="78"/>
-      <c r="D72" s="79" t="s">
+      <c r="B72" s="76"/>
+      <c r="C72" s="76"/>
+      <c r="D72" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="E72" s="79"/>
-      <c r="F72" s="79"/>
-      <c r="G72" s="79"/>
-      <c r="H72" s="80">
+      <c r="E72" s="77"/>
+      <c r="F72" s="77"/>
+      <c r="G72" s="77"/>
+      <c r="H72" s="83">
         <v>44979</v>
       </c>
-      <c r="I72" s="81"/>
-      <c r="J72" s="81"/>
-      <c r="M72" s="78" t="s">
+      <c r="I72" s="84"/>
+      <c r="J72" s="84"/>
+      <c r="M72" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="N72" s="78"/>
-      <c r="O72" s="78"/>
-      <c r="P72" s="79" t="s">
+      <c r="N72" s="76"/>
+      <c r="O72" s="76"/>
+      <c r="P72" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="Q72" s="79"/>
-      <c r="R72" s="79"/>
-      <c r="S72" s="79"/>
+      <c r="Q72" s="77"/>
+      <c r="R72" s="77"/>
+      <c r="S72" s="77"/>
       <c r="T72" s="18"/>
       <c r="U72" s="18"/>
-      <c r="V72" s="82">
+      <c r="V72" s="78">
         <v>44980</v>
       </c>
-      <c r="W72" s="83"/>
-      <c r="X72" s="84"/>
+      <c r="W72" s="79"/>
+      <c r="X72" s="80"/>
     </row>
     <row r="73" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
@@ -3667,72 +3680,72 @@
       <c r="X83" s="4"/>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C87" s="75" t="s">
+      <c r="C87" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="D87" s="75"/>
-      <c r="E87" s="75"/>
-      <c r="F87" s="75"/>
-      <c r="G87" s="75"/>
-      <c r="P87" s="77" t="s">
+      <c r="D87" s="81"/>
+      <c r="E87" s="81"/>
+      <c r="F87" s="81"/>
+      <c r="G87" s="81"/>
+      <c r="P87" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="Q87" s="77"/>
-      <c r="R87" s="77"/>
-      <c r="S87" s="77"/>
-      <c r="T87" s="77"/>
-      <c r="U87" s="77"/>
-      <c r="V87" s="77"/>
+      <c r="Q87" s="75"/>
+      <c r="R87" s="75"/>
+      <c r="S87" s="75"/>
+      <c r="T87" s="75"/>
+      <c r="U87" s="75"/>
+      <c r="V87" s="75"/>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C88" s="76"/>
-      <c r="D88" s="76"/>
-      <c r="E88" s="76"/>
-      <c r="F88" s="76"/>
-      <c r="G88" s="76"/>
-      <c r="P88" s="77"/>
-      <c r="Q88" s="77"/>
-      <c r="R88" s="77"/>
-      <c r="S88" s="77"/>
-      <c r="T88" s="77"/>
-      <c r="U88" s="77"/>
-      <c r="V88" s="77"/>
+      <c r="C88" s="82"/>
+      <c r="D88" s="82"/>
+      <c r="E88" s="82"/>
+      <c r="F88" s="82"/>
+      <c r="G88" s="82"/>
+      <c r="P88" s="75"/>
+      <c r="Q88" s="75"/>
+      <c r="R88" s="75"/>
+      <c r="S88" s="75"/>
+      <c r="T88" s="75"/>
+      <c r="U88" s="75"/>
+      <c r="V88" s="75"/>
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A89" s="78" t="s">
+      <c r="A89" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="B89" s="78"/>
-      <c r="C89" s="78"/>
-      <c r="D89" s="79" t="s">
+      <c r="B89" s="76"/>
+      <c r="C89" s="76"/>
+      <c r="D89" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="E89" s="79"/>
-      <c r="F89" s="79"/>
-      <c r="G89" s="79"/>
-      <c r="H89" s="80">
+      <c r="E89" s="77"/>
+      <c r="F89" s="77"/>
+      <c r="G89" s="77"/>
+      <c r="H89" s="83">
         <v>44981</v>
       </c>
-      <c r="I89" s="81"/>
-      <c r="J89" s="81"/>
-      <c r="M89" s="78" t="s">
+      <c r="I89" s="84"/>
+      <c r="J89" s="84"/>
+      <c r="M89" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="N89" s="78"/>
-      <c r="O89" s="78"/>
-      <c r="P89" s="79" t="s">
+      <c r="N89" s="76"/>
+      <c r="O89" s="76"/>
+      <c r="P89" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="Q89" s="79"/>
-      <c r="R89" s="79"/>
-      <c r="S89" s="79"/>
+      <c r="Q89" s="77"/>
+      <c r="R89" s="77"/>
+      <c r="S89" s="77"/>
       <c r="T89" s="18"/>
       <c r="U89" s="18"/>
-      <c r="V89" s="82">
+      <c r="V89" s="78">
         <v>44980</v>
       </c>
-      <c r="W89" s="83"/>
-      <c r="X89" s="84"/>
+      <c r="W89" s="79"/>
+      <c r="X89" s="80"/>
     </row>
     <row r="90" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
@@ -4187,72 +4200,72 @@
       <c r="X100" s="4"/>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C104" s="75" t="s">
+      <c r="C104" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="D104" s="75"/>
-      <c r="E104" s="75"/>
-      <c r="F104" s="75"/>
-      <c r="G104" s="75"/>
-      <c r="P104" s="77" t="s">
+      <c r="D104" s="81"/>
+      <c r="E104" s="81"/>
+      <c r="F104" s="81"/>
+      <c r="G104" s="81"/>
+      <c r="P104" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="Q104" s="77"/>
-      <c r="R104" s="77"/>
-      <c r="S104" s="77"/>
-      <c r="T104" s="77"/>
-      <c r="U104" s="77"/>
-      <c r="V104" s="77"/>
+      <c r="Q104" s="75"/>
+      <c r="R104" s="75"/>
+      <c r="S104" s="75"/>
+      <c r="T104" s="75"/>
+      <c r="U104" s="75"/>
+      <c r="V104" s="75"/>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C105" s="76"/>
-      <c r="D105" s="76"/>
-      <c r="E105" s="76"/>
-      <c r="F105" s="76"/>
-      <c r="G105" s="76"/>
-      <c r="P105" s="77"/>
-      <c r="Q105" s="77"/>
-      <c r="R105" s="77"/>
-      <c r="S105" s="77"/>
-      <c r="T105" s="77"/>
-      <c r="U105" s="77"/>
-      <c r="V105" s="77"/>
+      <c r="C105" s="82"/>
+      <c r="D105" s="82"/>
+      <c r="E105" s="82"/>
+      <c r="F105" s="82"/>
+      <c r="G105" s="82"/>
+      <c r="P105" s="75"/>
+      <c r="Q105" s="75"/>
+      <c r="R105" s="75"/>
+      <c r="S105" s="75"/>
+      <c r="T105" s="75"/>
+      <c r="U105" s="75"/>
+      <c r="V105" s="75"/>
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A106" s="78" t="s">
+      <c r="A106" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="B106" s="78"/>
-      <c r="C106" s="78"/>
-      <c r="D106" s="79" t="s">
+      <c r="B106" s="76"/>
+      <c r="C106" s="76"/>
+      <c r="D106" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="E106" s="79"/>
-      <c r="F106" s="79"/>
-      <c r="G106" s="79"/>
-      <c r="H106" s="80">
+      <c r="E106" s="77"/>
+      <c r="F106" s="77"/>
+      <c r="G106" s="77"/>
+      <c r="H106" s="83">
         <v>44979</v>
       </c>
-      <c r="I106" s="81"/>
-      <c r="J106" s="81"/>
-      <c r="M106" s="78" t="s">
+      <c r="I106" s="84"/>
+      <c r="J106" s="84"/>
+      <c r="M106" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="N106" s="78"/>
-      <c r="O106" s="78"/>
-      <c r="P106" s="79" t="s">
+      <c r="N106" s="76"/>
+      <c r="O106" s="76"/>
+      <c r="P106" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="Q106" s="79"/>
-      <c r="R106" s="79"/>
-      <c r="S106" s="79"/>
+      <c r="Q106" s="77"/>
+      <c r="R106" s="77"/>
+      <c r="S106" s="77"/>
       <c r="T106" s="18"/>
       <c r="U106" s="18"/>
-      <c r="V106" s="82" t="s">
+      <c r="V106" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="W106" s="83"/>
-      <c r="X106" s="84"/>
+      <c r="W106" s="79"/>
+      <c r="X106" s="80"/>
     </row>
     <row r="107" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
@@ -4750,6 +4763,54 @@
     <row r="124" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="C104:G105"/>
+    <mergeCell ref="P104:V105"/>
+    <mergeCell ref="A106:C106"/>
+    <mergeCell ref="D106:G106"/>
+    <mergeCell ref="H106:J106"/>
+    <mergeCell ref="M106:O106"/>
+    <mergeCell ref="P106:S106"/>
+    <mergeCell ref="V106:X106"/>
+    <mergeCell ref="C87:G88"/>
+    <mergeCell ref="P87:V88"/>
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="D89:G89"/>
+    <mergeCell ref="H89:J89"/>
+    <mergeCell ref="M89:O89"/>
+    <mergeCell ref="P89:S89"/>
+    <mergeCell ref="V89:X89"/>
+    <mergeCell ref="C70:G71"/>
+    <mergeCell ref="P70:V71"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="D72:G72"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="M72:O72"/>
+    <mergeCell ref="P72:S72"/>
+    <mergeCell ref="V72:X72"/>
+    <mergeCell ref="C54:G55"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="P54:V55"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="P56:S56"/>
+    <mergeCell ref="V56:X56"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="C2:G3"/>
+    <mergeCell ref="P2:V3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="C22:G23"/>
+    <mergeCell ref="P22:V23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="V24:X24"/>
     <mergeCell ref="P38:V39"/>
     <mergeCell ref="M40:O40"/>
     <mergeCell ref="P40:S40"/>
@@ -4758,54 +4819,6 @@
     <mergeCell ref="A40:C40"/>
     <mergeCell ref="D40:G40"/>
     <mergeCell ref="H40:J40"/>
-    <mergeCell ref="C22:G23"/>
-    <mergeCell ref="P22:V23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="C2:G3"/>
-    <mergeCell ref="P2:V3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="C54:G55"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="P54:V55"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="P56:S56"/>
-    <mergeCell ref="V56:X56"/>
-    <mergeCell ref="C70:G71"/>
-    <mergeCell ref="P70:V71"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="D72:G72"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="M72:O72"/>
-    <mergeCell ref="P72:S72"/>
-    <mergeCell ref="V72:X72"/>
-    <mergeCell ref="C87:G88"/>
-    <mergeCell ref="P87:V88"/>
-    <mergeCell ref="A89:C89"/>
-    <mergeCell ref="D89:G89"/>
-    <mergeCell ref="H89:J89"/>
-    <mergeCell ref="M89:O89"/>
-    <mergeCell ref="P89:S89"/>
-    <mergeCell ref="V89:X89"/>
-    <mergeCell ref="C104:G105"/>
-    <mergeCell ref="P104:V105"/>
-    <mergeCell ref="A106:C106"/>
-    <mergeCell ref="D106:G106"/>
-    <mergeCell ref="H106:J106"/>
-    <mergeCell ref="M106:O106"/>
-    <mergeCell ref="P106:S106"/>
-    <mergeCell ref="V106:X106"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4813,11 +4826,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:Z205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M195" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T207" sqref="T207"/>
+    <sheetView tabSelected="1" topLeftCell="M189" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="Z238" sqref="Z238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4836,72 +4849,72 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="P2" s="77" t="s">
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="P2" s="75" t="s">
         <v>76</v>
       </c>
-      <c r="Q2" s="77"/>
-      <c r="R2" s="77"/>
-      <c r="S2" s="77"/>
-      <c r="T2" s="77"/>
-      <c r="U2" s="77"/>
-      <c r="V2" s="77"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="75"/>
+      <c r="V2" s="75"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="P3" s="77"/>
-      <c r="Q3" s="77"/>
-      <c r="R3" s="77"/>
-      <c r="S3" s="77"/>
-      <c r="T3" s="77"/>
-      <c r="U3" s="77"/>
-      <c r="V3" s="77"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="75"/>
+      <c r="R3" s="75"/>
+      <c r="S3" s="75"/>
+      <c r="T3" s="75"/>
+      <c r="U3" s="75"/>
+      <c r="V3" s="75"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="79" t="s">
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="80" t="s">
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="83" t="s">
         <v>74</v>
       </c>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="M4" s="78" t="s">
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+      <c r="M4" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="78"/>
-      <c r="O4" s="78"/>
-      <c r="P4" s="79" t="s">
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="79"/>
-      <c r="R4" s="79"/>
-      <c r="S4" s="79"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
-      <c r="V4" s="82">
+      <c r="V4" s="78">
         <v>44601</v>
       </c>
-      <c r="W4" s="83"/>
-      <c r="X4" s="84"/>
+      <c r="W4" s="79"/>
+      <c r="X4" s="80"/>
     </row>
     <row r="5" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -5368,72 +5381,72 @@
       <c r="X15" s="4"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C22" s="75" t="s">
+      <c r="C22" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="D22" s="75"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
-      <c r="P22" s="77" t="s">
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="81"/>
+      <c r="P22" s="75" t="s">
         <v>77</v>
       </c>
-      <c r="Q22" s="77"/>
-      <c r="R22" s="77"/>
-      <c r="S22" s="77"/>
-      <c r="T22" s="77"/>
-      <c r="U22" s="77"/>
-      <c r="V22" s="77"/>
+      <c r="Q22" s="75"/>
+      <c r="R22" s="75"/>
+      <c r="S22" s="75"/>
+      <c r="T22" s="75"/>
+      <c r="U22" s="75"/>
+      <c r="V22" s="75"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="76"/>
-      <c r="P23" s="77"/>
-      <c r="Q23" s="77"/>
-      <c r="R23" s="77"/>
-      <c r="S23" s="77"/>
-      <c r="T23" s="77"/>
-      <c r="U23" s="77"/>
-      <c r="V23" s="77"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="82"/>
+      <c r="P23" s="75"/>
+      <c r="Q23" s="75"/>
+      <c r="R23" s="75"/>
+      <c r="S23" s="75"/>
+      <c r="T23" s="75"/>
+      <c r="U23" s="75"/>
+      <c r="V23" s="75"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="78" t="s">
+      <c r="A24" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="78"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="79" t="s">
+      <c r="B24" s="76"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="80">
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="83">
         <v>44993</v>
       </c>
-      <c r="I24" s="81"/>
-      <c r="J24" s="81"/>
-      <c r="M24" s="78" t="s">
+      <c r="I24" s="84"/>
+      <c r="J24" s="84"/>
+      <c r="M24" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="N24" s="78"/>
-      <c r="O24" s="78"/>
-      <c r="P24" s="79" t="s">
+      <c r="N24" s="76"/>
+      <c r="O24" s="76"/>
+      <c r="P24" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="Q24" s="79"/>
-      <c r="R24" s="79"/>
-      <c r="S24" s="79"/>
+      <c r="Q24" s="77"/>
+      <c r="R24" s="77"/>
+      <c r="S24" s="77"/>
       <c r="T24" s="18"/>
       <c r="U24" s="18"/>
-      <c r="V24" s="82">
+      <c r="V24" s="78">
         <v>44993</v>
       </c>
-      <c r="W24" s="83"/>
-      <c r="X24" s="84"/>
+      <c r="W24" s="79"/>
+      <c r="X24" s="80"/>
     </row>
     <row r="25" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -5863,72 +5876,72 @@
       <c r="X34" s="4"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C37" s="75" t="s">
+      <c r="C37" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="D37" s="75"/>
-      <c r="E37" s="75"/>
-      <c r="F37" s="75"/>
-      <c r="G37" s="75"/>
-      <c r="P37" s="77" t="s">
+      <c r="D37" s="81"/>
+      <c r="E37" s="81"/>
+      <c r="F37" s="81"/>
+      <c r="G37" s="81"/>
+      <c r="P37" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="Q37" s="77"/>
-      <c r="R37" s="77"/>
-      <c r="S37" s="77"/>
-      <c r="T37" s="77"/>
-      <c r="U37" s="77"/>
-      <c r="V37" s="77"/>
+      <c r="Q37" s="75"/>
+      <c r="R37" s="75"/>
+      <c r="S37" s="75"/>
+      <c r="T37" s="75"/>
+      <c r="U37" s="75"/>
+      <c r="V37" s="75"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C38" s="76"/>
-      <c r="D38" s="76"/>
-      <c r="E38" s="76"/>
-      <c r="F38" s="76"/>
-      <c r="G38" s="76"/>
-      <c r="P38" s="77"/>
-      <c r="Q38" s="77"/>
-      <c r="R38" s="77"/>
-      <c r="S38" s="77"/>
-      <c r="T38" s="77"/>
-      <c r="U38" s="77"/>
-      <c r="V38" s="77"/>
+      <c r="C38" s="82"/>
+      <c r="D38" s="82"/>
+      <c r="E38" s="82"/>
+      <c r="F38" s="82"/>
+      <c r="G38" s="82"/>
+      <c r="P38" s="75"/>
+      <c r="Q38" s="75"/>
+      <c r="R38" s="75"/>
+      <c r="S38" s="75"/>
+      <c r="T38" s="75"/>
+      <c r="U38" s="75"/>
+      <c r="V38" s="75"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A39" s="78" t="s">
+      <c r="A39" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="78"/>
-      <c r="C39" s="78"/>
-      <c r="D39" s="79" t="s">
+      <c r="B39" s="76"/>
+      <c r="C39" s="76"/>
+      <c r="D39" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="79"/>
-      <c r="F39" s="79"/>
-      <c r="G39" s="79"/>
-      <c r="H39" s="80">
+      <c r="E39" s="77"/>
+      <c r="F39" s="77"/>
+      <c r="G39" s="77"/>
+      <c r="H39" s="83">
         <v>44972</v>
       </c>
-      <c r="I39" s="81"/>
-      <c r="J39" s="81"/>
-      <c r="M39" s="78" t="s">
+      <c r="I39" s="84"/>
+      <c r="J39" s="84"/>
+      <c r="M39" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="N39" s="78"/>
-      <c r="O39" s="78"/>
-      <c r="P39" s="79" t="s">
+      <c r="N39" s="76"/>
+      <c r="O39" s="76"/>
+      <c r="P39" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="Q39" s="79"/>
-      <c r="R39" s="79"/>
-      <c r="S39" s="79"/>
+      <c r="Q39" s="77"/>
+      <c r="R39" s="77"/>
+      <c r="S39" s="77"/>
       <c r="T39" s="18"/>
       <c r="U39" s="18"/>
-      <c r="V39" s="82">
+      <c r="V39" s="78">
         <v>44994</v>
       </c>
-      <c r="W39" s="83"/>
-      <c r="X39" s="84"/>
+      <c r="W39" s="79"/>
+      <c r="X39" s="80"/>
     </row>
     <row r="40" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
@@ -6339,72 +6352,72 @@
       <c r="X50" s="4"/>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C53" s="75">
+      <c r="C53" s="81">
         <v>45005</v>
       </c>
-      <c r="D53" s="75"/>
-      <c r="E53" s="75"/>
-      <c r="F53" s="75"/>
-      <c r="G53" s="75"/>
-      <c r="P53" s="75">
+      <c r="D53" s="81"/>
+      <c r="E53" s="81"/>
+      <c r="F53" s="81"/>
+      <c r="G53" s="81"/>
+      <c r="P53" s="81">
         <v>45006</v>
       </c>
-      <c r="Q53" s="75"/>
-      <c r="R53" s="75"/>
-      <c r="S53" s="75"/>
-      <c r="T53" s="75"/>
-      <c r="U53" s="75"/>
-      <c r="V53" s="75"/>
+      <c r="Q53" s="81"/>
+      <c r="R53" s="81"/>
+      <c r="S53" s="81"/>
+      <c r="T53" s="81"/>
+      <c r="U53" s="81"/>
+      <c r="V53" s="81"/>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C54" s="76"/>
-      <c r="D54" s="76"/>
-      <c r="E54" s="76"/>
-      <c r="F54" s="76"/>
-      <c r="G54" s="76"/>
-      <c r="P54" s="75"/>
-      <c r="Q54" s="75"/>
-      <c r="R54" s="75"/>
-      <c r="S54" s="75"/>
-      <c r="T54" s="75"/>
-      <c r="U54" s="75"/>
-      <c r="V54" s="75"/>
+      <c r="C54" s="82"/>
+      <c r="D54" s="82"/>
+      <c r="E54" s="82"/>
+      <c r="F54" s="82"/>
+      <c r="G54" s="82"/>
+      <c r="P54" s="81"/>
+      <c r="Q54" s="81"/>
+      <c r="R54" s="81"/>
+      <c r="S54" s="81"/>
+      <c r="T54" s="81"/>
+      <c r="U54" s="81"/>
+      <c r="V54" s="81"/>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A55" s="78" t="s">
+      <c r="A55" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="78"/>
-      <c r="C55" s="78"/>
-      <c r="D55" s="79" t="s">
+      <c r="B55" s="76"/>
+      <c r="C55" s="76"/>
+      <c r="D55" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="E55" s="79"/>
-      <c r="F55" s="79"/>
-      <c r="G55" s="79"/>
-      <c r="H55" s="80">
+      <c r="E55" s="77"/>
+      <c r="F55" s="77"/>
+      <c r="G55" s="77"/>
+      <c r="H55" s="83">
         <v>45005</v>
       </c>
-      <c r="I55" s="81"/>
-      <c r="J55" s="81"/>
-      <c r="M55" s="78" t="s">
+      <c r="I55" s="84"/>
+      <c r="J55" s="84"/>
+      <c r="M55" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="N55" s="78"/>
-      <c r="O55" s="78"/>
-      <c r="P55" s="79" t="s">
+      <c r="N55" s="76"/>
+      <c r="O55" s="76"/>
+      <c r="P55" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="Q55" s="79"/>
-      <c r="R55" s="79"/>
-      <c r="S55" s="79"/>
+      <c r="Q55" s="77"/>
+      <c r="R55" s="77"/>
+      <c r="S55" s="77"/>
       <c r="T55" s="18"/>
       <c r="U55" s="18"/>
-      <c r="V55" s="82">
+      <c r="V55" s="78">
         <v>45006</v>
       </c>
-      <c r="W55" s="83"/>
-      <c r="X55" s="84"/>
+      <c r="W55" s="79"/>
+      <c r="X55" s="80"/>
     </row>
     <row r="56" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
@@ -6803,72 +6816,72 @@
       <c r="X66" s="4"/>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C69" s="75" t="s">
+      <c r="C69" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="D69" s="75"/>
-      <c r="E69" s="75"/>
-      <c r="F69" s="75"/>
-      <c r="G69" s="75"/>
-      <c r="P69" s="77" t="s">
+      <c r="D69" s="81"/>
+      <c r="E69" s="81"/>
+      <c r="F69" s="81"/>
+      <c r="G69" s="81"/>
+      <c r="P69" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="Q69" s="77"/>
-      <c r="R69" s="77"/>
-      <c r="S69" s="77"/>
-      <c r="T69" s="77"/>
-      <c r="U69" s="77"/>
-      <c r="V69" s="77"/>
+      <c r="Q69" s="75"/>
+      <c r="R69" s="75"/>
+      <c r="S69" s="75"/>
+      <c r="T69" s="75"/>
+      <c r="U69" s="75"/>
+      <c r="V69" s="75"/>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C70" s="76"/>
-      <c r="D70" s="76"/>
-      <c r="E70" s="76"/>
-      <c r="F70" s="76"/>
-      <c r="G70" s="76"/>
-      <c r="P70" s="77"/>
-      <c r="Q70" s="77"/>
-      <c r="R70" s="77"/>
-      <c r="S70" s="77"/>
-      <c r="T70" s="77"/>
-      <c r="U70" s="77"/>
-      <c r="V70" s="77"/>
+      <c r="C70" s="82"/>
+      <c r="D70" s="82"/>
+      <c r="E70" s="82"/>
+      <c r="F70" s="82"/>
+      <c r="G70" s="82"/>
+      <c r="P70" s="75"/>
+      <c r="Q70" s="75"/>
+      <c r="R70" s="75"/>
+      <c r="S70" s="75"/>
+      <c r="T70" s="75"/>
+      <c r="U70" s="75"/>
+      <c r="V70" s="75"/>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A71" s="78" t="s">
+      <c r="A71" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="B71" s="78"/>
-      <c r="C71" s="78"/>
-      <c r="D71" s="79" t="s">
+      <c r="B71" s="76"/>
+      <c r="C71" s="76"/>
+      <c r="D71" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="E71" s="79"/>
-      <c r="F71" s="79"/>
-      <c r="G71" s="79"/>
-      <c r="H71" s="80">
+      <c r="E71" s="77"/>
+      <c r="F71" s="77"/>
+      <c r="G71" s="77"/>
+      <c r="H71" s="83">
         <v>44979</v>
       </c>
-      <c r="I71" s="81"/>
-      <c r="J71" s="81"/>
-      <c r="M71" s="78" t="s">
+      <c r="I71" s="84"/>
+      <c r="J71" s="84"/>
+      <c r="M71" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="N71" s="78"/>
-      <c r="O71" s="78"/>
-      <c r="P71" s="79" t="s">
+      <c r="N71" s="76"/>
+      <c r="O71" s="76"/>
+      <c r="P71" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="Q71" s="79"/>
-      <c r="R71" s="79"/>
-      <c r="S71" s="79"/>
+      <c r="Q71" s="77"/>
+      <c r="R71" s="77"/>
+      <c r="S71" s="77"/>
       <c r="T71" s="18"/>
       <c r="U71" s="18"/>
-      <c r="V71" s="82">
+      <c r="V71" s="78">
         <v>44980</v>
       </c>
-      <c r="W71" s="83"/>
-      <c r="X71" s="84"/>
+      <c r="W71" s="79"/>
+      <c r="X71" s="80"/>
     </row>
     <row r="72" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
@@ -7271,72 +7284,72 @@
       <c r="X82" s="4"/>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C86" s="75" t="s">
+      <c r="C86" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="D86" s="75"/>
-      <c r="E86" s="75"/>
-      <c r="F86" s="75"/>
-      <c r="G86" s="75"/>
-      <c r="P86" s="77" t="s">
+      <c r="D86" s="81"/>
+      <c r="E86" s="81"/>
+      <c r="F86" s="81"/>
+      <c r="G86" s="81"/>
+      <c r="P86" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="Q86" s="77"/>
-      <c r="R86" s="77"/>
-      <c r="S86" s="77"/>
-      <c r="T86" s="77"/>
-      <c r="U86" s="77"/>
-      <c r="V86" s="77"/>
+      <c r="Q86" s="75"/>
+      <c r="R86" s="75"/>
+      <c r="S86" s="75"/>
+      <c r="T86" s="75"/>
+      <c r="U86" s="75"/>
+      <c r="V86" s="75"/>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C87" s="76"/>
-      <c r="D87" s="76"/>
-      <c r="E87" s="76"/>
-      <c r="F87" s="76"/>
-      <c r="G87" s="76"/>
-      <c r="P87" s="77"/>
-      <c r="Q87" s="77"/>
-      <c r="R87" s="77"/>
-      <c r="S87" s="77"/>
-      <c r="T87" s="77"/>
-      <c r="U87" s="77"/>
-      <c r="V87" s="77"/>
+      <c r="C87" s="82"/>
+      <c r="D87" s="82"/>
+      <c r="E87" s="82"/>
+      <c r="F87" s="82"/>
+      <c r="G87" s="82"/>
+      <c r="P87" s="75"/>
+      <c r="Q87" s="75"/>
+      <c r="R87" s="75"/>
+      <c r="S87" s="75"/>
+      <c r="T87" s="75"/>
+      <c r="U87" s="75"/>
+      <c r="V87" s="75"/>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A88" s="78" t="s">
+      <c r="A88" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="B88" s="78"/>
-      <c r="C88" s="78"/>
-      <c r="D88" s="79" t="s">
+      <c r="B88" s="76"/>
+      <c r="C88" s="76"/>
+      <c r="D88" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="E88" s="79"/>
-      <c r="F88" s="79"/>
-      <c r="G88" s="79"/>
-      <c r="H88" s="80">
+      <c r="E88" s="77"/>
+      <c r="F88" s="77"/>
+      <c r="G88" s="77"/>
+      <c r="H88" s="83">
         <v>44981</v>
       </c>
-      <c r="I88" s="81"/>
-      <c r="J88" s="81"/>
-      <c r="M88" s="78" t="s">
+      <c r="I88" s="84"/>
+      <c r="J88" s="84"/>
+      <c r="M88" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="N88" s="78"/>
-      <c r="O88" s="78"/>
-      <c r="P88" s="79" t="s">
+      <c r="N88" s="76"/>
+      <c r="O88" s="76"/>
+      <c r="P88" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="Q88" s="79"/>
-      <c r="R88" s="79"/>
-      <c r="S88" s="79"/>
+      <c r="Q88" s="77"/>
+      <c r="R88" s="77"/>
+      <c r="S88" s="77"/>
       <c r="T88" s="18"/>
       <c r="U88" s="18"/>
-      <c r="V88" s="82">
+      <c r="V88" s="78">
         <v>44980</v>
       </c>
-      <c r="W88" s="83"/>
-      <c r="X88" s="84"/>
+      <c r="W88" s="79"/>
+      <c r="X88" s="80"/>
     </row>
     <row r="89" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
@@ -7671,73 +7684,73 @@
       <c r="X99" s="4"/>
     </row>
     <row r="103" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C103" s="75" t="s">
+      <c r="C103" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="D103" s="75"/>
-      <c r="E103" s="75"/>
-      <c r="F103" s="75"/>
-      <c r="G103" s="75"/>
-      <c r="P103" s="77" t="s">
+      <c r="D103" s="81"/>
+      <c r="E103" s="81"/>
+      <c r="F103" s="81"/>
+      <c r="G103" s="81"/>
+      <c r="P103" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="Q103" s="77"/>
-      <c r="R103" s="77"/>
-      <c r="S103" s="77"/>
-      <c r="T103" s="77"/>
-      <c r="U103" s="77"/>
-      <c r="V103" s="77"/>
+      <c r="Q103" s="75"/>
+      <c r="R103" s="75"/>
+      <c r="S103" s="75"/>
+      <c r="T103" s="75"/>
+      <c r="U103" s="75"/>
+      <c r="V103" s="75"/>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C104" s="76"/>
-      <c r="D104" s="76"/>
-      <c r="E104" s="76"/>
-      <c r="F104" s="76"/>
-      <c r="G104" s="76"/>
-      <c r="P104" s="77"/>
-      <c r="Q104" s="77"/>
-      <c r="R104" s="77"/>
-      <c r="S104" s="77"/>
-      <c r="T104" s="77"/>
-      <c r="U104" s="77"/>
-      <c r="V104" s="77"/>
+      <c r="C104" s="82"/>
+      <c r="D104" s="82"/>
+      <c r="E104" s="82"/>
+      <c r="F104" s="82"/>
+      <c r="G104" s="82"/>
+      <c r="P104" s="75"/>
+      <c r="Q104" s="75"/>
+      <c r="R104" s="75"/>
+      <c r="S104" s="75"/>
+      <c r="T104" s="75"/>
+      <c r="U104" s="75"/>
+      <c r="V104" s="75"/>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A105" s="78" t="s">
+      <c r="A105" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="B105" s="78"/>
-      <c r="C105" s="78"/>
-      <c r="D105" s="79" t="s">
+      <c r="B105" s="76"/>
+      <c r="C105" s="76"/>
+      <c r="D105" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="E105" s="79"/>
-      <c r="F105" s="79"/>
-      <c r="G105" s="79"/>
-      <c r="H105" s="80">
+      <c r="E105" s="77"/>
+      <c r="F105" s="77"/>
+      <c r="G105" s="77"/>
+      <c r="H105" s="83">
         <v>44979</v>
       </c>
-      <c r="I105" s="81"/>
-      <c r="J105" s="81"/>
-      <c r="M105" s="78" t="s">
+      <c r="I105" s="84"/>
+      <c r="J105" s="84"/>
+      <c r="M105" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="N105" s="78"/>
-      <c r="O105" s="78"/>
-      <c r="P105" s="79" t="s">
+      <c r="N105" s="76"/>
+      <c r="O105" s="76"/>
+      <c r="P105" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="Q105" s="79"/>
-      <c r="R105" s="79"/>
-      <c r="S105" s="79"/>
+      <c r="Q105" s="77"/>
+      <c r="R105" s="77"/>
+      <c r="S105" s="77"/>
       <c r="T105" s="18"/>
       <c r="U105" s="18"/>
-      <c r="V105" s="82" t="e">
+      <c r="V105" s="78" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W105" s="83"/>
-      <c r="X105" s="84"/>
+      <c r="W105" s="79"/>
+      <c r="X105" s="80"/>
     </row>
     <row r="106" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
@@ -8188,73 +8201,73 @@
       <c r="X116" s="4"/>
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C121" s="75" t="s">
+      <c r="C121" s="81" t="s">
         <v>95</v>
       </c>
-      <c r="D121" s="75"/>
-      <c r="E121" s="75"/>
-      <c r="F121" s="75"/>
-      <c r="G121" s="75"/>
-      <c r="P121" s="77" t="s">
+      <c r="D121" s="81"/>
+      <c r="E121" s="81"/>
+      <c r="F121" s="81"/>
+      <c r="G121" s="81"/>
+      <c r="P121" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="Q121" s="77"/>
-      <c r="R121" s="77"/>
-      <c r="S121" s="77"/>
-      <c r="T121" s="77"/>
-      <c r="U121" s="77"/>
-      <c r="V121" s="77"/>
+      <c r="Q121" s="75"/>
+      <c r="R121" s="75"/>
+      <c r="S121" s="75"/>
+      <c r="T121" s="75"/>
+      <c r="U121" s="75"/>
+      <c r="V121" s="75"/>
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C122" s="76"/>
-      <c r="D122" s="76"/>
-      <c r="E122" s="76"/>
-      <c r="F122" s="76"/>
-      <c r="G122" s="76"/>
-      <c r="P122" s="77"/>
-      <c r="Q122" s="77"/>
-      <c r="R122" s="77"/>
-      <c r="S122" s="77"/>
-      <c r="T122" s="77"/>
-      <c r="U122" s="77"/>
-      <c r="V122" s="77"/>
+      <c r="C122" s="82"/>
+      <c r="D122" s="82"/>
+      <c r="E122" s="82"/>
+      <c r="F122" s="82"/>
+      <c r="G122" s="82"/>
+      <c r="P122" s="75"/>
+      <c r="Q122" s="75"/>
+      <c r="R122" s="75"/>
+      <c r="S122" s="75"/>
+      <c r="T122" s="75"/>
+      <c r="U122" s="75"/>
+      <c r="V122" s="75"/>
     </row>
     <row r="123" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="78" t="s">
+      <c r="A123" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="B123" s="78"/>
-      <c r="C123" s="78"/>
-      <c r="D123" s="79" t="s">
+      <c r="B123" s="76"/>
+      <c r="C123" s="76"/>
+      <c r="D123" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="E123" s="79"/>
-      <c r="F123" s="79"/>
-      <c r="G123" s="79"/>
-      <c r="H123" s="80">
+      <c r="E123" s="77"/>
+      <c r="F123" s="77"/>
+      <c r="G123" s="77"/>
+      <c r="H123" s="83">
         <v>44979</v>
       </c>
-      <c r="I123" s="81"/>
-      <c r="J123" s="81"/>
-      <c r="M123" s="78" t="s">
+      <c r="I123" s="84"/>
+      <c r="J123" s="84"/>
+      <c r="M123" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="N123" s="78"/>
-      <c r="O123" s="78"/>
-      <c r="P123" s="79" t="s">
+      <c r="N123" s="76"/>
+      <c r="O123" s="76"/>
+      <c r="P123" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="Q123" s="79"/>
-      <c r="R123" s="79"/>
-      <c r="S123" s="79"/>
+      <c r="Q123" s="77"/>
+      <c r="R123" s="77"/>
+      <c r="S123" s="77"/>
       <c r="T123" s="18"/>
       <c r="U123" s="18"/>
-      <c r="V123" s="82" t="e">
+      <c r="V123" s="78" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W123" s="83"/>
-      <c r="X123" s="84"/>
+      <c r="W123" s="79"/>
+      <c r="X123" s="80"/>
     </row>
     <row r="124" spans="1:26" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
@@ -8769,45 +8782,45 @@
       <c r="X134" s="4"/>
     </row>
     <row r="138" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="P138" s="77" t="s">
+      <c r="P138" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="Q138" s="77"/>
-      <c r="R138" s="77"/>
-      <c r="S138" s="77"/>
-      <c r="T138" s="77"/>
-      <c r="U138" s="77"/>
-      <c r="V138" s="77"/>
+      <c r="Q138" s="75"/>
+      <c r="R138" s="75"/>
+      <c r="S138" s="75"/>
+      <c r="T138" s="75"/>
+      <c r="U138" s="75"/>
+      <c r="V138" s="75"/>
     </row>
     <row r="139" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="P139" s="77"/>
-      <c r="Q139" s="77"/>
-      <c r="R139" s="77"/>
-      <c r="S139" s="77"/>
-      <c r="T139" s="77"/>
-      <c r="U139" s="77"/>
-      <c r="V139" s="77"/>
+      <c r="P139" s="75"/>
+      <c r="Q139" s="75"/>
+      <c r="R139" s="75"/>
+      <c r="S139" s="75"/>
+      <c r="T139" s="75"/>
+      <c r="U139" s="75"/>
+      <c r="V139" s="75"/>
     </row>
     <row r="140" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="M140" s="78" t="s">
+      <c r="M140" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="N140" s="78"/>
-      <c r="O140" s="78"/>
-      <c r="P140" s="79" t="s">
+      <c r="N140" s="76"/>
+      <c r="O140" s="76"/>
+      <c r="P140" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="Q140" s="79"/>
-      <c r="R140" s="79"/>
-      <c r="S140" s="79"/>
+      <c r="Q140" s="77"/>
+      <c r="R140" s="77"/>
+      <c r="S140" s="77"/>
       <c r="T140" s="18"/>
       <c r="U140" s="18"/>
-      <c r="V140" s="82" t="e">
+      <c r="V140" s="78" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W140" s="83"/>
-      <c r="X140" s="84"/>
+      <c r="W140" s="79"/>
+      <c r="X140" s="80"/>
     </row>
     <row r="141" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M141" s="6" t="s">
@@ -9072,45 +9085,45 @@
       <c r="S152" s="64"/>
     </row>
     <row r="153" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P153" s="77" t="s">
+      <c r="P153" s="75" t="s">
         <v>102</v>
       </c>
-      <c r="Q153" s="77"/>
-      <c r="R153" s="77"/>
-      <c r="S153" s="77"/>
-      <c r="T153" s="77"/>
-      <c r="U153" s="77"/>
-      <c r="V153" s="77"/>
+      <c r="Q153" s="75"/>
+      <c r="R153" s="75"/>
+      <c r="S153" s="75"/>
+      <c r="T153" s="75"/>
+      <c r="U153" s="75"/>
+      <c r="V153" s="75"/>
     </row>
     <row r="154" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P154" s="77"/>
-      <c r="Q154" s="77"/>
-      <c r="R154" s="77"/>
-      <c r="S154" s="77"/>
-      <c r="T154" s="77"/>
-      <c r="U154" s="77"/>
-      <c r="V154" s="77"/>
+      <c r="P154" s="75"/>
+      <c r="Q154" s="75"/>
+      <c r="R154" s="75"/>
+      <c r="S154" s="75"/>
+      <c r="T154" s="75"/>
+      <c r="U154" s="75"/>
+      <c r="V154" s="75"/>
     </row>
     <row r="155" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M155" s="78" t="s">
+      <c r="M155" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="N155" s="78"/>
-      <c r="O155" s="78"/>
-      <c r="P155" s="79" t="s">
+      <c r="N155" s="76"/>
+      <c r="O155" s="76"/>
+      <c r="P155" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="Q155" s="79"/>
-      <c r="R155" s="79"/>
-      <c r="S155" s="79"/>
+      <c r="Q155" s="77"/>
+      <c r="R155" s="77"/>
+      <c r="S155" s="77"/>
       <c r="T155" s="18"/>
       <c r="U155" s="18"/>
-      <c r="V155" s="82" t="e">
+      <c r="V155" s="78" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W155" s="83"/>
-      <c r="X155" s="84"/>
+      <c r="W155" s="79"/>
+      <c r="X155" s="80"/>
     </row>
     <row r="156" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M156" s="6" t="s">
@@ -9374,45 +9387,45 @@
       <c r="X166" s="4"/>
     </row>
     <row r="168" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P168" s="77" t="s">
+      <c r="P168" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="Q168" s="77"/>
-      <c r="R168" s="77"/>
-      <c r="S168" s="77"/>
-      <c r="T168" s="77"/>
-      <c r="U168" s="77"/>
-      <c r="V168" s="77"/>
+      <c r="Q168" s="75"/>
+      <c r="R168" s="75"/>
+      <c r="S168" s="75"/>
+      <c r="T168" s="75"/>
+      <c r="U168" s="75"/>
+      <c r="V168" s="75"/>
     </row>
     <row r="169" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P169" s="77"/>
-      <c r="Q169" s="77"/>
-      <c r="R169" s="77"/>
-      <c r="S169" s="77"/>
-      <c r="T169" s="77"/>
-      <c r="U169" s="77"/>
-      <c r="V169" s="77"/>
+      <c r="P169" s="75"/>
+      <c r="Q169" s="75"/>
+      <c r="R169" s="75"/>
+      <c r="S169" s="75"/>
+      <c r="T169" s="75"/>
+      <c r="U169" s="75"/>
+      <c r="V169" s="75"/>
     </row>
     <row r="170" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M170" s="78" t="s">
+      <c r="M170" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="N170" s="78"/>
-      <c r="O170" s="78"/>
-      <c r="P170" s="79" t="s">
+      <c r="N170" s="76"/>
+      <c r="O170" s="76"/>
+      <c r="P170" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="Q170" s="79"/>
-      <c r="R170" s="79"/>
-      <c r="S170" s="79"/>
+      <c r="Q170" s="77"/>
+      <c r="R170" s="77"/>
+      <c r="S170" s="77"/>
       <c r="T170" s="18"/>
       <c r="U170" s="18"/>
-      <c r="V170" s="82" t="e">
+      <c r="V170" s="78" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W170" s="83"/>
-      <c r="X170" s="84"/>
+      <c r="W170" s="79"/>
+      <c r="X170" s="80"/>
     </row>
     <row r="171" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M171" s="6" t="s">
@@ -9617,45 +9630,45 @@
       <c r="X181" s="4"/>
     </row>
     <row r="186" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P186" s="77" t="s">
+      <c r="P186" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="Q186" s="77"/>
-      <c r="R186" s="77"/>
-      <c r="S186" s="77"/>
-      <c r="T186" s="77"/>
-      <c r="U186" s="77"/>
-      <c r="V186" s="77"/>
+      <c r="Q186" s="75"/>
+      <c r="R186" s="75"/>
+      <c r="S186" s="75"/>
+      <c r="T186" s="75"/>
+      <c r="U186" s="75"/>
+      <c r="V186" s="75"/>
     </row>
     <row r="187" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P187" s="77"/>
-      <c r="Q187" s="77"/>
-      <c r="R187" s="77"/>
-      <c r="S187" s="77"/>
-      <c r="T187" s="77"/>
-      <c r="U187" s="77"/>
-      <c r="V187" s="77"/>
+      <c r="P187" s="75"/>
+      <c r="Q187" s="75"/>
+      <c r="R187" s="75"/>
+      <c r="S187" s="75"/>
+      <c r="T187" s="75"/>
+      <c r="U187" s="75"/>
+      <c r="V187" s="75"/>
     </row>
     <row r="188" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M188" s="78" t="s">
+      <c r="M188" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="N188" s="78"/>
-      <c r="O188" s="78"/>
-      <c r="P188" s="79" t="s">
+      <c r="N188" s="76"/>
+      <c r="O188" s="76"/>
+      <c r="P188" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="Q188" s="79"/>
-      <c r="R188" s="79"/>
-      <c r="S188" s="79"/>
+      <c r="Q188" s="77"/>
+      <c r="R188" s="77"/>
+      <c r="S188" s="77"/>
       <c r="T188" s="18"/>
       <c r="U188" s="18"/>
-      <c r="V188" s="82" t="e">
+      <c r="V188" s="78" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W188" s="83"/>
-      <c r="X188" s="84"/>
+      <c r="W188" s="79"/>
+      <c r="X188" s="80"/>
     </row>
     <row r="189" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M189" s="6" t="s">
@@ -9825,24 +9838,24 @@
       <c r="X194" s="15"/>
     </row>
     <row r="198" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P198" s="77" t="s">
+      <c r="P198" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="Q198" s="77"/>
-      <c r="R198" s="77"/>
-      <c r="S198" s="77"/>
-      <c r="T198" s="77"/>
-      <c r="U198" s="77"/>
-      <c r="V198" s="77"/>
+      <c r="Q198" s="75"/>
+      <c r="R198" s="75"/>
+      <c r="S198" s="75"/>
+      <c r="T198" s="75"/>
+      <c r="U198" s="75"/>
+      <c r="V198" s="75"/>
     </row>
     <row r="199" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P199" s="77"/>
-      <c r="Q199" s="77"/>
-      <c r="R199" s="77"/>
-      <c r="S199" s="77"/>
-      <c r="T199" s="77"/>
-      <c r="U199" s="77"/>
-      <c r="V199" s="77"/>
+      <c r="P199" s="75"/>
+      <c r="Q199" s="75"/>
+      <c r="R199" s="75"/>
+      <c r="S199" s="75"/>
+      <c r="T199" s="75"/>
+      <c r="U199" s="75"/>
+      <c r="V199" s="75"/>
     </row>
     <row r="200" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M200" s="70" t="s">
@@ -9906,7 +9919,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="202" spans="13:26" x14ac:dyDescent="0.25">
+    <row r="202" spans="13:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M202" s="47"/>
       <c r="N202" s="48" t="s">
         <v>35</v>
@@ -9923,8 +9936,8 @@
       <c r="R202" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="S202" s="20" t="s">
-        <v>9</v>
+      <c r="S202" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="T202" s="43">
         <v>0.375</v>
@@ -9935,13 +9948,15 @@
       <c r="V202" s="34">
         <v>0.39513888888888887</v>
       </c>
-      <c r="W202" s="34"/>
+      <c r="W202" s="34">
+        <v>0.49652777777777773</v>
+      </c>
       <c r="X202" s="35"/>
       <c r="Z202" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="203" spans="13:26" x14ac:dyDescent="0.25">
+    <row r="203" spans="13:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M203" s="47"/>
       <c r="N203" s="48" t="s">
         <v>35</v>
@@ -9958,18 +9973,24 @@
       <c r="R203" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="S203" s="21" t="s">
-        <v>10</v>
+      <c r="S203" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="T203" s="43">
         <v>0.375</v>
       </c>
       <c r="U203" s="69">
-        <v>0.39652777777777781</v>
-      </c>
-      <c r="V203" s="34"/>
-      <c r="W203" s="34"/>
-      <c r="X203" s="35"/>
+        <v>0.38263888888888892</v>
+      </c>
+      <c r="V203" s="34">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="W203" s="34">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="X203" s="35">
+        <v>0.50902777777777775</v>
+      </c>
       <c r="Z203" s="10" t="s">
         <v>11</v>
       </c>
@@ -10010,59 +10031,18 @@
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="C37:G38"/>
-    <mergeCell ref="P37:V38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="P39:S39"/>
-    <mergeCell ref="V39:X39"/>
-    <mergeCell ref="C22:G23"/>
-    <mergeCell ref="P22:V23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="C2:G3"/>
-    <mergeCell ref="P2:V3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="C53:G54"/>
-    <mergeCell ref="P53:V54"/>
-    <mergeCell ref="V55:X55"/>
-    <mergeCell ref="C69:G70"/>
-    <mergeCell ref="P69:V70"/>
-    <mergeCell ref="V71:X71"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="M55:O55"/>
-    <mergeCell ref="P55:S55"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="D71:G71"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="M71:O71"/>
-    <mergeCell ref="P71:S71"/>
-    <mergeCell ref="P121:V122"/>
-    <mergeCell ref="V123:X123"/>
-    <mergeCell ref="M123:O123"/>
-    <mergeCell ref="P123:S123"/>
-    <mergeCell ref="P138:V139"/>
-    <mergeCell ref="C86:G87"/>
-    <mergeCell ref="P86:V87"/>
-    <mergeCell ref="A88:C88"/>
-    <mergeCell ref="D88:G88"/>
-    <mergeCell ref="H88:J88"/>
-    <mergeCell ref="M88:O88"/>
-    <mergeCell ref="P88:S88"/>
-    <mergeCell ref="V88:X88"/>
+    <mergeCell ref="P198:V199"/>
+    <mergeCell ref="P186:V187"/>
+    <mergeCell ref="M188:O188"/>
+    <mergeCell ref="P188:S188"/>
+    <mergeCell ref="V188:X188"/>
+    <mergeCell ref="P168:V169"/>
+    <mergeCell ref="M170:O170"/>
+    <mergeCell ref="P170:S170"/>
+    <mergeCell ref="V170:X170"/>
+    <mergeCell ref="M155:O155"/>
+    <mergeCell ref="P155:S155"/>
+    <mergeCell ref="V155:X155"/>
     <mergeCell ref="P153:V154"/>
     <mergeCell ref="C103:G104"/>
     <mergeCell ref="P103:V104"/>
@@ -10079,18 +10059,59 @@
     <mergeCell ref="M140:O140"/>
     <mergeCell ref="P140:S140"/>
     <mergeCell ref="V140:X140"/>
-    <mergeCell ref="P168:V169"/>
-    <mergeCell ref="M170:O170"/>
-    <mergeCell ref="P170:S170"/>
-    <mergeCell ref="V170:X170"/>
-    <mergeCell ref="M155:O155"/>
-    <mergeCell ref="P155:S155"/>
-    <mergeCell ref="V155:X155"/>
-    <mergeCell ref="P198:V199"/>
-    <mergeCell ref="P186:V187"/>
-    <mergeCell ref="M188:O188"/>
-    <mergeCell ref="P188:S188"/>
-    <mergeCell ref="V188:X188"/>
+    <mergeCell ref="C86:G87"/>
+    <mergeCell ref="P86:V87"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="D88:G88"/>
+    <mergeCell ref="H88:J88"/>
+    <mergeCell ref="M88:O88"/>
+    <mergeCell ref="P88:S88"/>
+    <mergeCell ref="V88:X88"/>
+    <mergeCell ref="P121:V122"/>
+    <mergeCell ref="V123:X123"/>
+    <mergeCell ref="M123:O123"/>
+    <mergeCell ref="P123:S123"/>
+    <mergeCell ref="P138:V139"/>
+    <mergeCell ref="V71:X71"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="P55:S55"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="D71:G71"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="M71:O71"/>
+    <mergeCell ref="P71:S71"/>
+    <mergeCell ref="C53:G54"/>
+    <mergeCell ref="P53:V54"/>
+    <mergeCell ref="V55:X55"/>
+    <mergeCell ref="C69:G70"/>
+    <mergeCell ref="P69:V70"/>
+    <mergeCell ref="C2:G3"/>
+    <mergeCell ref="P2:V3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="C22:G23"/>
+    <mergeCell ref="P22:V23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="C37:G38"/>
+    <mergeCell ref="P37:V38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="P39:S39"/>
+    <mergeCell ref="V39:X39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -10098,7 +10119,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="B3" workbookViewId="0">

--- a/DOC 2023/FORMATO STATUS.xlsx
+++ b/DOC 2023/FORMATO STATUS.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\DOC 2023\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE601ED-E47A-495E-942D-24777C2D7078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="FEBRERO" sheetId="2" r:id="rId1"/>
     <sheet name="MARZO" sheetId="3" r:id="rId2"/>
     <sheet name="Hoja2" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="113">
   <si>
     <t>DT</t>
   </si>
@@ -365,12 +359,21 @@
   </si>
   <si>
     <t>MARTES 16-05-2023</t>
+  </si>
+  <si>
+    <t>Jueves 18-05-2023</t>
+  </si>
+  <si>
+    <t>GLL0927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELIZABETH SANDOVAL </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
@@ -696,7 +699,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -908,9 +911,6 @@
     <xf numFmtId="164" fontId="6" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -932,10 +932,28 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1215,14 +1233,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Z124"/>
   <sheetViews>
     <sheetView topLeftCell="J103" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
@@ -1244,72 +1262,72 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C2" s="81" t="s">
+      <c r="C2" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="P2" s="75" t="s">
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="P2" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="75"/>
-      <c r="R2" s="75"/>
-      <c r="S2" s="75"/>
-      <c r="T2" s="75"/>
-      <c r="U2" s="75"/>
-      <c r="V2" s="75"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="82"/>
+      <c r="S2" s="82"/>
+      <c r="T2" s="82"/>
+      <c r="U2" s="82"/>
+      <c r="V2" s="82"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="75"/>
-      <c r="R3" s="75"/>
-      <c r="S3" s="75"/>
-      <c r="T3" s="75"/>
-      <c r="U3" s="75"/>
-      <c r="V3" s="75"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="82"/>
+      <c r="S3" s="82"/>
+      <c r="T3" s="82"/>
+      <c r="U3" s="82"/>
+      <c r="V3" s="82"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="77" t="s">
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="83">
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="85">
         <v>44965</v>
       </c>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="M4" s="76" t="s">
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="77" t="s">
+      <c r="N4" s="83"/>
+      <c r="O4" s="83"/>
+      <c r="P4" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="77"/>
-      <c r="S4" s="77"/>
+      <c r="Q4" s="84"/>
+      <c r="R4" s="84"/>
+      <c r="S4" s="84"/>
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
-      <c r="V4" s="78">
+      <c r="V4" s="87">
         <v>44601</v>
       </c>
-      <c r="W4" s="79"/>
-      <c r="X4" s="80"/>
+      <c r="W4" s="88"/>
+      <c r="X4" s="89"/>
     </row>
     <row r="5" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -1724,72 +1742,72 @@
       <c r="X15" s="4"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C22" s="81" t="s">
+      <c r="C22" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="81"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="81"/>
-      <c r="P22" s="75" t="s">
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
+      <c r="P22" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="Q22" s="75"/>
-      <c r="R22" s="75"/>
-      <c r="S22" s="75"/>
-      <c r="T22" s="75"/>
-      <c r="U22" s="75"/>
-      <c r="V22" s="75"/>
+      <c r="Q22" s="82"/>
+      <c r="R22" s="82"/>
+      <c r="S22" s="82"/>
+      <c r="T22" s="82"/>
+      <c r="U22" s="82"/>
+      <c r="V22" s="82"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C23" s="82"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="82"/>
-      <c r="P23" s="75"/>
-      <c r="Q23" s="75"/>
-      <c r="R23" s="75"/>
-      <c r="S23" s="75"/>
-      <c r="T23" s="75"/>
-      <c r="U23" s="75"/>
-      <c r="V23" s="75"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="81"/>
+      <c r="P23" s="82"/>
+      <c r="Q23" s="82"/>
+      <c r="R23" s="82"/>
+      <c r="S23" s="82"/>
+      <c r="T23" s="82"/>
+      <c r="U23" s="82"/>
+      <c r="V23" s="82"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="76" t="s">
+      <c r="A24" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="76"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="77" t="s">
+      <c r="B24" s="83"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="83">
+      <c r="E24" s="84"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="84"/>
+      <c r="H24" s="85">
         <v>44965</v>
       </c>
-      <c r="I24" s="84"/>
-      <c r="J24" s="84"/>
-      <c r="M24" s="76" t="s">
+      <c r="I24" s="86"/>
+      <c r="J24" s="86"/>
+      <c r="M24" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="N24" s="76"/>
-      <c r="O24" s="76"/>
-      <c r="P24" s="77" t="s">
+      <c r="N24" s="83"/>
+      <c r="O24" s="83"/>
+      <c r="P24" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="Q24" s="77"/>
-      <c r="R24" s="77"/>
-      <c r="S24" s="77"/>
+      <c r="Q24" s="84"/>
+      <c r="R24" s="84"/>
+      <c r="S24" s="84"/>
       <c r="T24" s="18"/>
       <c r="U24" s="18"/>
-      <c r="V24" s="78">
+      <c r="V24" s="87">
         <v>44971</v>
       </c>
-      <c r="W24" s="79"/>
-      <c r="X24" s="80"/>
+      <c r="W24" s="88"/>
+      <c r="X24" s="89"/>
     </row>
     <row r="25" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -2244,72 +2262,72 @@
       <c r="X35" s="4"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C38" s="81" t="s">
+      <c r="C38" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="81"/>
-      <c r="E38" s="81"/>
-      <c r="F38" s="81"/>
-      <c r="G38" s="81"/>
-      <c r="P38" s="75" t="s">
+      <c r="D38" s="80"/>
+      <c r="E38" s="80"/>
+      <c r="F38" s="80"/>
+      <c r="G38" s="80"/>
+      <c r="P38" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="Q38" s="75"/>
-      <c r="R38" s="75"/>
-      <c r="S38" s="75"/>
-      <c r="T38" s="75"/>
-      <c r="U38" s="75"/>
-      <c r="V38" s="75"/>
+      <c r="Q38" s="82"/>
+      <c r="R38" s="82"/>
+      <c r="S38" s="82"/>
+      <c r="T38" s="82"/>
+      <c r="U38" s="82"/>
+      <c r="V38" s="82"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C39" s="82"/>
-      <c r="D39" s="82"/>
-      <c r="E39" s="82"/>
-      <c r="F39" s="82"/>
-      <c r="G39" s="82"/>
-      <c r="P39" s="75"/>
-      <c r="Q39" s="75"/>
-      <c r="R39" s="75"/>
-      <c r="S39" s="75"/>
-      <c r="T39" s="75"/>
-      <c r="U39" s="75"/>
-      <c r="V39" s="75"/>
+      <c r="C39" s="81"/>
+      <c r="D39" s="81"/>
+      <c r="E39" s="81"/>
+      <c r="F39" s="81"/>
+      <c r="G39" s="81"/>
+      <c r="P39" s="82"/>
+      <c r="Q39" s="82"/>
+      <c r="R39" s="82"/>
+      <c r="S39" s="82"/>
+      <c r="T39" s="82"/>
+      <c r="U39" s="82"/>
+      <c r="V39" s="82"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A40" s="76" t="s">
+      <c r="A40" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="76"/>
-      <c r="C40" s="76"/>
-      <c r="D40" s="77" t="s">
+      <c r="B40" s="83"/>
+      <c r="C40" s="83"/>
+      <c r="D40" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="E40" s="77"/>
-      <c r="F40" s="77"/>
-      <c r="G40" s="77"/>
-      <c r="H40" s="83">
+      <c r="E40" s="84"/>
+      <c r="F40" s="84"/>
+      <c r="G40" s="84"/>
+      <c r="H40" s="85">
         <v>44972</v>
       </c>
-      <c r="I40" s="84"/>
-      <c r="J40" s="84"/>
-      <c r="M40" s="76" t="s">
+      <c r="I40" s="86"/>
+      <c r="J40" s="86"/>
+      <c r="M40" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="N40" s="76"/>
-      <c r="O40" s="76"/>
-      <c r="P40" s="77" t="s">
+      <c r="N40" s="83"/>
+      <c r="O40" s="83"/>
+      <c r="P40" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="Q40" s="77"/>
-      <c r="R40" s="77"/>
-      <c r="S40" s="77"/>
+      <c r="Q40" s="84"/>
+      <c r="R40" s="84"/>
+      <c r="S40" s="84"/>
       <c r="T40" s="18"/>
       <c r="U40" s="18"/>
-      <c r="V40" s="78">
+      <c r="V40" s="87">
         <v>44973</v>
       </c>
-      <c r="W40" s="79"/>
-      <c r="X40" s="80"/>
+      <c r="W40" s="88"/>
+      <c r="X40" s="89"/>
     </row>
     <row r="41" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
@@ -2724,72 +2742,72 @@
       <c r="X51" s="4"/>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C54" s="81" t="s">
+      <c r="C54" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="D54" s="81"/>
-      <c r="E54" s="81"/>
-      <c r="F54" s="81"/>
-      <c r="G54" s="81"/>
-      <c r="P54" s="75" t="s">
+      <c r="D54" s="80"/>
+      <c r="E54" s="80"/>
+      <c r="F54" s="80"/>
+      <c r="G54" s="80"/>
+      <c r="P54" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="Q54" s="75"/>
-      <c r="R54" s="75"/>
-      <c r="S54" s="75"/>
-      <c r="T54" s="75"/>
-      <c r="U54" s="75"/>
-      <c r="V54" s="75"/>
+      <c r="Q54" s="82"/>
+      <c r="R54" s="82"/>
+      <c r="S54" s="82"/>
+      <c r="T54" s="82"/>
+      <c r="U54" s="82"/>
+      <c r="V54" s="82"/>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C55" s="82"/>
-      <c r="D55" s="82"/>
-      <c r="E55" s="82"/>
-      <c r="F55" s="82"/>
-      <c r="G55" s="82"/>
-      <c r="P55" s="75"/>
-      <c r="Q55" s="75"/>
-      <c r="R55" s="75"/>
-      <c r="S55" s="75"/>
-      <c r="T55" s="75"/>
-      <c r="U55" s="75"/>
-      <c r="V55" s="75"/>
+      <c r="C55" s="81"/>
+      <c r="D55" s="81"/>
+      <c r="E55" s="81"/>
+      <c r="F55" s="81"/>
+      <c r="G55" s="81"/>
+      <c r="P55" s="82"/>
+      <c r="Q55" s="82"/>
+      <c r="R55" s="82"/>
+      <c r="S55" s="82"/>
+      <c r="T55" s="82"/>
+      <c r="U55" s="82"/>
+      <c r="V55" s="82"/>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A56" s="76" t="s">
+      <c r="A56" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="76"/>
-      <c r="C56" s="76"/>
-      <c r="D56" s="77" t="s">
+      <c r="B56" s="83"/>
+      <c r="C56" s="83"/>
+      <c r="D56" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="E56" s="77"/>
-      <c r="F56" s="77"/>
-      <c r="G56" s="77"/>
-      <c r="H56" s="83">
+      <c r="E56" s="84"/>
+      <c r="F56" s="84"/>
+      <c r="G56" s="84"/>
+      <c r="H56" s="85">
         <v>44974</v>
       </c>
-      <c r="I56" s="84"/>
-      <c r="J56" s="84"/>
-      <c r="M56" s="76" t="s">
+      <c r="I56" s="86"/>
+      <c r="J56" s="86"/>
+      <c r="M56" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="N56" s="76"/>
-      <c r="O56" s="76"/>
-      <c r="P56" s="77" t="s">
+      <c r="N56" s="83"/>
+      <c r="O56" s="83"/>
+      <c r="P56" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="Q56" s="77"/>
-      <c r="R56" s="77"/>
-      <c r="S56" s="77"/>
+      <c r="Q56" s="84"/>
+      <c r="R56" s="84"/>
+      <c r="S56" s="84"/>
       <c r="T56" s="18"/>
       <c r="U56" s="18"/>
-      <c r="V56" s="78">
+      <c r="V56" s="87">
         <v>44975</v>
       </c>
-      <c r="W56" s="79"/>
-      <c r="X56" s="80"/>
+      <c r="W56" s="88"/>
+      <c r="X56" s="89"/>
     </row>
     <row r="57" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
@@ -3244,72 +3262,72 @@
       <c r="X67" s="4"/>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C70" s="81" t="s">
+      <c r="C70" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="D70" s="81"/>
-      <c r="E70" s="81"/>
-      <c r="F70" s="81"/>
-      <c r="G70" s="81"/>
-      <c r="P70" s="75" t="s">
+      <c r="D70" s="80"/>
+      <c r="E70" s="80"/>
+      <c r="F70" s="80"/>
+      <c r="G70" s="80"/>
+      <c r="P70" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="Q70" s="75"/>
-      <c r="R70" s="75"/>
-      <c r="S70" s="75"/>
-      <c r="T70" s="75"/>
-      <c r="U70" s="75"/>
-      <c r="V70" s="75"/>
+      <c r="Q70" s="82"/>
+      <c r="R70" s="82"/>
+      <c r="S70" s="82"/>
+      <c r="T70" s="82"/>
+      <c r="U70" s="82"/>
+      <c r="V70" s="82"/>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C71" s="82"/>
-      <c r="D71" s="82"/>
-      <c r="E71" s="82"/>
-      <c r="F71" s="82"/>
-      <c r="G71" s="82"/>
-      <c r="P71" s="75"/>
-      <c r="Q71" s="75"/>
-      <c r="R71" s="75"/>
-      <c r="S71" s="75"/>
-      <c r="T71" s="75"/>
-      <c r="U71" s="75"/>
-      <c r="V71" s="75"/>
+      <c r="C71" s="81"/>
+      <c r="D71" s="81"/>
+      <c r="E71" s="81"/>
+      <c r="F71" s="81"/>
+      <c r="G71" s="81"/>
+      <c r="P71" s="82"/>
+      <c r="Q71" s="82"/>
+      <c r="R71" s="82"/>
+      <c r="S71" s="82"/>
+      <c r="T71" s="82"/>
+      <c r="U71" s="82"/>
+      <c r="V71" s="82"/>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A72" s="76" t="s">
+      <c r="A72" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="B72" s="76"/>
-      <c r="C72" s="76"/>
-      <c r="D72" s="77" t="s">
+      <c r="B72" s="83"/>
+      <c r="C72" s="83"/>
+      <c r="D72" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="E72" s="77"/>
-      <c r="F72" s="77"/>
-      <c r="G72" s="77"/>
-      <c r="H72" s="83">
+      <c r="E72" s="84"/>
+      <c r="F72" s="84"/>
+      <c r="G72" s="84"/>
+      <c r="H72" s="85">
         <v>44979</v>
       </c>
-      <c r="I72" s="84"/>
-      <c r="J72" s="84"/>
-      <c r="M72" s="76" t="s">
+      <c r="I72" s="86"/>
+      <c r="J72" s="86"/>
+      <c r="M72" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="N72" s="76"/>
-      <c r="O72" s="76"/>
-      <c r="P72" s="77" t="s">
+      <c r="N72" s="83"/>
+      <c r="O72" s="83"/>
+      <c r="P72" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="Q72" s="77"/>
-      <c r="R72" s="77"/>
-      <c r="S72" s="77"/>
+      <c r="Q72" s="84"/>
+      <c r="R72" s="84"/>
+      <c r="S72" s="84"/>
       <c r="T72" s="18"/>
       <c r="U72" s="18"/>
-      <c r="V72" s="78">
+      <c r="V72" s="87">
         <v>44980</v>
       </c>
-      <c r="W72" s="79"/>
-      <c r="X72" s="80"/>
+      <c r="W72" s="88"/>
+      <c r="X72" s="89"/>
     </row>
     <row r="73" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
@@ -3680,72 +3698,72 @@
       <c r="X83" s="4"/>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C87" s="81" t="s">
+      <c r="C87" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="D87" s="81"/>
-      <c r="E87" s="81"/>
-      <c r="F87" s="81"/>
-      <c r="G87" s="81"/>
-      <c r="P87" s="75" t="s">
+      <c r="D87" s="80"/>
+      <c r="E87" s="80"/>
+      <c r="F87" s="80"/>
+      <c r="G87" s="80"/>
+      <c r="P87" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="Q87" s="75"/>
-      <c r="R87" s="75"/>
-      <c r="S87" s="75"/>
-      <c r="T87" s="75"/>
-      <c r="U87" s="75"/>
-      <c r="V87" s="75"/>
+      <c r="Q87" s="82"/>
+      <c r="R87" s="82"/>
+      <c r="S87" s="82"/>
+      <c r="T87" s="82"/>
+      <c r="U87" s="82"/>
+      <c r="V87" s="82"/>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C88" s="82"/>
-      <c r="D88" s="82"/>
-      <c r="E88" s="82"/>
-      <c r="F88" s="82"/>
-      <c r="G88" s="82"/>
-      <c r="P88" s="75"/>
-      <c r="Q88" s="75"/>
-      <c r="R88" s="75"/>
-      <c r="S88" s="75"/>
-      <c r="T88" s="75"/>
-      <c r="U88" s="75"/>
-      <c r="V88" s="75"/>
+      <c r="C88" s="81"/>
+      <c r="D88" s="81"/>
+      <c r="E88" s="81"/>
+      <c r="F88" s="81"/>
+      <c r="G88" s="81"/>
+      <c r="P88" s="82"/>
+      <c r="Q88" s="82"/>
+      <c r="R88" s="82"/>
+      <c r="S88" s="82"/>
+      <c r="T88" s="82"/>
+      <c r="U88" s="82"/>
+      <c r="V88" s="82"/>
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A89" s="76" t="s">
+      <c r="A89" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="B89" s="76"/>
-      <c r="C89" s="76"/>
-      <c r="D89" s="77" t="s">
+      <c r="B89" s="83"/>
+      <c r="C89" s="83"/>
+      <c r="D89" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="E89" s="77"/>
-      <c r="F89" s="77"/>
-      <c r="G89" s="77"/>
-      <c r="H89" s="83">
+      <c r="E89" s="84"/>
+      <c r="F89" s="84"/>
+      <c r="G89" s="84"/>
+      <c r="H89" s="85">
         <v>44981</v>
       </c>
-      <c r="I89" s="84"/>
-      <c r="J89" s="84"/>
-      <c r="M89" s="76" t="s">
+      <c r="I89" s="86"/>
+      <c r="J89" s="86"/>
+      <c r="M89" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="N89" s="76"/>
-      <c r="O89" s="76"/>
-      <c r="P89" s="77" t="s">
+      <c r="N89" s="83"/>
+      <c r="O89" s="83"/>
+      <c r="P89" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="Q89" s="77"/>
-      <c r="R89" s="77"/>
-      <c r="S89" s="77"/>
+      <c r="Q89" s="84"/>
+      <c r="R89" s="84"/>
+      <c r="S89" s="84"/>
       <c r="T89" s="18"/>
       <c r="U89" s="18"/>
-      <c r="V89" s="78">
+      <c r="V89" s="87">
         <v>44980</v>
       </c>
-      <c r="W89" s="79"/>
-      <c r="X89" s="80"/>
+      <c r="W89" s="88"/>
+      <c r="X89" s="89"/>
     </row>
     <row r="90" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
@@ -4200,72 +4218,72 @@
       <c r="X100" s="4"/>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C104" s="81" t="s">
+      <c r="C104" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="D104" s="81"/>
-      <c r="E104" s="81"/>
-      <c r="F104" s="81"/>
-      <c r="G104" s="81"/>
-      <c r="P104" s="75" t="s">
+      <c r="D104" s="80"/>
+      <c r="E104" s="80"/>
+      <c r="F104" s="80"/>
+      <c r="G104" s="80"/>
+      <c r="P104" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="Q104" s="75"/>
-      <c r="R104" s="75"/>
-      <c r="S104" s="75"/>
-      <c r="T104" s="75"/>
-      <c r="U104" s="75"/>
-      <c r="V104" s="75"/>
+      <c r="Q104" s="82"/>
+      <c r="R104" s="82"/>
+      <c r="S104" s="82"/>
+      <c r="T104" s="82"/>
+      <c r="U104" s="82"/>
+      <c r="V104" s="82"/>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C105" s="82"/>
-      <c r="D105" s="82"/>
-      <c r="E105" s="82"/>
-      <c r="F105" s="82"/>
-      <c r="G105" s="82"/>
-      <c r="P105" s="75"/>
-      <c r="Q105" s="75"/>
-      <c r="R105" s="75"/>
-      <c r="S105" s="75"/>
-      <c r="T105" s="75"/>
-      <c r="U105" s="75"/>
-      <c r="V105" s="75"/>
+      <c r="C105" s="81"/>
+      <c r="D105" s="81"/>
+      <c r="E105" s="81"/>
+      <c r="F105" s="81"/>
+      <c r="G105" s="81"/>
+      <c r="P105" s="82"/>
+      <c r="Q105" s="82"/>
+      <c r="R105" s="82"/>
+      <c r="S105" s="82"/>
+      <c r="T105" s="82"/>
+      <c r="U105" s="82"/>
+      <c r="V105" s="82"/>
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A106" s="76" t="s">
+      <c r="A106" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="B106" s="76"/>
-      <c r="C106" s="76"/>
-      <c r="D106" s="77" t="s">
+      <c r="B106" s="83"/>
+      <c r="C106" s="83"/>
+      <c r="D106" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="E106" s="77"/>
-      <c r="F106" s="77"/>
-      <c r="G106" s="77"/>
-      <c r="H106" s="83">
+      <c r="E106" s="84"/>
+      <c r="F106" s="84"/>
+      <c r="G106" s="84"/>
+      <c r="H106" s="85">
         <v>44979</v>
       </c>
-      <c r="I106" s="84"/>
-      <c r="J106" s="84"/>
-      <c r="M106" s="76" t="s">
+      <c r="I106" s="86"/>
+      <c r="J106" s="86"/>
+      <c r="M106" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="N106" s="76"/>
-      <c r="O106" s="76"/>
-      <c r="P106" s="77" t="s">
+      <c r="N106" s="83"/>
+      <c r="O106" s="83"/>
+      <c r="P106" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="Q106" s="77"/>
-      <c r="R106" s="77"/>
-      <c r="S106" s="77"/>
+      <c r="Q106" s="84"/>
+      <c r="R106" s="84"/>
+      <c r="S106" s="84"/>
       <c r="T106" s="18"/>
       <c r="U106" s="18"/>
-      <c r="V106" s="78" t="s">
+      <c r="V106" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="W106" s="79"/>
-      <c r="X106" s="80"/>
+      <c r="W106" s="88"/>
+      <c r="X106" s="89"/>
     </row>
     <row r="107" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
@@ -4763,6 +4781,54 @@
     <row r="124" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="P38:V39"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="P40:S40"/>
+    <mergeCell ref="V40:X40"/>
+    <mergeCell ref="C38:G39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="C22:G23"/>
+    <mergeCell ref="P22:V23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="C2:G3"/>
+    <mergeCell ref="P2:V3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="C54:G55"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="P54:V55"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="P56:S56"/>
+    <mergeCell ref="V56:X56"/>
+    <mergeCell ref="C70:G71"/>
+    <mergeCell ref="P70:V71"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="D72:G72"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="M72:O72"/>
+    <mergeCell ref="P72:S72"/>
+    <mergeCell ref="V72:X72"/>
+    <mergeCell ref="C87:G88"/>
+    <mergeCell ref="P87:V88"/>
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="D89:G89"/>
+    <mergeCell ref="H89:J89"/>
+    <mergeCell ref="M89:O89"/>
+    <mergeCell ref="P89:S89"/>
+    <mergeCell ref="V89:X89"/>
     <mergeCell ref="C104:G105"/>
     <mergeCell ref="P104:V105"/>
     <mergeCell ref="A106:C106"/>
@@ -4771,54 +4837,6 @@
     <mergeCell ref="M106:O106"/>
     <mergeCell ref="P106:S106"/>
     <mergeCell ref="V106:X106"/>
-    <mergeCell ref="C87:G88"/>
-    <mergeCell ref="P87:V88"/>
-    <mergeCell ref="A89:C89"/>
-    <mergeCell ref="D89:G89"/>
-    <mergeCell ref="H89:J89"/>
-    <mergeCell ref="M89:O89"/>
-    <mergeCell ref="P89:S89"/>
-    <mergeCell ref="V89:X89"/>
-    <mergeCell ref="C70:G71"/>
-    <mergeCell ref="P70:V71"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="D72:G72"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="M72:O72"/>
-    <mergeCell ref="P72:S72"/>
-    <mergeCell ref="V72:X72"/>
-    <mergeCell ref="C54:G55"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="P54:V55"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="P56:S56"/>
-    <mergeCell ref="V56:X56"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="C2:G3"/>
-    <mergeCell ref="P2:V3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="C22:G23"/>
-    <mergeCell ref="P22:V23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="P38:V39"/>
-    <mergeCell ref="M40:O40"/>
-    <mergeCell ref="P40:S40"/>
-    <mergeCell ref="V40:X40"/>
-    <mergeCell ref="C38:G39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="H40:J40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4826,11 +4844,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:Z205"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:Z215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M189" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="Z238" sqref="Z238"/>
+    <sheetView tabSelected="1" topLeftCell="L205" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O217" sqref="O217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4844,77 +4862,78 @@
     <col min="19" max="19" width="21.85546875" customWidth="1"/>
     <col min="20" max="20" width="18.85546875" customWidth="1"/>
     <col min="21" max="21" width="13.28515625" customWidth="1"/>
+    <col min="22" max="22" width="12.42578125" customWidth="1"/>
     <col min="23" max="23" width="15" bestFit="1" customWidth="1"/>
     <col min="26" max="27" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C2" s="81" t="s">
+      <c r="C2" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="P2" s="75" t="s">
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="P2" s="82" t="s">
         <v>76</v>
       </c>
-      <c r="Q2" s="75"/>
-      <c r="R2" s="75"/>
-      <c r="S2" s="75"/>
-      <c r="T2" s="75"/>
-      <c r="U2" s="75"/>
-      <c r="V2" s="75"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="82"/>
+      <c r="S2" s="82"/>
+      <c r="T2" s="82"/>
+      <c r="U2" s="82"/>
+      <c r="V2" s="82"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="75"/>
-      <c r="R3" s="75"/>
-      <c r="S3" s="75"/>
-      <c r="T3" s="75"/>
-      <c r="U3" s="75"/>
-      <c r="V3" s="75"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="82"/>
+      <c r="S3" s="82"/>
+      <c r="T3" s="82"/>
+      <c r="U3" s="82"/>
+      <c r="V3" s="82"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="77" t="s">
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="83" t="s">
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="M4" s="76" t="s">
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="77" t="s">
+      <c r="N4" s="83"/>
+      <c r="O4" s="83"/>
+      <c r="P4" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="77"/>
-      <c r="S4" s="77"/>
+      <c r="Q4" s="84"/>
+      <c r="R4" s="84"/>
+      <c r="S4" s="84"/>
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
-      <c r="V4" s="78">
+      <c r="V4" s="87">
         <v>44601</v>
       </c>
-      <c r="W4" s="79"/>
-      <c r="X4" s="80"/>
+      <c r="W4" s="88"/>
+      <c r="X4" s="89"/>
     </row>
     <row r="5" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -5381,72 +5400,72 @@
       <c r="X15" s="4"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C22" s="81" t="s">
+      <c r="C22" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="D22" s="81"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="81"/>
-      <c r="P22" s="75" t="s">
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
+      <c r="P22" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="Q22" s="75"/>
-      <c r="R22" s="75"/>
-      <c r="S22" s="75"/>
-      <c r="T22" s="75"/>
-      <c r="U22" s="75"/>
-      <c r="V22" s="75"/>
+      <c r="Q22" s="82"/>
+      <c r="R22" s="82"/>
+      <c r="S22" s="82"/>
+      <c r="T22" s="82"/>
+      <c r="U22" s="82"/>
+      <c r="V22" s="82"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C23" s="82"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="82"/>
-      <c r="P23" s="75"/>
-      <c r="Q23" s="75"/>
-      <c r="R23" s="75"/>
-      <c r="S23" s="75"/>
-      <c r="T23" s="75"/>
-      <c r="U23" s="75"/>
-      <c r="V23" s="75"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="81"/>
+      <c r="P23" s="82"/>
+      <c r="Q23" s="82"/>
+      <c r="R23" s="82"/>
+      <c r="S23" s="82"/>
+      <c r="T23" s="82"/>
+      <c r="U23" s="82"/>
+      <c r="V23" s="82"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="76" t="s">
+      <c r="A24" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="76"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="77" t="s">
+      <c r="B24" s="83"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="83">
+      <c r="E24" s="84"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="84"/>
+      <c r="H24" s="85">
         <v>44993</v>
       </c>
-      <c r="I24" s="84"/>
-      <c r="J24" s="84"/>
-      <c r="M24" s="76" t="s">
+      <c r="I24" s="86"/>
+      <c r="J24" s="86"/>
+      <c r="M24" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="N24" s="76"/>
-      <c r="O24" s="76"/>
-      <c r="P24" s="77" t="s">
+      <c r="N24" s="83"/>
+      <c r="O24" s="83"/>
+      <c r="P24" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="Q24" s="77"/>
-      <c r="R24" s="77"/>
-      <c r="S24" s="77"/>
+      <c r="Q24" s="84"/>
+      <c r="R24" s="84"/>
+      <c r="S24" s="84"/>
       <c r="T24" s="18"/>
       <c r="U24" s="18"/>
-      <c r="V24" s="78">
+      <c r="V24" s="87">
         <v>44993</v>
       </c>
-      <c r="W24" s="79"/>
-      <c r="X24" s="80"/>
+      <c r="W24" s="88"/>
+      <c r="X24" s="89"/>
     </row>
     <row r="25" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -5876,72 +5895,72 @@
       <c r="X34" s="4"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C37" s="81" t="s">
+      <c r="C37" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="D37" s="81"/>
-      <c r="E37" s="81"/>
-      <c r="F37" s="81"/>
-      <c r="G37" s="81"/>
-      <c r="P37" s="75" t="s">
+      <c r="D37" s="80"/>
+      <c r="E37" s="80"/>
+      <c r="F37" s="80"/>
+      <c r="G37" s="80"/>
+      <c r="P37" s="82" t="s">
         <v>81</v>
       </c>
-      <c r="Q37" s="75"/>
-      <c r="R37" s="75"/>
-      <c r="S37" s="75"/>
-      <c r="T37" s="75"/>
-      <c r="U37" s="75"/>
-      <c r="V37" s="75"/>
+      <c r="Q37" s="82"/>
+      <c r="R37" s="82"/>
+      <c r="S37" s="82"/>
+      <c r="T37" s="82"/>
+      <c r="U37" s="82"/>
+      <c r="V37" s="82"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C38" s="82"/>
-      <c r="D38" s="82"/>
-      <c r="E38" s="82"/>
-      <c r="F38" s="82"/>
-      <c r="G38" s="82"/>
-      <c r="P38" s="75"/>
-      <c r="Q38" s="75"/>
-      <c r="R38" s="75"/>
-      <c r="S38" s="75"/>
-      <c r="T38" s="75"/>
-      <c r="U38" s="75"/>
-      <c r="V38" s="75"/>
+      <c r="C38" s="81"/>
+      <c r="D38" s="81"/>
+      <c r="E38" s="81"/>
+      <c r="F38" s="81"/>
+      <c r="G38" s="81"/>
+      <c r="P38" s="82"/>
+      <c r="Q38" s="82"/>
+      <c r="R38" s="82"/>
+      <c r="S38" s="82"/>
+      <c r="T38" s="82"/>
+      <c r="U38" s="82"/>
+      <c r="V38" s="82"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A39" s="76" t="s">
+      <c r="A39" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="76"/>
-      <c r="C39" s="76"/>
-      <c r="D39" s="77" t="s">
+      <c r="B39" s="83"/>
+      <c r="C39" s="83"/>
+      <c r="D39" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="77"/>
-      <c r="F39" s="77"/>
-      <c r="G39" s="77"/>
-      <c r="H39" s="83">
+      <c r="E39" s="84"/>
+      <c r="F39" s="84"/>
+      <c r="G39" s="84"/>
+      <c r="H39" s="85">
         <v>44972</v>
       </c>
-      <c r="I39" s="84"/>
-      <c r="J39" s="84"/>
-      <c r="M39" s="76" t="s">
+      <c r="I39" s="86"/>
+      <c r="J39" s="86"/>
+      <c r="M39" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="N39" s="76"/>
-      <c r="O39" s="76"/>
-      <c r="P39" s="77" t="s">
+      <c r="N39" s="83"/>
+      <c r="O39" s="83"/>
+      <c r="P39" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="Q39" s="77"/>
-      <c r="R39" s="77"/>
-      <c r="S39" s="77"/>
+      <c r="Q39" s="84"/>
+      <c r="R39" s="84"/>
+      <c r="S39" s="84"/>
       <c r="T39" s="18"/>
       <c r="U39" s="18"/>
-      <c r="V39" s="78">
+      <c r="V39" s="87">
         <v>44994</v>
       </c>
-      <c r="W39" s="79"/>
-      <c r="X39" s="80"/>
+      <c r="W39" s="88"/>
+      <c r="X39" s="89"/>
     </row>
     <row r="40" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
@@ -6352,72 +6371,72 @@
       <c r="X50" s="4"/>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C53" s="81">
+      <c r="C53" s="80">
         <v>45005</v>
       </c>
-      <c r="D53" s="81"/>
-      <c r="E53" s="81"/>
-      <c r="F53" s="81"/>
-      <c r="G53" s="81"/>
-      <c r="P53" s="81">
+      <c r="D53" s="80"/>
+      <c r="E53" s="80"/>
+      <c r="F53" s="80"/>
+      <c r="G53" s="80"/>
+      <c r="P53" s="80">
         <v>45006</v>
       </c>
-      <c r="Q53" s="81"/>
-      <c r="R53" s="81"/>
-      <c r="S53" s="81"/>
-      <c r="T53" s="81"/>
-      <c r="U53" s="81"/>
-      <c r="V53" s="81"/>
+      <c r="Q53" s="80"/>
+      <c r="R53" s="80"/>
+      <c r="S53" s="80"/>
+      <c r="T53" s="80"/>
+      <c r="U53" s="80"/>
+      <c r="V53" s="80"/>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C54" s="82"/>
-      <c r="D54" s="82"/>
-      <c r="E54" s="82"/>
-      <c r="F54" s="82"/>
-      <c r="G54" s="82"/>
-      <c r="P54" s="81"/>
-      <c r="Q54" s="81"/>
-      <c r="R54" s="81"/>
-      <c r="S54" s="81"/>
-      <c r="T54" s="81"/>
-      <c r="U54" s="81"/>
-      <c r="V54" s="81"/>
+      <c r="C54" s="81"/>
+      <c r="D54" s="81"/>
+      <c r="E54" s="81"/>
+      <c r="F54" s="81"/>
+      <c r="G54" s="81"/>
+      <c r="P54" s="80"/>
+      <c r="Q54" s="80"/>
+      <c r="R54" s="80"/>
+      <c r="S54" s="80"/>
+      <c r="T54" s="80"/>
+      <c r="U54" s="80"/>
+      <c r="V54" s="80"/>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A55" s="76" t="s">
+      <c r="A55" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="76"/>
-      <c r="C55" s="76"/>
-      <c r="D55" s="77" t="s">
+      <c r="B55" s="83"/>
+      <c r="C55" s="83"/>
+      <c r="D55" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="E55" s="77"/>
-      <c r="F55" s="77"/>
-      <c r="G55" s="77"/>
-      <c r="H55" s="83">
+      <c r="E55" s="84"/>
+      <c r="F55" s="84"/>
+      <c r="G55" s="84"/>
+      <c r="H55" s="85">
         <v>45005</v>
       </c>
-      <c r="I55" s="84"/>
-      <c r="J55" s="84"/>
-      <c r="M55" s="76" t="s">
+      <c r="I55" s="86"/>
+      <c r="J55" s="86"/>
+      <c r="M55" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="N55" s="76"/>
-      <c r="O55" s="76"/>
-      <c r="P55" s="77" t="s">
+      <c r="N55" s="83"/>
+      <c r="O55" s="83"/>
+      <c r="P55" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="Q55" s="77"/>
-      <c r="R55" s="77"/>
-      <c r="S55" s="77"/>
+      <c r="Q55" s="84"/>
+      <c r="R55" s="84"/>
+      <c r="S55" s="84"/>
       <c r="T55" s="18"/>
       <c r="U55" s="18"/>
-      <c r="V55" s="78">
+      <c r="V55" s="87">
         <v>45006</v>
       </c>
-      <c r="W55" s="79"/>
-      <c r="X55" s="80"/>
+      <c r="W55" s="88"/>
+      <c r="X55" s="89"/>
     </row>
     <row r="56" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
@@ -6816,72 +6835,72 @@
       <c r="X66" s="4"/>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C69" s="81" t="s">
+      <c r="C69" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="D69" s="81"/>
-      <c r="E69" s="81"/>
-      <c r="F69" s="81"/>
-      <c r="G69" s="81"/>
-      <c r="P69" s="75" t="s">
+      <c r="D69" s="80"/>
+      <c r="E69" s="80"/>
+      <c r="F69" s="80"/>
+      <c r="G69" s="80"/>
+      <c r="P69" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="Q69" s="75"/>
-      <c r="R69" s="75"/>
-      <c r="S69" s="75"/>
-      <c r="T69" s="75"/>
-      <c r="U69" s="75"/>
-      <c r="V69" s="75"/>
+      <c r="Q69" s="82"/>
+      <c r="R69" s="82"/>
+      <c r="S69" s="82"/>
+      <c r="T69" s="82"/>
+      <c r="U69" s="82"/>
+      <c r="V69" s="82"/>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C70" s="82"/>
-      <c r="D70" s="82"/>
-      <c r="E70" s="82"/>
-      <c r="F70" s="82"/>
-      <c r="G70" s="82"/>
-      <c r="P70" s="75"/>
-      <c r="Q70" s="75"/>
-      <c r="R70" s="75"/>
-      <c r="S70" s="75"/>
-      <c r="T70" s="75"/>
-      <c r="U70" s="75"/>
-      <c r="V70" s="75"/>
+      <c r="C70" s="81"/>
+      <c r="D70" s="81"/>
+      <c r="E70" s="81"/>
+      <c r="F70" s="81"/>
+      <c r="G70" s="81"/>
+      <c r="P70" s="82"/>
+      <c r="Q70" s="82"/>
+      <c r="R70" s="82"/>
+      <c r="S70" s="82"/>
+      <c r="T70" s="82"/>
+      <c r="U70" s="82"/>
+      <c r="V70" s="82"/>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A71" s="76" t="s">
+      <c r="A71" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="B71" s="76"/>
-      <c r="C71" s="76"/>
-      <c r="D71" s="77" t="s">
+      <c r="B71" s="83"/>
+      <c r="C71" s="83"/>
+      <c r="D71" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="E71" s="77"/>
-      <c r="F71" s="77"/>
-      <c r="G71" s="77"/>
-      <c r="H71" s="83">
+      <c r="E71" s="84"/>
+      <c r="F71" s="84"/>
+      <c r="G71" s="84"/>
+      <c r="H71" s="85">
         <v>44979</v>
       </c>
-      <c r="I71" s="84"/>
-      <c r="J71" s="84"/>
-      <c r="M71" s="76" t="s">
+      <c r="I71" s="86"/>
+      <c r="J71" s="86"/>
+      <c r="M71" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="N71" s="76"/>
-      <c r="O71" s="76"/>
-      <c r="P71" s="77" t="s">
+      <c r="N71" s="83"/>
+      <c r="O71" s="83"/>
+      <c r="P71" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="Q71" s="77"/>
-      <c r="R71" s="77"/>
-      <c r="S71" s="77"/>
+      <c r="Q71" s="84"/>
+      <c r="R71" s="84"/>
+      <c r="S71" s="84"/>
       <c r="T71" s="18"/>
       <c r="U71" s="18"/>
-      <c r="V71" s="78">
+      <c r="V71" s="87">
         <v>44980</v>
       </c>
-      <c r="W71" s="79"/>
-      <c r="X71" s="80"/>
+      <c r="W71" s="88"/>
+      <c r="X71" s="89"/>
     </row>
     <row r="72" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
@@ -7284,72 +7303,72 @@
       <c r="X82" s="4"/>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C86" s="81" t="s">
+      <c r="C86" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="D86" s="81"/>
-      <c r="E86" s="81"/>
-      <c r="F86" s="81"/>
-      <c r="G86" s="81"/>
-      <c r="P86" s="75" t="s">
+      <c r="D86" s="80"/>
+      <c r="E86" s="80"/>
+      <c r="F86" s="80"/>
+      <c r="G86" s="80"/>
+      <c r="P86" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="Q86" s="75"/>
-      <c r="R86" s="75"/>
-      <c r="S86" s="75"/>
-      <c r="T86" s="75"/>
-      <c r="U86" s="75"/>
-      <c r="V86" s="75"/>
+      <c r="Q86" s="82"/>
+      <c r="R86" s="82"/>
+      <c r="S86" s="82"/>
+      <c r="T86" s="82"/>
+      <c r="U86" s="82"/>
+      <c r="V86" s="82"/>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C87" s="82"/>
-      <c r="D87" s="82"/>
-      <c r="E87" s="82"/>
-      <c r="F87" s="82"/>
-      <c r="G87" s="82"/>
-      <c r="P87" s="75"/>
-      <c r="Q87" s="75"/>
-      <c r="R87" s="75"/>
-      <c r="S87" s="75"/>
-      <c r="T87" s="75"/>
-      <c r="U87" s="75"/>
-      <c r="V87" s="75"/>
+      <c r="C87" s="81"/>
+      <c r="D87" s="81"/>
+      <c r="E87" s="81"/>
+      <c r="F87" s="81"/>
+      <c r="G87" s="81"/>
+      <c r="P87" s="82"/>
+      <c r="Q87" s="82"/>
+      <c r="R87" s="82"/>
+      <c r="S87" s="82"/>
+      <c r="T87" s="82"/>
+      <c r="U87" s="82"/>
+      <c r="V87" s="82"/>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A88" s="76" t="s">
+      <c r="A88" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="B88" s="76"/>
-      <c r="C88" s="76"/>
-      <c r="D88" s="77" t="s">
+      <c r="B88" s="83"/>
+      <c r="C88" s="83"/>
+      <c r="D88" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="E88" s="77"/>
-      <c r="F88" s="77"/>
-      <c r="G88" s="77"/>
-      <c r="H88" s="83">
+      <c r="E88" s="84"/>
+      <c r="F88" s="84"/>
+      <c r="G88" s="84"/>
+      <c r="H88" s="85">
         <v>44981</v>
       </c>
-      <c r="I88" s="84"/>
-      <c r="J88" s="84"/>
-      <c r="M88" s="76" t="s">
+      <c r="I88" s="86"/>
+      <c r="J88" s="86"/>
+      <c r="M88" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="N88" s="76"/>
-      <c r="O88" s="76"/>
-      <c r="P88" s="77" t="s">
+      <c r="N88" s="83"/>
+      <c r="O88" s="83"/>
+      <c r="P88" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="Q88" s="77"/>
-      <c r="R88" s="77"/>
-      <c r="S88" s="77"/>
+      <c r="Q88" s="84"/>
+      <c r="R88" s="84"/>
+      <c r="S88" s="84"/>
       <c r="T88" s="18"/>
       <c r="U88" s="18"/>
-      <c r="V88" s="78">
+      <c r="V88" s="87">
         <v>44980</v>
       </c>
-      <c r="W88" s="79"/>
-      <c r="X88" s="80"/>
+      <c r="W88" s="88"/>
+      <c r="X88" s="89"/>
     </row>
     <row r="89" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
@@ -7684,73 +7703,73 @@
       <c r="X99" s="4"/>
     </row>
     <row r="103" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C103" s="81" t="s">
+      <c r="C103" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="D103" s="81"/>
-      <c r="E103" s="81"/>
-      <c r="F103" s="81"/>
-      <c r="G103" s="81"/>
-      <c r="P103" s="75" t="s">
+      <c r="D103" s="80"/>
+      <c r="E103" s="80"/>
+      <c r="F103" s="80"/>
+      <c r="G103" s="80"/>
+      <c r="P103" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="Q103" s="75"/>
-      <c r="R103" s="75"/>
-      <c r="S103" s="75"/>
-      <c r="T103" s="75"/>
-      <c r="U103" s="75"/>
-      <c r="V103" s="75"/>
+      <c r="Q103" s="82"/>
+      <c r="R103" s="82"/>
+      <c r="S103" s="82"/>
+      <c r="T103" s="82"/>
+      <c r="U103" s="82"/>
+      <c r="V103" s="82"/>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C104" s="82"/>
-      <c r="D104" s="82"/>
-      <c r="E104" s="82"/>
-      <c r="F104" s="82"/>
-      <c r="G104" s="82"/>
-      <c r="P104" s="75"/>
-      <c r="Q104" s="75"/>
-      <c r="R104" s="75"/>
-      <c r="S104" s="75"/>
-      <c r="T104" s="75"/>
-      <c r="U104" s="75"/>
-      <c r="V104" s="75"/>
+      <c r="C104" s="81"/>
+      <c r="D104" s="81"/>
+      <c r="E104" s="81"/>
+      <c r="F104" s="81"/>
+      <c r="G104" s="81"/>
+      <c r="P104" s="82"/>
+      <c r="Q104" s="82"/>
+      <c r="R104" s="82"/>
+      <c r="S104" s="82"/>
+      <c r="T104" s="82"/>
+      <c r="U104" s="82"/>
+      <c r="V104" s="82"/>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A105" s="76" t="s">
+      <c r="A105" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="B105" s="76"/>
-      <c r="C105" s="76"/>
-      <c r="D105" s="77" t="s">
+      <c r="B105" s="83"/>
+      <c r="C105" s="83"/>
+      <c r="D105" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="E105" s="77"/>
-      <c r="F105" s="77"/>
-      <c r="G105" s="77"/>
-      <c r="H105" s="83">
+      <c r="E105" s="84"/>
+      <c r="F105" s="84"/>
+      <c r="G105" s="84"/>
+      <c r="H105" s="85">
         <v>44979</v>
       </c>
-      <c r="I105" s="84"/>
-      <c r="J105" s="84"/>
-      <c r="M105" s="76" t="s">
+      <c r="I105" s="86"/>
+      <c r="J105" s="86"/>
+      <c r="M105" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="N105" s="76"/>
-      <c r="O105" s="76"/>
-      <c r="P105" s="77" t="s">
+      <c r="N105" s="83"/>
+      <c r="O105" s="83"/>
+      <c r="P105" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="Q105" s="77"/>
-      <c r="R105" s="77"/>
-      <c r="S105" s="77"/>
+      <c r="Q105" s="84"/>
+      <c r="R105" s="84"/>
+      <c r="S105" s="84"/>
       <c r="T105" s="18"/>
       <c r="U105" s="18"/>
-      <c r="V105" s="78" t="e">
+      <c r="V105" s="87" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W105" s="79"/>
-      <c r="X105" s="80"/>
+      <c r="W105" s="88"/>
+      <c r="X105" s="89"/>
     </row>
     <row r="106" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
@@ -8201,73 +8220,73 @@
       <c r="X116" s="4"/>
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C121" s="81" t="s">
+      <c r="C121" s="80" t="s">
         <v>95</v>
       </c>
-      <c r="D121" s="81"/>
-      <c r="E121" s="81"/>
-      <c r="F121" s="81"/>
-      <c r="G121" s="81"/>
-      <c r="P121" s="75" t="s">
+      <c r="D121" s="80"/>
+      <c r="E121" s="80"/>
+      <c r="F121" s="80"/>
+      <c r="G121" s="80"/>
+      <c r="P121" s="82" t="s">
         <v>96</v>
       </c>
-      <c r="Q121" s="75"/>
-      <c r="R121" s="75"/>
-      <c r="S121" s="75"/>
-      <c r="T121" s="75"/>
-      <c r="U121" s="75"/>
-      <c r="V121" s="75"/>
+      <c r="Q121" s="82"/>
+      <c r="R121" s="82"/>
+      <c r="S121" s="82"/>
+      <c r="T121" s="82"/>
+      <c r="U121" s="82"/>
+      <c r="V121" s="82"/>
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C122" s="82"/>
-      <c r="D122" s="82"/>
-      <c r="E122" s="82"/>
-      <c r="F122" s="82"/>
-      <c r="G122" s="82"/>
-      <c r="P122" s="75"/>
-      <c r="Q122" s="75"/>
-      <c r="R122" s="75"/>
-      <c r="S122" s="75"/>
-      <c r="T122" s="75"/>
-      <c r="U122" s="75"/>
-      <c r="V122" s="75"/>
+      <c r="C122" s="81"/>
+      <c r="D122" s="81"/>
+      <c r="E122" s="81"/>
+      <c r="F122" s="81"/>
+      <c r="G122" s="81"/>
+      <c r="P122" s="82"/>
+      <c r="Q122" s="82"/>
+      <c r="R122" s="82"/>
+      <c r="S122" s="82"/>
+      <c r="T122" s="82"/>
+      <c r="U122" s="82"/>
+      <c r="V122" s="82"/>
     </row>
     <row r="123" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="76" t="s">
+      <c r="A123" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="B123" s="76"/>
-      <c r="C123" s="76"/>
-      <c r="D123" s="77" t="s">
+      <c r="B123" s="83"/>
+      <c r="C123" s="83"/>
+      <c r="D123" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="E123" s="77"/>
-      <c r="F123" s="77"/>
-      <c r="G123" s="77"/>
-      <c r="H123" s="83">
+      <c r="E123" s="84"/>
+      <c r="F123" s="84"/>
+      <c r="G123" s="84"/>
+      <c r="H123" s="85">
         <v>44979</v>
       </c>
-      <c r="I123" s="84"/>
-      <c r="J123" s="84"/>
-      <c r="M123" s="76" t="s">
+      <c r="I123" s="86"/>
+      <c r="J123" s="86"/>
+      <c r="M123" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="N123" s="76"/>
-      <c r="O123" s="76"/>
-      <c r="P123" s="77" t="s">
+      <c r="N123" s="83"/>
+      <c r="O123" s="83"/>
+      <c r="P123" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="Q123" s="77"/>
-      <c r="R123" s="77"/>
-      <c r="S123" s="77"/>
+      <c r="Q123" s="84"/>
+      <c r="R123" s="84"/>
+      <c r="S123" s="84"/>
       <c r="T123" s="18"/>
       <c r="U123" s="18"/>
-      <c r="V123" s="78" t="e">
+      <c r="V123" s="87" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W123" s="79"/>
-      <c r="X123" s="80"/>
+      <c r="W123" s="88"/>
+      <c r="X123" s="89"/>
     </row>
     <row r="124" spans="1:26" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
@@ -8782,45 +8801,45 @@
       <c r="X134" s="4"/>
     </row>
     <row r="138" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="P138" s="75" t="s">
+      <c r="P138" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="Q138" s="75"/>
-      <c r="R138" s="75"/>
-      <c r="S138" s="75"/>
-      <c r="T138" s="75"/>
-      <c r="U138" s="75"/>
-      <c r="V138" s="75"/>
+      <c r="Q138" s="82"/>
+      <c r="R138" s="82"/>
+      <c r="S138" s="82"/>
+      <c r="T138" s="82"/>
+      <c r="U138" s="82"/>
+      <c r="V138" s="82"/>
     </row>
     <row r="139" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="P139" s="75"/>
-      <c r="Q139" s="75"/>
-      <c r="R139" s="75"/>
-      <c r="S139" s="75"/>
-      <c r="T139" s="75"/>
-      <c r="U139" s="75"/>
-      <c r="V139" s="75"/>
+      <c r="P139" s="82"/>
+      <c r="Q139" s="82"/>
+      <c r="R139" s="82"/>
+      <c r="S139" s="82"/>
+      <c r="T139" s="82"/>
+      <c r="U139" s="82"/>
+      <c r="V139" s="82"/>
     </row>
     <row r="140" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="M140" s="76" t="s">
+      <c r="M140" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="N140" s="76"/>
-      <c r="O140" s="76"/>
-      <c r="P140" s="77" t="s">
+      <c r="N140" s="83"/>
+      <c r="O140" s="83"/>
+      <c r="P140" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="Q140" s="77"/>
-      <c r="R140" s="77"/>
-      <c r="S140" s="77"/>
+      <c r="Q140" s="84"/>
+      <c r="R140" s="84"/>
+      <c r="S140" s="84"/>
       <c r="T140" s="18"/>
       <c r="U140" s="18"/>
-      <c r="V140" s="78" t="e">
+      <c r="V140" s="87" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W140" s="79"/>
-      <c r="X140" s="80"/>
+      <c r="W140" s="88"/>
+      <c r="X140" s="89"/>
     </row>
     <row r="141" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M141" s="6" t="s">
@@ -9085,45 +9104,45 @@
       <c r="S152" s="64"/>
     </row>
     <row r="153" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P153" s="75" t="s">
+      <c r="P153" s="82" t="s">
         <v>102</v>
       </c>
-      <c r="Q153" s="75"/>
-      <c r="R153" s="75"/>
-      <c r="S153" s="75"/>
-      <c r="T153" s="75"/>
-      <c r="U153" s="75"/>
-      <c r="V153" s="75"/>
+      <c r="Q153" s="82"/>
+      <c r="R153" s="82"/>
+      <c r="S153" s="82"/>
+      <c r="T153" s="82"/>
+      <c r="U153" s="82"/>
+      <c r="V153" s="82"/>
     </row>
     <row r="154" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P154" s="75"/>
-      <c r="Q154" s="75"/>
-      <c r="R154" s="75"/>
-      <c r="S154" s="75"/>
-      <c r="T154" s="75"/>
-      <c r="U154" s="75"/>
-      <c r="V154" s="75"/>
+      <c r="P154" s="82"/>
+      <c r="Q154" s="82"/>
+      <c r="R154" s="82"/>
+      <c r="S154" s="82"/>
+      <c r="T154" s="82"/>
+      <c r="U154" s="82"/>
+      <c r="V154" s="82"/>
     </row>
     <row r="155" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M155" s="76" t="s">
+      <c r="M155" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="N155" s="76"/>
-      <c r="O155" s="76"/>
-      <c r="P155" s="77" t="s">
+      <c r="N155" s="83"/>
+      <c r="O155" s="83"/>
+      <c r="P155" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="Q155" s="77"/>
-      <c r="R155" s="77"/>
-      <c r="S155" s="77"/>
+      <c r="Q155" s="84"/>
+      <c r="R155" s="84"/>
+      <c r="S155" s="84"/>
       <c r="T155" s="18"/>
       <c r="U155" s="18"/>
-      <c r="V155" s="78" t="e">
+      <c r="V155" s="87" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W155" s="79"/>
-      <c r="X155" s="80"/>
+      <c r="W155" s="88"/>
+      <c r="X155" s="89"/>
     </row>
     <row r="156" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M156" s="6" t="s">
@@ -9387,45 +9406,45 @@
       <c r="X166" s="4"/>
     </row>
     <row r="168" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P168" s="75" t="s">
+      <c r="P168" s="82" t="s">
         <v>100</v>
       </c>
-      <c r="Q168" s="75"/>
-      <c r="R168" s="75"/>
-      <c r="S168" s="75"/>
-      <c r="T168" s="75"/>
-      <c r="U168" s="75"/>
-      <c r="V168" s="75"/>
+      <c r="Q168" s="82"/>
+      <c r="R168" s="82"/>
+      <c r="S168" s="82"/>
+      <c r="T168" s="82"/>
+      <c r="U168" s="82"/>
+      <c r="V168" s="82"/>
     </row>
     <row r="169" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P169" s="75"/>
-      <c r="Q169" s="75"/>
-      <c r="R169" s="75"/>
-      <c r="S169" s="75"/>
-      <c r="T169" s="75"/>
-      <c r="U169" s="75"/>
-      <c r="V169" s="75"/>
+      <c r="P169" s="82"/>
+      <c r="Q169" s="82"/>
+      <c r="R169" s="82"/>
+      <c r="S169" s="82"/>
+      <c r="T169" s="82"/>
+      <c r="U169" s="82"/>
+      <c r="V169" s="82"/>
     </row>
     <row r="170" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M170" s="76" t="s">
+      <c r="M170" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="N170" s="76"/>
-      <c r="O170" s="76"/>
-      <c r="P170" s="77" t="s">
+      <c r="N170" s="83"/>
+      <c r="O170" s="83"/>
+      <c r="P170" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="Q170" s="77"/>
-      <c r="R170" s="77"/>
-      <c r="S170" s="77"/>
+      <c r="Q170" s="84"/>
+      <c r="R170" s="84"/>
+      <c r="S170" s="84"/>
       <c r="T170" s="18"/>
       <c r="U170" s="18"/>
-      <c r="V170" s="78" t="e">
+      <c r="V170" s="87" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W170" s="79"/>
-      <c r="X170" s="80"/>
+      <c r="W170" s="88"/>
+      <c r="X170" s="89"/>
     </row>
     <row r="171" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M171" s="6" t="s">
@@ -9630,45 +9649,45 @@
       <c r="X181" s="4"/>
     </row>
     <row r="186" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P186" s="75" t="s">
+      <c r="P186" s="82" t="s">
         <v>104</v>
       </c>
-      <c r="Q186" s="75"/>
-      <c r="R186" s="75"/>
-      <c r="S186" s="75"/>
-      <c r="T186" s="75"/>
-      <c r="U186" s="75"/>
-      <c r="V186" s="75"/>
+      <c r="Q186" s="82"/>
+      <c r="R186" s="82"/>
+      <c r="S186" s="82"/>
+      <c r="T186" s="82"/>
+      <c r="U186" s="82"/>
+      <c r="V186" s="82"/>
     </row>
     <row r="187" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P187" s="75"/>
-      <c r="Q187" s="75"/>
-      <c r="R187" s="75"/>
-      <c r="S187" s="75"/>
-      <c r="T187" s="75"/>
-      <c r="U187" s="75"/>
-      <c r="V187" s="75"/>
+      <c r="P187" s="82"/>
+      <c r="Q187" s="82"/>
+      <c r="R187" s="82"/>
+      <c r="S187" s="82"/>
+      <c r="T187" s="82"/>
+      <c r="U187" s="82"/>
+      <c r="V187" s="82"/>
     </row>
     <row r="188" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M188" s="76" t="s">
+      <c r="M188" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="N188" s="76"/>
-      <c r="O188" s="76"/>
-      <c r="P188" s="77" t="s">
+      <c r="N188" s="83"/>
+      <c r="O188" s="83"/>
+      <c r="P188" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="Q188" s="77"/>
-      <c r="R188" s="77"/>
-      <c r="S188" s="77"/>
+      <c r="Q188" s="84"/>
+      <c r="R188" s="84"/>
+      <c r="S188" s="84"/>
       <c r="T188" s="18"/>
       <c r="U188" s="18"/>
-      <c r="V188" s="78" t="e">
+      <c r="V188" s="87" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W188" s="79"/>
-      <c r="X188" s="80"/>
+      <c r="W188" s="88"/>
+      <c r="X188" s="89"/>
     </row>
     <row r="189" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M189" s="6" t="s">
@@ -9838,24 +9857,24 @@
       <c r="X194" s="15"/>
     </row>
     <row r="198" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P198" s="75" t="s">
+      <c r="P198" s="82" t="s">
         <v>109</v>
       </c>
-      <c r="Q198" s="75"/>
-      <c r="R198" s="75"/>
-      <c r="S198" s="75"/>
-      <c r="T198" s="75"/>
-      <c r="U198" s="75"/>
-      <c r="V198" s="75"/>
+      <c r="Q198" s="82"/>
+      <c r="R198" s="82"/>
+      <c r="S198" s="82"/>
+      <c r="T198" s="82"/>
+      <c r="U198" s="82"/>
+      <c r="V198" s="82"/>
     </row>
     <row r="199" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P199" s="75"/>
-      <c r="Q199" s="75"/>
-      <c r="R199" s="75"/>
-      <c r="S199" s="75"/>
-      <c r="T199" s="75"/>
-      <c r="U199" s="75"/>
-      <c r="V199" s="75"/>
+      <c r="P199" s="82"/>
+      <c r="Q199" s="82"/>
+      <c r="R199" s="82"/>
+      <c r="S199" s="82"/>
+      <c r="T199" s="82"/>
+      <c r="U199" s="82"/>
+      <c r="V199" s="82"/>
     </row>
     <row r="200" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M200" s="70" t="s">
@@ -10029,20 +10048,231 @@
         <v>28</v>
       </c>
     </row>
+    <row r="209" spans="13:26" x14ac:dyDescent="0.25">
+      <c r="P209" s="82" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q209" s="82"/>
+      <c r="R209" s="82"/>
+      <c r="S209" s="82"/>
+      <c r="T209" s="82"/>
+      <c r="U209" s="82"/>
+      <c r="V209" s="82"/>
+    </row>
+    <row r="210" spans="13:26" x14ac:dyDescent="0.25">
+      <c r="P210" s="82"/>
+      <c r="Q210" s="82"/>
+      <c r="R210" s="82"/>
+      <c r="S210" s="82"/>
+      <c r="T210" s="82"/>
+      <c r="U210" s="82"/>
+      <c r="V210" s="82"/>
+    </row>
+    <row r="211" spans="13:26" ht="36" x14ac:dyDescent="0.25">
+      <c r="M211" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="N211" s="75"/>
+      <c r="O211" s="75"/>
+      <c r="P211" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q211" s="76"/>
+      <c r="R211" s="76"/>
+      <c r="S211" s="76"/>
+      <c r="T211" s="18"/>
+      <c r="U211" s="18"/>
+      <c r="V211" s="77" t="e">
+        <f>FECHANUMERO</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W211" s="78"/>
+      <c r="X211" s="79"/>
+    </row>
+    <row r="212" spans="13:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="M212" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N212" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O212" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P212" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q212" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="R212" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="S212" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="T212" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="U212" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="V212" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="W212" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="X212" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z212" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="213" spans="13:26" x14ac:dyDescent="0.25">
+      <c r="M213" s="47"/>
+      <c r="N213" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="O213" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="P213" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q213" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="R213" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="S213" s="8"/>
+      <c r="T213" s="43">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="U213" s="33"/>
+      <c r="V213" s="34"/>
+      <c r="W213" s="34"/>
+      <c r="X213" s="35"/>
+      <c r="Z213" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="214" spans="13:26" x14ac:dyDescent="0.25">
+      <c r="M214" s="47"/>
+      <c r="N214" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="O214" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="P214" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q214" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="R214" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="S214" s="10"/>
+      <c r="T214" s="43">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="U214" s="69"/>
+      <c r="V214" s="34"/>
+      <c r="W214" s="34"/>
+      <c r="X214" s="35"/>
+      <c r="Z214" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="215" spans="13:26" x14ac:dyDescent="0.25">
+      <c r="M215" s="47"/>
+      <c r="N215" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="O215" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="P215" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q215" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="R215" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="S215" s="16"/>
+      <c r="T215" s="43">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="U215" s="34"/>
+      <c r="V215" s="34"/>
+      <c r="W215" s="34"/>
+      <c r="X215" s="35"/>
+      <c r="Z215" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="81">
-    <mergeCell ref="P198:V199"/>
-    <mergeCell ref="P186:V187"/>
-    <mergeCell ref="M188:O188"/>
-    <mergeCell ref="P188:S188"/>
-    <mergeCell ref="V188:X188"/>
-    <mergeCell ref="P168:V169"/>
-    <mergeCell ref="M170:O170"/>
-    <mergeCell ref="P170:S170"/>
-    <mergeCell ref="V170:X170"/>
-    <mergeCell ref="M155:O155"/>
-    <mergeCell ref="P155:S155"/>
-    <mergeCell ref="V155:X155"/>
+  <mergeCells count="82">
+    <mergeCell ref="P209:V210"/>
+    <mergeCell ref="C37:G38"/>
+    <mergeCell ref="P37:V38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="P39:S39"/>
+    <mergeCell ref="V39:X39"/>
+    <mergeCell ref="C22:G23"/>
+    <mergeCell ref="P22:V23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="C2:G3"/>
+    <mergeCell ref="P2:V3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="C53:G54"/>
+    <mergeCell ref="P53:V54"/>
+    <mergeCell ref="V55:X55"/>
+    <mergeCell ref="C69:G70"/>
+    <mergeCell ref="P69:V70"/>
+    <mergeCell ref="V71:X71"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="P55:S55"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="D71:G71"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="M71:O71"/>
+    <mergeCell ref="P71:S71"/>
+    <mergeCell ref="P121:V122"/>
+    <mergeCell ref="V123:X123"/>
+    <mergeCell ref="M123:O123"/>
+    <mergeCell ref="P123:S123"/>
+    <mergeCell ref="P138:V139"/>
+    <mergeCell ref="C86:G87"/>
+    <mergeCell ref="P86:V87"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="D88:G88"/>
+    <mergeCell ref="H88:J88"/>
+    <mergeCell ref="M88:O88"/>
+    <mergeCell ref="P88:S88"/>
+    <mergeCell ref="V88:X88"/>
     <mergeCell ref="P153:V154"/>
     <mergeCell ref="C103:G104"/>
     <mergeCell ref="P103:V104"/>
@@ -10059,59 +10289,18 @@
     <mergeCell ref="M140:O140"/>
     <mergeCell ref="P140:S140"/>
     <mergeCell ref="V140:X140"/>
-    <mergeCell ref="C86:G87"/>
-    <mergeCell ref="P86:V87"/>
-    <mergeCell ref="A88:C88"/>
-    <mergeCell ref="D88:G88"/>
-    <mergeCell ref="H88:J88"/>
-    <mergeCell ref="M88:O88"/>
-    <mergeCell ref="P88:S88"/>
-    <mergeCell ref="V88:X88"/>
-    <mergeCell ref="P121:V122"/>
-    <mergeCell ref="V123:X123"/>
-    <mergeCell ref="M123:O123"/>
-    <mergeCell ref="P123:S123"/>
-    <mergeCell ref="P138:V139"/>
-    <mergeCell ref="V71:X71"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="M55:O55"/>
-    <mergeCell ref="P55:S55"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="D71:G71"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="M71:O71"/>
-    <mergeCell ref="P71:S71"/>
-    <mergeCell ref="C53:G54"/>
-    <mergeCell ref="P53:V54"/>
-    <mergeCell ref="V55:X55"/>
-    <mergeCell ref="C69:G70"/>
-    <mergeCell ref="P69:V70"/>
-    <mergeCell ref="C2:G3"/>
-    <mergeCell ref="P2:V3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="C22:G23"/>
-    <mergeCell ref="P22:V23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="C37:G38"/>
-    <mergeCell ref="P37:V38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="P39:S39"/>
-    <mergeCell ref="V39:X39"/>
+    <mergeCell ref="P168:V169"/>
+    <mergeCell ref="M170:O170"/>
+    <mergeCell ref="P170:S170"/>
+    <mergeCell ref="V170:X170"/>
+    <mergeCell ref="M155:O155"/>
+    <mergeCell ref="P155:S155"/>
+    <mergeCell ref="V155:X155"/>
+    <mergeCell ref="P198:V199"/>
+    <mergeCell ref="P186:V187"/>
+    <mergeCell ref="M188:O188"/>
+    <mergeCell ref="P188:S188"/>
+    <mergeCell ref="V188:X188"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -10119,7 +10308,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="B3" workbookViewId="0">

--- a/DOC 2023/FORMATO STATUS.xlsx
+++ b/DOC 2023/FORMATO STATUS.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\DOC 2023\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CBFBA1-30E0-4BFC-8671-DC8E72C0DE7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1"/>
+    <workbookView xWindow="510" yWindow="1380" windowWidth="19980" windowHeight="7785" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FEBRERO" sheetId="2" r:id="rId1"/>
     <sheet name="MARZO" sheetId="3" r:id="rId2"/>
     <sheet name="Hoja2" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="114">
   <si>
     <t>DT</t>
   </si>
@@ -361,19 +367,22 @@
     <t>MARTES 16-05-2023</t>
   </si>
   <si>
-    <t>Jueves 18-05-2023</t>
-  </si>
-  <si>
     <t>GLL0927</t>
   </si>
   <si>
     <t xml:space="preserve">ELIZABETH SANDOVAL </t>
+  </si>
+  <si>
+    <t>GBP3078</t>
+  </si>
+  <si>
+    <t>Sábado 27-05-2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
@@ -699,7 +708,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -895,21 +904,6 @@
     </xf>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1233,14 +1227,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:Z124"/>
   <sheetViews>
     <sheetView topLeftCell="J103" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
@@ -1262,72 +1256,72 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C2" s="80" t="s">
+      <c r="C2" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="P2" s="82" t="s">
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="P2" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="82"/>
-      <c r="S2" s="82"/>
-      <c r="T2" s="82"/>
-      <c r="U2" s="82"/>
-      <c r="V2" s="82"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="77"/>
+      <c r="U2" s="77"/>
+      <c r="V2" s="77"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="82"/>
-      <c r="S3" s="82"/>
-      <c r="T3" s="82"/>
-      <c r="U3" s="82"/>
-      <c r="V3" s="82"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="77"/>
+      <c r="T3" s="77"/>
+      <c r="U3" s="77"/>
+      <c r="V3" s="77"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="84" t="s">
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="85">
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="80">
         <v>44965</v>
       </c>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="M4" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="83"/>
-      <c r="O4" s="83"/>
-      <c r="P4" s="84" t="s">
+      <c r="N4" s="78"/>
+      <c r="O4" s="78"/>
+      <c r="P4" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="84"/>
-      <c r="R4" s="84"/>
-      <c r="S4" s="84"/>
+      <c r="Q4" s="79"/>
+      <c r="R4" s="79"/>
+      <c r="S4" s="79"/>
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
-      <c r="V4" s="87">
+      <c r="V4" s="82">
         <v>44601</v>
       </c>
-      <c r="W4" s="88"/>
-      <c r="X4" s="89"/>
+      <c r="W4" s="83"/>
+      <c r="X4" s="84"/>
     </row>
     <row r="5" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -1742,72 +1736,72 @@
       <c r="X15" s="4"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C22" s="80" t="s">
+      <c r="C22" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="80"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="80"/>
-      <c r="P22" s="82" t="s">
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
+      <c r="P22" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="Q22" s="82"/>
-      <c r="R22" s="82"/>
-      <c r="S22" s="82"/>
-      <c r="T22" s="82"/>
-      <c r="U22" s="82"/>
-      <c r="V22" s="82"/>
+      <c r="Q22" s="77"/>
+      <c r="R22" s="77"/>
+      <c r="S22" s="77"/>
+      <c r="T22" s="77"/>
+      <c r="U22" s="77"/>
+      <c r="V22" s="77"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C23" s="81"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="81"/>
-      <c r="P23" s="82"/>
-      <c r="Q23" s="82"/>
-      <c r="R23" s="82"/>
-      <c r="S23" s="82"/>
-      <c r="T23" s="82"/>
-      <c r="U23" s="82"/>
-      <c r="V23" s="82"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
+      <c r="P23" s="77"/>
+      <c r="Q23" s="77"/>
+      <c r="R23" s="77"/>
+      <c r="S23" s="77"/>
+      <c r="T23" s="77"/>
+      <c r="U23" s="77"/>
+      <c r="V23" s="77"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="83" t="s">
+      <c r="A24" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="83"/>
-      <c r="C24" s="83"/>
-      <c r="D24" s="84" t="s">
+      <c r="B24" s="78"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="84"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="84"/>
-      <c r="H24" s="85">
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="80">
         <v>44965</v>
       </c>
-      <c r="I24" s="86"/>
-      <c r="J24" s="86"/>
-      <c r="M24" s="83" t="s">
+      <c r="I24" s="81"/>
+      <c r="J24" s="81"/>
+      <c r="M24" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="N24" s="83"/>
-      <c r="O24" s="83"/>
-      <c r="P24" s="84" t="s">
+      <c r="N24" s="78"/>
+      <c r="O24" s="78"/>
+      <c r="P24" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="Q24" s="84"/>
-      <c r="R24" s="84"/>
-      <c r="S24" s="84"/>
+      <c r="Q24" s="79"/>
+      <c r="R24" s="79"/>
+      <c r="S24" s="79"/>
       <c r="T24" s="18"/>
       <c r="U24" s="18"/>
-      <c r="V24" s="87">
+      <c r="V24" s="82">
         <v>44971</v>
       </c>
-      <c r="W24" s="88"/>
-      <c r="X24" s="89"/>
+      <c r="W24" s="83"/>
+      <c r="X24" s="84"/>
     </row>
     <row r="25" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -2262,72 +2256,72 @@
       <c r="X35" s="4"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C38" s="80" t="s">
+      <c r="C38" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="80"/>
-      <c r="E38" s="80"/>
-      <c r="F38" s="80"/>
-      <c r="G38" s="80"/>
-      <c r="P38" s="82" t="s">
+      <c r="D38" s="75"/>
+      <c r="E38" s="75"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="75"/>
+      <c r="P38" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="Q38" s="82"/>
-      <c r="R38" s="82"/>
-      <c r="S38" s="82"/>
-      <c r="T38" s="82"/>
-      <c r="U38" s="82"/>
-      <c r="V38" s="82"/>
+      <c r="Q38" s="77"/>
+      <c r="R38" s="77"/>
+      <c r="S38" s="77"/>
+      <c r="T38" s="77"/>
+      <c r="U38" s="77"/>
+      <c r="V38" s="77"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C39" s="81"/>
-      <c r="D39" s="81"/>
-      <c r="E39" s="81"/>
-      <c r="F39" s="81"/>
-      <c r="G39" s="81"/>
-      <c r="P39" s="82"/>
-      <c r="Q39" s="82"/>
-      <c r="R39" s="82"/>
-      <c r="S39" s="82"/>
-      <c r="T39" s="82"/>
-      <c r="U39" s="82"/>
-      <c r="V39" s="82"/>
+      <c r="C39" s="76"/>
+      <c r="D39" s="76"/>
+      <c r="E39" s="76"/>
+      <c r="F39" s="76"/>
+      <c r="G39" s="76"/>
+      <c r="P39" s="77"/>
+      <c r="Q39" s="77"/>
+      <c r="R39" s="77"/>
+      <c r="S39" s="77"/>
+      <c r="T39" s="77"/>
+      <c r="U39" s="77"/>
+      <c r="V39" s="77"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A40" s="83" t="s">
+      <c r="A40" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="83"/>
-      <c r="C40" s="83"/>
-      <c r="D40" s="84" t="s">
+      <c r="B40" s="78"/>
+      <c r="C40" s="78"/>
+      <c r="D40" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="E40" s="84"/>
-      <c r="F40" s="84"/>
-      <c r="G40" s="84"/>
-      <c r="H40" s="85">
+      <c r="E40" s="79"/>
+      <c r="F40" s="79"/>
+      <c r="G40" s="79"/>
+      <c r="H40" s="80">
         <v>44972</v>
       </c>
-      <c r="I40" s="86"/>
-      <c r="J40" s="86"/>
-      <c r="M40" s="83" t="s">
+      <c r="I40" s="81"/>
+      <c r="J40" s="81"/>
+      <c r="M40" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="N40" s="83"/>
-      <c r="O40" s="83"/>
-      <c r="P40" s="84" t="s">
+      <c r="N40" s="78"/>
+      <c r="O40" s="78"/>
+      <c r="P40" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="Q40" s="84"/>
-      <c r="R40" s="84"/>
-      <c r="S40" s="84"/>
+      <c r="Q40" s="79"/>
+      <c r="R40" s="79"/>
+      <c r="S40" s="79"/>
       <c r="T40" s="18"/>
       <c r="U40" s="18"/>
-      <c r="V40" s="87">
+      <c r="V40" s="82">
         <v>44973</v>
       </c>
-      <c r="W40" s="88"/>
-      <c r="X40" s="89"/>
+      <c r="W40" s="83"/>
+      <c r="X40" s="84"/>
     </row>
     <row r="41" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
@@ -2742,72 +2736,72 @@
       <c r="X51" s="4"/>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C54" s="80" t="s">
+      <c r="C54" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="D54" s="80"/>
-      <c r="E54" s="80"/>
-      <c r="F54" s="80"/>
-      <c r="G54" s="80"/>
-      <c r="P54" s="82" t="s">
+      <c r="D54" s="75"/>
+      <c r="E54" s="75"/>
+      <c r="F54" s="75"/>
+      <c r="G54" s="75"/>
+      <c r="P54" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="Q54" s="82"/>
-      <c r="R54" s="82"/>
-      <c r="S54" s="82"/>
-      <c r="T54" s="82"/>
-      <c r="U54" s="82"/>
-      <c r="V54" s="82"/>
+      <c r="Q54" s="77"/>
+      <c r="R54" s="77"/>
+      <c r="S54" s="77"/>
+      <c r="T54" s="77"/>
+      <c r="U54" s="77"/>
+      <c r="V54" s="77"/>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C55" s="81"/>
-      <c r="D55" s="81"/>
-      <c r="E55" s="81"/>
-      <c r="F55" s="81"/>
-      <c r="G55" s="81"/>
-      <c r="P55" s="82"/>
-      <c r="Q55" s="82"/>
-      <c r="R55" s="82"/>
-      <c r="S55" s="82"/>
-      <c r="T55" s="82"/>
-      <c r="U55" s="82"/>
-      <c r="V55" s="82"/>
+      <c r="C55" s="76"/>
+      <c r="D55" s="76"/>
+      <c r="E55" s="76"/>
+      <c r="F55" s="76"/>
+      <c r="G55" s="76"/>
+      <c r="P55" s="77"/>
+      <c r="Q55" s="77"/>
+      <c r="R55" s="77"/>
+      <c r="S55" s="77"/>
+      <c r="T55" s="77"/>
+      <c r="U55" s="77"/>
+      <c r="V55" s="77"/>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A56" s="83" t="s">
+      <c r="A56" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="83"/>
-      <c r="C56" s="83"/>
-      <c r="D56" s="84" t="s">
+      <c r="B56" s="78"/>
+      <c r="C56" s="78"/>
+      <c r="D56" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="E56" s="84"/>
-      <c r="F56" s="84"/>
-      <c r="G56" s="84"/>
-      <c r="H56" s="85">
+      <c r="E56" s="79"/>
+      <c r="F56" s="79"/>
+      <c r="G56" s="79"/>
+      <c r="H56" s="80">
         <v>44974</v>
       </c>
-      <c r="I56" s="86"/>
-      <c r="J56" s="86"/>
-      <c r="M56" s="83" t="s">
+      <c r="I56" s="81"/>
+      <c r="J56" s="81"/>
+      <c r="M56" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="N56" s="83"/>
-      <c r="O56" s="83"/>
-      <c r="P56" s="84" t="s">
+      <c r="N56" s="78"/>
+      <c r="O56" s="78"/>
+      <c r="P56" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="Q56" s="84"/>
-      <c r="R56" s="84"/>
-      <c r="S56" s="84"/>
+      <c r="Q56" s="79"/>
+      <c r="R56" s="79"/>
+      <c r="S56" s="79"/>
       <c r="T56" s="18"/>
       <c r="U56" s="18"/>
-      <c r="V56" s="87">
+      <c r="V56" s="82">
         <v>44975</v>
       </c>
-      <c r="W56" s="88"/>
-      <c r="X56" s="89"/>
+      <c r="W56" s="83"/>
+      <c r="X56" s="84"/>
     </row>
     <row r="57" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
@@ -3262,72 +3256,72 @@
       <c r="X67" s="4"/>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C70" s="80" t="s">
+      <c r="C70" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="D70" s="80"/>
-      <c r="E70" s="80"/>
-      <c r="F70" s="80"/>
-      <c r="G70" s="80"/>
-      <c r="P70" s="82" t="s">
+      <c r="D70" s="75"/>
+      <c r="E70" s="75"/>
+      <c r="F70" s="75"/>
+      <c r="G70" s="75"/>
+      <c r="P70" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="Q70" s="82"/>
-      <c r="R70" s="82"/>
-      <c r="S70" s="82"/>
-      <c r="T70" s="82"/>
-      <c r="U70" s="82"/>
-      <c r="V70" s="82"/>
+      <c r="Q70" s="77"/>
+      <c r="R70" s="77"/>
+      <c r="S70" s="77"/>
+      <c r="T70" s="77"/>
+      <c r="U70" s="77"/>
+      <c r="V70" s="77"/>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C71" s="81"/>
-      <c r="D71" s="81"/>
-      <c r="E71" s="81"/>
-      <c r="F71" s="81"/>
-      <c r="G71" s="81"/>
-      <c r="P71" s="82"/>
-      <c r="Q71" s="82"/>
-      <c r="R71" s="82"/>
-      <c r="S71" s="82"/>
-      <c r="T71" s="82"/>
-      <c r="U71" s="82"/>
-      <c r="V71" s="82"/>
+      <c r="C71" s="76"/>
+      <c r="D71" s="76"/>
+      <c r="E71" s="76"/>
+      <c r="F71" s="76"/>
+      <c r="G71" s="76"/>
+      <c r="P71" s="77"/>
+      <c r="Q71" s="77"/>
+      <c r="R71" s="77"/>
+      <c r="S71" s="77"/>
+      <c r="T71" s="77"/>
+      <c r="U71" s="77"/>
+      <c r="V71" s="77"/>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A72" s="83" t="s">
+      <c r="A72" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="B72" s="83"/>
-      <c r="C72" s="83"/>
-      <c r="D72" s="84" t="s">
+      <c r="B72" s="78"/>
+      <c r="C72" s="78"/>
+      <c r="D72" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="E72" s="84"/>
-      <c r="F72" s="84"/>
-      <c r="G72" s="84"/>
-      <c r="H72" s="85">
+      <c r="E72" s="79"/>
+      <c r="F72" s="79"/>
+      <c r="G72" s="79"/>
+      <c r="H72" s="80">
         <v>44979</v>
       </c>
-      <c r="I72" s="86"/>
-      <c r="J72" s="86"/>
-      <c r="M72" s="83" t="s">
+      <c r="I72" s="81"/>
+      <c r="J72" s="81"/>
+      <c r="M72" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="N72" s="83"/>
-      <c r="O72" s="83"/>
-      <c r="P72" s="84" t="s">
+      <c r="N72" s="78"/>
+      <c r="O72" s="78"/>
+      <c r="P72" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="Q72" s="84"/>
-      <c r="R72" s="84"/>
-      <c r="S72" s="84"/>
+      <c r="Q72" s="79"/>
+      <c r="R72" s="79"/>
+      <c r="S72" s="79"/>
       <c r="T72" s="18"/>
       <c r="U72" s="18"/>
-      <c r="V72" s="87">
+      <c r="V72" s="82">
         <v>44980</v>
       </c>
-      <c r="W72" s="88"/>
-      <c r="X72" s="89"/>
+      <c r="W72" s="83"/>
+      <c r="X72" s="84"/>
     </row>
     <row r="73" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
@@ -3698,72 +3692,72 @@
       <c r="X83" s="4"/>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C87" s="80" t="s">
+      <c r="C87" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="D87" s="80"/>
-      <c r="E87" s="80"/>
-      <c r="F87" s="80"/>
-      <c r="G87" s="80"/>
-      <c r="P87" s="82" t="s">
+      <c r="D87" s="75"/>
+      <c r="E87" s="75"/>
+      <c r="F87" s="75"/>
+      <c r="G87" s="75"/>
+      <c r="P87" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="Q87" s="82"/>
-      <c r="R87" s="82"/>
-      <c r="S87" s="82"/>
-      <c r="T87" s="82"/>
-      <c r="U87" s="82"/>
-      <c r="V87" s="82"/>
+      <c r="Q87" s="77"/>
+      <c r="R87" s="77"/>
+      <c r="S87" s="77"/>
+      <c r="T87" s="77"/>
+      <c r="U87" s="77"/>
+      <c r="V87" s="77"/>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C88" s="81"/>
-      <c r="D88" s="81"/>
-      <c r="E88" s="81"/>
-      <c r="F88" s="81"/>
-      <c r="G88" s="81"/>
-      <c r="P88" s="82"/>
-      <c r="Q88" s="82"/>
-      <c r="R88" s="82"/>
-      <c r="S88" s="82"/>
-      <c r="T88" s="82"/>
-      <c r="U88" s="82"/>
-      <c r="V88" s="82"/>
+      <c r="C88" s="76"/>
+      <c r="D88" s="76"/>
+      <c r="E88" s="76"/>
+      <c r="F88" s="76"/>
+      <c r="G88" s="76"/>
+      <c r="P88" s="77"/>
+      <c r="Q88" s="77"/>
+      <c r="R88" s="77"/>
+      <c r="S88" s="77"/>
+      <c r="T88" s="77"/>
+      <c r="U88" s="77"/>
+      <c r="V88" s="77"/>
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A89" s="83" t="s">
+      <c r="A89" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="B89" s="83"/>
-      <c r="C89" s="83"/>
-      <c r="D89" s="84" t="s">
+      <c r="B89" s="78"/>
+      <c r="C89" s="78"/>
+      <c r="D89" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="E89" s="84"/>
-      <c r="F89" s="84"/>
-      <c r="G89" s="84"/>
-      <c r="H89" s="85">
+      <c r="E89" s="79"/>
+      <c r="F89" s="79"/>
+      <c r="G89" s="79"/>
+      <c r="H89" s="80">
         <v>44981</v>
       </c>
-      <c r="I89" s="86"/>
-      <c r="J89" s="86"/>
-      <c r="M89" s="83" t="s">
+      <c r="I89" s="81"/>
+      <c r="J89" s="81"/>
+      <c r="M89" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="N89" s="83"/>
-      <c r="O89" s="83"/>
-      <c r="P89" s="84" t="s">
+      <c r="N89" s="78"/>
+      <c r="O89" s="78"/>
+      <c r="P89" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="Q89" s="84"/>
-      <c r="R89" s="84"/>
-      <c r="S89" s="84"/>
+      <c r="Q89" s="79"/>
+      <c r="R89" s="79"/>
+      <c r="S89" s="79"/>
       <c r="T89" s="18"/>
       <c r="U89" s="18"/>
-      <c r="V89" s="87">
+      <c r="V89" s="82">
         <v>44980</v>
       </c>
-      <c r="W89" s="88"/>
-      <c r="X89" s="89"/>
+      <c r="W89" s="83"/>
+      <c r="X89" s="84"/>
     </row>
     <row r="90" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
@@ -4218,72 +4212,72 @@
       <c r="X100" s="4"/>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C104" s="80" t="s">
+      <c r="C104" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="D104" s="80"/>
-      <c r="E104" s="80"/>
-      <c r="F104" s="80"/>
-      <c r="G104" s="80"/>
-      <c r="P104" s="82" t="s">
+      <c r="D104" s="75"/>
+      <c r="E104" s="75"/>
+      <c r="F104" s="75"/>
+      <c r="G104" s="75"/>
+      <c r="P104" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="Q104" s="82"/>
-      <c r="R104" s="82"/>
-      <c r="S104" s="82"/>
-      <c r="T104" s="82"/>
-      <c r="U104" s="82"/>
-      <c r="V104" s="82"/>
+      <c r="Q104" s="77"/>
+      <c r="R104" s="77"/>
+      <c r="S104" s="77"/>
+      <c r="T104" s="77"/>
+      <c r="U104" s="77"/>
+      <c r="V104" s="77"/>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C105" s="81"/>
-      <c r="D105" s="81"/>
-      <c r="E105" s="81"/>
-      <c r="F105" s="81"/>
-      <c r="G105" s="81"/>
-      <c r="P105" s="82"/>
-      <c r="Q105" s="82"/>
-      <c r="R105" s="82"/>
-      <c r="S105" s="82"/>
-      <c r="T105" s="82"/>
-      <c r="U105" s="82"/>
-      <c r="V105" s="82"/>
+      <c r="C105" s="76"/>
+      <c r="D105" s="76"/>
+      <c r="E105" s="76"/>
+      <c r="F105" s="76"/>
+      <c r="G105" s="76"/>
+      <c r="P105" s="77"/>
+      <c r="Q105" s="77"/>
+      <c r="R105" s="77"/>
+      <c r="S105" s="77"/>
+      <c r="T105" s="77"/>
+      <c r="U105" s="77"/>
+      <c r="V105" s="77"/>
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A106" s="83" t="s">
+      <c r="A106" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="B106" s="83"/>
-      <c r="C106" s="83"/>
-      <c r="D106" s="84" t="s">
+      <c r="B106" s="78"/>
+      <c r="C106" s="78"/>
+      <c r="D106" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="E106" s="84"/>
-      <c r="F106" s="84"/>
-      <c r="G106" s="84"/>
-      <c r="H106" s="85">
+      <c r="E106" s="79"/>
+      <c r="F106" s="79"/>
+      <c r="G106" s="79"/>
+      <c r="H106" s="80">
         <v>44979</v>
       </c>
-      <c r="I106" s="86"/>
-      <c r="J106" s="86"/>
-      <c r="M106" s="83" t="s">
+      <c r="I106" s="81"/>
+      <c r="J106" s="81"/>
+      <c r="M106" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="N106" s="83"/>
-      <c r="O106" s="83"/>
-      <c r="P106" s="84" t="s">
+      <c r="N106" s="78"/>
+      <c r="O106" s="78"/>
+      <c r="P106" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="Q106" s="84"/>
-      <c r="R106" s="84"/>
-      <c r="S106" s="84"/>
+      <c r="Q106" s="79"/>
+      <c r="R106" s="79"/>
+      <c r="S106" s="79"/>
       <c r="T106" s="18"/>
       <c r="U106" s="18"/>
-      <c r="V106" s="87" t="s">
+      <c r="V106" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="W106" s="88"/>
-      <c r="X106" s="89"/>
+      <c r="W106" s="83"/>
+      <c r="X106" s="84"/>
     </row>
     <row r="107" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
@@ -4844,11 +4838,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Z215"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A2:Z225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L205" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O217" sqref="O217"/>
+    <sheetView tabSelected="1" topLeftCell="L212" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y217" sqref="Y217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4868,72 +4862,72 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C2" s="80" t="s">
+      <c r="C2" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="P2" s="82" t="s">
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="P2" s="77" t="s">
         <v>76</v>
       </c>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="82"/>
-      <c r="S2" s="82"/>
-      <c r="T2" s="82"/>
-      <c r="U2" s="82"/>
-      <c r="V2" s="82"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="77"/>
+      <c r="U2" s="77"/>
+      <c r="V2" s="77"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="82"/>
-      <c r="S3" s="82"/>
-      <c r="T3" s="82"/>
-      <c r="U3" s="82"/>
-      <c r="V3" s="82"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="77"/>
+      <c r="T3" s="77"/>
+      <c r="U3" s="77"/>
+      <c r="V3" s="77"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="84" t="s">
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="85" t="s">
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="M4" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="83"/>
-      <c r="O4" s="83"/>
-      <c r="P4" s="84" t="s">
+      <c r="N4" s="78"/>
+      <c r="O4" s="78"/>
+      <c r="P4" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="84"/>
-      <c r="R4" s="84"/>
-      <c r="S4" s="84"/>
+      <c r="Q4" s="79"/>
+      <c r="R4" s="79"/>
+      <c r="S4" s="79"/>
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
-      <c r="V4" s="87">
+      <c r="V4" s="82">
         <v>44601</v>
       </c>
-      <c r="W4" s="88"/>
-      <c r="X4" s="89"/>
+      <c r="W4" s="83"/>
+      <c r="X4" s="84"/>
     </row>
     <row r="5" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -5400,72 +5394,72 @@
       <c r="X15" s="4"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C22" s="80" t="s">
+      <c r="C22" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="D22" s="80"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="80"/>
-      <c r="P22" s="82" t="s">
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
+      <c r="P22" s="77" t="s">
         <v>77</v>
       </c>
-      <c r="Q22" s="82"/>
-      <c r="R22" s="82"/>
-      <c r="S22" s="82"/>
-      <c r="T22" s="82"/>
-      <c r="U22" s="82"/>
-      <c r="V22" s="82"/>
+      <c r="Q22" s="77"/>
+      <c r="R22" s="77"/>
+      <c r="S22" s="77"/>
+      <c r="T22" s="77"/>
+      <c r="U22" s="77"/>
+      <c r="V22" s="77"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C23" s="81"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="81"/>
-      <c r="P23" s="82"/>
-      <c r="Q23" s="82"/>
-      <c r="R23" s="82"/>
-      <c r="S23" s="82"/>
-      <c r="T23" s="82"/>
-      <c r="U23" s="82"/>
-      <c r="V23" s="82"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
+      <c r="P23" s="77"/>
+      <c r="Q23" s="77"/>
+      <c r="R23" s="77"/>
+      <c r="S23" s="77"/>
+      <c r="T23" s="77"/>
+      <c r="U23" s="77"/>
+      <c r="V23" s="77"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="83" t="s">
+      <c r="A24" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="83"/>
-      <c r="C24" s="83"/>
-      <c r="D24" s="84" t="s">
+      <c r="B24" s="78"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="84"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="84"/>
-      <c r="H24" s="85">
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="80">
         <v>44993</v>
       </c>
-      <c r="I24" s="86"/>
-      <c r="J24" s="86"/>
-      <c r="M24" s="83" t="s">
+      <c r="I24" s="81"/>
+      <c r="J24" s="81"/>
+      <c r="M24" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="N24" s="83"/>
-      <c r="O24" s="83"/>
-      <c r="P24" s="84" t="s">
+      <c r="N24" s="78"/>
+      <c r="O24" s="78"/>
+      <c r="P24" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="Q24" s="84"/>
-      <c r="R24" s="84"/>
-      <c r="S24" s="84"/>
+      <c r="Q24" s="79"/>
+      <c r="R24" s="79"/>
+      <c r="S24" s="79"/>
       <c r="T24" s="18"/>
       <c r="U24" s="18"/>
-      <c r="V24" s="87">
+      <c r="V24" s="82">
         <v>44993</v>
       </c>
-      <c r="W24" s="88"/>
-      <c r="X24" s="89"/>
+      <c r="W24" s="83"/>
+      <c r="X24" s="84"/>
     </row>
     <row r="25" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -5895,72 +5889,72 @@
       <c r="X34" s="4"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C37" s="80" t="s">
+      <c r="C37" s="75" t="s">
         <v>84</v>
       </c>
-      <c r="D37" s="80"/>
-      <c r="E37" s="80"/>
-      <c r="F37" s="80"/>
-      <c r="G37" s="80"/>
-      <c r="P37" s="82" t="s">
+      <c r="D37" s="75"/>
+      <c r="E37" s="75"/>
+      <c r="F37" s="75"/>
+      <c r="G37" s="75"/>
+      <c r="P37" s="77" t="s">
         <v>81</v>
       </c>
-      <c r="Q37" s="82"/>
-      <c r="R37" s="82"/>
-      <c r="S37" s="82"/>
-      <c r="T37" s="82"/>
-      <c r="U37" s="82"/>
-      <c r="V37" s="82"/>
+      <c r="Q37" s="77"/>
+      <c r="R37" s="77"/>
+      <c r="S37" s="77"/>
+      <c r="T37" s="77"/>
+      <c r="U37" s="77"/>
+      <c r="V37" s="77"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C38" s="81"/>
-      <c r="D38" s="81"/>
-      <c r="E38" s="81"/>
-      <c r="F38" s="81"/>
-      <c r="G38" s="81"/>
-      <c r="P38" s="82"/>
-      <c r="Q38" s="82"/>
-      <c r="R38" s="82"/>
-      <c r="S38" s="82"/>
-      <c r="T38" s="82"/>
-      <c r="U38" s="82"/>
-      <c r="V38" s="82"/>
+      <c r="C38" s="76"/>
+      <c r="D38" s="76"/>
+      <c r="E38" s="76"/>
+      <c r="F38" s="76"/>
+      <c r="G38" s="76"/>
+      <c r="P38" s="77"/>
+      <c r="Q38" s="77"/>
+      <c r="R38" s="77"/>
+      <c r="S38" s="77"/>
+      <c r="T38" s="77"/>
+      <c r="U38" s="77"/>
+      <c r="V38" s="77"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A39" s="83" t="s">
+      <c r="A39" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="83"/>
-      <c r="C39" s="83"/>
-      <c r="D39" s="84" t="s">
+      <c r="B39" s="78"/>
+      <c r="C39" s="78"/>
+      <c r="D39" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="84"/>
-      <c r="F39" s="84"/>
-      <c r="G39" s="84"/>
-      <c r="H39" s="85">
+      <c r="E39" s="79"/>
+      <c r="F39" s="79"/>
+      <c r="G39" s="79"/>
+      <c r="H39" s="80">
         <v>44972</v>
       </c>
-      <c r="I39" s="86"/>
-      <c r="J39" s="86"/>
-      <c r="M39" s="83" t="s">
+      <c r="I39" s="81"/>
+      <c r="J39" s="81"/>
+      <c r="M39" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="N39" s="83"/>
-      <c r="O39" s="83"/>
-      <c r="P39" s="84" t="s">
+      <c r="N39" s="78"/>
+      <c r="O39" s="78"/>
+      <c r="P39" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="Q39" s="84"/>
-      <c r="R39" s="84"/>
-      <c r="S39" s="84"/>
+      <c r="Q39" s="79"/>
+      <c r="R39" s="79"/>
+      <c r="S39" s="79"/>
       <c r="T39" s="18"/>
       <c r="U39" s="18"/>
-      <c r="V39" s="87">
+      <c r="V39" s="82">
         <v>44994</v>
       </c>
-      <c r="W39" s="88"/>
-      <c r="X39" s="89"/>
+      <c r="W39" s="83"/>
+      <c r="X39" s="84"/>
     </row>
     <row r="40" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
@@ -6371,72 +6365,72 @@
       <c r="X50" s="4"/>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C53" s="80">
+      <c r="C53" s="75">
         <v>45005</v>
       </c>
-      <c r="D53" s="80"/>
-      <c r="E53" s="80"/>
-      <c r="F53" s="80"/>
-      <c r="G53" s="80"/>
-      <c r="P53" s="80">
+      <c r="D53" s="75"/>
+      <c r="E53" s="75"/>
+      <c r="F53" s="75"/>
+      <c r="G53" s="75"/>
+      <c r="P53" s="75">
         <v>45006</v>
       </c>
-      <c r="Q53" s="80"/>
-      <c r="R53" s="80"/>
-      <c r="S53" s="80"/>
-      <c r="T53" s="80"/>
-      <c r="U53" s="80"/>
-      <c r="V53" s="80"/>
+      <c r="Q53" s="75"/>
+      <c r="R53" s="75"/>
+      <c r="S53" s="75"/>
+      <c r="T53" s="75"/>
+      <c r="U53" s="75"/>
+      <c r="V53" s="75"/>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C54" s="81"/>
-      <c r="D54" s="81"/>
-      <c r="E54" s="81"/>
-      <c r="F54" s="81"/>
-      <c r="G54" s="81"/>
-      <c r="P54" s="80"/>
-      <c r="Q54" s="80"/>
-      <c r="R54" s="80"/>
-      <c r="S54" s="80"/>
-      <c r="T54" s="80"/>
-      <c r="U54" s="80"/>
-      <c r="V54" s="80"/>
+      <c r="C54" s="76"/>
+      <c r="D54" s="76"/>
+      <c r="E54" s="76"/>
+      <c r="F54" s="76"/>
+      <c r="G54" s="76"/>
+      <c r="P54" s="75"/>
+      <c r="Q54" s="75"/>
+      <c r="R54" s="75"/>
+      <c r="S54" s="75"/>
+      <c r="T54" s="75"/>
+      <c r="U54" s="75"/>
+      <c r="V54" s="75"/>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A55" s="83" t="s">
+      <c r="A55" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="83"/>
-      <c r="C55" s="83"/>
-      <c r="D55" s="84" t="s">
+      <c r="B55" s="78"/>
+      <c r="C55" s="78"/>
+      <c r="D55" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="E55" s="84"/>
-      <c r="F55" s="84"/>
-      <c r="G55" s="84"/>
-      <c r="H55" s="85">
+      <c r="E55" s="79"/>
+      <c r="F55" s="79"/>
+      <c r="G55" s="79"/>
+      <c r="H55" s="80">
         <v>45005</v>
       </c>
-      <c r="I55" s="86"/>
-      <c r="J55" s="86"/>
-      <c r="M55" s="83" t="s">
+      <c r="I55" s="81"/>
+      <c r="J55" s="81"/>
+      <c r="M55" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="N55" s="83"/>
-      <c r="O55" s="83"/>
-      <c r="P55" s="84" t="s">
+      <c r="N55" s="78"/>
+      <c r="O55" s="78"/>
+      <c r="P55" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="Q55" s="84"/>
-      <c r="R55" s="84"/>
-      <c r="S55" s="84"/>
+      <c r="Q55" s="79"/>
+      <c r="R55" s="79"/>
+      <c r="S55" s="79"/>
       <c r="T55" s="18"/>
       <c r="U55" s="18"/>
-      <c r="V55" s="87">
+      <c r="V55" s="82">
         <v>45006</v>
       </c>
-      <c r="W55" s="88"/>
-      <c r="X55" s="89"/>
+      <c r="W55" s="83"/>
+      <c r="X55" s="84"/>
     </row>
     <row r="56" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
@@ -6835,72 +6829,72 @@
       <c r="X66" s="4"/>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C69" s="80" t="s">
+      <c r="C69" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="D69" s="80"/>
-      <c r="E69" s="80"/>
-      <c r="F69" s="80"/>
-      <c r="G69" s="80"/>
-      <c r="P69" s="82" t="s">
+      <c r="D69" s="75"/>
+      <c r="E69" s="75"/>
+      <c r="F69" s="75"/>
+      <c r="G69" s="75"/>
+      <c r="P69" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="Q69" s="82"/>
-      <c r="R69" s="82"/>
-      <c r="S69" s="82"/>
-      <c r="T69" s="82"/>
-      <c r="U69" s="82"/>
-      <c r="V69" s="82"/>
+      <c r="Q69" s="77"/>
+      <c r="R69" s="77"/>
+      <c r="S69" s="77"/>
+      <c r="T69" s="77"/>
+      <c r="U69" s="77"/>
+      <c r="V69" s="77"/>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C70" s="81"/>
-      <c r="D70" s="81"/>
-      <c r="E70" s="81"/>
-      <c r="F70" s="81"/>
-      <c r="G70" s="81"/>
-      <c r="P70" s="82"/>
-      <c r="Q70" s="82"/>
-      <c r="R70" s="82"/>
-      <c r="S70" s="82"/>
-      <c r="T70" s="82"/>
-      <c r="U70" s="82"/>
-      <c r="V70" s="82"/>
+      <c r="C70" s="76"/>
+      <c r="D70" s="76"/>
+      <c r="E70" s="76"/>
+      <c r="F70" s="76"/>
+      <c r="G70" s="76"/>
+      <c r="P70" s="77"/>
+      <c r="Q70" s="77"/>
+      <c r="R70" s="77"/>
+      <c r="S70" s="77"/>
+      <c r="T70" s="77"/>
+      <c r="U70" s="77"/>
+      <c r="V70" s="77"/>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A71" s="83" t="s">
+      <c r="A71" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="B71" s="83"/>
-      <c r="C71" s="83"/>
-      <c r="D71" s="84" t="s">
+      <c r="B71" s="78"/>
+      <c r="C71" s="78"/>
+      <c r="D71" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="E71" s="84"/>
-      <c r="F71" s="84"/>
-      <c r="G71" s="84"/>
-      <c r="H71" s="85">
+      <c r="E71" s="79"/>
+      <c r="F71" s="79"/>
+      <c r="G71" s="79"/>
+      <c r="H71" s="80">
         <v>44979</v>
       </c>
-      <c r="I71" s="86"/>
-      <c r="J71" s="86"/>
-      <c r="M71" s="83" t="s">
+      <c r="I71" s="81"/>
+      <c r="J71" s="81"/>
+      <c r="M71" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="N71" s="83"/>
-      <c r="O71" s="83"/>
-      <c r="P71" s="84" t="s">
+      <c r="N71" s="78"/>
+      <c r="O71" s="78"/>
+      <c r="P71" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="Q71" s="84"/>
-      <c r="R71" s="84"/>
-      <c r="S71" s="84"/>
+      <c r="Q71" s="79"/>
+      <c r="R71" s="79"/>
+      <c r="S71" s="79"/>
       <c r="T71" s="18"/>
       <c r="U71" s="18"/>
-      <c r="V71" s="87">
+      <c r="V71" s="82">
         <v>44980</v>
       </c>
-      <c r="W71" s="88"/>
-      <c r="X71" s="89"/>
+      <c r="W71" s="83"/>
+      <c r="X71" s="84"/>
     </row>
     <row r="72" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
@@ -7303,72 +7297,72 @@
       <c r="X82" s="4"/>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C86" s="80" t="s">
+      <c r="C86" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="D86" s="80"/>
-      <c r="E86" s="80"/>
-      <c r="F86" s="80"/>
-      <c r="G86" s="80"/>
-      <c r="P86" s="82" t="s">
+      <c r="D86" s="75"/>
+      <c r="E86" s="75"/>
+      <c r="F86" s="75"/>
+      <c r="G86" s="75"/>
+      <c r="P86" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="Q86" s="82"/>
-      <c r="R86" s="82"/>
-      <c r="S86" s="82"/>
-      <c r="T86" s="82"/>
-      <c r="U86" s="82"/>
-      <c r="V86" s="82"/>
+      <c r="Q86" s="77"/>
+      <c r="R86" s="77"/>
+      <c r="S86" s="77"/>
+      <c r="T86" s="77"/>
+      <c r="U86" s="77"/>
+      <c r="V86" s="77"/>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C87" s="81"/>
-      <c r="D87" s="81"/>
-      <c r="E87" s="81"/>
-      <c r="F87" s="81"/>
-      <c r="G87" s="81"/>
-      <c r="P87" s="82"/>
-      <c r="Q87" s="82"/>
-      <c r="R87" s="82"/>
-      <c r="S87" s="82"/>
-      <c r="T87" s="82"/>
-      <c r="U87" s="82"/>
-      <c r="V87" s="82"/>
+      <c r="C87" s="76"/>
+      <c r="D87" s="76"/>
+      <c r="E87" s="76"/>
+      <c r="F87" s="76"/>
+      <c r="G87" s="76"/>
+      <c r="P87" s="77"/>
+      <c r="Q87" s="77"/>
+      <c r="R87" s="77"/>
+      <c r="S87" s="77"/>
+      <c r="T87" s="77"/>
+      <c r="U87" s="77"/>
+      <c r="V87" s="77"/>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A88" s="83" t="s">
+      <c r="A88" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="B88" s="83"/>
-      <c r="C88" s="83"/>
-      <c r="D88" s="84" t="s">
+      <c r="B88" s="78"/>
+      <c r="C88" s="78"/>
+      <c r="D88" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="E88" s="84"/>
-      <c r="F88" s="84"/>
-      <c r="G88" s="84"/>
-      <c r="H88" s="85">
+      <c r="E88" s="79"/>
+      <c r="F88" s="79"/>
+      <c r="G88" s="79"/>
+      <c r="H88" s="80">
         <v>44981</v>
       </c>
-      <c r="I88" s="86"/>
-      <c r="J88" s="86"/>
-      <c r="M88" s="83" t="s">
+      <c r="I88" s="81"/>
+      <c r="J88" s="81"/>
+      <c r="M88" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="N88" s="83"/>
-      <c r="O88" s="83"/>
-      <c r="P88" s="84" t="s">
+      <c r="N88" s="78"/>
+      <c r="O88" s="78"/>
+      <c r="P88" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="Q88" s="84"/>
-      <c r="R88" s="84"/>
-      <c r="S88" s="84"/>
+      <c r="Q88" s="79"/>
+      <c r="R88" s="79"/>
+      <c r="S88" s="79"/>
       <c r="T88" s="18"/>
       <c r="U88" s="18"/>
-      <c r="V88" s="87">
+      <c r="V88" s="82">
         <v>44980</v>
       </c>
-      <c r="W88" s="88"/>
-      <c r="X88" s="89"/>
+      <c r="W88" s="83"/>
+      <c r="X88" s="84"/>
     </row>
     <row r="89" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
@@ -7703,73 +7697,73 @@
       <c r="X99" s="4"/>
     </row>
     <row r="103" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C103" s="80" t="s">
+      <c r="C103" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="D103" s="80"/>
-      <c r="E103" s="80"/>
-      <c r="F103" s="80"/>
-      <c r="G103" s="80"/>
-      <c r="P103" s="82" t="s">
+      <c r="D103" s="75"/>
+      <c r="E103" s="75"/>
+      <c r="F103" s="75"/>
+      <c r="G103" s="75"/>
+      <c r="P103" s="77" t="s">
         <v>90</v>
       </c>
-      <c r="Q103" s="82"/>
-      <c r="R103" s="82"/>
-      <c r="S103" s="82"/>
-      <c r="T103" s="82"/>
-      <c r="U103" s="82"/>
-      <c r="V103" s="82"/>
+      <c r="Q103" s="77"/>
+      <c r="R103" s="77"/>
+      <c r="S103" s="77"/>
+      <c r="T103" s="77"/>
+      <c r="U103" s="77"/>
+      <c r="V103" s="77"/>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C104" s="81"/>
-      <c r="D104" s="81"/>
-      <c r="E104" s="81"/>
-      <c r="F104" s="81"/>
-      <c r="G104" s="81"/>
-      <c r="P104" s="82"/>
-      <c r="Q104" s="82"/>
-      <c r="R104" s="82"/>
-      <c r="S104" s="82"/>
-      <c r="T104" s="82"/>
-      <c r="U104" s="82"/>
-      <c r="V104" s="82"/>
+      <c r="C104" s="76"/>
+      <c r="D104" s="76"/>
+      <c r="E104" s="76"/>
+      <c r="F104" s="76"/>
+      <c r="G104" s="76"/>
+      <c r="P104" s="77"/>
+      <c r="Q104" s="77"/>
+      <c r="R104" s="77"/>
+      <c r="S104" s="77"/>
+      <c r="T104" s="77"/>
+      <c r="U104" s="77"/>
+      <c r="V104" s="77"/>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A105" s="83" t="s">
+      <c r="A105" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="B105" s="83"/>
-      <c r="C105" s="83"/>
-      <c r="D105" s="84" t="s">
+      <c r="B105" s="78"/>
+      <c r="C105" s="78"/>
+      <c r="D105" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="E105" s="84"/>
-      <c r="F105" s="84"/>
-      <c r="G105" s="84"/>
-      <c r="H105" s="85">
+      <c r="E105" s="79"/>
+      <c r="F105" s="79"/>
+      <c r="G105" s="79"/>
+      <c r="H105" s="80">
         <v>44979</v>
       </c>
-      <c r="I105" s="86"/>
-      <c r="J105" s="86"/>
-      <c r="M105" s="83" t="s">
+      <c r="I105" s="81"/>
+      <c r="J105" s="81"/>
+      <c r="M105" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="N105" s="83"/>
-      <c r="O105" s="83"/>
-      <c r="P105" s="84" t="s">
+      <c r="N105" s="78"/>
+      <c r="O105" s="78"/>
+      <c r="P105" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="Q105" s="84"/>
-      <c r="R105" s="84"/>
-      <c r="S105" s="84"/>
+      <c r="Q105" s="79"/>
+      <c r="R105" s="79"/>
+      <c r="S105" s="79"/>
       <c r="T105" s="18"/>
       <c r="U105" s="18"/>
-      <c r="V105" s="87" t="e">
+      <c r="V105" s="82" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W105" s="88"/>
-      <c r="X105" s="89"/>
+      <c r="W105" s="83"/>
+      <c r="X105" s="84"/>
     </row>
     <row r="106" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
@@ -8220,73 +8214,73 @@
       <c r="X116" s="4"/>
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C121" s="80" t="s">
+      <c r="C121" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="D121" s="80"/>
-      <c r="E121" s="80"/>
-      <c r="F121" s="80"/>
-      <c r="G121" s="80"/>
-      <c r="P121" s="82" t="s">
+      <c r="D121" s="75"/>
+      <c r="E121" s="75"/>
+      <c r="F121" s="75"/>
+      <c r="G121" s="75"/>
+      <c r="P121" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="Q121" s="82"/>
-      <c r="R121" s="82"/>
-      <c r="S121" s="82"/>
-      <c r="T121" s="82"/>
-      <c r="U121" s="82"/>
-      <c r="V121" s="82"/>
+      <c r="Q121" s="77"/>
+      <c r="R121" s="77"/>
+      <c r="S121" s="77"/>
+      <c r="T121" s="77"/>
+      <c r="U121" s="77"/>
+      <c r="V121" s="77"/>
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C122" s="81"/>
-      <c r="D122" s="81"/>
-      <c r="E122" s="81"/>
-      <c r="F122" s="81"/>
-      <c r="G122" s="81"/>
-      <c r="P122" s="82"/>
-      <c r="Q122" s="82"/>
-      <c r="R122" s="82"/>
-      <c r="S122" s="82"/>
-      <c r="T122" s="82"/>
-      <c r="U122" s="82"/>
-      <c r="V122" s="82"/>
+      <c r="C122" s="76"/>
+      <c r="D122" s="76"/>
+      <c r="E122" s="76"/>
+      <c r="F122" s="76"/>
+      <c r="G122" s="76"/>
+      <c r="P122" s="77"/>
+      <c r="Q122" s="77"/>
+      <c r="R122" s="77"/>
+      <c r="S122" s="77"/>
+      <c r="T122" s="77"/>
+      <c r="U122" s="77"/>
+      <c r="V122" s="77"/>
     </row>
     <row r="123" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="83" t="s">
+      <c r="A123" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="B123" s="83"/>
-      <c r="C123" s="83"/>
-      <c r="D123" s="84" t="s">
+      <c r="B123" s="78"/>
+      <c r="C123" s="78"/>
+      <c r="D123" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="E123" s="84"/>
-      <c r="F123" s="84"/>
-      <c r="G123" s="84"/>
-      <c r="H123" s="85">
+      <c r="E123" s="79"/>
+      <c r="F123" s="79"/>
+      <c r="G123" s="79"/>
+      <c r="H123" s="80">
         <v>44979</v>
       </c>
-      <c r="I123" s="86"/>
-      <c r="J123" s="86"/>
-      <c r="M123" s="83" t="s">
+      <c r="I123" s="81"/>
+      <c r="J123" s="81"/>
+      <c r="M123" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="N123" s="83"/>
-      <c r="O123" s="83"/>
-      <c r="P123" s="84" t="s">
+      <c r="N123" s="78"/>
+      <c r="O123" s="78"/>
+      <c r="P123" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="Q123" s="84"/>
-      <c r="R123" s="84"/>
-      <c r="S123" s="84"/>
+      <c r="Q123" s="79"/>
+      <c r="R123" s="79"/>
+      <c r="S123" s="79"/>
       <c r="T123" s="18"/>
       <c r="U123" s="18"/>
-      <c r="V123" s="87" t="e">
+      <c r="V123" s="82" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W123" s="88"/>
-      <c r="X123" s="89"/>
+      <c r="W123" s="83"/>
+      <c r="X123" s="84"/>
     </row>
     <row r="124" spans="1:26" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
@@ -8801,45 +8795,45 @@
       <c r="X134" s="4"/>
     </row>
     <row r="138" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="P138" s="82" t="s">
+      <c r="P138" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="Q138" s="82"/>
-      <c r="R138" s="82"/>
-      <c r="S138" s="82"/>
-      <c r="T138" s="82"/>
-      <c r="U138" s="82"/>
-      <c r="V138" s="82"/>
+      <c r="Q138" s="77"/>
+      <c r="R138" s="77"/>
+      <c r="S138" s="77"/>
+      <c r="T138" s="77"/>
+      <c r="U138" s="77"/>
+      <c r="V138" s="77"/>
     </row>
     <row r="139" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="P139" s="82"/>
-      <c r="Q139" s="82"/>
-      <c r="R139" s="82"/>
-      <c r="S139" s="82"/>
-      <c r="T139" s="82"/>
-      <c r="U139" s="82"/>
-      <c r="V139" s="82"/>
+      <c r="P139" s="77"/>
+      <c r="Q139" s="77"/>
+      <c r="R139" s="77"/>
+      <c r="S139" s="77"/>
+      <c r="T139" s="77"/>
+      <c r="U139" s="77"/>
+      <c r="V139" s="77"/>
     </row>
     <row r="140" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="M140" s="83" t="s">
+      <c r="M140" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="N140" s="83"/>
-      <c r="O140" s="83"/>
-      <c r="P140" s="84" t="s">
+      <c r="N140" s="78"/>
+      <c r="O140" s="78"/>
+      <c r="P140" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="Q140" s="84"/>
-      <c r="R140" s="84"/>
-      <c r="S140" s="84"/>
+      <c r="Q140" s="79"/>
+      <c r="R140" s="79"/>
+      <c r="S140" s="79"/>
       <c r="T140" s="18"/>
       <c r="U140" s="18"/>
-      <c r="V140" s="87" t="e">
+      <c r="V140" s="82" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W140" s="88"/>
-      <c r="X140" s="89"/>
+      <c r="W140" s="83"/>
+      <c r="X140" s="84"/>
     </row>
     <row r="141" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M141" s="6" t="s">
@@ -9104,45 +9098,45 @@
       <c r="S152" s="64"/>
     </row>
     <row r="153" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P153" s="82" t="s">
+      <c r="P153" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="Q153" s="82"/>
-      <c r="R153" s="82"/>
-      <c r="S153" s="82"/>
-      <c r="T153" s="82"/>
-      <c r="U153" s="82"/>
-      <c r="V153" s="82"/>
+      <c r="Q153" s="77"/>
+      <c r="R153" s="77"/>
+      <c r="S153" s="77"/>
+      <c r="T153" s="77"/>
+      <c r="U153" s="77"/>
+      <c r="V153" s="77"/>
     </row>
     <row r="154" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P154" s="82"/>
-      <c r="Q154" s="82"/>
-      <c r="R154" s="82"/>
-      <c r="S154" s="82"/>
-      <c r="T154" s="82"/>
-      <c r="U154" s="82"/>
-      <c r="V154" s="82"/>
+      <c r="P154" s="77"/>
+      <c r="Q154" s="77"/>
+      <c r="R154" s="77"/>
+      <c r="S154" s="77"/>
+      <c r="T154" s="77"/>
+      <c r="U154" s="77"/>
+      <c r="V154" s="77"/>
     </row>
     <row r="155" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M155" s="83" t="s">
+      <c r="M155" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="N155" s="83"/>
-      <c r="O155" s="83"/>
-      <c r="P155" s="84" t="s">
+      <c r="N155" s="78"/>
+      <c r="O155" s="78"/>
+      <c r="P155" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="Q155" s="84"/>
-      <c r="R155" s="84"/>
-      <c r="S155" s="84"/>
+      <c r="Q155" s="79"/>
+      <c r="R155" s="79"/>
+      <c r="S155" s="79"/>
       <c r="T155" s="18"/>
       <c r="U155" s="18"/>
-      <c r="V155" s="87" t="e">
+      <c r="V155" s="82" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W155" s="88"/>
-      <c r="X155" s="89"/>
+      <c r="W155" s="83"/>
+      <c r="X155" s="84"/>
     </row>
     <row r="156" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M156" s="6" t="s">
@@ -9406,45 +9400,45 @@
       <c r="X166" s="4"/>
     </row>
     <row r="168" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P168" s="82" t="s">
+      <c r="P168" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="Q168" s="82"/>
-      <c r="R168" s="82"/>
-      <c r="S168" s="82"/>
-      <c r="T168" s="82"/>
-      <c r="U168" s="82"/>
-      <c r="V168" s="82"/>
+      <c r="Q168" s="77"/>
+      <c r="R168" s="77"/>
+      <c r="S168" s="77"/>
+      <c r="T168" s="77"/>
+      <c r="U168" s="77"/>
+      <c r="V168" s="77"/>
     </row>
     <row r="169" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P169" s="82"/>
-      <c r="Q169" s="82"/>
-      <c r="R169" s="82"/>
-      <c r="S169" s="82"/>
-      <c r="T169" s="82"/>
-      <c r="U169" s="82"/>
-      <c r="V169" s="82"/>
+      <c r="P169" s="77"/>
+      <c r="Q169" s="77"/>
+      <c r="R169" s="77"/>
+      <c r="S169" s="77"/>
+      <c r="T169" s="77"/>
+      <c r="U169" s="77"/>
+      <c r="V169" s="77"/>
     </row>
     <row r="170" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M170" s="83" t="s">
+      <c r="M170" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="N170" s="83"/>
-      <c r="O170" s="83"/>
-      <c r="P170" s="84" t="s">
+      <c r="N170" s="78"/>
+      <c r="O170" s="78"/>
+      <c r="P170" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="Q170" s="84"/>
-      <c r="R170" s="84"/>
-      <c r="S170" s="84"/>
+      <c r="Q170" s="79"/>
+      <c r="R170" s="79"/>
+      <c r="S170" s="79"/>
       <c r="T170" s="18"/>
       <c r="U170" s="18"/>
-      <c r="V170" s="87" t="e">
+      <c r="V170" s="82" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W170" s="88"/>
-      <c r="X170" s="89"/>
+      <c r="W170" s="83"/>
+      <c r="X170" s="84"/>
     </row>
     <row r="171" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M171" s="6" t="s">
@@ -9649,45 +9643,45 @@
       <c r="X181" s="4"/>
     </row>
     <row r="186" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P186" s="82" t="s">
+      <c r="P186" s="77" t="s">
         <v>104</v>
       </c>
-      <c r="Q186" s="82"/>
-      <c r="R186" s="82"/>
-      <c r="S186" s="82"/>
-      <c r="T186" s="82"/>
-      <c r="U186" s="82"/>
-      <c r="V186" s="82"/>
+      <c r="Q186" s="77"/>
+      <c r="R186" s="77"/>
+      <c r="S186" s="77"/>
+      <c r="T186" s="77"/>
+      <c r="U186" s="77"/>
+      <c r="V186" s="77"/>
     </row>
     <row r="187" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P187" s="82"/>
-      <c r="Q187" s="82"/>
-      <c r="R187" s="82"/>
-      <c r="S187" s="82"/>
-      <c r="T187" s="82"/>
-      <c r="U187" s="82"/>
-      <c r="V187" s="82"/>
+      <c r="P187" s="77"/>
+      <c r="Q187" s="77"/>
+      <c r="R187" s="77"/>
+      <c r="S187" s="77"/>
+      <c r="T187" s="77"/>
+      <c r="U187" s="77"/>
+      <c r="V187" s="77"/>
     </row>
     <row r="188" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M188" s="83" t="s">
+      <c r="M188" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="N188" s="83"/>
-      <c r="O188" s="83"/>
-      <c r="P188" s="84" t="s">
+      <c r="N188" s="78"/>
+      <c r="O188" s="78"/>
+      <c r="P188" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="Q188" s="84"/>
-      <c r="R188" s="84"/>
-      <c r="S188" s="84"/>
+      <c r="Q188" s="79"/>
+      <c r="R188" s="79"/>
+      <c r="S188" s="79"/>
       <c r="T188" s="18"/>
       <c r="U188" s="18"/>
-      <c r="V188" s="87" t="e">
+      <c r="V188" s="82" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W188" s="88"/>
-      <c r="X188" s="89"/>
+      <c r="W188" s="83"/>
+      <c r="X188" s="84"/>
     </row>
     <row r="189" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M189" s="6" t="s">
@@ -9857,24 +9851,24 @@
       <c r="X194" s="15"/>
     </row>
     <row r="198" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P198" s="82" t="s">
+      <c r="P198" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="Q198" s="82"/>
-      <c r="R198" s="82"/>
-      <c r="S198" s="82"/>
-      <c r="T198" s="82"/>
-      <c r="U198" s="82"/>
-      <c r="V198" s="82"/>
+      <c r="Q198" s="77"/>
+      <c r="R198" s="77"/>
+      <c r="S198" s="77"/>
+      <c r="T198" s="77"/>
+      <c r="U198" s="77"/>
+      <c r="V198" s="77"/>
     </row>
     <row r="199" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P199" s="82"/>
-      <c r="Q199" s="82"/>
-      <c r="R199" s="82"/>
-      <c r="S199" s="82"/>
-      <c r="T199" s="82"/>
-      <c r="U199" s="82"/>
-      <c r="V199" s="82"/>
+      <c r="P199" s="77"/>
+      <c r="Q199" s="77"/>
+      <c r="R199" s="77"/>
+      <c r="S199" s="77"/>
+      <c r="T199" s="77"/>
+      <c r="U199" s="77"/>
+      <c r="V199" s="77"/>
     </row>
     <row r="200" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M200" s="70" t="s">
@@ -10049,45 +10043,45 @@
       </c>
     </row>
     <row r="209" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P209" s="82" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q209" s="82"/>
-      <c r="R209" s="82"/>
-      <c r="S209" s="82"/>
-      <c r="T209" s="82"/>
-      <c r="U209" s="82"/>
-      <c r="V209" s="82"/>
+      <c r="P209" s="77" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q209" s="77"/>
+      <c r="R209" s="77"/>
+      <c r="S209" s="77"/>
+      <c r="T209" s="77"/>
+      <c r="U209" s="77"/>
+      <c r="V209" s="77"/>
     </row>
     <row r="210" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P210" s="82"/>
-      <c r="Q210" s="82"/>
-      <c r="R210" s="82"/>
-      <c r="S210" s="82"/>
-      <c r="T210" s="82"/>
-      <c r="U210" s="82"/>
-      <c r="V210" s="82"/>
+      <c r="P210" s="77"/>
+      <c r="Q210" s="77"/>
+      <c r="R210" s="77"/>
+      <c r="S210" s="77"/>
+      <c r="T210" s="77"/>
+      <c r="U210" s="77"/>
+      <c r="V210" s="77"/>
     </row>
     <row r="211" spans="13:26" ht="36" x14ac:dyDescent="0.25">
-      <c r="M211" s="75" t="s">
+      <c r="M211" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="N211" s="75"/>
-      <c r="O211" s="75"/>
-      <c r="P211" s="76" t="s">
+      <c r="N211" s="70"/>
+      <c r="O211" s="70"/>
+      <c r="P211" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="Q211" s="76"/>
-      <c r="R211" s="76"/>
-      <c r="S211" s="76"/>
+      <c r="Q211" s="71"/>
+      <c r="R211" s="71"/>
+      <c r="S211" s="71"/>
       <c r="T211" s="18"/>
       <c r="U211" s="18"/>
-      <c r="V211" s="77" t="e">
+      <c r="V211" s="72" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W211" s="78"/>
-      <c r="X211" s="79"/>
+      <c r="W211" s="73"/>
+      <c r="X211" s="74"/>
     </row>
     <row r="212" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M212" s="6" t="s">
@@ -10197,10 +10191,10 @@
         <v>107</v>
       </c>
       <c r="P215" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q215" s="49" t="s">
         <v>111</v>
-      </c>
-      <c r="Q215" s="49" t="s">
-        <v>112</v>
       </c>
       <c r="R215" s="50" t="s">
         <v>18</v>
@@ -10217,9 +10211,219 @@
         <v>10</v>
       </c>
     </row>
+    <row r="218" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="P218" s="77" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q218" s="77"/>
+      <c r="R218" s="77"/>
+      <c r="S218" s="77"/>
+      <c r="T218" s="77"/>
+      <c r="U218" s="77"/>
+      <c r="V218" s="77"/>
+    </row>
+    <row r="219" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="P219" s="77"/>
+      <c r="Q219" s="77"/>
+      <c r="R219" s="77"/>
+      <c r="S219" s="77"/>
+      <c r="T219" s="77"/>
+      <c r="U219" s="77"/>
+      <c r="V219" s="77"/>
+    </row>
+    <row r="220" spans="13:26" ht="36" x14ac:dyDescent="0.25">
+      <c r="M220" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="N220" s="70"/>
+      <c r="O220" s="70"/>
+      <c r="P220" s="71" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q220" s="71"/>
+      <c r="R220" s="71"/>
+      <c r="S220" s="71"/>
+      <c r="T220" s="18"/>
+      <c r="U220" s="18"/>
+      <c r="V220" s="72" t="e">
+        <f>FECHANUMERO</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W220" s="73"/>
+      <c r="X220" s="74"/>
+    </row>
+    <row r="221" spans="13:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="M221" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N221" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O221" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P221" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q221" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="R221" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="S221" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="T221" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="U221" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="V221" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="W221" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="X221" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z221" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="222" spans="13:26" x14ac:dyDescent="0.25">
+      <c r="M222" s="47"/>
+      <c r="N222" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="O222" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="P222" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q222" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="R222" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="S222" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="T222" s="43">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="U222" s="33">
+        <v>0.3354166666666667</v>
+      </c>
+      <c r="V222" s="34">
+        <v>0.34652777777777777</v>
+      </c>
+      <c r="W222" s="34">
+        <v>0.36249999999999999</v>
+      </c>
+      <c r="X222" s="35">
+        <v>0.38750000000000001</v>
+      </c>
+      <c r="Z222" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="223" spans="13:26" x14ac:dyDescent="0.25">
+      <c r="M223" s="47"/>
+      <c r="N223" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="O223" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="P223" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q223" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="R223" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="S223" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="T223" s="43">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="U223" s="69">
+        <v>0.3354166666666667</v>
+      </c>
+      <c r="V223" s="34">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="W223" s="34">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="X223" s="35">
+        <v>0.36944444444444446</v>
+      </c>
+      <c r="Z223" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="224" spans="13:26" x14ac:dyDescent="0.25">
+      <c r="M224" s="47"/>
+      <c r="N224" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="O224" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="P224" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q224" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="R224" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="S224" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="T224" s="43">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="U224" s="34">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="V224" s="34">
+        <v>0.34930555555555554</v>
+      </c>
+      <c r="W224" s="34">
+        <v>0.35625000000000001</v>
+      </c>
+      <c r="X224" s="35">
+        <v>0.36249999999999999</v>
+      </c>
+      <c r="Z224" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="225" spans="26:26" ht="24" x14ac:dyDescent="0.25">
+      <c r="Z225" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="82">
-    <mergeCell ref="P209:V210"/>
+  <mergeCells count="83">
+    <mergeCell ref="V71:X71"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="C53:G54"/>
+    <mergeCell ref="P53:V54"/>
+    <mergeCell ref="V55:X55"/>
+    <mergeCell ref="C69:G70"/>
+    <mergeCell ref="P69:V70"/>
     <mergeCell ref="C37:G38"/>
     <mergeCell ref="P37:V38"/>
     <mergeCell ref="A39:C39"/>
@@ -10244,13 +10448,6 @@
     <mergeCell ref="M4:O4"/>
     <mergeCell ref="P4:S4"/>
     <mergeCell ref="V4:X4"/>
-    <mergeCell ref="C53:G54"/>
-    <mergeCell ref="P53:V54"/>
-    <mergeCell ref="V55:X55"/>
-    <mergeCell ref="C69:G70"/>
-    <mergeCell ref="P69:V70"/>
-    <mergeCell ref="V71:X71"/>
-    <mergeCell ref="A55:C55"/>
     <mergeCell ref="D55:G55"/>
     <mergeCell ref="H55:J55"/>
     <mergeCell ref="M55:O55"/>
@@ -10296,11 +10493,13 @@
     <mergeCell ref="M155:O155"/>
     <mergeCell ref="P155:S155"/>
     <mergeCell ref="V155:X155"/>
+    <mergeCell ref="P218:V219"/>
     <mergeCell ref="P198:V199"/>
     <mergeCell ref="P186:V187"/>
     <mergeCell ref="M188:O188"/>
     <mergeCell ref="P188:S188"/>
     <mergeCell ref="V188:X188"/>
+    <mergeCell ref="P209:V210"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -10308,7 +10507,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="B3" workbookViewId="0">

--- a/DOC 2023/FORMATO STATUS.xlsx
+++ b/DOC 2023/FORMATO STATUS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\DOC 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CBFBA1-30E0-4BFC-8671-DC8E72C0DE7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388ADEF2-56DC-4A2F-B409-F45600745733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="1380" windowWidth="19980" windowHeight="7785" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FEBRERO" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="116">
   <si>
     <t>DT</t>
   </si>
@@ -377,6 +377,12 @@
   </si>
   <si>
     <t>Sábado 27-05-2023</t>
+  </si>
+  <si>
+    <t>Martes 30-05-2023</t>
+  </si>
+  <si>
+    <t>Wliam Sandoval</t>
   </si>
 </sst>
 </file>
@@ -708,7 +714,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -920,12 +926,6 @@
     <xf numFmtId="164" fontId="6" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -934,12 +934,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -950,6 +944,28 @@
     <xf numFmtId="164" fontId="6" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1256,72 +1272,72 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="P2" s="77" t="s">
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="P2" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="77"/>
-      <c r="R2" s="77"/>
-      <c r="S2" s="77"/>
-      <c r="T2" s="77"/>
-      <c r="U2" s="77"/>
-      <c r="V2" s="77"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="75"/>
+      <c r="V2" s="75"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="P3" s="77"/>
-      <c r="Q3" s="77"/>
-      <c r="R3" s="77"/>
-      <c r="S3" s="77"/>
-      <c r="T3" s="77"/>
-      <c r="U3" s="77"/>
-      <c r="V3" s="77"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="75"/>
+      <c r="R3" s="75"/>
+      <c r="S3" s="75"/>
+      <c r="T3" s="75"/>
+      <c r="U3" s="75"/>
+      <c r="V3" s="75"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="79" t="s">
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="80">
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="83">
         <v>44965</v>
       </c>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="M4" s="78" t="s">
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+      <c r="M4" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="78"/>
-      <c r="O4" s="78"/>
-      <c r="P4" s="79" t="s">
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="79"/>
-      <c r="R4" s="79"/>
-      <c r="S4" s="79"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
-      <c r="V4" s="82">
+      <c r="V4" s="78">
         <v>44601</v>
       </c>
-      <c r="W4" s="83"/>
-      <c r="X4" s="84"/>
+      <c r="W4" s="79"/>
+      <c r="X4" s="80"/>
     </row>
     <row r="5" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -1736,72 +1752,72 @@
       <c r="X15" s="4"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C22" s="75" t="s">
+      <c r="C22" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="75"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
-      <c r="P22" s="77" t="s">
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="81"/>
+      <c r="P22" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="Q22" s="77"/>
-      <c r="R22" s="77"/>
-      <c r="S22" s="77"/>
-      <c r="T22" s="77"/>
-      <c r="U22" s="77"/>
-      <c r="V22" s="77"/>
+      <c r="Q22" s="75"/>
+      <c r="R22" s="75"/>
+      <c r="S22" s="75"/>
+      <c r="T22" s="75"/>
+      <c r="U22" s="75"/>
+      <c r="V22" s="75"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="76"/>
-      <c r="P23" s="77"/>
-      <c r="Q23" s="77"/>
-      <c r="R23" s="77"/>
-      <c r="S23" s="77"/>
-      <c r="T23" s="77"/>
-      <c r="U23" s="77"/>
-      <c r="V23" s="77"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="82"/>
+      <c r="P23" s="75"/>
+      <c r="Q23" s="75"/>
+      <c r="R23" s="75"/>
+      <c r="S23" s="75"/>
+      <c r="T23" s="75"/>
+      <c r="U23" s="75"/>
+      <c r="V23" s="75"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="78" t="s">
+      <c r="A24" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="78"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="79" t="s">
+      <c r="B24" s="76"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="80">
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="83">
         <v>44965</v>
       </c>
-      <c r="I24" s="81"/>
-      <c r="J24" s="81"/>
-      <c r="M24" s="78" t="s">
+      <c r="I24" s="84"/>
+      <c r="J24" s="84"/>
+      <c r="M24" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="N24" s="78"/>
-      <c r="O24" s="78"/>
-      <c r="P24" s="79" t="s">
+      <c r="N24" s="76"/>
+      <c r="O24" s="76"/>
+      <c r="P24" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="Q24" s="79"/>
-      <c r="R24" s="79"/>
-      <c r="S24" s="79"/>
+      <c r="Q24" s="77"/>
+      <c r="R24" s="77"/>
+      <c r="S24" s="77"/>
       <c r="T24" s="18"/>
       <c r="U24" s="18"/>
-      <c r="V24" s="82">
+      <c r="V24" s="78">
         <v>44971</v>
       </c>
-      <c r="W24" s="83"/>
-      <c r="X24" s="84"/>
+      <c r="W24" s="79"/>
+      <c r="X24" s="80"/>
     </row>
     <row r="25" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -2256,72 +2272,72 @@
       <c r="X35" s="4"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C38" s="75" t="s">
+      <c r="C38" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="75"/>
-      <c r="E38" s="75"/>
-      <c r="F38" s="75"/>
-      <c r="G38" s="75"/>
-      <c r="P38" s="77" t="s">
+      <c r="D38" s="81"/>
+      <c r="E38" s="81"/>
+      <c r="F38" s="81"/>
+      <c r="G38" s="81"/>
+      <c r="P38" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="Q38" s="77"/>
-      <c r="R38" s="77"/>
-      <c r="S38" s="77"/>
-      <c r="T38" s="77"/>
-      <c r="U38" s="77"/>
-      <c r="V38" s="77"/>
+      <c r="Q38" s="75"/>
+      <c r="R38" s="75"/>
+      <c r="S38" s="75"/>
+      <c r="T38" s="75"/>
+      <c r="U38" s="75"/>
+      <c r="V38" s="75"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C39" s="76"/>
-      <c r="D39" s="76"/>
-      <c r="E39" s="76"/>
-      <c r="F39" s="76"/>
-      <c r="G39" s="76"/>
-      <c r="P39" s="77"/>
-      <c r="Q39" s="77"/>
-      <c r="R39" s="77"/>
-      <c r="S39" s="77"/>
-      <c r="T39" s="77"/>
-      <c r="U39" s="77"/>
-      <c r="V39" s="77"/>
+      <c r="C39" s="82"/>
+      <c r="D39" s="82"/>
+      <c r="E39" s="82"/>
+      <c r="F39" s="82"/>
+      <c r="G39" s="82"/>
+      <c r="P39" s="75"/>
+      <c r="Q39" s="75"/>
+      <c r="R39" s="75"/>
+      <c r="S39" s="75"/>
+      <c r="T39" s="75"/>
+      <c r="U39" s="75"/>
+      <c r="V39" s="75"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A40" s="78" t="s">
+      <c r="A40" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="78"/>
-      <c r="C40" s="78"/>
-      <c r="D40" s="79" t="s">
+      <c r="B40" s="76"/>
+      <c r="C40" s="76"/>
+      <c r="D40" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="E40" s="79"/>
-      <c r="F40" s="79"/>
-      <c r="G40" s="79"/>
-      <c r="H40" s="80">
+      <c r="E40" s="77"/>
+      <c r="F40" s="77"/>
+      <c r="G40" s="77"/>
+      <c r="H40" s="83">
         <v>44972</v>
       </c>
-      <c r="I40" s="81"/>
-      <c r="J40" s="81"/>
-      <c r="M40" s="78" t="s">
+      <c r="I40" s="84"/>
+      <c r="J40" s="84"/>
+      <c r="M40" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="N40" s="78"/>
-      <c r="O40" s="78"/>
-      <c r="P40" s="79" t="s">
+      <c r="N40" s="76"/>
+      <c r="O40" s="76"/>
+      <c r="P40" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="Q40" s="79"/>
-      <c r="R40" s="79"/>
-      <c r="S40" s="79"/>
+      <c r="Q40" s="77"/>
+      <c r="R40" s="77"/>
+      <c r="S40" s="77"/>
       <c r="T40" s="18"/>
       <c r="U40" s="18"/>
-      <c r="V40" s="82">
+      <c r="V40" s="78">
         <v>44973</v>
       </c>
-      <c r="W40" s="83"/>
-      <c r="X40" s="84"/>
+      <c r="W40" s="79"/>
+      <c r="X40" s="80"/>
     </row>
     <row r="41" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
@@ -2736,72 +2752,72 @@
       <c r="X51" s="4"/>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C54" s="75" t="s">
+      <c r="C54" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="D54" s="75"/>
-      <c r="E54" s="75"/>
-      <c r="F54" s="75"/>
-      <c r="G54" s="75"/>
-      <c r="P54" s="77" t="s">
+      <c r="D54" s="81"/>
+      <c r="E54" s="81"/>
+      <c r="F54" s="81"/>
+      <c r="G54" s="81"/>
+      <c r="P54" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="Q54" s="77"/>
-      <c r="R54" s="77"/>
-      <c r="S54" s="77"/>
-      <c r="T54" s="77"/>
-      <c r="U54" s="77"/>
-      <c r="V54" s="77"/>
+      <c r="Q54" s="75"/>
+      <c r="R54" s="75"/>
+      <c r="S54" s="75"/>
+      <c r="T54" s="75"/>
+      <c r="U54" s="75"/>
+      <c r="V54" s="75"/>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C55" s="76"/>
-      <c r="D55" s="76"/>
-      <c r="E55" s="76"/>
-      <c r="F55" s="76"/>
-      <c r="G55" s="76"/>
-      <c r="P55" s="77"/>
-      <c r="Q55" s="77"/>
-      <c r="R55" s="77"/>
-      <c r="S55" s="77"/>
-      <c r="T55" s="77"/>
-      <c r="U55" s="77"/>
-      <c r="V55" s="77"/>
+      <c r="C55" s="82"/>
+      <c r="D55" s="82"/>
+      <c r="E55" s="82"/>
+      <c r="F55" s="82"/>
+      <c r="G55" s="82"/>
+      <c r="P55" s="75"/>
+      <c r="Q55" s="75"/>
+      <c r="R55" s="75"/>
+      <c r="S55" s="75"/>
+      <c r="T55" s="75"/>
+      <c r="U55" s="75"/>
+      <c r="V55" s="75"/>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A56" s="78" t="s">
+      <c r="A56" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="78"/>
-      <c r="C56" s="78"/>
-      <c r="D56" s="79" t="s">
+      <c r="B56" s="76"/>
+      <c r="C56" s="76"/>
+      <c r="D56" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="E56" s="79"/>
-      <c r="F56" s="79"/>
-      <c r="G56" s="79"/>
-      <c r="H56" s="80">
+      <c r="E56" s="77"/>
+      <c r="F56" s="77"/>
+      <c r="G56" s="77"/>
+      <c r="H56" s="83">
         <v>44974</v>
       </c>
-      <c r="I56" s="81"/>
-      <c r="J56" s="81"/>
-      <c r="M56" s="78" t="s">
+      <c r="I56" s="84"/>
+      <c r="J56" s="84"/>
+      <c r="M56" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="N56" s="78"/>
-      <c r="O56" s="78"/>
-      <c r="P56" s="79" t="s">
+      <c r="N56" s="76"/>
+      <c r="O56" s="76"/>
+      <c r="P56" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="Q56" s="79"/>
-      <c r="R56" s="79"/>
-      <c r="S56" s="79"/>
+      <c r="Q56" s="77"/>
+      <c r="R56" s="77"/>
+      <c r="S56" s="77"/>
       <c r="T56" s="18"/>
       <c r="U56" s="18"/>
-      <c r="V56" s="82">
+      <c r="V56" s="78">
         <v>44975</v>
       </c>
-      <c r="W56" s="83"/>
-      <c r="X56" s="84"/>
+      <c r="W56" s="79"/>
+      <c r="X56" s="80"/>
     </row>
     <row r="57" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
@@ -3256,72 +3272,72 @@
       <c r="X67" s="4"/>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C70" s="75" t="s">
+      <c r="C70" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="D70" s="75"/>
-      <c r="E70" s="75"/>
-      <c r="F70" s="75"/>
-      <c r="G70" s="75"/>
-      <c r="P70" s="77" t="s">
+      <c r="D70" s="81"/>
+      <c r="E70" s="81"/>
+      <c r="F70" s="81"/>
+      <c r="G70" s="81"/>
+      <c r="P70" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="Q70" s="77"/>
-      <c r="R70" s="77"/>
-      <c r="S70" s="77"/>
-      <c r="T70" s="77"/>
-      <c r="U70" s="77"/>
-      <c r="V70" s="77"/>
+      <c r="Q70" s="75"/>
+      <c r="R70" s="75"/>
+      <c r="S70" s="75"/>
+      <c r="T70" s="75"/>
+      <c r="U70" s="75"/>
+      <c r="V70" s="75"/>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C71" s="76"/>
-      <c r="D71" s="76"/>
-      <c r="E71" s="76"/>
-      <c r="F71" s="76"/>
-      <c r="G71" s="76"/>
-      <c r="P71" s="77"/>
-      <c r="Q71" s="77"/>
-      <c r="R71" s="77"/>
-      <c r="S71" s="77"/>
-      <c r="T71" s="77"/>
-      <c r="U71" s="77"/>
-      <c r="V71" s="77"/>
+      <c r="C71" s="82"/>
+      <c r="D71" s="82"/>
+      <c r="E71" s="82"/>
+      <c r="F71" s="82"/>
+      <c r="G71" s="82"/>
+      <c r="P71" s="75"/>
+      <c r="Q71" s="75"/>
+      <c r="R71" s="75"/>
+      <c r="S71" s="75"/>
+      <c r="T71" s="75"/>
+      <c r="U71" s="75"/>
+      <c r="V71" s="75"/>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A72" s="78" t="s">
+      <c r="A72" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="B72" s="78"/>
-      <c r="C72" s="78"/>
-      <c r="D72" s="79" t="s">
+      <c r="B72" s="76"/>
+      <c r="C72" s="76"/>
+      <c r="D72" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="E72" s="79"/>
-      <c r="F72" s="79"/>
-      <c r="G72" s="79"/>
-      <c r="H72" s="80">
+      <c r="E72" s="77"/>
+      <c r="F72" s="77"/>
+      <c r="G72" s="77"/>
+      <c r="H72" s="83">
         <v>44979</v>
       </c>
-      <c r="I72" s="81"/>
-      <c r="J72" s="81"/>
-      <c r="M72" s="78" t="s">
+      <c r="I72" s="84"/>
+      <c r="J72" s="84"/>
+      <c r="M72" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="N72" s="78"/>
-      <c r="O72" s="78"/>
-      <c r="P72" s="79" t="s">
+      <c r="N72" s="76"/>
+      <c r="O72" s="76"/>
+      <c r="P72" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="Q72" s="79"/>
-      <c r="R72" s="79"/>
-      <c r="S72" s="79"/>
+      <c r="Q72" s="77"/>
+      <c r="R72" s="77"/>
+      <c r="S72" s="77"/>
       <c r="T72" s="18"/>
       <c r="U72" s="18"/>
-      <c r="V72" s="82">
+      <c r="V72" s="78">
         <v>44980</v>
       </c>
-      <c r="W72" s="83"/>
-      <c r="X72" s="84"/>
+      <c r="W72" s="79"/>
+      <c r="X72" s="80"/>
     </row>
     <row r="73" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
@@ -3692,72 +3708,72 @@
       <c r="X83" s="4"/>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C87" s="75" t="s">
+      <c r="C87" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="D87" s="75"/>
-      <c r="E87" s="75"/>
-      <c r="F87" s="75"/>
-      <c r="G87" s="75"/>
-      <c r="P87" s="77" t="s">
+      <c r="D87" s="81"/>
+      <c r="E87" s="81"/>
+      <c r="F87" s="81"/>
+      <c r="G87" s="81"/>
+      <c r="P87" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="Q87" s="77"/>
-      <c r="R87" s="77"/>
-      <c r="S87" s="77"/>
-      <c r="T87" s="77"/>
-      <c r="U87" s="77"/>
-      <c r="V87" s="77"/>
+      <c r="Q87" s="75"/>
+      <c r="R87" s="75"/>
+      <c r="S87" s="75"/>
+      <c r="T87" s="75"/>
+      <c r="U87" s="75"/>
+      <c r="V87" s="75"/>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C88" s="76"/>
-      <c r="D88" s="76"/>
-      <c r="E88" s="76"/>
-      <c r="F88" s="76"/>
-      <c r="G88" s="76"/>
-      <c r="P88" s="77"/>
-      <c r="Q88" s="77"/>
-      <c r="R88" s="77"/>
-      <c r="S88" s="77"/>
-      <c r="T88" s="77"/>
-      <c r="U88" s="77"/>
-      <c r="V88" s="77"/>
+      <c r="C88" s="82"/>
+      <c r="D88" s="82"/>
+      <c r="E88" s="82"/>
+      <c r="F88" s="82"/>
+      <c r="G88" s="82"/>
+      <c r="P88" s="75"/>
+      <c r="Q88" s="75"/>
+      <c r="R88" s="75"/>
+      <c r="S88" s="75"/>
+      <c r="T88" s="75"/>
+      <c r="U88" s="75"/>
+      <c r="V88" s="75"/>
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A89" s="78" t="s">
+      <c r="A89" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="B89" s="78"/>
-      <c r="C89" s="78"/>
-      <c r="D89" s="79" t="s">
+      <c r="B89" s="76"/>
+      <c r="C89" s="76"/>
+      <c r="D89" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="E89" s="79"/>
-      <c r="F89" s="79"/>
-      <c r="G89" s="79"/>
-      <c r="H89" s="80">
+      <c r="E89" s="77"/>
+      <c r="F89" s="77"/>
+      <c r="G89" s="77"/>
+      <c r="H89" s="83">
         <v>44981</v>
       </c>
-      <c r="I89" s="81"/>
-      <c r="J89" s="81"/>
-      <c r="M89" s="78" t="s">
+      <c r="I89" s="84"/>
+      <c r="J89" s="84"/>
+      <c r="M89" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="N89" s="78"/>
-      <c r="O89" s="78"/>
-      <c r="P89" s="79" t="s">
+      <c r="N89" s="76"/>
+      <c r="O89" s="76"/>
+      <c r="P89" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="Q89" s="79"/>
-      <c r="R89" s="79"/>
-      <c r="S89" s="79"/>
+      <c r="Q89" s="77"/>
+      <c r="R89" s="77"/>
+      <c r="S89" s="77"/>
       <c r="T89" s="18"/>
       <c r="U89" s="18"/>
-      <c r="V89" s="82">
+      <c r="V89" s="78">
         <v>44980</v>
       </c>
-      <c r="W89" s="83"/>
-      <c r="X89" s="84"/>
+      <c r="W89" s="79"/>
+      <c r="X89" s="80"/>
     </row>
     <row r="90" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
@@ -4212,72 +4228,72 @@
       <c r="X100" s="4"/>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C104" s="75" t="s">
+      <c r="C104" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="D104" s="75"/>
-      <c r="E104" s="75"/>
-      <c r="F104" s="75"/>
-      <c r="G104" s="75"/>
-      <c r="P104" s="77" t="s">
+      <c r="D104" s="81"/>
+      <c r="E104" s="81"/>
+      <c r="F104" s="81"/>
+      <c r="G104" s="81"/>
+      <c r="P104" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="Q104" s="77"/>
-      <c r="R104" s="77"/>
-      <c r="S104" s="77"/>
-      <c r="T104" s="77"/>
-      <c r="U104" s="77"/>
-      <c r="V104" s="77"/>
+      <c r="Q104" s="75"/>
+      <c r="R104" s="75"/>
+      <c r="S104" s="75"/>
+      <c r="T104" s="75"/>
+      <c r="U104" s="75"/>
+      <c r="V104" s="75"/>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C105" s="76"/>
-      <c r="D105" s="76"/>
-      <c r="E105" s="76"/>
-      <c r="F105" s="76"/>
-      <c r="G105" s="76"/>
-      <c r="P105" s="77"/>
-      <c r="Q105" s="77"/>
-      <c r="R105" s="77"/>
-      <c r="S105" s="77"/>
-      <c r="T105" s="77"/>
-      <c r="U105" s="77"/>
-      <c r="V105" s="77"/>
+      <c r="C105" s="82"/>
+      <c r="D105" s="82"/>
+      <c r="E105" s="82"/>
+      <c r="F105" s="82"/>
+      <c r="G105" s="82"/>
+      <c r="P105" s="75"/>
+      <c r="Q105" s="75"/>
+      <c r="R105" s="75"/>
+      <c r="S105" s="75"/>
+      <c r="T105" s="75"/>
+      <c r="U105" s="75"/>
+      <c r="V105" s="75"/>
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A106" s="78" t="s">
+      <c r="A106" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="B106" s="78"/>
-      <c r="C106" s="78"/>
-      <c r="D106" s="79" t="s">
+      <c r="B106" s="76"/>
+      <c r="C106" s="76"/>
+      <c r="D106" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="E106" s="79"/>
-      <c r="F106" s="79"/>
-      <c r="G106" s="79"/>
-      <c r="H106" s="80">
+      <c r="E106" s="77"/>
+      <c r="F106" s="77"/>
+      <c r="G106" s="77"/>
+      <c r="H106" s="83">
         <v>44979</v>
       </c>
-      <c r="I106" s="81"/>
-      <c r="J106" s="81"/>
-      <c r="M106" s="78" t="s">
+      <c r="I106" s="84"/>
+      <c r="J106" s="84"/>
+      <c r="M106" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="N106" s="78"/>
-      <c r="O106" s="78"/>
-      <c r="P106" s="79" t="s">
+      <c r="N106" s="76"/>
+      <c r="O106" s="76"/>
+      <c r="P106" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="Q106" s="79"/>
-      <c r="R106" s="79"/>
-      <c r="S106" s="79"/>
+      <c r="Q106" s="77"/>
+      <c r="R106" s="77"/>
+      <c r="S106" s="77"/>
       <c r="T106" s="18"/>
       <c r="U106" s="18"/>
-      <c r="V106" s="82" t="s">
+      <c r="V106" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="W106" s="83"/>
-      <c r="X106" s="84"/>
+      <c r="W106" s="79"/>
+      <c r="X106" s="80"/>
     </row>
     <row r="107" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
@@ -4775,6 +4791,54 @@
     <row r="124" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="C104:G105"/>
+    <mergeCell ref="P104:V105"/>
+    <mergeCell ref="A106:C106"/>
+    <mergeCell ref="D106:G106"/>
+    <mergeCell ref="H106:J106"/>
+    <mergeCell ref="M106:O106"/>
+    <mergeCell ref="P106:S106"/>
+    <mergeCell ref="V106:X106"/>
+    <mergeCell ref="C87:G88"/>
+    <mergeCell ref="P87:V88"/>
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="D89:G89"/>
+    <mergeCell ref="H89:J89"/>
+    <mergeCell ref="M89:O89"/>
+    <mergeCell ref="P89:S89"/>
+    <mergeCell ref="V89:X89"/>
+    <mergeCell ref="C70:G71"/>
+    <mergeCell ref="P70:V71"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="D72:G72"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="M72:O72"/>
+    <mergeCell ref="P72:S72"/>
+    <mergeCell ref="V72:X72"/>
+    <mergeCell ref="C54:G55"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="P54:V55"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="P56:S56"/>
+    <mergeCell ref="V56:X56"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="C2:G3"/>
+    <mergeCell ref="P2:V3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="C22:G23"/>
+    <mergeCell ref="P22:V23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="V24:X24"/>
     <mergeCell ref="P38:V39"/>
     <mergeCell ref="M40:O40"/>
     <mergeCell ref="P40:S40"/>
@@ -4783,54 +4847,6 @@
     <mergeCell ref="A40:C40"/>
     <mergeCell ref="D40:G40"/>
     <mergeCell ref="H40:J40"/>
-    <mergeCell ref="C22:G23"/>
-    <mergeCell ref="P22:V23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="C2:G3"/>
-    <mergeCell ref="P2:V3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="C54:G55"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="P54:V55"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="P56:S56"/>
-    <mergeCell ref="V56:X56"/>
-    <mergeCell ref="C70:G71"/>
-    <mergeCell ref="P70:V71"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="D72:G72"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="M72:O72"/>
-    <mergeCell ref="P72:S72"/>
-    <mergeCell ref="V72:X72"/>
-    <mergeCell ref="C87:G88"/>
-    <mergeCell ref="P87:V88"/>
-    <mergeCell ref="A89:C89"/>
-    <mergeCell ref="D89:G89"/>
-    <mergeCell ref="H89:J89"/>
-    <mergeCell ref="M89:O89"/>
-    <mergeCell ref="P89:S89"/>
-    <mergeCell ref="V89:X89"/>
-    <mergeCell ref="C104:G105"/>
-    <mergeCell ref="P104:V105"/>
-    <mergeCell ref="A106:C106"/>
-    <mergeCell ref="D106:G106"/>
-    <mergeCell ref="H106:J106"/>
-    <mergeCell ref="M106:O106"/>
-    <mergeCell ref="P106:S106"/>
-    <mergeCell ref="V106:X106"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4839,10 +4855,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:Z225"/>
+  <dimension ref="A2:Z226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L212" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y217" sqref="Y217"/>
+    <sheetView tabSelected="1" topLeftCell="L208" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S226" sqref="S226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4862,72 +4878,72 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="P2" s="77" t="s">
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="P2" s="75" t="s">
         <v>76</v>
       </c>
-      <c r="Q2" s="77"/>
-      <c r="R2" s="77"/>
-      <c r="S2" s="77"/>
-      <c r="T2" s="77"/>
-      <c r="U2" s="77"/>
-      <c r="V2" s="77"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="75"/>
+      <c r="V2" s="75"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="P3" s="77"/>
-      <c r="Q3" s="77"/>
-      <c r="R3" s="77"/>
-      <c r="S3" s="77"/>
-      <c r="T3" s="77"/>
-      <c r="U3" s="77"/>
-      <c r="V3" s="77"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="75"/>
+      <c r="R3" s="75"/>
+      <c r="S3" s="75"/>
+      <c r="T3" s="75"/>
+      <c r="U3" s="75"/>
+      <c r="V3" s="75"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="79" t="s">
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="80" t="s">
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="83" t="s">
         <v>74</v>
       </c>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="M4" s="78" t="s">
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+      <c r="M4" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="78"/>
-      <c r="O4" s="78"/>
-      <c r="P4" s="79" t="s">
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="79"/>
-      <c r="R4" s="79"/>
-      <c r="S4" s="79"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
-      <c r="V4" s="82">
+      <c r="V4" s="78">
         <v>44601</v>
       </c>
-      <c r="W4" s="83"/>
-      <c r="X4" s="84"/>
+      <c r="W4" s="79"/>
+      <c r="X4" s="80"/>
     </row>
     <row r="5" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -5394,72 +5410,72 @@
       <c r="X15" s="4"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C22" s="75" t="s">
+      <c r="C22" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="D22" s="75"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
-      <c r="P22" s="77" t="s">
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="81"/>
+      <c r="P22" s="75" t="s">
         <v>77</v>
       </c>
-      <c r="Q22" s="77"/>
-      <c r="R22" s="77"/>
-      <c r="S22" s="77"/>
-      <c r="T22" s="77"/>
-      <c r="U22" s="77"/>
-      <c r="V22" s="77"/>
+      <c r="Q22" s="75"/>
+      <c r="R22" s="75"/>
+      <c r="S22" s="75"/>
+      <c r="T22" s="75"/>
+      <c r="U22" s="75"/>
+      <c r="V22" s="75"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="76"/>
-      <c r="P23" s="77"/>
-      <c r="Q23" s="77"/>
-      <c r="R23" s="77"/>
-      <c r="S23" s="77"/>
-      <c r="T23" s="77"/>
-      <c r="U23" s="77"/>
-      <c r="V23" s="77"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="82"/>
+      <c r="P23" s="75"/>
+      <c r="Q23" s="75"/>
+      <c r="R23" s="75"/>
+      <c r="S23" s="75"/>
+      <c r="T23" s="75"/>
+      <c r="U23" s="75"/>
+      <c r="V23" s="75"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="78" t="s">
+      <c r="A24" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="78"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="79" t="s">
+      <c r="B24" s="76"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="80">
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="83">
         <v>44993</v>
       </c>
-      <c r="I24" s="81"/>
-      <c r="J24" s="81"/>
-      <c r="M24" s="78" t="s">
+      <c r="I24" s="84"/>
+      <c r="J24" s="84"/>
+      <c r="M24" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="N24" s="78"/>
-      <c r="O24" s="78"/>
-      <c r="P24" s="79" t="s">
+      <c r="N24" s="76"/>
+      <c r="O24" s="76"/>
+      <c r="P24" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="Q24" s="79"/>
-      <c r="R24" s="79"/>
-      <c r="S24" s="79"/>
+      <c r="Q24" s="77"/>
+      <c r="R24" s="77"/>
+      <c r="S24" s="77"/>
       <c r="T24" s="18"/>
       <c r="U24" s="18"/>
-      <c r="V24" s="82">
+      <c r="V24" s="78">
         <v>44993</v>
       </c>
-      <c r="W24" s="83"/>
-      <c r="X24" s="84"/>
+      <c r="W24" s="79"/>
+      <c r="X24" s="80"/>
     </row>
     <row r="25" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -5889,72 +5905,72 @@
       <c r="X34" s="4"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C37" s="75" t="s">
+      <c r="C37" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="D37" s="75"/>
-      <c r="E37" s="75"/>
-      <c r="F37" s="75"/>
-      <c r="G37" s="75"/>
-      <c r="P37" s="77" t="s">
+      <c r="D37" s="81"/>
+      <c r="E37" s="81"/>
+      <c r="F37" s="81"/>
+      <c r="G37" s="81"/>
+      <c r="P37" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="Q37" s="77"/>
-      <c r="R37" s="77"/>
-      <c r="S37" s="77"/>
-      <c r="T37" s="77"/>
-      <c r="U37" s="77"/>
-      <c r="V37" s="77"/>
+      <c r="Q37" s="75"/>
+      <c r="R37" s="75"/>
+      <c r="S37" s="75"/>
+      <c r="T37" s="75"/>
+      <c r="U37" s="75"/>
+      <c r="V37" s="75"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C38" s="76"/>
-      <c r="D38" s="76"/>
-      <c r="E38" s="76"/>
-      <c r="F38" s="76"/>
-      <c r="G38" s="76"/>
-      <c r="P38" s="77"/>
-      <c r="Q38" s="77"/>
-      <c r="R38" s="77"/>
-      <c r="S38" s="77"/>
-      <c r="T38" s="77"/>
-      <c r="U38" s="77"/>
-      <c r="V38" s="77"/>
+      <c r="C38" s="82"/>
+      <c r="D38" s="82"/>
+      <c r="E38" s="82"/>
+      <c r="F38" s="82"/>
+      <c r="G38" s="82"/>
+      <c r="P38" s="75"/>
+      <c r="Q38" s="75"/>
+      <c r="R38" s="75"/>
+      <c r="S38" s="75"/>
+      <c r="T38" s="75"/>
+      <c r="U38" s="75"/>
+      <c r="V38" s="75"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A39" s="78" t="s">
+      <c r="A39" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="78"/>
-      <c r="C39" s="78"/>
-      <c r="D39" s="79" t="s">
+      <c r="B39" s="76"/>
+      <c r="C39" s="76"/>
+      <c r="D39" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="79"/>
-      <c r="F39" s="79"/>
-      <c r="G39" s="79"/>
-      <c r="H39" s="80">
+      <c r="E39" s="77"/>
+      <c r="F39" s="77"/>
+      <c r="G39" s="77"/>
+      <c r="H39" s="83">
         <v>44972</v>
       </c>
-      <c r="I39" s="81"/>
-      <c r="J39" s="81"/>
-      <c r="M39" s="78" t="s">
+      <c r="I39" s="84"/>
+      <c r="J39" s="84"/>
+      <c r="M39" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="N39" s="78"/>
-      <c r="O39" s="78"/>
-      <c r="P39" s="79" t="s">
+      <c r="N39" s="76"/>
+      <c r="O39" s="76"/>
+      <c r="P39" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="Q39" s="79"/>
-      <c r="R39" s="79"/>
-      <c r="S39" s="79"/>
+      <c r="Q39" s="77"/>
+      <c r="R39" s="77"/>
+      <c r="S39" s="77"/>
       <c r="T39" s="18"/>
       <c r="U39" s="18"/>
-      <c r="V39" s="82">
+      <c r="V39" s="78">
         <v>44994</v>
       </c>
-      <c r="W39" s="83"/>
-      <c r="X39" s="84"/>
+      <c r="W39" s="79"/>
+      <c r="X39" s="80"/>
     </row>
     <row r="40" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
@@ -6365,72 +6381,72 @@
       <c r="X50" s="4"/>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C53" s="75">
+      <c r="C53" s="81">
         <v>45005</v>
       </c>
-      <c r="D53" s="75"/>
-      <c r="E53" s="75"/>
-      <c r="F53" s="75"/>
-      <c r="G53" s="75"/>
-      <c r="P53" s="75">
+      <c r="D53" s="81"/>
+      <c r="E53" s="81"/>
+      <c r="F53" s="81"/>
+      <c r="G53" s="81"/>
+      <c r="P53" s="81">
         <v>45006</v>
       </c>
-      <c r="Q53" s="75"/>
-      <c r="R53" s="75"/>
-      <c r="S53" s="75"/>
-      <c r="T53" s="75"/>
-      <c r="U53" s="75"/>
-      <c r="V53" s="75"/>
+      <c r="Q53" s="81"/>
+      <c r="R53" s="81"/>
+      <c r="S53" s="81"/>
+      <c r="T53" s="81"/>
+      <c r="U53" s="81"/>
+      <c r="V53" s="81"/>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C54" s="76"/>
-      <c r="D54" s="76"/>
-      <c r="E54" s="76"/>
-      <c r="F54" s="76"/>
-      <c r="G54" s="76"/>
-      <c r="P54" s="75"/>
-      <c r="Q54" s="75"/>
-      <c r="R54" s="75"/>
-      <c r="S54" s="75"/>
-      <c r="T54" s="75"/>
-      <c r="U54" s="75"/>
-      <c r="V54" s="75"/>
+      <c r="C54" s="82"/>
+      <c r="D54" s="82"/>
+      <c r="E54" s="82"/>
+      <c r="F54" s="82"/>
+      <c r="G54" s="82"/>
+      <c r="P54" s="81"/>
+      <c r="Q54" s="81"/>
+      <c r="R54" s="81"/>
+      <c r="S54" s="81"/>
+      <c r="T54" s="81"/>
+      <c r="U54" s="81"/>
+      <c r="V54" s="81"/>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A55" s="78" t="s">
+      <c r="A55" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="78"/>
-      <c r="C55" s="78"/>
-      <c r="D55" s="79" t="s">
+      <c r="B55" s="76"/>
+      <c r="C55" s="76"/>
+      <c r="D55" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="E55" s="79"/>
-      <c r="F55" s="79"/>
-      <c r="G55" s="79"/>
-      <c r="H55" s="80">
+      <c r="E55" s="77"/>
+      <c r="F55" s="77"/>
+      <c r="G55" s="77"/>
+      <c r="H55" s="83">
         <v>45005</v>
       </c>
-      <c r="I55" s="81"/>
-      <c r="J55" s="81"/>
-      <c r="M55" s="78" t="s">
+      <c r="I55" s="84"/>
+      <c r="J55" s="84"/>
+      <c r="M55" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="N55" s="78"/>
-      <c r="O55" s="78"/>
-      <c r="P55" s="79" t="s">
+      <c r="N55" s="76"/>
+      <c r="O55" s="76"/>
+      <c r="P55" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="Q55" s="79"/>
-      <c r="R55" s="79"/>
-      <c r="S55" s="79"/>
+      <c r="Q55" s="77"/>
+      <c r="R55" s="77"/>
+      <c r="S55" s="77"/>
       <c r="T55" s="18"/>
       <c r="U55" s="18"/>
-      <c r="V55" s="82">
+      <c r="V55" s="78">
         <v>45006</v>
       </c>
-      <c r="W55" s="83"/>
-      <c r="X55" s="84"/>
+      <c r="W55" s="79"/>
+      <c r="X55" s="80"/>
     </row>
     <row r="56" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
@@ -6829,72 +6845,72 @@
       <c r="X66" s="4"/>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C69" s="75" t="s">
+      <c r="C69" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="D69" s="75"/>
-      <c r="E69" s="75"/>
-      <c r="F69" s="75"/>
-      <c r="G69" s="75"/>
-      <c r="P69" s="77" t="s">
+      <c r="D69" s="81"/>
+      <c r="E69" s="81"/>
+      <c r="F69" s="81"/>
+      <c r="G69" s="81"/>
+      <c r="P69" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="Q69" s="77"/>
-      <c r="R69" s="77"/>
-      <c r="S69" s="77"/>
-      <c r="T69" s="77"/>
-      <c r="U69" s="77"/>
-      <c r="V69" s="77"/>
+      <c r="Q69" s="75"/>
+      <c r="R69" s="75"/>
+      <c r="S69" s="75"/>
+      <c r="T69" s="75"/>
+      <c r="U69" s="75"/>
+      <c r="V69" s="75"/>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C70" s="76"/>
-      <c r="D70" s="76"/>
-      <c r="E70" s="76"/>
-      <c r="F70" s="76"/>
-      <c r="G70" s="76"/>
-      <c r="P70" s="77"/>
-      <c r="Q70" s="77"/>
-      <c r="R70" s="77"/>
-      <c r="S70" s="77"/>
-      <c r="T70" s="77"/>
-      <c r="U70" s="77"/>
-      <c r="V70" s="77"/>
+      <c r="C70" s="82"/>
+      <c r="D70" s="82"/>
+      <c r="E70" s="82"/>
+      <c r="F70" s="82"/>
+      <c r="G70" s="82"/>
+      <c r="P70" s="75"/>
+      <c r="Q70" s="75"/>
+      <c r="R70" s="75"/>
+      <c r="S70" s="75"/>
+      <c r="T70" s="75"/>
+      <c r="U70" s="75"/>
+      <c r="V70" s="75"/>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A71" s="78" t="s">
+      <c r="A71" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="B71" s="78"/>
-      <c r="C71" s="78"/>
-      <c r="D71" s="79" t="s">
+      <c r="B71" s="76"/>
+      <c r="C71" s="76"/>
+      <c r="D71" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="E71" s="79"/>
-      <c r="F71" s="79"/>
-      <c r="G71" s="79"/>
-      <c r="H71" s="80">
+      <c r="E71" s="77"/>
+      <c r="F71" s="77"/>
+      <c r="G71" s="77"/>
+      <c r="H71" s="83">
         <v>44979</v>
       </c>
-      <c r="I71" s="81"/>
-      <c r="J71" s="81"/>
-      <c r="M71" s="78" t="s">
+      <c r="I71" s="84"/>
+      <c r="J71" s="84"/>
+      <c r="M71" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="N71" s="78"/>
-      <c r="O71" s="78"/>
-      <c r="P71" s="79" t="s">
+      <c r="N71" s="76"/>
+      <c r="O71" s="76"/>
+      <c r="P71" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="Q71" s="79"/>
-      <c r="R71" s="79"/>
-      <c r="S71" s="79"/>
+      <c r="Q71" s="77"/>
+      <c r="R71" s="77"/>
+      <c r="S71" s="77"/>
       <c r="T71" s="18"/>
       <c r="U71" s="18"/>
-      <c r="V71" s="82">
+      <c r="V71" s="78">
         <v>44980</v>
       </c>
-      <c r="W71" s="83"/>
-      <c r="X71" s="84"/>
+      <c r="W71" s="79"/>
+      <c r="X71" s="80"/>
     </row>
     <row r="72" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
@@ -7297,72 +7313,72 @@
       <c r="X82" s="4"/>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C86" s="75" t="s">
+      <c r="C86" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="D86" s="75"/>
-      <c r="E86" s="75"/>
-      <c r="F86" s="75"/>
-      <c r="G86" s="75"/>
-      <c r="P86" s="77" t="s">
+      <c r="D86" s="81"/>
+      <c r="E86" s="81"/>
+      <c r="F86" s="81"/>
+      <c r="G86" s="81"/>
+      <c r="P86" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="Q86" s="77"/>
-      <c r="R86" s="77"/>
-      <c r="S86" s="77"/>
-      <c r="T86" s="77"/>
-      <c r="U86" s="77"/>
-      <c r="V86" s="77"/>
+      <c r="Q86" s="75"/>
+      <c r="R86" s="75"/>
+      <c r="S86" s="75"/>
+      <c r="T86" s="75"/>
+      <c r="U86" s="75"/>
+      <c r="V86" s="75"/>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C87" s="76"/>
-      <c r="D87" s="76"/>
-      <c r="E87" s="76"/>
-      <c r="F87" s="76"/>
-      <c r="G87" s="76"/>
-      <c r="P87" s="77"/>
-      <c r="Q87" s="77"/>
-      <c r="R87" s="77"/>
-      <c r="S87" s="77"/>
-      <c r="T87" s="77"/>
-      <c r="U87" s="77"/>
-      <c r="V87" s="77"/>
+      <c r="C87" s="82"/>
+      <c r="D87" s="82"/>
+      <c r="E87" s="82"/>
+      <c r="F87" s="82"/>
+      <c r="G87" s="82"/>
+      <c r="P87" s="75"/>
+      <c r="Q87" s="75"/>
+      <c r="R87" s="75"/>
+      <c r="S87" s="75"/>
+      <c r="T87" s="75"/>
+      <c r="U87" s="75"/>
+      <c r="V87" s="75"/>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A88" s="78" t="s">
+      <c r="A88" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="B88" s="78"/>
-      <c r="C88" s="78"/>
-      <c r="D88" s="79" t="s">
+      <c r="B88" s="76"/>
+      <c r="C88" s="76"/>
+      <c r="D88" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="E88" s="79"/>
-      <c r="F88" s="79"/>
-      <c r="G88" s="79"/>
-      <c r="H88" s="80">
+      <c r="E88" s="77"/>
+      <c r="F88" s="77"/>
+      <c r="G88" s="77"/>
+      <c r="H88" s="83">
         <v>44981</v>
       </c>
-      <c r="I88" s="81"/>
-      <c r="J88" s="81"/>
-      <c r="M88" s="78" t="s">
+      <c r="I88" s="84"/>
+      <c r="J88" s="84"/>
+      <c r="M88" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="N88" s="78"/>
-      <c r="O88" s="78"/>
-      <c r="P88" s="79" t="s">
+      <c r="N88" s="76"/>
+      <c r="O88" s="76"/>
+      <c r="P88" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="Q88" s="79"/>
-      <c r="R88" s="79"/>
-      <c r="S88" s="79"/>
+      <c r="Q88" s="77"/>
+      <c r="R88" s="77"/>
+      <c r="S88" s="77"/>
       <c r="T88" s="18"/>
       <c r="U88" s="18"/>
-      <c r="V88" s="82">
+      <c r="V88" s="78">
         <v>44980</v>
       </c>
-      <c r="W88" s="83"/>
-      <c r="X88" s="84"/>
+      <c r="W88" s="79"/>
+      <c r="X88" s="80"/>
     </row>
     <row r="89" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
@@ -7697,73 +7713,73 @@
       <c r="X99" s="4"/>
     </row>
     <row r="103" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C103" s="75" t="s">
+      <c r="C103" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="D103" s="75"/>
-      <c r="E103" s="75"/>
-      <c r="F103" s="75"/>
-      <c r="G103" s="75"/>
-      <c r="P103" s="77" t="s">
+      <c r="D103" s="81"/>
+      <c r="E103" s="81"/>
+      <c r="F103" s="81"/>
+      <c r="G103" s="81"/>
+      <c r="P103" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="Q103" s="77"/>
-      <c r="R103" s="77"/>
-      <c r="S103" s="77"/>
-      <c r="T103" s="77"/>
-      <c r="U103" s="77"/>
-      <c r="V103" s="77"/>
+      <c r="Q103" s="75"/>
+      <c r="R103" s="75"/>
+      <c r="S103" s="75"/>
+      <c r="T103" s="75"/>
+      <c r="U103" s="75"/>
+      <c r="V103" s="75"/>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C104" s="76"/>
-      <c r="D104" s="76"/>
-      <c r="E104" s="76"/>
-      <c r="F104" s="76"/>
-      <c r="G104" s="76"/>
-      <c r="P104" s="77"/>
-      <c r="Q104" s="77"/>
-      <c r="R104" s="77"/>
-      <c r="S104" s="77"/>
-      <c r="T104" s="77"/>
-      <c r="U104" s="77"/>
-      <c r="V104" s="77"/>
+      <c r="C104" s="82"/>
+      <c r="D104" s="82"/>
+      <c r="E104" s="82"/>
+      <c r="F104" s="82"/>
+      <c r="G104" s="82"/>
+      <c r="P104" s="75"/>
+      <c r="Q104" s="75"/>
+      <c r="R104" s="75"/>
+      <c r="S104" s="75"/>
+      <c r="T104" s="75"/>
+      <c r="U104" s="75"/>
+      <c r="V104" s="75"/>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A105" s="78" t="s">
+      <c r="A105" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="B105" s="78"/>
-      <c r="C105" s="78"/>
-      <c r="D105" s="79" t="s">
+      <c r="B105" s="76"/>
+      <c r="C105" s="76"/>
+      <c r="D105" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="E105" s="79"/>
-      <c r="F105" s="79"/>
-      <c r="G105" s="79"/>
-      <c r="H105" s="80">
+      <c r="E105" s="77"/>
+      <c r="F105" s="77"/>
+      <c r="G105" s="77"/>
+      <c r="H105" s="83">
         <v>44979</v>
       </c>
-      <c r="I105" s="81"/>
-      <c r="J105" s="81"/>
-      <c r="M105" s="78" t="s">
+      <c r="I105" s="84"/>
+      <c r="J105" s="84"/>
+      <c r="M105" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="N105" s="78"/>
-      <c r="O105" s="78"/>
-      <c r="P105" s="79" t="s">
+      <c r="N105" s="76"/>
+      <c r="O105" s="76"/>
+      <c r="P105" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="Q105" s="79"/>
-      <c r="R105" s="79"/>
-      <c r="S105" s="79"/>
+      <c r="Q105" s="77"/>
+      <c r="R105" s="77"/>
+      <c r="S105" s="77"/>
       <c r="T105" s="18"/>
       <c r="U105" s="18"/>
-      <c r="V105" s="82" t="e">
+      <c r="V105" s="78" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W105" s="83"/>
-      <c r="X105" s="84"/>
+      <c r="W105" s="79"/>
+      <c r="X105" s="80"/>
     </row>
     <row r="106" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
@@ -8214,73 +8230,73 @@
       <c r="X116" s="4"/>
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C121" s="75" t="s">
+      <c r="C121" s="81" t="s">
         <v>95</v>
       </c>
-      <c r="D121" s="75"/>
-      <c r="E121" s="75"/>
-      <c r="F121" s="75"/>
-      <c r="G121" s="75"/>
-      <c r="P121" s="77" t="s">
+      <c r="D121" s="81"/>
+      <c r="E121" s="81"/>
+      <c r="F121" s="81"/>
+      <c r="G121" s="81"/>
+      <c r="P121" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="Q121" s="77"/>
-      <c r="R121" s="77"/>
-      <c r="S121" s="77"/>
-      <c r="T121" s="77"/>
-      <c r="U121" s="77"/>
-      <c r="V121" s="77"/>
+      <c r="Q121" s="75"/>
+      <c r="R121" s="75"/>
+      <c r="S121" s="75"/>
+      <c r="T121" s="75"/>
+      <c r="U121" s="75"/>
+      <c r="V121" s="75"/>
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C122" s="76"/>
-      <c r="D122" s="76"/>
-      <c r="E122" s="76"/>
-      <c r="F122" s="76"/>
-      <c r="G122" s="76"/>
-      <c r="P122" s="77"/>
-      <c r="Q122" s="77"/>
-      <c r="R122" s="77"/>
-      <c r="S122" s="77"/>
-      <c r="T122" s="77"/>
-      <c r="U122" s="77"/>
-      <c r="V122" s="77"/>
+      <c r="C122" s="82"/>
+      <c r="D122" s="82"/>
+      <c r="E122" s="82"/>
+      <c r="F122" s="82"/>
+      <c r="G122" s="82"/>
+      <c r="P122" s="75"/>
+      <c r="Q122" s="75"/>
+      <c r="R122" s="75"/>
+      <c r="S122" s="75"/>
+      <c r="T122" s="75"/>
+      <c r="U122" s="75"/>
+      <c r="V122" s="75"/>
     </row>
     <row r="123" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="78" t="s">
+      <c r="A123" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="B123" s="78"/>
-      <c r="C123" s="78"/>
-      <c r="D123" s="79" t="s">
+      <c r="B123" s="76"/>
+      <c r="C123" s="76"/>
+      <c r="D123" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="E123" s="79"/>
-      <c r="F123" s="79"/>
-      <c r="G123" s="79"/>
-      <c r="H123" s="80">
+      <c r="E123" s="77"/>
+      <c r="F123" s="77"/>
+      <c r="G123" s="77"/>
+      <c r="H123" s="83">
         <v>44979</v>
       </c>
-      <c r="I123" s="81"/>
-      <c r="J123" s="81"/>
-      <c r="M123" s="78" t="s">
+      <c r="I123" s="84"/>
+      <c r="J123" s="84"/>
+      <c r="M123" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="N123" s="78"/>
-      <c r="O123" s="78"/>
-      <c r="P123" s="79" t="s">
+      <c r="N123" s="76"/>
+      <c r="O123" s="76"/>
+      <c r="P123" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="Q123" s="79"/>
-      <c r="R123" s="79"/>
-      <c r="S123" s="79"/>
+      <c r="Q123" s="77"/>
+      <c r="R123" s="77"/>
+      <c r="S123" s="77"/>
       <c r="T123" s="18"/>
       <c r="U123" s="18"/>
-      <c r="V123" s="82" t="e">
+      <c r="V123" s="78" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W123" s="83"/>
-      <c r="X123" s="84"/>
+      <c r="W123" s="79"/>
+      <c r="X123" s="80"/>
     </row>
     <row r="124" spans="1:26" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
@@ -8795,45 +8811,45 @@
       <c r="X134" s="4"/>
     </row>
     <row r="138" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="P138" s="77" t="s">
+      <c r="P138" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="Q138" s="77"/>
-      <c r="R138" s="77"/>
-      <c r="S138" s="77"/>
-      <c r="T138" s="77"/>
-      <c r="U138" s="77"/>
-      <c r="V138" s="77"/>
+      <c r="Q138" s="75"/>
+      <c r="R138" s="75"/>
+      <c r="S138" s="75"/>
+      <c r="T138" s="75"/>
+      <c r="U138" s="75"/>
+      <c r="V138" s="75"/>
     </row>
     <row r="139" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="P139" s="77"/>
-      <c r="Q139" s="77"/>
-      <c r="R139" s="77"/>
-      <c r="S139" s="77"/>
-      <c r="T139" s="77"/>
-      <c r="U139" s="77"/>
-      <c r="V139" s="77"/>
+      <c r="P139" s="75"/>
+      <c r="Q139" s="75"/>
+      <c r="R139" s="75"/>
+      <c r="S139" s="75"/>
+      <c r="T139" s="75"/>
+      <c r="U139" s="75"/>
+      <c r="V139" s="75"/>
     </row>
     <row r="140" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="M140" s="78" t="s">
+      <c r="M140" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="N140" s="78"/>
-      <c r="O140" s="78"/>
-      <c r="P140" s="79" t="s">
+      <c r="N140" s="76"/>
+      <c r="O140" s="76"/>
+      <c r="P140" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="Q140" s="79"/>
-      <c r="R140" s="79"/>
-      <c r="S140" s="79"/>
+      <c r="Q140" s="77"/>
+      <c r="R140" s="77"/>
+      <c r="S140" s="77"/>
       <c r="T140" s="18"/>
       <c r="U140" s="18"/>
-      <c r="V140" s="82" t="e">
+      <c r="V140" s="78" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W140" s="83"/>
-      <c r="X140" s="84"/>
+      <c r="W140" s="79"/>
+      <c r="X140" s="80"/>
     </row>
     <row r="141" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M141" s="6" t="s">
@@ -9098,45 +9114,45 @@
       <c r="S152" s="64"/>
     </row>
     <row r="153" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P153" s="77" t="s">
+      <c r="P153" s="75" t="s">
         <v>102</v>
       </c>
-      <c r="Q153" s="77"/>
-      <c r="R153" s="77"/>
-      <c r="S153" s="77"/>
-      <c r="T153" s="77"/>
-      <c r="U153" s="77"/>
-      <c r="V153" s="77"/>
+      <c r="Q153" s="75"/>
+      <c r="R153" s="75"/>
+      <c r="S153" s="75"/>
+      <c r="T153" s="75"/>
+      <c r="U153" s="75"/>
+      <c r="V153" s="75"/>
     </row>
     <row r="154" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P154" s="77"/>
-      <c r="Q154" s="77"/>
-      <c r="R154" s="77"/>
-      <c r="S154" s="77"/>
-      <c r="T154" s="77"/>
-      <c r="U154" s="77"/>
-      <c r="V154" s="77"/>
+      <c r="P154" s="75"/>
+      <c r="Q154" s="75"/>
+      <c r="R154" s="75"/>
+      <c r="S154" s="75"/>
+      <c r="T154" s="75"/>
+      <c r="U154" s="75"/>
+      <c r="V154" s="75"/>
     </row>
     <row r="155" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M155" s="78" t="s">
+      <c r="M155" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="N155" s="78"/>
-      <c r="O155" s="78"/>
-      <c r="P155" s="79" t="s">
+      <c r="N155" s="76"/>
+      <c r="O155" s="76"/>
+      <c r="P155" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="Q155" s="79"/>
-      <c r="R155" s="79"/>
-      <c r="S155" s="79"/>
+      <c r="Q155" s="77"/>
+      <c r="R155" s="77"/>
+      <c r="S155" s="77"/>
       <c r="T155" s="18"/>
       <c r="U155" s="18"/>
-      <c r="V155" s="82" t="e">
+      <c r="V155" s="78" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W155" s="83"/>
-      <c r="X155" s="84"/>
+      <c r="W155" s="79"/>
+      <c r="X155" s="80"/>
     </row>
     <row r="156" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M156" s="6" t="s">
@@ -9400,45 +9416,45 @@
       <c r="X166" s="4"/>
     </row>
     <row r="168" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P168" s="77" t="s">
+      <c r="P168" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="Q168" s="77"/>
-      <c r="R168" s="77"/>
-      <c r="S168" s="77"/>
-      <c r="T168" s="77"/>
-      <c r="U168" s="77"/>
-      <c r="V168" s="77"/>
+      <c r="Q168" s="75"/>
+      <c r="R168" s="75"/>
+      <c r="S168" s="75"/>
+      <c r="T168" s="75"/>
+      <c r="U168" s="75"/>
+      <c r="V168" s="75"/>
     </row>
     <row r="169" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P169" s="77"/>
-      <c r="Q169" s="77"/>
-      <c r="R169" s="77"/>
-      <c r="S169" s="77"/>
-      <c r="T169" s="77"/>
-      <c r="U169" s="77"/>
-      <c r="V169" s="77"/>
+      <c r="P169" s="75"/>
+      <c r="Q169" s="75"/>
+      <c r="R169" s="75"/>
+      <c r="S169" s="75"/>
+      <c r="T169" s="75"/>
+      <c r="U169" s="75"/>
+      <c r="V169" s="75"/>
     </row>
     <row r="170" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M170" s="78" t="s">
+      <c r="M170" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="N170" s="78"/>
-      <c r="O170" s="78"/>
-      <c r="P170" s="79" t="s">
+      <c r="N170" s="76"/>
+      <c r="O170" s="76"/>
+      <c r="P170" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="Q170" s="79"/>
-      <c r="R170" s="79"/>
-      <c r="S170" s="79"/>
+      <c r="Q170" s="77"/>
+      <c r="R170" s="77"/>
+      <c r="S170" s="77"/>
       <c r="T170" s="18"/>
       <c r="U170" s="18"/>
-      <c r="V170" s="82" t="e">
+      <c r="V170" s="78" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W170" s="83"/>
-      <c r="X170" s="84"/>
+      <c r="W170" s="79"/>
+      <c r="X170" s="80"/>
     </row>
     <row r="171" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M171" s="6" t="s">
@@ -9643,45 +9659,45 @@
       <c r="X181" s="4"/>
     </row>
     <row r="186" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P186" s="77" t="s">
+      <c r="P186" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="Q186" s="77"/>
-      <c r="R186" s="77"/>
-      <c r="S186" s="77"/>
-      <c r="T186" s="77"/>
-      <c r="U186" s="77"/>
-      <c r="V186" s="77"/>
+      <c r="Q186" s="75"/>
+      <c r="R186" s="75"/>
+      <c r="S186" s="75"/>
+      <c r="T186" s="75"/>
+      <c r="U186" s="75"/>
+      <c r="V186" s="75"/>
     </row>
     <row r="187" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P187" s="77"/>
-      <c r="Q187" s="77"/>
-      <c r="R187" s="77"/>
-      <c r="S187" s="77"/>
-      <c r="T187" s="77"/>
-      <c r="U187" s="77"/>
-      <c r="V187" s="77"/>
+      <c r="P187" s="75"/>
+      <c r="Q187" s="75"/>
+      <c r="R187" s="75"/>
+      <c r="S187" s="75"/>
+      <c r="T187" s="75"/>
+      <c r="U187" s="75"/>
+      <c r="V187" s="75"/>
     </row>
     <row r="188" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M188" s="78" t="s">
+      <c r="M188" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="N188" s="78"/>
-      <c r="O188" s="78"/>
-      <c r="P188" s="79" t="s">
+      <c r="N188" s="76"/>
+      <c r="O188" s="76"/>
+      <c r="P188" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="Q188" s="79"/>
-      <c r="R188" s="79"/>
-      <c r="S188" s="79"/>
+      <c r="Q188" s="77"/>
+      <c r="R188" s="77"/>
+      <c r="S188" s="77"/>
       <c r="T188" s="18"/>
       <c r="U188" s="18"/>
-      <c r="V188" s="82" t="e">
+      <c r="V188" s="78" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W188" s="83"/>
-      <c r="X188" s="84"/>
+      <c r="W188" s="79"/>
+      <c r="X188" s="80"/>
     </row>
     <row r="189" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M189" s="6" t="s">
@@ -9851,24 +9867,24 @@
       <c r="X194" s="15"/>
     </row>
     <row r="198" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P198" s="77" t="s">
+      <c r="P198" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="Q198" s="77"/>
-      <c r="R198" s="77"/>
-      <c r="S198" s="77"/>
-      <c r="T198" s="77"/>
-      <c r="U198" s="77"/>
-      <c r="V198" s="77"/>
+      <c r="Q198" s="75"/>
+      <c r="R198" s="75"/>
+      <c r="S198" s="75"/>
+      <c r="T198" s="75"/>
+      <c r="U198" s="75"/>
+      <c r="V198" s="75"/>
     </row>
     <row r="199" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P199" s="77"/>
-      <c r="Q199" s="77"/>
-      <c r="R199" s="77"/>
-      <c r="S199" s="77"/>
-      <c r="T199" s="77"/>
-      <c r="U199" s="77"/>
-      <c r="V199" s="77"/>
+      <c r="P199" s="75"/>
+      <c r="Q199" s="75"/>
+      <c r="R199" s="75"/>
+      <c r="S199" s="75"/>
+      <c r="T199" s="75"/>
+      <c r="U199" s="75"/>
+      <c r="V199" s="75"/>
     </row>
     <row r="200" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M200" s="70" t="s">
@@ -10043,24 +10059,24 @@
       </c>
     </row>
     <row r="209" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P209" s="77" t="s">
+      <c r="P209" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="Q209" s="77"/>
-      <c r="R209" s="77"/>
-      <c r="S209" s="77"/>
-      <c r="T209" s="77"/>
-      <c r="U209" s="77"/>
-      <c r="V209" s="77"/>
+      <c r="Q209" s="75"/>
+      <c r="R209" s="75"/>
+      <c r="S209" s="75"/>
+      <c r="T209" s="75"/>
+      <c r="U209" s="75"/>
+      <c r="V209" s="75"/>
     </row>
     <row r="210" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P210" s="77"/>
-      <c r="Q210" s="77"/>
-      <c r="R210" s="77"/>
-      <c r="S210" s="77"/>
-      <c r="T210" s="77"/>
-      <c r="U210" s="77"/>
-      <c r="V210" s="77"/>
+      <c r="P210" s="75"/>
+      <c r="Q210" s="75"/>
+      <c r="R210" s="75"/>
+      <c r="S210" s="75"/>
+      <c r="T210" s="75"/>
+      <c r="U210" s="75"/>
+      <c r="V210" s="75"/>
     </row>
     <row r="211" spans="13:26" ht="36" x14ac:dyDescent="0.25">
       <c r="M211" s="70" t="s">
@@ -10211,25 +10227,25 @@
         <v>10</v>
       </c>
     </row>
-    <row r="218" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="P218" s="77" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q218" s="77"/>
-      <c r="R218" s="77"/>
-      <c r="S218" s="77"/>
-      <c r="T218" s="77"/>
-      <c r="U218" s="77"/>
-      <c r="V218" s="77"/>
-    </row>
-    <row r="219" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="P219" s="77"/>
-      <c r="Q219" s="77"/>
-      <c r="R219" s="77"/>
-      <c r="S219" s="77"/>
-      <c r="T219" s="77"/>
-      <c r="U219" s="77"/>
-      <c r="V219" s="77"/>
+    <row r="218" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P218" s="75" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q218" s="75"/>
+      <c r="R218" s="75"/>
+      <c r="S218" s="75"/>
+      <c r="T218" s="75"/>
+      <c r="U218" s="75"/>
+      <c r="V218" s="75"/>
+    </row>
+    <row r="219" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P219" s="75"/>
+      <c r="Q219" s="75"/>
+      <c r="R219" s="75"/>
+      <c r="S219" s="75"/>
+      <c r="T219" s="75"/>
+      <c r="U219" s="75"/>
+      <c r="V219" s="75"/>
     </row>
     <row r="220" spans="13:26" ht="36" x14ac:dyDescent="0.25">
       <c r="M220" s="70" t="s">
@@ -10314,19 +10330,19 @@
         <v>11</v>
       </c>
       <c r="T222" s="43">
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="U222" s="33">
-        <v>0.3354166666666667</v>
+        <v>0.48958333333333331</v>
       </c>
       <c r="V222" s="34">
-        <v>0.34652777777777777</v>
+        <v>0.50277777777777777</v>
       </c>
       <c r="W222" s="34">
-        <v>0.36249999999999999</v>
+        <v>6.805555555555555E-2</v>
       </c>
       <c r="X222" s="35">
-        <v>0.38750000000000001</v>
+        <v>8.7500000000000008E-2</v>
       </c>
       <c r="Z222" s="8" t="s">
         <v>8</v>
@@ -10353,19 +10369,19 @@
         <v>11</v>
       </c>
       <c r="T223" s="43">
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="U223" s="69">
-        <v>0.3354166666666667</v>
+        <v>0.48194444444444445</v>
       </c>
       <c r="V223" s="34">
-        <v>0.34722222222222227</v>
+        <v>0.49583333333333335</v>
       </c>
       <c r="W223" s="34">
-        <v>0.3611111111111111</v>
+        <v>0.49722222222222223</v>
       </c>
       <c r="X223" s="35">
-        <v>0.36944444444444446</v>
+        <v>5.6944444444444443E-2</v>
       </c>
       <c r="Z223" s="10" t="s">
         <v>11</v>
@@ -10392,84 +10408,115 @@
         <v>11</v>
       </c>
       <c r="T224" s="43">
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="U224" s="34">
-        <v>0.33680555555555558</v>
+        <v>0.48055555555555557</v>
       </c>
       <c r="V224" s="34">
-        <v>0.34930555555555554</v>
+        <v>0.5</v>
       </c>
       <c r="W224" s="34">
-        <v>0.35625000000000001</v>
+        <v>8.1944444444444445E-2</v>
       </c>
       <c r="X224" s="35">
-        <v>0.36249999999999999</v>
+        <v>0.10208333333333335</v>
       </c>
       <c r="Z224" s="21" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="225" spans="26:26" ht="24" x14ac:dyDescent="0.25">
+    <row r="225" spans="13:26" ht="24" x14ac:dyDescent="0.25">
+      <c r="M225" s="15"/>
+      <c r="N225" s="85" t="s">
+        <v>35</v>
+      </c>
+      <c r="O225" s="86" t="s">
+        <v>107</v>
+      </c>
+      <c r="P225" s="86" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q225" s="86" t="s">
+        <v>62</v>
+      </c>
+      <c r="R225" s="87" t="s">
+        <v>18</v>
+      </c>
+      <c r="S225" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="T225" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="U225" s="34">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="V225" s="34">
+        <v>0.49583333333333335</v>
+      </c>
+      <c r="W225" s="34">
+        <v>0.48749999999999999</v>
+      </c>
+      <c r="X225" s="35">
+        <v>0.5395833333333333</v>
+      </c>
       <c r="Z225" s="9" t="s">
         <v>28</v>
       </c>
     </row>
+    <row r="226" spans="13:26" x14ac:dyDescent="0.25">
+      <c r="M226" s="15"/>
+      <c r="N226" s="85" t="s">
+        <v>35</v>
+      </c>
+      <c r="O226" s="86" t="s">
+        <v>107</v>
+      </c>
+      <c r="P226" s="86" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q226" s="86" t="s">
+        <v>115</v>
+      </c>
+      <c r="R226" s="87" t="s">
+        <v>18</v>
+      </c>
+      <c r="S226" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="T226" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="U226" s="34">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="V226" s="34">
+        <v>0.49861111111111112</v>
+      </c>
+      <c r="W226" s="34">
+        <v>9.0972222222222218E-2</v>
+      </c>
+      <c r="X226" s="88">
+        <v>0.10277777777777779</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="V71:X71"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="C53:G54"/>
-    <mergeCell ref="P53:V54"/>
-    <mergeCell ref="V55:X55"/>
-    <mergeCell ref="C69:G70"/>
-    <mergeCell ref="P69:V70"/>
-    <mergeCell ref="C37:G38"/>
-    <mergeCell ref="P37:V38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="P39:S39"/>
-    <mergeCell ref="V39:X39"/>
-    <mergeCell ref="C22:G23"/>
-    <mergeCell ref="P22:V23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="C2:G3"/>
-    <mergeCell ref="P2:V3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="M55:O55"/>
-    <mergeCell ref="P55:S55"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="D71:G71"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="M71:O71"/>
-    <mergeCell ref="P71:S71"/>
-    <mergeCell ref="P121:V122"/>
-    <mergeCell ref="V123:X123"/>
-    <mergeCell ref="M123:O123"/>
-    <mergeCell ref="P123:S123"/>
-    <mergeCell ref="P138:V139"/>
-    <mergeCell ref="C86:G87"/>
-    <mergeCell ref="P86:V87"/>
-    <mergeCell ref="A88:C88"/>
-    <mergeCell ref="D88:G88"/>
-    <mergeCell ref="H88:J88"/>
-    <mergeCell ref="M88:O88"/>
-    <mergeCell ref="P88:S88"/>
-    <mergeCell ref="V88:X88"/>
+    <mergeCell ref="P218:V219"/>
+    <mergeCell ref="P198:V199"/>
+    <mergeCell ref="P186:V187"/>
+    <mergeCell ref="M188:O188"/>
+    <mergeCell ref="P188:S188"/>
+    <mergeCell ref="V188:X188"/>
+    <mergeCell ref="P209:V210"/>
+    <mergeCell ref="P168:V169"/>
+    <mergeCell ref="M170:O170"/>
+    <mergeCell ref="P170:S170"/>
+    <mergeCell ref="V170:X170"/>
+    <mergeCell ref="M155:O155"/>
+    <mergeCell ref="P155:S155"/>
+    <mergeCell ref="V155:X155"/>
     <mergeCell ref="P153:V154"/>
     <mergeCell ref="C103:G104"/>
     <mergeCell ref="P103:V104"/>
@@ -10486,20 +10533,59 @@
     <mergeCell ref="M140:O140"/>
     <mergeCell ref="P140:S140"/>
     <mergeCell ref="V140:X140"/>
-    <mergeCell ref="P168:V169"/>
-    <mergeCell ref="M170:O170"/>
-    <mergeCell ref="P170:S170"/>
-    <mergeCell ref="V170:X170"/>
-    <mergeCell ref="M155:O155"/>
-    <mergeCell ref="P155:S155"/>
-    <mergeCell ref="V155:X155"/>
-    <mergeCell ref="P218:V219"/>
-    <mergeCell ref="P198:V199"/>
-    <mergeCell ref="P186:V187"/>
-    <mergeCell ref="M188:O188"/>
-    <mergeCell ref="P188:S188"/>
-    <mergeCell ref="V188:X188"/>
-    <mergeCell ref="P209:V210"/>
+    <mergeCell ref="C86:G87"/>
+    <mergeCell ref="P86:V87"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="D88:G88"/>
+    <mergeCell ref="H88:J88"/>
+    <mergeCell ref="M88:O88"/>
+    <mergeCell ref="P88:S88"/>
+    <mergeCell ref="V88:X88"/>
+    <mergeCell ref="P121:V122"/>
+    <mergeCell ref="V123:X123"/>
+    <mergeCell ref="M123:O123"/>
+    <mergeCell ref="P123:S123"/>
+    <mergeCell ref="P138:V139"/>
+    <mergeCell ref="C2:G3"/>
+    <mergeCell ref="P2:V3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="C22:G23"/>
+    <mergeCell ref="P22:V23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="C37:G38"/>
+    <mergeCell ref="P37:V38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="P39:S39"/>
+    <mergeCell ref="V39:X39"/>
+    <mergeCell ref="V71:X71"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="C53:G54"/>
+    <mergeCell ref="P53:V54"/>
+    <mergeCell ref="V55:X55"/>
+    <mergeCell ref="C69:G70"/>
+    <mergeCell ref="P69:V70"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="P55:S55"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="D71:G71"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="M71:O71"/>
+    <mergeCell ref="P71:S71"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/DOC 2023/FORMATO STATUS.xlsx
+++ b/DOC 2023/FORMATO STATUS.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\DOC 2023\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388ADEF2-56DC-4A2F-B409-F45600745733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="FEBRERO" sheetId="2" r:id="rId1"/>
     <sheet name="MARZO" sheetId="3" r:id="rId2"/>
     <sheet name="Hoja2" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="118">
   <si>
     <t>DT</t>
   </si>
@@ -383,12 +377,18 @@
   </si>
   <si>
     <t>Wliam Sandoval</t>
+  </si>
+  <si>
+    <t>Jueves 01-06-2023</t>
+  </si>
+  <si>
+    <t>WILLIAM SANDOVAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
@@ -714,7 +714,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -926,9 +926,6 @@
     <xf numFmtId="164" fontId="6" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -944,18 +941,6 @@
     <xf numFmtId="164" fontId="6" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -966,6 +951,36 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1243,14 +1258,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Z124"/>
   <sheetViews>
     <sheetView topLeftCell="J103" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
@@ -1272,72 +1287,72 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C2" s="81" t="s">
+      <c r="C2" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="P2" s="75" t="s">
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="P2" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="75"/>
-      <c r="R2" s="75"/>
-      <c r="S2" s="75"/>
-      <c r="T2" s="75"/>
-      <c r="U2" s="75"/>
-      <c r="V2" s="75"/>
+      <c r="Q2" s="86"/>
+      <c r="R2" s="86"/>
+      <c r="S2" s="86"/>
+      <c r="T2" s="86"/>
+      <c r="U2" s="86"/>
+      <c r="V2" s="86"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="75"/>
-      <c r="R3" s="75"/>
-      <c r="S3" s="75"/>
-      <c r="T3" s="75"/>
-      <c r="U3" s="75"/>
-      <c r="V3" s="75"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="P3" s="86"/>
+      <c r="Q3" s="86"/>
+      <c r="R3" s="86"/>
+      <c r="S3" s="86"/>
+      <c r="T3" s="86"/>
+      <c r="U3" s="86"/>
+      <c r="V3" s="86"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="77" t="s">
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="83">
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="89">
         <v>44965</v>
       </c>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="M4" s="76" t="s">
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="M4" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="77" t="s">
+      <c r="N4" s="87"/>
+      <c r="O4" s="87"/>
+      <c r="P4" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="77"/>
-      <c r="S4" s="77"/>
+      <c r="Q4" s="88"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="88"/>
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
-      <c r="V4" s="78">
+      <c r="V4" s="91">
         <v>44601</v>
       </c>
-      <c r="W4" s="79"/>
-      <c r="X4" s="80"/>
+      <c r="W4" s="92"/>
+      <c r="X4" s="93"/>
     </row>
     <row r="5" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -1752,72 +1767,72 @@
       <c r="X15" s="4"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C22" s="81" t="s">
+      <c r="C22" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="81"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="81"/>
-      <c r="P22" s="75" t="s">
+      <c r="D22" s="84"/>
+      <c r="E22" s="84"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="84"/>
+      <c r="P22" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="Q22" s="75"/>
-      <c r="R22" s="75"/>
-      <c r="S22" s="75"/>
-      <c r="T22" s="75"/>
-      <c r="U22" s="75"/>
-      <c r="V22" s="75"/>
+      <c r="Q22" s="86"/>
+      <c r="R22" s="86"/>
+      <c r="S22" s="86"/>
+      <c r="T22" s="86"/>
+      <c r="U22" s="86"/>
+      <c r="V22" s="86"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C23" s="82"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="82"/>
-      <c r="P23" s="75"/>
-      <c r="Q23" s="75"/>
-      <c r="R23" s="75"/>
-      <c r="S23" s="75"/>
-      <c r="T23" s="75"/>
-      <c r="U23" s="75"/>
-      <c r="V23" s="75"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="85"/>
+      <c r="P23" s="86"/>
+      <c r="Q23" s="86"/>
+      <c r="R23" s="86"/>
+      <c r="S23" s="86"/>
+      <c r="T23" s="86"/>
+      <c r="U23" s="86"/>
+      <c r="V23" s="86"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="76" t="s">
+      <c r="A24" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="76"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="77" t="s">
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="83">
+      <c r="E24" s="88"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="88"/>
+      <c r="H24" s="89">
         <v>44965</v>
       </c>
-      <c r="I24" s="84"/>
-      <c r="J24" s="84"/>
-      <c r="M24" s="76" t="s">
+      <c r="I24" s="90"/>
+      <c r="J24" s="90"/>
+      <c r="M24" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="N24" s="76"/>
-      <c r="O24" s="76"/>
-      <c r="P24" s="77" t="s">
+      <c r="N24" s="87"/>
+      <c r="O24" s="87"/>
+      <c r="P24" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="Q24" s="77"/>
-      <c r="R24" s="77"/>
-      <c r="S24" s="77"/>
+      <c r="Q24" s="88"/>
+      <c r="R24" s="88"/>
+      <c r="S24" s="88"/>
       <c r="T24" s="18"/>
       <c r="U24" s="18"/>
-      <c r="V24" s="78">
+      <c r="V24" s="91">
         <v>44971</v>
       </c>
-      <c r="W24" s="79"/>
-      <c r="X24" s="80"/>
+      <c r="W24" s="92"/>
+      <c r="X24" s="93"/>
     </row>
     <row r="25" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -2272,72 +2287,72 @@
       <c r="X35" s="4"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C38" s="81" t="s">
+      <c r="C38" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="81"/>
-      <c r="E38" s="81"/>
-      <c r="F38" s="81"/>
-      <c r="G38" s="81"/>
-      <c r="P38" s="75" t="s">
+      <c r="D38" s="84"/>
+      <c r="E38" s="84"/>
+      <c r="F38" s="84"/>
+      <c r="G38" s="84"/>
+      <c r="P38" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="Q38" s="75"/>
-      <c r="R38" s="75"/>
-      <c r="S38" s="75"/>
-      <c r="T38" s="75"/>
-      <c r="U38" s="75"/>
-      <c r="V38" s="75"/>
+      <c r="Q38" s="86"/>
+      <c r="R38" s="86"/>
+      <c r="S38" s="86"/>
+      <c r="T38" s="86"/>
+      <c r="U38" s="86"/>
+      <c r="V38" s="86"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C39" s="82"/>
-      <c r="D39" s="82"/>
-      <c r="E39" s="82"/>
-      <c r="F39" s="82"/>
-      <c r="G39" s="82"/>
-      <c r="P39" s="75"/>
-      <c r="Q39" s="75"/>
-      <c r="R39" s="75"/>
-      <c r="S39" s="75"/>
-      <c r="T39" s="75"/>
-      <c r="U39" s="75"/>
-      <c r="V39" s="75"/>
+      <c r="C39" s="85"/>
+      <c r="D39" s="85"/>
+      <c r="E39" s="85"/>
+      <c r="F39" s="85"/>
+      <c r="G39" s="85"/>
+      <c r="P39" s="86"/>
+      <c r="Q39" s="86"/>
+      <c r="R39" s="86"/>
+      <c r="S39" s="86"/>
+      <c r="T39" s="86"/>
+      <c r="U39" s="86"/>
+      <c r="V39" s="86"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A40" s="76" t="s">
+      <c r="A40" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="76"/>
-      <c r="C40" s="76"/>
-      <c r="D40" s="77" t="s">
+      <c r="B40" s="87"/>
+      <c r="C40" s="87"/>
+      <c r="D40" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="E40" s="77"/>
-      <c r="F40" s="77"/>
-      <c r="G40" s="77"/>
-      <c r="H40" s="83">
+      <c r="E40" s="88"/>
+      <c r="F40" s="88"/>
+      <c r="G40" s="88"/>
+      <c r="H40" s="89">
         <v>44972</v>
       </c>
-      <c r="I40" s="84"/>
-      <c r="J40" s="84"/>
-      <c r="M40" s="76" t="s">
+      <c r="I40" s="90"/>
+      <c r="J40" s="90"/>
+      <c r="M40" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="N40" s="76"/>
-      <c r="O40" s="76"/>
-      <c r="P40" s="77" t="s">
+      <c r="N40" s="87"/>
+      <c r="O40" s="87"/>
+      <c r="P40" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="Q40" s="77"/>
-      <c r="R40" s="77"/>
-      <c r="S40" s="77"/>
+      <c r="Q40" s="88"/>
+      <c r="R40" s="88"/>
+      <c r="S40" s="88"/>
       <c r="T40" s="18"/>
       <c r="U40" s="18"/>
-      <c r="V40" s="78">
+      <c r="V40" s="91">
         <v>44973</v>
       </c>
-      <c r="W40" s="79"/>
-      <c r="X40" s="80"/>
+      <c r="W40" s="92"/>
+      <c r="X40" s="93"/>
     </row>
     <row r="41" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
@@ -2752,72 +2767,72 @@
       <c r="X51" s="4"/>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C54" s="81" t="s">
+      <c r="C54" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="D54" s="81"/>
-      <c r="E54" s="81"/>
-      <c r="F54" s="81"/>
-      <c r="G54" s="81"/>
-      <c r="P54" s="75" t="s">
+      <c r="D54" s="84"/>
+      <c r="E54" s="84"/>
+      <c r="F54" s="84"/>
+      <c r="G54" s="84"/>
+      <c r="P54" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="Q54" s="75"/>
-      <c r="R54" s="75"/>
-      <c r="S54" s="75"/>
-      <c r="T54" s="75"/>
-      <c r="U54" s="75"/>
-      <c r="V54" s="75"/>
+      <c r="Q54" s="86"/>
+      <c r="R54" s="86"/>
+      <c r="S54" s="86"/>
+      <c r="T54" s="86"/>
+      <c r="U54" s="86"/>
+      <c r="V54" s="86"/>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C55" s="82"/>
-      <c r="D55" s="82"/>
-      <c r="E55" s="82"/>
-      <c r="F55" s="82"/>
-      <c r="G55" s="82"/>
-      <c r="P55" s="75"/>
-      <c r="Q55" s="75"/>
-      <c r="R55" s="75"/>
-      <c r="S55" s="75"/>
-      <c r="T55" s="75"/>
-      <c r="U55" s="75"/>
-      <c r="V55" s="75"/>
+      <c r="C55" s="85"/>
+      <c r="D55" s="85"/>
+      <c r="E55" s="85"/>
+      <c r="F55" s="85"/>
+      <c r="G55" s="85"/>
+      <c r="P55" s="86"/>
+      <c r="Q55" s="86"/>
+      <c r="R55" s="86"/>
+      <c r="S55" s="86"/>
+      <c r="T55" s="86"/>
+      <c r="U55" s="86"/>
+      <c r="V55" s="86"/>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A56" s="76" t="s">
+      <c r="A56" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="76"/>
-      <c r="C56" s="76"/>
-      <c r="D56" s="77" t="s">
+      <c r="B56" s="87"/>
+      <c r="C56" s="87"/>
+      <c r="D56" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="E56" s="77"/>
-      <c r="F56" s="77"/>
-      <c r="G56" s="77"/>
-      <c r="H56" s="83">
+      <c r="E56" s="88"/>
+      <c r="F56" s="88"/>
+      <c r="G56" s="88"/>
+      <c r="H56" s="89">
         <v>44974</v>
       </c>
-      <c r="I56" s="84"/>
-      <c r="J56" s="84"/>
-      <c r="M56" s="76" t="s">
+      <c r="I56" s="90"/>
+      <c r="J56" s="90"/>
+      <c r="M56" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="N56" s="76"/>
-      <c r="O56" s="76"/>
-      <c r="P56" s="77" t="s">
+      <c r="N56" s="87"/>
+      <c r="O56" s="87"/>
+      <c r="P56" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="Q56" s="77"/>
-      <c r="R56" s="77"/>
-      <c r="S56" s="77"/>
+      <c r="Q56" s="88"/>
+      <c r="R56" s="88"/>
+      <c r="S56" s="88"/>
       <c r="T56" s="18"/>
       <c r="U56" s="18"/>
-      <c r="V56" s="78">
+      <c r="V56" s="91">
         <v>44975</v>
       </c>
-      <c r="W56" s="79"/>
-      <c r="X56" s="80"/>
+      <c r="W56" s="92"/>
+      <c r="X56" s="93"/>
     </row>
     <row r="57" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
@@ -3272,72 +3287,72 @@
       <c r="X67" s="4"/>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C70" s="81" t="s">
+      <c r="C70" s="84" t="s">
         <v>54</v>
       </c>
-      <c r="D70" s="81"/>
-      <c r="E70" s="81"/>
-      <c r="F70" s="81"/>
-      <c r="G70" s="81"/>
-      <c r="P70" s="75" t="s">
+      <c r="D70" s="84"/>
+      <c r="E70" s="84"/>
+      <c r="F70" s="84"/>
+      <c r="G70" s="84"/>
+      <c r="P70" s="86" t="s">
         <v>55</v>
       </c>
-      <c r="Q70" s="75"/>
-      <c r="R70" s="75"/>
-      <c r="S70" s="75"/>
-      <c r="T70" s="75"/>
-      <c r="U70" s="75"/>
-      <c r="V70" s="75"/>
+      <c r="Q70" s="86"/>
+      <c r="R70" s="86"/>
+      <c r="S70" s="86"/>
+      <c r="T70" s="86"/>
+      <c r="U70" s="86"/>
+      <c r="V70" s="86"/>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C71" s="82"/>
-      <c r="D71" s="82"/>
-      <c r="E71" s="82"/>
-      <c r="F71" s="82"/>
-      <c r="G71" s="82"/>
-      <c r="P71" s="75"/>
-      <c r="Q71" s="75"/>
-      <c r="R71" s="75"/>
-      <c r="S71" s="75"/>
-      <c r="T71" s="75"/>
-      <c r="U71" s="75"/>
-      <c r="V71" s="75"/>
+      <c r="C71" s="85"/>
+      <c r="D71" s="85"/>
+      <c r="E71" s="85"/>
+      <c r="F71" s="85"/>
+      <c r="G71" s="85"/>
+      <c r="P71" s="86"/>
+      <c r="Q71" s="86"/>
+      <c r="R71" s="86"/>
+      <c r="S71" s="86"/>
+      <c r="T71" s="86"/>
+      <c r="U71" s="86"/>
+      <c r="V71" s="86"/>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A72" s="76" t="s">
+      <c r="A72" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B72" s="76"/>
-      <c r="C72" s="76"/>
-      <c r="D72" s="77" t="s">
+      <c r="B72" s="87"/>
+      <c r="C72" s="87"/>
+      <c r="D72" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="E72" s="77"/>
-      <c r="F72" s="77"/>
-      <c r="G72" s="77"/>
-      <c r="H72" s="83">
+      <c r="E72" s="88"/>
+      <c r="F72" s="88"/>
+      <c r="G72" s="88"/>
+      <c r="H72" s="89">
         <v>44979</v>
       </c>
-      <c r="I72" s="84"/>
-      <c r="J72" s="84"/>
-      <c r="M72" s="76" t="s">
+      <c r="I72" s="90"/>
+      <c r="J72" s="90"/>
+      <c r="M72" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="N72" s="76"/>
-      <c r="O72" s="76"/>
-      <c r="P72" s="77" t="s">
+      <c r="N72" s="87"/>
+      <c r="O72" s="87"/>
+      <c r="P72" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="Q72" s="77"/>
-      <c r="R72" s="77"/>
-      <c r="S72" s="77"/>
+      <c r="Q72" s="88"/>
+      <c r="R72" s="88"/>
+      <c r="S72" s="88"/>
       <c r="T72" s="18"/>
       <c r="U72" s="18"/>
-      <c r="V72" s="78">
+      <c r="V72" s="91">
         <v>44980</v>
       </c>
-      <c r="W72" s="79"/>
-      <c r="X72" s="80"/>
+      <c r="W72" s="92"/>
+      <c r="X72" s="93"/>
     </row>
     <row r="73" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
@@ -3708,72 +3723,72 @@
       <c r="X83" s="4"/>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C87" s="81" t="s">
+      <c r="C87" s="84" t="s">
         <v>71</v>
       </c>
-      <c r="D87" s="81"/>
-      <c r="E87" s="81"/>
-      <c r="F87" s="81"/>
-      <c r="G87" s="81"/>
-      <c r="P87" s="75" t="s">
+      <c r="D87" s="84"/>
+      <c r="E87" s="84"/>
+      <c r="F87" s="84"/>
+      <c r="G87" s="84"/>
+      <c r="P87" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="Q87" s="75"/>
-      <c r="R87" s="75"/>
-      <c r="S87" s="75"/>
-      <c r="T87" s="75"/>
-      <c r="U87" s="75"/>
-      <c r="V87" s="75"/>
+      <c r="Q87" s="86"/>
+      <c r="R87" s="86"/>
+      <c r="S87" s="86"/>
+      <c r="T87" s="86"/>
+      <c r="U87" s="86"/>
+      <c r="V87" s="86"/>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C88" s="82"/>
-      <c r="D88" s="82"/>
-      <c r="E88" s="82"/>
-      <c r="F88" s="82"/>
-      <c r="G88" s="82"/>
-      <c r="P88" s="75"/>
-      <c r="Q88" s="75"/>
-      <c r="R88" s="75"/>
-      <c r="S88" s="75"/>
-      <c r="T88" s="75"/>
-      <c r="U88" s="75"/>
-      <c r="V88" s="75"/>
+      <c r="C88" s="85"/>
+      <c r="D88" s="85"/>
+      <c r="E88" s="85"/>
+      <c r="F88" s="85"/>
+      <c r="G88" s="85"/>
+      <c r="P88" s="86"/>
+      <c r="Q88" s="86"/>
+      <c r="R88" s="86"/>
+      <c r="S88" s="86"/>
+      <c r="T88" s="86"/>
+      <c r="U88" s="86"/>
+      <c r="V88" s="86"/>
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A89" s="76" t="s">
+      <c r="A89" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B89" s="76"/>
-      <c r="C89" s="76"/>
-      <c r="D89" s="77" t="s">
+      <c r="B89" s="87"/>
+      <c r="C89" s="87"/>
+      <c r="D89" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="E89" s="77"/>
-      <c r="F89" s="77"/>
-      <c r="G89" s="77"/>
-      <c r="H89" s="83">
+      <c r="E89" s="88"/>
+      <c r="F89" s="88"/>
+      <c r="G89" s="88"/>
+      <c r="H89" s="89">
         <v>44981</v>
       </c>
-      <c r="I89" s="84"/>
-      <c r="J89" s="84"/>
-      <c r="M89" s="76" t="s">
+      <c r="I89" s="90"/>
+      <c r="J89" s="90"/>
+      <c r="M89" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="N89" s="76"/>
-      <c r="O89" s="76"/>
-      <c r="P89" s="77" t="s">
+      <c r="N89" s="87"/>
+      <c r="O89" s="87"/>
+      <c r="P89" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="Q89" s="77"/>
-      <c r="R89" s="77"/>
-      <c r="S89" s="77"/>
+      <c r="Q89" s="88"/>
+      <c r="R89" s="88"/>
+      <c r="S89" s="88"/>
       <c r="T89" s="18"/>
       <c r="U89" s="18"/>
-      <c r="V89" s="78">
+      <c r="V89" s="91">
         <v>44980</v>
       </c>
-      <c r="W89" s="79"/>
-      <c r="X89" s="80"/>
+      <c r="W89" s="92"/>
+      <c r="X89" s="93"/>
     </row>
     <row r="90" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
@@ -4228,72 +4243,72 @@
       <c r="X100" s="4"/>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C104" s="81" t="s">
+      <c r="C104" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="D104" s="81"/>
-      <c r="E104" s="81"/>
-      <c r="F104" s="81"/>
-      <c r="G104" s="81"/>
-      <c r="P104" s="75" t="s">
+      <c r="D104" s="84"/>
+      <c r="E104" s="84"/>
+      <c r="F104" s="84"/>
+      <c r="G104" s="84"/>
+      <c r="P104" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="Q104" s="75"/>
-      <c r="R104" s="75"/>
-      <c r="S104" s="75"/>
-      <c r="T104" s="75"/>
-      <c r="U104" s="75"/>
-      <c r="V104" s="75"/>
+      <c r="Q104" s="86"/>
+      <c r="R104" s="86"/>
+      <c r="S104" s="86"/>
+      <c r="T104" s="86"/>
+      <c r="U104" s="86"/>
+      <c r="V104" s="86"/>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C105" s="82"/>
-      <c r="D105" s="82"/>
-      <c r="E105" s="82"/>
-      <c r="F105" s="82"/>
-      <c r="G105" s="82"/>
-      <c r="P105" s="75"/>
-      <c r="Q105" s="75"/>
-      <c r="R105" s="75"/>
-      <c r="S105" s="75"/>
-      <c r="T105" s="75"/>
-      <c r="U105" s="75"/>
-      <c r="V105" s="75"/>
+      <c r="C105" s="85"/>
+      <c r="D105" s="85"/>
+      <c r="E105" s="85"/>
+      <c r="F105" s="85"/>
+      <c r="G105" s="85"/>
+      <c r="P105" s="86"/>
+      <c r="Q105" s="86"/>
+      <c r="R105" s="86"/>
+      <c r="S105" s="86"/>
+      <c r="T105" s="86"/>
+      <c r="U105" s="86"/>
+      <c r="V105" s="86"/>
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A106" s="76" t="s">
+      <c r="A106" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B106" s="76"/>
-      <c r="C106" s="76"/>
-      <c r="D106" s="77" t="s">
+      <c r="B106" s="87"/>
+      <c r="C106" s="87"/>
+      <c r="D106" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="E106" s="77"/>
-      <c r="F106" s="77"/>
-      <c r="G106" s="77"/>
-      <c r="H106" s="83">
+      <c r="E106" s="88"/>
+      <c r="F106" s="88"/>
+      <c r="G106" s="88"/>
+      <c r="H106" s="89">
         <v>44979</v>
       </c>
-      <c r="I106" s="84"/>
-      <c r="J106" s="84"/>
-      <c r="M106" s="76" t="s">
+      <c r="I106" s="90"/>
+      <c r="J106" s="90"/>
+      <c r="M106" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="N106" s="76"/>
-      <c r="O106" s="76"/>
-      <c r="P106" s="77" t="s">
+      <c r="N106" s="87"/>
+      <c r="O106" s="87"/>
+      <c r="P106" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="Q106" s="77"/>
-      <c r="R106" s="77"/>
-      <c r="S106" s="77"/>
+      <c r="Q106" s="88"/>
+      <c r="R106" s="88"/>
+      <c r="S106" s="88"/>
       <c r="T106" s="18"/>
       <c r="U106" s="18"/>
-      <c r="V106" s="78" t="s">
+      <c r="V106" s="91" t="s">
         <v>66</v>
       </c>
-      <c r="W106" s="79"/>
-      <c r="X106" s="80"/>
+      <c r="W106" s="92"/>
+      <c r="X106" s="93"/>
     </row>
     <row r="107" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
@@ -4791,6 +4806,54 @@
     <row r="124" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="P38:V39"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="P40:S40"/>
+    <mergeCell ref="V40:X40"/>
+    <mergeCell ref="C38:G39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="C22:G23"/>
+    <mergeCell ref="P22:V23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="C2:G3"/>
+    <mergeCell ref="P2:V3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="C54:G55"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="P54:V55"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="P56:S56"/>
+    <mergeCell ref="V56:X56"/>
+    <mergeCell ref="C70:G71"/>
+    <mergeCell ref="P70:V71"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="D72:G72"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="M72:O72"/>
+    <mergeCell ref="P72:S72"/>
+    <mergeCell ref="V72:X72"/>
+    <mergeCell ref="C87:G88"/>
+    <mergeCell ref="P87:V88"/>
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="D89:G89"/>
+    <mergeCell ref="H89:J89"/>
+    <mergeCell ref="M89:O89"/>
+    <mergeCell ref="P89:S89"/>
+    <mergeCell ref="V89:X89"/>
     <mergeCell ref="C104:G105"/>
     <mergeCell ref="P104:V105"/>
     <mergeCell ref="A106:C106"/>
@@ -4799,54 +4862,6 @@
     <mergeCell ref="M106:O106"/>
     <mergeCell ref="P106:S106"/>
     <mergeCell ref="V106:X106"/>
-    <mergeCell ref="C87:G88"/>
-    <mergeCell ref="P87:V88"/>
-    <mergeCell ref="A89:C89"/>
-    <mergeCell ref="D89:G89"/>
-    <mergeCell ref="H89:J89"/>
-    <mergeCell ref="M89:O89"/>
-    <mergeCell ref="P89:S89"/>
-    <mergeCell ref="V89:X89"/>
-    <mergeCell ref="C70:G71"/>
-    <mergeCell ref="P70:V71"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="D72:G72"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="M72:O72"/>
-    <mergeCell ref="P72:S72"/>
-    <mergeCell ref="V72:X72"/>
-    <mergeCell ref="C54:G55"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="P54:V55"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="P56:S56"/>
-    <mergeCell ref="V56:X56"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="C2:G3"/>
-    <mergeCell ref="P2:V3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="C22:G23"/>
-    <mergeCell ref="P22:V23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="P38:V39"/>
-    <mergeCell ref="M40:O40"/>
-    <mergeCell ref="P40:S40"/>
-    <mergeCell ref="V40:X40"/>
-    <mergeCell ref="C38:G39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="H40:J40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4854,11 +4869,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:Z226"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:Z236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L208" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S226" sqref="S226"/>
+    <sheetView tabSelected="1" topLeftCell="M226" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X234" sqref="X234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4878,72 +4893,72 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C2" s="81" t="s">
+      <c r="C2" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="P2" s="75" t="s">
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="P2" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="Q2" s="75"/>
-      <c r="R2" s="75"/>
-      <c r="S2" s="75"/>
-      <c r="T2" s="75"/>
-      <c r="U2" s="75"/>
-      <c r="V2" s="75"/>
+      <c r="Q2" s="86"/>
+      <c r="R2" s="86"/>
+      <c r="S2" s="86"/>
+      <c r="T2" s="86"/>
+      <c r="U2" s="86"/>
+      <c r="V2" s="86"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="75"/>
-      <c r="R3" s="75"/>
-      <c r="S3" s="75"/>
-      <c r="T3" s="75"/>
-      <c r="U3" s="75"/>
-      <c r="V3" s="75"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="P3" s="86"/>
+      <c r="Q3" s="86"/>
+      <c r="R3" s="86"/>
+      <c r="S3" s="86"/>
+      <c r="T3" s="86"/>
+      <c r="U3" s="86"/>
+      <c r="V3" s="86"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="77" t="s">
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="83" t="s">
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="89" t="s">
         <v>74</v>
       </c>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="M4" s="76" t="s">
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="M4" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="77" t="s">
+      <c r="N4" s="87"/>
+      <c r="O4" s="87"/>
+      <c r="P4" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="77"/>
-      <c r="S4" s="77"/>
+      <c r="Q4" s="88"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="88"/>
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
-      <c r="V4" s="78">
+      <c r="V4" s="91">
         <v>44601</v>
       </c>
-      <c r="W4" s="79"/>
-      <c r="X4" s="80"/>
+      <c r="W4" s="92"/>
+      <c r="X4" s="93"/>
     </row>
     <row r="5" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -5410,72 +5425,72 @@
       <c r="X15" s="4"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C22" s="81" t="s">
+      <c r="C22" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="D22" s="81"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="81"/>
-      <c r="P22" s="75" t="s">
+      <c r="D22" s="84"/>
+      <c r="E22" s="84"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="84"/>
+      <c r="P22" s="86" t="s">
         <v>77</v>
       </c>
-      <c r="Q22" s="75"/>
-      <c r="R22" s="75"/>
-      <c r="S22" s="75"/>
-      <c r="T22" s="75"/>
-      <c r="U22" s="75"/>
-      <c r="V22" s="75"/>
+      <c r="Q22" s="86"/>
+      <c r="R22" s="86"/>
+      <c r="S22" s="86"/>
+      <c r="T22" s="86"/>
+      <c r="U22" s="86"/>
+      <c r="V22" s="86"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C23" s="82"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="82"/>
-      <c r="P23" s="75"/>
-      <c r="Q23" s="75"/>
-      <c r="R23" s="75"/>
-      <c r="S23" s="75"/>
-      <c r="T23" s="75"/>
-      <c r="U23" s="75"/>
-      <c r="V23" s="75"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="85"/>
+      <c r="P23" s="86"/>
+      <c r="Q23" s="86"/>
+      <c r="R23" s="86"/>
+      <c r="S23" s="86"/>
+      <c r="T23" s="86"/>
+      <c r="U23" s="86"/>
+      <c r="V23" s="86"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="76" t="s">
+      <c r="A24" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="76"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="77" t="s">
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="83">
+      <c r="E24" s="88"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="88"/>
+      <c r="H24" s="89">
         <v>44993</v>
       </c>
-      <c r="I24" s="84"/>
-      <c r="J24" s="84"/>
-      <c r="M24" s="76" t="s">
+      <c r="I24" s="90"/>
+      <c r="J24" s="90"/>
+      <c r="M24" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="N24" s="76"/>
-      <c r="O24" s="76"/>
-      <c r="P24" s="77" t="s">
+      <c r="N24" s="87"/>
+      <c r="O24" s="87"/>
+      <c r="P24" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="Q24" s="77"/>
-      <c r="R24" s="77"/>
-      <c r="S24" s="77"/>
+      <c r="Q24" s="88"/>
+      <c r="R24" s="88"/>
+      <c r="S24" s="88"/>
       <c r="T24" s="18"/>
       <c r="U24" s="18"/>
-      <c r="V24" s="78">
+      <c r="V24" s="91">
         <v>44993</v>
       </c>
-      <c r="W24" s="79"/>
-      <c r="X24" s="80"/>
+      <c r="W24" s="92"/>
+      <c r="X24" s="93"/>
     </row>
     <row r="25" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -5905,72 +5920,72 @@
       <c r="X34" s="4"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C37" s="81" t="s">
+      <c r="C37" s="84" t="s">
         <v>84</v>
       </c>
-      <c r="D37" s="81"/>
-      <c r="E37" s="81"/>
-      <c r="F37" s="81"/>
-      <c r="G37" s="81"/>
-      <c r="P37" s="75" t="s">
+      <c r="D37" s="84"/>
+      <c r="E37" s="84"/>
+      <c r="F37" s="84"/>
+      <c r="G37" s="84"/>
+      <c r="P37" s="86" t="s">
         <v>81</v>
       </c>
-      <c r="Q37" s="75"/>
-      <c r="R37" s="75"/>
-      <c r="S37" s="75"/>
-      <c r="T37" s="75"/>
-      <c r="U37" s="75"/>
-      <c r="V37" s="75"/>
+      <c r="Q37" s="86"/>
+      <c r="R37" s="86"/>
+      <c r="S37" s="86"/>
+      <c r="T37" s="86"/>
+      <c r="U37" s="86"/>
+      <c r="V37" s="86"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C38" s="82"/>
-      <c r="D38" s="82"/>
-      <c r="E38" s="82"/>
-      <c r="F38" s="82"/>
-      <c r="G38" s="82"/>
-      <c r="P38" s="75"/>
-      <c r="Q38" s="75"/>
-      <c r="R38" s="75"/>
-      <c r="S38" s="75"/>
-      <c r="T38" s="75"/>
-      <c r="U38" s="75"/>
-      <c r="V38" s="75"/>
+      <c r="C38" s="85"/>
+      <c r="D38" s="85"/>
+      <c r="E38" s="85"/>
+      <c r="F38" s="85"/>
+      <c r="G38" s="85"/>
+      <c r="P38" s="86"/>
+      <c r="Q38" s="86"/>
+      <c r="R38" s="86"/>
+      <c r="S38" s="86"/>
+      <c r="T38" s="86"/>
+      <c r="U38" s="86"/>
+      <c r="V38" s="86"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A39" s="76" t="s">
+      <c r="A39" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="76"/>
-      <c r="C39" s="76"/>
-      <c r="D39" s="77" t="s">
+      <c r="B39" s="87"/>
+      <c r="C39" s="87"/>
+      <c r="D39" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="77"/>
-      <c r="F39" s="77"/>
-      <c r="G39" s="77"/>
-      <c r="H39" s="83">
+      <c r="E39" s="88"/>
+      <c r="F39" s="88"/>
+      <c r="G39" s="88"/>
+      <c r="H39" s="89">
         <v>44972</v>
       </c>
-      <c r="I39" s="84"/>
-      <c r="J39" s="84"/>
-      <c r="M39" s="76" t="s">
+      <c r="I39" s="90"/>
+      <c r="J39" s="90"/>
+      <c r="M39" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="N39" s="76"/>
-      <c r="O39" s="76"/>
-      <c r="P39" s="77" t="s">
+      <c r="N39" s="87"/>
+      <c r="O39" s="87"/>
+      <c r="P39" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="Q39" s="77"/>
-      <c r="R39" s="77"/>
-      <c r="S39" s="77"/>
+      <c r="Q39" s="88"/>
+      <c r="R39" s="88"/>
+      <c r="S39" s="88"/>
       <c r="T39" s="18"/>
       <c r="U39" s="18"/>
-      <c r="V39" s="78">
+      <c r="V39" s="91">
         <v>44994</v>
       </c>
-      <c r="W39" s="79"/>
-      <c r="X39" s="80"/>
+      <c r="W39" s="92"/>
+      <c r="X39" s="93"/>
     </row>
     <row r="40" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
@@ -6381,72 +6396,72 @@
       <c r="X50" s="4"/>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C53" s="81">
+      <c r="C53" s="84">
         <v>45005</v>
       </c>
-      <c r="D53" s="81"/>
-      <c r="E53" s="81"/>
-      <c r="F53" s="81"/>
-      <c r="G53" s="81"/>
-      <c r="P53" s="81">
+      <c r="D53" s="84"/>
+      <c r="E53" s="84"/>
+      <c r="F53" s="84"/>
+      <c r="G53" s="84"/>
+      <c r="P53" s="84">
         <v>45006</v>
       </c>
-      <c r="Q53" s="81"/>
-      <c r="R53" s="81"/>
-      <c r="S53" s="81"/>
-      <c r="T53" s="81"/>
-      <c r="U53" s="81"/>
-      <c r="V53" s="81"/>
+      <c r="Q53" s="84"/>
+      <c r="R53" s="84"/>
+      <c r="S53" s="84"/>
+      <c r="T53" s="84"/>
+      <c r="U53" s="84"/>
+      <c r="V53" s="84"/>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C54" s="82"/>
-      <c r="D54" s="82"/>
-      <c r="E54" s="82"/>
-      <c r="F54" s="82"/>
-      <c r="G54" s="82"/>
-      <c r="P54" s="81"/>
-      <c r="Q54" s="81"/>
-      <c r="R54" s="81"/>
-      <c r="S54" s="81"/>
-      <c r="T54" s="81"/>
-      <c r="U54" s="81"/>
-      <c r="V54" s="81"/>
+      <c r="C54" s="85"/>
+      <c r="D54" s="85"/>
+      <c r="E54" s="85"/>
+      <c r="F54" s="85"/>
+      <c r="G54" s="85"/>
+      <c r="P54" s="84"/>
+      <c r="Q54" s="84"/>
+      <c r="R54" s="84"/>
+      <c r="S54" s="84"/>
+      <c r="T54" s="84"/>
+      <c r="U54" s="84"/>
+      <c r="V54" s="84"/>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A55" s="76" t="s">
+      <c r="A55" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="76"/>
-      <c r="C55" s="76"/>
-      <c r="D55" s="77" t="s">
+      <c r="B55" s="87"/>
+      <c r="C55" s="87"/>
+      <c r="D55" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="E55" s="77"/>
-      <c r="F55" s="77"/>
-      <c r="G55" s="77"/>
-      <c r="H55" s="83">
+      <c r="E55" s="88"/>
+      <c r="F55" s="88"/>
+      <c r="G55" s="88"/>
+      <c r="H55" s="89">
         <v>45005</v>
       </c>
-      <c r="I55" s="84"/>
-      <c r="J55" s="84"/>
-      <c r="M55" s="76" t="s">
+      <c r="I55" s="90"/>
+      <c r="J55" s="90"/>
+      <c r="M55" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="N55" s="76"/>
-      <c r="O55" s="76"/>
-      <c r="P55" s="77" t="s">
+      <c r="N55" s="87"/>
+      <c r="O55" s="87"/>
+      <c r="P55" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="Q55" s="77"/>
-      <c r="R55" s="77"/>
-      <c r="S55" s="77"/>
+      <c r="Q55" s="88"/>
+      <c r="R55" s="88"/>
+      <c r="S55" s="88"/>
       <c r="T55" s="18"/>
       <c r="U55" s="18"/>
-      <c r="V55" s="78">
+      <c r="V55" s="91">
         <v>45006</v>
       </c>
-      <c r="W55" s="79"/>
-      <c r="X55" s="80"/>
+      <c r="W55" s="92"/>
+      <c r="X55" s="93"/>
     </row>
     <row r="56" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
@@ -6845,72 +6860,72 @@
       <c r="X66" s="4"/>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C69" s="81" t="s">
+      <c r="C69" s="84" t="s">
         <v>54</v>
       </c>
-      <c r="D69" s="81"/>
-      <c r="E69" s="81"/>
-      <c r="F69" s="81"/>
-      <c r="G69" s="81"/>
-      <c r="P69" s="75" t="s">
+      <c r="D69" s="84"/>
+      <c r="E69" s="84"/>
+      <c r="F69" s="84"/>
+      <c r="G69" s="84"/>
+      <c r="P69" s="86" t="s">
         <v>55</v>
       </c>
-      <c r="Q69" s="75"/>
-      <c r="R69" s="75"/>
-      <c r="S69" s="75"/>
-      <c r="T69" s="75"/>
-      <c r="U69" s="75"/>
-      <c r="V69" s="75"/>
+      <c r="Q69" s="86"/>
+      <c r="R69" s="86"/>
+      <c r="S69" s="86"/>
+      <c r="T69" s="86"/>
+      <c r="U69" s="86"/>
+      <c r="V69" s="86"/>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C70" s="82"/>
-      <c r="D70" s="82"/>
-      <c r="E70" s="82"/>
-      <c r="F70" s="82"/>
-      <c r="G70" s="82"/>
-      <c r="P70" s="75"/>
-      <c r="Q70" s="75"/>
-      <c r="R70" s="75"/>
-      <c r="S70" s="75"/>
-      <c r="T70" s="75"/>
-      <c r="U70" s="75"/>
-      <c r="V70" s="75"/>
+      <c r="C70" s="85"/>
+      <c r="D70" s="85"/>
+      <c r="E70" s="85"/>
+      <c r="F70" s="85"/>
+      <c r="G70" s="85"/>
+      <c r="P70" s="86"/>
+      <c r="Q70" s="86"/>
+      <c r="R70" s="86"/>
+      <c r="S70" s="86"/>
+      <c r="T70" s="86"/>
+      <c r="U70" s="86"/>
+      <c r="V70" s="86"/>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A71" s="76" t="s">
+      <c r="A71" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B71" s="76"/>
-      <c r="C71" s="76"/>
-      <c r="D71" s="77" t="s">
+      <c r="B71" s="87"/>
+      <c r="C71" s="87"/>
+      <c r="D71" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="E71" s="77"/>
-      <c r="F71" s="77"/>
-      <c r="G71" s="77"/>
-      <c r="H71" s="83">
+      <c r="E71" s="88"/>
+      <c r="F71" s="88"/>
+      <c r="G71" s="88"/>
+      <c r="H71" s="89">
         <v>44979</v>
       </c>
-      <c r="I71" s="84"/>
-      <c r="J71" s="84"/>
-      <c r="M71" s="76" t="s">
+      <c r="I71" s="90"/>
+      <c r="J71" s="90"/>
+      <c r="M71" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="N71" s="76"/>
-      <c r="O71" s="76"/>
-      <c r="P71" s="77" t="s">
+      <c r="N71" s="87"/>
+      <c r="O71" s="87"/>
+      <c r="P71" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="Q71" s="77"/>
-      <c r="R71" s="77"/>
-      <c r="S71" s="77"/>
+      <c r="Q71" s="88"/>
+      <c r="R71" s="88"/>
+      <c r="S71" s="88"/>
       <c r="T71" s="18"/>
       <c r="U71" s="18"/>
-      <c r="V71" s="78">
+      <c r="V71" s="91">
         <v>44980</v>
       </c>
-      <c r="W71" s="79"/>
-      <c r="X71" s="80"/>
+      <c r="W71" s="92"/>
+      <c r="X71" s="93"/>
     </row>
     <row r="72" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
@@ -7313,72 +7328,72 @@
       <c r="X82" s="4"/>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C86" s="81" t="s">
+      <c r="C86" s="84" t="s">
         <v>71</v>
       </c>
-      <c r="D86" s="81"/>
-      <c r="E86" s="81"/>
-      <c r="F86" s="81"/>
-      <c r="G86" s="81"/>
-      <c r="P86" s="75" t="s">
+      <c r="D86" s="84"/>
+      <c r="E86" s="84"/>
+      <c r="F86" s="84"/>
+      <c r="G86" s="84"/>
+      <c r="P86" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="Q86" s="75"/>
-      <c r="R86" s="75"/>
-      <c r="S86" s="75"/>
-      <c r="T86" s="75"/>
-      <c r="U86" s="75"/>
-      <c r="V86" s="75"/>
+      <c r="Q86" s="86"/>
+      <c r="R86" s="86"/>
+      <c r="S86" s="86"/>
+      <c r="T86" s="86"/>
+      <c r="U86" s="86"/>
+      <c r="V86" s="86"/>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C87" s="82"/>
-      <c r="D87" s="82"/>
-      <c r="E87" s="82"/>
-      <c r="F87" s="82"/>
-      <c r="G87" s="82"/>
-      <c r="P87" s="75"/>
-      <c r="Q87" s="75"/>
-      <c r="R87" s="75"/>
-      <c r="S87" s="75"/>
-      <c r="T87" s="75"/>
-      <c r="U87" s="75"/>
-      <c r="V87" s="75"/>
+      <c r="C87" s="85"/>
+      <c r="D87" s="85"/>
+      <c r="E87" s="85"/>
+      <c r="F87" s="85"/>
+      <c r="G87" s="85"/>
+      <c r="P87" s="86"/>
+      <c r="Q87" s="86"/>
+      <c r="R87" s="86"/>
+      <c r="S87" s="86"/>
+      <c r="T87" s="86"/>
+      <c r="U87" s="86"/>
+      <c r="V87" s="86"/>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A88" s="76" t="s">
+      <c r="A88" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B88" s="76"/>
-      <c r="C88" s="76"/>
-      <c r="D88" s="77" t="s">
+      <c r="B88" s="87"/>
+      <c r="C88" s="87"/>
+      <c r="D88" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="E88" s="77"/>
-      <c r="F88" s="77"/>
-      <c r="G88" s="77"/>
-      <c r="H88" s="83">
+      <c r="E88" s="88"/>
+      <c r="F88" s="88"/>
+      <c r="G88" s="88"/>
+      <c r="H88" s="89">
         <v>44981</v>
       </c>
-      <c r="I88" s="84"/>
-      <c r="J88" s="84"/>
-      <c r="M88" s="76" t="s">
+      <c r="I88" s="90"/>
+      <c r="J88" s="90"/>
+      <c r="M88" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="N88" s="76"/>
-      <c r="O88" s="76"/>
-      <c r="P88" s="77" t="s">
+      <c r="N88" s="87"/>
+      <c r="O88" s="87"/>
+      <c r="P88" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="Q88" s="77"/>
-      <c r="R88" s="77"/>
-      <c r="S88" s="77"/>
+      <c r="Q88" s="88"/>
+      <c r="R88" s="88"/>
+      <c r="S88" s="88"/>
       <c r="T88" s="18"/>
       <c r="U88" s="18"/>
-      <c r="V88" s="78">
+      <c r="V88" s="91">
         <v>44980</v>
       </c>
-      <c r="W88" s="79"/>
-      <c r="X88" s="80"/>
+      <c r="W88" s="92"/>
+      <c r="X88" s="93"/>
     </row>
     <row r="89" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
@@ -7713,73 +7728,73 @@
       <c r="X99" s="4"/>
     </row>
     <row r="103" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C103" s="81" t="s">
+      <c r="C103" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="D103" s="81"/>
-      <c r="E103" s="81"/>
-      <c r="F103" s="81"/>
-      <c r="G103" s="81"/>
-      <c r="P103" s="75" t="s">
+      <c r="D103" s="84"/>
+      <c r="E103" s="84"/>
+      <c r="F103" s="84"/>
+      <c r="G103" s="84"/>
+      <c r="P103" s="86" t="s">
         <v>90</v>
       </c>
-      <c r="Q103" s="75"/>
-      <c r="R103" s="75"/>
-      <c r="S103" s="75"/>
-      <c r="T103" s="75"/>
-      <c r="U103" s="75"/>
-      <c r="V103" s="75"/>
+      <c r="Q103" s="86"/>
+      <c r="R103" s="86"/>
+      <c r="S103" s="86"/>
+      <c r="T103" s="86"/>
+      <c r="U103" s="86"/>
+      <c r="V103" s="86"/>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C104" s="82"/>
-      <c r="D104" s="82"/>
-      <c r="E104" s="82"/>
-      <c r="F104" s="82"/>
-      <c r="G104" s="82"/>
-      <c r="P104" s="75"/>
-      <c r="Q104" s="75"/>
-      <c r="R104" s="75"/>
-      <c r="S104" s="75"/>
-      <c r="T104" s="75"/>
-      <c r="U104" s="75"/>
-      <c r="V104" s="75"/>
+      <c r="C104" s="85"/>
+      <c r="D104" s="85"/>
+      <c r="E104" s="85"/>
+      <c r="F104" s="85"/>
+      <c r="G104" s="85"/>
+      <c r="P104" s="86"/>
+      <c r="Q104" s="86"/>
+      <c r="R104" s="86"/>
+      <c r="S104" s="86"/>
+      <c r="T104" s="86"/>
+      <c r="U104" s="86"/>
+      <c r="V104" s="86"/>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A105" s="76" t="s">
+      <c r="A105" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B105" s="76"/>
-      <c r="C105" s="76"/>
-      <c r="D105" s="77" t="s">
+      <c r="B105" s="87"/>
+      <c r="C105" s="87"/>
+      <c r="D105" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="E105" s="77"/>
-      <c r="F105" s="77"/>
-      <c r="G105" s="77"/>
-      <c r="H105" s="83">
+      <c r="E105" s="88"/>
+      <c r="F105" s="88"/>
+      <c r="G105" s="88"/>
+      <c r="H105" s="89">
         <v>44979</v>
       </c>
-      <c r="I105" s="84"/>
-      <c r="J105" s="84"/>
-      <c r="M105" s="76" t="s">
+      <c r="I105" s="90"/>
+      <c r="J105" s="90"/>
+      <c r="M105" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="N105" s="76"/>
-      <c r="O105" s="76"/>
-      <c r="P105" s="77" t="s">
+      <c r="N105" s="87"/>
+      <c r="O105" s="87"/>
+      <c r="P105" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="Q105" s="77"/>
-      <c r="R105" s="77"/>
-      <c r="S105" s="77"/>
+      <c r="Q105" s="88"/>
+      <c r="R105" s="88"/>
+      <c r="S105" s="88"/>
       <c r="T105" s="18"/>
       <c r="U105" s="18"/>
-      <c r="V105" s="78" t="e">
+      <c r="V105" s="91" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W105" s="79"/>
-      <c r="X105" s="80"/>
+      <c r="W105" s="92"/>
+      <c r="X105" s="93"/>
     </row>
     <row r="106" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
@@ -8230,73 +8245,73 @@
       <c r="X116" s="4"/>
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C121" s="81" t="s">
+      <c r="C121" s="84" t="s">
         <v>95</v>
       </c>
-      <c r="D121" s="81"/>
-      <c r="E121" s="81"/>
-      <c r="F121" s="81"/>
-      <c r="G121" s="81"/>
-      <c r="P121" s="75" t="s">
+      <c r="D121" s="84"/>
+      <c r="E121" s="84"/>
+      <c r="F121" s="84"/>
+      <c r="G121" s="84"/>
+      <c r="P121" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="Q121" s="75"/>
-      <c r="R121" s="75"/>
-      <c r="S121" s="75"/>
-      <c r="T121" s="75"/>
-      <c r="U121" s="75"/>
-      <c r="V121" s="75"/>
+      <c r="Q121" s="86"/>
+      <c r="R121" s="86"/>
+      <c r="S121" s="86"/>
+      <c r="T121" s="86"/>
+      <c r="U121" s="86"/>
+      <c r="V121" s="86"/>
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C122" s="82"/>
-      <c r="D122" s="82"/>
-      <c r="E122" s="82"/>
-      <c r="F122" s="82"/>
-      <c r="G122" s="82"/>
-      <c r="P122" s="75"/>
-      <c r="Q122" s="75"/>
-      <c r="R122" s="75"/>
-      <c r="S122" s="75"/>
-      <c r="T122" s="75"/>
-      <c r="U122" s="75"/>
-      <c r="V122" s="75"/>
+      <c r="C122" s="85"/>
+      <c r="D122" s="85"/>
+      <c r="E122" s="85"/>
+      <c r="F122" s="85"/>
+      <c r="G122" s="85"/>
+      <c r="P122" s="86"/>
+      <c r="Q122" s="86"/>
+      <c r="R122" s="86"/>
+      <c r="S122" s="86"/>
+      <c r="T122" s="86"/>
+      <c r="U122" s="86"/>
+      <c r="V122" s="86"/>
     </row>
     <row r="123" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="76" t="s">
+      <c r="A123" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B123" s="76"/>
-      <c r="C123" s="76"/>
-      <c r="D123" s="77" t="s">
+      <c r="B123" s="87"/>
+      <c r="C123" s="87"/>
+      <c r="D123" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="E123" s="77"/>
-      <c r="F123" s="77"/>
-      <c r="G123" s="77"/>
-      <c r="H123" s="83">
+      <c r="E123" s="88"/>
+      <c r="F123" s="88"/>
+      <c r="G123" s="88"/>
+      <c r="H123" s="89">
         <v>44979</v>
       </c>
-      <c r="I123" s="84"/>
-      <c r="J123" s="84"/>
-      <c r="M123" s="76" t="s">
+      <c r="I123" s="90"/>
+      <c r="J123" s="90"/>
+      <c r="M123" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="N123" s="76"/>
-      <c r="O123" s="76"/>
-      <c r="P123" s="77" t="s">
+      <c r="N123" s="87"/>
+      <c r="O123" s="87"/>
+      <c r="P123" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="Q123" s="77"/>
-      <c r="R123" s="77"/>
-      <c r="S123" s="77"/>
+      <c r="Q123" s="88"/>
+      <c r="R123" s="88"/>
+      <c r="S123" s="88"/>
       <c r="T123" s="18"/>
       <c r="U123" s="18"/>
-      <c r="V123" s="78" t="e">
+      <c r="V123" s="91" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W123" s="79"/>
-      <c r="X123" s="80"/>
+      <c r="W123" s="92"/>
+      <c r="X123" s="93"/>
     </row>
     <row r="124" spans="1:26" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
@@ -8811,45 +8826,45 @@
       <c r="X134" s="4"/>
     </row>
     <row r="138" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="P138" s="75" t="s">
+      <c r="P138" s="86" t="s">
         <v>97</v>
       </c>
-      <c r="Q138" s="75"/>
-      <c r="R138" s="75"/>
-      <c r="S138" s="75"/>
-      <c r="T138" s="75"/>
-      <c r="U138" s="75"/>
-      <c r="V138" s="75"/>
+      <c r="Q138" s="86"/>
+      <c r="R138" s="86"/>
+      <c r="S138" s="86"/>
+      <c r="T138" s="86"/>
+      <c r="U138" s="86"/>
+      <c r="V138" s="86"/>
     </row>
     <row r="139" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="P139" s="75"/>
-      <c r="Q139" s="75"/>
-      <c r="R139" s="75"/>
-      <c r="S139" s="75"/>
-      <c r="T139" s="75"/>
-      <c r="U139" s="75"/>
-      <c r="V139" s="75"/>
+      <c r="P139" s="86"/>
+      <c r="Q139" s="86"/>
+      <c r="R139" s="86"/>
+      <c r="S139" s="86"/>
+      <c r="T139" s="86"/>
+      <c r="U139" s="86"/>
+      <c r="V139" s="86"/>
     </row>
     <row r="140" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="M140" s="76" t="s">
+      <c r="M140" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="N140" s="76"/>
-      <c r="O140" s="76"/>
-      <c r="P140" s="77" t="s">
+      <c r="N140" s="87"/>
+      <c r="O140" s="87"/>
+      <c r="P140" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="Q140" s="77"/>
-      <c r="R140" s="77"/>
-      <c r="S140" s="77"/>
+      <c r="Q140" s="88"/>
+      <c r="R140" s="88"/>
+      <c r="S140" s="88"/>
       <c r="T140" s="18"/>
       <c r="U140" s="18"/>
-      <c r="V140" s="78" t="e">
+      <c r="V140" s="91" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W140" s="79"/>
-      <c r="X140" s="80"/>
+      <c r="W140" s="92"/>
+      <c r="X140" s="93"/>
     </row>
     <row r="141" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M141" s="6" t="s">
@@ -9114,45 +9129,45 @@
       <c r="S152" s="64"/>
     </row>
     <row r="153" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P153" s="75" t="s">
+      <c r="P153" s="86" t="s">
         <v>102</v>
       </c>
-      <c r="Q153" s="75"/>
-      <c r="R153" s="75"/>
-      <c r="S153" s="75"/>
-      <c r="T153" s="75"/>
-      <c r="U153" s="75"/>
-      <c r="V153" s="75"/>
+      <c r="Q153" s="86"/>
+      <c r="R153" s="86"/>
+      <c r="S153" s="86"/>
+      <c r="T153" s="86"/>
+      <c r="U153" s="86"/>
+      <c r="V153" s="86"/>
     </row>
     <row r="154" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P154" s="75"/>
-      <c r="Q154" s="75"/>
-      <c r="R154" s="75"/>
-      <c r="S154" s="75"/>
-      <c r="T154" s="75"/>
-      <c r="U154" s="75"/>
-      <c r="V154" s="75"/>
+      <c r="P154" s="86"/>
+      <c r="Q154" s="86"/>
+      <c r="R154" s="86"/>
+      <c r="S154" s="86"/>
+      <c r="T154" s="86"/>
+      <c r="U154" s="86"/>
+      <c r="V154" s="86"/>
     </row>
     <row r="155" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M155" s="76" t="s">
+      <c r="M155" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="N155" s="76"/>
-      <c r="O155" s="76"/>
-      <c r="P155" s="77" t="s">
+      <c r="N155" s="87"/>
+      <c r="O155" s="87"/>
+      <c r="P155" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="Q155" s="77"/>
-      <c r="R155" s="77"/>
-      <c r="S155" s="77"/>
+      <c r="Q155" s="88"/>
+      <c r="R155" s="88"/>
+      <c r="S155" s="88"/>
       <c r="T155" s="18"/>
       <c r="U155" s="18"/>
-      <c r="V155" s="78" t="e">
+      <c r="V155" s="91" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W155" s="79"/>
-      <c r="X155" s="80"/>
+      <c r="W155" s="92"/>
+      <c r="X155" s="93"/>
     </row>
     <row r="156" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M156" s="6" t="s">
@@ -9416,45 +9431,45 @@
       <c r="X166" s="4"/>
     </row>
     <row r="168" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P168" s="75" t="s">
+      <c r="P168" s="86" t="s">
         <v>100</v>
       </c>
-      <c r="Q168" s="75"/>
-      <c r="R168" s="75"/>
-      <c r="S168" s="75"/>
-      <c r="T168" s="75"/>
-      <c r="U168" s="75"/>
-      <c r="V168" s="75"/>
+      <c r="Q168" s="86"/>
+      <c r="R168" s="86"/>
+      <c r="S168" s="86"/>
+      <c r="T168" s="86"/>
+      <c r="U168" s="86"/>
+      <c r="V168" s="86"/>
     </row>
     <row r="169" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P169" s="75"/>
-      <c r="Q169" s="75"/>
-      <c r="R169" s="75"/>
-      <c r="S169" s="75"/>
-      <c r="T169" s="75"/>
-      <c r="U169" s="75"/>
-      <c r="V169" s="75"/>
+      <c r="P169" s="86"/>
+      <c r="Q169" s="86"/>
+      <c r="R169" s="86"/>
+      <c r="S169" s="86"/>
+      <c r="T169" s="86"/>
+      <c r="U169" s="86"/>
+      <c r="V169" s="86"/>
     </row>
     <row r="170" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M170" s="76" t="s">
+      <c r="M170" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="N170" s="76"/>
-      <c r="O170" s="76"/>
-      <c r="P170" s="77" t="s">
+      <c r="N170" s="87"/>
+      <c r="O170" s="87"/>
+      <c r="P170" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="Q170" s="77"/>
-      <c r="R170" s="77"/>
-      <c r="S170" s="77"/>
+      <c r="Q170" s="88"/>
+      <c r="R170" s="88"/>
+      <c r="S170" s="88"/>
       <c r="T170" s="18"/>
       <c r="U170" s="18"/>
-      <c r="V170" s="78" t="e">
+      <c r="V170" s="91" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W170" s="79"/>
-      <c r="X170" s="80"/>
+      <c r="W170" s="92"/>
+      <c r="X170" s="93"/>
     </row>
     <row r="171" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M171" s="6" t="s">
@@ -9659,45 +9674,45 @@
       <c r="X181" s="4"/>
     </row>
     <row r="186" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P186" s="75" t="s">
+      <c r="P186" s="86" t="s">
         <v>104</v>
       </c>
-      <c r="Q186" s="75"/>
-      <c r="R186" s="75"/>
-      <c r="S186" s="75"/>
-      <c r="T186" s="75"/>
-      <c r="U186" s="75"/>
-      <c r="V186" s="75"/>
+      <c r="Q186" s="86"/>
+      <c r="R186" s="86"/>
+      <c r="S186" s="86"/>
+      <c r="T186" s="86"/>
+      <c r="U186" s="86"/>
+      <c r="V186" s="86"/>
     </row>
     <row r="187" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P187" s="75"/>
-      <c r="Q187" s="75"/>
-      <c r="R187" s="75"/>
-      <c r="S187" s="75"/>
-      <c r="T187" s="75"/>
-      <c r="U187" s="75"/>
-      <c r="V187" s="75"/>
+      <c r="P187" s="86"/>
+      <c r="Q187" s="86"/>
+      <c r="R187" s="86"/>
+      <c r="S187" s="86"/>
+      <c r="T187" s="86"/>
+      <c r="U187" s="86"/>
+      <c r="V187" s="86"/>
     </row>
     <row r="188" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M188" s="76" t="s">
+      <c r="M188" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="N188" s="76"/>
-      <c r="O188" s="76"/>
-      <c r="P188" s="77" t="s">
+      <c r="N188" s="87"/>
+      <c r="O188" s="87"/>
+      <c r="P188" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="Q188" s="77"/>
-      <c r="R188" s="77"/>
-      <c r="S188" s="77"/>
+      <c r="Q188" s="88"/>
+      <c r="R188" s="88"/>
+      <c r="S188" s="88"/>
       <c r="T188" s="18"/>
       <c r="U188" s="18"/>
-      <c r="V188" s="78" t="e">
+      <c r="V188" s="91" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W188" s="79"/>
-      <c r="X188" s="80"/>
+      <c r="W188" s="92"/>
+      <c r="X188" s="93"/>
     </row>
     <row r="189" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M189" s="6" t="s">
@@ -9867,24 +9882,24 @@
       <c r="X194" s="15"/>
     </row>
     <row r="198" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P198" s="75" t="s">
+      <c r="P198" s="86" t="s">
         <v>109</v>
       </c>
-      <c r="Q198" s="75"/>
-      <c r="R198" s="75"/>
-      <c r="S198" s="75"/>
-      <c r="T198" s="75"/>
-      <c r="U198" s="75"/>
-      <c r="V198" s="75"/>
+      <c r="Q198" s="86"/>
+      <c r="R198" s="86"/>
+      <c r="S198" s="86"/>
+      <c r="T198" s="86"/>
+      <c r="U198" s="86"/>
+      <c r="V198" s="86"/>
     </row>
     <row r="199" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P199" s="75"/>
-      <c r="Q199" s="75"/>
-      <c r="R199" s="75"/>
-      <c r="S199" s="75"/>
-      <c r="T199" s="75"/>
-      <c r="U199" s="75"/>
-      <c r="V199" s="75"/>
+      <c r="P199" s="86"/>
+      <c r="Q199" s="86"/>
+      <c r="R199" s="86"/>
+      <c r="S199" s="86"/>
+      <c r="T199" s="86"/>
+      <c r="U199" s="86"/>
+      <c r="V199" s="86"/>
     </row>
     <row r="200" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M200" s="70" t="s">
@@ -10059,24 +10074,24 @@
       </c>
     </row>
     <row r="209" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P209" s="75" t="s">
+      <c r="P209" s="86" t="s">
         <v>113</v>
       </c>
-      <c r="Q209" s="75"/>
-      <c r="R209" s="75"/>
-      <c r="S209" s="75"/>
-      <c r="T209" s="75"/>
-      <c r="U209" s="75"/>
-      <c r="V209" s="75"/>
+      <c r="Q209" s="86"/>
+      <c r="R209" s="86"/>
+      <c r="S209" s="86"/>
+      <c r="T209" s="86"/>
+      <c r="U209" s="86"/>
+      <c r="V209" s="86"/>
     </row>
     <row r="210" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P210" s="75"/>
-      <c r="Q210" s="75"/>
-      <c r="R210" s="75"/>
-      <c r="S210" s="75"/>
-      <c r="T210" s="75"/>
-      <c r="U210" s="75"/>
-      <c r="V210" s="75"/>
+      <c r="P210" s="86"/>
+      <c r="Q210" s="86"/>
+      <c r="R210" s="86"/>
+      <c r="S210" s="86"/>
+      <c r="T210" s="86"/>
+      <c r="U210" s="86"/>
+      <c r="V210" s="86"/>
     </row>
     <row r="211" spans="13:26" ht="36" x14ac:dyDescent="0.25">
       <c r="M211" s="70" t="s">
@@ -10228,24 +10243,24 @@
       </c>
     </row>
     <row r="218" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P218" s="75" t="s">
+      <c r="P218" s="86" t="s">
         <v>114</v>
       </c>
-      <c r="Q218" s="75"/>
-      <c r="R218" s="75"/>
-      <c r="S218" s="75"/>
-      <c r="T218" s="75"/>
-      <c r="U218" s="75"/>
-      <c r="V218" s="75"/>
+      <c r="Q218" s="86"/>
+      <c r="R218" s="86"/>
+      <c r="S218" s="86"/>
+      <c r="T218" s="86"/>
+      <c r="U218" s="86"/>
+      <c r="V218" s="86"/>
     </row>
     <row r="219" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P219" s="75"/>
-      <c r="Q219" s="75"/>
-      <c r="R219" s="75"/>
-      <c r="S219" s="75"/>
-      <c r="T219" s="75"/>
-      <c r="U219" s="75"/>
-      <c r="V219" s="75"/>
+      <c r="P219" s="86"/>
+      <c r="Q219" s="86"/>
+      <c r="R219" s="86"/>
+      <c r="S219" s="86"/>
+      <c r="T219" s="86"/>
+      <c r="U219" s="86"/>
+      <c r="V219" s="86"/>
     </row>
     <row r="220" spans="13:26" ht="36" x14ac:dyDescent="0.25">
       <c r="M220" s="70" t="s">
@@ -10428,19 +10443,19 @@
     </row>
     <row r="225" spans="13:26" ht="24" x14ac:dyDescent="0.25">
       <c r="M225" s="15"/>
-      <c r="N225" s="85" t="s">
+      <c r="N225" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="O225" s="86" t="s">
+      <c r="O225" s="81" t="s">
         <v>107</v>
       </c>
-      <c r="P225" s="86" t="s">
+      <c r="P225" s="81" t="s">
         <v>110</v>
       </c>
-      <c r="Q225" s="86" t="s">
+      <c r="Q225" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="R225" s="87" t="s">
+      <c r="R225" s="82" t="s">
         <v>18</v>
       </c>
       <c r="S225" s="10" t="s">
@@ -10467,19 +10482,19 @@
     </row>
     <row r="226" spans="13:26" x14ac:dyDescent="0.25">
       <c r="M226" s="15"/>
-      <c r="N226" s="85" t="s">
+      <c r="N226" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="O226" s="86" t="s">
+      <c r="O226" s="81" t="s">
         <v>107</v>
       </c>
-      <c r="P226" s="86" t="s">
+      <c r="P226" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="Q226" s="86" t="s">
+      <c r="Q226" s="81" t="s">
         <v>115</v>
       </c>
-      <c r="R226" s="87" t="s">
+      <c r="R226" s="82" t="s">
         <v>18</v>
       </c>
       <c r="S226" s="10" t="s">
@@ -10497,26 +10512,238 @@
       <c r="W226" s="34">
         <v>9.0972222222222218E-2</v>
       </c>
-      <c r="X226" s="88">
+      <c r="X226" s="83">
         <v>0.10277777777777779</v>
       </c>
     </row>
+    <row r="230" spans="13:26" x14ac:dyDescent="0.25">
+      <c r="P230" s="86" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q230" s="86"/>
+      <c r="R230" s="86"/>
+      <c r="S230" s="86"/>
+      <c r="T230" s="86"/>
+      <c r="U230" s="86"/>
+      <c r="V230" s="86"/>
+    </row>
+    <row r="231" spans="13:26" x14ac:dyDescent="0.25">
+      <c r="P231" s="86"/>
+      <c r="Q231" s="86"/>
+      <c r="R231" s="86"/>
+      <c r="S231" s="86"/>
+      <c r="T231" s="86"/>
+      <c r="U231" s="86"/>
+      <c r="V231" s="86"/>
+    </row>
+    <row r="232" spans="13:26" ht="36" x14ac:dyDescent="0.25">
+      <c r="M232" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="N232" s="75"/>
+      <c r="O232" s="75"/>
+      <c r="P232" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q232" s="76"/>
+      <c r="R232" s="76"/>
+      <c r="S232" s="76"/>
+      <c r="T232" s="18"/>
+      <c r="U232" s="18"/>
+      <c r="V232" s="77" t="e">
+        <f>FECHANUMERO</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W232" s="78"/>
+      <c r="X232" s="79"/>
+      <c r="Z232" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="233" spans="13:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="M233" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N233" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O233" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P233" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q233" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="R233" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="S233" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="T233" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="U233" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="V233" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="W233" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="X233" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z233" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="234" spans="13:26" x14ac:dyDescent="0.25">
+      <c r="M234" s="47"/>
+      <c r="N234" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="O234" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="P234" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q234" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="R234" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="S234" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="T234" s="43">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="U234" s="33">
+        <v>0.41597222222222219</v>
+      </c>
+      <c r="V234" s="34">
+        <v>0.43541666666666662</v>
+      </c>
+      <c r="W234" s="34"/>
+      <c r="X234" s="35"/>
+      <c r="Z234" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="235" spans="13:26" x14ac:dyDescent="0.25">
+      <c r="M235" s="47"/>
+      <c r="N235" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="O235" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="P235" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q235" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="R235" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="S235" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="T235" s="43">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="U235" s="69">
+        <v>0.4152777777777778</v>
+      </c>
+      <c r="V235" s="34">
+        <v>0.43541666666666662</v>
+      </c>
+      <c r="W235" s="34"/>
+      <c r="X235" s="35"/>
+      <c r="Z235" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="236" spans="13:26" ht="24" x14ac:dyDescent="0.25">
+      <c r="M236" s="47"/>
+      <c r="N236" s="48"/>
+      <c r="O236" s="49"/>
+      <c r="P236" s="49"/>
+      <c r="Q236" s="49"/>
+      <c r="R236" s="50"/>
+      <c r="S236" s="10"/>
+      <c r="T236" s="43"/>
+      <c r="U236" s="34"/>
+      <c r="V236" s="34"/>
+      <c r="W236" s="34"/>
+      <c r="X236" s="35"/>
+      <c r="Z236" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="83">
-    <mergeCell ref="P218:V219"/>
-    <mergeCell ref="P198:V199"/>
-    <mergeCell ref="P186:V187"/>
-    <mergeCell ref="M188:O188"/>
-    <mergeCell ref="P188:S188"/>
-    <mergeCell ref="V188:X188"/>
-    <mergeCell ref="P209:V210"/>
-    <mergeCell ref="P168:V169"/>
-    <mergeCell ref="M170:O170"/>
-    <mergeCell ref="P170:S170"/>
-    <mergeCell ref="V170:X170"/>
-    <mergeCell ref="M155:O155"/>
-    <mergeCell ref="P155:S155"/>
-    <mergeCell ref="V155:X155"/>
+  <mergeCells count="84">
+    <mergeCell ref="P230:V231"/>
+    <mergeCell ref="V71:X71"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="C53:G54"/>
+    <mergeCell ref="P53:V54"/>
+    <mergeCell ref="V55:X55"/>
+    <mergeCell ref="C69:G70"/>
+    <mergeCell ref="P69:V70"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="P55:S55"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="D71:G71"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="M71:O71"/>
+    <mergeCell ref="P71:S71"/>
+    <mergeCell ref="C37:G38"/>
+    <mergeCell ref="P37:V38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="P39:S39"/>
+    <mergeCell ref="V39:X39"/>
+    <mergeCell ref="C22:G23"/>
+    <mergeCell ref="P22:V23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="C2:G3"/>
+    <mergeCell ref="P2:V3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="P121:V122"/>
+    <mergeCell ref="V123:X123"/>
+    <mergeCell ref="M123:O123"/>
+    <mergeCell ref="P123:S123"/>
+    <mergeCell ref="P138:V139"/>
+    <mergeCell ref="C86:G87"/>
+    <mergeCell ref="P86:V87"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="D88:G88"/>
+    <mergeCell ref="H88:J88"/>
+    <mergeCell ref="M88:O88"/>
+    <mergeCell ref="P88:S88"/>
+    <mergeCell ref="V88:X88"/>
     <mergeCell ref="P153:V154"/>
     <mergeCell ref="C103:G104"/>
     <mergeCell ref="P103:V104"/>
@@ -10533,59 +10760,20 @@
     <mergeCell ref="M140:O140"/>
     <mergeCell ref="P140:S140"/>
     <mergeCell ref="V140:X140"/>
-    <mergeCell ref="C86:G87"/>
-    <mergeCell ref="P86:V87"/>
-    <mergeCell ref="A88:C88"/>
-    <mergeCell ref="D88:G88"/>
-    <mergeCell ref="H88:J88"/>
-    <mergeCell ref="M88:O88"/>
-    <mergeCell ref="P88:S88"/>
-    <mergeCell ref="V88:X88"/>
-    <mergeCell ref="P121:V122"/>
-    <mergeCell ref="V123:X123"/>
-    <mergeCell ref="M123:O123"/>
-    <mergeCell ref="P123:S123"/>
-    <mergeCell ref="P138:V139"/>
-    <mergeCell ref="C2:G3"/>
-    <mergeCell ref="P2:V3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="C22:G23"/>
-    <mergeCell ref="P22:V23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="C37:G38"/>
-    <mergeCell ref="P37:V38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="P39:S39"/>
-    <mergeCell ref="V39:X39"/>
-    <mergeCell ref="V71:X71"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="C53:G54"/>
-    <mergeCell ref="P53:V54"/>
-    <mergeCell ref="V55:X55"/>
-    <mergeCell ref="C69:G70"/>
-    <mergeCell ref="P69:V70"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="M55:O55"/>
-    <mergeCell ref="P55:S55"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="D71:G71"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="M71:O71"/>
-    <mergeCell ref="P71:S71"/>
+    <mergeCell ref="P168:V169"/>
+    <mergeCell ref="M170:O170"/>
+    <mergeCell ref="P170:S170"/>
+    <mergeCell ref="V170:X170"/>
+    <mergeCell ref="M155:O155"/>
+    <mergeCell ref="P155:S155"/>
+    <mergeCell ref="V155:X155"/>
+    <mergeCell ref="P218:V219"/>
+    <mergeCell ref="P198:V199"/>
+    <mergeCell ref="P186:V187"/>
+    <mergeCell ref="M188:O188"/>
+    <mergeCell ref="P188:S188"/>
+    <mergeCell ref="V188:X188"/>
+    <mergeCell ref="P209:V210"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -10593,7 +10781,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="B3" workbookViewId="0">

--- a/DOC 2023/FORMATO STATUS.xlsx
+++ b/DOC 2023/FORMATO STATUS.xlsx
@@ -951,12 +951,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -966,12 +960,6 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -979,6 +967,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1258,7 +1258,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1287,72 +1287,72 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="P2" s="86" t="s">
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="P2" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="86"/>
-      <c r="R2" s="86"/>
-      <c r="S2" s="86"/>
-      <c r="T2" s="86"/>
-      <c r="U2" s="86"/>
-      <c r="V2" s="86"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="84"/>
+      <c r="V2" s="84"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="P3" s="86"/>
-      <c r="Q3" s="86"/>
-      <c r="R3" s="86"/>
-      <c r="S3" s="86"/>
-      <c r="T3" s="86"/>
-      <c r="U3" s="86"/>
-      <c r="V3" s="86"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="84"/>
+      <c r="S3" s="84"/>
+      <c r="T3" s="84"/>
+      <c r="U3" s="84"/>
+      <c r="V3" s="84"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="88" t="s">
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="89">
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="92">
         <v>44965</v>
       </c>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="M4" s="87" t="s">
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="M4" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="87"/>
-      <c r="O4" s="87"/>
-      <c r="P4" s="88" t="s">
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="88"/>
-      <c r="R4" s="88"/>
-      <c r="S4" s="88"/>
+      <c r="Q4" s="86"/>
+      <c r="R4" s="86"/>
+      <c r="S4" s="86"/>
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
-      <c r="V4" s="91">
+      <c r="V4" s="87">
         <v>44601</v>
       </c>
-      <c r="W4" s="92"/>
-      <c r="X4" s="93"/>
+      <c r="W4" s="88"/>
+      <c r="X4" s="89"/>
     </row>
     <row r="5" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -1767,72 +1767,72 @@
       <c r="X15" s="4"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C22" s="84" t="s">
+      <c r="C22" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="84"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="84"/>
-      <c r="P22" s="86" t="s">
+      <c r="D22" s="90"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="90"/>
+      <c r="P22" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="Q22" s="86"/>
-      <c r="R22" s="86"/>
-      <c r="S22" s="86"/>
-      <c r="T22" s="86"/>
-      <c r="U22" s="86"/>
-      <c r="V22" s="86"/>
+      <c r="Q22" s="84"/>
+      <c r="R22" s="84"/>
+      <c r="S22" s="84"/>
+      <c r="T22" s="84"/>
+      <c r="U22" s="84"/>
+      <c r="V22" s="84"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C23" s="85"/>
-      <c r="D23" s="85"/>
-      <c r="E23" s="85"/>
-      <c r="F23" s="85"/>
-      <c r="G23" s="85"/>
-      <c r="P23" s="86"/>
-      <c r="Q23" s="86"/>
-      <c r="R23" s="86"/>
-      <c r="S23" s="86"/>
-      <c r="T23" s="86"/>
-      <c r="U23" s="86"/>
-      <c r="V23" s="86"/>
+      <c r="C23" s="91"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="91"/>
+      <c r="F23" s="91"/>
+      <c r="G23" s="91"/>
+      <c r="P23" s="84"/>
+      <c r="Q23" s="84"/>
+      <c r="R23" s="84"/>
+      <c r="S23" s="84"/>
+      <c r="T23" s="84"/>
+      <c r="U23" s="84"/>
+      <c r="V23" s="84"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="87" t="s">
+      <c r="A24" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="87"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="88" t="s">
+      <c r="B24" s="85"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="88"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="89">
+      <c r="E24" s="86"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="92">
         <v>44965</v>
       </c>
-      <c r="I24" s="90"/>
-      <c r="J24" s="90"/>
-      <c r="M24" s="87" t="s">
+      <c r="I24" s="93"/>
+      <c r="J24" s="93"/>
+      <c r="M24" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="N24" s="87"/>
-      <c r="O24" s="87"/>
-      <c r="P24" s="88" t="s">
+      <c r="N24" s="85"/>
+      <c r="O24" s="85"/>
+      <c r="P24" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="Q24" s="88"/>
-      <c r="R24" s="88"/>
-      <c r="S24" s="88"/>
+      <c r="Q24" s="86"/>
+      <c r="R24" s="86"/>
+      <c r="S24" s="86"/>
       <c r="T24" s="18"/>
       <c r="U24" s="18"/>
-      <c r="V24" s="91">
+      <c r="V24" s="87">
         <v>44971</v>
       </c>
-      <c r="W24" s="92"/>
-      <c r="X24" s="93"/>
+      <c r="W24" s="88"/>
+      <c r="X24" s="89"/>
     </row>
     <row r="25" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -2287,72 +2287,72 @@
       <c r="X35" s="4"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C38" s="84" t="s">
+      <c r="C38" s="90" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="84"/>
-      <c r="E38" s="84"/>
-      <c r="F38" s="84"/>
-      <c r="G38" s="84"/>
-      <c r="P38" s="86" t="s">
+      <c r="D38" s="90"/>
+      <c r="E38" s="90"/>
+      <c r="F38" s="90"/>
+      <c r="G38" s="90"/>
+      <c r="P38" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="Q38" s="86"/>
-      <c r="R38" s="86"/>
-      <c r="S38" s="86"/>
-      <c r="T38" s="86"/>
-      <c r="U38" s="86"/>
-      <c r="V38" s="86"/>
+      <c r="Q38" s="84"/>
+      <c r="R38" s="84"/>
+      <c r="S38" s="84"/>
+      <c r="T38" s="84"/>
+      <c r="U38" s="84"/>
+      <c r="V38" s="84"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C39" s="85"/>
-      <c r="D39" s="85"/>
-      <c r="E39" s="85"/>
-      <c r="F39" s="85"/>
-      <c r="G39" s="85"/>
-      <c r="P39" s="86"/>
-      <c r="Q39" s="86"/>
-      <c r="R39" s="86"/>
-      <c r="S39" s="86"/>
-      <c r="T39" s="86"/>
-      <c r="U39" s="86"/>
-      <c r="V39" s="86"/>
+      <c r="C39" s="91"/>
+      <c r="D39" s="91"/>
+      <c r="E39" s="91"/>
+      <c r="F39" s="91"/>
+      <c r="G39" s="91"/>
+      <c r="P39" s="84"/>
+      <c r="Q39" s="84"/>
+      <c r="R39" s="84"/>
+      <c r="S39" s="84"/>
+      <c r="T39" s="84"/>
+      <c r="U39" s="84"/>
+      <c r="V39" s="84"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A40" s="87" t="s">
+      <c r="A40" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="87"/>
-      <c r="C40" s="87"/>
-      <c r="D40" s="88" t="s">
+      <c r="B40" s="85"/>
+      <c r="C40" s="85"/>
+      <c r="D40" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="E40" s="88"/>
-      <c r="F40" s="88"/>
-      <c r="G40" s="88"/>
-      <c r="H40" s="89">
+      <c r="E40" s="86"/>
+      <c r="F40" s="86"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="92">
         <v>44972</v>
       </c>
-      <c r="I40" s="90"/>
-      <c r="J40" s="90"/>
-      <c r="M40" s="87" t="s">
+      <c r="I40" s="93"/>
+      <c r="J40" s="93"/>
+      <c r="M40" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="N40" s="87"/>
-      <c r="O40" s="87"/>
-      <c r="P40" s="88" t="s">
+      <c r="N40" s="85"/>
+      <c r="O40" s="85"/>
+      <c r="P40" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="Q40" s="88"/>
-      <c r="R40" s="88"/>
-      <c r="S40" s="88"/>
+      <c r="Q40" s="86"/>
+      <c r="R40" s="86"/>
+      <c r="S40" s="86"/>
       <c r="T40" s="18"/>
       <c r="U40" s="18"/>
-      <c r="V40" s="91">
+      <c r="V40" s="87">
         <v>44973</v>
       </c>
-      <c r="W40" s="92"/>
-      <c r="X40" s="93"/>
+      <c r="W40" s="88"/>
+      <c r="X40" s="89"/>
     </row>
     <row r="41" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
@@ -2767,72 +2767,72 @@
       <c r="X51" s="4"/>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C54" s="84" t="s">
+      <c r="C54" s="90" t="s">
         <v>50</v>
       </c>
-      <c r="D54" s="84"/>
-      <c r="E54" s="84"/>
-      <c r="F54" s="84"/>
-      <c r="G54" s="84"/>
-      <c r="P54" s="86" t="s">
+      <c r="D54" s="90"/>
+      <c r="E54" s="90"/>
+      <c r="F54" s="90"/>
+      <c r="G54" s="90"/>
+      <c r="P54" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="Q54" s="86"/>
-      <c r="R54" s="86"/>
-      <c r="S54" s="86"/>
-      <c r="T54" s="86"/>
-      <c r="U54" s="86"/>
-      <c r="V54" s="86"/>
+      <c r="Q54" s="84"/>
+      <c r="R54" s="84"/>
+      <c r="S54" s="84"/>
+      <c r="T54" s="84"/>
+      <c r="U54" s="84"/>
+      <c r="V54" s="84"/>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C55" s="85"/>
-      <c r="D55" s="85"/>
-      <c r="E55" s="85"/>
-      <c r="F55" s="85"/>
-      <c r="G55" s="85"/>
-      <c r="P55" s="86"/>
-      <c r="Q55" s="86"/>
-      <c r="R55" s="86"/>
-      <c r="S55" s="86"/>
-      <c r="T55" s="86"/>
-      <c r="U55" s="86"/>
-      <c r="V55" s="86"/>
+      <c r="C55" s="91"/>
+      <c r="D55" s="91"/>
+      <c r="E55" s="91"/>
+      <c r="F55" s="91"/>
+      <c r="G55" s="91"/>
+      <c r="P55" s="84"/>
+      <c r="Q55" s="84"/>
+      <c r="R55" s="84"/>
+      <c r="S55" s="84"/>
+      <c r="T55" s="84"/>
+      <c r="U55" s="84"/>
+      <c r="V55" s="84"/>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A56" s="87" t="s">
+      <c r="A56" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="87"/>
-      <c r="C56" s="87"/>
-      <c r="D56" s="88" t="s">
+      <c r="B56" s="85"/>
+      <c r="C56" s="85"/>
+      <c r="D56" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="E56" s="88"/>
-      <c r="F56" s="88"/>
-      <c r="G56" s="88"/>
-      <c r="H56" s="89">
+      <c r="E56" s="86"/>
+      <c r="F56" s="86"/>
+      <c r="G56" s="86"/>
+      <c r="H56" s="92">
         <v>44974</v>
       </c>
-      <c r="I56" s="90"/>
-      <c r="J56" s="90"/>
-      <c r="M56" s="87" t="s">
+      <c r="I56" s="93"/>
+      <c r="J56" s="93"/>
+      <c r="M56" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="N56" s="87"/>
-      <c r="O56" s="87"/>
-      <c r="P56" s="88" t="s">
+      <c r="N56" s="85"/>
+      <c r="O56" s="85"/>
+      <c r="P56" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="Q56" s="88"/>
-      <c r="R56" s="88"/>
-      <c r="S56" s="88"/>
+      <c r="Q56" s="86"/>
+      <c r="R56" s="86"/>
+      <c r="S56" s="86"/>
       <c r="T56" s="18"/>
       <c r="U56" s="18"/>
-      <c r="V56" s="91">
+      <c r="V56" s="87">
         <v>44975</v>
       </c>
-      <c r="W56" s="92"/>
-      <c r="X56" s="93"/>
+      <c r="W56" s="88"/>
+      <c r="X56" s="89"/>
     </row>
     <row r="57" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
@@ -3287,72 +3287,72 @@
       <c r="X67" s="4"/>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C70" s="84" t="s">
+      <c r="C70" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="D70" s="84"/>
-      <c r="E70" s="84"/>
-      <c r="F70" s="84"/>
-      <c r="G70" s="84"/>
-      <c r="P70" s="86" t="s">
+      <c r="D70" s="90"/>
+      <c r="E70" s="90"/>
+      <c r="F70" s="90"/>
+      <c r="G70" s="90"/>
+      <c r="P70" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="Q70" s="86"/>
-      <c r="R70" s="86"/>
-      <c r="S70" s="86"/>
-      <c r="T70" s="86"/>
-      <c r="U70" s="86"/>
-      <c r="V70" s="86"/>
+      <c r="Q70" s="84"/>
+      <c r="R70" s="84"/>
+      <c r="S70" s="84"/>
+      <c r="T70" s="84"/>
+      <c r="U70" s="84"/>
+      <c r="V70" s="84"/>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C71" s="85"/>
-      <c r="D71" s="85"/>
-      <c r="E71" s="85"/>
-      <c r="F71" s="85"/>
-      <c r="G71" s="85"/>
-      <c r="P71" s="86"/>
-      <c r="Q71" s="86"/>
-      <c r="R71" s="86"/>
-      <c r="S71" s="86"/>
-      <c r="T71" s="86"/>
-      <c r="U71" s="86"/>
-      <c r="V71" s="86"/>
+      <c r="C71" s="91"/>
+      <c r="D71" s="91"/>
+      <c r="E71" s="91"/>
+      <c r="F71" s="91"/>
+      <c r="G71" s="91"/>
+      <c r="P71" s="84"/>
+      <c r="Q71" s="84"/>
+      <c r="R71" s="84"/>
+      <c r="S71" s="84"/>
+      <c r="T71" s="84"/>
+      <c r="U71" s="84"/>
+      <c r="V71" s="84"/>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A72" s="87" t="s">
+      <c r="A72" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="B72" s="87"/>
-      <c r="C72" s="87"/>
-      <c r="D72" s="88" t="s">
+      <c r="B72" s="85"/>
+      <c r="C72" s="85"/>
+      <c r="D72" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="E72" s="88"/>
-      <c r="F72" s="88"/>
-      <c r="G72" s="88"/>
-      <c r="H72" s="89">
+      <c r="E72" s="86"/>
+      <c r="F72" s="86"/>
+      <c r="G72" s="86"/>
+      <c r="H72" s="92">
         <v>44979</v>
       </c>
-      <c r="I72" s="90"/>
-      <c r="J72" s="90"/>
-      <c r="M72" s="87" t="s">
+      <c r="I72" s="93"/>
+      <c r="J72" s="93"/>
+      <c r="M72" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="N72" s="87"/>
-      <c r="O72" s="87"/>
-      <c r="P72" s="88" t="s">
+      <c r="N72" s="85"/>
+      <c r="O72" s="85"/>
+      <c r="P72" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="Q72" s="88"/>
-      <c r="R72" s="88"/>
-      <c r="S72" s="88"/>
+      <c r="Q72" s="86"/>
+      <c r="R72" s="86"/>
+      <c r="S72" s="86"/>
       <c r="T72" s="18"/>
       <c r="U72" s="18"/>
-      <c r="V72" s="91">
+      <c r="V72" s="87">
         <v>44980</v>
       </c>
-      <c r="W72" s="92"/>
-      <c r="X72" s="93"/>
+      <c r="W72" s="88"/>
+      <c r="X72" s="89"/>
     </row>
     <row r="73" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
@@ -3723,72 +3723,72 @@
       <c r="X83" s="4"/>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C87" s="84" t="s">
+      <c r="C87" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="D87" s="84"/>
-      <c r="E87" s="84"/>
-      <c r="F87" s="84"/>
-      <c r="G87" s="84"/>
-      <c r="P87" s="86" t="s">
+      <c r="D87" s="90"/>
+      <c r="E87" s="90"/>
+      <c r="F87" s="90"/>
+      <c r="G87" s="90"/>
+      <c r="P87" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="Q87" s="86"/>
-      <c r="R87" s="86"/>
-      <c r="S87" s="86"/>
-      <c r="T87" s="86"/>
-      <c r="U87" s="86"/>
-      <c r="V87" s="86"/>
+      <c r="Q87" s="84"/>
+      <c r="R87" s="84"/>
+      <c r="S87" s="84"/>
+      <c r="T87" s="84"/>
+      <c r="U87" s="84"/>
+      <c r="V87" s="84"/>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C88" s="85"/>
-      <c r="D88" s="85"/>
-      <c r="E88" s="85"/>
-      <c r="F88" s="85"/>
-      <c r="G88" s="85"/>
-      <c r="P88" s="86"/>
-      <c r="Q88" s="86"/>
-      <c r="R88" s="86"/>
-      <c r="S88" s="86"/>
-      <c r="T88" s="86"/>
-      <c r="U88" s="86"/>
-      <c r="V88" s="86"/>
+      <c r="C88" s="91"/>
+      <c r="D88" s="91"/>
+      <c r="E88" s="91"/>
+      <c r="F88" s="91"/>
+      <c r="G88" s="91"/>
+      <c r="P88" s="84"/>
+      <c r="Q88" s="84"/>
+      <c r="R88" s="84"/>
+      <c r="S88" s="84"/>
+      <c r="T88" s="84"/>
+      <c r="U88" s="84"/>
+      <c r="V88" s="84"/>
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A89" s="87" t="s">
+      <c r="A89" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="B89" s="87"/>
-      <c r="C89" s="87"/>
-      <c r="D89" s="88" t="s">
+      <c r="B89" s="85"/>
+      <c r="C89" s="85"/>
+      <c r="D89" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="E89" s="88"/>
-      <c r="F89" s="88"/>
-      <c r="G89" s="88"/>
-      <c r="H89" s="89">
+      <c r="E89" s="86"/>
+      <c r="F89" s="86"/>
+      <c r="G89" s="86"/>
+      <c r="H89" s="92">
         <v>44981</v>
       </c>
-      <c r="I89" s="90"/>
-      <c r="J89" s="90"/>
-      <c r="M89" s="87" t="s">
+      <c r="I89" s="93"/>
+      <c r="J89" s="93"/>
+      <c r="M89" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="N89" s="87"/>
-      <c r="O89" s="87"/>
-      <c r="P89" s="88" t="s">
+      <c r="N89" s="85"/>
+      <c r="O89" s="85"/>
+      <c r="P89" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="Q89" s="88"/>
-      <c r="R89" s="88"/>
-      <c r="S89" s="88"/>
+      <c r="Q89" s="86"/>
+      <c r="R89" s="86"/>
+      <c r="S89" s="86"/>
       <c r="T89" s="18"/>
       <c r="U89" s="18"/>
-      <c r="V89" s="91">
+      <c r="V89" s="87">
         <v>44980</v>
       </c>
-      <c r="W89" s="92"/>
-      <c r="X89" s="93"/>
+      <c r="W89" s="88"/>
+      <c r="X89" s="89"/>
     </row>
     <row r="90" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
@@ -4243,72 +4243,72 @@
       <c r="X100" s="4"/>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C104" s="84" t="s">
+      <c r="C104" s="90" t="s">
         <v>70</v>
       </c>
-      <c r="D104" s="84"/>
-      <c r="E104" s="84"/>
-      <c r="F104" s="84"/>
-      <c r="G104" s="84"/>
-      <c r="P104" s="86" t="s">
+      <c r="D104" s="90"/>
+      <c r="E104" s="90"/>
+      <c r="F104" s="90"/>
+      <c r="G104" s="90"/>
+      <c r="P104" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="Q104" s="86"/>
-      <c r="R104" s="86"/>
-      <c r="S104" s="86"/>
-      <c r="T104" s="86"/>
-      <c r="U104" s="86"/>
-      <c r="V104" s="86"/>
+      <c r="Q104" s="84"/>
+      <c r="R104" s="84"/>
+      <c r="S104" s="84"/>
+      <c r="T104" s="84"/>
+      <c r="U104" s="84"/>
+      <c r="V104" s="84"/>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C105" s="85"/>
-      <c r="D105" s="85"/>
-      <c r="E105" s="85"/>
-      <c r="F105" s="85"/>
-      <c r="G105" s="85"/>
-      <c r="P105" s="86"/>
-      <c r="Q105" s="86"/>
-      <c r="R105" s="86"/>
-      <c r="S105" s="86"/>
-      <c r="T105" s="86"/>
-      <c r="U105" s="86"/>
-      <c r="V105" s="86"/>
+      <c r="C105" s="91"/>
+      <c r="D105" s="91"/>
+      <c r="E105" s="91"/>
+      <c r="F105" s="91"/>
+      <c r="G105" s="91"/>
+      <c r="P105" s="84"/>
+      <c r="Q105" s="84"/>
+      <c r="R105" s="84"/>
+      <c r="S105" s="84"/>
+      <c r="T105" s="84"/>
+      <c r="U105" s="84"/>
+      <c r="V105" s="84"/>
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A106" s="87" t="s">
+      <c r="A106" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="B106" s="87"/>
-      <c r="C106" s="87"/>
-      <c r="D106" s="88" t="s">
+      <c r="B106" s="85"/>
+      <c r="C106" s="85"/>
+      <c r="D106" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="E106" s="88"/>
-      <c r="F106" s="88"/>
-      <c r="G106" s="88"/>
-      <c r="H106" s="89">
+      <c r="E106" s="86"/>
+      <c r="F106" s="86"/>
+      <c r="G106" s="86"/>
+      <c r="H106" s="92">
         <v>44979</v>
       </c>
-      <c r="I106" s="90"/>
-      <c r="J106" s="90"/>
-      <c r="M106" s="87" t="s">
+      <c r="I106" s="93"/>
+      <c r="J106" s="93"/>
+      <c r="M106" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="N106" s="87"/>
-      <c r="O106" s="87"/>
-      <c r="P106" s="88" t="s">
+      <c r="N106" s="85"/>
+      <c r="O106" s="85"/>
+      <c r="P106" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="Q106" s="88"/>
-      <c r="R106" s="88"/>
-      <c r="S106" s="88"/>
+      <c r="Q106" s="86"/>
+      <c r="R106" s="86"/>
+      <c r="S106" s="86"/>
       <c r="T106" s="18"/>
       <c r="U106" s="18"/>
-      <c r="V106" s="91" t="s">
+      <c r="V106" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="W106" s="92"/>
-      <c r="X106" s="93"/>
+      <c r="W106" s="88"/>
+      <c r="X106" s="89"/>
     </row>
     <row r="107" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
@@ -4806,6 +4806,54 @@
     <row r="124" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="C104:G105"/>
+    <mergeCell ref="P104:V105"/>
+    <mergeCell ref="A106:C106"/>
+    <mergeCell ref="D106:G106"/>
+    <mergeCell ref="H106:J106"/>
+    <mergeCell ref="M106:O106"/>
+    <mergeCell ref="P106:S106"/>
+    <mergeCell ref="V106:X106"/>
+    <mergeCell ref="C87:G88"/>
+    <mergeCell ref="P87:V88"/>
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="D89:G89"/>
+    <mergeCell ref="H89:J89"/>
+    <mergeCell ref="M89:O89"/>
+    <mergeCell ref="P89:S89"/>
+    <mergeCell ref="V89:X89"/>
+    <mergeCell ref="C70:G71"/>
+    <mergeCell ref="P70:V71"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="D72:G72"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="M72:O72"/>
+    <mergeCell ref="P72:S72"/>
+    <mergeCell ref="V72:X72"/>
+    <mergeCell ref="C54:G55"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="P54:V55"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="P56:S56"/>
+    <mergeCell ref="V56:X56"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="C2:G3"/>
+    <mergeCell ref="P2:V3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="C22:G23"/>
+    <mergeCell ref="P22:V23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="V24:X24"/>
     <mergeCell ref="P38:V39"/>
     <mergeCell ref="M40:O40"/>
     <mergeCell ref="P40:S40"/>
@@ -4814,54 +4862,6 @@
     <mergeCell ref="A40:C40"/>
     <mergeCell ref="D40:G40"/>
     <mergeCell ref="H40:J40"/>
-    <mergeCell ref="C22:G23"/>
-    <mergeCell ref="P22:V23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="C2:G3"/>
-    <mergeCell ref="P2:V3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="C54:G55"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="P54:V55"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="P56:S56"/>
-    <mergeCell ref="V56:X56"/>
-    <mergeCell ref="C70:G71"/>
-    <mergeCell ref="P70:V71"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="D72:G72"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="M72:O72"/>
-    <mergeCell ref="P72:S72"/>
-    <mergeCell ref="V72:X72"/>
-    <mergeCell ref="C87:G88"/>
-    <mergeCell ref="P87:V88"/>
-    <mergeCell ref="A89:C89"/>
-    <mergeCell ref="D89:G89"/>
-    <mergeCell ref="H89:J89"/>
-    <mergeCell ref="M89:O89"/>
-    <mergeCell ref="P89:S89"/>
-    <mergeCell ref="V89:X89"/>
-    <mergeCell ref="C104:G105"/>
-    <mergeCell ref="P104:V105"/>
-    <mergeCell ref="A106:C106"/>
-    <mergeCell ref="D106:G106"/>
-    <mergeCell ref="H106:J106"/>
-    <mergeCell ref="M106:O106"/>
-    <mergeCell ref="P106:S106"/>
-    <mergeCell ref="V106:X106"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4873,7 +4873,7 @@
   <dimension ref="A2:Z236"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M226" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X234" sqref="X234"/>
+      <selection activeCell="T236" sqref="T236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4893,72 +4893,72 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="90" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="P2" s="86" t="s">
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="P2" s="84" t="s">
         <v>76</v>
       </c>
-      <c r="Q2" s="86"/>
-      <c r="R2" s="86"/>
-      <c r="S2" s="86"/>
-      <c r="T2" s="86"/>
-      <c r="U2" s="86"/>
-      <c r="V2" s="86"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="84"/>
+      <c r="V2" s="84"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="P3" s="86"/>
-      <c r="Q3" s="86"/>
-      <c r="R3" s="86"/>
-      <c r="S3" s="86"/>
-      <c r="T3" s="86"/>
-      <c r="U3" s="86"/>
-      <c r="V3" s="86"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="84"/>
+      <c r="S3" s="84"/>
+      <c r="T3" s="84"/>
+      <c r="U3" s="84"/>
+      <c r="V3" s="84"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="88" t="s">
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="89" t="s">
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="92" t="s">
         <v>74</v>
       </c>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="M4" s="87" t="s">
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="M4" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="87"/>
-      <c r="O4" s="87"/>
-      <c r="P4" s="88" t="s">
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="88"/>
-      <c r="R4" s="88"/>
-      <c r="S4" s="88"/>
+      <c r="Q4" s="86"/>
+      <c r="R4" s="86"/>
+      <c r="S4" s="86"/>
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
-      <c r="V4" s="91">
+      <c r="V4" s="87">
         <v>44601</v>
       </c>
-      <c r="W4" s="92"/>
-      <c r="X4" s="93"/>
+      <c r="W4" s="88"/>
+      <c r="X4" s="89"/>
     </row>
     <row r="5" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -5425,72 +5425,72 @@
       <c r="X15" s="4"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C22" s="84" t="s">
+      <c r="C22" s="90" t="s">
         <v>75</v>
       </c>
-      <c r="D22" s="84"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="84"/>
-      <c r="P22" s="86" t="s">
+      <c r="D22" s="90"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="90"/>
+      <c r="P22" s="84" t="s">
         <v>77</v>
       </c>
-      <c r="Q22" s="86"/>
-      <c r="R22" s="86"/>
-      <c r="S22" s="86"/>
-      <c r="T22" s="86"/>
-      <c r="U22" s="86"/>
-      <c r="V22" s="86"/>
+      <c r="Q22" s="84"/>
+      <c r="R22" s="84"/>
+      <c r="S22" s="84"/>
+      <c r="T22" s="84"/>
+      <c r="U22" s="84"/>
+      <c r="V22" s="84"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C23" s="85"/>
-      <c r="D23" s="85"/>
-      <c r="E23" s="85"/>
-      <c r="F23" s="85"/>
-      <c r="G23" s="85"/>
-      <c r="P23" s="86"/>
-      <c r="Q23" s="86"/>
-      <c r="R23" s="86"/>
-      <c r="S23" s="86"/>
-      <c r="T23" s="86"/>
-      <c r="U23" s="86"/>
-      <c r="V23" s="86"/>
+      <c r="C23" s="91"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="91"/>
+      <c r="F23" s="91"/>
+      <c r="G23" s="91"/>
+      <c r="P23" s="84"/>
+      <c r="Q23" s="84"/>
+      <c r="R23" s="84"/>
+      <c r="S23" s="84"/>
+      <c r="T23" s="84"/>
+      <c r="U23" s="84"/>
+      <c r="V23" s="84"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="87" t="s">
+      <c r="A24" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="87"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="88" t="s">
+      <c r="B24" s="85"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="88"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="89">
+      <c r="E24" s="86"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="92">
         <v>44993</v>
       </c>
-      <c r="I24" s="90"/>
-      <c r="J24" s="90"/>
-      <c r="M24" s="87" t="s">
+      <c r="I24" s="93"/>
+      <c r="J24" s="93"/>
+      <c r="M24" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="N24" s="87"/>
-      <c r="O24" s="87"/>
-      <c r="P24" s="88" t="s">
+      <c r="N24" s="85"/>
+      <c r="O24" s="85"/>
+      <c r="P24" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="Q24" s="88"/>
-      <c r="R24" s="88"/>
-      <c r="S24" s="88"/>
+      <c r="Q24" s="86"/>
+      <c r="R24" s="86"/>
+      <c r="S24" s="86"/>
       <c r="T24" s="18"/>
       <c r="U24" s="18"/>
-      <c r="V24" s="91">
+      <c r="V24" s="87">
         <v>44993</v>
       </c>
-      <c r="W24" s="92"/>
-      <c r="X24" s="93"/>
+      <c r="W24" s="88"/>
+      <c r="X24" s="89"/>
     </row>
     <row r="25" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -5920,72 +5920,72 @@
       <c r="X34" s="4"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C37" s="84" t="s">
+      <c r="C37" s="90" t="s">
         <v>84</v>
       </c>
-      <c r="D37" s="84"/>
-      <c r="E37" s="84"/>
-      <c r="F37" s="84"/>
-      <c r="G37" s="84"/>
-      <c r="P37" s="86" t="s">
+      <c r="D37" s="90"/>
+      <c r="E37" s="90"/>
+      <c r="F37" s="90"/>
+      <c r="G37" s="90"/>
+      <c r="P37" s="84" t="s">
         <v>81</v>
       </c>
-      <c r="Q37" s="86"/>
-      <c r="R37" s="86"/>
-      <c r="S37" s="86"/>
-      <c r="T37" s="86"/>
-      <c r="U37" s="86"/>
-      <c r="V37" s="86"/>
+      <c r="Q37" s="84"/>
+      <c r="R37" s="84"/>
+      <c r="S37" s="84"/>
+      <c r="T37" s="84"/>
+      <c r="U37" s="84"/>
+      <c r="V37" s="84"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C38" s="85"/>
-      <c r="D38" s="85"/>
-      <c r="E38" s="85"/>
-      <c r="F38" s="85"/>
-      <c r="G38" s="85"/>
-      <c r="P38" s="86"/>
-      <c r="Q38" s="86"/>
-      <c r="R38" s="86"/>
-      <c r="S38" s="86"/>
-      <c r="T38" s="86"/>
-      <c r="U38" s="86"/>
-      <c r="V38" s="86"/>
+      <c r="C38" s="91"/>
+      <c r="D38" s="91"/>
+      <c r="E38" s="91"/>
+      <c r="F38" s="91"/>
+      <c r="G38" s="91"/>
+      <c r="P38" s="84"/>
+      <c r="Q38" s="84"/>
+      <c r="R38" s="84"/>
+      <c r="S38" s="84"/>
+      <c r="T38" s="84"/>
+      <c r="U38" s="84"/>
+      <c r="V38" s="84"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A39" s="87" t="s">
+      <c r="A39" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="87"/>
-      <c r="C39" s="87"/>
-      <c r="D39" s="88" t="s">
+      <c r="B39" s="85"/>
+      <c r="C39" s="85"/>
+      <c r="D39" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="88"/>
-      <c r="F39" s="88"/>
-      <c r="G39" s="88"/>
-      <c r="H39" s="89">
+      <c r="E39" s="86"/>
+      <c r="F39" s="86"/>
+      <c r="G39" s="86"/>
+      <c r="H39" s="92">
         <v>44972</v>
       </c>
-      <c r="I39" s="90"/>
-      <c r="J39" s="90"/>
-      <c r="M39" s="87" t="s">
+      <c r="I39" s="93"/>
+      <c r="J39" s="93"/>
+      <c r="M39" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="N39" s="87"/>
-      <c r="O39" s="87"/>
-      <c r="P39" s="88" t="s">
+      <c r="N39" s="85"/>
+      <c r="O39" s="85"/>
+      <c r="P39" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="Q39" s="88"/>
-      <c r="R39" s="88"/>
-      <c r="S39" s="88"/>
+      <c r="Q39" s="86"/>
+      <c r="R39" s="86"/>
+      <c r="S39" s="86"/>
       <c r="T39" s="18"/>
       <c r="U39" s="18"/>
-      <c r="V39" s="91">
+      <c r="V39" s="87">
         <v>44994</v>
       </c>
-      <c r="W39" s="92"/>
-      <c r="X39" s="93"/>
+      <c r="W39" s="88"/>
+      <c r="X39" s="89"/>
     </row>
     <row r="40" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
@@ -6396,72 +6396,72 @@
       <c r="X50" s="4"/>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C53" s="84">
+      <c r="C53" s="90">
         <v>45005</v>
       </c>
-      <c r="D53" s="84"/>
-      <c r="E53" s="84"/>
-      <c r="F53" s="84"/>
-      <c r="G53" s="84"/>
-      <c r="P53" s="84">
+      <c r="D53" s="90"/>
+      <c r="E53" s="90"/>
+      <c r="F53" s="90"/>
+      <c r="G53" s="90"/>
+      <c r="P53" s="90">
         <v>45006</v>
       </c>
-      <c r="Q53" s="84"/>
-      <c r="R53" s="84"/>
-      <c r="S53" s="84"/>
-      <c r="T53" s="84"/>
-      <c r="U53" s="84"/>
-      <c r="V53" s="84"/>
+      <c r="Q53" s="90"/>
+      <c r="R53" s="90"/>
+      <c r="S53" s="90"/>
+      <c r="T53" s="90"/>
+      <c r="U53" s="90"/>
+      <c r="V53" s="90"/>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C54" s="85"/>
-      <c r="D54" s="85"/>
-      <c r="E54" s="85"/>
-      <c r="F54" s="85"/>
-      <c r="G54" s="85"/>
-      <c r="P54" s="84"/>
-      <c r="Q54" s="84"/>
-      <c r="R54" s="84"/>
-      <c r="S54" s="84"/>
-      <c r="T54" s="84"/>
-      <c r="U54" s="84"/>
-      <c r="V54" s="84"/>
+      <c r="C54" s="91"/>
+      <c r="D54" s="91"/>
+      <c r="E54" s="91"/>
+      <c r="F54" s="91"/>
+      <c r="G54" s="91"/>
+      <c r="P54" s="90"/>
+      <c r="Q54" s="90"/>
+      <c r="R54" s="90"/>
+      <c r="S54" s="90"/>
+      <c r="T54" s="90"/>
+      <c r="U54" s="90"/>
+      <c r="V54" s="90"/>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A55" s="87" t="s">
+      <c r="A55" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="87"/>
-      <c r="C55" s="87"/>
-      <c r="D55" s="88" t="s">
+      <c r="B55" s="85"/>
+      <c r="C55" s="85"/>
+      <c r="D55" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="E55" s="88"/>
-      <c r="F55" s="88"/>
-      <c r="G55" s="88"/>
-      <c r="H55" s="89">
+      <c r="E55" s="86"/>
+      <c r="F55" s="86"/>
+      <c r="G55" s="86"/>
+      <c r="H55" s="92">
         <v>45005</v>
       </c>
-      <c r="I55" s="90"/>
-      <c r="J55" s="90"/>
-      <c r="M55" s="87" t="s">
+      <c r="I55" s="93"/>
+      <c r="J55" s="93"/>
+      <c r="M55" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="N55" s="87"/>
-      <c r="O55" s="87"/>
-      <c r="P55" s="88" t="s">
+      <c r="N55" s="85"/>
+      <c r="O55" s="85"/>
+      <c r="P55" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="Q55" s="88"/>
-      <c r="R55" s="88"/>
-      <c r="S55" s="88"/>
+      <c r="Q55" s="86"/>
+      <c r="R55" s="86"/>
+      <c r="S55" s="86"/>
       <c r="T55" s="18"/>
       <c r="U55" s="18"/>
-      <c r="V55" s="91">
+      <c r="V55" s="87">
         <v>45006</v>
       </c>
-      <c r="W55" s="92"/>
-      <c r="X55" s="93"/>
+      <c r="W55" s="88"/>
+      <c r="X55" s="89"/>
     </row>
     <row r="56" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
@@ -6860,72 +6860,72 @@
       <c r="X66" s="4"/>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C69" s="84" t="s">
+      <c r="C69" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="D69" s="84"/>
-      <c r="E69" s="84"/>
-      <c r="F69" s="84"/>
-      <c r="G69" s="84"/>
-      <c r="P69" s="86" t="s">
+      <c r="D69" s="90"/>
+      <c r="E69" s="90"/>
+      <c r="F69" s="90"/>
+      <c r="G69" s="90"/>
+      <c r="P69" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="Q69" s="86"/>
-      <c r="R69" s="86"/>
-      <c r="S69" s="86"/>
-      <c r="T69" s="86"/>
-      <c r="U69" s="86"/>
-      <c r="V69" s="86"/>
+      <c r="Q69" s="84"/>
+      <c r="R69" s="84"/>
+      <c r="S69" s="84"/>
+      <c r="T69" s="84"/>
+      <c r="U69" s="84"/>
+      <c r="V69" s="84"/>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C70" s="85"/>
-      <c r="D70" s="85"/>
-      <c r="E70" s="85"/>
-      <c r="F70" s="85"/>
-      <c r="G70" s="85"/>
-      <c r="P70" s="86"/>
-      <c r="Q70" s="86"/>
-      <c r="R70" s="86"/>
-      <c r="S70" s="86"/>
-      <c r="T70" s="86"/>
-      <c r="U70" s="86"/>
-      <c r="V70" s="86"/>
+      <c r="C70" s="91"/>
+      <c r="D70" s="91"/>
+      <c r="E70" s="91"/>
+      <c r="F70" s="91"/>
+      <c r="G70" s="91"/>
+      <c r="P70" s="84"/>
+      <c r="Q70" s="84"/>
+      <c r="R70" s="84"/>
+      <c r="S70" s="84"/>
+      <c r="T70" s="84"/>
+      <c r="U70" s="84"/>
+      <c r="V70" s="84"/>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A71" s="87" t="s">
+      <c r="A71" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="B71" s="87"/>
-      <c r="C71" s="87"/>
-      <c r="D71" s="88" t="s">
+      <c r="B71" s="85"/>
+      <c r="C71" s="85"/>
+      <c r="D71" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="E71" s="88"/>
-      <c r="F71" s="88"/>
-      <c r="G71" s="88"/>
-      <c r="H71" s="89">
+      <c r="E71" s="86"/>
+      <c r="F71" s="86"/>
+      <c r="G71" s="86"/>
+      <c r="H71" s="92">
         <v>44979</v>
       </c>
-      <c r="I71" s="90"/>
-      <c r="J71" s="90"/>
-      <c r="M71" s="87" t="s">
+      <c r="I71" s="93"/>
+      <c r="J71" s="93"/>
+      <c r="M71" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="N71" s="87"/>
-      <c r="O71" s="87"/>
-      <c r="P71" s="88" t="s">
+      <c r="N71" s="85"/>
+      <c r="O71" s="85"/>
+      <c r="P71" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="Q71" s="88"/>
-      <c r="R71" s="88"/>
-      <c r="S71" s="88"/>
+      <c r="Q71" s="86"/>
+      <c r="R71" s="86"/>
+      <c r="S71" s="86"/>
       <c r="T71" s="18"/>
       <c r="U71" s="18"/>
-      <c r="V71" s="91">
+      <c r="V71" s="87">
         <v>44980</v>
       </c>
-      <c r="W71" s="92"/>
-      <c r="X71" s="93"/>
+      <c r="W71" s="88"/>
+      <c r="X71" s="89"/>
     </row>
     <row r="72" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
@@ -7328,72 +7328,72 @@
       <c r="X82" s="4"/>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C86" s="84" t="s">
+      <c r="C86" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="D86" s="84"/>
-      <c r="E86" s="84"/>
-      <c r="F86" s="84"/>
-      <c r="G86" s="84"/>
-      <c r="P86" s="86" t="s">
+      <c r="D86" s="90"/>
+      <c r="E86" s="90"/>
+      <c r="F86" s="90"/>
+      <c r="G86" s="90"/>
+      <c r="P86" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="Q86" s="86"/>
-      <c r="R86" s="86"/>
-      <c r="S86" s="86"/>
-      <c r="T86" s="86"/>
-      <c r="U86" s="86"/>
-      <c r="V86" s="86"/>
+      <c r="Q86" s="84"/>
+      <c r="R86" s="84"/>
+      <c r="S86" s="84"/>
+      <c r="T86" s="84"/>
+      <c r="U86" s="84"/>
+      <c r="V86" s="84"/>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C87" s="85"/>
-      <c r="D87" s="85"/>
-      <c r="E87" s="85"/>
-      <c r="F87" s="85"/>
-      <c r="G87" s="85"/>
-      <c r="P87" s="86"/>
-      <c r="Q87" s="86"/>
-      <c r="R87" s="86"/>
-      <c r="S87" s="86"/>
-      <c r="T87" s="86"/>
-      <c r="U87" s="86"/>
-      <c r="V87" s="86"/>
+      <c r="C87" s="91"/>
+      <c r="D87" s="91"/>
+      <c r="E87" s="91"/>
+      <c r="F87" s="91"/>
+      <c r="G87" s="91"/>
+      <c r="P87" s="84"/>
+      <c r="Q87" s="84"/>
+      <c r="R87" s="84"/>
+      <c r="S87" s="84"/>
+      <c r="T87" s="84"/>
+      <c r="U87" s="84"/>
+      <c r="V87" s="84"/>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A88" s="87" t="s">
+      <c r="A88" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="B88" s="87"/>
-      <c r="C88" s="87"/>
-      <c r="D88" s="88" t="s">
+      <c r="B88" s="85"/>
+      <c r="C88" s="85"/>
+      <c r="D88" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="E88" s="88"/>
-      <c r="F88" s="88"/>
-      <c r="G88" s="88"/>
-      <c r="H88" s="89">
+      <c r="E88" s="86"/>
+      <c r="F88" s="86"/>
+      <c r="G88" s="86"/>
+      <c r="H88" s="92">
         <v>44981</v>
       </c>
-      <c r="I88" s="90"/>
-      <c r="J88" s="90"/>
-      <c r="M88" s="87" t="s">
+      <c r="I88" s="93"/>
+      <c r="J88" s="93"/>
+      <c r="M88" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="N88" s="87"/>
-      <c r="O88" s="87"/>
-      <c r="P88" s="88" t="s">
+      <c r="N88" s="85"/>
+      <c r="O88" s="85"/>
+      <c r="P88" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="Q88" s="88"/>
-      <c r="R88" s="88"/>
-      <c r="S88" s="88"/>
+      <c r="Q88" s="86"/>
+      <c r="R88" s="86"/>
+      <c r="S88" s="86"/>
       <c r="T88" s="18"/>
       <c r="U88" s="18"/>
-      <c r="V88" s="91">
+      <c r="V88" s="87">
         <v>44980</v>
       </c>
-      <c r="W88" s="92"/>
-      <c r="X88" s="93"/>
+      <c r="W88" s="88"/>
+      <c r="X88" s="89"/>
     </row>
     <row r="89" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
@@ -7728,73 +7728,73 @@
       <c r="X99" s="4"/>
     </row>
     <row r="103" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C103" s="84" t="s">
+      <c r="C103" s="90" t="s">
         <v>70</v>
       </c>
-      <c r="D103" s="84"/>
-      <c r="E103" s="84"/>
-      <c r="F103" s="84"/>
-      <c r="G103" s="84"/>
-      <c r="P103" s="86" t="s">
+      <c r="D103" s="90"/>
+      <c r="E103" s="90"/>
+      <c r="F103" s="90"/>
+      <c r="G103" s="90"/>
+      <c r="P103" s="84" t="s">
         <v>90</v>
       </c>
-      <c r="Q103" s="86"/>
-      <c r="R103" s="86"/>
-      <c r="S103" s="86"/>
-      <c r="T103" s="86"/>
-      <c r="U103" s="86"/>
-      <c r="V103" s="86"/>
+      <c r="Q103" s="84"/>
+      <c r="R103" s="84"/>
+      <c r="S103" s="84"/>
+      <c r="T103" s="84"/>
+      <c r="U103" s="84"/>
+      <c r="V103" s="84"/>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C104" s="85"/>
-      <c r="D104" s="85"/>
-      <c r="E104" s="85"/>
-      <c r="F104" s="85"/>
-      <c r="G104" s="85"/>
-      <c r="P104" s="86"/>
-      <c r="Q104" s="86"/>
-      <c r="R104" s="86"/>
-      <c r="S104" s="86"/>
-      <c r="T104" s="86"/>
-      <c r="U104" s="86"/>
-      <c r="V104" s="86"/>
+      <c r="C104" s="91"/>
+      <c r="D104" s="91"/>
+      <c r="E104" s="91"/>
+      <c r="F104" s="91"/>
+      <c r="G104" s="91"/>
+      <c r="P104" s="84"/>
+      <c r="Q104" s="84"/>
+      <c r="R104" s="84"/>
+      <c r="S104" s="84"/>
+      <c r="T104" s="84"/>
+      <c r="U104" s="84"/>
+      <c r="V104" s="84"/>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A105" s="87" t="s">
+      <c r="A105" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="B105" s="87"/>
-      <c r="C105" s="87"/>
-      <c r="D105" s="88" t="s">
+      <c r="B105" s="85"/>
+      <c r="C105" s="85"/>
+      <c r="D105" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="E105" s="88"/>
-      <c r="F105" s="88"/>
-      <c r="G105" s="88"/>
-      <c r="H105" s="89">
+      <c r="E105" s="86"/>
+      <c r="F105" s="86"/>
+      <c r="G105" s="86"/>
+      <c r="H105" s="92">
         <v>44979</v>
       </c>
-      <c r="I105" s="90"/>
-      <c r="J105" s="90"/>
-      <c r="M105" s="87" t="s">
+      <c r="I105" s="93"/>
+      <c r="J105" s="93"/>
+      <c r="M105" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="N105" s="87"/>
-      <c r="O105" s="87"/>
-      <c r="P105" s="88" t="s">
+      <c r="N105" s="85"/>
+      <c r="O105" s="85"/>
+      <c r="P105" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="Q105" s="88"/>
-      <c r="R105" s="88"/>
-      <c r="S105" s="88"/>
+      <c r="Q105" s="86"/>
+      <c r="R105" s="86"/>
+      <c r="S105" s="86"/>
       <c r="T105" s="18"/>
       <c r="U105" s="18"/>
-      <c r="V105" s="91" t="e">
+      <c r="V105" s="87" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W105" s="92"/>
-      <c r="X105" s="93"/>
+      <c r="W105" s="88"/>
+      <c r="X105" s="89"/>
     </row>
     <row r="106" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
@@ -8245,73 +8245,73 @@
       <c r="X116" s="4"/>
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C121" s="84" t="s">
+      <c r="C121" s="90" t="s">
         <v>95</v>
       </c>
-      <c r="D121" s="84"/>
-      <c r="E121" s="84"/>
-      <c r="F121" s="84"/>
-      <c r="G121" s="84"/>
-      <c r="P121" s="86" t="s">
+      <c r="D121" s="90"/>
+      <c r="E121" s="90"/>
+      <c r="F121" s="90"/>
+      <c r="G121" s="90"/>
+      <c r="P121" s="84" t="s">
         <v>96</v>
       </c>
-      <c r="Q121" s="86"/>
-      <c r="R121" s="86"/>
-      <c r="S121" s="86"/>
-      <c r="T121" s="86"/>
-      <c r="U121" s="86"/>
-      <c r="V121" s="86"/>
+      <c r="Q121" s="84"/>
+      <c r="R121" s="84"/>
+      <c r="S121" s="84"/>
+      <c r="T121" s="84"/>
+      <c r="U121" s="84"/>
+      <c r="V121" s="84"/>
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C122" s="85"/>
-      <c r="D122" s="85"/>
-      <c r="E122" s="85"/>
-      <c r="F122" s="85"/>
-      <c r="G122" s="85"/>
-      <c r="P122" s="86"/>
-      <c r="Q122" s="86"/>
-      <c r="R122" s="86"/>
-      <c r="S122" s="86"/>
-      <c r="T122" s="86"/>
-      <c r="U122" s="86"/>
-      <c r="V122" s="86"/>
+      <c r="C122" s="91"/>
+      <c r="D122" s="91"/>
+      <c r="E122" s="91"/>
+      <c r="F122" s="91"/>
+      <c r="G122" s="91"/>
+      <c r="P122" s="84"/>
+      <c r="Q122" s="84"/>
+      <c r="R122" s="84"/>
+      <c r="S122" s="84"/>
+      <c r="T122" s="84"/>
+      <c r="U122" s="84"/>
+      <c r="V122" s="84"/>
     </row>
     <row r="123" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="87" t="s">
+      <c r="A123" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="B123" s="87"/>
-      <c r="C123" s="87"/>
-      <c r="D123" s="88" t="s">
+      <c r="B123" s="85"/>
+      <c r="C123" s="85"/>
+      <c r="D123" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="E123" s="88"/>
-      <c r="F123" s="88"/>
-      <c r="G123" s="88"/>
-      <c r="H123" s="89">
+      <c r="E123" s="86"/>
+      <c r="F123" s="86"/>
+      <c r="G123" s="86"/>
+      <c r="H123" s="92">
         <v>44979</v>
       </c>
-      <c r="I123" s="90"/>
-      <c r="J123" s="90"/>
-      <c r="M123" s="87" t="s">
+      <c r="I123" s="93"/>
+      <c r="J123" s="93"/>
+      <c r="M123" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="N123" s="87"/>
-      <c r="O123" s="87"/>
-      <c r="P123" s="88" t="s">
+      <c r="N123" s="85"/>
+      <c r="O123" s="85"/>
+      <c r="P123" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="Q123" s="88"/>
-      <c r="R123" s="88"/>
-      <c r="S123" s="88"/>
+      <c r="Q123" s="86"/>
+      <c r="R123" s="86"/>
+      <c r="S123" s="86"/>
       <c r="T123" s="18"/>
       <c r="U123" s="18"/>
-      <c r="V123" s="91" t="e">
+      <c r="V123" s="87" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W123" s="92"/>
-      <c r="X123" s="93"/>
+      <c r="W123" s="88"/>
+      <c r="X123" s="89"/>
     </row>
     <row r="124" spans="1:26" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
@@ -8826,45 +8826,45 @@
       <c r="X134" s="4"/>
     </row>
     <row r="138" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="P138" s="86" t="s">
+      <c r="P138" s="84" t="s">
         <v>97</v>
       </c>
-      <c r="Q138" s="86"/>
-      <c r="R138" s="86"/>
-      <c r="S138" s="86"/>
-      <c r="T138" s="86"/>
-      <c r="U138" s="86"/>
-      <c r="V138" s="86"/>
+      <c r="Q138" s="84"/>
+      <c r="R138" s="84"/>
+      <c r="S138" s="84"/>
+      <c r="T138" s="84"/>
+      <c r="U138" s="84"/>
+      <c r="V138" s="84"/>
     </row>
     <row r="139" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="P139" s="86"/>
-      <c r="Q139" s="86"/>
-      <c r="R139" s="86"/>
-      <c r="S139" s="86"/>
-      <c r="T139" s="86"/>
-      <c r="U139" s="86"/>
-      <c r="V139" s="86"/>
+      <c r="P139" s="84"/>
+      <c r="Q139" s="84"/>
+      <c r="R139" s="84"/>
+      <c r="S139" s="84"/>
+      <c r="T139" s="84"/>
+      <c r="U139" s="84"/>
+      <c r="V139" s="84"/>
     </row>
     <row r="140" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="M140" s="87" t="s">
+      <c r="M140" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="N140" s="87"/>
-      <c r="O140" s="87"/>
-      <c r="P140" s="88" t="s">
+      <c r="N140" s="85"/>
+      <c r="O140" s="85"/>
+      <c r="P140" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="Q140" s="88"/>
-      <c r="R140" s="88"/>
-      <c r="S140" s="88"/>
+      <c r="Q140" s="86"/>
+      <c r="R140" s="86"/>
+      <c r="S140" s="86"/>
       <c r="T140" s="18"/>
       <c r="U140" s="18"/>
-      <c r="V140" s="91" t="e">
+      <c r="V140" s="87" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W140" s="92"/>
-      <c r="X140" s="93"/>
+      <c r="W140" s="88"/>
+      <c r="X140" s="89"/>
     </row>
     <row r="141" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M141" s="6" t="s">
@@ -9129,45 +9129,45 @@
       <c r="S152" s="64"/>
     </row>
     <row r="153" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P153" s="86" t="s">
+      <c r="P153" s="84" t="s">
         <v>102</v>
       </c>
-      <c r="Q153" s="86"/>
-      <c r="R153" s="86"/>
-      <c r="S153" s="86"/>
-      <c r="T153" s="86"/>
-      <c r="U153" s="86"/>
-      <c r="V153" s="86"/>
+      <c r="Q153" s="84"/>
+      <c r="R153" s="84"/>
+      <c r="S153" s="84"/>
+      <c r="T153" s="84"/>
+      <c r="U153" s="84"/>
+      <c r="V153" s="84"/>
     </row>
     <row r="154" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P154" s="86"/>
-      <c r="Q154" s="86"/>
-      <c r="R154" s="86"/>
-      <c r="S154" s="86"/>
-      <c r="T154" s="86"/>
-      <c r="U154" s="86"/>
-      <c r="V154" s="86"/>
+      <c r="P154" s="84"/>
+      <c r="Q154" s="84"/>
+      <c r="R154" s="84"/>
+      <c r="S154" s="84"/>
+      <c r="T154" s="84"/>
+      <c r="U154" s="84"/>
+      <c r="V154" s="84"/>
     </row>
     <row r="155" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M155" s="87" t="s">
+      <c r="M155" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="N155" s="87"/>
-      <c r="O155" s="87"/>
-      <c r="P155" s="88" t="s">
+      <c r="N155" s="85"/>
+      <c r="O155" s="85"/>
+      <c r="P155" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="Q155" s="88"/>
-      <c r="R155" s="88"/>
-      <c r="S155" s="88"/>
+      <c r="Q155" s="86"/>
+      <c r="R155" s="86"/>
+      <c r="S155" s="86"/>
       <c r="T155" s="18"/>
       <c r="U155" s="18"/>
-      <c r="V155" s="91" t="e">
+      <c r="V155" s="87" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W155" s="92"/>
-      <c r="X155" s="93"/>
+      <c r="W155" s="88"/>
+      <c r="X155" s="89"/>
     </row>
     <row r="156" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M156" s="6" t="s">
@@ -9431,45 +9431,45 @@
       <c r="X166" s="4"/>
     </row>
     <row r="168" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P168" s="86" t="s">
+      <c r="P168" s="84" t="s">
         <v>100</v>
       </c>
-      <c r="Q168" s="86"/>
-      <c r="R168" s="86"/>
-      <c r="S168" s="86"/>
-      <c r="T168" s="86"/>
-      <c r="U168" s="86"/>
-      <c r="V168" s="86"/>
+      <c r="Q168" s="84"/>
+      <c r="R168" s="84"/>
+      <c r="S168" s="84"/>
+      <c r="T168" s="84"/>
+      <c r="U168" s="84"/>
+      <c r="V168" s="84"/>
     </row>
     <row r="169" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P169" s="86"/>
-      <c r="Q169" s="86"/>
-      <c r="R169" s="86"/>
-      <c r="S169" s="86"/>
-      <c r="T169" s="86"/>
-      <c r="U169" s="86"/>
-      <c r="V169" s="86"/>
+      <c r="P169" s="84"/>
+      <c r="Q169" s="84"/>
+      <c r="R169" s="84"/>
+      <c r="S169" s="84"/>
+      <c r="T169" s="84"/>
+      <c r="U169" s="84"/>
+      <c r="V169" s="84"/>
     </row>
     <row r="170" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M170" s="87" t="s">
+      <c r="M170" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="N170" s="87"/>
-      <c r="O170" s="87"/>
-      <c r="P170" s="88" t="s">
+      <c r="N170" s="85"/>
+      <c r="O170" s="85"/>
+      <c r="P170" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="Q170" s="88"/>
-      <c r="R170" s="88"/>
-      <c r="S170" s="88"/>
+      <c r="Q170" s="86"/>
+      <c r="R170" s="86"/>
+      <c r="S170" s="86"/>
       <c r="T170" s="18"/>
       <c r="U170" s="18"/>
-      <c r="V170" s="91" t="e">
+      <c r="V170" s="87" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W170" s="92"/>
-      <c r="X170" s="93"/>
+      <c r="W170" s="88"/>
+      <c r="X170" s="89"/>
     </row>
     <row r="171" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M171" s="6" t="s">
@@ -9674,45 +9674,45 @@
       <c r="X181" s="4"/>
     </row>
     <row r="186" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P186" s="86" t="s">
+      <c r="P186" s="84" t="s">
         <v>104</v>
       </c>
-      <c r="Q186" s="86"/>
-      <c r="R186" s="86"/>
-      <c r="S186" s="86"/>
-      <c r="T186" s="86"/>
-      <c r="U186" s="86"/>
-      <c r="V186" s="86"/>
+      <c r="Q186" s="84"/>
+      <c r="R186" s="84"/>
+      <c r="S186" s="84"/>
+      <c r="T186" s="84"/>
+      <c r="U186" s="84"/>
+      <c r="V186" s="84"/>
     </row>
     <row r="187" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P187" s="86"/>
-      <c r="Q187" s="86"/>
-      <c r="R187" s="86"/>
-      <c r="S187" s="86"/>
-      <c r="T187" s="86"/>
-      <c r="U187" s="86"/>
-      <c r="V187" s="86"/>
+      <c r="P187" s="84"/>
+      <c r="Q187" s="84"/>
+      <c r="R187" s="84"/>
+      <c r="S187" s="84"/>
+      <c r="T187" s="84"/>
+      <c r="U187" s="84"/>
+      <c r="V187" s="84"/>
     </row>
     <row r="188" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M188" s="87" t="s">
+      <c r="M188" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="N188" s="87"/>
-      <c r="O188" s="87"/>
-      <c r="P188" s="88" t="s">
+      <c r="N188" s="85"/>
+      <c r="O188" s="85"/>
+      <c r="P188" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="Q188" s="88"/>
-      <c r="R188" s="88"/>
-      <c r="S188" s="88"/>
+      <c r="Q188" s="86"/>
+      <c r="R188" s="86"/>
+      <c r="S188" s="86"/>
       <c r="T188" s="18"/>
       <c r="U188" s="18"/>
-      <c r="V188" s="91" t="e">
+      <c r="V188" s="87" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W188" s="92"/>
-      <c r="X188" s="93"/>
+      <c r="W188" s="88"/>
+      <c r="X188" s="89"/>
     </row>
     <row r="189" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M189" s="6" t="s">
@@ -9882,24 +9882,24 @@
       <c r="X194" s="15"/>
     </row>
     <row r="198" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P198" s="86" t="s">
+      <c r="P198" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="Q198" s="86"/>
-      <c r="R198" s="86"/>
-      <c r="S198" s="86"/>
-      <c r="T198" s="86"/>
-      <c r="U198" s="86"/>
-      <c r="V198" s="86"/>
+      <c r="Q198" s="84"/>
+      <c r="R198" s="84"/>
+      <c r="S198" s="84"/>
+      <c r="T198" s="84"/>
+      <c r="U198" s="84"/>
+      <c r="V198" s="84"/>
     </row>
     <row r="199" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P199" s="86"/>
-      <c r="Q199" s="86"/>
-      <c r="R199" s="86"/>
-      <c r="S199" s="86"/>
-      <c r="T199" s="86"/>
-      <c r="U199" s="86"/>
-      <c r="V199" s="86"/>
+      <c r="P199" s="84"/>
+      <c r="Q199" s="84"/>
+      <c r="R199" s="84"/>
+      <c r="S199" s="84"/>
+      <c r="T199" s="84"/>
+      <c r="U199" s="84"/>
+      <c r="V199" s="84"/>
     </row>
     <row r="200" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M200" s="70" t="s">
@@ -10074,24 +10074,24 @@
       </c>
     </row>
     <row r="209" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P209" s="86" t="s">
+      <c r="P209" s="84" t="s">
         <v>113</v>
       </c>
-      <c r="Q209" s="86"/>
-      <c r="R209" s="86"/>
-      <c r="S209" s="86"/>
-      <c r="T209" s="86"/>
-      <c r="U209" s="86"/>
-      <c r="V209" s="86"/>
+      <c r="Q209" s="84"/>
+      <c r="R209" s="84"/>
+      <c r="S209" s="84"/>
+      <c r="T209" s="84"/>
+      <c r="U209" s="84"/>
+      <c r="V209" s="84"/>
     </row>
     <row r="210" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P210" s="86"/>
-      <c r="Q210" s="86"/>
-      <c r="R210" s="86"/>
-      <c r="S210" s="86"/>
-      <c r="T210" s="86"/>
-      <c r="U210" s="86"/>
-      <c r="V210" s="86"/>
+      <c r="P210" s="84"/>
+      <c r="Q210" s="84"/>
+      <c r="R210" s="84"/>
+      <c r="S210" s="84"/>
+      <c r="T210" s="84"/>
+      <c r="U210" s="84"/>
+      <c r="V210" s="84"/>
     </row>
     <row r="211" spans="13:26" ht="36" x14ac:dyDescent="0.25">
       <c r="M211" s="70" t="s">
@@ -10243,24 +10243,24 @@
       </c>
     </row>
     <row r="218" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P218" s="86" t="s">
+      <c r="P218" s="84" t="s">
         <v>114</v>
       </c>
-      <c r="Q218" s="86"/>
-      <c r="R218" s="86"/>
-      <c r="S218" s="86"/>
-      <c r="T218" s="86"/>
-      <c r="U218" s="86"/>
-      <c r="V218" s="86"/>
+      <c r="Q218" s="84"/>
+      <c r="R218" s="84"/>
+      <c r="S218" s="84"/>
+      <c r="T218" s="84"/>
+      <c r="U218" s="84"/>
+      <c r="V218" s="84"/>
     </row>
     <row r="219" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P219" s="86"/>
-      <c r="Q219" s="86"/>
-      <c r="R219" s="86"/>
-      <c r="S219" s="86"/>
-      <c r="T219" s="86"/>
-      <c r="U219" s="86"/>
-      <c r="V219" s="86"/>
+      <c r="P219" s="84"/>
+      <c r="Q219" s="84"/>
+      <c r="R219" s="84"/>
+      <c r="S219" s="84"/>
+      <c r="T219" s="84"/>
+      <c r="U219" s="84"/>
+      <c r="V219" s="84"/>
     </row>
     <row r="220" spans="13:26" ht="36" x14ac:dyDescent="0.25">
       <c r="M220" s="70" t="s">
@@ -10517,24 +10517,24 @@
       </c>
     </row>
     <row r="230" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P230" s="86" t="s">
+      <c r="P230" s="84" t="s">
         <v>116</v>
       </c>
-      <c r="Q230" s="86"/>
-      <c r="R230" s="86"/>
-      <c r="S230" s="86"/>
-      <c r="T230" s="86"/>
-      <c r="U230" s="86"/>
-      <c r="V230" s="86"/>
+      <c r="Q230" s="84"/>
+      <c r="R230" s="84"/>
+      <c r="S230" s="84"/>
+      <c r="T230" s="84"/>
+      <c r="U230" s="84"/>
+      <c r="V230" s="84"/>
     </row>
     <row r="231" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P231" s="86"/>
-      <c r="Q231" s="86"/>
-      <c r="R231" s="86"/>
-      <c r="S231" s="86"/>
-      <c r="T231" s="86"/>
-      <c r="U231" s="86"/>
-      <c r="V231" s="86"/>
+      <c r="P231" s="84"/>
+      <c r="Q231" s="84"/>
+      <c r="R231" s="84"/>
+      <c r="S231" s="84"/>
+      <c r="T231" s="84"/>
+      <c r="U231" s="84"/>
+      <c r="V231" s="84"/>
     </row>
     <row r="232" spans="13:26" ht="36" x14ac:dyDescent="0.25">
       <c r="M232" s="75" t="s">
@@ -10618,8 +10618,8 @@
       <c r="R234" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="S234" s="20" t="s">
-        <v>9</v>
+      <c r="S234" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="T234" s="43">
         <v>0.41666666666666669</v>
@@ -10630,7 +10630,9 @@
       <c r="V234" s="34">
         <v>0.43541666666666662</v>
       </c>
-      <c r="W234" s="34"/>
+      <c r="W234" s="34">
+        <v>8.4722222222222213E-2</v>
+      </c>
       <c r="X234" s="35"/>
       <c r="Z234" s="10" t="s">
         <v>11</v>
@@ -10653,8 +10655,8 @@
       <c r="R235" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="S235" s="20" t="s">
-        <v>9</v>
+      <c r="S235" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="T235" s="43">
         <v>0.41666666666666669</v>
@@ -10665,8 +10667,12 @@
       <c r="V235" s="34">
         <v>0.43541666666666662</v>
       </c>
-      <c r="W235" s="34"/>
-      <c r="X235" s="35"/>
+      <c r="W235" s="34">
+        <v>9.3055555555555558E-2</v>
+      </c>
+      <c r="X235" s="35">
+        <v>0.12083333333333333</v>
+      </c>
       <c r="Z235" s="21" t="s">
         <v>10</v>
       </c>
@@ -10690,6 +10696,74 @@
     </row>
   </sheetData>
   <mergeCells count="84">
+    <mergeCell ref="P218:V219"/>
+    <mergeCell ref="P198:V199"/>
+    <mergeCell ref="P186:V187"/>
+    <mergeCell ref="M188:O188"/>
+    <mergeCell ref="P188:S188"/>
+    <mergeCell ref="V188:X188"/>
+    <mergeCell ref="P209:V210"/>
+    <mergeCell ref="P168:V169"/>
+    <mergeCell ref="M170:O170"/>
+    <mergeCell ref="P170:S170"/>
+    <mergeCell ref="V170:X170"/>
+    <mergeCell ref="M155:O155"/>
+    <mergeCell ref="P155:S155"/>
+    <mergeCell ref="V155:X155"/>
+    <mergeCell ref="P153:V154"/>
+    <mergeCell ref="C103:G104"/>
+    <mergeCell ref="P103:V104"/>
+    <mergeCell ref="A105:C105"/>
+    <mergeCell ref="D105:G105"/>
+    <mergeCell ref="H105:J105"/>
+    <mergeCell ref="M105:O105"/>
+    <mergeCell ref="P105:S105"/>
+    <mergeCell ref="V105:X105"/>
+    <mergeCell ref="C121:G122"/>
+    <mergeCell ref="A123:C123"/>
+    <mergeCell ref="D123:G123"/>
+    <mergeCell ref="H123:J123"/>
+    <mergeCell ref="M140:O140"/>
+    <mergeCell ref="P140:S140"/>
+    <mergeCell ref="V140:X140"/>
+    <mergeCell ref="C86:G87"/>
+    <mergeCell ref="P86:V87"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="D88:G88"/>
+    <mergeCell ref="H88:J88"/>
+    <mergeCell ref="M88:O88"/>
+    <mergeCell ref="P88:S88"/>
+    <mergeCell ref="V88:X88"/>
+    <mergeCell ref="P121:V122"/>
+    <mergeCell ref="V123:X123"/>
+    <mergeCell ref="M123:O123"/>
+    <mergeCell ref="P123:S123"/>
+    <mergeCell ref="P138:V139"/>
+    <mergeCell ref="C2:G3"/>
+    <mergeCell ref="P2:V3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="C22:G23"/>
+    <mergeCell ref="P22:V23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="P71:S71"/>
+    <mergeCell ref="C37:G38"/>
+    <mergeCell ref="P37:V38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="P39:S39"/>
+    <mergeCell ref="V39:X39"/>
     <mergeCell ref="P230:V231"/>
     <mergeCell ref="V71:X71"/>
     <mergeCell ref="A55:C55"/>
@@ -10706,74 +10780,6 @@
     <mergeCell ref="D71:G71"/>
     <mergeCell ref="H71:J71"/>
     <mergeCell ref="M71:O71"/>
-    <mergeCell ref="P71:S71"/>
-    <mergeCell ref="C37:G38"/>
-    <mergeCell ref="P37:V38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="P39:S39"/>
-    <mergeCell ref="V39:X39"/>
-    <mergeCell ref="C22:G23"/>
-    <mergeCell ref="P22:V23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="C2:G3"/>
-    <mergeCell ref="P2:V3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="P121:V122"/>
-    <mergeCell ref="V123:X123"/>
-    <mergeCell ref="M123:O123"/>
-    <mergeCell ref="P123:S123"/>
-    <mergeCell ref="P138:V139"/>
-    <mergeCell ref="C86:G87"/>
-    <mergeCell ref="P86:V87"/>
-    <mergeCell ref="A88:C88"/>
-    <mergeCell ref="D88:G88"/>
-    <mergeCell ref="H88:J88"/>
-    <mergeCell ref="M88:O88"/>
-    <mergeCell ref="P88:S88"/>
-    <mergeCell ref="V88:X88"/>
-    <mergeCell ref="P153:V154"/>
-    <mergeCell ref="C103:G104"/>
-    <mergeCell ref="P103:V104"/>
-    <mergeCell ref="A105:C105"/>
-    <mergeCell ref="D105:G105"/>
-    <mergeCell ref="H105:J105"/>
-    <mergeCell ref="M105:O105"/>
-    <mergeCell ref="P105:S105"/>
-    <mergeCell ref="V105:X105"/>
-    <mergeCell ref="C121:G122"/>
-    <mergeCell ref="A123:C123"/>
-    <mergeCell ref="D123:G123"/>
-    <mergeCell ref="H123:J123"/>
-    <mergeCell ref="M140:O140"/>
-    <mergeCell ref="P140:S140"/>
-    <mergeCell ref="V140:X140"/>
-    <mergeCell ref="P168:V169"/>
-    <mergeCell ref="M170:O170"/>
-    <mergeCell ref="P170:S170"/>
-    <mergeCell ref="V170:X170"/>
-    <mergeCell ref="M155:O155"/>
-    <mergeCell ref="P155:S155"/>
-    <mergeCell ref="V155:X155"/>
-    <mergeCell ref="P218:V219"/>
-    <mergeCell ref="P198:V199"/>
-    <mergeCell ref="P186:V187"/>
-    <mergeCell ref="M188:O188"/>
-    <mergeCell ref="P188:S188"/>
-    <mergeCell ref="V188:X188"/>
-    <mergeCell ref="P209:V210"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/DOC 2023/FORMATO STATUS.xlsx
+++ b/DOC 2023/FORMATO STATUS.xlsx
@@ -951,6 +951,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -960,6 +966,12 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -967,18 +979,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1258,7 +1258,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1287,72 +1287,72 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C2" s="90" t="s">
+      <c r="C2" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="P2" s="84" t="s">
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="P2" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="84"/>
-      <c r="V2" s="84"/>
+      <c r="Q2" s="86"/>
+      <c r="R2" s="86"/>
+      <c r="S2" s="86"/>
+      <c r="T2" s="86"/>
+      <c r="U2" s="86"/>
+      <c r="V2" s="86"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="84"/>
-      <c r="S3" s="84"/>
-      <c r="T3" s="84"/>
-      <c r="U3" s="84"/>
-      <c r="V3" s="84"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="P3" s="86"/>
+      <c r="Q3" s="86"/>
+      <c r="R3" s="86"/>
+      <c r="S3" s="86"/>
+      <c r="T3" s="86"/>
+      <c r="U3" s="86"/>
+      <c r="V3" s="86"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="86" t="s">
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="92">
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="89">
         <v>44965</v>
       </c>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93"/>
-      <c r="M4" s="85" t="s">
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="M4" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="85"/>
-      <c r="O4" s="85"/>
-      <c r="P4" s="86" t="s">
+      <c r="N4" s="87"/>
+      <c r="O4" s="87"/>
+      <c r="P4" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="86"/>
-      <c r="R4" s="86"/>
-      <c r="S4" s="86"/>
+      <c r="Q4" s="88"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="88"/>
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
-      <c r="V4" s="87">
+      <c r="V4" s="91">
         <v>44601</v>
       </c>
-      <c r="W4" s="88"/>
-      <c r="X4" s="89"/>
+      <c r="W4" s="92"/>
+      <c r="X4" s="93"/>
     </row>
     <row r="5" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -1767,72 +1767,72 @@
       <c r="X15" s="4"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C22" s="90" t="s">
+      <c r="C22" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="90"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
-      <c r="P22" s="84" t="s">
+      <c r="D22" s="84"/>
+      <c r="E22" s="84"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="84"/>
+      <c r="P22" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="Q22" s="84"/>
-      <c r="R22" s="84"/>
-      <c r="S22" s="84"/>
-      <c r="T22" s="84"/>
-      <c r="U22" s="84"/>
-      <c r="V22" s="84"/>
+      <c r="Q22" s="86"/>
+      <c r="R22" s="86"/>
+      <c r="S22" s="86"/>
+      <c r="T22" s="86"/>
+      <c r="U22" s="86"/>
+      <c r="V22" s="86"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C23" s="91"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="91"/>
-      <c r="F23" s="91"/>
-      <c r="G23" s="91"/>
-      <c r="P23" s="84"/>
-      <c r="Q23" s="84"/>
-      <c r="R23" s="84"/>
-      <c r="S23" s="84"/>
-      <c r="T23" s="84"/>
-      <c r="U23" s="84"/>
-      <c r="V23" s="84"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="85"/>
+      <c r="P23" s="86"/>
+      <c r="Q23" s="86"/>
+      <c r="R23" s="86"/>
+      <c r="S23" s="86"/>
+      <c r="T23" s="86"/>
+      <c r="U23" s="86"/>
+      <c r="V23" s="86"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="85" t="s">
+      <c r="A24" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="85"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="86" t="s">
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="86"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="92">
+      <c r="E24" s="88"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="88"/>
+      <c r="H24" s="89">
         <v>44965</v>
       </c>
-      <c r="I24" s="93"/>
-      <c r="J24" s="93"/>
-      <c r="M24" s="85" t="s">
+      <c r="I24" s="90"/>
+      <c r="J24" s="90"/>
+      <c r="M24" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="N24" s="85"/>
-      <c r="O24" s="85"/>
-      <c r="P24" s="86" t="s">
+      <c r="N24" s="87"/>
+      <c r="O24" s="87"/>
+      <c r="P24" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="Q24" s="86"/>
-      <c r="R24" s="86"/>
-      <c r="S24" s="86"/>
+      <c r="Q24" s="88"/>
+      <c r="R24" s="88"/>
+      <c r="S24" s="88"/>
       <c r="T24" s="18"/>
       <c r="U24" s="18"/>
-      <c r="V24" s="87">
+      <c r="V24" s="91">
         <v>44971</v>
       </c>
-      <c r="W24" s="88"/>
-      <c r="X24" s="89"/>
+      <c r="W24" s="92"/>
+      <c r="X24" s="93"/>
     </row>
     <row r="25" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -2287,72 +2287,72 @@
       <c r="X35" s="4"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C38" s="90" t="s">
+      <c r="C38" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="90"/>
-      <c r="E38" s="90"/>
-      <c r="F38" s="90"/>
-      <c r="G38" s="90"/>
-      <c r="P38" s="84" t="s">
+      <c r="D38" s="84"/>
+      <c r="E38" s="84"/>
+      <c r="F38" s="84"/>
+      <c r="G38" s="84"/>
+      <c r="P38" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="Q38" s="84"/>
-      <c r="R38" s="84"/>
-      <c r="S38" s="84"/>
-      <c r="T38" s="84"/>
-      <c r="U38" s="84"/>
-      <c r="V38" s="84"/>
+      <c r="Q38" s="86"/>
+      <c r="R38" s="86"/>
+      <c r="S38" s="86"/>
+      <c r="T38" s="86"/>
+      <c r="U38" s="86"/>
+      <c r="V38" s="86"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C39" s="91"/>
-      <c r="D39" s="91"/>
-      <c r="E39" s="91"/>
-      <c r="F39" s="91"/>
-      <c r="G39" s="91"/>
-      <c r="P39" s="84"/>
-      <c r="Q39" s="84"/>
-      <c r="R39" s="84"/>
-      <c r="S39" s="84"/>
-      <c r="T39" s="84"/>
-      <c r="U39" s="84"/>
-      <c r="V39" s="84"/>
+      <c r="C39" s="85"/>
+      <c r="D39" s="85"/>
+      <c r="E39" s="85"/>
+      <c r="F39" s="85"/>
+      <c r="G39" s="85"/>
+      <c r="P39" s="86"/>
+      <c r="Q39" s="86"/>
+      <c r="R39" s="86"/>
+      <c r="S39" s="86"/>
+      <c r="T39" s="86"/>
+      <c r="U39" s="86"/>
+      <c r="V39" s="86"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A40" s="85" t="s">
+      <c r="A40" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="85"/>
-      <c r="C40" s="85"/>
-      <c r="D40" s="86" t="s">
+      <c r="B40" s="87"/>
+      <c r="C40" s="87"/>
+      <c r="D40" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="E40" s="86"/>
-      <c r="F40" s="86"/>
-      <c r="G40" s="86"/>
-      <c r="H40" s="92">
+      <c r="E40" s="88"/>
+      <c r="F40" s="88"/>
+      <c r="G40" s="88"/>
+      <c r="H40" s="89">
         <v>44972</v>
       </c>
-      <c r="I40" s="93"/>
-      <c r="J40" s="93"/>
-      <c r="M40" s="85" t="s">
+      <c r="I40" s="90"/>
+      <c r="J40" s="90"/>
+      <c r="M40" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="N40" s="85"/>
-      <c r="O40" s="85"/>
-      <c r="P40" s="86" t="s">
+      <c r="N40" s="87"/>
+      <c r="O40" s="87"/>
+      <c r="P40" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="Q40" s="86"/>
-      <c r="R40" s="86"/>
-      <c r="S40" s="86"/>
+      <c r="Q40" s="88"/>
+      <c r="R40" s="88"/>
+      <c r="S40" s="88"/>
       <c r="T40" s="18"/>
       <c r="U40" s="18"/>
-      <c r="V40" s="87">
+      <c r="V40" s="91">
         <v>44973</v>
       </c>
-      <c r="W40" s="88"/>
-      <c r="X40" s="89"/>
+      <c r="W40" s="92"/>
+      <c r="X40" s="93"/>
     </row>
     <row r="41" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
@@ -2767,72 +2767,72 @@
       <c r="X51" s="4"/>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C54" s="90" t="s">
+      <c r="C54" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="D54" s="90"/>
-      <c r="E54" s="90"/>
-      <c r="F54" s="90"/>
-      <c r="G54" s="90"/>
-      <c r="P54" s="84" t="s">
+      <c r="D54" s="84"/>
+      <c r="E54" s="84"/>
+      <c r="F54" s="84"/>
+      <c r="G54" s="84"/>
+      <c r="P54" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="Q54" s="84"/>
-      <c r="R54" s="84"/>
-      <c r="S54" s="84"/>
-      <c r="T54" s="84"/>
-      <c r="U54" s="84"/>
-      <c r="V54" s="84"/>
+      <c r="Q54" s="86"/>
+      <c r="R54" s="86"/>
+      <c r="S54" s="86"/>
+      <c r="T54" s="86"/>
+      <c r="U54" s="86"/>
+      <c r="V54" s="86"/>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C55" s="91"/>
-      <c r="D55" s="91"/>
-      <c r="E55" s="91"/>
-      <c r="F55" s="91"/>
-      <c r="G55" s="91"/>
-      <c r="P55" s="84"/>
-      <c r="Q55" s="84"/>
-      <c r="R55" s="84"/>
-      <c r="S55" s="84"/>
-      <c r="T55" s="84"/>
-      <c r="U55" s="84"/>
-      <c r="V55" s="84"/>
+      <c r="C55" s="85"/>
+      <c r="D55" s="85"/>
+      <c r="E55" s="85"/>
+      <c r="F55" s="85"/>
+      <c r="G55" s="85"/>
+      <c r="P55" s="86"/>
+      <c r="Q55" s="86"/>
+      <c r="R55" s="86"/>
+      <c r="S55" s="86"/>
+      <c r="T55" s="86"/>
+      <c r="U55" s="86"/>
+      <c r="V55" s="86"/>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A56" s="85" t="s">
+      <c r="A56" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="85"/>
-      <c r="C56" s="85"/>
-      <c r="D56" s="86" t="s">
+      <c r="B56" s="87"/>
+      <c r="C56" s="87"/>
+      <c r="D56" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="E56" s="86"/>
-      <c r="F56" s="86"/>
-      <c r="G56" s="86"/>
-      <c r="H56" s="92">
+      <c r="E56" s="88"/>
+      <c r="F56" s="88"/>
+      <c r="G56" s="88"/>
+      <c r="H56" s="89">
         <v>44974</v>
       </c>
-      <c r="I56" s="93"/>
-      <c r="J56" s="93"/>
-      <c r="M56" s="85" t="s">
+      <c r="I56" s="90"/>
+      <c r="J56" s="90"/>
+      <c r="M56" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="N56" s="85"/>
-      <c r="O56" s="85"/>
-      <c r="P56" s="86" t="s">
+      <c r="N56" s="87"/>
+      <c r="O56" s="87"/>
+      <c r="P56" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="Q56" s="86"/>
-      <c r="R56" s="86"/>
-      <c r="S56" s="86"/>
+      <c r="Q56" s="88"/>
+      <c r="R56" s="88"/>
+      <c r="S56" s="88"/>
       <c r="T56" s="18"/>
       <c r="U56" s="18"/>
-      <c r="V56" s="87">
+      <c r="V56" s="91">
         <v>44975</v>
       </c>
-      <c r="W56" s="88"/>
-      <c r="X56" s="89"/>
+      <c r="W56" s="92"/>
+      <c r="X56" s="93"/>
     </row>
     <row r="57" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
@@ -3287,72 +3287,72 @@
       <c r="X67" s="4"/>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C70" s="90" t="s">
+      <c r="C70" s="84" t="s">
         <v>54</v>
       </c>
-      <c r="D70" s="90"/>
-      <c r="E70" s="90"/>
-      <c r="F70" s="90"/>
-      <c r="G70" s="90"/>
-      <c r="P70" s="84" t="s">
+      <c r="D70" s="84"/>
+      <c r="E70" s="84"/>
+      <c r="F70" s="84"/>
+      <c r="G70" s="84"/>
+      <c r="P70" s="86" t="s">
         <v>55</v>
       </c>
-      <c r="Q70" s="84"/>
-      <c r="R70" s="84"/>
-      <c r="S70" s="84"/>
-      <c r="T70" s="84"/>
-      <c r="U70" s="84"/>
-      <c r="V70" s="84"/>
+      <c r="Q70" s="86"/>
+      <c r="R70" s="86"/>
+      <c r="S70" s="86"/>
+      <c r="T70" s="86"/>
+      <c r="U70" s="86"/>
+      <c r="V70" s="86"/>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C71" s="91"/>
-      <c r="D71" s="91"/>
-      <c r="E71" s="91"/>
-      <c r="F71" s="91"/>
-      <c r="G71" s="91"/>
-      <c r="P71" s="84"/>
-      <c r="Q71" s="84"/>
-      <c r="R71" s="84"/>
-      <c r="S71" s="84"/>
-      <c r="T71" s="84"/>
-      <c r="U71" s="84"/>
-      <c r="V71" s="84"/>
+      <c r="C71" s="85"/>
+      <c r="D71" s="85"/>
+      <c r="E71" s="85"/>
+      <c r="F71" s="85"/>
+      <c r="G71" s="85"/>
+      <c r="P71" s="86"/>
+      <c r="Q71" s="86"/>
+      <c r="R71" s="86"/>
+      <c r="S71" s="86"/>
+      <c r="T71" s="86"/>
+      <c r="U71" s="86"/>
+      <c r="V71" s="86"/>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A72" s="85" t="s">
+      <c r="A72" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B72" s="85"/>
-      <c r="C72" s="85"/>
-      <c r="D72" s="86" t="s">
+      <c r="B72" s="87"/>
+      <c r="C72" s="87"/>
+      <c r="D72" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="E72" s="86"/>
-      <c r="F72" s="86"/>
-      <c r="G72" s="86"/>
-      <c r="H72" s="92">
+      <c r="E72" s="88"/>
+      <c r="F72" s="88"/>
+      <c r="G72" s="88"/>
+      <c r="H72" s="89">
         <v>44979</v>
       </c>
-      <c r="I72" s="93"/>
-      <c r="J72" s="93"/>
-      <c r="M72" s="85" t="s">
+      <c r="I72" s="90"/>
+      <c r="J72" s="90"/>
+      <c r="M72" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="N72" s="85"/>
-      <c r="O72" s="85"/>
-      <c r="P72" s="86" t="s">
+      <c r="N72" s="87"/>
+      <c r="O72" s="87"/>
+      <c r="P72" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="Q72" s="86"/>
-      <c r="R72" s="86"/>
-      <c r="S72" s="86"/>
+      <c r="Q72" s="88"/>
+      <c r="R72" s="88"/>
+      <c r="S72" s="88"/>
       <c r="T72" s="18"/>
       <c r="U72" s="18"/>
-      <c r="V72" s="87">
+      <c r="V72" s="91">
         <v>44980</v>
       </c>
-      <c r="W72" s="88"/>
-      <c r="X72" s="89"/>
+      <c r="W72" s="92"/>
+      <c r="X72" s="93"/>
     </row>
     <row r="73" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
@@ -3723,72 +3723,72 @@
       <c r="X83" s="4"/>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C87" s="90" t="s">
+      <c r="C87" s="84" t="s">
         <v>71</v>
       </c>
-      <c r="D87" s="90"/>
-      <c r="E87" s="90"/>
-      <c r="F87" s="90"/>
-      <c r="G87" s="90"/>
-      <c r="P87" s="84" t="s">
+      <c r="D87" s="84"/>
+      <c r="E87" s="84"/>
+      <c r="F87" s="84"/>
+      <c r="G87" s="84"/>
+      <c r="P87" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="Q87" s="84"/>
-      <c r="R87" s="84"/>
-      <c r="S87" s="84"/>
-      <c r="T87" s="84"/>
-      <c r="U87" s="84"/>
-      <c r="V87" s="84"/>
+      <c r="Q87" s="86"/>
+      <c r="R87" s="86"/>
+      <c r="S87" s="86"/>
+      <c r="T87" s="86"/>
+      <c r="U87" s="86"/>
+      <c r="V87" s="86"/>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C88" s="91"/>
-      <c r="D88" s="91"/>
-      <c r="E88" s="91"/>
-      <c r="F88" s="91"/>
-      <c r="G88" s="91"/>
-      <c r="P88" s="84"/>
-      <c r="Q88" s="84"/>
-      <c r="R88" s="84"/>
-      <c r="S88" s="84"/>
-      <c r="T88" s="84"/>
-      <c r="U88" s="84"/>
-      <c r="V88" s="84"/>
+      <c r="C88" s="85"/>
+      <c r="D88" s="85"/>
+      <c r="E88" s="85"/>
+      <c r="F88" s="85"/>
+      <c r="G88" s="85"/>
+      <c r="P88" s="86"/>
+      <c r="Q88" s="86"/>
+      <c r="R88" s="86"/>
+      <c r="S88" s="86"/>
+      <c r="T88" s="86"/>
+      <c r="U88" s="86"/>
+      <c r="V88" s="86"/>
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A89" s="85" t="s">
+      <c r="A89" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B89" s="85"/>
-      <c r="C89" s="85"/>
-      <c r="D89" s="86" t="s">
+      <c r="B89" s="87"/>
+      <c r="C89" s="87"/>
+      <c r="D89" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="E89" s="86"/>
-      <c r="F89" s="86"/>
-      <c r="G89" s="86"/>
-      <c r="H89" s="92">
+      <c r="E89" s="88"/>
+      <c r="F89" s="88"/>
+      <c r="G89" s="88"/>
+      <c r="H89" s="89">
         <v>44981</v>
       </c>
-      <c r="I89" s="93"/>
-      <c r="J89" s="93"/>
-      <c r="M89" s="85" t="s">
+      <c r="I89" s="90"/>
+      <c r="J89" s="90"/>
+      <c r="M89" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="N89" s="85"/>
-      <c r="O89" s="85"/>
-      <c r="P89" s="86" t="s">
+      <c r="N89" s="87"/>
+      <c r="O89" s="87"/>
+      <c r="P89" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="Q89" s="86"/>
-      <c r="R89" s="86"/>
-      <c r="S89" s="86"/>
+      <c r="Q89" s="88"/>
+      <c r="R89" s="88"/>
+      <c r="S89" s="88"/>
       <c r="T89" s="18"/>
       <c r="U89" s="18"/>
-      <c r="V89" s="87">
+      <c r="V89" s="91">
         <v>44980</v>
       </c>
-      <c r="W89" s="88"/>
-      <c r="X89" s="89"/>
+      <c r="W89" s="92"/>
+      <c r="X89" s="93"/>
     </row>
     <row r="90" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
@@ -4243,72 +4243,72 @@
       <c r="X100" s="4"/>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C104" s="90" t="s">
+      <c r="C104" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="D104" s="90"/>
-      <c r="E104" s="90"/>
-      <c r="F104" s="90"/>
-      <c r="G104" s="90"/>
-      <c r="P104" s="84" t="s">
+      <c r="D104" s="84"/>
+      <c r="E104" s="84"/>
+      <c r="F104" s="84"/>
+      <c r="G104" s="84"/>
+      <c r="P104" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="Q104" s="84"/>
-      <c r="R104" s="84"/>
-      <c r="S104" s="84"/>
-      <c r="T104" s="84"/>
-      <c r="U104" s="84"/>
-      <c r="V104" s="84"/>
+      <c r="Q104" s="86"/>
+      <c r="R104" s="86"/>
+      <c r="S104" s="86"/>
+      <c r="T104" s="86"/>
+      <c r="U104" s="86"/>
+      <c r="V104" s="86"/>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C105" s="91"/>
-      <c r="D105" s="91"/>
-      <c r="E105" s="91"/>
-      <c r="F105" s="91"/>
-      <c r="G105" s="91"/>
-      <c r="P105" s="84"/>
-      <c r="Q105" s="84"/>
-      <c r="R105" s="84"/>
-      <c r="S105" s="84"/>
-      <c r="T105" s="84"/>
-      <c r="U105" s="84"/>
-      <c r="V105" s="84"/>
+      <c r="C105" s="85"/>
+      <c r="D105" s="85"/>
+      <c r="E105" s="85"/>
+      <c r="F105" s="85"/>
+      <c r="G105" s="85"/>
+      <c r="P105" s="86"/>
+      <c r="Q105" s="86"/>
+      <c r="R105" s="86"/>
+      <c r="S105" s="86"/>
+      <c r="T105" s="86"/>
+      <c r="U105" s="86"/>
+      <c r="V105" s="86"/>
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A106" s="85" t="s">
+      <c r="A106" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B106" s="85"/>
-      <c r="C106" s="85"/>
-      <c r="D106" s="86" t="s">
+      <c r="B106" s="87"/>
+      <c r="C106" s="87"/>
+      <c r="D106" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="E106" s="86"/>
-      <c r="F106" s="86"/>
-      <c r="G106" s="86"/>
-      <c r="H106" s="92">
+      <c r="E106" s="88"/>
+      <c r="F106" s="88"/>
+      <c r="G106" s="88"/>
+      <c r="H106" s="89">
         <v>44979</v>
       </c>
-      <c r="I106" s="93"/>
-      <c r="J106" s="93"/>
-      <c r="M106" s="85" t="s">
+      <c r="I106" s="90"/>
+      <c r="J106" s="90"/>
+      <c r="M106" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="N106" s="85"/>
-      <c r="O106" s="85"/>
-      <c r="P106" s="86" t="s">
+      <c r="N106" s="87"/>
+      <c r="O106" s="87"/>
+      <c r="P106" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="Q106" s="86"/>
-      <c r="R106" s="86"/>
-      <c r="S106" s="86"/>
+      <c r="Q106" s="88"/>
+      <c r="R106" s="88"/>
+      <c r="S106" s="88"/>
       <c r="T106" s="18"/>
       <c r="U106" s="18"/>
-      <c r="V106" s="87" t="s">
+      <c r="V106" s="91" t="s">
         <v>66</v>
       </c>
-      <c r="W106" s="88"/>
-      <c r="X106" s="89"/>
+      <c r="W106" s="92"/>
+      <c r="X106" s="93"/>
     </row>
     <row r="107" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
@@ -4806,6 +4806,54 @@
     <row r="124" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="P38:V39"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="P40:S40"/>
+    <mergeCell ref="V40:X40"/>
+    <mergeCell ref="C38:G39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="C22:G23"/>
+    <mergeCell ref="P22:V23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="C2:G3"/>
+    <mergeCell ref="P2:V3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="C54:G55"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="P54:V55"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="P56:S56"/>
+    <mergeCell ref="V56:X56"/>
+    <mergeCell ref="C70:G71"/>
+    <mergeCell ref="P70:V71"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="D72:G72"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="M72:O72"/>
+    <mergeCell ref="P72:S72"/>
+    <mergeCell ref="V72:X72"/>
+    <mergeCell ref="C87:G88"/>
+    <mergeCell ref="P87:V88"/>
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="D89:G89"/>
+    <mergeCell ref="H89:J89"/>
+    <mergeCell ref="M89:O89"/>
+    <mergeCell ref="P89:S89"/>
+    <mergeCell ref="V89:X89"/>
     <mergeCell ref="C104:G105"/>
     <mergeCell ref="P104:V105"/>
     <mergeCell ref="A106:C106"/>
@@ -4814,54 +4862,6 @@
     <mergeCell ref="M106:O106"/>
     <mergeCell ref="P106:S106"/>
     <mergeCell ref="V106:X106"/>
-    <mergeCell ref="C87:G88"/>
-    <mergeCell ref="P87:V88"/>
-    <mergeCell ref="A89:C89"/>
-    <mergeCell ref="D89:G89"/>
-    <mergeCell ref="H89:J89"/>
-    <mergeCell ref="M89:O89"/>
-    <mergeCell ref="P89:S89"/>
-    <mergeCell ref="V89:X89"/>
-    <mergeCell ref="C70:G71"/>
-    <mergeCell ref="P70:V71"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="D72:G72"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="M72:O72"/>
-    <mergeCell ref="P72:S72"/>
-    <mergeCell ref="V72:X72"/>
-    <mergeCell ref="C54:G55"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="P54:V55"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="P56:S56"/>
-    <mergeCell ref="V56:X56"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="C2:G3"/>
-    <mergeCell ref="P2:V3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="C22:G23"/>
-    <mergeCell ref="P22:V23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="P38:V39"/>
-    <mergeCell ref="M40:O40"/>
-    <mergeCell ref="P40:S40"/>
-    <mergeCell ref="V40:X40"/>
-    <mergeCell ref="C38:G39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="H40:J40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4873,7 +4873,7 @@
   <dimension ref="A2:Z236"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M226" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T236" sqref="T236"/>
+      <selection activeCell="X235" sqref="M230:X235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4893,72 +4893,72 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C2" s="90" t="s">
+      <c r="C2" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="P2" s="84" t="s">
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="P2" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="84"/>
-      <c r="V2" s="84"/>
+      <c r="Q2" s="86"/>
+      <c r="R2" s="86"/>
+      <c r="S2" s="86"/>
+      <c r="T2" s="86"/>
+      <c r="U2" s="86"/>
+      <c r="V2" s="86"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="84"/>
-      <c r="S3" s="84"/>
-      <c r="T3" s="84"/>
-      <c r="U3" s="84"/>
-      <c r="V3" s="84"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="P3" s="86"/>
+      <c r="Q3" s="86"/>
+      <c r="R3" s="86"/>
+      <c r="S3" s="86"/>
+      <c r="T3" s="86"/>
+      <c r="U3" s="86"/>
+      <c r="V3" s="86"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="86" t="s">
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="92" t="s">
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="89" t="s">
         <v>74</v>
       </c>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93"/>
-      <c r="M4" s="85" t="s">
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="M4" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="85"/>
-      <c r="O4" s="85"/>
-      <c r="P4" s="86" t="s">
+      <c r="N4" s="87"/>
+      <c r="O4" s="87"/>
+      <c r="P4" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="86"/>
-      <c r="R4" s="86"/>
-      <c r="S4" s="86"/>
+      <c r="Q4" s="88"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="88"/>
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
-      <c r="V4" s="87">
+      <c r="V4" s="91">
         <v>44601</v>
       </c>
-      <c r="W4" s="88"/>
-      <c r="X4" s="89"/>
+      <c r="W4" s="92"/>
+      <c r="X4" s="93"/>
     </row>
     <row r="5" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -5425,72 +5425,72 @@
       <c r="X15" s="4"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C22" s="90" t="s">
+      <c r="C22" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="D22" s="90"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
-      <c r="P22" s="84" t="s">
+      <c r="D22" s="84"/>
+      <c r="E22" s="84"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="84"/>
+      <c r="P22" s="86" t="s">
         <v>77</v>
       </c>
-      <c r="Q22" s="84"/>
-      <c r="R22" s="84"/>
-      <c r="S22" s="84"/>
-      <c r="T22" s="84"/>
-      <c r="U22" s="84"/>
-      <c r="V22" s="84"/>
+      <c r="Q22" s="86"/>
+      <c r="R22" s="86"/>
+      <c r="S22" s="86"/>
+      <c r="T22" s="86"/>
+      <c r="U22" s="86"/>
+      <c r="V22" s="86"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C23" s="91"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="91"/>
-      <c r="F23" s="91"/>
-      <c r="G23" s="91"/>
-      <c r="P23" s="84"/>
-      <c r="Q23" s="84"/>
-      <c r="R23" s="84"/>
-      <c r="S23" s="84"/>
-      <c r="T23" s="84"/>
-      <c r="U23" s="84"/>
-      <c r="V23" s="84"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="85"/>
+      <c r="P23" s="86"/>
+      <c r="Q23" s="86"/>
+      <c r="R23" s="86"/>
+      <c r="S23" s="86"/>
+      <c r="T23" s="86"/>
+      <c r="U23" s="86"/>
+      <c r="V23" s="86"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="85" t="s">
+      <c r="A24" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="85"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="86" t="s">
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="86"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="92">
+      <c r="E24" s="88"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="88"/>
+      <c r="H24" s="89">
         <v>44993</v>
       </c>
-      <c r="I24" s="93"/>
-      <c r="J24" s="93"/>
-      <c r="M24" s="85" t="s">
+      <c r="I24" s="90"/>
+      <c r="J24" s="90"/>
+      <c r="M24" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="N24" s="85"/>
-      <c r="O24" s="85"/>
-      <c r="P24" s="86" t="s">
+      <c r="N24" s="87"/>
+      <c r="O24" s="87"/>
+      <c r="P24" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="Q24" s="86"/>
-      <c r="R24" s="86"/>
-      <c r="S24" s="86"/>
+      <c r="Q24" s="88"/>
+      <c r="R24" s="88"/>
+      <c r="S24" s="88"/>
       <c r="T24" s="18"/>
       <c r="U24" s="18"/>
-      <c r="V24" s="87">
+      <c r="V24" s="91">
         <v>44993</v>
       </c>
-      <c r="W24" s="88"/>
-      <c r="X24" s="89"/>
+      <c r="W24" s="92"/>
+      <c r="X24" s="93"/>
     </row>
     <row r="25" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -5920,72 +5920,72 @@
       <c r="X34" s="4"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C37" s="90" t="s">
+      <c r="C37" s="84" t="s">
         <v>84</v>
       </c>
-      <c r="D37" s="90"/>
-      <c r="E37" s="90"/>
-      <c r="F37" s="90"/>
-      <c r="G37" s="90"/>
-      <c r="P37" s="84" t="s">
+      <c r="D37" s="84"/>
+      <c r="E37" s="84"/>
+      <c r="F37" s="84"/>
+      <c r="G37" s="84"/>
+      <c r="P37" s="86" t="s">
         <v>81</v>
       </c>
-      <c r="Q37" s="84"/>
-      <c r="R37" s="84"/>
-      <c r="S37" s="84"/>
-      <c r="T37" s="84"/>
-      <c r="U37" s="84"/>
-      <c r="V37" s="84"/>
+      <c r="Q37" s="86"/>
+      <c r="R37" s="86"/>
+      <c r="S37" s="86"/>
+      <c r="T37" s="86"/>
+      <c r="U37" s="86"/>
+      <c r="V37" s="86"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C38" s="91"/>
-      <c r="D38" s="91"/>
-      <c r="E38" s="91"/>
-      <c r="F38" s="91"/>
-      <c r="G38" s="91"/>
-      <c r="P38" s="84"/>
-      <c r="Q38" s="84"/>
-      <c r="R38" s="84"/>
-      <c r="S38" s="84"/>
-      <c r="T38" s="84"/>
-      <c r="U38" s="84"/>
-      <c r="V38" s="84"/>
+      <c r="C38" s="85"/>
+      <c r="D38" s="85"/>
+      <c r="E38" s="85"/>
+      <c r="F38" s="85"/>
+      <c r="G38" s="85"/>
+      <c r="P38" s="86"/>
+      <c r="Q38" s="86"/>
+      <c r="R38" s="86"/>
+      <c r="S38" s="86"/>
+      <c r="T38" s="86"/>
+      <c r="U38" s="86"/>
+      <c r="V38" s="86"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A39" s="85" t="s">
+      <c r="A39" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="85"/>
-      <c r="C39" s="85"/>
-      <c r="D39" s="86" t="s">
+      <c r="B39" s="87"/>
+      <c r="C39" s="87"/>
+      <c r="D39" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="86"/>
-      <c r="F39" s="86"/>
-      <c r="G39" s="86"/>
-      <c r="H39" s="92">
+      <c r="E39" s="88"/>
+      <c r="F39" s="88"/>
+      <c r="G39" s="88"/>
+      <c r="H39" s="89">
         <v>44972</v>
       </c>
-      <c r="I39" s="93"/>
-      <c r="J39" s="93"/>
-      <c r="M39" s="85" t="s">
+      <c r="I39" s="90"/>
+      <c r="J39" s="90"/>
+      <c r="M39" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="N39" s="85"/>
-      <c r="O39" s="85"/>
-      <c r="P39" s="86" t="s">
+      <c r="N39" s="87"/>
+      <c r="O39" s="87"/>
+      <c r="P39" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="Q39" s="86"/>
-      <c r="R39" s="86"/>
-      <c r="S39" s="86"/>
+      <c r="Q39" s="88"/>
+      <c r="R39" s="88"/>
+      <c r="S39" s="88"/>
       <c r="T39" s="18"/>
       <c r="U39" s="18"/>
-      <c r="V39" s="87">
+      <c r="V39" s="91">
         <v>44994</v>
       </c>
-      <c r="W39" s="88"/>
-      <c r="X39" s="89"/>
+      <c r="W39" s="92"/>
+      <c r="X39" s="93"/>
     </row>
     <row r="40" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
@@ -6396,72 +6396,72 @@
       <c r="X50" s="4"/>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C53" s="90">
+      <c r="C53" s="84">
         <v>45005</v>
       </c>
-      <c r="D53" s="90"/>
-      <c r="E53" s="90"/>
-      <c r="F53" s="90"/>
-      <c r="G53" s="90"/>
-      <c r="P53" s="90">
+      <c r="D53" s="84"/>
+      <c r="E53" s="84"/>
+      <c r="F53" s="84"/>
+      <c r="G53" s="84"/>
+      <c r="P53" s="84">
         <v>45006</v>
       </c>
-      <c r="Q53" s="90"/>
-      <c r="R53" s="90"/>
-      <c r="S53" s="90"/>
-      <c r="T53" s="90"/>
-      <c r="U53" s="90"/>
-      <c r="V53" s="90"/>
+      <c r="Q53" s="84"/>
+      <c r="R53" s="84"/>
+      <c r="S53" s="84"/>
+      <c r="T53" s="84"/>
+      <c r="U53" s="84"/>
+      <c r="V53" s="84"/>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C54" s="91"/>
-      <c r="D54" s="91"/>
-      <c r="E54" s="91"/>
-      <c r="F54" s="91"/>
-      <c r="G54" s="91"/>
-      <c r="P54" s="90"/>
-      <c r="Q54" s="90"/>
-      <c r="R54" s="90"/>
-      <c r="S54" s="90"/>
-      <c r="T54" s="90"/>
-      <c r="U54" s="90"/>
-      <c r="V54" s="90"/>
+      <c r="C54" s="85"/>
+      <c r="D54" s="85"/>
+      <c r="E54" s="85"/>
+      <c r="F54" s="85"/>
+      <c r="G54" s="85"/>
+      <c r="P54" s="84"/>
+      <c r="Q54" s="84"/>
+      <c r="R54" s="84"/>
+      <c r="S54" s="84"/>
+      <c r="T54" s="84"/>
+      <c r="U54" s="84"/>
+      <c r="V54" s="84"/>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A55" s="85" t="s">
+      <c r="A55" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="85"/>
-      <c r="C55" s="85"/>
-      <c r="D55" s="86" t="s">
+      <c r="B55" s="87"/>
+      <c r="C55" s="87"/>
+      <c r="D55" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="E55" s="86"/>
-      <c r="F55" s="86"/>
-      <c r="G55" s="86"/>
-      <c r="H55" s="92">
+      <c r="E55" s="88"/>
+      <c r="F55" s="88"/>
+      <c r="G55" s="88"/>
+      <c r="H55" s="89">
         <v>45005</v>
       </c>
-      <c r="I55" s="93"/>
-      <c r="J55" s="93"/>
-      <c r="M55" s="85" t="s">
+      <c r="I55" s="90"/>
+      <c r="J55" s="90"/>
+      <c r="M55" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="N55" s="85"/>
-      <c r="O55" s="85"/>
-      <c r="P55" s="86" t="s">
+      <c r="N55" s="87"/>
+      <c r="O55" s="87"/>
+      <c r="P55" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="Q55" s="86"/>
-      <c r="R55" s="86"/>
-      <c r="S55" s="86"/>
+      <c r="Q55" s="88"/>
+      <c r="R55" s="88"/>
+      <c r="S55" s="88"/>
       <c r="T55" s="18"/>
       <c r="U55" s="18"/>
-      <c r="V55" s="87">
+      <c r="V55" s="91">
         <v>45006</v>
       </c>
-      <c r="W55" s="88"/>
-      <c r="X55" s="89"/>
+      <c r="W55" s="92"/>
+      <c r="X55" s="93"/>
     </row>
     <row r="56" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
@@ -6860,72 +6860,72 @@
       <c r="X66" s="4"/>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C69" s="90" t="s">
+      <c r="C69" s="84" t="s">
         <v>54</v>
       </c>
-      <c r="D69" s="90"/>
-      <c r="E69" s="90"/>
-      <c r="F69" s="90"/>
-      <c r="G69" s="90"/>
-      <c r="P69" s="84" t="s">
+      <c r="D69" s="84"/>
+      <c r="E69" s="84"/>
+      <c r="F69" s="84"/>
+      <c r="G69" s="84"/>
+      <c r="P69" s="86" t="s">
         <v>55</v>
       </c>
-      <c r="Q69" s="84"/>
-      <c r="R69" s="84"/>
-      <c r="S69" s="84"/>
-      <c r="T69" s="84"/>
-      <c r="U69" s="84"/>
-      <c r="V69" s="84"/>
+      <c r="Q69" s="86"/>
+      <c r="R69" s="86"/>
+      <c r="S69" s="86"/>
+      <c r="T69" s="86"/>
+      <c r="U69" s="86"/>
+      <c r="V69" s="86"/>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C70" s="91"/>
-      <c r="D70" s="91"/>
-      <c r="E70" s="91"/>
-      <c r="F70" s="91"/>
-      <c r="G70" s="91"/>
-      <c r="P70" s="84"/>
-      <c r="Q70" s="84"/>
-      <c r="R70" s="84"/>
-      <c r="S70" s="84"/>
-      <c r="T70" s="84"/>
-      <c r="U70" s="84"/>
-      <c r="V70" s="84"/>
+      <c r="C70" s="85"/>
+      <c r="D70" s="85"/>
+      <c r="E70" s="85"/>
+      <c r="F70" s="85"/>
+      <c r="G70" s="85"/>
+      <c r="P70" s="86"/>
+      <c r="Q70" s="86"/>
+      <c r="R70" s="86"/>
+      <c r="S70" s="86"/>
+      <c r="T70" s="86"/>
+      <c r="U70" s="86"/>
+      <c r="V70" s="86"/>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A71" s="85" t="s">
+      <c r="A71" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B71" s="85"/>
-      <c r="C71" s="85"/>
-      <c r="D71" s="86" t="s">
+      <c r="B71" s="87"/>
+      <c r="C71" s="87"/>
+      <c r="D71" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="E71" s="86"/>
-      <c r="F71" s="86"/>
-      <c r="G71" s="86"/>
-      <c r="H71" s="92">
+      <c r="E71" s="88"/>
+      <c r="F71" s="88"/>
+      <c r="G71" s="88"/>
+      <c r="H71" s="89">
         <v>44979</v>
       </c>
-      <c r="I71" s="93"/>
-      <c r="J71" s="93"/>
-      <c r="M71" s="85" t="s">
+      <c r="I71" s="90"/>
+      <c r="J71" s="90"/>
+      <c r="M71" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="N71" s="85"/>
-      <c r="O71" s="85"/>
-      <c r="P71" s="86" t="s">
+      <c r="N71" s="87"/>
+      <c r="O71" s="87"/>
+      <c r="P71" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="Q71" s="86"/>
-      <c r="R71" s="86"/>
-      <c r="S71" s="86"/>
+      <c r="Q71" s="88"/>
+      <c r="R71" s="88"/>
+      <c r="S71" s="88"/>
       <c r="T71" s="18"/>
       <c r="U71" s="18"/>
-      <c r="V71" s="87">
+      <c r="V71" s="91">
         <v>44980</v>
       </c>
-      <c r="W71" s="88"/>
-      <c r="X71" s="89"/>
+      <c r="W71" s="92"/>
+      <c r="X71" s="93"/>
     </row>
     <row r="72" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
@@ -7328,72 +7328,72 @@
       <c r="X82" s="4"/>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C86" s="90" t="s">
+      <c r="C86" s="84" t="s">
         <v>71</v>
       </c>
-      <c r="D86" s="90"/>
-      <c r="E86" s="90"/>
-      <c r="F86" s="90"/>
-      <c r="G86" s="90"/>
-      <c r="P86" s="84" t="s">
+      <c r="D86" s="84"/>
+      <c r="E86" s="84"/>
+      <c r="F86" s="84"/>
+      <c r="G86" s="84"/>
+      <c r="P86" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="Q86" s="84"/>
-      <c r="R86" s="84"/>
-      <c r="S86" s="84"/>
-      <c r="T86" s="84"/>
-      <c r="U86" s="84"/>
-      <c r="V86" s="84"/>
+      <c r="Q86" s="86"/>
+      <c r="R86" s="86"/>
+      <c r="S86" s="86"/>
+      <c r="T86" s="86"/>
+      <c r="U86" s="86"/>
+      <c r="V86" s="86"/>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C87" s="91"/>
-      <c r="D87" s="91"/>
-      <c r="E87" s="91"/>
-      <c r="F87" s="91"/>
-      <c r="G87" s="91"/>
-      <c r="P87" s="84"/>
-      <c r="Q87" s="84"/>
-      <c r="R87" s="84"/>
-      <c r="S87" s="84"/>
-      <c r="T87" s="84"/>
-      <c r="U87" s="84"/>
-      <c r="V87" s="84"/>
+      <c r="C87" s="85"/>
+      <c r="D87" s="85"/>
+      <c r="E87" s="85"/>
+      <c r="F87" s="85"/>
+      <c r="G87" s="85"/>
+      <c r="P87" s="86"/>
+      <c r="Q87" s="86"/>
+      <c r="R87" s="86"/>
+      <c r="S87" s="86"/>
+      <c r="T87" s="86"/>
+      <c r="U87" s="86"/>
+      <c r="V87" s="86"/>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A88" s="85" t="s">
+      <c r="A88" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B88" s="85"/>
-      <c r="C88" s="85"/>
-      <c r="D88" s="86" t="s">
+      <c r="B88" s="87"/>
+      <c r="C88" s="87"/>
+      <c r="D88" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="E88" s="86"/>
-      <c r="F88" s="86"/>
-      <c r="G88" s="86"/>
-      <c r="H88" s="92">
+      <c r="E88" s="88"/>
+      <c r="F88" s="88"/>
+      <c r="G88" s="88"/>
+      <c r="H88" s="89">
         <v>44981</v>
       </c>
-      <c r="I88" s="93"/>
-      <c r="J88" s="93"/>
-      <c r="M88" s="85" t="s">
+      <c r="I88" s="90"/>
+      <c r="J88" s="90"/>
+      <c r="M88" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="N88" s="85"/>
-      <c r="O88" s="85"/>
-      <c r="P88" s="86" t="s">
+      <c r="N88" s="87"/>
+      <c r="O88" s="87"/>
+      <c r="P88" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="Q88" s="86"/>
-      <c r="R88" s="86"/>
-      <c r="S88" s="86"/>
+      <c r="Q88" s="88"/>
+      <c r="R88" s="88"/>
+      <c r="S88" s="88"/>
       <c r="T88" s="18"/>
       <c r="U88" s="18"/>
-      <c r="V88" s="87">
+      <c r="V88" s="91">
         <v>44980</v>
       </c>
-      <c r="W88" s="88"/>
-      <c r="X88" s="89"/>
+      <c r="W88" s="92"/>
+      <c r="X88" s="93"/>
     </row>
     <row r="89" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
@@ -7728,73 +7728,73 @@
       <c r="X99" s="4"/>
     </row>
     <row r="103" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C103" s="90" t="s">
+      <c r="C103" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="D103" s="90"/>
-      <c r="E103" s="90"/>
-      <c r="F103" s="90"/>
-      <c r="G103" s="90"/>
-      <c r="P103" s="84" t="s">
+      <c r="D103" s="84"/>
+      <c r="E103" s="84"/>
+      <c r="F103" s="84"/>
+      <c r="G103" s="84"/>
+      <c r="P103" s="86" t="s">
         <v>90</v>
       </c>
-      <c r="Q103" s="84"/>
-      <c r="R103" s="84"/>
-      <c r="S103" s="84"/>
-      <c r="T103" s="84"/>
-      <c r="U103" s="84"/>
-      <c r="V103" s="84"/>
+      <c r="Q103" s="86"/>
+      <c r="R103" s="86"/>
+      <c r="S103" s="86"/>
+      <c r="T103" s="86"/>
+      <c r="U103" s="86"/>
+      <c r="V103" s="86"/>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C104" s="91"/>
-      <c r="D104" s="91"/>
-      <c r="E104" s="91"/>
-      <c r="F104" s="91"/>
-      <c r="G104" s="91"/>
-      <c r="P104" s="84"/>
-      <c r="Q104" s="84"/>
-      <c r="R104" s="84"/>
-      <c r="S104" s="84"/>
-      <c r="T104" s="84"/>
-      <c r="U104" s="84"/>
-      <c r="V104" s="84"/>
+      <c r="C104" s="85"/>
+      <c r="D104" s="85"/>
+      <c r="E104" s="85"/>
+      <c r="F104" s="85"/>
+      <c r="G104" s="85"/>
+      <c r="P104" s="86"/>
+      <c r="Q104" s="86"/>
+      <c r="R104" s="86"/>
+      <c r="S104" s="86"/>
+      <c r="T104" s="86"/>
+      <c r="U104" s="86"/>
+      <c r="V104" s="86"/>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A105" s="85" t="s">
+      <c r="A105" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B105" s="85"/>
-      <c r="C105" s="85"/>
-      <c r="D105" s="86" t="s">
+      <c r="B105" s="87"/>
+      <c r="C105" s="87"/>
+      <c r="D105" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="E105" s="86"/>
-      <c r="F105" s="86"/>
-      <c r="G105" s="86"/>
-      <c r="H105" s="92">
+      <c r="E105" s="88"/>
+      <c r="F105" s="88"/>
+      <c r="G105" s="88"/>
+      <c r="H105" s="89">
         <v>44979</v>
       </c>
-      <c r="I105" s="93"/>
-      <c r="J105" s="93"/>
-      <c r="M105" s="85" t="s">
+      <c r="I105" s="90"/>
+      <c r="J105" s="90"/>
+      <c r="M105" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="N105" s="85"/>
-      <c r="O105" s="85"/>
-      <c r="P105" s="86" t="s">
+      <c r="N105" s="87"/>
+      <c r="O105" s="87"/>
+      <c r="P105" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="Q105" s="86"/>
-      <c r="R105" s="86"/>
-      <c r="S105" s="86"/>
+      <c r="Q105" s="88"/>
+      <c r="R105" s="88"/>
+      <c r="S105" s="88"/>
       <c r="T105" s="18"/>
       <c r="U105" s="18"/>
-      <c r="V105" s="87" t="e">
+      <c r="V105" s="91" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W105" s="88"/>
-      <c r="X105" s="89"/>
+      <c r="W105" s="92"/>
+      <c r="X105" s="93"/>
     </row>
     <row r="106" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
@@ -8245,73 +8245,73 @@
       <c r="X116" s="4"/>
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C121" s="90" t="s">
+      <c r="C121" s="84" t="s">
         <v>95</v>
       </c>
-      <c r="D121" s="90"/>
-      <c r="E121" s="90"/>
-      <c r="F121" s="90"/>
-      <c r="G121" s="90"/>
-      <c r="P121" s="84" t="s">
+      <c r="D121" s="84"/>
+      <c r="E121" s="84"/>
+      <c r="F121" s="84"/>
+      <c r="G121" s="84"/>
+      <c r="P121" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="Q121" s="84"/>
-      <c r="R121" s="84"/>
-      <c r="S121" s="84"/>
-      <c r="T121" s="84"/>
-      <c r="U121" s="84"/>
-      <c r="V121" s="84"/>
+      <c r="Q121" s="86"/>
+      <c r="R121" s="86"/>
+      <c r="S121" s="86"/>
+      <c r="T121" s="86"/>
+      <c r="U121" s="86"/>
+      <c r="V121" s="86"/>
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C122" s="91"/>
-      <c r="D122" s="91"/>
-      <c r="E122" s="91"/>
-      <c r="F122" s="91"/>
-      <c r="G122" s="91"/>
-      <c r="P122" s="84"/>
-      <c r="Q122" s="84"/>
-      <c r="R122" s="84"/>
-      <c r="S122" s="84"/>
-      <c r="T122" s="84"/>
-      <c r="U122" s="84"/>
-      <c r="V122" s="84"/>
+      <c r="C122" s="85"/>
+      <c r="D122" s="85"/>
+      <c r="E122" s="85"/>
+      <c r="F122" s="85"/>
+      <c r="G122" s="85"/>
+      <c r="P122" s="86"/>
+      <c r="Q122" s="86"/>
+      <c r="R122" s="86"/>
+      <c r="S122" s="86"/>
+      <c r="T122" s="86"/>
+      <c r="U122" s="86"/>
+      <c r="V122" s="86"/>
     </row>
     <row r="123" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="85" t="s">
+      <c r="A123" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B123" s="85"/>
-      <c r="C123" s="85"/>
-      <c r="D123" s="86" t="s">
+      <c r="B123" s="87"/>
+      <c r="C123" s="87"/>
+      <c r="D123" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="E123" s="86"/>
-      <c r="F123" s="86"/>
-      <c r="G123" s="86"/>
-      <c r="H123" s="92">
+      <c r="E123" s="88"/>
+      <c r="F123" s="88"/>
+      <c r="G123" s="88"/>
+      <c r="H123" s="89">
         <v>44979</v>
       </c>
-      <c r="I123" s="93"/>
-      <c r="J123" s="93"/>
-      <c r="M123" s="85" t="s">
+      <c r="I123" s="90"/>
+      <c r="J123" s="90"/>
+      <c r="M123" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="N123" s="85"/>
-      <c r="O123" s="85"/>
-      <c r="P123" s="86" t="s">
+      <c r="N123" s="87"/>
+      <c r="O123" s="87"/>
+      <c r="P123" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="Q123" s="86"/>
-      <c r="R123" s="86"/>
-      <c r="S123" s="86"/>
+      <c r="Q123" s="88"/>
+      <c r="R123" s="88"/>
+      <c r="S123" s="88"/>
       <c r="T123" s="18"/>
       <c r="U123" s="18"/>
-      <c r="V123" s="87" t="e">
+      <c r="V123" s="91" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W123" s="88"/>
-      <c r="X123" s="89"/>
+      <c r="W123" s="92"/>
+      <c r="X123" s="93"/>
     </row>
     <row r="124" spans="1:26" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
@@ -8826,45 +8826,45 @@
       <c r="X134" s="4"/>
     </row>
     <row r="138" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="P138" s="84" t="s">
+      <c r="P138" s="86" t="s">
         <v>97</v>
       </c>
-      <c r="Q138" s="84"/>
-      <c r="R138" s="84"/>
-      <c r="S138" s="84"/>
-      <c r="T138" s="84"/>
-      <c r="U138" s="84"/>
-      <c r="V138" s="84"/>
+      <c r="Q138" s="86"/>
+      <c r="R138" s="86"/>
+      <c r="S138" s="86"/>
+      <c r="T138" s="86"/>
+      <c r="U138" s="86"/>
+      <c r="V138" s="86"/>
     </row>
     <row r="139" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="P139" s="84"/>
-      <c r="Q139" s="84"/>
-      <c r="R139" s="84"/>
-      <c r="S139" s="84"/>
-      <c r="T139" s="84"/>
-      <c r="U139" s="84"/>
-      <c r="V139" s="84"/>
+      <c r="P139" s="86"/>
+      <c r="Q139" s="86"/>
+      <c r="R139" s="86"/>
+      <c r="S139" s="86"/>
+      <c r="T139" s="86"/>
+      <c r="U139" s="86"/>
+      <c r="V139" s="86"/>
     </row>
     <row r="140" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="M140" s="85" t="s">
+      <c r="M140" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="N140" s="85"/>
-      <c r="O140" s="85"/>
-      <c r="P140" s="86" t="s">
+      <c r="N140" s="87"/>
+      <c r="O140" s="87"/>
+      <c r="P140" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="Q140" s="86"/>
-      <c r="R140" s="86"/>
-      <c r="S140" s="86"/>
+      <c r="Q140" s="88"/>
+      <c r="R140" s="88"/>
+      <c r="S140" s="88"/>
       <c r="T140" s="18"/>
       <c r="U140" s="18"/>
-      <c r="V140" s="87" t="e">
+      <c r="V140" s="91" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W140" s="88"/>
-      <c r="X140" s="89"/>
+      <c r="W140" s="92"/>
+      <c r="X140" s="93"/>
     </row>
     <row r="141" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M141" s="6" t="s">
@@ -9129,45 +9129,45 @@
       <c r="S152" s="64"/>
     </row>
     <row r="153" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P153" s="84" t="s">
+      <c r="P153" s="86" t="s">
         <v>102</v>
       </c>
-      <c r="Q153" s="84"/>
-      <c r="R153" s="84"/>
-      <c r="S153" s="84"/>
-      <c r="T153" s="84"/>
-      <c r="U153" s="84"/>
-      <c r="V153" s="84"/>
+      <c r="Q153" s="86"/>
+      <c r="R153" s="86"/>
+      <c r="S153" s="86"/>
+      <c r="T153" s="86"/>
+      <c r="U153" s="86"/>
+      <c r="V153" s="86"/>
     </row>
     <row r="154" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P154" s="84"/>
-      <c r="Q154" s="84"/>
-      <c r="R154" s="84"/>
-      <c r="S154" s="84"/>
-      <c r="T154" s="84"/>
-      <c r="U154" s="84"/>
-      <c r="V154" s="84"/>
+      <c r="P154" s="86"/>
+      <c r="Q154" s="86"/>
+      <c r="R154" s="86"/>
+      <c r="S154" s="86"/>
+      <c r="T154" s="86"/>
+      <c r="U154" s="86"/>
+      <c r="V154" s="86"/>
     </row>
     <row r="155" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M155" s="85" t="s">
+      <c r="M155" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="N155" s="85"/>
-      <c r="O155" s="85"/>
-      <c r="P155" s="86" t="s">
+      <c r="N155" s="87"/>
+      <c r="O155" s="87"/>
+      <c r="P155" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="Q155" s="86"/>
-      <c r="R155" s="86"/>
-      <c r="S155" s="86"/>
+      <c r="Q155" s="88"/>
+      <c r="R155" s="88"/>
+      <c r="S155" s="88"/>
       <c r="T155" s="18"/>
       <c r="U155" s="18"/>
-      <c r="V155" s="87" t="e">
+      <c r="V155" s="91" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W155" s="88"/>
-      <c r="X155" s="89"/>
+      <c r="W155" s="92"/>
+      <c r="X155" s="93"/>
     </row>
     <row r="156" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M156" s="6" t="s">
@@ -9431,45 +9431,45 @@
       <c r="X166" s="4"/>
     </row>
     <row r="168" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P168" s="84" t="s">
+      <c r="P168" s="86" t="s">
         <v>100</v>
       </c>
-      <c r="Q168" s="84"/>
-      <c r="R168" s="84"/>
-      <c r="S168" s="84"/>
-      <c r="T168" s="84"/>
-      <c r="U168" s="84"/>
-      <c r="V168" s="84"/>
+      <c r="Q168" s="86"/>
+      <c r="R168" s="86"/>
+      <c r="S168" s="86"/>
+      <c r="T168" s="86"/>
+      <c r="U168" s="86"/>
+      <c r="V168" s="86"/>
     </row>
     <row r="169" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P169" s="84"/>
-      <c r="Q169" s="84"/>
-      <c r="R169" s="84"/>
-      <c r="S169" s="84"/>
-      <c r="T169" s="84"/>
-      <c r="U169" s="84"/>
-      <c r="V169" s="84"/>
+      <c r="P169" s="86"/>
+      <c r="Q169" s="86"/>
+      <c r="R169" s="86"/>
+      <c r="S169" s="86"/>
+      <c r="T169" s="86"/>
+      <c r="U169" s="86"/>
+      <c r="V169" s="86"/>
     </row>
     <row r="170" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M170" s="85" t="s">
+      <c r="M170" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="N170" s="85"/>
-      <c r="O170" s="85"/>
-      <c r="P170" s="86" t="s">
+      <c r="N170" s="87"/>
+      <c r="O170" s="87"/>
+      <c r="P170" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="Q170" s="86"/>
-      <c r="R170" s="86"/>
-      <c r="S170" s="86"/>
+      <c r="Q170" s="88"/>
+      <c r="R170" s="88"/>
+      <c r="S170" s="88"/>
       <c r="T170" s="18"/>
       <c r="U170" s="18"/>
-      <c r="V170" s="87" t="e">
+      <c r="V170" s="91" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W170" s="88"/>
-      <c r="X170" s="89"/>
+      <c r="W170" s="92"/>
+      <c r="X170" s="93"/>
     </row>
     <row r="171" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M171" s="6" t="s">
@@ -9674,45 +9674,45 @@
       <c r="X181" s="4"/>
     </row>
     <row r="186" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P186" s="84" t="s">
+      <c r="P186" s="86" t="s">
         <v>104</v>
       </c>
-      <c r="Q186" s="84"/>
-      <c r="R186" s="84"/>
-      <c r="S186" s="84"/>
-      <c r="T186" s="84"/>
-      <c r="U186" s="84"/>
-      <c r="V186" s="84"/>
+      <c r="Q186" s="86"/>
+      <c r="R186" s="86"/>
+      <c r="S186" s="86"/>
+      <c r="T186" s="86"/>
+      <c r="U186" s="86"/>
+      <c r="V186" s="86"/>
     </row>
     <row r="187" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P187" s="84"/>
-      <c r="Q187" s="84"/>
-      <c r="R187" s="84"/>
-      <c r="S187" s="84"/>
-      <c r="T187" s="84"/>
-      <c r="U187" s="84"/>
-      <c r="V187" s="84"/>
+      <c r="P187" s="86"/>
+      <c r="Q187" s="86"/>
+      <c r="R187" s="86"/>
+      <c r="S187" s="86"/>
+      <c r="T187" s="86"/>
+      <c r="U187" s="86"/>
+      <c r="V187" s="86"/>
     </row>
     <row r="188" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M188" s="85" t="s">
+      <c r="M188" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="N188" s="85"/>
-      <c r="O188" s="85"/>
-      <c r="P188" s="86" t="s">
+      <c r="N188" s="87"/>
+      <c r="O188" s="87"/>
+      <c r="P188" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="Q188" s="86"/>
-      <c r="R188" s="86"/>
-      <c r="S188" s="86"/>
+      <c r="Q188" s="88"/>
+      <c r="R188" s="88"/>
+      <c r="S188" s="88"/>
       <c r="T188" s="18"/>
       <c r="U188" s="18"/>
-      <c r="V188" s="87" t="e">
+      <c r="V188" s="91" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W188" s="88"/>
-      <c r="X188" s="89"/>
+      <c r="W188" s="92"/>
+      <c r="X188" s="93"/>
     </row>
     <row r="189" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M189" s="6" t="s">
@@ -9882,24 +9882,24 @@
       <c r="X194" s="15"/>
     </row>
     <row r="198" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P198" s="84" t="s">
+      <c r="P198" s="86" t="s">
         <v>109</v>
       </c>
-      <c r="Q198" s="84"/>
-      <c r="R198" s="84"/>
-      <c r="S198" s="84"/>
-      <c r="T198" s="84"/>
-      <c r="U198" s="84"/>
-      <c r="V198" s="84"/>
+      <c r="Q198" s="86"/>
+      <c r="R198" s="86"/>
+      <c r="S198" s="86"/>
+      <c r="T198" s="86"/>
+      <c r="U198" s="86"/>
+      <c r="V198" s="86"/>
     </row>
     <row r="199" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P199" s="84"/>
-      <c r="Q199" s="84"/>
-      <c r="R199" s="84"/>
-      <c r="S199" s="84"/>
-      <c r="T199" s="84"/>
-      <c r="U199" s="84"/>
-      <c r="V199" s="84"/>
+      <c r="P199" s="86"/>
+      <c r="Q199" s="86"/>
+      <c r="R199" s="86"/>
+      <c r="S199" s="86"/>
+      <c r="T199" s="86"/>
+      <c r="U199" s="86"/>
+      <c r="V199" s="86"/>
     </row>
     <row r="200" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M200" s="70" t="s">
@@ -10074,24 +10074,24 @@
       </c>
     </row>
     <row r="209" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P209" s="84" t="s">
+      <c r="P209" s="86" t="s">
         <v>113</v>
       </c>
-      <c r="Q209" s="84"/>
-      <c r="R209" s="84"/>
-      <c r="S209" s="84"/>
-      <c r="T209" s="84"/>
-      <c r="U209" s="84"/>
-      <c r="V209" s="84"/>
+      <c r="Q209" s="86"/>
+      <c r="R209" s="86"/>
+      <c r="S209" s="86"/>
+      <c r="T209" s="86"/>
+      <c r="U209" s="86"/>
+      <c r="V209" s="86"/>
     </row>
     <row r="210" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P210" s="84"/>
-      <c r="Q210" s="84"/>
-      <c r="R210" s="84"/>
-      <c r="S210" s="84"/>
-      <c r="T210" s="84"/>
-      <c r="U210" s="84"/>
-      <c r="V210" s="84"/>
+      <c r="P210" s="86"/>
+      <c r="Q210" s="86"/>
+      <c r="R210" s="86"/>
+      <c r="S210" s="86"/>
+      <c r="T210" s="86"/>
+      <c r="U210" s="86"/>
+      <c r="V210" s="86"/>
     </row>
     <row r="211" spans="13:26" ht="36" x14ac:dyDescent="0.25">
       <c r="M211" s="70" t="s">
@@ -10243,24 +10243,24 @@
       </c>
     </row>
     <row r="218" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P218" s="84" t="s">
+      <c r="P218" s="86" t="s">
         <v>114</v>
       </c>
-      <c r="Q218" s="84"/>
-      <c r="R218" s="84"/>
-      <c r="S218" s="84"/>
-      <c r="T218" s="84"/>
-      <c r="U218" s="84"/>
-      <c r="V218" s="84"/>
+      <c r="Q218" s="86"/>
+      <c r="R218" s="86"/>
+      <c r="S218" s="86"/>
+      <c r="T218" s="86"/>
+      <c r="U218" s="86"/>
+      <c r="V218" s="86"/>
     </row>
     <row r="219" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P219" s="84"/>
-      <c r="Q219" s="84"/>
-      <c r="R219" s="84"/>
-      <c r="S219" s="84"/>
-      <c r="T219" s="84"/>
-      <c r="U219" s="84"/>
-      <c r="V219" s="84"/>
+      <c r="P219" s="86"/>
+      <c r="Q219" s="86"/>
+      <c r="R219" s="86"/>
+      <c r="S219" s="86"/>
+      <c r="T219" s="86"/>
+      <c r="U219" s="86"/>
+      <c r="V219" s="86"/>
     </row>
     <row r="220" spans="13:26" ht="36" x14ac:dyDescent="0.25">
       <c r="M220" s="70" t="s">
@@ -10517,24 +10517,24 @@
       </c>
     </row>
     <row r="230" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P230" s="84" t="s">
+      <c r="P230" s="86" t="s">
         <v>116</v>
       </c>
-      <c r="Q230" s="84"/>
-      <c r="R230" s="84"/>
-      <c r="S230" s="84"/>
-      <c r="T230" s="84"/>
-      <c r="U230" s="84"/>
-      <c r="V230" s="84"/>
+      <c r="Q230" s="86"/>
+      <c r="R230" s="86"/>
+      <c r="S230" s="86"/>
+      <c r="T230" s="86"/>
+      <c r="U230" s="86"/>
+      <c r="V230" s="86"/>
     </row>
     <row r="231" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P231" s="84"/>
-      <c r="Q231" s="84"/>
-      <c r="R231" s="84"/>
-      <c r="S231" s="84"/>
-      <c r="T231" s="84"/>
-      <c r="U231" s="84"/>
-      <c r="V231" s="84"/>
+      <c r="P231" s="86"/>
+      <c r="Q231" s="86"/>
+      <c r="R231" s="86"/>
+      <c r="S231" s="86"/>
+      <c r="T231" s="86"/>
+      <c r="U231" s="86"/>
+      <c r="V231" s="86"/>
     </row>
     <row r="232" spans="13:26" ht="36" x14ac:dyDescent="0.25">
       <c r="M232" s="75" t="s">
@@ -10618,8 +10618,8 @@
       <c r="R234" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="S234" s="8" t="s">
-        <v>8</v>
+      <c r="S234" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="T234" s="43">
         <v>0.41666666666666669</v>
@@ -10633,7 +10633,9 @@
       <c r="W234" s="34">
         <v>8.4722222222222213E-2</v>
       </c>
-      <c r="X234" s="35"/>
+      <c r="X234" s="35">
+        <v>0.13541666666666666</v>
+      </c>
       <c r="Z234" s="10" t="s">
         <v>11</v>
       </c>
@@ -10696,20 +10698,60 @@
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="P218:V219"/>
-    <mergeCell ref="P198:V199"/>
-    <mergeCell ref="P186:V187"/>
-    <mergeCell ref="M188:O188"/>
-    <mergeCell ref="P188:S188"/>
-    <mergeCell ref="V188:X188"/>
-    <mergeCell ref="P209:V210"/>
-    <mergeCell ref="P168:V169"/>
-    <mergeCell ref="M170:O170"/>
-    <mergeCell ref="P170:S170"/>
-    <mergeCell ref="V170:X170"/>
-    <mergeCell ref="M155:O155"/>
-    <mergeCell ref="P155:S155"/>
-    <mergeCell ref="V155:X155"/>
+    <mergeCell ref="P230:V231"/>
+    <mergeCell ref="V71:X71"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="C53:G54"/>
+    <mergeCell ref="P53:V54"/>
+    <mergeCell ref="V55:X55"/>
+    <mergeCell ref="C69:G70"/>
+    <mergeCell ref="P69:V70"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="P55:S55"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="D71:G71"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="M71:O71"/>
+    <mergeCell ref="P71:S71"/>
+    <mergeCell ref="C37:G38"/>
+    <mergeCell ref="P37:V38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="P39:S39"/>
+    <mergeCell ref="V39:X39"/>
+    <mergeCell ref="C22:G23"/>
+    <mergeCell ref="P22:V23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="C2:G3"/>
+    <mergeCell ref="P2:V3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="P121:V122"/>
+    <mergeCell ref="V123:X123"/>
+    <mergeCell ref="M123:O123"/>
+    <mergeCell ref="P123:S123"/>
+    <mergeCell ref="P138:V139"/>
+    <mergeCell ref="C86:G87"/>
+    <mergeCell ref="P86:V87"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="D88:G88"/>
+    <mergeCell ref="H88:J88"/>
+    <mergeCell ref="M88:O88"/>
+    <mergeCell ref="P88:S88"/>
+    <mergeCell ref="V88:X88"/>
     <mergeCell ref="P153:V154"/>
     <mergeCell ref="C103:G104"/>
     <mergeCell ref="P103:V104"/>
@@ -10726,60 +10768,20 @@
     <mergeCell ref="M140:O140"/>
     <mergeCell ref="P140:S140"/>
     <mergeCell ref="V140:X140"/>
-    <mergeCell ref="C86:G87"/>
-    <mergeCell ref="P86:V87"/>
-    <mergeCell ref="A88:C88"/>
-    <mergeCell ref="D88:G88"/>
-    <mergeCell ref="H88:J88"/>
-    <mergeCell ref="M88:O88"/>
-    <mergeCell ref="P88:S88"/>
-    <mergeCell ref="V88:X88"/>
-    <mergeCell ref="P121:V122"/>
-    <mergeCell ref="V123:X123"/>
-    <mergeCell ref="M123:O123"/>
-    <mergeCell ref="P123:S123"/>
-    <mergeCell ref="P138:V139"/>
-    <mergeCell ref="C2:G3"/>
-    <mergeCell ref="P2:V3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="C22:G23"/>
-    <mergeCell ref="P22:V23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="P71:S71"/>
-    <mergeCell ref="C37:G38"/>
-    <mergeCell ref="P37:V38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="P39:S39"/>
-    <mergeCell ref="V39:X39"/>
-    <mergeCell ref="P230:V231"/>
-    <mergeCell ref="V71:X71"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="C53:G54"/>
-    <mergeCell ref="P53:V54"/>
-    <mergeCell ref="V55:X55"/>
-    <mergeCell ref="C69:G70"/>
-    <mergeCell ref="P69:V70"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="M55:O55"/>
-    <mergeCell ref="P55:S55"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="D71:G71"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="M71:O71"/>
+    <mergeCell ref="P168:V169"/>
+    <mergeCell ref="M170:O170"/>
+    <mergeCell ref="P170:S170"/>
+    <mergeCell ref="V170:X170"/>
+    <mergeCell ref="M155:O155"/>
+    <mergeCell ref="P155:S155"/>
+    <mergeCell ref="V155:X155"/>
+    <mergeCell ref="P218:V219"/>
+    <mergeCell ref="P198:V199"/>
+    <mergeCell ref="P186:V187"/>
+    <mergeCell ref="M188:O188"/>
+    <mergeCell ref="P188:S188"/>
+    <mergeCell ref="V188:X188"/>
+    <mergeCell ref="P209:V210"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/DOC 2023/FORMATO STATUS.xlsx
+++ b/DOC 2023/FORMATO STATUS.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\DOC 2023\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F6D459-DE6D-4667-930D-6675236EFA76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FEBRERO" sheetId="2" r:id="rId1"/>
     <sheet name="MARZO" sheetId="3" r:id="rId2"/>
     <sheet name="Hoja2" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="119">
   <si>
     <t>DT</t>
   </si>
@@ -383,12 +389,15 @@
   </si>
   <si>
     <t>WILLIAM SANDOVAL</t>
+  </si>
+  <si>
+    <t>Martes 06-06-2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
@@ -714,7 +723,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -926,6 +935,19 @@
     <xf numFmtId="164" fontId="6" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -941,44 +963,16 @@
     <xf numFmtId="164" fontId="6" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1258,14 +1252,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:Z124"/>
   <sheetViews>
     <sheetView topLeftCell="J103" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
@@ -1287,72 +1281,72 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="P2" s="86" t="s">
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="P2" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="86"/>
-      <c r="R2" s="86"/>
-      <c r="S2" s="86"/>
-      <c r="T2" s="86"/>
-      <c r="U2" s="86"/>
-      <c r="V2" s="86"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="79"/>
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="P3" s="86"/>
-      <c r="Q3" s="86"/>
-      <c r="R3" s="86"/>
-      <c r="S3" s="86"/>
-      <c r="T3" s="86"/>
-      <c r="U3" s="86"/>
-      <c r="V3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="79"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="88" t="s">
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="89">
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="87">
         <v>44965</v>
       </c>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="M4" s="87" t="s">
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="M4" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="87"/>
-      <c r="O4" s="87"/>
-      <c r="P4" s="88" t="s">
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="88"/>
-      <c r="R4" s="88"/>
-      <c r="S4" s="88"/>
+      <c r="Q4" s="81"/>
+      <c r="R4" s="81"/>
+      <c r="S4" s="81"/>
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
-      <c r="V4" s="91">
+      <c r="V4" s="82">
         <v>44601</v>
       </c>
-      <c r="W4" s="92"/>
-      <c r="X4" s="93"/>
+      <c r="W4" s="83"/>
+      <c r="X4" s="84"/>
     </row>
     <row r="5" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -1767,72 +1761,72 @@
       <c r="X15" s="4"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C22" s="84" t="s">
+      <c r="C22" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="84"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="84"/>
-      <c r="P22" s="86" t="s">
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
+      <c r="P22" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="Q22" s="86"/>
-      <c r="R22" s="86"/>
-      <c r="S22" s="86"/>
-      <c r="T22" s="86"/>
-      <c r="U22" s="86"/>
-      <c r="V22" s="86"/>
+      <c r="Q22" s="79"/>
+      <c r="R22" s="79"/>
+      <c r="S22" s="79"/>
+      <c r="T22" s="79"/>
+      <c r="U22" s="79"/>
+      <c r="V22" s="79"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C23" s="85"/>
-      <c r="D23" s="85"/>
-      <c r="E23" s="85"/>
-      <c r="F23" s="85"/>
-      <c r="G23" s="85"/>
-      <c r="P23" s="86"/>
-      <c r="Q23" s="86"/>
-      <c r="R23" s="86"/>
-      <c r="S23" s="86"/>
-      <c r="T23" s="86"/>
-      <c r="U23" s="86"/>
-      <c r="V23" s="86"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="P23" s="79"/>
+      <c r="Q23" s="79"/>
+      <c r="R23" s="79"/>
+      <c r="S23" s="79"/>
+      <c r="T23" s="79"/>
+      <c r="U23" s="79"/>
+      <c r="V23" s="79"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="87" t="s">
+      <c r="A24" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="87"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="88" t="s">
+      <c r="B24" s="80"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="88"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="89">
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="87">
         <v>44965</v>
       </c>
-      <c r="I24" s="90"/>
-      <c r="J24" s="90"/>
-      <c r="M24" s="87" t="s">
+      <c r="I24" s="88"/>
+      <c r="J24" s="88"/>
+      <c r="M24" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N24" s="87"/>
-      <c r="O24" s="87"/>
-      <c r="P24" s="88" t="s">
+      <c r="N24" s="80"/>
+      <c r="O24" s="80"/>
+      <c r="P24" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q24" s="88"/>
-      <c r="R24" s="88"/>
-      <c r="S24" s="88"/>
+      <c r="Q24" s="81"/>
+      <c r="R24" s="81"/>
+      <c r="S24" s="81"/>
       <c r="T24" s="18"/>
       <c r="U24" s="18"/>
-      <c r="V24" s="91">
+      <c r="V24" s="82">
         <v>44971</v>
       </c>
-      <c r="W24" s="92"/>
-      <c r="X24" s="93"/>
+      <c r="W24" s="83"/>
+      <c r="X24" s="84"/>
     </row>
     <row r="25" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -2287,72 +2281,72 @@
       <c r="X35" s="4"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C38" s="84" t="s">
+      <c r="C38" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="84"/>
-      <c r="E38" s="84"/>
-      <c r="F38" s="84"/>
-      <c r="G38" s="84"/>
-      <c r="P38" s="86" t="s">
+      <c r="D38" s="85"/>
+      <c r="E38" s="85"/>
+      <c r="F38" s="85"/>
+      <c r="G38" s="85"/>
+      <c r="P38" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="Q38" s="86"/>
-      <c r="R38" s="86"/>
-      <c r="S38" s="86"/>
-      <c r="T38" s="86"/>
-      <c r="U38" s="86"/>
-      <c r="V38" s="86"/>
+      <c r="Q38" s="79"/>
+      <c r="R38" s="79"/>
+      <c r="S38" s="79"/>
+      <c r="T38" s="79"/>
+      <c r="U38" s="79"/>
+      <c r="V38" s="79"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C39" s="85"/>
-      <c r="D39" s="85"/>
-      <c r="E39" s="85"/>
-      <c r="F39" s="85"/>
-      <c r="G39" s="85"/>
-      <c r="P39" s="86"/>
-      <c r="Q39" s="86"/>
-      <c r="R39" s="86"/>
-      <c r="S39" s="86"/>
-      <c r="T39" s="86"/>
-      <c r="U39" s="86"/>
-      <c r="V39" s="86"/>
+      <c r="C39" s="86"/>
+      <c r="D39" s="86"/>
+      <c r="E39" s="86"/>
+      <c r="F39" s="86"/>
+      <c r="G39" s="86"/>
+      <c r="P39" s="79"/>
+      <c r="Q39" s="79"/>
+      <c r="R39" s="79"/>
+      <c r="S39" s="79"/>
+      <c r="T39" s="79"/>
+      <c r="U39" s="79"/>
+      <c r="V39" s="79"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A40" s="87" t="s">
+      <c r="A40" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="87"/>
-      <c r="C40" s="87"/>
-      <c r="D40" s="88" t="s">
+      <c r="B40" s="80"/>
+      <c r="C40" s="80"/>
+      <c r="D40" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E40" s="88"/>
-      <c r="F40" s="88"/>
-      <c r="G40" s="88"/>
-      <c r="H40" s="89">
+      <c r="E40" s="81"/>
+      <c r="F40" s="81"/>
+      <c r="G40" s="81"/>
+      <c r="H40" s="87">
         <v>44972</v>
       </c>
-      <c r="I40" s="90"/>
-      <c r="J40" s="90"/>
-      <c r="M40" s="87" t="s">
+      <c r="I40" s="88"/>
+      <c r="J40" s="88"/>
+      <c r="M40" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N40" s="87"/>
-      <c r="O40" s="87"/>
-      <c r="P40" s="88" t="s">
+      <c r="N40" s="80"/>
+      <c r="O40" s="80"/>
+      <c r="P40" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q40" s="88"/>
-      <c r="R40" s="88"/>
-      <c r="S40" s="88"/>
+      <c r="Q40" s="81"/>
+      <c r="R40" s="81"/>
+      <c r="S40" s="81"/>
       <c r="T40" s="18"/>
       <c r="U40" s="18"/>
-      <c r="V40" s="91">
+      <c r="V40" s="82">
         <v>44973</v>
       </c>
-      <c r="W40" s="92"/>
-      <c r="X40" s="93"/>
+      <c r="W40" s="83"/>
+      <c r="X40" s="84"/>
     </row>
     <row r="41" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
@@ -2767,72 +2761,72 @@
       <c r="X51" s="4"/>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C54" s="84" t="s">
+      <c r="C54" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="D54" s="84"/>
-      <c r="E54" s="84"/>
-      <c r="F54" s="84"/>
-      <c r="G54" s="84"/>
-      <c r="P54" s="86" t="s">
+      <c r="D54" s="85"/>
+      <c r="E54" s="85"/>
+      <c r="F54" s="85"/>
+      <c r="G54" s="85"/>
+      <c r="P54" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="Q54" s="86"/>
-      <c r="R54" s="86"/>
-      <c r="S54" s="86"/>
-      <c r="T54" s="86"/>
-      <c r="U54" s="86"/>
-      <c r="V54" s="86"/>
+      <c r="Q54" s="79"/>
+      <c r="R54" s="79"/>
+      <c r="S54" s="79"/>
+      <c r="T54" s="79"/>
+      <c r="U54" s="79"/>
+      <c r="V54" s="79"/>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C55" s="85"/>
-      <c r="D55" s="85"/>
-      <c r="E55" s="85"/>
-      <c r="F55" s="85"/>
-      <c r="G55" s="85"/>
-      <c r="P55" s="86"/>
-      <c r="Q55" s="86"/>
-      <c r="R55" s="86"/>
-      <c r="S55" s="86"/>
-      <c r="T55" s="86"/>
-      <c r="U55" s="86"/>
-      <c r="V55" s="86"/>
+      <c r="C55" s="86"/>
+      <c r="D55" s="86"/>
+      <c r="E55" s="86"/>
+      <c r="F55" s="86"/>
+      <c r="G55" s="86"/>
+      <c r="P55" s="79"/>
+      <c r="Q55" s="79"/>
+      <c r="R55" s="79"/>
+      <c r="S55" s="79"/>
+      <c r="T55" s="79"/>
+      <c r="U55" s="79"/>
+      <c r="V55" s="79"/>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A56" s="87" t="s">
+      <c r="A56" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="87"/>
-      <c r="C56" s="87"/>
-      <c r="D56" s="88" t="s">
+      <c r="B56" s="80"/>
+      <c r="C56" s="80"/>
+      <c r="D56" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E56" s="88"/>
-      <c r="F56" s="88"/>
-      <c r="G56" s="88"/>
-      <c r="H56" s="89">
+      <c r="E56" s="81"/>
+      <c r="F56" s="81"/>
+      <c r="G56" s="81"/>
+      <c r="H56" s="87">
         <v>44974</v>
       </c>
-      <c r="I56" s="90"/>
-      <c r="J56" s="90"/>
-      <c r="M56" s="87" t="s">
+      <c r="I56" s="88"/>
+      <c r="J56" s="88"/>
+      <c r="M56" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N56" s="87"/>
-      <c r="O56" s="87"/>
-      <c r="P56" s="88" t="s">
+      <c r="N56" s="80"/>
+      <c r="O56" s="80"/>
+      <c r="P56" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q56" s="88"/>
-      <c r="R56" s="88"/>
-      <c r="S56" s="88"/>
+      <c r="Q56" s="81"/>
+      <c r="R56" s="81"/>
+      <c r="S56" s="81"/>
       <c r="T56" s="18"/>
       <c r="U56" s="18"/>
-      <c r="V56" s="91">
+      <c r="V56" s="82">
         <v>44975</v>
       </c>
-      <c r="W56" s="92"/>
-      <c r="X56" s="93"/>
+      <c r="W56" s="83"/>
+      <c r="X56" s="84"/>
     </row>
     <row r="57" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
@@ -3287,72 +3281,72 @@
       <c r="X67" s="4"/>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C70" s="84" t="s">
+      <c r="C70" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="D70" s="84"/>
-      <c r="E70" s="84"/>
-      <c r="F70" s="84"/>
-      <c r="G70" s="84"/>
-      <c r="P70" s="86" t="s">
+      <c r="D70" s="85"/>
+      <c r="E70" s="85"/>
+      <c r="F70" s="85"/>
+      <c r="G70" s="85"/>
+      <c r="P70" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="Q70" s="86"/>
-      <c r="R70" s="86"/>
-      <c r="S70" s="86"/>
-      <c r="T70" s="86"/>
-      <c r="U70" s="86"/>
-      <c r="V70" s="86"/>
+      <c r="Q70" s="79"/>
+      <c r="R70" s="79"/>
+      <c r="S70" s="79"/>
+      <c r="T70" s="79"/>
+      <c r="U70" s="79"/>
+      <c r="V70" s="79"/>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C71" s="85"/>
-      <c r="D71" s="85"/>
-      <c r="E71" s="85"/>
-      <c r="F71" s="85"/>
-      <c r="G71" s="85"/>
-      <c r="P71" s="86"/>
-      <c r="Q71" s="86"/>
-      <c r="R71" s="86"/>
-      <c r="S71" s="86"/>
-      <c r="T71" s="86"/>
-      <c r="U71" s="86"/>
-      <c r="V71" s="86"/>
+      <c r="C71" s="86"/>
+      <c r="D71" s="86"/>
+      <c r="E71" s="86"/>
+      <c r="F71" s="86"/>
+      <c r="G71" s="86"/>
+      <c r="P71" s="79"/>
+      <c r="Q71" s="79"/>
+      <c r="R71" s="79"/>
+      <c r="S71" s="79"/>
+      <c r="T71" s="79"/>
+      <c r="U71" s="79"/>
+      <c r="V71" s="79"/>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A72" s="87" t="s">
+      <c r="A72" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B72" s="87"/>
-      <c r="C72" s="87"/>
-      <c r="D72" s="88" t="s">
+      <c r="B72" s="80"/>
+      <c r="C72" s="80"/>
+      <c r="D72" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E72" s="88"/>
-      <c r="F72" s="88"/>
-      <c r="G72" s="88"/>
-      <c r="H72" s="89">
+      <c r="E72" s="81"/>
+      <c r="F72" s="81"/>
+      <c r="G72" s="81"/>
+      <c r="H72" s="87">
         <v>44979</v>
       </c>
-      <c r="I72" s="90"/>
-      <c r="J72" s="90"/>
-      <c r="M72" s="87" t="s">
+      <c r="I72" s="88"/>
+      <c r="J72" s="88"/>
+      <c r="M72" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N72" s="87"/>
-      <c r="O72" s="87"/>
-      <c r="P72" s="88" t="s">
+      <c r="N72" s="80"/>
+      <c r="O72" s="80"/>
+      <c r="P72" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q72" s="88"/>
-      <c r="R72" s="88"/>
-      <c r="S72" s="88"/>
+      <c r="Q72" s="81"/>
+      <c r="R72" s="81"/>
+      <c r="S72" s="81"/>
       <c r="T72" s="18"/>
       <c r="U72" s="18"/>
-      <c r="V72" s="91">
+      <c r="V72" s="82">
         <v>44980</v>
       </c>
-      <c r="W72" s="92"/>
-      <c r="X72" s="93"/>
+      <c r="W72" s="83"/>
+      <c r="X72" s="84"/>
     </row>
     <row r="73" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
@@ -3723,72 +3717,72 @@
       <c r="X83" s="4"/>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C87" s="84" t="s">
+      <c r="C87" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="D87" s="84"/>
-      <c r="E87" s="84"/>
-      <c r="F87" s="84"/>
-      <c r="G87" s="84"/>
-      <c r="P87" s="86" t="s">
+      <c r="D87" s="85"/>
+      <c r="E87" s="85"/>
+      <c r="F87" s="85"/>
+      <c r="G87" s="85"/>
+      <c r="P87" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="Q87" s="86"/>
-      <c r="R87" s="86"/>
-      <c r="S87" s="86"/>
-      <c r="T87" s="86"/>
-      <c r="U87" s="86"/>
-      <c r="V87" s="86"/>
+      <c r="Q87" s="79"/>
+      <c r="R87" s="79"/>
+      <c r="S87" s="79"/>
+      <c r="T87" s="79"/>
+      <c r="U87" s="79"/>
+      <c r="V87" s="79"/>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C88" s="85"/>
-      <c r="D88" s="85"/>
-      <c r="E88" s="85"/>
-      <c r="F88" s="85"/>
-      <c r="G88" s="85"/>
-      <c r="P88" s="86"/>
-      <c r="Q88" s="86"/>
-      <c r="R88" s="86"/>
-      <c r="S88" s="86"/>
-      <c r="T88" s="86"/>
-      <c r="U88" s="86"/>
-      <c r="V88" s="86"/>
+      <c r="C88" s="86"/>
+      <c r="D88" s="86"/>
+      <c r="E88" s="86"/>
+      <c r="F88" s="86"/>
+      <c r="G88" s="86"/>
+      <c r="P88" s="79"/>
+      <c r="Q88" s="79"/>
+      <c r="R88" s="79"/>
+      <c r="S88" s="79"/>
+      <c r="T88" s="79"/>
+      <c r="U88" s="79"/>
+      <c r="V88" s="79"/>
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A89" s="87" t="s">
+      <c r="A89" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B89" s="87"/>
-      <c r="C89" s="87"/>
-      <c r="D89" s="88" t="s">
+      <c r="B89" s="80"/>
+      <c r="C89" s="80"/>
+      <c r="D89" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E89" s="88"/>
-      <c r="F89" s="88"/>
-      <c r="G89" s="88"/>
-      <c r="H89" s="89">
+      <c r="E89" s="81"/>
+      <c r="F89" s="81"/>
+      <c r="G89" s="81"/>
+      <c r="H89" s="87">
         <v>44981</v>
       </c>
-      <c r="I89" s="90"/>
-      <c r="J89" s="90"/>
-      <c r="M89" s="87" t="s">
+      <c r="I89" s="88"/>
+      <c r="J89" s="88"/>
+      <c r="M89" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N89" s="87"/>
-      <c r="O89" s="87"/>
-      <c r="P89" s="88" t="s">
+      <c r="N89" s="80"/>
+      <c r="O89" s="80"/>
+      <c r="P89" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q89" s="88"/>
-      <c r="R89" s="88"/>
-      <c r="S89" s="88"/>
+      <c r="Q89" s="81"/>
+      <c r="R89" s="81"/>
+      <c r="S89" s="81"/>
       <c r="T89" s="18"/>
       <c r="U89" s="18"/>
-      <c r="V89" s="91">
+      <c r="V89" s="82">
         <v>44980</v>
       </c>
-      <c r="W89" s="92"/>
-      <c r="X89" s="93"/>
+      <c r="W89" s="83"/>
+      <c r="X89" s="84"/>
     </row>
     <row r="90" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
@@ -4243,72 +4237,72 @@
       <c r="X100" s="4"/>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C104" s="84" t="s">
+      <c r="C104" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="D104" s="84"/>
-      <c r="E104" s="84"/>
-      <c r="F104" s="84"/>
-      <c r="G104" s="84"/>
-      <c r="P104" s="86" t="s">
+      <c r="D104" s="85"/>
+      <c r="E104" s="85"/>
+      <c r="F104" s="85"/>
+      <c r="G104" s="85"/>
+      <c r="P104" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="Q104" s="86"/>
-      <c r="R104" s="86"/>
-      <c r="S104" s="86"/>
-      <c r="T104" s="86"/>
-      <c r="U104" s="86"/>
-      <c r="V104" s="86"/>
+      <c r="Q104" s="79"/>
+      <c r="R104" s="79"/>
+      <c r="S104" s="79"/>
+      <c r="T104" s="79"/>
+      <c r="U104" s="79"/>
+      <c r="V104" s="79"/>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C105" s="85"/>
-      <c r="D105" s="85"/>
-      <c r="E105" s="85"/>
-      <c r="F105" s="85"/>
-      <c r="G105" s="85"/>
-      <c r="P105" s="86"/>
-      <c r="Q105" s="86"/>
-      <c r="R105" s="86"/>
-      <c r="S105" s="86"/>
-      <c r="T105" s="86"/>
-      <c r="U105" s="86"/>
-      <c r="V105" s="86"/>
+      <c r="C105" s="86"/>
+      <c r="D105" s="86"/>
+      <c r="E105" s="86"/>
+      <c r="F105" s="86"/>
+      <c r="G105" s="86"/>
+      <c r="P105" s="79"/>
+      <c r="Q105" s="79"/>
+      <c r="R105" s="79"/>
+      <c r="S105" s="79"/>
+      <c r="T105" s="79"/>
+      <c r="U105" s="79"/>
+      <c r="V105" s="79"/>
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A106" s="87" t="s">
+      <c r="A106" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B106" s="87"/>
-      <c r="C106" s="87"/>
-      <c r="D106" s="88" t="s">
+      <c r="B106" s="80"/>
+      <c r="C106" s="80"/>
+      <c r="D106" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E106" s="88"/>
-      <c r="F106" s="88"/>
-      <c r="G106" s="88"/>
-      <c r="H106" s="89">
+      <c r="E106" s="81"/>
+      <c r="F106" s="81"/>
+      <c r="G106" s="81"/>
+      <c r="H106" s="87">
         <v>44979</v>
       </c>
-      <c r="I106" s="90"/>
-      <c r="J106" s="90"/>
-      <c r="M106" s="87" t="s">
+      <c r="I106" s="88"/>
+      <c r="J106" s="88"/>
+      <c r="M106" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N106" s="87"/>
-      <c r="O106" s="87"/>
-      <c r="P106" s="88" t="s">
+      <c r="N106" s="80"/>
+      <c r="O106" s="80"/>
+      <c r="P106" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q106" s="88"/>
-      <c r="R106" s="88"/>
-      <c r="S106" s="88"/>
+      <c r="Q106" s="81"/>
+      <c r="R106" s="81"/>
+      <c r="S106" s="81"/>
       <c r="T106" s="18"/>
       <c r="U106" s="18"/>
-      <c r="V106" s="91" t="s">
+      <c r="V106" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="W106" s="92"/>
-      <c r="X106" s="93"/>
+      <c r="W106" s="83"/>
+      <c r="X106" s="84"/>
     </row>
     <row r="107" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
@@ -4806,6 +4800,54 @@
     <row r="124" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="C104:G105"/>
+    <mergeCell ref="P104:V105"/>
+    <mergeCell ref="A106:C106"/>
+    <mergeCell ref="D106:G106"/>
+    <mergeCell ref="H106:J106"/>
+    <mergeCell ref="M106:O106"/>
+    <mergeCell ref="P106:S106"/>
+    <mergeCell ref="V106:X106"/>
+    <mergeCell ref="C87:G88"/>
+    <mergeCell ref="P87:V88"/>
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="D89:G89"/>
+    <mergeCell ref="H89:J89"/>
+    <mergeCell ref="M89:O89"/>
+    <mergeCell ref="P89:S89"/>
+    <mergeCell ref="V89:X89"/>
+    <mergeCell ref="C70:G71"/>
+    <mergeCell ref="P70:V71"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="D72:G72"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="M72:O72"/>
+    <mergeCell ref="P72:S72"/>
+    <mergeCell ref="V72:X72"/>
+    <mergeCell ref="C54:G55"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="P54:V55"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="P56:S56"/>
+    <mergeCell ref="V56:X56"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="C2:G3"/>
+    <mergeCell ref="P2:V3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="C22:G23"/>
+    <mergeCell ref="P22:V23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="V24:X24"/>
     <mergeCell ref="P38:V39"/>
     <mergeCell ref="M40:O40"/>
     <mergeCell ref="P40:S40"/>
@@ -4814,54 +4856,6 @@
     <mergeCell ref="A40:C40"/>
     <mergeCell ref="D40:G40"/>
     <mergeCell ref="H40:J40"/>
-    <mergeCell ref="C22:G23"/>
-    <mergeCell ref="P22:V23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="C2:G3"/>
-    <mergeCell ref="P2:V3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="C54:G55"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="P54:V55"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="P56:S56"/>
-    <mergeCell ref="V56:X56"/>
-    <mergeCell ref="C70:G71"/>
-    <mergeCell ref="P70:V71"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="D72:G72"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="M72:O72"/>
-    <mergeCell ref="P72:S72"/>
-    <mergeCell ref="V72:X72"/>
-    <mergeCell ref="C87:G88"/>
-    <mergeCell ref="P87:V88"/>
-    <mergeCell ref="A89:C89"/>
-    <mergeCell ref="D89:G89"/>
-    <mergeCell ref="H89:J89"/>
-    <mergeCell ref="M89:O89"/>
-    <mergeCell ref="P89:S89"/>
-    <mergeCell ref="V89:X89"/>
-    <mergeCell ref="C104:G105"/>
-    <mergeCell ref="P104:V105"/>
-    <mergeCell ref="A106:C106"/>
-    <mergeCell ref="D106:G106"/>
-    <mergeCell ref="H106:J106"/>
-    <mergeCell ref="M106:O106"/>
-    <mergeCell ref="P106:S106"/>
-    <mergeCell ref="V106:X106"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4869,11 +4863,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Z236"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A2:Z247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M226" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X235" sqref="M230:X235"/>
+    <sheetView tabSelected="1" topLeftCell="M231" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z239" sqref="Z239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4893,72 +4887,72 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="P2" s="86" t="s">
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="P2" s="79" t="s">
         <v>76</v>
       </c>
-      <c r="Q2" s="86"/>
-      <c r="R2" s="86"/>
-      <c r="S2" s="86"/>
-      <c r="T2" s="86"/>
-      <c r="U2" s="86"/>
-      <c r="V2" s="86"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="79"/>
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="P3" s="86"/>
-      <c r="Q3" s="86"/>
-      <c r="R3" s="86"/>
-      <c r="S3" s="86"/>
-      <c r="T3" s="86"/>
-      <c r="U3" s="86"/>
-      <c r="V3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="79"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="88" t="s">
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="89" t="s">
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="M4" s="87" t="s">
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="M4" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="87"/>
-      <c r="O4" s="87"/>
-      <c r="P4" s="88" t="s">
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="88"/>
-      <c r="R4" s="88"/>
-      <c r="S4" s="88"/>
+      <c r="Q4" s="81"/>
+      <c r="R4" s="81"/>
+      <c r="S4" s="81"/>
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
-      <c r="V4" s="91">
+      <c r="V4" s="82">
         <v>44601</v>
       </c>
-      <c r="W4" s="92"/>
-      <c r="X4" s="93"/>
+      <c r="W4" s="83"/>
+      <c r="X4" s="84"/>
     </row>
     <row r="5" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -5425,72 +5419,72 @@
       <c r="X15" s="4"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C22" s="84" t="s">
+      <c r="C22" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="D22" s="84"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="84"/>
-      <c r="P22" s="86" t="s">
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
+      <c r="P22" s="79" t="s">
         <v>77</v>
       </c>
-      <c r="Q22" s="86"/>
-      <c r="R22" s="86"/>
-      <c r="S22" s="86"/>
-      <c r="T22" s="86"/>
-      <c r="U22" s="86"/>
-      <c r="V22" s="86"/>
+      <c r="Q22" s="79"/>
+      <c r="R22" s="79"/>
+      <c r="S22" s="79"/>
+      <c r="T22" s="79"/>
+      <c r="U22" s="79"/>
+      <c r="V22" s="79"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C23" s="85"/>
-      <c r="D23" s="85"/>
-      <c r="E23" s="85"/>
-      <c r="F23" s="85"/>
-      <c r="G23" s="85"/>
-      <c r="P23" s="86"/>
-      <c r="Q23" s="86"/>
-      <c r="R23" s="86"/>
-      <c r="S23" s="86"/>
-      <c r="T23" s="86"/>
-      <c r="U23" s="86"/>
-      <c r="V23" s="86"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="P23" s="79"/>
+      <c r="Q23" s="79"/>
+      <c r="R23" s="79"/>
+      <c r="S23" s="79"/>
+      <c r="T23" s="79"/>
+      <c r="U23" s="79"/>
+      <c r="V23" s="79"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="87" t="s">
+      <c r="A24" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="87"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="88" t="s">
+      <c r="B24" s="80"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="88"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="89">
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="87">
         <v>44993</v>
       </c>
-      <c r="I24" s="90"/>
-      <c r="J24" s="90"/>
-      <c r="M24" s="87" t="s">
+      <c r="I24" s="88"/>
+      <c r="J24" s="88"/>
+      <c r="M24" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N24" s="87"/>
-      <c r="O24" s="87"/>
-      <c r="P24" s="88" t="s">
+      <c r="N24" s="80"/>
+      <c r="O24" s="80"/>
+      <c r="P24" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q24" s="88"/>
-      <c r="R24" s="88"/>
-      <c r="S24" s="88"/>
+      <c r="Q24" s="81"/>
+      <c r="R24" s="81"/>
+      <c r="S24" s="81"/>
       <c r="T24" s="18"/>
       <c r="U24" s="18"/>
-      <c r="V24" s="91">
+      <c r="V24" s="82">
         <v>44993</v>
       </c>
-      <c r="W24" s="92"/>
-      <c r="X24" s="93"/>
+      <c r="W24" s="83"/>
+      <c r="X24" s="84"/>
     </row>
     <row r="25" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -5920,72 +5914,72 @@
       <c r="X34" s="4"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C37" s="84" t="s">
+      <c r="C37" s="85" t="s">
         <v>84</v>
       </c>
-      <c r="D37" s="84"/>
-      <c r="E37" s="84"/>
-      <c r="F37" s="84"/>
-      <c r="G37" s="84"/>
-      <c r="P37" s="86" t="s">
+      <c r="D37" s="85"/>
+      <c r="E37" s="85"/>
+      <c r="F37" s="85"/>
+      <c r="G37" s="85"/>
+      <c r="P37" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="Q37" s="86"/>
-      <c r="R37" s="86"/>
-      <c r="S37" s="86"/>
-      <c r="T37" s="86"/>
-      <c r="U37" s="86"/>
-      <c r="V37" s="86"/>
+      <c r="Q37" s="79"/>
+      <c r="R37" s="79"/>
+      <c r="S37" s="79"/>
+      <c r="T37" s="79"/>
+      <c r="U37" s="79"/>
+      <c r="V37" s="79"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C38" s="85"/>
-      <c r="D38" s="85"/>
-      <c r="E38" s="85"/>
-      <c r="F38" s="85"/>
-      <c r="G38" s="85"/>
-      <c r="P38" s="86"/>
-      <c r="Q38" s="86"/>
-      <c r="R38" s="86"/>
-      <c r="S38" s="86"/>
-      <c r="T38" s="86"/>
-      <c r="U38" s="86"/>
-      <c r="V38" s="86"/>
+      <c r="C38" s="86"/>
+      <c r="D38" s="86"/>
+      <c r="E38" s="86"/>
+      <c r="F38" s="86"/>
+      <c r="G38" s="86"/>
+      <c r="P38" s="79"/>
+      <c r="Q38" s="79"/>
+      <c r="R38" s="79"/>
+      <c r="S38" s="79"/>
+      <c r="T38" s="79"/>
+      <c r="U38" s="79"/>
+      <c r="V38" s="79"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A39" s="87" t="s">
+      <c r="A39" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="87"/>
-      <c r="C39" s="87"/>
-      <c r="D39" s="88" t="s">
+      <c r="B39" s="80"/>
+      <c r="C39" s="80"/>
+      <c r="D39" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="88"/>
-      <c r="F39" s="88"/>
-      <c r="G39" s="88"/>
-      <c r="H39" s="89">
+      <c r="E39" s="81"/>
+      <c r="F39" s="81"/>
+      <c r="G39" s="81"/>
+      <c r="H39" s="87">
         <v>44972</v>
       </c>
-      <c r="I39" s="90"/>
-      <c r="J39" s="90"/>
-      <c r="M39" s="87" t="s">
+      <c r="I39" s="88"/>
+      <c r="J39" s="88"/>
+      <c r="M39" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N39" s="87"/>
-      <c r="O39" s="87"/>
-      <c r="P39" s="88" t="s">
+      <c r="N39" s="80"/>
+      <c r="O39" s="80"/>
+      <c r="P39" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q39" s="88"/>
-      <c r="R39" s="88"/>
-      <c r="S39" s="88"/>
+      <c r="Q39" s="81"/>
+      <c r="R39" s="81"/>
+      <c r="S39" s="81"/>
       <c r="T39" s="18"/>
       <c r="U39" s="18"/>
-      <c r="V39" s="91">
+      <c r="V39" s="82">
         <v>44994</v>
       </c>
-      <c r="W39" s="92"/>
-      <c r="X39" s="93"/>
+      <c r="W39" s="83"/>
+      <c r="X39" s="84"/>
     </row>
     <row r="40" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
@@ -6396,72 +6390,72 @@
       <c r="X50" s="4"/>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C53" s="84">
+      <c r="C53" s="85">
         <v>45005</v>
       </c>
-      <c r="D53" s="84"/>
-      <c r="E53" s="84"/>
-      <c r="F53" s="84"/>
-      <c r="G53" s="84"/>
-      <c r="P53" s="84">
+      <c r="D53" s="85"/>
+      <c r="E53" s="85"/>
+      <c r="F53" s="85"/>
+      <c r="G53" s="85"/>
+      <c r="P53" s="85">
         <v>45006</v>
       </c>
-      <c r="Q53" s="84"/>
-      <c r="R53" s="84"/>
-      <c r="S53" s="84"/>
-      <c r="T53" s="84"/>
-      <c r="U53" s="84"/>
-      <c r="V53" s="84"/>
+      <c r="Q53" s="85"/>
+      <c r="R53" s="85"/>
+      <c r="S53" s="85"/>
+      <c r="T53" s="85"/>
+      <c r="U53" s="85"/>
+      <c r="V53" s="85"/>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C54" s="85"/>
-      <c r="D54" s="85"/>
-      <c r="E54" s="85"/>
-      <c r="F54" s="85"/>
-      <c r="G54" s="85"/>
-      <c r="P54" s="84"/>
-      <c r="Q54" s="84"/>
-      <c r="R54" s="84"/>
-      <c r="S54" s="84"/>
-      <c r="T54" s="84"/>
-      <c r="U54" s="84"/>
-      <c r="V54" s="84"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="86"/>
+      <c r="E54" s="86"/>
+      <c r="F54" s="86"/>
+      <c r="G54" s="86"/>
+      <c r="P54" s="85"/>
+      <c r="Q54" s="85"/>
+      <c r="R54" s="85"/>
+      <c r="S54" s="85"/>
+      <c r="T54" s="85"/>
+      <c r="U54" s="85"/>
+      <c r="V54" s="85"/>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A55" s="87" t="s">
+      <c r="A55" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="87"/>
-      <c r="C55" s="87"/>
-      <c r="D55" s="88" t="s">
+      <c r="B55" s="80"/>
+      <c r="C55" s="80"/>
+      <c r="D55" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E55" s="88"/>
-      <c r="F55" s="88"/>
-      <c r="G55" s="88"/>
-      <c r="H55" s="89">
+      <c r="E55" s="81"/>
+      <c r="F55" s="81"/>
+      <c r="G55" s="81"/>
+      <c r="H55" s="87">
         <v>45005</v>
       </c>
-      <c r="I55" s="90"/>
-      <c r="J55" s="90"/>
-      <c r="M55" s="87" t="s">
+      <c r="I55" s="88"/>
+      <c r="J55" s="88"/>
+      <c r="M55" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N55" s="87"/>
-      <c r="O55" s="87"/>
-      <c r="P55" s="88" t="s">
+      <c r="N55" s="80"/>
+      <c r="O55" s="80"/>
+      <c r="P55" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q55" s="88"/>
-      <c r="R55" s="88"/>
-      <c r="S55" s="88"/>
+      <c r="Q55" s="81"/>
+      <c r="R55" s="81"/>
+      <c r="S55" s="81"/>
       <c r="T55" s="18"/>
       <c r="U55" s="18"/>
-      <c r="V55" s="91">
+      <c r="V55" s="82">
         <v>45006</v>
       </c>
-      <c r="W55" s="92"/>
-      <c r="X55" s="93"/>
+      <c r="W55" s="83"/>
+      <c r="X55" s="84"/>
     </row>
     <row r="56" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
@@ -6860,72 +6854,72 @@
       <c r="X66" s="4"/>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C69" s="84" t="s">
+      <c r="C69" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="D69" s="84"/>
-      <c r="E69" s="84"/>
-      <c r="F69" s="84"/>
-      <c r="G69" s="84"/>
-      <c r="P69" s="86" t="s">
+      <c r="D69" s="85"/>
+      <c r="E69" s="85"/>
+      <c r="F69" s="85"/>
+      <c r="G69" s="85"/>
+      <c r="P69" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="Q69" s="86"/>
-      <c r="R69" s="86"/>
-      <c r="S69" s="86"/>
-      <c r="T69" s="86"/>
-      <c r="U69" s="86"/>
-      <c r="V69" s="86"/>
+      <c r="Q69" s="79"/>
+      <c r="R69" s="79"/>
+      <c r="S69" s="79"/>
+      <c r="T69" s="79"/>
+      <c r="U69" s="79"/>
+      <c r="V69" s="79"/>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C70" s="85"/>
-      <c r="D70" s="85"/>
-      <c r="E70" s="85"/>
-      <c r="F70" s="85"/>
-      <c r="G70" s="85"/>
-      <c r="P70" s="86"/>
-      <c r="Q70" s="86"/>
-      <c r="R70" s="86"/>
-      <c r="S70" s="86"/>
-      <c r="T70" s="86"/>
-      <c r="U70" s="86"/>
-      <c r="V70" s="86"/>
+      <c r="C70" s="86"/>
+      <c r="D70" s="86"/>
+      <c r="E70" s="86"/>
+      <c r="F70" s="86"/>
+      <c r="G70" s="86"/>
+      <c r="P70" s="79"/>
+      <c r="Q70" s="79"/>
+      <c r="R70" s="79"/>
+      <c r="S70" s="79"/>
+      <c r="T70" s="79"/>
+      <c r="U70" s="79"/>
+      <c r="V70" s="79"/>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A71" s="87" t="s">
+      <c r="A71" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B71" s="87"/>
-      <c r="C71" s="87"/>
-      <c r="D71" s="88" t="s">
+      <c r="B71" s="80"/>
+      <c r="C71" s="80"/>
+      <c r="D71" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E71" s="88"/>
-      <c r="F71" s="88"/>
-      <c r="G71" s="88"/>
-      <c r="H71" s="89">
+      <c r="E71" s="81"/>
+      <c r="F71" s="81"/>
+      <c r="G71" s="81"/>
+      <c r="H71" s="87">
         <v>44979</v>
       </c>
-      <c r="I71" s="90"/>
-      <c r="J71" s="90"/>
-      <c r="M71" s="87" t="s">
+      <c r="I71" s="88"/>
+      <c r="J71" s="88"/>
+      <c r="M71" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N71" s="87"/>
-      <c r="O71" s="87"/>
-      <c r="P71" s="88" t="s">
+      <c r="N71" s="80"/>
+      <c r="O71" s="80"/>
+      <c r="P71" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q71" s="88"/>
-      <c r="R71" s="88"/>
-      <c r="S71" s="88"/>
+      <c r="Q71" s="81"/>
+      <c r="R71" s="81"/>
+      <c r="S71" s="81"/>
       <c r="T71" s="18"/>
       <c r="U71" s="18"/>
-      <c r="V71" s="91">
+      <c r="V71" s="82">
         <v>44980</v>
       </c>
-      <c r="W71" s="92"/>
-      <c r="X71" s="93"/>
+      <c r="W71" s="83"/>
+      <c r="X71" s="84"/>
     </row>
     <row r="72" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
@@ -7328,72 +7322,72 @@
       <c r="X82" s="4"/>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C86" s="84" t="s">
+      <c r="C86" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="D86" s="84"/>
-      <c r="E86" s="84"/>
-      <c r="F86" s="84"/>
-      <c r="G86" s="84"/>
-      <c r="P86" s="86" t="s">
+      <c r="D86" s="85"/>
+      <c r="E86" s="85"/>
+      <c r="F86" s="85"/>
+      <c r="G86" s="85"/>
+      <c r="P86" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="Q86" s="86"/>
-      <c r="R86" s="86"/>
-      <c r="S86" s="86"/>
-      <c r="T86" s="86"/>
-      <c r="U86" s="86"/>
-      <c r="V86" s="86"/>
+      <c r="Q86" s="79"/>
+      <c r="R86" s="79"/>
+      <c r="S86" s="79"/>
+      <c r="T86" s="79"/>
+      <c r="U86" s="79"/>
+      <c r="V86" s="79"/>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C87" s="85"/>
-      <c r="D87" s="85"/>
-      <c r="E87" s="85"/>
-      <c r="F87" s="85"/>
-      <c r="G87" s="85"/>
-      <c r="P87" s="86"/>
-      <c r="Q87" s="86"/>
-      <c r="R87" s="86"/>
-      <c r="S87" s="86"/>
-      <c r="T87" s="86"/>
-      <c r="U87" s="86"/>
-      <c r="V87" s="86"/>
+      <c r="C87" s="86"/>
+      <c r="D87" s="86"/>
+      <c r="E87" s="86"/>
+      <c r="F87" s="86"/>
+      <c r="G87" s="86"/>
+      <c r="P87" s="79"/>
+      <c r="Q87" s="79"/>
+      <c r="R87" s="79"/>
+      <c r="S87" s="79"/>
+      <c r="T87" s="79"/>
+      <c r="U87" s="79"/>
+      <c r="V87" s="79"/>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A88" s="87" t="s">
+      <c r="A88" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B88" s="87"/>
-      <c r="C88" s="87"/>
-      <c r="D88" s="88" t="s">
+      <c r="B88" s="80"/>
+      <c r="C88" s="80"/>
+      <c r="D88" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E88" s="88"/>
-      <c r="F88" s="88"/>
-      <c r="G88" s="88"/>
-      <c r="H88" s="89">
+      <c r="E88" s="81"/>
+      <c r="F88" s="81"/>
+      <c r="G88" s="81"/>
+      <c r="H88" s="87">
         <v>44981</v>
       </c>
-      <c r="I88" s="90"/>
-      <c r="J88" s="90"/>
-      <c r="M88" s="87" t="s">
+      <c r="I88" s="88"/>
+      <c r="J88" s="88"/>
+      <c r="M88" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N88" s="87"/>
-      <c r="O88" s="87"/>
-      <c r="P88" s="88" t="s">
+      <c r="N88" s="80"/>
+      <c r="O88" s="80"/>
+      <c r="P88" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q88" s="88"/>
-      <c r="R88" s="88"/>
-      <c r="S88" s="88"/>
+      <c r="Q88" s="81"/>
+      <c r="R88" s="81"/>
+      <c r="S88" s="81"/>
       <c r="T88" s="18"/>
       <c r="U88" s="18"/>
-      <c r="V88" s="91">
+      <c r="V88" s="82">
         <v>44980</v>
       </c>
-      <c r="W88" s="92"/>
-      <c r="X88" s="93"/>
+      <c r="W88" s="83"/>
+      <c r="X88" s="84"/>
     </row>
     <row r="89" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
@@ -7728,73 +7722,73 @@
       <c r="X99" s="4"/>
     </row>
     <row r="103" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C103" s="84" t="s">
+      <c r="C103" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="D103" s="84"/>
-      <c r="E103" s="84"/>
-      <c r="F103" s="84"/>
-      <c r="G103" s="84"/>
-      <c r="P103" s="86" t="s">
+      <c r="D103" s="85"/>
+      <c r="E103" s="85"/>
+      <c r="F103" s="85"/>
+      <c r="G103" s="85"/>
+      <c r="P103" s="79" t="s">
         <v>90</v>
       </c>
-      <c r="Q103" s="86"/>
-      <c r="R103" s="86"/>
-      <c r="S103" s="86"/>
-      <c r="T103" s="86"/>
-      <c r="U103" s="86"/>
-      <c r="V103" s="86"/>
+      <c r="Q103" s="79"/>
+      <c r="R103" s="79"/>
+      <c r="S103" s="79"/>
+      <c r="T103" s="79"/>
+      <c r="U103" s="79"/>
+      <c r="V103" s="79"/>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C104" s="85"/>
-      <c r="D104" s="85"/>
-      <c r="E104" s="85"/>
-      <c r="F104" s="85"/>
-      <c r="G104" s="85"/>
-      <c r="P104" s="86"/>
-      <c r="Q104" s="86"/>
-      <c r="R104" s="86"/>
-      <c r="S104" s="86"/>
-      <c r="T104" s="86"/>
-      <c r="U104" s="86"/>
-      <c r="V104" s="86"/>
+      <c r="C104" s="86"/>
+      <c r="D104" s="86"/>
+      <c r="E104" s="86"/>
+      <c r="F104" s="86"/>
+      <c r="G104" s="86"/>
+      <c r="P104" s="79"/>
+      <c r="Q104" s="79"/>
+      <c r="R104" s="79"/>
+      <c r="S104" s="79"/>
+      <c r="T104" s="79"/>
+      <c r="U104" s="79"/>
+      <c r="V104" s="79"/>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A105" s="87" t="s">
+      <c r="A105" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B105" s="87"/>
-      <c r="C105" s="87"/>
-      <c r="D105" s="88" t="s">
+      <c r="B105" s="80"/>
+      <c r="C105" s="80"/>
+      <c r="D105" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E105" s="88"/>
-      <c r="F105" s="88"/>
-      <c r="G105" s="88"/>
-      <c r="H105" s="89">
+      <c r="E105" s="81"/>
+      <c r="F105" s="81"/>
+      <c r="G105" s="81"/>
+      <c r="H105" s="87">
         <v>44979</v>
       </c>
-      <c r="I105" s="90"/>
-      <c r="J105" s="90"/>
-      <c r="M105" s="87" t="s">
+      <c r="I105" s="88"/>
+      <c r="J105" s="88"/>
+      <c r="M105" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N105" s="87"/>
-      <c r="O105" s="87"/>
-      <c r="P105" s="88" t="s">
+      <c r="N105" s="80"/>
+      <c r="O105" s="80"/>
+      <c r="P105" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q105" s="88"/>
-      <c r="R105" s="88"/>
-      <c r="S105" s="88"/>
+      <c r="Q105" s="81"/>
+      <c r="R105" s="81"/>
+      <c r="S105" s="81"/>
       <c r="T105" s="18"/>
       <c r="U105" s="18"/>
-      <c r="V105" s="91" t="e">
+      <c r="V105" s="82" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W105" s="92"/>
-      <c r="X105" s="93"/>
+      <c r="W105" s="83"/>
+      <c r="X105" s="84"/>
     </row>
     <row r="106" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
@@ -8245,73 +8239,73 @@
       <c r="X116" s="4"/>
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C121" s="84" t="s">
+      <c r="C121" s="85" t="s">
         <v>95</v>
       </c>
-      <c r="D121" s="84"/>
-      <c r="E121" s="84"/>
-      <c r="F121" s="84"/>
-      <c r="G121" s="84"/>
-      <c r="P121" s="86" t="s">
+      <c r="D121" s="85"/>
+      <c r="E121" s="85"/>
+      <c r="F121" s="85"/>
+      <c r="G121" s="85"/>
+      <c r="P121" s="79" t="s">
         <v>96</v>
       </c>
-      <c r="Q121" s="86"/>
-      <c r="R121" s="86"/>
-      <c r="S121" s="86"/>
-      <c r="T121" s="86"/>
-      <c r="U121" s="86"/>
-      <c r="V121" s="86"/>
+      <c r="Q121" s="79"/>
+      <c r="R121" s="79"/>
+      <c r="S121" s="79"/>
+      <c r="T121" s="79"/>
+      <c r="U121" s="79"/>
+      <c r="V121" s="79"/>
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C122" s="85"/>
-      <c r="D122" s="85"/>
-      <c r="E122" s="85"/>
-      <c r="F122" s="85"/>
-      <c r="G122" s="85"/>
-      <c r="P122" s="86"/>
-      <c r="Q122" s="86"/>
-      <c r="R122" s="86"/>
-      <c r="S122" s="86"/>
-      <c r="T122" s="86"/>
-      <c r="U122" s="86"/>
-      <c r="V122" s="86"/>
+      <c r="C122" s="86"/>
+      <c r="D122" s="86"/>
+      <c r="E122" s="86"/>
+      <c r="F122" s="86"/>
+      <c r="G122" s="86"/>
+      <c r="P122" s="79"/>
+      <c r="Q122" s="79"/>
+      <c r="R122" s="79"/>
+      <c r="S122" s="79"/>
+      <c r="T122" s="79"/>
+      <c r="U122" s="79"/>
+      <c r="V122" s="79"/>
     </row>
     <row r="123" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="87" t="s">
+      <c r="A123" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B123" s="87"/>
-      <c r="C123" s="87"/>
-      <c r="D123" s="88" t="s">
+      <c r="B123" s="80"/>
+      <c r="C123" s="80"/>
+      <c r="D123" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E123" s="88"/>
-      <c r="F123" s="88"/>
-      <c r="G123" s="88"/>
-      <c r="H123" s="89">
+      <c r="E123" s="81"/>
+      <c r="F123" s="81"/>
+      <c r="G123" s="81"/>
+      <c r="H123" s="87">
         <v>44979</v>
       </c>
-      <c r="I123" s="90"/>
-      <c r="J123" s="90"/>
-      <c r="M123" s="87" t="s">
+      <c r="I123" s="88"/>
+      <c r="J123" s="88"/>
+      <c r="M123" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N123" s="87"/>
-      <c r="O123" s="87"/>
-      <c r="P123" s="88" t="s">
+      <c r="N123" s="80"/>
+      <c r="O123" s="80"/>
+      <c r="P123" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q123" s="88"/>
-      <c r="R123" s="88"/>
-      <c r="S123" s="88"/>
+      <c r="Q123" s="81"/>
+      <c r="R123" s="81"/>
+      <c r="S123" s="81"/>
       <c r="T123" s="18"/>
       <c r="U123" s="18"/>
-      <c r="V123" s="91" t="e">
+      <c r="V123" s="82" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W123" s="92"/>
-      <c r="X123" s="93"/>
+      <c r="W123" s="83"/>
+      <c r="X123" s="84"/>
     </row>
     <row r="124" spans="1:26" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
@@ -8826,45 +8820,45 @@
       <c r="X134" s="4"/>
     </row>
     <row r="138" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="P138" s="86" t="s">
+      <c r="P138" s="79" t="s">
         <v>97</v>
       </c>
-      <c r="Q138" s="86"/>
-      <c r="R138" s="86"/>
-      <c r="S138" s="86"/>
-      <c r="T138" s="86"/>
-      <c r="U138" s="86"/>
-      <c r="V138" s="86"/>
+      <c r="Q138" s="79"/>
+      <c r="R138" s="79"/>
+      <c r="S138" s="79"/>
+      <c r="T138" s="79"/>
+      <c r="U138" s="79"/>
+      <c r="V138" s="79"/>
     </row>
     <row r="139" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="P139" s="86"/>
-      <c r="Q139" s="86"/>
-      <c r="R139" s="86"/>
-      <c r="S139" s="86"/>
-      <c r="T139" s="86"/>
-      <c r="U139" s="86"/>
-      <c r="V139" s="86"/>
+      <c r="P139" s="79"/>
+      <c r="Q139" s="79"/>
+      <c r="R139" s="79"/>
+      <c r="S139" s="79"/>
+      <c r="T139" s="79"/>
+      <c r="U139" s="79"/>
+      <c r="V139" s="79"/>
     </row>
     <row r="140" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="M140" s="87" t="s">
+      <c r="M140" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N140" s="87"/>
-      <c r="O140" s="87"/>
-      <c r="P140" s="88" t="s">
+      <c r="N140" s="80"/>
+      <c r="O140" s="80"/>
+      <c r="P140" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q140" s="88"/>
-      <c r="R140" s="88"/>
-      <c r="S140" s="88"/>
+      <c r="Q140" s="81"/>
+      <c r="R140" s="81"/>
+      <c r="S140" s="81"/>
       <c r="T140" s="18"/>
       <c r="U140" s="18"/>
-      <c r="V140" s="91" t="e">
+      <c r="V140" s="82" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W140" s="92"/>
-      <c r="X140" s="93"/>
+      <c r="W140" s="83"/>
+      <c r="X140" s="84"/>
     </row>
     <row r="141" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M141" s="6" t="s">
@@ -9129,45 +9123,45 @@
       <c r="S152" s="64"/>
     </row>
     <row r="153" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P153" s="86" t="s">
+      <c r="P153" s="79" t="s">
         <v>102</v>
       </c>
-      <c r="Q153" s="86"/>
-      <c r="R153" s="86"/>
-      <c r="S153" s="86"/>
-      <c r="T153" s="86"/>
-      <c r="U153" s="86"/>
-      <c r="V153" s="86"/>
+      <c r="Q153" s="79"/>
+      <c r="R153" s="79"/>
+      <c r="S153" s="79"/>
+      <c r="T153" s="79"/>
+      <c r="U153" s="79"/>
+      <c r="V153" s="79"/>
     </row>
     <row r="154" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P154" s="86"/>
-      <c r="Q154" s="86"/>
-      <c r="R154" s="86"/>
-      <c r="S154" s="86"/>
-      <c r="T154" s="86"/>
-      <c r="U154" s="86"/>
-      <c r="V154" s="86"/>
+      <c r="P154" s="79"/>
+      <c r="Q154" s="79"/>
+      <c r="R154" s="79"/>
+      <c r="S154" s="79"/>
+      <c r="T154" s="79"/>
+      <c r="U154" s="79"/>
+      <c r="V154" s="79"/>
     </row>
     <row r="155" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M155" s="87" t="s">
+      <c r="M155" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N155" s="87"/>
-      <c r="O155" s="87"/>
-      <c r="P155" s="88" t="s">
+      <c r="N155" s="80"/>
+      <c r="O155" s="80"/>
+      <c r="P155" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q155" s="88"/>
-      <c r="R155" s="88"/>
-      <c r="S155" s="88"/>
+      <c r="Q155" s="81"/>
+      <c r="R155" s="81"/>
+      <c r="S155" s="81"/>
       <c r="T155" s="18"/>
       <c r="U155" s="18"/>
-      <c r="V155" s="91" t="e">
+      <c r="V155" s="82" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W155" s="92"/>
-      <c r="X155" s="93"/>
+      <c r="W155" s="83"/>
+      <c r="X155" s="84"/>
     </row>
     <row r="156" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M156" s="6" t="s">
@@ -9431,45 +9425,45 @@
       <c r="X166" s="4"/>
     </row>
     <row r="168" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P168" s="86" t="s">
+      <c r="P168" s="79" t="s">
         <v>100</v>
       </c>
-      <c r="Q168" s="86"/>
-      <c r="R168" s="86"/>
-      <c r="S168" s="86"/>
-      <c r="T168" s="86"/>
-      <c r="U168" s="86"/>
-      <c r="V168" s="86"/>
+      <c r="Q168" s="79"/>
+      <c r="R168" s="79"/>
+      <c r="S168" s="79"/>
+      <c r="T168" s="79"/>
+      <c r="U168" s="79"/>
+      <c r="V168" s="79"/>
     </row>
     <row r="169" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P169" s="86"/>
-      <c r="Q169" s="86"/>
-      <c r="R169" s="86"/>
-      <c r="S169" s="86"/>
-      <c r="T169" s="86"/>
-      <c r="U169" s="86"/>
-      <c r="V169" s="86"/>
+      <c r="P169" s="79"/>
+      <c r="Q169" s="79"/>
+      <c r="R169" s="79"/>
+      <c r="S169" s="79"/>
+      <c r="T169" s="79"/>
+      <c r="U169" s="79"/>
+      <c r="V169" s="79"/>
     </row>
     <row r="170" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M170" s="87" t="s">
+      <c r="M170" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N170" s="87"/>
-      <c r="O170" s="87"/>
-      <c r="P170" s="88" t="s">
+      <c r="N170" s="80"/>
+      <c r="O170" s="80"/>
+      <c r="P170" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q170" s="88"/>
-      <c r="R170" s="88"/>
-      <c r="S170" s="88"/>
+      <c r="Q170" s="81"/>
+      <c r="R170" s="81"/>
+      <c r="S170" s="81"/>
       <c r="T170" s="18"/>
       <c r="U170" s="18"/>
-      <c r="V170" s="91" t="e">
+      <c r="V170" s="82" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W170" s="92"/>
-      <c r="X170" s="93"/>
+      <c r="W170" s="83"/>
+      <c r="X170" s="84"/>
     </row>
     <row r="171" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M171" s="6" t="s">
@@ -9674,45 +9668,45 @@
       <c r="X181" s="4"/>
     </row>
     <row r="186" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P186" s="86" t="s">
+      <c r="P186" s="79" t="s">
         <v>104</v>
       </c>
-      <c r="Q186" s="86"/>
-      <c r="R186" s="86"/>
-      <c r="S186" s="86"/>
-      <c r="T186" s="86"/>
-      <c r="U186" s="86"/>
-      <c r="V186" s="86"/>
+      <c r="Q186" s="79"/>
+      <c r="R186" s="79"/>
+      <c r="S186" s="79"/>
+      <c r="T186" s="79"/>
+      <c r="U186" s="79"/>
+      <c r="V186" s="79"/>
     </row>
     <row r="187" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P187" s="86"/>
-      <c r="Q187" s="86"/>
-      <c r="R187" s="86"/>
-      <c r="S187" s="86"/>
-      <c r="T187" s="86"/>
-      <c r="U187" s="86"/>
-      <c r="V187" s="86"/>
+      <c r="P187" s="79"/>
+      <c r="Q187" s="79"/>
+      <c r="R187" s="79"/>
+      <c r="S187" s="79"/>
+      <c r="T187" s="79"/>
+      <c r="U187" s="79"/>
+      <c r="V187" s="79"/>
     </row>
     <row r="188" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M188" s="87" t="s">
+      <c r="M188" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N188" s="87"/>
-      <c r="O188" s="87"/>
-      <c r="P188" s="88" t="s">
+      <c r="N188" s="80"/>
+      <c r="O188" s="80"/>
+      <c r="P188" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q188" s="88"/>
-      <c r="R188" s="88"/>
-      <c r="S188" s="88"/>
+      <c r="Q188" s="81"/>
+      <c r="R188" s="81"/>
+      <c r="S188" s="81"/>
       <c r="T188" s="18"/>
       <c r="U188" s="18"/>
-      <c r="V188" s="91" t="e">
+      <c r="V188" s="82" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W188" s="92"/>
-      <c r="X188" s="93"/>
+      <c r="W188" s="83"/>
+      <c r="X188" s="84"/>
     </row>
     <row r="189" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M189" s="6" t="s">
@@ -9882,24 +9876,24 @@
       <c r="X194" s="15"/>
     </row>
     <row r="198" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P198" s="86" t="s">
+      <c r="P198" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="Q198" s="86"/>
-      <c r="R198" s="86"/>
-      <c r="S198" s="86"/>
-      <c r="T198" s="86"/>
-      <c r="U198" s="86"/>
-      <c r="V198" s="86"/>
+      <c r="Q198" s="79"/>
+      <c r="R198" s="79"/>
+      <c r="S198" s="79"/>
+      <c r="T198" s="79"/>
+      <c r="U198" s="79"/>
+      <c r="V198" s="79"/>
     </row>
     <row r="199" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P199" s="86"/>
-      <c r="Q199" s="86"/>
-      <c r="R199" s="86"/>
-      <c r="S199" s="86"/>
-      <c r="T199" s="86"/>
-      <c r="U199" s="86"/>
-      <c r="V199" s="86"/>
+      <c r="P199" s="79"/>
+      <c r="Q199" s="79"/>
+      <c r="R199" s="79"/>
+      <c r="S199" s="79"/>
+      <c r="T199" s="79"/>
+      <c r="U199" s="79"/>
+      <c r="V199" s="79"/>
     </row>
     <row r="200" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M200" s="70" t="s">
@@ -10074,24 +10068,24 @@
       </c>
     </row>
     <row r="209" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P209" s="86" t="s">
+      <c r="P209" s="79" t="s">
         <v>113</v>
       </c>
-      <c r="Q209" s="86"/>
-      <c r="R209" s="86"/>
-      <c r="S209" s="86"/>
-      <c r="T209" s="86"/>
-      <c r="U209" s="86"/>
-      <c r="V209" s="86"/>
+      <c r="Q209" s="79"/>
+      <c r="R209" s="79"/>
+      <c r="S209" s="79"/>
+      <c r="T209" s="79"/>
+      <c r="U209" s="79"/>
+      <c r="V209" s="79"/>
     </row>
     <row r="210" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P210" s="86"/>
-      <c r="Q210" s="86"/>
-      <c r="R210" s="86"/>
-      <c r="S210" s="86"/>
-      <c r="T210" s="86"/>
-      <c r="U210" s="86"/>
-      <c r="V210" s="86"/>
+      <c r="P210" s="79"/>
+      <c r="Q210" s="79"/>
+      <c r="R210" s="79"/>
+      <c r="S210" s="79"/>
+      <c r="T210" s="79"/>
+      <c r="U210" s="79"/>
+      <c r="V210" s="79"/>
     </row>
     <row r="211" spans="13:26" ht="36" x14ac:dyDescent="0.25">
       <c r="M211" s="70" t="s">
@@ -10243,24 +10237,24 @@
       </c>
     </row>
     <row r="218" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P218" s="86" t="s">
+      <c r="P218" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="Q218" s="86"/>
-      <c r="R218" s="86"/>
-      <c r="S218" s="86"/>
-      <c r="T218" s="86"/>
-      <c r="U218" s="86"/>
-      <c r="V218" s="86"/>
+      <c r="Q218" s="79"/>
+      <c r="R218" s="79"/>
+      <c r="S218" s="79"/>
+      <c r="T218" s="79"/>
+      <c r="U218" s="79"/>
+      <c r="V218" s="79"/>
     </row>
     <row r="219" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P219" s="86"/>
-      <c r="Q219" s="86"/>
-      <c r="R219" s="86"/>
-      <c r="S219" s="86"/>
-      <c r="T219" s="86"/>
-      <c r="U219" s="86"/>
-      <c r="V219" s="86"/>
+      <c r="P219" s="79"/>
+      <c r="Q219" s="79"/>
+      <c r="R219" s="79"/>
+      <c r="S219" s="79"/>
+      <c r="T219" s="79"/>
+      <c r="U219" s="79"/>
+      <c r="V219" s="79"/>
     </row>
     <row r="220" spans="13:26" ht="36" x14ac:dyDescent="0.25">
       <c r="M220" s="70" t="s">
@@ -10443,19 +10437,19 @@
     </row>
     <row r="225" spans="13:26" ht="24" x14ac:dyDescent="0.25">
       <c r="M225" s="15"/>
-      <c r="N225" s="80" t="s">
+      <c r="N225" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="O225" s="81" t="s">
+      <c r="O225" s="76" t="s">
         <v>107</v>
       </c>
-      <c r="P225" s="81" t="s">
+      <c r="P225" s="76" t="s">
         <v>110</v>
       </c>
-      <c r="Q225" s="81" t="s">
+      <c r="Q225" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="R225" s="82" t="s">
+      <c r="R225" s="77" t="s">
         <v>18</v>
       </c>
       <c r="S225" s="10" t="s">
@@ -10482,19 +10476,19 @@
     </row>
     <row r="226" spans="13:26" x14ac:dyDescent="0.25">
       <c r="M226" s="15"/>
-      <c r="N226" s="80" t="s">
+      <c r="N226" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="O226" s="81" t="s">
+      <c r="O226" s="76" t="s">
         <v>107</v>
       </c>
-      <c r="P226" s="81" t="s">
+      <c r="P226" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="Q226" s="81" t="s">
+      <c r="Q226" s="76" t="s">
         <v>115</v>
       </c>
-      <c r="R226" s="82" t="s">
+      <c r="R226" s="77" t="s">
         <v>18</v>
       </c>
       <c r="S226" s="10" t="s">
@@ -10512,50 +10506,50 @@
       <c r="W226" s="34">
         <v>9.0972222222222218E-2</v>
       </c>
-      <c r="X226" s="83">
+      <c r="X226" s="78">
         <v>0.10277777777777779</v>
       </c>
     </row>
     <row r="230" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P230" s="86" t="s">
+      <c r="P230" s="79" t="s">
         <v>116</v>
       </c>
-      <c r="Q230" s="86"/>
-      <c r="R230" s="86"/>
-      <c r="S230" s="86"/>
-      <c r="T230" s="86"/>
-      <c r="U230" s="86"/>
-      <c r="V230" s="86"/>
+      <c r="Q230" s="79"/>
+      <c r="R230" s="79"/>
+      <c r="S230" s="79"/>
+      <c r="T230" s="79"/>
+      <c r="U230" s="79"/>
+      <c r="V230" s="79"/>
     </row>
     <row r="231" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P231" s="86"/>
-      <c r="Q231" s="86"/>
-      <c r="R231" s="86"/>
-      <c r="S231" s="86"/>
-      <c r="T231" s="86"/>
-      <c r="U231" s="86"/>
-      <c r="V231" s="86"/>
+      <c r="P231" s="79"/>
+      <c r="Q231" s="79"/>
+      <c r="R231" s="79"/>
+      <c r="S231" s="79"/>
+      <c r="T231" s="79"/>
+      <c r="U231" s="79"/>
+      <c r="V231" s="79"/>
     </row>
     <row r="232" spans="13:26" ht="36" x14ac:dyDescent="0.25">
-      <c r="M232" s="75" t="s">
+      <c r="M232" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="N232" s="75"/>
-      <c r="O232" s="75"/>
-      <c r="P232" s="76" t="s">
+      <c r="N232" s="70"/>
+      <c r="O232" s="70"/>
+      <c r="P232" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="Q232" s="76"/>
-      <c r="R232" s="76"/>
-      <c r="S232" s="76"/>
+      <c r="Q232" s="71"/>
+      <c r="R232" s="71"/>
+      <c r="S232" s="71"/>
       <c r="T232" s="18"/>
       <c r="U232" s="18"/>
-      <c r="V232" s="77" t="e">
+      <c r="V232" s="72" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W232" s="78"/>
-      <c r="X232" s="79"/>
+      <c r="W232" s="73"/>
+      <c r="X232" s="74"/>
       <c r="Z232" s="20" t="s">
         <v>9</v>
       </c>
@@ -10696,8 +10690,221 @@
         <v>28</v>
       </c>
     </row>
+    <row r="240" spans="13:26" x14ac:dyDescent="0.25">
+      <c r="P240" s="79" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q240" s="79"/>
+      <c r="R240" s="79"/>
+      <c r="S240" s="79"/>
+      <c r="T240" s="79"/>
+      <c r="U240" s="79"/>
+      <c r="V240" s="79"/>
+    </row>
+    <row r="241" spans="13:26" x14ac:dyDescent="0.25">
+      <c r="P241" s="79"/>
+      <c r="Q241" s="79"/>
+      <c r="R241" s="79"/>
+      <c r="S241" s="79"/>
+      <c r="T241" s="79"/>
+      <c r="U241" s="79"/>
+      <c r="V241" s="79"/>
+    </row>
+    <row r="242" spans="13:26" ht="36" x14ac:dyDescent="0.25">
+      <c r="M242" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="N242" s="70"/>
+      <c r="O242" s="70"/>
+      <c r="P242" s="71" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q242" s="71"/>
+      <c r="R242" s="71"/>
+      <c r="S242" s="71"/>
+      <c r="T242" s="18"/>
+      <c r="U242" s="18"/>
+      <c r="V242" s="72" t="e">
+        <f>FECHANUMERO</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W242" s="73"/>
+      <c r="X242" s="74"/>
+    </row>
+    <row r="243" spans="13:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="M243" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N243" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O243" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P243" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q243" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="R243" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="S243" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="T243" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="U243" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="V243" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="W243" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="X243" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z243" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="244" spans="13:26" x14ac:dyDescent="0.25">
+      <c r="M244" s="47"/>
+      <c r="N244" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="O244" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="P244" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q244" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="R244" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="S244" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="T244" s="43">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="U244" s="33">
+        <v>0.3979166666666667</v>
+      </c>
+      <c r="V244" s="34">
+        <v>0.41388888888888892</v>
+      </c>
+      <c r="W244" s="34"/>
+      <c r="X244" s="35"/>
+      <c r="Z244" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="245" spans="13:26" x14ac:dyDescent="0.25">
+      <c r="M245" s="47"/>
+      <c r="N245" s="48"/>
+      <c r="O245" s="49"/>
+      <c r="P245" s="49"/>
+      <c r="Q245" s="49"/>
+      <c r="R245" s="50"/>
+      <c r="S245" s="10"/>
+      <c r="T245" s="43"/>
+      <c r="U245" s="69"/>
+      <c r="V245" s="34"/>
+      <c r="W245" s="34"/>
+      <c r="X245" s="35"/>
+      <c r="Z245" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="246" spans="13:26" x14ac:dyDescent="0.25">
+      <c r="Z246" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="247" spans="13:26" ht="24" x14ac:dyDescent="0.25">
+      <c r="Z247" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="84">
+  <mergeCells count="85">
+    <mergeCell ref="P240:V241"/>
+    <mergeCell ref="P218:V219"/>
+    <mergeCell ref="P198:V199"/>
+    <mergeCell ref="P186:V187"/>
+    <mergeCell ref="M188:O188"/>
+    <mergeCell ref="P188:S188"/>
+    <mergeCell ref="V188:X188"/>
+    <mergeCell ref="P209:V210"/>
+    <mergeCell ref="P168:V169"/>
+    <mergeCell ref="M170:O170"/>
+    <mergeCell ref="P170:S170"/>
+    <mergeCell ref="V170:X170"/>
+    <mergeCell ref="M155:O155"/>
+    <mergeCell ref="P155:S155"/>
+    <mergeCell ref="V155:X155"/>
+    <mergeCell ref="P153:V154"/>
+    <mergeCell ref="C103:G104"/>
+    <mergeCell ref="P103:V104"/>
+    <mergeCell ref="A105:C105"/>
+    <mergeCell ref="D105:G105"/>
+    <mergeCell ref="H105:J105"/>
+    <mergeCell ref="M105:O105"/>
+    <mergeCell ref="P105:S105"/>
+    <mergeCell ref="V105:X105"/>
+    <mergeCell ref="C121:G122"/>
+    <mergeCell ref="A123:C123"/>
+    <mergeCell ref="D123:G123"/>
+    <mergeCell ref="H123:J123"/>
+    <mergeCell ref="M140:O140"/>
+    <mergeCell ref="P140:S140"/>
+    <mergeCell ref="V140:X140"/>
+    <mergeCell ref="C86:G87"/>
+    <mergeCell ref="P86:V87"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="D88:G88"/>
+    <mergeCell ref="H88:J88"/>
+    <mergeCell ref="M88:O88"/>
+    <mergeCell ref="P88:S88"/>
+    <mergeCell ref="V88:X88"/>
+    <mergeCell ref="P121:V122"/>
+    <mergeCell ref="V123:X123"/>
+    <mergeCell ref="M123:O123"/>
+    <mergeCell ref="P123:S123"/>
+    <mergeCell ref="P138:V139"/>
+    <mergeCell ref="C2:G3"/>
+    <mergeCell ref="P2:V3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="C22:G23"/>
+    <mergeCell ref="P22:V23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="P71:S71"/>
+    <mergeCell ref="C37:G38"/>
+    <mergeCell ref="P37:V38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="P39:S39"/>
+    <mergeCell ref="V39:X39"/>
     <mergeCell ref="P230:V231"/>
     <mergeCell ref="V71:X71"/>
     <mergeCell ref="A55:C55"/>
@@ -10714,74 +10921,6 @@
     <mergeCell ref="D71:G71"/>
     <mergeCell ref="H71:J71"/>
     <mergeCell ref="M71:O71"/>
-    <mergeCell ref="P71:S71"/>
-    <mergeCell ref="C37:G38"/>
-    <mergeCell ref="P37:V38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="P39:S39"/>
-    <mergeCell ref="V39:X39"/>
-    <mergeCell ref="C22:G23"/>
-    <mergeCell ref="P22:V23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="C2:G3"/>
-    <mergeCell ref="P2:V3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="P121:V122"/>
-    <mergeCell ref="V123:X123"/>
-    <mergeCell ref="M123:O123"/>
-    <mergeCell ref="P123:S123"/>
-    <mergeCell ref="P138:V139"/>
-    <mergeCell ref="C86:G87"/>
-    <mergeCell ref="P86:V87"/>
-    <mergeCell ref="A88:C88"/>
-    <mergeCell ref="D88:G88"/>
-    <mergeCell ref="H88:J88"/>
-    <mergeCell ref="M88:O88"/>
-    <mergeCell ref="P88:S88"/>
-    <mergeCell ref="V88:X88"/>
-    <mergeCell ref="P153:V154"/>
-    <mergeCell ref="C103:G104"/>
-    <mergeCell ref="P103:V104"/>
-    <mergeCell ref="A105:C105"/>
-    <mergeCell ref="D105:G105"/>
-    <mergeCell ref="H105:J105"/>
-    <mergeCell ref="M105:O105"/>
-    <mergeCell ref="P105:S105"/>
-    <mergeCell ref="V105:X105"/>
-    <mergeCell ref="C121:G122"/>
-    <mergeCell ref="A123:C123"/>
-    <mergeCell ref="D123:G123"/>
-    <mergeCell ref="H123:J123"/>
-    <mergeCell ref="M140:O140"/>
-    <mergeCell ref="P140:S140"/>
-    <mergeCell ref="V140:X140"/>
-    <mergeCell ref="P168:V169"/>
-    <mergeCell ref="M170:O170"/>
-    <mergeCell ref="P170:S170"/>
-    <mergeCell ref="V170:X170"/>
-    <mergeCell ref="M155:O155"/>
-    <mergeCell ref="P155:S155"/>
-    <mergeCell ref="V155:X155"/>
-    <mergeCell ref="P218:V219"/>
-    <mergeCell ref="P198:V199"/>
-    <mergeCell ref="P186:V187"/>
-    <mergeCell ref="M188:O188"/>
-    <mergeCell ref="P188:S188"/>
-    <mergeCell ref="V188:X188"/>
-    <mergeCell ref="P209:V210"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -10789,7 +10928,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="B3" workbookViewId="0">

--- a/DOC 2023/FORMATO STATUS.xlsx
+++ b/DOC 2023/FORMATO STATUS.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\DOC 2023\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F6D459-DE6D-4667-930D-6675236EFA76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="FEBRERO" sheetId="2" r:id="rId1"/>
     <sheet name="MARZO" sheetId="3" r:id="rId2"/>
     <sheet name="Hoja2" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="120">
   <si>
     <t>DT</t>
   </si>
@@ -392,12 +386,15 @@
   </si>
   <si>
     <t>Martes 06-06-2023</t>
+  </si>
+  <si>
+    <t>Miércoles 07-06-2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
@@ -723,7 +720,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -945,6 +942,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -954,6 +963,12 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -961,18 +976,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1252,14 +1255,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Z124"/>
   <sheetViews>
     <sheetView topLeftCell="J103" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
@@ -1281,72 +1284,72 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C2" s="85" t="s">
+      <c r="C2" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="P2" s="79" t="s">
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="P2" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="79"/>
-      <c r="T2" s="79"/>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="P3" s="79"/>
-      <c r="Q3" s="79"/>
-      <c r="R3" s="79"/>
-      <c r="S3" s="79"/>
-      <c r="T3" s="79"/>
-      <c r="U3" s="79"/>
-      <c r="V3" s="79"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="83"/>
+      <c r="R3" s="83"/>
+      <c r="S3" s="83"/>
+      <c r="T3" s="83"/>
+      <c r="U3" s="83"/>
+      <c r="V3" s="83"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="81" t="s">
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="87">
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="86">
         <v>44965</v>
       </c>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="M4" s="80" t="s">
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="M4" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="80"/>
-      <c r="O4" s="80"/>
-      <c r="P4" s="81" t="s">
+      <c r="N4" s="84"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="81"/>
-      <c r="R4" s="81"/>
-      <c r="S4" s="81"/>
+      <c r="Q4" s="85"/>
+      <c r="R4" s="85"/>
+      <c r="S4" s="85"/>
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
-      <c r="V4" s="82">
+      <c r="V4" s="88">
         <v>44601</v>
       </c>
-      <c r="W4" s="83"/>
-      <c r="X4" s="84"/>
+      <c r="W4" s="89"/>
+      <c r="X4" s="90"/>
     </row>
     <row r="5" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -1761,72 +1764,72 @@
       <c r="X15" s="4"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C22" s="85" t="s">
+      <c r="C22" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="85"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="85"/>
-      <c r="P22" s="79" t="s">
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="81"/>
+      <c r="P22" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="Q22" s="79"/>
-      <c r="R22" s="79"/>
-      <c r="S22" s="79"/>
-      <c r="T22" s="79"/>
-      <c r="U22" s="79"/>
-      <c r="V22" s="79"/>
+      <c r="Q22" s="83"/>
+      <c r="R22" s="83"/>
+      <c r="S22" s="83"/>
+      <c r="T22" s="83"/>
+      <c r="U22" s="83"/>
+      <c r="V22" s="83"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="P23" s="79"/>
-      <c r="Q23" s="79"/>
-      <c r="R23" s="79"/>
-      <c r="S23" s="79"/>
-      <c r="T23" s="79"/>
-      <c r="U23" s="79"/>
-      <c r="V23" s="79"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="82"/>
+      <c r="P23" s="83"/>
+      <c r="Q23" s="83"/>
+      <c r="R23" s="83"/>
+      <c r="S23" s="83"/>
+      <c r="T23" s="83"/>
+      <c r="U23" s="83"/>
+      <c r="V23" s="83"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="80" t="s">
+      <c r="A24" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="80"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="81" t="s">
+      <c r="B24" s="84"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="81"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="87">
+      <c r="E24" s="85"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="86">
         <v>44965</v>
       </c>
-      <c r="I24" s="88"/>
-      <c r="J24" s="88"/>
-      <c r="M24" s="80" t="s">
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
+      <c r="M24" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="N24" s="80"/>
-      <c r="O24" s="80"/>
-      <c r="P24" s="81" t="s">
+      <c r="N24" s="84"/>
+      <c r="O24" s="84"/>
+      <c r="P24" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="Q24" s="81"/>
-      <c r="R24" s="81"/>
-      <c r="S24" s="81"/>
+      <c r="Q24" s="85"/>
+      <c r="R24" s="85"/>
+      <c r="S24" s="85"/>
       <c r="T24" s="18"/>
       <c r="U24" s="18"/>
-      <c r="V24" s="82">
+      <c r="V24" s="88">
         <v>44971</v>
       </c>
-      <c r="W24" s="83"/>
-      <c r="X24" s="84"/>
+      <c r="W24" s="89"/>
+      <c r="X24" s="90"/>
     </row>
     <row r="25" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -2281,72 +2284,72 @@
       <c r="X35" s="4"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C38" s="85" t="s">
+      <c r="C38" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="85"/>
-      <c r="E38" s="85"/>
-      <c r="F38" s="85"/>
-      <c r="G38" s="85"/>
-      <c r="P38" s="79" t="s">
+      <c r="D38" s="81"/>
+      <c r="E38" s="81"/>
+      <c r="F38" s="81"/>
+      <c r="G38" s="81"/>
+      <c r="P38" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="Q38" s="79"/>
-      <c r="R38" s="79"/>
-      <c r="S38" s="79"/>
-      <c r="T38" s="79"/>
-      <c r="U38" s="79"/>
-      <c r="V38" s="79"/>
+      <c r="Q38" s="83"/>
+      <c r="R38" s="83"/>
+      <c r="S38" s="83"/>
+      <c r="T38" s="83"/>
+      <c r="U38" s="83"/>
+      <c r="V38" s="83"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C39" s="86"/>
-      <c r="D39" s="86"/>
-      <c r="E39" s="86"/>
-      <c r="F39" s="86"/>
-      <c r="G39" s="86"/>
-      <c r="P39" s="79"/>
-      <c r="Q39" s="79"/>
-      <c r="R39" s="79"/>
-      <c r="S39" s="79"/>
-      <c r="T39" s="79"/>
-      <c r="U39" s="79"/>
-      <c r="V39" s="79"/>
+      <c r="C39" s="82"/>
+      <c r="D39" s="82"/>
+      <c r="E39" s="82"/>
+      <c r="F39" s="82"/>
+      <c r="G39" s="82"/>
+      <c r="P39" s="83"/>
+      <c r="Q39" s="83"/>
+      <c r="R39" s="83"/>
+      <c r="S39" s="83"/>
+      <c r="T39" s="83"/>
+      <c r="U39" s="83"/>
+      <c r="V39" s="83"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A40" s="80" t="s">
+      <c r="A40" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="80"/>
-      <c r="C40" s="80"/>
-      <c r="D40" s="81" t="s">
+      <c r="B40" s="84"/>
+      <c r="C40" s="84"/>
+      <c r="D40" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="E40" s="81"/>
-      <c r="F40" s="81"/>
-      <c r="G40" s="81"/>
-      <c r="H40" s="87">
+      <c r="E40" s="85"/>
+      <c r="F40" s="85"/>
+      <c r="G40" s="85"/>
+      <c r="H40" s="86">
         <v>44972</v>
       </c>
-      <c r="I40" s="88"/>
-      <c r="J40" s="88"/>
-      <c r="M40" s="80" t="s">
+      <c r="I40" s="87"/>
+      <c r="J40" s="87"/>
+      <c r="M40" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="N40" s="80"/>
-      <c r="O40" s="80"/>
-      <c r="P40" s="81" t="s">
+      <c r="N40" s="84"/>
+      <c r="O40" s="84"/>
+      <c r="P40" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="Q40" s="81"/>
-      <c r="R40" s="81"/>
-      <c r="S40" s="81"/>
+      <c r="Q40" s="85"/>
+      <c r="R40" s="85"/>
+      <c r="S40" s="85"/>
       <c r="T40" s="18"/>
       <c r="U40" s="18"/>
-      <c r="V40" s="82">
+      <c r="V40" s="88">
         <v>44973</v>
       </c>
-      <c r="W40" s="83"/>
-      <c r="X40" s="84"/>
+      <c r="W40" s="89"/>
+      <c r="X40" s="90"/>
     </row>
     <row r="41" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
@@ -2761,72 +2764,72 @@
       <c r="X51" s="4"/>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C54" s="85" t="s">
+      <c r="C54" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="D54" s="85"/>
-      <c r="E54" s="85"/>
-      <c r="F54" s="85"/>
-      <c r="G54" s="85"/>
-      <c r="P54" s="79" t="s">
+      <c r="D54" s="81"/>
+      <c r="E54" s="81"/>
+      <c r="F54" s="81"/>
+      <c r="G54" s="81"/>
+      <c r="P54" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="Q54" s="79"/>
-      <c r="R54" s="79"/>
-      <c r="S54" s="79"/>
-      <c r="T54" s="79"/>
-      <c r="U54" s="79"/>
-      <c r="V54" s="79"/>
+      <c r="Q54" s="83"/>
+      <c r="R54" s="83"/>
+      <c r="S54" s="83"/>
+      <c r="T54" s="83"/>
+      <c r="U54" s="83"/>
+      <c r="V54" s="83"/>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C55" s="86"/>
-      <c r="D55" s="86"/>
-      <c r="E55" s="86"/>
-      <c r="F55" s="86"/>
-      <c r="G55" s="86"/>
-      <c r="P55" s="79"/>
-      <c r="Q55" s="79"/>
-      <c r="R55" s="79"/>
-      <c r="S55" s="79"/>
-      <c r="T55" s="79"/>
-      <c r="U55" s="79"/>
-      <c r="V55" s="79"/>
+      <c r="C55" s="82"/>
+      <c r="D55" s="82"/>
+      <c r="E55" s="82"/>
+      <c r="F55" s="82"/>
+      <c r="G55" s="82"/>
+      <c r="P55" s="83"/>
+      <c r="Q55" s="83"/>
+      <c r="R55" s="83"/>
+      <c r="S55" s="83"/>
+      <c r="T55" s="83"/>
+      <c r="U55" s="83"/>
+      <c r="V55" s="83"/>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A56" s="80" t="s">
+      <c r="A56" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="80"/>
-      <c r="C56" s="80"/>
-      <c r="D56" s="81" t="s">
+      <c r="B56" s="84"/>
+      <c r="C56" s="84"/>
+      <c r="D56" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="E56" s="81"/>
-      <c r="F56" s="81"/>
-      <c r="G56" s="81"/>
-      <c r="H56" s="87">
+      <c r="E56" s="85"/>
+      <c r="F56" s="85"/>
+      <c r="G56" s="85"/>
+      <c r="H56" s="86">
         <v>44974</v>
       </c>
-      <c r="I56" s="88"/>
-      <c r="J56" s="88"/>
-      <c r="M56" s="80" t="s">
+      <c r="I56" s="87"/>
+      <c r="J56" s="87"/>
+      <c r="M56" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="N56" s="80"/>
-      <c r="O56" s="80"/>
-      <c r="P56" s="81" t="s">
+      <c r="N56" s="84"/>
+      <c r="O56" s="84"/>
+      <c r="P56" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="Q56" s="81"/>
-      <c r="R56" s="81"/>
-      <c r="S56" s="81"/>
+      <c r="Q56" s="85"/>
+      <c r="R56" s="85"/>
+      <c r="S56" s="85"/>
       <c r="T56" s="18"/>
       <c r="U56" s="18"/>
-      <c r="V56" s="82">
+      <c r="V56" s="88">
         <v>44975</v>
       </c>
-      <c r="W56" s="83"/>
-      <c r="X56" s="84"/>
+      <c r="W56" s="89"/>
+      <c r="X56" s="90"/>
     </row>
     <row r="57" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
@@ -3281,72 +3284,72 @@
       <c r="X67" s="4"/>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C70" s="85" t="s">
+      <c r="C70" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="D70" s="85"/>
-      <c r="E70" s="85"/>
-      <c r="F70" s="85"/>
-      <c r="G70" s="85"/>
-      <c r="P70" s="79" t="s">
+      <c r="D70" s="81"/>
+      <c r="E70" s="81"/>
+      <c r="F70" s="81"/>
+      <c r="G70" s="81"/>
+      <c r="P70" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="Q70" s="79"/>
-      <c r="R70" s="79"/>
-      <c r="S70" s="79"/>
-      <c r="T70" s="79"/>
-      <c r="U70" s="79"/>
-      <c r="V70" s="79"/>
+      <c r="Q70" s="83"/>
+      <c r="R70" s="83"/>
+      <c r="S70" s="83"/>
+      <c r="T70" s="83"/>
+      <c r="U70" s="83"/>
+      <c r="V70" s="83"/>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C71" s="86"/>
-      <c r="D71" s="86"/>
-      <c r="E71" s="86"/>
-      <c r="F71" s="86"/>
-      <c r="G71" s="86"/>
-      <c r="P71" s="79"/>
-      <c r="Q71" s="79"/>
-      <c r="R71" s="79"/>
-      <c r="S71" s="79"/>
-      <c r="T71" s="79"/>
-      <c r="U71" s="79"/>
-      <c r="V71" s="79"/>
+      <c r="C71" s="82"/>
+      <c r="D71" s="82"/>
+      <c r="E71" s="82"/>
+      <c r="F71" s="82"/>
+      <c r="G71" s="82"/>
+      <c r="P71" s="83"/>
+      <c r="Q71" s="83"/>
+      <c r="R71" s="83"/>
+      <c r="S71" s="83"/>
+      <c r="T71" s="83"/>
+      <c r="U71" s="83"/>
+      <c r="V71" s="83"/>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A72" s="80" t="s">
+      <c r="A72" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B72" s="80"/>
-      <c r="C72" s="80"/>
-      <c r="D72" s="81" t="s">
+      <c r="B72" s="84"/>
+      <c r="C72" s="84"/>
+      <c r="D72" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="E72" s="81"/>
-      <c r="F72" s="81"/>
-      <c r="G72" s="81"/>
-      <c r="H72" s="87">
+      <c r="E72" s="85"/>
+      <c r="F72" s="85"/>
+      <c r="G72" s="85"/>
+      <c r="H72" s="86">
         <v>44979</v>
       </c>
-      <c r="I72" s="88"/>
-      <c r="J72" s="88"/>
-      <c r="M72" s="80" t="s">
+      <c r="I72" s="87"/>
+      <c r="J72" s="87"/>
+      <c r="M72" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="N72" s="80"/>
-      <c r="O72" s="80"/>
-      <c r="P72" s="81" t="s">
+      <c r="N72" s="84"/>
+      <c r="O72" s="84"/>
+      <c r="P72" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="Q72" s="81"/>
-      <c r="R72" s="81"/>
-      <c r="S72" s="81"/>
+      <c r="Q72" s="85"/>
+      <c r="R72" s="85"/>
+      <c r="S72" s="85"/>
       <c r="T72" s="18"/>
       <c r="U72" s="18"/>
-      <c r="V72" s="82">
+      <c r="V72" s="88">
         <v>44980</v>
       </c>
-      <c r="W72" s="83"/>
-      <c r="X72" s="84"/>
+      <c r="W72" s="89"/>
+      <c r="X72" s="90"/>
     </row>
     <row r="73" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
@@ -3717,72 +3720,72 @@
       <c r="X83" s="4"/>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C87" s="85" t="s">
+      <c r="C87" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="D87" s="85"/>
-      <c r="E87" s="85"/>
-      <c r="F87" s="85"/>
-      <c r="G87" s="85"/>
-      <c r="P87" s="79" t="s">
+      <c r="D87" s="81"/>
+      <c r="E87" s="81"/>
+      <c r="F87" s="81"/>
+      <c r="G87" s="81"/>
+      <c r="P87" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="Q87" s="79"/>
-      <c r="R87" s="79"/>
-      <c r="S87" s="79"/>
-      <c r="T87" s="79"/>
-      <c r="U87" s="79"/>
-      <c r="V87" s="79"/>
+      <c r="Q87" s="83"/>
+      <c r="R87" s="83"/>
+      <c r="S87" s="83"/>
+      <c r="T87" s="83"/>
+      <c r="U87" s="83"/>
+      <c r="V87" s="83"/>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C88" s="86"/>
-      <c r="D88" s="86"/>
-      <c r="E88" s="86"/>
-      <c r="F88" s="86"/>
-      <c r="G88" s="86"/>
-      <c r="P88" s="79"/>
-      <c r="Q88" s="79"/>
-      <c r="R88" s="79"/>
-      <c r="S88" s="79"/>
-      <c r="T88" s="79"/>
-      <c r="U88" s="79"/>
-      <c r="V88" s="79"/>
+      <c r="C88" s="82"/>
+      <c r="D88" s="82"/>
+      <c r="E88" s="82"/>
+      <c r="F88" s="82"/>
+      <c r="G88" s="82"/>
+      <c r="P88" s="83"/>
+      <c r="Q88" s="83"/>
+      <c r="R88" s="83"/>
+      <c r="S88" s="83"/>
+      <c r="T88" s="83"/>
+      <c r="U88" s="83"/>
+      <c r="V88" s="83"/>
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A89" s="80" t="s">
+      <c r="A89" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B89" s="80"/>
-      <c r="C89" s="80"/>
-      <c r="D89" s="81" t="s">
+      <c r="B89" s="84"/>
+      <c r="C89" s="84"/>
+      <c r="D89" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="E89" s="81"/>
-      <c r="F89" s="81"/>
-      <c r="G89" s="81"/>
-      <c r="H89" s="87">
+      <c r="E89" s="85"/>
+      <c r="F89" s="85"/>
+      <c r="G89" s="85"/>
+      <c r="H89" s="86">
         <v>44981</v>
       </c>
-      <c r="I89" s="88"/>
-      <c r="J89" s="88"/>
-      <c r="M89" s="80" t="s">
+      <c r="I89" s="87"/>
+      <c r="J89" s="87"/>
+      <c r="M89" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="N89" s="80"/>
-      <c r="O89" s="80"/>
-      <c r="P89" s="81" t="s">
+      <c r="N89" s="84"/>
+      <c r="O89" s="84"/>
+      <c r="P89" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="Q89" s="81"/>
-      <c r="R89" s="81"/>
-      <c r="S89" s="81"/>
+      <c r="Q89" s="85"/>
+      <c r="R89" s="85"/>
+      <c r="S89" s="85"/>
       <c r="T89" s="18"/>
       <c r="U89" s="18"/>
-      <c r="V89" s="82">
+      <c r="V89" s="88">
         <v>44980</v>
       </c>
-      <c r="W89" s="83"/>
-      <c r="X89" s="84"/>
+      <c r="W89" s="89"/>
+      <c r="X89" s="90"/>
     </row>
     <row r="90" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
@@ -4237,72 +4240,72 @@
       <c r="X100" s="4"/>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C104" s="85" t="s">
+      <c r="C104" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="D104" s="85"/>
-      <c r="E104" s="85"/>
-      <c r="F104" s="85"/>
-      <c r="G104" s="85"/>
-      <c r="P104" s="79" t="s">
+      <c r="D104" s="81"/>
+      <c r="E104" s="81"/>
+      <c r="F104" s="81"/>
+      <c r="G104" s="81"/>
+      <c r="P104" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="Q104" s="79"/>
-      <c r="R104" s="79"/>
-      <c r="S104" s="79"/>
-      <c r="T104" s="79"/>
-      <c r="U104" s="79"/>
-      <c r="V104" s="79"/>
+      <c r="Q104" s="83"/>
+      <c r="R104" s="83"/>
+      <c r="S104" s="83"/>
+      <c r="T104" s="83"/>
+      <c r="U104" s="83"/>
+      <c r="V104" s="83"/>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C105" s="86"/>
-      <c r="D105" s="86"/>
-      <c r="E105" s="86"/>
-      <c r="F105" s="86"/>
-      <c r="G105" s="86"/>
-      <c r="P105" s="79"/>
-      <c r="Q105" s="79"/>
-      <c r="R105" s="79"/>
-      <c r="S105" s="79"/>
-      <c r="T105" s="79"/>
-      <c r="U105" s="79"/>
-      <c r="V105" s="79"/>
+      <c r="C105" s="82"/>
+      <c r="D105" s="82"/>
+      <c r="E105" s="82"/>
+      <c r="F105" s="82"/>
+      <c r="G105" s="82"/>
+      <c r="P105" s="83"/>
+      <c r="Q105" s="83"/>
+      <c r="R105" s="83"/>
+      <c r="S105" s="83"/>
+      <c r="T105" s="83"/>
+      <c r="U105" s="83"/>
+      <c r="V105" s="83"/>
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A106" s="80" t="s">
+      <c r="A106" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B106" s="80"/>
-      <c r="C106" s="80"/>
-      <c r="D106" s="81" t="s">
+      <c r="B106" s="84"/>
+      <c r="C106" s="84"/>
+      <c r="D106" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="E106" s="81"/>
-      <c r="F106" s="81"/>
-      <c r="G106" s="81"/>
-      <c r="H106" s="87">
+      <c r="E106" s="85"/>
+      <c r="F106" s="85"/>
+      <c r="G106" s="85"/>
+      <c r="H106" s="86">
         <v>44979</v>
       </c>
-      <c r="I106" s="88"/>
-      <c r="J106" s="88"/>
-      <c r="M106" s="80" t="s">
+      <c r="I106" s="87"/>
+      <c r="J106" s="87"/>
+      <c r="M106" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="N106" s="80"/>
-      <c r="O106" s="80"/>
-      <c r="P106" s="81" t="s">
+      <c r="N106" s="84"/>
+      <c r="O106" s="84"/>
+      <c r="P106" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="Q106" s="81"/>
-      <c r="R106" s="81"/>
-      <c r="S106" s="81"/>
+      <c r="Q106" s="85"/>
+      <c r="R106" s="85"/>
+      <c r="S106" s="85"/>
       <c r="T106" s="18"/>
       <c r="U106" s="18"/>
-      <c r="V106" s="82" t="s">
+      <c r="V106" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="W106" s="83"/>
-      <c r="X106" s="84"/>
+      <c r="W106" s="89"/>
+      <c r="X106" s="90"/>
     </row>
     <row r="107" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
@@ -4800,6 +4803,54 @@
     <row r="124" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="P38:V39"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="P40:S40"/>
+    <mergeCell ref="V40:X40"/>
+    <mergeCell ref="C38:G39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="C22:G23"/>
+    <mergeCell ref="P22:V23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="C2:G3"/>
+    <mergeCell ref="P2:V3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="C54:G55"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="P54:V55"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="P56:S56"/>
+    <mergeCell ref="V56:X56"/>
+    <mergeCell ref="C70:G71"/>
+    <mergeCell ref="P70:V71"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="D72:G72"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="M72:O72"/>
+    <mergeCell ref="P72:S72"/>
+    <mergeCell ref="V72:X72"/>
+    <mergeCell ref="C87:G88"/>
+    <mergeCell ref="P87:V88"/>
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="D89:G89"/>
+    <mergeCell ref="H89:J89"/>
+    <mergeCell ref="M89:O89"/>
+    <mergeCell ref="P89:S89"/>
+    <mergeCell ref="V89:X89"/>
     <mergeCell ref="C104:G105"/>
     <mergeCell ref="P104:V105"/>
     <mergeCell ref="A106:C106"/>
@@ -4808,54 +4859,6 @@
     <mergeCell ref="M106:O106"/>
     <mergeCell ref="P106:S106"/>
     <mergeCell ref="V106:X106"/>
-    <mergeCell ref="C87:G88"/>
-    <mergeCell ref="P87:V88"/>
-    <mergeCell ref="A89:C89"/>
-    <mergeCell ref="D89:G89"/>
-    <mergeCell ref="H89:J89"/>
-    <mergeCell ref="M89:O89"/>
-    <mergeCell ref="P89:S89"/>
-    <mergeCell ref="V89:X89"/>
-    <mergeCell ref="C70:G71"/>
-    <mergeCell ref="P70:V71"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="D72:G72"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="M72:O72"/>
-    <mergeCell ref="P72:S72"/>
-    <mergeCell ref="V72:X72"/>
-    <mergeCell ref="C54:G55"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="P54:V55"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="P56:S56"/>
-    <mergeCell ref="V56:X56"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="C2:G3"/>
-    <mergeCell ref="P2:V3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="C22:G23"/>
-    <mergeCell ref="P22:V23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="P38:V39"/>
-    <mergeCell ref="M40:O40"/>
-    <mergeCell ref="P40:S40"/>
-    <mergeCell ref="V40:X40"/>
-    <mergeCell ref="C38:G39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="H40:J40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4863,12 +4866,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:Z247"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:Z252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M231" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z239" sqref="Z239"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="M247" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4887,72 +4888,72 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C2" s="85" t="s">
+      <c r="C2" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="P2" s="79" t="s">
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="P2" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="79"/>
-      <c r="T2" s="79"/>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="P3" s="79"/>
-      <c r="Q3" s="79"/>
-      <c r="R3" s="79"/>
-      <c r="S3" s="79"/>
-      <c r="T3" s="79"/>
-      <c r="U3" s="79"/>
-      <c r="V3" s="79"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="83"/>
+      <c r="R3" s="83"/>
+      <c r="S3" s="83"/>
+      <c r="T3" s="83"/>
+      <c r="U3" s="83"/>
+      <c r="V3" s="83"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="81" t="s">
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="87" t="s">
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="86" t="s">
         <v>74</v>
       </c>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="M4" s="80" t="s">
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="M4" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="80"/>
-      <c r="O4" s="80"/>
-      <c r="P4" s="81" t="s">
+      <c r="N4" s="84"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="81"/>
-      <c r="R4" s="81"/>
-      <c r="S4" s="81"/>
+      <c r="Q4" s="85"/>
+      <c r="R4" s="85"/>
+      <c r="S4" s="85"/>
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
-      <c r="V4" s="82">
+      <c r="V4" s="88">
         <v>44601</v>
       </c>
-      <c r="W4" s="83"/>
-      <c r="X4" s="84"/>
+      <c r="W4" s="89"/>
+      <c r="X4" s="90"/>
     </row>
     <row r="5" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -5419,72 +5420,72 @@
       <c r="X15" s="4"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C22" s="85" t="s">
+      <c r="C22" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="D22" s="85"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="85"/>
-      <c r="P22" s="79" t="s">
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="81"/>
+      <c r="P22" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="Q22" s="79"/>
-      <c r="R22" s="79"/>
-      <c r="S22" s="79"/>
-      <c r="T22" s="79"/>
-      <c r="U22" s="79"/>
-      <c r="V22" s="79"/>
+      <c r="Q22" s="83"/>
+      <c r="R22" s="83"/>
+      <c r="S22" s="83"/>
+      <c r="T22" s="83"/>
+      <c r="U22" s="83"/>
+      <c r="V22" s="83"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="P23" s="79"/>
-      <c r="Q23" s="79"/>
-      <c r="R23" s="79"/>
-      <c r="S23" s="79"/>
-      <c r="T23" s="79"/>
-      <c r="U23" s="79"/>
-      <c r="V23" s="79"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="82"/>
+      <c r="P23" s="83"/>
+      <c r="Q23" s="83"/>
+      <c r="R23" s="83"/>
+      <c r="S23" s="83"/>
+      <c r="T23" s="83"/>
+      <c r="U23" s="83"/>
+      <c r="V23" s="83"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="80" t="s">
+      <c r="A24" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="80"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="81" t="s">
+      <c r="B24" s="84"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="81"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="87">
+      <c r="E24" s="85"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="86">
         <v>44993</v>
       </c>
-      <c r="I24" s="88"/>
-      <c r="J24" s="88"/>
-      <c r="M24" s="80" t="s">
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
+      <c r="M24" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="N24" s="80"/>
-      <c r="O24" s="80"/>
-      <c r="P24" s="81" t="s">
+      <c r="N24" s="84"/>
+      <c r="O24" s="84"/>
+      <c r="P24" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="Q24" s="81"/>
-      <c r="R24" s="81"/>
-      <c r="S24" s="81"/>
+      <c r="Q24" s="85"/>
+      <c r="R24" s="85"/>
+      <c r="S24" s="85"/>
       <c r="T24" s="18"/>
       <c r="U24" s="18"/>
-      <c r="V24" s="82">
+      <c r="V24" s="88">
         <v>44993</v>
       </c>
-      <c r="W24" s="83"/>
-      <c r="X24" s="84"/>
+      <c r="W24" s="89"/>
+      <c r="X24" s="90"/>
     </row>
     <row r="25" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -5914,72 +5915,72 @@
       <c r="X34" s="4"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C37" s="85" t="s">
+      <c r="C37" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="D37" s="85"/>
-      <c r="E37" s="85"/>
-      <c r="F37" s="85"/>
-      <c r="G37" s="85"/>
-      <c r="P37" s="79" t="s">
+      <c r="D37" s="81"/>
+      <c r="E37" s="81"/>
+      <c r="F37" s="81"/>
+      <c r="G37" s="81"/>
+      <c r="P37" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="Q37" s="79"/>
-      <c r="R37" s="79"/>
-      <c r="S37" s="79"/>
-      <c r="T37" s="79"/>
-      <c r="U37" s="79"/>
-      <c r="V37" s="79"/>
+      <c r="Q37" s="83"/>
+      <c r="R37" s="83"/>
+      <c r="S37" s="83"/>
+      <c r="T37" s="83"/>
+      <c r="U37" s="83"/>
+      <c r="V37" s="83"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C38" s="86"/>
-      <c r="D38" s="86"/>
-      <c r="E38" s="86"/>
-      <c r="F38" s="86"/>
-      <c r="G38" s="86"/>
-      <c r="P38" s="79"/>
-      <c r="Q38" s="79"/>
-      <c r="R38" s="79"/>
-      <c r="S38" s="79"/>
-      <c r="T38" s="79"/>
-      <c r="U38" s="79"/>
-      <c r="V38" s="79"/>
+      <c r="C38" s="82"/>
+      <c r="D38" s="82"/>
+      <c r="E38" s="82"/>
+      <c r="F38" s="82"/>
+      <c r="G38" s="82"/>
+      <c r="P38" s="83"/>
+      <c r="Q38" s="83"/>
+      <c r="R38" s="83"/>
+      <c r="S38" s="83"/>
+      <c r="T38" s="83"/>
+      <c r="U38" s="83"/>
+      <c r="V38" s="83"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A39" s="80" t="s">
+      <c r="A39" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="80"/>
-      <c r="C39" s="80"/>
-      <c r="D39" s="81" t="s">
+      <c r="B39" s="84"/>
+      <c r="C39" s="84"/>
+      <c r="D39" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="81"/>
-      <c r="F39" s="81"/>
-      <c r="G39" s="81"/>
-      <c r="H39" s="87">
+      <c r="E39" s="85"/>
+      <c r="F39" s="85"/>
+      <c r="G39" s="85"/>
+      <c r="H39" s="86">
         <v>44972</v>
       </c>
-      <c r="I39" s="88"/>
-      <c r="J39" s="88"/>
-      <c r="M39" s="80" t="s">
+      <c r="I39" s="87"/>
+      <c r="J39" s="87"/>
+      <c r="M39" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="N39" s="80"/>
-      <c r="O39" s="80"/>
-      <c r="P39" s="81" t="s">
+      <c r="N39" s="84"/>
+      <c r="O39" s="84"/>
+      <c r="P39" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="Q39" s="81"/>
-      <c r="R39" s="81"/>
-      <c r="S39" s="81"/>
+      <c r="Q39" s="85"/>
+      <c r="R39" s="85"/>
+      <c r="S39" s="85"/>
       <c r="T39" s="18"/>
       <c r="U39" s="18"/>
-      <c r="V39" s="82">
+      <c r="V39" s="88">
         <v>44994</v>
       </c>
-      <c r="W39" s="83"/>
-      <c r="X39" s="84"/>
+      <c r="W39" s="89"/>
+      <c r="X39" s="90"/>
     </row>
     <row r="40" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
@@ -6390,72 +6391,72 @@
       <c r="X50" s="4"/>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C53" s="85">
+      <c r="C53" s="81">
         <v>45005</v>
       </c>
-      <c r="D53" s="85"/>
-      <c r="E53" s="85"/>
-      <c r="F53" s="85"/>
-      <c r="G53" s="85"/>
-      <c r="P53" s="85">
+      <c r="D53" s="81"/>
+      <c r="E53" s="81"/>
+      <c r="F53" s="81"/>
+      <c r="G53" s="81"/>
+      <c r="P53" s="81">
         <v>45006</v>
       </c>
-      <c r="Q53" s="85"/>
-      <c r="R53" s="85"/>
-      <c r="S53" s="85"/>
-      <c r="T53" s="85"/>
-      <c r="U53" s="85"/>
-      <c r="V53" s="85"/>
+      <c r="Q53" s="81"/>
+      <c r="R53" s="81"/>
+      <c r="S53" s="81"/>
+      <c r="T53" s="81"/>
+      <c r="U53" s="81"/>
+      <c r="V53" s="81"/>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C54" s="86"/>
-      <c r="D54" s="86"/>
-      <c r="E54" s="86"/>
-      <c r="F54" s="86"/>
-      <c r="G54" s="86"/>
-      <c r="P54" s="85"/>
-      <c r="Q54" s="85"/>
-      <c r="R54" s="85"/>
-      <c r="S54" s="85"/>
-      <c r="T54" s="85"/>
-      <c r="U54" s="85"/>
-      <c r="V54" s="85"/>
+      <c r="C54" s="82"/>
+      <c r="D54" s="82"/>
+      <c r="E54" s="82"/>
+      <c r="F54" s="82"/>
+      <c r="G54" s="82"/>
+      <c r="P54" s="81"/>
+      <c r="Q54" s="81"/>
+      <c r="R54" s="81"/>
+      <c r="S54" s="81"/>
+      <c r="T54" s="81"/>
+      <c r="U54" s="81"/>
+      <c r="V54" s="81"/>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A55" s="80" t="s">
+      <c r="A55" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="80"/>
-      <c r="C55" s="80"/>
-      <c r="D55" s="81" t="s">
+      <c r="B55" s="84"/>
+      <c r="C55" s="84"/>
+      <c r="D55" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="E55" s="81"/>
-      <c r="F55" s="81"/>
-      <c r="G55" s="81"/>
-      <c r="H55" s="87">
+      <c r="E55" s="85"/>
+      <c r="F55" s="85"/>
+      <c r="G55" s="85"/>
+      <c r="H55" s="86">
         <v>45005</v>
       </c>
-      <c r="I55" s="88"/>
-      <c r="J55" s="88"/>
-      <c r="M55" s="80" t="s">
+      <c r="I55" s="87"/>
+      <c r="J55" s="87"/>
+      <c r="M55" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="N55" s="80"/>
-      <c r="O55" s="80"/>
-      <c r="P55" s="81" t="s">
+      <c r="N55" s="84"/>
+      <c r="O55" s="84"/>
+      <c r="P55" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="Q55" s="81"/>
-      <c r="R55" s="81"/>
-      <c r="S55" s="81"/>
+      <c r="Q55" s="85"/>
+      <c r="R55" s="85"/>
+      <c r="S55" s="85"/>
       <c r="T55" s="18"/>
       <c r="U55" s="18"/>
-      <c r="V55" s="82">
+      <c r="V55" s="88">
         <v>45006</v>
       </c>
-      <c r="W55" s="83"/>
-      <c r="X55" s="84"/>
+      <c r="W55" s="89"/>
+      <c r="X55" s="90"/>
     </row>
     <row r="56" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
@@ -6854,72 +6855,72 @@
       <c r="X66" s="4"/>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C69" s="85" t="s">
+      <c r="C69" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="D69" s="85"/>
-      <c r="E69" s="85"/>
-      <c r="F69" s="85"/>
-      <c r="G69" s="85"/>
-      <c r="P69" s="79" t="s">
+      <c r="D69" s="81"/>
+      <c r="E69" s="81"/>
+      <c r="F69" s="81"/>
+      <c r="G69" s="81"/>
+      <c r="P69" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="Q69" s="79"/>
-      <c r="R69" s="79"/>
-      <c r="S69" s="79"/>
-      <c r="T69" s="79"/>
-      <c r="U69" s="79"/>
-      <c r="V69" s="79"/>
+      <c r="Q69" s="83"/>
+      <c r="R69" s="83"/>
+      <c r="S69" s="83"/>
+      <c r="T69" s="83"/>
+      <c r="U69" s="83"/>
+      <c r="V69" s="83"/>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C70" s="86"/>
-      <c r="D70" s="86"/>
-      <c r="E70" s="86"/>
-      <c r="F70" s="86"/>
-      <c r="G70" s="86"/>
-      <c r="P70" s="79"/>
-      <c r="Q70" s="79"/>
-      <c r="R70" s="79"/>
-      <c r="S70" s="79"/>
-      <c r="T70" s="79"/>
-      <c r="U70" s="79"/>
-      <c r="V70" s="79"/>
+      <c r="C70" s="82"/>
+      <c r="D70" s="82"/>
+      <c r="E70" s="82"/>
+      <c r="F70" s="82"/>
+      <c r="G70" s="82"/>
+      <c r="P70" s="83"/>
+      <c r="Q70" s="83"/>
+      <c r="R70" s="83"/>
+      <c r="S70" s="83"/>
+      <c r="T70" s="83"/>
+      <c r="U70" s="83"/>
+      <c r="V70" s="83"/>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A71" s="80" t="s">
+      <c r="A71" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B71" s="80"/>
-      <c r="C71" s="80"/>
-      <c r="D71" s="81" t="s">
+      <c r="B71" s="84"/>
+      <c r="C71" s="84"/>
+      <c r="D71" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="E71" s="81"/>
-      <c r="F71" s="81"/>
-      <c r="G71" s="81"/>
-      <c r="H71" s="87">
+      <c r="E71" s="85"/>
+      <c r="F71" s="85"/>
+      <c r="G71" s="85"/>
+      <c r="H71" s="86">
         <v>44979</v>
       </c>
-      <c r="I71" s="88"/>
-      <c r="J71" s="88"/>
-      <c r="M71" s="80" t="s">
+      <c r="I71" s="87"/>
+      <c r="J71" s="87"/>
+      <c r="M71" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="N71" s="80"/>
-      <c r="O71" s="80"/>
-      <c r="P71" s="81" t="s">
+      <c r="N71" s="84"/>
+      <c r="O71" s="84"/>
+      <c r="P71" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="Q71" s="81"/>
-      <c r="R71" s="81"/>
-      <c r="S71" s="81"/>
+      <c r="Q71" s="85"/>
+      <c r="R71" s="85"/>
+      <c r="S71" s="85"/>
       <c r="T71" s="18"/>
       <c r="U71" s="18"/>
-      <c r="V71" s="82">
+      <c r="V71" s="88">
         <v>44980</v>
       </c>
-      <c r="W71" s="83"/>
-      <c r="X71" s="84"/>
+      <c r="W71" s="89"/>
+      <c r="X71" s="90"/>
     </row>
     <row r="72" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
@@ -7322,72 +7323,72 @@
       <c r="X82" s="4"/>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C86" s="85" t="s">
+      <c r="C86" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="D86" s="85"/>
-      <c r="E86" s="85"/>
-      <c r="F86" s="85"/>
-      <c r="G86" s="85"/>
-      <c r="P86" s="79" t="s">
+      <c r="D86" s="81"/>
+      <c r="E86" s="81"/>
+      <c r="F86" s="81"/>
+      <c r="G86" s="81"/>
+      <c r="P86" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="Q86" s="79"/>
-      <c r="R86" s="79"/>
-      <c r="S86" s="79"/>
-      <c r="T86" s="79"/>
-      <c r="U86" s="79"/>
-      <c r="V86" s="79"/>
+      <c r="Q86" s="83"/>
+      <c r="R86" s="83"/>
+      <c r="S86" s="83"/>
+      <c r="T86" s="83"/>
+      <c r="U86" s="83"/>
+      <c r="V86" s="83"/>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C87" s="86"/>
-      <c r="D87" s="86"/>
-      <c r="E87" s="86"/>
-      <c r="F87" s="86"/>
-      <c r="G87" s="86"/>
-      <c r="P87" s="79"/>
-      <c r="Q87" s="79"/>
-      <c r="R87" s="79"/>
-      <c r="S87" s="79"/>
-      <c r="T87" s="79"/>
-      <c r="U87" s="79"/>
-      <c r="V87" s="79"/>
+      <c r="C87" s="82"/>
+      <c r="D87" s="82"/>
+      <c r="E87" s="82"/>
+      <c r="F87" s="82"/>
+      <c r="G87" s="82"/>
+      <c r="P87" s="83"/>
+      <c r="Q87" s="83"/>
+      <c r="R87" s="83"/>
+      <c r="S87" s="83"/>
+      <c r="T87" s="83"/>
+      <c r="U87" s="83"/>
+      <c r="V87" s="83"/>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A88" s="80" t="s">
+      <c r="A88" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B88" s="80"/>
-      <c r="C88" s="80"/>
-      <c r="D88" s="81" t="s">
+      <c r="B88" s="84"/>
+      <c r="C88" s="84"/>
+      <c r="D88" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="E88" s="81"/>
-      <c r="F88" s="81"/>
-      <c r="G88" s="81"/>
-      <c r="H88" s="87">
+      <c r="E88" s="85"/>
+      <c r="F88" s="85"/>
+      <c r="G88" s="85"/>
+      <c r="H88" s="86">
         <v>44981</v>
       </c>
-      <c r="I88" s="88"/>
-      <c r="J88" s="88"/>
-      <c r="M88" s="80" t="s">
+      <c r="I88" s="87"/>
+      <c r="J88" s="87"/>
+      <c r="M88" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="N88" s="80"/>
-      <c r="O88" s="80"/>
-      <c r="P88" s="81" t="s">
+      <c r="N88" s="84"/>
+      <c r="O88" s="84"/>
+      <c r="P88" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="Q88" s="81"/>
-      <c r="R88" s="81"/>
-      <c r="S88" s="81"/>
+      <c r="Q88" s="85"/>
+      <c r="R88" s="85"/>
+      <c r="S88" s="85"/>
       <c r="T88" s="18"/>
       <c r="U88" s="18"/>
-      <c r="V88" s="82">
+      <c r="V88" s="88">
         <v>44980</v>
       </c>
-      <c r="W88" s="83"/>
-      <c r="X88" s="84"/>
+      <c r="W88" s="89"/>
+      <c r="X88" s="90"/>
     </row>
     <row r="89" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
@@ -7722,73 +7723,72 @@
       <c r="X99" s="4"/>
     </row>
     <row r="103" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C103" s="85" t="s">
+      <c r="C103" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="D103" s="85"/>
-      <c r="E103" s="85"/>
-      <c r="F103" s="85"/>
-      <c r="G103" s="85"/>
-      <c r="P103" s="79" t="s">
+      <c r="D103" s="81"/>
+      <c r="E103" s="81"/>
+      <c r="F103" s="81"/>
+      <c r="G103" s="81"/>
+      <c r="P103" s="83" t="s">
         <v>90</v>
       </c>
-      <c r="Q103" s="79"/>
-      <c r="R103" s="79"/>
-      <c r="S103" s="79"/>
-      <c r="T103" s="79"/>
-      <c r="U103" s="79"/>
-      <c r="V103" s="79"/>
+      <c r="Q103" s="83"/>
+      <c r="R103" s="83"/>
+      <c r="S103" s="83"/>
+      <c r="T103" s="83"/>
+      <c r="U103" s="83"/>
+      <c r="V103" s="83"/>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C104" s="86"/>
-      <c r="D104" s="86"/>
-      <c r="E104" s="86"/>
-      <c r="F104" s="86"/>
-      <c r="G104" s="86"/>
-      <c r="P104" s="79"/>
-      <c r="Q104" s="79"/>
-      <c r="R104" s="79"/>
-      <c r="S104" s="79"/>
-      <c r="T104" s="79"/>
-      <c r="U104" s="79"/>
-      <c r="V104" s="79"/>
+      <c r="C104" s="82"/>
+      <c r="D104" s="82"/>
+      <c r="E104" s="82"/>
+      <c r="F104" s="82"/>
+      <c r="G104" s="82"/>
+      <c r="P104" s="83"/>
+      <c r="Q104" s="83"/>
+      <c r="R104" s="83"/>
+      <c r="S104" s="83"/>
+      <c r="T104" s="83"/>
+      <c r="U104" s="83"/>
+      <c r="V104" s="83"/>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A105" s="80" t="s">
+      <c r="A105" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B105" s="80"/>
-      <c r="C105" s="80"/>
-      <c r="D105" s="81" t="s">
+      <c r="B105" s="84"/>
+      <c r="C105" s="84"/>
+      <c r="D105" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="E105" s="81"/>
-      <c r="F105" s="81"/>
-      <c r="G105" s="81"/>
-      <c r="H105" s="87">
+      <c r="E105" s="85"/>
+      <c r="F105" s="85"/>
+      <c r="G105" s="85"/>
+      <c r="H105" s="86">
         <v>44979</v>
       </c>
-      <c r="I105" s="88"/>
-      <c r="J105" s="88"/>
-      <c r="M105" s="80" t="s">
+      <c r="I105" s="87"/>
+      <c r="J105" s="87"/>
+      <c r="M105" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="N105" s="80"/>
-      <c r="O105" s="80"/>
-      <c r="P105" s="81" t="s">
+      <c r="N105" s="84"/>
+      <c r="O105" s="84"/>
+      <c r="P105" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="Q105" s="81"/>
-      <c r="R105" s="81"/>
-      <c r="S105" s="81"/>
+      <c r="Q105" s="85"/>
+      <c r="R105" s="85"/>
+      <c r="S105" s="85"/>
       <c r="T105" s="18"/>
       <c r="U105" s="18"/>
-      <c r="V105" s="82" t="e">
-        <f>FECHANUMERO</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W105" s="83"/>
-      <c r="X105" s="84"/>
+      <c r="V105" s="88">
+        <v>45012</v>
+      </c>
+      <c r="W105" s="89"/>
+      <c r="X105" s="90"/>
     </row>
     <row r="106" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
@@ -8239,73 +8239,73 @@
       <c r="X116" s="4"/>
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C121" s="85" t="s">
+      <c r="C121" s="81" t="s">
         <v>95</v>
       </c>
-      <c r="D121" s="85"/>
-      <c r="E121" s="85"/>
-      <c r="F121" s="85"/>
-      <c r="G121" s="85"/>
-      <c r="P121" s="79" t="s">
+      <c r="D121" s="81"/>
+      <c r="E121" s="81"/>
+      <c r="F121" s="81"/>
+      <c r="G121" s="81"/>
+      <c r="P121" s="83" t="s">
         <v>96</v>
       </c>
-      <c r="Q121" s="79"/>
-      <c r="R121" s="79"/>
-      <c r="S121" s="79"/>
-      <c r="T121" s="79"/>
-      <c r="U121" s="79"/>
-      <c r="V121" s="79"/>
+      <c r="Q121" s="83"/>
+      <c r="R121" s="83"/>
+      <c r="S121" s="83"/>
+      <c r="T121" s="83"/>
+      <c r="U121" s="83"/>
+      <c r="V121" s="83"/>
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C122" s="86"/>
-      <c r="D122" s="86"/>
-      <c r="E122" s="86"/>
-      <c r="F122" s="86"/>
-      <c r="G122" s="86"/>
-      <c r="P122" s="79"/>
-      <c r="Q122" s="79"/>
-      <c r="R122" s="79"/>
-      <c r="S122" s="79"/>
-      <c r="T122" s="79"/>
-      <c r="U122" s="79"/>
-      <c r="V122" s="79"/>
+      <c r="C122" s="82"/>
+      <c r="D122" s="82"/>
+      <c r="E122" s="82"/>
+      <c r="F122" s="82"/>
+      <c r="G122" s="82"/>
+      <c r="P122" s="83"/>
+      <c r="Q122" s="83"/>
+      <c r="R122" s="83"/>
+      <c r="S122" s="83"/>
+      <c r="T122" s="83"/>
+      <c r="U122" s="83"/>
+      <c r="V122" s="83"/>
     </row>
     <row r="123" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="80" t="s">
+      <c r="A123" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B123" s="80"/>
-      <c r="C123" s="80"/>
-      <c r="D123" s="81" t="s">
+      <c r="B123" s="84"/>
+      <c r="C123" s="84"/>
+      <c r="D123" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="E123" s="81"/>
-      <c r="F123" s="81"/>
-      <c r="G123" s="81"/>
-      <c r="H123" s="87">
+      <c r="E123" s="85"/>
+      <c r="F123" s="85"/>
+      <c r="G123" s="85"/>
+      <c r="H123" s="86">
         <v>44979</v>
       </c>
-      <c r="I123" s="88"/>
-      <c r="J123" s="88"/>
-      <c r="M123" s="80" t="s">
+      <c r="I123" s="87"/>
+      <c r="J123" s="87"/>
+      <c r="M123" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="N123" s="80"/>
-      <c r="O123" s="80"/>
-      <c r="P123" s="81" t="s">
+      <c r="N123" s="84"/>
+      <c r="O123" s="84"/>
+      <c r="P123" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="Q123" s="81"/>
-      <c r="R123" s="81"/>
-      <c r="S123" s="81"/>
+      <c r="Q123" s="85"/>
+      <c r="R123" s="85"/>
+      <c r="S123" s="85"/>
       <c r="T123" s="18"/>
       <c r="U123" s="18"/>
-      <c r="V123" s="82" t="e">
+      <c r="V123" s="88" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W123" s="83"/>
-      <c r="X123" s="84"/>
+      <c r="W123" s="89"/>
+      <c r="X123" s="90"/>
     </row>
     <row r="124" spans="1:26" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
@@ -8820,45 +8820,45 @@
       <c r="X134" s="4"/>
     </row>
     <row r="138" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="P138" s="79" t="s">
+      <c r="P138" s="83" t="s">
         <v>97</v>
       </c>
-      <c r="Q138" s="79"/>
-      <c r="R138" s="79"/>
-      <c r="S138" s="79"/>
-      <c r="T138" s="79"/>
-      <c r="U138" s="79"/>
-      <c r="V138" s="79"/>
+      <c r="Q138" s="83"/>
+      <c r="R138" s="83"/>
+      <c r="S138" s="83"/>
+      <c r="T138" s="83"/>
+      <c r="U138" s="83"/>
+      <c r="V138" s="83"/>
     </row>
     <row r="139" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="P139" s="79"/>
-      <c r="Q139" s="79"/>
-      <c r="R139" s="79"/>
-      <c r="S139" s="79"/>
-      <c r="T139" s="79"/>
-      <c r="U139" s="79"/>
-      <c r="V139" s="79"/>
+      <c r="P139" s="83"/>
+      <c r="Q139" s="83"/>
+      <c r="R139" s="83"/>
+      <c r="S139" s="83"/>
+      <c r="T139" s="83"/>
+      <c r="U139" s="83"/>
+      <c r="V139" s="83"/>
     </row>
     <row r="140" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="M140" s="80" t="s">
+      <c r="M140" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="N140" s="80"/>
-      <c r="O140" s="80"/>
-      <c r="P140" s="81" t="s">
+      <c r="N140" s="84"/>
+      <c r="O140" s="84"/>
+      <c r="P140" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="Q140" s="81"/>
-      <c r="R140" s="81"/>
-      <c r="S140" s="81"/>
+      <c r="Q140" s="85"/>
+      <c r="R140" s="85"/>
+      <c r="S140" s="85"/>
       <c r="T140" s="18"/>
       <c r="U140" s="18"/>
-      <c r="V140" s="82" t="e">
+      <c r="V140" s="88" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W140" s="83"/>
-      <c r="X140" s="84"/>
+      <c r="W140" s="89"/>
+      <c r="X140" s="90"/>
     </row>
     <row r="141" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M141" s="6" t="s">
@@ -9123,45 +9123,45 @@
       <c r="S152" s="64"/>
     </row>
     <row r="153" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P153" s="79" t="s">
+      <c r="P153" s="83" t="s">
         <v>102</v>
       </c>
-      <c r="Q153" s="79"/>
-      <c r="R153" s="79"/>
-      <c r="S153" s="79"/>
-      <c r="T153" s="79"/>
-      <c r="U153" s="79"/>
-      <c r="V153" s="79"/>
+      <c r="Q153" s="83"/>
+      <c r="R153" s="83"/>
+      <c r="S153" s="83"/>
+      <c r="T153" s="83"/>
+      <c r="U153" s="83"/>
+      <c r="V153" s="83"/>
     </row>
     <row r="154" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P154" s="79"/>
-      <c r="Q154" s="79"/>
-      <c r="R154" s="79"/>
-      <c r="S154" s="79"/>
-      <c r="T154" s="79"/>
-      <c r="U154" s="79"/>
-      <c r="V154" s="79"/>
+      <c r="P154" s="83"/>
+      <c r="Q154" s="83"/>
+      <c r="R154" s="83"/>
+      <c r="S154" s="83"/>
+      <c r="T154" s="83"/>
+      <c r="U154" s="83"/>
+      <c r="V154" s="83"/>
     </row>
     <row r="155" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M155" s="80" t="s">
+      <c r="M155" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="N155" s="80"/>
-      <c r="O155" s="80"/>
-      <c r="P155" s="81" t="s">
+      <c r="N155" s="84"/>
+      <c r="O155" s="84"/>
+      <c r="P155" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="Q155" s="81"/>
-      <c r="R155" s="81"/>
-      <c r="S155" s="81"/>
+      <c r="Q155" s="85"/>
+      <c r="R155" s="85"/>
+      <c r="S155" s="85"/>
       <c r="T155" s="18"/>
       <c r="U155" s="18"/>
-      <c r="V155" s="82" t="e">
+      <c r="V155" s="88" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W155" s="83"/>
-      <c r="X155" s="84"/>
+      <c r="W155" s="89"/>
+      <c r="X155" s="90"/>
     </row>
     <row r="156" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M156" s="6" t="s">
@@ -9425,45 +9425,45 @@
       <c r="X166" s="4"/>
     </row>
     <row r="168" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P168" s="79" t="s">
+      <c r="P168" s="83" t="s">
         <v>100</v>
       </c>
-      <c r="Q168" s="79"/>
-      <c r="R168" s="79"/>
-      <c r="S168" s="79"/>
-      <c r="T168" s="79"/>
-      <c r="U168" s="79"/>
-      <c r="V168" s="79"/>
+      <c r="Q168" s="83"/>
+      <c r="R168" s="83"/>
+      <c r="S168" s="83"/>
+      <c r="T168" s="83"/>
+      <c r="U168" s="83"/>
+      <c r="V168" s="83"/>
     </row>
     <row r="169" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P169" s="79"/>
-      <c r="Q169" s="79"/>
-      <c r="R169" s="79"/>
-      <c r="S169" s="79"/>
-      <c r="T169" s="79"/>
-      <c r="U169" s="79"/>
-      <c r="V169" s="79"/>
+      <c r="P169" s="83"/>
+      <c r="Q169" s="83"/>
+      <c r="R169" s="83"/>
+      <c r="S169" s="83"/>
+      <c r="T169" s="83"/>
+      <c r="U169" s="83"/>
+      <c r="V169" s="83"/>
     </row>
     <row r="170" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M170" s="80" t="s">
+      <c r="M170" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="N170" s="80"/>
-      <c r="O170" s="80"/>
-      <c r="P170" s="81" t="s">
+      <c r="N170" s="84"/>
+      <c r="O170" s="84"/>
+      <c r="P170" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="Q170" s="81"/>
-      <c r="R170" s="81"/>
-      <c r="S170" s="81"/>
+      <c r="Q170" s="85"/>
+      <c r="R170" s="85"/>
+      <c r="S170" s="85"/>
       <c r="T170" s="18"/>
       <c r="U170" s="18"/>
-      <c r="V170" s="82" t="e">
+      <c r="V170" s="88" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W170" s="83"/>
-      <c r="X170" s="84"/>
+      <c r="W170" s="89"/>
+      <c r="X170" s="90"/>
     </row>
     <row r="171" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M171" s="6" t="s">
@@ -9668,45 +9668,45 @@
       <c r="X181" s="4"/>
     </row>
     <row r="186" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P186" s="79" t="s">
+      <c r="P186" s="83" t="s">
         <v>104</v>
       </c>
-      <c r="Q186" s="79"/>
-      <c r="R186" s="79"/>
-      <c r="S186" s="79"/>
-      <c r="T186" s="79"/>
-      <c r="U186" s="79"/>
-      <c r="V186" s="79"/>
+      <c r="Q186" s="83"/>
+      <c r="R186" s="83"/>
+      <c r="S186" s="83"/>
+      <c r="T186" s="83"/>
+      <c r="U186" s="83"/>
+      <c r="V186" s="83"/>
     </row>
     <row r="187" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P187" s="79"/>
-      <c r="Q187" s="79"/>
-      <c r="R187" s="79"/>
-      <c r="S187" s="79"/>
-      <c r="T187" s="79"/>
-      <c r="U187" s="79"/>
-      <c r="V187" s="79"/>
+      <c r="P187" s="83"/>
+      <c r="Q187" s="83"/>
+      <c r="R187" s="83"/>
+      <c r="S187" s="83"/>
+      <c r="T187" s="83"/>
+      <c r="U187" s="83"/>
+      <c r="V187" s="83"/>
     </row>
     <row r="188" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M188" s="80" t="s">
+      <c r="M188" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="N188" s="80"/>
-      <c r="O188" s="80"/>
-      <c r="P188" s="81" t="s">
+      <c r="N188" s="84"/>
+      <c r="O188" s="84"/>
+      <c r="P188" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="Q188" s="81"/>
-      <c r="R188" s="81"/>
-      <c r="S188" s="81"/>
+      <c r="Q188" s="85"/>
+      <c r="R188" s="85"/>
+      <c r="S188" s="85"/>
       <c r="T188" s="18"/>
       <c r="U188" s="18"/>
-      <c r="V188" s="82" t="e">
+      <c r="V188" s="88" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W188" s="83"/>
-      <c r="X188" s="84"/>
+      <c r="W188" s="89"/>
+      <c r="X188" s="90"/>
     </row>
     <row r="189" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M189" s="6" t="s">
@@ -9876,24 +9876,24 @@
       <c r="X194" s="15"/>
     </row>
     <row r="198" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P198" s="79" t="s">
+      <c r="P198" s="83" t="s">
         <v>109</v>
       </c>
-      <c r="Q198" s="79"/>
-      <c r="R198" s="79"/>
-      <c r="S198" s="79"/>
-      <c r="T198" s="79"/>
-      <c r="U198" s="79"/>
-      <c r="V198" s="79"/>
+      <c r="Q198" s="83"/>
+      <c r="R198" s="83"/>
+      <c r="S198" s="83"/>
+      <c r="T198" s="83"/>
+      <c r="U198" s="83"/>
+      <c r="V198" s="83"/>
     </row>
     <row r="199" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P199" s="79"/>
-      <c r="Q199" s="79"/>
-      <c r="R199" s="79"/>
-      <c r="S199" s="79"/>
-      <c r="T199" s="79"/>
-      <c r="U199" s="79"/>
-      <c r="V199" s="79"/>
+      <c r="P199" s="83"/>
+      <c r="Q199" s="83"/>
+      <c r="R199" s="83"/>
+      <c r="S199" s="83"/>
+      <c r="T199" s="83"/>
+      <c r="U199" s="83"/>
+      <c r="V199" s="83"/>
     </row>
     <row r="200" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M200" s="70" t="s">
@@ -10068,24 +10068,24 @@
       </c>
     </row>
     <row r="209" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P209" s="79" t="s">
+      <c r="P209" s="83" t="s">
         <v>113</v>
       </c>
-      <c r="Q209" s="79"/>
-      <c r="R209" s="79"/>
-      <c r="S209" s="79"/>
-      <c r="T209" s="79"/>
-      <c r="U209" s="79"/>
-      <c r="V209" s="79"/>
+      <c r="Q209" s="83"/>
+      <c r="R209" s="83"/>
+      <c r="S209" s="83"/>
+      <c r="T209" s="83"/>
+      <c r="U209" s="83"/>
+      <c r="V209" s="83"/>
     </row>
     <row r="210" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P210" s="79"/>
-      <c r="Q210" s="79"/>
-      <c r="R210" s="79"/>
-      <c r="S210" s="79"/>
-      <c r="T210" s="79"/>
-      <c r="U210" s="79"/>
-      <c r="V210" s="79"/>
+      <c r="P210" s="83"/>
+      <c r="Q210" s="83"/>
+      <c r="R210" s="83"/>
+      <c r="S210" s="83"/>
+      <c r="T210" s="83"/>
+      <c r="U210" s="83"/>
+      <c r="V210" s="83"/>
     </row>
     <row r="211" spans="13:26" ht="36" x14ac:dyDescent="0.25">
       <c r="M211" s="70" t="s">
@@ -10237,24 +10237,24 @@
       </c>
     </row>
     <row r="218" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P218" s="79" t="s">
+      <c r="P218" s="83" t="s">
         <v>114</v>
       </c>
-      <c r="Q218" s="79"/>
-      <c r="R218" s="79"/>
-      <c r="S218" s="79"/>
-      <c r="T218" s="79"/>
-      <c r="U218" s="79"/>
-      <c r="V218" s="79"/>
+      <c r="Q218" s="83"/>
+      <c r="R218" s="83"/>
+      <c r="S218" s="83"/>
+      <c r="T218" s="83"/>
+      <c r="U218" s="83"/>
+      <c r="V218" s="83"/>
     </row>
     <row r="219" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P219" s="79"/>
-      <c r="Q219" s="79"/>
-      <c r="R219" s="79"/>
-      <c r="S219" s="79"/>
-      <c r="T219" s="79"/>
-      <c r="U219" s="79"/>
-      <c r="V219" s="79"/>
+      <c r="P219" s="83"/>
+      <c r="Q219" s="83"/>
+      <c r="R219" s="83"/>
+      <c r="S219" s="83"/>
+      <c r="T219" s="83"/>
+      <c r="U219" s="83"/>
+      <c r="V219" s="83"/>
     </row>
     <row r="220" spans="13:26" ht="36" x14ac:dyDescent="0.25">
       <c r="M220" s="70" t="s">
@@ -10511,24 +10511,24 @@
       </c>
     </row>
     <row r="230" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P230" s="79" t="s">
+      <c r="P230" s="83" t="s">
         <v>116</v>
       </c>
-      <c r="Q230" s="79"/>
-      <c r="R230" s="79"/>
-      <c r="S230" s="79"/>
-      <c r="T230" s="79"/>
-      <c r="U230" s="79"/>
-      <c r="V230" s="79"/>
+      <c r="Q230" s="83"/>
+      <c r="R230" s="83"/>
+      <c r="S230" s="83"/>
+      <c r="T230" s="83"/>
+      <c r="U230" s="83"/>
+      <c r="V230" s="83"/>
     </row>
     <row r="231" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P231" s="79"/>
-      <c r="Q231" s="79"/>
-      <c r="R231" s="79"/>
-      <c r="S231" s="79"/>
-      <c r="T231" s="79"/>
-      <c r="U231" s="79"/>
-      <c r="V231" s="79"/>
+      <c r="P231" s="83"/>
+      <c r="Q231" s="83"/>
+      <c r="R231" s="83"/>
+      <c r="S231" s="83"/>
+      <c r="T231" s="83"/>
+      <c r="U231" s="83"/>
+      <c r="V231" s="83"/>
     </row>
     <row r="232" spans="13:26" ht="36" x14ac:dyDescent="0.25">
       <c r="M232" s="70" t="s">
@@ -10691,24 +10691,24 @@
       </c>
     </row>
     <row r="240" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P240" s="79" t="s">
+      <c r="P240" s="83" t="s">
         <v>118</v>
       </c>
-      <c r="Q240" s="79"/>
-      <c r="R240" s="79"/>
-      <c r="S240" s="79"/>
-      <c r="T240" s="79"/>
-      <c r="U240" s="79"/>
-      <c r="V240" s="79"/>
+      <c r="Q240" s="83"/>
+      <c r="R240" s="83"/>
+      <c r="S240" s="83"/>
+      <c r="T240" s="83"/>
+      <c r="U240" s="83"/>
+      <c r="V240" s="83"/>
     </row>
     <row r="241" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P241" s="79"/>
-      <c r="Q241" s="79"/>
-      <c r="R241" s="79"/>
-      <c r="S241" s="79"/>
-      <c r="T241" s="79"/>
-      <c r="U241" s="79"/>
-      <c r="V241" s="79"/>
+      <c r="P241" s="83"/>
+      <c r="Q241" s="83"/>
+      <c r="R241" s="83"/>
+      <c r="S241" s="83"/>
+      <c r="T241" s="83"/>
+      <c r="U241" s="83"/>
+      <c r="V241" s="83"/>
     </row>
     <row r="242" spans="13:26" ht="36" x14ac:dyDescent="0.25">
       <c r="M242" s="70" t="s">
@@ -10724,12 +10724,11 @@
       <c r="S242" s="71"/>
       <c r="T242" s="18"/>
       <c r="U242" s="18"/>
-      <c r="V242" s="72" t="e">
-        <f>FECHANUMERO</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W242" s="73"/>
-      <c r="X242" s="74"/>
+      <c r="V242" s="88">
+        <v>45082</v>
+      </c>
+      <c r="W242" s="89"/>
+      <c r="X242" s="90"/>
     </row>
     <row r="243" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M243" s="6" t="s">
@@ -10789,8 +10788,8 @@
       <c r="R244" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="S244" s="20" t="s">
-        <v>9</v>
+      <c r="S244" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="T244" s="43">
         <v>0.39583333333333331</v>
@@ -10801,8 +10800,12 @@
       <c r="V244" s="34">
         <v>0.41388888888888892</v>
       </c>
-      <c r="W244" s="34"/>
-      <c r="X244" s="35"/>
+      <c r="W244" s="34">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="X244" s="35">
+        <v>0.53680555555555554</v>
+      </c>
       <c r="Z244" s="8" t="s">
         <v>8</v>
       </c>
@@ -10834,23 +10837,174 @@
         <v>28</v>
       </c>
     </row>
+    <row r="248" spans="13:26" x14ac:dyDescent="0.25">
+      <c r="P248" s="83" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q248" s="83"/>
+      <c r="R248" s="83"/>
+      <c r="S248" s="83"/>
+      <c r="T248" s="83"/>
+      <c r="U248" s="83"/>
+      <c r="V248" s="83"/>
+    </row>
+    <row r="249" spans="13:26" x14ac:dyDescent="0.25">
+      <c r="P249" s="83"/>
+      <c r="Q249" s="83"/>
+      <c r="R249" s="83"/>
+      <c r="S249" s="83"/>
+      <c r="T249" s="83"/>
+      <c r="U249" s="83"/>
+      <c r="V249" s="83"/>
+    </row>
+    <row r="250" spans="13:26" ht="36" x14ac:dyDescent="0.25">
+      <c r="M250" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="N250" s="79"/>
+      <c r="O250" s="79"/>
+      <c r="P250" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q250" s="80"/>
+      <c r="R250" s="80"/>
+      <c r="S250" s="80"/>
+      <c r="T250" s="18"/>
+      <c r="U250" s="18"/>
+      <c r="V250" s="88">
+        <v>45083</v>
+      </c>
+      <c r="W250" s="89"/>
+      <c r="X250" s="90"/>
+    </row>
+    <row r="251" spans="13:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="M251" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N251" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O251" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P251" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q251" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="R251" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="S251" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="T251" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="U251" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="V251" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="W251" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="X251" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="252" spans="13:26" x14ac:dyDescent="0.25">
+      <c r="M252" s="47"/>
+      <c r="N252" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="O252" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="P252" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q252" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="R252" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="S252" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="T252" s="43">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="U252" s="33">
+        <v>0.29791666666666666</v>
+      </c>
+      <c r="V252" s="34">
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="W252" s="34"/>
+      <c r="X252" s="35"/>
+    </row>
   </sheetData>
-  <mergeCells count="85">
-    <mergeCell ref="P240:V241"/>
-    <mergeCell ref="P218:V219"/>
-    <mergeCell ref="P198:V199"/>
-    <mergeCell ref="P186:V187"/>
-    <mergeCell ref="M188:O188"/>
-    <mergeCell ref="P188:S188"/>
-    <mergeCell ref="V188:X188"/>
-    <mergeCell ref="P209:V210"/>
-    <mergeCell ref="P168:V169"/>
-    <mergeCell ref="M170:O170"/>
-    <mergeCell ref="P170:S170"/>
-    <mergeCell ref="V170:X170"/>
-    <mergeCell ref="M155:O155"/>
-    <mergeCell ref="P155:S155"/>
-    <mergeCell ref="V155:X155"/>
+  <mergeCells count="88">
+    <mergeCell ref="P248:V249"/>
+    <mergeCell ref="V250:X250"/>
+    <mergeCell ref="V242:X242"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="P55:S55"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="D71:G71"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="M71:O71"/>
+    <mergeCell ref="P71:S71"/>
+    <mergeCell ref="C37:G38"/>
+    <mergeCell ref="P37:V38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="P39:S39"/>
+    <mergeCell ref="V39:X39"/>
+    <mergeCell ref="V71:X71"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="C53:G54"/>
+    <mergeCell ref="P53:V54"/>
+    <mergeCell ref="V55:X55"/>
+    <mergeCell ref="C69:G70"/>
+    <mergeCell ref="P69:V70"/>
+    <mergeCell ref="C22:G23"/>
+    <mergeCell ref="P22:V23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="C2:G3"/>
+    <mergeCell ref="P2:V3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="P121:V122"/>
+    <mergeCell ref="V123:X123"/>
+    <mergeCell ref="M123:O123"/>
+    <mergeCell ref="P123:S123"/>
+    <mergeCell ref="P138:V139"/>
+    <mergeCell ref="C86:G87"/>
+    <mergeCell ref="P86:V87"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="D88:G88"/>
+    <mergeCell ref="H88:J88"/>
+    <mergeCell ref="M88:O88"/>
+    <mergeCell ref="P88:S88"/>
+    <mergeCell ref="V88:X88"/>
     <mergeCell ref="P153:V154"/>
     <mergeCell ref="C103:G104"/>
     <mergeCell ref="P103:V104"/>
@@ -10867,60 +11021,22 @@
     <mergeCell ref="M140:O140"/>
     <mergeCell ref="P140:S140"/>
     <mergeCell ref="V140:X140"/>
-    <mergeCell ref="C86:G87"/>
-    <mergeCell ref="P86:V87"/>
-    <mergeCell ref="A88:C88"/>
-    <mergeCell ref="D88:G88"/>
-    <mergeCell ref="H88:J88"/>
-    <mergeCell ref="M88:O88"/>
-    <mergeCell ref="P88:S88"/>
-    <mergeCell ref="V88:X88"/>
-    <mergeCell ref="P121:V122"/>
-    <mergeCell ref="V123:X123"/>
-    <mergeCell ref="M123:O123"/>
-    <mergeCell ref="P123:S123"/>
-    <mergeCell ref="P138:V139"/>
-    <mergeCell ref="C2:G3"/>
-    <mergeCell ref="P2:V3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="C22:G23"/>
-    <mergeCell ref="P22:V23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="P71:S71"/>
-    <mergeCell ref="C37:G38"/>
-    <mergeCell ref="P37:V38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="P39:S39"/>
-    <mergeCell ref="V39:X39"/>
+    <mergeCell ref="P168:V169"/>
+    <mergeCell ref="M170:O170"/>
+    <mergeCell ref="P170:S170"/>
+    <mergeCell ref="V170:X170"/>
+    <mergeCell ref="M155:O155"/>
+    <mergeCell ref="P155:S155"/>
+    <mergeCell ref="V155:X155"/>
+    <mergeCell ref="P240:V241"/>
+    <mergeCell ref="P218:V219"/>
+    <mergeCell ref="P198:V199"/>
+    <mergeCell ref="P186:V187"/>
+    <mergeCell ref="M188:O188"/>
+    <mergeCell ref="P188:S188"/>
+    <mergeCell ref="V188:X188"/>
+    <mergeCell ref="P209:V210"/>
     <mergeCell ref="P230:V231"/>
-    <mergeCell ref="V71:X71"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="C53:G54"/>
-    <mergeCell ref="P53:V54"/>
-    <mergeCell ref="V55:X55"/>
-    <mergeCell ref="C69:G70"/>
-    <mergeCell ref="P69:V70"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="M55:O55"/>
-    <mergeCell ref="P55:S55"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="D71:G71"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="M71:O71"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -10928,7 +11044,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="B3" workbookViewId="0">

--- a/DOC 2023/FORMATO STATUS.xlsx
+++ b/DOC 2023/FORMATO STATUS.xlsx
@@ -948,12 +948,6 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -963,12 +957,6 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -976,6 +964,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1255,7 +1255,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1284,72 +1284,72 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C2" s="81" t="s">
+      <c r="C2" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="P2" s="83" t="s">
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="P2" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="83"/>
-      <c r="S2" s="83"/>
-      <c r="T2" s="83"/>
-      <c r="U2" s="83"/>
-      <c r="V2" s="83"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="81"/>
+      <c r="S2" s="81"/>
+      <c r="T2" s="81"/>
+      <c r="U2" s="81"/>
+      <c r="V2" s="81"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="P3" s="83"/>
-      <c r="Q3" s="83"/>
-      <c r="R3" s="83"/>
-      <c r="S3" s="83"/>
-      <c r="T3" s="83"/>
-      <c r="U3" s="83"/>
-      <c r="V3" s="83"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="81"/>
+      <c r="S3" s="81"/>
+      <c r="T3" s="81"/>
+      <c r="U3" s="81"/>
+      <c r="V3" s="81"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="85" t="s">
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="86">
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="89">
         <v>44965</v>
       </c>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="M4" s="84" t="s">
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="M4" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="84"/>
-      <c r="O4" s="84"/>
-      <c r="P4" s="85" t="s">
+      <c r="N4" s="82"/>
+      <c r="O4" s="82"/>
+      <c r="P4" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="85"/>
-      <c r="R4" s="85"/>
-      <c r="S4" s="85"/>
+      <c r="Q4" s="83"/>
+      <c r="R4" s="83"/>
+      <c r="S4" s="83"/>
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
-      <c r="V4" s="88">
+      <c r="V4" s="84">
         <v>44601</v>
       </c>
-      <c r="W4" s="89"/>
-      <c r="X4" s="90"/>
+      <c r="W4" s="85"/>
+      <c r="X4" s="86"/>
     </row>
     <row r="5" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -1764,72 +1764,72 @@
       <c r="X15" s="4"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C22" s="81" t="s">
+      <c r="C22" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="81"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="81"/>
-      <c r="P22" s="83" t="s">
+      <c r="D22" s="87"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="87"/>
+      <c r="G22" s="87"/>
+      <c r="P22" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="Q22" s="83"/>
-      <c r="R22" s="83"/>
-      <c r="S22" s="83"/>
-      <c r="T22" s="83"/>
-      <c r="U22" s="83"/>
-      <c r="V22" s="83"/>
+      <c r="Q22" s="81"/>
+      <c r="R22" s="81"/>
+      <c r="S22" s="81"/>
+      <c r="T22" s="81"/>
+      <c r="U22" s="81"/>
+      <c r="V22" s="81"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C23" s="82"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="82"/>
-      <c r="P23" s="83"/>
-      <c r="Q23" s="83"/>
-      <c r="R23" s="83"/>
-      <c r="S23" s="83"/>
-      <c r="T23" s="83"/>
-      <c r="U23" s="83"/>
-      <c r="V23" s="83"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="88"/>
+      <c r="P23" s="81"/>
+      <c r="Q23" s="81"/>
+      <c r="R23" s="81"/>
+      <c r="S23" s="81"/>
+      <c r="T23" s="81"/>
+      <c r="U23" s="81"/>
+      <c r="V23" s="81"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="84" t="s">
+      <c r="A24" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="84"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="85" t="s">
+      <c r="B24" s="82"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="85"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="86">
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="89">
         <v>44965</v>
       </c>
-      <c r="I24" s="87"/>
-      <c r="J24" s="87"/>
-      <c r="M24" s="84" t="s">
+      <c r="I24" s="90"/>
+      <c r="J24" s="90"/>
+      <c r="M24" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N24" s="84"/>
-      <c r="O24" s="84"/>
-      <c r="P24" s="85" t="s">
+      <c r="N24" s="82"/>
+      <c r="O24" s="82"/>
+      <c r="P24" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q24" s="85"/>
-      <c r="R24" s="85"/>
-      <c r="S24" s="85"/>
+      <c r="Q24" s="83"/>
+      <c r="R24" s="83"/>
+      <c r="S24" s="83"/>
       <c r="T24" s="18"/>
       <c r="U24" s="18"/>
-      <c r="V24" s="88">
+      <c r="V24" s="84">
         <v>44971</v>
       </c>
-      <c r="W24" s="89"/>
-      <c r="X24" s="90"/>
+      <c r="W24" s="85"/>
+      <c r="X24" s="86"/>
     </row>
     <row r="25" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -2284,72 +2284,72 @@
       <c r="X35" s="4"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C38" s="81" t="s">
+      <c r="C38" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="81"/>
-      <c r="E38" s="81"/>
-      <c r="F38" s="81"/>
-      <c r="G38" s="81"/>
-      <c r="P38" s="83" t="s">
+      <c r="D38" s="87"/>
+      <c r="E38" s="87"/>
+      <c r="F38" s="87"/>
+      <c r="G38" s="87"/>
+      <c r="P38" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="Q38" s="83"/>
-      <c r="R38" s="83"/>
-      <c r="S38" s="83"/>
-      <c r="T38" s="83"/>
-      <c r="U38" s="83"/>
-      <c r="V38" s="83"/>
+      <c r="Q38" s="81"/>
+      <c r="R38" s="81"/>
+      <c r="S38" s="81"/>
+      <c r="T38" s="81"/>
+      <c r="U38" s="81"/>
+      <c r="V38" s="81"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C39" s="82"/>
-      <c r="D39" s="82"/>
-      <c r="E39" s="82"/>
-      <c r="F39" s="82"/>
-      <c r="G39" s="82"/>
-      <c r="P39" s="83"/>
-      <c r="Q39" s="83"/>
-      <c r="R39" s="83"/>
-      <c r="S39" s="83"/>
-      <c r="T39" s="83"/>
-      <c r="U39" s="83"/>
-      <c r="V39" s="83"/>
+      <c r="C39" s="88"/>
+      <c r="D39" s="88"/>
+      <c r="E39" s="88"/>
+      <c r="F39" s="88"/>
+      <c r="G39" s="88"/>
+      <c r="P39" s="81"/>
+      <c r="Q39" s="81"/>
+      <c r="R39" s="81"/>
+      <c r="S39" s="81"/>
+      <c r="T39" s="81"/>
+      <c r="U39" s="81"/>
+      <c r="V39" s="81"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A40" s="84" t="s">
+      <c r="A40" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="84"/>
-      <c r="C40" s="84"/>
-      <c r="D40" s="85" t="s">
+      <c r="B40" s="82"/>
+      <c r="C40" s="82"/>
+      <c r="D40" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E40" s="85"/>
-      <c r="F40" s="85"/>
-      <c r="G40" s="85"/>
-      <c r="H40" s="86">
+      <c r="E40" s="83"/>
+      <c r="F40" s="83"/>
+      <c r="G40" s="83"/>
+      <c r="H40" s="89">
         <v>44972</v>
       </c>
-      <c r="I40" s="87"/>
-      <c r="J40" s="87"/>
-      <c r="M40" s="84" t="s">
+      <c r="I40" s="90"/>
+      <c r="J40" s="90"/>
+      <c r="M40" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N40" s="84"/>
-      <c r="O40" s="84"/>
-      <c r="P40" s="85" t="s">
+      <c r="N40" s="82"/>
+      <c r="O40" s="82"/>
+      <c r="P40" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q40" s="85"/>
-      <c r="R40" s="85"/>
-      <c r="S40" s="85"/>
+      <c r="Q40" s="83"/>
+      <c r="R40" s="83"/>
+      <c r="S40" s="83"/>
       <c r="T40" s="18"/>
       <c r="U40" s="18"/>
-      <c r="V40" s="88">
+      <c r="V40" s="84">
         <v>44973</v>
       </c>
-      <c r="W40" s="89"/>
-      <c r="X40" s="90"/>
+      <c r="W40" s="85"/>
+      <c r="X40" s="86"/>
     </row>
     <row r="41" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
@@ -2764,72 +2764,72 @@
       <c r="X51" s="4"/>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C54" s="81" t="s">
+      <c r="C54" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="D54" s="81"/>
-      <c r="E54" s="81"/>
-      <c r="F54" s="81"/>
-      <c r="G54" s="81"/>
-      <c r="P54" s="83" t="s">
+      <c r="D54" s="87"/>
+      <c r="E54" s="87"/>
+      <c r="F54" s="87"/>
+      <c r="G54" s="87"/>
+      <c r="P54" s="81" t="s">
         <v>56</v>
       </c>
-      <c r="Q54" s="83"/>
-      <c r="R54" s="83"/>
-      <c r="S54" s="83"/>
-      <c r="T54" s="83"/>
-      <c r="U54" s="83"/>
-      <c r="V54" s="83"/>
+      <c r="Q54" s="81"/>
+      <c r="R54" s="81"/>
+      <c r="S54" s="81"/>
+      <c r="T54" s="81"/>
+      <c r="U54" s="81"/>
+      <c r="V54" s="81"/>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C55" s="82"/>
-      <c r="D55" s="82"/>
-      <c r="E55" s="82"/>
-      <c r="F55" s="82"/>
-      <c r="G55" s="82"/>
-      <c r="P55" s="83"/>
-      <c r="Q55" s="83"/>
-      <c r="R55" s="83"/>
-      <c r="S55" s="83"/>
-      <c r="T55" s="83"/>
-      <c r="U55" s="83"/>
-      <c r="V55" s="83"/>
+      <c r="C55" s="88"/>
+      <c r="D55" s="88"/>
+      <c r="E55" s="88"/>
+      <c r="F55" s="88"/>
+      <c r="G55" s="88"/>
+      <c r="P55" s="81"/>
+      <c r="Q55" s="81"/>
+      <c r="R55" s="81"/>
+      <c r="S55" s="81"/>
+      <c r="T55" s="81"/>
+      <c r="U55" s="81"/>
+      <c r="V55" s="81"/>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A56" s="84" t="s">
+      <c r="A56" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="84"/>
-      <c r="C56" s="84"/>
-      <c r="D56" s="85" t="s">
+      <c r="B56" s="82"/>
+      <c r="C56" s="82"/>
+      <c r="D56" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E56" s="85"/>
-      <c r="F56" s="85"/>
-      <c r="G56" s="85"/>
-      <c r="H56" s="86">
+      <c r="E56" s="83"/>
+      <c r="F56" s="83"/>
+      <c r="G56" s="83"/>
+      <c r="H56" s="89">
         <v>44974</v>
       </c>
-      <c r="I56" s="87"/>
-      <c r="J56" s="87"/>
-      <c r="M56" s="84" t="s">
+      <c r="I56" s="90"/>
+      <c r="J56" s="90"/>
+      <c r="M56" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N56" s="84"/>
-      <c r="O56" s="84"/>
-      <c r="P56" s="85" t="s">
+      <c r="N56" s="82"/>
+      <c r="O56" s="82"/>
+      <c r="P56" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q56" s="85"/>
-      <c r="R56" s="85"/>
-      <c r="S56" s="85"/>
+      <c r="Q56" s="83"/>
+      <c r="R56" s="83"/>
+      <c r="S56" s="83"/>
       <c r="T56" s="18"/>
       <c r="U56" s="18"/>
-      <c r="V56" s="88">
+      <c r="V56" s="84">
         <v>44975</v>
       </c>
-      <c r="W56" s="89"/>
-      <c r="X56" s="90"/>
+      <c r="W56" s="85"/>
+      <c r="X56" s="86"/>
     </row>
     <row r="57" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
@@ -3284,72 +3284,72 @@
       <c r="X67" s="4"/>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C70" s="81" t="s">
+      <c r="C70" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="D70" s="81"/>
-      <c r="E70" s="81"/>
-      <c r="F70" s="81"/>
-      <c r="G70" s="81"/>
-      <c r="P70" s="83" t="s">
+      <c r="D70" s="87"/>
+      <c r="E70" s="87"/>
+      <c r="F70" s="87"/>
+      <c r="G70" s="87"/>
+      <c r="P70" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="Q70" s="83"/>
-      <c r="R70" s="83"/>
-      <c r="S70" s="83"/>
-      <c r="T70" s="83"/>
-      <c r="U70" s="83"/>
-      <c r="V70" s="83"/>
+      <c r="Q70" s="81"/>
+      <c r="R70" s="81"/>
+      <c r="S70" s="81"/>
+      <c r="T70" s="81"/>
+      <c r="U70" s="81"/>
+      <c r="V70" s="81"/>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C71" s="82"/>
-      <c r="D71" s="82"/>
-      <c r="E71" s="82"/>
-      <c r="F71" s="82"/>
-      <c r="G71" s="82"/>
-      <c r="P71" s="83"/>
-      <c r="Q71" s="83"/>
-      <c r="R71" s="83"/>
-      <c r="S71" s="83"/>
-      <c r="T71" s="83"/>
-      <c r="U71" s="83"/>
-      <c r="V71" s="83"/>
+      <c r="C71" s="88"/>
+      <c r="D71" s="88"/>
+      <c r="E71" s="88"/>
+      <c r="F71" s="88"/>
+      <c r="G71" s="88"/>
+      <c r="P71" s="81"/>
+      <c r="Q71" s="81"/>
+      <c r="R71" s="81"/>
+      <c r="S71" s="81"/>
+      <c r="T71" s="81"/>
+      <c r="U71" s="81"/>
+      <c r="V71" s="81"/>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A72" s="84" t="s">
+      <c r="A72" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B72" s="84"/>
-      <c r="C72" s="84"/>
-      <c r="D72" s="85" t="s">
+      <c r="B72" s="82"/>
+      <c r="C72" s="82"/>
+      <c r="D72" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E72" s="85"/>
-      <c r="F72" s="85"/>
-      <c r="G72" s="85"/>
-      <c r="H72" s="86">
+      <c r="E72" s="83"/>
+      <c r="F72" s="83"/>
+      <c r="G72" s="83"/>
+      <c r="H72" s="89">
         <v>44979</v>
       </c>
-      <c r="I72" s="87"/>
-      <c r="J72" s="87"/>
-      <c r="M72" s="84" t="s">
+      <c r="I72" s="90"/>
+      <c r="J72" s="90"/>
+      <c r="M72" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N72" s="84"/>
-      <c r="O72" s="84"/>
-      <c r="P72" s="85" t="s">
+      <c r="N72" s="82"/>
+      <c r="O72" s="82"/>
+      <c r="P72" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q72" s="85"/>
-      <c r="R72" s="85"/>
-      <c r="S72" s="85"/>
+      <c r="Q72" s="83"/>
+      <c r="R72" s="83"/>
+      <c r="S72" s="83"/>
       <c r="T72" s="18"/>
       <c r="U72" s="18"/>
-      <c r="V72" s="88">
+      <c r="V72" s="84">
         <v>44980</v>
       </c>
-      <c r="W72" s="89"/>
-      <c r="X72" s="90"/>
+      <c r="W72" s="85"/>
+      <c r="X72" s="86"/>
     </row>
     <row r="73" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
@@ -3720,72 +3720,72 @@
       <c r="X83" s="4"/>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C87" s="81" t="s">
+      <c r="C87" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="D87" s="81"/>
-      <c r="E87" s="81"/>
-      <c r="F87" s="81"/>
-      <c r="G87" s="81"/>
-      <c r="P87" s="83" t="s">
+      <c r="D87" s="87"/>
+      <c r="E87" s="87"/>
+      <c r="F87" s="87"/>
+      <c r="G87" s="87"/>
+      <c r="P87" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="Q87" s="83"/>
-      <c r="R87" s="83"/>
-      <c r="S87" s="83"/>
-      <c r="T87" s="83"/>
-      <c r="U87" s="83"/>
-      <c r="V87" s="83"/>
+      <c r="Q87" s="81"/>
+      <c r="R87" s="81"/>
+      <c r="S87" s="81"/>
+      <c r="T87" s="81"/>
+      <c r="U87" s="81"/>
+      <c r="V87" s="81"/>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C88" s="82"/>
-      <c r="D88" s="82"/>
-      <c r="E88" s="82"/>
-      <c r="F88" s="82"/>
-      <c r="G88" s="82"/>
-      <c r="P88" s="83"/>
-      <c r="Q88" s="83"/>
-      <c r="R88" s="83"/>
-      <c r="S88" s="83"/>
-      <c r="T88" s="83"/>
-      <c r="U88" s="83"/>
-      <c r="V88" s="83"/>
+      <c r="C88" s="88"/>
+      <c r="D88" s="88"/>
+      <c r="E88" s="88"/>
+      <c r="F88" s="88"/>
+      <c r="G88" s="88"/>
+      <c r="P88" s="81"/>
+      <c r="Q88" s="81"/>
+      <c r="R88" s="81"/>
+      <c r="S88" s="81"/>
+      <c r="T88" s="81"/>
+      <c r="U88" s="81"/>
+      <c r="V88" s="81"/>
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A89" s="84" t="s">
+      <c r="A89" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B89" s="84"/>
-      <c r="C89" s="84"/>
-      <c r="D89" s="85" t="s">
+      <c r="B89" s="82"/>
+      <c r="C89" s="82"/>
+      <c r="D89" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E89" s="85"/>
-      <c r="F89" s="85"/>
-      <c r="G89" s="85"/>
-      <c r="H89" s="86">
+      <c r="E89" s="83"/>
+      <c r="F89" s="83"/>
+      <c r="G89" s="83"/>
+      <c r="H89" s="89">
         <v>44981</v>
       </c>
-      <c r="I89" s="87"/>
-      <c r="J89" s="87"/>
-      <c r="M89" s="84" t="s">
+      <c r="I89" s="90"/>
+      <c r="J89" s="90"/>
+      <c r="M89" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N89" s="84"/>
-      <c r="O89" s="84"/>
-      <c r="P89" s="85" t="s">
+      <c r="N89" s="82"/>
+      <c r="O89" s="82"/>
+      <c r="P89" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q89" s="85"/>
-      <c r="R89" s="85"/>
-      <c r="S89" s="85"/>
+      <c r="Q89" s="83"/>
+      <c r="R89" s="83"/>
+      <c r="S89" s="83"/>
       <c r="T89" s="18"/>
       <c r="U89" s="18"/>
-      <c r="V89" s="88">
+      <c r="V89" s="84">
         <v>44980</v>
       </c>
-      <c r="W89" s="89"/>
-      <c r="X89" s="90"/>
+      <c r="W89" s="85"/>
+      <c r="X89" s="86"/>
     </row>
     <row r="90" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
@@ -4240,72 +4240,72 @@
       <c r="X100" s="4"/>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C104" s="81" t="s">
+      <c r="C104" s="87" t="s">
         <v>70</v>
       </c>
-      <c r="D104" s="81"/>
-      <c r="E104" s="81"/>
-      <c r="F104" s="81"/>
-      <c r="G104" s="81"/>
-      <c r="P104" s="83" t="s">
+      <c r="D104" s="87"/>
+      <c r="E104" s="87"/>
+      <c r="F104" s="87"/>
+      <c r="G104" s="87"/>
+      <c r="P104" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="Q104" s="83"/>
-      <c r="R104" s="83"/>
-      <c r="S104" s="83"/>
-      <c r="T104" s="83"/>
-      <c r="U104" s="83"/>
-      <c r="V104" s="83"/>
+      <c r="Q104" s="81"/>
+      <c r="R104" s="81"/>
+      <c r="S104" s="81"/>
+      <c r="T104" s="81"/>
+      <c r="U104" s="81"/>
+      <c r="V104" s="81"/>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C105" s="82"/>
-      <c r="D105" s="82"/>
-      <c r="E105" s="82"/>
-      <c r="F105" s="82"/>
-      <c r="G105" s="82"/>
-      <c r="P105" s="83"/>
-      <c r="Q105" s="83"/>
-      <c r="R105" s="83"/>
-      <c r="S105" s="83"/>
-      <c r="T105" s="83"/>
-      <c r="U105" s="83"/>
-      <c r="V105" s="83"/>
+      <c r="C105" s="88"/>
+      <c r="D105" s="88"/>
+      <c r="E105" s="88"/>
+      <c r="F105" s="88"/>
+      <c r="G105" s="88"/>
+      <c r="P105" s="81"/>
+      <c r="Q105" s="81"/>
+      <c r="R105" s="81"/>
+      <c r="S105" s="81"/>
+      <c r="T105" s="81"/>
+      <c r="U105" s="81"/>
+      <c r="V105" s="81"/>
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A106" s="84" t="s">
+      <c r="A106" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B106" s="84"/>
-      <c r="C106" s="84"/>
-      <c r="D106" s="85" t="s">
+      <c r="B106" s="82"/>
+      <c r="C106" s="82"/>
+      <c r="D106" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E106" s="85"/>
-      <c r="F106" s="85"/>
-      <c r="G106" s="85"/>
-      <c r="H106" s="86">
+      <c r="E106" s="83"/>
+      <c r="F106" s="83"/>
+      <c r="G106" s="83"/>
+      <c r="H106" s="89">
         <v>44979</v>
       </c>
-      <c r="I106" s="87"/>
-      <c r="J106" s="87"/>
-      <c r="M106" s="84" t="s">
+      <c r="I106" s="90"/>
+      <c r="J106" s="90"/>
+      <c r="M106" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N106" s="84"/>
-      <c r="O106" s="84"/>
-      <c r="P106" s="85" t="s">
+      <c r="N106" s="82"/>
+      <c r="O106" s="82"/>
+      <c r="P106" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q106" s="85"/>
-      <c r="R106" s="85"/>
-      <c r="S106" s="85"/>
+      <c r="Q106" s="83"/>
+      <c r="R106" s="83"/>
+      <c r="S106" s="83"/>
       <c r="T106" s="18"/>
       <c r="U106" s="18"/>
-      <c r="V106" s="88" t="s">
+      <c r="V106" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="W106" s="89"/>
-      <c r="X106" s="90"/>
+      <c r="W106" s="85"/>
+      <c r="X106" s="86"/>
     </row>
     <row r="107" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
@@ -4803,6 +4803,54 @@
     <row r="124" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="C104:G105"/>
+    <mergeCell ref="P104:V105"/>
+    <mergeCell ref="A106:C106"/>
+    <mergeCell ref="D106:G106"/>
+    <mergeCell ref="H106:J106"/>
+    <mergeCell ref="M106:O106"/>
+    <mergeCell ref="P106:S106"/>
+    <mergeCell ref="V106:X106"/>
+    <mergeCell ref="C87:G88"/>
+    <mergeCell ref="P87:V88"/>
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="D89:G89"/>
+    <mergeCell ref="H89:J89"/>
+    <mergeCell ref="M89:O89"/>
+    <mergeCell ref="P89:S89"/>
+    <mergeCell ref="V89:X89"/>
+    <mergeCell ref="C70:G71"/>
+    <mergeCell ref="P70:V71"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="D72:G72"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="M72:O72"/>
+    <mergeCell ref="P72:S72"/>
+    <mergeCell ref="V72:X72"/>
+    <mergeCell ref="C54:G55"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="P54:V55"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="P56:S56"/>
+    <mergeCell ref="V56:X56"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="C2:G3"/>
+    <mergeCell ref="P2:V3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="C22:G23"/>
+    <mergeCell ref="P22:V23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="V24:X24"/>
     <mergeCell ref="P38:V39"/>
     <mergeCell ref="M40:O40"/>
     <mergeCell ref="P40:S40"/>
@@ -4811,54 +4859,6 @@
     <mergeCell ref="A40:C40"/>
     <mergeCell ref="D40:G40"/>
     <mergeCell ref="H40:J40"/>
-    <mergeCell ref="C22:G23"/>
-    <mergeCell ref="P22:V23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="C2:G3"/>
-    <mergeCell ref="P2:V3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="C54:G55"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="P54:V55"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="P56:S56"/>
-    <mergeCell ref="V56:X56"/>
-    <mergeCell ref="C70:G71"/>
-    <mergeCell ref="P70:V71"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="D72:G72"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="M72:O72"/>
-    <mergeCell ref="P72:S72"/>
-    <mergeCell ref="V72:X72"/>
-    <mergeCell ref="C87:G88"/>
-    <mergeCell ref="P87:V88"/>
-    <mergeCell ref="A89:C89"/>
-    <mergeCell ref="D89:G89"/>
-    <mergeCell ref="H89:J89"/>
-    <mergeCell ref="M89:O89"/>
-    <mergeCell ref="P89:S89"/>
-    <mergeCell ref="V89:X89"/>
-    <mergeCell ref="C104:G105"/>
-    <mergeCell ref="P104:V105"/>
-    <mergeCell ref="A106:C106"/>
-    <mergeCell ref="D106:G106"/>
-    <mergeCell ref="H106:J106"/>
-    <mergeCell ref="M106:O106"/>
-    <mergeCell ref="P106:S106"/>
-    <mergeCell ref="V106:X106"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4869,7 +4869,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Z252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M247" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="N241" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M248" sqref="M248:X252"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4888,72 +4890,72 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C2" s="81" t="s">
+      <c r="C2" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="P2" s="83" t="s">
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="P2" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="83"/>
-      <c r="S2" s="83"/>
-      <c r="T2" s="83"/>
-      <c r="U2" s="83"/>
-      <c r="V2" s="83"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="81"/>
+      <c r="S2" s="81"/>
+      <c r="T2" s="81"/>
+      <c r="U2" s="81"/>
+      <c r="V2" s="81"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="P3" s="83"/>
-      <c r="Q3" s="83"/>
-      <c r="R3" s="83"/>
-      <c r="S3" s="83"/>
-      <c r="T3" s="83"/>
-      <c r="U3" s="83"/>
-      <c r="V3" s="83"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="81"/>
+      <c r="S3" s="81"/>
+      <c r="T3" s="81"/>
+      <c r="U3" s="81"/>
+      <c r="V3" s="81"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="85" t="s">
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="86" t="s">
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="89" t="s">
         <v>74</v>
       </c>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="M4" s="84" t="s">
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="M4" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="84"/>
-      <c r="O4" s="84"/>
-      <c r="P4" s="85" t="s">
+      <c r="N4" s="82"/>
+      <c r="O4" s="82"/>
+      <c r="P4" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="85"/>
-      <c r="R4" s="85"/>
-      <c r="S4" s="85"/>
+      <c r="Q4" s="83"/>
+      <c r="R4" s="83"/>
+      <c r="S4" s="83"/>
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
-      <c r="V4" s="88">
+      <c r="V4" s="84">
         <v>44601</v>
       </c>
-      <c r="W4" s="89"/>
-      <c r="X4" s="90"/>
+      <c r="W4" s="85"/>
+      <c r="X4" s="86"/>
     </row>
     <row r="5" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -5420,72 +5422,72 @@
       <c r="X15" s="4"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C22" s="81" t="s">
+      <c r="C22" s="87" t="s">
         <v>75</v>
       </c>
-      <c r="D22" s="81"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="81"/>
-      <c r="P22" s="83" t="s">
+      <c r="D22" s="87"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="87"/>
+      <c r="G22" s="87"/>
+      <c r="P22" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="Q22" s="83"/>
-      <c r="R22" s="83"/>
-      <c r="S22" s="83"/>
-      <c r="T22" s="83"/>
-      <c r="U22" s="83"/>
-      <c r="V22" s="83"/>
+      <c r="Q22" s="81"/>
+      <c r="R22" s="81"/>
+      <c r="S22" s="81"/>
+      <c r="T22" s="81"/>
+      <c r="U22" s="81"/>
+      <c r="V22" s="81"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C23" s="82"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="82"/>
-      <c r="P23" s="83"/>
-      <c r="Q23" s="83"/>
-      <c r="R23" s="83"/>
-      <c r="S23" s="83"/>
-      <c r="T23" s="83"/>
-      <c r="U23" s="83"/>
-      <c r="V23" s="83"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="88"/>
+      <c r="P23" s="81"/>
+      <c r="Q23" s="81"/>
+      <c r="R23" s="81"/>
+      <c r="S23" s="81"/>
+      <c r="T23" s="81"/>
+      <c r="U23" s="81"/>
+      <c r="V23" s="81"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="84" t="s">
+      <c r="A24" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="84"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="85" t="s">
+      <c r="B24" s="82"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="85"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="86">
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="89">
         <v>44993</v>
       </c>
-      <c r="I24" s="87"/>
-      <c r="J24" s="87"/>
-      <c r="M24" s="84" t="s">
+      <c r="I24" s="90"/>
+      <c r="J24" s="90"/>
+      <c r="M24" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N24" s="84"/>
-      <c r="O24" s="84"/>
-      <c r="P24" s="85" t="s">
+      <c r="N24" s="82"/>
+      <c r="O24" s="82"/>
+      <c r="P24" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q24" s="85"/>
-      <c r="R24" s="85"/>
-      <c r="S24" s="85"/>
+      <c r="Q24" s="83"/>
+      <c r="R24" s="83"/>
+      <c r="S24" s="83"/>
       <c r="T24" s="18"/>
       <c r="U24" s="18"/>
-      <c r="V24" s="88">
+      <c r="V24" s="84">
         <v>44993</v>
       </c>
-      <c r="W24" s="89"/>
-      <c r="X24" s="90"/>
+      <c r="W24" s="85"/>
+      <c r="X24" s="86"/>
     </row>
     <row r="25" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -5915,72 +5917,72 @@
       <c r="X34" s="4"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C37" s="81" t="s">
+      <c r="C37" s="87" t="s">
         <v>84</v>
       </c>
-      <c r="D37" s="81"/>
-      <c r="E37" s="81"/>
-      <c r="F37" s="81"/>
-      <c r="G37" s="81"/>
-      <c r="P37" s="83" t="s">
+      <c r="D37" s="87"/>
+      <c r="E37" s="87"/>
+      <c r="F37" s="87"/>
+      <c r="G37" s="87"/>
+      <c r="P37" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="Q37" s="83"/>
-      <c r="R37" s="83"/>
-      <c r="S37" s="83"/>
-      <c r="T37" s="83"/>
-      <c r="U37" s="83"/>
-      <c r="V37" s="83"/>
+      <c r="Q37" s="81"/>
+      <c r="R37" s="81"/>
+      <c r="S37" s="81"/>
+      <c r="T37" s="81"/>
+      <c r="U37" s="81"/>
+      <c r="V37" s="81"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C38" s="82"/>
-      <c r="D38" s="82"/>
-      <c r="E38" s="82"/>
-      <c r="F38" s="82"/>
-      <c r="G38" s="82"/>
-      <c r="P38" s="83"/>
-      <c r="Q38" s="83"/>
-      <c r="R38" s="83"/>
-      <c r="S38" s="83"/>
-      <c r="T38" s="83"/>
-      <c r="U38" s="83"/>
-      <c r="V38" s="83"/>
+      <c r="C38" s="88"/>
+      <c r="D38" s="88"/>
+      <c r="E38" s="88"/>
+      <c r="F38" s="88"/>
+      <c r="G38" s="88"/>
+      <c r="P38" s="81"/>
+      <c r="Q38" s="81"/>
+      <c r="R38" s="81"/>
+      <c r="S38" s="81"/>
+      <c r="T38" s="81"/>
+      <c r="U38" s="81"/>
+      <c r="V38" s="81"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A39" s="84" t="s">
+      <c r="A39" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="84"/>
-      <c r="C39" s="84"/>
-      <c r="D39" s="85" t="s">
+      <c r="B39" s="82"/>
+      <c r="C39" s="82"/>
+      <c r="D39" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="85"/>
-      <c r="F39" s="85"/>
-      <c r="G39" s="85"/>
-      <c r="H39" s="86">
+      <c r="E39" s="83"/>
+      <c r="F39" s="83"/>
+      <c r="G39" s="83"/>
+      <c r="H39" s="89">
         <v>44972</v>
       </c>
-      <c r="I39" s="87"/>
-      <c r="J39" s="87"/>
-      <c r="M39" s="84" t="s">
+      <c r="I39" s="90"/>
+      <c r="J39" s="90"/>
+      <c r="M39" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N39" s="84"/>
-      <c r="O39" s="84"/>
-      <c r="P39" s="85" t="s">
+      <c r="N39" s="82"/>
+      <c r="O39" s="82"/>
+      <c r="P39" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q39" s="85"/>
-      <c r="R39" s="85"/>
-      <c r="S39" s="85"/>
+      <c r="Q39" s="83"/>
+      <c r="R39" s="83"/>
+      <c r="S39" s="83"/>
       <c r="T39" s="18"/>
       <c r="U39" s="18"/>
-      <c r="V39" s="88">
+      <c r="V39" s="84">
         <v>44994</v>
       </c>
-      <c r="W39" s="89"/>
-      <c r="X39" s="90"/>
+      <c r="W39" s="85"/>
+      <c r="X39" s="86"/>
     </row>
     <row r="40" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
@@ -6391,72 +6393,72 @@
       <c r="X50" s="4"/>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C53" s="81">
+      <c r="C53" s="87">
         <v>45005</v>
       </c>
-      <c r="D53" s="81"/>
-      <c r="E53" s="81"/>
-      <c r="F53" s="81"/>
-      <c r="G53" s="81"/>
-      <c r="P53" s="81">
+      <c r="D53" s="87"/>
+      <c r="E53" s="87"/>
+      <c r="F53" s="87"/>
+      <c r="G53" s="87"/>
+      <c r="P53" s="87">
         <v>45006</v>
       </c>
-      <c r="Q53" s="81"/>
-      <c r="R53" s="81"/>
-      <c r="S53" s="81"/>
-      <c r="T53" s="81"/>
-      <c r="U53" s="81"/>
-      <c r="V53" s="81"/>
+      <c r="Q53" s="87"/>
+      <c r="R53" s="87"/>
+      <c r="S53" s="87"/>
+      <c r="T53" s="87"/>
+      <c r="U53" s="87"/>
+      <c r="V53" s="87"/>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C54" s="82"/>
-      <c r="D54" s="82"/>
-      <c r="E54" s="82"/>
-      <c r="F54" s="82"/>
-      <c r="G54" s="82"/>
-      <c r="P54" s="81"/>
-      <c r="Q54" s="81"/>
-      <c r="R54" s="81"/>
-      <c r="S54" s="81"/>
-      <c r="T54" s="81"/>
-      <c r="U54" s="81"/>
-      <c r="V54" s="81"/>
+      <c r="C54" s="88"/>
+      <c r="D54" s="88"/>
+      <c r="E54" s="88"/>
+      <c r="F54" s="88"/>
+      <c r="G54" s="88"/>
+      <c r="P54" s="87"/>
+      <c r="Q54" s="87"/>
+      <c r="R54" s="87"/>
+      <c r="S54" s="87"/>
+      <c r="T54" s="87"/>
+      <c r="U54" s="87"/>
+      <c r="V54" s="87"/>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A55" s="84" t="s">
+      <c r="A55" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="84"/>
-      <c r="C55" s="84"/>
-      <c r="D55" s="85" t="s">
+      <c r="B55" s="82"/>
+      <c r="C55" s="82"/>
+      <c r="D55" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E55" s="85"/>
-      <c r="F55" s="85"/>
-      <c r="G55" s="85"/>
-      <c r="H55" s="86">
+      <c r="E55" s="83"/>
+      <c r="F55" s="83"/>
+      <c r="G55" s="83"/>
+      <c r="H55" s="89">
         <v>45005</v>
       </c>
-      <c r="I55" s="87"/>
-      <c r="J55" s="87"/>
-      <c r="M55" s="84" t="s">
+      <c r="I55" s="90"/>
+      <c r="J55" s="90"/>
+      <c r="M55" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N55" s="84"/>
-      <c r="O55" s="84"/>
-      <c r="P55" s="85" t="s">
+      <c r="N55" s="82"/>
+      <c r="O55" s="82"/>
+      <c r="P55" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q55" s="85"/>
-      <c r="R55" s="85"/>
-      <c r="S55" s="85"/>
+      <c r="Q55" s="83"/>
+      <c r="R55" s="83"/>
+      <c r="S55" s="83"/>
       <c r="T55" s="18"/>
       <c r="U55" s="18"/>
-      <c r="V55" s="88">
+      <c r="V55" s="84">
         <v>45006</v>
       </c>
-      <c r="W55" s="89"/>
-      <c r="X55" s="90"/>
+      <c r="W55" s="85"/>
+      <c r="X55" s="86"/>
     </row>
     <row r="56" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
@@ -6855,72 +6857,72 @@
       <c r="X66" s="4"/>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C69" s="81" t="s">
+      <c r="C69" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="D69" s="81"/>
-      <c r="E69" s="81"/>
-      <c r="F69" s="81"/>
-      <c r="G69" s="81"/>
-      <c r="P69" s="83" t="s">
+      <c r="D69" s="87"/>
+      <c r="E69" s="87"/>
+      <c r="F69" s="87"/>
+      <c r="G69" s="87"/>
+      <c r="P69" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="Q69" s="83"/>
-      <c r="R69" s="83"/>
-      <c r="S69" s="83"/>
-      <c r="T69" s="83"/>
-      <c r="U69" s="83"/>
-      <c r="V69" s="83"/>
+      <c r="Q69" s="81"/>
+      <c r="R69" s="81"/>
+      <c r="S69" s="81"/>
+      <c r="T69" s="81"/>
+      <c r="U69" s="81"/>
+      <c r="V69" s="81"/>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C70" s="82"/>
-      <c r="D70" s="82"/>
-      <c r="E70" s="82"/>
-      <c r="F70" s="82"/>
-      <c r="G70" s="82"/>
-      <c r="P70" s="83"/>
-      <c r="Q70" s="83"/>
-      <c r="R70" s="83"/>
-      <c r="S70" s="83"/>
-      <c r="T70" s="83"/>
-      <c r="U70" s="83"/>
-      <c r="V70" s="83"/>
+      <c r="C70" s="88"/>
+      <c r="D70" s="88"/>
+      <c r="E70" s="88"/>
+      <c r="F70" s="88"/>
+      <c r="G70" s="88"/>
+      <c r="P70" s="81"/>
+      <c r="Q70" s="81"/>
+      <c r="R70" s="81"/>
+      <c r="S70" s="81"/>
+      <c r="T70" s="81"/>
+      <c r="U70" s="81"/>
+      <c r="V70" s="81"/>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A71" s="84" t="s">
+      <c r="A71" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B71" s="84"/>
-      <c r="C71" s="84"/>
-      <c r="D71" s="85" t="s">
+      <c r="B71" s="82"/>
+      <c r="C71" s="82"/>
+      <c r="D71" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E71" s="85"/>
-      <c r="F71" s="85"/>
-      <c r="G71" s="85"/>
-      <c r="H71" s="86">
+      <c r="E71" s="83"/>
+      <c r="F71" s="83"/>
+      <c r="G71" s="83"/>
+      <c r="H71" s="89">
         <v>44979</v>
       </c>
-      <c r="I71" s="87"/>
-      <c r="J71" s="87"/>
-      <c r="M71" s="84" t="s">
+      <c r="I71" s="90"/>
+      <c r="J71" s="90"/>
+      <c r="M71" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N71" s="84"/>
-      <c r="O71" s="84"/>
-      <c r="P71" s="85" t="s">
+      <c r="N71" s="82"/>
+      <c r="O71" s="82"/>
+      <c r="P71" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q71" s="85"/>
-      <c r="R71" s="85"/>
-      <c r="S71" s="85"/>
+      <c r="Q71" s="83"/>
+      <c r="R71" s="83"/>
+      <c r="S71" s="83"/>
       <c r="T71" s="18"/>
       <c r="U71" s="18"/>
-      <c r="V71" s="88">
+      <c r="V71" s="84">
         <v>44980</v>
       </c>
-      <c r="W71" s="89"/>
-      <c r="X71" s="90"/>
+      <c r="W71" s="85"/>
+      <c r="X71" s="86"/>
     </row>
     <row r="72" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
@@ -7323,72 +7325,72 @@
       <c r="X82" s="4"/>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C86" s="81" t="s">
+      <c r="C86" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="D86" s="81"/>
-      <c r="E86" s="81"/>
-      <c r="F86" s="81"/>
-      <c r="G86" s="81"/>
-      <c r="P86" s="83" t="s">
+      <c r="D86" s="87"/>
+      <c r="E86" s="87"/>
+      <c r="F86" s="87"/>
+      <c r="G86" s="87"/>
+      <c r="P86" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="Q86" s="83"/>
-      <c r="R86" s="83"/>
-      <c r="S86" s="83"/>
-      <c r="T86" s="83"/>
-      <c r="U86" s="83"/>
-      <c r="V86" s="83"/>
+      <c r="Q86" s="81"/>
+      <c r="R86" s="81"/>
+      <c r="S86" s="81"/>
+      <c r="T86" s="81"/>
+      <c r="U86" s="81"/>
+      <c r="V86" s="81"/>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C87" s="82"/>
-      <c r="D87" s="82"/>
-      <c r="E87" s="82"/>
-      <c r="F87" s="82"/>
-      <c r="G87" s="82"/>
-      <c r="P87" s="83"/>
-      <c r="Q87" s="83"/>
-      <c r="R87" s="83"/>
-      <c r="S87" s="83"/>
-      <c r="T87" s="83"/>
-      <c r="U87" s="83"/>
-      <c r="V87" s="83"/>
+      <c r="C87" s="88"/>
+      <c r="D87" s="88"/>
+      <c r="E87" s="88"/>
+      <c r="F87" s="88"/>
+      <c r="G87" s="88"/>
+      <c r="P87" s="81"/>
+      <c r="Q87" s="81"/>
+      <c r="R87" s="81"/>
+      <c r="S87" s="81"/>
+      <c r="T87" s="81"/>
+      <c r="U87" s="81"/>
+      <c r="V87" s="81"/>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A88" s="84" t="s">
+      <c r="A88" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B88" s="84"/>
-      <c r="C88" s="84"/>
-      <c r="D88" s="85" t="s">
+      <c r="B88" s="82"/>
+      <c r="C88" s="82"/>
+      <c r="D88" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E88" s="85"/>
-      <c r="F88" s="85"/>
-      <c r="G88" s="85"/>
-      <c r="H88" s="86">
+      <c r="E88" s="83"/>
+      <c r="F88" s="83"/>
+      <c r="G88" s="83"/>
+      <c r="H88" s="89">
         <v>44981</v>
       </c>
-      <c r="I88" s="87"/>
-      <c r="J88" s="87"/>
-      <c r="M88" s="84" t="s">
+      <c r="I88" s="90"/>
+      <c r="J88" s="90"/>
+      <c r="M88" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N88" s="84"/>
-      <c r="O88" s="84"/>
-      <c r="P88" s="85" t="s">
+      <c r="N88" s="82"/>
+      <c r="O88" s="82"/>
+      <c r="P88" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q88" s="85"/>
-      <c r="R88" s="85"/>
-      <c r="S88" s="85"/>
+      <c r="Q88" s="83"/>
+      <c r="R88" s="83"/>
+      <c r="S88" s="83"/>
       <c r="T88" s="18"/>
       <c r="U88" s="18"/>
-      <c r="V88" s="88">
+      <c r="V88" s="84">
         <v>44980</v>
       </c>
-      <c r="W88" s="89"/>
-      <c r="X88" s="90"/>
+      <c r="W88" s="85"/>
+      <c r="X88" s="86"/>
     </row>
     <row r="89" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
@@ -7723,72 +7725,72 @@
       <c r="X99" s="4"/>
     </row>
     <row r="103" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C103" s="81" t="s">
+      <c r="C103" s="87" t="s">
         <v>70</v>
       </c>
-      <c r="D103" s="81"/>
-      <c r="E103" s="81"/>
-      <c r="F103" s="81"/>
-      <c r="G103" s="81"/>
-      <c r="P103" s="83" t="s">
+      <c r="D103" s="87"/>
+      <c r="E103" s="87"/>
+      <c r="F103" s="87"/>
+      <c r="G103" s="87"/>
+      <c r="P103" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="Q103" s="83"/>
-      <c r="R103" s="83"/>
-      <c r="S103" s="83"/>
-      <c r="T103" s="83"/>
-      <c r="U103" s="83"/>
-      <c r="V103" s="83"/>
+      <c r="Q103" s="81"/>
+      <c r="R103" s="81"/>
+      <c r="S103" s="81"/>
+      <c r="T103" s="81"/>
+      <c r="U103" s="81"/>
+      <c r="V103" s="81"/>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C104" s="82"/>
-      <c r="D104" s="82"/>
-      <c r="E104" s="82"/>
-      <c r="F104" s="82"/>
-      <c r="G104" s="82"/>
-      <c r="P104" s="83"/>
-      <c r="Q104" s="83"/>
-      <c r="R104" s="83"/>
-      <c r="S104" s="83"/>
-      <c r="T104" s="83"/>
-      <c r="U104" s="83"/>
-      <c r="V104" s="83"/>
+      <c r="C104" s="88"/>
+      <c r="D104" s="88"/>
+      <c r="E104" s="88"/>
+      <c r="F104" s="88"/>
+      <c r="G104" s="88"/>
+      <c r="P104" s="81"/>
+      <c r="Q104" s="81"/>
+      <c r="R104" s="81"/>
+      <c r="S104" s="81"/>
+      <c r="T104" s="81"/>
+      <c r="U104" s="81"/>
+      <c r="V104" s="81"/>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A105" s="84" t="s">
+      <c r="A105" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B105" s="84"/>
-      <c r="C105" s="84"/>
-      <c r="D105" s="85" t="s">
+      <c r="B105" s="82"/>
+      <c r="C105" s="82"/>
+      <c r="D105" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E105" s="85"/>
-      <c r="F105" s="85"/>
-      <c r="G105" s="85"/>
-      <c r="H105" s="86">
+      <c r="E105" s="83"/>
+      <c r="F105" s="83"/>
+      <c r="G105" s="83"/>
+      <c r="H105" s="89">
         <v>44979</v>
       </c>
-      <c r="I105" s="87"/>
-      <c r="J105" s="87"/>
-      <c r="M105" s="84" t="s">
+      <c r="I105" s="90"/>
+      <c r="J105" s="90"/>
+      <c r="M105" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N105" s="84"/>
-      <c r="O105" s="84"/>
-      <c r="P105" s="85" t="s">
+      <c r="N105" s="82"/>
+      <c r="O105" s="82"/>
+      <c r="P105" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q105" s="85"/>
-      <c r="R105" s="85"/>
-      <c r="S105" s="85"/>
+      <c r="Q105" s="83"/>
+      <c r="R105" s="83"/>
+      <c r="S105" s="83"/>
       <c r="T105" s="18"/>
       <c r="U105" s="18"/>
-      <c r="V105" s="88">
+      <c r="V105" s="84">
         <v>45012</v>
       </c>
-      <c r="W105" s="89"/>
-      <c r="X105" s="90"/>
+      <c r="W105" s="85"/>
+      <c r="X105" s="86"/>
     </row>
     <row r="106" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
@@ -8239,73 +8241,73 @@
       <c r="X116" s="4"/>
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C121" s="81" t="s">
+      <c r="C121" s="87" t="s">
         <v>95</v>
       </c>
-      <c r="D121" s="81"/>
-      <c r="E121" s="81"/>
-      <c r="F121" s="81"/>
-      <c r="G121" s="81"/>
-      <c r="P121" s="83" t="s">
+      <c r="D121" s="87"/>
+      <c r="E121" s="87"/>
+      <c r="F121" s="87"/>
+      <c r="G121" s="87"/>
+      <c r="P121" s="81" t="s">
         <v>96</v>
       </c>
-      <c r="Q121" s="83"/>
-      <c r="R121" s="83"/>
-      <c r="S121" s="83"/>
-      <c r="T121" s="83"/>
-      <c r="U121" s="83"/>
-      <c r="V121" s="83"/>
+      <c r="Q121" s="81"/>
+      <c r="R121" s="81"/>
+      <c r="S121" s="81"/>
+      <c r="T121" s="81"/>
+      <c r="U121" s="81"/>
+      <c r="V121" s="81"/>
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C122" s="82"/>
-      <c r="D122" s="82"/>
-      <c r="E122" s="82"/>
-      <c r="F122" s="82"/>
-      <c r="G122" s="82"/>
-      <c r="P122" s="83"/>
-      <c r="Q122" s="83"/>
-      <c r="R122" s="83"/>
-      <c r="S122" s="83"/>
-      <c r="T122" s="83"/>
-      <c r="U122" s="83"/>
-      <c r="V122" s="83"/>
+      <c r="C122" s="88"/>
+      <c r="D122" s="88"/>
+      <c r="E122" s="88"/>
+      <c r="F122" s="88"/>
+      <c r="G122" s="88"/>
+      <c r="P122" s="81"/>
+      <c r="Q122" s="81"/>
+      <c r="R122" s="81"/>
+      <c r="S122" s="81"/>
+      <c r="T122" s="81"/>
+      <c r="U122" s="81"/>
+      <c r="V122" s="81"/>
     </row>
     <row r="123" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="84" t="s">
+      <c r="A123" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B123" s="84"/>
-      <c r="C123" s="84"/>
-      <c r="D123" s="85" t="s">
+      <c r="B123" s="82"/>
+      <c r="C123" s="82"/>
+      <c r="D123" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E123" s="85"/>
-      <c r="F123" s="85"/>
-      <c r="G123" s="85"/>
-      <c r="H123" s="86">
+      <c r="E123" s="83"/>
+      <c r="F123" s="83"/>
+      <c r="G123" s="83"/>
+      <c r="H123" s="89">
         <v>44979</v>
       </c>
-      <c r="I123" s="87"/>
-      <c r="J123" s="87"/>
-      <c r="M123" s="84" t="s">
+      <c r="I123" s="90"/>
+      <c r="J123" s="90"/>
+      <c r="M123" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N123" s="84"/>
-      <c r="O123" s="84"/>
-      <c r="P123" s="85" t="s">
+      <c r="N123" s="82"/>
+      <c r="O123" s="82"/>
+      <c r="P123" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q123" s="85"/>
-      <c r="R123" s="85"/>
-      <c r="S123" s="85"/>
+      <c r="Q123" s="83"/>
+      <c r="R123" s="83"/>
+      <c r="S123" s="83"/>
       <c r="T123" s="18"/>
       <c r="U123" s="18"/>
-      <c r="V123" s="88" t="e">
+      <c r="V123" s="84" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W123" s="89"/>
-      <c r="X123" s="90"/>
+      <c r="W123" s="85"/>
+      <c r="X123" s="86"/>
     </row>
     <row r="124" spans="1:26" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
@@ -8820,45 +8822,45 @@
       <c r="X134" s="4"/>
     </row>
     <row r="138" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="P138" s="83" t="s">
+      <c r="P138" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="Q138" s="83"/>
-      <c r="R138" s="83"/>
-      <c r="S138" s="83"/>
-      <c r="T138" s="83"/>
-      <c r="U138" s="83"/>
-      <c r="V138" s="83"/>
+      <c r="Q138" s="81"/>
+      <c r="R138" s="81"/>
+      <c r="S138" s="81"/>
+      <c r="T138" s="81"/>
+      <c r="U138" s="81"/>
+      <c r="V138" s="81"/>
     </row>
     <row r="139" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="P139" s="83"/>
-      <c r="Q139" s="83"/>
-      <c r="R139" s="83"/>
-      <c r="S139" s="83"/>
-      <c r="T139" s="83"/>
-      <c r="U139" s="83"/>
-      <c r="V139" s="83"/>
+      <c r="P139" s="81"/>
+      <c r="Q139" s="81"/>
+      <c r="R139" s="81"/>
+      <c r="S139" s="81"/>
+      <c r="T139" s="81"/>
+      <c r="U139" s="81"/>
+      <c r="V139" s="81"/>
     </row>
     <row r="140" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="M140" s="84" t="s">
+      <c r="M140" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N140" s="84"/>
-      <c r="O140" s="84"/>
-      <c r="P140" s="85" t="s">
+      <c r="N140" s="82"/>
+      <c r="O140" s="82"/>
+      <c r="P140" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q140" s="85"/>
-      <c r="R140" s="85"/>
-      <c r="S140" s="85"/>
+      <c r="Q140" s="83"/>
+      <c r="R140" s="83"/>
+      <c r="S140" s="83"/>
       <c r="T140" s="18"/>
       <c r="U140" s="18"/>
-      <c r="V140" s="88" t="e">
+      <c r="V140" s="84" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W140" s="89"/>
-      <c r="X140" s="90"/>
+      <c r="W140" s="85"/>
+      <c r="X140" s="86"/>
     </row>
     <row r="141" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M141" s="6" t="s">
@@ -9123,45 +9125,45 @@
       <c r="S152" s="64"/>
     </row>
     <row r="153" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P153" s="83" t="s">
+      <c r="P153" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="Q153" s="83"/>
-      <c r="R153" s="83"/>
-      <c r="S153" s="83"/>
-      <c r="T153" s="83"/>
-      <c r="U153" s="83"/>
-      <c r="V153" s="83"/>
+      <c r="Q153" s="81"/>
+      <c r="R153" s="81"/>
+      <c r="S153" s="81"/>
+      <c r="T153" s="81"/>
+      <c r="U153" s="81"/>
+      <c r="V153" s="81"/>
     </row>
     <row r="154" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P154" s="83"/>
-      <c r="Q154" s="83"/>
-      <c r="R154" s="83"/>
-      <c r="S154" s="83"/>
-      <c r="T154" s="83"/>
-      <c r="U154" s="83"/>
-      <c r="V154" s="83"/>
+      <c r="P154" s="81"/>
+      <c r="Q154" s="81"/>
+      <c r="R154" s="81"/>
+      <c r="S154" s="81"/>
+      <c r="T154" s="81"/>
+      <c r="U154" s="81"/>
+      <c r="V154" s="81"/>
     </row>
     <row r="155" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M155" s="84" t="s">
+      <c r="M155" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N155" s="84"/>
-      <c r="O155" s="84"/>
-      <c r="P155" s="85" t="s">
+      <c r="N155" s="82"/>
+      <c r="O155" s="82"/>
+      <c r="P155" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q155" s="85"/>
-      <c r="R155" s="85"/>
-      <c r="S155" s="85"/>
+      <c r="Q155" s="83"/>
+      <c r="R155" s="83"/>
+      <c r="S155" s="83"/>
       <c r="T155" s="18"/>
       <c r="U155" s="18"/>
-      <c r="V155" s="88" t="e">
+      <c r="V155" s="84" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W155" s="89"/>
-      <c r="X155" s="90"/>
+      <c r="W155" s="85"/>
+      <c r="X155" s="86"/>
     </row>
     <row r="156" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M156" s="6" t="s">
@@ -9425,45 +9427,45 @@
       <c r="X166" s="4"/>
     </row>
     <row r="168" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P168" s="83" t="s">
+      <c r="P168" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="Q168" s="83"/>
-      <c r="R168" s="83"/>
-      <c r="S168" s="83"/>
-      <c r="T168" s="83"/>
-      <c r="U168" s="83"/>
-      <c r="V168" s="83"/>
+      <c r="Q168" s="81"/>
+      <c r="R168" s="81"/>
+      <c r="S168" s="81"/>
+      <c r="T168" s="81"/>
+      <c r="U168" s="81"/>
+      <c r="V168" s="81"/>
     </row>
     <row r="169" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P169" s="83"/>
-      <c r="Q169" s="83"/>
-      <c r="R169" s="83"/>
-      <c r="S169" s="83"/>
-      <c r="T169" s="83"/>
-      <c r="U169" s="83"/>
-      <c r="V169" s="83"/>
+      <c r="P169" s="81"/>
+      <c r="Q169" s="81"/>
+      <c r="R169" s="81"/>
+      <c r="S169" s="81"/>
+      <c r="T169" s="81"/>
+      <c r="U169" s="81"/>
+      <c r="V169" s="81"/>
     </row>
     <row r="170" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M170" s="84" t="s">
+      <c r="M170" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N170" s="84"/>
-      <c r="O170" s="84"/>
-      <c r="P170" s="85" t="s">
+      <c r="N170" s="82"/>
+      <c r="O170" s="82"/>
+      <c r="P170" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q170" s="85"/>
-      <c r="R170" s="85"/>
-      <c r="S170" s="85"/>
+      <c r="Q170" s="83"/>
+      <c r="R170" s="83"/>
+      <c r="S170" s="83"/>
       <c r="T170" s="18"/>
       <c r="U170" s="18"/>
-      <c r="V170" s="88" t="e">
+      <c r="V170" s="84" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W170" s="89"/>
-      <c r="X170" s="90"/>
+      <c r="W170" s="85"/>
+      <c r="X170" s="86"/>
     </row>
     <row r="171" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M171" s="6" t="s">
@@ -9668,45 +9670,45 @@
       <c r="X181" s="4"/>
     </row>
     <row r="186" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P186" s="83" t="s">
+      <c r="P186" s="81" t="s">
         <v>104</v>
       </c>
-      <c r="Q186" s="83"/>
-      <c r="R186" s="83"/>
-      <c r="S186" s="83"/>
-      <c r="T186" s="83"/>
-      <c r="U186" s="83"/>
-      <c r="V186" s="83"/>
+      <c r="Q186" s="81"/>
+      <c r="R186" s="81"/>
+      <c r="S186" s="81"/>
+      <c r="T186" s="81"/>
+      <c r="U186" s="81"/>
+      <c r="V186" s="81"/>
     </row>
     <row r="187" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P187" s="83"/>
-      <c r="Q187" s="83"/>
-      <c r="R187" s="83"/>
-      <c r="S187" s="83"/>
-      <c r="T187" s="83"/>
-      <c r="U187" s="83"/>
-      <c r="V187" s="83"/>
+      <c r="P187" s="81"/>
+      <c r="Q187" s="81"/>
+      <c r="R187" s="81"/>
+      <c r="S187" s="81"/>
+      <c r="T187" s="81"/>
+      <c r="U187" s="81"/>
+      <c r="V187" s="81"/>
     </row>
     <row r="188" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M188" s="84" t="s">
+      <c r="M188" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N188" s="84"/>
-      <c r="O188" s="84"/>
-      <c r="P188" s="85" t="s">
+      <c r="N188" s="82"/>
+      <c r="O188" s="82"/>
+      <c r="P188" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q188" s="85"/>
-      <c r="R188" s="85"/>
-      <c r="S188" s="85"/>
+      <c r="Q188" s="83"/>
+      <c r="R188" s="83"/>
+      <c r="S188" s="83"/>
       <c r="T188" s="18"/>
       <c r="U188" s="18"/>
-      <c r="V188" s="88" t="e">
+      <c r="V188" s="84" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W188" s="89"/>
-      <c r="X188" s="90"/>
+      <c r="W188" s="85"/>
+      <c r="X188" s="86"/>
     </row>
     <row r="189" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M189" s="6" t="s">
@@ -9876,24 +9878,24 @@
       <c r="X194" s="15"/>
     </row>
     <row r="198" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P198" s="83" t="s">
+      <c r="P198" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="Q198" s="83"/>
-      <c r="R198" s="83"/>
-      <c r="S198" s="83"/>
-      <c r="T198" s="83"/>
-      <c r="U198" s="83"/>
-      <c r="V198" s="83"/>
+      <c r="Q198" s="81"/>
+      <c r="R198" s="81"/>
+      <c r="S198" s="81"/>
+      <c r="T198" s="81"/>
+      <c r="U198" s="81"/>
+      <c r="V198" s="81"/>
     </row>
     <row r="199" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P199" s="83"/>
-      <c r="Q199" s="83"/>
-      <c r="R199" s="83"/>
-      <c r="S199" s="83"/>
-      <c r="T199" s="83"/>
-      <c r="U199" s="83"/>
-      <c r="V199" s="83"/>
+      <c r="P199" s="81"/>
+      <c r="Q199" s="81"/>
+      <c r="R199" s="81"/>
+      <c r="S199" s="81"/>
+      <c r="T199" s="81"/>
+      <c r="U199" s="81"/>
+      <c r="V199" s="81"/>
     </row>
     <row r="200" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M200" s="70" t="s">
@@ -10068,24 +10070,24 @@
       </c>
     </row>
     <row r="209" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P209" s="83" t="s">
+      <c r="P209" s="81" t="s">
         <v>113</v>
       </c>
-      <c r="Q209" s="83"/>
-      <c r="R209" s="83"/>
-      <c r="S209" s="83"/>
-      <c r="T209" s="83"/>
-      <c r="U209" s="83"/>
-      <c r="V209" s="83"/>
+      <c r="Q209" s="81"/>
+      <c r="R209" s="81"/>
+      <c r="S209" s="81"/>
+      <c r="T209" s="81"/>
+      <c r="U209" s="81"/>
+      <c r="V209" s="81"/>
     </row>
     <row r="210" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P210" s="83"/>
-      <c r="Q210" s="83"/>
-      <c r="R210" s="83"/>
-      <c r="S210" s="83"/>
-      <c r="T210" s="83"/>
-      <c r="U210" s="83"/>
-      <c r="V210" s="83"/>
+      <c r="P210" s="81"/>
+      <c r="Q210" s="81"/>
+      <c r="R210" s="81"/>
+      <c r="S210" s="81"/>
+      <c r="T210" s="81"/>
+      <c r="U210" s="81"/>
+      <c r="V210" s="81"/>
     </row>
     <row r="211" spans="13:26" ht="36" x14ac:dyDescent="0.25">
       <c r="M211" s="70" t="s">
@@ -10237,24 +10239,24 @@
       </c>
     </row>
     <row r="218" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P218" s="83" t="s">
+      <c r="P218" s="81" t="s">
         <v>114</v>
       </c>
-      <c r="Q218" s="83"/>
-      <c r="R218" s="83"/>
-      <c r="S218" s="83"/>
-      <c r="T218" s="83"/>
-      <c r="U218" s="83"/>
-      <c r="V218" s="83"/>
+      <c r="Q218" s="81"/>
+      <c r="R218" s="81"/>
+      <c r="S218" s="81"/>
+      <c r="T218" s="81"/>
+      <c r="U218" s="81"/>
+      <c r="V218" s="81"/>
     </row>
     <row r="219" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P219" s="83"/>
-      <c r="Q219" s="83"/>
-      <c r="R219" s="83"/>
-      <c r="S219" s="83"/>
-      <c r="T219" s="83"/>
-      <c r="U219" s="83"/>
-      <c r="V219" s="83"/>
+      <c r="P219" s="81"/>
+      <c r="Q219" s="81"/>
+      <c r="R219" s="81"/>
+      <c r="S219" s="81"/>
+      <c r="T219" s="81"/>
+      <c r="U219" s="81"/>
+      <c r="V219" s="81"/>
     </row>
     <row r="220" spans="13:26" ht="36" x14ac:dyDescent="0.25">
       <c r="M220" s="70" t="s">
@@ -10511,24 +10513,24 @@
       </c>
     </row>
     <row r="230" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P230" s="83" t="s">
+      <c r="P230" s="81" t="s">
         <v>116</v>
       </c>
-      <c r="Q230" s="83"/>
-      <c r="R230" s="83"/>
-      <c r="S230" s="83"/>
-      <c r="T230" s="83"/>
-      <c r="U230" s="83"/>
-      <c r="V230" s="83"/>
+      <c r="Q230" s="81"/>
+      <c r="R230" s="81"/>
+      <c r="S230" s="81"/>
+      <c r="T230" s="81"/>
+      <c r="U230" s="81"/>
+      <c r="V230" s="81"/>
     </row>
     <row r="231" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P231" s="83"/>
-      <c r="Q231" s="83"/>
-      <c r="R231" s="83"/>
-      <c r="S231" s="83"/>
-      <c r="T231" s="83"/>
-      <c r="U231" s="83"/>
-      <c r="V231" s="83"/>
+      <c r="P231" s="81"/>
+      <c r="Q231" s="81"/>
+      <c r="R231" s="81"/>
+      <c r="S231" s="81"/>
+      <c r="T231" s="81"/>
+      <c r="U231" s="81"/>
+      <c r="V231" s="81"/>
     </row>
     <row r="232" spans="13:26" ht="36" x14ac:dyDescent="0.25">
       <c r="M232" s="70" t="s">
@@ -10691,24 +10693,24 @@
       </c>
     </row>
     <row r="240" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P240" s="83" t="s">
+      <c r="P240" s="81" t="s">
         <v>118</v>
       </c>
-      <c r="Q240" s="83"/>
-      <c r="R240" s="83"/>
-      <c r="S240" s="83"/>
-      <c r="T240" s="83"/>
-      <c r="U240" s="83"/>
-      <c r="V240" s="83"/>
+      <c r="Q240" s="81"/>
+      <c r="R240" s="81"/>
+      <c r="S240" s="81"/>
+      <c r="T240" s="81"/>
+      <c r="U240" s="81"/>
+      <c r="V240" s="81"/>
     </row>
     <row r="241" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P241" s="83"/>
-      <c r="Q241" s="83"/>
-      <c r="R241" s="83"/>
-      <c r="S241" s="83"/>
-      <c r="T241" s="83"/>
-      <c r="U241" s="83"/>
-      <c r="V241" s="83"/>
+      <c r="P241" s="81"/>
+      <c r="Q241" s="81"/>
+      <c r="R241" s="81"/>
+      <c r="S241" s="81"/>
+      <c r="T241" s="81"/>
+      <c r="U241" s="81"/>
+      <c r="V241" s="81"/>
     </row>
     <row r="242" spans="13:26" ht="36" x14ac:dyDescent="0.25">
       <c r="M242" s="70" t="s">
@@ -10724,11 +10726,11 @@
       <c r="S242" s="71"/>
       <c r="T242" s="18"/>
       <c r="U242" s="18"/>
-      <c r="V242" s="88">
+      <c r="V242" s="84">
         <v>45082</v>
       </c>
-      <c r="W242" s="89"/>
-      <c r="X242" s="90"/>
+      <c r="W242" s="85"/>
+      <c r="X242" s="86"/>
     </row>
     <row r="243" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M243" s="6" t="s">
@@ -10838,24 +10840,24 @@
       </c>
     </row>
     <row r="248" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P248" s="83" t="s">
+      <c r="P248" s="81" t="s">
         <v>119</v>
       </c>
-      <c r="Q248" s="83"/>
-      <c r="R248" s="83"/>
-      <c r="S248" s="83"/>
-      <c r="T248" s="83"/>
-      <c r="U248" s="83"/>
-      <c r="V248" s="83"/>
+      <c r="Q248" s="81"/>
+      <c r="R248" s="81"/>
+      <c r="S248" s="81"/>
+      <c r="T248" s="81"/>
+      <c r="U248" s="81"/>
+      <c r="V248" s="81"/>
     </row>
     <row r="249" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P249" s="83"/>
-      <c r="Q249" s="83"/>
-      <c r="R249" s="83"/>
-      <c r="S249" s="83"/>
-      <c r="T249" s="83"/>
-      <c r="U249" s="83"/>
-      <c r="V249" s="83"/>
+      <c r="P249" s="81"/>
+      <c r="Q249" s="81"/>
+      <c r="R249" s="81"/>
+      <c r="S249" s="81"/>
+      <c r="T249" s="81"/>
+      <c r="U249" s="81"/>
+      <c r="V249" s="81"/>
     </row>
     <row r="250" spans="13:26" ht="36" x14ac:dyDescent="0.25">
       <c r="M250" s="79" t="s">
@@ -10871,11 +10873,11 @@
       <c r="S250" s="80"/>
       <c r="T250" s="18"/>
       <c r="U250" s="18"/>
-      <c r="V250" s="88">
+      <c r="V250" s="84">
         <v>45083</v>
       </c>
-      <c r="W250" s="89"/>
-      <c r="X250" s="90"/>
+      <c r="W250" s="85"/>
+      <c r="X250" s="86"/>
     </row>
     <row r="251" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M251" s="6" t="s">
@@ -10932,8 +10934,8 @@
       <c r="R252" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="S252" s="20" t="s">
-        <v>9</v>
+      <c r="S252" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="T252" s="43">
         <v>0.29166666666666669</v>
@@ -10944,67 +10946,31 @@
       <c r="V252" s="34">
         <v>0.3263888888888889</v>
       </c>
-      <c r="W252" s="34"/>
-      <c r="X252" s="35"/>
+      <c r="W252" s="34">
+        <v>0.35694444444444445</v>
+      </c>
+      <c r="X252" s="35">
+        <v>0.41111111111111115</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="P248:V249"/>
-    <mergeCell ref="V250:X250"/>
-    <mergeCell ref="V242:X242"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="M55:O55"/>
-    <mergeCell ref="P55:S55"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="D71:G71"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="M71:O71"/>
-    <mergeCell ref="P71:S71"/>
-    <mergeCell ref="C37:G38"/>
-    <mergeCell ref="P37:V38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="P39:S39"/>
-    <mergeCell ref="V39:X39"/>
-    <mergeCell ref="V71:X71"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="C53:G54"/>
-    <mergeCell ref="P53:V54"/>
-    <mergeCell ref="V55:X55"/>
-    <mergeCell ref="C69:G70"/>
-    <mergeCell ref="P69:V70"/>
-    <mergeCell ref="C22:G23"/>
-    <mergeCell ref="P22:V23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="C2:G3"/>
-    <mergeCell ref="P2:V3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="P121:V122"/>
-    <mergeCell ref="V123:X123"/>
-    <mergeCell ref="M123:O123"/>
-    <mergeCell ref="P123:S123"/>
-    <mergeCell ref="P138:V139"/>
-    <mergeCell ref="C86:G87"/>
-    <mergeCell ref="P86:V87"/>
-    <mergeCell ref="A88:C88"/>
-    <mergeCell ref="D88:G88"/>
-    <mergeCell ref="H88:J88"/>
-    <mergeCell ref="M88:O88"/>
-    <mergeCell ref="P88:S88"/>
-    <mergeCell ref="V88:X88"/>
+    <mergeCell ref="P240:V241"/>
+    <mergeCell ref="P218:V219"/>
+    <mergeCell ref="P198:V199"/>
+    <mergeCell ref="P186:V187"/>
+    <mergeCell ref="M188:O188"/>
+    <mergeCell ref="P188:S188"/>
+    <mergeCell ref="V188:X188"/>
+    <mergeCell ref="P209:V210"/>
+    <mergeCell ref="P230:V231"/>
+    <mergeCell ref="P168:V169"/>
+    <mergeCell ref="M170:O170"/>
+    <mergeCell ref="P170:S170"/>
+    <mergeCell ref="V170:X170"/>
+    <mergeCell ref="M155:O155"/>
+    <mergeCell ref="P155:S155"/>
+    <mergeCell ref="V155:X155"/>
     <mergeCell ref="P153:V154"/>
     <mergeCell ref="C103:G104"/>
     <mergeCell ref="P103:V104"/>
@@ -11021,22 +10987,62 @@
     <mergeCell ref="M140:O140"/>
     <mergeCell ref="P140:S140"/>
     <mergeCell ref="V140:X140"/>
-    <mergeCell ref="P168:V169"/>
-    <mergeCell ref="M170:O170"/>
-    <mergeCell ref="P170:S170"/>
-    <mergeCell ref="V170:X170"/>
-    <mergeCell ref="M155:O155"/>
-    <mergeCell ref="P155:S155"/>
-    <mergeCell ref="V155:X155"/>
-    <mergeCell ref="P240:V241"/>
-    <mergeCell ref="P218:V219"/>
-    <mergeCell ref="P198:V199"/>
-    <mergeCell ref="P186:V187"/>
-    <mergeCell ref="M188:O188"/>
-    <mergeCell ref="P188:S188"/>
-    <mergeCell ref="V188:X188"/>
-    <mergeCell ref="P209:V210"/>
-    <mergeCell ref="P230:V231"/>
+    <mergeCell ref="D88:G88"/>
+    <mergeCell ref="H88:J88"/>
+    <mergeCell ref="M88:O88"/>
+    <mergeCell ref="P88:S88"/>
+    <mergeCell ref="V88:X88"/>
+    <mergeCell ref="C2:G3"/>
+    <mergeCell ref="P2:V3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="C22:G23"/>
+    <mergeCell ref="P22:V23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="C53:G54"/>
+    <mergeCell ref="P53:V54"/>
+    <mergeCell ref="V55:X55"/>
+    <mergeCell ref="C69:G70"/>
+    <mergeCell ref="P69:V70"/>
+    <mergeCell ref="C37:G38"/>
+    <mergeCell ref="P37:V38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="P39:S39"/>
+    <mergeCell ref="V39:X39"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="D71:G71"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="M71:O71"/>
+    <mergeCell ref="P71:S71"/>
+    <mergeCell ref="P248:V249"/>
+    <mergeCell ref="V250:X250"/>
+    <mergeCell ref="V242:X242"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="P55:S55"/>
+    <mergeCell ref="V71:X71"/>
+    <mergeCell ref="P121:V122"/>
+    <mergeCell ref="V123:X123"/>
+    <mergeCell ref="M123:O123"/>
+    <mergeCell ref="P123:S123"/>
+    <mergeCell ref="P138:V139"/>
+    <mergeCell ref="C86:G87"/>
+    <mergeCell ref="P86:V87"/>
+    <mergeCell ref="A88:C88"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/DOC 2023/FORMATO STATUS.xlsx
+++ b/DOC 2023/FORMATO STATUS.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="121">
   <si>
     <t>DT</t>
   </si>
@@ -389,6 +389,9 @@
   </si>
   <si>
     <t>Miércoles 07-06-2023</t>
+  </si>
+  <si>
+    <t>Jueves 08-06-2023</t>
   </si>
 </sst>
 </file>
@@ -614,7 +617,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -716,11 +719,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -948,6 +975,12 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -956,6 +989,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -966,17 +1005,23 @@
     <xf numFmtId="164" fontId="6" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1255,7 +1300,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1284,72 +1329,72 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="P2" s="81" t="s">
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="P2" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="81"/>
-      <c r="S2" s="81"/>
-      <c r="T2" s="81"/>
-      <c r="U2" s="81"/>
-      <c r="V2" s="81"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="81"/>
-      <c r="S3" s="81"/>
-      <c r="T3" s="81"/>
-      <c r="U3" s="81"/>
-      <c r="V3" s="81"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="83"/>
+      <c r="R3" s="83"/>
+      <c r="S3" s="83"/>
+      <c r="T3" s="83"/>
+      <c r="U3" s="83"/>
+      <c r="V3" s="83"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="83" t="s">
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="89">
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="86">
         <v>44965</v>
       </c>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="M4" s="82" t="s">
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="M4" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="82"/>
-      <c r="O4" s="82"/>
-      <c r="P4" s="83" t="s">
+      <c r="N4" s="84"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="83"/>
-      <c r="R4" s="83"/>
-      <c r="S4" s="83"/>
+      <c r="Q4" s="85"/>
+      <c r="R4" s="85"/>
+      <c r="S4" s="85"/>
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
-      <c r="V4" s="84">
+      <c r="V4" s="88">
         <v>44601</v>
       </c>
-      <c r="W4" s="85"/>
-      <c r="X4" s="86"/>
+      <c r="W4" s="89"/>
+      <c r="X4" s="90"/>
     </row>
     <row r="5" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -1764,72 +1809,72 @@
       <c r="X15" s="4"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C22" s="87" t="s">
+      <c r="C22" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="87"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="87"/>
-      <c r="G22" s="87"/>
-      <c r="P22" s="81" t="s">
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="81"/>
+      <c r="P22" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="Q22" s="81"/>
-      <c r="R22" s="81"/>
-      <c r="S22" s="81"/>
-      <c r="T22" s="81"/>
-      <c r="U22" s="81"/>
-      <c r="V22" s="81"/>
+      <c r="Q22" s="83"/>
+      <c r="R22" s="83"/>
+      <c r="S22" s="83"/>
+      <c r="T22" s="83"/>
+      <c r="U22" s="83"/>
+      <c r="V22" s="83"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C23" s="88"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="88"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="88"/>
-      <c r="P23" s="81"/>
-      <c r="Q23" s="81"/>
-      <c r="R23" s="81"/>
-      <c r="S23" s="81"/>
-      <c r="T23" s="81"/>
-      <c r="U23" s="81"/>
-      <c r="V23" s="81"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="82"/>
+      <c r="P23" s="83"/>
+      <c r="Q23" s="83"/>
+      <c r="R23" s="83"/>
+      <c r="S23" s="83"/>
+      <c r="T23" s="83"/>
+      <c r="U23" s="83"/>
+      <c r="V23" s="83"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="82" t="s">
+      <c r="A24" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="82"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="83" t="s">
+      <c r="B24" s="84"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="83"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="89">
+      <c r="E24" s="85"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="86">
         <v>44965</v>
       </c>
-      <c r="I24" s="90"/>
-      <c r="J24" s="90"/>
-      <c r="M24" s="82" t="s">
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
+      <c r="M24" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="N24" s="82"/>
-      <c r="O24" s="82"/>
-      <c r="P24" s="83" t="s">
+      <c r="N24" s="84"/>
+      <c r="O24" s="84"/>
+      <c r="P24" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="Q24" s="83"/>
-      <c r="R24" s="83"/>
-      <c r="S24" s="83"/>
+      <c r="Q24" s="85"/>
+      <c r="R24" s="85"/>
+      <c r="S24" s="85"/>
       <c r="T24" s="18"/>
       <c r="U24" s="18"/>
-      <c r="V24" s="84">
+      <c r="V24" s="88">
         <v>44971</v>
       </c>
-      <c r="W24" s="85"/>
-      <c r="X24" s="86"/>
+      <c r="W24" s="89"/>
+      <c r="X24" s="90"/>
     </row>
     <row r="25" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -2284,72 +2329,72 @@
       <c r="X35" s="4"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C38" s="87" t="s">
+      <c r="C38" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="87"/>
-      <c r="E38" s="87"/>
-      <c r="F38" s="87"/>
-      <c r="G38" s="87"/>
-      <c r="P38" s="81" t="s">
+      <c r="D38" s="81"/>
+      <c r="E38" s="81"/>
+      <c r="F38" s="81"/>
+      <c r="G38" s="81"/>
+      <c r="P38" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="Q38" s="81"/>
-      <c r="R38" s="81"/>
-      <c r="S38" s="81"/>
-      <c r="T38" s="81"/>
-      <c r="U38" s="81"/>
-      <c r="V38" s="81"/>
+      <c r="Q38" s="83"/>
+      <c r="R38" s="83"/>
+      <c r="S38" s="83"/>
+      <c r="T38" s="83"/>
+      <c r="U38" s="83"/>
+      <c r="V38" s="83"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C39" s="88"/>
-      <c r="D39" s="88"/>
-      <c r="E39" s="88"/>
-      <c r="F39" s="88"/>
-      <c r="G39" s="88"/>
-      <c r="P39" s="81"/>
-      <c r="Q39" s="81"/>
-      <c r="R39" s="81"/>
-      <c r="S39" s="81"/>
-      <c r="T39" s="81"/>
-      <c r="U39" s="81"/>
-      <c r="V39" s="81"/>
+      <c r="C39" s="82"/>
+      <c r="D39" s="82"/>
+      <c r="E39" s="82"/>
+      <c r="F39" s="82"/>
+      <c r="G39" s="82"/>
+      <c r="P39" s="83"/>
+      <c r="Q39" s="83"/>
+      <c r="R39" s="83"/>
+      <c r="S39" s="83"/>
+      <c r="T39" s="83"/>
+      <c r="U39" s="83"/>
+      <c r="V39" s="83"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A40" s="82" t="s">
+      <c r="A40" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="82"/>
-      <c r="C40" s="82"/>
-      <c r="D40" s="83" t="s">
+      <c r="B40" s="84"/>
+      <c r="C40" s="84"/>
+      <c r="D40" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="E40" s="83"/>
-      <c r="F40" s="83"/>
-      <c r="G40" s="83"/>
-      <c r="H40" s="89">
+      <c r="E40" s="85"/>
+      <c r="F40" s="85"/>
+      <c r="G40" s="85"/>
+      <c r="H40" s="86">
         <v>44972</v>
       </c>
-      <c r="I40" s="90"/>
-      <c r="J40" s="90"/>
-      <c r="M40" s="82" t="s">
+      <c r="I40" s="87"/>
+      <c r="J40" s="87"/>
+      <c r="M40" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="N40" s="82"/>
-      <c r="O40" s="82"/>
-      <c r="P40" s="83" t="s">
+      <c r="N40" s="84"/>
+      <c r="O40" s="84"/>
+      <c r="P40" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="Q40" s="83"/>
-      <c r="R40" s="83"/>
-      <c r="S40" s="83"/>
+      <c r="Q40" s="85"/>
+      <c r="R40" s="85"/>
+      <c r="S40" s="85"/>
       <c r="T40" s="18"/>
       <c r="U40" s="18"/>
-      <c r="V40" s="84">
+      <c r="V40" s="88">
         <v>44973</v>
       </c>
-      <c r="W40" s="85"/>
-      <c r="X40" s="86"/>
+      <c r="W40" s="89"/>
+      <c r="X40" s="90"/>
     </row>
     <row r="41" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
@@ -2764,72 +2809,72 @@
       <c r="X51" s="4"/>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C54" s="87" t="s">
+      <c r="C54" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="D54" s="87"/>
-      <c r="E54" s="87"/>
-      <c r="F54" s="87"/>
-      <c r="G54" s="87"/>
-      <c r="P54" s="81" t="s">
+      <c r="D54" s="81"/>
+      <c r="E54" s="81"/>
+      <c r="F54" s="81"/>
+      <c r="G54" s="81"/>
+      <c r="P54" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="Q54" s="81"/>
-      <c r="R54" s="81"/>
-      <c r="S54" s="81"/>
-      <c r="T54" s="81"/>
-      <c r="U54" s="81"/>
-      <c r="V54" s="81"/>
+      <c r="Q54" s="83"/>
+      <c r="R54" s="83"/>
+      <c r="S54" s="83"/>
+      <c r="T54" s="83"/>
+      <c r="U54" s="83"/>
+      <c r="V54" s="83"/>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C55" s="88"/>
-      <c r="D55" s="88"/>
-      <c r="E55" s="88"/>
-      <c r="F55" s="88"/>
-      <c r="G55" s="88"/>
-      <c r="P55" s="81"/>
-      <c r="Q55" s="81"/>
-      <c r="R55" s="81"/>
-      <c r="S55" s="81"/>
-      <c r="T55" s="81"/>
-      <c r="U55" s="81"/>
-      <c r="V55" s="81"/>
+      <c r="C55" s="82"/>
+      <c r="D55" s="82"/>
+      <c r="E55" s="82"/>
+      <c r="F55" s="82"/>
+      <c r="G55" s="82"/>
+      <c r="P55" s="83"/>
+      <c r="Q55" s="83"/>
+      <c r="R55" s="83"/>
+      <c r="S55" s="83"/>
+      <c r="T55" s="83"/>
+      <c r="U55" s="83"/>
+      <c r="V55" s="83"/>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A56" s="82" t="s">
+      <c r="A56" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="82"/>
-      <c r="C56" s="82"/>
-      <c r="D56" s="83" t="s">
+      <c r="B56" s="84"/>
+      <c r="C56" s="84"/>
+      <c r="D56" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="E56" s="83"/>
-      <c r="F56" s="83"/>
-      <c r="G56" s="83"/>
-      <c r="H56" s="89">
+      <c r="E56" s="85"/>
+      <c r="F56" s="85"/>
+      <c r="G56" s="85"/>
+      <c r="H56" s="86">
         <v>44974</v>
       </c>
-      <c r="I56" s="90"/>
-      <c r="J56" s="90"/>
-      <c r="M56" s="82" t="s">
+      <c r="I56" s="87"/>
+      <c r="J56" s="87"/>
+      <c r="M56" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="N56" s="82"/>
-      <c r="O56" s="82"/>
-      <c r="P56" s="83" t="s">
+      <c r="N56" s="84"/>
+      <c r="O56" s="84"/>
+      <c r="P56" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="Q56" s="83"/>
-      <c r="R56" s="83"/>
-      <c r="S56" s="83"/>
+      <c r="Q56" s="85"/>
+      <c r="R56" s="85"/>
+      <c r="S56" s="85"/>
       <c r="T56" s="18"/>
       <c r="U56" s="18"/>
-      <c r="V56" s="84">
+      <c r="V56" s="88">
         <v>44975</v>
       </c>
-      <c r="W56" s="85"/>
-      <c r="X56" s="86"/>
+      <c r="W56" s="89"/>
+      <c r="X56" s="90"/>
     </row>
     <row r="57" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
@@ -3284,72 +3329,72 @@
       <c r="X67" s="4"/>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C70" s="87" t="s">
+      <c r="C70" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="D70" s="87"/>
-      <c r="E70" s="87"/>
-      <c r="F70" s="87"/>
-      <c r="G70" s="87"/>
-      <c r="P70" s="81" t="s">
+      <c r="D70" s="81"/>
+      <c r="E70" s="81"/>
+      <c r="F70" s="81"/>
+      <c r="G70" s="81"/>
+      <c r="P70" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="Q70" s="81"/>
-      <c r="R70" s="81"/>
-      <c r="S70" s="81"/>
-      <c r="T70" s="81"/>
-      <c r="U70" s="81"/>
-      <c r="V70" s="81"/>
+      <c r="Q70" s="83"/>
+      <c r="R70" s="83"/>
+      <c r="S70" s="83"/>
+      <c r="T70" s="83"/>
+      <c r="U70" s="83"/>
+      <c r="V70" s="83"/>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C71" s="88"/>
-      <c r="D71" s="88"/>
-      <c r="E71" s="88"/>
-      <c r="F71" s="88"/>
-      <c r="G71" s="88"/>
-      <c r="P71" s="81"/>
-      <c r="Q71" s="81"/>
-      <c r="R71" s="81"/>
-      <c r="S71" s="81"/>
-      <c r="T71" s="81"/>
-      <c r="U71" s="81"/>
-      <c r="V71" s="81"/>
+      <c r="C71" s="82"/>
+      <c r="D71" s="82"/>
+      <c r="E71" s="82"/>
+      <c r="F71" s="82"/>
+      <c r="G71" s="82"/>
+      <c r="P71" s="83"/>
+      <c r="Q71" s="83"/>
+      <c r="R71" s="83"/>
+      <c r="S71" s="83"/>
+      <c r="T71" s="83"/>
+      <c r="U71" s="83"/>
+      <c r="V71" s="83"/>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A72" s="82" t="s">
+      <c r="A72" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B72" s="82"/>
-      <c r="C72" s="82"/>
-      <c r="D72" s="83" t="s">
+      <c r="B72" s="84"/>
+      <c r="C72" s="84"/>
+      <c r="D72" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="E72" s="83"/>
-      <c r="F72" s="83"/>
-      <c r="G72" s="83"/>
-      <c r="H72" s="89">
+      <c r="E72" s="85"/>
+      <c r="F72" s="85"/>
+      <c r="G72" s="85"/>
+      <c r="H72" s="86">
         <v>44979</v>
       </c>
-      <c r="I72" s="90"/>
-      <c r="J72" s="90"/>
-      <c r="M72" s="82" t="s">
+      <c r="I72" s="87"/>
+      <c r="J72" s="87"/>
+      <c r="M72" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="N72" s="82"/>
-      <c r="O72" s="82"/>
-      <c r="P72" s="83" t="s">
+      <c r="N72" s="84"/>
+      <c r="O72" s="84"/>
+      <c r="P72" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="Q72" s="83"/>
-      <c r="R72" s="83"/>
-      <c r="S72" s="83"/>
+      <c r="Q72" s="85"/>
+      <c r="R72" s="85"/>
+      <c r="S72" s="85"/>
       <c r="T72" s="18"/>
       <c r="U72" s="18"/>
-      <c r="V72" s="84">
+      <c r="V72" s="88">
         <v>44980</v>
       </c>
-      <c r="W72" s="85"/>
-      <c r="X72" s="86"/>
+      <c r="W72" s="89"/>
+      <c r="X72" s="90"/>
     </row>
     <row r="73" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
@@ -3720,72 +3765,72 @@
       <c r="X83" s="4"/>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C87" s="87" t="s">
+      <c r="C87" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="D87" s="87"/>
-      <c r="E87" s="87"/>
-      <c r="F87" s="87"/>
-      <c r="G87" s="87"/>
-      <c r="P87" s="81" t="s">
+      <c r="D87" s="81"/>
+      <c r="E87" s="81"/>
+      <c r="F87" s="81"/>
+      <c r="G87" s="81"/>
+      <c r="P87" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="Q87" s="81"/>
-      <c r="R87" s="81"/>
-      <c r="S87" s="81"/>
-      <c r="T87" s="81"/>
-      <c r="U87" s="81"/>
-      <c r="V87" s="81"/>
+      <c r="Q87" s="83"/>
+      <c r="R87" s="83"/>
+      <c r="S87" s="83"/>
+      <c r="T87" s="83"/>
+      <c r="U87" s="83"/>
+      <c r="V87" s="83"/>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C88" s="88"/>
-      <c r="D88" s="88"/>
-      <c r="E88" s="88"/>
-      <c r="F88" s="88"/>
-      <c r="G88" s="88"/>
-      <c r="P88" s="81"/>
-      <c r="Q88" s="81"/>
-      <c r="R88" s="81"/>
-      <c r="S88" s="81"/>
-      <c r="T88" s="81"/>
-      <c r="U88" s="81"/>
-      <c r="V88" s="81"/>
+      <c r="C88" s="82"/>
+      <c r="D88" s="82"/>
+      <c r="E88" s="82"/>
+      <c r="F88" s="82"/>
+      <c r="G88" s="82"/>
+      <c r="P88" s="83"/>
+      <c r="Q88" s="83"/>
+      <c r="R88" s="83"/>
+      <c r="S88" s="83"/>
+      <c r="T88" s="83"/>
+      <c r="U88" s="83"/>
+      <c r="V88" s="83"/>
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A89" s="82" t="s">
+      <c r="A89" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B89" s="82"/>
-      <c r="C89" s="82"/>
-      <c r="D89" s="83" t="s">
+      <c r="B89" s="84"/>
+      <c r="C89" s="84"/>
+      <c r="D89" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="E89" s="83"/>
-      <c r="F89" s="83"/>
-      <c r="G89" s="83"/>
-      <c r="H89" s="89">
+      <c r="E89" s="85"/>
+      <c r="F89" s="85"/>
+      <c r="G89" s="85"/>
+      <c r="H89" s="86">
         <v>44981</v>
       </c>
-      <c r="I89" s="90"/>
-      <c r="J89" s="90"/>
-      <c r="M89" s="82" t="s">
+      <c r="I89" s="87"/>
+      <c r="J89" s="87"/>
+      <c r="M89" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="N89" s="82"/>
-      <c r="O89" s="82"/>
-      <c r="P89" s="83" t="s">
+      <c r="N89" s="84"/>
+      <c r="O89" s="84"/>
+      <c r="P89" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="Q89" s="83"/>
-      <c r="R89" s="83"/>
-      <c r="S89" s="83"/>
+      <c r="Q89" s="85"/>
+      <c r="R89" s="85"/>
+      <c r="S89" s="85"/>
       <c r="T89" s="18"/>
       <c r="U89" s="18"/>
-      <c r="V89" s="84">
+      <c r="V89" s="88">
         <v>44980</v>
       </c>
-      <c r="W89" s="85"/>
-      <c r="X89" s="86"/>
+      <c r="W89" s="89"/>
+      <c r="X89" s="90"/>
     </row>
     <row r="90" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
@@ -4240,72 +4285,72 @@
       <c r="X100" s="4"/>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C104" s="87" t="s">
+      <c r="C104" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="D104" s="87"/>
-      <c r="E104" s="87"/>
-      <c r="F104" s="87"/>
-      <c r="G104" s="87"/>
-      <c r="P104" s="81" t="s">
+      <c r="D104" s="81"/>
+      <c r="E104" s="81"/>
+      <c r="F104" s="81"/>
+      <c r="G104" s="81"/>
+      <c r="P104" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="Q104" s="81"/>
-      <c r="R104" s="81"/>
-      <c r="S104" s="81"/>
-      <c r="T104" s="81"/>
-      <c r="U104" s="81"/>
-      <c r="V104" s="81"/>
+      <c r="Q104" s="83"/>
+      <c r="R104" s="83"/>
+      <c r="S104" s="83"/>
+      <c r="T104" s="83"/>
+      <c r="U104" s="83"/>
+      <c r="V104" s="83"/>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C105" s="88"/>
-      <c r="D105" s="88"/>
-      <c r="E105" s="88"/>
-      <c r="F105" s="88"/>
-      <c r="G105" s="88"/>
-      <c r="P105" s="81"/>
-      <c r="Q105" s="81"/>
-      <c r="R105" s="81"/>
-      <c r="S105" s="81"/>
-      <c r="T105" s="81"/>
-      <c r="U105" s="81"/>
-      <c r="V105" s="81"/>
+      <c r="C105" s="82"/>
+      <c r="D105" s="82"/>
+      <c r="E105" s="82"/>
+      <c r="F105" s="82"/>
+      <c r="G105" s="82"/>
+      <c r="P105" s="83"/>
+      <c r="Q105" s="83"/>
+      <c r="R105" s="83"/>
+      <c r="S105" s="83"/>
+      <c r="T105" s="83"/>
+      <c r="U105" s="83"/>
+      <c r="V105" s="83"/>
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A106" s="82" t="s">
+      <c r="A106" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B106" s="82"/>
-      <c r="C106" s="82"/>
-      <c r="D106" s="83" t="s">
+      <c r="B106" s="84"/>
+      <c r="C106" s="84"/>
+      <c r="D106" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="E106" s="83"/>
-      <c r="F106" s="83"/>
-      <c r="G106" s="83"/>
-      <c r="H106" s="89">
+      <c r="E106" s="85"/>
+      <c r="F106" s="85"/>
+      <c r="G106" s="85"/>
+      <c r="H106" s="86">
         <v>44979</v>
       </c>
-      <c r="I106" s="90"/>
-      <c r="J106" s="90"/>
-      <c r="M106" s="82" t="s">
+      <c r="I106" s="87"/>
+      <c r="J106" s="87"/>
+      <c r="M106" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="N106" s="82"/>
-      <c r="O106" s="82"/>
-      <c r="P106" s="83" t="s">
+      <c r="N106" s="84"/>
+      <c r="O106" s="84"/>
+      <c r="P106" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="Q106" s="83"/>
-      <c r="R106" s="83"/>
-      <c r="S106" s="83"/>
+      <c r="Q106" s="85"/>
+      <c r="R106" s="85"/>
+      <c r="S106" s="85"/>
       <c r="T106" s="18"/>
       <c r="U106" s="18"/>
-      <c r="V106" s="84" t="s">
+      <c r="V106" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="W106" s="85"/>
-      <c r="X106" s="86"/>
+      <c r="W106" s="89"/>
+      <c r="X106" s="90"/>
     </row>
     <row r="107" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
@@ -4803,6 +4848,54 @@
     <row r="124" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="P38:V39"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="P40:S40"/>
+    <mergeCell ref="V40:X40"/>
+    <mergeCell ref="C38:G39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="C22:G23"/>
+    <mergeCell ref="P22:V23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="C2:G3"/>
+    <mergeCell ref="P2:V3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="C54:G55"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="P54:V55"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="P56:S56"/>
+    <mergeCell ref="V56:X56"/>
+    <mergeCell ref="C70:G71"/>
+    <mergeCell ref="P70:V71"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="D72:G72"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="M72:O72"/>
+    <mergeCell ref="P72:S72"/>
+    <mergeCell ref="V72:X72"/>
+    <mergeCell ref="C87:G88"/>
+    <mergeCell ref="P87:V88"/>
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="D89:G89"/>
+    <mergeCell ref="H89:J89"/>
+    <mergeCell ref="M89:O89"/>
+    <mergeCell ref="P89:S89"/>
+    <mergeCell ref="V89:X89"/>
     <mergeCell ref="C104:G105"/>
     <mergeCell ref="P104:V105"/>
     <mergeCell ref="A106:C106"/>
@@ -4811,54 +4904,6 @@
     <mergeCell ref="M106:O106"/>
     <mergeCell ref="P106:S106"/>
     <mergeCell ref="V106:X106"/>
-    <mergeCell ref="C87:G88"/>
-    <mergeCell ref="P87:V88"/>
-    <mergeCell ref="A89:C89"/>
-    <mergeCell ref="D89:G89"/>
-    <mergeCell ref="H89:J89"/>
-    <mergeCell ref="M89:O89"/>
-    <mergeCell ref="P89:S89"/>
-    <mergeCell ref="V89:X89"/>
-    <mergeCell ref="C70:G71"/>
-    <mergeCell ref="P70:V71"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="D72:G72"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="M72:O72"/>
-    <mergeCell ref="P72:S72"/>
-    <mergeCell ref="V72:X72"/>
-    <mergeCell ref="C54:G55"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="P54:V55"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="P56:S56"/>
-    <mergeCell ref="V56:X56"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="C2:G3"/>
-    <mergeCell ref="P2:V3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="C22:G23"/>
-    <mergeCell ref="P22:V23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="P38:V39"/>
-    <mergeCell ref="M40:O40"/>
-    <mergeCell ref="P40:S40"/>
-    <mergeCell ref="V40:X40"/>
-    <mergeCell ref="C38:G39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="H40:J40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4867,10 +4912,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Z252"/>
+  <dimension ref="A2:Z261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N241" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M248" sqref="M248:X252"/>
+    <sheetView tabSelected="1" topLeftCell="M243" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z250" sqref="Z250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4890,72 +4935,72 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="P2" s="81" t="s">
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="P2" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="81"/>
-      <c r="S2" s="81"/>
-      <c r="T2" s="81"/>
-      <c r="U2" s="81"/>
-      <c r="V2" s="81"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="81"/>
-      <c r="S3" s="81"/>
-      <c r="T3" s="81"/>
-      <c r="U3" s="81"/>
-      <c r="V3" s="81"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="83"/>
+      <c r="R3" s="83"/>
+      <c r="S3" s="83"/>
+      <c r="T3" s="83"/>
+      <c r="U3" s="83"/>
+      <c r="V3" s="83"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="83" t="s">
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="89" t="s">
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="86" t="s">
         <v>74</v>
       </c>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="M4" s="82" t="s">
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="M4" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="82"/>
-      <c r="O4" s="82"/>
-      <c r="P4" s="83" t="s">
+      <c r="N4" s="84"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="83"/>
-      <c r="R4" s="83"/>
-      <c r="S4" s="83"/>
+      <c r="Q4" s="85"/>
+      <c r="R4" s="85"/>
+      <c r="S4" s="85"/>
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
-      <c r="V4" s="84">
+      <c r="V4" s="88">
         <v>44601</v>
       </c>
-      <c r="W4" s="85"/>
-      <c r="X4" s="86"/>
+      <c r="W4" s="89"/>
+      <c r="X4" s="90"/>
     </row>
     <row r="5" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -5422,72 +5467,72 @@
       <c r="X15" s="4"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C22" s="87" t="s">
+      <c r="C22" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="D22" s="87"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="87"/>
-      <c r="G22" s="87"/>
-      <c r="P22" s="81" t="s">
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="81"/>
+      <c r="P22" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="Q22" s="81"/>
-      <c r="R22" s="81"/>
-      <c r="S22" s="81"/>
-      <c r="T22" s="81"/>
-      <c r="U22" s="81"/>
-      <c r="V22" s="81"/>
+      <c r="Q22" s="83"/>
+      <c r="R22" s="83"/>
+      <c r="S22" s="83"/>
+      <c r="T22" s="83"/>
+      <c r="U22" s="83"/>
+      <c r="V22" s="83"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C23" s="88"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="88"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="88"/>
-      <c r="P23" s="81"/>
-      <c r="Q23" s="81"/>
-      <c r="R23" s="81"/>
-      <c r="S23" s="81"/>
-      <c r="T23" s="81"/>
-      <c r="U23" s="81"/>
-      <c r="V23" s="81"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="82"/>
+      <c r="P23" s="83"/>
+      <c r="Q23" s="83"/>
+      <c r="R23" s="83"/>
+      <c r="S23" s="83"/>
+      <c r="T23" s="83"/>
+      <c r="U23" s="83"/>
+      <c r="V23" s="83"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="82" t="s">
+      <c r="A24" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="82"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="83" t="s">
+      <c r="B24" s="84"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="83"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="89">
+      <c r="E24" s="85"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="86">
         <v>44993</v>
       </c>
-      <c r="I24" s="90"/>
-      <c r="J24" s="90"/>
-      <c r="M24" s="82" t="s">
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
+      <c r="M24" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="N24" s="82"/>
-      <c r="O24" s="82"/>
-      <c r="P24" s="83" t="s">
+      <c r="N24" s="84"/>
+      <c r="O24" s="84"/>
+      <c r="P24" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="Q24" s="83"/>
-      <c r="R24" s="83"/>
-      <c r="S24" s="83"/>
+      <c r="Q24" s="85"/>
+      <c r="R24" s="85"/>
+      <c r="S24" s="85"/>
       <c r="T24" s="18"/>
       <c r="U24" s="18"/>
-      <c r="V24" s="84">
+      <c r="V24" s="88">
         <v>44993</v>
       </c>
-      <c r="W24" s="85"/>
-      <c r="X24" s="86"/>
+      <c r="W24" s="89"/>
+      <c r="X24" s="90"/>
     </row>
     <row r="25" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -5917,72 +5962,72 @@
       <c r="X34" s="4"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C37" s="87" t="s">
+      <c r="C37" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="D37" s="87"/>
-      <c r="E37" s="87"/>
-      <c r="F37" s="87"/>
-      <c r="G37" s="87"/>
-      <c r="P37" s="81" t="s">
+      <c r="D37" s="81"/>
+      <c r="E37" s="81"/>
+      <c r="F37" s="81"/>
+      <c r="G37" s="81"/>
+      <c r="P37" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="Q37" s="81"/>
-      <c r="R37" s="81"/>
-      <c r="S37" s="81"/>
-      <c r="T37" s="81"/>
-      <c r="U37" s="81"/>
-      <c r="V37" s="81"/>
+      <c r="Q37" s="83"/>
+      <c r="R37" s="83"/>
+      <c r="S37" s="83"/>
+      <c r="T37" s="83"/>
+      <c r="U37" s="83"/>
+      <c r="V37" s="83"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C38" s="88"/>
-      <c r="D38" s="88"/>
-      <c r="E38" s="88"/>
-      <c r="F38" s="88"/>
-      <c r="G38" s="88"/>
-      <c r="P38" s="81"/>
-      <c r="Q38" s="81"/>
-      <c r="R38" s="81"/>
-      <c r="S38" s="81"/>
-      <c r="T38" s="81"/>
-      <c r="U38" s="81"/>
-      <c r="V38" s="81"/>
+      <c r="C38" s="82"/>
+      <c r="D38" s="82"/>
+      <c r="E38" s="82"/>
+      <c r="F38" s="82"/>
+      <c r="G38" s="82"/>
+      <c r="P38" s="83"/>
+      <c r="Q38" s="83"/>
+      <c r="R38" s="83"/>
+      <c r="S38" s="83"/>
+      <c r="T38" s="83"/>
+      <c r="U38" s="83"/>
+      <c r="V38" s="83"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A39" s="82" t="s">
+      <c r="A39" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="82"/>
-      <c r="C39" s="82"/>
-      <c r="D39" s="83" t="s">
+      <c r="B39" s="84"/>
+      <c r="C39" s="84"/>
+      <c r="D39" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="83"/>
-      <c r="F39" s="83"/>
-      <c r="G39" s="83"/>
-      <c r="H39" s="89">
+      <c r="E39" s="85"/>
+      <c r="F39" s="85"/>
+      <c r="G39" s="85"/>
+      <c r="H39" s="86">
         <v>44972</v>
       </c>
-      <c r="I39" s="90"/>
-      <c r="J39" s="90"/>
-      <c r="M39" s="82" t="s">
+      <c r="I39" s="87"/>
+      <c r="J39" s="87"/>
+      <c r="M39" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="N39" s="82"/>
-      <c r="O39" s="82"/>
-      <c r="P39" s="83" t="s">
+      <c r="N39" s="84"/>
+      <c r="O39" s="84"/>
+      <c r="P39" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="Q39" s="83"/>
-      <c r="R39" s="83"/>
-      <c r="S39" s="83"/>
+      <c r="Q39" s="85"/>
+      <c r="R39" s="85"/>
+      <c r="S39" s="85"/>
       <c r="T39" s="18"/>
       <c r="U39" s="18"/>
-      <c r="V39" s="84">
+      <c r="V39" s="88">
         <v>44994</v>
       </c>
-      <c r="W39" s="85"/>
-      <c r="X39" s="86"/>
+      <c r="W39" s="89"/>
+      <c r="X39" s="90"/>
     </row>
     <row r="40" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
@@ -6393,72 +6438,72 @@
       <c r="X50" s="4"/>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C53" s="87">
+      <c r="C53" s="81">
         <v>45005</v>
       </c>
-      <c r="D53" s="87"/>
-      <c r="E53" s="87"/>
-      <c r="F53" s="87"/>
-      <c r="G53" s="87"/>
-      <c r="P53" s="87">
+      <c r="D53" s="81"/>
+      <c r="E53" s="81"/>
+      <c r="F53" s="81"/>
+      <c r="G53" s="81"/>
+      <c r="P53" s="81">
         <v>45006</v>
       </c>
-      <c r="Q53" s="87"/>
-      <c r="R53" s="87"/>
-      <c r="S53" s="87"/>
-      <c r="T53" s="87"/>
-      <c r="U53" s="87"/>
-      <c r="V53" s="87"/>
+      <c r="Q53" s="81"/>
+      <c r="R53" s="81"/>
+      <c r="S53" s="81"/>
+      <c r="T53" s="81"/>
+      <c r="U53" s="81"/>
+      <c r="V53" s="81"/>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C54" s="88"/>
-      <c r="D54" s="88"/>
-      <c r="E54" s="88"/>
-      <c r="F54" s="88"/>
-      <c r="G54" s="88"/>
-      <c r="P54" s="87"/>
-      <c r="Q54" s="87"/>
-      <c r="R54" s="87"/>
-      <c r="S54" s="87"/>
-      <c r="T54" s="87"/>
-      <c r="U54" s="87"/>
-      <c r="V54" s="87"/>
+      <c r="C54" s="82"/>
+      <c r="D54" s="82"/>
+      <c r="E54" s="82"/>
+      <c r="F54" s="82"/>
+      <c r="G54" s="82"/>
+      <c r="P54" s="81"/>
+      <c r="Q54" s="81"/>
+      <c r="R54" s="81"/>
+      <c r="S54" s="81"/>
+      <c r="T54" s="81"/>
+      <c r="U54" s="81"/>
+      <c r="V54" s="81"/>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A55" s="82" t="s">
+      <c r="A55" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="82"/>
-      <c r="C55" s="82"/>
-      <c r="D55" s="83" t="s">
+      <c r="B55" s="84"/>
+      <c r="C55" s="84"/>
+      <c r="D55" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="E55" s="83"/>
-      <c r="F55" s="83"/>
-      <c r="G55" s="83"/>
-      <c r="H55" s="89">
+      <c r="E55" s="85"/>
+      <c r="F55" s="85"/>
+      <c r="G55" s="85"/>
+      <c r="H55" s="86">
         <v>45005</v>
       </c>
-      <c r="I55" s="90"/>
-      <c r="J55" s="90"/>
-      <c r="M55" s="82" t="s">
+      <c r="I55" s="87"/>
+      <c r="J55" s="87"/>
+      <c r="M55" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="N55" s="82"/>
-      <c r="O55" s="82"/>
-      <c r="P55" s="83" t="s">
+      <c r="N55" s="84"/>
+      <c r="O55" s="84"/>
+      <c r="P55" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="Q55" s="83"/>
-      <c r="R55" s="83"/>
-      <c r="S55" s="83"/>
+      <c r="Q55" s="85"/>
+      <c r="R55" s="85"/>
+      <c r="S55" s="85"/>
       <c r="T55" s="18"/>
       <c r="U55" s="18"/>
-      <c r="V55" s="84">
+      <c r="V55" s="88">
         <v>45006</v>
       </c>
-      <c r="W55" s="85"/>
-      <c r="X55" s="86"/>
+      <c r="W55" s="89"/>
+      <c r="X55" s="90"/>
     </row>
     <row r="56" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
@@ -6857,72 +6902,72 @@
       <c r="X66" s="4"/>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C69" s="87" t="s">
+      <c r="C69" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="D69" s="87"/>
-      <c r="E69" s="87"/>
-      <c r="F69" s="87"/>
-      <c r="G69" s="87"/>
-      <c r="P69" s="81" t="s">
+      <c r="D69" s="81"/>
+      <c r="E69" s="81"/>
+      <c r="F69" s="81"/>
+      <c r="G69" s="81"/>
+      <c r="P69" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="Q69" s="81"/>
-      <c r="R69" s="81"/>
-      <c r="S69" s="81"/>
-      <c r="T69" s="81"/>
-      <c r="U69" s="81"/>
-      <c r="V69" s="81"/>
+      <c r="Q69" s="83"/>
+      <c r="R69" s="83"/>
+      <c r="S69" s="83"/>
+      <c r="T69" s="83"/>
+      <c r="U69" s="83"/>
+      <c r="V69" s="83"/>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C70" s="88"/>
-      <c r="D70" s="88"/>
-      <c r="E70" s="88"/>
-      <c r="F70" s="88"/>
-      <c r="G70" s="88"/>
-      <c r="P70" s="81"/>
-      <c r="Q70" s="81"/>
-      <c r="R70" s="81"/>
-      <c r="S70" s="81"/>
-      <c r="T70" s="81"/>
-      <c r="U70" s="81"/>
-      <c r="V70" s="81"/>
+      <c r="C70" s="82"/>
+      <c r="D70" s="82"/>
+      <c r="E70" s="82"/>
+      <c r="F70" s="82"/>
+      <c r="G70" s="82"/>
+      <c r="P70" s="83"/>
+      <c r="Q70" s="83"/>
+      <c r="R70" s="83"/>
+      <c r="S70" s="83"/>
+      <c r="T70" s="83"/>
+      <c r="U70" s="83"/>
+      <c r="V70" s="83"/>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A71" s="82" t="s">
+      <c r="A71" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B71" s="82"/>
-      <c r="C71" s="82"/>
-      <c r="D71" s="83" t="s">
+      <c r="B71" s="84"/>
+      <c r="C71" s="84"/>
+      <c r="D71" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="E71" s="83"/>
-      <c r="F71" s="83"/>
-      <c r="G71" s="83"/>
-      <c r="H71" s="89">
+      <c r="E71" s="85"/>
+      <c r="F71" s="85"/>
+      <c r="G71" s="85"/>
+      <c r="H71" s="86">
         <v>44979</v>
       </c>
-      <c r="I71" s="90"/>
-      <c r="J71" s="90"/>
-      <c r="M71" s="82" t="s">
+      <c r="I71" s="87"/>
+      <c r="J71" s="87"/>
+      <c r="M71" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="N71" s="82"/>
-      <c r="O71" s="82"/>
-      <c r="P71" s="83" t="s">
+      <c r="N71" s="84"/>
+      <c r="O71" s="84"/>
+      <c r="P71" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="Q71" s="83"/>
-      <c r="R71" s="83"/>
-      <c r="S71" s="83"/>
+      <c r="Q71" s="85"/>
+      <c r="R71" s="85"/>
+      <c r="S71" s="85"/>
       <c r="T71" s="18"/>
       <c r="U71" s="18"/>
-      <c r="V71" s="84">
+      <c r="V71" s="88">
         <v>44980</v>
       </c>
-      <c r="W71" s="85"/>
-      <c r="X71" s="86"/>
+      <c r="W71" s="89"/>
+      <c r="X71" s="90"/>
     </row>
     <row r="72" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
@@ -7325,72 +7370,72 @@
       <c r="X82" s="4"/>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C86" s="87" t="s">
+      <c r="C86" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="D86" s="87"/>
-      <c r="E86" s="87"/>
-      <c r="F86" s="87"/>
-      <c r="G86" s="87"/>
-      <c r="P86" s="81" t="s">
+      <c r="D86" s="81"/>
+      <c r="E86" s="81"/>
+      <c r="F86" s="81"/>
+      <c r="G86" s="81"/>
+      <c r="P86" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="Q86" s="81"/>
-      <c r="R86" s="81"/>
-      <c r="S86" s="81"/>
-      <c r="T86" s="81"/>
-      <c r="U86" s="81"/>
-      <c r="V86" s="81"/>
+      <c r="Q86" s="83"/>
+      <c r="R86" s="83"/>
+      <c r="S86" s="83"/>
+      <c r="T86" s="83"/>
+      <c r="U86" s="83"/>
+      <c r="V86" s="83"/>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C87" s="88"/>
-      <c r="D87" s="88"/>
-      <c r="E87" s="88"/>
-      <c r="F87" s="88"/>
-      <c r="G87" s="88"/>
-      <c r="P87" s="81"/>
-      <c r="Q87" s="81"/>
-      <c r="R87" s="81"/>
-      <c r="S87" s="81"/>
-      <c r="T87" s="81"/>
-      <c r="U87" s="81"/>
-      <c r="V87" s="81"/>
+      <c r="C87" s="82"/>
+      <c r="D87" s="82"/>
+      <c r="E87" s="82"/>
+      <c r="F87" s="82"/>
+      <c r="G87" s="82"/>
+      <c r="P87" s="83"/>
+      <c r="Q87" s="83"/>
+      <c r="R87" s="83"/>
+      <c r="S87" s="83"/>
+      <c r="T87" s="83"/>
+      <c r="U87" s="83"/>
+      <c r="V87" s="83"/>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A88" s="82" t="s">
+      <c r="A88" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B88" s="82"/>
-      <c r="C88" s="82"/>
-      <c r="D88" s="83" t="s">
+      <c r="B88" s="84"/>
+      <c r="C88" s="84"/>
+      <c r="D88" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="E88" s="83"/>
-      <c r="F88" s="83"/>
-      <c r="G88" s="83"/>
-      <c r="H88" s="89">
+      <c r="E88" s="85"/>
+      <c r="F88" s="85"/>
+      <c r="G88" s="85"/>
+      <c r="H88" s="86">
         <v>44981</v>
       </c>
-      <c r="I88" s="90"/>
-      <c r="J88" s="90"/>
-      <c r="M88" s="82" t="s">
+      <c r="I88" s="87"/>
+      <c r="J88" s="87"/>
+      <c r="M88" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="N88" s="82"/>
-      <c r="O88" s="82"/>
-      <c r="P88" s="83" t="s">
+      <c r="N88" s="84"/>
+      <c r="O88" s="84"/>
+      <c r="P88" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="Q88" s="83"/>
-      <c r="R88" s="83"/>
-      <c r="S88" s="83"/>
+      <c r="Q88" s="85"/>
+      <c r="R88" s="85"/>
+      <c r="S88" s="85"/>
       <c r="T88" s="18"/>
       <c r="U88" s="18"/>
-      <c r="V88" s="84">
+      <c r="V88" s="88">
         <v>44980</v>
       </c>
-      <c r="W88" s="85"/>
-      <c r="X88" s="86"/>
+      <c r="W88" s="89"/>
+      <c r="X88" s="90"/>
     </row>
     <row r="89" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
@@ -7725,72 +7770,72 @@
       <c r="X99" s="4"/>
     </row>
     <row r="103" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C103" s="87" t="s">
+      <c r="C103" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="D103" s="87"/>
-      <c r="E103" s="87"/>
-      <c r="F103" s="87"/>
-      <c r="G103" s="87"/>
-      <c r="P103" s="81" t="s">
+      <c r="D103" s="81"/>
+      <c r="E103" s="81"/>
+      <c r="F103" s="81"/>
+      <c r="G103" s="81"/>
+      <c r="P103" s="83" t="s">
         <v>90</v>
       </c>
-      <c r="Q103" s="81"/>
-      <c r="R103" s="81"/>
-      <c r="S103" s="81"/>
-      <c r="T103" s="81"/>
-      <c r="U103" s="81"/>
-      <c r="V103" s="81"/>
+      <c r="Q103" s="83"/>
+      <c r="R103" s="83"/>
+      <c r="S103" s="83"/>
+      <c r="T103" s="83"/>
+      <c r="U103" s="83"/>
+      <c r="V103" s="83"/>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C104" s="88"/>
-      <c r="D104" s="88"/>
-      <c r="E104" s="88"/>
-      <c r="F104" s="88"/>
-      <c r="G104" s="88"/>
-      <c r="P104" s="81"/>
-      <c r="Q104" s="81"/>
-      <c r="R104" s="81"/>
-      <c r="S104" s="81"/>
-      <c r="T104" s="81"/>
-      <c r="U104" s="81"/>
-      <c r="V104" s="81"/>
+      <c r="C104" s="82"/>
+      <c r="D104" s="82"/>
+      <c r="E104" s="82"/>
+      <c r="F104" s="82"/>
+      <c r="G104" s="82"/>
+      <c r="P104" s="83"/>
+      <c r="Q104" s="83"/>
+      <c r="R104" s="83"/>
+      <c r="S104" s="83"/>
+      <c r="T104" s="83"/>
+      <c r="U104" s="83"/>
+      <c r="V104" s="83"/>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A105" s="82" t="s">
+      <c r="A105" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B105" s="82"/>
-      <c r="C105" s="82"/>
-      <c r="D105" s="83" t="s">
+      <c r="B105" s="84"/>
+      <c r="C105" s="84"/>
+      <c r="D105" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="E105" s="83"/>
-      <c r="F105" s="83"/>
-      <c r="G105" s="83"/>
-      <c r="H105" s="89">
+      <c r="E105" s="85"/>
+      <c r="F105" s="85"/>
+      <c r="G105" s="85"/>
+      <c r="H105" s="86">
         <v>44979</v>
       </c>
-      <c r="I105" s="90"/>
-      <c r="J105" s="90"/>
-      <c r="M105" s="82" t="s">
+      <c r="I105" s="87"/>
+      <c r="J105" s="87"/>
+      <c r="M105" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="N105" s="82"/>
-      <c r="O105" s="82"/>
-      <c r="P105" s="83" t="s">
+      <c r="N105" s="84"/>
+      <c r="O105" s="84"/>
+      <c r="P105" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="Q105" s="83"/>
-      <c r="R105" s="83"/>
-      <c r="S105" s="83"/>
+      <c r="Q105" s="85"/>
+      <c r="R105" s="85"/>
+      <c r="S105" s="85"/>
       <c r="T105" s="18"/>
       <c r="U105" s="18"/>
-      <c r="V105" s="84">
+      <c r="V105" s="88">
         <v>45012</v>
       </c>
-      <c r="W105" s="85"/>
-      <c r="X105" s="86"/>
+      <c r="W105" s="89"/>
+      <c r="X105" s="90"/>
     </row>
     <row r="106" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
@@ -8241,73 +8286,73 @@
       <c r="X116" s="4"/>
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C121" s="87" t="s">
+      <c r="C121" s="81" t="s">
         <v>95</v>
       </c>
-      <c r="D121" s="87"/>
-      <c r="E121" s="87"/>
-      <c r="F121" s="87"/>
-      <c r="G121" s="87"/>
-      <c r="P121" s="81" t="s">
+      <c r="D121" s="81"/>
+      <c r="E121" s="81"/>
+      <c r="F121" s="81"/>
+      <c r="G121" s="81"/>
+      <c r="P121" s="83" t="s">
         <v>96</v>
       </c>
-      <c r="Q121" s="81"/>
-      <c r="R121" s="81"/>
-      <c r="S121" s="81"/>
-      <c r="T121" s="81"/>
-      <c r="U121" s="81"/>
-      <c r="V121" s="81"/>
+      <c r="Q121" s="83"/>
+      <c r="R121" s="83"/>
+      <c r="S121" s="83"/>
+      <c r="T121" s="83"/>
+      <c r="U121" s="83"/>
+      <c r="V121" s="83"/>
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C122" s="88"/>
-      <c r="D122" s="88"/>
-      <c r="E122" s="88"/>
-      <c r="F122" s="88"/>
-      <c r="G122" s="88"/>
-      <c r="P122" s="81"/>
-      <c r="Q122" s="81"/>
-      <c r="R122" s="81"/>
-      <c r="S122" s="81"/>
-      <c r="T122" s="81"/>
-      <c r="U122" s="81"/>
-      <c r="V122" s="81"/>
+      <c r="C122" s="82"/>
+      <c r="D122" s="82"/>
+      <c r="E122" s="82"/>
+      <c r="F122" s="82"/>
+      <c r="G122" s="82"/>
+      <c r="P122" s="83"/>
+      <c r="Q122" s="83"/>
+      <c r="R122" s="83"/>
+      <c r="S122" s="83"/>
+      <c r="T122" s="83"/>
+      <c r="U122" s="83"/>
+      <c r="V122" s="83"/>
     </row>
     <row r="123" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="82" t="s">
+      <c r="A123" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B123" s="82"/>
-      <c r="C123" s="82"/>
-      <c r="D123" s="83" t="s">
+      <c r="B123" s="84"/>
+      <c r="C123" s="84"/>
+      <c r="D123" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="E123" s="83"/>
-      <c r="F123" s="83"/>
-      <c r="G123" s="83"/>
-      <c r="H123" s="89">
+      <c r="E123" s="85"/>
+      <c r="F123" s="85"/>
+      <c r="G123" s="85"/>
+      <c r="H123" s="86">
         <v>44979</v>
       </c>
-      <c r="I123" s="90"/>
-      <c r="J123" s="90"/>
-      <c r="M123" s="82" t="s">
+      <c r="I123" s="87"/>
+      <c r="J123" s="87"/>
+      <c r="M123" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="N123" s="82"/>
-      <c r="O123" s="82"/>
-      <c r="P123" s="83" t="s">
+      <c r="N123" s="84"/>
+      <c r="O123" s="84"/>
+      <c r="P123" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="Q123" s="83"/>
-      <c r="R123" s="83"/>
-      <c r="S123" s="83"/>
+      <c r="Q123" s="85"/>
+      <c r="R123" s="85"/>
+      <c r="S123" s="85"/>
       <c r="T123" s="18"/>
       <c r="U123" s="18"/>
-      <c r="V123" s="84" t="e">
+      <c r="V123" s="88" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W123" s="85"/>
-      <c r="X123" s="86"/>
+      <c r="W123" s="89"/>
+      <c r="X123" s="90"/>
     </row>
     <row r="124" spans="1:26" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
@@ -8822,45 +8867,45 @@
       <c r="X134" s="4"/>
     </row>
     <row r="138" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="P138" s="81" t="s">
+      <c r="P138" s="83" t="s">
         <v>97</v>
       </c>
-      <c r="Q138" s="81"/>
-      <c r="R138" s="81"/>
-      <c r="S138" s="81"/>
-      <c r="T138" s="81"/>
-      <c r="U138" s="81"/>
-      <c r="V138" s="81"/>
+      <c r="Q138" s="83"/>
+      <c r="R138" s="83"/>
+      <c r="S138" s="83"/>
+      <c r="T138" s="83"/>
+      <c r="U138" s="83"/>
+      <c r="V138" s="83"/>
     </row>
     <row r="139" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="P139" s="81"/>
-      <c r="Q139" s="81"/>
-      <c r="R139" s="81"/>
-      <c r="S139" s="81"/>
-      <c r="T139" s="81"/>
-      <c r="U139" s="81"/>
-      <c r="V139" s="81"/>
+      <c r="P139" s="83"/>
+      <c r="Q139" s="83"/>
+      <c r="R139" s="83"/>
+      <c r="S139" s="83"/>
+      <c r="T139" s="83"/>
+      <c r="U139" s="83"/>
+      <c r="V139" s="83"/>
     </row>
     <row r="140" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="M140" s="82" t="s">
+      <c r="M140" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="N140" s="82"/>
-      <c r="O140" s="82"/>
-      <c r="P140" s="83" t="s">
+      <c r="N140" s="84"/>
+      <c r="O140" s="84"/>
+      <c r="P140" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="Q140" s="83"/>
-      <c r="R140" s="83"/>
-      <c r="S140" s="83"/>
+      <c r="Q140" s="85"/>
+      <c r="R140" s="85"/>
+      <c r="S140" s="85"/>
       <c r="T140" s="18"/>
       <c r="U140" s="18"/>
-      <c r="V140" s="84" t="e">
+      <c r="V140" s="88" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W140" s="85"/>
-      <c r="X140" s="86"/>
+      <c r="W140" s="89"/>
+      <c r="X140" s="90"/>
     </row>
     <row r="141" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M141" s="6" t="s">
@@ -9125,45 +9170,45 @@
       <c r="S152" s="64"/>
     </row>
     <row r="153" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P153" s="81" t="s">
+      <c r="P153" s="83" t="s">
         <v>102</v>
       </c>
-      <c r="Q153" s="81"/>
-      <c r="R153" s="81"/>
-      <c r="S153" s="81"/>
-      <c r="T153" s="81"/>
-      <c r="U153" s="81"/>
-      <c r="V153" s="81"/>
+      <c r="Q153" s="83"/>
+      <c r="R153" s="83"/>
+      <c r="S153" s="83"/>
+      <c r="T153" s="83"/>
+      <c r="U153" s="83"/>
+      <c r="V153" s="83"/>
     </row>
     <row r="154" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P154" s="81"/>
-      <c r="Q154" s="81"/>
-      <c r="R154" s="81"/>
-      <c r="S154" s="81"/>
-      <c r="T154" s="81"/>
-      <c r="U154" s="81"/>
-      <c r="V154" s="81"/>
+      <c r="P154" s="83"/>
+      <c r="Q154" s="83"/>
+      <c r="R154" s="83"/>
+      <c r="S154" s="83"/>
+      <c r="T154" s="83"/>
+      <c r="U154" s="83"/>
+      <c r="V154" s="83"/>
     </row>
     <row r="155" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M155" s="82" t="s">
+      <c r="M155" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="N155" s="82"/>
-      <c r="O155" s="82"/>
-      <c r="P155" s="83" t="s">
+      <c r="N155" s="84"/>
+      <c r="O155" s="84"/>
+      <c r="P155" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="Q155" s="83"/>
-      <c r="R155" s="83"/>
-      <c r="S155" s="83"/>
+      <c r="Q155" s="85"/>
+      <c r="R155" s="85"/>
+      <c r="S155" s="85"/>
       <c r="T155" s="18"/>
       <c r="U155" s="18"/>
-      <c r="V155" s="84" t="e">
+      <c r="V155" s="88" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W155" s="85"/>
-      <c r="X155" s="86"/>
+      <c r="W155" s="89"/>
+      <c r="X155" s="90"/>
     </row>
     <row r="156" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M156" s="6" t="s">
@@ -9427,45 +9472,45 @@
       <c r="X166" s="4"/>
     </row>
     <row r="168" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P168" s="81" t="s">
+      <c r="P168" s="83" t="s">
         <v>100</v>
       </c>
-      <c r="Q168" s="81"/>
-      <c r="R168" s="81"/>
-      <c r="S168" s="81"/>
-      <c r="T168" s="81"/>
-      <c r="U168" s="81"/>
-      <c r="V168" s="81"/>
+      <c r="Q168" s="83"/>
+      <c r="R168" s="83"/>
+      <c r="S168" s="83"/>
+      <c r="T168" s="83"/>
+      <c r="U168" s="83"/>
+      <c r="V168" s="83"/>
     </row>
     <row r="169" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P169" s="81"/>
-      <c r="Q169" s="81"/>
-      <c r="R169" s="81"/>
-      <c r="S169" s="81"/>
-      <c r="T169" s="81"/>
-      <c r="U169" s="81"/>
-      <c r="V169" s="81"/>
+      <c r="P169" s="83"/>
+      <c r="Q169" s="83"/>
+      <c r="R169" s="83"/>
+      <c r="S169" s="83"/>
+      <c r="T169" s="83"/>
+      <c r="U169" s="83"/>
+      <c r="V169" s="83"/>
     </row>
     <row r="170" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M170" s="82" t="s">
+      <c r="M170" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="N170" s="82"/>
-      <c r="O170" s="82"/>
-      <c r="P170" s="83" t="s">
+      <c r="N170" s="84"/>
+      <c r="O170" s="84"/>
+      <c r="P170" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="Q170" s="83"/>
-      <c r="R170" s="83"/>
-      <c r="S170" s="83"/>
+      <c r="Q170" s="85"/>
+      <c r="R170" s="85"/>
+      <c r="S170" s="85"/>
       <c r="T170" s="18"/>
       <c r="U170" s="18"/>
-      <c r="V170" s="84" t="e">
+      <c r="V170" s="88" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W170" s="85"/>
-      <c r="X170" s="86"/>
+      <c r="W170" s="89"/>
+      <c r="X170" s="90"/>
     </row>
     <row r="171" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M171" s="6" t="s">
@@ -9670,45 +9715,45 @@
       <c r="X181" s="4"/>
     </row>
     <row r="186" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P186" s="81" t="s">
+      <c r="P186" s="83" t="s">
         <v>104</v>
       </c>
-      <c r="Q186" s="81"/>
-      <c r="R186" s="81"/>
-      <c r="S186" s="81"/>
-      <c r="T186" s="81"/>
-      <c r="U186" s="81"/>
-      <c r="V186" s="81"/>
+      <c r="Q186" s="83"/>
+      <c r="R186" s="83"/>
+      <c r="S186" s="83"/>
+      <c r="T186" s="83"/>
+      <c r="U186" s="83"/>
+      <c r="V186" s="83"/>
     </row>
     <row r="187" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P187" s="81"/>
-      <c r="Q187" s="81"/>
-      <c r="R187" s="81"/>
-      <c r="S187" s="81"/>
-      <c r="T187" s="81"/>
-      <c r="U187" s="81"/>
-      <c r="V187" s="81"/>
+      <c r="P187" s="83"/>
+      <c r="Q187" s="83"/>
+      <c r="R187" s="83"/>
+      <c r="S187" s="83"/>
+      <c r="T187" s="83"/>
+      <c r="U187" s="83"/>
+      <c r="V187" s="83"/>
     </row>
     <row r="188" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M188" s="82" t="s">
+      <c r="M188" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="N188" s="82"/>
-      <c r="O188" s="82"/>
-      <c r="P188" s="83" t="s">
+      <c r="N188" s="84"/>
+      <c r="O188" s="84"/>
+      <c r="P188" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="Q188" s="83"/>
-      <c r="R188" s="83"/>
-      <c r="S188" s="83"/>
+      <c r="Q188" s="85"/>
+      <c r="R188" s="85"/>
+      <c r="S188" s="85"/>
       <c r="T188" s="18"/>
       <c r="U188" s="18"/>
-      <c r="V188" s="84" t="e">
+      <c r="V188" s="88" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W188" s="85"/>
-      <c r="X188" s="86"/>
+      <c r="W188" s="89"/>
+      <c r="X188" s="90"/>
     </row>
     <row r="189" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M189" s="6" t="s">
@@ -9878,24 +9923,24 @@
       <c r="X194" s="15"/>
     </row>
     <row r="198" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P198" s="81" t="s">
+      <c r="P198" s="83" t="s">
         <v>109</v>
       </c>
-      <c r="Q198" s="81"/>
-      <c r="R198" s="81"/>
-      <c r="S198" s="81"/>
-      <c r="T198" s="81"/>
-      <c r="U198" s="81"/>
-      <c r="V198" s="81"/>
+      <c r="Q198" s="83"/>
+      <c r="R198" s="83"/>
+      <c r="S198" s="83"/>
+      <c r="T198" s="83"/>
+      <c r="U198" s="83"/>
+      <c r="V198" s="83"/>
     </row>
     <row r="199" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P199" s="81"/>
-      <c r="Q199" s="81"/>
-      <c r="R199" s="81"/>
-      <c r="S199" s="81"/>
-      <c r="T199" s="81"/>
-      <c r="U199" s="81"/>
-      <c r="V199" s="81"/>
+      <c r="P199" s="83"/>
+      <c r="Q199" s="83"/>
+      <c r="R199" s="83"/>
+      <c r="S199" s="83"/>
+      <c r="T199" s="83"/>
+      <c r="U199" s="83"/>
+      <c r="V199" s="83"/>
     </row>
     <row r="200" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M200" s="70" t="s">
@@ -10070,24 +10115,24 @@
       </c>
     </row>
     <row r="209" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P209" s="81" t="s">
+      <c r="P209" s="83" t="s">
         <v>113</v>
       </c>
-      <c r="Q209" s="81"/>
-      <c r="R209" s="81"/>
-      <c r="S209" s="81"/>
-      <c r="T209" s="81"/>
-      <c r="U209" s="81"/>
-      <c r="V209" s="81"/>
+      <c r="Q209" s="83"/>
+      <c r="R209" s="83"/>
+      <c r="S209" s="83"/>
+      <c r="T209" s="83"/>
+      <c r="U209" s="83"/>
+      <c r="V209" s="83"/>
     </row>
     <row r="210" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P210" s="81"/>
-      <c r="Q210" s="81"/>
-      <c r="R210" s="81"/>
-      <c r="S210" s="81"/>
-      <c r="T210" s="81"/>
-      <c r="U210" s="81"/>
-      <c r="V210" s="81"/>
+      <c r="P210" s="83"/>
+      <c r="Q210" s="83"/>
+      <c r="R210" s="83"/>
+      <c r="S210" s="83"/>
+      <c r="T210" s="83"/>
+      <c r="U210" s="83"/>
+      <c r="V210" s="83"/>
     </row>
     <row r="211" spans="13:26" ht="36" x14ac:dyDescent="0.25">
       <c r="M211" s="70" t="s">
@@ -10239,24 +10284,24 @@
       </c>
     </row>
     <row r="218" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P218" s="81" t="s">
+      <c r="P218" s="83" t="s">
         <v>114</v>
       </c>
-      <c r="Q218" s="81"/>
-      <c r="R218" s="81"/>
-      <c r="S218" s="81"/>
-      <c r="T218" s="81"/>
-      <c r="U218" s="81"/>
-      <c r="V218" s="81"/>
+      <c r="Q218" s="83"/>
+      <c r="R218" s="83"/>
+      <c r="S218" s="83"/>
+      <c r="T218" s="83"/>
+      <c r="U218" s="83"/>
+      <c r="V218" s="83"/>
     </row>
     <row r="219" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P219" s="81"/>
-      <c r="Q219" s="81"/>
-      <c r="R219" s="81"/>
-      <c r="S219" s="81"/>
-      <c r="T219" s="81"/>
-      <c r="U219" s="81"/>
-      <c r="V219" s="81"/>
+      <c r="P219" s="83"/>
+      <c r="Q219" s="83"/>
+      <c r="R219" s="83"/>
+      <c r="S219" s="83"/>
+      <c r="T219" s="83"/>
+      <c r="U219" s="83"/>
+      <c r="V219" s="83"/>
     </row>
     <row r="220" spans="13:26" ht="36" x14ac:dyDescent="0.25">
       <c r="M220" s="70" t="s">
@@ -10513,24 +10558,24 @@
       </c>
     </row>
     <row r="230" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P230" s="81" t="s">
+      <c r="P230" s="83" t="s">
         <v>116</v>
       </c>
-      <c r="Q230" s="81"/>
-      <c r="R230" s="81"/>
-      <c r="S230" s="81"/>
-      <c r="T230" s="81"/>
-      <c r="U230" s="81"/>
-      <c r="V230" s="81"/>
+      <c r="Q230" s="83"/>
+      <c r="R230" s="83"/>
+      <c r="S230" s="83"/>
+      <c r="T230" s="83"/>
+      <c r="U230" s="83"/>
+      <c r="V230" s="83"/>
     </row>
     <row r="231" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P231" s="81"/>
-      <c r="Q231" s="81"/>
-      <c r="R231" s="81"/>
-      <c r="S231" s="81"/>
-      <c r="T231" s="81"/>
-      <c r="U231" s="81"/>
-      <c r="V231" s="81"/>
+      <c r="P231" s="83"/>
+      <c r="Q231" s="83"/>
+      <c r="R231" s="83"/>
+      <c r="S231" s="83"/>
+      <c r="T231" s="83"/>
+      <c r="U231" s="83"/>
+      <c r="V231" s="83"/>
     </row>
     <row r="232" spans="13:26" ht="36" x14ac:dyDescent="0.25">
       <c r="M232" s="70" t="s">
@@ -10693,24 +10738,24 @@
       </c>
     </row>
     <row r="240" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P240" s="81" t="s">
+      <c r="P240" s="83" t="s">
         <v>118</v>
       </c>
-      <c r="Q240" s="81"/>
-      <c r="R240" s="81"/>
-      <c r="S240" s="81"/>
-      <c r="T240" s="81"/>
-      <c r="U240" s="81"/>
-      <c r="V240" s="81"/>
+      <c r="Q240" s="83"/>
+      <c r="R240" s="83"/>
+      <c r="S240" s="83"/>
+      <c r="T240" s="83"/>
+      <c r="U240" s="83"/>
+      <c r="V240" s="83"/>
     </row>
     <row r="241" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P241" s="81"/>
-      <c r="Q241" s="81"/>
-      <c r="R241" s="81"/>
-      <c r="S241" s="81"/>
-      <c r="T241" s="81"/>
-      <c r="U241" s="81"/>
-      <c r="V241" s="81"/>
+      <c r="P241" s="83"/>
+      <c r="Q241" s="83"/>
+      <c r="R241" s="83"/>
+      <c r="S241" s="83"/>
+      <c r="T241" s="83"/>
+      <c r="U241" s="83"/>
+      <c r="V241" s="83"/>
     </row>
     <row r="242" spans="13:26" ht="36" x14ac:dyDescent="0.25">
       <c r="M242" s="70" t="s">
@@ -10726,11 +10771,11 @@
       <c r="S242" s="71"/>
       <c r="T242" s="18"/>
       <c r="U242" s="18"/>
-      <c r="V242" s="84">
+      <c r="V242" s="88">
         <v>45082</v>
       </c>
-      <c r="W242" s="85"/>
-      <c r="X242" s="86"/>
+      <c r="W242" s="89"/>
+      <c r="X242" s="90"/>
     </row>
     <row r="243" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M243" s="6" t="s">
@@ -10840,24 +10885,24 @@
       </c>
     </row>
     <row r="248" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P248" s="81" t="s">
+      <c r="P248" s="83" t="s">
         <v>119</v>
       </c>
-      <c r="Q248" s="81"/>
-      <c r="R248" s="81"/>
-      <c r="S248" s="81"/>
-      <c r="T248" s="81"/>
-      <c r="U248" s="81"/>
-      <c r="V248" s="81"/>
+      <c r="Q248" s="83"/>
+      <c r="R248" s="83"/>
+      <c r="S248" s="83"/>
+      <c r="T248" s="83"/>
+      <c r="U248" s="83"/>
+      <c r="V248" s="83"/>
     </row>
     <row r="249" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P249" s="81"/>
-      <c r="Q249" s="81"/>
-      <c r="R249" s="81"/>
-      <c r="S249" s="81"/>
-      <c r="T249" s="81"/>
-      <c r="U249" s="81"/>
-      <c r="V249" s="81"/>
+      <c r="P249" s="83"/>
+      <c r="Q249" s="83"/>
+      <c r="R249" s="83"/>
+      <c r="S249" s="83"/>
+      <c r="T249" s="83"/>
+      <c r="U249" s="83"/>
+      <c r="V249" s="83"/>
     </row>
     <row r="250" spans="13:26" ht="36" x14ac:dyDescent="0.25">
       <c r="M250" s="79" t="s">
@@ -10873,11 +10918,11 @@
       <c r="S250" s="80"/>
       <c r="T250" s="18"/>
       <c r="U250" s="18"/>
-      <c r="V250" s="84">
+      <c r="V250" s="88">
         <v>45083</v>
       </c>
-      <c r="W250" s="85"/>
-      <c r="X250" s="86"/>
+      <c r="W250" s="89"/>
+      <c r="X250" s="90"/>
     </row>
     <row r="251" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M251" s="6" t="s">
@@ -10953,24 +10998,227 @@
         <v>0.41111111111111115</v>
       </c>
     </row>
+    <row r="255" spans="13:26" x14ac:dyDescent="0.25">
+      <c r="P255" s="83" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q255" s="83"/>
+      <c r="R255" s="83"/>
+      <c r="S255" s="83"/>
+      <c r="T255" s="83"/>
+      <c r="U255" s="83"/>
+      <c r="V255" s="83"/>
+    </row>
+    <row r="256" spans="13:26" x14ac:dyDescent="0.25">
+      <c r="P256" s="83"/>
+      <c r="Q256" s="83"/>
+      <c r="R256" s="83"/>
+      <c r="S256" s="83"/>
+      <c r="T256" s="83"/>
+      <c r="U256" s="83"/>
+      <c r="V256" s="83"/>
+    </row>
+    <row r="257" spans="13:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M257" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="N257" s="92"/>
+      <c r="O257" s="93"/>
+      <c r="P257" s="94" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q257" s="95"/>
+      <c r="R257" s="95"/>
+      <c r="S257" s="95"/>
+      <c r="T257" s="95"/>
+      <c r="U257" s="96"/>
+      <c r="V257" s="88">
+        <v>45084</v>
+      </c>
+      <c r="W257" s="89"/>
+      <c r="X257" s="90"/>
+      <c r="Z257" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="258" spans="13:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M258" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N258" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O258" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P258" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q258" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="R258" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="S258" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="T258" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="U258" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="V258" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="W258" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="X258" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z258" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="259" spans="13:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M259" s="47"/>
+      <c r="N259" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="O259" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="P259" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q259" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="R259" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="S259" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="T259" s="43">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="U259" s="33">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="V259" s="34">
+        <v>0.56388888888888888</v>
+      </c>
+      <c r="W259" s="34"/>
+      <c r="X259" s="35"/>
+      <c r="Z259" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="260" spans="13:26" x14ac:dyDescent="0.25">
+      <c r="M260" s="47"/>
+      <c r="N260" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="O260" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="P260" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q260" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="R260" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="S260" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="T260" s="43">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="U260" s="33">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="V260" s="34">
+        <v>0.56388888888888888</v>
+      </c>
+      <c r="W260" s="34"/>
+      <c r="X260" s="35"/>
+      <c r="Z260" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="261" spans="13:26" ht="24" x14ac:dyDescent="0.25">
+      <c r="Z261" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="88">
-    <mergeCell ref="P240:V241"/>
-    <mergeCell ref="P218:V219"/>
-    <mergeCell ref="P198:V199"/>
-    <mergeCell ref="P186:V187"/>
-    <mergeCell ref="M188:O188"/>
-    <mergeCell ref="P188:S188"/>
-    <mergeCell ref="V188:X188"/>
-    <mergeCell ref="P209:V210"/>
-    <mergeCell ref="P230:V231"/>
-    <mergeCell ref="P168:V169"/>
-    <mergeCell ref="M170:O170"/>
-    <mergeCell ref="P170:S170"/>
-    <mergeCell ref="V170:X170"/>
-    <mergeCell ref="M155:O155"/>
-    <mergeCell ref="P155:S155"/>
-    <mergeCell ref="V155:X155"/>
+  <mergeCells count="92">
+    <mergeCell ref="P255:V256"/>
+    <mergeCell ref="V257:X257"/>
+    <mergeCell ref="M257:O257"/>
+    <mergeCell ref="P257:U257"/>
+    <mergeCell ref="P248:V249"/>
+    <mergeCell ref="V250:X250"/>
+    <mergeCell ref="V242:X242"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="P55:S55"/>
+    <mergeCell ref="V71:X71"/>
+    <mergeCell ref="P121:V122"/>
+    <mergeCell ref="V123:X123"/>
+    <mergeCell ref="M123:O123"/>
+    <mergeCell ref="P123:S123"/>
+    <mergeCell ref="P138:V139"/>
+    <mergeCell ref="C86:G87"/>
+    <mergeCell ref="P86:V87"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="D71:G71"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="M71:O71"/>
+    <mergeCell ref="P71:S71"/>
+    <mergeCell ref="C37:G38"/>
+    <mergeCell ref="P37:V38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="P39:S39"/>
+    <mergeCell ref="V39:X39"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="C53:G54"/>
+    <mergeCell ref="P53:V54"/>
+    <mergeCell ref="V55:X55"/>
+    <mergeCell ref="C69:G70"/>
+    <mergeCell ref="P69:V70"/>
+    <mergeCell ref="C22:G23"/>
+    <mergeCell ref="P22:V23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="C2:G3"/>
+    <mergeCell ref="P2:V3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="D88:G88"/>
+    <mergeCell ref="H88:J88"/>
+    <mergeCell ref="M88:O88"/>
+    <mergeCell ref="P88:S88"/>
+    <mergeCell ref="V88:X88"/>
     <mergeCell ref="P153:V154"/>
     <mergeCell ref="C103:G104"/>
     <mergeCell ref="P103:V104"/>
@@ -10987,62 +11235,22 @@
     <mergeCell ref="M140:O140"/>
     <mergeCell ref="P140:S140"/>
     <mergeCell ref="V140:X140"/>
-    <mergeCell ref="D88:G88"/>
-    <mergeCell ref="H88:J88"/>
-    <mergeCell ref="M88:O88"/>
-    <mergeCell ref="P88:S88"/>
-    <mergeCell ref="V88:X88"/>
-    <mergeCell ref="C2:G3"/>
-    <mergeCell ref="P2:V3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="C22:G23"/>
-    <mergeCell ref="P22:V23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="C53:G54"/>
-    <mergeCell ref="P53:V54"/>
-    <mergeCell ref="V55:X55"/>
-    <mergeCell ref="C69:G70"/>
-    <mergeCell ref="P69:V70"/>
-    <mergeCell ref="C37:G38"/>
-    <mergeCell ref="P37:V38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="P39:S39"/>
-    <mergeCell ref="V39:X39"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="D71:G71"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="M71:O71"/>
-    <mergeCell ref="P71:S71"/>
-    <mergeCell ref="P248:V249"/>
-    <mergeCell ref="V250:X250"/>
-    <mergeCell ref="V242:X242"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="M55:O55"/>
-    <mergeCell ref="P55:S55"/>
-    <mergeCell ref="V71:X71"/>
-    <mergeCell ref="P121:V122"/>
-    <mergeCell ref="V123:X123"/>
-    <mergeCell ref="M123:O123"/>
-    <mergeCell ref="P123:S123"/>
-    <mergeCell ref="P138:V139"/>
-    <mergeCell ref="C86:G87"/>
-    <mergeCell ref="P86:V87"/>
-    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="P168:V169"/>
+    <mergeCell ref="M170:O170"/>
+    <mergeCell ref="P170:S170"/>
+    <mergeCell ref="V170:X170"/>
+    <mergeCell ref="M155:O155"/>
+    <mergeCell ref="P155:S155"/>
+    <mergeCell ref="V155:X155"/>
+    <mergeCell ref="P240:V241"/>
+    <mergeCell ref="P218:V219"/>
+    <mergeCell ref="P198:V199"/>
+    <mergeCell ref="P186:V187"/>
+    <mergeCell ref="M188:O188"/>
+    <mergeCell ref="P188:S188"/>
+    <mergeCell ref="V188:X188"/>
+    <mergeCell ref="P209:V210"/>
+    <mergeCell ref="P230:V231"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/DOC 2023/FORMATO STATUS.xlsx
+++ b/DOC 2023/FORMATO STATUS.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\DOC 2023\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2405FF2D-BC67-46CD-BD0E-769D14ED5234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FEBRERO" sheetId="2" r:id="rId1"/>
     <sheet name="MARZO" sheetId="3" r:id="rId2"/>
     <sheet name="Hoja2" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -397,7 +403,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
@@ -747,7 +753,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -969,18 +975,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -990,12 +984,6 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1003,6 +991,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1300,14 +1300,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:Z124"/>
   <sheetViews>
     <sheetView topLeftCell="J103" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
@@ -1329,72 +1329,72 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C2" s="81" t="s">
+      <c r="C2" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="P2" s="83" t="s">
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="P2" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="83"/>
-      <c r="S2" s="83"/>
-      <c r="T2" s="83"/>
-      <c r="U2" s="83"/>
-      <c r="V2" s="83"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="79"/>
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="P3" s="83"/>
-      <c r="Q3" s="83"/>
-      <c r="R3" s="83"/>
-      <c r="S3" s="83"/>
-      <c r="T3" s="83"/>
-      <c r="U3" s="83"/>
-      <c r="V3" s="83"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="79"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="85" t="s">
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="86">
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="87">
         <v>44965</v>
       </c>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="M4" s="84" t="s">
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="M4" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="84"/>
-      <c r="O4" s="84"/>
-      <c r="P4" s="85" t="s">
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="85"/>
-      <c r="R4" s="85"/>
-      <c r="S4" s="85"/>
+      <c r="Q4" s="81"/>
+      <c r="R4" s="81"/>
+      <c r="S4" s="81"/>
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
-      <c r="V4" s="88">
+      <c r="V4" s="82">
         <v>44601</v>
       </c>
-      <c r="W4" s="89"/>
-      <c r="X4" s="90"/>
+      <c r="W4" s="83"/>
+      <c r="X4" s="84"/>
     </row>
     <row r="5" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -1809,72 +1809,72 @@
       <c r="X15" s="4"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C22" s="81" t="s">
+      <c r="C22" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="81"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="81"/>
-      <c r="P22" s="83" t="s">
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
+      <c r="P22" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="Q22" s="83"/>
-      <c r="R22" s="83"/>
-      <c r="S22" s="83"/>
-      <c r="T22" s="83"/>
-      <c r="U22" s="83"/>
-      <c r="V22" s="83"/>
+      <c r="Q22" s="79"/>
+      <c r="R22" s="79"/>
+      <c r="S22" s="79"/>
+      <c r="T22" s="79"/>
+      <c r="U22" s="79"/>
+      <c r="V22" s="79"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C23" s="82"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="82"/>
-      <c r="P23" s="83"/>
-      <c r="Q23" s="83"/>
-      <c r="R23" s="83"/>
-      <c r="S23" s="83"/>
-      <c r="T23" s="83"/>
-      <c r="U23" s="83"/>
-      <c r="V23" s="83"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="P23" s="79"/>
+      <c r="Q23" s="79"/>
+      <c r="R23" s="79"/>
+      <c r="S23" s="79"/>
+      <c r="T23" s="79"/>
+      <c r="U23" s="79"/>
+      <c r="V23" s="79"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="84" t="s">
+      <c r="A24" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="84"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="85" t="s">
+      <c r="B24" s="80"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="85"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="86">
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="87">
         <v>44965</v>
       </c>
-      <c r="I24" s="87"/>
-      <c r="J24" s="87"/>
-      <c r="M24" s="84" t="s">
+      <c r="I24" s="88"/>
+      <c r="J24" s="88"/>
+      <c r="M24" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N24" s="84"/>
-      <c r="O24" s="84"/>
-      <c r="P24" s="85" t="s">
+      <c r="N24" s="80"/>
+      <c r="O24" s="80"/>
+      <c r="P24" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q24" s="85"/>
-      <c r="R24" s="85"/>
-      <c r="S24" s="85"/>
+      <c r="Q24" s="81"/>
+      <c r="R24" s="81"/>
+      <c r="S24" s="81"/>
       <c r="T24" s="18"/>
       <c r="U24" s="18"/>
-      <c r="V24" s="88">
+      <c r="V24" s="82">
         <v>44971</v>
       </c>
-      <c r="W24" s="89"/>
-      <c r="X24" s="90"/>
+      <c r="W24" s="83"/>
+      <c r="X24" s="84"/>
     </row>
     <row r="25" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -2329,72 +2329,72 @@
       <c r="X35" s="4"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C38" s="81" t="s">
+      <c r="C38" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="81"/>
-      <c r="E38" s="81"/>
-      <c r="F38" s="81"/>
-      <c r="G38" s="81"/>
-      <c r="P38" s="83" t="s">
+      <c r="D38" s="85"/>
+      <c r="E38" s="85"/>
+      <c r="F38" s="85"/>
+      <c r="G38" s="85"/>
+      <c r="P38" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="Q38" s="83"/>
-      <c r="R38" s="83"/>
-      <c r="S38" s="83"/>
-      <c r="T38" s="83"/>
-      <c r="U38" s="83"/>
-      <c r="V38" s="83"/>
+      <c r="Q38" s="79"/>
+      <c r="R38" s="79"/>
+      <c r="S38" s="79"/>
+      <c r="T38" s="79"/>
+      <c r="U38" s="79"/>
+      <c r="V38" s="79"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C39" s="82"/>
-      <c r="D39" s="82"/>
-      <c r="E39" s="82"/>
-      <c r="F39" s="82"/>
-      <c r="G39" s="82"/>
-      <c r="P39" s="83"/>
-      <c r="Q39" s="83"/>
-      <c r="R39" s="83"/>
-      <c r="S39" s="83"/>
-      <c r="T39" s="83"/>
-      <c r="U39" s="83"/>
-      <c r="V39" s="83"/>
+      <c r="C39" s="86"/>
+      <c r="D39" s="86"/>
+      <c r="E39" s="86"/>
+      <c r="F39" s="86"/>
+      <c r="G39" s="86"/>
+      <c r="P39" s="79"/>
+      <c r="Q39" s="79"/>
+      <c r="R39" s="79"/>
+      <c r="S39" s="79"/>
+      <c r="T39" s="79"/>
+      <c r="U39" s="79"/>
+      <c r="V39" s="79"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A40" s="84" t="s">
+      <c r="A40" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="84"/>
-      <c r="C40" s="84"/>
-      <c r="D40" s="85" t="s">
+      <c r="B40" s="80"/>
+      <c r="C40" s="80"/>
+      <c r="D40" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E40" s="85"/>
-      <c r="F40" s="85"/>
-      <c r="G40" s="85"/>
-      <c r="H40" s="86">
+      <c r="E40" s="81"/>
+      <c r="F40" s="81"/>
+      <c r="G40" s="81"/>
+      <c r="H40" s="87">
         <v>44972</v>
       </c>
-      <c r="I40" s="87"/>
-      <c r="J40" s="87"/>
-      <c r="M40" s="84" t="s">
+      <c r="I40" s="88"/>
+      <c r="J40" s="88"/>
+      <c r="M40" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N40" s="84"/>
-      <c r="O40" s="84"/>
-      <c r="P40" s="85" t="s">
+      <c r="N40" s="80"/>
+      <c r="O40" s="80"/>
+      <c r="P40" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q40" s="85"/>
-      <c r="R40" s="85"/>
-      <c r="S40" s="85"/>
+      <c r="Q40" s="81"/>
+      <c r="R40" s="81"/>
+      <c r="S40" s="81"/>
       <c r="T40" s="18"/>
       <c r="U40" s="18"/>
-      <c r="V40" s="88">
+      <c r="V40" s="82">
         <v>44973</v>
       </c>
-      <c r="W40" s="89"/>
-      <c r="X40" s="90"/>
+      <c r="W40" s="83"/>
+      <c r="X40" s="84"/>
     </row>
     <row r="41" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
@@ -2809,72 +2809,72 @@
       <c r="X51" s="4"/>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C54" s="81" t="s">
+      <c r="C54" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="D54" s="81"/>
-      <c r="E54" s="81"/>
-      <c r="F54" s="81"/>
-      <c r="G54" s="81"/>
-      <c r="P54" s="83" t="s">
+      <c r="D54" s="85"/>
+      <c r="E54" s="85"/>
+      <c r="F54" s="85"/>
+      <c r="G54" s="85"/>
+      <c r="P54" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="Q54" s="83"/>
-      <c r="R54" s="83"/>
-      <c r="S54" s="83"/>
-      <c r="T54" s="83"/>
-      <c r="U54" s="83"/>
-      <c r="V54" s="83"/>
+      <c r="Q54" s="79"/>
+      <c r="R54" s="79"/>
+      <c r="S54" s="79"/>
+      <c r="T54" s="79"/>
+      <c r="U54" s="79"/>
+      <c r="V54" s="79"/>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C55" s="82"/>
-      <c r="D55" s="82"/>
-      <c r="E55" s="82"/>
-      <c r="F55" s="82"/>
-      <c r="G55" s="82"/>
-      <c r="P55" s="83"/>
-      <c r="Q55" s="83"/>
-      <c r="R55" s="83"/>
-      <c r="S55" s="83"/>
-      <c r="T55" s="83"/>
-      <c r="U55" s="83"/>
-      <c r="V55" s="83"/>
+      <c r="C55" s="86"/>
+      <c r="D55" s="86"/>
+      <c r="E55" s="86"/>
+      <c r="F55" s="86"/>
+      <c r="G55" s="86"/>
+      <c r="P55" s="79"/>
+      <c r="Q55" s="79"/>
+      <c r="R55" s="79"/>
+      <c r="S55" s="79"/>
+      <c r="T55" s="79"/>
+      <c r="U55" s="79"/>
+      <c r="V55" s="79"/>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A56" s="84" t="s">
+      <c r="A56" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="84"/>
-      <c r="C56" s="84"/>
-      <c r="D56" s="85" t="s">
+      <c r="B56" s="80"/>
+      <c r="C56" s="80"/>
+      <c r="D56" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E56" s="85"/>
-      <c r="F56" s="85"/>
-      <c r="G56" s="85"/>
-      <c r="H56" s="86">
+      <c r="E56" s="81"/>
+      <c r="F56" s="81"/>
+      <c r="G56" s="81"/>
+      <c r="H56" s="87">
         <v>44974</v>
       </c>
-      <c r="I56" s="87"/>
-      <c r="J56" s="87"/>
-      <c r="M56" s="84" t="s">
+      <c r="I56" s="88"/>
+      <c r="J56" s="88"/>
+      <c r="M56" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N56" s="84"/>
-      <c r="O56" s="84"/>
-      <c r="P56" s="85" t="s">
+      <c r="N56" s="80"/>
+      <c r="O56" s="80"/>
+      <c r="P56" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q56" s="85"/>
-      <c r="R56" s="85"/>
-      <c r="S56" s="85"/>
+      <c r="Q56" s="81"/>
+      <c r="R56" s="81"/>
+      <c r="S56" s="81"/>
       <c r="T56" s="18"/>
       <c r="U56" s="18"/>
-      <c r="V56" s="88">
+      <c r="V56" s="82">
         <v>44975</v>
       </c>
-      <c r="W56" s="89"/>
-      <c r="X56" s="90"/>
+      <c r="W56" s="83"/>
+      <c r="X56" s="84"/>
     </row>
     <row r="57" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
@@ -3329,72 +3329,72 @@
       <c r="X67" s="4"/>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C70" s="81" t="s">
+      <c r="C70" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="D70" s="81"/>
-      <c r="E70" s="81"/>
-      <c r="F70" s="81"/>
-      <c r="G70" s="81"/>
-      <c r="P70" s="83" t="s">
+      <c r="D70" s="85"/>
+      <c r="E70" s="85"/>
+      <c r="F70" s="85"/>
+      <c r="G70" s="85"/>
+      <c r="P70" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="Q70" s="83"/>
-      <c r="R70" s="83"/>
-      <c r="S70" s="83"/>
-      <c r="T70" s="83"/>
-      <c r="U70" s="83"/>
-      <c r="V70" s="83"/>
+      <c r="Q70" s="79"/>
+      <c r="R70" s="79"/>
+      <c r="S70" s="79"/>
+      <c r="T70" s="79"/>
+      <c r="U70" s="79"/>
+      <c r="V70" s="79"/>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C71" s="82"/>
-      <c r="D71" s="82"/>
-      <c r="E71" s="82"/>
-      <c r="F71" s="82"/>
-      <c r="G71" s="82"/>
-      <c r="P71" s="83"/>
-      <c r="Q71" s="83"/>
-      <c r="R71" s="83"/>
-      <c r="S71" s="83"/>
-      <c r="T71" s="83"/>
-      <c r="U71" s="83"/>
-      <c r="V71" s="83"/>
+      <c r="C71" s="86"/>
+      <c r="D71" s="86"/>
+      <c r="E71" s="86"/>
+      <c r="F71" s="86"/>
+      <c r="G71" s="86"/>
+      <c r="P71" s="79"/>
+      <c r="Q71" s="79"/>
+      <c r="R71" s="79"/>
+      <c r="S71" s="79"/>
+      <c r="T71" s="79"/>
+      <c r="U71" s="79"/>
+      <c r="V71" s="79"/>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A72" s="84" t="s">
+      <c r="A72" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B72" s="84"/>
-      <c r="C72" s="84"/>
-      <c r="D72" s="85" t="s">
+      <c r="B72" s="80"/>
+      <c r="C72" s="80"/>
+      <c r="D72" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E72" s="85"/>
-      <c r="F72" s="85"/>
-      <c r="G72" s="85"/>
-      <c r="H72" s="86">
+      <c r="E72" s="81"/>
+      <c r="F72" s="81"/>
+      <c r="G72" s="81"/>
+      <c r="H72" s="87">
         <v>44979</v>
       </c>
-      <c r="I72" s="87"/>
-      <c r="J72" s="87"/>
-      <c r="M72" s="84" t="s">
+      <c r="I72" s="88"/>
+      <c r="J72" s="88"/>
+      <c r="M72" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N72" s="84"/>
-      <c r="O72" s="84"/>
-      <c r="P72" s="85" t="s">
+      <c r="N72" s="80"/>
+      <c r="O72" s="80"/>
+      <c r="P72" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q72" s="85"/>
-      <c r="R72" s="85"/>
-      <c r="S72" s="85"/>
+      <c r="Q72" s="81"/>
+      <c r="R72" s="81"/>
+      <c r="S72" s="81"/>
       <c r="T72" s="18"/>
       <c r="U72" s="18"/>
-      <c r="V72" s="88">
+      <c r="V72" s="82">
         <v>44980</v>
       </c>
-      <c r="W72" s="89"/>
-      <c r="X72" s="90"/>
+      <c r="W72" s="83"/>
+      <c r="X72" s="84"/>
     </row>
     <row r="73" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
@@ -3765,72 +3765,72 @@
       <c r="X83" s="4"/>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C87" s="81" t="s">
+      <c r="C87" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="D87" s="81"/>
-      <c r="E87" s="81"/>
-      <c r="F87" s="81"/>
-      <c r="G87" s="81"/>
-      <c r="P87" s="83" t="s">
+      <c r="D87" s="85"/>
+      <c r="E87" s="85"/>
+      <c r="F87" s="85"/>
+      <c r="G87" s="85"/>
+      <c r="P87" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="Q87" s="83"/>
-      <c r="R87" s="83"/>
-      <c r="S87" s="83"/>
-      <c r="T87" s="83"/>
-      <c r="U87" s="83"/>
-      <c r="V87" s="83"/>
+      <c r="Q87" s="79"/>
+      <c r="R87" s="79"/>
+      <c r="S87" s="79"/>
+      <c r="T87" s="79"/>
+      <c r="U87" s="79"/>
+      <c r="V87" s="79"/>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C88" s="82"/>
-      <c r="D88" s="82"/>
-      <c r="E88" s="82"/>
-      <c r="F88" s="82"/>
-      <c r="G88" s="82"/>
-      <c r="P88" s="83"/>
-      <c r="Q88" s="83"/>
-      <c r="R88" s="83"/>
-      <c r="S88" s="83"/>
-      <c r="T88" s="83"/>
-      <c r="U88" s="83"/>
-      <c r="V88" s="83"/>
+      <c r="C88" s="86"/>
+      <c r="D88" s="86"/>
+      <c r="E88" s="86"/>
+      <c r="F88" s="86"/>
+      <c r="G88" s="86"/>
+      <c r="P88" s="79"/>
+      <c r="Q88" s="79"/>
+      <c r="R88" s="79"/>
+      <c r="S88" s="79"/>
+      <c r="T88" s="79"/>
+      <c r="U88" s="79"/>
+      <c r="V88" s="79"/>
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A89" s="84" t="s">
+      <c r="A89" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B89" s="84"/>
-      <c r="C89" s="84"/>
-      <c r="D89" s="85" t="s">
+      <c r="B89" s="80"/>
+      <c r="C89" s="80"/>
+      <c r="D89" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E89" s="85"/>
-      <c r="F89" s="85"/>
-      <c r="G89" s="85"/>
-      <c r="H89" s="86">
+      <c r="E89" s="81"/>
+      <c r="F89" s="81"/>
+      <c r="G89" s="81"/>
+      <c r="H89" s="87">
         <v>44981</v>
       </c>
-      <c r="I89" s="87"/>
-      <c r="J89" s="87"/>
-      <c r="M89" s="84" t="s">
+      <c r="I89" s="88"/>
+      <c r="J89" s="88"/>
+      <c r="M89" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N89" s="84"/>
-      <c r="O89" s="84"/>
-      <c r="P89" s="85" t="s">
+      <c r="N89" s="80"/>
+      <c r="O89" s="80"/>
+      <c r="P89" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q89" s="85"/>
-      <c r="R89" s="85"/>
-      <c r="S89" s="85"/>
+      <c r="Q89" s="81"/>
+      <c r="R89" s="81"/>
+      <c r="S89" s="81"/>
       <c r="T89" s="18"/>
       <c r="U89" s="18"/>
-      <c r="V89" s="88">
+      <c r="V89" s="82">
         <v>44980</v>
       </c>
-      <c r="W89" s="89"/>
-      <c r="X89" s="90"/>
+      <c r="W89" s="83"/>
+      <c r="X89" s="84"/>
     </row>
     <row r="90" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
@@ -4285,72 +4285,72 @@
       <c r="X100" s="4"/>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C104" s="81" t="s">
+      <c r="C104" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="D104" s="81"/>
-      <c r="E104" s="81"/>
-      <c r="F104" s="81"/>
-      <c r="G104" s="81"/>
-      <c r="P104" s="83" t="s">
+      <c r="D104" s="85"/>
+      <c r="E104" s="85"/>
+      <c r="F104" s="85"/>
+      <c r="G104" s="85"/>
+      <c r="P104" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="Q104" s="83"/>
-      <c r="R104" s="83"/>
-      <c r="S104" s="83"/>
-      <c r="T104" s="83"/>
-      <c r="U104" s="83"/>
-      <c r="V104" s="83"/>
+      <c r="Q104" s="79"/>
+      <c r="R104" s="79"/>
+      <c r="S104" s="79"/>
+      <c r="T104" s="79"/>
+      <c r="U104" s="79"/>
+      <c r="V104" s="79"/>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C105" s="82"/>
-      <c r="D105" s="82"/>
-      <c r="E105" s="82"/>
-      <c r="F105" s="82"/>
-      <c r="G105" s="82"/>
-      <c r="P105" s="83"/>
-      <c r="Q105" s="83"/>
-      <c r="R105" s="83"/>
-      <c r="S105" s="83"/>
-      <c r="T105" s="83"/>
-      <c r="U105" s="83"/>
-      <c r="V105" s="83"/>
+      <c r="C105" s="86"/>
+      <c r="D105" s="86"/>
+      <c r="E105" s="86"/>
+      <c r="F105" s="86"/>
+      <c r="G105" s="86"/>
+      <c r="P105" s="79"/>
+      <c r="Q105" s="79"/>
+      <c r="R105" s="79"/>
+      <c r="S105" s="79"/>
+      <c r="T105" s="79"/>
+      <c r="U105" s="79"/>
+      <c r="V105" s="79"/>
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A106" s="84" t="s">
+      <c r="A106" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B106" s="84"/>
-      <c r="C106" s="84"/>
-      <c r="D106" s="85" t="s">
+      <c r="B106" s="80"/>
+      <c r="C106" s="80"/>
+      <c r="D106" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E106" s="85"/>
-      <c r="F106" s="85"/>
-      <c r="G106" s="85"/>
-      <c r="H106" s="86">
+      <c r="E106" s="81"/>
+      <c r="F106" s="81"/>
+      <c r="G106" s="81"/>
+      <c r="H106" s="87">
         <v>44979</v>
       </c>
-      <c r="I106" s="87"/>
-      <c r="J106" s="87"/>
-      <c r="M106" s="84" t="s">
+      <c r="I106" s="88"/>
+      <c r="J106" s="88"/>
+      <c r="M106" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N106" s="84"/>
-      <c r="O106" s="84"/>
-      <c r="P106" s="85" t="s">
+      <c r="N106" s="80"/>
+      <c r="O106" s="80"/>
+      <c r="P106" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q106" s="85"/>
-      <c r="R106" s="85"/>
-      <c r="S106" s="85"/>
+      <c r="Q106" s="81"/>
+      <c r="R106" s="81"/>
+      <c r="S106" s="81"/>
       <c r="T106" s="18"/>
       <c r="U106" s="18"/>
-      <c r="V106" s="88" t="s">
+      <c r="V106" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="W106" s="89"/>
-      <c r="X106" s="90"/>
+      <c r="W106" s="83"/>
+      <c r="X106" s="84"/>
     </row>
     <row r="107" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
@@ -4848,6 +4848,54 @@
     <row r="124" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="C104:G105"/>
+    <mergeCell ref="P104:V105"/>
+    <mergeCell ref="A106:C106"/>
+    <mergeCell ref="D106:G106"/>
+    <mergeCell ref="H106:J106"/>
+    <mergeCell ref="M106:O106"/>
+    <mergeCell ref="P106:S106"/>
+    <mergeCell ref="V106:X106"/>
+    <mergeCell ref="C87:G88"/>
+    <mergeCell ref="P87:V88"/>
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="D89:G89"/>
+    <mergeCell ref="H89:J89"/>
+    <mergeCell ref="M89:O89"/>
+    <mergeCell ref="P89:S89"/>
+    <mergeCell ref="V89:X89"/>
+    <mergeCell ref="C70:G71"/>
+    <mergeCell ref="P70:V71"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="D72:G72"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="M72:O72"/>
+    <mergeCell ref="P72:S72"/>
+    <mergeCell ref="V72:X72"/>
+    <mergeCell ref="C54:G55"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="P54:V55"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="P56:S56"/>
+    <mergeCell ref="V56:X56"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="C2:G3"/>
+    <mergeCell ref="P2:V3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="C22:G23"/>
+    <mergeCell ref="P22:V23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="V24:X24"/>
     <mergeCell ref="P38:V39"/>
     <mergeCell ref="M40:O40"/>
     <mergeCell ref="P40:S40"/>
@@ -4856,54 +4904,6 @@
     <mergeCell ref="A40:C40"/>
     <mergeCell ref="D40:G40"/>
     <mergeCell ref="H40:J40"/>
-    <mergeCell ref="C22:G23"/>
-    <mergeCell ref="P22:V23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="C2:G3"/>
-    <mergeCell ref="P2:V3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="C54:G55"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="P54:V55"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="P56:S56"/>
-    <mergeCell ref="V56:X56"/>
-    <mergeCell ref="C70:G71"/>
-    <mergeCell ref="P70:V71"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="D72:G72"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="M72:O72"/>
-    <mergeCell ref="P72:S72"/>
-    <mergeCell ref="V72:X72"/>
-    <mergeCell ref="C87:G88"/>
-    <mergeCell ref="P87:V88"/>
-    <mergeCell ref="A89:C89"/>
-    <mergeCell ref="D89:G89"/>
-    <mergeCell ref="H89:J89"/>
-    <mergeCell ref="M89:O89"/>
-    <mergeCell ref="P89:S89"/>
-    <mergeCell ref="V89:X89"/>
-    <mergeCell ref="C104:G105"/>
-    <mergeCell ref="P104:V105"/>
-    <mergeCell ref="A106:C106"/>
-    <mergeCell ref="D106:G106"/>
-    <mergeCell ref="H106:J106"/>
-    <mergeCell ref="M106:O106"/>
-    <mergeCell ref="P106:S106"/>
-    <mergeCell ref="V106:X106"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4911,11 +4911,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:Z261"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M243" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z250" sqref="Z250"/>
+      <selection activeCell="X259" sqref="X259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4935,72 +4935,72 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C2" s="81" t="s">
+      <c r="C2" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="P2" s="83" t="s">
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="P2" s="79" t="s">
         <v>76</v>
       </c>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="83"/>
-      <c r="S2" s="83"/>
-      <c r="T2" s="83"/>
-      <c r="U2" s="83"/>
-      <c r="V2" s="83"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="79"/>
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="P3" s="83"/>
-      <c r="Q3" s="83"/>
-      <c r="R3" s="83"/>
-      <c r="S3" s="83"/>
-      <c r="T3" s="83"/>
-      <c r="U3" s="83"/>
-      <c r="V3" s="83"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="79"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="85" t="s">
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="86" t="s">
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="M4" s="84" t="s">
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="M4" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="84"/>
-      <c r="O4" s="84"/>
-      <c r="P4" s="85" t="s">
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="85"/>
-      <c r="R4" s="85"/>
-      <c r="S4" s="85"/>
+      <c r="Q4" s="81"/>
+      <c r="R4" s="81"/>
+      <c r="S4" s="81"/>
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
-      <c r="V4" s="88">
+      <c r="V4" s="82">
         <v>44601</v>
       </c>
-      <c r="W4" s="89"/>
-      <c r="X4" s="90"/>
+      <c r="W4" s="83"/>
+      <c r="X4" s="84"/>
     </row>
     <row r="5" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -5467,72 +5467,72 @@
       <c r="X15" s="4"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C22" s="81" t="s">
+      <c r="C22" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="D22" s="81"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="81"/>
-      <c r="P22" s="83" t="s">
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
+      <c r="P22" s="79" t="s">
         <v>77</v>
       </c>
-      <c r="Q22" s="83"/>
-      <c r="R22" s="83"/>
-      <c r="S22" s="83"/>
-      <c r="T22" s="83"/>
-      <c r="U22" s="83"/>
-      <c r="V22" s="83"/>
+      <c r="Q22" s="79"/>
+      <c r="R22" s="79"/>
+      <c r="S22" s="79"/>
+      <c r="T22" s="79"/>
+      <c r="U22" s="79"/>
+      <c r="V22" s="79"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C23" s="82"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="82"/>
-      <c r="P23" s="83"/>
-      <c r="Q23" s="83"/>
-      <c r="R23" s="83"/>
-      <c r="S23" s="83"/>
-      <c r="T23" s="83"/>
-      <c r="U23" s="83"/>
-      <c r="V23" s="83"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="P23" s="79"/>
+      <c r="Q23" s="79"/>
+      <c r="R23" s="79"/>
+      <c r="S23" s="79"/>
+      <c r="T23" s="79"/>
+      <c r="U23" s="79"/>
+      <c r="V23" s="79"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="84" t="s">
+      <c r="A24" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="84"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="85" t="s">
+      <c r="B24" s="80"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="85"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="86">
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="87">
         <v>44993</v>
       </c>
-      <c r="I24" s="87"/>
-      <c r="J24" s="87"/>
-      <c r="M24" s="84" t="s">
+      <c r="I24" s="88"/>
+      <c r="J24" s="88"/>
+      <c r="M24" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N24" s="84"/>
-      <c r="O24" s="84"/>
-      <c r="P24" s="85" t="s">
+      <c r="N24" s="80"/>
+      <c r="O24" s="80"/>
+      <c r="P24" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q24" s="85"/>
-      <c r="R24" s="85"/>
-      <c r="S24" s="85"/>
+      <c r="Q24" s="81"/>
+      <c r="R24" s="81"/>
+      <c r="S24" s="81"/>
       <c r="T24" s="18"/>
       <c r="U24" s="18"/>
-      <c r="V24" s="88">
+      <c r="V24" s="82">
         <v>44993</v>
       </c>
-      <c r="W24" s="89"/>
-      <c r="X24" s="90"/>
+      <c r="W24" s="83"/>
+      <c r="X24" s="84"/>
     </row>
     <row r="25" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -5962,72 +5962,72 @@
       <c r="X34" s="4"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C37" s="81" t="s">
+      <c r="C37" s="85" t="s">
         <v>84</v>
       </c>
-      <c r="D37" s="81"/>
-      <c r="E37" s="81"/>
-      <c r="F37" s="81"/>
-      <c r="G37" s="81"/>
-      <c r="P37" s="83" t="s">
+      <c r="D37" s="85"/>
+      <c r="E37" s="85"/>
+      <c r="F37" s="85"/>
+      <c r="G37" s="85"/>
+      <c r="P37" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="Q37" s="83"/>
-      <c r="R37" s="83"/>
-      <c r="S37" s="83"/>
-      <c r="T37" s="83"/>
-      <c r="U37" s="83"/>
-      <c r="V37" s="83"/>
+      <c r="Q37" s="79"/>
+      <c r="R37" s="79"/>
+      <c r="S37" s="79"/>
+      <c r="T37" s="79"/>
+      <c r="U37" s="79"/>
+      <c r="V37" s="79"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C38" s="82"/>
-      <c r="D38" s="82"/>
-      <c r="E38" s="82"/>
-      <c r="F38" s="82"/>
-      <c r="G38" s="82"/>
-      <c r="P38" s="83"/>
-      <c r="Q38" s="83"/>
-      <c r="R38" s="83"/>
-      <c r="S38" s="83"/>
-      <c r="T38" s="83"/>
-      <c r="U38" s="83"/>
-      <c r="V38" s="83"/>
+      <c r="C38" s="86"/>
+      <c r="D38" s="86"/>
+      <c r="E38" s="86"/>
+      <c r="F38" s="86"/>
+      <c r="G38" s="86"/>
+      <c r="P38" s="79"/>
+      <c r="Q38" s="79"/>
+      <c r="R38" s="79"/>
+      <c r="S38" s="79"/>
+      <c r="T38" s="79"/>
+      <c r="U38" s="79"/>
+      <c r="V38" s="79"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A39" s="84" t="s">
+      <c r="A39" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="84"/>
-      <c r="C39" s="84"/>
-      <c r="D39" s="85" t="s">
+      <c r="B39" s="80"/>
+      <c r="C39" s="80"/>
+      <c r="D39" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="85"/>
-      <c r="F39" s="85"/>
-      <c r="G39" s="85"/>
-      <c r="H39" s="86">
+      <c r="E39" s="81"/>
+      <c r="F39" s="81"/>
+      <c r="G39" s="81"/>
+      <c r="H39" s="87">
         <v>44972</v>
       </c>
-      <c r="I39" s="87"/>
-      <c r="J39" s="87"/>
-      <c r="M39" s="84" t="s">
+      <c r="I39" s="88"/>
+      <c r="J39" s="88"/>
+      <c r="M39" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N39" s="84"/>
-      <c r="O39" s="84"/>
-      <c r="P39" s="85" t="s">
+      <c r="N39" s="80"/>
+      <c r="O39" s="80"/>
+      <c r="P39" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q39" s="85"/>
-      <c r="R39" s="85"/>
-      <c r="S39" s="85"/>
+      <c r="Q39" s="81"/>
+      <c r="R39" s="81"/>
+      <c r="S39" s="81"/>
       <c r="T39" s="18"/>
       <c r="U39" s="18"/>
-      <c r="V39" s="88">
+      <c r="V39" s="82">
         <v>44994</v>
       </c>
-      <c r="W39" s="89"/>
-      <c r="X39" s="90"/>
+      <c r="W39" s="83"/>
+      <c r="X39" s="84"/>
     </row>
     <row r="40" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
@@ -6438,72 +6438,72 @@
       <c r="X50" s="4"/>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C53" s="81">
+      <c r="C53" s="85">
         <v>45005</v>
       </c>
-      <c r="D53" s="81"/>
-      <c r="E53" s="81"/>
-      <c r="F53" s="81"/>
-      <c r="G53" s="81"/>
-      <c r="P53" s="81">
+      <c r="D53" s="85"/>
+      <c r="E53" s="85"/>
+      <c r="F53" s="85"/>
+      <c r="G53" s="85"/>
+      <c r="P53" s="85">
         <v>45006</v>
       </c>
-      <c r="Q53" s="81"/>
-      <c r="R53" s="81"/>
-      <c r="S53" s="81"/>
-      <c r="T53" s="81"/>
-      <c r="U53" s="81"/>
-      <c r="V53" s="81"/>
+      <c r="Q53" s="85"/>
+      <c r="R53" s="85"/>
+      <c r="S53" s="85"/>
+      <c r="T53" s="85"/>
+      <c r="U53" s="85"/>
+      <c r="V53" s="85"/>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C54" s="82"/>
-      <c r="D54" s="82"/>
-      <c r="E54" s="82"/>
-      <c r="F54" s="82"/>
-      <c r="G54" s="82"/>
-      <c r="P54" s="81"/>
-      <c r="Q54" s="81"/>
-      <c r="R54" s="81"/>
-      <c r="S54" s="81"/>
-      <c r="T54" s="81"/>
-      <c r="U54" s="81"/>
-      <c r="V54" s="81"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="86"/>
+      <c r="E54" s="86"/>
+      <c r="F54" s="86"/>
+      <c r="G54" s="86"/>
+      <c r="P54" s="85"/>
+      <c r="Q54" s="85"/>
+      <c r="R54" s="85"/>
+      <c r="S54" s="85"/>
+      <c r="T54" s="85"/>
+      <c r="U54" s="85"/>
+      <c r="V54" s="85"/>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A55" s="84" t="s">
+      <c r="A55" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="84"/>
-      <c r="C55" s="84"/>
-      <c r="D55" s="85" t="s">
+      <c r="B55" s="80"/>
+      <c r="C55" s="80"/>
+      <c r="D55" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E55" s="85"/>
-      <c r="F55" s="85"/>
-      <c r="G55" s="85"/>
-      <c r="H55" s="86">
+      <c r="E55" s="81"/>
+      <c r="F55" s="81"/>
+      <c r="G55" s="81"/>
+      <c r="H55" s="87">
         <v>45005</v>
       </c>
-      <c r="I55" s="87"/>
-      <c r="J55" s="87"/>
-      <c r="M55" s="84" t="s">
+      <c r="I55" s="88"/>
+      <c r="J55" s="88"/>
+      <c r="M55" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N55" s="84"/>
-      <c r="O55" s="84"/>
-      <c r="P55" s="85" t="s">
+      <c r="N55" s="80"/>
+      <c r="O55" s="80"/>
+      <c r="P55" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q55" s="85"/>
-      <c r="R55" s="85"/>
-      <c r="S55" s="85"/>
+      <c r="Q55" s="81"/>
+      <c r="R55" s="81"/>
+      <c r="S55" s="81"/>
       <c r="T55" s="18"/>
       <c r="U55" s="18"/>
-      <c r="V55" s="88">
+      <c r="V55" s="82">
         <v>45006</v>
       </c>
-      <c r="W55" s="89"/>
-      <c r="X55" s="90"/>
+      <c r="W55" s="83"/>
+      <c r="X55" s="84"/>
     </row>
     <row r="56" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
@@ -6902,72 +6902,72 @@
       <c r="X66" s="4"/>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C69" s="81" t="s">
+      <c r="C69" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="D69" s="81"/>
-      <c r="E69" s="81"/>
-      <c r="F69" s="81"/>
-      <c r="G69" s="81"/>
-      <c r="P69" s="83" t="s">
+      <c r="D69" s="85"/>
+      <c r="E69" s="85"/>
+      <c r="F69" s="85"/>
+      <c r="G69" s="85"/>
+      <c r="P69" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="Q69" s="83"/>
-      <c r="R69" s="83"/>
-      <c r="S69" s="83"/>
-      <c r="T69" s="83"/>
-      <c r="U69" s="83"/>
-      <c r="V69" s="83"/>
+      <c r="Q69" s="79"/>
+      <c r="R69" s="79"/>
+      <c r="S69" s="79"/>
+      <c r="T69" s="79"/>
+      <c r="U69" s="79"/>
+      <c r="V69" s="79"/>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C70" s="82"/>
-      <c r="D70" s="82"/>
-      <c r="E70" s="82"/>
-      <c r="F70" s="82"/>
-      <c r="G70" s="82"/>
-      <c r="P70" s="83"/>
-      <c r="Q70" s="83"/>
-      <c r="R70" s="83"/>
-      <c r="S70" s="83"/>
-      <c r="T70" s="83"/>
-      <c r="U70" s="83"/>
-      <c r="V70" s="83"/>
+      <c r="C70" s="86"/>
+      <c r="D70" s="86"/>
+      <c r="E70" s="86"/>
+      <c r="F70" s="86"/>
+      <c r="G70" s="86"/>
+      <c r="P70" s="79"/>
+      <c r="Q70" s="79"/>
+      <c r="R70" s="79"/>
+      <c r="S70" s="79"/>
+      <c r="T70" s="79"/>
+      <c r="U70" s="79"/>
+      <c r="V70" s="79"/>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A71" s="84" t="s">
+      <c r="A71" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B71" s="84"/>
-      <c r="C71" s="84"/>
-      <c r="D71" s="85" t="s">
+      <c r="B71" s="80"/>
+      <c r="C71" s="80"/>
+      <c r="D71" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E71" s="85"/>
-      <c r="F71" s="85"/>
-      <c r="G71" s="85"/>
-      <c r="H71" s="86">
+      <c r="E71" s="81"/>
+      <c r="F71" s="81"/>
+      <c r="G71" s="81"/>
+      <c r="H71" s="87">
         <v>44979</v>
       </c>
-      <c r="I71" s="87"/>
-      <c r="J71" s="87"/>
-      <c r="M71" s="84" t="s">
+      <c r="I71" s="88"/>
+      <c r="J71" s="88"/>
+      <c r="M71" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N71" s="84"/>
-      <c r="O71" s="84"/>
-      <c r="P71" s="85" t="s">
+      <c r="N71" s="80"/>
+      <c r="O71" s="80"/>
+      <c r="P71" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q71" s="85"/>
-      <c r="R71" s="85"/>
-      <c r="S71" s="85"/>
+      <c r="Q71" s="81"/>
+      <c r="R71" s="81"/>
+      <c r="S71" s="81"/>
       <c r="T71" s="18"/>
       <c r="U71" s="18"/>
-      <c r="V71" s="88">
+      <c r="V71" s="82">
         <v>44980</v>
       </c>
-      <c r="W71" s="89"/>
-      <c r="X71" s="90"/>
+      <c r="W71" s="83"/>
+      <c r="X71" s="84"/>
     </row>
     <row r="72" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
@@ -7370,72 +7370,72 @@
       <c r="X82" s="4"/>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C86" s="81" t="s">
+      <c r="C86" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="D86" s="81"/>
-      <c r="E86" s="81"/>
-      <c r="F86" s="81"/>
-      <c r="G86" s="81"/>
-      <c r="P86" s="83" t="s">
+      <c r="D86" s="85"/>
+      <c r="E86" s="85"/>
+      <c r="F86" s="85"/>
+      <c r="G86" s="85"/>
+      <c r="P86" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="Q86" s="83"/>
-      <c r="R86" s="83"/>
-      <c r="S86" s="83"/>
-      <c r="T86" s="83"/>
-      <c r="U86" s="83"/>
-      <c r="V86" s="83"/>
+      <c r="Q86" s="79"/>
+      <c r="R86" s="79"/>
+      <c r="S86" s="79"/>
+      <c r="T86" s="79"/>
+      <c r="U86" s="79"/>
+      <c r="V86" s="79"/>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C87" s="82"/>
-      <c r="D87" s="82"/>
-      <c r="E87" s="82"/>
-      <c r="F87" s="82"/>
-      <c r="G87" s="82"/>
-      <c r="P87" s="83"/>
-      <c r="Q87" s="83"/>
-      <c r="R87" s="83"/>
-      <c r="S87" s="83"/>
-      <c r="T87" s="83"/>
-      <c r="U87" s="83"/>
-      <c r="V87" s="83"/>
+      <c r="C87" s="86"/>
+      <c r="D87" s="86"/>
+      <c r="E87" s="86"/>
+      <c r="F87" s="86"/>
+      <c r="G87" s="86"/>
+      <c r="P87" s="79"/>
+      <c r="Q87" s="79"/>
+      <c r="R87" s="79"/>
+      <c r="S87" s="79"/>
+      <c r="T87" s="79"/>
+      <c r="U87" s="79"/>
+      <c r="V87" s="79"/>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A88" s="84" t="s">
+      <c r="A88" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B88" s="84"/>
-      <c r="C88" s="84"/>
-      <c r="D88" s="85" t="s">
+      <c r="B88" s="80"/>
+      <c r="C88" s="80"/>
+      <c r="D88" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E88" s="85"/>
-      <c r="F88" s="85"/>
-      <c r="G88" s="85"/>
-      <c r="H88" s="86">
+      <c r="E88" s="81"/>
+      <c r="F88" s="81"/>
+      <c r="G88" s="81"/>
+      <c r="H88" s="87">
         <v>44981</v>
       </c>
-      <c r="I88" s="87"/>
-      <c r="J88" s="87"/>
-      <c r="M88" s="84" t="s">
+      <c r="I88" s="88"/>
+      <c r="J88" s="88"/>
+      <c r="M88" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N88" s="84"/>
-      <c r="O88" s="84"/>
-      <c r="P88" s="85" t="s">
+      <c r="N88" s="80"/>
+      <c r="O88" s="80"/>
+      <c r="P88" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q88" s="85"/>
-      <c r="R88" s="85"/>
-      <c r="S88" s="85"/>
+      <c r="Q88" s="81"/>
+      <c r="R88" s="81"/>
+      <c r="S88" s="81"/>
       <c r="T88" s="18"/>
       <c r="U88" s="18"/>
-      <c r="V88" s="88">
+      <c r="V88" s="82">
         <v>44980</v>
       </c>
-      <c r="W88" s="89"/>
-      <c r="X88" s="90"/>
+      <c r="W88" s="83"/>
+      <c r="X88" s="84"/>
     </row>
     <row r="89" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
@@ -7770,72 +7770,72 @@
       <c r="X99" s="4"/>
     </row>
     <row r="103" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C103" s="81" t="s">
+      <c r="C103" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="D103" s="81"/>
-      <c r="E103" s="81"/>
-      <c r="F103" s="81"/>
-      <c r="G103" s="81"/>
-      <c r="P103" s="83" t="s">
+      <c r="D103" s="85"/>
+      <c r="E103" s="85"/>
+      <c r="F103" s="85"/>
+      <c r="G103" s="85"/>
+      <c r="P103" s="79" t="s">
         <v>90</v>
       </c>
-      <c r="Q103" s="83"/>
-      <c r="R103" s="83"/>
-      <c r="S103" s="83"/>
-      <c r="T103" s="83"/>
-      <c r="U103" s="83"/>
-      <c r="V103" s="83"/>
+      <c r="Q103" s="79"/>
+      <c r="R103" s="79"/>
+      <c r="S103" s="79"/>
+      <c r="T103" s="79"/>
+      <c r="U103" s="79"/>
+      <c r="V103" s="79"/>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C104" s="82"/>
-      <c r="D104" s="82"/>
-      <c r="E104" s="82"/>
-      <c r="F104" s="82"/>
-      <c r="G104" s="82"/>
-      <c r="P104" s="83"/>
-      <c r="Q104" s="83"/>
-      <c r="R104" s="83"/>
-      <c r="S104" s="83"/>
-      <c r="T104" s="83"/>
-      <c r="U104" s="83"/>
-      <c r="V104" s="83"/>
+      <c r="C104" s="86"/>
+      <c r="D104" s="86"/>
+      <c r="E104" s="86"/>
+      <c r="F104" s="86"/>
+      <c r="G104" s="86"/>
+      <c r="P104" s="79"/>
+      <c r="Q104" s="79"/>
+      <c r="R104" s="79"/>
+      <c r="S104" s="79"/>
+      <c r="T104" s="79"/>
+      <c r="U104" s="79"/>
+      <c r="V104" s="79"/>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A105" s="84" t="s">
+      <c r="A105" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B105" s="84"/>
-      <c r="C105" s="84"/>
-      <c r="D105" s="85" t="s">
+      <c r="B105" s="80"/>
+      <c r="C105" s="80"/>
+      <c r="D105" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E105" s="85"/>
-      <c r="F105" s="85"/>
-      <c r="G105" s="85"/>
-      <c r="H105" s="86">
+      <c r="E105" s="81"/>
+      <c r="F105" s="81"/>
+      <c r="G105" s="81"/>
+      <c r="H105" s="87">
         <v>44979</v>
       </c>
-      <c r="I105" s="87"/>
-      <c r="J105" s="87"/>
-      <c r="M105" s="84" t="s">
+      <c r="I105" s="88"/>
+      <c r="J105" s="88"/>
+      <c r="M105" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N105" s="84"/>
-      <c r="O105" s="84"/>
-      <c r="P105" s="85" t="s">
+      <c r="N105" s="80"/>
+      <c r="O105" s="80"/>
+      <c r="P105" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q105" s="85"/>
-      <c r="R105" s="85"/>
-      <c r="S105" s="85"/>
+      <c r="Q105" s="81"/>
+      <c r="R105" s="81"/>
+      <c r="S105" s="81"/>
       <c r="T105" s="18"/>
       <c r="U105" s="18"/>
-      <c r="V105" s="88">
+      <c r="V105" s="82">
         <v>45012</v>
       </c>
-      <c r="W105" s="89"/>
-      <c r="X105" s="90"/>
+      <c r="W105" s="83"/>
+      <c r="X105" s="84"/>
     </row>
     <row r="106" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
@@ -8286,73 +8286,73 @@
       <c r="X116" s="4"/>
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C121" s="81" t="s">
+      <c r="C121" s="85" t="s">
         <v>95</v>
       </c>
-      <c r="D121" s="81"/>
-      <c r="E121" s="81"/>
-      <c r="F121" s="81"/>
-      <c r="G121" s="81"/>
-      <c r="P121" s="83" t="s">
+      <c r="D121" s="85"/>
+      <c r="E121" s="85"/>
+      <c r="F121" s="85"/>
+      <c r="G121" s="85"/>
+      <c r="P121" s="79" t="s">
         <v>96</v>
       </c>
-      <c r="Q121" s="83"/>
-      <c r="R121" s="83"/>
-      <c r="S121" s="83"/>
-      <c r="T121" s="83"/>
-      <c r="U121" s="83"/>
-      <c r="V121" s="83"/>
+      <c r="Q121" s="79"/>
+      <c r="R121" s="79"/>
+      <c r="S121" s="79"/>
+      <c r="T121" s="79"/>
+      <c r="U121" s="79"/>
+      <c r="V121" s="79"/>
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C122" s="82"/>
-      <c r="D122" s="82"/>
-      <c r="E122" s="82"/>
-      <c r="F122" s="82"/>
-      <c r="G122" s="82"/>
-      <c r="P122" s="83"/>
-      <c r="Q122" s="83"/>
-      <c r="R122" s="83"/>
-      <c r="S122" s="83"/>
-      <c r="T122" s="83"/>
-      <c r="U122" s="83"/>
-      <c r="V122" s="83"/>
+      <c r="C122" s="86"/>
+      <c r="D122" s="86"/>
+      <c r="E122" s="86"/>
+      <c r="F122" s="86"/>
+      <c r="G122" s="86"/>
+      <c r="P122" s="79"/>
+      <c r="Q122" s="79"/>
+      <c r="R122" s="79"/>
+      <c r="S122" s="79"/>
+      <c r="T122" s="79"/>
+      <c r="U122" s="79"/>
+      <c r="V122" s="79"/>
     </row>
     <row r="123" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="84" t="s">
+      <c r="A123" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B123" s="84"/>
-      <c r="C123" s="84"/>
-      <c r="D123" s="85" t="s">
+      <c r="B123" s="80"/>
+      <c r="C123" s="80"/>
+      <c r="D123" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E123" s="85"/>
-      <c r="F123" s="85"/>
-      <c r="G123" s="85"/>
-      <c r="H123" s="86">
+      <c r="E123" s="81"/>
+      <c r="F123" s="81"/>
+      <c r="G123" s="81"/>
+      <c r="H123" s="87">
         <v>44979</v>
       </c>
-      <c r="I123" s="87"/>
-      <c r="J123" s="87"/>
-      <c r="M123" s="84" t="s">
+      <c r="I123" s="88"/>
+      <c r="J123" s="88"/>
+      <c r="M123" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N123" s="84"/>
-      <c r="O123" s="84"/>
-      <c r="P123" s="85" t="s">
+      <c r="N123" s="80"/>
+      <c r="O123" s="80"/>
+      <c r="P123" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q123" s="85"/>
-      <c r="R123" s="85"/>
-      <c r="S123" s="85"/>
+      <c r="Q123" s="81"/>
+      <c r="R123" s="81"/>
+      <c r="S123" s="81"/>
       <c r="T123" s="18"/>
       <c r="U123" s="18"/>
-      <c r="V123" s="88" t="e">
+      <c r="V123" s="82" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W123" s="89"/>
-      <c r="X123" s="90"/>
+      <c r="W123" s="83"/>
+      <c r="X123" s="84"/>
     </row>
     <row r="124" spans="1:26" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
@@ -8867,45 +8867,45 @@
       <c r="X134" s="4"/>
     </row>
     <row r="138" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="P138" s="83" t="s">
+      <c r="P138" s="79" t="s">
         <v>97</v>
       </c>
-      <c r="Q138" s="83"/>
-      <c r="R138" s="83"/>
-      <c r="S138" s="83"/>
-      <c r="T138" s="83"/>
-      <c r="U138" s="83"/>
-      <c r="V138" s="83"/>
+      <c r="Q138" s="79"/>
+      <c r="R138" s="79"/>
+      <c r="S138" s="79"/>
+      <c r="T138" s="79"/>
+      <c r="U138" s="79"/>
+      <c r="V138" s="79"/>
     </row>
     <row r="139" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="P139" s="83"/>
-      <c r="Q139" s="83"/>
-      <c r="R139" s="83"/>
-      <c r="S139" s="83"/>
-      <c r="T139" s="83"/>
-      <c r="U139" s="83"/>
-      <c r="V139" s="83"/>
+      <c r="P139" s="79"/>
+      <c r="Q139" s="79"/>
+      <c r="R139" s="79"/>
+      <c r="S139" s="79"/>
+      <c r="T139" s="79"/>
+      <c r="U139" s="79"/>
+      <c r="V139" s="79"/>
     </row>
     <row r="140" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="M140" s="84" t="s">
+      <c r="M140" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N140" s="84"/>
-      <c r="O140" s="84"/>
-      <c r="P140" s="85" t="s">
+      <c r="N140" s="80"/>
+      <c r="O140" s="80"/>
+      <c r="P140" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q140" s="85"/>
-      <c r="R140" s="85"/>
-      <c r="S140" s="85"/>
+      <c r="Q140" s="81"/>
+      <c r="R140" s="81"/>
+      <c r="S140" s="81"/>
       <c r="T140" s="18"/>
       <c r="U140" s="18"/>
-      <c r="V140" s="88" t="e">
+      <c r="V140" s="82" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W140" s="89"/>
-      <c r="X140" s="90"/>
+      <c r="W140" s="83"/>
+      <c r="X140" s="84"/>
     </row>
     <row r="141" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M141" s="6" t="s">
@@ -9170,45 +9170,45 @@
       <c r="S152" s="64"/>
     </row>
     <row r="153" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P153" s="83" t="s">
+      <c r="P153" s="79" t="s">
         <v>102</v>
       </c>
-      <c r="Q153" s="83"/>
-      <c r="R153" s="83"/>
-      <c r="S153" s="83"/>
-      <c r="T153" s="83"/>
-      <c r="U153" s="83"/>
-      <c r="V153" s="83"/>
+      <c r="Q153" s="79"/>
+      <c r="R153" s="79"/>
+      <c r="S153" s="79"/>
+      <c r="T153" s="79"/>
+      <c r="U153" s="79"/>
+      <c r="V153" s="79"/>
     </row>
     <row r="154" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P154" s="83"/>
-      <c r="Q154" s="83"/>
-      <c r="R154" s="83"/>
-      <c r="S154" s="83"/>
-      <c r="T154" s="83"/>
-      <c r="U154" s="83"/>
-      <c r="V154" s="83"/>
+      <c r="P154" s="79"/>
+      <c r="Q154" s="79"/>
+      <c r="R154" s="79"/>
+      <c r="S154" s="79"/>
+      <c r="T154" s="79"/>
+      <c r="U154" s="79"/>
+      <c r="V154" s="79"/>
     </row>
     <row r="155" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M155" s="84" t="s">
+      <c r="M155" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N155" s="84"/>
-      <c r="O155" s="84"/>
-      <c r="P155" s="85" t="s">
+      <c r="N155" s="80"/>
+      <c r="O155" s="80"/>
+      <c r="P155" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q155" s="85"/>
-      <c r="R155" s="85"/>
-      <c r="S155" s="85"/>
+      <c r="Q155" s="81"/>
+      <c r="R155" s="81"/>
+      <c r="S155" s="81"/>
       <c r="T155" s="18"/>
       <c r="U155" s="18"/>
-      <c r="V155" s="88" t="e">
+      <c r="V155" s="82" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W155" s="89"/>
-      <c r="X155" s="90"/>
+      <c r="W155" s="83"/>
+      <c r="X155" s="84"/>
     </row>
     <row r="156" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M156" s="6" t="s">
@@ -9472,45 +9472,45 @@
       <c r="X166" s="4"/>
     </row>
     <row r="168" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P168" s="83" t="s">
+      <c r="P168" s="79" t="s">
         <v>100</v>
       </c>
-      <c r="Q168" s="83"/>
-      <c r="R168" s="83"/>
-      <c r="S168" s="83"/>
-      <c r="T168" s="83"/>
-      <c r="U168" s="83"/>
-      <c r="V168" s="83"/>
+      <c r="Q168" s="79"/>
+      <c r="R168" s="79"/>
+      <c r="S168" s="79"/>
+      <c r="T168" s="79"/>
+      <c r="U168" s="79"/>
+      <c r="V168" s="79"/>
     </row>
     <row r="169" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P169" s="83"/>
-      <c r="Q169" s="83"/>
-      <c r="R169" s="83"/>
-      <c r="S169" s="83"/>
-      <c r="T169" s="83"/>
-      <c r="U169" s="83"/>
-      <c r="V169" s="83"/>
+      <c r="P169" s="79"/>
+      <c r="Q169" s="79"/>
+      <c r="R169" s="79"/>
+      <c r="S169" s="79"/>
+      <c r="T169" s="79"/>
+      <c r="U169" s="79"/>
+      <c r="V169" s="79"/>
     </row>
     <row r="170" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M170" s="84" t="s">
+      <c r="M170" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N170" s="84"/>
-      <c r="O170" s="84"/>
-      <c r="P170" s="85" t="s">
+      <c r="N170" s="80"/>
+      <c r="O170" s="80"/>
+      <c r="P170" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q170" s="85"/>
-      <c r="R170" s="85"/>
-      <c r="S170" s="85"/>
+      <c r="Q170" s="81"/>
+      <c r="R170" s="81"/>
+      <c r="S170" s="81"/>
       <c r="T170" s="18"/>
       <c r="U170" s="18"/>
-      <c r="V170" s="88" t="e">
+      <c r="V170" s="82" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W170" s="89"/>
-      <c r="X170" s="90"/>
+      <c r="W170" s="83"/>
+      <c r="X170" s="84"/>
     </row>
     <row r="171" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M171" s="6" t="s">
@@ -9715,45 +9715,45 @@
       <c r="X181" s="4"/>
     </row>
     <row r="186" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P186" s="83" t="s">
+      <c r="P186" s="79" t="s">
         <v>104</v>
       </c>
-      <c r="Q186" s="83"/>
-      <c r="R186" s="83"/>
-      <c r="S186" s="83"/>
-      <c r="T186" s="83"/>
-      <c r="U186" s="83"/>
-      <c r="V186" s="83"/>
+      <c r="Q186" s="79"/>
+      <c r="R186" s="79"/>
+      <c r="S186" s="79"/>
+      <c r="T186" s="79"/>
+      <c r="U186" s="79"/>
+      <c r="V186" s="79"/>
     </row>
     <row r="187" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P187" s="83"/>
-      <c r="Q187" s="83"/>
-      <c r="R187" s="83"/>
-      <c r="S187" s="83"/>
-      <c r="T187" s="83"/>
-      <c r="U187" s="83"/>
-      <c r="V187" s="83"/>
+      <c r="P187" s="79"/>
+      <c r="Q187" s="79"/>
+      <c r="R187" s="79"/>
+      <c r="S187" s="79"/>
+      <c r="T187" s="79"/>
+      <c r="U187" s="79"/>
+      <c r="V187" s="79"/>
     </row>
     <row r="188" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M188" s="84" t="s">
+      <c r="M188" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N188" s="84"/>
-      <c r="O188" s="84"/>
-      <c r="P188" s="85" t="s">
+      <c r="N188" s="80"/>
+      <c r="O188" s="80"/>
+      <c r="P188" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q188" s="85"/>
-      <c r="R188" s="85"/>
-      <c r="S188" s="85"/>
+      <c r="Q188" s="81"/>
+      <c r="R188" s="81"/>
+      <c r="S188" s="81"/>
       <c r="T188" s="18"/>
       <c r="U188" s="18"/>
-      <c r="V188" s="88" t="e">
+      <c r="V188" s="82" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W188" s="89"/>
-      <c r="X188" s="90"/>
+      <c r="W188" s="83"/>
+      <c r="X188" s="84"/>
     </row>
     <row r="189" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M189" s="6" t="s">
@@ -9923,24 +9923,24 @@
       <c r="X194" s="15"/>
     </row>
     <row r="198" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P198" s="83" t="s">
+      <c r="P198" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="Q198" s="83"/>
-      <c r="R198" s="83"/>
-      <c r="S198" s="83"/>
-      <c r="T198" s="83"/>
-      <c r="U198" s="83"/>
-      <c r="V198" s="83"/>
+      <c r="Q198" s="79"/>
+      <c r="R198" s="79"/>
+      <c r="S198" s="79"/>
+      <c r="T198" s="79"/>
+      <c r="U198" s="79"/>
+      <c r="V198" s="79"/>
     </row>
     <row r="199" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P199" s="83"/>
-      <c r="Q199" s="83"/>
-      <c r="R199" s="83"/>
-      <c r="S199" s="83"/>
-      <c r="T199" s="83"/>
-      <c r="U199" s="83"/>
-      <c r="V199" s="83"/>
+      <c r="P199" s="79"/>
+      <c r="Q199" s="79"/>
+      <c r="R199" s="79"/>
+      <c r="S199" s="79"/>
+      <c r="T199" s="79"/>
+      <c r="U199" s="79"/>
+      <c r="V199" s="79"/>
     </row>
     <row r="200" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M200" s="70" t="s">
@@ -10115,24 +10115,24 @@
       </c>
     </row>
     <row r="209" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P209" s="83" t="s">
+      <c r="P209" s="79" t="s">
         <v>113</v>
       </c>
-      <c r="Q209" s="83"/>
-      <c r="R209" s="83"/>
-      <c r="S209" s="83"/>
-      <c r="T209" s="83"/>
-      <c r="U209" s="83"/>
-      <c r="V209" s="83"/>
+      <c r="Q209" s="79"/>
+      <c r="R209" s="79"/>
+      <c r="S209" s="79"/>
+      <c r="T209" s="79"/>
+      <c r="U209" s="79"/>
+      <c r="V209" s="79"/>
     </row>
     <row r="210" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P210" s="83"/>
-      <c r="Q210" s="83"/>
-      <c r="R210" s="83"/>
-      <c r="S210" s="83"/>
-      <c r="T210" s="83"/>
-      <c r="U210" s="83"/>
-      <c r="V210" s="83"/>
+      <c r="P210" s="79"/>
+      <c r="Q210" s="79"/>
+      <c r="R210" s="79"/>
+      <c r="S210" s="79"/>
+      <c r="T210" s="79"/>
+      <c r="U210" s="79"/>
+      <c r="V210" s="79"/>
     </row>
     <row r="211" spans="13:26" ht="36" x14ac:dyDescent="0.25">
       <c r="M211" s="70" t="s">
@@ -10284,24 +10284,24 @@
       </c>
     </row>
     <row r="218" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P218" s="83" t="s">
+      <c r="P218" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="Q218" s="83"/>
-      <c r="R218" s="83"/>
-      <c r="S218" s="83"/>
-      <c r="T218" s="83"/>
-      <c r="U218" s="83"/>
-      <c r="V218" s="83"/>
+      <c r="Q218" s="79"/>
+      <c r="R218" s="79"/>
+      <c r="S218" s="79"/>
+      <c r="T218" s="79"/>
+      <c r="U218" s="79"/>
+      <c r="V218" s="79"/>
     </row>
     <row r="219" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P219" s="83"/>
-      <c r="Q219" s="83"/>
-      <c r="R219" s="83"/>
-      <c r="S219" s="83"/>
-      <c r="T219" s="83"/>
-      <c r="U219" s="83"/>
-      <c r="V219" s="83"/>
+      <c r="P219" s="79"/>
+      <c r="Q219" s="79"/>
+      <c r="R219" s="79"/>
+      <c r="S219" s="79"/>
+      <c r="T219" s="79"/>
+      <c r="U219" s="79"/>
+      <c r="V219" s="79"/>
     </row>
     <row r="220" spans="13:26" ht="36" x14ac:dyDescent="0.25">
       <c r="M220" s="70" t="s">
@@ -10558,24 +10558,24 @@
       </c>
     </row>
     <row r="230" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P230" s="83" t="s">
+      <c r="P230" s="79" t="s">
         <v>116</v>
       </c>
-      <c r="Q230" s="83"/>
-      <c r="R230" s="83"/>
-      <c r="S230" s="83"/>
-      <c r="T230" s="83"/>
-      <c r="U230" s="83"/>
-      <c r="V230" s="83"/>
+      <c r="Q230" s="79"/>
+      <c r="R230" s="79"/>
+      <c r="S230" s="79"/>
+      <c r="T230" s="79"/>
+      <c r="U230" s="79"/>
+      <c r="V230" s="79"/>
     </row>
     <row r="231" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P231" s="83"/>
-      <c r="Q231" s="83"/>
-      <c r="R231" s="83"/>
-      <c r="S231" s="83"/>
-      <c r="T231" s="83"/>
-      <c r="U231" s="83"/>
-      <c r="V231" s="83"/>
+      <c r="P231" s="79"/>
+      <c r="Q231" s="79"/>
+      <c r="R231" s="79"/>
+      <c r="S231" s="79"/>
+      <c r="T231" s="79"/>
+      <c r="U231" s="79"/>
+      <c r="V231" s="79"/>
     </row>
     <row r="232" spans="13:26" ht="36" x14ac:dyDescent="0.25">
       <c r="M232" s="70" t="s">
@@ -10738,24 +10738,24 @@
       </c>
     </row>
     <row r="240" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P240" s="83" t="s">
+      <c r="P240" s="79" t="s">
         <v>118</v>
       </c>
-      <c r="Q240" s="83"/>
-      <c r="R240" s="83"/>
-      <c r="S240" s="83"/>
-      <c r="T240" s="83"/>
-      <c r="U240" s="83"/>
-      <c r="V240" s="83"/>
+      <c r="Q240" s="79"/>
+      <c r="R240" s="79"/>
+      <c r="S240" s="79"/>
+      <c r="T240" s="79"/>
+      <c r="U240" s="79"/>
+      <c r="V240" s="79"/>
     </row>
     <row r="241" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P241" s="83"/>
-      <c r="Q241" s="83"/>
-      <c r="R241" s="83"/>
-      <c r="S241" s="83"/>
-      <c r="T241" s="83"/>
-      <c r="U241" s="83"/>
-      <c r="V241" s="83"/>
+      <c r="P241" s="79"/>
+      <c r="Q241" s="79"/>
+      <c r="R241" s="79"/>
+      <c r="S241" s="79"/>
+      <c r="T241" s="79"/>
+      <c r="U241" s="79"/>
+      <c r="V241" s="79"/>
     </row>
     <row r="242" spans="13:26" ht="36" x14ac:dyDescent="0.25">
       <c r="M242" s="70" t="s">
@@ -10771,11 +10771,11 @@
       <c r="S242" s="71"/>
       <c r="T242" s="18"/>
       <c r="U242" s="18"/>
-      <c r="V242" s="88">
+      <c r="V242" s="82">
         <v>45082</v>
       </c>
-      <c r="W242" s="89"/>
-      <c r="X242" s="90"/>
+      <c r="W242" s="83"/>
+      <c r="X242" s="84"/>
     </row>
     <row r="243" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M243" s="6" t="s">
@@ -10885,44 +10885,44 @@
       </c>
     </row>
     <row r="248" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P248" s="83" t="s">
+      <c r="P248" s="79" t="s">
         <v>119</v>
       </c>
-      <c r="Q248" s="83"/>
-      <c r="R248" s="83"/>
-      <c r="S248" s="83"/>
-      <c r="T248" s="83"/>
-      <c r="U248" s="83"/>
-      <c r="V248" s="83"/>
+      <c r="Q248" s="79"/>
+      <c r="R248" s="79"/>
+      <c r="S248" s="79"/>
+      <c r="T248" s="79"/>
+      <c r="U248" s="79"/>
+      <c r="V248" s="79"/>
     </row>
     <row r="249" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P249" s="83"/>
-      <c r="Q249" s="83"/>
-      <c r="R249" s="83"/>
-      <c r="S249" s="83"/>
-      <c r="T249" s="83"/>
-      <c r="U249" s="83"/>
-      <c r="V249" s="83"/>
+      <c r="P249" s="79"/>
+      <c r="Q249" s="79"/>
+      <c r="R249" s="79"/>
+      <c r="S249" s="79"/>
+      <c r="T249" s="79"/>
+      <c r="U249" s="79"/>
+      <c r="V249" s="79"/>
     </row>
     <row r="250" spans="13:26" ht="36" x14ac:dyDescent="0.25">
-      <c r="M250" s="79" t="s">
+      <c r="M250" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="N250" s="79"/>
-      <c r="O250" s="79"/>
-      <c r="P250" s="80" t="s">
+      <c r="N250" s="70"/>
+      <c r="O250" s="70"/>
+      <c r="P250" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="Q250" s="80"/>
-      <c r="R250" s="80"/>
-      <c r="S250" s="80"/>
+      <c r="Q250" s="71"/>
+      <c r="R250" s="71"/>
+      <c r="S250" s="71"/>
       <c r="T250" s="18"/>
       <c r="U250" s="18"/>
-      <c r="V250" s="88">
+      <c r="V250" s="82">
         <v>45083</v>
       </c>
-      <c r="W250" s="89"/>
-      <c r="X250" s="90"/>
+      <c r="W250" s="83"/>
+      <c r="X250" s="84"/>
     </row>
     <row r="251" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M251" s="6" t="s">
@@ -10999,44 +10999,44 @@
       </c>
     </row>
     <row r="255" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P255" s="83" t="s">
+      <c r="P255" s="79" t="s">
         <v>120</v>
       </c>
-      <c r="Q255" s="83"/>
-      <c r="R255" s="83"/>
-      <c r="S255" s="83"/>
-      <c r="T255" s="83"/>
-      <c r="U255" s="83"/>
-      <c r="V255" s="83"/>
+      <c r="Q255" s="79"/>
+      <c r="R255" s="79"/>
+      <c r="S255" s="79"/>
+      <c r="T255" s="79"/>
+      <c r="U255" s="79"/>
+      <c r="V255" s="79"/>
     </row>
     <row r="256" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P256" s="83"/>
-      <c r="Q256" s="83"/>
-      <c r="R256" s="83"/>
-      <c r="S256" s="83"/>
-      <c r="T256" s="83"/>
-      <c r="U256" s="83"/>
-      <c r="V256" s="83"/>
+      <c r="P256" s="79"/>
+      <c r="Q256" s="79"/>
+      <c r="R256" s="79"/>
+      <c r="S256" s="79"/>
+      <c r="T256" s="79"/>
+      <c r="U256" s="79"/>
+      <c r="V256" s="79"/>
     </row>
     <row r="257" spans="13:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M257" s="91" t="s">
+      <c r="M257" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="N257" s="92"/>
-      <c r="O257" s="93"/>
-      <c r="P257" s="94" t="s">
+      <c r="N257" s="90"/>
+      <c r="O257" s="91"/>
+      <c r="P257" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="Q257" s="95"/>
-      <c r="R257" s="95"/>
-      <c r="S257" s="95"/>
-      <c r="T257" s="95"/>
-      <c r="U257" s="96"/>
-      <c r="V257" s="88">
+      <c r="Q257" s="93"/>
+      <c r="R257" s="93"/>
+      <c r="S257" s="93"/>
+      <c r="T257" s="93"/>
+      <c r="U257" s="94"/>
+      <c r="V257" s="82">
         <v>45084</v>
       </c>
-      <c r="W257" s="89"/>
-      <c r="X257" s="90"/>
+      <c r="W257" s="83"/>
+      <c r="X257" s="84"/>
       <c r="Z257" s="20" t="s">
         <v>9</v>
       </c>
@@ -11099,8 +11099,8 @@
       <c r="R259" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="S259" s="20" t="s">
-        <v>9</v>
+      <c r="S259" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="T259" s="43">
         <v>0.54166666666666663</v>
@@ -11111,7 +11111,9 @@
       <c r="V259" s="34">
         <v>0.56388888888888888</v>
       </c>
-      <c r="W259" s="34"/>
+      <c r="W259" s="34">
+        <v>0.76874999999999993</v>
+      </c>
       <c r="X259" s="35"/>
       <c r="Z259" s="10" t="s">
         <v>11</v>
@@ -11134,8 +11136,8 @@
       <c r="R260" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="S260" s="20" t="s">
-        <v>9</v>
+      <c r="S260" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="T260" s="43">
         <v>0.54166666666666663</v>
@@ -11146,8 +11148,12 @@
       <c r="V260" s="34">
         <v>0.56388888888888888</v>
       </c>
-      <c r="W260" s="34"/>
-      <c r="X260" s="35"/>
+      <c r="W260" s="34">
+        <v>0.75555555555555554</v>
+      </c>
+      <c r="X260" s="35">
+        <v>0.76874999999999993</v>
+      </c>
       <c r="Z260" s="21" t="s">
         <v>10</v>
       </c>
@@ -11159,12 +11165,76 @@
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="P255:V256"/>
-    <mergeCell ref="V257:X257"/>
-    <mergeCell ref="M257:O257"/>
-    <mergeCell ref="P257:U257"/>
-    <mergeCell ref="P248:V249"/>
-    <mergeCell ref="V250:X250"/>
+    <mergeCell ref="P240:V241"/>
+    <mergeCell ref="P218:V219"/>
+    <mergeCell ref="P198:V199"/>
+    <mergeCell ref="P186:V187"/>
+    <mergeCell ref="M188:O188"/>
+    <mergeCell ref="P188:S188"/>
+    <mergeCell ref="V188:X188"/>
+    <mergeCell ref="P209:V210"/>
+    <mergeCell ref="P230:V231"/>
+    <mergeCell ref="P168:V169"/>
+    <mergeCell ref="M170:O170"/>
+    <mergeCell ref="P170:S170"/>
+    <mergeCell ref="V170:X170"/>
+    <mergeCell ref="M155:O155"/>
+    <mergeCell ref="P155:S155"/>
+    <mergeCell ref="V155:X155"/>
+    <mergeCell ref="P153:V154"/>
+    <mergeCell ref="C103:G104"/>
+    <mergeCell ref="P103:V104"/>
+    <mergeCell ref="A105:C105"/>
+    <mergeCell ref="D105:G105"/>
+    <mergeCell ref="H105:J105"/>
+    <mergeCell ref="M105:O105"/>
+    <mergeCell ref="P105:S105"/>
+    <mergeCell ref="V105:X105"/>
+    <mergeCell ref="C121:G122"/>
+    <mergeCell ref="A123:C123"/>
+    <mergeCell ref="D123:G123"/>
+    <mergeCell ref="H123:J123"/>
+    <mergeCell ref="M140:O140"/>
+    <mergeCell ref="P140:S140"/>
+    <mergeCell ref="V140:X140"/>
+    <mergeCell ref="D88:G88"/>
+    <mergeCell ref="H88:J88"/>
+    <mergeCell ref="M88:O88"/>
+    <mergeCell ref="P88:S88"/>
+    <mergeCell ref="V88:X88"/>
+    <mergeCell ref="C2:G3"/>
+    <mergeCell ref="P2:V3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="P69:V70"/>
+    <mergeCell ref="C22:G23"/>
+    <mergeCell ref="P22:V23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="M71:O71"/>
+    <mergeCell ref="P71:S71"/>
+    <mergeCell ref="C37:G38"/>
+    <mergeCell ref="P37:V38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="P39:S39"/>
+    <mergeCell ref="V39:X39"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="C53:G54"/>
+    <mergeCell ref="P53:V54"/>
+    <mergeCell ref="V55:X55"/>
+    <mergeCell ref="C69:G70"/>
     <mergeCell ref="V242:X242"/>
     <mergeCell ref="D55:G55"/>
     <mergeCell ref="H55:J55"/>
@@ -11181,76 +11251,12 @@
     <mergeCell ref="A88:C88"/>
     <mergeCell ref="A71:C71"/>
     <mergeCell ref="D71:G71"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="M71:O71"/>
-    <mergeCell ref="P71:S71"/>
-    <mergeCell ref="C37:G38"/>
-    <mergeCell ref="P37:V38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="P39:S39"/>
-    <mergeCell ref="V39:X39"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="C53:G54"/>
-    <mergeCell ref="P53:V54"/>
-    <mergeCell ref="V55:X55"/>
-    <mergeCell ref="C69:G70"/>
-    <mergeCell ref="P69:V70"/>
-    <mergeCell ref="C22:G23"/>
-    <mergeCell ref="P22:V23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="C2:G3"/>
-    <mergeCell ref="P2:V3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="D88:G88"/>
-    <mergeCell ref="H88:J88"/>
-    <mergeCell ref="M88:O88"/>
-    <mergeCell ref="P88:S88"/>
-    <mergeCell ref="V88:X88"/>
-    <mergeCell ref="P153:V154"/>
-    <mergeCell ref="C103:G104"/>
-    <mergeCell ref="P103:V104"/>
-    <mergeCell ref="A105:C105"/>
-    <mergeCell ref="D105:G105"/>
-    <mergeCell ref="H105:J105"/>
-    <mergeCell ref="M105:O105"/>
-    <mergeCell ref="P105:S105"/>
-    <mergeCell ref="V105:X105"/>
-    <mergeCell ref="C121:G122"/>
-    <mergeCell ref="A123:C123"/>
-    <mergeCell ref="D123:G123"/>
-    <mergeCell ref="H123:J123"/>
-    <mergeCell ref="M140:O140"/>
-    <mergeCell ref="P140:S140"/>
-    <mergeCell ref="V140:X140"/>
-    <mergeCell ref="P168:V169"/>
-    <mergeCell ref="M170:O170"/>
-    <mergeCell ref="P170:S170"/>
-    <mergeCell ref="V170:X170"/>
-    <mergeCell ref="M155:O155"/>
-    <mergeCell ref="P155:S155"/>
-    <mergeCell ref="V155:X155"/>
-    <mergeCell ref="P240:V241"/>
-    <mergeCell ref="P218:V219"/>
-    <mergeCell ref="P198:V199"/>
-    <mergeCell ref="P186:V187"/>
-    <mergeCell ref="M188:O188"/>
-    <mergeCell ref="P188:S188"/>
-    <mergeCell ref="V188:X188"/>
-    <mergeCell ref="P209:V210"/>
-    <mergeCell ref="P230:V231"/>
+    <mergeCell ref="P255:V256"/>
+    <mergeCell ref="V257:X257"/>
+    <mergeCell ref="M257:O257"/>
+    <mergeCell ref="P257:U257"/>
+    <mergeCell ref="P248:V249"/>
+    <mergeCell ref="V250:X250"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -11258,7 +11264,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="B3" workbookViewId="0">

--- a/DOC 2023/FORMATO STATUS.xlsx
+++ b/DOC 2023/FORMATO STATUS.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\DOC 2023\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2405FF2D-BC67-46CD-BD0E-769D14ED5234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="FEBRERO" sheetId="2" r:id="rId1"/>
     <sheet name="MARZO" sheetId="3" r:id="rId2"/>
     <sheet name="Hoja2" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -403,7 +397,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
@@ -975,6 +969,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -984,6 +984,12 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -991,18 +997,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1300,14 +1294,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Z124"/>
   <sheetViews>
     <sheetView topLeftCell="J103" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
@@ -1329,72 +1323,72 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C2" s="85" t="s">
+      <c r="C2" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="P2" s="79" t="s">
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="P2" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="79"/>
-      <c r="T2" s="79"/>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="81"/>
+      <c r="S2" s="81"/>
+      <c r="T2" s="81"/>
+      <c r="U2" s="81"/>
+      <c r="V2" s="81"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="P3" s="79"/>
-      <c r="Q3" s="79"/>
-      <c r="R3" s="79"/>
-      <c r="S3" s="79"/>
-      <c r="T3" s="79"/>
-      <c r="U3" s="79"/>
-      <c r="V3" s="79"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="81"/>
+      <c r="S3" s="81"/>
+      <c r="T3" s="81"/>
+      <c r="U3" s="81"/>
+      <c r="V3" s="81"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="81" t="s">
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="87">
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="84">
         <v>44965</v>
       </c>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="M4" s="80" t="s">
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="M4" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="80"/>
-      <c r="O4" s="80"/>
-      <c r="P4" s="81" t="s">
+      <c r="N4" s="82"/>
+      <c r="O4" s="82"/>
+      <c r="P4" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="81"/>
-      <c r="R4" s="81"/>
-      <c r="S4" s="81"/>
+      <c r="Q4" s="83"/>
+      <c r="R4" s="83"/>
+      <c r="S4" s="83"/>
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
-      <c r="V4" s="82">
+      <c r="V4" s="86">
         <v>44601</v>
       </c>
-      <c r="W4" s="83"/>
-      <c r="X4" s="84"/>
+      <c r="W4" s="87"/>
+      <c r="X4" s="88"/>
     </row>
     <row r="5" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -1809,72 +1803,72 @@
       <c r="X15" s="4"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C22" s="85" t="s">
+      <c r="C22" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="85"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="85"/>
-      <c r="P22" s="79" t="s">
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
+      <c r="P22" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="Q22" s="79"/>
-      <c r="R22" s="79"/>
-      <c r="S22" s="79"/>
-      <c r="T22" s="79"/>
-      <c r="U22" s="79"/>
-      <c r="V22" s="79"/>
+      <c r="Q22" s="81"/>
+      <c r="R22" s="81"/>
+      <c r="S22" s="81"/>
+      <c r="T22" s="81"/>
+      <c r="U22" s="81"/>
+      <c r="V22" s="81"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="P23" s="79"/>
-      <c r="Q23" s="79"/>
-      <c r="R23" s="79"/>
-      <c r="S23" s="79"/>
-      <c r="T23" s="79"/>
-      <c r="U23" s="79"/>
-      <c r="V23" s="79"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="P23" s="81"/>
+      <c r="Q23" s="81"/>
+      <c r="R23" s="81"/>
+      <c r="S23" s="81"/>
+      <c r="T23" s="81"/>
+      <c r="U23" s="81"/>
+      <c r="V23" s="81"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="80" t="s">
+      <c r="A24" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="80"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="81" t="s">
+      <c r="B24" s="82"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="81"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="87">
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="84">
         <v>44965</v>
       </c>
-      <c r="I24" s="88"/>
-      <c r="J24" s="88"/>
-      <c r="M24" s="80" t="s">
+      <c r="I24" s="85"/>
+      <c r="J24" s="85"/>
+      <c r="M24" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N24" s="80"/>
-      <c r="O24" s="80"/>
-      <c r="P24" s="81" t="s">
+      <c r="N24" s="82"/>
+      <c r="O24" s="82"/>
+      <c r="P24" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q24" s="81"/>
-      <c r="R24" s="81"/>
-      <c r="S24" s="81"/>
+      <c r="Q24" s="83"/>
+      <c r="R24" s="83"/>
+      <c r="S24" s="83"/>
       <c r="T24" s="18"/>
       <c r="U24" s="18"/>
-      <c r="V24" s="82">
+      <c r="V24" s="86">
         <v>44971</v>
       </c>
-      <c r="W24" s="83"/>
-      <c r="X24" s="84"/>
+      <c r="W24" s="87"/>
+      <c r="X24" s="88"/>
     </row>
     <row r="25" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -2329,72 +2323,72 @@
       <c r="X35" s="4"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C38" s="85" t="s">
+      <c r="C38" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="85"/>
-      <c r="E38" s="85"/>
-      <c r="F38" s="85"/>
-      <c r="G38" s="85"/>
-      <c r="P38" s="79" t="s">
+      <c r="D38" s="79"/>
+      <c r="E38" s="79"/>
+      <c r="F38" s="79"/>
+      <c r="G38" s="79"/>
+      <c r="P38" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="Q38" s="79"/>
-      <c r="R38" s="79"/>
-      <c r="S38" s="79"/>
-      <c r="T38" s="79"/>
-      <c r="U38" s="79"/>
-      <c r="V38" s="79"/>
+      <c r="Q38" s="81"/>
+      <c r="R38" s="81"/>
+      <c r="S38" s="81"/>
+      <c r="T38" s="81"/>
+      <c r="U38" s="81"/>
+      <c r="V38" s="81"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C39" s="86"/>
-      <c r="D39" s="86"/>
-      <c r="E39" s="86"/>
-      <c r="F39" s="86"/>
-      <c r="G39" s="86"/>
-      <c r="P39" s="79"/>
-      <c r="Q39" s="79"/>
-      <c r="R39" s="79"/>
-      <c r="S39" s="79"/>
-      <c r="T39" s="79"/>
-      <c r="U39" s="79"/>
-      <c r="V39" s="79"/>
+      <c r="C39" s="80"/>
+      <c r="D39" s="80"/>
+      <c r="E39" s="80"/>
+      <c r="F39" s="80"/>
+      <c r="G39" s="80"/>
+      <c r="P39" s="81"/>
+      <c r="Q39" s="81"/>
+      <c r="R39" s="81"/>
+      <c r="S39" s="81"/>
+      <c r="T39" s="81"/>
+      <c r="U39" s="81"/>
+      <c r="V39" s="81"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A40" s="80" t="s">
+      <c r="A40" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="80"/>
-      <c r="C40" s="80"/>
-      <c r="D40" s="81" t="s">
+      <c r="B40" s="82"/>
+      <c r="C40" s="82"/>
+      <c r="D40" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E40" s="81"/>
-      <c r="F40" s="81"/>
-      <c r="G40" s="81"/>
-      <c r="H40" s="87">
+      <c r="E40" s="83"/>
+      <c r="F40" s="83"/>
+      <c r="G40" s="83"/>
+      <c r="H40" s="84">
         <v>44972</v>
       </c>
-      <c r="I40" s="88"/>
-      <c r="J40" s="88"/>
-      <c r="M40" s="80" t="s">
+      <c r="I40" s="85"/>
+      <c r="J40" s="85"/>
+      <c r="M40" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N40" s="80"/>
-      <c r="O40" s="80"/>
-      <c r="P40" s="81" t="s">
+      <c r="N40" s="82"/>
+      <c r="O40" s="82"/>
+      <c r="P40" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q40" s="81"/>
-      <c r="R40" s="81"/>
-      <c r="S40" s="81"/>
+      <c r="Q40" s="83"/>
+      <c r="R40" s="83"/>
+      <c r="S40" s="83"/>
       <c r="T40" s="18"/>
       <c r="U40" s="18"/>
-      <c r="V40" s="82">
+      <c r="V40" s="86">
         <v>44973</v>
       </c>
-      <c r="W40" s="83"/>
-      <c r="X40" s="84"/>
+      <c r="W40" s="87"/>
+      <c r="X40" s="88"/>
     </row>
     <row r="41" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
@@ -2809,72 +2803,72 @@
       <c r="X51" s="4"/>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C54" s="85" t="s">
+      <c r="C54" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="D54" s="85"/>
-      <c r="E54" s="85"/>
-      <c r="F54" s="85"/>
-      <c r="G54" s="85"/>
-      <c r="P54" s="79" t="s">
+      <c r="D54" s="79"/>
+      <c r="E54" s="79"/>
+      <c r="F54" s="79"/>
+      <c r="G54" s="79"/>
+      <c r="P54" s="81" t="s">
         <v>56</v>
       </c>
-      <c r="Q54" s="79"/>
-      <c r="R54" s="79"/>
-      <c r="S54" s="79"/>
-      <c r="T54" s="79"/>
-      <c r="U54" s="79"/>
-      <c r="V54" s="79"/>
+      <c r="Q54" s="81"/>
+      <c r="R54" s="81"/>
+      <c r="S54" s="81"/>
+      <c r="T54" s="81"/>
+      <c r="U54" s="81"/>
+      <c r="V54" s="81"/>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C55" s="86"/>
-      <c r="D55" s="86"/>
-      <c r="E55" s="86"/>
-      <c r="F55" s="86"/>
-      <c r="G55" s="86"/>
-      <c r="P55" s="79"/>
-      <c r="Q55" s="79"/>
-      <c r="R55" s="79"/>
-      <c r="S55" s="79"/>
-      <c r="T55" s="79"/>
-      <c r="U55" s="79"/>
-      <c r="V55" s="79"/>
+      <c r="C55" s="80"/>
+      <c r="D55" s="80"/>
+      <c r="E55" s="80"/>
+      <c r="F55" s="80"/>
+      <c r="G55" s="80"/>
+      <c r="P55" s="81"/>
+      <c r="Q55" s="81"/>
+      <c r="R55" s="81"/>
+      <c r="S55" s="81"/>
+      <c r="T55" s="81"/>
+      <c r="U55" s="81"/>
+      <c r="V55" s="81"/>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A56" s="80" t="s">
+      <c r="A56" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="80"/>
-      <c r="C56" s="80"/>
-      <c r="D56" s="81" t="s">
+      <c r="B56" s="82"/>
+      <c r="C56" s="82"/>
+      <c r="D56" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E56" s="81"/>
-      <c r="F56" s="81"/>
-      <c r="G56" s="81"/>
-      <c r="H56" s="87">
+      <c r="E56" s="83"/>
+      <c r="F56" s="83"/>
+      <c r="G56" s="83"/>
+      <c r="H56" s="84">
         <v>44974</v>
       </c>
-      <c r="I56" s="88"/>
-      <c r="J56" s="88"/>
-      <c r="M56" s="80" t="s">
+      <c r="I56" s="85"/>
+      <c r="J56" s="85"/>
+      <c r="M56" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N56" s="80"/>
-      <c r="O56" s="80"/>
-      <c r="P56" s="81" t="s">
+      <c r="N56" s="82"/>
+      <c r="O56" s="82"/>
+      <c r="P56" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q56" s="81"/>
-      <c r="R56" s="81"/>
-      <c r="S56" s="81"/>
+      <c r="Q56" s="83"/>
+      <c r="R56" s="83"/>
+      <c r="S56" s="83"/>
       <c r="T56" s="18"/>
       <c r="U56" s="18"/>
-      <c r="V56" s="82">
+      <c r="V56" s="86">
         <v>44975</v>
       </c>
-      <c r="W56" s="83"/>
-      <c r="X56" s="84"/>
+      <c r="W56" s="87"/>
+      <c r="X56" s="88"/>
     </row>
     <row r="57" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
@@ -3329,72 +3323,72 @@
       <c r="X67" s="4"/>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C70" s="85" t="s">
+      <c r="C70" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="D70" s="85"/>
-      <c r="E70" s="85"/>
-      <c r="F70" s="85"/>
-      <c r="G70" s="85"/>
-      <c r="P70" s="79" t="s">
+      <c r="D70" s="79"/>
+      <c r="E70" s="79"/>
+      <c r="F70" s="79"/>
+      <c r="G70" s="79"/>
+      <c r="P70" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="Q70" s="79"/>
-      <c r="R70" s="79"/>
-      <c r="S70" s="79"/>
-      <c r="T70" s="79"/>
-      <c r="U70" s="79"/>
-      <c r="V70" s="79"/>
+      <c r="Q70" s="81"/>
+      <c r="R70" s="81"/>
+      <c r="S70" s="81"/>
+      <c r="T70" s="81"/>
+      <c r="U70" s="81"/>
+      <c r="V70" s="81"/>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C71" s="86"/>
-      <c r="D71" s="86"/>
-      <c r="E71" s="86"/>
-      <c r="F71" s="86"/>
-      <c r="G71" s="86"/>
-      <c r="P71" s="79"/>
-      <c r="Q71" s="79"/>
-      <c r="R71" s="79"/>
-      <c r="S71" s="79"/>
-      <c r="T71" s="79"/>
-      <c r="U71" s="79"/>
-      <c r="V71" s="79"/>
+      <c r="C71" s="80"/>
+      <c r="D71" s="80"/>
+      <c r="E71" s="80"/>
+      <c r="F71" s="80"/>
+      <c r="G71" s="80"/>
+      <c r="P71" s="81"/>
+      <c r="Q71" s="81"/>
+      <c r="R71" s="81"/>
+      <c r="S71" s="81"/>
+      <c r="T71" s="81"/>
+      <c r="U71" s="81"/>
+      <c r="V71" s="81"/>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A72" s="80" t="s">
+      <c r="A72" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B72" s="80"/>
-      <c r="C72" s="80"/>
-      <c r="D72" s="81" t="s">
+      <c r="B72" s="82"/>
+      <c r="C72" s="82"/>
+      <c r="D72" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E72" s="81"/>
-      <c r="F72" s="81"/>
-      <c r="G72" s="81"/>
-      <c r="H72" s="87">
+      <c r="E72" s="83"/>
+      <c r="F72" s="83"/>
+      <c r="G72" s="83"/>
+      <c r="H72" s="84">
         <v>44979</v>
       </c>
-      <c r="I72" s="88"/>
-      <c r="J72" s="88"/>
-      <c r="M72" s="80" t="s">
+      <c r="I72" s="85"/>
+      <c r="J72" s="85"/>
+      <c r="M72" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N72" s="80"/>
-      <c r="O72" s="80"/>
-      <c r="P72" s="81" t="s">
+      <c r="N72" s="82"/>
+      <c r="O72" s="82"/>
+      <c r="P72" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q72" s="81"/>
-      <c r="R72" s="81"/>
-      <c r="S72" s="81"/>
+      <c r="Q72" s="83"/>
+      <c r="R72" s="83"/>
+      <c r="S72" s="83"/>
       <c r="T72" s="18"/>
       <c r="U72" s="18"/>
-      <c r="V72" s="82">
+      <c r="V72" s="86">
         <v>44980</v>
       </c>
-      <c r="W72" s="83"/>
-      <c r="X72" s="84"/>
+      <c r="W72" s="87"/>
+      <c r="X72" s="88"/>
     </row>
     <row r="73" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
@@ -3765,72 +3759,72 @@
       <c r="X83" s="4"/>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C87" s="85" t="s">
+      <c r="C87" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="D87" s="85"/>
-      <c r="E87" s="85"/>
-      <c r="F87" s="85"/>
-      <c r="G87" s="85"/>
-      <c r="P87" s="79" t="s">
+      <c r="D87" s="79"/>
+      <c r="E87" s="79"/>
+      <c r="F87" s="79"/>
+      <c r="G87" s="79"/>
+      <c r="P87" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="Q87" s="79"/>
-      <c r="R87" s="79"/>
-      <c r="S87" s="79"/>
-      <c r="T87" s="79"/>
-      <c r="U87" s="79"/>
-      <c r="V87" s="79"/>
+      <c r="Q87" s="81"/>
+      <c r="R87" s="81"/>
+      <c r="S87" s="81"/>
+      <c r="T87" s="81"/>
+      <c r="U87" s="81"/>
+      <c r="V87" s="81"/>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C88" s="86"/>
-      <c r="D88" s="86"/>
-      <c r="E88" s="86"/>
-      <c r="F88" s="86"/>
-      <c r="G88" s="86"/>
-      <c r="P88" s="79"/>
-      <c r="Q88" s="79"/>
-      <c r="R88" s="79"/>
-      <c r="S88" s="79"/>
-      <c r="T88" s="79"/>
-      <c r="U88" s="79"/>
-      <c r="V88" s="79"/>
+      <c r="C88" s="80"/>
+      <c r="D88" s="80"/>
+      <c r="E88" s="80"/>
+      <c r="F88" s="80"/>
+      <c r="G88" s="80"/>
+      <c r="P88" s="81"/>
+      <c r="Q88" s="81"/>
+      <c r="R88" s="81"/>
+      <c r="S88" s="81"/>
+      <c r="T88" s="81"/>
+      <c r="U88" s="81"/>
+      <c r="V88" s="81"/>
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A89" s="80" t="s">
+      <c r="A89" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B89" s="80"/>
-      <c r="C89" s="80"/>
-      <c r="D89" s="81" t="s">
+      <c r="B89" s="82"/>
+      <c r="C89" s="82"/>
+      <c r="D89" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E89" s="81"/>
-      <c r="F89" s="81"/>
-      <c r="G89" s="81"/>
-      <c r="H89" s="87">
+      <c r="E89" s="83"/>
+      <c r="F89" s="83"/>
+      <c r="G89" s="83"/>
+      <c r="H89" s="84">
         <v>44981</v>
       </c>
-      <c r="I89" s="88"/>
-      <c r="J89" s="88"/>
-      <c r="M89" s="80" t="s">
+      <c r="I89" s="85"/>
+      <c r="J89" s="85"/>
+      <c r="M89" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N89" s="80"/>
-      <c r="O89" s="80"/>
-      <c r="P89" s="81" t="s">
+      <c r="N89" s="82"/>
+      <c r="O89" s="82"/>
+      <c r="P89" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q89" s="81"/>
-      <c r="R89" s="81"/>
-      <c r="S89" s="81"/>
+      <c r="Q89" s="83"/>
+      <c r="R89" s="83"/>
+      <c r="S89" s="83"/>
       <c r="T89" s="18"/>
       <c r="U89" s="18"/>
-      <c r="V89" s="82">
+      <c r="V89" s="86">
         <v>44980</v>
       </c>
-      <c r="W89" s="83"/>
-      <c r="X89" s="84"/>
+      <c r="W89" s="87"/>
+      <c r="X89" s="88"/>
     </row>
     <row r="90" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
@@ -4285,72 +4279,72 @@
       <c r="X100" s="4"/>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C104" s="85" t="s">
+      <c r="C104" s="79" t="s">
         <v>70</v>
       </c>
-      <c r="D104" s="85"/>
-      <c r="E104" s="85"/>
-      <c r="F104" s="85"/>
-      <c r="G104" s="85"/>
-      <c r="P104" s="79" t="s">
+      <c r="D104" s="79"/>
+      <c r="E104" s="79"/>
+      <c r="F104" s="79"/>
+      <c r="G104" s="79"/>
+      <c r="P104" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="Q104" s="79"/>
-      <c r="R104" s="79"/>
-      <c r="S104" s="79"/>
-      <c r="T104" s="79"/>
-      <c r="U104" s="79"/>
-      <c r="V104" s="79"/>
+      <c r="Q104" s="81"/>
+      <c r="R104" s="81"/>
+      <c r="S104" s="81"/>
+      <c r="T104" s="81"/>
+      <c r="U104" s="81"/>
+      <c r="V104" s="81"/>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C105" s="86"/>
-      <c r="D105" s="86"/>
-      <c r="E105" s="86"/>
-      <c r="F105" s="86"/>
-      <c r="G105" s="86"/>
-      <c r="P105" s="79"/>
-      <c r="Q105" s="79"/>
-      <c r="R105" s="79"/>
-      <c r="S105" s="79"/>
-      <c r="T105" s="79"/>
-      <c r="U105" s="79"/>
-      <c r="V105" s="79"/>
+      <c r="C105" s="80"/>
+      <c r="D105" s="80"/>
+      <c r="E105" s="80"/>
+      <c r="F105" s="80"/>
+      <c r="G105" s="80"/>
+      <c r="P105" s="81"/>
+      <c r="Q105" s="81"/>
+      <c r="R105" s="81"/>
+      <c r="S105" s="81"/>
+      <c r="T105" s="81"/>
+      <c r="U105" s="81"/>
+      <c r="V105" s="81"/>
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A106" s="80" t="s">
+      <c r="A106" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B106" s="80"/>
-      <c r="C106" s="80"/>
-      <c r="D106" s="81" t="s">
+      <c r="B106" s="82"/>
+      <c r="C106" s="82"/>
+      <c r="D106" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E106" s="81"/>
-      <c r="F106" s="81"/>
-      <c r="G106" s="81"/>
-      <c r="H106" s="87">
+      <c r="E106" s="83"/>
+      <c r="F106" s="83"/>
+      <c r="G106" s="83"/>
+      <c r="H106" s="84">
         <v>44979</v>
       </c>
-      <c r="I106" s="88"/>
-      <c r="J106" s="88"/>
-      <c r="M106" s="80" t="s">
+      <c r="I106" s="85"/>
+      <c r="J106" s="85"/>
+      <c r="M106" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N106" s="80"/>
-      <c r="O106" s="80"/>
-      <c r="P106" s="81" t="s">
+      <c r="N106" s="82"/>
+      <c r="O106" s="82"/>
+      <c r="P106" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q106" s="81"/>
-      <c r="R106" s="81"/>
-      <c r="S106" s="81"/>
+      <c r="Q106" s="83"/>
+      <c r="R106" s="83"/>
+      <c r="S106" s="83"/>
       <c r="T106" s="18"/>
       <c r="U106" s="18"/>
-      <c r="V106" s="82" t="s">
+      <c r="V106" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="W106" s="83"/>
-      <c r="X106" s="84"/>
+      <c r="W106" s="87"/>
+      <c r="X106" s="88"/>
     </row>
     <row r="107" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
@@ -4848,6 +4842,54 @@
     <row r="124" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="P38:V39"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="P40:S40"/>
+    <mergeCell ref="V40:X40"/>
+    <mergeCell ref="C38:G39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="C22:G23"/>
+    <mergeCell ref="P22:V23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="C2:G3"/>
+    <mergeCell ref="P2:V3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="C54:G55"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="P54:V55"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="P56:S56"/>
+    <mergeCell ref="V56:X56"/>
+    <mergeCell ref="C70:G71"/>
+    <mergeCell ref="P70:V71"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="D72:G72"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="M72:O72"/>
+    <mergeCell ref="P72:S72"/>
+    <mergeCell ref="V72:X72"/>
+    <mergeCell ref="C87:G88"/>
+    <mergeCell ref="P87:V88"/>
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="D89:G89"/>
+    <mergeCell ref="H89:J89"/>
+    <mergeCell ref="M89:O89"/>
+    <mergeCell ref="P89:S89"/>
+    <mergeCell ref="V89:X89"/>
     <mergeCell ref="C104:G105"/>
     <mergeCell ref="P104:V105"/>
     <mergeCell ref="A106:C106"/>
@@ -4856,54 +4898,6 @@
     <mergeCell ref="M106:O106"/>
     <mergeCell ref="P106:S106"/>
     <mergeCell ref="V106:X106"/>
-    <mergeCell ref="C87:G88"/>
-    <mergeCell ref="P87:V88"/>
-    <mergeCell ref="A89:C89"/>
-    <mergeCell ref="D89:G89"/>
-    <mergeCell ref="H89:J89"/>
-    <mergeCell ref="M89:O89"/>
-    <mergeCell ref="P89:S89"/>
-    <mergeCell ref="V89:X89"/>
-    <mergeCell ref="C70:G71"/>
-    <mergeCell ref="P70:V71"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="D72:G72"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="M72:O72"/>
-    <mergeCell ref="P72:S72"/>
-    <mergeCell ref="V72:X72"/>
-    <mergeCell ref="C54:G55"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="P54:V55"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="P56:S56"/>
-    <mergeCell ref="V56:X56"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="C2:G3"/>
-    <mergeCell ref="P2:V3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="C22:G23"/>
-    <mergeCell ref="P22:V23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="P38:V39"/>
-    <mergeCell ref="M40:O40"/>
-    <mergeCell ref="P40:S40"/>
-    <mergeCell ref="V40:X40"/>
-    <mergeCell ref="C38:G39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="H40:J40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4911,11 +4905,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Z261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M243" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X259" sqref="X259"/>
+    <sheetView tabSelected="1" topLeftCell="L249" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="X260" sqref="M255:X260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4935,72 +4929,72 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C2" s="85" t="s">
+      <c r="C2" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="P2" s="79" t="s">
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="P2" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="79"/>
-      <c r="T2" s="79"/>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="81"/>
+      <c r="S2" s="81"/>
+      <c r="T2" s="81"/>
+      <c r="U2" s="81"/>
+      <c r="V2" s="81"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="P3" s="79"/>
-      <c r="Q3" s="79"/>
-      <c r="R3" s="79"/>
-      <c r="S3" s="79"/>
-      <c r="T3" s="79"/>
-      <c r="U3" s="79"/>
-      <c r="V3" s="79"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="81"/>
+      <c r="S3" s="81"/>
+      <c r="T3" s="81"/>
+      <c r="U3" s="81"/>
+      <c r="V3" s="81"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="81" t="s">
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="87" t="s">
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="M4" s="80" t="s">
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="M4" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="80"/>
-      <c r="O4" s="80"/>
-      <c r="P4" s="81" t="s">
+      <c r="N4" s="82"/>
+      <c r="O4" s="82"/>
+      <c r="P4" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="81"/>
-      <c r="R4" s="81"/>
-      <c r="S4" s="81"/>
+      <c r="Q4" s="83"/>
+      <c r="R4" s="83"/>
+      <c r="S4" s="83"/>
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
-      <c r="V4" s="82">
+      <c r="V4" s="86">
         <v>44601</v>
       </c>
-      <c r="W4" s="83"/>
-      <c r="X4" s="84"/>
+      <c r="W4" s="87"/>
+      <c r="X4" s="88"/>
     </row>
     <row r="5" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -5467,72 +5461,72 @@
       <c r="X15" s="4"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C22" s="85" t="s">
+      <c r="C22" s="79" t="s">
         <v>75</v>
       </c>
-      <c r="D22" s="85"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="85"/>
-      <c r="P22" s="79" t="s">
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
+      <c r="P22" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="Q22" s="79"/>
-      <c r="R22" s="79"/>
-      <c r="S22" s="79"/>
-      <c r="T22" s="79"/>
-      <c r="U22" s="79"/>
-      <c r="V22" s="79"/>
+      <c r="Q22" s="81"/>
+      <c r="R22" s="81"/>
+      <c r="S22" s="81"/>
+      <c r="T22" s="81"/>
+      <c r="U22" s="81"/>
+      <c r="V22" s="81"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="P23" s="79"/>
-      <c r="Q23" s="79"/>
-      <c r="R23" s="79"/>
-      <c r="S23" s="79"/>
-      <c r="T23" s="79"/>
-      <c r="U23" s="79"/>
-      <c r="V23" s="79"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="P23" s="81"/>
+      <c r="Q23" s="81"/>
+      <c r="R23" s="81"/>
+      <c r="S23" s="81"/>
+      <c r="T23" s="81"/>
+      <c r="U23" s="81"/>
+      <c r="V23" s="81"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="80" t="s">
+      <c r="A24" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="80"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="81" t="s">
+      <c r="B24" s="82"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="81"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="87">
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="84">
         <v>44993</v>
       </c>
-      <c r="I24" s="88"/>
-      <c r="J24" s="88"/>
-      <c r="M24" s="80" t="s">
+      <c r="I24" s="85"/>
+      <c r="J24" s="85"/>
+      <c r="M24" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N24" s="80"/>
-      <c r="O24" s="80"/>
-      <c r="P24" s="81" t="s">
+      <c r="N24" s="82"/>
+      <c r="O24" s="82"/>
+      <c r="P24" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q24" s="81"/>
-      <c r="R24" s="81"/>
-      <c r="S24" s="81"/>
+      <c r="Q24" s="83"/>
+      <c r="R24" s="83"/>
+      <c r="S24" s="83"/>
       <c r="T24" s="18"/>
       <c r="U24" s="18"/>
-      <c r="V24" s="82">
+      <c r="V24" s="86">
         <v>44993</v>
       </c>
-      <c r="W24" s="83"/>
-      <c r="X24" s="84"/>
+      <c r="W24" s="87"/>
+      <c r="X24" s="88"/>
     </row>
     <row r="25" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -5962,72 +5956,72 @@
       <c r="X34" s="4"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C37" s="85" t="s">
+      <c r="C37" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="D37" s="85"/>
-      <c r="E37" s="85"/>
-      <c r="F37" s="85"/>
-      <c r="G37" s="85"/>
-      <c r="P37" s="79" t="s">
+      <c r="D37" s="79"/>
+      <c r="E37" s="79"/>
+      <c r="F37" s="79"/>
+      <c r="G37" s="79"/>
+      <c r="P37" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="Q37" s="79"/>
-      <c r="R37" s="79"/>
-      <c r="S37" s="79"/>
-      <c r="T37" s="79"/>
-      <c r="U37" s="79"/>
-      <c r="V37" s="79"/>
+      <c r="Q37" s="81"/>
+      <c r="R37" s="81"/>
+      <c r="S37" s="81"/>
+      <c r="T37" s="81"/>
+      <c r="U37" s="81"/>
+      <c r="V37" s="81"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C38" s="86"/>
-      <c r="D38" s="86"/>
-      <c r="E38" s="86"/>
-      <c r="F38" s="86"/>
-      <c r="G38" s="86"/>
-      <c r="P38" s="79"/>
-      <c r="Q38" s="79"/>
-      <c r="R38" s="79"/>
-      <c r="S38" s="79"/>
-      <c r="T38" s="79"/>
-      <c r="U38" s="79"/>
-      <c r="V38" s="79"/>
+      <c r="C38" s="80"/>
+      <c r="D38" s="80"/>
+      <c r="E38" s="80"/>
+      <c r="F38" s="80"/>
+      <c r="G38" s="80"/>
+      <c r="P38" s="81"/>
+      <c r="Q38" s="81"/>
+      <c r="R38" s="81"/>
+      <c r="S38" s="81"/>
+      <c r="T38" s="81"/>
+      <c r="U38" s="81"/>
+      <c r="V38" s="81"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A39" s="80" t="s">
+      <c r="A39" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="80"/>
-      <c r="C39" s="80"/>
-      <c r="D39" s="81" t="s">
+      <c r="B39" s="82"/>
+      <c r="C39" s="82"/>
+      <c r="D39" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="81"/>
-      <c r="F39" s="81"/>
-      <c r="G39" s="81"/>
-      <c r="H39" s="87">
+      <c r="E39" s="83"/>
+      <c r="F39" s="83"/>
+      <c r="G39" s="83"/>
+      <c r="H39" s="84">
         <v>44972</v>
       </c>
-      <c r="I39" s="88"/>
-      <c r="J39" s="88"/>
-      <c r="M39" s="80" t="s">
+      <c r="I39" s="85"/>
+      <c r="J39" s="85"/>
+      <c r="M39" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N39" s="80"/>
-      <c r="O39" s="80"/>
-      <c r="P39" s="81" t="s">
+      <c r="N39" s="82"/>
+      <c r="O39" s="82"/>
+      <c r="P39" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q39" s="81"/>
-      <c r="R39" s="81"/>
-      <c r="S39" s="81"/>
+      <c r="Q39" s="83"/>
+      <c r="R39" s="83"/>
+      <c r="S39" s="83"/>
       <c r="T39" s="18"/>
       <c r="U39" s="18"/>
-      <c r="V39" s="82">
+      <c r="V39" s="86">
         <v>44994</v>
       </c>
-      <c r="W39" s="83"/>
-      <c r="X39" s="84"/>
+      <c r="W39" s="87"/>
+      <c r="X39" s="88"/>
     </row>
     <row r="40" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
@@ -6438,72 +6432,72 @@
       <c r="X50" s="4"/>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C53" s="85">
+      <c r="C53" s="79">
         <v>45005</v>
       </c>
-      <c r="D53" s="85"/>
-      <c r="E53" s="85"/>
-      <c r="F53" s="85"/>
-      <c r="G53" s="85"/>
-      <c r="P53" s="85">
+      <c r="D53" s="79"/>
+      <c r="E53" s="79"/>
+      <c r="F53" s="79"/>
+      <c r="G53" s="79"/>
+      <c r="P53" s="79">
         <v>45006</v>
       </c>
-      <c r="Q53" s="85"/>
-      <c r="R53" s="85"/>
-      <c r="S53" s="85"/>
-      <c r="T53" s="85"/>
-      <c r="U53" s="85"/>
-      <c r="V53" s="85"/>
+      <c r="Q53" s="79"/>
+      <c r="R53" s="79"/>
+      <c r="S53" s="79"/>
+      <c r="T53" s="79"/>
+      <c r="U53" s="79"/>
+      <c r="V53" s="79"/>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C54" s="86"/>
-      <c r="D54" s="86"/>
-      <c r="E54" s="86"/>
-      <c r="F54" s="86"/>
-      <c r="G54" s="86"/>
-      <c r="P54" s="85"/>
-      <c r="Q54" s="85"/>
-      <c r="R54" s="85"/>
-      <c r="S54" s="85"/>
-      <c r="T54" s="85"/>
-      <c r="U54" s="85"/>
-      <c r="V54" s="85"/>
+      <c r="C54" s="80"/>
+      <c r="D54" s="80"/>
+      <c r="E54" s="80"/>
+      <c r="F54" s="80"/>
+      <c r="G54" s="80"/>
+      <c r="P54" s="79"/>
+      <c r="Q54" s="79"/>
+      <c r="R54" s="79"/>
+      <c r="S54" s="79"/>
+      <c r="T54" s="79"/>
+      <c r="U54" s="79"/>
+      <c r="V54" s="79"/>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A55" s="80" t="s">
+      <c r="A55" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="80"/>
-      <c r="C55" s="80"/>
-      <c r="D55" s="81" t="s">
+      <c r="B55" s="82"/>
+      <c r="C55" s="82"/>
+      <c r="D55" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E55" s="81"/>
-      <c r="F55" s="81"/>
-      <c r="G55" s="81"/>
-      <c r="H55" s="87">
+      <c r="E55" s="83"/>
+      <c r="F55" s="83"/>
+      <c r="G55" s="83"/>
+      <c r="H55" s="84">
         <v>45005</v>
       </c>
-      <c r="I55" s="88"/>
-      <c r="J55" s="88"/>
-      <c r="M55" s="80" t="s">
+      <c r="I55" s="85"/>
+      <c r="J55" s="85"/>
+      <c r="M55" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N55" s="80"/>
-      <c r="O55" s="80"/>
-      <c r="P55" s="81" t="s">
+      <c r="N55" s="82"/>
+      <c r="O55" s="82"/>
+      <c r="P55" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q55" s="81"/>
-      <c r="R55" s="81"/>
-      <c r="S55" s="81"/>
+      <c r="Q55" s="83"/>
+      <c r="R55" s="83"/>
+      <c r="S55" s="83"/>
       <c r="T55" s="18"/>
       <c r="U55" s="18"/>
-      <c r="V55" s="82">
+      <c r="V55" s="86">
         <v>45006</v>
       </c>
-      <c r="W55" s="83"/>
-      <c r="X55" s="84"/>
+      <c r="W55" s="87"/>
+      <c r="X55" s="88"/>
     </row>
     <row r="56" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
@@ -6902,72 +6896,72 @@
       <c r="X66" s="4"/>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C69" s="85" t="s">
+      <c r="C69" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="D69" s="85"/>
-      <c r="E69" s="85"/>
-      <c r="F69" s="85"/>
-      <c r="G69" s="85"/>
-      <c r="P69" s="79" t="s">
+      <c r="D69" s="79"/>
+      <c r="E69" s="79"/>
+      <c r="F69" s="79"/>
+      <c r="G69" s="79"/>
+      <c r="P69" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="Q69" s="79"/>
-      <c r="R69" s="79"/>
-      <c r="S69" s="79"/>
-      <c r="T69" s="79"/>
-      <c r="U69" s="79"/>
-      <c r="V69" s="79"/>
+      <c r="Q69" s="81"/>
+      <c r="R69" s="81"/>
+      <c r="S69" s="81"/>
+      <c r="T69" s="81"/>
+      <c r="U69" s="81"/>
+      <c r="V69" s="81"/>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C70" s="86"/>
-      <c r="D70" s="86"/>
-      <c r="E70" s="86"/>
-      <c r="F70" s="86"/>
-      <c r="G70" s="86"/>
-      <c r="P70" s="79"/>
-      <c r="Q70" s="79"/>
-      <c r="R70" s="79"/>
-      <c r="S70" s="79"/>
-      <c r="T70" s="79"/>
-      <c r="U70" s="79"/>
-      <c r="V70" s="79"/>
+      <c r="C70" s="80"/>
+      <c r="D70" s="80"/>
+      <c r="E70" s="80"/>
+      <c r="F70" s="80"/>
+      <c r="G70" s="80"/>
+      <c r="P70" s="81"/>
+      <c r="Q70" s="81"/>
+      <c r="R70" s="81"/>
+      <c r="S70" s="81"/>
+      <c r="T70" s="81"/>
+      <c r="U70" s="81"/>
+      <c r="V70" s="81"/>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A71" s="80" t="s">
+      <c r="A71" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B71" s="80"/>
-      <c r="C71" s="80"/>
-      <c r="D71" s="81" t="s">
+      <c r="B71" s="82"/>
+      <c r="C71" s="82"/>
+      <c r="D71" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E71" s="81"/>
-      <c r="F71" s="81"/>
-      <c r="G71" s="81"/>
-      <c r="H71" s="87">
+      <c r="E71" s="83"/>
+      <c r="F71" s="83"/>
+      <c r="G71" s="83"/>
+      <c r="H71" s="84">
         <v>44979</v>
       </c>
-      <c r="I71" s="88"/>
-      <c r="J71" s="88"/>
-      <c r="M71" s="80" t="s">
+      <c r="I71" s="85"/>
+      <c r="J71" s="85"/>
+      <c r="M71" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N71" s="80"/>
-      <c r="O71" s="80"/>
-      <c r="P71" s="81" t="s">
+      <c r="N71" s="82"/>
+      <c r="O71" s="82"/>
+      <c r="P71" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q71" s="81"/>
-      <c r="R71" s="81"/>
-      <c r="S71" s="81"/>
+      <c r="Q71" s="83"/>
+      <c r="R71" s="83"/>
+      <c r="S71" s="83"/>
       <c r="T71" s="18"/>
       <c r="U71" s="18"/>
-      <c r="V71" s="82">
+      <c r="V71" s="86">
         <v>44980</v>
       </c>
-      <c r="W71" s="83"/>
-      <c r="X71" s="84"/>
+      <c r="W71" s="87"/>
+      <c r="X71" s="88"/>
     </row>
     <row r="72" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
@@ -7370,72 +7364,72 @@
       <c r="X82" s="4"/>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C86" s="85" t="s">
+      <c r="C86" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="D86" s="85"/>
-      <c r="E86" s="85"/>
-      <c r="F86" s="85"/>
-      <c r="G86" s="85"/>
-      <c r="P86" s="79" t="s">
+      <c r="D86" s="79"/>
+      <c r="E86" s="79"/>
+      <c r="F86" s="79"/>
+      <c r="G86" s="79"/>
+      <c r="P86" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="Q86" s="79"/>
-      <c r="R86" s="79"/>
-      <c r="S86" s="79"/>
-      <c r="T86" s="79"/>
-      <c r="U86" s="79"/>
-      <c r="V86" s="79"/>
+      <c r="Q86" s="81"/>
+      <c r="R86" s="81"/>
+      <c r="S86" s="81"/>
+      <c r="T86" s="81"/>
+      <c r="U86" s="81"/>
+      <c r="V86" s="81"/>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C87" s="86"/>
-      <c r="D87" s="86"/>
-      <c r="E87" s="86"/>
-      <c r="F87" s="86"/>
-      <c r="G87" s="86"/>
-      <c r="P87" s="79"/>
-      <c r="Q87" s="79"/>
-      <c r="R87" s="79"/>
-      <c r="S87" s="79"/>
-      <c r="T87" s="79"/>
-      <c r="U87" s="79"/>
-      <c r="V87" s="79"/>
+      <c r="C87" s="80"/>
+      <c r="D87" s="80"/>
+      <c r="E87" s="80"/>
+      <c r="F87" s="80"/>
+      <c r="G87" s="80"/>
+      <c r="P87" s="81"/>
+      <c r="Q87" s="81"/>
+      <c r="R87" s="81"/>
+      <c r="S87" s="81"/>
+      <c r="T87" s="81"/>
+      <c r="U87" s="81"/>
+      <c r="V87" s="81"/>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A88" s="80" t="s">
+      <c r="A88" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B88" s="80"/>
-      <c r="C88" s="80"/>
-      <c r="D88" s="81" t="s">
+      <c r="B88" s="82"/>
+      <c r="C88" s="82"/>
+      <c r="D88" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E88" s="81"/>
-      <c r="F88" s="81"/>
-      <c r="G88" s="81"/>
-      <c r="H88" s="87">
+      <c r="E88" s="83"/>
+      <c r="F88" s="83"/>
+      <c r="G88" s="83"/>
+      <c r="H88" s="84">
         <v>44981</v>
       </c>
-      <c r="I88" s="88"/>
-      <c r="J88" s="88"/>
-      <c r="M88" s="80" t="s">
+      <c r="I88" s="85"/>
+      <c r="J88" s="85"/>
+      <c r="M88" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N88" s="80"/>
-      <c r="O88" s="80"/>
-      <c r="P88" s="81" t="s">
+      <c r="N88" s="82"/>
+      <c r="O88" s="82"/>
+      <c r="P88" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q88" s="81"/>
-      <c r="R88" s="81"/>
-      <c r="S88" s="81"/>
+      <c r="Q88" s="83"/>
+      <c r="R88" s="83"/>
+      <c r="S88" s="83"/>
       <c r="T88" s="18"/>
       <c r="U88" s="18"/>
-      <c r="V88" s="82">
+      <c r="V88" s="86">
         <v>44980</v>
       </c>
-      <c r="W88" s="83"/>
-      <c r="X88" s="84"/>
+      <c r="W88" s="87"/>
+      <c r="X88" s="88"/>
     </row>
     <row r="89" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
@@ -7770,72 +7764,72 @@
       <c r="X99" s="4"/>
     </row>
     <row r="103" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C103" s="85" t="s">
+      <c r="C103" s="79" t="s">
         <v>70</v>
       </c>
-      <c r="D103" s="85"/>
-      <c r="E103" s="85"/>
-      <c r="F103" s="85"/>
-      <c r="G103" s="85"/>
-      <c r="P103" s="79" t="s">
+      <c r="D103" s="79"/>
+      <c r="E103" s="79"/>
+      <c r="F103" s="79"/>
+      <c r="G103" s="79"/>
+      <c r="P103" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="Q103" s="79"/>
-      <c r="R103" s="79"/>
-      <c r="S103" s="79"/>
-      <c r="T103" s="79"/>
-      <c r="U103" s="79"/>
-      <c r="V103" s="79"/>
+      <c r="Q103" s="81"/>
+      <c r="R103" s="81"/>
+      <c r="S103" s="81"/>
+      <c r="T103" s="81"/>
+      <c r="U103" s="81"/>
+      <c r="V103" s="81"/>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C104" s="86"/>
-      <c r="D104" s="86"/>
-      <c r="E104" s="86"/>
-      <c r="F104" s="86"/>
-      <c r="G104" s="86"/>
-      <c r="P104" s="79"/>
-      <c r="Q104" s="79"/>
-      <c r="R104" s="79"/>
-      <c r="S104" s="79"/>
-      <c r="T104" s="79"/>
-      <c r="U104" s="79"/>
-      <c r="V104" s="79"/>
+      <c r="C104" s="80"/>
+      <c r="D104" s="80"/>
+      <c r="E104" s="80"/>
+      <c r="F104" s="80"/>
+      <c r="G104" s="80"/>
+      <c r="P104" s="81"/>
+      <c r="Q104" s="81"/>
+      <c r="R104" s="81"/>
+      <c r="S104" s="81"/>
+      <c r="T104" s="81"/>
+      <c r="U104" s="81"/>
+      <c r="V104" s="81"/>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A105" s="80" t="s">
+      <c r="A105" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B105" s="80"/>
-      <c r="C105" s="80"/>
-      <c r="D105" s="81" t="s">
+      <c r="B105" s="82"/>
+      <c r="C105" s="82"/>
+      <c r="D105" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E105" s="81"/>
-      <c r="F105" s="81"/>
-      <c r="G105" s="81"/>
-      <c r="H105" s="87">
+      <c r="E105" s="83"/>
+      <c r="F105" s="83"/>
+      <c r="G105" s="83"/>
+      <c r="H105" s="84">
         <v>44979</v>
       </c>
-      <c r="I105" s="88"/>
-      <c r="J105" s="88"/>
-      <c r="M105" s="80" t="s">
+      <c r="I105" s="85"/>
+      <c r="J105" s="85"/>
+      <c r="M105" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N105" s="80"/>
-      <c r="O105" s="80"/>
-      <c r="P105" s="81" t="s">
+      <c r="N105" s="82"/>
+      <c r="O105" s="82"/>
+      <c r="P105" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q105" s="81"/>
-      <c r="R105" s="81"/>
-      <c r="S105" s="81"/>
+      <c r="Q105" s="83"/>
+      <c r="R105" s="83"/>
+      <c r="S105" s="83"/>
       <c r="T105" s="18"/>
       <c r="U105" s="18"/>
-      <c r="V105" s="82">
+      <c r="V105" s="86">
         <v>45012</v>
       </c>
-      <c r="W105" s="83"/>
-      <c r="X105" s="84"/>
+      <c r="W105" s="87"/>
+      <c r="X105" s="88"/>
     </row>
     <row r="106" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
@@ -8286,73 +8280,73 @@
       <c r="X116" s="4"/>
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C121" s="85" t="s">
+      <c r="C121" s="79" t="s">
         <v>95</v>
       </c>
-      <c r="D121" s="85"/>
-      <c r="E121" s="85"/>
-      <c r="F121" s="85"/>
-      <c r="G121" s="85"/>
-      <c r="P121" s="79" t="s">
+      <c r="D121" s="79"/>
+      <c r="E121" s="79"/>
+      <c r="F121" s="79"/>
+      <c r="G121" s="79"/>
+      <c r="P121" s="81" t="s">
         <v>96</v>
       </c>
-      <c r="Q121" s="79"/>
-      <c r="R121" s="79"/>
-      <c r="S121" s="79"/>
-      <c r="T121" s="79"/>
-      <c r="U121" s="79"/>
-      <c r="V121" s="79"/>
+      <c r="Q121" s="81"/>
+      <c r="R121" s="81"/>
+      <c r="S121" s="81"/>
+      <c r="T121" s="81"/>
+      <c r="U121" s="81"/>
+      <c r="V121" s="81"/>
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C122" s="86"/>
-      <c r="D122" s="86"/>
-      <c r="E122" s="86"/>
-      <c r="F122" s="86"/>
-      <c r="G122" s="86"/>
-      <c r="P122" s="79"/>
-      <c r="Q122" s="79"/>
-      <c r="R122" s="79"/>
-      <c r="S122" s="79"/>
-      <c r="T122" s="79"/>
-      <c r="U122" s="79"/>
-      <c r="V122" s="79"/>
+      <c r="C122" s="80"/>
+      <c r="D122" s="80"/>
+      <c r="E122" s="80"/>
+      <c r="F122" s="80"/>
+      <c r="G122" s="80"/>
+      <c r="P122" s="81"/>
+      <c r="Q122" s="81"/>
+      <c r="R122" s="81"/>
+      <c r="S122" s="81"/>
+      <c r="T122" s="81"/>
+      <c r="U122" s="81"/>
+      <c r="V122" s="81"/>
     </row>
     <row r="123" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="80" t="s">
+      <c r="A123" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B123" s="80"/>
-      <c r="C123" s="80"/>
-      <c r="D123" s="81" t="s">
+      <c r="B123" s="82"/>
+      <c r="C123" s="82"/>
+      <c r="D123" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E123" s="81"/>
-      <c r="F123" s="81"/>
-      <c r="G123" s="81"/>
-      <c r="H123" s="87">
+      <c r="E123" s="83"/>
+      <c r="F123" s="83"/>
+      <c r="G123" s="83"/>
+      <c r="H123" s="84">
         <v>44979</v>
       </c>
-      <c r="I123" s="88"/>
-      <c r="J123" s="88"/>
-      <c r="M123" s="80" t="s">
+      <c r="I123" s="85"/>
+      <c r="J123" s="85"/>
+      <c r="M123" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N123" s="80"/>
-      <c r="O123" s="80"/>
-      <c r="P123" s="81" t="s">
+      <c r="N123" s="82"/>
+      <c r="O123" s="82"/>
+      <c r="P123" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q123" s="81"/>
-      <c r="R123" s="81"/>
-      <c r="S123" s="81"/>
+      <c r="Q123" s="83"/>
+      <c r="R123" s="83"/>
+      <c r="S123" s="83"/>
       <c r="T123" s="18"/>
       <c r="U123" s="18"/>
-      <c r="V123" s="82" t="e">
+      <c r="V123" s="86" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W123" s="83"/>
-      <c r="X123" s="84"/>
+      <c r="W123" s="87"/>
+      <c r="X123" s="88"/>
     </row>
     <row r="124" spans="1:26" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
@@ -8867,45 +8861,45 @@
       <c r="X134" s="4"/>
     </row>
     <row r="138" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="P138" s="79" t="s">
+      <c r="P138" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="Q138" s="79"/>
-      <c r="R138" s="79"/>
-      <c r="S138" s="79"/>
-      <c r="T138" s="79"/>
-      <c r="U138" s="79"/>
-      <c r="V138" s="79"/>
+      <c r="Q138" s="81"/>
+      <c r="R138" s="81"/>
+      <c r="S138" s="81"/>
+      <c r="T138" s="81"/>
+      <c r="U138" s="81"/>
+      <c r="V138" s="81"/>
     </row>
     <row r="139" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="P139" s="79"/>
-      <c r="Q139" s="79"/>
-      <c r="R139" s="79"/>
-      <c r="S139" s="79"/>
-      <c r="T139" s="79"/>
-      <c r="U139" s="79"/>
-      <c r="V139" s="79"/>
+      <c r="P139" s="81"/>
+      <c r="Q139" s="81"/>
+      <c r="R139" s="81"/>
+      <c r="S139" s="81"/>
+      <c r="T139" s="81"/>
+      <c r="U139" s="81"/>
+      <c r="V139" s="81"/>
     </row>
     <row r="140" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="M140" s="80" t="s">
+      <c r="M140" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N140" s="80"/>
-      <c r="O140" s="80"/>
-      <c r="P140" s="81" t="s">
+      <c r="N140" s="82"/>
+      <c r="O140" s="82"/>
+      <c r="P140" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q140" s="81"/>
-      <c r="R140" s="81"/>
-      <c r="S140" s="81"/>
+      <c r="Q140" s="83"/>
+      <c r="R140" s="83"/>
+      <c r="S140" s="83"/>
       <c r="T140" s="18"/>
       <c r="U140" s="18"/>
-      <c r="V140" s="82" t="e">
+      <c r="V140" s="86" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W140" s="83"/>
-      <c r="X140" s="84"/>
+      <c r="W140" s="87"/>
+      <c r="X140" s="88"/>
     </row>
     <row r="141" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M141" s="6" t="s">
@@ -9170,45 +9164,45 @@
       <c r="S152" s="64"/>
     </row>
     <row r="153" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P153" s="79" t="s">
+      <c r="P153" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="Q153" s="79"/>
-      <c r="R153" s="79"/>
-      <c r="S153" s="79"/>
-      <c r="T153" s="79"/>
-      <c r="U153" s="79"/>
-      <c r="V153" s="79"/>
+      <c r="Q153" s="81"/>
+      <c r="R153" s="81"/>
+      <c r="S153" s="81"/>
+      <c r="T153" s="81"/>
+      <c r="U153" s="81"/>
+      <c r="V153" s="81"/>
     </row>
     <row r="154" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P154" s="79"/>
-      <c r="Q154" s="79"/>
-      <c r="R154" s="79"/>
-      <c r="S154" s="79"/>
-      <c r="T154" s="79"/>
-      <c r="U154" s="79"/>
-      <c r="V154" s="79"/>
+      <c r="P154" s="81"/>
+      <c r="Q154" s="81"/>
+      <c r="R154" s="81"/>
+      <c r="S154" s="81"/>
+      <c r="T154" s="81"/>
+      <c r="U154" s="81"/>
+      <c r="V154" s="81"/>
     </row>
     <row r="155" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M155" s="80" t="s">
+      <c r="M155" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N155" s="80"/>
-      <c r="O155" s="80"/>
-      <c r="P155" s="81" t="s">
+      <c r="N155" s="82"/>
+      <c r="O155" s="82"/>
+      <c r="P155" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q155" s="81"/>
-      <c r="R155" s="81"/>
-      <c r="S155" s="81"/>
+      <c r="Q155" s="83"/>
+      <c r="R155" s="83"/>
+      <c r="S155" s="83"/>
       <c r="T155" s="18"/>
       <c r="U155" s="18"/>
-      <c r="V155" s="82" t="e">
+      <c r="V155" s="86" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W155" s="83"/>
-      <c r="X155" s="84"/>
+      <c r="W155" s="87"/>
+      <c r="X155" s="88"/>
     </row>
     <row r="156" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M156" s="6" t="s">
@@ -9472,45 +9466,45 @@
       <c r="X166" s="4"/>
     </row>
     <row r="168" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P168" s="79" t="s">
+      <c r="P168" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="Q168" s="79"/>
-      <c r="R168" s="79"/>
-      <c r="S168" s="79"/>
-      <c r="T168" s="79"/>
-      <c r="U168" s="79"/>
-      <c r="V168" s="79"/>
+      <c r="Q168" s="81"/>
+      <c r="R168" s="81"/>
+      <c r="S168" s="81"/>
+      <c r="T168" s="81"/>
+      <c r="U168" s="81"/>
+      <c r="V168" s="81"/>
     </row>
     <row r="169" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P169" s="79"/>
-      <c r="Q169" s="79"/>
-      <c r="R169" s="79"/>
-      <c r="S169" s="79"/>
-      <c r="T169" s="79"/>
-      <c r="U169" s="79"/>
-      <c r="V169" s="79"/>
+      <c r="P169" s="81"/>
+      <c r="Q169" s="81"/>
+      <c r="R169" s="81"/>
+      <c r="S169" s="81"/>
+      <c r="T169" s="81"/>
+      <c r="U169" s="81"/>
+      <c r="V169" s="81"/>
     </row>
     <row r="170" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M170" s="80" t="s">
+      <c r="M170" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N170" s="80"/>
-      <c r="O170" s="80"/>
-      <c r="P170" s="81" t="s">
+      <c r="N170" s="82"/>
+      <c r="O170" s="82"/>
+      <c r="P170" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q170" s="81"/>
-      <c r="R170" s="81"/>
-      <c r="S170" s="81"/>
+      <c r="Q170" s="83"/>
+      <c r="R170" s="83"/>
+      <c r="S170" s="83"/>
       <c r="T170" s="18"/>
       <c r="U170" s="18"/>
-      <c r="V170" s="82" t="e">
+      <c r="V170" s="86" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W170" s="83"/>
-      <c r="X170" s="84"/>
+      <c r="W170" s="87"/>
+      <c r="X170" s="88"/>
     </row>
     <row r="171" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M171" s="6" t="s">
@@ -9715,45 +9709,45 @@
       <c r="X181" s="4"/>
     </row>
     <row r="186" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P186" s="79" t="s">
+      <c r="P186" s="81" t="s">
         <v>104</v>
       </c>
-      <c r="Q186" s="79"/>
-      <c r="R186" s="79"/>
-      <c r="S186" s="79"/>
-      <c r="T186" s="79"/>
-      <c r="U186" s="79"/>
-      <c r="V186" s="79"/>
+      <c r="Q186" s="81"/>
+      <c r="R186" s="81"/>
+      <c r="S186" s="81"/>
+      <c r="T186" s="81"/>
+      <c r="U186" s="81"/>
+      <c r="V186" s="81"/>
     </row>
     <row r="187" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P187" s="79"/>
-      <c r="Q187" s="79"/>
-      <c r="R187" s="79"/>
-      <c r="S187" s="79"/>
-      <c r="T187" s="79"/>
-      <c r="U187" s="79"/>
-      <c r="V187" s="79"/>
+      <c r="P187" s="81"/>
+      <c r="Q187" s="81"/>
+      <c r="R187" s="81"/>
+      <c r="S187" s="81"/>
+      <c r="T187" s="81"/>
+      <c r="U187" s="81"/>
+      <c r="V187" s="81"/>
     </row>
     <row r="188" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M188" s="80" t="s">
+      <c r="M188" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N188" s="80"/>
-      <c r="O188" s="80"/>
-      <c r="P188" s="81" t="s">
+      <c r="N188" s="82"/>
+      <c r="O188" s="82"/>
+      <c r="P188" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q188" s="81"/>
-      <c r="R188" s="81"/>
-      <c r="S188" s="81"/>
+      <c r="Q188" s="83"/>
+      <c r="R188" s="83"/>
+      <c r="S188" s="83"/>
       <c r="T188" s="18"/>
       <c r="U188" s="18"/>
-      <c r="V188" s="82" t="e">
+      <c r="V188" s="86" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W188" s="83"/>
-      <c r="X188" s="84"/>
+      <c r="W188" s="87"/>
+      <c r="X188" s="88"/>
     </row>
     <row r="189" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M189" s="6" t="s">
@@ -9923,24 +9917,24 @@
       <c r="X194" s="15"/>
     </row>
     <row r="198" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P198" s="79" t="s">
+      <c r="P198" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="Q198" s="79"/>
-      <c r="R198" s="79"/>
-      <c r="S198" s="79"/>
-      <c r="T198" s="79"/>
-      <c r="U198" s="79"/>
-      <c r="V198" s="79"/>
+      <c r="Q198" s="81"/>
+      <c r="R198" s="81"/>
+      <c r="S198" s="81"/>
+      <c r="T198" s="81"/>
+      <c r="U198" s="81"/>
+      <c r="V198" s="81"/>
     </row>
     <row r="199" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P199" s="79"/>
-      <c r="Q199" s="79"/>
-      <c r="R199" s="79"/>
-      <c r="S199" s="79"/>
-      <c r="T199" s="79"/>
-      <c r="U199" s="79"/>
-      <c r="V199" s="79"/>
+      <c r="P199" s="81"/>
+      <c r="Q199" s="81"/>
+      <c r="R199" s="81"/>
+      <c r="S199" s="81"/>
+      <c r="T199" s="81"/>
+      <c r="U199" s="81"/>
+      <c r="V199" s="81"/>
     </row>
     <row r="200" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M200" s="70" t="s">
@@ -10115,24 +10109,24 @@
       </c>
     </row>
     <row r="209" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P209" s="79" t="s">
+      <c r="P209" s="81" t="s">
         <v>113</v>
       </c>
-      <c r="Q209" s="79"/>
-      <c r="R209" s="79"/>
-      <c r="S209" s="79"/>
-      <c r="T209" s="79"/>
-      <c r="U209" s="79"/>
-      <c r="V209" s="79"/>
+      <c r="Q209" s="81"/>
+      <c r="R209" s="81"/>
+      <c r="S209" s="81"/>
+      <c r="T209" s="81"/>
+      <c r="U209" s="81"/>
+      <c r="V209" s="81"/>
     </row>
     <row r="210" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P210" s="79"/>
-      <c r="Q210" s="79"/>
-      <c r="R210" s="79"/>
-      <c r="S210" s="79"/>
-      <c r="T210" s="79"/>
-      <c r="U210" s="79"/>
-      <c r="V210" s="79"/>
+      <c r="P210" s="81"/>
+      <c r="Q210" s="81"/>
+      <c r="R210" s="81"/>
+      <c r="S210" s="81"/>
+      <c r="T210" s="81"/>
+      <c r="U210" s="81"/>
+      <c r="V210" s="81"/>
     </row>
     <row r="211" spans="13:26" ht="36" x14ac:dyDescent="0.25">
       <c r="M211" s="70" t="s">
@@ -10284,24 +10278,24 @@
       </c>
     </row>
     <row r="218" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P218" s="79" t="s">
+      <c r="P218" s="81" t="s">
         <v>114</v>
       </c>
-      <c r="Q218" s="79"/>
-      <c r="R218" s="79"/>
-      <c r="S218" s="79"/>
-      <c r="T218" s="79"/>
-      <c r="U218" s="79"/>
-      <c r="V218" s="79"/>
+      <c r="Q218" s="81"/>
+      <c r="R218" s="81"/>
+      <c r="S218" s="81"/>
+      <c r="T218" s="81"/>
+      <c r="U218" s="81"/>
+      <c r="V218" s="81"/>
     </row>
     <row r="219" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P219" s="79"/>
-      <c r="Q219" s="79"/>
-      <c r="R219" s="79"/>
-      <c r="S219" s="79"/>
-      <c r="T219" s="79"/>
-      <c r="U219" s="79"/>
-      <c r="V219" s="79"/>
+      <c r="P219" s="81"/>
+      <c r="Q219" s="81"/>
+      <c r="R219" s="81"/>
+      <c r="S219" s="81"/>
+      <c r="T219" s="81"/>
+      <c r="U219" s="81"/>
+      <c r="V219" s="81"/>
     </row>
     <row r="220" spans="13:26" ht="36" x14ac:dyDescent="0.25">
       <c r="M220" s="70" t="s">
@@ -10558,24 +10552,24 @@
       </c>
     </row>
     <row r="230" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P230" s="79" t="s">
+      <c r="P230" s="81" t="s">
         <v>116</v>
       </c>
-      <c r="Q230" s="79"/>
-      <c r="R230" s="79"/>
-      <c r="S230" s="79"/>
-      <c r="T230" s="79"/>
-      <c r="U230" s="79"/>
-      <c r="V230" s="79"/>
+      <c r="Q230" s="81"/>
+      <c r="R230" s="81"/>
+      <c r="S230" s="81"/>
+      <c r="T230" s="81"/>
+      <c r="U230" s="81"/>
+      <c r="V230" s="81"/>
     </row>
     <row r="231" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P231" s="79"/>
-      <c r="Q231" s="79"/>
-      <c r="R231" s="79"/>
-      <c r="S231" s="79"/>
-      <c r="T231" s="79"/>
-      <c r="U231" s="79"/>
-      <c r="V231" s="79"/>
+      <c r="P231" s="81"/>
+      <c r="Q231" s="81"/>
+      <c r="R231" s="81"/>
+      <c r="S231" s="81"/>
+      <c r="T231" s="81"/>
+      <c r="U231" s="81"/>
+      <c r="V231" s="81"/>
     </row>
     <row r="232" spans="13:26" ht="36" x14ac:dyDescent="0.25">
       <c r="M232" s="70" t="s">
@@ -10738,24 +10732,24 @@
       </c>
     </row>
     <row r="240" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P240" s="79" t="s">
+      <c r="P240" s="81" t="s">
         <v>118</v>
       </c>
-      <c r="Q240" s="79"/>
-      <c r="R240" s="79"/>
-      <c r="S240" s="79"/>
-      <c r="T240" s="79"/>
-      <c r="U240" s="79"/>
-      <c r="V240" s="79"/>
+      <c r="Q240" s="81"/>
+      <c r="R240" s="81"/>
+      <c r="S240" s="81"/>
+      <c r="T240" s="81"/>
+      <c r="U240" s="81"/>
+      <c r="V240" s="81"/>
     </row>
     <row r="241" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P241" s="79"/>
-      <c r="Q241" s="79"/>
-      <c r="R241" s="79"/>
-      <c r="S241" s="79"/>
-      <c r="T241" s="79"/>
-      <c r="U241" s="79"/>
-      <c r="V241" s="79"/>
+      <c r="P241" s="81"/>
+      <c r="Q241" s="81"/>
+      <c r="R241" s="81"/>
+      <c r="S241" s="81"/>
+      <c r="T241" s="81"/>
+      <c r="U241" s="81"/>
+      <c r="V241" s="81"/>
     </row>
     <row r="242" spans="13:26" ht="36" x14ac:dyDescent="0.25">
       <c r="M242" s="70" t="s">
@@ -10771,11 +10765,11 @@
       <c r="S242" s="71"/>
       <c r="T242" s="18"/>
       <c r="U242" s="18"/>
-      <c r="V242" s="82">
+      <c r="V242" s="86">
         <v>45082</v>
       </c>
-      <c r="W242" s="83"/>
-      <c r="X242" s="84"/>
+      <c r="W242" s="87"/>
+      <c r="X242" s="88"/>
     </row>
     <row r="243" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M243" s="6" t="s">
@@ -10885,24 +10879,24 @@
       </c>
     </row>
     <row r="248" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P248" s="79" t="s">
+      <c r="P248" s="81" t="s">
         <v>119</v>
       </c>
-      <c r="Q248" s="79"/>
-      <c r="R248" s="79"/>
-      <c r="S248" s="79"/>
-      <c r="T248" s="79"/>
-      <c r="U248" s="79"/>
-      <c r="V248" s="79"/>
+      <c r="Q248" s="81"/>
+      <c r="R248" s="81"/>
+      <c r="S248" s="81"/>
+      <c r="T248" s="81"/>
+      <c r="U248" s="81"/>
+      <c r="V248" s="81"/>
     </row>
     <row r="249" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P249" s="79"/>
-      <c r="Q249" s="79"/>
-      <c r="R249" s="79"/>
-      <c r="S249" s="79"/>
-      <c r="T249" s="79"/>
-      <c r="U249" s="79"/>
-      <c r="V249" s="79"/>
+      <c r="P249" s="81"/>
+      <c r="Q249" s="81"/>
+      <c r="R249" s="81"/>
+      <c r="S249" s="81"/>
+      <c r="T249" s="81"/>
+      <c r="U249" s="81"/>
+      <c r="V249" s="81"/>
     </row>
     <row r="250" spans="13:26" ht="36" x14ac:dyDescent="0.25">
       <c r="M250" s="70" t="s">
@@ -10918,11 +10912,11 @@
       <c r="S250" s="71"/>
       <c r="T250" s="18"/>
       <c r="U250" s="18"/>
-      <c r="V250" s="82">
+      <c r="V250" s="86">
         <v>45083</v>
       </c>
-      <c r="W250" s="83"/>
-      <c r="X250" s="84"/>
+      <c r="W250" s="87"/>
+      <c r="X250" s="88"/>
     </row>
     <row r="251" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M251" s="6" t="s">
@@ -10999,24 +10993,24 @@
       </c>
     </row>
     <row r="255" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P255" s="79" t="s">
+      <c r="P255" s="81" t="s">
         <v>120</v>
       </c>
-      <c r="Q255" s="79"/>
-      <c r="R255" s="79"/>
-      <c r="S255" s="79"/>
-      <c r="T255" s="79"/>
-      <c r="U255" s="79"/>
-      <c r="V255" s="79"/>
+      <c r="Q255" s="81"/>
+      <c r="R255" s="81"/>
+      <c r="S255" s="81"/>
+      <c r="T255" s="81"/>
+      <c r="U255" s="81"/>
+      <c r="V255" s="81"/>
     </row>
     <row r="256" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P256" s="79"/>
-      <c r="Q256" s="79"/>
-      <c r="R256" s="79"/>
-      <c r="S256" s="79"/>
-      <c r="T256" s="79"/>
-      <c r="U256" s="79"/>
-      <c r="V256" s="79"/>
+      <c r="P256" s="81"/>
+      <c r="Q256" s="81"/>
+      <c r="R256" s="81"/>
+      <c r="S256" s="81"/>
+      <c r="T256" s="81"/>
+      <c r="U256" s="81"/>
+      <c r="V256" s="81"/>
     </row>
     <row r="257" spans="13:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M257" s="89" t="s">
@@ -11032,11 +11026,11 @@
       <c r="S257" s="93"/>
       <c r="T257" s="93"/>
       <c r="U257" s="94"/>
-      <c r="V257" s="82">
+      <c r="V257" s="86">
         <v>45084</v>
       </c>
-      <c r="W257" s="83"/>
-      <c r="X257" s="84"/>
+      <c r="W257" s="87"/>
+      <c r="X257" s="88"/>
       <c r="Z257" s="20" t="s">
         <v>9</v>
       </c>
@@ -11114,7 +11108,9 @@
       <c r="W259" s="34">
         <v>0.76874999999999993</v>
       </c>
-      <c r="X259" s="35"/>
+      <c r="X259" s="35">
+        <v>0.79305555555555562</v>
+      </c>
       <c r="Z259" s="10" t="s">
         <v>11</v>
       </c>
@@ -11165,22 +11161,66 @@
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="P240:V241"/>
-    <mergeCell ref="P218:V219"/>
-    <mergeCell ref="P198:V199"/>
-    <mergeCell ref="P186:V187"/>
-    <mergeCell ref="M188:O188"/>
-    <mergeCell ref="P188:S188"/>
-    <mergeCell ref="V188:X188"/>
-    <mergeCell ref="P209:V210"/>
-    <mergeCell ref="P230:V231"/>
-    <mergeCell ref="P168:V169"/>
-    <mergeCell ref="M170:O170"/>
-    <mergeCell ref="P170:S170"/>
-    <mergeCell ref="V170:X170"/>
-    <mergeCell ref="M155:O155"/>
-    <mergeCell ref="P155:S155"/>
-    <mergeCell ref="V155:X155"/>
+    <mergeCell ref="P255:V256"/>
+    <mergeCell ref="V257:X257"/>
+    <mergeCell ref="M257:O257"/>
+    <mergeCell ref="P257:U257"/>
+    <mergeCell ref="P248:V249"/>
+    <mergeCell ref="V250:X250"/>
+    <mergeCell ref="V242:X242"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="P55:S55"/>
+    <mergeCell ref="V71:X71"/>
+    <mergeCell ref="P121:V122"/>
+    <mergeCell ref="V123:X123"/>
+    <mergeCell ref="M123:O123"/>
+    <mergeCell ref="P123:S123"/>
+    <mergeCell ref="P138:V139"/>
+    <mergeCell ref="C86:G87"/>
+    <mergeCell ref="P86:V87"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="D71:G71"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="M71:O71"/>
+    <mergeCell ref="P71:S71"/>
+    <mergeCell ref="C37:G38"/>
+    <mergeCell ref="P37:V38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="P39:S39"/>
+    <mergeCell ref="V39:X39"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="C53:G54"/>
+    <mergeCell ref="P53:V54"/>
+    <mergeCell ref="V55:X55"/>
+    <mergeCell ref="C69:G70"/>
+    <mergeCell ref="P69:V70"/>
+    <mergeCell ref="C22:G23"/>
+    <mergeCell ref="P22:V23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="C2:G3"/>
+    <mergeCell ref="P2:V3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="D88:G88"/>
+    <mergeCell ref="H88:J88"/>
+    <mergeCell ref="M88:O88"/>
+    <mergeCell ref="P88:S88"/>
+    <mergeCell ref="V88:X88"/>
     <mergeCell ref="P153:V154"/>
     <mergeCell ref="C103:G104"/>
     <mergeCell ref="P103:V104"/>
@@ -11197,66 +11237,22 @@
     <mergeCell ref="M140:O140"/>
     <mergeCell ref="P140:S140"/>
     <mergeCell ref="V140:X140"/>
-    <mergeCell ref="D88:G88"/>
-    <mergeCell ref="H88:J88"/>
-    <mergeCell ref="M88:O88"/>
-    <mergeCell ref="P88:S88"/>
-    <mergeCell ref="V88:X88"/>
-    <mergeCell ref="C2:G3"/>
-    <mergeCell ref="P2:V3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="P69:V70"/>
-    <mergeCell ref="C22:G23"/>
-    <mergeCell ref="P22:V23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="M71:O71"/>
-    <mergeCell ref="P71:S71"/>
-    <mergeCell ref="C37:G38"/>
-    <mergeCell ref="P37:V38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="P39:S39"/>
-    <mergeCell ref="V39:X39"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="C53:G54"/>
-    <mergeCell ref="P53:V54"/>
-    <mergeCell ref="V55:X55"/>
-    <mergeCell ref="C69:G70"/>
-    <mergeCell ref="V242:X242"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="M55:O55"/>
-    <mergeCell ref="P55:S55"/>
-    <mergeCell ref="V71:X71"/>
-    <mergeCell ref="P121:V122"/>
-    <mergeCell ref="V123:X123"/>
-    <mergeCell ref="M123:O123"/>
-    <mergeCell ref="P123:S123"/>
-    <mergeCell ref="P138:V139"/>
-    <mergeCell ref="C86:G87"/>
-    <mergeCell ref="P86:V87"/>
-    <mergeCell ref="A88:C88"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="D71:G71"/>
-    <mergeCell ref="P255:V256"/>
-    <mergeCell ref="V257:X257"/>
-    <mergeCell ref="M257:O257"/>
-    <mergeCell ref="P257:U257"/>
-    <mergeCell ref="P248:V249"/>
-    <mergeCell ref="V250:X250"/>
+    <mergeCell ref="P168:V169"/>
+    <mergeCell ref="M170:O170"/>
+    <mergeCell ref="P170:S170"/>
+    <mergeCell ref="V170:X170"/>
+    <mergeCell ref="M155:O155"/>
+    <mergeCell ref="P155:S155"/>
+    <mergeCell ref="V155:X155"/>
+    <mergeCell ref="P240:V241"/>
+    <mergeCell ref="P218:V219"/>
+    <mergeCell ref="P198:V199"/>
+    <mergeCell ref="P186:V187"/>
+    <mergeCell ref="M188:O188"/>
+    <mergeCell ref="P188:S188"/>
+    <mergeCell ref="V188:X188"/>
+    <mergeCell ref="P209:V210"/>
+    <mergeCell ref="P230:V231"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -11264,7 +11260,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="B3" workbookViewId="0">

--- a/DOC 2023/FORMATO STATUS.xlsx
+++ b/DOC 2023/FORMATO STATUS.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="123">
   <si>
     <t>DT</t>
   </si>
@@ -392,6 +392,12 @@
   </si>
   <si>
     <t>Jueves 08-06-2023</t>
+  </si>
+  <si>
+    <t>Martes 13-06-2023</t>
+  </si>
+  <si>
+    <t>PAB 2383</t>
   </si>
 </sst>
 </file>
@@ -969,12 +975,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -984,12 +984,6 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -997,6 +991,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1294,7 +1300,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1323,72 +1329,72 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="P2" s="81" t="s">
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="P2" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="81"/>
-      <c r="S2" s="81"/>
-      <c r="T2" s="81"/>
-      <c r="U2" s="81"/>
-      <c r="V2" s="81"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="79"/>
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="81"/>
-      <c r="S3" s="81"/>
-      <c r="T3" s="81"/>
-      <c r="U3" s="81"/>
-      <c r="V3" s="81"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="79"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="83" t="s">
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="84">
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="87">
         <v>44965</v>
       </c>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="M4" s="82" t="s">
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="M4" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="82"/>
-      <c r="O4" s="82"/>
-      <c r="P4" s="83" t="s">
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="83"/>
-      <c r="R4" s="83"/>
-      <c r="S4" s="83"/>
+      <c r="Q4" s="81"/>
+      <c r="R4" s="81"/>
+      <c r="S4" s="81"/>
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
-      <c r="V4" s="86">
+      <c r="V4" s="82">
         <v>44601</v>
       </c>
-      <c r="W4" s="87"/>
-      <c r="X4" s="88"/>
+      <c r="W4" s="83"/>
+      <c r="X4" s="84"/>
     </row>
     <row r="5" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -1803,72 +1809,72 @@
       <c r="X15" s="4"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C22" s="79" t="s">
+      <c r="C22" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="P22" s="81" t="s">
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
+      <c r="P22" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="Q22" s="81"/>
-      <c r="R22" s="81"/>
-      <c r="S22" s="81"/>
-      <c r="T22" s="81"/>
-      <c r="U22" s="81"/>
-      <c r="V22" s="81"/>
+      <c r="Q22" s="79"/>
+      <c r="R22" s="79"/>
+      <c r="S22" s="79"/>
+      <c r="T22" s="79"/>
+      <c r="U22" s="79"/>
+      <c r="V22" s="79"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C23" s="80"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80"/>
-      <c r="P23" s="81"/>
-      <c r="Q23" s="81"/>
-      <c r="R23" s="81"/>
-      <c r="S23" s="81"/>
-      <c r="T23" s="81"/>
-      <c r="U23" s="81"/>
-      <c r="V23" s="81"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="P23" s="79"/>
+      <c r="Q23" s="79"/>
+      <c r="R23" s="79"/>
+      <c r="S23" s="79"/>
+      <c r="T23" s="79"/>
+      <c r="U23" s="79"/>
+      <c r="V23" s="79"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="82" t="s">
+      <c r="A24" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="82"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="83" t="s">
+      <c r="B24" s="80"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="83"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="84">
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="87">
         <v>44965</v>
       </c>
-      <c r="I24" s="85"/>
-      <c r="J24" s="85"/>
-      <c r="M24" s="82" t="s">
+      <c r="I24" s="88"/>
+      <c r="J24" s="88"/>
+      <c r="M24" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N24" s="82"/>
-      <c r="O24" s="82"/>
-      <c r="P24" s="83" t="s">
+      <c r="N24" s="80"/>
+      <c r="O24" s="80"/>
+      <c r="P24" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q24" s="83"/>
-      <c r="R24" s="83"/>
-      <c r="S24" s="83"/>
+      <c r="Q24" s="81"/>
+      <c r="R24" s="81"/>
+      <c r="S24" s="81"/>
       <c r="T24" s="18"/>
       <c r="U24" s="18"/>
-      <c r="V24" s="86">
+      <c r="V24" s="82">
         <v>44971</v>
       </c>
-      <c r="W24" s="87"/>
-      <c r="X24" s="88"/>
+      <c r="W24" s="83"/>
+      <c r="X24" s="84"/>
     </row>
     <row r="25" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -2323,72 +2329,72 @@
       <c r="X35" s="4"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C38" s="79" t="s">
+      <c r="C38" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="79"/>
-      <c r="E38" s="79"/>
-      <c r="F38" s="79"/>
-      <c r="G38" s="79"/>
-      <c r="P38" s="81" t="s">
+      <c r="D38" s="85"/>
+      <c r="E38" s="85"/>
+      <c r="F38" s="85"/>
+      <c r="G38" s="85"/>
+      <c r="P38" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="Q38" s="81"/>
-      <c r="R38" s="81"/>
-      <c r="S38" s="81"/>
-      <c r="T38" s="81"/>
-      <c r="U38" s="81"/>
-      <c r="V38" s="81"/>
+      <c r="Q38" s="79"/>
+      <c r="R38" s="79"/>
+      <c r="S38" s="79"/>
+      <c r="T38" s="79"/>
+      <c r="U38" s="79"/>
+      <c r="V38" s="79"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C39" s="80"/>
-      <c r="D39" s="80"/>
-      <c r="E39" s="80"/>
-      <c r="F39" s="80"/>
-      <c r="G39" s="80"/>
-      <c r="P39" s="81"/>
-      <c r="Q39" s="81"/>
-      <c r="R39" s="81"/>
-      <c r="S39" s="81"/>
-      <c r="T39" s="81"/>
-      <c r="U39" s="81"/>
-      <c r="V39" s="81"/>
+      <c r="C39" s="86"/>
+      <c r="D39" s="86"/>
+      <c r="E39" s="86"/>
+      <c r="F39" s="86"/>
+      <c r="G39" s="86"/>
+      <c r="P39" s="79"/>
+      <c r="Q39" s="79"/>
+      <c r="R39" s="79"/>
+      <c r="S39" s="79"/>
+      <c r="T39" s="79"/>
+      <c r="U39" s="79"/>
+      <c r="V39" s="79"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A40" s="82" t="s">
+      <c r="A40" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="82"/>
-      <c r="C40" s="82"/>
-      <c r="D40" s="83" t="s">
+      <c r="B40" s="80"/>
+      <c r="C40" s="80"/>
+      <c r="D40" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E40" s="83"/>
-      <c r="F40" s="83"/>
-      <c r="G40" s="83"/>
-      <c r="H40" s="84">
+      <c r="E40" s="81"/>
+      <c r="F40" s="81"/>
+      <c r="G40" s="81"/>
+      <c r="H40" s="87">
         <v>44972</v>
       </c>
-      <c r="I40" s="85"/>
-      <c r="J40" s="85"/>
-      <c r="M40" s="82" t="s">
+      <c r="I40" s="88"/>
+      <c r="J40" s="88"/>
+      <c r="M40" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N40" s="82"/>
-      <c r="O40" s="82"/>
-      <c r="P40" s="83" t="s">
+      <c r="N40" s="80"/>
+      <c r="O40" s="80"/>
+      <c r="P40" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q40" s="83"/>
-      <c r="R40" s="83"/>
-      <c r="S40" s="83"/>
+      <c r="Q40" s="81"/>
+      <c r="R40" s="81"/>
+      <c r="S40" s="81"/>
       <c r="T40" s="18"/>
       <c r="U40" s="18"/>
-      <c r="V40" s="86">
+      <c r="V40" s="82">
         <v>44973</v>
       </c>
-      <c r="W40" s="87"/>
-      <c r="X40" s="88"/>
+      <c r="W40" s="83"/>
+      <c r="X40" s="84"/>
     </row>
     <row r="41" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
@@ -2803,72 +2809,72 @@
       <c r="X51" s="4"/>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C54" s="79" t="s">
+      <c r="C54" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="D54" s="79"/>
-      <c r="E54" s="79"/>
-      <c r="F54" s="79"/>
-      <c r="G54" s="79"/>
-      <c r="P54" s="81" t="s">
+      <c r="D54" s="85"/>
+      <c r="E54" s="85"/>
+      <c r="F54" s="85"/>
+      <c r="G54" s="85"/>
+      <c r="P54" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="Q54" s="81"/>
-      <c r="R54" s="81"/>
-      <c r="S54" s="81"/>
-      <c r="T54" s="81"/>
-      <c r="U54" s="81"/>
-      <c r="V54" s="81"/>
+      <c r="Q54" s="79"/>
+      <c r="R54" s="79"/>
+      <c r="S54" s="79"/>
+      <c r="T54" s="79"/>
+      <c r="U54" s="79"/>
+      <c r="V54" s="79"/>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C55" s="80"/>
-      <c r="D55" s="80"/>
-      <c r="E55" s="80"/>
-      <c r="F55" s="80"/>
-      <c r="G55" s="80"/>
-      <c r="P55" s="81"/>
-      <c r="Q55" s="81"/>
-      <c r="R55" s="81"/>
-      <c r="S55" s="81"/>
-      <c r="T55" s="81"/>
-      <c r="U55" s="81"/>
-      <c r="V55" s="81"/>
+      <c r="C55" s="86"/>
+      <c r="D55" s="86"/>
+      <c r="E55" s="86"/>
+      <c r="F55" s="86"/>
+      <c r="G55" s="86"/>
+      <c r="P55" s="79"/>
+      <c r="Q55" s="79"/>
+      <c r="R55" s="79"/>
+      <c r="S55" s="79"/>
+      <c r="T55" s="79"/>
+      <c r="U55" s="79"/>
+      <c r="V55" s="79"/>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A56" s="82" t="s">
+      <c r="A56" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="82"/>
-      <c r="C56" s="82"/>
-      <c r="D56" s="83" t="s">
+      <c r="B56" s="80"/>
+      <c r="C56" s="80"/>
+      <c r="D56" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E56" s="83"/>
-      <c r="F56" s="83"/>
-      <c r="G56" s="83"/>
-      <c r="H56" s="84">
+      <c r="E56" s="81"/>
+      <c r="F56" s="81"/>
+      <c r="G56" s="81"/>
+      <c r="H56" s="87">
         <v>44974</v>
       </c>
-      <c r="I56" s="85"/>
-      <c r="J56" s="85"/>
-      <c r="M56" s="82" t="s">
+      <c r="I56" s="88"/>
+      <c r="J56" s="88"/>
+      <c r="M56" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N56" s="82"/>
-      <c r="O56" s="82"/>
-      <c r="P56" s="83" t="s">
+      <c r="N56" s="80"/>
+      <c r="O56" s="80"/>
+      <c r="P56" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q56" s="83"/>
-      <c r="R56" s="83"/>
-      <c r="S56" s="83"/>
+      <c r="Q56" s="81"/>
+      <c r="R56" s="81"/>
+      <c r="S56" s="81"/>
       <c r="T56" s="18"/>
       <c r="U56" s="18"/>
-      <c r="V56" s="86">
+      <c r="V56" s="82">
         <v>44975</v>
       </c>
-      <c r="W56" s="87"/>
-      <c r="X56" s="88"/>
+      <c r="W56" s="83"/>
+      <c r="X56" s="84"/>
     </row>
     <row r="57" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
@@ -3323,72 +3329,72 @@
       <c r="X67" s="4"/>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C70" s="79" t="s">
+      <c r="C70" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="D70" s="79"/>
-      <c r="E70" s="79"/>
-      <c r="F70" s="79"/>
-      <c r="G70" s="79"/>
-      <c r="P70" s="81" t="s">
+      <c r="D70" s="85"/>
+      <c r="E70" s="85"/>
+      <c r="F70" s="85"/>
+      <c r="G70" s="85"/>
+      <c r="P70" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="Q70" s="81"/>
-      <c r="R70" s="81"/>
-      <c r="S70" s="81"/>
-      <c r="T70" s="81"/>
-      <c r="U70" s="81"/>
-      <c r="V70" s="81"/>
+      <c r="Q70" s="79"/>
+      <c r="R70" s="79"/>
+      <c r="S70" s="79"/>
+      <c r="T70" s="79"/>
+      <c r="U70" s="79"/>
+      <c r="V70" s="79"/>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C71" s="80"/>
-      <c r="D71" s="80"/>
-      <c r="E71" s="80"/>
-      <c r="F71" s="80"/>
-      <c r="G71" s="80"/>
-      <c r="P71" s="81"/>
-      <c r="Q71" s="81"/>
-      <c r="R71" s="81"/>
-      <c r="S71" s="81"/>
-      <c r="T71" s="81"/>
-      <c r="U71" s="81"/>
-      <c r="V71" s="81"/>
+      <c r="C71" s="86"/>
+      <c r="D71" s="86"/>
+      <c r="E71" s="86"/>
+      <c r="F71" s="86"/>
+      <c r="G71" s="86"/>
+      <c r="P71" s="79"/>
+      <c r="Q71" s="79"/>
+      <c r="R71" s="79"/>
+      <c r="S71" s="79"/>
+      <c r="T71" s="79"/>
+      <c r="U71" s="79"/>
+      <c r="V71" s="79"/>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A72" s="82" t="s">
+      <c r="A72" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B72" s="82"/>
-      <c r="C72" s="82"/>
-      <c r="D72" s="83" t="s">
+      <c r="B72" s="80"/>
+      <c r="C72" s="80"/>
+      <c r="D72" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E72" s="83"/>
-      <c r="F72" s="83"/>
-      <c r="G72" s="83"/>
-      <c r="H72" s="84">
+      <c r="E72" s="81"/>
+      <c r="F72" s="81"/>
+      <c r="G72" s="81"/>
+      <c r="H72" s="87">
         <v>44979</v>
       </c>
-      <c r="I72" s="85"/>
-      <c r="J72" s="85"/>
-      <c r="M72" s="82" t="s">
+      <c r="I72" s="88"/>
+      <c r="J72" s="88"/>
+      <c r="M72" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N72" s="82"/>
-      <c r="O72" s="82"/>
-      <c r="P72" s="83" t="s">
+      <c r="N72" s="80"/>
+      <c r="O72" s="80"/>
+      <c r="P72" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q72" s="83"/>
-      <c r="R72" s="83"/>
-      <c r="S72" s="83"/>
+      <c r="Q72" s="81"/>
+      <c r="R72" s="81"/>
+      <c r="S72" s="81"/>
       <c r="T72" s="18"/>
       <c r="U72" s="18"/>
-      <c r="V72" s="86">
+      <c r="V72" s="82">
         <v>44980</v>
       </c>
-      <c r="W72" s="87"/>
-      <c r="X72" s="88"/>
+      <c r="W72" s="83"/>
+      <c r="X72" s="84"/>
     </row>
     <row r="73" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
@@ -3759,72 +3765,72 @@
       <c r="X83" s="4"/>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C87" s="79" t="s">
+      <c r="C87" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="D87" s="79"/>
-      <c r="E87" s="79"/>
-      <c r="F87" s="79"/>
-      <c r="G87" s="79"/>
-      <c r="P87" s="81" t="s">
+      <c r="D87" s="85"/>
+      <c r="E87" s="85"/>
+      <c r="F87" s="85"/>
+      <c r="G87" s="85"/>
+      <c r="P87" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="Q87" s="81"/>
-      <c r="R87" s="81"/>
-      <c r="S87" s="81"/>
-      <c r="T87" s="81"/>
-      <c r="U87" s="81"/>
-      <c r="V87" s="81"/>
+      <c r="Q87" s="79"/>
+      <c r="R87" s="79"/>
+      <c r="S87" s="79"/>
+      <c r="T87" s="79"/>
+      <c r="U87" s="79"/>
+      <c r="V87" s="79"/>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C88" s="80"/>
-      <c r="D88" s="80"/>
-      <c r="E88" s="80"/>
-      <c r="F88" s="80"/>
-      <c r="G88" s="80"/>
-      <c r="P88" s="81"/>
-      <c r="Q88" s="81"/>
-      <c r="R88" s="81"/>
-      <c r="S88" s="81"/>
-      <c r="T88" s="81"/>
-      <c r="U88" s="81"/>
-      <c r="V88" s="81"/>
+      <c r="C88" s="86"/>
+      <c r="D88" s="86"/>
+      <c r="E88" s="86"/>
+      <c r="F88" s="86"/>
+      <c r="G88" s="86"/>
+      <c r="P88" s="79"/>
+      <c r="Q88" s="79"/>
+      <c r="R88" s="79"/>
+      <c r="S88" s="79"/>
+      <c r="T88" s="79"/>
+      <c r="U88" s="79"/>
+      <c r="V88" s="79"/>
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A89" s="82" t="s">
+      <c r="A89" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B89" s="82"/>
-      <c r="C89" s="82"/>
-      <c r="D89" s="83" t="s">
+      <c r="B89" s="80"/>
+      <c r="C89" s="80"/>
+      <c r="D89" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E89" s="83"/>
-      <c r="F89" s="83"/>
-      <c r="G89" s="83"/>
-      <c r="H89" s="84">
+      <c r="E89" s="81"/>
+      <c r="F89" s="81"/>
+      <c r="G89" s="81"/>
+      <c r="H89" s="87">
         <v>44981</v>
       </c>
-      <c r="I89" s="85"/>
-      <c r="J89" s="85"/>
-      <c r="M89" s="82" t="s">
+      <c r="I89" s="88"/>
+      <c r="J89" s="88"/>
+      <c r="M89" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N89" s="82"/>
-      <c r="O89" s="82"/>
-      <c r="P89" s="83" t="s">
+      <c r="N89" s="80"/>
+      <c r="O89" s="80"/>
+      <c r="P89" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q89" s="83"/>
-      <c r="R89" s="83"/>
-      <c r="S89" s="83"/>
+      <c r="Q89" s="81"/>
+      <c r="R89" s="81"/>
+      <c r="S89" s="81"/>
       <c r="T89" s="18"/>
       <c r="U89" s="18"/>
-      <c r="V89" s="86">
+      <c r="V89" s="82">
         <v>44980</v>
       </c>
-      <c r="W89" s="87"/>
-      <c r="X89" s="88"/>
+      <c r="W89" s="83"/>
+      <c r="X89" s="84"/>
     </row>
     <row r="90" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
@@ -4279,72 +4285,72 @@
       <c r="X100" s="4"/>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C104" s="79" t="s">
+      <c r="C104" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="D104" s="79"/>
-      <c r="E104" s="79"/>
-      <c r="F104" s="79"/>
-      <c r="G104" s="79"/>
-      <c r="P104" s="81" t="s">
+      <c r="D104" s="85"/>
+      <c r="E104" s="85"/>
+      <c r="F104" s="85"/>
+      <c r="G104" s="85"/>
+      <c r="P104" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="Q104" s="81"/>
-      <c r="R104" s="81"/>
-      <c r="S104" s="81"/>
-      <c r="T104" s="81"/>
-      <c r="U104" s="81"/>
-      <c r="V104" s="81"/>
+      <c r="Q104" s="79"/>
+      <c r="R104" s="79"/>
+      <c r="S104" s="79"/>
+      <c r="T104" s="79"/>
+      <c r="U104" s="79"/>
+      <c r="V104" s="79"/>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C105" s="80"/>
-      <c r="D105" s="80"/>
-      <c r="E105" s="80"/>
-      <c r="F105" s="80"/>
-      <c r="G105" s="80"/>
-      <c r="P105" s="81"/>
-      <c r="Q105" s="81"/>
-      <c r="R105" s="81"/>
-      <c r="S105" s="81"/>
-      <c r="T105" s="81"/>
-      <c r="U105" s="81"/>
-      <c r="V105" s="81"/>
+      <c r="C105" s="86"/>
+      <c r="D105" s="86"/>
+      <c r="E105" s="86"/>
+      <c r="F105" s="86"/>
+      <c r="G105" s="86"/>
+      <c r="P105" s="79"/>
+      <c r="Q105" s="79"/>
+      <c r="R105" s="79"/>
+      <c r="S105" s="79"/>
+      <c r="T105" s="79"/>
+      <c r="U105" s="79"/>
+      <c r="V105" s="79"/>
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A106" s="82" t="s">
+      <c r="A106" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B106" s="82"/>
-      <c r="C106" s="82"/>
-      <c r="D106" s="83" t="s">
+      <c r="B106" s="80"/>
+      <c r="C106" s="80"/>
+      <c r="D106" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E106" s="83"/>
-      <c r="F106" s="83"/>
-      <c r="G106" s="83"/>
-      <c r="H106" s="84">
+      <c r="E106" s="81"/>
+      <c r="F106" s="81"/>
+      <c r="G106" s="81"/>
+      <c r="H106" s="87">
         <v>44979</v>
       </c>
-      <c r="I106" s="85"/>
-      <c r="J106" s="85"/>
-      <c r="M106" s="82" t="s">
+      <c r="I106" s="88"/>
+      <c r="J106" s="88"/>
+      <c r="M106" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N106" s="82"/>
-      <c r="O106" s="82"/>
-      <c r="P106" s="83" t="s">
+      <c r="N106" s="80"/>
+      <c r="O106" s="80"/>
+      <c r="P106" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q106" s="83"/>
-      <c r="R106" s="83"/>
-      <c r="S106" s="83"/>
+      <c r="Q106" s="81"/>
+      <c r="R106" s="81"/>
+      <c r="S106" s="81"/>
       <c r="T106" s="18"/>
       <c r="U106" s="18"/>
-      <c r="V106" s="86" t="s">
+      <c r="V106" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="W106" s="87"/>
-      <c r="X106" s="88"/>
+      <c r="W106" s="83"/>
+      <c r="X106" s="84"/>
     </row>
     <row r="107" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
@@ -4842,6 +4848,54 @@
     <row r="124" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="C104:G105"/>
+    <mergeCell ref="P104:V105"/>
+    <mergeCell ref="A106:C106"/>
+    <mergeCell ref="D106:G106"/>
+    <mergeCell ref="H106:J106"/>
+    <mergeCell ref="M106:O106"/>
+    <mergeCell ref="P106:S106"/>
+    <mergeCell ref="V106:X106"/>
+    <mergeCell ref="C87:G88"/>
+    <mergeCell ref="P87:V88"/>
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="D89:G89"/>
+    <mergeCell ref="H89:J89"/>
+    <mergeCell ref="M89:O89"/>
+    <mergeCell ref="P89:S89"/>
+    <mergeCell ref="V89:X89"/>
+    <mergeCell ref="C70:G71"/>
+    <mergeCell ref="P70:V71"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="D72:G72"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="M72:O72"/>
+    <mergeCell ref="P72:S72"/>
+    <mergeCell ref="V72:X72"/>
+    <mergeCell ref="C54:G55"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="P54:V55"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="P56:S56"/>
+    <mergeCell ref="V56:X56"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="C2:G3"/>
+    <mergeCell ref="P2:V3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="C22:G23"/>
+    <mergeCell ref="P22:V23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="V24:X24"/>
     <mergeCell ref="P38:V39"/>
     <mergeCell ref="M40:O40"/>
     <mergeCell ref="P40:S40"/>
@@ -4850,54 +4904,6 @@
     <mergeCell ref="A40:C40"/>
     <mergeCell ref="D40:G40"/>
     <mergeCell ref="H40:J40"/>
-    <mergeCell ref="C22:G23"/>
-    <mergeCell ref="P22:V23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="C2:G3"/>
-    <mergeCell ref="P2:V3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="C54:G55"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="P54:V55"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="P56:S56"/>
-    <mergeCell ref="V56:X56"/>
-    <mergeCell ref="C70:G71"/>
-    <mergeCell ref="P70:V71"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="D72:G72"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="M72:O72"/>
-    <mergeCell ref="P72:S72"/>
-    <mergeCell ref="V72:X72"/>
-    <mergeCell ref="C87:G88"/>
-    <mergeCell ref="P87:V88"/>
-    <mergeCell ref="A89:C89"/>
-    <mergeCell ref="D89:G89"/>
-    <mergeCell ref="H89:J89"/>
-    <mergeCell ref="M89:O89"/>
-    <mergeCell ref="P89:S89"/>
-    <mergeCell ref="V89:X89"/>
-    <mergeCell ref="C104:G105"/>
-    <mergeCell ref="P104:V105"/>
-    <mergeCell ref="A106:C106"/>
-    <mergeCell ref="D106:G106"/>
-    <mergeCell ref="H106:J106"/>
-    <mergeCell ref="M106:O106"/>
-    <mergeCell ref="P106:S106"/>
-    <mergeCell ref="V106:X106"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4906,10 +4912,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Z261"/>
+  <dimension ref="A2:Z271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L249" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="X260" sqref="M255:X260"/>
+    <sheetView tabSelected="1" topLeftCell="M256" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y265" sqref="Y265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4929,72 +4935,72 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="P2" s="81" t="s">
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="P2" s="79" t="s">
         <v>76</v>
       </c>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="81"/>
-      <c r="S2" s="81"/>
-      <c r="T2" s="81"/>
-      <c r="U2" s="81"/>
-      <c r="V2" s="81"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="79"/>
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="81"/>
-      <c r="S3" s="81"/>
-      <c r="T3" s="81"/>
-      <c r="U3" s="81"/>
-      <c r="V3" s="81"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="79"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="83" t="s">
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="84" t="s">
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="M4" s="82" t="s">
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="M4" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="82"/>
-      <c r="O4" s="82"/>
-      <c r="P4" s="83" t="s">
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="83"/>
-      <c r="R4" s="83"/>
-      <c r="S4" s="83"/>
+      <c r="Q4" s="81"/>
+      <c r="R4" s="81"/>
+      <c r="S4" s="81"/>
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
-      <c r="V4" s="86">
+      <c r="V4" s="82">
         <v>44601</v>
       </c>
-      <c r="W4" s="87"/>
-      <c r="X4" s="88"/>
+      <c r="W4" s="83"/>
+      <c r="X4" s="84"/>
     </row>
     <row r="5" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -5461,72 +5467,72 @@
       <c r="X15" s="4"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C22" s="79" t="s">
+      <c r="C22" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="P22" s="81" t="s">
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
+      <c r="P22" s="79" t="s">
         <v>77</v>
       </c>
-      <c r="Q22" s="81"/>
-      <c r="R22" s="81"/>
-      <c r="S22" s="81"/>
-      <c r="T22" s="81"/>
-      <c r="U22" s="81"/>
-      <c r="V22" s="81"/>
+      <c r="Q22" s="79"/>
+      <c r="R22" s="79"/>
+      <c r="S22" s="79"/>
+      <c r="T22" s="79"/>
+      <c r="U22" s="79"/>
+      <c r="V22" s="79"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C23" s="80"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80"/>
-      <c r="P23" s="81"/>
-      <c r="Q23" s="81"/>
-      <c r="R23" s="81"/>
-      <c r="S23" s="81"/>
-      <c r="T23" s="81"/>
-      <c r="U23" s="81"/>
-      <c r="V23" s="81"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="P23" s="79"/>
+      <c r="Q23" s="79"/>
+      <c r="R23" s="79"/>
+      <c r="S23" s="79"/>
+      <c r="T23" s="79"/>
+      <c r="U23" s="79"/>
+      <c r="V23" s="79"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="82" t="s">
+      <c r="A24" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="82"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="83" t="s">
+      <c r="B24" s="80"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="83"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="84">
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="87">
         <v>44993</v>
       </c>
-      <c r="I24" s="85"/>
-      <c r="J24" s="85"/>
-      <c r="M24" s="82" t="s">
+      <c r="I24" s="88"/>
+      <c r="J24" s="88"/>
+      <c r="M24" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N24" s="82"/>
-      <c r="O24" s="82"/>
-      <c r="P24" s="83" t="s">
+      <c r="N24" s="80"/>
+      <c r="O24" s="80"/>
+      <c r="P24" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q24" s="83"/>
-      <c r="R24" s="83"/>
-      <c r="S24" s="83"/>
+      <c r="Q24" s="81"/>
+      <c r="R24" s="81"/>
+      <c r="S24" s="81"/>
       <c r="T24" s="18"/>
       <c r="U24" s="18"/>
-      <c r="V24" s="86">
+      <c r="V24" s="82">
         <v>44993</v>
       </c>
-      <c r="W24" s="87"/>
-      <c r="X24" s="88"/>
+      <c r="W24" s="83"/>
+      <c r="X24" s="84"/>
     </row>
     <row r="25" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -5956,72 +5962,72 @@
       <c r="X34" s="4"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C37" s="79" t="s">
+      <c r="C37" s="85" t="s">
         <v>84</v>
       </c>
-      <c r="D37" s="79"/>
-      <c r="E37" s="79"/>
-      <c r="F37" s="79"/>
-      <c r="G37" s="79"/>
-      <c r="P37" s="81" t="s">
+      <c r="D37" s="85"/>
+      <c r="E37" s="85"/>
+      <c r="F37" s="85"/>
+      <c r="G37" s="85"/>
+      <c r="P37" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="Q37" s="81"/>
-      <c r="R37" s="81"/>
-      <c r="S37" s="81"/>
-      <c r="T37" s="81"/>
-      <c r="U37" s="81"/>
-      <c r="V37" s="81"/>
+      <c r="Q37" s="79"/>
+      <c r="R37" s="79"/>
+      <c r="S37" s="79"/>
+      <c r="T37" s="79"/>
+      <c r="U37" s="79"/>
+      <c r="V37" s="79"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C38" s="80"/>
-      <c r="D38" s="80"/>
-      <c r="E38" s="80"/>
-      <c r="F38" s="80"/>
-      <c r="G38" s="80"/>
-      <c r="P38" s="81"/>
-      <c r="Q38" s="81"/>
-      <c r="R38" s="81"/>
-      <c r="S38" s="81"/>
-      <c r="T38" s="81"/>
-      <c r="U38" s="81"/>
-      <c r="V38" s="81"/>
+      <c r="C38" s="86"/>
+      <c r="D38" s="86"/>
+      <c r="E38" s="86"/>
+      <c r="F38" s="86"/>
+      <c r="G38" s="86"/>
+      <c r="P38" s="79"/>
+      <c r="Q38" s="79"/>
+      <c r="R38" s="79"/>
+      <c r="S38" s="79"/>
+      <c r="T38" s="79"/>
+      <c r="U38" s="79"/>
+      <c r="V38" s="79"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A39" s="82" t="s">
+      <c r="A39" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="82"/>
-      <c r="C39" s="82"/>
-      <c r="D39" s="83" t="s">
+      <c r="B39" s="80"/>
+      <c r="C39" s="80"/>
+      <c r="D39" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="83"/>
-      <c r="F39" s="83"/>
-      <c r="G39" s="83"/>
-      <c r="H39" s="84">
+      <c r="E39" s="81"/>
+      <c r="F39" s="81"/>
+      <c r="G39" s="81"/>
+      <c r="H39" s="87">
         <v>44972</v>
       </c>
-      <c r="I39" s="85"/>
-      <c r="J39" s="85"/>
-      <c r="M39" s="82" t="s">
+      <c r="I39" s="88"/>
+      <c r="J39" s="88"/>
+      <c r="M39" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N39" s="82"/>
-      <c r="O39" s="82"/>
-      <c r="P39" s="83" t="s">
+      <c r="N39" s="80"/>
+      <c r="O39" s="80"/>
+      <c r="P39" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q39" s="83"/>
-      <c r="R39" s="83"/>
-      <c r="S39" s="83"/>
+      <c r="Q39" s="81"/>
+      <c r="R39" s="81"/>
+      <c r="S39" s="81"/>
       <c r="T39" s="18"/>
       <c r="U39" s="18"/>
-      <c r="V39" s="86">
+      <c r="V39" s="82">
         <v>44994</v>
       </c>
-      <c r="W39" s="87"/>
-      <c r="X39" s="88"/>
+      <c r="W39" s="83"/>
+      <c r="X39" s="84"/>
     </row>
     <row r="40" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
@@ -6432,72 +6438,72 @@
       <c r="X50" s="4"/>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C53" s="79">
+      <c r="C53" s="85">
         <v>45005</v>
       </c>
-      <c r="D53" s="79"/>
-      <c r="E53" s="79"/>
-      <c r="F53" s="79"/>
-      <c r="G53" s="79"/>
-      <c r="P53" s="79">
+      <c r="D53" s="85"/>
+      <c r="E53" s="85"/>
+      <c r="F53" s="85"/>
+      <c r="G53" s="85"/>
+      <c r="P53" s="85">
         <v>45006</v>
       </c>
-      <c r="Q53" s="79"/>
-      <c r="R53" s="79"/>
-      <c r="S53" s="79"/>
-      <c r="T53" s="79"/>
-      <c r="U53" s="79"/>
-      <c r="V53" s="79"/>
+      <c r="Q53" s="85"/>
+      <c r="R53" s="85"/>
+      <c r="S53" s="85"/>
+      <c r="T53" s="85"/>
+      <c r="U53" s="85"/>
+      <c r="V53" s="85"/>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C54" s="80"/>
-      <c r="D54" s="80"/>
-      <c r="E54" s="80"/>
-      <c r="F54" s="80"/>
-      <c r="G54" s="80"/>
-      <c r="P54" s="79"/>
-      <c r="Q54" s="79"/>
-      <c r="R54" s="79"/>
-      <c r="S54" s="79"/>
-      <c r="T54" s="79"/>
-      <c r="U54" s="79"/>
-      <c r="V54" s="79"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="86"/>
+      <c r="E54" s="86"/>
+      <c r="F54" s="86"/>
+      <c r="G54" s="86"/>
+      <c r="P54" s="85"/>
+      <c r="Q54" s="85"/>
+      <c r="R54" s="85"/>
+      <c r="S54" s="85"/>
+      <c r="T54" s="85"/>
+      <c r="U54" s="85"/>
+      <c r="V54" s="85"/>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A55" s="82" t="s">
+      <c r="A55" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="82"/>
-      <c r="C55" s="82"/>
-      <c r="D55" s="83" t="s">
+      <c r="B55" s="80"/>
+      <c r="C55" s="80"/>
+      <c r="D55" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E55" s="83"/>
-      <c r="F55" s="83"/>
-      <c r="G55" s="83"/>
-      <c r="H55" s="84">
+      <c r="E55" s="81"/>
+      <c r="F55" s="81"/>
+      <c r="G55" s="81"/>
+      <c r="H55" s="87">
         <v>45005</v>
       </c>
-      <c r="I55" s="85"/>
-      <c r="J55" s="85"/>
-      <c r="M55" s="82" t="s">
+      <c r="I55" s="88"/>
+      <c r="J55" s="88"/>
+      <c r="M55" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N55" s="82"/>
-      <c r="O55" s="82"/>
-      <c r="P55" s="83" t="s">
+      <c r="N55" s="80"/>
+      <c r="O55" s="80"/>
+      <c r="P55" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q55" s="83"/>
-      <c r="R55" s="83"/>
-      <c r="S55" s="83"/>
+      <c r="Q55" s="81"/>
+      <c r="R55" s="81"/>
+      <c r="S55" s="81"/>
       <c r="T55" s="18"/>
       <c r="U55" s="18"/>
-      <c r="V55" s="86">
+      <c r="V55" s="82">
         <v>45006</v>
       </c>
-      <c r="W55" s="87"/>
-      <c r="X55" s="88"/>
+      <c r="W55" s="83"/>
+      <c r="X55" s="84"/>
     </row>
     <row r="56" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
@@ -6896,72 +6902,72 @@
       <c r="X66" s="4"/>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C69" s="79" t="s">
+      <c r="C69" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="D69" s="79"/>
-      <c r="E69" s="79"/>
-      <c r="F69" s="79"/>
-      <c r="G69" s="79"/>
-      <c r="P69" s="81" t="s">
+      <c r="D69" s="85"/>
+      <c r="E69" s="85"/>
+      <c r="F69" s="85"/>
+      <c r="G69" s="85"/>
+      <c r="P69" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="Q69" s="81"/>
-      <c r="R69" s="81"/>
-      <c r="S69" s="81"/>
-      <c r="T69" s="81"/>
-      <c r="U69" s="81"/>
-      <c r="V69" s="81"/>
+      <c r="Q69" s="79"/>
+      <c r="R69" s="79"/>
+      <c r="S69" s="79"/>
+      <c r="T69" s="79"/>
+      <c r="U69" s="79"/>
+      <c r="V69" s="79"/>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C70" s="80"/>
-      <c r="D70" s="80"/>
-      <c r="E70" s="80"/>
-      <c r="F70" s="80"/>
-      <c r="G70" s="80"/>
-      <c r="P70" s="81"/>
-      <c r="Q70" s="81"/>
-      <c r="R70" s="81"/>
-      <c r="S70" s="81"/>
-      <c r="T70" s="81"/>
-      <c r="U70" s="81"/>
-      <c r="V70" s="81"/>
+      <c r="C70" s="86"/>
+      <c r="D70" s="86"/>
+      <c r="E70" s="86"/>
+      <c r="F70" s="86"/>
+      <c r="G70" s="86"/>
+      <c r="P70" s="79"/>
+      <c r="Q70" s="79"/>
+      <c r="R70" s="79"/>
+      <c r="S70" s="79"/>
+      <c r="T70" s="79"/>
+      <c r="U70" s="79"/>
+      <c r="V70" s="79"/>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A71" s="82" t="s">
+      <c r="A71" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B71" s="82"/>
-      <c r="C71" s="82"/>
-      <c r="D71" s="83" t="s">
+      <c r="B71" s="80"/>
+      <c r="C71" s="80"/>
+      <c r="D71" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E71" s="83"/>
-      <c r="F71" s="83"/>
-      <c r="G71" s="83"/>
-      <c r="H71" s="84">
+      <c r="E71" s="81"/>
+      <c r="F71" s="81"/>
+      <c r="G71" s="81"/>
+      <c r="H71" s="87">
         <v>44979</v>
       </c>
-      <c r="I71" s="85"/>
-      <c r="J71" s="85"/>
-      <c r="M71" s="82" t="s">
+      <c r="I71" s="88"/>
+      <c r="J71" s="88"/>
+      <c r="M71" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N71" s="82"/>
-      <c r="O71" s="82"/>
-      <c r="P71" s="83" t="s">
+      <c r="N71" s="80"/>
+      <c r="O71" s="80"/>
+      <c r="P71" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q71" s="83"/>
-      <c r="R71" s="83"/>
-      <c r="S71" s="83"/>
+      <c r="Q71" s="81"/>
+      <c r="R71" s="81"/>
+      <c r="S71" s="81"/>
       <c r="T71" s="18"/>
       <c r="U71" s="18"/>
-      <c r="V71" s="86">
+      <c r="V71" s="82">
         <v>44980</v>
       </c>
-      <c r="W71" s="87"/>
-      <c r="X71" s="88"/>
+      <c r="W71" s="83"/>
+      <c r="X71" s="84"/>
     </row>
     <row r="72" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
@@ -7364,72 +7370,72 @@
       <c r="X82" s="4"/>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C86" s="79" t="s">
+      <c r="C86" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="D86" s="79"/>
-      <c r="E86" s="79"/>
-      <c r="F86" s="79"/>
-      <c r="G86" s="79"/>
-      <c r="P86" s="81" t="s">
+      <c r="D86" s="85"/>
+      <c r="E86" s="85"/>
+      <c r="F86" s="85"/>
+      <c r="G86" s="85"/>
+      <c r="P86" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="Q86" s="81"/>
-      <c r="R86" s="81"/>
-      <c r="S86" s="81"/>
-      <c r="T86" s="81"/>
-      <c r="U86" s="81"/>
-      <c r="V86" s="81"/>
+      <c r="Q86" s="79"/>
+      <c r="R86" s="79"/>
+      <c r="S86" s="79"/>
+      <c r="T86" s="79"/>
+      <c r="U86" s="79"/>
+      <c r="V86" s="79"/>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C87" s="80"/>
-      <c r="D87" s="80"/>
-      <c r="E87" s="80"/>
-      <c r="F87" s="80"/>
-      <c r="G87" s="80"/>
-      <c r="P87" s="81"/>
-      <c r="Q87" s="81"/>
-      <c r="R87" s="81"/>
-      <c r="S87" s="81"/>
-      <c r="T87" s="81"/>
-      <c r="U87" s="81"/>
-      <c r="V87" s="81"/>
+      <c r="C87" s="86"/>
+      <c r="D87" s="86"/>
+      <c r="E87" s="86"/>
+      <c r="F87" s="86"/>
+      <c r="G87" s="86"/>
+      <c r="P87" s="79"/>
+      <c r="Q87" s="79"/>
+      <c r="R87" s="79"/>
+      <c r="S87" s="79"/>
+      <c r="T87" s="79"/>
+      <c r="U87" s="79"/>
+      <c r="V87" s="79"/>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A88" s="82" t="s">
+      <c r="A88" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B88" s="82"/>
-      <c r="C88" s="82"/>
-      <c r="D88" s="83" t="s">
+      <c r="B88" s="80"/>
+      <c r="C88" s="80"/>
+      <c r="D88" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E88" s="83"/>
-      <c r="F88" s="83"/>
-      <c r="G88" s="83"/>
-      <c r="H88" s="84">
+      <c r="E88" s="81"/>
+      <c r="F88" s="81"/>
+      <c r="G88" s="81"/>
+      <c r="H88" s="87">
         <v>44981</v>
       </c>
-      <c r="I88" s="85"/>
-      <c r="J88" s="85"/>
-      <c r="M88" s="82" t="s">
+      <c r="I88" s="88"/>
+      <c r="J88" s="88"/>
+      <c r="M88" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N88" s="82"/>
-      <c r="O88" s="82"/>
-      <c r="P88" s="83" t="s">
+      <c r="N88" s="80"/>
+      <c r="O88" s="80"/>
+      <c r="P88" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q88" s="83"/>
-      <c r="R88" s="83"/>
-      <c r="S88" s="83"/>
+      <c r="Q88" s="81"/>
+      <c r="R88" s="81"/>
+      <c r="S88" s="81"/>
       <c r="T88" s="18"/>
       <c r="U88" s="18"/>
-      <c r="V88" s="86">
+      <c r="V88" s="82">
         <v>44980</v>
       </c>
-      <c r="W88" s="87"/>
-      <c r="X88" s="88"/>
+      <c r="W88" s="83"/>
+      <c r="X88" s="84"/>
     </row>
     <row r="89" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
@@ -7764,72 +7770,72 @@
       <c r="X99" s="4"/>
     </row>
     <row r="103" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C103" s="79" t="s">
+      <c r="C103" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="D103" s="79"/>
-      <c r="E103" s="79"/>
-      <c r="F103" s="79"/>
-      <c r="G103" s="79"/>
-      <c r="P103" s="81" t="s">
+      <c r="D103" s="85"/>
+      <c r="E103" s="85"/>
+      <c r="F103" s="85"/>
+      <c r="G103" s="85"/>
+      <c r="P103" s="79" t="s">
         <v>90</v>
       </c>
-      <c r="Q103" s="81"/>
-      <c r="R103" s="81"/>
-      <c r="S103" s="81"/>
-      <c r="T103" s="81"/>
-      <c r="U103" s="81"/>
-      <c r="V103" s="81"/>
+      <c r="Q103" s="79"/>
+      <c r="R103" s="79"/>
+      <c r="S103" s="79"/>
+      <c r="T103" s="79"/>
+      <c r="U103" s="79"/>
+      <c r="V103" s="79"/>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C104" s="80"/>
-      <c r="D104" s="80"/>
-      <c r="E104" s="80"/>
-      <c r="F104" s="80"/>
-      <c r="G104" s="80"/>
-      <c r="P104" s="81"/>
-      <c r="Q104" s="81"/>
-      <c r="R104" s="81"/>
-      <c r="S104" s="81"/>
-      <c r="T104" s="81"/>
-      <c r="U104" s="81"/>
-      <c r="V104" s="81"/>
+      <c r="C104" s="86"/>
+      <c r="D104" s="86"/>
+      <c r="E104" s="86"/>
+      <c r="F104" s="86"/>
+      <c r="G104" s="86"/>
+      <c r="P104" s="79"/>
+      <c r="Q104" s="79"/>
+      <c r="R104" s="79"/>
+      <c r="S104" s="79"/>
+      <c r="T104" s="79"/>
+      <c r="U104" s="79"/>
+      <c r="V104" s="79"/>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A105" s="82" t="s">
+      <c r="A105" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B105" s="82"/>
-      <c r="C105" s="82"/>
-      <c r="D105" s="83" t="s">
+      <c r="B105" s="80"/>
+      <c r="C105" s="80"/>
+      <c r="D105" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E105" s="83"/>
-      <c r="F105" s="83"/>
-      <c r="G105" s="83"/>
-      <c r="H105" s="84">
+      <c r="E105" s="81"/>
+      <c r="F105" s="81"/>
+      <c r="G105" s="81"/>
+      <c r="H105" s="87">
         <v>44979</v>
       </c>
-      <c r="I105" s="85"/>
-      <c r="J105" s="85"/>
-      <c r="M105" s="82" t="s">
+      <c r="I105" s="88"/>
+      <c r="J105" s="88"/>
+      <c r="M105" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N105" s="82"/>
-      <c r="O105" s="82"/>
-      <c r="P105" s="83" t="s">
+      <c r="N105" s="80"/>
+      <c r="O105" s="80"/>
+      <c r="P105" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q105" s="83"/>
-      <c r="R105" s="83"/>
-      <c r="S105" s="83"/>
+      <c r="Q105" s="81"/>
+      <c r="R105" s="81"/>
+      <c r="S105" s="81"/>
       <c r="T105" s="18"/>
       <c r="U105" s="18"/>
-      <c r="V105" s="86">
+      <c r="V105" s="82">
         <v>45012</v>
       </c>
-      <c r="W105" s="87"/>
-      <c r="X105" s="88"/>
+      <c r="W105" s="83"/>
+      <c r="X105" s="84"/>
     </row>
     <row r="106" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
@@ -8280,73 +8286,73 @@
       <c r="X116" s="4"/>
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C121" s="79" t="s">
+      <c r="C121" s="85" t="s">
         <v>95</v>
       </c>
-      <c r="D121" s="79"/>
-      <c r="E121" s="79"/>
-      <c r="F121" s="79"/>
-      <c r="G121" s="79"/>
-      <c r="P121" s="81" t="s">
+      <c r="D121" s="85"/>
+      <c r="E121" s="85"/>
+      <c r="F121" s="85"/>
+      <c r="G121" s="85"/>
+      <c r="P121" s="79" t="s">
         <v>96</v>
       </c>
-      <c r="Q121" s="81"/>
-      <c r="R121" s="81"/>
-      <c r="S121" s="81"/>
-      <c r="T121" s="81"/>
-      <c r="U121" s="81"/>
-      <c r="V121" s="81"/>
+      <c r="Q121" s="79"/>
+      <c r="R121" s="79"/>
+      <c r="S121" s="79"/>
+      <c r="T121" s="79"/>
+      <c r="U121" s="79"/>
+      <c r="V121" s="79"/>
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C122" s="80"/>
-      <c r="D122" s="80"/>
-      <c r="E122" s="80"/>
-      <c r="F122" s="80"/>
-      <c r="G122" s="80"/>
-      <c r="P122" s="81"/>
-      <c r="Q122" s="81"/>
-      <c r="R122" s="81"/>
-      <c r="S122" s="81"/>
-      <c r="T122" s="81"/>
-      <c r="U122" s="81"/>
-      <c r="V122" s="81"/>
+      <c r="C122" s="86"/>
+      <c r="D122" s="86"/>
+      <c r="E122" s="86"/>
+      <c r="F122" s="86"/>
+      <c r="G122" s="86"/>
+      <c r="P122" s="79"/>
+      <c r="Q122" s="79"/>
+      <c r="R122" s="79"/>
+      <c r="S122" s="79"/>
+      <c r="T122" s="79"/>
+      <c r="U122" s="79"/>
+      <c r="V122" s="79"/>
     </row>
     <row r="123" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="82" t="s">
+      <c r="A123" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B123" s="82"/>
-      <c r="C123" s="82"/>
-      <c r="D123" s="83" t="s">
+      <c r="B123" s="80"/>
+      <c r="C123" s="80"/>
+      <c r="D123" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E123" s="83"/>
-      <c r="F123" s="83"/>
-      <c r="G123" s="83"/>
-      <c r="H123" s="84">
+      <c r="E123" s="81"/>
+      <c r="F123" s="81"/>
+      <c r="G123" s="81"/>
+      <c r="H123" s="87">
         <v>44979</v>
       </c>
-      <c r="I123" s="85"/>
-      <c r="J123" s="85"/>
-      <c r="M123" s="82" t="s">
+      <c r="I123" s="88"/>
+      <c r="J123" s="88"/>
+      <c r="M123" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N123" s="82"/>
-      <c r="O123" s="82"/>
-      <c r="P123" s="83" t="s">
+      <c r="N123" s="80"/>
+      <c r="O123" s="80"/>
+      <c r="P123" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q123" s="83"/>
-      <c r="R123" s="83"/>
-      <c r="S123" s="83"/>
+      <c r="Q123" s="81"/>
+      <c r="R123" s="81"/>
+      <c r="S123" s="81"/>
       <c r="T123" s="18"/>
       <c r="U123" s="18"/>
-      <c r="V123" s="86" t="e">
+      <c r="V123" s="82" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W123" s="87"/>
-      <c r="X123" s="88"/>
+      <c r="W123" s="83"/>
+      <c r="X123" s="84"/>
     </row>
     <row r="124" spans="1:26" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
@@ -8861,45 +8867,45 @@
       <c r="X134" s="4"/>
     </row>
     <row r="138" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="P138" s="81" t="s">
+      <c r="P138" s="79" t="s">
         <v>97</v>
       </c>
-      <c r="Q138" s="81"/>
-      <c r="R138" s="81"/>
-      <c r="S138" s="81"/>
-      <c r="T138" s="81"/>
-      <c r="U138" s="81"/>
-      <c r="V138" s="81"/>
+      <c r="Q138" s="79"/>
+      <c r="R138" s="79"/>
+      <c r="S138" s="79"/>
+      <c r="T138" s="79"/>
+      <c r="U138" s="79"/>
+      <c r="V138" s="79"/>
     </row>
     <row r="139" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="P139" s="81"/>
-      <c r="Q139" s="81"/>
-      <c r="R139" s="81"/>
-      <c r="S139" s="81"/>
-      <c r="T139" s="81"/>
-      <c r="U139" s="81"/>
-      <c r="V139" s="81"/>
+      <c r="P139" s="79"/>
+      <c r="Q139" s="79"/>
+      <c r="R139" s="79"/>
+      <c r="S139" s="79"/>
+      <c r="T139" s="79"/>
+      <c r="U139" s="79"/>
+      <c r="V139" s="79"/>
     </row>
     <row r="140" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="M140" s="82" t="s">
+      <c r="M140" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N140" s="82"/>
-      <c r="O140" s="82"/>
-      <c r="P140" s="83" t="s">
+      <c r="N140" s="80"/>
+      <c r="O140" s="80"/>
+      <c r="P140" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q140" s="83"/>
-      <c r="R140" s="83"/>
-      <c r="S140" s="83"/>
+      <c r="Q140" s="81"/>
+      <c r="R140" s="81"/>
+      <c r="S140" s="81"/>
       <c r="T140" s="18"/>
       <c r="U140" s="18"/>
-      <c r="V140" s="86" t="e">
+      <c r="V140" s="82" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W140" s="87"/>
-      <c r="X140" s="88"/>
+      <c r="W140" s="83"/>
+      <c r="X140" s="84"/>
     </row>
     <row r="141" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M141" s="6" t="s">
@@ -9164,45 +9170,45 @@
       <c r="S152" s="64"/>
     </row>
     <row r="153" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P153" s="81" t="s">
+      <c r="P153" s="79" t="s">
         <v>102</v>
       </c>
-      <c r="Q153" s="81"/>
-      <c r="R153" s="81"/>
-      <c r="S153" s="81"/>
-      <c r="T153" s="81"/>
-      <c r="U153" s="81"/>
-      <c r="V153" s="81"/>
+      <c r="Q153" s="79"/>
+      <c r="R153" s="79"/>
+      <c r="S153" s="79"/>
+      <c r="T153" s="79"/>
+      <c r="U153" s="79"/>
+      <c r="V153" s="79"/>
     </row>
     <row r="154" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P154" s="81"/>
-      <c r="Q154" s="81"/>
-      <c r="R154" s="81"/>
-      <c r="S154" s="81"/>
-      <c r="T154" s="81"/>
-      <c r="U154" s="81"/>
-      <c r="V154" s="81"/>
+      <c r="P154" s="79"/>
+      <c r="Q154" s="79"/>
+      <c r="R154" s="79"/>
+      <c r="S154" s="79"/>
+      <c r="T154" s="79"/>
+      <c r="U154" s="79"/>
+      <c r="V154" s="79"/>
     </row>
     <row r="155" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M155" s="82" t="s">
+      <c r="M155" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N155" s="82"/>
-      <c r="O155" s="82"/>
-      <c r="P155" s="83" t="s">
+      <c r="N155" s="80"/>
+      <c r="O155" s="80"/>
+      <c r="P155" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q155" s="83"/>
-      <c r="R155" s="83"/>
-      <c r="S155" s="83"/>
+      <c r="Q155" s="81"/>
+      <c r="R155" s="81"/>
+      <c r="S155" s="81"/>
       <c r="T155" s="18"/>
       <c r="U155" s="18"/>
-      <c r="V155" s="86" t="e">
+      <c r="V155" s="82" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W155" s="87"/>
-      <c r="X155" s="88"/>
+      <c r="W155" s="83"/>
+      <c r="X155" s="84"/>
     </row>
     <row r="156" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M156" s="6" t="s">
@@ -9466,45 +9472,45 @@
       <c r="X166" s="4"/>
     </row>
     <row r="168" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P168" s="81" t="s">
+      <c r="P168" s="79" t="s">
         <v>100</v>
       </c>
-      <c r="Q168" s="81"/>
-      <c r="R168" s="81"/>
-      <c r="S168" s="81"/>
-      <c r="T168" s="81"/>
-      <c r="U168" s="81"/>
-      <c r="V168" s="81"/>
+      <c r="Q168" s="79"/>
+      <c r="R168" s="79"/>
+      <c r="S168" s="79"/>
+      <c r="T168" s="79"/>
+      <c r="U168" s="79"/>
+      <c r="V168" s="79"/>
     </row>
     <row r="169" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P169" s="81"/>
-      <c r="Q169" s="81"/>
-      <c r="R169" s="81"/>
-      <c r="S169" s="81"/>
-      <c r="T169" s="81"/>
-      <c r="U169" s="81"/>
-      <c r="V169" s="81"/>
+      <c r="P169" s="79"/>
+      <c r="Q169" s="79"/>
+      <c r="R169" s="79"/>
+      <c r="S169" s="79"/>
+      <c r="T169" s="79"/>
+      <c r="U169" s="79"/>
+      <c r="V169" s="79"/>
     </row>
     <row r="170" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M170" s="82" t="s">
+      <c r="M170" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N170" s="82"/>
-      <c r="O170" s="82"/>
-      <c r="P170" s="83" t="s">
+      <c r="N170" s="80"/>
+      <c r="O170" s="80"/>
+      <c r="P170" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q170" s="83"/>
-      <c r="R170" s="83"/>
-      <c r="S170" s="83"/>
+      <c r="Q170" s="81"/>
+      <c r="R170" s="81"/>
+      <c r="S170" s="81"/>
       <c r="T170" s="18"/>
       <c r="U170" s="18"/>
-      <c r="V170" s="86" t="e">
+      <c r="V170" s="82" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W170" s="87"/>
-      <c r="X170" s="88"/>
+      <c r="W170" s="83"/>
+      <c r="X170" s="84"/>
     </row>
     <row r="171" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M171" s="6" t="s">
@@ -9709,45 +9715,45 @@
       <c r="X181" s="4"/>
     </row>
     <row r="186" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P186" s="81" t="s">
+      <c r="P186" s="79" t="s">
         <v>104</v>
       </c>
-      <c r="Q186" s="81"/>
-      <c r="R186" s="81"/>
-      <c r="S186" s="81"/>
-      <c r="T186" s="81"/>
-      <c r="U186" s="81"/>
-      <c r="V186" s="81"/>
+      <c r="Q186" s="79"/>
+      <c r="R186" s="79"/>
+      <c r="S186" s="79"/>
+      <c r="T186" s="79"/>
+      <c r="U186" s="79"/>
+      <c r="V186" s="79"/>
     </row>
     <row r="187" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P187" s="81"/>
-      <c r="Q187" s="81"/>
-      <c r="R187" s="81"/>
-      <c r="S187" s="81"/>
-      <c r="T187" s="81"/>
-      <c r="U187" s="81"/>
-      <c r="V187" s="81"/>
+      <c r="P187" s="79"/>
+      <c r="Q187" s="79"/>
+      <c r="R187" s="79"/>
+      <c r="S187" s="79"/>
+      <c r="T187" s="79"/>
+      <c r="U187" s="79"/>
+      <c r="V187" s="79"/>
     </row>
     <row r="188" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M188" s="82" t="s">
+      <c r="M188" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N188" s="82"/>
-      <c r="O188" s="82"/>
-      <c r="P188" s="83" t="s">
+      <c r="N188" s="80"/>
+      <c r="O188" s="80"/>
+      <c r="P188" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q188" s="83"/>
-      <c r="R188" s="83"/>
-      <c r="S188" s="83"/>
+      <c r="Q188" s="81"/>
+      <c r="R188" s="81"/>
+      <c r="S188" s="81"/>
       <c r="T188" s="18"/>
       <c r="U188" s="18"/>
-      <c r="V188" s="86" t="e">
+      <c r="V188" s="82" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W188" s="87"/>
-      <c r="X188" s="88"/>
+      <c r="W188" s="83"/>
+      <c r="X188" s="84"/>
     </row>
     <row r="189" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M189" s="6" t="s">
@@ -9917,24 +9923,24 @@
       <c r="X194" s="15"/>
     </row>
     <row r="198" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P198" s="81" t="s">
+      <c r="P198" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="Q198" s="81"/>
-      <c r="R198" s="81"/>
-      <c r="S198" s="81"/>
-      <c r="T198" s="81"/>
-      <c r="U198" s="81"/>
-      <c r="V198" s="81"/>
+      <c r="Q198" s="79"/>
+      <c r="R198" s="79"/>
+      <c r="S198" s="79"/>
+      <c r="T198" s="79"/>
+      <c r="U198" s="79"/>
+      <c r="V198" s="79"/>
     </row>
     <row r="199" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P199" s="81"/>
-      <c r="Q199" s="81"/>
-      <c r="R199" s="81"/>
-      <c r="S199" s="81"/>
-      <c r="T199" s="81"/>
-      <c r="U199" s="81"/>
-      <c r="V199" s="81"/>
+      <c r="P199" s="79"/>
+      <c r="Q199" s="79"/>
+      <c r="R199" s="79"/>
+      <c r="S199" s="79"/>
+      <c r="T199" s="79"/>
+      <c r="U199" s="79"/>
+      <c r="V199" s="79"/>
     </row>
     <row r="200" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M200" s="70" t="s">
@@ -10109,24 +10115,24 @@
       </c>
     </row>
     <row r="209" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P209" s="81" t="s">
+      <c r="P209" s="79" t="s">
         <v>113</v>
       </c>
-      <c r="Q209" s="81"/>
-      <c r="R209" s="81"/>
-      <c r="S209" s="81"/>
-      <c r="T209" s="81"/>
-      <c r="U209" s="81"/>
-      <c r="V209" s="81"/>
+      <c r="Q209" s="79"/>
+      <c r="R209" s="79"/>
+      <c r="S209" s="79"/>
+      <c r="T209" s="79"/>
+      <c r="U209" s="79"/>
+      <c r="V209" s="79"/>
     </row>
     <row r="210" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P210" s="81"/>
-      <c r="Q210" s="81"/>
-      <c r="R210" s="81"/>
-      <c r="S210" s="81"/>
-      <c r="T210" s="81"/>
-      <c r="U210" s="81"/>
-      <c r="V210" s="81"/>
+      <c r="P210" s="79"/>
+      <c r="Q210" s="79"/>
+      <c r="R210" s="79"/>
+      <c r="S210" s="79"/>
+      <c r="T210" s="79"/>
+      <c r="U210" s="79"/>
+      <c r="V210" s="79"/>
     </row>
     <row r="211" spans="13:26" ht="36" x14ac:dyDescent="0.25">
       <c r="M211" s="70" t="s">
@@ -10278,24 +10284,24 @@
       </c>
     </row>
     <row r="218" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P218" s="81" t="s">
+      <c r="P218" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="Q218" s="81"/>
-      <c r="R218" s="81"/>
-      <c r="S218" s="81"/>
-      <c r="T218" s="81"/>
-      <c r="U218" s="81"/>
-      <c r="V218" s="81"/>
+      <c r="Q218" s="79"/>
+      <c r="R218" s="79"/>
+      <c r="S218" s="79"/>
+      <c r="T218" s="79"/>
+      <c r="U218" s="79"/>
+      <c r="V218" s="79"/>
     </row>
     <row r="219" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P219" s="81"/>
-      <c r="Q219" s="81"/>
-      <c r="R219" s="81"/>
-      <c r="S219" s="81"/>
-      <c r="T219" s="81"/>
-      <c r="U219" s="81"/>
-      <c r="V219" s="81"/>
+      <c r="P219" s="79"/>
+      <c r="Q219" s="79"/>
+      <c r="R219" s="79"/>
+      <c r="S219" s="79"/>
+      <c r="T219" s="79"/>
+      <c r="U219" s="79"/>
+      <c r="V219" s="79"/>
     </row>
     <row r="220" spans="13:26" ht="36" x14ac:dyDescent="0.25">
       <c r="M220" s="70" t="s">
@@ -10552,24 +10558,24 @@
       </c>
     </row>
     <row r="230" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P230" s="81" t="s">
+      <c r="P230" s="79" t="s">
         <v>116</v>
       </c>
-      <c r="Q230" s="81"/>
-      <c r="R230" s="81"/>
-      <c r="S230" s="81"/>
-      <c r="T230" s="81"/>
-      <c r="U230" s="81"/>
-      <c r="V230" s="81"/>
+      <c r="Q230" s="79"/>
+      <c r="R230" s="79"/>
+      <c r="S230" s="79"/>
+      <c r="T230" s="79"/>
+      <c r="U230" s="79"/>
+      <c r="V230" s="79"/>
     </row>
     <row r="231" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P231" s="81"/>
-      <c r="Q231" s="81"/>
-      <c r="R231" s="81"/>
-      <c r="S231" s="81"/>
-      <c r="T231" s="81"/>
-      <c r="U231" s="81"/>
-      <c r="V231" s="81"/>
+      <c r="P231" s="79"/>
+      <c r="Q231" s="79"/>
+      <c r="R231" s="79"/>
+      <c r="S231" s="79"/>
+      <c r="T231" s="79"/>
+      <c r="U231" s="79"/>
+      <c r="V231" s="79"/>
     </row>
     <row r="232" spans="13:26" ht="36" x14ac:dyDescent="0.25">
       <c r="M232" s="70" t="s">
@@ -10732,24 +10738,24 @@
       </c>
     </row>
     <row r="240" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P240" s="81" t="s">
+      <c r="P240" s="79" t="s">
         <v>118</v>
       </c>
-      <c r="Q240" s="81"/>
-      <c r="R240" s="81"/>
-      <c r="S240" s="81"/>
-      <c r="T240" s="81"/>
-      <c r="U240" s="81"/>
-      <c r="V240" s="81"/>
+      <c r="Q240" s="79"/>
+      <c r="R240" s="79"/>
+      <c r="S240" s="79"/>
+      <c r="T240" s="79"/>
+      <c r="U240" s="79"/>
+      <c r="V240" s="79"/>
     </row>
     <row r="241" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P241" s="81"/>
-      <c r="Q241" s="81"/>
-      <c r="R241" s="81"/>
-      <c r="S241" s="81"/>
-      <c r="T241" s="81"/>
-      <c r="U241" s="81"/>
-      <c r="V241" s="81"/>
+      <c r="P241" s="79"/>
+      <c r="Q241" s="79"/>
+      <c r="R241" s="79"/>
+      <c r="S241" s="79"/>
+      <c r="T241" s="79"/>
+      <c r="U241" s="79"/>
+      <c r="V241" s="79"/>
     </row>
     <row r="242" spans="13:26" ht="36" x14ac:dyDescent="0.25">
       <c r="M242" s="70" t="s">
@@ -10765,11 +10771,11 @@
       <c r="S242" s="71"/>
       <c r="T242" s="18"/>
       <c r="U242" s="18"/>
-      <c r="V242" s="86">
+      <c r="V242" s="82">
         <v>45082</v>
       </c>
-      <c r="W242" s="87"/>
-      <c r="X242" s="88"/>
+      <c r="W242" s="83"/>
+      <c r="X242" s="84"/>
     </row>
     <row r="243" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M243" s="6" t="s">
@@ -10879,24 +10885,24 @@
       </c>
     </row>
     <row r="248" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P248" s="81" t="s">
+      <c r="P248" s="79" t="s">
         <v>119</v>
       </c>
-      <c r="Q248" s="81"/>
-      <c r="R248" s="81"/>
-      <c r="S248" s="81"/>
-      <c r="T248" s="81"/>
-      <c r="U248" s="81"/>
-      <c r="V248" s="81"/>
+      <c r="Q248" s="79"/>
+      <c r="R248" s="79"/>
+      <c r="S248" s="79"/>
+      <c r="T248" s="79"/>
+      <c r="U248" s="79"/>
+      <c r="V248" s="79"/>
     </row>
     <row r="249" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P249" s="81"/>
-      <c r="Q249" s="81"/>
-      <c r="R249" s="81"/>
-      <c r="S249" s="81"/>
-      <c r="T249" s="81"/>
-      <c r="U249" s="81"/>
-      <c r="V249" s="81"/>
+      <c r="P249" s="79"/>
+      <c r="Q249" s="79"/>
+      <c r="R249" s="79"/>
+      <c r="S249" s="79"/>
+      <c r="T249" s="79"/>
+      <c r="U249" s="79"/>
+      <c r="V249" s="79"/>
     </row>
     <row r="250" spans="13:26" ht="36" x14ac:dyDescent="0.25">
       <c r="M250" s="70" t="s">
@@ -10912,11 +10918,11 @@
       <c r="S250" s="71"/>
       <c r="T250" s="18"/>
       <c r="U250" s="18"/>
-      <c r="V250" s="86">
+      <c r="V250" s="82">
         <v>45083</v>
       </c>
-      <c r="W250" s="87"/>
-      <c r="X250" s="88"/>
+      <c r="W250" s="83"/>
+      <c r="X250" s="84"/>
     </row>
     <row r="251" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M251" s="6" t="s">
@@ -10993,24 +10999,24 @@
       </c>
     </row>
     <row r="255" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P255" s="81" t="s">
+      <c r="P255" s="79" t="s">
         <v>120</v>
       </c>
-      <c r="Q255" s="81"/>
-      <c r="R255" s="81"/>
-      <c r="S255" s="81"/>
-      <c r="T255" s="81"/>
-      <c r="U255" s="81"/>
-      <c r="V255" s="81"/>
+      <c r="Q255" s="79"/>
+      <c r="R255" s="79"/>
+      <c r="S255" s="79"/>
+      <c r="T255" s="79"/>
+      <c r="U255" s="79"/>
+      <c r="V255" s="79"/>
     </row>
     <row r="256" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P256" s="81"/>
-      <c r="Q256" s="81"/>
-      <c r="R256" s="81"/>
-      <c r="S256" s="81"/>
-      <c r="T256" s="81"/>
-      <c r="U256" s="81"/>
-      <c r="V256" s="81"/>
+      <c r="P256" s="79"/>
+      <c r="Q256" s="79"/>
+      <c r="R256" s="79"/>
+      <c r="S256" s="79"/>
+      <c r="T256" s="79"/>
+      <c r="U256" s="79"/>
+      <c r="V256" s="79"/>
     </row>
     <row r="257" spans="13:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M257" s="89" t="s">
@@ -11026,11 +11032,11 @@
       <c r="S257" s="93"/>
       <c r="T257" s="93"/>
       <c r="U257" s="94"/>
-      <c r="V257" s="86">
+      <c r="V257" s="82">
         <v>45084</v>
       </c>
-      <c r="W257" s="87"/>
-      <c r="X257" s="88"/>
+      <c r="W257" s="83"/>
+      <c r="X257" s="84"/>
       <c r="Z257" s="20" t="s">
         <v>9</v>
       </c>
@@ -11159,14 +11165,374 @@
         <v>28</v>
       </c>
     </row>
+    <row r="262" spans="13:26" x14ac:dyDescent="0.25">
+      <c r="P262" s="79" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q262" s="79"/>
+      <c r="R262" s="79"/>
+      <c r="S262" s="79"/>
+      <c r="T262" s="79"/>
+      <c r="U262" s="79"/>
+      <c r="V262" s="79"/>
+    </row>
+    <row r="263" spans="13:26" x14ac:dyDescent="0.25">
+      <c r="P263" s="79"/>
+      <c r="Q263" s="79"/>
+      <c r="R263" s="79"/>
+      <c r="S263" s="79"/>
+      <c r="T263" s="79"/>
+      <c r="U263" s="79"/>
+      <c r="V263" s="79"/>
+    </row>
+    <row r="264" spans="13:26" x14ac:dyDescent="0.25">
+      <c r="M264" s="89" t="s">
+        <v>12</v>
+      </c>
+      <c r="N264" s="90"/>
+      <c r="O264" s="91"/>
+      <c r="P264" s="92" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q264" s="93"/>
+      <c r="R264" s="93"/>
+      <c r="S264" s="93"/>
+      <c r="T264" s="93"/>
+      <c r="U264" s="94"/>
+      <c r="V264" s="82">
+        <v>45089</v>
+      </c>
+      <c r="W264" s="83"/>
+      <c r="X264" s="84"/>
+    </row>
+    <row r="265" spans="13:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="M265" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N265" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O265" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P265" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q265" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="R265" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="S265" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="T265" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="U265" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="V265" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="W265" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="X265" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="266" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M266" s="47"/>
+      <c r="N266" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="O266" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="P266" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q266" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="R266" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="S266" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="T266" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="U266" s="33">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="V266" s="34">
+        <v>0.52916666666666667</v>
+      </c>
+      <c r="W266" s="34">
+        <v>0.60347222222222219</v>
+      </c>
+      <c r="X266" s="35">
+        <v>0.6118055555555556</v>
+      </c>
+    </row>
+    <row r="267" spans="13:26" x14ac:dyDescent="0.25">
+      <c r="M267" s="47"/>
+      <c r="N267" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="O267" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="P267" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q267" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="R267" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="S267" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="T267" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="U267" s="33">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="V267" s="34">
+        <v>0.52569444444444446</v>
+      </c>
+      <c r="W267" s="34">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="X267" s="35">
+        <v>0.60069444444444442</v>
+      </c>
+    </row>
+    <row r="268" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M268" s="15"/>
+      <c r="N268" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="O268" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="P268" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q268" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="R268" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="S268" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="T268" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="U268" s="33">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="V268" s="34">
+        <v>0.53263888888888888</v>
+      </c>
+      <c r="W268" s="34">
+        <v>0.6118055555555556</v>
+      </c>
+      <c r="X268" s="35">
+        <v>0.62638888888888888</v>
+      </c>
+    </row>
+    <row r="269" spans="13:26" x14ac:dyDescent="0.25">
+      <c r="M269" s="15"/>
+      <c r="N269" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="O269" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="P269" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q269" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="R269" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="S269" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="T269" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="U269" s="33">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="V269" s="34">
+        <v>0.52638888888888891</v>
+      </c>
+      <c r="W269" s="34">
+        <v>0.63611111111111118</v>
+      </c>
+      <c r="X269" s="35"/>
+    </row>
+    <row r="270" spans="13:26" x14ac:dyDescent="0.25">
+      <c r="M270" s="15"/>
+      <c r="N270" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="O270" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="P270" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q270" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="R270" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="S270" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="T270" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="U270" s="33">
+        <v>0.51111111111111118</v>
+      </c>
+      <c r="V270" s="34">
+        <v>0.52708333333333335</v>
+      </c>
+      <c r="W270" s="34">
+        <v>0.60069444444444442</v>
+      </c>
+      <c r="X270" s="35">
+        <v>0.61458333333333337</v>
+      </c>
+    </row>
+    <row r="271" spans="13:26" x14ac:dyDescent="0.25">
+      <c r="M271" s="15"/>
+      <c r="N271" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="O271" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="P271" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q271" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="R271" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="S271" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="T271" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="U271" s="33">
+        <v>0.51111111111111118</v>
+      </c>
+      <c r="V271" s="34">
+        <v>0.52569444444444446</v>
+      </c>
+      <c r="W271" s="34">
+        <v>0.62638888888888888</v>
+      </c>
+      <c r="X271" s="35">
+        <v>0.63958333333333328</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="92">
-    <mergeCell ref="P255:V256"/>
-    <mergeCell ref="V257:X257"/>
-    <mergeCell ref="M257:O257"/>
-    <mergeCell ref="P257:U257"/>
-    <mergeCell ref="P248:V249"/>
-    <mergeCell ref="V250:X250"/>
+  <mergeCells count="96">
+    <mergeCell ref="P262:V263"/>
+    <mergeCell ref="M264:O264"/>
+    <mergeCell ref="P264:U264"/>
+    <mergeCell ref="V264:X264"/>
+    <mergeCell ref="P240:V241"/>
+    <mergeCell ref="P218:V219"/>
+    <mergeCell ref="P198:V199"/>
+    <mergeCell ref="P186:V187"/>
+    <mergeCell ref="M188:O188"/>
+    <mergeCell ref="P188:S188"/>
+    <mergeCell ref="V188:X188"/>
+    <mergeCell ref="P209:V210"/>
+    <mergeCell ref="P230:V231"/>
+    <mergeCell ref="P168:V169"/>
+    <mergeCell ref="M170:O170"/>
+    <mergeCell ref="P170:S170"/>
+    <mergeCell ref="V170:X170"/>
+    <mergeCell ref="M155:O155"/>
+    <mergeCell ref="P155:S155"/>
+    <mergeCell ref="V155:X155"/>
+    <mergeCell ref="P153:V154"/>
+    <mergeCell ref="C103:G104"/>
+    <mergeCell ref="P103:V104"/>
+    <mergeCell ref="A105:C105"/>
+    <mergeCell ref="D105:G105"/>
+    <mergeCell ref="H105:J105"/>
+    <mergeCell ref="M105:O105"/>
+    <mergeCell ref="P105:S105"/>
+    <mergeCell ref="V105:X105"/>
+    <mergeCell ref="C121:G122"/>
+    <mergeCell ref="A123:C123"/>
+    <mergeCell ref="D123:G123"/>
+    <mergeCell ref="H123:J123"/>
+    <mergeCell ref="M140:O140"/>
+    <mergeCell ref="P140:S140"/>
+    <mergeCell ref="V140:X140"/>
+    <mergeCell ref="D88:G88"/>
+    <mergeCell ref="H88:J88"/>
+    <mergeCell ref="M88:O88"/>
+    <mergeCell ref="P88:S88"/>
+    <mergeCell ref="V88:X88"/>
+    <mergeCell ref="C2:G3"/>
+    <mergeCell ref="P2:V3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="P69:V70"/>
+    <mergeCell ref="C22:G23"/>
+    <mergeCell ref="P22:V23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="M71:O71"/>
+    <mergeCell ref="P71:S71"/>
+    <mergeCell ref="C37:G38"/>
+    <mergeCell ref="P37:V38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="P39:S39"/>
+    <mergeCell ref="V39:X39"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="C53:G54"/>
+    <mergeCell ref="P53:V54"/>
+    <mergeCell ref="V55:X55"/>
+    <mergeCell ref="C69:G70"/>
     <mergeCell ref="V242:X242"/>
     <mergeCell ref="D55:G55"/>
     <mergeCell ref="H55:J55"/>
@@ -11183,76 +11549,12 @@
     <mergeCell ref="A88:C88"/>
     <mergeCell ref="A71:C71"/>
     <mergeCell ref="D71:G71"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="M71:O71"/>
-    <mergeCell ref="P71:S71"/>
-    <mergeCell ref="C37:G38"/>
-    <mergeCell ref="P37:V38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="P39:S39"/>
-    <mergeCell ref="V39:X39"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="C53:G54"/>
-    <mergeCell ref="P53:V54"/>
-    <mergeCell ref="V55:X55"/>
-    <mergeCell ref="C69:G70"/>
-    <mergeCell ref="P69:V70"/>
-    <mergeCell ref="C22:G23"/>
-    <mergeCell ref="P22:V23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="C2:G3"/>
-    <mergeCell ref="P2:V3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="D88:G88"/>
-    <mergeCell ref="H88:J88"/>
-    <mergeCell ref="M88:O88"/>
-    <mergeCell ref="P88:S88"/>
-    <mergeCell ref="V88:X88"/>
-    <mergeCell ref="P153:V154"/>
-    <mergeCell ref="C103:G104"/>
-    <mergeCell ref="P103:V104"/>
-    <mergeCell ref="A105:C105"/>
-    <mergeCell ref="D105:G105"/>
-    <mergeCell ref="H105:J105"/>
-    <mergeCell ref="M105:O105"/>
-    <mergeCell ref="P105:S105"/>
-    <mergeCell ref="V105:X105"/>
-    <mergeCell ref="C121:G122"/>
-    <mergeCell ref="A123:C123"/>
-    <mergeCell ref="D123:G123"/>
-    <mergeCell ref="H123:J123"/>
-    <mergeCell ref="M140:O140"/>
-    <mergeCell ref="P140:S140"/>
-    <mergeCell ref="V140:X140"/>
-    <mergeCell ref="P168:V169"/>
-    <mergeCell ref="M170:O170"/>
-    <mergeCell ref="P170:S170"/>
-    <mergeCell ref="V170:X170"/>
-    <mergeCell ref="M155:O155"/>
-    <mergeCell ref="P155:S155"/>
-    <mergeCell ref="V155:X155"/>
-    <mergeCell ref="P240:V241"/>
-    <mergeCell ref="P218:V219"/>
-    <mergeCell ref="P198:V199"/>
-    <mergeCell ref="P186:V187"/>
-    <mergeCell ref="M188:O188"/>
-    <mergeCell ref="P188:S188"/>
-    <mergeCell ref="V188:X188"/>
-    <mergeCell ref="P209:V210"/>
-    <mergeCell ref="P230:V231"/>
+    <mergeCell ref="P255:V256"/>
+    <mergeCell ref="V257:X257"/>
+    <mergeCell ref="M257:O257"/>
+    <mergeCell ref="P257:U257"/>
+    <mergeCell ref="P248:V249"/>
+    <mergeCell ref="V250:X250"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/DOC 2023/FORMATO STATUS.xlsx
+++ b/DOC 2023/FORMATO STATUS.xlsx
@@ -975,6 +975,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -984,6 +990,12 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -991,18 +1003,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1300,7 +1300,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1329,72 +1329,72 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C2" s="85" t="s">
+      <c r="C2" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="P2" s="79" t="s">
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="P2" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="79"/>
-      <c r="T2" s="79"/>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="81"/>
+      <c r="S2" s="81"/>
+      <c r="T2" s="81"/>
+      <c r="U2" s="81"/>
+      <c r="V2" s="81"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="P3" s="79"/>
-      <c r="Q3" s="79"/>
-      <c r="R3" s="79"/>
-      <c r="S3" s="79"/>
-      <c r="T3" s="79"/>
-      <c r="U3" s="79"/>
-      <c r="V3" s="79"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="81"/>
+      <c r="S3" s="81"/>
+      <c r="T3" s="81"/>
+      <c r="U3" s="81"/>
+      <c r="V3" s="81"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="81" t="s">
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="87">
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="84">
         <v>44965</v>
       </c>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="M4" s="80" t="s">
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="M4" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="80"/>
-      <c r="O4" s="80"/>
-      <c r="P4" s="81" t="s">
+      <c r="N4" s="82"/>
+      <c r="O4" s="82"/>
+      <c r="P4" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="81"/>
-      <c r="R4" s="81"/>
-      <c r="S4" s="81"/>
+      <c r="Q4" s="83"/>
+      <c r="R4" s="83"/>
+      <c r="S4" s="83"/>
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
-      <c r="V4" s="82">
+      <c r="V4" s="86">
         <v>44601</v>
       </c>
-      <c r="W4" s="83"/>
-      <c r="X4" s="84"/>
+      <c r="W4" s="87"/>
+      <c r="X4" s="88"/>
     </row>
     <row r="5" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -1809,72 +1809,72 @@
       <c r="X15" s="4"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C22" s="85" t="s">
+      <c r="C22" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="85"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="85"/>
-      <c r="P22" s="79" t="s">
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
+      <c r="P22" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="Q22" s="79"/>
-      <c r="R22" s="79"/>
-      <c r="S22" s="79"/>
-      <c r="T22" s="79"/>
-      <c r="U22" s="79"/>
-      <c r="V22" s="79"/>
+      <c r="Q22" s="81"/>
+      <c r="R22" s="81"/>
+      <c r="S22" s="81"/>
+      <c r="T22" s="81"/>
+      <c r="U22" s="81"/>
+      <c r="V22" s="81"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="P23" s="79"/>
-      <c r="Q23" s="79"/>
-      <c r="R23" s="79"/>
-      <c r="S23" s="79"/>
-      <c r="T23" s="79"/>
-      <c r="U23" s="79"/>
-      <c r="V23" s="79"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="P23" s="81"/>
+      <c r="Q23" s="81"/>
+      <c r="R23" s="81"/>
+      <c r="S23" s="81"/>
+      <c r="T23" s="81"/>
+      <c r="U23" s="81"/>
+      <c r="V23" s="81"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="80" t="s">
+      <c r="A24" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="80"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="81" t="s">
+      <c r="B24" s="82"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="81"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="87">
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="84">
         <v>44965</v>
       </c>
-      <c r="I24" s="88"/>
-      <c r="J24" s="88"/>
-      <c r="M24" s="80" t="s">
+      <c r="I24" s="85"/>
+      <c r="J24" s="85"/>
+      <c r="M24" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N24" s="80"/>
-      <c r="O24" s="80"/>
-      <c r="P24" s="81" t="s">
+      <c r="N24" s="82"/>
+      <c r="O24" s="82"/>
+      <c r="P24" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q24" s="81"/>
-      <c r="R24" s="81"/>
-      <c r="S24" s="81"/>
+      <c r="Q24" s="83"/>
+      <c r="R24" s="83"/>
+      <c r="S24" s="83"/>
       <c r="T24" s="18"/>
       <c r="U24" s="18"/>
-      <c r="V24" s="82">
+      <c r="V24" s="86">
         <v>44971</v>
       </c>
-      <c r="W24" s="83"/>
-      <c r="X24" s="84"/>
+      <c r="W24" s="87"/>
+      <c r="X24" s="88"/>
     </row>
     <row r="25" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -2329,72 +2329,72 @@
       <c r="X35" s="4"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C38" s="85" t="s">
+      <c r="C38" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="85"/>
-      <c r="E38" s="85"/>
-      <c r="F38" s="85"/>
-      <c r="G38" s="85"/>
-      <c r="P38" s="79" t="s">
+      <c r="D38" s="79"/>
+      <c r="E38" s="79"/>
+      <c r="F38" s="79"/>
+      <c r="G38" s="79"/>
+      <c r="P38" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="Q38" s="79"/>
-      <c r="R38" s="79"/>
-      <c r="S38" s="79"/>
-      <c r="T38" s="79"/>
-      <c r="U38" s="79"/>
-      <c r="V38" s="79"/>
+      <c r="Q38" s="81"/>
+      <c r="R38" s="81"/>
+      <c r="S38" s="81"/>
+      <c r="T38" s="81"/>
+      <c r="U38" s="81"/>
+      <c r="V38" s="81"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C39" s="86"/>
-      <c r="D39" s="86"/>
-      <c r="E39" s="86"/>
-      <c r="F39" s="86"/>
-      <c r="G39" s="86"/>
-      <c r="P39" s="79"/>
-      <c r="Q39" s="79"/>
-      <c r="R39" s="79"/>
-      <c r="S39" s="79"/>
-      <c r="T39" s="79"/>
-      <c r="U39" s="79"/>
-      <c r="V39" s="79"/>
+      <c r="C39" s="80"/>
+      <c r="D39" s="80"/>
+      <c r="E39" s="80"/>
+      <c r="F39" s="80"/>
+      <c r="G39" s="80"/>
+      <c r="P39" s="81"/>
+      <c r="Q39" s="81"/>
+      <c r="R39" s="81"/>
+      <c r="S39" s="81"/>
+      <c r="T39" s="81"/>
+      <c r="U39" s="81"/>
+      <c r="V39" s="81"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A40" s="80" t="s">
+      <c r="A40" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="80"/>
-      <c r="C40" s="80"/>
-      <c r="D40" s="81" t="s">
+      <c r="B40" s="82"/>
+      <c r="C40" s="82"/>
+      <c r="D40" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E40" s="81"/>
-      <c r="F40" s="81"/>
-      <c r="G40" s="81"/>
-      <c r="H40" s="87">
+      <c r="E40" s="83"/>
+      <c r="F40" s="83"/>
+      <c r="G40" s="83"/>
+      <c r="H40" s="84">
         <v>44972</v>
       </c>
-      <c r="I40" s="88"/>
-      <c r="J40" s="88"/>
-      <c r="M40" s="80" t="s">
+      <c r="I40" s="85"/>
+      <c r="J40" s="85"/>
+      <c r="M40" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N40" s="80"/>
-      <c r="O40" s="80"/>
-      <c r="P40" s="81" t="s">
+      <c r="N40" s="82"/>
+      <c r="O40" s="82"/>
+      <c r="P40" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q40" s="81"/>
-      <c r="R40" s="81"/>
-      <c r="S40" s="81"/>
+      <c r="Q40" s="83"/>
+      <c r="R40" s="83"/>
+      <c r="S40" s="83"/>
       <c r="T40" s="18"/>
       <c r="U40" s="18"/>
-      <c r="V40" s="82">
+      <c r="V40" s="86">
         <v>44973</v>
       </c>
-      <c r="W40" s="83"/>
-      <c r="X40" s="84"/>
+      <c r="W40" s="87"/>
+      <c r="X40" s="88"/>
     </row>
     <row r="41" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
@@ -2809,72 +2809,72 @@
       <c r="X51" s="4"/>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C54" s="85" t="s">
+      <c r="C54" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="D54" s="85"/>
-      <c r="E54" s="85"/>
-      <c r="F54" s="85"/>
-      <c r="G54" s="85"/>
-      <c r="P54" s="79" t="s">
+      <c r="D54" s="79"/>
+      <c r="E54" s="79"/>
+      <c r="F54" s="79"/>
+      <c r="G54" s="79"/>
+      <c r="P54" s="81" t="s">
         <v>56</v>
       </c>
-      <c r="Q54" s="79"/>
-      <c r="R54" s="79"/>
-      <c r="S54" s="79"/>
-      <c r="T54" s="79"/>
-      <c r="U54" s="79"/>
-      <c r="V54" s="79"/>
+      <c r="Q54" s="81"/>
+      <c r="R54" s="81"/>
+      <c r="S54" s="81"/>
+      <c r="T54" s="81"/>
+      <c r="U54" s="81"/>
+      <c r="V54" s="81"/>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C55" s="86"/>
-      <c r="D55" s="86"/>
-      <c r="E55" s="86"/>
-      <c r="F55" s="86"/>
-      <c r="G55" s="86"/>
-      <c r="P55" s="79"/>
-      <c r="Q55" s="79"/>
-      <c r="R55" s="79"/>
-      <c r="S55" s="79"/>
-      <c r="T55" s="79"/>
-      <c r="U55" s="79"/>
-      <c r="V55" s="79"/>
+      <c r="C55" s="80"/>
+      <c r="D55" s="80"/>
+      <c r="E55" s="80"/>
+      <c r="F55" s="80"/>
+      <c r="G55" s="80"/>
+      <c r="P55" s="81"/>
+      <c r="Q55" s="81"/>
+      <c r="R55" s="81"/>
+      <c r="S55" s="81"/>
+      <c r="T55" s="81"/>
+      <c r="U55" s="81"/>
+      <c r="V55" s="81"/>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A56" s="80" t="s">
+      <c r="A56" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="80"/>
-      <c r="C56" s="80"/>
-      <c r="D56" s="81" t="s">
+      <c r="B56" s="82"/>
+      <c r="C56" s="82"/>
+      <c r="D56" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E56" s="81"/>
-      <c r="F56" s="81"/>
-      <c r="G56" s="81"/>
-      <c r="H56" s="87">
+      <c r="E56" s="83"/>
+      <c r="F56" s="83"/>
+      <c r="G56" s="83"/>
+      <c r="H56" s="84">
         <v>44974</v>
       </c>
-      <c r="I56" s="88"/>
-      <c r="J56" s="88"/>
-      <c r="M56" s="80" t="s">
+      <c r="I56" s="85"/>
+      <c r="J56" s="85"/>
+      <c r="M56" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N56" s="80"/>
-      <c r="O56" s="80"/>
-      <c r="P56" s="81" t="s">
+      <c r="N56" s="82"/>
+      <c r="O56" s="82"/>
+      <c r="P56" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q56" s="81"/>
-      <c r="R56" s="81"/>
-      <c r="S56" s="81"/>
+      <c r="Q56" s="83"/>
+      <c r="R56" s="83"/>
+      <c r="S56" s="83"/>
       <c r="T56" s="18"/>
       <c r="U56" s="18"/>
-      <c r="V56" s="82">
+      <c r="V56" s="86">
         <v>44975</v>
       </c>
-      <c r="W56" s="83"/>
-      <c r="X56" s="84"/>
+      <c r="W56" s="87"/>
+      <c r="X56" s="88"/>
     </row>
     <row r="57" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
@@ -3329,72 +3329,72 @@
       <c r="X67" s="4"/>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C70" s="85" t="s">
+      <c r="C70" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="D70" s="85"/>
-      <c r="E70" s="85"/>
-      <c r="F70" s="85"/>
-      <c r="G70" s="85"/>
-      <c r="P70" s="79" t="s">
+      <c r="D70" s="79"/>
+      <c r="E70" s="79"/>
+      <c r="F70" s="79"/>
+      <c r="G70" s="79"/>
+      <c r="P70" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="Q70" s="79"/>
-      <c r="R70" s="79"/>
-      <c r="S70" s="79"/>
-      <c r="T70" s="79"/>
-      <c r="U70" s="79"/>
-      <c r="V70" s="79"/>
+      <c r="Q70" s="81"/>
+      <c r="R70" s="81"/>
+      <c r="S70" s="81"/>
+      <c r="T70" s="81"/>
+      <c r="U70" s="81"/>
+      <c r="V70" s="81"/>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C71" s="86"/>
-      <c r="D71" s="86"/>
-      <c r="E71" s="86"/>
-      <c r="F71" s="86"/>
-      <c r="G71" s="86"/>
-      <c r="P71" s="79"/>
-      <c r="Q71" s="79"/>
-      <c r="R71" s="79"/>
-      <c r="S71" s="79"/>
-      <c r="T71" s="79"/>
-      <c r="U71" s="79"/>
-      <c r="V71" s="79"/>
+      <c r="C71" s="80"/>
+      <c r="D71" s="80"/>
+      <c r="E71" s="80"/>
+      <c r="F71" s="80"/>
+      <c r="G71" s="80"/>
+      <c r="P71" s="81"/>
+      <c r="Q71" s="81"/>
+      <c r="R71" s="81"/>
+      <c r="S71" s="81"/>
+      <c r="T71" s="81"/>
+      <c r="U71" s="81"/>
+      <c r="V71" s="81"/>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A72" s="80" t="s">
+      <c r="A72" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B72" s="80"/>
-      <c r="C72" s="80"/>
-      <c r="D72" s="81" t="s">
+      <c r="B72" s="82"/>
+      <c r="C72" s="82"/>
+      <c r="D72" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E72" s="81"/>
-      <c r="F72" s="81"/>
-      <c r="G72" s="81"/>
-      <c r="H72" s="87">
+      <c r="E72" s="83"/>
+      <c r="F72" s="83"/>
+      <c r="G72" s="83"/>
+      <c r="H72" s="84">
         <v>44979</v>
       </c>
-      <c r="I72" s="88"/>
-      <c r="J72" s="88"/>
-      <c r="M72" s="80" t="s">
+      <c r="I72" s="85"/>
+      <c r="J72" s="85"/>
+      <c r="M72" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N72" s="80"/>
-      <c r="O72" s="80"/>
-      <c r="P72" s="81" t="s">
+      <c r="N72" s="82"/>
+      <c r="O72" s="82"/>
+      <c r="P72" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q72" s="81"/>
-      <c r="R72" s="81"/>
-      <c r="S72" s="81"/>
+      <c r="Q72" s="83"/>
+      <c r="R72" s="83"/>
+      <c r="S72" s="83"/>
       <c r="T72" s="18"/>
       <c r="U72" s="18"/>
-      <c r="V72" s="82">
+      <c r="V72" s="86">
         <v>44980</v>
       </c>
-      <c r="W72" s="83"/>
-      <c r="X72" s="84"/>
+      <c r="W72" s="87"/>
+      <c r="X72" s="88"/>
     </row>
     <row r="73" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
@@ -3765,72 +3765,72 @@
       <c r="X83" s="4"/>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C87" s="85" t="s">
+      <c r="C87" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="D87" s="85"/>
-      <c r="E87" s="85"/>
-      <c r="F87" s="85"/>
-      <c r="G87" s="85"/>
-      <c r="P87" s="79" t="s">
+      <c r="D87" s="79"/>
+      <c r="E87" s="79"/>
+      <c r="F87" s="79"/>
+      <c r="G87" s="79"/>
+      <c r="P87" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="Q87" s="79"/>
-      <c r="R87" s="79"/>
-      <c r="S87" s="79"/>
-      <c r="T87" s="79"/>
-      <c r="U87" s="79"/>
-      <c r="V87" s="79"/>
+      <c r="Q87" s="81"/>
+      <c r="R87" s="81"/>
+      <c r="S87" s="81"/>
+      <c r="T87" s="81"/>
+      <c r="U87" s="81"/>
+      <c r="V87" s="81"/>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C88" s="86"/>
-      <c r="D88" s="86"/>
-      <c r="E88" s="86"/>
-      <c r="F88" s="86"/>
-      <c r="G88" s="86"/>
-      <c r="P88" s="79"/>
-      <c r="Q88" s="79"/>
-      <c r="R88" s="79"/>
-      <c r="S88" s="79"/>
-      <c r="T88" s="79"/>
-      <c r="U88" s="79"/>
-      <c r="V88" s="79"/>
+      <c r="C88" s="80"/>
+      <c r="D88" s="80"/>
+      <c r="E88" s="80"/>
+      <c r="F88" s="80"/>
+      <c r="G88" s="80"/>
+      <c r="P88" s="81"/>
+      <c r="Q88" s="81"/>
+      <c r="R88" s="81"/>
+      <c r="S88" s="81"/>
+      <c r="T88" s="81"/>
+      <c r="U88" s="81"/>
+      <c r="V88" s="81"/>
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A89" s="80" t="s">
+      <c r="A89" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B89" s="80"/>
-      <c r="C89" s="80"/>
-      <c r="D89" s="81" t="s">
+      <c r="B89" s="82"/>
+      <c r="C89" s="82"/>
+      <c r="D89" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E89" s="81"/>
-      <c r="F89" s="81"/>
-      <c r="G89" s="81"/>
-      <c r="H89" s="87">
+      <c r="E89" s="83"/>
+      <c r="F89" s="83"/>
+      <c r="G89" s="83"/>
+      <c r="H89" s="84">
         <v>44981</v>
       </c>
-      <c r="I89" s="88"/>
-      <c r="J89" s="88"/>
-      <c r="M89" s="80" t="s">
+      <c r="I89" s="85"/>
+      <c r="J89" s="85"/>
+      <c r="M89" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N89" s="80"/>
-      <c r="O89" s="80"/>
-      <c r="P89" s="81" t="s">
+      <c r="N89" s="82"/>
+      <c r="O89" s="82"/>
+      <c r="P89" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q89" s="81"/>
-      <c r="R89" s="81"/>
-      <c r="S89" s="81"/>
+      <c r="Q89" s="83"/>
+      <c r="R89" s="83"/>
+      <c r="S89" s="83"/>
       <c r="T89" s="18"/>
       <c r="U89" s="18"/>
-      <c r="V89" s="82">
+      <c r="V89" s="86">
         <v>44980</v>
       </c>
-      <c r="W89" s="83"/>
-      <c r="X89" s="84"/>
+      <c r="W89" s="87"/>
+      <c r="X89" s="88"/>
     </row>
     <row r="90" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
@@ -4285,72 +4285,72 @@
       <c r="X100" s="4"/>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C104" s="85" t="s">
+      <c r="C104" s="79" t="s">
         <v>70</v>
       </c>
-      <c r="D104" s="85"/>
-      <c r="E104" s="85"/>
-      <c r="F104" s="85"/>
-      <c r="G104" s="85"/>
-      <c r="P104" s="79" t="s">
+      <c r="D104" s="79"/>
+      <c r="E104" s="79"/>
+      <c r="F104" s="79"/>
+      <c r="G104" s="79"/>
+      <c r="P104" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="Q104" s="79"/>
-      <c r="R104" s="79"/>
-      <c r="S104" s="79"/>
-      <c r="T104" s="79"/>
-      <c r="U104" s="79"/>
-      <c r="V104" s="79"/>
+      <c r="Q104" s="81"/>
+      <c r="R104" s="81"/>
+      <c r="S104" s="81"/>
+      <c r="T104" s="81"/>
+      <c r="U104" s="81"/>
+      <c r="V104" s="81"/>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C105" s="86"/>
-      <c r="D105" s="86"/>
-      <c r="E105" s="86"/>
-      <c r="F105" s="86"/>
-      <c r="G105" s="86"/>
-      <c r="P105" s="79"/>
-      <c r="Q105" s="79"/>
-      <c r="R105" s="79"/>
-      <c r="S105" s="79"/>
-      <c r="T105" s="79"/>
-      <c r="U105" s="79"/>
-      <c r="V105" s="79"/>
+      <c r="C105" s="80"/>
+      <c r="D105" s="80"/>
+      <c r="E105" s="80"/>
+      <c r="F105" s="80"/>
+      <c r="G105" s="80"/>
+      <c r="P105" s="81"/>
+      <c r="Q105" s="81"/>
+      <c r="R105" s="81"/>
+      <c r="S105" s="81"/>
+      <c r="T105" s="81"/>
+      <c r="U105" s="81"/>
+      <c r="V105" s="81"/>
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A106" s="80" t="s">
+      <c r="A106" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B106" s="80"/>
-      <c r="C106" s="80"/>
-      <c r="D106" s="81" t="s">
+      <c r="B106" s="82"/>
+      <c r="C106" s="82"/>
+      <c r="D106" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E106" s="81"/>
-      <c r="F106" s="81"/>
-      <c r="G106" s="81"/>
-      <c r="H106" s="87">
+      <c r="E106" s="83"/>
+      <c r="F106" s="83"/>
+      <c r="G106" s="83"/>
+      <c r="H106" s="84">
         <v>44979</v>
       </c>
-      <c r="I106" s="88"/>
-      <c r="J106" s="88"/>
-      <c r="M106" s="80" t="s">
+      <c r="I106" s="85"/>
+      <c r="J106" s="85"/>
+      <c r="M106" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N106" s="80"/>
-      <c r="O106" s="80"/>
-      <c r="P106" s="81" t="s">
+      <c r="N106" s="82"/>
+      <c r="O106" s="82"/>
+      <c r="P106" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q106" s="81"/>
-      <c r="R106" s="81"/>
-      <c r="S106" s="81"/>
+      <c r="Q106" s="83"/>
+      <c r="R106" s="83"/>
+      <c r="S106" s="83"/>
       <c r="T106" s="18"/>
       <c r="U106" s="18"/>
-      <c r="V106" s="82" t="s">
+      <c r="V106" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="W106" s="83"/>
-      <c r="X106" s="84"/>
+      <c r="W106" s="87"/>
+      <c r="X106" s="88"/>
     </row>
     <row r="107" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
@@ -4848,6 +4848,54 @@
     <row r="124" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="P38:V39"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="P40:S40"/>
+    <mergeCell ref="V40:X40"/>
+    <mergeCell ref="C38:G39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="C22:G23"/>
+    <mergeCell ref="P22:V23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="C2:G3"/>
+    <mergeCell ref="P2:V3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="C54:G55"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="P54:V55"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="P56:S56"/>
+    <mergeCell ref="V56:X56"/>
+    <mergeCell ref="C70:G71"/>
+    <mergeCell ref="P70:V71"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="D72:G72"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="M72:O72"/>
+    <mergeCell ref="P72:S72"/>
+    <mergeCell ref="V72:X72"/>
+    <mergeCell ref="C87:G88"/>
+    <mergeCell ref="P87:V88"/>
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="D89:G89"/>
+    <mergeCell ref="H89:J89"/>
+    <mergeCell ref="M89:O89"/>
+    <mergeCell ref="P89:S89"/>
+    <mergeCell ref="V89:X89"/>
     <mergeCell ref="C104:G105"/>
     <mergeCell ref="P104:V105"/>
     <mergeCell ref="A106:C106"/>
@@ -4856,54 +4904,6 @@
     <mergeCell ref="M106:O106"/>
     <mergeCell ref="P106:S106"/>
     <mergeCell ref="V106:X106"/>
-    <mergeCell ref="C87:G88"/>
-    <mergeCell ref="P87:V88"/>
-    <mergeCell ref="A89:C89"/>
-    <mergeCell ref="D89:G89"/>
-    <mergeCell ref="H89:J89"/>
-    <mergeCell ref="M89:O89"/>
-    <mergeCell ref="P89:S89"/>
-    <mergeCell ref="V89:X89"/>
-    <mergeCell ref="C70:G71"/>
-    <mergeCell ref="P70:V71"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="D72:G72"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="M72:O72"/>
-    <mergeCell ref="P72:S72"/>
-    <mergeCell ref="V72:X72"/>
-    <mergeCell ref="C54:G55"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="P54:V55"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="P56:S56"/>
-    <mergeCell ref="V56:X56"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="C2:G3"/>
-    <mergeCell ref="P2:V3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="C22:G23"/>
-    <mergeCell ref="P22:V23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="P38:V39"/>
-    <mergeCell ref="M40:O40"/>
-    <mergeCell ref="P40:S40"/>
-    <mergeCell ref="V40:X40"/>
-    <mergeCell ref="C38:G39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="H40:J40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4915,7 +4915,7 @@
   <dimension ref="A2:Z271"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M256" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y265" sqref="Y265"/>
+      <selection activeCell="X271" sqref="M262:X271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4935,72 +4935,72 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C2" s="85" t="s">
+      <c r="C2" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="P2" s="79" t="s">
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="P2" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="79"/>
-      <c r="T2" s="79"/>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="81"/>
+      <c r="S2" s="81"/>
+      <c r="T2" s="81"/>
+      <c r="U2" s="81"/>
+      <c r="V2" s="81"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="P3" s="79"/>
-      <c r="Q3" s="79"/>
-      <c r="R3" s="79"/>
-      <c r="S3" s="79"/>
-      <c r="T3" s="79"/>
-      <c r="U3" s="79"/>
-      <c r="V3" s="79"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="81"/>
+      <c r="S3" s="81"/>
+      <c r="T3" s="81"/>
+      <c r="U3" s="81"/>
+      <c r="V3" s="81"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="81" t="s">
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="87" t="s">
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="M4" s="80" t="s">
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="M4" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="80"/>
-      <c r="O4" s="80"/>
-      <c r="P4" s="81" t="s">
+      <c r="N4" s="82"/>
+      <c r="O4" s="82"/>
+      <c r="P4" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="81"/>
-      <c r="R4" s="81"/>
-      <c r="S4" s="81"/>
+      <c r="Q4" s="83"/>
+      <c r="R4" s="83"/>
+      <c r="S4" s="83"/>
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
-      <c r="V4" s="82">
+      <c r="V4" s="86">
         <v>44601</v>
       </c>
-      <c r="W4" s="83"/>
-      <c r="X4" s="84"/>
+      <c r="W4" s="87"/>
+      <c r="X4" s="88"/>
     </row>
     <row r="5" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -5467,72 +5467,72 @@
       <c r="X15" s="4"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C22" s="85" t="s">
+      <c r="C22" s="79" t="s">
         <v>75</v>
       </c>
-      <c r="D22" s="85"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="85"/>
-      <c r="P22" s="79" t="s">
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
+      <c r="P22" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="Q22" s="79"/>
-      <c r="R22" s="79"/>
-      <c r="S22" s="79"/>
-      <c r="T22" s="79"/>
-      <c r="U22" s="79"/>
-      <c r="V22" s="79"/>
+      <c r="Q22" s="81"/>
+      <c r="R22" s="81"/>
+      <c r="S22" s="81"/>
+      <c r="T22" s="81"/>
+      <c r="U22" s="81"/>
+      <c r="V22" s="81"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="P23" s="79"/>
-      <c r="Q23" s="79"/>
-      <c r="R23" s="79"/>
-      <c r="S23" s="79"/>
-      <c r="T23" s="79"/>
-      <c r="U23" s="79"/>
-      <c r="V23" s="79"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="P23" s="81"/>
+      <c r="Q23" s="81"/>
+      <c r="R23" s="81"/>
+      <c r="S23" s="81"/>
+      <c r="T23" s="81"/>
+      <c r="U23" s="81"/>
+      <c r="V23" s="81"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="80" t="s">
+      <c r="A24" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="80"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="81" t="s">
+      <c r="B24" s="82"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="81"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="87">
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="84">
         <v>44993</v>
       </c>
-      <c r="I24" s="88"/>
-      <c r="J24" s="88"/>
-      <c r="M24" s="80" t="s">
+      <c r="I24" s="85"/>
+      <c r="J24" s="85"/>
+      <c r="M24" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N24" s="80"/>
-      <c r="O24" s="80"/>
-      <c r="P24" s="81" t="s">
+      <c r="N24" s="82"/>
+      <c r="O24" s="82"/>
+      <c r="P24" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q24" s="81"/>
-      <c r="R24" s="81"/>
-      <c r="S24" s="81"/>
+      <c r="Q24" s="83"/>
+      <c r="R24" s="83"/>
+      <c r="S24" s="83"/>
       <c r="T24" s="18"/>
       <c r="U24" s="18"/>
-      <c r="V24" s="82">
+      <c r="V24" s="86">
         <v>44993</v>
       </c>
-      <c r="W24" s="83"/>
-      <c r="X24" s="84"/>
+      <c r="W24" s="87"/>
+      <c r="X24" s="88"/>
     </row>
     <row r="25" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -5962,72 +5962,72 @@
       <c r="X34" s="4"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C37" s="85" t="s">
+      <c r="C37" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="D37" s="85"/>
-      <c r="E37" s="85"/>
-      <c r="F37" s="85"/>
-      <c r="G37" s="85"/>
-      <c r="P37" s="79" t="s">
+      <c r="D37" s="79"/>
+      <c r="E37" s="79"/>
+      <c r="F37" s="79"/>
+      <c r="G37" s="79"/>
+      <c r="P37" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="Q37" s="79"/>
-      <c r="R37" s="79"/>
-      <c r="S37" s="79"/>
-      <c r="T37" s="79"/>
-      <c r="U37" s="79"/>
-      <c r="V37" s="79"/>
+      <c r="Q37" s="81"/>
+      <c r="R37" s="81"/>
+      <c r="S37" s="81"/>
+      <c r="T37" s="81"/>
+      <c r="U37" s="81"/>
+      <c r="V37" s="81"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C38" s="86"/>
-      <c r="D38" s="86"/>
-      <c r="E38" s="86"/>
-      <c r="F38" s="86"/>
-      <c r="G38" s="86"/>
-      <c r="P38" s="79"/>
-      <c r="Q38" s="79"/>
-      <c r="R38" s="79"/>
-      <c r="S38" s="79"/>
-      <c r="T38" s="79"/>
-      <c r="U38" s="79"/>
-      <c r="V38" s="79"/>
+      <c r="C38" s="80"/>
+      <c r="D38" s="80"/>
+      <c r="E38" s="80"/>
+      <c r="F38" s="80"/>
+      <c r="G38" s="80"/>
+      <c r="P38" s="81"/>
+      <c r="Q38" s="81"/>
+      <c r="R38" s="81"/>
+      <c r="S38" s="81"/>
+      <c r="T38" s="81"/>
+      <c r="U38" s="81"/>
+      <c r="V38" s="81"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A39" s="80" t="s">
+      <c r="A39" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="80"/>
-      <c r="C39" s="80"/>
-      <c r="D39" s="81" t="s">
+      <c r="B39" s="82"/>
+      <c r="C39" s="82"/>
+      <c r="D39" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="81"/>
-      <c r="F39" s="81"/>
-      <c r="G39" s="81"/>
-      <c r="H39" s="87">
+      <c r="E39" s="83"/>
+      <c r="F39" s="83"/>
+      <c r="G39" s="83"/>
+      <c r="H39" s="84">
         <v>44972</v>
       </c>
-      <c r="I39" s="88"/>
-      <c r="J39" s="88"/>
-      <c r="M39" s="80" t="s">
+      <c r="I39" s="85"/>
+      <c r="J39" s="85"/>
+      <c r="M39" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N39" s="80"/>
-      <c r="O39" s="80"/>
-      <c r="P39" s="81" t="s">
+      <c r="N39" s="82"/>
+      <c r="O39" s="82"/>
+      <c r="P39" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q39" s="81"/>
-      <c r="R39" s="81"/>
-      <c r="S39" s="81"/>
+      <c r="Q39" s="83"/>
+      <c r="R39" s="83"/>
+      <c r="S39" s="83"/>
       <c r="T39" s="18"/>
       <c r="U39" s="18"/>
-      <c r="V39" s="82">
+      <c r="V39" s="86">
         <v>44994</v>
       </c>
-      <c r="W39" s="83"/>
-      <c r="X39" s="84"/>
+      <c r="W39" s="87"/>
+      <c r="X39" s="88"/>
     </row>
     <row r="40" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
@@ -6438,72 +6438,72 @@
       <c r="X50" s="4"/>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C53" s="85">
+      <c r="C53" s="79">
         <v>45005</v>
       </c>
-      <c r="D53" s="85"/>
-      <c r="E53" s="85"/>
-      <c r="F53" s="85"/>
-      <c r="G53" s="85"/>
-      <c r="P53" s="85">
+      <c r="D53" s="79"/>
+      <c r="E53" s="79"/>
+      <c r="F53" s="79"/>
+      <c r="G53" s="79"/>
+      <c r="P53" s="79">
         <v>45006</v>
       </c>
-      <c r="Q53" s="85"/>
-      <c r="R53" s="85"/>
-      <c r="S53" s="85"/>
-      <c r="T53" s="85"/>
-      <c r="U53" s="85"/>
-      <c r="V53" s="85"/>
+      <c r="Q53" s="79"/>
+      <c r="R53" s="79"/>
+      <c r="S53" s="79"/>
+      <c r="T53" s="79"/>
+      <c r="U53" s="79"/>
+      <c r="V53" s="79"/>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C54" s="86"/>
-      <c r="D54" s="86"/>
-      <c r="E54" s="86"/>
-      <c r="F54" s="86"/>
-      <c r="G54" s="86"/>
-      <c r="P54" s="85"/>
-      <c r="Q54" s="85"/>
-      <c r="R54" s="85"/>
-      <c r="S54" s="85"/>
-      <c r="T54" s="85"/>
-      <c r="U54" s="85"/>
-      <c r="V54" s="85"/>
+      <c r="C54" s="80"/>
+      <c r="D54" s="80"/>
+      <c r="E54" s="80"/>
+      <c r="F54" s="80"/>
+      <c r="G54" s="80"/>
+      <c r="P54" s="79"/>
+      <c r="Q54" s="79"/>
+      <c r="R54" s="79"/>
+      <c r="S54" s="79"/>
+      <c r="T54" s="79"/>
+      <c r="U54" s="79"/>
+      <c r="V54" s="79"/>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A55" s="80" t="s">
+      <c r="A55" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="80"/>
-      <c r="C55" s="80"/>
-      <c r="D55" s="81" t="s">
+      <c r="B55" s="82"/>
+      <c r="C55" s="82"/>
+      <c r="D55" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E55" s="81"/>
-      <c r="F55" s="81"/>
-      <c r="G55" s="81"/>
-      <c r="H55" s="87">
+      <c r="E55" s="83"/>
+      <c r="F55" s="83"/>
+      <c r="G55" s="83"/>
+      <c r="H55" s="84">
         <v>45005</v>
       </c>
-      <c r="I55" s="88"/>
-      <c r="J55" s="88"/>
-      <c r="M55" s="80" t="s">
+      <c r="I55" s="85"/>
+      <c r="J55" s="85"/>
+      <c r="M55" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N55" s="80"/>
-      <c r="O55" s="80"/>
-      <c r="P55" s="81" t="s">
+      <c r="N55" s="82"/>
+      <c r="O55" s="82"/>
+      <c r="P55" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q55" s="81"/>
-      <c r="R55" s="81"/>
-      <c r="S55" s="81"/>
+      <c r="Q55" s="83"/>
+      <c r="R55" s="83"/>
+      <c r="S55" s="83"/>
       <c r="T55" s="18"/>
       <c r="U55" s="18"/>
-      <c r="V55" s="82">
+      <c r="V55" s="86">
         <v>45006</v>
       </c>
-      <c r="W55" s="83"/>
-      <c r="X55" s="84"/>
+      <c r="W55" s="87"/>
+      <c r="X55" s="88"/>
     </row>
     <row r="56" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
@@ -6902,72 +6902,72 @@
       <c r="X66" s="4"/>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C69" s="85" t="s">
+      <c r="C69" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="D69" s="85"/>
-      <c r="E69" s="85"/>
-      <c r="F69" s="85"/>
-      <c r="G69" s="85"/>
-      <c r="P69" s="79" t="s">
+      <c r="D69" s="79"/>
+      <c r="E69" s="79"/>
+      <c r="F69" s="79"/>
+      <c r="G69" s="79"/>
+      <c r="P69" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="Q69" s="79"/>
-      <c r="R69" s="79"/>
-      <c r="S69" s="79"/>
-      <c r="T69" s="79"/>
-      <c r="U69" s="79"/>
-      <c r="V69" s="79"/>
+      <c r="Q69" s="81"/>
+      <c r="R69" s="81"/>
+      <c r="S69" s="81"/>
+      <c r="T69" s="81"/>
+      <c r="U69" s="81"/>
+      <c r="V69" s="81"/>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C70" s="86"/>
-      <c r="D70" s="86"/>
-      <c r="E70" s="86"/>
-      <c r="F70" s="86"/>
-      <c r="G70" s="86"/>
-      <c r="P70" s="79"/>
-      <c r="Q70" s="79"/>
-      <c r="R70" s="79"/>
-      <c r="S70" s="79"/>
-      <c r="T70" s="79"/>
-      <c r="U70" s="79"/>
-      <c r="V70" s="79"/>
+      <c r="C70" s="80"/>
+      <c r="D70" s="80"/>
+      <c r="E70" s="80"/>
+      <c r="F70" s="80"/>
+      <c r="G70" s="80"/>
+      <c r="P70" s="81"/>
+      <c r="Q70" s="81"/>
+      <c r="R70" s="81"/>
+      <c r="S70" s="81"/>
+      <c r="T70" s="81"/>
+      <c r="U70" s="81"/>
+      <c r="V70" s="81"/>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A71" s="80" t="s">
+      <c r="A71" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B71" s="80"/>
-      <c r="C71" s="80"/>
-      <c r="D71" s="81" t="s">
+      <c r="B71" s="82"/>
+      <c r="C71" s="82"/>
+      <c r="D71" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E71" s="81"/>
-      <c r="F71" s="81"/>
-      <c r="G71" s="81"/>
-      <c r="H71" s="87">
+      <c r="E71" s="83"/>
+      <c r="F71" s="83"/>
+      <c r="G71" s="83"/>
+      <c r="H71" s="84">
         <v>44979</v>
       </c>
-      <c r="I71" s="88"/>
-      <c r="J71" s="88"/>
-      <c r="M71" s="80" t="s">
+      <c r="I71" s="85"/>
+      <c r="J71" s="85"/>
+      <c r="M71" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N71" s="80"/>
-      <c r="O71" s="80"/>
-      <c r="P71" s="81" t="s">
+      <c r="N71" s="82"/>
+      <c r="O71" s="82"/>
+      <c r="P71" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q71" s="81"/>
-      <c r="R71" s="81"/>
-      <c r="S71" s="81"/>
+      <c r="Q71" s="83"/>
+      <c r="R71" s="83"/>
+      <c r="S71" s="83"/>
       <c r="T71" s="18"/>
       <c r="U71" s="18"/>
-      <c r="V71" s="82">
+      <c r="V71" s="86">
         <v>44980</v>
       </c>
-      <c r="W71" s="83"/>
-      <c r="X71" s="84"/>
+      <c r="W71" s="87"/>
+      <c r="X71" s="88"/>
     </row>
     <row r="72" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
@@ -7370,72 +7370,72 @@
       <c r="X82" s="4"/>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C86" s="85" t="s">
+      <c r="C86" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="D86" s="85"/>
-      <c r="E86" s="85"/>
-      <c r="F86" s="85"/>
-      <c r="G86" s="85"/>
-      <c r="P86" s="79" t="s">
+      <c r="D86" s="79"/>
+      <c r="E86" s="79"/>
+      <c r="F86" s="79"/>
+      <c r="G86" s="79"/>
+      <c r="P86" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="Q86" s="79"/>
-      <c r="R86" s="79"/>
-      <c r="S86" s="79"/>
-      <c r="T86" s="79"/>
-      <c r="U86" s="79"/>
-      <c r="V86" s="79"/>
+      <c r="Q86" s="81"/>
+      <c r="R86" s="81"/>
+      <c r="S86" s="81"/>
+      <c r="T86" s="81"/>
+      <c r="U86" s="81"/>
+      <c r="V86" s="81"/>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C87" s="86"/>
-      <c r="D87" s="86"/>
-      <c r="E87" s="86"/>
-      <c r="F87" s="86"/>
-      <c r="G87" s="86"/>
-      <c r="P87" s="79"/>
-      <c r="Q87" s="79"/>
-      <c r="R87" s="79"/>
-      <c r="S87" s="79"/>
-      <c r="T87" s="79"/>
-      <c r="U87" s="79"/>
-      <c r="V87" s="79"/>
+      <c r="C87" s="80"/>
+      <c r="D87" s="80"/>
+      <c r="E87" s="80"/>
+      <c r="F87" s="80"/>
+      <c r="G87" s="80"/>
+      <c r="P87" s="81"/>
+      <c r="Q87" s="81"/>
+      <c r="R87" s="81"/>
+      <c r="S87" s="81"/>
+      <c r="T87" s="81"/>
+      <c r="U87" s="81"/>
+      <c r="V87" s="81"/>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A88" s="80" t="s">
+      <c r="A88" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B88" s="80"/>
-      <c r="C88" s="80"/>
-      <c r="D88" s="81" t="s">
+      <c r="B88" s="82"/>
+      <c r="C88" s="82"/>
+      <c r="D88" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E88" s="81"/>
-      <c r="F88" s="81"/>
-      <c r="G88" s="81"/>
-      <c r="H88" s="87">
+      <c r="E88" s="83"/>
+      <c r="F88" s="83"/>
+      <c r="G88" s="83"/>
+      <c r="H88" s="84">
         <v>44981</v>
       </c>
-      <c r="I88" s="88"/>
-      <c r="J88" s="88"/>
-      <c r="M88" s="80" t="s">
+      <c r="I88" s="85"/>
+      <c r="J88" s="85"/>
+      <c r="M88" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N88" s="80"/>
-      <c r="O88" s="80"/>
-      <c r="P88" s="81" t="s">
+      <c r="N88" s="82"/>
+      <c r="O88" s="82"/>
+      <c r="P88" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q88" s="81"/>
-      <c r="R88" s="81"/>
-      <c r="S88" s="81"/>
+      <c r="Q88" s="83"/>
+      <c r="R88" s="83"/>
+      <c r="S88" s="83"/>
       <c r="T88" s="18"/>
       <c r="U88" s="18"/>
-      <c r="V88" s="82">
+      <c r="V88" s="86">
         <v>44980</v>
       </c>
-      <c r="W88" s="83"/>
-      <c r="X88" s="84"/>
+      <c r="W88" s="87"/>
+      <c r="X88" s="88"/>
     </row>
     <row r="89" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
@@ -7770,72 +7770,72 @@
       <c r="X99" s="4"/>
     </row>
     <row r="103" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C103" s="85" t="s">
+      <c r="C103" s="79" t="s">
         <v>70</v>
       </c>
-      <c r="D103" s="85"/>
-      <c r="E103" s="85"/>
-      <c r="F103" s="85"/>
-      <c r="G103" s="85"/>
-      <c r="P103" s="79" t="s">
+      <c r="D103" s="79"/>
+      <c r="E103" s="79"/>
+      <c r="F103" s="79"/>
+      <c r="G103" s="79"/>
+      <c r="P103" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="Q103" s="79"/>
-      <c r="R103" s="79"/>
-      <c r="S103" s="79"/>
-      <c r="T103" s="79"/>
-      <c r="U103" s="79"/>
-      <c r="V103" s="79"/>
+      <c r="Q103" s="81"/>
+      <c r="R103" s="81"/>
+      <c r="S103" s="81"/>
+      <c r="T103" s="81"/>
+      <c r="U103" s="81"/>
+      <c r="V103" s="81"/>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C104" s="86"/>
-      <c r="D104" s="86"/>
-      <c r="E104" s="86"/>
-      <c r="F104" s="86"/>
-      <c r="G104" s="86"/>
-      <c r="P104" s="79"/>
-      <c r="Q104" s="79"/>
-      <c r="R104" s="79"/>
-      <c r="S104" s="79"/>
-      <c r="T104" s="79"/>
-      <c r="U104" s="79"/>
-      <c r="V104" s="79"/>
+      <c r="C104" s="80"/>
+      <c r="D104" s="80"/>
+      <c r="E104" s="80"/>
+      <c r="F104" s="80"/>
+      <c r="G104" s="80"/>
+      <c r="P104" s="81"/>
+      <c r="Q104" s="81"/>
+      <c r="R104" s="81"/>
+      <c r="S104" s="81"/>
+      <c r="T104" s="81"/>
+      <c r="U104" s="81"/>
+      <c r="V104" s="81"/>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A105" s="80" t="s">
+      <c r="A105" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B105" s="80"/>
-      <c r="C105" s="80"/>
-      <c r="D105" s="81" t="s">
+      <c r="B105" s="82"/>
+      <c r="C105" s="82"/>
+      <c r="D105" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E105" s="81"/>
-      <c r="F105" s="81"/>
-      <c r="G105" s="81"/>
-      <c r="H105" s="87">
+      <c r="E105" s="83"/>
+      <c r="F105" s="83"/>
+      <c r="G105" s="83"/>
+      <c r="H105" s="84">
         <v>44979</v>
       </c>
-      <c r="I105" s="88"/>
-      <c r="J105" s="88"/>
-      <c r="M105" s="80" t="s">
+      <c r="I105" s="85"/>
+      <c r="J105" s="85"/>
+      <c r="M105" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N105" s="80"/>
-      <c r="O105" s="80"/>
-      <c r="P105" s="81" t="s">
+      <c r="N105" s="82"/>
+      <c r="O105" s="82"/>
+      <c r="P105" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q105" s="81"/>
-      <c r="R105" s="81"/>
-      <c r="S105" s="81"/>
+      <c r="Q105" s="83"/>
+      <c r="R105" s="83"/>
+      <c r="S105" s="83"/>
       <c r="T105" s="18"/>
       <c r="U105" s="18"/>
-      <c r="V105" s="82">
+      <c r="V105" s="86">
         <v>45012</v>
       </c>
-      <c r="W105" s="83"/>
-      <c r="X105" s="84"/>
+      <c r="W105" s="87"/>
+      <c r="X105" s="88"/>
     </row>
     <row r="106" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
@@ -8286,73 +8286,73 @@
       <c r="X116" s="4"/>
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C121" s="85" t="s">
+      <c r="C121" s="79" t="s">
         <v>95</v>
       </c>
-      <c r="D121" s="85"/>
-      <c r="E121" s="85"/>
-      <c r="F121" s="85"/>
-      <c r="G121" s="85"/>
-      <c r="P121" s="79" t="s">
+      <c r="D121" s="79"/>
+      <c r="E121" s="79"/>
+      <c r="F121" s="79"/>
+      <c r="G121" s="79"/>
+      <c r="P121" s="81" t="s">
         <v>96</v>
       </c>
-      <c r="Q121" s="79"/>
-      <c r="R121" s="79"/>
-      <c r="S121" s="79"/>
-      <c r="T121" s="79"/>
-      <c r="U121" s="79"/>
-      <c r="V121" s="79"/>
+      <c r="Q121" s="81"/>
+      <c r="R121" s="81"/>
+      <c r="S121" s="81"/>
+      <c r="T121" s="81"/>
+      <c r="U121" s="81"/>
+      <c r="V121" s="81"/>
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C122" s="86"/>
-      <c r="D122" s="86"/>
-      <c r="E122" s="86"/>
-      <c r="F122" s="86"/>
-      <c r="G122" s="86"/>
-      <c r="P122" s="79"/>
-      <c r="Q122" s="79"/>
-      <c r="R122" s="79"/>
-      <c r="S122" s="79"/>
-      <c r="T122" s="79"/>
-      <c r="U122" s="79"/>
-      <c r="V122" s="79"/>
+      <c r="C122" s="80"/>
+      <c r="D122" s="80"/>
+      <c r="E122" s="80"/>
+      <c r="F122" s="80"/>
+      <c r="G122" s="80"/>
+      <c r="P122" s="81"/>
+      <c r="Q122" s="81"/>
+      <c r="R122" s="81"/>
+      <c r="S122" s="81"/>
+      <c r="T122" s="81"/>
+      <c r="U122" s="81"/>
+      <c r="V122" s="81"/>
     </row>
     <row r="123" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="80" t="s">
+      <c r="A123" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B123" s="80"/>
-      <c r="C123" s="80"/>
-      <c r="D123" s="81" t="s">
+      <c r="B123" s="82"/>
+      <c r="C123" s="82"/>
+      <c r="D123" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E123" s="81"/>
-      <c r="F123" s="81"/>
-      <c r="G123" s="81"/>
-      <c r="H123" s="87">
+      <c r="E123" s="83"/>
+      <c r="F123" s="83"/>
+      <c r="G123" s="83"/>
+      <c r="H123" s="84">
         <v>44979</v>
       </c>
-      <c r="I123" s="88"/>
-      <c r="J123" s="88"/>
-      <c r="M123" s="80" t="s">
+      <c r="I123" s="85"/>
+      <c r="J123" s="85"/>
+      <c r="M123" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N123" s="80"/>
-      <c r="O123" s="80"/>
-      <c r="P123" s="81" t="s">
+      <c r="N123" s="82"/>
+      <c r="O123" s="82"/>
+      <c r="P123" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q123" s="81"/>
-      <c r="R123" s="81"/>
-      <c r="S123" s="81"/>
+      <c r="Q123" s="83"/>
+      <c r="R123" s="83"/>
+      <c r="S123" s="83"/>
       <c r="T123" s="18"/>
       <c r="U123" s="18"/>
-      <c r="V123" s="82" t="e">
+      <c r="V123" s="86" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W123" s="83"/>
-      <c r="X123" s="84"/>
+      <c r="W123" s="87"/>
+      <c r="X123" s="88"/>
     </row>
     <row r="124" spans="1:26" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
@@ -8867,45 +8867,45 @@
       <c r="X134" s="4"/>
     </row>
     <row r="138" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="P138" s="79" t="s">
+      <c r="P138" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="Q138" s="79"/>
-      <c r="R138" s="79"/>
-      <c r="S138" s="79"/>
-      <c r="T138" s="79"/>
-      <c r="U138" s="79"/>
-      <c r="V138" s="79"/>
+      <c r="Q138" s="81"/>
+      <c r="R138" s="81"/>
+      <c r="S138" s="81"/>
+      <c r="T138" s="81"/>
+      <c r="U138" s="81"/>
+      <c r="V138" s="81"/>
     </row>
     <row r="139" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="P139" s="79"/>
-      <c r="Q139" s="79"/>
-      <c r="R139" s="79"/>
-      <c r="S139" s="79"/>
-      <c r="T139" s="79"/>
-      <c r="U139" s="79"/>
-      <c r="V139" s="79"/>
+      <c r="P139" s="81"/>
+      <c r="Q139" s="81"/>
+      <c r="R139" s="81"/>
+      <c r="S139" s="81"/>
+      <c r="T139" s="81"/>
+      <c r="U139" s="81"/>
+      <c r="V139" s="81"/>
     </row>
     <row r="140" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="M140" s="80" t="s">
+      <c r="M140" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N140" s="80"/>
-      <c r="O140" s="80"/>
-      <c r="P140" s="81" t="s">
+      <c r="N140" s="82"/>
+      <c r="O140" s="82"/>
+      <c r="P140" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q140" s="81"/>
-      <c r="R140" s="81"/>
-      <c r="S140" s="81"/>
+      <c r="Q140" s="83"/>
+      <c r="R140" s="83"/>
+      <c r="S140" s="83"/>
       <c r="T140" s="18"/>
       <c r="U140" s="18"/>
-      <c r="V140" s="82" t="e">
+      <c r="V140" s="86" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W140" s="83"/>
-      <c r="X140" s="84"/>
+      <c r="W140" s="87"/>
+      <c r="X140" s="88"/>
     </row>
     <row r="141" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M141" s="6" t="s">
@@ -9170,45 +9170,45 @@
       <c r="S152" s="64"/>
     </row>
     <row r="153" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P153" s="79" t="s">
+      <c r="P153" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="Q153" s="79"/>
-      <c r="R153" s="79"/>
-      <c r="S153" s="79"/>
-      <c r="T153" s="79"/>
-      <c r="U153" s="79"/>
-      <c r="V153" s="79"/>
+      <c r="Q153" s="81"/>
+      <c r="R153" s="81"/>
+      <c r="S153" s="81"/>
+      <c r="T153" s="81"/>
+      <c r="U153" s="81"/>
+      <c r="V153" s="81"/>
     </row>
     <row r="154" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P154" s="79"/>
-      <c r="Q154" s="79"/>
-      <c r="R154" s="79"/>
-      <c r="S154" s="79"/>
-      <c r="T154" s="79"/>
-      <c r="U154" s="79"/>
-      <c r="V154" s="79"/>
+      <c r="P154" s="81"/>
+      <c r="Q154" s="81"/>
+      <c r="R154" s="81"/>
+      <c r="S154" s="81"/>
+      <c r="T154" s="81"/>
+      <c r="U154" s="81"/>
+      <c r="V154" s="81"/>
     </row>
     <row r="155" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M155" s="80" t="s">
+      <c r="M155" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N155" s="80"/>
-      <c r="O155" s="80"/>
-      <c r="P155" s="81" t="s">
+      <c r="N155" s="82"/>
+      <c r="O155" s="82"/>
+      <c r="P155" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q155" s="81"/>
-      <c r="R155" s="81"/>
-      <c r="S155" s="81"/>
+      <c r="Q155" s="83"/>
+      <c r="R155" s="83"/>
+      <c r="S155" s="83"/>
       <c r="T155" s="18"/>
       <c r="U155" s="18"/>
-      <c r="V155" s="82" t="e">
+      <c r="V155" s="86" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W155" s="83"/>
-      <c r="X155" s="84"/>
+      <c r="W155" s="87"/>
+      <c r="X155" s="88"/>
     </row>
     <row r="156" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M156" s="6" t="s">
@@ -9472,45 +9472,45 @@
       <c r="X166" s="4"/>
     </row>
     <row r="168" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P168" s="79" t="s">
+      <c r="P168" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="Q168" s="79"/>
-      <c r="R168" s="79"/>
-      <c r="S168" s="79"/>
-      <c r="T168" s="79"/>
-      <c r="U168" s="79"/>
-      <c r="V168" s="79"/>
+      <c r="Q168" s="81"/>
+      <c r="R168" s="81"/>
+      <c r="S168" s="81"/>
+      <c r="T168" s="81"/>
+      <c r="U168" s="81"/>
+      <c r="V168" s="81"/>
     </row>
     <row r="169" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P169" s="79"/>
-      <c r="Q169" s="79"/>
-      <c r="R169" s="79"/>
-      <c r="S169" s="79"/>
-      <c r="T169" s="79"/>
-      <c r="U169" s="79"/>
-      <c r="V169" s="79"/>
+      <c r="P169" s="81"/>
+      <c r="Q169" s="81"/>
+      <c r="R169" s="81"/>
+      <c r="S169" s="81"/>
+      <c r="T169" s="81"/>
+      <c r="U169" s="81"/>
+      <c r="V169" s="81"/>
     </row>
     <row r="170" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M170" s="80" t="s">
+      <c r="M170" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N170" s="80"/>
-      <c r="O170" s="80"/>
-      <c r="P170" s="81" t="s">
+      <c r="N170" s="82"/>
+      <c r="O170" s="82"/>
+      <c r="P170" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q170" s="81"/>
-      <c r="R170" s="81"/>
-      <c r="S170" s="81"/>
+      <c r="Q170" s="83"/>
+      <c r="R170" s="83"/>
+      <c r="S170" s="83"/>
       <c r="T170" s="18"/>
       <c r="U170" s="18"/>
-      <c r="V170" s="82" t="e">
+      <c r="V170" s="86" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W170" s="83"/>
-      <c r="X170" s="84"/>
+      <c r="W170" s="87"/>
+      <c r="X170" s="88"/>
     </row>
     <row r="171" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M171" s="6" t="s">
@@ -9715,45 +9715,45 @@
       <c r="X181" s="4"/>
     </row>
     <row r="186" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P186" s="79" t="s">
+      <c r="P186" s="81" t="s">
         <v>104</v>
       </c>
-      <c r="Q186" s="79"/>
-      <c r="R186" s="79"/>
-      <c r="S186" s="79"/>
-      <c r="T186" s="79"/>
-      <c r="U186" s="79"/>
-      <c r="V186" s="79"/>
+      <c r="Q186" s="81"/>
+      <c r="R186" s="81"/>
+      <c r="S186" s="81"/>
+      <c r="T186" s="81"/>
+      <c r="U186" s="81"/>
+      <c r="V186" s="81"/>
     </row>
     <row r="187" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P187" s="79"/>
-      <c r="Q187" s="79"/>
-      <c r="R187" s="79"/>
-      <c r="S187" s="79"/>
-      <c r="T187" s="79"/>
-      <c r="U187" s="79"/>
-      <c r="V187" s="79"/>
+      <c r="P187" s="81"/>
+      <c r="Q187" s="81"/>
+      <c r="R187" s="81"/>
+      <c r="S187" s="81"/>
+      <c r="T187" s="81"/>
+      <c r="U187" s="81"/>
+      <c r="V187" s="81"/>
     </row>
     <row r="188" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M188" s="80" t="s">
+      <c r="M188" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N188" s="80"/>
-      <c r="O188" s="80"/>
-      <c r="P188" s="81" t="s">
+      <c r="N188" s="82"/>
+      <c r="O188" s="82"/>
+      <c r="P188" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q188" s="81"/>
-      <c r="R188" s="81"/>
-      <c r="S188" s="81"/>
+      <c r="Q188" s="83"/>
+      <c r="R188" s="83"/>
+      <c r="S188" s="83"/>
       <c r="T188" s="18"/>
       <c r="U188" s="18"/>
-      <c r="V188" s="82" t="e">
+      <c r="V188" s="86" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W188" s="83"/>
-      <c r="X188" s="84"/>
+      <c r="W188" s="87"/>
+      <c r="X188" s="88"/>
     </row>
     <row r="189" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M189" s="6" t="s">
@@ -9923,24 +9923,24 @@
       <c r="X194" s="15"/>
     </row>
     <row r="198" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P198" s="79" t="s">
+      <c r="P198" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="Q198" s="79"/>
-      <c r="R198" s="79"/>
-      <c r="S198" s="79"/>
-      <c r="T198" s="79"/>
-      <c r="U198" s="79"/>
-      <c r="V198" s="79"/>
+      <c r="Q198" s="81"/>
+      <c r="R198" s="81"/>
+      <c r="S198" s="81"/>
+      <c r="T198" s="81"/>
+      <c r="U198" s="81"/>
+      <c r="V198" s="81"/>
     </row>
     <row r="199" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P199" s="79"/>
-      <c r="Q199" s="79"/>
-      <c r="R199" s="79"/>
-      <c r="S199" s="79"/>
-      <c r="T199" s="79"/>
-      <c r="U199" s="79"/>
-      <c r="V199" s="79"/>
+      <c r="P199" s="81"/>
+      <c r="Q199" s="81"/>
+      <c r="R199" s="81"/>
+      <c r="S199" s="81"/>
+      <c r="T199" s="81"/>
+      <c r="U199" s="81"/>
+      <c r="V199" s="81"/>
     </row>
     <row r="200" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M200" s="70" t="s">
@@ -10115,24 +10115,24 @@
       </c>
     </row>
     <row r="209" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P209" s="79" t="s">
+      <c r="P209" s="81" t="s">
         <v>113</v>
       </c>
-      <c r="Q209" s="79"/>
-      <c r="R209" s="79"/>
-      <c r="S209" s="79"/>
-      <c r="T209" s="79"/>
-      <c r="U209" s="79"/>
-      <c r="V209" s="79"/>
+      <c r="Q209" s="81"/>
+      <c r="R209" s="81"/>
+      <c r="S209" s="81"/>
+      <c r="T209" s="81"/>
+      <c r="U209" s="81"/>
+      <c r="V209" s="81"/>
     </row>
     <row r="210" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P210" s="79"/>
-      <c r="Q210" s="79"/>
-      <c r="R210" s="79"/>
-      <c r="S210" s="79"/>
-      <c r="T210" s="79"/>
-      <c r="U210" s="79"/>
-      <c r="V210" s="79"/>
+      <c r="P210" s="81"/>
+      <c r="Q210" s="81"/>
+      <c r="R210" s="81"/>
+      <c r="S210" s="81"/>
+      <c r="T210" s="81"/>
+      <c r="U210" s="81"/>
+      <c r="V210" s="81"/>
     </row>
     <row r="211" spans="13:26" ht="36" x14ac:dyDescent="0.25">
       <c r="M211" s="70" t="s">
@@ -10284,24 +10284,24 @@
       </c>
     </row>
     <row r="218" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P218" s="79" t="s">
+      <c r="P218" s="81" t="s">
         <v>114</v>
       </c>
-      <c r="Q218" s="79"/>
-      <c r="R218" s="79"/>
-      <c r="S218" s="79"/>
-      <c r="T218" s="79"/>
-      <c r="U218" s="79"/>
-      <c r="V218" s="79"/>
+      <c r="Q218" s="81"/>
+      <c r="R218" s="81"/>
+      <c r="S218" s="81"/>
+      <c r="T218" s="81"/>
+      <c r="U218" s="81"/>
+      <c r="V218" s="81"/>
     </row>
     <row r="219" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P219" s="79"/>
-      <c r="Q219" s="79"/>
-      <c r="R219" s="79"/>
-      <c r="S219" s="79"/>
-      <c r="T219" s="79"/>
-      <c r="U219" s="79"/>
-      <c r="V219" s="79"/>
+      <c r="P219" s="81"/>
+      <c r="Q219" s="81"/>
+      <c r="R219" s="81"/>
+      <c r="S219" s="81"/>
+      <c r="T219" s="81"/>
+      <c r="U219" s="81"/>
+      <c r="V219" s="81"/>
     </row>
     <row r="220" spans="13:26" ht="36" x14ac:dyDescent="0.25">
       <c r="M220" s="70" t="s">
@@ -10558,24 +10558,24 @@
       </c>
     </row>
     <row r="230" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P230" s="79" t="s">
+      <c r="P230" s="81" t="s">
         <v>116</v>
       </c>
-      <c r="Q230" s="79"/>
-      <c r="R230" s="79"/>
-      <c r="S230" s="79"/>
-      <c r="T230" s="79"/>
-      <c r="U230" s="79"/>
-      <c r="V230" s="79"/>
+      <c r="Q230" s="81"/>
+      <c r="R230" s="81"/>
+      <c r="S230" s="81"/>
+      <c r="T230" s="81"/>
+      <c r="U230" s="81"/>
+      <c r="V230" s="81"/>
     </row>
     <row r="231" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P231" s="79"/>
-      <c r="Q231" s="79"/>
-      <c r="R231" s="79"/>
-      <c r="S231" s="79"/>
-      <c r="T231" s="79"/>
-      <c r="U231" s="79"/>
-      <c r="V231" s="79"/>
+      <c r="P231" s="81"/>
+      <c r="Q231" s="81"/>
+      <c r="R231" s="81"/>
+      <c r="S231" s="81"/>
+      <c r="T231" s="81"/>
+      <c r="U231" s="81"/>
+      <c r="V231" s="81"/>
     </row>
     <row r="232" spans="13:26" ht="36" x14ac:dyDescent="0.25">
       <c r="M232" s="70" t="s">
@@ -10738,24 +10738,24 @@
       </c>
     </row>
     <row r="240" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P240" s="79" t="s">
+      <c r="P240" s="81" t="s">
         <v>118</v>
       </c>
-      <c r="Q240" s="79"/>
-      <c r="R240" s="79"/>
-      <c r="S240" s="79"/>
-      <c r="T240" s="79"/>
-      <c r="U240" s="79"/>
-      <c r="V240" s="79"/>
+      <c r="Q240" s="81"/>
+      <c r="R240" s="81"/>
+      <c r="S240" s="81"/>
+      <c r="T240" s="81"/>
+      <c r="U240" s="81"/>
+      <c r="V240" s="81"/>
     </row>
     <row r="241" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P241" s="79"/>
-      <c r="Q241" s="79"/>
-      <c r="R241" s="79"/>
-      <c r="S241" s="79"/>
-      <c r="T241" s="79"/>
-      <c r="U241" s="79"/>
-      <c r="V241" s="79"/>
+      <c r="P241" s="81"/>
+      <c r="Q241" s="81"/>
+      <c r="R241" s="81"/>
+      <c r="S241" s="81"/>
+      <c r="T241" s="81"/>
+      <c r="U241" s="81"/>
+      <c r="V241" s="81"/>
     </row>
     <row r="242" spans="13:26" ht="36" x14ac:dyDescent="0.25">
       <c r="M242" s="70" t="s">
@@ -10771,11 +10771,11 @@
       <c r="S242" s="71"/>
       <c r="T242" s="18"/>
       <c r="U242" s="18"/>
-      <c r="V242" s="82">
+      <c r="V242" s="86">
         <v>45082</v>
       </c>
-      <c r="W242" s="83"/>
-      <c r="X242" s="84"/>
+      <c r="W242" s="87"/>
+      <c r="X242" s="88"/>
     </row>
     <row r="243" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M243" s="6" t="s">
@@ -10885,24 +10885,24 @@
       </c>
     </row>
     <row r="248" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P248" s="79" t="s">
+      <c r="P248" s="81" t="s">
         <v>119</v>
       </c>
-      <c r="Q248" s="79"/>
-      <c r="R248" s="79"/>
-      <c r="S248" s="79"/>
-      <c r="T248" s="79"/>
-      <c r="U248" s="79"/>
-      <c r="V248" s="79"/>
+      <c r="Q248" s="81"/>
+      <c r="R248" s="81"/>
+      <c r="S248" s="81"/>
+      <c r="T248" s="81"/>
+      <c r="U248" s="81"/>
+      <c r="V248" s="81"/>
     </row>
     <row r="249" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P249" s="79"/>
-      <c r="Q249" s="79"/>
-      <c r="R249" s="79"/>
-      <c r="S249" s="79"/>
-      <c r="T249" s="79"/>
-      <c r="U249" s="79"/>
-      <c r="V249" s="79"/>
+      <c r="P249" s="81"/>
+      <c r="Q249" s="81"/>
+      <c r="R249" s="81"/>
+      <c r="S249" s="81"/>
+      <c r="T249" s="81"/>
+      <c r="U249" s="81"/>
+      <c r="V249" s="81"/>
     </row>
     <row r="250" spans="13:26" ht="36" x14ac:dyDescent="0.25">
       <c r="M250" s="70" t="s">
@@ -10918,11 +10918,11 @@
       <c r="S250" s="71"/>
       <c r="T250" s="18"/>
       <c r="U250" s="18"/>
-      <c r="V250" s="82">
+      <c r="V250" s="86">
         <v>45083</v>
       </c>
-      <c r="W250" s="83"/>
-      <c r="X250" s="84"/>
+      <c r="W250" s="87"/>
+      <c r="X250" s="88"/>
     </row>
     <row r="251" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M251" s="6" t="s">
@@ -10999,24 +10999,24 @@
       </c>
     </row>
     <row r="255" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P255" s="79" t="s">
+      <c r="P255" s="81" t="s">
         <v>120</v>
       </c>
-      <c r="Q255" s="79"/>
-      <c r="R255" s="79"/>
-      <c r="S255" s="79"/>
-      <c r="T255" s="79"/>
-      <c r="U255" s="79"/>
-      <c r="V255" s="79"/>
+      <c r="Q255" s="81"/>
+      <c r="R255" s="81"/>
+      <c r="S255" s="81"/>
+      <c r="T255" s="81"/>
+      <c r="U255" s="81"/>
+      <c r="V255" s="81"/>
     </row>
     <row r="256" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P256" s="79"/>
-      <c r="Q256" s="79"/>
-      <c r="R256" s="79"/>
-      <c r="S256" s="79"/>
-      <c r="T256" s="79"/>
-      <c r="U256" s="79"/>
-      <c r="V256" s="79"/>
+      <c r="P256" s="81"/>
+      <c r="Q256" s="81"/>
+      <c r="R256" s="81"/>
+      <c r="S256" s="81"/>
+      <c r="T256" s="81"/>
+      <c r="U256" s="81"/>
+      <c r="V256" s="81"/>
     </row>
     <row r="257" spans="13:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M257" s="89" t="s">
@@ -11032,11 +11032,11 @@
       <c r="S257" s="93"/>
       <c r="T257" s="93"/>
       <c r="U257" s="94"/>
-      <c r="V257" s="82">
+      <c r="V257" s="86">
         <v>45084</v>
       </c>
-      <c r="W257" s="83"/>
-      <c r="X257" s="84"/>
+      <c r="W257" s="87"/>
+      <c r="X257" s="88"/>
       <c r="Z257" s="20" t="s">
         <v>9</v>
       </c>
@@ -11166,24 +11166,24 @@
       </c>
     </row>
     <row r="262" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P262" s="79" t="s">
+      <c r="P262" s="81" t="s">
         <v>121</v>
       </c>
-      <c r="Q262" s="79"/>
-      <c r="R262" s="79"/>
-      <c r="S262" s="79"/>
-      <c r="T262" s="79"/>
-      <c r="U262" s="79"/>
-      <c r="V262" s="79"/>
+      <c r="Q262" s="81"/>
+      <c r="R262" s="81"/>
+      <c r="S262" s="81"/>
+      <c r="T262" s="81"/>
+      <c r="U262" s="81"/>
+      <c r="V262" s="81"/>
     </row>
     <row r="263" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P263" s="79"/>
-      <c r="Q263" s="79"/>
-      <c r="R263" s="79"/>
-      <c r="S263" s="79"/>
-      <c r="T263" s="79"/>
-      <c r="U263" s="79"/>
-      <c r="V263" s="79"/>
+      <c r="P263" s="81"/>
+      <c r="Q263" s="81"/>
+      <c r="R263" s="81"/>
+      <c r="S263" s="81"/>
+      <c r="T263" s="81"/>
+      <c r="U263" s="81"/>
+      <c r="V263" s="81"/>
     </row>
     <row r="264" spans="13:26" x14ac:dyDescent="0.25">
       <c r="M264" s="89" t="s">
@@ -11199,11 +11199,11 @@
       <c r="S264" s="93"/>
       <c r="T264" s="93"/>
       <c r="U264" s="94"/>
-      <c r="V264" s="82">
+      <c r="V264" s="86">
         <v>45089</v>
       </c>
-      <c r="W264" s="83"/>
-      <c r="X264" s="84"/>
+      <c r="W264" s="87"/>
+      <c r="X264" s="88"/>
     </row>
     <row r="265" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M265" s="6" t="s">
@@ -11368,8 +11368,8 @@
       <c r="R269" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="S269" s="8" t="s">
-        <v>8</v>
+      <c r="S269" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="T269" s="43">
         <v>0.5</v>
@@ -11383,7 +11383,9 @@
       <c r="W269" s="34">
         <v>0.63611111111111118</v>
       </c>
-      <c r="X269" s="35"/>
+      <c r="X269" s="35">
+        <v>0.65138888888888891</v>
+      </c>
     </row>
     <row r="270" spans="13:26" x14ac:dyDescent="0.25">
       <c r="M270" s="15"/>
@@ -11459,23 +11461,62 @@
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="P262:V263"/>
-    <mergeCell ref="M264:O264"/>
-    <mergeCell ref="P264:U264"/>
-    <mergeCell ref="V264:X264"/>
-    <mergeCell ref="P240:V241"/>
-    <mergeCell ref="P218:V219"/>
-    <mergeCell ref="P198:V199"/>
-    <mergeCell ref="P186:V187"/>
-    <mergeCell ref="M188:O188"/>
-    <mergeCell ref="P188:S188"/>
-    <mergeCell ref="V188:X188"/>
-    <mergeCell ref="P209:V210"/>
-    <mergeCell ref="P230:V231"/>
-    <mergeCell ref="P168:V169"/>
-    <mergeCell ref="M170:O170"/>
-    <mergeCell ref="P170:S170"/>
-    <mergeCell ref="V170:X170"/>
+    <mergeCell ref="C86:G87"/>
+    <mergeCell ref="P86:V87"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="D71:G71"/>
+    <mergeCell ref="V71:X71"/>
+    <mergeCell ref="P121:V122"/>
+    <mergeCell ref="V123:X123"/>
+    <mergeCell ref="M123:O123"/>
+    <mergeCell ref="P123:S123"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="M71:O71"/>
+    <mergeCell ref="P71:S71"/>
+    <mergeCell ref="C37:G38"/>
+    <mergeCell ref="P37:V38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="P39:S39"/>
+    <mergeCell ref="V39:X39"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="C53:G54"/>
+    <mergeCell ref="P53:V54"/>
+    <mergeCell ref="V55:X55"/>
+    <mergeCell ref="C69:G70"/>
+    <mergeCell ref="P69:V70"/>
+    <mergeCell ref="C22:G23"/>
+    <mergeCell ref="P22:V23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="P55:S55"/>
+    <mergeCell ref="C2:G3"/>
+    <mergeCell ref="P2:V3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="M140:O140"/>
+    <mergeCell ref="P140:S140"/>
+    <mergeCell ref="V140:X140"/>
+    <mergeCell ref="D88:G88"/>
+    <mergeCell ref="H88:J88"/>
+    <mergeCell ref="M88:O88"/>
+    <mergeCell ref="P88:S88"/>
+    <mergeCell ref="V88:X88"/>
+    <mergeCell ref="P138:V139"/>
     <mergeCell ref="M155:O155"/>
     <mergeCell ref="P155:S155"/>
     <mergeCell ref="V155:X155"/>
@@ -11492,63 +11533,24 @@
     <mergeCell ref="A123:C123"/>
     <mergeCell ref="D123:G123"/>
     <mergeCell ref="H123:J123"/>
-    <mergeCell ref="M140:O140"/>
-    <mergeCell ref="P140:S140"/>
-    <mergeCell ref="V140:X140"/>
-    <mergeCell ref="D88:G88"/>
-    <mergeCell ref="H88:J88"/>
-    <mergeCell ref="M88:O88"/>
-    <mergeCell ref="P88:S88"/>
-    <mergeCell ref="V88:X88"/>
-    <mergeCell ref="C2:G3"/>
-    <mergeCell ref="P2:V3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="P69:V70"/>
-    <mergeCell ref="C22:G23"/>
-    <mergeCell ref="P22:V23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="M71:O71"/>
-    <mergeCell ref="P71:S71"/>
-    <mergeCell ref="C37:G38"/>
-    <mergeCell ref="P37:V38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="P39:S39"/>
-    <mergeCell ref="V39:X39"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="C53:G54"/>
-    <mergeCell ref="P53:V54"/>
-    <mergeCell ref="V55:X55"/>
-    <mergeCell ref="C69:G70"/>
+    <mergeCell ref="P230:V231"/>
+    <mergeCell ref="P168:V169"/>
+    <mergeCell ref="M170:O170"/>
+    <mergeCell ref="P170:S170"/>
+    <mergeCell ref="V170:X170"/>
+    <mergeCell ref="P218:V219"/>
+    <mergeCell ref="P198:V199"/>
+    <mergeCell ref="P186:V187"/>
+    <mergeCell ref="M188:O188"/>
+    <mergeCell ref="P188:S188"/>
+    <mergeCell ref="V188:X188"/>
+    <mergeCell ref="P209:V210"/>
+    <mergeCell ref="P262:V263"/>
+    <mergeCell ref="M264:O264"/>
+    <mergeCell ref="P264:U264"/>
+    <mergeCell ref="V264:X264"/>
+    <mergeCell ref="P240:V241"/>
     <mergeCell ref="V242:X242"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="M55:O55"/>
-    <mergeCell ref="P55:S55"/>
-    <mergeCell ref="V71:X71"/>
-    <mergeCell ref="P121:V122"/>
-    <mergeCell ref="V123:X123"/>
-    <mergeCell ref="M123:O123"/>
-    <mergeCell ref="P123:S123"/>
-    <mergeCell ref="P138:V139"/>
-    <mergeCell ref="C86:G87"/>
-    <mergeCell ref="P86:V87"/>
-    <mergeCell ref="A88:C88"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="D71:G71"/>
     <mergeCell ref="P255:V256"/>
     <mergeCell ref="V257:X257"/>
     <mergeCell ref="M257:O257"/>

--- a/DOC 2023/FORMATO STATUS.xlsx
+++ b/DOC 2023/FORMATO STATUS.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\DOC 2023\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27EA3C8B-6068-4081-BEE5-D032E33B2155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FEBRERO" sheetId="2" r:id="rId1"/>
     <sheet name="MARZO" sheetId="3" r:id="rId2"/>
     <sheet name="Hoja2" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="124">
   <si>
     <t>DT</t>
   </si>
@@ -398,12 +404,15 @@
   </si>
   <si>
     <t>PAB 2383</t>
+  </si>
+  <si>
+    <t>Jueves 15-06-2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
@@ -975,12 +984,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -990,12 +993,6 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1003,6 +1000,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1300,14 +1309,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:Z124"/>
   <sheetViews>
     <sheetView topLeftCell="J103" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
@@ -1329,72 +1338,72 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="P2" s="81" t="s">
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="P2" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="81"/>
-      <c r="S2" s="81"/>
-      <c r="T2" s="81"/>
-      <c r="U2" s="81"/>
-      <c r="V2" s="81"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="79"/>
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="81"/>
-      <c r="S3" s="81"/>
-      <c r="T3" s="81"/>
-      <c r="U3" s="81"/>
-      <c r="V3" s="81"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="79"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="83" t="s">
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="84">
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="87">
         <v>44965</v>
       </c>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="M4" s="82" t="s">
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="M4" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="82"/>
-      <c r="O4" s="82"/>
-      <c r="P4" s="83" t="s">
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="83"/>
-      <c r="R4" s="83"/>
-      <c r="S4" s="83"/>
+      <c r="Q4" s="81"/>
+      <c r="R4" s="81"/>
+      <c r="S4" s="81"/>
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
-      <c r="V4" s="86">
+      <c r="V4" s="82">
         <v>44601</v>
       </c>
-      <c r="W4" s="87"/>
-      <c r="X4" s="88"/>
+      <c r="W4" s="83"/>
+      <c r="X4" s="84"/>
     </row>
     <row r="5" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -1809,72 +1818,72 @@
       <c r="X15" s="4"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C22" s="79" t="s">
+      <c r="C22" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="P22" s="81" t="s">
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
+      <c r="P22" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="Q22" s="81"/>
-      <c r="R22" s="81"/>
-      <c r="S22" s="81"/>
-      <c r="T22" s="81"/>
-      <c r="U22" s="81"/>
-      <c r="V22" s="81"/>
+      <c r="Q22" s="79"/>
+      <c r="R22" s="79"/>
+      <c r="S22" s="79"/>
+      <c r="T22" s="79"/>
+      <c r="U22" s="79"/>
+      <c r="V22" s="79"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C23" s="80"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80"/>
-      <c r="P23" s="81"/>
-      <c r="Q23" s="81"/>
-      <c r="R23" s="81"/>
-      <c r="S23" s="81"/>
-      <c r="T23" s="81"/>
-      <c r="U23" s="81"/>
-      <c r="V23" s="81"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="P23" s="79"/>
+      <c r="Q23" s="79"/>
+      <c r="R23" s="79"/>
+      <c r="S23" s="79"/>
+      <c r="T23" s="79"/>
+      <c r="U23" s="79"/>
+      <c r="V23" s="79"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="82" t="s">
+      <c r="A24" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="82"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="83" t="s">
+      <c r="B24" s="80"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="83"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="84">
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="87">
         <v>44965</v>
       </c>
-      <c r="I24" s="85"/>
-      <c r="J24" s="85"/>
-      <c r="M24" s="82" t="s">
+      <c r="I24" s="88"/>
+      <c r="J24" s="88"/>
+      <c r="M24" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N24" s="82"/>
-      <c r="O24" s="82"/>
-      <c r="P24" s="83" t="s">
+      <c r="N24" s="80"/>
+      <c r="O24" s="80"/>
+      <c r="P24" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q24" s="83"/>
-      <c r="R24" s="83"/>
-      <c r="S24" s="83"/>
+      <c r="Q24" s="81"/>
+      <c r="R24" s="81"/>
+      <c r="S24" s="81"/>
       <c r="T24" s="18"/>
       <c r="U24" s="18"/>
-      <c r="V24" s="86">
+      <c r="V24" s="82">
         <v>44971</v>
       </c>
-      <c r="W24" s="87"/>
-      <c r="X24" s="88"/>
+      <c r="W24" s="83"/>
+      <c r="X24" s="84"/>
     </row>
     <row r="25" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -2329,72 +2338,72 @@
       <c r="X35" s="4"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C38" s="79" t="s">
+      <c r="C38" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="79"/>
-      <c r="E38" s="79"/>
-      <c r="F38" s="79"/>
-      <c r="G38" s="79"/>
-      <c r="P38" s="81" t="s">
+      <c r="D38" s="85"/>
+      <c r="E38" s="85"/>
+      <c r="F38" s="85"/>
+      <c r="G38" s="85"/>
+      <c r="P38" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="Q38" s="81"/>
-      <c r="R38" s="81"/>
-      <c r="S38" s="81"/>
-      <c r="T38" s="81"/>
-      <c r="U38" s="81"/>
-      <c r="V38" s="81"/>
+      <c r="Q38" s="79"/>
+      <c r="R38" s="79"/>
+      <c r="S38" s="79"/>
+      <c r="T38" s="79"/>
+      <c r="U38" s="79"/>
+      <c r="V38" s="79"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C39" s="80"/>
-      <c r="D39" s="80"/>
-      <c r="E39" s="80"/>
-      <c r="F39" s="80"/>
-      <c r="G39" s="80"/>
-      <c r="P39" s="81"/>
-      <c r="Q39" s="81"/>
-      <c r="R39" s="81"/>
-      <c r="S39" s="81"/>
-      <c r="T39" s="81"/>
-      <c r="U39" s="81"/>
-      <c r="V39" s="81"/>
+      <c r="C39" s="86"/>
+      <c r="D39" s="86"/>
+      <c r="E39" s="86"/>
+      <c r="F39" s="86"/>
+      <c r="G39" s="86"/>
+      <c r="P39" s="79"/>
+      <c r="Q39" s="79"/>
+      <c r="R39" s="79"/>
+      <c r="S39" s="79"/>
+      <c r="T39" s="79"/>
+      <c r="U39" s="79"/>
+      <c r="V39" s="79"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A40" s="82" t="s">
+      <c r="A40" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="82"/>
-      <c r="C40" s="82"/>
-      <c r="D40" s="83" t="s">
+      <c r="B40" s="80"/>
+      <c r="C40" s="80"/>
+      <c r="D40" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E40" s="83"/>
-      <c r="F40" s="83"/>
-      <c r="G40" s="83"/>
-      <c r="H40" s="84">
+      <c r="E40" s="81"/>
+      <c r="F40" s="81"/>
+      <c r="G40" s="81"/>
+      <c r="H40" s="87">
         <v>44972</v>
       </c>
-      <c r="I40" s="85"/>
-      <c r="J40" s="85"/>
-      <c r="M40" s="82" t="s">
+      <c r="I40" s="88"/>
+      <c r="J40" s="88"/>
+      <c r="M40" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N40" s="82"/>
-      <c r="O40" s="82"/>
-      <c r="P40" s="83" t="s">
+      <c r="N40" s="80"/>
+      <c r="O40" s="80"/>
+      <c r="P40" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q40" s="83"/>
-      <c r="R40" s="83"/>
-      <c r="S40" s="83"/>
+      <c r="Q40" s="81"/>
+      <c r="R40" s="81"/>
+      <c r="S40" s="81"/>
       <c r="T40" s="18"/>
       <c r="U40" s="18"/>
-      <c r="V40" s="86">
+      <c r="V40" s="82">
         <v>44973</v>
       </c>
-      <c r="W40" s="87"/>
-      <c r="X40" s="88"/>
+      <c r="W40" s="83"/>
+      <c r="X40" s="84"/>
     </row>
     <row r="41" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
@@ -2809,72 +2818,72 @@
       <c r="X51" s="4"/>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C54" s="79" t="s">
+      <c r="C54" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="D54" s="79"/>
-      <c r="E54" s="79"/>
-      <c r="F54" s="79"/>
-      <c r="G54" s="79"/>
-      <c r="P54" s="81" t="s">
+      <c r="D54" s="85"/>
+      <c r="E54" s="85"/>
+      <c r="F54" s="85"/>
+      <c r="G54" s="85"/>
+      <c r="P54" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="Q54" s="81"/>
-      <c r="R54" s="81"/>
-      <c r="S54" s="81"/>
-      <c r="T54" s="81"/>
-      <c r="U54" s="81"/>
-      <c r="V54" s="81"/>
+      <c r="Q54" s="79"/>
+      <c r="R54" s="79"/>
+      <c r="S54" s="79"/>
+      <c r="T54" s="79"/>
+      <c r="U54" s="79"/>
+      <c r="V54" s="79"/>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C55" s="80"/>
-      <c r="D55" s="80"/>
-      <c r="E55" s="80"/>
-      <c r="F55" s="80"/>
-      <c r="G55" s="80"/>
-      <c r="P55" s="81"/>
-      <c r="Q55" s="81"/>
-      <c r="R55" s="81"/>
-      <c r="S55" s="81"/>
-      <c r="T55" s="81"/>
-      <c r="U55" s="81"/>
-      <c r="V55" s="81"/>
+      <c r="C55" s="86"/>
+      <c r="D55" s="86"/>
+      <c r="E55" s="86"/>
+      <c r="F55" s="86"/>
+      <c r="G55" s="86"/>
+      <c r="P55" s="79"/>
+      <c r="Q55" s="79"/>
+      <c r="R55" s="79"/>
+      <c r="S55" s="79"/>
+      <c r="T55" s="79"/>
+      <c r="U55" s="79"/>
+      <c r="V55" s="79"/>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A56" s="82" t="s">
+      <c r="A56" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="82"/>
-      <c r="C56" s="82"/>
-      <c r="D56" s="83" t="s">
+      <c r="B56" s="80"/>
+      <c r="C56" s="80"/>
+      <c r="D56" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E56" s="83"/>
-      <c r="F56" s="83"/>
-      <c r="G56" s="83"/>
-      <c r="H56" s="84">
+      <c r="E56" s="81"/>
+      <c r="F56" s="81"/>
+      <c r="G56" s="81"/>
+      <c r="H56" s="87">
         <v>44974</v>
       </c>
-      <c r="I56" s="85"/>
-      <c r="J56" s="85"/>
-      <c r="M56" s="82" t="s">
+      <c r="I56" s="88"/>
+      <c r="J56" s="88"/>
+      <c r="M56" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N56" s="82"/>
-      <c r="O56" s="82"/>
-      <c r="P56" s="83" t="s">
+      <c r="N56" s="80"/>
+      <c r="O56" s="80"/>
+      <c r="P56" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q56" s="83"/>
-      <c r="R56" s="83"/>
-      <c r="S56" s="83"/>
+      <c r="Q56" s="81"/>
+      <c r="R56" s="81"/>
+      <c r="S56" s="81"/>
       <c r="T56" s="18"/>
       <c r="U56" s="18"/>
-      <c r="V56" s="86">
+      <c r="V56" s="82">
         <v>44975</v>
       </c>
-      <c r="W56" s="87"/>
-      <c r="X56" s="88"/>
+      <c r="W56" s="83"/>
+      <c r="X56" s="84"/>
     </row>
     <row r="57" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
@@ -3329,72 +3338,72 @@
       <c r="X67" s="4"/>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C70" s="79" t="s">
+      <c r="C70" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="D70" s="79"/>
-      <c r="E70" s="79"/>
-      <c r="F70" s="79"/>
-      <c r="G70" s="79"/>
-      <c r="P70" s="81" t="s">
+      <c r="D70" s="85"/>
+      <c r="E70" s="85"/>
+      <c r="F70" s="85"/>
+      <c r="G70" s="85"/>
+      <c r="P70" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="Q70" s="81"/>
-      <c r="R70" s="81"/>
-      <c r="S70" s="81"/>
-      <c r="T70" s="81"/>
-      <c r="U70" s="81"/>
-      <c r="V70" s="81"/>
+      <c r="Q70" s="79"/>
+      <c r="R70" s="79"/>
+      <c r="S70" s="79"/>
+      <c r="T70" s="79"/>
+      <c r="U70" s="79"/>
+      <c r="V70" s="79"/>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C71" s="80"/>
-      <c r="D71" s="80"/>
-      <c r="E71" s="80"/>
-      <c r="F71" s="80"/>
-      <c r="G71" s="80"/>
-      <c r="P71" s="81"/>
-      <c r="Q71" s="81"/>
-      <c r="R71" s="81"/>
-      <c r="S71" s="81"/>
-      <c r="T71" s="81"/>
-      <c r="U71" s="81"/>
-      <c r="V71" s="81"/>
+      <c r="C71" s="86"/>
+      <c r="D71" s="86"/>
+      <c r="E71" s="86"/>
+      <c r="F71" s="86"/>
+      <c r="G71" s="86"/>
+      <c r="P71" s="79"/>
+      <c r="Q71" s="79"/>
+      <c r="R71" s="79"/>
+      <c r="S71" s="79"/>
+      <c r="T71" s="79"/>
+      <c r="U71" s="79"/>
+      <c r="V71" s="79"/>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A72" s="82" t="s">
+      <c r="A72" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B72" s="82"/>
-      <c r="C72" s="82"/>
-      <c r="D72" s="83" t="s">
+      <c r="B72" s="80"/>
+      <c r="C72" s="80"/>
+      <c r="D72" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E72" s="83"/>
-      <c r="F72" s="83"/>
-      <c r="G72" s="83"/>
-      <c r="H72" s="84">
+      <c r="E72" s="81"/>
+      <c r="F72" s="81"/>
+      <c r="G72" s="81"/>
+      <c r="H72" s="87">
         <v>44979</v>
       </c>
-      <c r="I72" s="85"/>
-      <c r="J72" s="85"/>
-      <c r="M72" s="82" t="s">
+      <c r="I72" s="88"/>
+      <c r="J72" s="88"/>
+      <c r="M72" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N72" s="82"/>
-      <c r="O72" s="82"/>
-      <c r="P72" s="83" t="s">
+      <c r="N72" s="80"/>
+      <c r="O72" s="80"/>
+      <c r="P72" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q72" s="83"/>
-      <c r="R72" s="83"/>
-      <c r="S72" s="83"/>
+      <c r="Q72" s="81"/>
+      <c r="R72" s="81"/>
+      <c r="S72" s="81"/>
       <c r="T72" s="18"/>
       <c r="U72" s="18"/>
-      <c r="V72" s="86">
+      <c r="V72" s="82">
         <v>44980</v>
       </c>
-      <c r="W72" s="87"/>
-      <c r="X72" s="88"/>
+      <c r="W72" s="83"/>
+      <c r="X72" s="84"/>
     </row>
     <row r="73" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
@@ -3765,72 +3774,72 @@
       <c r="X83" s="4"/>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C87" s="79" t="s">
+      <c r="C87" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="D87" s="79"/>
-      <c r="E87" s="79"/>
-      <c r="F87" s="79"/>
-      <c r="G87" s="79"/>
-      <c r="P87" s="81" t="s">
+      <c r="D87" s="85"/>
+      <c r="E87" s="85"/>
+      <c r="F87" s="85"/>
+      <c r="G87" s="85"/>
+      <c r="P87" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="Q87" s="81"/>
-      <c r="R87" s="81"/>
-      <c r="S87" s="81"/>
-      <c r="T87" s="81"/>
-      <c r="U87" s="81"/>
-      <c r="V87" s="81"/>
+      <c r="Q87" s="79"/>
+      <c r="R87" s="79"/>
+      <c r="S87" s="79"/>
+      <c r="T87" s="79"/>
+      <c r="U87" s="79"/>
+      <c r="V87" s="79"/>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C88" s="80"/>
-      <c r="D88" s="80"/>
-      <c r="E88" s="80"/>
-      <c r="F88" s="80"/>
-      <c r="G88" s="80"/>
-      <c r="P88" s="81"/>
-      <c r="Q88" s="81"/>
-      <c r="R88" s="81"/>
-      <c r="S88" s="81"/>
-      <c r="T88" s="81"/>
-      <c r="U88" s="81"/>
-      <c r="V88" s="81"/>
+      <c r="C88" s="86"/>
+      <c r="D88" s="86"/>
+      <c r="E88" s="86"/>
+      <c r="F88" s="86"/>
+      <c r="G88" s="86"/>
+      <c r="P88" s="79"/>
+      <c r="Q88" s="79"/>
+      <c r="R88" s="79"/>
+      <c r="S88" s="79"/>
+      <c r="T88" s="79"/>
+      <c r="U88" s="79"/>
+      <c r="V88" s="79"/>
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A89" s="82" t="s">
+      <c r="A89" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B89" s="82"/>
-      <c r="C89" s="82"/>
-      <c r="D89" s="83" t="s">
+      <c r="B89" s="80"/>
+      <c r="C89" s="80"/>
+      <c r="D89" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E89" s="83"/>
-      <c r="F89" s="83"/>
-      <c r="G89" s="83"/>
-      <c r="H89" s="84">
+      <c r="E89" s="81"/>
+      <c r="F89" s="81"/>
+      <c r="G89" s="81"/>
+      <c r="H89" s="87">
         <v>44981</v>
       </c>
-      <c r="I89" s="85"/>
-      <c r="J89" s="85"/>
-      <c r="M89" s="82" t="s">
+      <c r="I89" s="88"/>
+      <c r="J89" s="88"/>
+      <c r="M89" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N89" s="82"/>
-      <c r="O89" s="82"/>
-      <c r="P89" s="83" t="s">
+      <c r="N89" s="80"/>
+      <c r="O89" s="80"/>
+      <c r="P89" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q89" s="83"/>
-      <c r="R89" s="83"/>
-      <c r="S89" s="83"/>
+      <c r="Q89" s="81"/>
+      <c r="R89" s="81"/>
+      <c r="S89" s="81"/>
       <c r="T89" s="18"/>
       <c r="U89" s="18"/>
-      <c r="V89" s="86">
+      <c r="V89" s="82">
         <v>44980</v>
       </c>
-      <c r="W89" s="87"/>
-      <c r="X89" s="88"/>
+      <c r="W89" s="83"/>
+      <c r="X89" s="84"/>
     </row>
     <row r="90" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
@@ -4285,72 +4294,72 @@
       <c r="X100" s="4"/>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C104" s="79" t="s">
+      <c r="C104" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="D104" s="79"/>
-      <c r="E104" s="79"/>
-      <c r="F104" s="79"/>
-      <c r="G104" s="79"/>
-      <c r="P104" s="81" t="s">
+      <c r="D104" s="85"/>
+      <c r="E104" s="85"/>
+      <c r="F104" s="85"/>
+      <c r="G104" s="85"/>
+      <c r="P104" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="Q104" s="81"/>
-      <c r="R104" s="81"/>
-      <c r="S104" s="81"/>
-      <c r="T104" s="81"/>
-      <c r="U104" s="81"/>
-      <c r="V104" s="81"/>
+      <c r="Q104" s="79"/>
+      <c r="R104" s="79"/>
+      <c r="S104" s="79"/>
+      <c r="T104" s="79"/>
+      <c r="U104" s="79"/>
+      <c r="V104" s="79"/>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C105" s="80"/>
-      <c r="D105" s="80"/>
-      <c r="E105" s="80"/>
-      <c r="F105" s="80"/>
-      <c r="G105" s="80"/>
-      <c r="P105" s="81"/>
-      <c r="Q105" s="81"/>
-      <c r="R105" s="81"/>
-      <c r="S105" s="81"/>
-      <c r="T105" s="81"/>
-      <c r="U105" s="81"/>
-      <c r="V105" s="81"/>
+      <c r="C105" s="86"/>
+      <c r="D105" s="86"/>
+      <c r="E105" s="86"/>
+      <c r="F105" s="86"/>
+      <c r="G105" s="86"/>
+      <c r="P105" s="79"/>
+      <c r="Q105" s="79"/>
+      <c r="R105" s="79"/>
+      <c r="S105" s="79"/>
+      <c r="T105" s="79"/>
+      <c r="U105" s="79"/>
+      <c r="V105" s="79"/>
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A106" s="82" t="s">
+      <c r="A106" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B106" s="82"/>
-      <c r="C106" s="82"/>
-      <c r="D106" s="83" t="s">
+      <c r="B106" s="80"/>
+      <c r="C106" s="80"/>
+      <c r="D106" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E106" s="83"/>
-      <c r="F106" s="83"/>
-      <c r="G106" s="83"/>
-      <c r="H106" s="84">
+      <c r="E106" s="81"/>
+      <c r="F106" s="81"/>
+      <c r="G106" s="81"/>
+      <c r="H106" s="87">
         <v>44979</v>
       </c>
-      <c r="I106" s="85"/>
-      <c r="J106" s="85"/>
-      <c r="M106" s="82" t="s">
+      <c r="I106" s="88"/>
+      <c r="J106" s="88"/>
+      <c r="M106" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N106" s="82"/>
-      <c r="O106" s="82"/>
-      <c r="P106" s="83" t="s">
+      <c r="N106" s="80"/>
+      <c r="O106" s="80"/>
+      <c r="P106" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q106" s="83"/>
-      <c r="R106" s="83"/>
-      <c r="S106" s="83"/>
+      <c r="Q106" s="81"/>
+      <c r="R106" s="81"/>
+      <c r="S106" s="81"/>
       <c r="T106" s="18"/>
       <c r="U106" s="18"/>
-      <c r="V106" s="86" t="s">
+      <c r="V106" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="W106" s="87"/>
-      <c r="X106" s="88"/>
+      <c r="W106" s="83"/>
+      <c r="X106" s="84"/>
     </row>
     <row r="107" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
@@ -4848,6 +4857,54 @@
     <row r="124" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="C104:G105"/>
+    <mergeCell ref="P104:V105"/>
+    <mergeCell ref="A106:C106"/>
+    <mergeCell ref="D106:G106"/>
+    <mergeCell ref="H106:J106"/>
+    <mergeCell ref="M106:O106"/>
+    <mergeCell ref="P106:S106"/>
+    <mergeCell ref="V106:X106"/>
+    <mergeCell ref="C87:G88"/>
+    <mergeCell ref="P87:V88"/>
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="D89:G89"/>
+    <mergeCell ref="H89:J89"/>
+    <mergeCell ref="M89:O89"/>
+    <mergeCell ref="P89:S89"/>
+    <mergeCell ref="V89:X89"/>
+    <mergeCell ref="C70:G71"/>
+    <mergeCell ref="P70:V71"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="D72:G72"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="M72:O72"/>
+    <mergeCell ref="P72:S72"/>
+    <mergeCell ref="V72:X72"/>
+    <mergeCell ref="C54:G55"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="P54:V55"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="P56:S56"/>
+    <mergeCell ref="V56:X56"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="C2:G3"/>
+    <mergeCell ref="P2:V3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="C22:G23"/>
+    <mergeCell ref="P22:V23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="V24:X24"/>
     <mergeCell ref="P38:V39"/>
     <mergeCell ref="M40:O40"/>
     <mergeCell ref="P40:S40"/>
@@ -4856,54 +4913,6 @@
     <mergeCell ref="A40:C40"/>
     <mergeCell ref="D40:G40"/>
     <mergeCell ref="H40:J40"/>
-    <mergeCell ref="C22:G23"/>
-    <mergeCell ref="P22:V23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="C2:G3"/>
-    <mergeCell ref="P2:V3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="C54:G55"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="P54:V55"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="P56:S56"/>
-    <mergeCell ref="V56:X56"/>
-    <mergeCell ref="C70:G71"/>
-    <mergeCell ref="P70:V71"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="D72:G72"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="M72:O72"/>
-    <mergeCell ref="P72:S72"/>
-    <mergeCell ref="V72:X72"/>
-    <mergeCell ref="C87:G88"/>
-    <mergeCell ref="P87:V88"/>
-    <mergeCell ref="A89:C89"/>
-    <mergeCell ref="D89:G89"/>
-    <mergeCell ref="H89:J89"/>
-    <mergeCell ref="M89:O89"/>
-    <mergeCell ref="P89:S89"/>
-    <mergeCell ref="V89:X89"/>
-    <mergeCell ref="C104:G105"/>
-    <mergeCell ref="P104:V105"/>
-    <mergeCell ref="A106:C106"/>
-    <mergeCell ref="D106:G106"/>
-    <mergeCell ref="H106:J106"/>
-    <mergeCell ref="M106:O106"/>
-    <mergeCell ref="P106:S106"/>
-    <mergeCell ref="V106:X106"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4911,11 +4920,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Z271"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A2:Z280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M256" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X271" sqref="M262:X271"/>
+    <sheetView tabSelected="1" topLeftCell="M264" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M274" sqref="M274:X280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4935,72 +4944,72 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="P2" s="81" t="s">
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="P2" s="79" t="s">
         <v>76</v>
       </c>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="81"/>
-      <c r="S2" s="81"/>
-      <c r="T2" s="81"/>
-      <c r="U2" s="81"/>
-      <c r="V2" s="81"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="79"/>
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="81"/>
-      <c r="S3" s="81"/>
-      <c r="T3" s="81"/>
-      <c r="U3" s="81"/>
-      <c r="V3" s="81"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="79"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="83" t="s">
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="84" t="s">
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="M4" s="82" t="s">
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="M4" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="82"/>
-      <c r="O4" s="82"/>
-      <c r="P4" s="83" t="s">
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="83"/>
-      <c r="R4" s="83"/>
-      <c r="S4" s="83"/>
+      <c r="Q4" s="81"/>
+      <c r="R4" s="81"/>
+      <c r="S4" s="81"/>
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
-      <c r="V4" s="86">
+      <c r="V4" s="82">
         <v>44601</v>
       </c>
-      <c r="W4" s="87"/>
-      <c r="X4" s="88"/>
+      <c r="W4" s="83"/>
+      <c r="X4" s="84"/>
     </row>
     <row r="5" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -5467,72 +5476,72 @@
       <c r="X15" s="4"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C22" s="79" t="s">
+      <c r="C22" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="P22" s="81" t="s">
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
+      <c r="P22" s="79" t="s">
         <v>77</v>
       </c>
-      <c r="Q22" s="81"/>
-      <c r="R22" s="81"/>
-      <c r="S22" s="81"/>
-      <c r="T22" s="81"/>
-      <c r="U22" s="81"/>
-      <c r="V22" s="81"/>
+      <c r="Q22" s="79"/>
+      <c r="R22" s="79"/>
+      <c r="S22" s="79"/>
+      <c r="T22" s="79"/>
+      <c r="U22" s="79"/>
+      <c r="V22" s="79"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C23" s="80"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80"/>
-      <c r="P23" s="81"/>
-      <c r="Q23" s="81"/>
-      <c r="R23" s="81"/>
-      <c r="S23" s="81"/>
-      <c r="T23" s="81"/>
-      <c r="U23" s="81"/>
-      <c r="V23" s="81"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="P23" s="79"/>
+      <c r="Q23" s="79"/>
+      <c r="R23" s="79"/>
+      <c r="S23" s="79"/>
+      <c r="T23" s="79"/>
+      <c r="U23" s="79"/>
+      <c r="V23" s="79"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="82" t="s">
+      <c r="A24" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="82"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="83" t="s">
+      <c r="B24" s="80"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="83"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="84">
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="87">
         <v>44993</v>
       </c>
-      <c r="I24" s="85"/>
-      <c r="J24" s="85"/>
-      <c r="M24" s="82" t="s">
+      <c r="I24" s="88"/>
+      <c r="J24" s="88"/>
+      <c r="M24" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N24" s="82"/>
-      <c r="O24" s="82"/>
-      <c r="P24" s="83" t="s">
+      <c r="N24" s="80"/>
+      <c r="O24" s="80"/>
+      <c r="P24" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q24" s="83"/>
-      <c r="R24" s="83"/>
-      <c r="S24" s="83"/>
+      <c r="Q24" s="81"/>
+      <c r="R24" s="81"/>
+      <c r="S24" s="81"/>
       <c r="T24" s="18"/>
       <c r="U24" s="18"/>
-      <c r="V24" s="86">
+      <c r="V24" s="82">
         <v>44993</v>
       </c>
-      <c r="W24" s="87"/>
-      <c r="X24" s="88"/>
+      <c r="W24" s="83"/>
+      <c r="X24" s="84"/>
     </row>
     <row r="25" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -5962,72 +5971,72 @@
       <c r="X34" s="4"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C37" s="79" t="s">
+      <c r="C37" s="85" t="s">
         <v>84</v>
       </c>
-      <c r="D37" s="79"/>
-      <c r="E37" s="79"/>
-      <c r="F37" s="79"/>
-      <c r="G37" s="79"/>
-      <c r="P37" s="81" t="s">
+      <c r="D37" s="85"/>
+      <c r="E37" s="85"/>
+      <c r="F37" s="85"/>
+      <c r="G37" s="85"/>
+      <c r="P37" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="Q37" s="81"/>
-      <c r="R37" s="81"/>
-      <c r="S37" s="81"/>
-      <c r="T37" s="81"/>
-      <c r="U37" s="81"/>
-      <c r="V37" s="81"/>
+      <c r="Q37" s="79"/>
+      <c r="R37" s="79"/>
+      <c r="S37" s="79"/>
+      <c r="T37" s="79"/>
+      <c r="U37" s="79"/>
+      <c r="V37" s="79"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C38" s="80"/>
-      <c r="D38" s="80"/>
-      <c r="E38" s="80"/>
-      <c r="F38" s="80"/>
-      <c r="G38" s="80"/>
-      <c r="P38" s="81"/>
-      <c r="Q38" s="81"/>
-      <c r="R38" s="81"/>
-      <c r="S38" s="81"/>
-      <c r="T38" s="81"/>
-      <c r="U38" s="81"/>
-      <c r="V38" s="81"/>
+      <c r="C38" s="86"/>
+      <c r="D38" s="86"/>
+      <c r="E38" s="86"/>
+      <c r="F38" s="86"/>
+      <c r="G38" s="86"/>
+      <c r="P38" s="79"/>
+      <c r="Q38" s="79"/>
+      <c r="R38" s="79"/>
+      <c r="S38" s="79"/>
+      <c r="T38" s="79"/>
+      <c r="U38" s="79"/>
+      <c r="V38" s="79"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A39" s="82" t="s">
+      <c r="A39" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="82"/>
-      <c r="C39" s="82"/>
-      <c r="D39" s="83" t="s">
+      <c r="B39" s="80"/>
+      <c r="C39" s="80"/>
+      <c r="D39" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="83"/>
-      <c r="F39" s="83"/>
-      <c r="G39" s="83"/>
-      <c r="H39" s="84">
+      <c r="E39" s="81"/>
+      <c r="F39" s="81"/>
+      <c r="G39" s="81"/>
+      <c r="H39" s="87">
         <v>44972</v>
       </c>
-      <c r="I39" s="85"/>
-      <c r="J39" s="85"/>
-      <c r="M39" s="82" t="s">
+      <c r="I39" s="88"/>
+      <c r="J39" s="88"/>
+      <c r="M39" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N39" s="82"/>
-      <c r="O39" s="82"/>
-      <c r="P39" s="83" t="s">
+      <c r="N39" s="80"/>
+      <c r="O39" s="80"/>
+      <c r="P39" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q39" s="83"/>
-      <c r="R39" s="83"/>
-      <c r="S39" s="83"/>
+      <c r="Q39" s="81"/>
+      <c r="R39" s="81"/>
+      <c r="S39" s="81"/>
       <c r="T39" s="18"/>
       <c r="U39" s="18"/>
-      <c r="V39" s="86">
+      <c r="V39" s="82">
         <v>44994</v>
       </c>
-      <c r="W39" s="87"/>
-      <c r="X39" s="88"/>
+      <c r="W39" s="83"/>
+      <c r="X39" s="84"/>
     </row>
     <row r="40" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
@@ -6438,72 +6447,72 @@
       <c r="X50" s="4"/>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C53" s="79">
+      <c r="C53" s="85">
         <v>45005</v>
       </c>
-      <c r="D53" s="79"/>
-      <c r="E53" s="79"/>
-      <c r="F53" s="79"/>
-      <c r="G53" s="79"/>
-      <c r="P53" s="79">
+      <c r="D53" s="85"/>
+      <c r="E53" s="85"/>
+      <c r="F53" s="85"/>
+      <c r="G53" s="85"/>
+      <c r="P53" s="85">
         <v>45006</v>
       </c>
-      <c r="Q53" s="79"/>
-      <c r="R53" s="79"/>
-      <c r="S53" s="79"/>
-      <c r="T53" s="79"/>
-      <c r="U53" s="79"/>
-      <c r="V53" s="79"/>
+      <c r="Q53" s="85"/>
+      <c r="R53" s="85"/>
+      <c r="S53" s="85"/>
+      <c r="T53" s="85"/>
+      <c r="U53" s="85"/>
+      <c r="V53" s="85"/>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C54" s="80"/>
-      <c r="D54" s="80"/>
-      <c r="E54" s="80"/>
-      <c r="F54" s="80"/>
-      <c r="G54" s="80"/>
-      <c r="P54" s="79"/>
-      <c r="Q54" s="79"/>
-      <c r="R54" s="79"/>
-      <c r="S54" s="79"/>
-      <c r="T54" s="79"/>
-      <c r="U54" s="79"/>
-      <c r="V54" s="79"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="86"/>
+      <c r="E54" s="86"/>
+      <c r="F54" s="86"/>
+      <c r="G54" s="86"/>
+      <c r="P54" s="85"/>
+      <c r="Q54" s="85"/>
+      <c r="R54" s="85"/>
+      <c r="S54" s="85"/>
+      <c r="T54" s="85"/>
+      <c r="U54" s="85"/>
+      <c r="V54" s="85"/>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A55" s="82" t="s">
+      <c r="A55" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="82"/>
-      <c r="C55" s="82"/>
-      <c r="D55" s="83" t="s">
+      <c r="B55" s="80"/>
+      <c r="C55" s="80"/>
+      <c r="D55" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E55" s="83"/>
-      <c r="F55" s="83"/>
-      <c r="G55" s="83"/>
-      <c r="H55" s="84">
+      <c r="E55" s="81"/>
+      <c r="F55" s="81"/>
+      <c r="G55" s="81"/>
+      <c r="H55" s="87">
         <v>45005</v>
       </c>
-      <c r="I55" s="85"/>
-      <c r="J55" s="85"/>
-      <c r="M55" s="82" t="s">
+      <c r="I55" s="88"/>
+      <c r="J55" s="88"/>
+      <c r="M55" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N55" s="82"/>
-      <c r="O55" s="82"/>
-      <c r="P55" s="83" t="s">
+      <c r="N55" s="80"/>
+      <c r="O55" s="80"/>
+      <c r="P55" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q55" s="83"/>
-      <c r="R55" s="83"/>
-      <c r="S55" s="83"/>
+      <c r="Q55" s="81"/>
+      <c r="R55" s="81"/>
+      <c r="S55" s="81"/>
       <c r="T55" s="18"/>
       <c r="U55" s="18"/>
-      <c r="V55" s="86">
+      <c r="V55" s="82">
         <v>45006</v>
       </c>
-      <c r="W55" s="87"/>
-      <c r="X55" s="88"/>
+      <c r="W55" s="83"/>
+      <c r="X55" s="84"/>
     </row>
     <row r="56" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
@@ -6902,72 +6911,72 @@
       <c r="X66" s="4"/>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C69" s="79" t="s">
+      <c r="C69" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="D69" s="79"/>
-      <c r="E69" s="79"/>
-      <c r="F69" s="79"/>
-      <c r="G69" s="79"/>
-      <c r="P69" s="81" t="s">
+      <c r="D69" s="85"/>
+      <c r="E69" s="85"/>
+      <c r="F69" s="85"/>
+      <c r="G69" s="85"/>
+      <c r="P69" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="Q69" s="81"/>
-      <c r="R69" s="81"/>
-      <c r="S69" s="81"/>
-      <c r="T69" s="81"/>
-      <c r="U69" s="81"/>
-      <c r="V69" s="81"/>
+      <c r="Q69" s="79"/>
+      <c r="R69" s="79"/>
+      <c r="S69" s="79"/>
+      <c r="T69" s="79"/>
+      <c r="U69" s="79"/>
+      <c r="V69" s="79"/>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C70" s="80"/>
-      <c r="D70" s="80"/>
-      <c r="E70" s="80"/>
-      <c r="F70" s="80"/>
-      <c r="G70" s="80"/>
-      <c r="P70" s="81"/>
-      <c r="Q70" s="81"/>
-      <c r="R70" s="81"/>
-      <c r="S70" s="81"/>
-      <c r="T70" s="81"/>
-      <c r="U70" s="81"/>
-      <c r="V70" s="81"/>
+      <c r="C70" s="86"/>
+      <c r="D70" s="86"/>
+      <c r="E70" s="86"/>
+      <c r="F70" s="86"/>
+      <c r="G70" s="86"/>
+      <c r="P70" s="79"/>
+      <c r="Q70" s="79"/>
+      <c r="R70" s="79"/>
+      <c r="S70" s="79"/>
+      <c r="T70" s="79"/>
+      <c r="U70" s="79"/>
+      <c r="V70" s="79"/>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A71" s="82" t="s">
+      <c r="A71" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B71" s="82"/>
-      <c r="C71" s="82"/>
-      <c r="D71" s="83" t="s">
+      <c r="B71" s="80"/>
+      <c r="C71" s="80"/>
+      <c r="D71" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E71" s="83"/>
-      <c r="F71" s="83"/>
-      <c r="G71" s="83"/>
-      <c r="H71" s="84">
+      <c r="E71" s="81"/>
+      <c r="F71" s="81"/>
+      <c r="G71" s="81"/>
+      <c r="H71" s="87">
         <v>44979</v>
       </c>
-      <c r="I71" s="85"/>
-      <c r="J71" s="85"/>
-      <c r="M71" s="82" t="s">
+      <c r="I71" s="88"/>
+      <c r="J71" s="88"/>
+      <c r="M71" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N71" s="82"/>
-      <c r="O71" s="82"/>
-      <c r="P71" s="83" t="s">
+      <c r="N71" s="80"/>
+      <c r="O71" s="80"/>
+      <c r="P71" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q71" s="83"/>
-      <c r="R71" s="83"/>
-      <c r="S71" s="83"/>
+      <c r="Q71" s="81"/>
+      <c r="R71" s="81"/>
+      <c r="S71" s="81"/>
       <c r="T71" s="18"/>
       <c r="U71" s="18"/>
-      <c r="V71" s="86">
+      <c r="V71" s="82">
         <v>44980</v>
       </c>
-      <c r="W71" s="87"/>
-      <c r="X71" s="88"/>
+      <c r="W71" s="83"/>
+      <c r="X71" s="84"/>
     </row>
     <row r="72" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
@@ -7370,72 +7379,72 @@
       <c r="X82" s="4"/>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C86" s="79" t="s">
+      <c r="C86" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="D86" s="79"/>
-      <c r="E86" s="79"/>
-      <c r="F86" s="79"/>
-      <c r="G86" s="79"/>
-      <c r="P86" s="81" t="s">
+      <c r="D86" s="85"/>
+      <c r="E86" s="85"/>
+      <c r="F86" s="85"/>
+      <c r="G86" s="85"/>
+      <c r="P86" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="Q86" s="81"/>
-      <c r="R86" s="81"/>
-      <c r="S86" s="81"/>
-      <c r="T86" s="81"/>
-      <c r="U86" s="81"/>
-      <c r="V86" s="81"/>
+      <c r="Q86" s="79"/>
+      <c r="R86" s="79"/>
+      <c r="S86" s="79"/>
+      <c r="T86" s="79"/>
+      <c r="U86" s="79"/>
+      <c r="V86" s="79"/>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C87" s="80"/>
-      <c r="D87" s="80"/>
-      <c r="E87" s="80"/>
-      <c r="F87" s="80"/>
-      <c r="G87" s="80"/>
-      <c r="P87" s="81"/>
-      <c r="Q87" s="81"/>
-      <c r="R87" s="81"/>
-      <c r="S87" s="81"/>
-      <c r="T87" s="81"/>
-      <c r="U87" s="81"/>
-      <c r="V87" s="81"/>
+      <c r="C87" s="86"/>
+      <c r="D87" s="86"/>
+      <c r="E87" s="86"/>
+      <c r="F87" s="86"/>
+      <c r="G87" s="86"/>
+      <c r="P87" s="79"/>
+      <c r="Q87" s="79"/>
+      <c r="R87" s="79"/>
+      <c r="S87" s="79"/>
+      <c r="T87" s="79"/>
+      <c r="U87" s="79"/>
+      <c r="V87" s="79"/>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A88" s="82" t="s">
+      <c r="A88" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B88" s="82"/>
-      <c r="C88" s="82"/>
-      <c r="D88" s="83" t="s">
+      <c r="B88" s="80"/>
+      <c r="C88" s="80"/>
+      <c r="D88" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E88" s="83"/>
-      <c r="F88" s="83"/>
-      <c r="G88" s="83"/>
-      <c r="H88" s="84">
+      <c r="E88" s="81"/>
+      <c r="F88" s="81"/>
+      <c r="G88" s="81"/>
+      <c r="H88" s="87">
         <v>44981</v>
       </c>
-      <c r="I88" s="85"/>
-      <c r="J88" s="85"/>
-      <c r="M88" s="82" t="s">
+      <c r="I88" s="88"/>
+      <c r="J88" s="88"/>
+      <c r="M88" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N88" s="82"/>
-      <c r="O88" s="82"/>
-      <c r="P88" s="83" t="s">
+      <c r="N88" s="80"/>
+      <c r="O88" s="80"/>
+      <c r="P88" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q88" s="83"/>
-      <c r="R88" s="83"/>
-      <c r="S88" s="83"/>
+      <c r="Q88" s="81"/>
+      <c r="R88" s="81"/>
+      <c r="S88" s="81"/>
       <c r="T88" s="18"/>
       <c r="U88" s="18"/>
-      <c r="V88" s="86">
+      <c r="V88" s="82">
         <v>44980</v>
       </c>
-      <c r="W88" s="87"/>
-      <c r="X88" s="88"/>
+      <c r="W88" s="83"/>
+      <c r="X88" s="84"/>
     </row>
     <row r="89" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
@@ -7770,72 +7779,72 @@
       <c r="X99" s="4"/>
     </row>
     <row r="103" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C103" s="79" t="s">
+      <c r="C103" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="D103" s="79"/>
-      <c r="E103" s="79"/>
-      <c r="F103" s="79"/>
-      <c r="G103" s="79"/>
-      <c r="P103" s="81" t="s">
+      <c r="D103" s="85"/>
+      <c r="E103" s="85"/>
+      <c r="F103" s="85"/>
+      <c r="G103" s="85"/>
+      <c r="P103" s="79" t="s">
         <v>90</v>
       </c>
-      <c r="Q103" s="81"/>
-      <c r="R103" s="81"/>
-      <c r="S103" s="81"/>
-      <c r="T103" s="81"/>
-      <c r="U103" s="81"/>
-      <c r="V103" s="81"/>
+      <c r="Q103" s="79"/>
+      <c r="R103" s="79"/>
+      <c r="S103" s="79"/>
+      <c r="T103" s="79"/>
+      <c r="U103" s="79"/>
+      <c r="V103" s="79"/>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C104" s="80"/>
-      <c r="D104" s="80"/>
-      <c r="E104" s="80"/>
-      <c r="F104" s="80"/>
-      <c r="G104" s="80"/>
-      <c r="P104" s="81"/>
-      <c r="Q104" s="81"/>
-      <c r="R104" s="81"/>
-      <c r="S104" s="81"/>
-      <c r="T104" s="81"/>
-      <c r="U104" s="81"/>
-      <c r="V104" s="81"/>
+      <c r="C104" s="86"/>
+      <c r="D104" s="86"/>
+      <c r="E104" s="86"/>
+      <c r="F104" s="86"/>
+      <c r="G104" s="86"/>
+      <c r="P104" s="79"/>
+      <c r="Q104" s="79"/>
+      <c r="R104" s="79"/>
+      <c r="S104" s="79"/>
+      <c r="T104" s="79"/>
+      <c r="U104" s="79"/>
+      <c r="V104" s="79"/>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A105" s="82" t="s">
+      <c r="A105" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B105" s="82"/>
-      <c r="C105" s="82"/>
-      <c r="D105" s="83" t="s">
+      <c r="B105" s="80"/>
+      <c r="C105" s="80"/>
+      <c r="D105" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E105" s="83"/>
-      <c r="F105" s="83"/>
-      <c r="G105" s="83"/>
-      <c r="H105" s="84">
+      <c r="E105" s="81"/>
+      <c r="F105" s="81"/>
+      <c r="G105" s="81"/>
+      <c r="H105" s="87">
         <v>44979</v>
       </c>
-      <c r="I105" s="85"/>
-      <c r="J105" s="85"/>
-      <c r="M105" s="82" t="s">
+      <c r="I105" s="88"/>
+      <c r="J105" s="88"/>
+      <c r="M105" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N105" s="82"/>
-      <c r="O105" s="82"/>
-      <c r="P105" s="83" t="s">
+      <c r="N105" s="80"/>
+      <c r="O105" s="80"/>
+      <c r="P105" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q105" s="83"/>
-      <c r="R105" s="83"/>
-      <c r="S105" s="83"/>
+      <c r="Q105" s="81"/>
+      <c r="R105" s="81"/>
+      <c r="S105" s="81"/>
       <c r="T105" s="18"/>
       <c r="U105" s="18"/>
-      <c r="V105" s="86">
+      <c r="V105" s="82">
         <v>45012</v>
       </c>
-      <c r="W105" s="87"/>
-      <c r="X105" s="88"/>
+      <c r="W105" s="83"/>
+      <c r="X105" s="84"/>
     </row>
     <row r="106" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
@@ -8286,73 +8295,73 @@
       <c r="X116" s="4"/>
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C121" s="79" t="s">
+      <c r="C121" s="85" t="s">
         <v>95</v>
       </c>
-      <c r="D121" s="79"/>
-      <c r="E121" s="79"/>
-      <c r="F121" s="79"/>
-      <c r="G121" s="79"/>
-      <c r="P121" s="81" t="s">
+      <c r="D121" s="85"/>
+      <c r="E121" s="85"/>
+      <c r="F121" s="85"/>
+      <c r="G121" s="85"/>
+      <c r="P121" s="79" t="s">
         <v>96</v>
       </c>
-      <c r="Q121" s="81"/>
-      <c r="R121" s="81"/>
-      <c r="S121" s="81"/>
-      <c r="T121" s="81"/>
-      <c r="U121" s="81"/>
-      <c r="V121" s="81"/>
+      <c r="Q121" s="79"/>
+      <c r="R121" s="79"/>
+      <c r="S121" s="79"/>
+      <c r="T121" s="79"/>
+      <c r="U121" s="79"/>
+      <c r="V121" s="79"/>
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C122" s="80"/>
-      <c r="D122" s="80"/>
-      <c r="E122" s="80"/>
-      <c r="F122" s="80"/>
-      <c r="G122" s="80"/>
-      <c r="P122" s="81"/>
-      <c r="Q122" s="81"/>
-      <c r="R122" s="81"/>
-      <c r="S122" s="81"/>
-      <c r="T122" s="81"/>
-      <c r="U122" s="81"/>
-      <c r="V122" s="81"/>
+      <c r="C122" s="86"/>
+      <c r="D122" s="86"/>
+      <c r="E122" s="86"/>
+      <c r="F122" s="86"/>
+      <c r="G122" s="86"/>
+      <c r="P122" s="79"/>
+      <c r="Q122" s="79"/>
+      <c r="R122" s="79"/>
+      <c r="S122" s="79"/>
+      <c r="T122" s="79"/>
+      <c r="U122" s="79"/>
+      <c r="V122" s="79"/>
     </row>
     <row r="123" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="82" t="s">
+      <c r="A123" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B123" s="82"/>
-      <c r="C123" s="82"/>
-      <c r="D123" s="83" t="s">
+      <c r="B123" s="80"/>
+      <c r="C123" s="80"/>
+      <c r="D123" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E123" s="83"/>
-      <c r="F123" s="83"/>
-      <c r="G123" s="83"/>
-      <c r="H123" s="84">
+      <c r="E123" s="81"/>
+      <c r="F123" s="81"/>
+      <c r="G123" s="81"/>
+      <c r="H123" s="87">
         <v>44979</v>
       </c>
-      <c r="I123" s="85"/>
-      <c r="J123" s="85"/>
-      <c r="M123" s="82" t="s">
+      <c r="I123" s="88"/>
+      <c r="J123" s="88"/>
+      <c r="M123" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N123" s="82"/>
-      <c r="O123" s="82"/>
-      <c r="P123" s="83" t="s">
+      <c r="N123" s="80"/>
+      <c r="O123" s="80"/>
+      <c r="P123" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q123" s="83"/>
-      <c r="R123" s="83"/>
-      <c r="S123" s="83"/>
+      <c r="Q123" s="81"/>
+      <c r="R123" s="81"/>
+      <c r="S123" s="81"/>
       <c r="T123" s="18"/>
       <c r="U123" s="18"/>
-      <c r="V123" s="86" t="e">
+      <c r="V123" s="82" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W123" s="87"/>
-      <c r="X123" s="88"/>
+      <c r="W123" s="83"/>
+      <c r="X123" s="84"/>
     </row>
     <row r="124" spans="1:26" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
@@ -8867,45 +8876,45 @@
       <c r="X134" s="4"/>
     </row>
     <row r="138" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="P138" s="81" t="s">
+      <c r="P138" s="79" t="s">
         <v>97</v>
       </c>
-      <c r="Q138" s="81"/>
-      <c r="R138" s="81"/>
-      <c r="S138" s="81"/>
-      <c r="T138" s="81"/>
-      <c r="U138" s="81"/>
-      <c r="V138" s="81"/>
+      <c r="Q138" s="79"/>
+      <c r="R138" s="79"/>
+      <c r="S138" s="79"/>
+      <c r="T138" s="79"/>
+      <c r="U138" s="79"/>
+      <c r="V138" s="79"/>
     </row>
     <row r="139" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="P139" s="81"/>
-      <c r="Q139" s="81"/>
-      <c r="R139" s="81"/>
-      <c r="S139" s="81"/>
-      <c r="T139" s="81"/>
-      <c r="U139" s="81"/>
-      <c r="V139" s="81"/>
+      <c r="P139" s="79"/>
+      <c r="Q139" s="79"/>
+      <c r="R139" s="79"/>
+      <c r="S139" s="79"/>
+      <c r="T139" s="79"/>
+      <c r="U139" s="79"/>
+      <c r="V139" s="79"/>
     </row>
     <row r="140" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="M140" s="82" t="s">
+      <c r="M140" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N140" s="82"/>
-      <c r="O140" s="82"/>
-      <c r="P140" s="83" t="s">
+      <c r="N140" s="80"/>
+      <c r="O140" s="80"/>
+      <c r="P140" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q140" s="83"/>
-      <c r="R140" s="83"/>
-      <c r="S140" s="83"/>
+      <c r="Q140" s="81"/>
+      <c r="R140" s="81"/>
+      <c r="S140" s="81"/>
       <c r="T140" s="18"/>
       <c r="U140" s="18"/>
-      <c r="V140" s="86" t="e">
+      <c r="V140" s="82" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W140" s="87"/>
-      <c r="X140" s="88"/>
+      <c r="W140" s="83"/>
+      <c r="X140" s="84"/>
     </row>
     <row r="141" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M141" s="6" t="s">
@@ -9170,45 +9179,45 @@
       <c r="S152" s="64"/>
     </row>
     <row r="153" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P153" s="81" t="s">
+      <c r="P153" s="79" t="s">
         <v>102</v>
       </c>
-      <c r="Q153" s="81"/>
-      <c r="R153" s="81"/>
-      <c r="S153" s="81"/>
-      <c r="T153" s="81"/>
-      <c r="U153" s="81"/>
-      <c r="V153" s="81"/>
+      <c r="Q153" s="79"/>
+      <c r="R153" s="79"/>
+      <c r="S153" s="79"/>
+      <c r="T153" s="79"/>
+      <c r="U153" s="79"/>
+      <c r="V153" s="79"/>
     </row>
     <row r="154" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P154" s="81"/>
-      <c r="Q154" s="81"/>
-      <c r="R154" s="81"/>
-      <c r="S154" s="81"/>
-      <c r="T154" s="81"/>
-      <c r="U154" s="81"/>
-      <c r="V154" s="81"/>
+      <c r="P154" s="79"/>
+      <c r="Q154" s="79"/>
+      <c r="R154" s="79"/>
+      <c r="S154" s="79"/>
+      <c r="T154" s="79"/>
+      <c r="U154" s="79"/>
+      <c r="V154" s="79"/>
     </row>
     <row r="155" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M155" s="82" t="s">
+      <c r="M155" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N155" s="82"/>
-      <c r="O155" s="82"/>
-      <c r="P155" s="83" t="s">
+      <c r="N155" s="80"/>
+      <c r="O155" s="80"/>
+      <c r="P155" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q155" s="83"/>
-      <c r="R155" s="83"/>
-      <c r="S155" s="83"/>
+      <c r="Q155" s="81"/>
+      <c r="R155" s="81"/>
+      <c r="S155" s="81"/>
       <c r="T155" s="18"/>
       <c r="U155" s="18"/>
-      <c r="V155" s="86" t="e">
+      <c r="V155" s="82" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W155" s="87"/>
-      <c r="X155" s="88"/>
+      <c r="W155" s="83"/>
+      <c r="X155" s="84"/>
     </row>
     <row r="156" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M156" s="6" t="s">
@@ -9472,45 +9481,45 @@
       <c r="X166" s="4"/>
     </row>
     <row r="168" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P168" s="81" t="s">
+      <c r="P168" s="79" t="s">
         <v>100</v>
       </c>
-      <c r="Q168" s="81"/>
-      <c r="R168" s="81"/>
-      <c r="S168" s="81"/>
-      <c r="T168" s="81"/>
-      <c r="U168" s="81"/>
-      <c r="V168" s="81"/>
+      <c r="Q168" s="79"/>
+      <c r="R168" s="79"/>
+      <c r="S168" s="79"/>
+      <c r="T168" s="79"/>
+      <c r="U168" s="79"/>
+      <c r="V168" s="79"/>
     </row>
     <row r="169" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P169" s="81"/>
-      <c r="Q169" s="81"/>
-      <c r="R169" s="81"/>
-      <c r="S169" s="81"/>
-      <c r="T169" s="81"/>
-      <c r="U169" s="81"/>
-      <c r="V169" s="81"/>
+      <c r="P169" s="79"/>
+      <c r="Q169" s="79"/>
+      <c r="R169" s="79"/>
+      <c r="S169" s="79"/>
+      <c r="T169" s="79"/>
+      <c r="U169" s="79"/>
+      <c r="V169" s="79"/>
     </row>
     <row r="170" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M170" s="82" t="s">
+      <c r="M170" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N170" s="82"/>
-      <c r="O170" s="82"/>
-      <c r="P170" s="83" t="s">
+      <c r="N170" s="80"/>
+      <c r="O170" s="80"/>
+      <c r="P170" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q170" s="83"/>
-      <c r="R170" s="83"/>
-      <c r="S170" s="83"/>
+      <c r="Q170" s="81"/>
+      <c r="R170" s="81"/>
+      <c r="S170" s="81"/>
       <c r="T170" s="18"/>
       <c r="U170" s="18"/>
-      <c r="V170" s="86" t="e">
+      <c r="V170" s="82" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W170" s="87"/>
-      <c r="X170" s="88"/>
+      <c r="W170" s="83"/>
+      <c r="X170" s="84"/>
     </row>
     <row r="171" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M171" s="6" t="s">
@@ -9715,45 +9724,45 @@
       <c r="X181" s="4"/>
     </row>
     <row r="186" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P186" s="81" t="s">
+      <c r="P186" s="79" t="s">
         <v>104</v>
       </c>
-      <c r="Q186" s="81"/>
-      <c r="R186" s="81"/>
-      <c r="S186" s="81"/>
-      <c r="T186" s="81"/>
-      <c r="U186" s="81"/>
-      <c r="V186" s="81"/>
+      <c r="Q186" s="79"/>
+      <c r="R186" s="79"/>
+      <c r="S186" s="79"/>
+      <c r="T186" s="79"/>
+      <c r="U186" s="79"/>
+      <c r="V186" s="79"/>
     </row>
     <row r="187" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P187" s="81"/>
-      <c r="Q187" s="81"/>
-      <c r="R187" s="81"/>
-      <c r="S187" s="81"/>
-      <c r="T187" s="81"/>
-      <c r="U187" s="81"/>
-      <c r="V187" s="81"/>
+      <c r="P187" s="79"/>
+      <c r="Q187" s="79"/>
+      <c r="R187" s="79"/>
+      <c r="S187" s="79"/>
+      <c r="T187" s="79"/>
+      <c r="U187" s="79"/>
+      <c r="V187" s="79"/>
     </row>
     <row r="188" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M188" s="82" t="s">
+      <c r="M188" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N188" s="82"/>
-      <c r="O188" s="82"/>
-      <c r="P188" s="83" t="s">
+      <c r="N188" s="80"/>
+      <c r="O188" s="80"/>
+      <c r="P188" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q188" s="83"/>
-      <c r="R188" s="83"/>
-      <c r="S188" s="83"/>
+      <c r="Q188" s="81"/>
+      <c r="R188" s="81"/>
+      <c r="S188" s="81"/>
       <c r="T188" s="18"/>
       <c r="U188" s="18"/>
-      <c r="V188" s="86" t="e">
+      <c r="V188" s="82" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W188" s="87"/>
-      <c r="X188" s="88"/>
+      <c r="W188" s="83"/>
+      <c r="X188" s="84"/>
     </row>
     <row r="189" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M189" s="6" t="s">
@@ -9923,24 +9932,24 @@
       <c r="X194" s="15"/>
     </row>
     <row r="198" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P198" s="81" t="s">
+      <c r="P198" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="Q198" s="81"/>
-      <c r="R198" s="81"/>
-      <c r="S198" s="81"/>
-      <c r="T198" s="81"/>
-      <c r="U198" s="81"/>
-      <c r="V198" s="81"/>
+      <c r="Q198" s="79"/>
+      <c r="R198" s="79"/>
+      <c r="S198" s="79"/>
+      <c r="T198" s="79"/>
+      <c r="U198" s="79"/>
+      <c r="V198" s="79"/>
     </row>
     <row r="199" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P199" s="81"/>
-      <c r="Q199" s="81"/>
-      <c r="R199" s="81"/>
-      <c r="S199" s="81"/>
-      <c r="T199" s="81"/>
-      <c r="U199" s="81"/>
-      <c r="V199" s="81"/>
+      <c r="P199" s="79"/>
+      <c r="Q199" s="79"/>
+      <c r="R199" s="79"/>
+      <c r="S199" s="79"/>
+      <c r="T199" s="79"/>
+      <c r="U199" s="79"/>
+      <c r="V199" s="79"/>
     </row>
     <row r="200" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M200" s="70" t="s">
@@ -10115,24 +10124,24 @@
       </c>
     </row>
     <row r="209" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P209" s="81" t="s">
+      <c r="P209" s="79" t="s">
         <v>113</v>
       </c>
-      <c r="Q209" s="81"/>
-      <c r="R209" s="81"/>
-      <c r="S209" s="81"/>
-      <c r="T209" s="81"/>
-      <c r="U209" s="81"/>
-      <c r="V209" s="81"/>
+      <c r="Q209" s="79"/>
+      <c r="R209" s="79"/>
+      <c r="S209" s="79"/>
+      <c r="T209" s="79"/>
+      <c r="U209" s="79"/>
+      <c r="V209" s="79"/>
     </row>
     <row r="210" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P210" s="81"/>
-      <c r="Q210" s="81"/>
-      <c r="R210" s="81"/>
-      <c r="S210" s="81"/>
-      <c r="T210" s="81"/>
-      <c r="U210" s="81"/>
-      <c r="V210" s="81"/>
+      <c r="P210" s="79"/>
+      <c r="Q210" s="79"/>
+      <c r="R210" s="79"/>
+      <c r="S210" s="79"/>
+      <c r="T210" s="79"/>
+      <c r="U210" s="79"/>
+      <c r="V210" s="79"/>
     </row>
     <row r="211" spans="13:26" ht="36" x14ac:dyDescent="0.25">
       <c r="M211" s="70" t="s">
@@ -10284,24 +10293,24 @@
       </c>
     </row>
     <row r="218" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P218" s="81" t="s">
+      <c r="P218" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="Q218" s="81"/>
-      <c r="R218" s="81"/>
-      <c r="S218" s="81"/>
-      <c r="T218" s="81"/>
-      <c r="U218" s="81"/>
-      <c r="V218" s="81"/>
+      <c r="Q218" s="79"/>
+      <c r="R218" s="79"/>
+      <c r="S218" s="79"/>
+      <c r="T218" s="79"/>
+      <c r="U218" s="79"/>
+      <c r="V218" s="79"/>
     </row>
     <row r="219" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P219" s="81"/>
-      <c r="Q219" s="81"/>
-      <c r="R219" s="81"/>
-      <c r="S219" s="81"/>
-      <c r="T219" s="81"/>
-      <c r="U219" s="81"/>
-      <c r="V219" s="81"/>
+      <c r="P219" s="79"/>
+      <c r="Q219" s="79"/>
+      <c r="R219" s="79"/>
+      <c r="S219" s="79"/>
+      <c r="T219" s="79"/>
+      <c r="U219" s="79"/>
+      <c r="V219" s="79"/>
     </row>
     <row r="220" spans="13:26" ht="36" x14ac:dyDescent="0.25">
       <c r="M220" s="70" t="s">
@@ -10558,24 +10567,24 @@
       </c>
     </row>
     <row r="230" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P230" s="81" t="s">
+      <c r="P230" s="79" t="s">
         <v>116</v>
       </c>
-      <c r="Q230" s="81"/>
-      <c r="R230" s="81"/>
-      <c r="S230" s="81"/>
-      <c r="T230" s="81"/>
-      <c r="U230" s="81"/>
-      <c r="V230" s="81"/>
+      <c r="Q230" s="79"/>
+      <c r="R230" s="79"/>
+      <c r="S230" s="79"/>
+      <c r="T230" s="79"/>
+      <c r="U230" s="79"/>
+      <c r="V230" s="79"/>
     </row>
     <row r="231" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P231" s="81"/>
-      <c r="Q231" s="81"/>
-      <c r="R231" s="81"/>
-      <c r="S231" s="81"/>
-      <c r="T231" s="81"/>
-      <c r="U231" s="81"/>
-      <c r="V231" s="81"/>
+      <c r="P231" s="79"/>
+      <c r="Q231" s="79"/>
+      <c r="R231" s="79"/>
+      <c r="S231" s="79"/>
+      <c r="T231" s="79"/>
+      <c r="U231" s="79"/>
+      <c r="V231" s="79"/>
     </row>
     <row r="232" spans="13:26" ht="36" x14ac:dyDescent="0.25">
       <c r="M232" s="70" t="s">
@@ -10738,24 +10747,24 @@
       </c>
     </row>
     <row r="240" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P240" s="81" t="s">
+      <c r="P240" s="79" t="s">
         <v>118</v>
       </c>
-      <c r="Q240" s="81"/>
-      <c r="R240" s="81"/>
-      <c r="S240" s="81"/>
-      <c r="T240" s="81"/>
-      <c r="U240" s="81"/>
-      <c r="V240" s="81"/>
+      <c r="Q240" s="79"/>
+      <c r="R240" s="79"/>
+      <c r="S240" s="79"/>
+      <c r="T240" s="79"/>
+      <c r="U240" s="79"/>
+      <c r="V240" s="79"/>
     </row>
     <row r="241" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P241" s="81"/>
-      <c r="Q241" s="81"/>
-      <c r="R241" s="81"/>
-      <c r="S241" s="81"/>
-      <c r="T241" s="81"/>
-      <c r="U241" s="81"/>
-      <c r="V241" s="81"/>
+      <c r="P241" s="79"/>
+      <c r="Q241" s="79"/>
+      <c r="R241" s="79"/>
+      <c r="S241" s="79"/>
+      <c r="T241" s="79"/>
+      <c r="U241" s="79"/>
+      <c r="V241" s="79"/>
     </row>
     <row r="242" spans="13:26" ht="36" x14ac:dyDescent="0.25">
       <c r="M242" s="70" t="s">
@@ -10771,11 +10780,11 @@
       <c r="S242" s="71"/>
       <c r="T242" s="18"/>
       <c r="U242" s="18"/>
-      <c r="V242" s="86">
+      <c r="V242" s="82">
         <v>45082</v>
       </c>
-      <c r="W242" s="87"/>
-      <c r="X242" s="88"/>
+      <c r="W242" s="83"/>
+      <c r="X242" s="84"/>
     </row>
     <row r="243" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M243" s="6" t="s">
@@ -10885,24 +10894,24 @@
       </c>
     </row>
     <row r="248" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P248" s="81" t="s">
+      <c r="P248" s="79" t="s">
         <v>119</v>
       </c>
-      <c r="Q248" s="81"/>
-      <c r="R248" s="81"/>
-      <c r="S248" s="81"/>
-      <c r="T248" s="81"/>
-      <c r="U248" s="81"/>
-      <c r="V248" s="81"/>
+      <c r="Q248" s="79"/>
+      <c r="R248" s="79"/>
+      <c r="S248" s="79"/>
+      <c r="T248" s="79"/>
+      <c r="U248" s="79"/>
+      <c r="V248" s="79"/>
     </row>
     <row r="249" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P249" s="81"/>
-      <c r="Q249" s="81"/>
-      <c r="R249" s="81"/>
-      <c r="S249" s="81"/>
-      <c r="T249" s="81"/>
-      <c r="U249" s="81"/>
-      <c r="V249" s="81"/>
+      <c r="P249" s="79"/>
+      <c r="Q249" s="79"/>
+      <c r="R249" s="79"/>
+      <c r="S249" s="79"/>
+      <c r="T249" s="79"/>
+      <c r="U249" s="79"/>
+      <c r="V249" s="79"/>
     </row>
     <row r="250" spans="13:26" ht="36" x14ac:dyDescent="0.25">
       <c r="M250" s="70" t="s">
@@ -10918,11 +10927,11 @@
       <c r="S250" s="71"/>
       <c r="T250" s="18"/>
       <c r="U250" s="18"/>
-      <c r="V250" s="86">
+      <c r="V250" s="82">
         <v>45083</v>
       </c>
-      <c r="W250" s="87"/>
-      <c r="X250" s="88"/>
+      <c r="W250" s="83"/>
+      <c r="X250" s="84"/>
     </row>
     <row r="251" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M251" s="6" t="s">
@@ -10999,24 +11008,24 @@
       </c>
     </row>
     <row r="255" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P255" s="81" t="s">
+      <c r="P255" s="79" t="s">
         <v>120</v>
       </c>
-      <c r="Q255" s="81"/>
-      <c r="R255" s="81"/>
-      <c r="S255" s="81"/>
-      <c r="T255" s="81"/>
-      <c r="U255" s="81"/>
-      <c r="V255" s="81"/>
+      <c r="Q255" s="79"/>
+      <c r="R255" s="79"/>
+      <c r="S255" s="79"/>
+      <c r="T255" s="79"/>
+      <c r="U255" s="79"/>
+      <c r="V255" s="79"/>
     </row>
     <row r="256" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P256" s="81"/>
-      <c r="Q256" s="81"/>
-      <c r="R256" s="81"/>
-      <c r="S256" s="81"/>
-      <c r="T256" s="81"/>
-      <c r="U256" s="81"/>
-      <c r="V256" s="81"/>
+      <c r="P256" s="79"/>
+      <c r="Q256" s="79"/>
+      <c r="R256" s="79"/>
+      <c r="S256" s="79"/>
+      <c r="T256" s="79"/>
+      <c r="U256" s="79"/>
+      <c r="V256" s="79"/>
     </row>
     <row r="257" spans="13:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M257" s="89" t="s">
@@ -11032,11 +11041,11 @@
       <c r="S257" s="93"/>
       <c r="T257" s="93"/>
       <c r="U257" s="94"/>
-      <c r="V257" s="86">
+      <c r="V257" s="82">
         <v>45084</v>
       </c>
-      <c r="W257" s="87"/>
-      <c r="X257" s="88"/>
+      <c r="W257" s="83"/>
+      <c r="X257" s="84"/>
       <c r="Z257" s="20" t="s">
         <v>9</v>
       </c>
@@ -11166,24 +11175,24 @@
       </c>
     </row>
     <row r="262" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P262" s="81" t="s">
+      <c r="P262" s="79" t="s">
         <v>121</v>
       </c>
-      <c r="Q262" s="81"/>
-      <c r="R262" s="81"/>
-      <c r="S262" s="81"/>
-      <c r="T262" s="81"/>
-      <c r="U262" s="81"/>
-      <c r="V262" s="81"/>
+      <c r="Q262" s="79"/>
+      <c r="R262" s="79"/>
+      <c r="S262" s="79"/>
+      <c r="T262" s="79"/>
+      <c r="U262" s="79"/>
+      <c r="V262" s="79"/>
     </row>
     <row r="263" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P263" s="81"/>
-      <c r="Q263" s="81"/>
-      <c r="R263" s="81"/>
-      <c r="S263" s="81"/>
-      <c r="T263" s="81"/>
-      <c r="U263" s="81"/>
-      <c r="V263" s="81"/>
+      <c r="P263" s="79"/>
+      <c r="Q263" s="79"/>
+      <c r="R263" s="79"/>
+      <c r="S263" s="79"/>
+      <c r="T263" s="79"/>
+      <c r="U263" s="79"/>
+      <c r="V263" s="79"/>
     </row>
     <row r="264" spans="13:26" x14ac:dyDescent="0.25">
       <c r="M264" s="89" t="s">
@@ -11199,11 +11208,11 @@
       <c r="S264" s="93"/>
       <c r="T264" s="93"/>
       <c r="U264" s="94"/>
-      <c r="V264" s="86">
+      <c r="V264" s="82">
         <v>45089</v>
       </c>
-      <c r="W264" s="87"/>
-      <c r="X264" s="88"/>
+      <c r="W264" s="83"/>
+      <c r="X264" s="84"/>
     </row>
     <row r="265" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M265" s="6" t="s">
@@ -11459,64 +11468,210 @@
         <v>0.63958333333333328</v>
       </c>
     </row>
+    <row r="274" spans="13:24" x14ac:dyDescent="0.25">
+      <c r="P274" s="79" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q274" s="79"/>
+      <c r="R274" s="79"/>
+      <c r="S274" s="79"/>
+      <c r="T274" s="79"/>
+      <c r="U274" s="79"/>
+      <c r="V274" s="79"/>
+    </row>
+    <row r="275" spans="13:24" x14ac:dyDescent="0.25">
+      <c r="P275" s="79"/>
+      <c r="Q275" s="79"/>
+      <c r="R275" s="79"/>
+      <c r="S275" s="79"/>
+      <c r="T275" s="79"/>
+      <c r="U275" s="79"/>
+      <c r="V275" s="79"/>
+    </row>
+    <row r="276" spans="13:24" x14ac:dyDescent="0.25">
+      <c r="M276" s="89" t="s">
+        <v>12</v>
+      </c>
+      <c r="N276" s="90"/>
+      <c r="O276" s="91"/>
+      <c r="P276" s="92" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q276" s="93"/>
+      <c r="R276" s="93"/>
+      <c r="S276" s="93"/>
+      <c r="T276" s="93"/>
+      <c r="U276" s="94"/>
+      <c r="V276" s="82">
+        <v>45091</v>
+      </c>
+      <c r="W276" s="83"/>
+      <c r="X276" s="84"/>
+    </row>
+    <row r="277" spans="13:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="M277" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N277" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O277" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P277" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q277" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="R277" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="S277" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="T277" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="U277" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="V277" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="W277" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="X277" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="278" spans="13:24" x14ac:dyDescent="0.25">
+      <c r="M278" s="47"/>
+      <c r="N278" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="O278" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="P278" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q278" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="R278" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="S278" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="T278" s="43">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="U278" s="33">
+        <v>0.52222222222222225</v>
+      </c>
+      <c r="V278" s="34">
+        <v>0.54513888888888895</v>
+      </c>
+      <c r="W278" s="34"/>
+      <c r="X278" s="35"/>
+    </row>
+    <row r="279" spans="13:24" x14ac:dyDescent="0.25">
+      <c r="M279" s="47"/>
+      <c r="N279" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="O279" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="P279" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q279" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="R279" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="S279" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="T279" s="43">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="U279" s="33">
+        <v>0.52222222222222225</v>
+      </c>
+      <c r="V279" s="34">
+        <v>0.54513888888888895</v>
+      </c>
+      <c r="W279" s="34"/>
+      <c r="X279" s="35"/>
+    </row>
+    <row r="280" spans="13:24" x14ac:dyDescent="0.25">
+      <c r="M280" s="15"/>
+      <c r="N280" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="O280" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="P280" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q280" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="R280" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="S280" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="T280" s="43">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="U280" s="33">
+        <v>0.52152777777777781</v>
+      </c>
+      <c r="V280" s="34">
+        <v>0.54305555555555551</v>
+      </c>
+      <c r="W280" s="34"/>
+      <c r="X280" s="35"/>
+    </row>
   </sheetData>
-  <mergeCells count="96">
-    <mergeCell ref="C86:G87"/>
-    <mergeCell ref="P86:V87"/>
-    <mergeCell ref="A88:C88"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="D71:G71"/>
-    <mergeCell ref="V71:X71"/>
-    <mergeCell ref="P121:V122"/>
-    <mergeCell ref="V123:X123"/>
-    <mergeCell ref="M123:O123"/>
-    <mergeCell ref="P123:S123"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="M71:O71"/>
-    <mergeCell ref="P71:S71"/>
-    <mergeCell ref="C37:G38"/>
-    <mergeCell ref="P37:V38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="P39:S39"/>
-    <mergeCell ref="V39:X39"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="C53:G54"/>
-    <mergeCell ref="P53:V54"/>
-    <mergeCell ref="V55:X55"/>
-    <mergeCell ref="C69:G70"/>
-    <mergeCell ref="P69:V70"/>
-    <mergeCell ref="C22:G23"/>
-    <mergeCell ref="P22:V23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="M55:O55"/>
-    <mergeCell ref="P55:S55"/>
-    <mergeCell ref="C2:G3"/>
-    <mergeCell ref="P2:V3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="M140:O140"/>
-    <mergeCell ref="P140:S140"/>
-    <mergeCell ref="V140:X140"/>
-    <mergeCell ref="D88:G88"/>
-    <mergeCell ref="H88:J88"/>
-    <mergeCell ref="M88:O88"/>
-    <mergeCell ref="P88:S88"/>
-    <mergeCell ref="V88:X88"/>
-    <mergeCell ref="P138:V139"/>
+  <mergeCells count="100">
+    <mergeCell ref="P274:V275"/>
+    <mergeCell ref="M276:O276"/>
+    <mergeCell ref="P276:U276"/>
+    <mergeCell ref="V276:X276"/>
+    <mergeCell ref="P262:V263"/>
+    <mergeCell ref="M264:O264"/>
+    <mergeCell ref="P264:U264"/>
+    <mergeCell ref="V264:X264"/>
+    <mergeCell ref="P240:V241"/>
+    <mergeCell ref="V242:X242"/>
+    <mergeCell ref="P255:V256"/>
+    <mergeCell ref="V257:X257"/>
+    <mergeCell ref="M257:O257"/>
+    <mergeCell ref="P257:U257"/>
+    <mergeCell ref="P248:V249"/>
+    <mergeCell ref="V250:X250"/>
+    <mergeCell ref="P230:V231"/>
+    <mergeCell ref="P168:V169"/>
+    <mergeCell ref="M170:O170"/>
+    <mergeCell ref="P170:S170"/>
+    <mergeCell ref="V170:X170"/>
+    <mergeCell ref="P218:V219"/>
+    <mergeCell ref="P198:V199"/>
+    <mergeCell ref="P186:V187"/>
+    <mergeCell ref="M188:O188"/>
+    <mergeCell ref="P188:S188"/>
+    <mergeCell ref="V188:X188"/>
+    <mergeCell ref="P209:V210"/>
     <mergeCell ref="M155:O155"/>
     <mergeCell ref="P155:S155"/>
     <mergeCell ref="V155:X155"/>
@@ -11533,30 +11688,62 @@
     <mergeCell ref="A123:C123"/>
     <mergeCell ref="D123:G123"/>
     <mergeCell ref="H123:J123"/>
-    <mergeCell ref="P230:V231"/>
-    <mergeCell ref="P168:V169"/>
-    <mergeCell ref="M170:O170"/>
-    <mergeCell ref="P170:S170"/>
-    <mergeCell ref="V170:X170"/>
-    <mergeCell ref="P218:V219"/>
-    <mergeCell ref="P198:V199"/>
-    <mergeCell ref="P186:V187"/>
-    <mergeCell ref="M188:O188"/>
-    <mergeCell ref="P188:S188"/>
-    <mergeCell ref="V188:X188"/>
-    <mergeCell ref="P209:V210"/>
-    <mergeCell ref="P262:V263"/>
-    <mergeCell ref="M264:O264"/>
-    <mergeCell ref="P264:U264"/>
-    <mergeCell ref="V264:X264"/>
-    <mergeCell ref="P240:V241"/>
-    <mergeCell ref="V242:X242"/>
-    <mergeCell ref="P255:V256"/>
-    <mergeCell ref="V257:X257"/>
-    <mergeCell ref="M257:O257"/>
-    <mergeCell ref="P257:U257"/>
-    <mergeCell ref="P248:V249"/>
-    <mergeCell ref="V250:X250"/>
+    <mergeCell ref="M140:O140"/>
+    <mergeCell ref="P140:S140"/>
+    <mergeCell ref="V140:X140"/>
+    <mergeCell ref="D88:G88"/>
+    <mergeCell ref="H88:J88"/>
+    <mergeCell ref="M88:O88"/>
+    <mergeCell ref="P88:S88"/>
+    <mergeCell ref="V88:X88"/>
+    <mergeCell ref="P138:V139"/>
+    <mergeCell ref="C2:G3"/>
+    <mergeCell ref="P2:V3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="C22:G23"/>
+    <mergeCell ref="P22:V23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="C53:G54"/>
+    <mergeCell ref="P53:V54"/>
+    <mergeCell ref="V55:X55"/>
+    <mergeCell ref="C69:G70"/>
+    <mergeCell ref="P69:V70"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="P55:S55"/>
+    <mergeCell ref="C37:G38"/>
+    <mergeCell ref="P37:V38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="P39:S39"/>
+    <mergeCell ref="V39:X39"/>
+    <mergeCell ref="P121:V122"/>
+    <mergeCell ref="V123:X123"/>
+    <mergeCell ref="M123:O123"/>
+    <mergeCell ref="P123:S123"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="M71:O71"/>
+    <mergeCell ref="P71:S71"/>
+    <mergeCell ref="C86:G87"/>
+    <mergeCell ref="P86:V87"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="D71:G71"/>
+    <mergeCell ref="V71:X71"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -11564,7 +11751,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="B3" workbookViewId="0">

--- a/DOC 2023/FORMATO STATUS.xlsx
+++ b/DOC 2023/FORMATO STATUS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\DOC 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27EA3C8B-6068-4081-BEE5-D032E33B2155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6155706-47B1-4F04-830B-3658B0ECE149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="124">
   <si>
     <t>DT</t>
   </si>
@@ -4921,10 +4921,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:Z280"/>
+  <dimension ref="A2:Z281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M264" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M274" sqref="M274:X280"/>
+    <sheetView tabSelected="1" topLeftCell="M267" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W284" sqref="W284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11468,7 +11468,7 @@
         <v>0.63958333333333328</v>
       </c>
     </row>
-    <row r="274" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="274" spans="13:26" x14ac:dyDescent="0.25">
       <c r="P274" s="79" t="s">
         <v>123</v>
       </c>
@@ -11479,7 +11479,7 @@
       <c r="U274" s="79"/>
       <c r="V274" s="79"/>
     </row>
-    <row r="275" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="275" spans="13:26" x14ac:dyDescent="0.25">
       <c r="P275" s="79"/>
       <c r="Q275" s="79"/>
       <c r="R275" s="79"/>
@@ -11488,7 +11488,7 @@
       <c r="U275" s="79"/>
       <c r="V275" s="79"/>
     </row>
-    <row r="276" spans="13:24" x14ac:dyDescent="0.25">
+    <row r="276" spans="13:26" x14ac:dyDescent="0.25">
       <c r="M276" s="89" t="s">
         <v>12</v>
       </c>
@@ -11508,7 +11508,7 @@
       <c r="W276" s="83"/>
       <c r="X276" s="84"/>
     </row>
-    <row r="277" spans="13:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="277" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M277" s="6" t="s">
         <v>0</v>
       </c>
@@ -11545,8 +11545,11 @@
       <c r="X277" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="278" spans="13:24" x14ac:dyDescent="0.25">
+      <c r="Z277" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="278" spans="13:26" x14ac:dyDescent="0.25">
       <c r="M278" s="47"/>
       <c r="N278" s="48" t="s">
         <v>35</v>
@@ -11577,8 +11580,11 @@
       </c>
       <c r="W278" s="34"/>
       <c r="X278" s="35"/>
-    </row>
-    <row r="279" spans="13:24" x14ac:dyDescent="0.25">
+      <c r="Z278" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="279" spans="13:26" x14ac:dyDescent="0.25">
       <c r="M279" s="47"/>
       <c r="N279" s="48" t="s">
         <v>35</v>
@@ -11595,8 +11601,8 @@
       <c r="R279" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="S279" s="20" t="s">
-        <v>9</v>
+      <c r="S279" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="T279" s="43">
         <v>0.52083333333333337</v>
@@ -11607,10 +11613,15 @@
       <c r="V279" s="34">
         <v>0.54513888888888895</v>
       </c>
-      <c r="W279" s="34"/>
+      <c r="W279" s="34">
+        <v>0.67499999999999993</v>
+      </c>
       <c r="X279" s="35"/>
-    </row>
-    <row r="280" spans="13:24" x14ac:dyDescent="0.25">
+      <c r="Z279" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="280" spans="13:26" x14ac:dyDescent="0.25">
       <c r="M280" s="15"/>
       <c r="N280" s="48" t="s">
         <v>35</v>
@@ -11627,8 +11638,8 @@
       <c r="R280" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="S280" s="20" t="s">
-        <v>9</v>
+      <c r="S280" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="T280" s="43">
         <v>0.52083333333333337</v>
@@ -11639,8 +11650,20 @@
       <c r="V280" s="34">
         <v>0.54305555555555551</v>
       </c>
-      <c r="W280" s="34"/>
-      <c r="X280" s="35"/>
+      <c r="W280" s="34">
+        <v>0.66041666666666665</v>
+      </c>
+      <c r="X280" s="35">
+        <v>0.67013888888888884</v>
+      </c>
+      <c r="Z280" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="281" spans="13:26" ht="24" x14ac:dyDescent="0.25">
+      <c r="Z281" s="9" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="100">

--- a/DOC 2023/FORMATO STATUS.xlsx
+++ b/DOC 2023/FORMATO STATUS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\DOC 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6155706-47B1-4F04-830B-3658B0ECE149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3884B14-35B6-4FCA-A615-064B2AFDF64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -984,6 +984,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -993,6 +999,12 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1000,18 +1012,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1338,72 +1338,72 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C2" s="85" t="s">
+      <c r="C2" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="P2" s="79" t="s">
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="P2" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="79"/>
-      <c r="T2" s="79"/>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="81"/>
+      <c r="S2" s="81"/>
+      <c r="T2" s="81"/>
+      <c r="U2" s="81"/>
+      <c r="V2" s="81"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="P3" s="79"/>
-      <c r="Q3" s="79"/>
-      <c r="R3" s="79"/>
-      <c r="S3" s="79"/>
-      <c r="T3" s="79"/>
-      <c r="U3" s="79"/>
-      <c r="V3" s="79"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="81"/>
+      <c r="S3" s="81"/>
+      <c r="T3" s="81"/>
+      <c r="U3" s="81"/>
+      <c r="V3" s="81"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="81" t="s">
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="87">
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="84">
         <v>44965</v>
       </c>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="M4" s="80" t="s">
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="M4" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="80"/>
-      <c r="O4" s="80"/>
-      <c r="P4" s="81" t="s">
+      <c r="N4" s="82"/>
+      <c r="O4" s="82"/>
+      <c r="P4" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="81"/>
-      <c r="R4" s="81"/>
-      <c r="S4" s="81"/>
+      <c r="Q4" s="83"/>
+      <c r="R4" s="83"/>
+      <c r="S4" s="83"/>
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
-      <c r="V4" s="82">
+      <c r="V4" s="86">
         <v>44601</v>
       </c>
-      <c r="W4" s="83"/>
-      <c r="X4" s="84"/>
+      <c r="W4" s="87"/>
+      <c r="X4" s="88"/>
     </row>
     <row r="5" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -1818,72 +1818,72 @@
       <c r="X15" s="4"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C22" s="85" t="s">
+      <c r="C22" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="85"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="85"/>
-      <c r="P22" s="79" t="s">
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
+      <c r="P22" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="Q22" s="79"/>
-      <c r="R22" s="79"/>
-      <c r="S22" s="79"/>
-      <c r="T22" s="79"/>
-      <c r="U22" s="79"/>
-      <c r="V22" s="79"/>
+      <c r="Q22" s="81"/>
+      <c r="R22" s="81"/>
+      <c r="S22" s="81"/>
+      <c r="T22" s="81"/>
+      <c r="U22" s="81"/>
+      <c r="V22" s="81"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="P23" s="79"/>
-      <c r="Q23" s="79"/>
-      <c r="R23" s="79"/>
-      <c r="S23" s="79"/>
-      <c r="T23" s="79"/>
-      <c r="U23" s="79"/>
-      <c r="V23" s="79"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="P23" s="81"/>
+      <c r="Q23" s="81"/>
+      <c r="R23" s="81"/>
+      <c r="S23" s="81"/>
+      <c r="T23" s="81"/>
+      <c r="U23" s="81"/>
+      <c r="V23" s="81"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="80" t="s">
+      <c r="A24" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="80"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="81" t="s">
+      <c r="B24" s="82"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="81"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="87">
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="84">
         <v>44965</v>
       </c>
-      <c r="I24" s="88"/>
-      <c r="J24" s="88"/>
-      <c r="M24" s="80" t="s">
+      <c r="I24" s="85"/>
+      <c r="J24" s="85"/>
+      <c r="M24" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N24" s="80"/>
-      <c r="O24" s="80"/>
-      <c r="P24" s="81" t="s">
+      <c r="N24" s="82"/>
+      <c r="O24" s="82"/>
+      <c r="P24" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q24" s="81"/>
-      <c r="R24" s="81"/>
-      <c r="S24" s="81"/>
+      <c r="Q24" s="83"/>
+      <c r="R24" s="83"/>
+      <c r="S24" s="83"/>
       <c r="T24" s="18"/>
       <c r="U24" s="18"/>
-      <c r="V24" s="82">
+      <c r="V24" s="86">
         <v>44971</v>
       </c>
-      <c r="W24" s="83"/>
-      <c r="X24" s="84"/>
+      <c r="W24" s="87"/>
+      <c r="X24" s="88"/>
     </row>
     <row r="25" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -2338,72 +2338,72 @@
       <c r="X35" s="4"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C38" s="85" t="s">
+      <c r="C38" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="85"/>
-      <c r="E38" s="85"/>
-      <c r="F38" s="85"/>
-      <c r="G38" s="85"/>
-      <c r="P38" s="79" t="s">
+      <c r="D38" s="79"/>
+      <c r="E38" s="79"/>
+      <c r="F38" s="79"/>
+      <c r="G38" s="79"/>
+      <c r="P38" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="Q38" s="79"/>
-      <c r="R38" s="79"/>
-      <c r="S38" s="79"/>
-      <c r="T38" s="79"/>
-      <c r="U38" s="79"/>
-      <c r="V38" s="79"/>
+      <c r="Q38" s="81"/>
+      <c r="R38" s="81"/>
+      <c r="S38" s="81"/>
+      <c r="T38" s="81"/>
+      <c r="U38" s="81"/>
+      <c r="V38" s="81"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C39" s="86"/>
-      <c r="D39" s="86"/>
-      <c r="E39" s="86"/>
-      <c r="F39" s="86"/>
-      <c r="G39" s="86"/>
-      <c r="P39" s="79"/>
-      <c r="Q39" s="79"/>
-      <c r="R39" s="79"/>
-      <c r="S39" s="79"/>
-      <c r="T39" s="79"/>
-      <c r="U39" s="79"/>
-      <c r="V39" s="79"/>
+      <c r="C39" s="80"/>
+      <c r="D39" s="80"/>
+      <c r="E39" s="80"/>
+      <c r="F39" s="80"/>
+      <c r="G39" s="80"/>
+      <c r="P39" s="81"/>
+      <c r="Q39" s="81"/>
+      <c r="R39" s="81"/>
+      <c r="S39" s="81"/>
+      <c r="T39" s="81"/>
+      <c r="U39" s="81"/>
+      <c r="V39" s="81"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A40" s="80" t="s">
+      <c r="A40" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="80"/>
-      <c r="C40" s="80"/>
-      <c r="D40" s="81" t="s">
+      <c r="B40" s="82"/>
+      <c r="C40" s="82"/>
+      <c r="D40" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E40" s="81"/>
-      <c r="F40" s="81"/>
-      <c r="G40" s="81"/>
-      <c r="H40" s="87">
+      <c r="E40" s="83"/>
+      <c r="F40" s="83"/>
+      <c r="G40" s="83"/>
+      <c r="H40" s="84">
         <v>44972</v>
       </c>
-      <c r="I40" s="88"/>
-      <c r="J40" s="88"/>
-      <c r="M40" s="80" t="s">
+      <c r="I40" s="85"/>
+      <c r="J40" s="85"/>
+      <c r="M40" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N40" s="80"/>
-      <c r="O40" s="80"/>
-      <c r="P40" s="81" t="s">
+      <c r="N40" s="82"/>
+      <c r="O40" s="82"/>
+      <c r="P40" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q40" s="81"/>
-      <c r="R40" s="81"/>
-      <c r="S40" s="81"/>
+      <c r="Q40" s="83"/>
+      <c r="R40" s="83"/>
+      <c r="S40" s="83"/>
       <c r="T40" s="18"/>
       <c r="U40" s="18"/>
-      <c r="V40" s="82">
+      <c r="V40" s="86">
         <v>44973</v>
       </c>
-      <c r="W40" s="83"/>
-      <c r="X40" s="84"/>
+      <c r="W40" s="87"/>
+      <c r="X40" s="88"/>
     </row>
     <row r="41" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
@@ -2818,72 +2818,72 @@
       <c r="X51" s="4"/>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C54" s="85" t="s">
+      <c r="C54" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="D54" s="85"/>
-      <c r="E54" s="85"/>
-      <c r="F54" s="85"/>
-      <c r="G54" s="85"/>
-      <c r="P54" s="79" t="s">
+      <c r="D54" s="79"/>
+      <c r="E54" s="79"/>
+      <c r="F54" s="79"/>
+      <c r="G54" s="79"/>
+      <c r="P54" s="81" t="s">
         <v>56</v>
       </c>
-      <c r="Q54" s="79"/>
-      <c r="R54" s="79"/>
-      <c r="S54" s="79"/>
-      <c r="T54" s="79"/>
-      <c r="U54" s="79"/>
-      <c r="V54" s="79"/>
+      <c r="Q54" s="81"/>
+      <c r="R54" s="81"/>
+      <c r="S54" s="81"/>
+      <c r="T54" s="81"/>
+      <c r="U54" s="81"/>
+      <c r="V54" s="81"/>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C55" s="86"/>
-      <c r="D55" s="86"/>
-      <c r="E55" s="86"/>
-      <c r="F55" s="86"/>
-      <c r="G55" s="86"/>
-      <c r="P55" s="79"/>
-      <c r="Q55" s="79"/>
-      <c r="R55" s="79"/>
-      <c r="S55" s="79"/>
-      <c r="T55" s="79"/>
-      <c r="U55" s="79"/>
-      <c r="V55" s="79"/>
+      <c r="C55" s="80"/>
+      <c r="D55" s="80"/>
+      <c r="E55" s="80"/>
+      <c r="F55" s="80"/>
+      <c r="G55" s="80"/>
+      <c r="P55" s="81"/>
+      <c r="Q55" s="81"/>
+      <c r="R55" s="81"/>
+      <c r="S55" s="81"/>
+      <c r="T55" s="81"/>
+      <c r="U55" s="81"/>
+      <c r="V55" s="81"/>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A56" s="80" t="s">
+      <c r="A56" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="80"/>
-      <c r="C56" s="80"/>
-      <c r="D56" s="81" t="s">
+      <c r="B56" s="82"/>
+      <c r="C56" s="82"/>
+      <c r="D56" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E56" s="81"/>
-      <c r="F56" s="81"/>
-      <c r="G56" s="81"/>
-      <c r="H56" s="87">
+      <c r="E56" s="83"/>
+      <c r="F56" s="83"/>
+      <c r="G56" s="83"/>
+      <c r="H56" s="84">
         <v>44974</v>
       </c>
-      <c r="I56" s="88"/>
-      <c r="J56" s="88"/>
-      <c r="M56" s="80" t="s">
+      <c r="I56" s="85"/>
+      <c r="J56" s="85"/>
+      <c r="M56" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N56" s="80"/>
-      <c r="O56" s="80"/>
-      <c r="P56" s="81" t="s">
+      <c r="N56" s="82"/>
+      <c r="O56" s="82"/>
+      <c r="P56" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q56" s="81"/>
-      <c r="R56" s="81"/>
-      <c r="S56" s="81"/>
+      <c r="Q56" s="83"/>
+      <c r="R56" s="83"/>
+      <c r="S56" s="83"/>
       <c r="T56" s="18"/>
       <c r="U56" s="18"/>
-      <c r="V56" s="82">
+      <c r="V56" s="86">
         <v>44975</v>
       </c>
-      <c r="W56" s="83"/>
-      <c r="X56" s="84"/>
+      <c r="W56" s="87"/>
+      <c r="X56" s="88"/>
     </row>
     <row r="57" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
@@ -3338,72 +3338,72 @@
       <c r="X67" s="4"/>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C70" s="85" t="s">
+      <c r="C70" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="D70" s="85"/>
-      <c r="E70" s="85"/>
-      <c r="F70" s="85"/>
-      <c r="G70" s="85"/>
-      <c r="P70" s="79" t="s">
+      <c r="D70" s="79"/>
+      <c r="E70" s="79"/>
+      <c r="F70" s="79"/>
+      <c r="G70" s="79"/>
+      <c r="P70" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="Q70" s="79"/>
-      <c r="R70" s="79"/>
-      <c r="S70" s="79"/>
-      <c r="T70" s="79"/>
-      <c r="U70" s="79"/>
-      <c r="V70" s="79"/>
+      <c r="Q70" s="81"/>
+      <c r="R70" s="81"/>
+      <c r="S70" s="81"/>
+      <c r="T70" s="81"/>
+      <c r="U70" s="81"/>
+      <c r="V70" s="81"/>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C71" s="86"/>
-      <c r="D71" s="86"/>
-      <c r="E71" s="86"/>
-      <c r="F71" s="86"/>
-      <c r="G71" s="86"/>
-      <c r="P71" s="79"/>
-      <c r="Q71" s="79"/>
-      <c r="R71" s="79"/>
-      <c r="S71" s="79"/>
-      <c r="T71" s="79"/>
-      <c r="U71" s="79"/>
-      <c r="V71" s="79"/>
+      <c r="C71" s="80"/>
+      <c r="D71" s="80"/>
+      <c r="E71" s="80"/>
+      <c r="F71" s="80"/>
+      <c r="G71" s="80"/>
+      <c r="P71" s="81"/>
+      <c r="Q71" s="81"/>
+      <c r="R71" s="81"/>
+      <c r="S71" s="81"/>
+      <c r="T71" s="81"/>
+      <c r="U71" s="81"/>
+      <c r="V71" s="81"/>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A72" s="80" t="s">
+      <c r="A72" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B72" s="80"/>
-      <c r="C72" s="80"/>
-      <c r="D72" s="81" t="s">
+      <c r="B72" s="82"/>
+      <c r="C72" s="82"/>
+      <c r="D72" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E72" s="81"/>
-      <c r="F72" s="81"/>
-      <c r="G72" s="81"/>
-      <c r="H72" s="87">
+      <c r="E72" s="83"/>
+      <c r="F72" s="83"/>
+      <c r="G72" s="83"/>
+      <c r="H72" s="84">
         <v>44979</v>
       </c>
-      <c r="I72" s="88"/>
-      <c r="J72" s="88"/>
-      <c r="M72" s="80" t="s">
+      <c r="I72" s="85"/>
+      <c r="J72" s="85"/>
+      <c r="M72" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N72" s="80"/>
-      <c r="O72" s="80"/>
-      <c r="P72" s="81" t="s">
+      <c r="N72" s="82"/>
+      <c r="O72" s="82"/>
+      <c r="P72" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q72" s="81"/>
-      <c r="R72" s="81"/>
-      <c r="S72" s="81"/>
+      <c r="Q72" s="83"/>
+      <c r="R72" s="83"/>
+      <c r="S72" s="83"/>
       <c r="T72" s="18"/>
       <c r="U72" s="18"/>
-      <c r="V72" s="82">
+      <c r="V72" s="86">
         <v>44980</v>
       </c>
-      <c r="W72" s="83"/>
-      <c r="X72" s="84"/>
+      <c r="W72" s="87"/>
+      <c r="X72" s="88"/>
     </row>
     <row r="73" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
@@ -3774,72 +3774,72 @@
       <c r="X83" s="4"/>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C87" s="85" t="s">
+      <c r="C87" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="D87" s="85"/>
-      <c r="E87" s="85"/>
-      <c r="F87" s="85"/>
-      <c r="G87" s="85"/>
-      <c r="P87" s="79" t="s">
+      <c r="D87" s="79"/>
+      <c r="E87" s="79"/>
+      <c r="F87" s="79"/>
+      <c r="G87" s="79"/>
+      <c r="P87" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="Q87" s="79"/>
-      <c r="R87" s="79"/>
-      <c r="S87" s="79"/>
-      <c r="T87" s="79"/>
-      <c r="U87" s="79"/>
-      <c r="V87" s="79"/>
+      <c r="Q87" s="81"/>
+      <c r="R87" s="81"/>
+      <c r="S87" s="81"/>
+      <c r="T87" s="81"/>
+      <c r="U87" s="81"/>
+      <c r="V87" s="81"/>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C88" s="86"/>
-      <c r="D88" s="86"/>
-      <c r="E88" s="86"/>
-      <c r="F88" s="86"/>
-      <c r="G88" s="86"/>
-      <c r="P88" s="79"/>
-      <c r="Q88" s="79"/>
-      <c r="R88" s="79"/>
-      <c r="S88" s="79"/>
-      <c r="T88" s="79"/>
-      <c r="U88" s="79"/>
-      <c r="V88" s="79"/>
+      <c r="C88" s="80"/>
+      <c r="D88" s="80"/>
+      <c r="E88" s="80"/>
+      <c r="F88" s="80"/>
+      <c r="G88" s="80"/>
+      <c r="P88" s="81"/>
+      <c r="Q88" s="81"/>
+      <c r="R88" s="81"/>
+      <c r="S88" s="81"/>
+      <c r="T88" s="81"/>
+      <c r="U88" s="81"/>
+      <c r="V88" s="81"/>
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A89" s="80" t="s">
+      <c r="A89" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B89" s="80"/>
-      <c r="C89" s="80"/>
-      <c r="D89" s="81" t="s">
+      <c r="B89" s="82"/>
+      <c r="C89" s="82"/>
+      <c r="D89" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E89" s="81"/>
-      <c r="F89" s="81"/>
-      <c r="G89" s="81"/>
-      <c r="H89" s="87">
+      <c r="E89" s="83"/>
+      <c r="F89" s="83"/>
+      <c r="G89" s="83"/>
+      <c r="H89" s="84">
         <v>44981</v>
       </c>
-      <c r="I89" s="88"/>
-      <c r="J89" s="88"/>
-      <c r="M89" s="80" t="s">
+      <c r="I89" s="85"/>
+      <c r="J89" s="85"/>
+      <c r="M89" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N89" s="80"/>
-      <c r="O89" s="80"/>
-      <c r="P89" s="81" t="s">
+      <c r="N89" s="82"/>
+      <c r="O89" s="82"/>
+      <c r="P89" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q89" s="81"/>
-      <c r="R89" s="81"/>
-      <c r="S89" s="81"/>
+      <c r="Q89" s="83"/>
+      <c r="R89" s="83"/>
+      <c r="S89" s="83"/>
       <c r="T89" s="18"/>
       <c r="U89" s="18"/>
-      <c r="V89" s="82">
+      <c r="V89" s="86">
         <v>44980</v>
       </c>
-      <c r="W89" s="83"/>
-      <c r="X89" s="84"/>
+      <c r="W89" s="87"/>
+      <c r="X89" s="88"/>
     </row>
     <row r="90" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
@@ -4294,72 +4294,72 @@
       <c r="X100" s="4"/>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C104" s="85" t="s">
+      <c r="C104" s="79" t="s">
         <v>70</v>
       </c>
-      <c r="D104" s="85"/>
-      <c r="E104" s="85"/>
-      <c r="F104" s="85"/>
-      <c r="G104" s="85"/>
-      <c r="P104" s="79" t="s">
+      <c r="D104" s="79"/>
+      <c r="E104" s="79"/>
+      <c r="F104" s="79"/>
+      <c r="G104" s="79"/>
+      <c r="P104" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="Q104" s="79"/>
-      <c r="R104" s="79"/>
-      <c r="S104" s="79"/>
-      <c r="T104" s="79"/>
-      <c r="U104" s="79"/>
-      <c r="V104" s="79"/>
+      <c r="Q104" s="81"/>
+      <c r="R104" s="81"/>
+      <c r="S104" s="81"/>
+      <c r="T104" s="81"/>
+      <c r="U104" s="81"/>
+      <c r="V104" s="81"/>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C105" s="86"/>
-      <c r="D105" s="86"/>
-      <c r="E105" s="86"/>
-      <c r="F105" s="86"/>
-      <c r="G105" s="86"/>
-      <c r="P105" s="79"/>
-      <c r="Q105" s="79"/>
-      <c r="R105" s="79"/>
-      <c r="S105" s="79"/>
-      <c r="T105" s="79"/>
-      <c r="U105" s="79"/>
-      <c r="V105" s="79"/>
+      <c r="C105" s="80"/>
+      <c r="D105" s="80"/>
+      <c r="E105" s="80"/>
+      <c r="F105" s="80"/>
+      <c r="G105" s="80"/>
+      <c r="P105" s="81"/>
+      <c r="Q105" s="81"/>
+      <c r="R105" s="81"/>
+      <c r="S105" s="81"/>
+      <c r="T105" s="81"/>
+      <c r="U105" s="81"/>
+      <c r="V105" s="81"/>
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A106" s="80" t="s">
+      <c r="A106" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B106" s="80"/>
-      <c r="C106" s="80"/>
-      <c r="D106" s="81" t="s">
+      <c r="B106" s="82"/>
+      <c r="C106" s="82"/>
+      <c r="D106" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E106" s="81"/>
-      <c r="F106" s="81"/>
-      <c r="G106" s="81"/>
-      <c r="H106" s="87">
+      <c r="E106" s="83"/>
+      <c r="F106" s="83"/>
+      <c r="G106" s="83"/>
+      <c r="H106" s="84">
         <v>44979</v>
       </c>
-      <c r="I106" s="88"/>
-      <c r="J106" s="88"/>
-      <c r="M106" s="80" t="s">
+      <c r="I106" s="85"/>
+      <c r="J106" s="85"/>
+      <c r="M106" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N106" s="80"/>
-      <c r="O106" s="80"/>
-      <c r="P106" s="81" t="s">
+      <c r="N106" s="82"/>
+      <c r="O106" s="82"/>
+      <c r="P106" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q106" s="81"/>
-      <c r="R106" s="81"/>
-      <c r="S106" s="81"/>
+      <c r="Q106" s="83"/>
+      <c r="R106" s="83"/>
+      <c r="S106" s="83"/>
       <c r="T106" s="18"/>
       <c r="U106" s="18"/>
-      <c r="V106" s="82" t="s">
+      <c r="V106" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="W106" s="83"/>
-      <c r="X106" s="84"/>
+      <c r="W106" s="87"/>
+      <c r="X106" s="88"/>
     </row>
     <row r="107" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
@@ -4857,6 +4857,54 @@
     <row r="124" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="P38:V39"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="P40:S40"/>
+    <mergeCell ref="V40:X40"/>
+    <mergeCell ref="C38:G39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="C22:G23"/>
+    <mergeCell ref="P22:V23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="C2:G3"/>
+    <mergeCell ref="P2:V3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="C54:G55"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="P54:V55"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="P56:S56"/>
+    <mergeCell ref="V56:X56"/>
+    <mergeCell ref="C70:G71"/>
+    <mergeCell ref="P70:V71"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="D72:G72"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="M72:O72"/>
+    <mergeCell ref="P72:S72"/>
+    <mergeCell ref="V72:X72"/>
+    <mergeCell ref="C87:G88"/>
+    <mergeCell ref="P87:V88"/>
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="D89:G89"/>
+    <mergeCell ref="H89:J89"/>
+    <mergeCell ref="M89:O89"/>
+    <mergeCell ref="P89:S89"/>
+    <mergeCell ref="V89:X89"/>
     <mergeCell ref="C104:G105"/>
     <mergeCell ref="P104:V105"/>
     <mergeCell ref="A106:C106"/>
@@ -4865,54 +4913,6 @@
     <mergeCell ref="M106:O106"/>
     <mergeCell ref="P106:S106"/>
     <mergeCell ref="V106:X106"/>
-    <mergeCell ref="C87:G88"/>
-    <mergeCell ref="P87:V88"/>
-    <mergeCell ref="A89:C89"/>
-    <mergeCell ref="D89:G89"/>
-    <mergeCell ref="H89:J89"/>
-    <mergeCell ref="M89:O89"/>
-    <mergeCell ref="P89:S89"/>
-    <mergeCell ref="V89:X89"/>
-    <mergeCell ref="C70:G71"/>
-    <mergeCell ref="P70:V71"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="D72:G72"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="M72:O72"/>
-    <mergeCell ref="P72:S72"/>
-    <mergeCell ref="V72:X72"/>
-    <mergeCell ref="C54:G55"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="P54:V55"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="P56:S56"/>
-    <mergeCell ref="V56:X56"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="C2:G3"/>
-    <mergeCell ref="P2:V3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="C22:G23"/>
-    <mergeCell ref="P22:V23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="P38:V39"/>
-    <mergeCell ref="M40:O40"/>
-    <mergeCell ref="P40:S40"/>
-    <mergeCell ref="V40:X40"/>
-    <mergeCell ref="C38:G39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="H40:J40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4924,7 +4924,7 @@
   <dimension ref="A2:Z281"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M267" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W284" sqref="W284"/>
+      <selection activeCell="X271" sqref="X271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4944,72 +4944,72 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C2" s="85" t="s">
+      <c r="C2" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="P2" s="79" t="s">
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="P2" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="79"/>
-      <c r="T2" s="79"/>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="81"/>
+      <c r="S2" s="81"/>
+      <c r="T2" s="81"/>
+      <c r="U2" s="81"/>
+      <c r="V2" s="81"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="P3" s="79"/>
-      <c r="Q3" s="79"/>
-      <c r="R3" s="79"/>
-      <c r="S3" s="79"/>
-      <c r="T3" s="79"/>
-      <c r="U3" s="79"/>
-      <c r="V3" s="79"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="81"/>
+      <c r="S3" s="81"/>
+      <c r="T3" s="81"/>
+      <c r="U3" s="81"/>
+      <c r="V3" s="81"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="81" t="s">
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="87" t="s">
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="M4" s="80" t="s">
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="M4" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="80"/>
-      <c r="O4" s="80"/>
-      <c r="P4" s="81" t="s">
+      <c r="N4" s="82"/>
+      <c r="O4" s="82"/>
+      <c r="P4" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="81"/>
-      <c r="R4" s="81"/>
-      <c r="S4" s="81"/>
+      <c r="Q4" s="83"/>
+      <c r="R4" s="83"/>
+      <c r="S4" s="83"/>
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
-      <c r="V4" s="82">
+      <c r="V4" s="86">
         <v>44601</v>
       </c>
-      <c r="W4" s="83"/>
-      <c r="X4" s="84"/>
+      <c r="W4" s="87"/>
+      <c r="X4" s="88"/>
     </row>
     <row r="5" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -5476,72 +5476,72 @@
       <c r="X15" s="4"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C22" s="85" t="s">
+      <c r="C22" s="79" t="s">
         <v>75</v>
       </c>
-      <c r="D22" s="85"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="85"/>
-      <c r="P22" s="79" t="s">
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
+      <c r="P22" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="Q22" s="79"/>
-      <c r="R22" s="79"/>
-      <c r="S22" s="79"/>
-      <c r="T22" s="79"/>
-      <c r="U22" s="79"/>
-      <c r="V22" s="79"/>
+      <c r="Q22" s="81"/>
+      <c r="R22" s="81"/>
+      <c r="S22" s="81"/>
+      <c r="T22" s="81"/>
+      <c r="U22" s="81"/>
+      <c r="V22" s="81"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="P23" s="79"/>
-      <c r="Q23" s="79"/>
-      <c r="R23" s="79"/>
-      <c r="S23" s="79"/>
-      <c r="T23" s="79"/>
-      <c r="U23" s="79"/>
-      <c r="V23" s="79"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="P23" s="81"/>
+      <c r="Q23" s="81"/>
+      <c r="R23" s="81"/>
+      <c r="S23" s="81"/>
+      <c r="T23" s="81"/>
+      <c r="U23" s="81"/>
+      <c r="V23" s="81"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="80" t="s">
+      <c r="A24" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="80"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="81" t="s">
+      <c r="B24" s="82"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="81"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="87">
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="84">
         <v>44993</v>
       </c>
-      <c r="I24" s="88"/>
-      <c r="J24" s="88"/>
-      <c r="M24" s="80" t="s">
+      <c r="I24" s="85"/>
+      <c r="J24" s="85"/>
+      <c r="M24" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N24" s="80"/>
-      <c r="O24" s="80"/>
-      <c r="P24" s="81" t="s">
+      <c r="N24" s="82"/>
+      <c r="O24" s="82"/>
+      <c r="P24" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q24" s="81"/>
-      <c r="R24" s="81"/>
-      <c r="S24" s="81"/>
+      <c r="Q24" s="83"/>
+      <c r="R24" s="83"/>
+      <c r="S24" s="83"/>
       <c r="T24" s="18"/>
       <c r="U24" s="18"/>
-      <c r="V24" s="82">
+      <c r="V24" s="86">
         <v>44993</v>
       </c>
-      <c r="W24" s="83"/>
-      <c r="X24" s="84"/>
+      <c r="W24" s="87"/>
+      <c r="X24" s="88"/>
     </row>
     <row r="25" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -5971,72 +5971,72 @@
       <c r="X34" s="4"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C37" s="85" t="s">
+      <c r="C37" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="D37" s="85"/>
-      <c r="E37" s="85"/>
-      <c r="F37" s="85"/>
-      <c r="G37" s="85"/>
-      <c r="P37" s="79" t="s">
+      <c r="D37" s="79"/>
+      <c r="E37" s="79"/>
+      <c r="F37" s="79"/>
+      <c r="G37" s="79"/>
+      <c r="P37" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="Q37" s="79"/>
-      <c r="R37" s="79"/>
-      <c r="S37" s="79"/>
-      <c r="T37" s="79"/>
-      <c r="U37" s="79"/>
-      <c r="V37" s="79"/>
+      <c r="Q37" s="81"/>
+      <c r="R37" s="81"/>
+      <c r="S37" s="81"/>
+      <c r="T37" s="81"/>
+      <c r="U37" s="81"/>
+      <c r="V37" s="81"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C38" s="86"/>
-      <c r="D38" s="86"/>
-      <c r="E38" s="86"/>
-      <c r="F38" s="86"/>
-      <c r="G38" s="86"/>
-      <c r="P38" s="79"/>
-      <c r="Q38" s="79"/>
-      <c r="R38" s="79"/>
-      <c r="S38" s="79"/>
-      <c r="T38" s="79"/>
-      <c r="U38" s="79"/>
-      <c r="V38" s="79"/>
+      <c r="C38" s="80"/>
+      <c r="D38" s="80"/>
+      <c r="E38" s="80"/>
+      <c r="F38" s="80"/>
+      <c r="G38" s="80"/>
+      <c r="P38" s="81"/>
+      <c r="Q38" s="81"/>
+      <c r="R38" s="81"/>
+      <c r="S38" s="81"/>
+      <c r="T38" s="81"/>
+      <c r="U38" s="81"/>
+      <c r="V38" s="81"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A39" s="80" t="s">
+      <c r="A39" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="80"/>
-      <c r="C39" s="80"/>
-      <c r="D39" s="81" t="s">
+      <c r="B39" s="82"/>
+      <c r="C39" s="82"/>
+      <c r="D39" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="81"/>
-      <c r="F39" s="81"/>
-      <c r="G39" s="81"/>
-      <c r="H39" s="87">
+      <c r="E39" s="83"/>
+      <c r="F39" s="83"/>
+      <c r="G39" s="83"/>
+      <c r="H39" s="84">
         <v>44972</v>
       </c>
-      <c r="I39" s="88"/>
-      <c r="J39" s="88"/>
-      <c r="M39" s="80" t="s">
+      <c r="I39" s="85"/>
+      <c r="J39" s="85"/>
+      <c r="M39" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N39" s="80"/>
-      <c r="O39" s="80"/>
-      <c r="P39" s="81" t="s">
+      <c r="N39" s="82"/>
+      <c r="O39" s="82"/>
+      <c r="P39" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q39" s="81"/>
-      <c r="R39" s="81"/>
-      <c r="S39" s="81"/>
+      <c r="Q39" s="83"/>
+      <c r="R39" s="83"/>
+      <c r="S39" s="83"/>
       <c r="T39" s="18"/>
       <c r="U39" s="18"/>
-      <c r="V39" s="82">
+      <c r="V39" s="86">
         <v>44994</v>
       </c>
-      <c r="W39" s="83"/>
-      <c r="X39" s="84"/>
+      <c r="W39" s="87"/>
+      <c r="X39" s="88"/>
     </row>
     <row r="40" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
@@ -6447,72 +6447,72 @@
       <c r="X50" s="4"/>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C53" s="85">
+      <c r="C53" s="79">
         <v>45005</v>
       </c>
-      <c r="D53" s="85"/>
-      <c r="E53" s="85"/>
-      <c r="F53" s="85"/>
-      <c r="G53" s="85"/>
-      <c r="P53" s="85">
+      <c r="D53" s="79"/>
+      <c r="E53" s="79"/>
+      <c r="F53" s="79"/>
+      <c r="G53" s="79"/>
+      <c r="P53" s="79">
         <v>45006</v>
       </c>
-      <c r="Q53" s="85"/>
-      <c r="R53" s="85"/>
-      <c r="S53" s="85"/>
-      <c r="T53" s="85"/>
-      <c r="U53" s="85"/>
-      <c r="V53" s="85"/>
+      <c r="Q53" s="79"/>
+      <c r="R53" s="79"/>
+      <c r="S53" s="79"/>
+      <c r="T53" s="79"/>
+      <c r="U53" s="79"/>
+      <c r="V53" s="79"/>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C54" s="86"/>
-      <c r="D54" s="86"/>
-      <c r="E54" s="86"/>
-      <c r="F54" s="86"/>
-      <c r="G54" s="86"/>
-      <c r="P54" s="85"/>
-      <c r="Q54" s="85"/>
-      <c r="R54" s="85"/>
-      <c r="S54" s="85"/>
-      <c r="T54" s="85"/>
-      <c r="U54" s="85"/>
-      <c r="V54" s="85"/>
+      <c r="C54" s="80"/>
+      <c r="D54" s="80"/>
+      <c r="E54" s="80"/>
+      <c r="F54" s="80"/>
+      <c r="G54" s="80"/>
+      <c r="P54" s="79"/>
+      <c r="Q54" s="79"/>
+      <c r="R54" s="79"/>
+      <c r="S54" s="79"/>
+      <c r="T54" s="79"/>
+      <c r="U54" s="79"/>
+      <c r="V54" s="79"/>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A55" s="80" t="s">
+      <c r="A55" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="80"/>
-      <c r="C55" s="80"/>
-      <c r="D55" s="81" t="s">
+      <c r="B55" s="82"/>
+      <c r="C55" s="82"/>
+      <c r="D55" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E55" s="81"/>
-      <c r="F55" s="81"/>
-      <c r="G55" s="81"/>
-      <c r="H55" s="87">
+      <c r="E55" s="83"/>
+      <c r="F55" s="83"/>
+      <c r="G55" s="83"/>
+      <c r="H55" s="84">
         <v>45005</v>
       </c>
-      <c r="I55" s="88"/>
-      <c r="J55" s="88"/>
-      <c r="M55" s="80" t="s">
+      <c r="I55" s="85"/>
+      <c r="J55" s="85"/>
+      <c r="M55" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N55" s="80"/>
-      <c r="O55" s="80"/>
-      <c r="P55" s="81" t="s">
+      <c r="N55" s="82"/>
+      <c r="O55" s="82"/>
+      <c r="P55" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q55" s="81"/>
-      <c r="R55" s="81"/>
-      <c r="S55" s="81"/>
+      <c r="Q55" s="83"/>
+      <c r="R55" s="83"/>
+      <c r="S55" s="83"/>
       <c r="T55" s="18"/>
       <c r="U55" s="18"/>
-      <c r="V55" s="82">
+      <c r="V55" s="86">
         <v>45006</v>
       </c>
-      <c r="W55" s="83"/>
-      <c r="X55" s="84"/>
+      <c r="W55" s="87"/>
+      <c r="X55" s="88"/>
     </row>
     <row r="56" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
@@ -6911,72 +6911,72 @@
       <c r="X66" s="4"/>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C69" s="85" t="s">
+      <c r="C69" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="D69" s="85"/>
-      <c r="E69" s="85"/>
-      <c r="F69" s="85"/>
-      <c r="G69" s="85"/>
-      <c r="P69" s="79" t="s">
+      <c r="D69" s="79"/>
+      <c r="E69" s="79"/>
+      <c r="F69" s="79"/>
+      <c r="G69" s="79"/>
+      <c r="P69" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="Q69" s="79"/>
-      <c r="R69" s="79"/>
-      <c r="S69" s="79"/>
-      <c r="T69" s="79"/>
-      <c r="U69" s="79"/>
-      <c r="V69" s="79"/>
+      <c r="Q69" s="81"/>
+      <c r="R69" s="81"/>
+      <c r="S69" s="81"/>
+      <c r="T69" s="81"/>
+      <c r="U69" s="81"/>
+      <c r="V69" s="81"/>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C70" s="86"/>
-      <c r="D70" s="86"/>
-      <c r="E70" s="86"/>
-      <c r="F70" s="86"/>
-      <c r="G70" s="86"/>
-      <c r="P70" s="79"/>
-      <c r="Q70" s="79"/>
-      <c r="R70" s="79"/>
-      <c r="S70" s="79"/>
-      <c r="T70" s="79"/>
-      <c r="U70" s="79"/>
-      <c r="V70" s="79"/>
+      <c r="C70" s="80"/>
+      <c r="D70" s="80"/>
+      <c r="E70" s="80"/>
+      <c r="F70" s="80"/>
+      <c r="G70" s="80"/>
+      <c r="P70" s="81"/>
+      <c r="Q70" s="81"/>
+      <c r="R70" s="81"/>
+      <c r="S70" s="81"/>
+      <c r="T70" s="81"/>
+      <c r="U70" s="81"/>
+      <c r="V70" s="81"/>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A71" s="80" t="s">
+      <c r="A71" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B71" s="80"/>
-      <c r="C71" s="80"/>
-      <c r="D71" s="81" t="s">
+      <c r="B71" s="82"/>
+      <c r="C71" s="82"/>
+      <c r="D71" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E71" s="81"/>
-      <c r="F71" s="81"/>
-      <c r="G71" s="81"/>
-      <c r="H71" s="87">
+      <c r="E71" s="83"/>
+      <c r="F71" s="83"/>
+      <c r="G71" s="83"/>
+      <c r="H71" s="84">
         <v>44979</v>
       </c>
-      <c r="I71" s="88"/>
-      <c r="J71" s="88"/>
-      <c r="M71" s="80" t="s">
+      <c r="I71" s="85"/>
+      <c r="J71" s="85"/>
+      <c r="M71" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N71" s="80"/>
-      <c r="O71" s="80"/>
-      <c r="P71" s="81" t="s">
+      <c r="N71" s="82"/>
+      <c r="O71" s="82"/>
+      <c r="P71" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q71" s="81"/>
-      <c r="R71" s="81"/>
-      <c r="S71" s="81"/>
+      <c r="Q71" s="83"/>
+      <c r="R71" s="83"/>
+      <c r="S71" s="83"/>
       <c r="T71" s="18"/>
       <c r="U71" s="18"/>
-      <c r="V71" s="82">
+      <c r="V71" s="86">
         <v>44980</v>
       </c>
-      <c r="W71" s="83"/>
-      <c r="X71" s="84"/>
+      <c r="W71" s="87"/>
+      <c r="X71" s="88"/>
     </row>
     <row r="72" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
@@ -7379,72 +7379,72 @@
       <c r="X82" s="4"/>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C86" s="85" t="s">
+      <c r="C86" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="D86" s="85"/>
-      <c r="E86" s="85"/>
-      <c r="F86" s="85"/>
-      <c r="G86" s="85"/>
-      <c r="P86" s="79" t="s">
+      <c r="D86" s="79"/>
+      <c r="E86" s="79"/>
+      <c r="F86" s="79"/>
+      <c r="G86" s="79"/>
+      <c r="P86" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="Q86" s="79"/>
-      <c r="R86" s="79"/>
-      <c r="S86" s="79"/>
-      <c r="T86" s="79"/>
-      <c r="U86" s="79"/>
-      <c r="V86" s="79"/>
+      <c r="Q86" s="81"/>
+      <c r="R86" s="81"/>
+      <c r="S86" s="81"/>
+      <c r="T86" s="81"/>
+      <c r="U86" s="81"/>
+      <c r="V86" s="81"/>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C87" s="86"/>
-      <c r="D87" s="86"/>
-      <c r="E87" s="86"/>
-      <c r="F87" s="86"/>
-      <c r="G87" s="86"/>
-      <c r="P87" s="79"/>
-      <c r="Q87" s="79"/>
-      <c r="R87" s="79"/>
-      <c r="S87" s="79"/>
-      <c r="T87" s="79"/>
-      <c r="U87" s="79"/>
-      <c r="V87" s="79"/>
+      <c r="C87" s="80"/>
+      <c r="D87" s="80"/>
+      <c r="E87" s="80"/>
+      <c r="F87" s="80"/>
+      <c r="G87" s="80"/>
+      <c r="P87" s="81"/>
+      <c r="Q87" s="81"/>
+      <c r="R87" s="81"/>
+      <c r="S87" s="81"/>
+      <c r="T87" s="81"/>
+      <c r="U87" s="81"/>
+      <c r="V87" s="81"/>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A88" s="80" t="s">
+      <c r="A88" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B88" s="80"/>
-      <c r="C88" s="80"/>
-      <c r="D88" s="81" t="s">
+      <c r="B88" s="82"/>
+      <c r="C88" s="82"/>
+      <c r="D88" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E88" s="81"/>
-      <c r="F88" s="81"/>
-      <c r="G88" s="81"/>
-      <c r="H88" s="87">
+      <c r="E88" s="83"/>
+      <c r="F88" s="83"/>
+      <c r="G88" s="83"/>
+      <c r="H88" s="84">
         <v>44981</v>
       </c>
-      <c r="I88" s="88"/>
-      <c r="J88" s="88"/>
-      <c r="M88" s="80" t="s">
+      <c r="I88" s="85"/>
+      <c r="J88" s="85"/>
+      <c r="M88" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N88" s="80"/>
-      <c r="O88" s="80"/>
-      <c r="P88" s="81" t="s">
+      <c r="N88" s="82"/>
+      <c r="O88" s="82"/>
+      <c r="P88" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q88" s="81"/>
-      <c r="R88" s="81"/>
-      <c r="S88" s="81"/>
+      <c r="Q88" s="83"/>
+      <c r="R88" s="83"/>
+      <c r="S88" s="83"/>
       <c r="T88" s="18"/>
       <c r="U88" s="18"/>
-      <c r="V88" s="82">
+      <c r="V88" s="86">
         <v>44980</v>
       </c>
-      <c r="W88" s="83"/>
-      <c r="X88" s="84"/>
+      <c r="W88" s="87"/>
+      <c r="X88" s="88"/>
     </row>
     <row r="89" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
@@ -7779,72 +7779,72 @@
       <c r="X99" s="4"/>
     </row>
     <row r="103" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C103" s="85" t="s">
+      <c r="C103" s="79" t="s">
         <v>70</v>
       </c>
-      <c r="D103" s="85"/>
-      <c r="E103" s="85"/>
-      <c r="F103" s="85"/>
-      <c r="G103" s="85"/>
-      <c r="P103" s="79" t="s">
+      <c r="D103" s="79"/>
+      <c r="E103" s="79"/>
+      <c r="F103" s="79"/>
+      <c r="G103" s="79"/>
+      <c r="P103" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="Q103" s="79"/>
-      <c r="R103" s="79"/>
-      <c r="S103" s="79"/>
-      <c r="T103" s="79"/>
-      <c r="U103" s="79"/>
-      <c r="V103" s="79"/>
+      <c r="Q103" s="81"/>
+      <c r="R103" s="81"/>
+      <c r="S103" s="81"/>
+      <c r="T103" s="81"/>
+      <c r="U103" s="81"/>
+      <c r="V103" s="81"/>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C104" s="86"/>
-      <c r="D104" s="86"/>
-      <c r="E104" s="86"/>
-      <c r="F104" s="86"/>
-      <c r="G104" s="86"/>
-      <c r="P104" s="79"/>
-      <c r="Q104" s="79"/>
-      <c r="R104" s="79"/>
-      <c r="S104" s="79"/>
-      <c r="T104" s="79"/>
-      <c r="U104" s="79"/>
-      <c r="V104" s="79"/>
+      <c r="C104" s="80"/>
+      <c r="D104" s="80"/>
+      <c r="E104" s="80"/>
+      <c r="F104" s="80"/>
+      <c r="G104" s="80"/>
+      <c r="P104" s="81"/>
+      <c r="Q104" s="81"/>
+      <c r="R104" s="81"/>
+      <c r="S104" s="81"/>
+      <c r="T104" s="81"/>
+      <c r="U104" s="81"/>
+      <c r="V104" s="81"/>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A105" s="80" t="s">
+      <c r="A105" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B105" s="80"/>
-      <c r="C105" s="80"/>
-      <c r="D105" s="81" t="s">
+      <c r="B105" s="82"/>
+      <c r="C105" s="82"/>
+      <c r="D105" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E105" s="81"/>
-      <c r="F105" s="81"/>
-      <c r="G105" s="81"/>
-      <c r="H105" s="87">
+      <c r="E105" s="83"/>
+      <c r="F105" s="83"/>
+      <c r="G105" s="83"/>
+      <c r="H105" s="84">
         <v>44979</v>
       </c>
-      <c r="I105" s="88"/>
-      <c r="J105" s="88"/>
-      <c r="M105" s="80" t="s">
+      <c r="I105" s="85"/>
+      <c r="J105" s="85"/>
+      <c r="M105" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N105" s="80"/>
-      <c r="O105" s="80"/>
-      <c r="P105" s="81" t="s">
+      <c r="N105" s="82"/>
+      <c r="O105" s="82"/>
+      <c r="P105" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q105" s="81"/>
-      <c r="R105" s="81"/>
-      <c r="S105" s="81"/>
+      <c r="Q105" s="83"/>
+      <c r="R105" s="83"/>
+      <c r="S105" s="83"/>
       <c r="T105" s="18"/>
       <c r="U105" s="18"/>
-      <c r="V105" s="82">
+      <c r="V105" s="86">
         <v>45012</v>
       </c>
-      <c r="W105" s="83"/>
-      <c r="X105" s="84"/>
+      <c r="W105" s="87"/>
+      <c r="X105" s="88"/>
     </row>
     <row r="106" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
@@ -8295,73 +8295,73 @@
       <c r="X116" s="4"/>
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C121" s="85" t="s">
+      <c r="C121" s="79" t="s">
         <v>95</v>
       </c>
-      <c r="D121" s="85"/>
-      <c r="E121" s="85"/>
-      <c r="F121" s="85"/>
-      <c r="G121" s="85"/>
-      <c r="P121" s="79" t="s">
+      <c r="D121" s="79"/>
+      <c r="E121" s="79"/>
+      <c r="F121" s="79"/>
+      <c r="G121" s="79"/>
+      <c r="P121" s="81" t="s">
         <v>96</v>
       </c>
-      <c r="Q121" s="79"/>
-      <c r="R121" s="79"/>
-      <c r="S121" s="79"/>
-      <c r="T121" s="79"/>
-      <c r="U121" s="79"/>
-      <c r="V121" s="79"/>
+      <c r="Q121" s="81"/>
+      <c r="R121" s="81"/>
+      <c r="S121" s="81"/>
+      <c r="T121" s="81"/>
+      <c r="U121" s="81"/>
+      <c r="V121" s="81"/>
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C122" s="86"/>
-      <c r="D122" s="86"/>
-      <c r="E122" s="86"/>
-      <c r="F122" s="86"/>
-      <c r="G122" s="86"/>
-      <c r="P122" s="79"/>
-      <c r="Q122" s="79"/>
-      <c r="R122" s="79"/>
-      <c r="S122" s="79"/>
-      <c r="T122" s="79"/>
-      <c r="U122" s="79"/>
-      <c r="V122" s="79"/>
+      <c r="C122" s="80"/>
+      <c r="D122" s="80"/>
+      <c r="E122" s="80"/>
+      <c r="F122" s="80"/>
+      <c r="G122" s="80"/>
+      <c r="P122" s="81"/>
+      <c r="Q122" s="81"/>
+      <c r="R122" s="81"/>
+      <c r="S122" s="81"/>
+      <c r="T122" s="81"/>
+      <c r="U122" s="81"/>
+      <c r="V122" s="81"/>
     </row>
     <row r="123" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="80" t="s">
+      <c r="A123" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B123" s="80"/>
-      <c r="C123" s="80"/>
-      <c r="D123" s="81" t="s">
+      <c r="B123" s="82"/>
+      <c r="C123" s="82"/>
+      <c r="D123" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E123" s="81"/>
-      <c r="F123" s="81"/>
-      <c r="G123" s="81"/>
-      <c r="H123" s="87">
+      <c r="E123" s="83"/>
+      <c r="F123" s="83"/>
+      <c r="G123" s="83"/>
+      <c r="H123" s="84">
         <v>44979</v>
       </c>
-      <c r="I123" s="88"/>
-      <c r="J123" s="88"/>
-      <c r="M123" s="80" t="s">
+      <c r="I123" s="85"/>
+      <c r="J123" s="85"/>
+      <c r="M123" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N123" s="80"/>
-      <c r="O123" s="80"/>
-      <c r="P123" s="81" t="s">
+      <c r="N123" s="82"/>
+      <c r="O123" s="82"/>
+      <c r="P123" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q123" s="81"/>
-      <c r="R123" s="81"/>
-      <c r="S123" s="81"/>
+      <c r="Q123" s="83"/>
+      <c r="R123" s="83"/>
+      <c r="S123" s="83"/>
       <c r="T123" s="18"/>
       <c r="U123" s="18"/>
-      <c r="V123" s="82" t="e">
+      <c r="V123" s="86" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W123" s="83"/>
-      <c r="X123" s="84"/>
+      <c r="W123" s="87"/>
+      <c r="X123" s="88"/>
     </row>
     <row r="124" spans="1:26" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
@@ -8876,45 +8876,45 @@
       <c r="X134" s="4"/>
     </row>
     <row r="138" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="P138" s="79" t="s">
+      <c r="P138" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="Q138" s="79"/>
-      <c r="R138" s="79"/>
-      <c r="S138" s="79"/>
-      <c r="T138" s="79"/>
-      <c r="U138" s="79"/>
-      <c r="V138" s="79"/>
+      <c r="Q138" s="81"/>
+      <c r="R138" s="81"/>
+      <c r="S138" s="81"/>
+      <c r="T138" s="81"/>
+      <c r="U138" s="81"/>
+      <c r="V138" s="81"/>
     </row>
     <row r="139" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="P139" s="79"/>
-      <c r="Q139" s="79"/>
-      <c r="R139" s="79"/>
-      <c r="S139" s="79"/>
-      <c r="T139" s="79"/>
-      <c r="U139" s="79"/>
-      <c r="V139" s="79"/>
+      <c r="P139" s="81"/>
+      <c r="Q139" s="81"/>
+      <c r="R139" s="81"/>
+      <c r="S139" s="81"/>
+      <c r="T139" s="81"/>
+      <c r="U139" s="81"/>
+      <c r="V139" s="81"/>
     </row>
     <row r="140" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="M140" s="80" t="s">
+      <c r="M140" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N140" s="80"/>
-      <c r="O140" s="80"/>
-      <c r="P140" s="81" t="s">
+      <c r="N140" s="82"/>
+      <c r="O140" s="82"/>
+      <c r="P140" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q140" s="81"/>
-      <c r="R140" s="81"/>
-      <c r="S140" s="81"/>
+      <c r="Q140" s="83"/>
+      <c r="R140" s="83"/>
+      <c r="S140" s="83"/>
       <c r="T140" s="18"/>
       <c r="U140" s="18"/>
-      <c r="V140" s="82" t="e">
+      <c r="V140" s="86" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W140" s="83"/>
-      <c r="X140" s="84"/>
+      <c r="W140" s="87"/>
+      <c r="X140" s="88"/>
     </row>
     <row r="141" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M141" s="6" t="s">
@@ -9179,45 +9179,45 @@
       <c r="S152" s="64"/>
     </row>
     <row r="153" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P153" s="79" t="s">
+      <c r="P153" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="Q153" s="79"/>
-      <c r="R153" s="79"/>
-      <c r="S153" s="79"/>
-      <c r="T153" s="79"/>
-      <c r="U153" s="79"/>
-      <c r="V153" s="79"/>
+      <c r="Q153" s="81"/>
+      <c r="R153" s="81"/>
+      <c r="S153" s="81"/>
+      <c r="T153" s="81"/>
+      <c r="U153" s="81"/>
+      <c r="V153" s="81"/>
     </row>
     <row r="154" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P154" s="79"/>
-      <c r="Q154" s="79"/>
-      <c r="R154" s="79"/>
-      <c r="S154" s="79"/>
-      <c r="T154" s="79"/>
-      <c r="U154" s="79"/>
-      <c r="V154" s="79"/>
+      <c r="P154" s="81"/>
+      <c r="Q154" s="81"/>
+      <c r="R154" s="81"/>
+      <c r="S154" s="81"/>
+      <c r="T154" s="81"/>
+      <c r="U154" s="81"/>
+      <c r="V154" s="81"/>
     </row>
     <row r="155" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M155" s="80" t="s">
+      <c r="M155" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N155" s="80"/>
-      <c r="O155" s="80"/>
-      <c r="P155" s="81" t="s">
+      <c r="N155" s="82"/>
+      <c r="O155" s="82"/>
+      <c r="P155" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q155" s="81"/>
-      <c r="R155" s="81"/>
-      <c r="S155" s="81"/>
+      <c r="Q155" s="83"/>
+      <c r="R155" s="83"/>
+      <c r="S155" s="83"/>
       <c r="T155" s="18"/>
       <c r="U155" s="18"/>
-      <c r="V155" s="82" t="e">
+      <c r="V155" s="86" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W155" s="83"/>
-      <c r="X155" s="84"/>
+      <c r="W155" s="87"/>
+      <c r="X155" s="88"/>
     </row>
     <row r="156" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M156" s="6" t="s">
@@ -9481,45 +9481,45 @@
       <c r="X166" s="4"/>
     </row>
     <row r="168" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P168" s="79" t="s">
+      <c r="P168" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="Q168" s="79"/>
-      <c r="R168" s="79"/>
-      <c r="S168" s="79"/>
-      <c r="T168" s="79"/>
-      <c r="U168" s="79"/>
-      <c r="V168" s="79"/>
+      <c r="Q168" s="81"/>
+      <c r="R168" s="81"/>
+      <c r="S168" s="81"/>
+      <c r="T168" s="81"/>
+      <c r="U168" s="81"/>
+      <c r="V168" s="81"/>
     </row>
     <row r="169" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P169" s="79"/>
-      <c r="Q169" s="79"/>
-      <c r="R169" s="79"/>
-      <c r="S169" s="79"/>
-      <c r="T169" s="79"/>
-      <c r="U169" s="79"/>
-      <c r="V169" s="79"/>
+      <c r="P169" s="81"/>
+      <c r="Q169" s="81"/>
+      <c r="R169" s="81"/>
+      <c r="S169" s="81"/>
+      <c r="T169" s="81"/>
+      <c r="U169" s="81"/>
+      <c r="V169" s="81"/>
     </row>
     <row r="170" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M170" s="80" t="s">
+      <c r="M170" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N170" s="80"/>
-      <c r="O170" s="80"/>
-      <c r="P170" s="81" t="s">
+      <c r="N170" s="82"/>
+      <c r="O170" s="82"/>
+      <c r="P170" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q170" s="81"/>
-      <c r="R170" s="81"/>
-      <c r="S170" s="81"/>
+      <c r="Q170" s="83"/>
+      <c r="R170" s="83"/>
+      <c r="S170" s="83"/>
       <c r="T170" s="18"/>
       <c r="U170" s="18"/>
-      <c r="V170" s="82" t="e">
+      <c r="V170" s="86" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W170" s="83"/>
-      <c r="X170" s="84"/>
+      <c r="W170" s="87"/>
+      <c r="X170" s="88"/>
     </row>
     <row r="171" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M171" s="6" t="s">
@@ -9724,45 +9724,45 @@
       <c r="X181" s="4"/>
     </row>
     <row r="186" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P186" s="79" t="s">
+      <c r="P186" s="81" t="s">
         <v>104</v>
       </c>
-      <c r="Q186" s="79"/>
-      <c r="R186" s="79"/>
-      <c r="S186" s="79"/>
-      <c r="T186" s="79"/>
-      <c r="U186" s="79"/>
-      <c r="V186" s="79"/>
+      <c r="Q186" s="81"/>
+      <c r="R186" s="81"/>
+      <c r="S186" s="81"/>
+      <c r="T186" s="81"/>
+      <c r="U186" s="81"/>
+      <c r="V186" s="81"/>
     </row>
     <row r="187" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P187" s="79"/>
-      <c r="Q187" s="79"/>
-      <c r="R187" s="79"/>
-      <c r="S187" s="79"/>
-      <c r="T187" s="79"/>
-      <c r="U187" s="79"/>
-      <c r="V187" s="79"/>
+      <c r="P187" s="81"/>
+      <c r="Q187" s="81"/>
+      <c r="R187" s="81"/>
+      <c r="S187" s="81"/>
+      <c r="T187" s="81"/>
+      <c r="U187" s="81"/>
+      <c r="V187" s="81"/>
     </row>
     <row r="188" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M188" s="80" t="s">
+      <c r="M188" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N188" s="80"/>
-      <c r="O188" s="80"/>
-      <c r="P188" s="81" t="s">
+      <c r="N188" s="82"/>
+      <c r="O188" s="82"/>
+      <c r="P188" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q188" s="81"/>
-      <c r="R188" s="81"/>
-      <c r="S188" s="81"/>
+      <c r="Q188" s="83"/>
+      <c r="R188" s="83"/>
+      <c r="S188" s="83"/>
       <c r="T188" s="18"/>
       <c r="U188" s="18"/>
-      <c r="V188" s="82" t="e">
+      <c r="V188" s="86" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W188" s="83"/>
-      <c r="X188" s="84"/>
+      <c r="W188" s="87"/>
+      <c r="X188" s="88"/>
     </row>
     <row r="189" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M189" s="6" t="s">
@@ -9932,24 +9932,24 @@
       <c r="X194" s="15"/>
     </row>
     <row r="198" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P198" s="79" t="s">
+      <c r="P198" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="Q198" s="79"/>
-      <c r="R198" s="79"/>
-      <c r="S198" s="79"/>
-      <c r="T198" s="79"/>
-      <c r="U198" s="79"/>
-      <c r="V198" s="79"/>
+      <c r="Q198" s="81"/>
+      <c r="R198" s="81"/>
+      <c r="S198" s="81"/>
+      <c r="T198" s="81"/>
+      <c r="U198" s="81"/>
+      <c r="V198" s="81"/>
     </row>
     <row r="199" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P199" s="79"/>
-      <c r="Q199" s="79"/>
-      <c r="R199" s="79"/>
-      <c r="S199" s="79"/>
-      <c r="T199" s="79"/>
-      <c r="U199" s="79"/>
-      <c r="V199" s="79"/>
+      <c r="P199" s="81"/>
+      <c r="Q199" s="81"/>
+      <c r="R199" s="81"/>
+      <c r="S199" s="81"/>
+      <c r="T199" s="81"/>
+      <c r="U199" s="81"/>
+      <c r="V199" s="81"/>
     </row>
     <row r="200" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M200" s="70" t="s">
@@ -10124,24 +10124,24 @@
       </c>
     </row>
     <row r="209" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P209" s="79" t="s">
+      <c r="P209" s="81" t="s">
         <v>113</v>
       </c>
-      <c r="Q209" s="79"/>
-      <c r="R209" s="79"/>
-      <c r="S209" s="79"/>
-      <c r="T209" s="79"/>
-      <c r="U209" s="79"/>
-      <c r="V209" s="79"/>
+      <c r="Q209" s="81"/>
+      <c r="R209" s="81"/>
+      <c r="S209" s="81"/>
+      <c r="T209" s="81"/>
+      <c r="U209" s="81"/>
+      <c r="V209" s="81"/>
     </row>
     <row r="210" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P210" s="79"/>
-      <c r="Q210" s="79"/>
-      <c r="R210" s="79"/>
-      <c r="S210" s="79"/>
-      <c r="T210" s="79"/>
-      <c r="U210" s="79"/>
-      <c r="V210" s="79"/>
+      <c r="P210" s="81"/>
+      <c r="Q210" s="81"/>
+      <c r="R210" s="81"/>
+      <c r="S210" s="81"/>
+      <c r="T210" s="81"/>
+      <c r="U210" s="81"/>
+      <c r="V210" s="81"/>
     </row>
     <row r="211" spans="13:26" ht="36" x14ac:dyDescent="0.25">
       <c r="M211" s="70" t="s">
@@ -10293,24 +10293,24 @@
       </c>
     </row>
     <row r="218" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P218" s="79" t="s">
+      <c r="P218" s="81" t="s">
         <v>114</v>
       </c>
-      <c r="Q218" s="79"/>
-      <c r="R218" s="79"/>
-      <c r="S218" s="79"/>
-      <c r="T218" s="79"/>
-      <c r="U218" s="79"/>
-      <c r="V218" s="79"/>
+      <c r="Q218" s="81"/>
+      <c r="R218" s="81"/>
+      <c r="S218" s="81"/>
+      <c r="T218" s="81"/>
+      <c r="U218" s="81"/>
+      <c r="V218" s="81"/>
     </row>
     <row r="219" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P219" s="79"/>
-      <c r="Q219" s="79"/>
-      <c r="R219" s="79"/>
-      <c r="S219" s="79"/>
-      <c r="T219" s="79"/>
-      <c r="U219" s="79"/>
-      <c r="V219" s="79"/>
+      <c r="P219" s="81"/>
+      <c r="Q219" s="81"/>
+      <c r="R219" s="81"/>
+      <c r="S219" s="81"/>
+      <c r="T219" s="81"/>
+      <c r="U219" s="81"/>
+      <c r="V219" s="81"/>
     </row>
     <row r="220" spans="13:26" ht="36" x14ac:dyDescent="0.25">
       <c r="M220" s="70" t="s">
@@ -10567,24 +10567,24 @@
       </c>
     </row>
     <row r="230" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P230" s="79" t="s">
+      <c r="P230" s="81" t="s">
         <v>116</v>
       </c>
-      <c r="Q230" s="79"/>
-      <c r="R230" s="79"/>
-      <c r="S230" s="79"/>
-      <c r="T230" s="79"/>
-      <c r="U230" s="79"/>
-      <c r="V230" s="79"/>
+      <c r="Q230" s="81"/>
+      <c r="R230" s="81"/>
+      <c r="S230" s="81"/>
+      <c r="T230" s="81"/>
+      <c r="U230" s="81"/>
+      <c r="V230" s="81"/>
     </row>
     <row r="231" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P231" s="79"/>
-      <c r="Q231" s="79"/>
-      <c r="R231" s="79"/>
-      <c r="S231" s="79"/>
-      <c r="T231" s="79"/>
-      <c r="U231" s="79"/>
-      <c r="V231" s="79"/>
+      <c r="P231" s="81"/>
+      <c r="Q231" s="81"/>
+      <c r="R231" s="81"/>
+      <c r="S231" s="81"/>
+      <c r="T231" s="81"/>
+      <c r="U231" s="81"/>
+      <c r="V231" s="81"/>
     </row>
     <row r="232" spans="13:26" ht="36" x14ac:dyDescent="0.25">
       <c r="M232" s="70" t="s">
@@ -10747,24 +10747,24 @@
       </c>
     </row>
     <row r="240" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P240" s="79" t="s">
+      <c r="P240" s="81" t="s">
         <v>118</v>
       </c>
-      <c r="Q240" s="79"/>
-      <c r="R240" s="79"/>
-      <c r="S240" s="79"/>
-      <c r="T240" s="79"/>
-      <c r="U240" s="79"/>
-      <c r="V240" s="79"/>
+      <c r="Q240" s="81"/>
+      <c r="R240" s="81"/>
+      <c r="S240" s="81"/>
+      <c r="T240" s="81"/>
+      <c r="U240" s="81"/>
+      <c r="V240" s="81"/>
     </row>
     <row r="241" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P241" s="79"/>
-      <c r="Q241" s="79"/>
-      <c r="R241" s="79"/>
-      <c r="S241" s="79"/>
-      <c r="T241" s="79"/>
-      <c r="U241" s="79"/>
-      <c r="V241" s="79"/>
+      <c r="P241" s="81"/>
+      <c r="Q241" s="81"/>
+      <c r="R241" s="81"/>
+      <c r="S241" s="81"/>
+      <c r="T241" s="81"/>
+      <c r="U241" s="81"/>
+      <c r="V241" s="81"/>
     </row>
     <row r="242" spans="13:26" ht="36" x14ac:dyDescent="0.25">
       <c r="M242" s="70" t="s">
@@ -10780,11 +10780,11 @@
       <c r="S242" s="71"/>
       <c r="T242" s="18"/>
       <c r="U242" s="18"/>
-      <c r="V242" s="82">
+      <c r="V242" s="86">
         <v>45082</v>
       </c>
-      <c r="W242" s="83"/>
-      <c r="X242" s="84"/>
+      <c r="W242" s="87"/>
+      <c r="X242" s="88"/>
     </row>
     <row r="243" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M243" s="6" t="s">
@@ -10894,24 +10894,24 @@
       </c>
     </row>
     <row r="248" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P248" s="79" t="s">
+      <c r="P248" s="81" t="s">
         <v>119</v>
       </c>
-      <c r="Q248" s="79"/>
-      <c r="R248" s="79"/>
-      <c r="S248" s="79"/>
-      <c r="T248" s="79"/>
-      <c r="U248" s="79"/>
-      <c r="V248" s="79"/>
+      <c r="Q248" s="81"/>
+      <c r="R248" s="81"/>
+      <c r="S248" s="81"/>
+      <c r="T248" s="81"/>
+      <c r="U248" s="81"/>
+      <c r="V248" s="81"/>
     </row>
     <row r="249" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P249" s="79"/>
-      <c r="Q249" s="79"/>
-      <c r="R249" s="79"/>
-      <c r="S249" s="79"/>
-      <c r="T249" s="79"/>
-      <c r="U249" s="79"/>
-      <c r="V249" s="79"/>
+      <c r="P249" s="81"/>
+      <c r="Q249" s="81"/>
+      <c r="R249" s="81"/>
+      <c r="S249" s="81"/>
+      <c r="T249" s="81"/>
+      <c r="U249" s="81"/>
+      <c r="V249" s="81"/>
     </row>
     <row r="250" spans="13:26" ht="36" x14ac:dyDescent="0.25">
       <c r="M250" s="70" t="s">
@@ -10927,11 +10927,11 @@
       <c r="S250" s="71"/>
       <c r="T250" s="18"/>
       <c r="U250" s="18"/>
-      <c r="V250" s="82">
+      <c r="V250" s="86">
         <v>45083</v>
       </c>
-      <c r="W250" s="83"/>
-      <c r="X250" s="84"/>
+      <c r="W250" s="87"/>
+      <c r="X250" s="88"/>
     </row>
     <row r="251" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M251" s="6" t="s">
@@ -11008,24 +11008,24 @@
       </c>
     </row>
     <row r="255" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P255" s="79" t="s">
+      <c r="P255" s="81" t="s">
         <v>120</v>
       </c>
-      <c r="Q255" s="79"/>
-      <c r="R255" s="79"/>
-      <c r="S255" s="79"/>
-      <c r="T255" s="79"/>
-      <c r="U255" s="79"/>
-      <c r="V255" s="79"/>
+      <c r="Q255" s="81"/>
+      <c r="R255" s="81"/>
+      <c r="S255" s="81"/>
+      <c r="T255" s="81"/>
+      <c r="U255" s="81"/>
+      <c r="V255" s="81"/>
     </row>
     <row r="256" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P256" s="79"/>
-      <c r="Q256" s="79"/>
-      <c r="R256" s="79"/>
-      <c r="S256" s="79"/>
-      <c r="T256" s="79"/>
-      <c r="U256" s="79"/>
-      <c r="V256" s="79"/>
+      <c r="P256" s="81"/>
+      <c r="Q256" s="81"/>
+      <c r="R256" s="81"/>
+      <c r="S256" s="81"/>
+      <c r="T256" s="81"/>
+      <c r="U256" s="81"/>
+      <c r="V256" s="81"/>
     </row>
     <row r="257" spans="13:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M257" s="89" t="s">
@@ -11041,11 +11041,11 @@
       <c r="S257" s="93"/>
       <c r="T257" s="93"/>
       <c r="U257" s="94"/>
-      <c r="V257" s="82">
+      <c r="V257" s="86">
         <v>45084</v>
       </c>
-      <c r="W257" s="83"/>
-      <c r="X257" s="84"/>
+      <c r="W257" s="87"/>
+      <c r="X257" s="88"/>
       <c r="Z257" s="20" t="s">
         <v>9</v>
       </c>
@@ -11175,24 +11175,24 @@
       </c>
     </row>
     <row r="262" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P262" s="79" t="s">
+      <c r="P262" s="81" t="s">
         <v>121</v>
       </c>
-      <c r="Q262" s="79"/>
-      <c r="R262" s="79"/>
-      <c r="S262" s="79"/>
-      <c r="T262" s="79"/>
-      <c r="U262" s="79"/>
-      <c r="V262" s="79"/>
+      <c r="Q262" s="81"/>
+      <c r="R262" s="81"/>
+      <c r="S262" s="81"/>
+      <c r="T262" s="81"/>
+      <c r="U262" s="81"/>
+      <c r="V262" s="81"/>
     </row>
     <row r="263" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P263" s="79"/>
-      <c r="Q263" s="79"/>
-      <c r="R263" s="79"/>
-      <c r="S263" s="79"/>
-      <c r="T263" s="79"/>
-      <c r="U263" s="79"/>
-      <c r="V263" s="79"/>
+      <c r="P263" s="81"/>
+      <c r="Q263" s="81"/>
+      <c r="R263" s="81"/>
+      <c r="S263" s="81"/>
+      <c r="T263" s="81"/>
+      <c r="U263" s="81"/>
+      <c r="V263" s="81"/>
     </row>
     <row r="264" spans="13:26" x14ac:dyDescent="0.25">
       <c r="M264" s="89" t="s">
@@ -11208,11 +11208,11 @@
       <c r="S264" s="93"/>
       <c r="T264" s="93"/>
       <c r="U264" s="94"/>
-      <c r="V264" s="82">
+      <c r="V264" s="86">
         <v>45089</v>
       </c>
-      <c r="W264" s="83"/>
-      <c r="X264" s="84"/>
+      <c r="W264" s="87"/>
+      <c r="X264" s="88"/>
     </row>
     <row r="265" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M265" s="6" t="s">
@@ -11469,24 +11469,24 @@
       </c>
     </row>
     <row r="274" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P274" s="79" t="s">
+      <c r="P274" s="81" t="s">
         <v>123</v>
       </c>
-      <c r="Q274" s="79"/>
-      <c r="R274" s="79"/>
-      <c r="S274" s="79"/>
-      <c r="T274" s="79"/>
-      <c r="U274" s="79"/>
-      <c r="V274" s="79"/>
+      <c r="Q274" s="81"/>
+      <c r="R274" s="81"/>
+      <c r="S274" s="81"/>
+      <c r="T274" s="81"/>
+      <c r="U274" s="81"/>
+      <c r="V274" s="81"/>
     </row>
     <row r="275" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P275" s="79"/>
-      <c r="Q275" s="79"/>
-      <c r="R275" s="79"/>
-      <c r="S275" s="79"/>
-      <c r="T275" s="79"/>
-      <c r="U275" s="79"/>
-      <c r="V275" s="79"/>
+      <c r="P275" s="81"/>
+      <c r="Q275" s="81"/>
+      <c r="R275" s="81"/>
+      <c r="S275" s="81"/>
+      <c r="T275" s="81"/>
+      <c r="U275" s="81"/>
+      <c r="V275" s="81"/>
     </row>
     <row r="276" spans="13:26" x14ac:dyDescent="0.25">
       <c r="M276" s="89" t="s">
@@ -11502,11 +11502,11 @@
       <c r="S276" s="93"/>
       <c r="T276" s="93"/>
       <c r="U276" s="94"/>
-      <c r="V276" s="82">
+      <c r="V276" s="86">
         <v>45091</v>
       </c>
-      <c r="W276" s="83"/>
-      <c r="X276" s="84"/>
+      <c r="W276" s="87"/>
+      <c r="X276" s="88"/>
     </row>
     <row r="277" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M277" s="6" t="s">
@@ -11566,8 +11566,8 @@
       <c r="R278" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="S278" s="20" t="s">
-        <v>9</v>
+      <c r="S278" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="T278" s="43">
         <v>0.52083333333333337</v>
@@ -11578,8 +11578,12 @@
       <c r="V278" s="34">
         <v>0.54513888888888895</v>
       </c>
-      <c r="W278" s="34"/>
-      <c r="X278" s="35"/>
+      <c r="W278" s="34">
+        <v>0.77638888888888891</v>
+      </c>
+      <c r="X278" s="35">
+        <v>0.82708333333333339</v>
+      </c>
       <c r="Z278" s="8" t="s">
         <v>8</v>
       </c>
@@ -11601,8 +11605,8 @@
       <c r="R279" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="S279" s="8" t="s">
-        <v>8</v>
+      <c r="S279" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="T279" s="43">
         <v>0.52083333333333337</v>
@@ -11616,7 +11620,9 @@
       <c r="W279" s="34">
         <v>0.67499999999999993</v>
       </c>
-      <c r="X279" s="35"/>
+      <c r="X279" s="35">
+        <v>0.70972222222222225</v>
+      </c>
       <c r="Z279" s="10" t="s">
         <v>11</v>
       </c>
@@ -11667,34 +11673,62 @@
     </row>
   </sheetData>
   <mergeCells count="100">
-    <mergeCell ref="P274:V275"/>
-    <mergeCell ref="M276:O276"/>
-    <mergeCell ref="P276:U276"/>
-    <mergeCell ref="V276:X276"/>
-    <mergeCell ref="P262:V263"/>
-    <mergeCell ref="M264:O264"/>
-    <mergeCell ref="P264:U264"/>
-    <mergeCell ref="V264:X264"/>
-    <mergeCell ref="P240:V241"/>
-    <mergeCell ref="V242:X242"/>
-    <mergeCell ref="P255:V256"/>
-    <mergeCell ref="V257:X257"/>
-    <mergeCell ref="M257:O257"/>
-    <mergeCell ref="P257:U257"/>
-    <mergeCell ref="P248:V249"/>
-    <mergeCell ref="V250:X250"/>
-    <mergeCell ref="P230:V231"/>
-    <mergeCell ref="P168:V169"/>
-    <mergeCell ref="M170:O170"/>
-    <mergeCell ref="P170:S170"/>
-    <mergeCell ref="V170:X170"/>
-    <mergeCell ref="P218:V219"/>
-    <mergeCell ref="P198:V199"/>
-    <mergeCell ref="P186:V187"/>
-    <mergeCell ref="M188:O188"/>
-    <mergeCell ref="P188:S188"/>
-    <mergeCell ref="V188:X188"/>
-    <mergeCell ref="P209:V210"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="D71:G71"/>
+    <mergeCell ref="V71:X71"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="M71:O71"/>
+    <mergeCell ref="P71:S71"/>
+    <mergeCell ref="C86:G87"/>
+    <mergeCell ref="P86:V87"/>
+    <mergeCell ref="C37:G38"/>
+    <mergeCell ref="P37:V38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="P39:S39"/>
+    <mergeCell ref="V39:X39"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="C53:G54"/>
+    <mergeCell ref="P53:V54"/>
+    <mergeCell ref="V55:X55"/>
+    <mergeCell ref="C69:G70"/>
+    <mergeCell ref="P69:V70"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="P55:S55"/>
+    <mergeCell ref="C22:G23"/>
+    <mergeCell ref="P22:V23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="C2:G3"/>
+    <mergeCell ref="P2:V3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="M140:O140"/>
+    <mergeCell ref="P140:S140"/>
+    <mergeCell ref="V140:X140"/>
+    <mergeCell ref="D88:G88"/>
+    <mergeCell ref="H88:J88"/>
+    <mergeCell ref="M88:O88"/>
+    <mergeCell ref="P88:S88"/>
+    <mergeCell ref="V88:X88"/>
+    <mergeCell ref="P138:V139"/>
+    <mergeCell ref="P121:V122"/>
+    <mergeCell ref="V123:X123"/>
+    <mergeCell ref="M123:O123"/>
+    <mergeCell ref="P123:S123"/>
     <mergeCell ref="M155:O155"/>
     <mergeCell ref="P155:S155"/>
     <mergeCell ref="V155:X155"/>
@@ -11711,62 +11745,34 @@
     <mergeCell ref="A123:C123"/>
     <mergeCell ref="D123:G123"/>
     <mergeCell ref="H123:J123"/>
-    <mergeCell ref="M140:O140"/>
-    <mergeCell ref="P140:S140"/>
-    <mergeCell ref="V140:X140"/>
-    <mergeCell ref="D88:G88"/>
-    <mergeCell ref="H88:J88"/>
-    <mergeCell ref="M88:O88"/>
-    <mergeCell ref="P88:S88"/>
-    <mergeCell ref="V88:X88"/>
-    <mergeCell ref="P138:V139"/>
-    <mergeCell ref="C2:G3"/>
-    <mergeCell ref="P2:V3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="C22:G23"/>
-    <mergeCell ref="P22:V23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="C53:G54"/>
-    <mergeCell ref="P53:V54"/>
-    <mergeCell ref="V55:X55"/>
-    <mergeCell ref="C69:G70"/>
-    <mergeCell ref="P69:V70"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="M55:O55"/>
-    <mergeCell ref="P55:S55"/>
-    <mergeCell ref="C37:G38"/>
-    <mergeCell ref="P37:V38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="P39:S39"/>
-    <mergeCell ref="V39:X39"/>
-    <mergeCell ref="P121:V122"/>
-    <mergeCell ref="V123:X123"/>
-    <mergeCell ref="M123:O123"/>
-    <mergeCell ref="P123:S123"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="M71:O71"/>
-    <mergeCell ref="P71:S71"/>
-    <mergeCell ref="C86:G87"/>
-    <mergeCell ref="P86:V87"/>
-    <mergeCell ref="A88:C88"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="D71:G71"/>
-    <mergeCell ref="V71:X71"/>
+    <mergeCell ref="P230:V231"/>
+    <mergeCell ref="P168:V169"/>
+    <mergeCell ref="M170:O170"/>
+    <mergeCell ref="P170:S170"/>
+    <mergeCell ref="V170:X170"/>
+    <mergeCell ref="P218:V219"/>
+    <mergeCell ref="P198:V199"/>
+    <mergeCell ref="P186:V187"/>
+    <mergeCell ref="M188:O188"/>
+    <mergeCell ref="P188:S188"/>
+    <mergeCell ref="V188:X188"/>
+    <mergeCell ref="P209:V210"/>
+    <mergeCell ref="P240:V241"/>
+    <mergeCell ref="V242:X242"/>
+    <mergeCell ref="P255:V256"/>
+    <mergeCell ref="V257:X257"/>
+    <mergeCell ref="M257:O257"/>
+    <mergeCell ref="P257:U257"/>
+    <mergeCell ref="P248:V249"/>
+    <mergeCell ref="V250:X250"/>
+    <mergeCell ref="P274:V275"/>
+    <mergeCell ref="M276:O276"/>
+    <mergeCell ref="P276:U276"/>
+    <mergeCell ref="V276:X276"/>
+    <mergeCell ref="P262:V263"/>
+    <mergeCell ref="M264:O264"/>
+    <mergeCell ref="P264:U264"/>
+    <mergeCell ref="V264:X264"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/DOC 2023/FORMATO STATUS.xlsx
+++ b/DOC 2023/FORMATO STATUS.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\DOC 2023\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3884B14-35B6-4FCA-A615-064B2AFDF64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="FEBRERO" sheetId="2" r:id="rId1"/>
     <sheet name="MARZO" sheetId="3" r:id="rId2"/>
     <sheet name="Hoja2" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="125">
   <si>
     <t>DT</t>
   </si>
@@ -407,12 +401,15 @@
   </si>
   <si>
     <t>Jueves 15-06-2023</t>
+  </si>
+  <si>
+    <t>Martes 20-06-2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
@@ -762,7 +759,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -984,12 +981,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -999,12 +990,6 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1012,6 +997,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1031,6 +1028,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1309,14 +1312,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Z124"/>
   <sheetViews>
     <sheetView topLeftCell="J103" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
@@ -1338,72 +1341,72 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="P2" s="81" t="s">
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="P2" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="81"/>
-      <c r="S2" s="81"/>
-      <c r="T2" s="81"/>
-      <c r="U2" s="81"/>
-      <c r="V2" s="81"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="79"/>
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="81"/>
-      <c r="S3" s="81"/>
-      <c r="T3" s="81"/>
-      <c r="U3" s="81"/>
-      <c r="V3" s="81"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="79"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="83" t="s">
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="84">
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="87">
         <v>44965</v>
       </c>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="M4" s="82" t="s">
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="M4" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="82"/>
-      <c r="O4" s="82"/>
-      <c r="P4" s="83" t="s">
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="83"/>
-      <c r="R4" s="83"/>
-      <c r="S4" s="83"/>
+      <c r="Q4" s="81"/>
+      <c r="R4" s="81"/>
+      <c r="S4" s="81"/>
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
-      <c r="V4" s="86">
+      <c r="V4" s="82">
         <v>44601</v>
       </c>
-      <c r="W4" s="87"/>
-      <c r="X4" s="88"/>
+      <c r="W4" s="83"/>
+      <c r="X4" s="84"/>
     </row>
     <row r="5" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -1818,72 +1821,72 @@
       <c r="X15" s="4"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C22" s="79" t="s">
+      <c r="C22" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="P22" s="81" t="s">
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
+      <c r="P22" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="Q22" s="81"/>
-      <c r="R22" s="81"/>
-      <c r="S22" s="81"/>
-      <c r="T22" s="81"/>
-      <c r="U22" s="81"/>
-      <c r="V22" s="81"/>
+      <c r="Q22" s="79"/>
+      <c r="R22" s="79"/>
+      <c r="S22" s="79"/>
+      <c r="T22" s="79"/>
+      <c r="U22" s="79"/>
+      <c r="V22" s="79"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C23" s="80"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80"/>
-      <c r="P23" s="81"/>
-      <c r="Q23" s="81"/>
-      <c r="R23" s="81"/>
-      <c r="S23" s="81"/>
-      <c r="T23" s="81"/>
-      <c r="U23" s="81"/>
-      <c r="V23" s="81"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="P23" s="79"/>
+      <c r="Q23" s="79"/>
+      <c r="R23" s="79"/>
+      <c r="S23" s="79"/>
+      <c r="T23" s="79"/>
+      <c r="U23" s="79"/>
+      <c r="V23" s="79"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="82" t="s">
+      <c r="A24" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="82"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="83" t="s">
+      <c r="B24" s="80"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="83"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="84">
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="87">
         <v>44965</v>
       </c>
-      <c r="I24" s="85"/>
-      <c r="J24" s="85"/>
-      <c r="M24" s="82" t="s">
+      <c r="I24" s="88"/>
+      <c r="J24" s="88"/>
+      <c r="M24" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N24" s="82"/>
-      <c r="O24" s="82"/>
-      <c r="P24" s="83" t="s">
+      <c r="N24" s="80"/>
+      <c r="O24" s="80"/>
+      <c r="P24" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q24" s="83"/>
-      <c r="R24" s="83"/>
-      <c r="S24" s="83"/>
+      <c r="Q24" s="81"/>
+      <c r="R24" s="81"/>
+      <c r="S24" s="81"/>
       <c r="T24" s="18"/>
       <c r="U24" s="18"/>
-      <c r="V24" s="86">
+      <c r="V24" s="82">
         <v>44971</v>
       </c>
-      <c r="W24" s="87"/>
-      <c r="X24" s="88"/>
+      <c r="W24" s="83"/>
+      <c r="X24" s="84"/>
     </row>
     <row r="25" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -2338,72 +2341,72 @@
       <c r="X35" s="4"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C38" s="79" t="s">
+      <c r="C38" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="79"/>
-      <c r="E38" s="79"/>
-      <c r="F38" s="79"/>
-      <c r="G38" s="79"/>
-      <c r="P38" s="81" t="s">
+      <c r="D38" s="85"/>
+      <c r="E38" s="85"/>
+      <c r="F38" s="85"/>
+      <c r="G38" s="85"/>
+      <c r="P38" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="Q38" s="81"/>
-      <c r="R38" s="81"/>
-      <c r="S38" s="81"/>
-      <c r="T38" s="81"/>
-      <c r="U38" s="81"/>
-      <c r="V38" s="81"/>
+      <c r="Q38" s="79"/>
+      <c r="R38" s="79"/>
+      <c r="S38" s="79"/>
+      <c r="T38" s="79"/>
+      <c r="U38" s="79"/>
+      <c r="V38" s="79"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C39" s="80"/>
-      <c r="D39" s="80"/>
-      <c r="E39" s="80"/>
-      <c r="F39" s="80"/>
-      <c r="G39" s="80"/>
-      <c r="P39" s="81"/>
-      <c r="Q39" s="81"/>
-      <c r="R39" s="81"/>
-      <c r="S39" s="81"/>
-      <c r="T39" s="81"/>
-      <c r="U39" s="81"/>
-      <c r="V39" s="81"/>
+      <c r="C39" s="86"/>
+      <c r="D39" s="86"/>
+      <c r="E39" s="86"/>
+      <c r="F39" s="86"/>
+      <c r="G39" s="86"/>
+      <c r="P39" s="79"/>
+      <c r="Q39" s="79"/>
+      <c r="R39" s="79"/>
+      <c r="S39" s="79"/>
+      <c r="T39" s="79"/>
+      <c r="U39" s="79"/>
+      <c r="V39" s="79"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A40" s="82" t="s">
+      <c r="A40" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="82"/>
-      <c r="C40" s="82"/>
-      <c r="D40" s="83" t="s">
+      <c r="B40" s="80"/>
+      <c r="C40" s="80"/>
+      <c r="D40" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E40" s="83"/>
-      <c r="F40" s="83"/>
-      <c r="G40" s="83"/>
-      <c r="H40" s="84">
+      <c r="E40" s="81"/>
+      <c r="F40" s="81"/>
+      <c r="G40" s="81"/>
+      <c r="H40" s="87">
         <v>44972</v>
       </c>
-      <c r="I40" s="85"/>
-      <c r="J40" s="85"/>
-      <c r="M40" s="82" t="s">
+      <c r="I40" s="88"/>
+      <c r="J40" s="88"/>
+      <c r="M40" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N40" s="82"/>
-      <c r="O40" s="82"/>
-      <c r="P40" s="83" t="s">
+      <c r="N40" s="80"/>
+      <c r="O40" s="80"/>
+      <c r="P40" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q40" s="83"/>
-      <c r="R40" s="83"/>
-      <c r="S40" s="83"/>
+      <c r="Q40" s="81"/>
+      <c r="R40" s="81"/>
+      <c r="S40" s="81"/>
       <c r="T40" s="18"/>
       <c r="U40" s="18"/>
-      <c r="V40" s="86">
+      <c r="V40" s="82">
         <v>44973</v>
       </c>
-      <c r="W40" s="87"/>
-      <c r="X40" s="88"/>
+      <c r="W40" s="83"/>
+      <c r="X40" s="84"/>
     </row>
     <row r="41" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
@@ -2818,72 +2821,72 @@
       <c r="X51" s="4"/>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C54" s="79" t="s">
+      <c r="C54" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="D54" s="79"/>
-      <c r="E54" s="79"/>
-      <c r="F54" s="79"/>
-      <c r="G54" s="79"/>
-      <c r="P54" s="81" t="s">
+      <c r="D54" s="85"/>
+      <c r="E54" s="85"/>
+      <c r="F54" s="85"/>
+      <c r="G54" s="85"/>
+      <c r="P54" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="Q54" s="81"/>
-      <c r="R54" s="81"/>
-      <c r="S54" s="81"/>
-      <c r="T54" s="81"/>
-      <c r="U54" s="81"/>
-      <c r="V54" s="81"/>
+      <c r="Q54" s="79"/>
+      <c r="R54" s="79"/>
+      <c r="S54" s="79"/>
+      <c r="T54" s="79"/>
+      <c r="U54" s="79"/>
+      <c r="V54" s="79"/>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C55" s="80"/>
-      <c r="D55" s="80"/>
-      <c r="E55" s="80"/>
-      <c r="F55" s="80"/>
-      <c r="G55" s="80"/>
-      <c r="P55" s="81"/>
-      <c r="Q55" s="81"/>
-      <c r="R55" s="81"/>
-      <c r="S55" s="81"/>
-      <c r="T55" s="81"/>
-      <c r="U55" s="81"/>
-      <c r="V55" s="81"/>
+      <c r="C55" s="86"/>
+      <c r="D55" s="86"/>
+      <c r="E55" s="86"/>
+      <c r="F55" s="86"/>
+      <c r="G55" s="86"/>
+      <c r="P55" s="79"/>
+      <c r="Q55" s="79"/>
+      <c r="R55" s="79"/>
+      <c r="S55" s="79"/>
+      <c r="T55" s="79"/>
+      <c r="U55" s="79"/>
+      <c r="V55" s="79"/>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A56" s="82" t="s">
+      <c r="A56" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="82"/>
-      <c r="C56" s="82"/>
-      <c r="D56" s="83" t="s">
+      <c r="B56" s="80"/>
+      <c r="C56" s="80"/>
+      <c r="D56" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E56" s="83"/>
-      <c r="F56" s="83"/>
-      <c r="G56" s="83"/>
-      <c r="H56" s="84">
+      <c r="E56" s="81"/>
+      <c r="F56" s="81"/>
+      <c r="G56" s="81"/>
+      <c r="H56" s="87">
         <v>44974</v>
       </c>
-      <c r="I56" s="85"/>
-      <c r="J56" s="85"/>
-      <c r="M56" s="82" t="s">
+      <c r="I56" s="88"/>
+      <c r="J56" s="88"/>
+      <c r="M56" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N56" s="82"/>
-      <c r="O56" s="82"/>
-      <c r="P56" s="83" t="s">
+      <c r="N56" s="80"/>
+      <c r="O56" s="80"/>
+      <c r="P56" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q56" s="83"/>
-      <c r="R56" s="83"/>
-      <c r="S56" s="83"/>
+      <c r="Q56" s="81"/>
+      <c r="R56" s="81"/>
+      <c r="S56" s="81"/>
       <c r="T56" s="18"/>
       <c r="U56" s="18"/>
-      <c r="V56" s="86">
+      <c r="V56" s="82">
         <v>44975</v>
       </c>
-      <c r="W56" s="87"/>
-      <c r="X56" s="88"/>
+      <c r="W56" s="83"/>
+      <c r="X56" s="84"/>
     </row>
     <row r="57" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
@@ -3338,72 +3341,72 @@
       <c r="X67" s="4"/>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C70" s="79" t="s">
+      <c r="C70" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="D70" s="79"/>
-      <c r="E70" s="79"/>
-      <c r="F70" s="79"/>
-      <c r="G70" s="79"/>
-      <c r="P70" s="81" t="s">
+      <c r="D70" s="85"/>
+      <c r="E70" s="85"/>
+      <c r="F70" s="85"/>
+      <c r="G70" s="85"/>
+      <c r="P70" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="Q70" s="81"/>
-      <c r="R70" s="81"/>
-      <c r="S70" s="81"/>
-      <c r="T70" s="81"/>
-      <c r="U70" s="81"/>
-      <c r="V70" s="81"/>
+      <c r="Q70" s="79"/>
+      <c r="R70" s="79"/>
+      <c r="S70" s="79"/>
+      <c r="T70" s="79"/>
+      <c r="U70" s="79"/>
+      <c r="V70" s="79"/>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C71" s="80"/>
-      <c r="D71" s="80"/>
-      <c r="E71" s="80"/>
-      <c r="F71" s="80"/>
-      <c r="G71" s="80"/>
-      <c r="P71" s="81"/>
-      <c r="Q71" s="81"/>
-      <c r="R71" s="81"/>
-      <c r="S71" s="81"/>
-      <c r="T71" s="81"/>
-      <c r="U71" s="81"/>
-      <c r="V71" s="81"/>
+      <c r="C71" s="86"/>
+      <c r="D71" s="86"/>
+      <c r="E71" s="86"/>
+      <c r="F71" s="86"/>
+      <c r="G71" s="86"/>
+      <c r="P71" s="79"/>
+      <c r="Q71" s="79"/>
+      <c r="R71" s="79"/>
+      <c r="S71" s="79"/>
+      <c r="T71" s="79"/>
+      <c r="U71" s="79"/>
+      <c r="V71" s="79"/>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A72" s="82" t="s">
+      <c r="A72" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B72" s="82"/>
-      <c r="C72" s="82"/>
-      <c r="D72" s="83" t="s">
+      <c r="B72" s="80"/>
+      <c r="C72" s="80"/>
+      <c r="D72" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E72" s="83"/>
-      <c r="F72" s="83"/>
-      <c r="G72" s="83"/>
-      <c r="H72" s="84">
+      <c r="E72" s="81"/>
+      <c r="F72" s="81"/>
+      <c r="G72" s="81"/>
+      <c r="H72" s="87">
         <v>44979</v>
       </c>
-      <c r="I72" s="85"/>
-      <c r="J72" s="85"/>
-      <c r="M72" s="82" t="s">
+      <c r="I72" s="88"/>
+      <c r="J72" s="88"/>
+      <c r="M72" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N72" s="82"/>
-      <c r="O72" s="82"/>
-      <c r="P72" s="83" t="s">
+      <c r="N72" s="80"/>
+      <c r="O72" s="80"/>
+      <c r="P72" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q72" s="83"/>
-      <c r="R72" s="83"/>
-      <c r="S72" s="83"/>
+      <c r="Q72" s="81"/>
+      <c r="R72" s="81"/>
+      <c r="S72" s="81"/>
       <c r="T72" s="18"/>
       <c r="U72" s="18"/>
-      <c r="V72" s="86">
+      <c r="V72" s="82">
         <v>44980</v>
       </c>
-      <c r="W72" s="87"/>
-      <c r="X72" s="88"/>
+      <c r="W72" s="83"/>
+      <c r="X72" s="84"/>
     </row>
     <row r="73" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
@@ -3774,72 +3777,72 @@
       <c r="X83" s="4"/>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C87" s="79" t="s">
+      <c r="C87" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="D87" s="79"/>
-      <c r="E87" s="79"/>
-      <c r="F87" s="79"/>
-      <c r="G87" s="79"/>
-      <c r="P87" s="81" t="s">
+      <c r="D87" s="85"/>
+      <c r="E87" s="85"/>
+      <c r="F87" s="85"/>
+      <c r="G87" s="85"/>
+      <c r="P87" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="Q87" s="81"/>
-      <c r="R87" s="81"/>
-      <c r="S87" s="81"/>
-      <c r="T87" s="81"/>
-      <c r="U87" s="81"/>
-      <c r="V87" s="81"/>
+      <c r="Q87" s="79"/>
+      <c r="R87" s="79"/>
+      <c r="S87" s="79"/>
+      <c r="T87" s="79"/>
+      <c r="U87" s="79"/>
+      <c r="V87" s="79"/>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C88" s="80"/>
-      <c r="D88" s="80"/>
-      <c r="E88" s="80"/>
-      <c r="F88" s="80"/>
-      <c r="G88" s="80"/>
-      <c r="P88" s="81"/>
-      <c r="Q88" s="81"/>
-      <c r="R88" s="81"/>
-      <c r="S88" s="81"/>
-      <c r="T88" s="81"/>
-      <c r="U88" s="81"/>
-      <c r="V88" s="81"/>
+      <c r="C88" s="86"/>
+      <c r="D88" s="86"/>
+      <c r="E88" s="86"/>
+      <c r="F88" s="86"/>
+      <c r="G88" s="86"/>
+      <c r="P88" s="79"/>
+      <c r="Q88" s="79"/>
+      <c r="R88" s="79"/>
+      <c r="S88" s="79"/>
+      <c r="T88" s="79"/>
+      <c r="U88" s="79"/>
+      <c r="V88" s="79"/>
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A89" s="82" t="s">
+      <c r="A89" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B89" s="82"/>
-      <c r="C89" s="82"/>
-      <c r="D89" s="83" t="s">
+      <c r="B89" s="80"/>
+      <c r="C89" s="80"/>
+      <c r="D89" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E89" s="83"/>
-      <c r="F89" s="83"/>
-      <c r="G89" s="83"/>
-      <c r="H89" s="84">
+      <c r="E89" s="81"/>
+      <c r="F89" s="81"/>
+      <c r="G89" s="81"/>
+      <c r="H89" s="87">
         <v>44981</v>
       </c>
-      <c r="I89" s="85"/>
-      <c r="J89" s="85"/>
-      <c r="M89" s="82" t="s">
+      <c r="I89" s="88"/>
+      <c r="J89" s="88"/>
+      <c r="M89" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N89" s="82"/>
-      <c r="O89" s="82"/>
-      <c r="P89" s="83" t="s">
+      <c r="N89" s="80"/>
+      <c r="O89" s="80"/>
+      <c r="P89" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q89" s="83"/>
-      <c r="R89" s="83"/>
-      <c r="S89" s="83"/>
+      <c r="Q89" s="81"/>
+      <c r="R89" s="81"/>
+      <c r="S89" s="81"/>
       <c r="T89" s="18"/>
       <c r="U89" s="18"/>
-      <c r="V89" s="86">
+      <c r="V89" s="82">
         <v>44980</v>
       </c>
-      <c r="W89" s="87"/>
-      <c r="X89" s="88"/>
+      <c r="W89" s="83"/>
+      <c r="X89" s="84"/>
     </row>
     <row r="90" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
@@ -4294,72 +4297,72 @@
       <c r="X100" s="4"/>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C104" s="79" t="s">
+      <c r="C104" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="D104" s="79"/>
-      <c r="E104" s="79"/>
-      <c r="F104" s="79"/>
-      <c r="G104" s="79"/>
-      <c r="P104" s="81" t="s">
+      <c r="D104" s="85"/>
+      <c r="E104" s="85"/>
+      <c r="F104" s="85"/>
+      <c r="G104" s="85"/>
+      <c r="P104" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="Q104" s="81"/>
-      <c r="R104" s="81"/>
-      <c r="S104" s="81"/>
-      <c r="T104" s="81"/>
-      <c r="U104" s="81"/>
-      <c r="V104" s="81"/>
+      <c r="Q104" s="79"/>
+      <c r="R104" s="79"/>
+      <c r="S104" s="79"/>
+      <c r="T104" s="79"/>
+      <c r="U104" s="79"/>
+      <c r="V104" s="79"/>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C105" s="80"/>
-      <c r="D105" s="80"/>
-      <c r="E105" s="80"/>
-      <c r="F105" s="80"/>
-      <c r="G105" s="80"/>
-      <c r="P105" s="81"/>
-      <c r="Q105" s="81"/>
-      <c r="R105" s="81"/>
-      <c r="S105" s="81"/>
-      <c r="T105" s="81"/>
-      <c r="U105" s="81"/>
-      <c r="V105" s="81"/>
+      <c r="C105" s="86"/>
+      <c r="D105" s="86"/>
+      <c r="E105" s="86"/>
+      <c r="F105" s="86"/>
+      <c r="G105" s="86"/>
+      <c r="P105" s="79"/>
+      <c r="Q105" s="79"/>
+      <c r="R105" s="79"/>
+      <c r="S105" s="79"/>
+      <c r="T105" s="79"/>
+      <c r="U105" s="79"/>
+      <c r="V105" s="79"/>
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A106" s="82" t="s">
+      <c r="A106" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B106" s="82"/>
-      <c r="C106" s="82"/>
-      <c r="D106" s="83" t="s">
+      <c r="B106" s="80"/>
+      <c r="C106" s="80"/>
+      <c r="D106" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E106" s="83"/>
-      <c r="F106" s="83"/>
-      <c r="G106" s="83"/>
-      <c r="H106" s="84">
+      <c r="E106" s="81"/>
+      <c r="F106" s="81"/>
+      <c r="G106" s="81"/>
+      <c r="H106" s="87">
         <v>44979</v>
       </c>
-      <c r="I106" s="85"/>
-      <c r="J106" s="85"/>
-      <c r="M106" s="82" t="s">
+      <c r="I106" s="88"/>
+      <c r="J106" s="88"/>
+      <c r="M106" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N106" s="82"/>
-      <c r="O106" s="82"/>
-      <c r="P106" s="83" t="s">
+      <c r="N106" s="80"/>
+      <c r="O106" s="80"/>
+      <c r="P106" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q106" s="83"/>
-      <c r="R106" s="83"/>
-      <c r="S106" s="83"/>
+      <c r="Q106" s="81"/>
+      <c r="R106" s="81"/>
+      <c r="S106" s="81"/>
       <c r="T106" s="18"/>
       <c r="U106" s="18"/>
-      <c r="V106" s="86" t="s">
+      <c r="V106" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="W106" s="87"/>
-      <c r="X106" s="88"/>
+      <c r="W106" s="83"/>
+      <c r="X106" s="84"/>
     </row>
     <row r="107" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
@@ -4857,6 +4860,54 @@
     <row r="124" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="C104:G105"/>
+    <mergeCell ref="P104:V105"/>
+    <mergeCell ref="A106:C106"/>
+    <mergeCell ref="D106:G106"/>
+    <mergeCell ref="H106:J106"/>
+    <mergeCell ref="M106:O106"/>
+    <mergeCell ref="P106:S106"/>
+    <mergeCell ref="V106:X106"/>
+    <mergeCell ref="C87:G88"/>
+    <mergeCell ref="P87:V88"/>
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="D89:G89"/>
+    <mergeCell ref="H89:J89"/>
+    <mergeCell ref="M89:O89"/>
+    <mergeCell ref="P89:S89"/>
+    <mergeCell ref="V89:X89"/>
+    <mergeCell ref="C70:G71"/>
+    <mergeCell ref="P70:V71"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="D72:G72"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="M72:O72"/>
+    <mergeCell ref="P72:S72"/>
+    <mergeCell ref="V72:X72"/>
+    <mergeCell ref="C54:G55"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="P54:V55"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="P56:S56"/>
+    <mergeCell ref="V56:X56"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="C2:G3"/>
+    <mergeCell ref="P2:V3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="C22:G23"/>
+    <mergeCell ref="P22:V23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="V24:X24"/>
     <mergeCell ref="P38:V39"/>
     <mergeCell ref="M40:O40"/>
     <mergeCell ref="P40:S40"/>
@@ -4865,54 +4916,6 @@
     <mergeCell ref="A40:C40"/>
     <mergeCell ref="D40:G40"/>
     <mergeCell ref="H40:J40"/>
-    <mergeCell ref="C22:G23"/>
-    <mergeCell ref="P22:V23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="C2:G3"/>
-    <mergeCell ref="P2:V3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="C54:G55"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="P54:V55"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="P56:S56"/>
-    <mergeCell ref="V56:X56"/>
-    <mergeCell ref="C70:G71"/>
-    <mergeCell ref="P70:V71"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="D72:G72"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="M72:O72"/>
-    <mergeCell ref="P72:S72"/>
-    <mergeCell ref="V72:X72"/>
-    <mergeCell ref="C87:G88"/>
-    <mergeCell ref="P87:V88"/>
-    <mergeCell ref="A89:C89"/>
-    <mergeCell ref="D89:G89"/>
-    <mergeCell ref="H89:J89"/>
-    <mergeCell ref="M89:O89"/>
-    <mergeCell ref="P89:S89"/>
-    <mergeCell ref="V89:X89"/>
-    <mergeCell ref="C104:G105"/>
-    <mergeCell ref="P104:V105"/>
-    <mergeCell ref="A106:C106"/>
-    <mergeCell ref="D106:G106"/>
-    <mergeCell ref="H106:J106"/>
-    <mergeCell ref="M106:O106"/>
-    <mergeCell ref="P106:S106"/>
-    <mergeCell ref="V106:X106"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4920,11 +4923,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:Z281"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:Z290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M267" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X271" sqref="X271"/>
+    <sheetView tabSelected="1" topLeftCell="M278" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M284" sqref="M284:X290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4944,72 +4947,72 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="P2" s="81" t="s">
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="P2" s="79" t="s">
         <v>76</v>
       </c>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="81"/>
-      <c r="S2" s="81"/>
-      <c r="T2" s="81"/>
-      <c r="U2" s="81"/>
-      <c r="V2" s="81"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="79"/>
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="81"/>
-      <c r="S3" s="81"/>
-      <c r="T3" s="81"/>
-      <c r="U3" s="81"/>
-      <c r="V3" s="81"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="79"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="83" t="s">
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="84" t="s">
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="M4" s="82" t="s">
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="M4" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="82"/>
-      <c r="O4" s="82"/>
-      <c r="P4" s="83" t="s">
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="83"/>
-      <c r="R4" s="83"/>
-      <c r="S4" s="83"/>
+      <c r="Q4" s="81"/>
+      <c r="R4" s="81"/>
+      <c r="S4" s="81"/>
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
-      <c r="V4" s="86">
+      <c r="V4" s="82">
         <v>44601</v>
       </c>
-      <c r="W4" s="87"/>
-      <c r="X4" s="88"/>
+      <c r="W4" s="83"/>
+      <c r="X4" s="84"/>
     </row>
     <row r="5" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -5476,72 +5479,72 @@
       <c r="X15" s="4"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C22" s="79" t="s">
+      <c r="C22" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="P22" s="81" t="s">
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
+      <c r="P22" s="79" t="s">
         <v>77</v>
       </c>
-      <c r="Q22" s="81"/>
-      <c r="R22" s="81"/>
-      <c r="S22" s="81"/>
-      <c r="T22" s="81"/>
-      <c r="U22" s="81"/>
-      <c r="V22" s="81"/>
+      <c r="Q22" s="79"/>
+      <c r="R22" s="79"/>
+      <c r="S22" s="79"/>
+      <c r="T22" s="79"/>
+      <c r="U22" s="79"/>
+      <c r="V22" s="79"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C23" s="80"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80"/>
-      <c r="P23" s="81"/>
-      <c r="Q23" s="81"/>
-      <c r="R23" s="81"/>
-      <c r="S23" s="81"/>
-      <c r="T23" s="81"/>
-      <c r="U23" s="81"/>
-      <c r="V23" s="81"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="P23" s="79"/>
+      <c r="Q23" s="79"/>
+      <c r="R23" s="79"/>
+      <c r="S23" s="79"/>
+      <c r="T23" s="79"/>
+      <c r="U23" s="79"/>
+      <c r="V23" s="79"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="82" t="s">
+      <c r="A24" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="82"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="83" t="s">
+      <c r="B24" s="80"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="83"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="84">
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="87">
         <v>44993</v>
       </c>
-      <c r="I24" s="85"/>
-      <c r="J24" s="85"/>
-      <c r="M24" s="82" t="s">
+      <c r="I24" s="88"/>
+      <c r="J24" s="88"/>
+      <c r="M24" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N24" s="82"/>
-      <c r="O24" s="82"/>
-      <c r="P24" s="83" t="s">
+      <c r="N24" s="80"/>
+      <c r="O24" s="80"/>
+      <c r="P24" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q24" s="83"/>
-      <c r="R24" s="83"/>
-      <c r="S24" s="83"/>
+      <c r="Q24" s="81"/>
+      <c r="R24" s="81"/>
+      <c r="S24" s="81"/>
       <c r="T24" s="18"/>
       <c r="U24" s="18"/>
-      <c r="V24" s="86">
+      <c r="V24" s="82">
         <v>44993</v>
       </c>
-      <c r="W24" s="87"/>
-      <c r="X24" s="88"/>
+      <c r="W24" s="83"/>
+      <c r="X24" s="84"/>
     </row>
     <row r="25" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -5971,72 +5974,72 @@
       <c r="X34" s="4"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C37" s="79" t="s">
+      <c r="C37" s="85" t="s">
         <v>84</v>
       </c>
-      <c r="D37" s="79"/>
-      <c r="E37" s="79"/>
-      <c r="F37" s="79"/>
-      <c r="G37" s="79"/>
-      <c r="P37" s="81" t="s">
+      <c r="D37" s="85"/>
+      <c r="E37" s="85"/>
+      <c r="F37" s="85"/>
+      <c r="G37" s="85"/>
+      <c r="P37" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="Q37" s="81"/>
-      <c r="R37" s="81"/>
-      <c r="S37" s="81"/>
-      <c r="T37" s="81"/>
-      <c r="U37" s="81"/>
-      <c r="V37" s="81"/>
+      <c r="Q37" s="79"/>
+      <c r="R37" s="79"/>
+      <c r="S37" s="79"/>
+      <c r="T37" s="79"/>
+      <c r="U37" s="79"/>
+      <c r="V37" s="79"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C38" s="80"/>
-      <c r="D38" s="80"/>
-      <c r="E38" s="80"/>
-      <c r="F38" s="80"/>
-      <c r="G38" s="80"/>
-      <c r="P38" s="81"/>
-      <c r="Q38" s="81"/>
-      <c r="R38" s="81"/>
-      <c r="S38" s="81"/>
-      <c r="T38" s="81"/>
-      <c r="U38" s="81"/>
-      <c r="V38" s="81"/>
+      <c r="C38" s="86"/>
+      <c r="D38" s="86"/>
+      <c r="E38" s="86"/>
+      <c r="F38" s="86"/>
+      <c r="G38" s="86"/>
+      <c r="P38" s="79"/>
+      <c r="Q38" s="79"/>
+      <c r="R38" s="79"/>
+      <c r="S38" s="79"/>
+      <c r="T38" s="79"/>
+      <c r="U38" s="79"/>
+      <c r="V38" s="79"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A39" s="82" t="s">
+      <c r="A39" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="82"/>
-      <c r="C39" s="82"/>
-      <c r="D39" s="83" t="s">
+      <c r="B39" s="80"/>
+      <c r="C39" s="80"/>
+      <c r="D39" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="83"/>
-      <c r="F39" s="83"/>
-      <c r="G39" s="83"/>
-      <c r="H39" s="84">
+      <c r="E39" s="81"/>
+      <c r="F39" s="81"/>
+      <c r="G39" s="81"/>
+      <c r="H39" s="87">
         <v>44972</v>
       </c>
-      <c r="I39" s="85"/>
-      <c r="J39" s="85"/>
-      <c r="M39" s="82" t="s">
+      <c r="I39" s="88"/>
+      <c r="J39" s="88"/>
+      <c r="M39" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N39" s="82"/>
-      <c r="O39" s="82"/>
-      <c r="P39" s="83" t="s">
+      <c r="N39" s="80"/>
+      <c r="O39" s="80"/>
+      <c r="P39" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q39" s="83"/>
-      <c r="R39" s="83"/>
-      <c r="S39" s="83"/>
+      <c r="Q39" s="81"/>
+      <c r="R39" s="81"/>
+      <c r="S39" s="81"/>
       <c r="T39" s="18"/>
       <c r="U39" s="18"/>
-      <c r="V39" s="86">
+      <c r="V39" s="82">
         <v>44994</v>
       </c>
-      <c r="W39" s="87"/>
-      <c r="X39" s="88"/>
+      <c r="W39" s="83"/>
+      <c r="X39" s="84"/>
     </row>
     <row r="40" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
@@ -6447,72 +6450,72 @@
       <c r="X50" s="4"/>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C53" s="79">
+      <c r="C53" s="85">
         <v>45005</v>
       </c>
-      <c r="D53" s="79"/>
-      <c r="E53" s="79"/>
-      <c r="F53" s="79"/>
-      <c r="G53" s="79"/>
-      <c r="P53" s="79">
+      <c r="D53" s="85"/>
+      <c r="E53" s="85"/>
+      <c r="F53" s="85"/>
+      <c r="G53" s="85"/>
+      <c r="P53" s="85">
         <v>45006</v>
       </c>
-      <c r="Q53" s="79"/>
-      <c r="R53" s="79"/>
-      <c r="S53" s="79"/>
-      <c r="T53" s="79"/>
-      <c r="U53" s="79"/>
-      <c r="V53" s="79"/>
+      <c r="Q53" s="85"/>
+      <c r="R53" s="85"/>
+      <c r="S53" s="85"/>
+      <c r="T53" s="85"/>
+      <c r="U53" s="85"/>
+      <c r="V53" s="85"/>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C54" s="80"/>
-      <c r="D54" s="80"/>
-      <c r="E54" s="80"/>
-      <c r="F54" s="80"/>
-      <c r="G54" s="80"/>
-      <c r="P54" s="79"/>
-      <c r="Q54" s="79"/>
-      <c r="R54" s="79"/>
-      <c r="S54" s="79"/>
-      <c r="T54" s="79"/>
-      <c r="U54" s="79"/>
-      <c r="V54" s="79"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="86"/>
+      <c r="E54" s="86"/>
+      <c r="F54" s="86"/>
+      <c r="G54" s="86"/>
+      <c r="P54" s="85"/>
+      <c r="Q54" s="85"/>
+      <c r="R54" s="85"/>
+      <c r="S54" s="85"/>
+      <c r="T54" s="85"/>
+      <c r="U54" s="85"/>
+      <c r="V54" s="85"/>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A55" s="82" t="s">
+      <c r="A55" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="82"/>
-      <c r="C55" s="82"/>
-      <c r="D55" s="83" t="s">
+      <c r="B55" s="80"/>
+      <c r="C55" s="80"/>
+      <c r="D55" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E55" s="83"/>
-      <c r="F55" s="83"/>
-      <c r="G55" s="83"/>
-      <c r="H55" s="84">
+      <c r="E55" s="81"/>
+      <c r="F55" s="81"/>
+      <c r="G55" s="81"/>
+      <c r="H55" s="87">
         <v>45005</v>
       </c>
-      <c r="I55" s="85"/>
-      <c r="J55" s="85"/>
-      <c r="M55" s="82" t="s">
+      <c r="I55" s="88"/>
+      <c r="J55" s="88"/>
+      <c r="M55" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N55" s="82"/>
-      <c r="O55" s="82"/>
-      <c r="P55" s="83" t="s">
+      <c r="N55" s="80"/>
+      <c r="O55" s="80"/>
+      <c r="P55" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q55" s="83"/>
-      <c r="R55" s="83"/>
-      <c r="S55" s="83"/>
+      <c r="Q55" s="81"/>
+      <c r="R55" s="81"/>
+      <c r="S55" s="81"/>
       <c r="T55" s="18"/>
       <c r="U55" s="18"/>
-      <c r="V55" s="86">
+      <c r="V55" s="82">
         <v>45006</v>
       </c>
-      <c r="W55" s="87"/>
-      <c r="X55" s="88"/>
+      <c r="W55" s="83"/>
+      <c r="X55" s="84"/>
     </row>
     <row r="56" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
@@ -6911,72 +6914,72 @@
       <c r="X66" s="4"/>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C69" s="79" t="s">
+      <c r="C69" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="D69" s="79"/>
-      <c r="E69" s="79"/>
-      <c r="F69" s="79"/>
-      <c r="G69" s="79"/>
-      <c r="P69" s="81" t="s">
+      <c r="D69" s="85"/>
+      <c r="E69" s="85"/>
+      <c r="F69" s="85"/>
+      <c r="G69" s="85"/>
+      <c r="P69" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="Q69" s="81"/>
-      <c r="R69" s="81"/>
-      <c r="S69" s="81"/>
-      <c r="T69" s="81"/>
-      <c r="U69" s="81"/>
-      <c r="V69" s="81"/>
+      <c r="Q69" s="79"/>
+      <c r="R69" s="79"/>
+      <c r="S69" s="79"/>
+      <c r="T69" s="79"/>
+      <c r="U69" s="79"/>
+      <c r="V69" s="79"/>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C70" s="80"/>
-      <c r="D70" s="80"/>
-      <c r="E70" s="80"/>
-      <c r="F70" s="80"/>
-      <c r="G70" s="80"/>
-      <c r="P70" s="81"/>
-      <c r="Q70" s="81"/>
-      <c r="R70" s="81"/>
-      <c r="S70" s="81"/>
-      <c r="T70" s="81"/>
-      <c r="U70" s="81"/>
-      <c r="V70" s="81"/>
+      <c r="C70" s="86"/>
+      <c r="D70" s="86"/>
+      <c r="E70" s="86"/>
+      <c r="F70" s="86"/>
+      <c r="G70" s="86"/>
+      <c r="P70" s="79"/>
+      <c r="Q70" s="79"/>
+      <c r="R70" s="79"/>
+      <c r="S70" s="79"/>
+      <c r="T70" s="79"/>
+      <c r="U70" s="79"/>
+      <c r="V70" s="79"/>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A71" s="82" t="s">
+      <c r="A71" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B71" s="82"/>
-      <c r="C71" s="82"/>
-      <c r="D71" s="83" t="s">
+      <c r="B71" s="80"/>
+      <c r="C71" s="80"/>
+      <c r="D71" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E71" s="83"/>
-      <c r="F71" s="83"/>
-      <c r="G71" s="83"/>
-      <c r="H71" s="84">
+      <c r="E71" s="81"/>
+      <c r="F71" s="81"/>
+      <c r="G71" s="81"/>
+      <c r="H71" s="87">
         <v>44979</v>
       </c>
-      <c r="I71" s="85"/>
-      <c r="J71" s="85"/>
-      <c r="M71" s="82" t="s">
+      <c r="I71" s="88"/>
+      <c r="J71" s="88"/>
+      <c r="M71" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N71" s="82"/>
-      <c r="O71" s="82"/>
-      <c r="P71" s="83" t="s">
+      <c r="N71" s="80"/>
+      <c r="O71" s="80"/>
+      <c r="P71" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q71" s="83"/>
-      <c r="R71" s="83"/>
-      <c r="S71" s="83"/>
+      <c r="Q71" s="81"/>
+      <c r="R71" s="81"/>
+      <c r="S71" s="81"/>
       <c r="T71" s="18"/>
       <c r="U71" s="18"/>
-      <c r="V71" s="86">
+      <c r="V71" s="82">
         <v>44980</v>
       </c>
-      <c r="W71" s="87"/>
-      <c r="X71" s="88"/>
+      <c r="W71" s="83"/>
+      <c r="X71" s="84"/>
     </row>
     <row r="72" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
@@ -7379,72 +7382,72 @@
       <c r="X82" s="4"/>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C86" s="79" t="s">
+      <c r="C86" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="D86" s="79"/>
-      <c r="E86" s="79"/>
-      <c r="F86" s="79"/>
-      <c r="G86" s="79"/>
-      <c r="P86" s="81" t="s">
+      <c r="D86" s="85"/>
+      <c r="E86" s="85"/>
+      <c r="F86" s="85"/>
+      <c r="G86" s="85"/>
+      <c r="P86" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="Q86" s="81"/>
-      <c r="R86" s="81"/>
-      <c r="S86" s="81"/>
-      <c r="T86" s="81"/>
-      <c r="U86" s="81"/>
-      <c r="V86" s="81"/>
+      <c r="Q86" s="79"/>
+      <c r="R86" s="79"/>
+      <c r="S86" s="79"/>
+      <c r="T86" s="79"/>
+      <c r="U86" s="79"/>
+      <c r="V86" s="79"/>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C87" s="80"/>
-      <c r="D87" s="80"/>
-      <c r="E87" s="80"/>
-      <c r="F87" s="80"/>
-      <c r="G87" s="80"/>
-      <c r="P87" s="81"/>
-      <c r="Q87" s="81"/>
-      <c r="R87" s="81"/>
-      <c r="S87" s="81"/>
-      <c r="T87" s="81"/>
-      <c r="U87" s="81"/>
-      <c r="V87" s="81"/>
+      <c r="C87" s="86"/>
+      <c r="D87" s="86"/>
+      <c r="E87" s="86"/>
+      <c r="F87" s="86"/>
+      <c r="G87" s="86"/>
+      <c r="P87" s="79"/>
+      <c r="Q87" s="79"/>
+      <c r="R87" s="79"/>
+      <c r="S87" s="79"/>
+      <c r="T87" s="79"/>
+      <c r="U87" s="79"/>
+      <c r="V87" s="79"/>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A88" s="82" t="s">
+      <c r="A88" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B88" s="82"/>
-      <c r="C88" s="82"/>
-      <c r="D88" s="83" t="s">
+      <c r="B88" s="80"/>
+      <c r="C88" s="80"/>
+      <c r="D88" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E88" s="83"/>
-      <c r="F88" s="83"/>
-      <c r="G88" s="83"/>
-      <c r="H88" s="84">
+      <c r="E88" s="81"/>
+      <c r="F88" s="81"/>
+      <c r="G88" s="81"/>
+      <c r="H88" s="87">
         <v>44981</v>
       </c>
-      <c r="I88" s="85"/>
-      <c r="J88" s="85"/>
-      <c r="M88" s="82" t="s">
+      <c r="I88" s="88"/>
+      <c r="J88" s="88"/>
+      <c r="M88" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N88" s="82"/>
-      <c r="O88" s="82"/>
-      <c r="P88" s="83" t="s">
+      <c r="N88" s="80"/>
+      <c r="O88" s="80"/>
+      <c r="P88" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q88" s="83"/>
-      <c r="R88" s="83"/>
-      <c r="S88" s="83"/>
+      <c r="Q88" s="81"/>
+      <c r="R88" s="81"/>
+      <c r="S88" s="81"/>
       <c r="T88" s="18"/>
       <c r="U88" s="18"/>
-      <c r="V88" s="86">
+      <c r="V88" s="82">
         <v>44980</v>
       </c>
-      <c r="W88" s="87"/>
-      <c r="X88" s="88"/>
+      <c r="W88" s="83"/>
+      <c r="X88" s="84"/>
     </row>
     <row r="89" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
@@ -7779,72 +7782,72 @@
       <c r="X99" s="4"/>
     </row>
     <row r="103" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C103" s="79" t="s">
+      <c r="C103" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="D103" s="79"/>
-      <c r="E103" s="79"/>
-      <c r="F103" s="79"/>
-      <c r="G103" s="79"/>
-      <c r="P103" s="81" t="s">
+      <c r="D103" s="85"/>
+      <c r="E103" s="85"/>
+      <c r="F103" s="85"/>
+      <c r="G103" s="85"/>
+      <c r="P103" s="79" t="s">
         <v>90</v>
       </c>
-      <c r="Q103" s="81"/>
-      <c r="R103" s="81"/>
-      <c r="S103" s="81"/>
-      <c r="T103" s="81"/>
-      <c r="U103" s="81"/>
-      <c r="V103" s="81"/>
+      <c r="Q103" s="79"/>
+      <c r="R103" s="79"/>
+      <c r="S103" s="79"/>
+      <c r="T103" s="79"/>
+      <c r="U103" s="79"/>
+      <c r="V103" s="79"/>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C104" s="80"/>
-      <c r="D104" s="80"/>
-      <c r="E104" s="80"/>
-      <c r="F104" s="80"/>
-      <c r="G104" s="80"/>
-      <c r="P104" s="81"/>
-      <c r="Q104" s="81"/>
-      <c r="R104" s="81"/>
-      <c r="S104" s="81"/>
-      <c r="T104" s="81"/>
-      <c r="U104" s="81"/>
-      <c r="V104" s="81"/>
+      <c r="C104" s="86"/>
+      <c r="D104" s="86"/>
+      <c r="E104" s="86"/>
+      <c r="F104" s="86"/>
+      <c r="G104" s="86"/>
+      <c r="P104" s="79"/>
+      <c r="Q104" s="79"/>
+      <c r="R104" s="79"/>
+      <c r="S104" s="79"/>
+      <c r="T104" s="79"/>
+      <c r="U104" s="79"/>
+      <c r="V104" s="79"/>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A105" s="82" t="s">
+      <c r="A105" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B105" s="82"/>
-      <c r="C105" s="82"/>
-      <c r="D105" s="83" t="s">
+      <c r="B105" s="80"/>
+      <c r="C105" s="80"/>
+      <c r="D105" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E105" s="83"/>
-      <c r="F105" s="83"/>
-      <c r="G105" s="83"/>
-      <c r="H105" s="84">
+      <c r="E105" s="81"/>
+      <c r="F105" s="81"/>
+      <c r="G105" s="81"/>
+      <c r="H105" s="87">
         <v>44979</v>
       </c>
-      <c r="I105" s="85"/>
-      <c r="J105" s="85"/>
-      <c r="M105" s="82" t="s">
+      <c r="I105" s="88"/>
+      <c r="J105" s="88"/>
+      <c r="M105" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N105" s="82"/>
-      <c r="O105" s="82"/>
-      <c r="P105" s="83" t="s">
+      <c r="N105" s="80"/>
+      <c r="O105" s="80"/>
+      <c r="P105" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q105" s="83"/>
-      <c r="R105" s="83"/>
-      <c r="S105" s="83"/>
+      <c r="Q105" s="81"/>
+      <c r="R105" s="81"/>
+      <c r="S105" s="81"/>
       <c r="T105" s="18"/>
       <c r="U105" s="18"/>
-      <c r="V105" s="86">
+      <c r="V105" s="82">
         <v>45012</v>
       </c>
-      <c r="W105" s="87"/>
-      <c r="X105" s="88"/>
+      <c r="W105" s="83"/>
+      <c r="X105" s="84"/>
     </row>
     <row r="106" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
@@ -8295,73 +8298,73 @@
       <c r="X116" s="4"/>
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C121" s="79" t="s">
+      <c r="C121" s="85" t="s">
         <v>95</v>
       </c>
-      <c r="D121" s="79"/>
-      <c r="E121" s="79"/>
-      <c r="F121" s="79"/>
-      <c r="G121" s="79"/>
-      <c r="P121" s="81" t="s">
+      <c r="D121" s="85"/>
+      <c r="E121" s="85"/>
+      <c r="F121" s="85"/>
+      <c r="G121" s="85"/>
+      <c r="P121" s="79" t="s">
         <v>96</v>
       </c>
-      <c r="Q121" s="81"/>
-      <c r="R121" s="81"/>
-      <c r="S121" s="81"/>
-      <c r="T121" s="81"/>
-      <c r="U121" s="81"/>
-      <c r="V121" s="81"/>
+      <c r="Q121" s="79"/>
+      <c r="R121" s="79"/>
+      <c r="S121" s="79"/>
+      <c r="T121" s="79"/>
+      <c r="U121" s="79"/>
+      <c r="V121" s="79"/>
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C122" s="80"/>
-      <c r="D122" s="80"/>
-      <c r="E122" s="80"/>
-      <c r="F122" s="80"/>
-      <c r="G122" s="80"/>
-      <c r="P122" s="81"/>
-      <c r="Q122" s="81"/>
-      <c r="R122" s="81"/>
-      <c r="S122" s="81"/>
-      <c r="T122" s="81"/>
-      <c r="U122" s="81"/>
-      <c r="V122" s="81"/>
+      <c r="C122" s="86"/>
+      <c r="D122" s="86"/>
+      <c r="E122" s="86"/>
+      <c r="F122" s="86"/>
+      <c r="G122" s="86"/>
+      <c r="P122" s="79"/>
+      <c r="Q122" s="79"/>
+      <c r="R122" s="79"/>
+      <c r="S122" s="79"/>
+      <c r="T122" s="79"/>
+      <c r="U122" s="79"/>
+      <c r="V122" s="79"/>
     </row>
     <row r="123" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="82" t="s">
+      <c r="A123" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B123" s="82"/>
-      <c r="C123" s="82"/>
-      <c r="D123" s="83" t="s">
+      <c r="B123" s="80"/>
+      <c r="C123" s="80"/>
+      <c r="D123" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E123" s="83"/>
-      <c r="F123" s="83"/>
-      <c r="G123" s="83"/>
-      <c r="H123" s="84">
+      <c r="E123" s="81"/>
+      <c r="F123" s="81"/>
+      <c r="G123" s="81"/>
+      <c r="H123" s="87">
         <v>44979</v>
       </c>
-      <c r="I123" s="85"/>
-      <c r="J123" s="85"/>
-      <c r="M123" s="82" t="s">
+      <c r="I123" s="88"/>
+      <c r="J123" s="88"/>
+      <c r="M123" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N123" s="82"/>
-      <c r="O123" s="82"/>
-      <c r="P123" s="83" t="s">
+      <c r="N123" s="80"/>
+      <c r="O123" s="80"/>
+      <c r="P123" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q123" s="83"/>
-      <c r="R123" s="83"/>
-      <c r="S123" s="83"/>
+      <c r="Q123" s="81"/>
+      <c r="R123" s="81"/>
+      <c r="S123" s="81"/>
       <c r="T123" s="18"/>
       <c r="U123" s="18"/>
-      <c r="V123" s="86" t="e">
+      <c r="V123" s="82" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W123" s="87"/>
-      <c r="X123" s="88"/>
+      <c r="W123" s="83"/>
+      <c r="X123" s="84"/>
     </row>
     <row r="124" spans="1:26" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
@@ -8876,45 +8879,45 @@
       <c r="X134" s="4"/>
     </row>
     <row r="138" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="P138" s="81" t="s">
+      <c r="P138" s="79" t="s">
         <v>97</v>
       </c>
-      <c r="Q138" s="81"/>
-      <c r="R138" s="81"/>
-      <c r="S138" s="81"/>
-      <c r="T138" s="81"/>
-      <c r="U138" s="81"/>
-      <c r="V138" s="81"/>
+      <c r="Q138" s="79"/>
+      <c r="R138" s="79"/>
+      <c r="S138" s="79"/>
+      <c r="T138" s="79"/>
+      <c r="U138" s="79"/>
+      <c r="V138" s="79"/>
     </row>
     <row r="139" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="P139" s="81"/>
-      <c r="Q139" s="81"/>
-      <c r="R139" s="81"/>
-      <c r="S139" s="81"/>
-      <c r="T139" s="81"/>
-      <c r="U139" s="81"/>
-      <c r="V139" s="81"/>
+      <c r="P139" s="79"/>
+      <c r="Q139" s="79"/>
+      <c r="R139" s="79"/>
+      <c r="S139" s="79"/>
+      <c r="T139" s="79"/>
+      <c r="U139" s="79"/>
+      <c r="V139" s="79"/>
     </row>
     <row r="140" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="M140" s="82" t="s">
+      <c r="M140" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N140" s="82"/>
-      <c r="O140" s="82"/>
-      <c r="P140" s="83" t="s">
+      <c r="N140" s="80"/>
+      <c r="O140" s="80"/>
+      <c r="P140" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q140" s="83"/>
-      <c r="R140" s="83"/>
-      <c r="S140" s="83"/>
+      <c r="Q140" s="81"/>
+      <c r="R140" s="81"/>
+      <c r="S140" s="81"/>
       <c r="T140" s="18"/>
       <c r="U140" s="18"/>
-      <c r="V140" s="86" t="e">
+      <c r="V140" s="82" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W140" s="87"/>
-      <c r="X140" s="88"/>
+      <c r="W140" s="83"/>
+      <c r="X140" s="84"/>
     </row>
     <row r="141" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M141" s="6" t="s">
@@ -9179,45 +9182,45 @@
       <c r="S152" s="64"/>
     </row>
     <row r="153" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P153" s="81" t="s">
+      <c r="P153" s="79" t="s">
         <v>102</v>
       </c>
-      <c r="Q153" s="81"/>
-      <c r="R153" s="81"/>
-      <c r="S153" s="81"/>
-      <c r="T153" s="81"/>
-      <c r="U153" s="81"/>
-      <c r="V153" s="81"/>
+      <c r="Q153" s="79"/>
+      <c r="R153" s="79"/>
+      <c r="S153" s="79"/>
+      <c r="T153" s="79"/>
+      <c r="U153" s="79"/>
+      <c r="V153" s="79"/>
     </row>
     <row r="154" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P154" s="81"/>
-      <c r="Q154" s="81"/>
-      <c r="R154" s="81"/>
-      <c r="S154" s="81"/>
-      <c r="T154" s="81"/>
-      <c r="U154" s="81"/>
-      <c r="V154" s="81"/>
+      <c r="P154" s="79"/>
+      <c r="Q154" s="79"/>
+      <c r="R154" s="79"/>
+      <c r="S154" s="79"/>
+      <c r="T154" s="79"/>
+      <c r="U154" s="79"/>
+      <c r="V154" s="79"/>
     </row>
     <row r="155" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M155" s="82" t="s">
+      <c r="M155" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N155" s="82"/>
-      <c r="O155" s="82"/>
-      <c r="P155" s="83" t="s">
+      <c r="N155" s="80"/>
+      <c r="O155" s="80"/>
+      <c r="P155" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q155" s="83"/>
-      <c r="R155" s="83"/>
-      <c r="S155" s="83"/>
+      <c r="Q155" s="81"/>
+      <c r="R155" s="81"/>
+      <c r="S155" s="81"/>
       <c r="T155" s="18"/>
       <c r="U155" s="18"/>
-      <c r="V155" s="86" t="e">
+      <c r="V155" s="82" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W155" s="87"/>
-      <c r="X155" s="88"/>
+      <c r="W155" s="83"/>
+      <c r="X155" s="84"/>
     </row>
     <row r="156" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M156" s="6" t="s">
@@ -9481,45 +9484,45 @@
       <c r="X166" s="4"/>
     </row>
     <row r="168" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P168" s="81" t="s">
+      <c r="P168" s="79" t="s">
         <v>100</v>
       </c>
-      <c r="Q168" s="81"/>
-      <c r="R168" s="81"/>
-      <c r="S168" s="81"/>
-      <c r="T168" s="81"/>
-      <c r="U168" s="81"/>
-      <c r="V168" s="81"/>
+      <c r="Q168" s="79"/>
+      <c r="R168" s="79"/>
+      <c r="S168" s="79"/>
+      <c r="T168" s="79"/>
+      <c r="U168" s="79"/>
+      <c r="V168" s="79"/>
     </row>
     <row r="169" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P169" s="81"/>
-      <c r="Q169" s="81"/>
-      <c r="R169" s="81"/>
-      <c r="S169" s="81"/>
-      <c r="T169" s="81"/>
-      <c r="U169" s="81"/>
-      <c r="V169" s="81"/>
+      <c r="P169" s="79"/>
+      <c r="Q169" s="79"/>
+      <c r="R169" s="79"/>
+      <c r="S169" s="79"/>
+      <c r="T169" s="79"/>
+      <c r="U169" s="79"/>
+      <c r="V169" s="79"/>
     </row>
     <row r="170" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M170" s="82" t="s">
+      <c r="M170" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N170" s="82"/>
-      <c r="O170" s="82"/>
-      <c r="P170" s="83" t="s">
+      <c r="N170" s="80"/>
+      <c r="O170" s="80"/>
+      <c r="P170" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q170" s="83"/>
-      <c r="R170" s="83"/>
-      <c r="S170" s="83"/>
+      <c r="Q170" s="81"/>
+      <c r="R170" s="81"/>
+      <c r="S170" s="81"/>
       <c r="T170" s="18"/>
       <c r="U170" s="18"/>
-      <c r="V170" s="86" t="e">
+      <c r="V170" s="82" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W170" s="87"/>
-      <c r="X170" s="88"/>
+      <c r="W170" s="83"/>
+      <c r="X170" s="84"/>
     </row>
     <row r="171" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M171" s="6" t="s">
@@ -9724,45 +9727,45 @@
       <c r="X181" s="4"/>
     </row>
     <row r="186" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P186" s="81" t="s">
+      <c r="P186" s="79" t="s">
         <v>104</v>
       </c>
-      <c r="Q186" s="81"/>
-      <c r="R186" s="81"/>
-      <c r="S186" s="81"/>
-      <c r="T186" s="81"/>
-      <c r="U186" s="81"/>
-      <c r="V186" s="81"/>
+      <c r="Q186" s="79"/>
+      <c r="R186" s="79"/>
+      <c r="S186" s="79"/>
+      <c r="T186" s="79"/>
+      <c r="U186" s="79"/>
+      <c r="V186" s="79"/>
     </row>
     <row r="187" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P187" s="81"/>
-      <c r="Q187" s="81"/>
-      <c r="R187" s="81"/>
-      <c r="S187" s="81"/>
-      <c r="T187" s="81"/>
-      <c r="U187" s="81"/>
-      <c r="V187" s="81"/>
+      <c r="P187" s="79"/>
+      <c r="Q187" s="79"/>
+      <c r="R187" s="79"/>
+      <c r="S187" s="79"/>
+      <c r="T187" s="79"/>
+      <c r="U187" s="79"/>
+      <c r="V187" s="79"/>
     </row>
     <row r="188" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M188" s="82" t="s">
+      <c r="M188" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N188" s="82"/>
-      <c r="O188" s="82"/>
-      <c r="P188" s="83" t="s">
+      <c r="N188" s="80"/>
+      <c r="O188" s="80"/>
+      <c r="P188" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q188" s="83"/>
-      <c r="R188" s="83"/>
-      <c r="S188" s="83"/>
+      <c r="Q188" s="81"/>
+      <c r="R188" s="81"/>
+      <c r="S188" s="81"/>
       <c r="T188" s="18"/>
       <c r="U188" s="18"/>
-      <c r="V188" s="86" t="e">
+      <c r="V188" s="82" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W188" s="87"/>
-      <c r="X188" s="88"/>
+      <c r="W188" s="83"/>
+      <c r="X188" s="84"/>
     </row>
     <row r="189" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M189" s="6" t="s">
@@ -9932,24 +9935,24 @@
       <c r="X194" s="15"/>
     </row>
     <row r="198" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P198" s="81" t="s">
+      <c r="P198" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="Q198" s="81"/>
-      <c r="R198" s="81"/>
-      <c r="S198" s="81"/>
-      <c r="T198" s="81"/>
-      <c r="U198" s="81"/>
-      <c r="V198" s="81"/>
+      <c r="Q198" s="79"/>
+      <c r="R198" s="79"/>
+      <c r="S198" s="79"/>
+      <c r="T198" s="79"/>
+      <c r="U198" s="79"/>
+      <c r="V198" s="79"/>
     </row>
     <row r="199" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P199" s="81"/>
-      <c r="Q199" s="81"/>
-      <c r="R199" s="81"/>
-      <c r="S199" s="81"/>
-      <c r="T199" s="81"/>
-      <c r="U199" s="81"/>
-      <c r="V199" s="81"/>
+      <c r="P199" s="79"/>
+      <c r="Q199" s="79"/>
+      <c r="R199" s="79"/>
+      <c r="S199" s="79"/>
+      <c r="T199" s="79"/>
+      <c r="U199" s="79"/>
+      <c r="V199" s="79"/>
     </row>
     <row r="200" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M200" s="70" t="s">
@@ -10124,24 +10127,24 @@
       </c>
     </row>
     <row r="209" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P209" s="81" t="s">
+      <c r="P209" s="79" t="s">
         <v>113</v>
       </c>
-      <c r="Q209" s="81"/>
-      <c r="R209" s="81"/>
-      <c r="S209" s="81"/>
-      <c r="T209" s="81"/>
-      <c r="U209" s="81"/>
-      <c r="V209" s="81"/>
+      <c r="Q209" s="79"/>
+      <c r="R209" s="79"/>
+      <c r="S209" s="79"/>
+      <c r="T209" s="79"/>
+      <c r="U209" s="79"/>
+      <c r="V209" s="79"/>
     </row>
     <row r="210" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P210" s="81"/>
-      <c r="Q210" s="81"/>
-      <c r="R210" s="81"/>
-      <c r="S210" s="81"/>
-      <c r="T210" s="81"/>
-      <c r="U210" s="81"/>
-      <c r="V210" s="81"/>
+      <c r="P210" s="79"/>
+      <c r="Q210" s="79"/>
+      <c r="R210" s="79"/>
+      <c r="S210" s="79"/>
+      <c r="T210" s="79"/>
+      <c r="U210" s="79"/>
+      <c r="V210" s="79"/>
     </row>
     <row r="211" spans="13:26" ht="36" x14ac:dyDescent="0.25">
       <c r="M211" s="70" t="s">
@@ -10293,24 +10296,24 @@
       </c>
     </row>
     <row r="218" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P218" s="81" t="s">
+      <c r="P218" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="Q218" s="81"/>
-      <c r="R218" s="81"/>
-      <c r="S218" s="81"/>
-      <c r="T218" s="81"/>
-      <c r="U218" s="81"/>
-      <c r="V218" s="81"/>
+      <c r="Q218" s="79"/>
+      <c r="R218" s="79"/>
+      <c r="S218" s="79"/>
+      <c r="T218" s="79"/>
+      <c r="U218" s="79"/>
+      <c r="V218" s="79"/>
     </row>
     <row r="219" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P219" s="81"/>
-      <c r="Q219" s="81"/>
-      <c r="R219" s="81"/>
-      <c r="S219" s="81"/>
-      <c r="T219" s="81"/>
-      <c r="U219" s="81"/>
-      <c r="V219" s="81"/>
+      <c r="P219" s="79"/>
+      <c r="Q219" s="79"/>
+      <c r="R219" s="79"/>
+      <c r="S219" s="79"/>
+      <c r="T219" s="79"/>
+      <c r="U219" s="79"/>
+      <c r="V219" s="79"/>
     </row>
     <row r="220" spans="13:26" ht="36" x14ac:dyDescent="0.25">
       <c r="M220" s="70" t="s">
@@ -10567,24 +10570,24 @@
       </c>
     </row>
     <row r="230" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P230" s="81" t="s">
+      <c r="P230" s="79" t="s">
         <v>116</v>
       </c>
-      <c r="Q230" s="81"/>
-      <c r="R230" s="81"/>
-      <c r="S230" s="81"/>
-      <c r="T230" s="81"/>
-      <c r="U230" s="81"/>
-      <c r="V230" s="81"/>
+      <c r="Q230" s="79"/>
+      <c r="R230" s="79"/>
+      <c r="S230" s="79"/>
+      <c r="T230" s="79"/>
+      <c r="U230" s="79"/>
+      <c r="V230" s="79"/>
     </row>
     <row r="231" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P231" s="81"/>
-      <c r="Q231" s="81"/>
-      <c r="R231" s="81"/>
-      <c r="S231" s="81"/>
-      <c r="T231" s="81"/>
-      <c r="U231" s="81"/>
-      <c r="V231" s="81"/>
+      <c r="P231" s="79"/>
+      <c r="Q231" s="79"/>
+      <c r="R231" s="79"/>
+      <c r="S231" s="79"/>
+      <c r="T231" s="79"/>
+      <c r="U231" s="79"/>
+      <c r="V231" s="79"/>
     </row>
     <row r="232" spans="13:26" ht="36" x14ac:dyDescent="0.25">
       <c r="M232" s="70" t="s">
@@ -10747,24 +10750,24 @@
       </c>
     </row>
     <row r="240" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P240" s="81" t="s">
+      <c r="P240" s="79" t="s">
         <v>118</v>
       </c>
-      <c r="Q240" s="81"/>
-      <c r="R240" s="81"/>
-      <c r="S240" s="81"/>
-      <c r="T240" s="81"/>
-      <c r="U240" s="81"/>
-      <c r="V240" s="81"/>
+      <c r="Q240" s="79"/>
+      <c r="R240" s="79"/>
+      <c r="S240" s="79"/>
+      <c r="T240" s="79"/>
+      <c r="U240" s="79"/>
+      <c r="V240" s="79"/>
     </row>
     <row r="241" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P241" s="81"/>
-      <c r="Q241" s="81"/>
-      <c r="R241" s="81"/>
-      <c r="S241" s="81"/>
-      <c r="T241" s="81"/>
-      <c r="U241" s="81"/>
-      <c r="V241" s="81"/>
+      <c r="P241" s="79"/>
+      <c r="Q241" s="79"/>
+      <c r="R241" s="79"/>
+      <c r="S241" s="79"/>
+      <c r="T241" s="79"/>
+      <c r="U241" s="79"/>
+      <c r="V241" s="79"/>
     </row>
     <row r="242" spans="13:26" ht="36" x14ac:dyDescent="0.25">
       <c r="M242" s="70" t="s">
@@ -10780,11 +10783,11 @@
       <c r="S242" s="71"/>
       <c r="T242" s="18"/>
       <c r="U242" s="18"/>
-      <c r="V242" s="86">
+      <c r="V242" s="82">
         <v>45082</v>
       </c>
-      <c r="W242" s="87"/>
-      <c r="X242" s="88"/>
+      <c r="W242" s="83"/>
+      <c r="X242" s="84"/>
     </row>
     <row r="243" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M243" s="6" t="s">
@@ -10894,24 +10897,24 @@
       </c>
     </row>
     <row r="248" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P248" s="81" t="s">
+      <c r="P248" s="79" t="s">
         <v>119</v>
       </c>
-      <c r="Q248" s="81"/>
-      <c r="R248" s="81"/>
-      <c r="S248" s="81"/>
-      <c r="T248" s="81"/>
-      <c r="U248" s="81"/>
-      <c r="V248" s="81"/>
+      <c r="Q248" s="79"/>
+      <c r="R248" s="79"/>
+      <c r="S248" s="79"/>
+      <c r="T248" s="79"/>
+      <c r="U248" s="79"/>
+      <c r="V248" s="79"/>
     </row>
     <row r="249" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P249" s="81"/>
-      <c r="Q249" s="81"/>
-      <c r="R249" s="81"/>
-      <c r="S249" s="81"/>
-      <c r="T249" s="81"/>
-      <c r="U249" s="81"/>
-      <c r="V249" s="81"/>
+      <c r="P249" s="79"/>
+      <c r="Q249" s="79"/>
+      <c r="R249" s="79"/>
+      <c r="S249" s="79"/>
+      <c r="T249" s="79"/>
+      <c r="U249" s="79"/>
+      <c r="V249" s="79"/>
     </row>
     <row r="250" spans="13:26" ht="36" x14ac:dyDescent="0.25">
       <c r="M250" s="70" t="s">
@@ -10927,11 +10930,11 @@
       <c r="S250" s="71"/>
       <c r="T250" s="18"/>
       <c r="U250" s="18"/>
-      <c r="V250" s="86">
+      <c r="V250" s="82">
         <v>45083</v>
       </c>
-      <c r="W250" s="87"/>
-      <c r="X250" s="88"/>
+      <c r="W250" s="83"/>
+      <c r="X250" s="84"/>
     </row>
     <row r="251" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M251" s="6" t="s">
@@ -11008,24 +11011,24 @@
       </c>
     </row>
     <row r="255" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P255" s="81" t="s">
+      <c r="P255" s="79" t="s">
         <v>120</v>
       </c>
-      <c r="Q255" s="81"/>
-      <c r="R255" s="81"/>
-      <c r="S255" s="81"/>
-      <c r="T255" s="81"/>
-      <c r="U255" s="81"/>
-      <c r="V255" s="81"/>
+      <c r="Q255" s="79"/>
+      <c r="R255" s="79"/>
+      <c r="S255" s="79"/>
+      <c r="T255" s="79"/>
+      <c r="U255" s="79"/>
+      <c r="V255" s="79"/>
     </row>
     <row r="256" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P256" s="81"/>
-      <c r="Q256" s="81"/>
-      <c r="R256" s="81"/>
-      <c r="S256" s="81"/>
-      <c r="T256" s="81"/>
-      <c r="U256" s="81"/>
-      <c r="V256" s="81"/>
+      <c r="P256" s="79"/>
+      <c r="Q256" s="79"/>
+      <c r="R256" s="79"/>
+      <c r="S256" s="79"/>
+      <c r="T256" s="79"/>
+      <c r="U256" s="79"/>
+      <c r="V256" s="79"/>
     </row>
     <row r="257" spans="13:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M257" s="89" t="s">
@@ -11041,11 +11044,11 @@
       <c r="S257" s="93"/>
       <c r="T257" s="93"/>
       <c r="U257" s="94"/>
-      <c r="V257" s="86">
+      <c r="V257" s="82">
         <v>45084</v>
       </c>
-      <c r="W257" s="87"/>
-      <c r="X257" s="88"/>
+      <c r="W257" s="83"/>
+      <c r="X257" s="84"/>
       <c r="Z257" s="20" t="s">
         <v>9</v>
       </c>
@@ -11175,24 +11178,24 @@
       </c>
     </row>
     <row r="262" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P262" s="81" t="s">
+      <c r="P262" s="79" t="s">
         <v>121</v>
       </c>
-      <c r="Q262" s="81"/>
-      <c r="R262" s="81"/>
-      <c r="S262" s="81"/>
-      <c r="T262" s="81"/>
-      <c r="U262" s="81"/>
-      <c r="V262" s="81"/>
+      <c r="Q262" s="79"/>
+      <c r="R262" s="79"/>
+      <c r="S262" s="79"/>
+      <c r="T262" s="79"/>
+      <c r="U262" s="79"/>
+      <c r="V262" s="79"/>
     </row>
     <row r="263" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P263" s="81"/>
-      <c r="Q263" s="81"/>
-      <c r="R263" s="81"/>
-      <c r="S263" s="81"/>
-      <c r="T263" s="81"/>
-      <c r="U263" s="81"/>
-      <c r="V263" s="81"/>
+      <c r="P263" s="79"/>
+      <c r="Q263" s="79"/>
+      <c r="R263" s="79"/>
+      <c r="S263" s="79"/>
+      <c r="T263" s="79"/>
+      <c r="U263" s="79"/>
+      <c r="V263" s="79"/>
     </row>
     <row r="264" spans="13:26" x14ac:dyDescent="0.25">
       <c r="M264" s="89" t="s">
@@ -11208,11 +11211,11 @@
       <c r="S264" s="93"/>
       <c r="T264" s="93"/>
       <c r="U264" s="94"/>
-      <c r="V264" s="86">
+      <c r="V264" s="82">
         <v>45089</v>
       </c>
-      <c r="W264" s="87"/>
-      <c r="X264" s="88"/>
+      <c r="W264" s="83"/>
+      <c r="X264" s="84"/>
     </row>
     <row r="265" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M265" s="6" t="s">
@@ -11469,24 +11472,24 @@
       </c>
     </row>
     <row r="274" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P274" s="81" t="s">
+      <c r="P274" s="79" t="s">
         <v>123</v>
       </c>
-      <c r="Q274" s="81"/>
-      <c r="R274" s="81"/>
-      <c r="S274" s="81"/>
-      <c r="T274" s="81"/>
-      <c r="U274" s="81"/>
-      <c r="V274" s="81"/>
+      <c r="Q274" s="79"/>
+      <c r="R274" s="79"/>
+      <c r="S274" s="79"/>
+      <c r="T274" s="79"/>
+      <c r="U274" s="79"/>
+      <c r="V274" s="79"/>
     </row>
     <row r="275" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P275" s="81"/>
-      <c r="Q275" s="81"/>
-      <c r="R275" s="81"/>
-      <c r="S275" s="81"/>
-      <c r="T275" s="81"/>
-      <c r="U275" s="81"/>
-      <c r="V275" s="81"/>
+      <c r="P275" s="79"/>
+      <c r="Q275" s="79"/>
+      <c r="R275" s="79"/>
+      <c r="S275" s="79"/>
+      <c r="T275" s="79"/>
+      <c r="U275" s="79"/>
+      <c r="V275" s="79"/>
     </row>
     <row r="276" spans="13:26" x14ac:dyDescent="0.25">
       <c r="M276" s="89" t="s">
@@ -11502,11 +11505,11 @@
       <c r="S276" s="93"/>
       <c r="T276" s="93"/>
       <c r="U276" s="94"/>
-      <c r="V276" s="86">
+      <c r="V276" s="82">
         <v>45091</v>
       </c>
-      <c r="W276" s="87"/>
-      <c r="X276" s="88"/>
+      <c r="W276" s="83"/>
+      <c r="X276" s="84"/>
     </row>
     <row r="277" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M277" s="6" t="s">
@@ -11671,64 +11674,233 @@
         <v>28</v>
       </c>
     </row>
+    <row r="284" spans="13:26" x14ac:dyDescent="0.25">
+      <c r="M284" s="95"/>
+      <c r="N284" s="95"/>
+      <c r="O284" s="95"/>
+      <c r="P284" s="79" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q284" s="79"/>
+      <c r="R284" s="79"/>
+      <c r="S284" s="79"/>
+      <c r="T284" s="79"/>
+      <c r="U284" s="79"/>
+      <c r="V284" s="79"/>
+    </row>
+    <row r="285" spans="13:26" x14ac:dyDescent="0.25">
+      <c r="M285" s="96"/>
+      <c r="N285" s="96"/>
+      <c r="O285" s="96"/>
+      <c r="P285" s="79"/>
+      <c r="Q285" s="79"/>
+      <c r="R285" s="79"/>
+      <c r="S285" s="79"/>
+      <c r="T285" s="79"/>
+      <c r="U285" s="79"/>
+      <c r="V285" s="79"/>
+    </row>
+    <row r="286" spans="13:26" x14ac:dyDescent="0.25">
+      <c r="M286" s="89" t="s">
+        <v>12</v>
+      </c>
+      <c r="N286" s="90"/>
+      <c r="O286" s="91"/>
+      <c r="P286" s="92" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q286" s="93"/>
+      <c r="R286" s="93"/>
+      <c r="S286" s="93"/>
+      <c r="T286" s="93"/>
+      <c r="U286" s="94"/>
+      <c r="V286" s="82">
+        <v>45096</v>
+      </c>
+      <c r="W286" s="83"/>
+      <c r="X286" s="84"/>
+    </row>
+    <row r="287" spans="13:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="M287" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N287" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O287" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P287" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q287" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="R287" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="S287" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="T287" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="U287" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="V287" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="W287" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="X287" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="288" spans="13:26" x14ac:dyDescent="0.25">
+      <c r="M288" s="47"/>
+      <c r="N288" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="O288" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="P288" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q288" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="R288" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="S288" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="T288" s="43">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="U288" s="33">
+        <v>0.47083333333333338</v>
+      </c>
+      <c r="V288" s="34">
+        <v>0.48472222222222222</v>
+      </c>
+      <c r="W288" s="34">
+        <v>0.57708333333333328</v>
+      </c>
+      <c r="X288" s="35">
+        <v>0.60833333333333328</v>
+      </c>
+    </row>
+    <row r="289" spans="13:24" x14ac:dyDescent="0.25">
+      <c r="M289" s="47"/>
+      <c r="N289" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="O289" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="P289" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q289" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="R289" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="S289" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="T289" s="43">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="U289" s="33">
+        <v>0.4680555555555555</v>
+      </c>
+      <c r="V289" s="34">
+        <v>0.48472222222222222</v>
+      </c>
+      <c r="W289" s="34">
+        <v>0.57708333333333328</v>
+      </c>
+      <c r="X289" s="35">
+        <v>0.59791666666666665</v>
+      </c>
+    </row>
+    <row r="290" spans="13:24" x14ac:dyDescent="0.25">
+      <c r="M290" s="15"/>
+      <c r="N290" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="O290" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="P290" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q290" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="R290" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="S290" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="T290" s="43">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="U290" s="33">
+        <v>0.47013888888888888</v>
+      </c>
+      <c r="V290" s="34">
+        <v>0.48472222222222222</v>
+      </c>
+      <c r="W290" s="34">
+        <v>0.61249999999999993</v>
+      </c>
+      <c r="X290" s="35">
+        <v>0.62916666666666665</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="100">
-    <mergeCell ref="A88:C88"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="D71:G71"/>
-    <mergeCell ref="V71:X71"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="M71:O71"/>
-    <mergeCell ref="P71:S71"/>
-    <mergeCell ref="C86:G87"/>
-    <mergeCell ref="P86:V87"/>
-    <mergeCell ref="C37:G38"/>
-    <mergeCell ref="P37:V38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="P39:S39"/>
-    <mergeCell ref="V39:X39"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="C53:G54"/>
-    <mergeCell ref="P53:V54"/>
-    <mergeCell ref="V55:X55"/>
-    <mergeCell ref="C69:G70"/>
-    <mergeCell ref="P69:V70"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="M55:O55"/>
-    <mergeCell ref="P55:S55"/>
-    <mergeCell ref="C22:G23"/>
-    <mergeCell ref="P22:V23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="C2:G3"/>
-    <mergeCell ref="P2:V3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="M140:O140"/>
-    <mergeCell ref="P140:S140"/>
-    <mergeCell ref="V140:X140"/>
-    <mergeCell ref="D88:G88"/>
-    <mergeCell ref="H88:J88"/>
-    <mergeCell ref="M88:O88"/>
-    <mergeCell ref="P88:S88"/>
-    <mergeCell ref="V88:X88"/>
-    <mergeCell ref="P138:V139"/>
-    <mergeCell ref="P121:V122"/>
-    <mergeCell ref="V123:X123"/>
-    <mergeCell ref="M123:O123"/>
-    <mergeCell ref="P123:S123"/>
+  <mergeCells count="105">
+    <mergeCell ref="P284:V285"/>
+    <mergeCell ref="M286:O286"/>
+    <mergeCell ref="P286:U286"/>
+    <mergeCell ref="V286:X286"/>
+    <mergeCell ref="M284:O285"/>
+    <mergeCell ref="P274:V275"/>
+    <mergeCell ref="M276:O276"/>
+    <mergeCell ref="P276:U276"/>
+    <mergeCell ref="V276:X276"/>
+    <mergeCell ref="P262:V263"/>
+    <mergeCell ref="M264:O264"/>
+    <mergeCell ref="P264:U264"/>
+    <mergeCell ref="V264:X264"/>
+    <mergeCell ref="P240:V241"/>
+    <mergeCell ref="V242:X242"/>
+    <mergeCell ref="P255:V256"/>
+    <mergeCell ref="V257:X257"/>
+    <mergeCell ref="M257:O257"/>
+    <mergeCell ref="P257:U257"/>
+    <mergeCell ref="P248:V249"/>
+    <mergeCell ref="V250:X250"/>
+    <mergeCell ref="P230:V231"/>
+    <mergeCell ref="P168:V169"/>
+    <mergeCell ref="M170:O170"/>
+    <mergeCell ref="P170:S170"/>
+    <mergeCell ref="V170:X170"/>
+    <mergeCell ref="P218:V219"/>
+    <mergeCell ref="P198:V199"/>
+    <mergeCell ref="P186:V187"/>
+    <mergeCell ref="M188:O188"/>
+    <mergeCell ref="P188:S188"/>
+    <mergeCell ref="V188:X188"/>
+    <mergeCell ref="P209:V210"/>
     <mergeCell ref="M155:O155"/>
     <mergeCell ref="P155:S155"/>
     <mergeCell ref="V155:X155"/>
@@ -11745,34 +11917,62 @@
     <mergeCell ref="A123:C123"/>
     <mergeCell ref="D123:G123"/>
     <mergeCell ref="H123:J123"/>
-    <mergeCell ref="P230:V231"/>
-    <mergeCell ref="P168:V169"/>
-    <mergeCell ref="M170:O170"/>
-    <mergeCell ref="P170:S170"/>
-    <mergeCell ref="V170:X170"/>
-    <mergeCell ref="P218:V219"/>
-    <mergeCell ref="P198:V199"/>
-    <mergeCell ref="P186:V187"/>
-    <mergeCell ref="M188:O188"/>
-    <mergeCell ref="P188:S188"/>
-    <mergeCell ref="V188:X188"/>
-    <mergeCell ref="P209:V210"/>
-    <mergeCell ref="P240:V241"/>
-    <mergeCell ref="V242:X242"/>
-    <mergeCell ref="P255:V256"/>
-    <mergeCell ref="V257:X257"/>
-    <mergeCell ref="M257:O257"/>
-    <mergeCell ref="P257:U257"/>
-    <mergeCell ref="P248:V249"/>
-    <mergeCell ref="V250:X250"/>
-    <mergeCell ref="P274:V275"/>
-    <mergeCell ref="M276:O276"/>
-    <mergeCell ref="P276:U276"/>
-    <mergeCell ref="V276:X276"/>
-    <mergeCell ref="P262:V263"/>
-    <mergeCell ref="M264:O264"/>
-    <mergeCell ref="P264:U264"/>
-    <mergeCell ref="V264:X264"/>
+    <mergeCell ref="M140:O140"/>
+    <mergeCell ref="P140:S140"/>
+    <mergeCell ref="V140:X140"/>
+    <mergeCell ref="D88:G88"/>
+    <mergeCell ref="H88:J88"/>
+    <mergeCell ref="M88:O88"/>
+    <mergeCell ref="P88:S88"/>
+    <mergeCell ref="V88:X88"/>
+    <mergeCell ref="P138:V139"/>
+    <mergeCell ref="P121:V122"/>
+    <mergeCell ref="V123:X123"/>
+    <mergeCell ref="M123:O123"/>
+    <mergeCell ref="P123:S123"/>
+    <mergeCell ref="C2:G3"/>
+    <mergeCell ref="P2:V3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="C22:G23"/>
+    <mergeCell ref="P22:V23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="C53:G54"/>
+    <mergeCell ref="P53:V54"/>
+    <mergeCell ref="V55:X55"/>
+    <mergeCell ref="C69:G70"/>
+    <mergeCell ref="P69:V70"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="P55:S55"/>
+    <mergeCell ref="C37:G38"/>
+    <mergeCell ref="P37:V38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="P39:S39"/>
+    <mergeCell ref="V39:X39"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="D71:G71"/>
+    <mergeCell ref="V71:X71"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="M71:O71"/>
+    <mergeCell ref="P71:S71"/>
+    <mergeCell ref="C86:G87"/>
+    <mergeCell ref="P86:V87"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -11780,7 +11980,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="B3" workbookViewId="0">

--- a/DOC 2023/FORMATO STATUS.xlsx
+++ b/DOC 2023/FORMATO STATUS.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="126">
   <si>
     <t>DT</t>
   </si>
@@ -404,6 +404,9 @@
   </si>
   <si>
     <t>Martes 20-06-2023</t>
+  </si>
+  <si>
+    <t>Miércoles 21-06-2023</t>
   </si>
 </sst>
 </file>
@@ -981,6 +984,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -990,6 +999,12 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -997,18 +1012,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1312,7 +1315,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1341,72 +1344,72 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C2" s="85" t="s">
+      <c r="C2" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="P2" s="79" t="s">
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="P2" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="79"/>
-      <c r="T2" s="79"/>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="81"/>
+      <c r="S2" s="81"/>
+      <c r="T2" s="81"/>
+      <c r="U2" s="81"/>
+      <c r="V2" s="81"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="P3" s="79"/>
-      <c r="Q3" s="79"/>
-      <c r="R3" s="79"/>
-      <c r="S3" s="79"/>
-      <c r="T3" s="79"/>
-      <c r="U3" s="79"/>
-      <c r="V3" s="79"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="81"/>
+      <c r="S3" s="81"/>
+      <c r="T3" s="81"/>
+      <c r="U3" s="81"/>
+      <c r="V3" s="81"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="81" t="s">
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="87">
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="84">
         <v>44965</v>
       </c>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="M4" s="80" t="s">
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="M4" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="80"/>
-      <c r="O4" s="80"/>
-      <c r="P4" s="81" t="s">
+      <c r="N4" s="82"/>
+      <c r="O4" s="82"/>
+      <c r="P4" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="81"/>
-      <c r="R4" s="81"/>
-      <c r="S4" s="81"/>
+      <c r="Q4" s="83"/>
+      <c r="R4" s="83"/>
+      <c r="S4" s="83"/>
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
-      <c r="V4" s="82">
+      <c r="V4" s="86">
         <v>44601</v>
       </c>
-      <c r="W4" s="83"/>
-      <c r="X4" s="84"/>
+      <c r="W4" s="87"/>
+      <c r="X4" s="88"/>
     </row>
     <row r="5" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -1821,72 +1824,72 @@
       <c r="X15" s="4"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C22" s="85" t="s">
+      <c r="C22" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="85"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="85"/>
-      <c r="P22" s="79" t="s">
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
+      <c r="P22" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="Q22" s="79"/>
-      <c r="R22" s="79"/>
-      <c r="S22" s="79"/>
-      <c r="T22" s="79"/>
-      <c r="U22" s="79"/>
-      <c r="V22" s="79"/>
+      <c r="Q22" s="81"/>
+      <c r="R22" s="81"/>
+      <c r="S22" s="81"/>
+      <c r="T22" s="81"/>
+      <c r="U22" s="81"/>
+      <c r="V22" s="81"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="P23" s="79"/>
-      <c r="Q23" s="79"/>
-      <c r="R23" s="79"/>
-      <c r="S23" s="79"/>
-      <c r="T23" s="79"/>
-      <c r="U23" s="79"/>
-      <c r="V23" s="79"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="P23" s="81"/>
+      <c r="Q23" s="81"/>
+      <c r="R23" s="81"/>
+      <c r="S23" s="81"/>
+      <c r="T23" s="81"/>
+      <c r="U23" s="81"/>
+      <c r="V23" s="81"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="80" t="s">
+      <c r="A24" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="80"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="81" t="s">
+      <c r="B24" s="82"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="81"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="87">
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="84">
         <v>44965</v>
       </c>
-      <c r="I24" s="88"/>
-      <c r="J24" s="88"/>
-      <c r="M24" s="80" t="s">
+      <c r="I24" s="85"/>
+      <c r="J24" s="85"/>
+      <c r="M24" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N24" s="80"/>
-      <c r="O24" s="80"/>
-      <c r="P24" s="81" t="s">
+      <c r="N24" s="82"/>
+      <c r="O24" s="82"/>
+      <c r="P24" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q24" s="81"/>
-      <c r="R24" s="81"/>
-      <c r="S24" s="81"/>
+      <c r="Q24" s="83"/>
+      <c r="R24" s="83"/>
+      <c r="S24" s="83"/>
       <c r="T24" s="18"/>
       <c r="U24" s="18"/>
-      <c r="V24" s="82">
+      <c r="V24" s="86">
         <v>44971</v>
       </c>
-      <c r="W24" s="83"/>
-      <c r="X24" s="84"/>
+      <c r="W24" s="87"/>
+      <c r="X24" s="88"/>
     </row>
     <row r="25" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -2341,72 +2344,72 @@
       <c r="X35" s="4"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C38" s="85" t="s">
+      <c r="C38" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="85"/>
-      <c r="E38" s="85"/>
-      <c r="F38" s="85"/>
-      <c r="G38" s="85"/>
-      <c r="P38" s="79" t="s">
+      <c r="D38" s="79"/>
+      <c r="E38" s="79"/>
+      <c r="F38" s="79"/>
+      <c r="G38" s="79"/>
+      <c r="P38" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="Q38" s="79"/>
-      <c r="R38" s="79"/>
-      <c r="S38" s="79"/>
-      <c r="T38" s="79"/>
-      <c r="U38" s="79"/>
-      <c r="V38" s="79"/>
+      <c r="Q38" s="81"/>
+      <c r="R38" s="81"/>
+      <c r="S38" s="81"/>
+      <c r="T38" s="81"/>
+      <c r="U38" s="81"/>
+      <c r="V38" s="81"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C39" s="86"/>
-      <c r="D39" s="86"/>
-      <c r="E39" s="86"/>
-      <c r="F39" s="86"/>
-      <c r="G39" s="86"/>
-      <c r="P39" s="79"/>
-      <c r="Q39" s="79"/>
-      <c r="R39" s="79"/>
-      <c r="S39" s="79"/>
-      <c r="T39" s="79"/>
-      <c r="U39" s="79"/>
-      <c r="V39" s="79"/>
+      <c r="C39" s="80"/>
+      <c r="D39" s="80"/>
+      <c r="E39" s="80"/>
+      <c r="F39" s="80"/>
+      <c r="G39" s="80"/>
+      <c r="P39" s="81"/>
+      <c r="Q39" s="81"/>
+      <c r="R39" s="81"/>
+      <c r="S39" s="81"/>
+      <c r="T39" s="81"/>
+      <c r="U39" s="81"/>
+      <c r="V39" s="81"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A40" s="80" t="s">
+      <c r="A40" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="80"/>
-      <c r="C40" s="80"/>
-      <c r="D40" s="81" t="s">
+      <c r="B40" s="82"/>
+      <c r="C40" s="82"/>
+      <c r="D40" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E40" s="81"/>
-      <c r="F40" s="81"/>
-      <c r="G40" s="81"/>
-      <c r="H40" s="87">
+      <c r="E40" s="83"/>
+      <c r="F40" s="83"/>
+      <c r="G40" s="83"/>
+      <c r="H40" s="84">
         <v>44972</v>
       </c>
-      <c r="I40" s="88"/>
-      <c r="J40" s="88"/>
-      <c r="M40" s="80" t="s">
+      <c r="I40" s="85"/>
+      <c r="J40" s="85"/>
+      <c r="M40" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N40" s="80"/>
-      <c r="O40" s="80"/>
-      <c r="P40" s="81" t="s">
+      <c r="N40" s="82"/>
+      <c r="O40" s="82"/>
+      <c r="P40" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q40" s="81"/>
-      <c r="R40" s="81"/>
-      <c r="S40" s="81"/>
+      <c r="Q40" s="83"/>
+      <c r="R40" s="83"/>
+      <c r="S40" s="83"/>
       <c r="T40" s="18"/>
       <c r="U40" s="18"/>
-      <c r="V40" s="82">
+      <c r="V40" s="86">
         <v>44973</v>
       </c>
-      <c r="W40" s="83"/>
-      <c r="X40" s="84"/>
+      <c r="W40" s="87"/>
+      <c r="X40" s="88"/>
     </row>
     <row r="41" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
@@ -2821,72 +2824,72 @@
       <c r="X51" s="4"/>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C54" s="85" t="s">
+      <c r="C54" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="D54" s="85"/>
-      <c r="E54" s="85"/>
-      <c r="F54" s="85"/>
-      <c r="G54" s="85"/>
-      <c r="P54" s="79" t="s">
+      <c r="D54" s="79"/>
+      <c r="E54" s="79"/>
+      <c r="F54" s="79"/>
+      <c r="G54" s="79"/>
+      <c r="P54" s="81" t="s">
         <v>56</v>
       </c>
-      <c r="Q54" s="79"/>
-      <c r="R54" s="79"/>
-      <c r="S54" s="79"/>
-      <c r="T54" s="79"/>
-      <c r="U54" s="79"/>
-      <c r="V54" s="79"/>
+      <c r="Q54" s="81"/>
+      <c r="R54" s="81"/>
+      <c r="S54" s="81"/>
+      <c r="T54" s="81"/>
+      <c r="U54" s="81"/>
+      <c r="V54" s="81"/>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C55" s="86"/>
-      <c r="D55" s="86"/>
-      <c r="E55" s="86"/>
-      <c r="F55" s="86"/>
-      <c r="G55" s="86"/>
-      <c r="P55" s="79"/>
-      <c r="Q55" s="79"/>
-      <c r="R55" s="79"/>
-      <c r="S55" s="79"/>
-      <c r="T55" s="79"/>
-      <c r="U55" s="79"/>
-      <c r="V55" s="79"/>
+      <c r="C55" s="80"/>
+      <c r="D55" s="80"/>
+      <c r="E55" s="80"/>
+      <c r="F55" s="80"/>
+      <c r="G55" s="80"/>
+      <c r="P55" s="81"/>
+      <c r="Q55" s="81"/>
+      <c r="R55" s="81"/>
+      <c r="S55" s="81"/>
+      <c r="T55" s="81"/>
+      <c r="U55" s="81"/>
+      <c r="V55" s="81"/>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A56" s="80" t="s">
+      <c r="A56" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="80"/>
-      <c r="C56" s="80"/>
-      <c r="D56" s="81" t="s">
+      <c r="B56" s="82"/>
+      <c r="C56" s="82"/>
+      <c r="D56" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E56" s="81"/>
-      <c r="F56" s="81"/>
-      <c r="G56" s="81"/>
-      <c r="H56" s="87">
+      <c r="E56" s="83"/>
+      <c r="F56" s="83"/>
+      <c r="G56" s="83"/>
+      <c r="H56" s="84">
         <v>44974</v>
       </c>
-      <c r="I56" s="88"/>
-      <c r="J56" s="88"/>
-      <c r="M56" s="80" t="s">
+      <c r="I56" s="85"/>
+      <c r="J56" s="85"/>
+      <c r="M56" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N56" s="80"/>
-      <c r="O56" s="80"/>
-      <c r="P56" s="81" t="s">
+      <c r="N56" s="82"/>
+      <c r="O56" s="82"/>
+      <c r="P56" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q56" s="81"/>
-      <c r="R56" s="81"/>
-      <c r="S56" s="81"/>
+      <c r="Q56" s="83"/>
+      <c r="R56" s="83"/>
+      <c r="S56" s="83"/>
       <c r="T56" s="18"/>
       <c r="U56" s="18"/>
-      <c r="V56" s="82">
+      <c r="V56" s="86">
         <v>44975</v>
       </c>
-      <c r="W56" s="83"/>
-      <c r="X56" s="84"/>
+      <c r="W56" s="87"/>
+      <c r="X56" s="88"/>
     </row>
     <row r="57" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
@@ -3341,72 +3344,72 @@
       <c r="X67" s="4"/>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C70" s="85" t="s">
+      <c r="C70" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="D70" s="85"/>
-      <c r="E70" s="85"/>
-      <c r="F70" s="85"/>
-      <c r="G70" s="85"/>
-      <c r="P70" s="79" t="s">
+      <c r="D70" s="79"/>
+      <c r="E70" s="79"/>
+      <c r="F70" s="79"/>
+      <c r="G70" s="79"/>
+      <c r="P70" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="Q70" s="79"/>
-      <c r="R70" s="79"/>
-      <c r="S70" s="79"/>
-      <c r="T70" s="79"/>
-      <c r="U70" s="79"/>
-      <c r="V70" s="79"/>
+      <c r="Q70" s="81"/>
+      <c r="R70" s="81"/>
+      <c r="S70" s="81"/>
+      <c r="T70" s="81"/>
+      <c r="U70" s="81"/>
+      <c r="V70" s="81"/>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C71" s="86"/>
-      <c r="D71" s="86"/>
-      <c r="E71" s="86"/>
-      <c r="F71" s="86"/>
-      <c r="G71" s="86"/>
-      <c r="P71" s="79"/>
-      <c r="Q71" s="79"/>
-      <c r="R71" s="79"/>
-      <c r="S71" s="79"/>
-      <c r="T71" s="79"/>
-      <c r="U71" s="79"/>
-      <c r="V71" s="79"/>
+      <c r="C71" s="80"/>
+      <c r="D71" s="80"/>
+      <c r="E71" s="80"/>
+      <c r="F71" s="80"/>
+      <c r="G71" s="80"/>
+      <c r="P71" s="81"/>
+      <c r="Q71" s="81"/>
+      <c r="R71" s="81"/>
+      <c r="S71" s="81"/>
+      <c r="T71" s="81"/>
+      <c r="U71" s="81"/>
+      <c r="V71" s="81"/>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A72" s="80" t="s">
+      <c r="A72" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B72" s="80"/>
-      <c r="C72" s="80"/>
-      <c r="D72" s="81" t="s">
+      <c r="B72" s="82"/>
+      <c r="C72" s="82"/>
+      <c r="D72" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E72" s="81"/>
-      <c r="F72" s="81"/>
-      <c r="G72" s="81"/>
-      <c r="H72" s="87">
+      <c r="E72" s="83"/>
+      <c r="F72" s="83"/>
+      <c r="G72" s="83"/>
+      <c r="H72" s="84">
         <v>44979</v>
       </c>
-      <c r="I72" s="88"/>
-      <c r="J72" s="88"/>
-      <c r="M72" s="80" t="s">
+      <c r="I72" s="85"/>
+      <c r="J72" s="85"/>
+      <c r="M72" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N72" s="80"/>
-      <c r="O72" s="80"/>
-      <c r="P72" s="81" t="s">
+      <c r="N72" s="82"/>
+      <c r="O72" s="82"/>
+      <c r="P72" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q72" s="81"/>
-      <c r="R72" s="81"/>
-      <c r="S72" s="81"/>
+      <c r="Q72" s="83"/>
+      <c r="R72" s="83"/>
+      <c r="S72" s="83"/>
       <c r="T72" s="18"/>
       <c r="U72" s="18"/>
-      <c r="V72" s="82">
+      <c r="V72" s="86">
         <v>44980</v>
       </c>
-      <c r="W72" s="83"/>
-      <c r="X72" s="84"/>
+      <c r="W72" s="87"/>
+      <c r="X72" s="88"/>
     </row>
     <row r="73" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
@@ -3777,72 +3780,72 @@
       <c r="X83" s="4"/>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C87" s="85" t="s">
+      <c r="C87" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="D87" s="85"/>
-      <c r="E87" s="85"/>
-      <c r="F87" s="85"/>
-      <c r="G87" s="85"/>
-      <c r="P87" s="79" t="s">
+      <c r="D87" s="79"/>
+      <c r="E87" s="79"/>
+      <c r="F87" s="79"/>
+      <c r="G87" s="79"/>
+      <c r="P87" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="Q87" s="79"/>
-      <c r="R87" s="79"/>
-      <c r="S87" s="79"/>
-      <c r="T87" s="79"/>
-      <c r="U87" s="79"/>
-      <c r="V87" s="79"/>
+      <c r="Q87" s="81"/>
+      <c r="R87" s="81"/>
+      <c r="S87" s="81"/>
+      <c r="T87" s="81"/>
+      <c r="U87" s="81"/>
+      <c r="V87" s="81"/>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C88" s="86"/>
-      <c r="D88" s="86"/>
-      <c r="E88" s="86"/>
-      <c r="F88" s="86"/>
-      <c r="G88" s="86"/>
-      <c r="P88" s="79"/>
-      <c r="Q88" s="79"/>
-      <c r="R88" s="79"/>
-      <c r="S88" s="79"/>
-      <c r="T88" s="79"/>
-      <c r="U88" s="79"/>
-      <c r="V88" s="79"/>
+      <c r="C88" s="80"/>
+      <c r="D88" s="80"/>
+      <c r="E88" s="80"/>
+      <c r="F88" s="80"/>
+      <c r="G88" s="80"/>
+      <c r="P88" s="81"/>
+      <c r="Q88" s="81"/>
+      <c r="R88" s="81"/>
+      <c r="S88" s="81"/>
+      <c r="T88" s="81"/>
+      <c r="U88" s="81"/>
+      <c r="V88" s="81"/>
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A89" s="80" t="s">
+      <c r="A89" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B89" s="80"/>
-      <c r="C89" s="80"/>
-      <c r="D89" s="81" t="s">
+      <c r="B89" s="82"/>
+      <c r="C89" s="82"/>
+      <c r="D89" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E89" s="81"/>
-      <c r="F89" s="81"/>
-      <c r="G89" s="81"/>
-      <c r="H89" s="87">
+      <c r="E89" s="83"/>
+      <c r="F89" s="83"/>
+      <c r="G89" s="83"/>
+      <c r="H89" s="84">
         <v>44981</v>
       </c>
-      <c r="I89" s="88"/>
-      <c r="J89" s="88"/>
-      <c r="M89" s="80" t="s">
+      <c r="I89" s="85"/>
+      <c r="J89" s="85"/>
+      <c r="M89" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N89" s="80"/>
-      <c r="O89" s="80"/>
-      <c r="P89" s="81" t="s">
+      <c r="N89" s="82"/>
+      <c r="O89" s="82"/>
+      <c r="P89" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q89" s="81"/>
-      <c r="R89" s="81"/>
-      <c r="S89" s="81"/>
+      <c r="Q89" s="83"/>
+      <c r="R89" s="83"/>
+      <c r="S89" s="83"/>
       <c r="T89" s="18"/>
       <c r="U89" s="18"/>
-      <c r="V89" s="82">
+      <c r="V89" s="86">
         <v>44980</v>
       </c>
-      <c r="W89" s="83"/>
-      <c r="X89" s="84"/>
+      <c r="W89" s="87"/>
+      <c r="X89" s="88"/>
     </row>
     <row r="90" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
@@ -4297,72 +4300,72 @@
       <c r="X100" s="4"/>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C104" s="85" t="s">
+      <c r="C104" s="79" t="s">
         <v>70</v>
       </c>
-      <c r="D104" s="85"/>
-      <c r="E104" s="85"/>
-      <c r="F104" s="85"/>
-      <c r="G104" s="85"/>
-      <c r="P104" s="79" t="s">
+      <c r="D104" s="79"/>
+      <c r="E104" s="79"/>
+      <c r="F104" s="79"/>
+      <c r="G104" s="79"/>
+      <c r="P104" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="Q104" s="79"/>
-      <c r="R104" s="79"/>
-      <c r="S104" s="79"/>
-      <c r="T104" s="79"/>
-      <c r="U104" s="79"/>
-      <c r="V104" s="79"/>
+      <c r="Q104" s="81"/>
+      <c r="R104" s="81"/>
+      <c r="S104" s="81"/>
+      <c r="T104" s="81"/>
+      <c r="U104" s="81"/>
+      <c r="V104" s="81"/>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C105" s="86"/>
-      <c r="D105" s="86"/>
-      <c r="E105" s="86"/>
-      <c r="F105" s="86"/>
-      <c r="G105" s="86"/>
-      <c r="P105" s="79"/>
-      <c r="Q105" s="79"/>
-      <c r="R105" s="79"/>
-      <c r="S105" s="79"/>
-      <c r="T105" s="79"/>
-      <c r="U105" s="79"/>
-      <c r="V105" s="79"/>
+      <c r="C105" s="80"/>
+      <c r="D105" s="80"/>
+      <c r="E105" s="80"/>
+      <c r="F105" s="80"/>
+      <c r="G105" s="80"/>
+      <c r="P105" s="81"/>
+      <c r="Q105" s="81"/>
+      <c r="R105" s="81"/>
+      <c r="S105" s="81"/>
+      <c r="T105" s="81"/>
+      <c r="U105" s="81"/>
+      <c r="V105" s="81"/>
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A106" s="80" t="s">
+      <c r="A106" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B106" s="80"/>
-      <c r="C106" s="80"/>
-      <c r="D106" s="81" t="s">
+      <c r="B106" s="82"/>
+      <c r="C106" s="82"/>
+      <c r="D106" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E106" s="81"/>
-      <c r="F106" s="81"/>
-      <c r="G106" s="81"/>
-      <c r="H106" s="87">
+      <c r="E106" s="83"/>
+      <c r="F106" s="83"/>
+      <c r="G106" s="83"/>
+      <c r="H106" s="84">
         <v>44979</v>
       </c>
-      <c r="I106" s="88"/>
-      <c r="J106" s="88"/>
-      <c r="M106" s="80" t="s">
+      <c r="I106" s="85"/>
+      <c r="J106" s="85"/>
+      <c r="M106" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N106" s="80"/>
-      <c r="O106" s="80"/>
-      <c r="P106" s="81" t="s">
+      <c r="N106" s="82"/>
+      <c r="O106" s="82"/>
+      <c r="P106" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q106" s="81"/>
-      <c r="R106" s="81"/>
-      <c r="S106" s="81"/>
+      <c r="Q106" s="83"/>
+      <c r="R106" s="83"/>
+      <c r="S106" s="83"/>
       <c r="T106" s="18"/>
       <c r="U106" s="18"/>
-      <c r="V106" s="82" t="s">
+      <c r="V106" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="W106" s="83"/>
-      <c r="X106" s="84"/>
+      <c r="W106" s="87"/>
+      <c r="X106" s="88"/>
     </row>
     <row r="107" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
@@ -4860,6 +4863,54 @@
     <row r="124" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="P38:V39"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="P40:S40"/>
+    <mergeCell ref="V40:X40"/>
+    <mergeCell ref="C38:G39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="C22:G23"/>
+    <mergeCell ref="P22:V23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="C2:G3"/>
+    <mergeCell ref="P2:V3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="C54:G55"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="P54:V55"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="P56:S56"/>
+    <mergeCell ref="V56:X56"/>
+    <mergeCell ref="C70:G71"/>
+    <mergeCell ref="P70:V71"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="D72:G72"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="M72:O72"/>
+    <mergeCell ref="P72:S72"/>
+    <mergeCell ref="V72:X72"/>
+    <mergeCell ref="C87:G88"/>
+    <mergeCell ref="P87:V88"/>
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="D89:G89"/>
+    <mergeCell ref="H89:J89"/>
+    <mergeCell ref="M89:O89"/>
+    <mergeCell ref="P89:S89"/>
+    <mergeCell ref="V89:X89"/>
     <mergeCell ref="C104:G105"/>
     <mergeCell ref="P104:V105"/>
     <mergeCell ref="A106:C106"/>
@@ -4868,54 +4919,6 @@
     <mergeCell ref="M106:O106"/>
     <mergeCell ref="P106:S106"/>
     <mergeCell ref="V106:X106"/>
-    <mergeCell ref="C87:G88"/>
-    <mergeCell ref="P87:V88"/>
-    <mergeCell ref="A89:C89"/>
-    <mergeCell ref="D89:G89"/>
-    <mergeCell ref="H89:J89"/>
-    <mergeCell ref="M89:O89"/>
-    <mergeCell ref="P89:S89"/>
-    <mergeCell ref="V89:X89"/>
-    <mergeCell ref="C70:G71"/>
-    <mergeCell ref="P70:V71"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="D72:G72"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="M72:O72"/>
-    <mergeCell ref="P72:S72"/>
-    <mergeCell ref="V72:X72"/>
-    <mergeCell ref="C54:G55"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="P54:V55"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="P56:S56"/>
-    <mergeCell ref="V56:X56"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="C2:G3"/>
-    <mergeCell ref="P2:V3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="C22:G23"/>
-    <mergeCell ref="P22:V23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="P38:V39"/>
-    <mergeCell ref="M40:O40"/>
-    <mergeCell ref="P40:S40"/>
-    <mergeCell ref="V40:X40"/>
-    <mergeCell ref="C38:G39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="H40:J40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4924,10 +4927,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Z290"/>
+  <dimension ref="A2:Z299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M278" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M284" sqref="M284:X290"/>
+    <sheetView tabSelected="1" topLeftCell="M282" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X299" sqref="M293:X299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4947,72 +4950,72 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C2" s="85" t="s">
+      <c r="C2" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="P2" s="79" t="s">
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="P2" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="79"/>
-      <c r="T2" s="79"/>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="81"/>
+      <c r="S2" s="81"/>
+      <c r="T2" s="81"/>
+      <c r="U2" s="81"/>
+      <c r="V2" s="81"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="P3" s="79"/>
-      <c r="Q3" s="79"/>
-      <c r="R3" s="79"/>
-      <c r="S3" s="79"/>
-      <c r="T3" s="79"/>
-      <c r="U3" s="79"/>
-      <c r="V3" s="79"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="81"/>
+      <c r="S3" s="81"/>
+      <c r="T3" s="81"/>
+      <c r="U3" s="81"/>
+      <c r="V3" s="81"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="81" t="s">
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="87" t="s">
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="M4" s="80" t="s">
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="M4" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="80"/>
-      <c r="O4" s="80"/>
-      <c r="P4" s="81" t="s">
+      <c r="N4" s="82"/>
+      <c r="O4" s="82"/>
+      <c r="P4" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="81"/>
-      <c r="R4" s="81"/>
-      <c r="S4" s="81"/>
+      <c r="Q4" s="83"/>
+      <c r="R4" s="83"/>
+      <c r="S4" s="83"/>
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
-      <c r="V4" s="82">
+      <c r="V4" s="86">
         <v>44601</v>
       </c>
-      <c r="W4" s="83"/>
-      <c r="X4" s="84"/>
+      <c r="W4" s="87"/>
+      <c r="X4" s="88"/>
     </row>
     <row r="5" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -5479,72 +5482,72 @@
       <c r="X15" s="4"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C22" s="85" t="s">
+      <c r="C22" s="79" t="s">
         <v>75</v>
       </c>
-      <c r="D22" s="85"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="85"/>
-      <c r="P22" s="79" t="s">
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
+      <c r="P22" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="Q22" s="79"/>
-      <c r="R22" s="79"/>
-      <c r="S22" s="79"/>
-      <c r="T22" s="79"/>
-      <c r="U22" s="79"/>
-      <c r="V22" s="79"/>
+      <c r="Q22" s="81"/>
+      <c r="R22" s="81"/>
+      <c r="S22" s="81"/>
+      <c r="T22" s="81"/>
+      <c r="U22" s="81"/>
+      <c r="V22" s="81"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="P23" s="79"/>
-      <c r="Q23" s="79"/>
-      <c r="R23" s="79"/>
-      <c r="S23" s="79"/>
-      <c r="T23" s="79"/>
-      <c r="U23" s="79"/>
-      <c r="V23" s="79"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="P23" s="81"/>
+      <c r="Q23" s="81"/>
+      <c r="R23" s="81"/>
+      <c r="S23" s="81"/>
+      <c r="T23" s="81"/>
+      <c r="U23" s="81"/>
+      <c r="V23" s="81"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="80" t="s">
+      <c r="A24" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="80"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="81" t="s">
+      <c r="B24" s="82"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="81"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="87">
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="84">
         <v>44993</v>
       </c>
-      <c r="I24" s="88"/>
-      <c r="J24" s="88"/>
-      <c r="M24" s="80" t="s">
+      <c r="I24" s="85"/>
+      <c r="J24" s="85"/>
+      <c r="M24" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N24" s="80"/>
-      <c r="O24" s="80"/>
-      <c r="P24" s="81" t="s">
+      <c r="N24" s="82"/>
+      <c r="O24" s="82"/>
+      <c r="P24" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q24" s="81"/>
-      <c r="R24" s="81"/>
-      <c r="S24" s="81"/>
+      <c r="Q24" s="83"/>
+      <c r="R24" s="83"/>
+      <c r="S24" s="83"/>
       <c r="T24" s="18"/>
       <c r="U24" s="18"/>
-      <c r="V24" s="82">
+      <c r="V24" s="86">
         <v>44993</v>
       </c>
-      <c r="W24" s="83"/>
-      <c r="X24" s="84"/>
+      <c r="W24" s="87"/>
+      <c r="X24" s="88"/>
     </row>
     <row r="25" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -5974,72 +5977,72 @@
       <c r="X34" s="4"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C37" s="85" t="s">
+      <c r="C37" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="D37" s="85"/>
-      <c r="E37" s="85"/>
-      <c r="F37" s="85"/>
-      <c r="G37" s="85"/>
-      <c r="P37" s="79" t="s">
+      <c r="D37" s="79"/>
+      <c r="E37" s="79"/>
+      <c r="F37" s="79"/>
+      <c r="G37" s="79"/>
+      <c r="P37" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="Q37" s="79"/>
-      <c r="R37" s="79"/>
-      <c r="S37" s="79"/>
-      <c r="T37" s="79"/>
-      <c r="U37" s="79"/>
-      <c r="V37" s="79"/>
+      <c r="Q37" s="81"/>
+      <c r="R37" s="81"/>
+      <c r="S37" s="81"/>
+      <c r="T37" s="81"/>
+      <c r="U37" s="81"/>
+      <c r="V37" s="81"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C38" s="86"/>
-      <c r="D38" s="86"/>
-      <c r="E38" s="86"/>
-      <c r="F38" s="86"/>
-      <c r="G38" s="86"/>
-      <c r="P38" s="79"/>
-      <c r="Q38" s="79"/>
-      <c r="R38" s="79"/>
-      <c r="S38" s="79"/>
-      <c r="T38" s="79"/>
-      <c r="U38" s="79"/>
-      <c r="V38" s="79"/>
+      <c r="C38" s="80"/>
+      <c r="D38" s="80"/>
+      <c r="E38" s="80"/>
+      <c r="F38" s="80"/>
+      <c r="G38" s="80"/>
+      <c r="P38" s="81"/>
+      <c r="Q38" s="81"/>
+      <c r="R38" s="81"/>
+      <c r="S38" s="81"/>
+      <c r="T38" s="81"/>
+      <c r="U38" s="81"/>
+      <c r="V38" s="81"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A39" s="80" t="s">
+      <c r="A39" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="80"/>
-      <c r="C39" s="80"/>
-      <c r="D39" s="81" t="s">
+      <c r="B39" s="82"/>
+      <c r="C39" s="82"/>
+      <c r="D39" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="81"/>
-      <c r="F39" s="81"/>
-      <c r="G39" s="81"/>
-      <c r="H39" s="87">
+      <c r="E39" s="83"/>
+      <c r="F39" s="83"/>
+      <c r="G39" s="83"/>
+      <c r="H39" s="84">
         <v>44972</v>
       </c>
-      <c r="I39" s="88"/>
-      <c r="J39" s="88"/>
-      <c r="M39" s="80" t="s">
+      <c r="I39" s="85"/>
+      <c r="J39" s="85"/>
+      <c r="M39" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N39" s="80"/>
-      <c r="O39" s="80"/>
-      <c r="P39" s="81" t="s">
+      <c r="N39" s="82"/>
+      <c r="O39" s="82"/>
+      <c r="P39" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q39" s="81"/>
-      <c r="R39" s="81"/>
-      <c r="S39" s="81"/>
+      <c r="Q39" s="83"/>
+      <c r="R39" s="83"/>
+      <c r="S39" s="83"/>
       <c r="T39" s="18"/>
       <c r="U39" s="18"/>
-      <c r="V39" s="82">
+      <c r="V39" s="86">
         <v>44994</v>
       </c>
-      <c r="W39" s="83"/>
-      <c r="X39" s="84"/>
+      <c r="W39" s="87"/>
+      <c r="X39" s="88"/>
     </row>
     <row r="40" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
@@ -6450,72 +6453,72 @@
       <c r="X50" s="4"/>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C53" s="85">
+      <c r="C53" s="79">
         <v>45005</v>
       </c>
-      <c r="D53" s="85"/>
-      <c r="E53" s="85"/>
-      <c r="F53" s="85"/>
-      <c r="G53" s="85"/>
-      <c r="P53" s="85">
+      <c r="D53" s="79"/>
+      <c r="E53" s="79"/>
+      <c r="F53" s="79"/>
+      <c r="G53" s="79"/>
+      <c r="P53" s="79">
         <v>45006</v>
       </c>
-      <c r="Q53" s="85"/>
-      <c r="R53" s="85"/>
-      <c r="S53" s="85"/>
-      <c r="T53" s="85"/>
-      <c r="U53" s="85"/>
-      <c r="V53" s="85"/>
+      <c r="Q53" s="79"/>
+      <c r="R53" s="79"/>
+      <c r="S53" s="79"/>
+      <c r="T53" s="79"/>
+      <c r="U53" s="79"/>
+      <c r="V53" s="79"/>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C54" s="86"/>
-      <c r="D54" s="86"/>
-      <c r="E54" s="86"/>
-      <c r="F54" s="86"/>
-      <c r="G54" s="86"/>
-      <c r="P54" s="85"/>
-      <c r="Q54" s="85"/>
-      <c r="R54" s="85"/>
-      <c r="S54" s="85"/>
-      <c r="T54" s="85"/>
-      <c r="U54" s="85"/>
-      <c r="V54" s="85"/>
+      <c r="C54" s="80"/>
+      <c r="D54" s="80"/>
+      <c r="E54" s="80"/>
+      <c r="F54" s="80"/>
+      <c r="G54" s="80"/>
+      <c r="P54" s="79"/>
+      <c r="Q54" s="79"/>
+      <c r="R54" s="79"/>
+      <c r="S54" s="79"/>
+      <c r="T54" s="79"/>
+      <c r="U54" s="79"/>
+      <c r="V54" s="79"/>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A55" s="80" t="s">
+      <c r="A55" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="80"/>
-      <c r="C55" s="80"/>
-      <c r="D55" s="81" t="s">
+      <c r="B55" s="82"/>
+      <c r="C55" s="82"/>
+      <c r="D55" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E55" s="81"/>
-      <c r="F55" s="81"/>
-      <c r="G55" s="81"/>
-      <c r="H55" s="87">
+      <c r="E55" s="83"/>
+      <c r="F55" s="83"/>
+      <c r="G55" s="83"/>
+      <c r="H55" s="84">
         <v>45005</v>
       </c>
-      <c r="I55" s="88"/>
-      <c r="J55" s="88"/>
-      <c r="M55" s="80" t="s">
+      <c r="I55" s="85"/>
+      <c r="J55" s="85"/>
+      <c r="M55" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N55" s="80"/>
-      <c r="O55" s="80"/>
-      <c r="P55" s="81" t="s">
+      <c r="N55" s="82"/>
+      <c r="O55" s="82"/>
+      <c r="P55" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q55" s="81"/>
-      <c r="R55" s="81"/>
-      <c r="S55" s="81"/>
+      <c r="Q55" s="83"/>
+      <c r="R55" s="83"/>
+      <c r="S55" s="83"/>
       <c r="T55" s="18"/>
       <c r="U55" s="18"/>
-      <c r="V55" s="82">
+      <c r="V55" s="86">
         <v>45006</v>
       </c>
-      <c r="W55" s="83"/>
-      <c r="X55" s="84"/>
+      <c r="W55" s="87"/>
+      <c r="X55" s="88"/>
     </row>
     <row r="56" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
@@ -6914,72 +6917,72 @@
       <c r="X66" s="4"/>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C69" s="85" t="s">
+      <c r="C69" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="D69" s="85"/>
-      <c r="E69" s="85"/>
-      <c r="F69" s="85"/>
-      <c r="G69" s="85"/>
-      <c r="P69" s="79" t="s">
+      <c r="D69" s="79"/>
+      <c r="E69" s="79"/>
+      <c r="F69" s="79"/>
+      <c r="G69" s="79"/>
+      <c r="P69" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="Q69" s="79"/>
-      <c r="R69" s="79"/>
-      <c r="S69" s="79"/>
-      <c r="T69" s="79"/>
-      <c r="U69" s="79"/>
-      <c r="V69" s="79"/>
+      <c r="Q69" s="81"/>
+      <c r="R69" s="81"/>
+      <c r="S69" s="81"/>
+      <c r="T69" s="81"/>
+      <c r="U69" s="81"/>
+      <c r="V69" s="81"/>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C70" s="86"/>
-      <c r="D70" s="86"/>
-      <c r="E70" s="86"/>
-      <c r="F70" s="86"/>
-      <c r="G70" s="86"/>
-      <c r="P70" s="79"/>
-      <c r="Q70" s="79"/>
-      <c r="R70" s="79"/>
-      <c r="S70" s="79"/>
-      <c r="T70" s="79"/>
-      <c r="U70" s="79"/>
-      <c r="V70" s="79"/>
+      <c r="C70" s="80"/>
+      <c r="D70" s="80"/>
+      <c r="E70" s="80"/>
+      <c r="F70" s="80"/>
+      <c r="G70" s="80"/>
+      <c r="P70" s="81"/>
+      <c r="Q70" s="81"/>
+      <c r="R70" s="81"/>
+      <c r="S70" s="81"/>
+      <c r="T70" s="81"/>
+      <c r="U70" s="81"/>
+      <c r="V70" s="81"/>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A71" s="80" t="s">
+      <c r="A71" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B71" s="80"/>
-      <c r="C71" s="80"/>
-      <c r="D71" s="81" t="s">
+      <c r="B71" s="82"/>
+      <c r="C71" s="82"/>
+      <c r="D71" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E71" s="81"/>
-      <c r="F71" s="81"/>
-      <c r="G71" s="81"/>
-      <c r="H71" s="87">
+      <c r="E71" s="83"/>
+      <c r="F71" s="83"/>
+      <c r="G71" s="83"/>
+      <c r="H71" s="84">
         <v>44979</v>
       </c>
-      <c r="I71" s="88"/>
-      <c r="J71" s="88"/>
-      <c r="M71" s="80" t="s">
+      <c r="I71" s="85"/>
+      <c r="J71" s="85"/>
+      <c r="M71" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N71" s="80"/>
-      <c r="O71" s="80"/>
-      <c r="P71" s="81" t="s">
+      <c r="N71" s="82"/>
+      <c r="O71" s="82"/>
+      <c r="P71" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q71" s="81"/>
-      <c r="R71" s="81"/>
-      <c r="S71" s="81"/>
+      <c r="Q71" s="83"/>
+      <c r="R71" s="83"/>
+      <c r="S71" s="83"/>
       <c r="T71" s="18"/>
       <c r="U71" s="18"/>
-      <c r="V71" s="82">
+      <c r="V71" s="86">
         <v>44980</v>
       </c>
-      <c r="W71" s="83"/>
-      <c r="X71" s="84"/>
+      <c r="W71" s="87"/>
+      <c r="X71" s="88"/>
     </row>
     <row r="72" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
@@ -7382,72 +7385,72 @@
       <c r="X82" s="4"/>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C86" s="85" t="s">
+      <c r="C86" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="D86" s="85"/>
-      <c r="E86" s="85"/>
-      <c r="F86" s="85"/>
-      <c r="G86" s="85"/>
-      <c r="P86" s="79" t="s">
+      <c r="D86" s="79"/>
+      <c r="E86" s="79"/>
+      <c r="F86" s="79"/>
+      <c r="G86" s="79"/>
+      <c r="P86" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="Q86" s="79"/>
-      <c r="R86" s="79"/>
-      <c r="S86" s="79"/>
-      <c r="T86" s="79"/>
-      <c r="U86" s="79"/>
-      <c r="V86" s="79"/>
+      <c r="Q86" s="81"/>
+      <c r="R86" s="81"/>
+      <c r="S86" s="81"/>
+      <c r="T86" s="81"/>
+      <c r="U86" s="81"/>
+      <c r="V86" s="81"/>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C87" s="86"/>
-      <c r="D87" s="86"/>
-      <c r="E87" s="86"/>
-      <c r="F87" s="86"/>
-      <c r="G87" s="86"/>
-      <c r="P87" s="79"/>
-      <c r="Q87" s="79"/>
-      <c r="R87" s="79"/>
-      <c r="S87" s="79"/>
-      <c r="T87" s="79"/>
-      <c r="U87" s="79"/>
-      <c r="V87" s="79"/>
+      <c r="C87" s="80"/>
+      <c r="D87" s="80"/>
+      <c r="E87" s="80"/>
+      <c r="F87" s="80"/>
+      <c r="G87" s="80"/>
+      <c r="P87" s="81"/>
+      <c r="Q87" s="81"/>
+      <c r="R87" s="81"/>
+      <c r="S87" s="81"/>
+      <c r="T87" s="81"/>
+      <c r="U87" s="81"/>
+      <c r="V87" s="81"/>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A88" s="80" t="s">
+      <c r="A88" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B88" s="80"/>
-      <c r="C88" s="80"/>
-      <c r="D88" s="81" t="s">
+      <c r="B88" s="82"/>
+      <c r="C88" s="82"/>
+      <c r="D88" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E88" s="81"/>
-      <c r="F88" s="81"/>
-      <c r="G88" s="81"/>
-      <c r="H88" s="87">
+      <c r="E88" s="83"/>
+      <c r="F88" s="83"/>
+      <c r="G88" s="83"/>
+      <c r="H88" s="84">
         <v>44981</v>
       </c>
-      <c r="I88" s="88"/>
-      <c r="J88" s="88"/>
-      <c r="M88" s="80" t="s">
+      <c r="I88" s="85"/>
+      <c r="J88" s="85"/>
+      <c r="M88" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N88" s="80"/>
-      <c r="O88" s="80"/>
-      <c r="P88" s="81" t="s">
+      <c r="N88" s="82"/>
+      <c r="O88" s="82"/>
+      <c r="P88" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q88" s="81"/>
-      <c r="R88" s="81"/>
-      <c r="S88" s="81"/>
+      <c r="Q88" s="83"/>
+      <c r="R88" s="83"/>
+      <c r="S88" s="83"/>
       <c r="T88" s="18"/>
       <c r="U88" s="18"/>
-      <c r="V88" s="82">
+      <c r="V88" s="86">
         <v>44980</v>
       </c>
-      <c r="W88" s="83"/>
-      <c r="X88" s="84"/>
+      <c r="W88" s="87"/>
+      <c r="X88" s="88"/>
     </row>
     <row r="89" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
@@ -7782,72 +7785,72 @@
       <c r="X99" s="4"/>
     </row>
     <row r="103" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C103" s="85" t="s">
+      <c r="C103" s="79" t="s">
         <v>70</v>
       </c>
-      <c r="D103" s="85"/>
-      <c r="E103" s="85"/>
-      <c r="F103" s="85"/>
-      <c r="G103" s="85"/>
-      <c r="P103" s="79" t="s">
+      <c r="D103" s="79"/>
+      <c r="E103" s="79"/>
+      <c r="F103" s="79"/>
+      <c r="G103" s="79"/>
+      <c r="P103" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="Q103" s="79"/>
-      <c r="R103" s="79"/>
-      <c r="S103" s="79"/>
-      <c r="T103" s="79"/>
-      <c r="U103" s="79"/>
-      <c r="V103" s="79"/>
+      <c r="Q103" s="81"/>
+      <c r="R103" s="81"/>
+      <c r="S103" s="81"/>
+      <c r="T103" s="81"/>
+      <c r="U103" s="81"/>
+      <c r="V103" s="81"/>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C104" s="86"/>
-      <c r="D104" s="86"/>
-      <c r="E104" s="86"/>
-      <c r="F104" s="86"/>
-      <c r="G104" s="86"/>
-      <c r="P104" s="79"/>
-      <c r="Q104" s="79"/>
-      <c r="R104" s="79"/>
-      <c r="S104" s="79"/>
-      <c r="T104" s="79"/>
-      <c r="U104" s="79"/>
-      <c r="V104" s="79"/>
+      <c r="C104" s="80"/>
+      <c r="D104" s="80"/>
+      <c r="E104" s="80"/>
+      <c r="F104" s="80"/>
+      <c r="G104" s="80"/>
+      <c r="P104" s="81"/>
+      <c r="Q104" s="81"/>
+      <c r="R104" s="81"/>
+      <c r="S104" s="81"/>
+      <c r="T104" s="81"/>
+      <c r="U104" s="81"/>
+      <c r="V104" s="81"/>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A105" s="80" t="s">
+      <c r="A105" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B105" s="80"/>
-      <c r="C105" s="80"/>
-      <c r="D105" s="81" t="s">
+      <c r="B105" s="82"/>
+      <c r="C105" s="82"/>
+      <c r="D105" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E105" s="81"/>
-      <c r="F105" s="81"/>
-      <c r="G105" s="81"/>
-      <c r="H105" s="87">
+      <c r="E105" s="83"/>
+      <c r="F105" s="83"/>
+      <c r="G105" s="83"/>
+      <c r="H105" s="84">
         <v>44979</v>
       </c>
-      <c r="I105" s="88"/>
-      <c r="J105" s="88"/>
-      <c r="M105" s="80" t="s">
+      <c r="I105" s="85"/>
+      <c r="J105" s="85"/>
+      <c r="M105" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N105" s="80"/>
-      <c r="O105" s="80"/>
-      <c r="P105" s="81" t="s">
+      <c r="N105" s="82"/>
+      <c r="O105" s="82"/>
+      <c r="P105" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q105" s="81"/>
-      <c r="R105" s="81"/>
-      <c r="S105" s="81"/>
+      <c r="Q105" s="83"/>
+      <c r="R105" s="83"/>
+      <c r="S105" s="83"/>
       <c r="T105" s="18"/>
       <c r="U105" s="18"/>
-      <c r="V105" s="82">
+      <c r="V105" s="86">
         <v>45012</v>
       </c>
-      <c r="W105" s="83"/>
-      <c r="X105" s="84"/>
+      <c r="W105" s="87"/>
+      <c r="X105" s="88"/>
     </row>
     <row r="106" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
@@ -8298,73 +8301,73 @@
       <c r="X116" s="4"/>
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C121" s="85" t="s">
+      <c r="C121" s="79" t="s">
         <v>95</v>
       </c>
-      <c r="D121" s="85"/>
-      <c r="E121" s="85"/>
-      <c r="F121" s="85"/>
-      <c r="G121" s="85"/>
-      <c r="P121" s="79" t="s">
+      <c r="D121" s="79"/>
+      <c r="E121" s="79"/>
+      <c r="F121" s="79"/>
+      <c r="G121" s="79"/>
+      <c r="P121" s="81" t="s">
         <v>96</v>
       </c>
-      <c r="Q121" s="79"/>
-      <c r="R121" s="79"/>
-      <c r="S121" s="79"/>
-      <c r="T121" s="79"/>
-      <c r="U121" s="79"/>
-      <c r="V121" s="79"/>
+      <c r="Q121" s="81"/>
+      <c r="R121" s="81"/>
+      <c r="S121" s="81"/>
+      <c r="T121" s="81"/>
+      <c r="U121" s="81"/>
+      <c r="V121" s="81"/>
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C122" s="86"/>
-      <c r="D122" s="86"/>
-      <c r="E122" s="86"/>
-      <c r="F122" s="86"/>
-      <c r="G122" s="86"/>
-      <c r="P122" s="79"/>
-      <c r="Q122" s="79"/>
-      <c r="R122" s="79"/>
-      <c r="S122" s="79"/>
-      <c r="T122" s="79"/>
-      <c r="U122" s="79"/>
-      <c r="V122" s="79"/>
+      <c r="C122" s="80"/>
+      <c r="D122" s="80"/>
+      <c r="E122" s="80"/>
+      <c r="F122" s="80"/>
+      <c r="G122" s="80"/>
+      <c r="P122" s="81"/>
+      <c r="Q122" s="81"/>
+      <c r="R122" s="81"/>
+      <c r="S122" s="81"/>
+      <c r="T122" s="81"/>
+      <c r="U122" s="81"/>
+      <c r="V122" s="81"/>
     </row>
     <row r="123" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="80" t="s">
+      <c r="A123" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B123" s="80"/>
-      <c r="C123" s="80"/>
-      <c r="D123" s="81" t="s">
+      <c r="B123" s="82"/>
+      <c r="C123" s="82"/>
+      <c r="D123" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E123" s="81"/>
-      <c r="F123" s="81"/>
-      <c r="G123" s="81"/>
-      <c r="H123" s="87">
+      <c r="E123" s="83"/>
+      <c r="F123" s="83"/>
+      <c r="G123" s="83"/>
+      <c r="H123" s="84">
         <v>44979</v>
       </c>
-      <c r="I123" s="88"/>
-      <c r="J123" s="88"/>
-      <c r="M123" s="80" t="s">
+      <c r="I123" s="85"/>
+      <c r="J123" s="85"/>
+      <c r="M123" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N123" s="80"/>
-      <c r="O123" s="80"/>
-      <c r="P123" s="81" t="s">
+      <c r="N123" s="82"/>
+      <c r="O123" s="82"/>
+      <c r="P123" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q123" s="81"/>
-      <c r="R123" s="81"/>
-      <c r="S123" s="81"/>
+      <c r="Q123" s="83"/>
+      <c r="R123" s="83"/>
+      <c r="S123" s="83"/>
       <c r="T123" s="18"/>
       <c r="U123" s="18"/>
-      <c r="V123" s="82" t="e">
+      <c r="V123" s="86" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W123" s="83"/>
-      <c r="X123" s="84"/>
+      <c r="W123" s="87"/>
+      <c r="X123" s="88"/>
     </row>
     <row r="124" spans="1:26" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
@@ -8879,45 +8882,45 @@
       <c r="X134" s="4"/>
     </row>
     <row r="138" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="P138" s="79" t="s">
+      <c r="P138" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="Q138" s="79"/>
-      <c r="R138" s="79"/>
-      <c r="S138" s="79"/>
-      <c r="T138" s="79"/>
-      <c r="U138" s="79"/>
-      <c r="V138" s="79"/>
+      <c r="Q138" s="81"/>
+      <c r="R138" s="81"/>
+      <c r="S138" s="81"/>
+      <c r="T138" s="81"/>
+      <c r="U138" s="81"/>
+      <c r="V138" s="81"/>
     </row>
     <row r="139" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="P139" s="79"/>
-      <c r="Q139" s="79"/>
-      <c r="R139" s="79"/>
-      <c r="S139" s="79"/>
-      <c r="T139" s="79"/>
-      <c r="U139" s="79"/>
-      <c r="V139" s="79"/>
+      <c r="P139" s="81"/>
+      <c r="Q139" s="81"/>
+      <c r="R139" s="81"/>
+      <c r="S139" s="81"/>
+      <c r="T139" s="81"/>
+      <c r="U139" s="81"/>
+      <c r="V139" s="81"/>
     </row>
     <row r="140" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="M140" s="80" t="s">
+      <c r="M140" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N140" s="80"/>
-      <c r="O140" s="80"/>
-      <c r="P140" s="81" t="s">
+      <c r="N140" s="82"/>
+      <c r="O140" s="82"/>
+      <c r="P140" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q140" s="81"/>
-      <c r="R140" s="81"/>
-      <c r="S140" s="81"/>
+      <c r="Q140" s="83"/>
+      <c r="R140" s="83"/>
+      <c r="S140" s="83"/>
       <c r="T140" s="18"/>
       <c r="U140" s="18"/>
-      <c r="V140" s="82" t="e">
+      <c r="V140" s="86" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W140" s="83"/>
-      <c r="X140" s="84"/>
+      <c r="W140" s="87"/>
+      <c r="X140" s="88"/>
     </row>
     <row r="141" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M141" s="6" t="s">
@@ -9182,45 +9185,45 @@
       <c r="S152" s="64"/>
     </row>
     <row r="153" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P153" s="79" t="s">
+      <c r="P153" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="Q153" s="79"/>
-      <c r="R153" s="79"/>
-      <c r="S153" s="79"/>
-      <c r="T153" s="79"/>
-      <c r="U153" s="79"/>
-      <c r="V153" s="79"/>
+      <c r="Q153" s="81"/>
+      <c r="R153" s="81"/>
+      <c r="S153" s="81"/>
+      <c r="T153" s="81"/>
+      <c r="U153" s="81"/>
+      <c r="V153" s="81"/>
     </row>
     <row r="154" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P154" s="79"/>
-      <c r="Q154" s="79"/>
-      <c r="R154" s="79"/>
-      <c r="S154" s="79"/>
-      <c r="T154" s="79"/>
-      <c r="U154" s="79"/>
-      <c r="V154" s="79"/>
+      <c r="P154" s="81"/>
+      <c r="Q154" s="81"/>
+      <c r="R154" s="81"/>
+      <c r="S154" s="81"/>
+      <c r="T154" s="81"/>
+      <c r="U154" s="81"/>
+      <c r="V154" s="81"/>
     </row>
     <row r="155" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M155" s="80" t="s">
+      <c r="M155" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N155" s="80"/>
-      <c r="O155" s="80"/>
-      <c r="P155" s="81" t="s">
+      <c r="N155" s="82"/>
+      <c r="O155" s="82"/>
+      <c r="P155" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q155" s="81"/>
-      <c r="R155" s="81"/>
-      <c r="S155" s="81"/>
+      <c r="Q155" s="83"/>
+      <c r="R155" s="83"/>
+      <c r="S155" s="83"/>
       <c r="T155" s="18"/>
       <c r="U155" s="18"/>
-      <c r="V155" s="82" t="e">
+      <c r="V155" s="86" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W155" s="83"/>
-      <c r="X155" s="84"/>
+      <c r="W155" s="87"/>
+      <c r="X155" s="88"/>
     </row>
     <row r="156" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M156" s="6" t="s">
@@ -9484,45 +9487,45 @@
       <c r="X166" s="4"/>
     </row>
     <row r="168" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P168" s="79" t="s">
+      <c r="P168" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="Q168" s="79"/>
-      <c r="R168" s="79"/>
-      <c r="S168" s="79"/>
-      <c r="T168" s="79"/>
-      <c r="U168" s="79"/>
-      <c r="V168" s="79"/>
+      <c r="Q168" s="81"/>
+      <c r="R168" s="81"/>
+      <c r="S168" s="81"/>
+      <c r="T168" s="81"/>
+      <c r="U168" s="81"/>
+      <c r="V168" s="81"/>
     </row>
     <row r="169" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P169" s="79"/>
-      <c r="Q169" s="79"/>
-      <c r="R169" s="79"/>
-      <c r="S169" s="79"/>
-      <c r="T169" s="79"/>
-      <c r="U169" s="79"/>
-      <c r="V169" s="79"/>
+      <c r="P169" s="81"/>
+      <c r="Q169" s="81"/>
+      <c r="R169" s="81"/>
+      <c r="S169" s="81"/>
+      <c r="T169" s="81"/>
+      <c r="U169" s="81"/>
+      <c r="V169" s="81"/>
     </row>
     <row r="170" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M170" s="80" t="s">
+      <c r="M170" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N170" s="80"/>
-      <c r="O170" s="80"/>
-      <c r="P170" s="81" t="s">
+      <c r="N170" s="82"/>
+      <c r="O170" s="82"/>
+      <c r="P170" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q170" s="81"/>
-      <c r="R170" s="81"/>
-      <c r="S170" s="81"/>
+      <c r="Q170" s="83"/>
+      <c r="R170" s="83"/>
+      <c r="S170" s="83"/>
       <c r="T170" s="18"/>
       <c r="U170" s="18"/>
-      <c r="V170" s="82" t="e">
+      <c r="V170" s="86" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W170" s="83"/>
-      <c r="X170" s="84"/>
+      <c r="W170" s="87"/>
+      <c r="X170" s="88"/>
     </row>
     <row r="171" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M171" s="6" t="s">
@@ -9727,45 +9730,45 @@
       <c r="X181" s="4"/>
     </row>
     <row r="186" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P186" s="79" t="s">
+      <c r="P186" s="81" t="s">
         <v>104</v>
       </c>
-      <c r="Q186" s="79"/>
-      <c r="R186" s="79"/>
-      <c r="S186" s="79"/>
-      <c r="T186" s="79"/>
-      <c r="U186" s="79"/>
-      <c r="V186" s="79"/>
+      <c r="Q186" s="81"/>
+      <c r="R186" s="81"/>
+      <c r="S186" s="81"/>
+      <c r="T186" s="81"/>
+      <c r="U186" s="81"/>
+      <c r="V186" s="81"/>
     </row>
     <row r="187" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P187" s="79"/>
-      <c r="Q187" s="79"/>
-      <c r="R187" s="79"/>
-      <c r="S187" s="79"/>
-      <c r="T187" s="79"/>
-      <c r="U187" s="79"/>
-      <c r="V187" s="79"/>
+      <c r="P187" s="81"/>
+      <c r="Q187" s="81"/>
+      <c r="R187" s="81"/>
+      <c r="S187" s="81"/>
+      <c r="T187" s="81"/>
+      <c r="U187" s="81"/>
+      <c r="V187" s="81"/>
     </row>
     <row r="188" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M188" s="80" t="s">
+      <c r="M188" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N188" s="80"/>
-      <c r="O188" s="80"/>
-      <c r="P188" s="81" t="s">
+      <c r="N188" s="82"/>
+      <c r="O188" s="82"/>
+      <c r="P188" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q188" s="81"/>
-      <c r="R188" s="81"/>
-      <c r="S188" s="81"/>
+      <c r="Q188" s="83"/>
+      <c r="R188" s="83"/>
+      <c r="S188" s="83"/>
       <c r="T188" s="18"/>
       <c r="U188" s="18"/>
-      <c r="V188" s="82" t="e">
+      <c r="V188" s="86" t="e">
         <f>FECHANUMERO</f>
         <v>#NAME?</v>
       </c>
-      <c r="W188" s="83"/>
-      <c r="X188" s="84"/>
+      <c r="W188" s="87"/>
+      <c r="X188" s="88"/>
     </row>
     <row r="189" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M189" s="6" t="s">
@@ -9935,24 +9938,24 @@
       <c r="X194" s="15"/>
     </row>
     <row r="198" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P198" s="79" t="s">
+      <c r="P198" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="Q198" s="79"/>
-      <c r="R198" s="79"/>
-      <c r="S198" s="79"/>
-      <c r="T198" s="79"/>
-      <c r="U198" s="79"/>
-      <c r="V198" s="79"/>
+      <c r="Q198" s="81"/>
+      <c r="R198" s="81"/>
+      <c r="S198" s="81"/>
+      <c r="T198" s="81"/>
+      <c r="U198" s="81"/>
+      <c r="V198" s="81"/>
     </row>
     <row r="199" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P199" s="79"/>
-      <c r="Q199" s="79"/>
-      <c r="R199" s="79"/>
-      <c r="S199" s="79"/>
-      <c r="T199" s="79"/>
-      <c r="U199" s="79"/>
-      <c r="V199" s="79"/>
+      <c r="P199" s="81"/>
+      <c r="Q199" s="81"/>
+      <c r="R199" s="81"/>
+      <c r="S199" s="81"/>
+      <c r="T199" s="81"/>
+      <c r="U199" s="81"/>
+      <c r="V199" s="81"/>
     </row>
     <row r="200" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M200" s="70" t="s">
@@ -10127,24 +10130,24 @@
       </c>
     </row>
     <row r="209" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P209" s="79" t="s">
+      <c r="P209" s="81" t="s">
         <v>113</v>
       </c>
-      <c r="Q209" s="79"/>
-      <c r="R209" s="79"/>
-      <c r="S209" s="79"/>
-      <c r="T209" s="79"/>
-      <c r="U209" s="79"/>
-      <c r="V209" s="79"/>
+      <c r="Q209" s="81"/>
+      <c r="R209" s="81"/>
+      <c r="S209" s="81"/>
+      <c r="T209" s="81"/>
+      <c r="U209" s="81"/>
+      <c r="V209" s="81"/>
     </row>
     <row r="210" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P210" s="79"/>
-      <c r="Q210" s="79"/>
-      <c r="R210" s="79"/>
-      <c r="S210" s="79"/>
-      <c r="T210" s="79"/>
-      <c r="U210" s="79"/>
-      <c r="V210" s="79"/>
+      <c r="P210" s="81"/>
+      <c r="Q210" s="81"/>
+      <c r="R210" s="81"/>
+      <c r="S210" s="81"/>
+      <c r="T210" s="81"/>
+      <c r="U210" s="81"/>
+      <c r="V210" s="81"/>
     </row>
     <row r="211" spans="13:26" ht="36" x14ac:dyDescent="0.25">
       <c r="M211" s="70" t="s">
@@ -10296,24 +10299,24 @@
       </c>
     </row>
     <row r="218" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P218" s="79" t="s">
+      <c r="P218" s="81" t="s">
         <v>114</v>
       </c>
-      <c r="Q218" s="79"/>
-      <c r="R218" s="79"/>
-      <c r="S218" s="79"/>
-      <c r="T218" s="79"/>
-      <c r="U218" s="79"/>
-      <c r="V218" s="79"/>
+      <c r="Q218" s="81"/>
+      <c r="R218" s="81"/>
+      <c r="S218" s="81"/>
+      <c r="T218" s="81"/>
+      <c r="U218" s="81"/>
+      <c r="V218" s="81"/>
     </row>
     <row r="219" spans="13:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P219" s="79"/>
-      <c r="Q219" s="79"/>
-      <c r="R219" s="79"/>
-      <c r="S219" s="79"/>
-      <c r="T219" s="79"/>
-      <c r="U219" s="79"/>
-      <c r="V219" s="79"/>
+      <c r="P219" s="81"/>
+      <c r="Q219" s="81"/>
+      <c r="R219" s="81"/>
+      <c r="S219" s="81"/>
+      <c r="T219" s="81"/>
+      <c r="U219" s="81"/>
+      <c r="V219" s="81"/>
     </row>
     <row r="220" spans="13:26" ht="36" x14ac:dyDescent="0.25">
       <c r="M220" s="70" t="s">
@@ -10570,24 +10573,24 @@
       </c>
     </row>
     <row r="230" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P230" s="79" t="s">
+      <c r="P230" s="81" t="s">
         <v>116</v>
       </c>
-      <c r="Q230" s="79"/>
-      <c r="R230" s="79"/>
-      <c r="S230" s="79"/>
-      <c r="T230" s="79"/>
-      <c r="U230" s="79"/>
-      <c r="V230" s="79"/>
+      <c r="Q230" s="81"/>
+      <c r="R230" s="81"/>
+      <c r="S230" s="81"/>
+      <c r="T230" s="81"/>
+      <c r="U230" s="81"/>
+      <c r="V230" s="81"/>
     </row>
     <row r="231" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P231" s="79"/>
-      <c r="Q231" s="79"/>
-      <c r="R231" s="79"/>
-      <c r="S231" s="79"/>
-      <c r="T231" s="79"/>
-      <c r="U231" s="79"/>
-      <c r="V231" s="79"/>
+      <c r="P231" s="81"/>
+      <c r="Q231" s="81"/>
+      <c r="R231" s="81"/>
+      <c r="S231" s="81"/>
+      <c r="T231" s="81"/>
+      <c r="U231" s="81"/>
+      <c r="V231" s="81"/>
     </row>
     <row r="232" spans="13:26" ht="36" x14ac:dyDescent="0.25">
       <c r="M232" s="70" t="s">
@@ -10750,24 +10753,24 @@
       </c>
     </row>
     <row r="240" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P240" s="79" t="s">
+      <c r="P240" s="81" t="s">
         <v>118</v>
       </c>
-      <c r="Q240" s="79"/>
-      <c r="R240" s="79"/>
-      <c r="S240" s="79"/>
-      <c r="T240" s="79"/>
-      <c r="U240" s="79"/>
-      <c r="V240" s="79"/>
+      <c r="Q240" s="81"/>
+      <c r="R240" s="81"/>
+      <c r="S240" s="81"/>
+      <c r="T240" s="81"/>
+      <c r="U240" s="81"/>
+      <c r="V240" s="81"/>
     </row>
     <row r="241" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P241" s="79"/>
-      <c r="Q241" s="79"/>
-      <c r="R241" s="79"/>
-      <c r="S241" s="79"/>
-      <c r="T241" s="79"/>
-      <c r="U241" s="79"/>
-      <c r="V241" s="79"/>
+      <c r="P241" s="81"/>
+      <c r="Q241" s="81"/>
+      <c r="R241" s="81"/>
+      <c r="S241" s="81"/>
+      <c r="T241" s="81"/>
+      <c r="U241" s="81"/>
+      <c r="V241" s="81"/>
     </row>
     <row r="242" spans="13:26" ht="36" x14ac:dyDescent="0.25">
       <c r="M242" s="70" t="s">
@@ -10783,11 +10786,11 @@
       <c r="S242" s="71"/>
       <c r="T242" s="18"/>
       <c r="U242" s="18"/>
-      <c r="V242" s="82">
+      <c r="V242" s="86">
         <v>45082</v>
       </c>
-      <c r="W242" s="83"/>
-      <c r="X242" s="84"/>
+      <c r="W242" s="87"/>
+      <c r="X242" s="88"/>
     </row>
     <row r="243" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M243" s="6" t="s">
@@ -10897,24 +10900,24 @@
       </c>
     </row>
     <row r="248" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P248" s="79" t="s">
+      <c r="P248" s="81" t="s">
         <v>119</v>
       </c>
-      <c r="Q248" s="79"/>
-      <c r="R248" s="79"/>
-      <c r="S248" s="79"/>
-      <c r="T248" s="79"/>
-      <c r="U248" s="79"/>
-      <c r="V248" s="79"/>
+      <c r="Q248" s="81"/>
+      <c r="R248" s="81"/>
+      <c r="S248" s="81"/>
+      <c r="T248" s="81"/>
+      <c r="U248" s="81"/>
+      <c r="V248" s="81"/>
     </row>
     <row r="249" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P249" s="79"/>
-      <c r="Q249" s="79"/>
-      <c r="R249" s="79"/>
-      <c r="S249" s="79"/>
-      <c r="T249" s="79"/>
-      <c r="U249" s="79"/>
-      <c r="V249" s="79"/>
+      <c r="P249" s="81"/>
+      <c r="Q249" s="81"/>
+      <c r="R249" s="81"/>
+      <c r="S249" s="81"/>
+      <c r="T249" s="81"/>
+      <c r="U249" s="81"/>
+      <c r="V249" s="81"/>
     </row>
     <row r="250" spans="13:26" ht="36" x14ac:dyDescent="0.25">
       <c r="M250" s="70" t="s">
@@ -10930,11 +10933,11 @@
       <c r="S250" s="71"/>
       <c r="T250" s="18"/>
       <c r="U250" s="18"/>
-      <c r="V250" s="82">
+      <c r="V250" s="86">
         <v>45083</v>
       </c>
-      <c r="W250" s="83"/>
-      <c r="X250" s="84"/>
+      <c r="W250" s="87"/>
+      <c r="X250" s="88"/>
     </row>
     <row r="251" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M251" s="6" t="s">
@@ -11011,24 +11014,24 @@
       </c>
     </row>
     <row r="255" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P255" s="79" t="s">
+      <c r="P255" s="81" t="s">
         <v>120</v>
       </c>
-      <c r="Q255" s="79"/>
-      <c r="R255" s="79"/>
-      <c r="S255" s="79"/>
-      <c r="T255" s="79"/>
-      <c r="U255" s="79"/>
-      <c r="V255" s="79"/>
+      <c r="Q255" s="81"/>
+      <c r="R255" s="81"/>
+      <c r="S255" s="81"/>
+      <c r="T255" s="81"/>
+      <c r="U255" s="81"/>
+      <c r="V255" s="81"/>
     </row>
     <row r="256" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P256" s="79"/>
-      <c r="Q256" s="79"/>
-      <c r="R256" s="79"/>
-      <c r="S256" s="79"/>
-      <c r="T256" s="79"/>
-      <c r="U256" s="79"/>
-      <c r="V256" s="79"/>
+      <c r="P256" s="81"/>
+      <c r="Q256" s="81"/>
+      <c r="R256" s="81"/>
+      <c r="S256" s="81"/>
+      <c r="T256" s="81"/>
+      <c r="U256" s="81"/>
+      <c r="V256" s="81"/>
     </row>
     <row r="257" spans="13:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M257" s="89" t="s">
@@ -11044,11 +11047,11 @@
       <c r="S257" s="93"/>
       <c r="T257" s="93"/>
       <c r="U257" s="94"/>
-      <c r="V257" s="82">
+      <c r="V257" s="86">
         <v>45084</v>
       </c>
-      <c r="W257" s="83"/>
-      <c r="X257" s="84"/>
+      <c r="W257" s="87"/>
+      <c r="X257" s="88"/>
       <c r="Z257" s="20" t="s">
         <v>9</v>
       </c>
@@ -11178,24 +11181,24 @@
       </c>
     </row>
     <row r="262" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P262" s="79" t="s">
+      <c r="P262" s="81" t="s">
         <v>121</v>
       </c>
-      <c r="Q262" s="79"/>
-      <c r="R262" s="79"/>
-      <c r="S262" s="79"/>
-      <c r="T262" s="79"/>
-      <c r="U262" s="79"/>
-      <c r="V262" s="79"/>
+      <c r="Q262" s="81"/>
+      <c r="R262" s="81"/>
+      <c r="S262" s="81"/>
+      <c r="T262" s="81"/>
+      <c r="U262" s="81"/>
+      <c r="V262" s="81"/>
     </row>
     <row r="263" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P263" s="79"/>
-      <c r="Q263" s="79"/>
-      <c r="R263" s="79"/>
-      <c r="S263" s="79"/>
-      <c r="T263" s="79"/>
-      <c r="U263" s="79"/>
-      <c r="V263" s="79"/>
+      <c r="P263" s="81"/>
+      <c r="Q263" s="81"/>
+      <c r="R263" s="81"/>
+      <c r="S263" s="81"/>
+      <c r="T263" s="81"/>
+      <c r="U263" s="81"/>
+      <c r="V263" s="81"/>
     </row>
     <row r="264" spans="13:26" x14ac:dyDescent="0.25">
       <c r="M264" s="89" t="s">
@@ -11211,11 +11214,11 @@
       <c r="S264" s="93"/>
       <c r="T264" s="93"/>
       <c r="U264" s="94"/>
-      <c r="V264" s="82">
+      <c r="V264" s="86">
         <v>45089</v>
       </c>
-      <c r="W264" s="83"/>
-      <c r="X264" s="84"/>
+      <c r="W264" s="87"/>
+      <c r="X264" s="88"/>
     </row>
     <row r="265" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M265" s="6" t="s">
@@ -11472,24 +11475,24 @@
       </c>
     </row>
     <row r="274" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P274" s="79" t="s">
+      <c r="P274" s="81" t="s">
         <v>123</v>
       </c>
-      <c r="Q274" s="79"/>
-      <c r="R274" s="79"/>
-      <c r="S274" s="79"/>
-      <c r="T274" s="79"/>
-      <c r="U274" s="79"/>
-      <c r="V274" s="79"/>
+      <c r="Q274" s="81"/>
+      <c r="R274" s="81"/>
+      <c r="S274" s="81"/>
+      <c r="T274" s="81"/>
+      <c r="U274" s="81"/>
+      <c r="V274" s="81"/>
     </row>
     <row r="275" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="P275" s="79"/>
-      <c r="Q275" s="79"/>
-      <c r="R275" s="79"/>
-      <c r="S275" s="79"/>
-      <c r="T275" s="79"/>
-      <c r="U275" s="79"/>
-      <c r="V275" s="79"/>
+      <c r="P275" s="81"/>
+      <c r="Q275" s="81"/>
+      <c r="R275" s="81"/>
+      <c r="S275" s="81"/>
+      <c r="T275" s="81"/>
+      <c r="U275" s="81"/>
+      <c r="V275" s="81"/>
     </row>
     <row r="276" spans="13:26" x14ac:dyDescent="0.25">
       <c r="M276" s="89" t="s">
@@ -11505,11 +11508,11 @@
       <c r="S276" s="93"/>
       <c r="T276" s="93"/>
       <c r="U276" s="94"/>
-      <c r="V276" s="82">
+      <c r="V276" s="86">
         <v>45091</v>
       </c>
-      <c r="W276" s="83"/>
-      <c r="X276" s="84"/>
+      <c r="W276" s="87"/>
+      <c r="X276" s="88"/>
     </row>
     <row r="277" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M277" s="6" t="s">
@@ -11678,27 +11681,27 @@
       <c r="M284" s="95"/>
       <c r="N284" s="95"/>
       <c r="O284" s="95"/>
-      <c r="P284" s="79" t="s">
+      <c r="P284" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="Q284" s="79"/>
-      <c r="R284" s="79"/>
-      <c r="S284" s="79"/>
-      <c r="T284" s="79"/>
-      <c r="U284" s="79"/>
-      <c r="V284" s="79"/>
+      <c r="Q284" s="81"/>
+      <c r="R284" s="81"/>
+      <c r="S284" s="81"/>
+      <c r="T284" s="81"/>
+      <c r="U284" s="81"/>
+      <c r="V284" s="81"/>
     </row>
     <row r="285" spans="13:26" x14ac:dyDescent="0.25">
       <c r="M285" s="96"/>
       <c r="N285" s="96"/>
       <c r="O285" s="96"/>
-      <c r="P285" s="79"/>
-      <c r="Q285" s="79"/>
-      <c r="R285" s="79"/>
-      <c r="S285" s="79"/>
-      <c r="T285" s="79"/>
-      <c r="U285" s="79"/>
-      <c r="V285" s="79"/>
+      <c r="P285" s="81"/>
+      <c r="Q285" s="81"/>
+      <c r="R285" s="81"/>
+      <c r="S285" s="81"/>
+      <c r="T285" s="81"/>
+      <c r="U285" s="81"/>
+      <c r="V285" s="81"/>
     </row>
     <row r="286" spans="13:26" x14ac:dyDescent="0.25">
       <c r="M286" s="89" t="s">
@@ -11714,11 +11717,11 @@
       <c r="S286" s="93"/>
       <c r="T286" s="93"/>
       <c r="U286" s="94"/>
-      <c r="V286" s="82">
+      <c r="V286" s="86">
         <v>45096</v>
       </c>
-      <c r="W286" s="83"/>
-      <c r="X286" s="84"/>
+      <c r="W286" s="87"/>
+      <c r="X286" s="88"/>
     </row>
     <row r="287" spans="13:26" ht="45" x14ac:dyDescent="0.25">
       <c r="M287" s="6" t="s">
@@ -11866,41 +11869,258 @@
         <v>0.62916666666666665</v>
       </c>
     </row>
+    <row r="293" spans="13:24" x14ac:dyDescent="0.25">
+      <c r="M293" s="95"/>
+      <c r="N293" s="95"/>
+      <c r="O293" s="95"/>
+      <c r="P293" s="81" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q293" s="81"/>
+      <c r="R293" s="81"/>
+      <c r="S293" s="81"/>
+      <c r="T293" s="81"/>
+      <c r="U293" s="81"/>
+      <c r="V293" s="81"/>
+    </row>
+    <row r="294" spans="13:24" x14ac:dyDescent="0.25">
+      <c r="M294" s="96"/>
+      <c r="N294" s="96"/>
+      <c r="O294" s="96"/>
+      <c r="P294" s="81"/>
+      <c r="Q294" s="81"/>
+      <c r="R294" s="81"/>
+      <c r="S294" s="81"/>
+      <c r="T294" s="81"/>
+      <c r="U294" s="81"/>
+      <c r="V294" s="81"/>
+    </row>
+    <row r="295" spans="13:24" x14ac:dyDescent="0.25">
+      <c r="M295" s="89" t="s">
+        <v>12</v>
+      </c>
+      <c r="N295" s="90"/>
+      <c r="O295" s="91"/>
+      <c r="P295" s="92" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q295" s="93"/>
+      <c r="R295" s="93"/>
+      <c r="S295" s="93"/>
+      <c r="T295" s="93"/>
+      <c r="U295" s="94"/>
+      <c r="V295" s="86">
+        <v>45097</v>
+      </c>
+      <c r="W295" s="87"/>
+      <c r="X295" s="88"/>
+    </row>
+    <row r="296" spans="13:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="M296" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N296" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O296" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P296" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q296" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="R296" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="S296" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="T296" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="U296" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="V296" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="W296" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="X296" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="297" spans="13:24" x14ac:dyDescent="0.25">
+      <c r="M297" s="47"/>
+      <c r="N297" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="O297" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="P297" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q297" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="R297" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="S297" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="T297" s="43">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="U297" s="33">
+        <v>0.30138888888888887</v>
+      </c>
+      <c r="V297" s="34">
+        <v>0.32847222222222222</v>
+      </c>
+      <c r="W297" s="34">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="X297" s="35">
+        <v>0.36041666666666666</v>
+      </c>
+    </row>
+    <row r="298" spans="13:24" x14ac:dyDescent="0.25">
+      <c r="M298" s="47"/>
+      <c r="N298" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="O298" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="P298" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q298" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="R298" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="S298" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="T298" s="43">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="U298" s="33">
+        <v>0.30277777777777776</v>
+      </c>
+      <c r="V298" s="34">
+        <v>0.32847222222222222</v>
+      </c>
+      <c r="W298" s="34">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="X298" s="35">
+        <v>0.38680555555555557</v>
+      </c>
+    </row>
+    <row r="299" spans="13:24" x14ac:dyDescent="0.25">
+      <c r="M299" s="15"/>
+      <c r="N299" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="O299" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="P299" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q299" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="R299" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="S299" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="T299" s="43">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="U299" s="33">
+        <v>0.30416666666666664</v>
+      </c>
+      <c r="V299" s="34">
+        <v>0.33611111111111108</v>
+      </c>
+      <c r="W299" s="34">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="X299" s="35">
+        <v>0.38750000000000001</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="105">
-    <mergeCell ref="P284:V285"/>
-    <mergeCell ref="M286:O286"/>
-    <mergeCell ref="P286:U286"/>
-    <mergeCell ref="V286:X286"/>
-    <mergeCell ref="M284:O285"/>
-    <mergeCell ref="P274:V275"/>
-    <mergeCell ref="M276:O276"/>
-    <mergeCell ref="P276:U276"/>
-    <mergeCell ref="V276:X276"/>
-    <mergeCell ref="P262:V263"/>
-    <mergeCell ref="M264:O264"/>
-    <mergeCell ref="P264:U264"/>
-    <mergeCell ref="V264:X264"/>
-    <mergeCell ref="P240:V241"/>
-    <mergeCell ref="V242:X242"/>
-    <mergeCell ref="P255:V256"/>
-    <mergeCell ref="V257:X257"/>
-    <mergeCell ref="M257:O257"/>
-    <mergeCell ref="P257:U257"/>
-    <mergeCell ref="P248:V249"/>
-    <mergeCell ref="V250:X250"/>
-    <mergeCell ref="P230:V231"/>
-    <mergeCell ref="P168:V169"/>
-    <mergeCell ref="M170:O170"/>
-    <mergeCell ref="P170:S170"/>
-    <mergeCell ref="V170:X170"/>
-    <mergeCell ref="P218:V219"/>
-    <mergeCell ref="P198:V199"/>
-    <mergeCell ref="P186:V187"/>
-    <mergeCell ref="M188:O188"/>
-    <mergeCell ref="P188:S188"/>
-    <mergeCell ref="V188:X188"/>
-    <mergeCell ref="P209:V210"/>
+  <mergeCells count="110">
+    <mergeCell ref="M293:O294"/>
+    <mergeCell ref="P293:V294"/>
+    <mergeCell ref="M295:O295"/>
+    <mergeCell ref="P295:U295"/>
+    <mergeCell ref="V295:X295"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="D71:G71"/>
+    <mergeCell ref="V71:X71"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="M71:O71"/>
+    <mergeCell ref="P71:S71"/>
+    <mergeCell ref="C86:G87"/>
+    <mergeCell ref="P86:V87"/>
+    <mergeCell ref="C69:G70"/>
+    <mergeCell ref="P69:V70"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="P55:S55"/>
+    <mergeCell ref="C37:G38"/>
+    <mergeCell ref="P37:V38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="P39:S39"/>
+    <mergeCell ref="V39:X39"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="C53:G54"/>
+    <mergeCell ref="P53:V54"/>
+    <mergeCell ref="V55:X55"/>
+    <mergeCell ref="C2:G3"/>
+    <mergeCell ref="P2:V3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="C22:G23"/>
+    <mergeCell ref="P22:V23"/>
+    <mergeCell ref="D88:G88"/>
+    <mergeCell ref="H88:J88"/>
+    <mergeCell ref="M88:O88"/>
+    <mergeCell ref="P88:S88"/>
+    <mergeCell ref="V88:X88"/>
+    <mergeCell ref="P138:V139"/>
+    <mergeCell ref="P121:V122"/>
+    <mergeCell ref="V123:X123"/>
+    <mergeCell ref="M123:O123"/>
+    <mergeCell ref="P123:S123"/>
     <mergeCell ref="M155:O155"/>
     <mergeCell ref="P155:S155"/>
     <mergeCell ref="V155:X155"/>
@@ -11920,59 +12140,39 @@
     <mergeCell ref="M140:O140"/>
     <mergeCell ref="P140:S140"/>
     <mergeCell ref="V140:X140"/>
-    <mergeCell ref="D88:G88"/>
-    <mergeCell ref="H88:J88"/>
-    <mergeCell ref="M88:O88"/>
-    <mergeCell ref="P88:S88"/>
-    <mergeCell ref="V88:X88"/>
-    <mergeCell ref="P138:V139"/>
-    <mergeCell ref="P121:V122"/>
-    <mergeCell ref="V123:X123"/>
-    <mergeCell ref="M123:O123"/>
-    <mergeCell ref="P123:S123"/>
-    <mergeCell ref="C2:G3"/>
-    <mergeCell ref="P2:V3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="C22:G23"/>
-    <mergeCell ref="P22:V23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="C53:G54"/>
-    <mergeCell ref="P53:V54"/>
-    <mergeCell ref="V55:X55"/>
-    <mergeCell ref="C69:G70"/>
-    <mergeCell ref="P69:V70"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="M55:O55"/>
-    <mergeCell ref="P55:S55"/>
-    <mergeCell ref="C37:G38"/>
-    <mergeCell ref="P37:V38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="P39:S39"/>
-    <mergeCell ref="V39:X39"/>
-    <mergeCell ref="A88:C88"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="D71:G71"/>
-    <mergeCell ref="V71:X71"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="M71:O71"/>
-    <mergeCell ref="P71:S71"/>
-    <mergeCell ref="C86:G87"/>
-    <mergeCell ref="P86:V87"/>
+    <mergeCell ref="P230:V231"/>
+    <mergeCell ref="P168:V169"/>
+    <mergeCell ref="M170:O170"/>
+    <mergeCell ref="P170:S170"/>
+    <mergeCell ref="V170:X170"/>
+    <mergeCell ref="P218:V219"/>
+    <mergeCell ref="P198:V199"/>
+    <mergeCell ref="P186:V187"/>
+    <mergeCell ref="M188:O188"/>
+    <mergeCell ref="P188:S188"/>
+    <mergeCell ref="V188:X188"/>
+    <mergeCell ref="P209:V210"/>
+    <mergeCell ref="P262:V263"/>
+    <mergeCell ref="M264:O264"/>
+    <mergeCell ref="P264:U264"/>
+    <mergeCell ref="V264:X264"/>
+    <mergeCell ref="P240:V241"/>
+    <mergeCell ref="V242:X242"/>
+    <mergeCell ref="P255:V256"/>
+    <mergeCell ref="V257:X257"/>
+    <mergeCell ref="M257:O257"/>
+    <mergeCell ref="P257:U257"/>
+    <mergeCell ref="P248:V249"/>
+    <mergeCell ref="V250:X250"/>
+    <mergeCell ref="P284:V285"/>
+    <mergeCell ref="M286:O286"/>
+    <mergeCell ref="P286:U286"/>
+    <mergeCell ref="V286:X286"/>
+    <mergeCell ref="M284:O285"/>
+    <mergeCell ref="P274:V275"/>
+    <mergeCell ref="M276:O276"/>
+    <mergeCell ref="P276:U276"/>
+    <mergeCell ref="V276:X276"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/DOC 2023/FORMATO STATUS.xlsx
+++ b/DOC 2023/FORMATO STATUS.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\DOC 2023\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711C6788-D2C0-479C-BC61-4B876E556610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FEBRERO" sheetId="2" r:id="rId1"/>
     <sheet name="MARZO" sheetId="3" r:id="rId2"/>
     <sheet name="Hoja2" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="127">
   <si>
     <t>DT</t>
   </si>
@@ -404,12 +410,18 @@
   </si>
   <si>
     <t>Martes 20-06-2023</t>
+  </si>
+  <si>
+    <t>Jueves 22-06-2023</t>
+  </si>
+  <si>
+    <t>POS0267</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
@@ -981,6 +993,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -990,6 +1008,12 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -997,18 +1021,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1312,14 +1324,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:Z124"/>
   <sheetViews>
     <sheetView topLeftCell="J103" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
@@ -1341,72 +1353,72 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C2" s="85" t="s">
+      <c r="C2" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="P2" s="79" t="s">
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="P2" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="79"/>
-      <c r="T2" s="79"/>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="81"/>
+      <c r="S2" s="81"/>
+      <c r="T2" s="81"/>
+      <c r="U2" s="81"/>
+      <c r="V2" s="81"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="P3" s="79"/>
-      <c r="Q3" s="79"/>
-      <c r="R3" s="79"/>
-      <c r="S3" s="79"/>
-      <c r="T3" s="79"/>
-      <c r="U3" s="79"/>
-      <c r="V3" s="79"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="81"/>
+      <c r="S3" s="81"/>
+      <c r="T3" s="81"/>
+      <c r="U3" s="81"/>
+      <c r="V3" s="81"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="81" t="s">
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="87">
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="84">
         <v>44965</v>
       </c>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="M4" s="80" t="s">
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="M4" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="80"/>
-      <c r="O4" s="80"/>
-      <c r="P4" s="81" t="s">
+      <c r="N4" s="82"/>
+      <c r="O4" s="82"/>
+      <c r="P4" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="81"/>
-      <c r="R4" s="81"/>
-      <c r="S4" s="81"/>
+      <c r="Q4" s="83"/>
+      <c r="R4" s="83"/>
+      <c r="S4" s="83"/>
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
-      <c r="V4" s="82">
+      <c r="V4" s="86">
         <v>44601</v>
       </c>
-      <c r="W4" s="83"/>
-      <c r="X4" s="84"/>
+      <c r="W4" s="87"/>
+      <c r="X4" s="88"/>
     </row>
     <row r="5" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -1821,72 +1833,72 @@
       <c r="X15" s="4"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C22" s="85" t="s">
+      <c r="C22" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="85"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="85"/>
-      <c r="P22" s="79" t="s">
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
+      <c r="P22" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="Q22" s="79"/>
-      <c r="R22" s="79"/>
-      <c r="S22" s="79"/>
-      <c r="T22" s="79"/>
-      <c r="U22" s="79"/>
-      <c r="V22" s="79"/>
+      <c r="Q22" s="81"/>
+      <c r="R22" s="81"/>
+      <c r="S22" s="81"/>
+      <c r="T22" s="81"/>
+      <c r="U22" s="81"/>
+      <c r="V22" s="81"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="P23" s="79"/>
-      <c r="Q23" s="79"/>
-      <c r="R23" s="79"/>
-      <c r="S23" s="79"/>
-      <c r="T23" s="79"/>
-      <c r="U23" s="79"/>
-      <c r="V23" s="79"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="P23" s="81"/>
+      <c r="Q23" s="81"/>
+      <c r="R23" s="81"/>
+      <c r="S23" s="81"/>
+      <c r="T23" s="81"/>
+      <c r="U23" s="81"/>
+      <c r="V23" s="81"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="80" t="s">
+      <c r="A24" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="80"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="81" t="s">
+      <c r="B24" s="82"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="81"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="87">
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="84">
         <v>44965</v>
       </c>
-      <c r="I24" s="88"/>
-      <c r="J24" s="88"/>
-      <c r="M24" s="80" t="s">
+      <c r="I24" s="85"/>
+      <c r="J24" s="85"/>
+      <c r="M24" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N24" s="80"/>
-      <c r="O24" s="80"/>
-      <c r="P24" s="81" t="s">
+      <c r="N24" s="82"/>
+      <c r="O24" s="82"/>
+      <c r="P24" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q24" s="81"/>
-      <c r="R24" s="81"/>
-      <c r="S24" s="81"/>
+      <c r="Q24" s="83"/>
+      <c r="R24" s="83"/>
+      <c r="S24" s="83"/>
       <c r="T24" s="18"/>
       <c r="U24" s="18"/>
-      <c r="V24" s="82">
+      <c r="V24" s="86">
         <v>44971</v>
       </c>
-      <c r="W24" s="83"/>
-      <c r="X24" s="84"/>
+      <c r="W24" s="87"/>
+      <c r="X24" s="88"/>
     </row>
     <row r="25" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -2341,72 +2353,72 @@
       <c r="X35" s="4"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C38" s="85" t="s">
+      <c r="C38" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="85"/>
-      <c r="E38" s="85"/>
-      <c r="F38" s="85"/>
-      <c r="G38" s="85"/>
-      <c r="P38" s="79" t="s">
+      <c r="D38" s="79"/>
+      <c r="E38" s="79"/>
+      <c r="F38" s="79"/>
+      <c r="G38" s="79"/>
+      <c r="P38" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="Q38" s="79"/>
-      <c r="R38" s="79"/>
-      <c r="S38" s="79"/>
-      <c r="T38" s="79"/>
-      <c r="U38" s="79"/>
-      <c r="V38" s="79"/>
+      <c r="Q38" s="81"/>
+      <c r="R38" s="81"/>
+      <c r="S38" s="81"/>
+      <c r="T38" s="81"/>
+      <c r="U38" s="81"/>
+      <c r="V38" s="81"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C39" s="86"/>
-      <c r="D39" s="86"/>
-      <c r="E39" s="86"/>
-      <c r="F39" s="86"/>
-      <c r="G39" s="86"/>
-      <c r="P39" s="79"/>
-      <c r="Q39" s="79"/>
-      <c r="R39" s="79"/>
-      <c r="S39" s="79"/>
-      <c r="T39" s="79"/>
-      <c r="U39" s="79"/>
-      <c r="V39" s="79"/>
+      <c r="C39" s="80"/>
+      <c r="D39" s="80"/>
+      <c r="E39" s="80"/>
+      <c r="F39" s="80"/>
+      <c r="G39" s="80"/>
+      <c r="P39" s="81"/>
+      <c r="Q39" s="81"/>
+      <c r="R39" s="81"/>
+      <c r="S39" s="81"/>
+      <c r="T39" s="81"/>
+      <c r="U39" s="81"/>
+      <c r="V39" s="81"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A40" s="80" t="s">
+      <c r="A40" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="80"/>
-      <c r="C40" s="80"/>
-      <c r="D40" s="81" t="s">
+      <c r="B40" s="82"/>
+      <c r="C40" s="82"/>
+      <c r="D40" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E40" s="81"/>
-      <c r="F40" s="81"/>
-      <c r="G40" s="81"/>
-      <c r="H40" s="87">
+      <c r="E40" s="83"/>
+      <c r="F40" s="83"/>
+      <c r="G40" s="83"/>
+      <c r="H40" s="84">
         <v>44972</v>
       </c>
-      <c r="I40" s="88"/>
-      <c r="J40" s="88"/>
-      <c r="M40" s="80" t="s">
+      <c r="I40" s="85"/>
+      <c r="J40" s="85"/>
+      <c r="M40" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N40" s="80"/>
-      <c r="O40" s="80"/>
-      <c r="P40" s="81" t="s">
+      <c r="N40" s="82"/>
+      <c r="O40" s="82"/>
+      <c r="P40" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q40" s="81"/>
-      <c r="R40" s="81"/>
-      <c r="S40" s="81"/>
+      <c r="Q40" s="83"/>
+      <c r="R40" s="83"/>
+      <c r="S40" s="83"/>
       <c r="T40" s="18"/>
       <c r="U40" s="18"/>
-      <c r="V40" s="82">
+      <c r="V40" s="86">
         <v>44973</v>
       </c>
-      <c r="W40" s="83"/>
-      <c r="X40" s="84"/>
+      <c r="W40" s="87"/>
+      <c r="X40" s="88"/>
     </row>
     <row r="41" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
@@ -2821,72 +2833,72 @@
       <c r="X51" s="4"/>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C54" s="85" t="s">
+      <c r="C54" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="D54" s="85"/>
-      <c r="E54" s="85"/>
-      <c r="F54" s="85"/>
-      <c r="G54" s="85"/>
-      <c r="P54" s="79" t="s">
+      <c r="D54" s="79"/>
+      <c r="E54" s="79"/>
+      <c r="F54" s="79"/>
+      <c r="G54" s="79"/>
+      <c r="P54" s="81" t="s">
         <v>56</v>
       </c>
-      <c r="Q54" s="79"/>
-      <c r="R54" s="79"/>
-      <c r="S54" s="79"/>
-      <c r="T54" s="79"/>
-      <c r="U54" s="79"/>
-      <c r="V54" s="79"/>
+      <c r="Q54" s="81"/>
+      <c r="R54" s="81"/>
+      <c r="S54" s="81"/>
+      <c r="T54" s="81"/>
+      <c r="U54" s="81"/>
+      <c r="V54" s="81"/>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C55" s="86"/>
-      <c r="D55" s="86"/>
-      <c r="E55" s="86"/>
-      <c r="F55" s="86"/>
-      <c r="G55" s="86"/>
-      <c r="P55" s="79"/>
-      <c r="Q55" s="79"/>
-      <c r="R55" s="79"/>
-      <c r="S55" s="79"/>
-      <c r="T55" s="79"/>
-      <c r="U55" s="79"/>
-      <c r="V55" s="79"/>
+      <c r="C55" s="80"/>
+      <c r="D55" s="80"/>
+      <c r="E55" s="80"/>
+      <c r="F55" s="80"/>
+      <c r="G55" s="80"/>
+      <c r="P55" s="81"/>
+      <c r="Q55" s="81"/>
+      <c r="R55" s="81"/>
+      <c r="S55" s="81"/>
+      <c r="T55" s="81"/>
+      <c r="U55" s="81"/>
+      <c r="V55" s="81"/>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A56" s="80" t="s">
+      <c r="A56" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="80"/>
-      <c r="C56" s="80"/>
-      <c r="D56" s="81" t="s">
+      <c r="B56" s="82"/>
+      <c r="C56" s="82"/>
+      <c r="D56" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E56" s="81"/>
-      <c r="F56" s="81"/>
-      <c r="G56" s="81"/>
-      <c r="H56" s="87">
+      <c r="E56" s="83"/>
+      <c r="F56" s="83"/>
+      <c r="G56" s="83"/>
+      <c r="H56" s="84">
         <v>44974</v>
       </c>
-      <c r="I56" s="88"/>
-      <c r="J56" s="88"/>
-      <c r="M56" s="80" t="s">
+      <c r="I56" s="85"/>
+      <c r="J56" s="85"/>
+      <c r="M56" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N56" s="80"/>
-      <c r="O56" s="80"/>
-      <c r="P56" s="81" t="s">
+      <c r="N56" s="82"/>
+      <c r="O56" s="82"/>
+      <c r="P56" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q56" s="81"/>
-      <c r="R56" s="81"/>
-      <c r="S56" s="81"/>
+      <c r="Q56" s="83"/>
+      <c r="R56" s="83"/>
+      <c r="S56" s="83"/>
       <c r="T56" s="18"/>
       <c r="U56" s="18"/>
-      <c r="V56" s="82">
+      <c r="V56" s="86">
         <v>44975</v>
       </c>
-      <c r="W56" s="83"/>
-      <c r="X56" s="84"/>
+      <c r="W56" s="87"/>
+      <c r="X56" s="88"/>
     </row>
     <row r="57" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
@@ -3341,72 +3353,72 @@
       <c r="X67" s="4"/>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C70" s="85" t="s">
+      <c r="C70" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="D70" s="85"/>
-      <c r="E70" s="85"/>
-      <c r="F70" s="85"/>
-      <c r="G70" s="85"/>
-      <c r="P70" s="79" t="s">
+      <c r="D70" s="79"/>
+      <c r="E70" s="79"/>
+      <c r="F70" s="79"/>
+      <c r="G70" s="79"/>
+      <c r="P70" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="Q70" s="79"/>
-      <c r="R70" s="79"/>
-      <c r="S70" s="79"/>
-      <c r="T70" s="79"/>
-      <c r="U70" s="79"/>
-      <c r="V70" s="79"/>
+      <c r="Q70" s="81"/>
+      <c r="R70" s="81"/>
+      <c r="S70" s="81"/>
+      <c r="T70" s="81"/>
+      <c r="U70" s="81"/>
+      <c r="V70" s="81"/>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C71" s="86"/>
-      <c r="D71" s="86"/>
-      <c r="E71" s="86"/>
-      <c r="F71" s="86"/>
-      <c r="G71" s="86"/>
-      <c r="P71" s="79"/>
-      <c r="Q71" s="79"/>
-      <c r="R71" s="79"/>
-      <c r="S71" s="79"/>
-      <c r="T71" s="79"/>
-      <c r="U71" s="79"/>
-      <c r="V71" s="79"/>
+      <c r="C71" s="80"/>
+      <c r="D71" s="80"/>
+      <c r="E71" s="80"/>
+      <c r="F71" s="80"/>
+      <c r="G71" s="80"/>
+      <c r="P71" s="81"/>
+      <c r="Q71" s="81"/>
+      <c r="R71" s="81"/>
+      <c r="S71" s="81"/>
+      <c r="T71" s="81"/>
+      <c r="U71" s="81"/>
+      <c r="V71" s="81"/>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A72" s="80" t="s">
+      <c r="A72" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B72" s="80"/>
-      <c r="C72" s="80"/>
-      <c r="D72" s="81" t="s">
+      <c r="B72" s="82"/>
+      <c r="C72" s="82"/>
+      <c r="D72" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E72" s="81"/>
-      <c r="F72" s="81"/>
-      <c r="G72" s="81"/>
-      <c r="H72" s="87">
+      <c r="E72" s="83"/>
+      <c r="F72" s="83"/>
+      <c r="G72" s="83"/>
+      <c r="H72" s="84">
         <v>44979</v>
       </c>
-      <c r="I72" s="88"/>
-      <c r="J72" s="88"/>
-      <c r="M72" s="80" t="s">
+      <c r="I72" s="85"/>
+      <c r="J72" s="85"/>
+      <c r="M72" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N72" s="80"/>
-      <c r="O72" s="80"/>
-      <c r="P72" s="81" t="s">
+      <c r="N72" s="82"/>
+      <c r="O72" s="82"/>
+      <c r="P72" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q72" s="81"/>
-      <c r="R72" s="81"/>
-      <c r="S72" s="81"/>
+      <c r="Q72" s="83"/>
+      <c r="R72" s="83"/>
+      <c r="S72" s="83"/>
       <c r="T72" s="18"/>
       <c r="U72" s="18"/>
-      <c r="V72" s="82">
+      <c r="V72" s="86">
         <v>44980</v>
       </c>
-      <c r="W72" s="83"/>
-      <c r="X72" s="84"/>
+      <c r="W72" s="87"/>
+      <c r="X72" s="88"/>
     </row>
     <row r="73" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
@@ -3777,72 +3789,72 @@
       <c r="X83" s="4"/>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C87" s="85" t="s">
+      <c r="C87" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="D87" s="85"/>
-      <c r="E87" s="85"/>
-      <c r="F87" s="85"/>
-      <c r="G87" s="85"/>
-      <c r="P87" s="79" t="s">
+      <c r="D87" s="79"/>
+      <c r="E87" s="79"/>
+      <c r="F87" s="79"/>
+      <c r="G87" s="79"/>
+      <c r="P87" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="Q87" s="79"/>
-      <c r="R87" s="79"/>
-      <c r="S87" s="79"/>
-      <c r="T87" s="79"/>
-      <c r="U87" s="79"/>
-      <c r="V87" s="79"/>
+      <c r="Q87" s="81"/>
+      <c r="R87" s="81"/>
+      <c r="S87" s="81"/>
+      <c r="T87" s="81"/>
+      <c r="U87" s="81"/>
+      <c r="V87" s="81"/>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C88" s="86"/>
-      <c r="D88" s="86"/>
-      <c r="E88" s="86"/>
-      <c r="F88" s="86"/>
-      <c r="G88" s="86"/>
-      <c r="P88" s="79"/>
-      <c r="Q88" s="79"/>
-      <c r="R88" s="79"/>
-      <c r="S88" s="79"/>
-      <c r="T88" s="79"/>
-      <c r="U88" s="79"/>
-      <c r="V88" s="79"/>
+      <c r="C88" s="80"/>
+      <c r="D88" s="80"/>
+      <c r="E88" s="80"/>
+      <c r="F88" s="80"/>
+      <c r="G88" s="80"/>
+      <c r="P88" s="81"/>
+      <c r="Q88" s="81"/>
+      <c r="R88" s="81"/>
+      <c r="S88" s="81"/>
+      <c r="T88" s="81"/>
+      <c r="U88" s="81"/>
+      <c r="V88" s="81"/>
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A89" s="80" t="s">
+      <c r="A89" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B89" s="80"/>
-      <c r="C89" s="80"/>
-      <c r="D89" s="81" t="s">
+      <c r="B89" s="82"/>
+      <c r="C89" s="82"/>
+      <c r="D89" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E89" s="81"/>
-      <c r="F89" s="81"/>
-      <c r="G89" s="81"/>
-      <c r="H89" s="87">
+      <c r="E89" s="83"/>
+      <c r="F89" s="83"/>
+      <c r="G89" s="83"/>
+      <c r="H89" s="84">
         <v>44981</v>
       </c>
-      <c r="I89" s="88"/>
-      <c r="J89" s="88"/>
-      <c r="M89" s="80" t="s">
+      <c r="I89" s="85"/>
+      <c r="J89" s="85"/>
+      <c r="M89" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N89" s="80"/>
-      <c r="O89" s="80"/>
-      <c r="P89" s="81" t="s">
+      <c r="N89" s="82"/>
+      <c r="O89" s="82"/>
+      <c r="P89" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q89" s="81"/>
-      <c r="R89" s="81"/>
-      <c r="S89" s="81"/>
+      <c r="Q89" s="83"/>
+      <c r="R89" s="83"/>
+      <c r="S89" s="83"/>
       <c r="T89" s="18"/>
       <c r="U89" s="18"/>
-      <c r="V89" s="82">
+      <c r="V89" s="86">
         <v>44980</v>
       </c>
-      <c r="W89" s="83"/>
-      <c r="X89" s="84"/>
+      <c r="W89" s="87"/>
+      <c r="X89" s="88"/>
     </row>
     <row r="90" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
@@ -4297,72 +4309,72 @@
       <c r="X100" s="4"/>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C104" s="85" t="s">
+      <c r="C104" s="79" t="s">
         <v>70</v>
       </c>
-      <c r="D104" s="85"/>
-      <c r="E104" s="85"/>
-      <c r="F104" s="85"/>
-      <c r="G104" s="85"/>
-      <c r="P104" s="79" t="s">
+      <c r="D104" s="79"/>
+      <c r="E104" s="79"/>
+      <c r="F104" s="79"/>
+      <c r="G104" s="79"/>
+      <c r="P104" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="Q104" s="79"/>
-      <c r="R104" s="79"/>
-      <c r="S104" s="79"/>
-      <c r="T104" s="79"/>
-      <c r="U104" s="79"/>
-      <c r="V104" s="79"/>
+      <c r="Q104" s="81"/>
+      <c r="R104" s="81"/>
+      <c r="S104" s="81"/>
+      <c r="T104" s="81"/>
+      <c r="U104" s="81"/>
+      <c r="V104" s="81"/>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C105" s="86"/>
-      <c r="D105" s="86"/>
-      <c r="E105" s="86"/>
-      <c r="F105" s="86"/>
-      <c r="G105" s="86"/>
-      <c r="P105" s="79"/>
-      <c r="Q105" s="79"/>
-      <c r="R105" s="79"/>
-      <c r="S105" s="79"/>
-      <c r="T105" s="79"/>
-      <c r="U105" s="79"/>
-      <c r="V105" s="79"/>
+      <c r="C105" s="80"/>
+      <c r="D105" s="80"/>
+      <c r="E105" s="80"/>
+      <c r="F105" s="80"/>
+      <c r="G105" s="80"/>
+      <c r="P105" s="81"/>
+      <c r="Q105" s="81"/>
+      <c r="R105" s="81"/>
+      <c r="S105" s="81"/>
+      <c r="T105" s="81"/>
+      <c r="U105" s="81"/>
+      <c r="V105" s="81"/>
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A106" s="80" t="s">
+      <c r="A106" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B106" s="80"/>
-      <c r="C106" s="80"/>
-      <c r="D106" s="81" t="s">
+      <c r="B106" s="82"/>
+      <c r="C106" s="82"/>
+      <c r="D106" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E106" s="81"/>
-      <c r="F106" s="81"/>
-      <c r="G106" s="81"/>
-      <c r="H106" s="87">
+      <c r="E106" s="83"/>
+      <c r="F106" s="83"/>
+      <c r="G106" s="83"/>
+      <c r="H106" s="84">
         <v>44979</v>
       </c>
-      <c r="I106" s="88"/>
-      <c r="J106" s="88"/>
-      <c r="M106" s="80" t="s">
+      <c r="I106" s="85"/>
+      <c r="J106" s="85"/>
+      <c r="M106" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N106" s="80"/>
-      <c r="O106" s="80"/>
-      <c r="P106" s="81" t="s">
+      <c r="N106" s="82"/>
+      <c r="O106" s="82"/>
+      <c r="P106" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q106" s="81"/>
-      <c r="R106" s="81"/>
-      <c r="S106" s="81"/>
+      <c r="Q106" s="83"/>
+      <c r="R106" s="83"/>
+      <c r="S106" s="83"/>
       <c r="T106" s="18"/>
       <c r="U106" s="18"/>
-      <c r="V106" s="82" t="s">
+      <c r="V106" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="W106" s="83"/>
-      <c r="X106" s="84"/>
+      <c r="W106" s="87"/>
+      <c r="X106" s="88"/>
     </row>
     <row r="107" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
@@ -4860,6 +4872,54 @@
     <row r="124" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="P38:V39"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="P40:S40"/>
+    <mergeCell ref="V40:X40"/>
+    <mergeCell ref="C38:G39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="C22:G23"/>
+    <mergeCell ref="P22:V23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="C2:G3"/>
+    <mergeCell ref="P2:V3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="C54:G55"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="P54:V55"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="P56:S56"/>
+    <mergeCell ref="V56:X56"/>
+    <mergeCell ref="C70:G71"/>
+    <mergeCell ref="P70:V71"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="D72:G72"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="M72:O72"/>
+    <mergeCell ref="P72:S72"/>
+    <mergeCell ref="V72:X72"/>
+    <mergeCell ref="C87:G88"/>
+    <mergeCell ref="P87:V88"/>
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="D89:G89"/>
+    <mergeCell ref="H89:J89"/>
+    <mergeCell ref="M89:O89"/>
+    <mergeCell ref="P89:S89"/>
+    <mergeCell ref="V89:X89"/>
     <mergeCell ref="C104:G105"/>
     <mergeCell ref="P104:V105"/>
     <mergeCell ref="A106:C106"/>
@@ -4868,54 +4928,6 @@
     <mergeCell ref="M106:O106"/>
     <mergeCell ref="P106:S106"/>
     <mergeCell ref="V106:X106"/>
-    <mergeCell ref="C87:G88"/>
-    <mergeCell ref="P87:V88"/>
-    <mergeCell ref="A89:C89"/>
-    <mergeCell ref="D89:G89"/>
-    <mergeCell ref="H89:J89"/>
-    <mergeCell ref="M89:O89"/>
-    <mergeCell ref="P89:S89"/>
-    <mergeCell ref="V89:X89"/>
-    <mergeCell ref="C70:G71"/>
-    <mergeCell ref="P70:V71"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="D72:G72"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="M72:O72"/>
-    <mergeCell ref="P72:S72"/>
-    <mergeCell ref="V72:X72"/>
-    <mergeCell ref="C54:G55"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="P54:V55"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="P56:S56"/>
-    <mergeCell ref="V56:X56"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="C2:G3"/>
-    <mergeCell ref="P2:V3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="C22:G23"/>
-    <mergeCell ref="P22:V23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="P38:V39"/>
-    <mergeCell ref="M40:O40"/>
-    <mergeCell ref="P40:S40"/>
-    <mergeCell ref="V40:X40"/>
-    <mergeCell ref="C38:G39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="H40:J40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4923,11 +4935,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Z290"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A2:Z302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M278" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M284" sqref="M284:X290"/>
+    <sheetView tabSelected="1" topLeftCell="N290" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X301" sqref="M295:X301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4947,72 +4959,72 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C2" s="85" t="s">
+      <c r="C2" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="P2" s="79" t="s">
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="P2" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="79"/>
-      <c r="T2" s="79"/>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="81"/>
+      <c r="S2" s="81"/>
+      <c r="T2" s="81"/>
+      <c r="U2" s="81"/>
+      <c r="V2" s="81"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="P3" s="79"/>
-      <c r="Q3" s="79"/>
-      <c r="R3" s="79"/>
-      <c r="S3" s="79"/>
-      <c r="T3" s="79"/>
-      <c r="U3" s="79"/>
-      <c r="V3" s="79"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="81"/>
+    